--- a/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/010_要件定義/040_画面設計/画面一覧_A1_プロジェクト管理システム.xlsx
+++ b/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/010_要件定義/040_画面設計/画面一覧_A1_プロジェクト管理システム.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="69">
   <si>
     <t>PJ名</t>
   </si>
@@ -41,14 +41,14 @@
     <rPh sb="0" eb="2">
       <t>サクセイ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>変更</t>
     <rPh sb="0" eb="2">
       <t>ヘンコウ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>変更履歴（ 1　/ 1 ）</t>
@@ -58,21 +58,21 @@
     <rPh sb="0" eb="2">
       <t>ハンスウ</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>変更日</t>
     <rPh sb="0" eb="3">
       <t>ヘンコウビ</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>区分</t>
     <rPh sb="0" eb="2">
       <t>クブン</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>変更内容</t>
@@ -82,28 +82,28 @@
     <rPh sb="2" eb="4">
       <t>ナイヨウ</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>担当者</t>
     <rPh sb="0" eb="3">
       <t>タントウシャ</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>機能名</t>
     <rPh sb="0" eb="3">
       <t>キノウメイ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>画面ID</t>
     <rPh sb="0" eb="2">
       <t>ガメン</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>画面名</t>
@@ -113,14 +113,14 @@
     <rPh sb="2" eb="3">
       <t>メイ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>説明</t>
     <rPh sb="0" eb="2">
       <t>セツメイ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>1. 画面一覧</t>
@@ -130,24 +130,14 @@
     <rPh sb="5" eb="7">
       <t>イチラン</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>機能ID</t>
     <rPh sb="0" eb="2">
       <t>キノウ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>第１．０版</t>
-    <rPh sb="0" eb="1">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ハン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>成果物名</t>
@@ -160,18 +150,18 @@
   </si>
   <si>
     <t>成果物名</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>No.</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>目次</t>
     <rPh sb="0" eb="2">
       <t>モクジ</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>画面一覧</t>
@@ -181,7 +171,7 @@
     <rPh sb="2" eb="4">
       <t>イチラン</t>
     </rPh>
-    <phoneticPr fontId="34"/>
+    <phoneticPr fontId="33"/>
   </si>
   <si>
     <r>
@@ -196,11 +186,11 @@
       </rPr>
       <t>o.</t>
     </r>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>PJ名</t>
-    <phoneticPr fontId="34"/>
+    <phoneticPr fontId="33"/>
   </si>
   <si>
     <t>変更箇所（項番等）</t>
@@ -213,15 +203,15 @@
     <rPh sb="5" eb="8">
       <t>コウバンナド</t>
     </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>A101</t>
     <phoneticPr fontId="10"/>
   </si>
   <si>
-    <t>A101</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
     <t>ログイン</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <r>
@@ -236,7 +226,7 @@
       </rPr>
       <t>01</t>
     </r>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <r>
@@ -251,19 +241,19 @@
       </rPr>
       <t>01</t>
     </r>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>ログアウト</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>WA1010301</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>TOPメニュー</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <r>
@@ -278,37 +268,37 @@
       </rPr>
       <t>01</t>
     </r>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>汎用エラー</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>プロジェクト管理</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>A102</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>プロジェクト登録</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>プロジェクト登録確認</t>
     <rPh sb="8" eb="10">
       <t>カクニン</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>プロジェクト登録完了</t>
     <rPh sb="8" eb="10">
       <t>カンリョウ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <r>
@@ -323,7 +313,7 @@
       </rPr>
       <t>01</t>
     </r>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <r>
@@ -338,52 +328,34 @@
       </rPr>
       <t>02</t>
     </r>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>WA1020103</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>ログアウトする。</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>サンプルプロジェクト</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>サンプルシステム</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>.0版</t>
-    </r>
-    <rPh sb="3" eb="4">
-      <t>ハン</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>新規</t>
     <rPh sb="0" eb="2">
       <t>シンキ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>-</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>(新規作成)</t>
@@ -393,7 +365,7 @@
     <rPh sb="3" eb="5">
       <t>サクセイ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>ログイン中のユーザが選択可能なメニュー一覧を表示する。
@@ -434,7 +406,7 @@
     <rPh sb="68" eb="70">
       <t>サンショウ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>プロジェクトのデータを登録前に確認する。</t>
@@ -447,7 +419,7 @@
     <rPh sb="15" eb="17">
       <t>カクニン</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>プロジェクトのデータが登録されたことを確認する。</t>
@@ -457,7 +429,7 @@
     <rPh sb="19" eb="21">
       <t>カクニン</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>プロジェクトのデータを1件新規入力する。</t>
@@ -467,15 +439,15 @@
     <rPh sb="15" eb="17">
       <t>ニュウリョク</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>プロジェクト管理システム</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>TIS</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>発生したエラーの内容をユーザに表示する。
@@ -501,23 +473,108 @@
     <rPh sb="45" eb="47">
       <t>キョウツウ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>ログインIDとパスワードを入力し、Form認証を行う。</t>
     <rPh sb="13" eb="15">
       <t>ニュウリョク</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>WA1020201</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>プロジェクト検索</t>
+    <rPh sb="6" eb="8">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>プロジェクトの検索条件を入力し、検索条件に該当するプロジェクトの一覧を表示する。</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>TIS</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>変更</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>1.画面一覧</t>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>第１．１版</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ハン</t>
+    </rPh>
+    <phoneticPr fontId="38"/>
+  </si>
+  <si>
+    <t>WA1020202</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>プロジェクト詳細</t>
+    <rPh sb="6" eb="8">
+      <t>ショウサイ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>プロジェクトのデータを1件表示する。</t>
+    <rPh sb="12" eb="13">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>プロジェクト検索・詳細画面追加</t>
+    <rPh sb="6" eb="8">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="176" formatCode="&quot;第&quot;0.00&quot;版&quot;"/>
     <numFmt numFmtId="177" formatCode="yyyy/mm/dd"/>
+    <numFmt numFmtId="178" formatCode="0.00&quot;版&quot;"/>
+    <numFmt numFmtId="179" formatCode="0.0&quot;版&quot;"/>
   </numFmts>
   <fonts count="39" x14ac:knownFonts="1">
     <font>
@@ -530,12 +587,6 @@
       <sz val="9"/>
       <name val="ＭＳ 明朝"/>
       <family val="1"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
       <charset val="128"/>
     </font>
     <font>
@@ -786,6 +837,12 @@
       <color indexed="55"/>
       <name val="ＭＳ 明朝"/>
       <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
     </font>
   </fonts>
@@ -1234,25 +1291,43 @@
   </borders>
   <cellStyleXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1261,113 +1336,95 @@
     <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="192">
+  <cellXfs count="204">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
@@ -1379,8 +1436,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="41" applyFont="1"/>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="41" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="41" applyFont="1"/>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="41" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1388,7 +1445,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1405,32 +1462,32 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="45" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="45" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1441,33 +1498,33 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1482,25 +1539,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1553,8 +1610,125 @@
     <xf numFmtId="0" fontId="0" fillId="25" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="31" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="31" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="25" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="10" xfId="45" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -1664,80 +1838,8 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="25" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -1748,11 +1850,23 @@
     <xf numFmtId="177" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1769,14 +1883,59 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="13" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="14" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="15" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="19" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="0" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="22" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="16" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="17" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="18" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1806,15 +1965,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1822,63 +1972,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="24" borderId="13" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="24" borderId="14" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="24" borderId="15" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="24" borderId="19" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="24" borderId="0" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="24" borderId="22" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="24" borderId="16" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="24" borderId="17" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="24" borderId="18" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="48">
@@ -1965,7 +2058,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7953375" y="285750"/>
+          <a:off x="8382000" y="285750"/>
           <a:ext cx="1400175" cy="590550"/>
           <a:chOff x="591" y="61"/>
           <a:chExt cx="147" cy="62"/>
@@ -2676,7 +2769,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="8.83203125" style="17"/>
+    <col min="1" max="9" width="8.83203125" style="17"/>
+    <col min="10" max="10" width="16.33203125" style="17" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.83203125" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2714,7 +2809,7 @@
       <c r="G23" s="21"/>
       <c r="H23" s="21"/>
       <c r="J23" s="6" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2728,7 +2823,7 @@
       <c r="H25" s="21"/>
       <c r="I25" s="83">
         <f ca="1">IF(INDIRECT("変更履歴!D8")="","",MAX(INDIRECT("変更履歴!D8"):INDIRECT("変更履歴!F33")))</f>
-        <v>43592</v>
+        <v>43803</v>
       </c>
       <c r="J25" s="83"/>
       <c r="K25" s="83"/>
@@ -3304,10 +3399,10 @@
   <mergeCells count="1">
     <mergeCell ref="I25:K25"/>
   </mergeCells>
-  <phoneticPr fontId="11"/>
+  <phoneticPr fontId="10"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="98" fitToHeight="0" orientation="landscape" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -3330,57 +3425,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="90" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="93" t="s">
-        <v>46</v>
-      </c>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
-      <c r="L1" s="94"/>
-      <c r="M1" s="94"/>
-      <c r="N1" s="95"/>
-      <c r="O1" s="99" t="s">
+      <c r="A1" s="129" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="130"/>
+      <c r="C1" s="130"/>
+      <c r="D1" s="131"/>
+      <c r="E1" s="132" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="133"/>
+      <c r="G1" s="133"/>
+      <c r="H1" s="133"/>
+      <c r="I1" s="133"/>
+      <c r="J1" s="133"/>
+      <c r="K1" s="133"/>
+      <c r="L1" s="133"/>
+      <c r="M1" s="133"/>
+      <c r="N1" s="134"/>
+      <c r="O1" s="138" t="s">
+        <v>17</v>
+      </c>
+      <c r="P1" s="139"/>
+      <c r="Q1" s="139"/>
+      <c r="R1" s="140"/>
+      <c r="S1" s="147" t="s">
+        <v>23</v>
+      </c>
+      <c r="T1" s="148"/>
+      <c r="U1" s="148"/>
+      <c r="V1" s="148"/>
+      <c r="W1" s="148"/>
+      <c r="X1" s="148"/>
+      <c r="Y1" s="148"/>
+      <c r="Z1" s="149"/>
+      <c r="AA1" s="129" t="s">
         <v>18</v>
       </c>
-      <c r="P1" s="100"/>
-      <c r="Q1" s="100"/>
-      <c r="R1" s="101"/>
-      <c r="S1" s="108" t="s">
-        <v>24</v>
-      </c>
-      <c r="T1" s="109"/>
-      <c r="U1" s="109"/>
-      <c r="V1" s="109"/>
-      <c r="W1" s="109"/>
-      <c r="X1" s="109"/>
-      <c r="Y1" s="109"/>
-      <c r="Z1" s="110"/>
-      <c r="AA1" s="90" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB1" s="92"/>
-      <c r="AC1" s="117" t="str">
+      <c r="AB1" s="131"/>
+      <c r="AC1" s="156" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="118"/>
-      <c r="AE1" s="118"/>
-      <c r="AF1" s="119"/>
-      <c r="AG1" s="84">
+      <c r="AD1" s="157"/>
+      <c r="AE1" s="157"/>
+      <c r="AF1" s="158"/>
+      <c r="AG1" s="123">
         <f>IF(D8="","",D8)</f>
         <v>43592</v>
       </c>
-      <c r="AH1" s="85"/>
-      <c r="AI1" s="86"/>
+      <c r="AH1" s="124"/>
+      <c r="AI1" s="125"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="1"/>
@@ -3388,53 +3483,53 @@
       <c r="AN1" s="2"/>
     </row>
     <row r="2" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="90" t="s">
+      <c r="A2" s="129" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="93" t="s">
-        <v>47</v>
-      </c>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="94"/>
-      <c r="J2" s="94"/>
-      <c r="K2" s="94"/>
-      <c r="L2" s="94"/>
-      <c r="M2" s="94"/>
-      <c r="N2" s="95"/>
-      <c r="O2" s="102"/>
-      <c r="P2" s="103"/>
-      <c r="Q2" s="103"/>
-      <c r="R2" s="104"/>
-      <c r="S2" s="111"/>
-      <c r="T2" s="112"/>
-      <c r="U2" s="112"/>
-      <c r="V2" s="112"/>
-      <c r="W2" s="112"/>
-      <c r="X2" s="112"/>
-      <c r="Y2" s="112"/>
-      <c r="Z2" s="113"/>
-      <c r="AA2" s="90" t="s">
-        <v>20</v>
-      </c>
-      <c r="AB2" s="92"/>
-      <c r="AC2" s="96" t="str">
+      <c r="B2" s="130"/>
+      <c r="C2" s="130"/>
+      <c r="D2" s="131"/>
+      <c r="E2" s="132" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="133"/>
+      <c r="G2" s="133"/>
+      <c r="H2" s="133"/>
+      <c r="I2" s="133"/>
+      <c r="J2" s="133"/>
+      <c r="K2" s="133"/>
+      <c r="L2" s="133"/>
+      <c r="M2" s="133"/>
+      <c r="N2" s="134"/>
+      <c r="O2" s="141"/>
+      <c r="P2" s="142"/>
+      <c r="Q2" s="142"/>
+      <c r="R2" s="143"/>
+      <c r="S2" s="150"/>
+      <c r="T2" s="151"/>
+      <c r="U2" s="151"/>
+      <c r="V2" s="151"/>
+      <c r="W2" s="151"/>
+      <c r="X2" s="151"/>
+      <c r="Y2" s="151"/>
+      <c r="Z2" s="152"/>
+      <c r="AA2" s="129" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB2" s="131"/>
+      <c r="AC2" s="135" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
-        <v/>
-      </c>
-      <c r="AD2" s="97"/>
-      <c r="AE2" s="97"/>
-      <c r="AF2" s="98"/>
-      <c r="AG2" s="84" t="str">
+        <v>TIS</v>
+      </c>
+      <c r="AD2" s="136"/>
+      <c r="AE2" s="136"/>
+      <c r="AF2" s="137"/>
+      <c r="AG2" s="123">
         <f>IF(D9="","",MAX(D9:F33))</f>
-        <v/>
-      </c>
-      <c r="AH2" s="85"/>
-      <c r="AI2" s="86"/>
+        <v>43803</v>
+      </c>
+      <c r="AH2" s="124"/>
+      <c r="AI2" s="125"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
@@ -3442,45 +3537,45 @@
       <c r="AN2" s="1"/>
     </row>
     <row r="3" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="90" t="s">
+      <c r="A3" s="129" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="93" t="s">
-        <v>56</v>
-      </c>
-      <c r="F3" s="94"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="94"/>
-      <c r="I3" s="94"/>
-      <c r="J3" s="94"/>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94"/>
-      <c r="M3" s="94"/>
-      <c r="N3" s="95"/>
-      <c r="O3" s="105"/>
-      <c r="P3" s="106"/>
-      <c r="Q3" s="106"/>
-      <c r="R3" s="107"/>
-      <c r="S3" s="114"/>
-      <c r="T3" s="115"/>
-      <c r="U3" s="115"/>
-      <c r="V3" s="115"/>
-      <c r="W3" s="115"/>
-      <c r="X3" s="115"/>
-      <c r="Y3" s="115"/>
-      <c r="Z3" s="116"/>
-      <c r="AA3" s="90"/>
-      <c r="AB3" s="92"/>
-      <c r="AC3" s="117"/>
-      <c r="AD3" s="118"/>
-      <c r="AE3" s="118"/>
-      <c r="AF3" s="119"/>
-      <c r="AG3" s="84"/>
-      <c r="AH3" s="85"/>
-      <c r="AI3" s="86"/>
+      <c r="B3" s="130"/>
+      <c r="C3" s="130"/>
+      <c r="D3" s="131"/>
+      <c r="E3" s="132" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" s="133"/>
+      <c r="G3" s="133"/>
+      <c r="H3" s="133"/>
+      <c r="I3" s="133"/>
+      <c r="J3" s="133"/>
+      <c r="K3" s="133"/>
+      <c r="L3" s="133"/>
+      <c r="M3" s="133"/>
+      <c r="N3" s="134"/>
+      <c r="O3" s="144"/>
+      <c r="P3" s="145"/>
+      <c r="Q3" s="145"/>
+      <c r="R3" s="146"/>
+      <c r="S3" s="153"/>
+      <c r="T3" s="154"/>
+      <c r="U3" s="154"/>
+      <c r="V3" s="154"/>
+      <c r="W3" s="154"/>
+      <c r="X3" s="154"/>
+      <c r="Y3" s="154"/>
+      <c r="Z3" s="155"/>
+      <c r="AA3" s="129"/>
+      <c r="AB3" s="131"/>
+      <c r="AC3" s="156"/>
+      <c r="AD3" s="157"/>
+      <c r="AE3" s="157"/>
+      <c r="AF3" s="158"/>
+      <c r="AG3" s="123"/>
+      <c r="AH3" s="124"/>
+      <c r="AI3" s="125"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
@@ -3515,1189 +3610,1047 @@
     </row>
     <row r="7" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="87" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="126" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="88"/>
-      <c r="D7" s="87" t="s">
+      <c r="C7" s="127"/>
+      <c r="D7" s="126" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="89"/>
-      <c r="F7" s="88"/>
-      <c r="G7" s="87" t="s">
+      <c r="E7" s="128"/>
+      <c r="F7" s="127"/>
+      <c r="G7" s="126" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="89"/>
-      <c r="I7" s="88"/>
-      <c r="J7" s="87" t="s">
-        <v>27</v>
-      </c>
-      <c r="K7" s="89"/>
-      <c r="L7" s="89"/>
-      <c r="M7" s="89"/>
-      <c r="N7" s="89"/>
-      <c r="O7" s="89"/>
-      <c r="P7" s="88"/>
-      <c r="Q7" s="87" t="s">
+      <c r="H7" s="128"/>
+      <c r="I7" s="127"/>
+      <c r="J7" s="126" t="s">
+        <v>26</v>
+      </c>
+      <c r="K7" s="128"/>
+      <c r="L7" s="128"/>
+      <c r="M7" s="128"/>
+      <c r="N7" s="128"/>
+      <c r="O7" s="128"/>
+      <c r="P7" s="127"/>
+      <c r="Q7" s="126" t="s">
         <v>9</v>
       </c>
-      <c r="R7" s="89"/>
-      <c r="S7" s="89"/>
-      <c r="T7" s="89"/>
-      <c r="U7" s="89"/>
-      <c r="V7" s="89"/>
-      <c r="W7" s="89"/>
-      <c r="X7" s="89"/>
-      <c r="Y7" s="89"/>
-      <c r="Z7" s="89"/>
-      <c r="AA7" s="89"/>
-      <c r="AB7" s="89"/>
-      <c r="AC7" s="89"/>
-      <c r="AD7" s="89"/>
-      <c r="AE7" s="88"/>
-      <c r="AF7" s="87" t="s">
+      <c r="R7" s="128"/>
+      <c r="S7" s="128"/>
+      <c r="T7" s="128"/>
+      <c r="U7" s="128"/>
+      <c r="V7" s="128"/>
+      <c r="W7" s="128"/>
+      <c r="X7" s="128"/>
+      <c r="Y7" s="128"/>
+      <c r="Z7" s="128"/>
+      <c r="AA7" s="128"/>
+      <c r="AB7" s="128"/>
+      <c r="AC7" s="128"/>
+      <c r="AD7" s="128"/>
+      <c r="AE7" s="127"/>
+      <c r="AF7" s="126" t="s">
         <v>10</v>
       </c>
-      <c r="AG7" s="89"/>
-      <c r="AH7" s="89"/>
-      <c r="AI7" s="88"/>
+      <c r="AG7" s="128"/>
+      <c r="AH7" s="128"/>
+      <c r="AI7" s="127"/>
     </row>
     <row r="8" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="81">
         <v>1</v>
       </c>
-      <c r="B8" s="132" t="s">
+      <c r="B8" s="109">
+        <v>1</v>
+      </c>
+      <c r="C8" s="110"/>
+      <c r="D8" s="111">
+        <v>43592</v>
+      </c>
+      <c r="E8" s="112"/>
+      <c r="F8" s="113"/>
+      <c r="G8" s="114" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8" s="115"/>
+      <c r="I8" s="116"/>
+      <c r="J8" s="117" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="133"/>
-      <c r="D8" s="134">
-        <v>43592</v>
-      </c>
-      <c r="E8" s="135"/>
-      <c r="F8" s="136"/>
-      <c r="G8" s="137" t="s">
+      <c r="K8" s="118"/>
+      <c r="L8" s="118"/>
+      <c r="M8" s="118"/>
+      <c r="N8" s="118"/>
+      <c r="O8" s="118"/>
+      <c r="P8" s="119"/>
+      <c r="Q8" s="120" t="s">
         <v>49</v>
       </c>
-      <c r="H8" s="138"/>
-      <c r="I8" s="133"/>
-      <c r="J8" s="139" t="s">
-        <v>50</v>
-      </c>
-      <c r="K8" s="140"/>
-      <c r="L8" s="140"/>
-      <c r="M8" s="140"/>
-      <c r="N8" s="140"/>
-      <c r="O8" s="140"/>
-      <c r="P8" s="141"/>
-      <c r="Q8" s="142" t="s">
-        <v>51</v>
-      </c>
-      <c r="R8" s="143"/>
-      <c r="S8" s="143"/>
-      <c r="T8" s="143"/>
-      <c r="U8" s="143"/>
-      <c r="V8" s="143"/>
-      <c r="W8" s="143"/>
-      <c r="X8" s="143"/>
-      <c r="Y8" s="143"/>
-      <c r="Z8" s="143"/>
-      <c r="AA8" s="143"/>
-      <c r="AB8" s="143"/>
-      <c r="AC8" s="143"/>
-      <c r="AD8" s="143"/>
-      <c r="AE8" s="144"/>
-      <c r="AF8" s="139" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG8" s="140"/>
-      <c r="AH8" s="140"/>
-      <c r="AI8" s="141"/>
+      <c r="R8" s="121"/>
+      <c r="S8" s="121"/>
+      <c r="T8" s="121"/>
+      <c r="U8" s="121"/>
+      <c r="V8" s="121"/>
+      <c r="W8" s="121"/>
+      <c r="X8" s="121"/>
+      <c r="Y8" s="121"/>
+      <c r="Z8" s="121"/>
+      <c r="AA8" s="121"/>
+      <c r="AB8" s="121"/>
+      <c r="AC8" s="121"/>
+      <c r="AD8" s="121"/>
+      <c r="AE8" s="122"/>
+      <c r="AF8" s="117" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG8" s="118"/>
+      <c r="AH8" s="118"/>
+      <c r="AI8" s="119"/>
     </row>
     <row r="9" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="60"/>
-      <c r="B9" s="120"/>
-      <c r="C9" s="121"/>
-      <c r="D9" s="122"/>
-      <c r="E9" s="123"/>
-      <c r="F9" s="124"/>
-      <c r="G9" s="122"/>
-      <c r="H9" s="125"/>
-      <c r="I9" s="121"/>
-      <c r="J9" s="126"/>
-      <c r="K9" s="127"/>
-      <c r="L9" s="127"/>
-      <c r="M9" s="127"/>
-      <c r="N9" s="127"/>
-      <c r="O9" s="127"/>
-      <c r="P9" s="128"/>
-      <c r="Q9" s="129"/>
-      <c r="R9" s="130"/>
-      <c r="S9" s="130"/>
-      <c r="T9" s="130"/>
-      <c r="U9" s="130"/>
-      <c r="V9" s="130"/>
-      <c r="W9" s="130"/>
-      <c r="X9" s="130"/>
-      <c r="Y9" s="130"/>
-      <c r="Z9" s="130"/>
-      <c r="AA9" s="130"/>
-      <c r="AB9" s="130"/>
-      <c r="AC9" s="130"/>
-      <c r="AD9" s="130"/>
-      <c r="AE9" s="131"/>
-      <c r="AF9" s="126"/>
-      <c r="AG9" s="127"/>
-      <c r="AH9" s="127"/>
-      <c r="AI9" s="128"/>
+      <c r="A9" s="60">
+        <v>2</v>
+      </c>
+      <c r="B9" s="98">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C9" s="99"/>
+      <c r="D9" s="86">
+        <v>43803</v>
+      </c>
+      <c r="E9" s="87"/>
+      <c r="F9" s="88"/>
+      <c r="G9" s="100" t="s">
+        <v>62</v>
+      </c>
+      <c r="H9" s="101"/>
+      <c r="I9" s="102"/>
+      <c r="J9" s="103" t="s">
+        <v>63</v>
+      </c>
+      <c r="K9" s="104"/>
+      <c r="L9" s="104"/>
+      <c r="M9" s="104"/>
+      <c r="N9" s="104"/>
+      <c r="O9" s="104"/>
+      <c r="P9" s="105"/>
+      <c r="Q9" s="106" t="s">
+        <v>68</v>
+      </c>
+      <c r="R9" s="107"/>
+      <c r="S9" s="107"/>
+      <c r="T9" s="107"/>
+      <c r="U9" s="107"/>
+      <c r="V9" s="107"/>
+      <c r="W9" s="107"/>
+      <c r="X9" s="107"/>
+      <c r="Y9" s="107"/>
+      <c r="Z9" s="107"/>
+      <c r="AA9" s="107"/>
+      <c r="AB9" s="107"/>
+      <c r="AC9" s="107"/>
+      <c r="AD9" s="107"/>
+      <c r="AE9" s="108"/>
+      <c r="AF9" s="103" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG9" s="104"/>
+      <c r="AH9" s="104"/>
+      <c r="AI9" s="105"/>
     </row>
     <row r="10" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="60"/>
-      <c r="B10" s="120"/>
-      <c r="C10" s="121"/>
-      <c r="D10" s="122"/>
-      <c r="E10" s="123"/>
-      <c r="F10" s="124"/>
-      <c r="G10" s="120"/>
-      <c r="H10" s="125"/>
-      <c r="I10" s="121"/>
-      <c r="J10" s="126"/>
-      <c r="K10" s="127"/>
-      <c r="L10" s="127"/>
-      <c r="M10" s="127"/>
-      <c r="N10" s="127"/>
-      <c r="O10" s="127"/>
-      <c r="P10" s="128"/>
-      <c r="Q10" s="129"/>
-      <c r="R10" s="130"/>
-      <c r="S10" s="130"/>
-      <c r="T10" s="130"/>
-      <c r="U10" s="130"/>
-      <c r="V10" s="130"/>
-      <c r="W10" s="130"/>
-      <c r="X10" s="130"/>
-      <c r="Y10" s="130"/>
-      <c r="Z10" s="130"/>
-      <c r="AA10" s="130"/>
-      <c r="AB10" s="130"/>
-      <c r="AC10" s="130"/>
-      <c r="AD10" s="130"/>
-      <c r="AE10" s="131"/>
-      <c r="AF10" s="126"/>
-      <c r="AG10" s="127"/>
-      <c r="AH10" s="127"/>
-      <c r="AI10" s="128"/>
+      <c r="B10" s="84"/>
+      <c r="C10" s="85"/>
+      <c r="D10" s="86"/>
+      <c r="E10" s="87"/>
+      <c r="F10" s="88"/>
+      <c r="G10" s="89"/>
+      <c r="H10" s="90"/>
+      <c r="I10" s="91"/>
+      <c r="J10" s="92"/>
+      <c r="K10" s="93"/>
+      <c r="L10" s="93"/>
+      <c r="M10" s="93"/>
+      <c r="N10" s="93"/>
+      <c r="O10" s="93"/>
+      <c r="P10" s="94"/>
+      <c r="Q10" s="95"/>
+      <c r="R10" s="96"/>
+      <c r="S10" s="96"/>
+      <c r="T10" s="96"/>
+      <c r="U10" s="96"/>
+      <c r="V10" s="96"/>
+      <c r="W10" s="96"/>
+      <c r="X10" s="96"/>
+      <c r="Y10" s="96"/>
+      <c r="Z10" s="96"/>
+      <c r="AA10" s="96"/>
+      <c r="AB10" s="96"/>
+      <c r="AC10" s="96"/>
+      <c r="AD10" s="96"/>
+      <c r="AE10" s="97"/>
+      <c r="AF10" s="92"/>
+      <c r="AG10" s="93"/>
+      <c r="AH10" s="93"/>
+      <c r="AI10" s="94"/>
     </row>
     <row r="11" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="60"/>
-      <c r="B11" s="120"/>
-      <c r="C11" s="121"/>
-      <c r="D11" s="122"/>
-      <c r="E11" s="123"/>
-      <c r="F11" s="124"/>
-      <c r="G11" s="120"/>
-      <c r="H11" s="125"/>
-      <c r="I11" s="121"/>
-      <c r="J11" s="126"/>
-      <c r="K11" s="127"/>
-      <c r="L11" s="127"/>
-      <c r="M11" s="127"/>
-      <c r="N11" s="127"/>
-      <c r="O11" s="127"/>
-      <c r="P11" s="128"/>
-      <c r="Q11" s="129"/>
-      <c r="R11" s="130"/>
-      <c r="S11" s="130"/>
-      <c r="T11" s="130"/>
-      <c r="U11" s="130"/>
-      <c r="V11" s="130"/>
-      <c r="W11" s="130"/>
-      <c r="X11" s="130"/>
-      <c r="Y11" s="130"/>
-      <c r="Z11" s="130"/>
-      <c r="AA11" s="130"/>
-      <c r="AB11" s="130"/>
-      <c r="AC11" s="130"/>
-      <c r="AD11" s="130"/>
-      <c r="AE11" s="131"/>
-      <c r="AF11" s="126"/>
-      <c r="AG11" s="127"/>
-      <c r="AH11" s="127"/>
-      <c r="AI11" s="128"/>
+      <c r="B11" s="84"/>
+      <c r="C11" s="85"/>
+      <c r="D11" s="86"/>
+      <c r="E11" s="87"/>
+      <c r="F11" s="88"/>
+      <c r="G11" s="89"/>
+      <c r="H11" s="90"/>
+      <c r="I11" s="91"/>
+      <c r="J11" s="92"/>
+      <c r="K11" s="93"/>
+      <c r="L11" s="93"/>
+      <c r="M11" s="93"/>
+      <c r="N11" s="93"/>
+      <c r="O11" s="93"/>
+      <c r="P11" s="94"/>
+      <c r="Q11" s="95"/>
+      <c r="R11" s="96"/>
+      <c r="S11" s="96"/>
+      <c r="T11" s="96"/>
+      <c r="U11" s="96"/>
+      <c r="V11" s="96"/>
+      <c r="W11" s="96"/>
+      <c r="X11" s="96"/>
+      <c r="Y11" s="96"/>
+      <c r="Z11" s="96"/>
+      <c r="AA11" s="96"/>
+      <c r="AB11" s="96"/>
+      <c r="AC11" s="96"/>
+      <c r="AD11" s="96"/>
+      <c r="AE11" s="97"/>
+      <c r="AF11" s="92"/>
+      <c r="AG11" s="93"/>
+      <c r="AH11" s="93"/>
+      <c r="AI11" s="94"/>
     </row>
     <row r="12" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="60"/>
-      <c r="B12" s="120"/>
-      <c r="C12" s="121"/>
-      <c r="D12" s="122"/>
-      <c r="E12" s="123"/>
-      <c r="F12" s="124"/>
-      <c r="G12" s="120"/>
-      <c r="H12" s="125"/>
-      <c r="I12" s="121"/>
-      <c r="J12" s="126"/>
-      <c r="K12" s="127"/>
-      <c r="L12" s="127"/>
-      <c r="M12" s="127"/>
-      <c r="N12" s="127"/>
-      <c r="O12" s="127"/>
-      <c r="P12" s="128"/>
-      <c r="Q12" s="129"/>
-      <c r="R12" s="130"/>
-      <c r="S12" s="130"/>
-      <c r="T12" s="130"/>
-      <c r="U12" s="130"/>
-      <c r="V12" s="130"/>
-      <c r="W12" s="130"/>
-      <c r="X12" s="130"/>
-      <c r="Y12" s="130"/>
-      <c r="Z12" s="130"/>
-      <c r="AA12" s="130"/>
-      <c r="AB12" s="130"/>
-      <c r="AC12" s="130"/>
-      <c r="AD12" s="130"/>
-      <c r="AE12" s="131"/>
-      <c r="AF12" s="126"/>
-      <c r="AG12" s="127"/>
-      <c r="AH12" s="127"/>
-      <c r="AI12" s="128"/>
+      <c r="B12" s="84"/>
+      <c r="C12" s="85"/>
+      <c r="D12" s="86"/>
+      <c r="E12" s="87"/>
+      <c r="F12" s="88"/>
+      <c r="G12" s="89"/>
+      <c r="H12" s="90"/>
+      <c r="I12" s="91"/>
+      <c r="J12" s="92"/>
+      <c r="K12" s="93"/>
+      <c r="L12" s="93"/>
+      <c r="M12" s="93"/>
+      <c r="N12" s="93"/>
+      <c r="O12" s="93"/>
+      <c r="P12" s="94"/>
+      <c r="Q12" s="95"/>
+      <c r="R12" s="96"/>
+      <c r="S12" s="96"/>
+      <c r="T12" s="96"/>
+      <c r="U12" s="96"/>
+      <c r="V12" s="96"/>
+      <c r="W12" s="96"/>
+      <c r="X12" s="96"/>
+      <c r="Y12" s="96"/>
+      <c r="Z12" s="96"/>
+      <c r="AA12" s="96"/>
+      <c r="AB12" s="96"/>
+      <c r="AC12" s="96"/>
+      <c r="AD12" s="96"/>
+      <c r="AE12" s="97"/>
+      <c r="AF12" s="92"/>
+      <c r="AG12" s="93"/>
+      <c r="AH12" s="93"/>
+      <c r="AI12" s="94"/>
     </row>
     <row r="13" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="60"/>
-      <c r="B13" s="120"/>
-      <c r="C13" s="121"/>
-      <c r="D13" s="122"/>
-      <c r="E13" s="123"/>
-      <c r="F13" s="124"/>
-      <c r="G13" s="120"/>
-      <c r="H13" s="125"/>
-      <c r="I13" s="121"/>
-      <c r="J13" s="126"/>
-      <c r="K13" s="127"/>
-      <c r="L13" s="127"/>
-      <c r="M13" s="127"/>
-      <c r="N13" s="127"/>
-      <c r="O13" s="127"/>
-      <c r="P13" s="128"/>
-      <c r="Q13" s="129"/>
-      <c r="R13" s="130"/>
-      <c r="S13" s="130"/>
-      <c r="T13" s="130"/>
-      <c r="U13" s="130"/>
-      <c r="V13" s="130"/>
-      <c r="W13" s="130"/>
-      <c r="X13" s="130"/>
-      <c r="Y13" s="130"/>
-      <c r="Z13" s="130"/>
-      <c r="AA13" s="130"/>
-      <c r="AB13" s="130"/>
-      <c r="AC13" s="130"/>
-      <c r="AD13" s="130"/>
-      <c r="AE13" s="131"/>
-      <c r="AF13" s="126"/>
-      <c r="AG13" s="127"/>
-      <c r="AH13" s="127"/>
-      <c r="AI13" s="128"/>
+      <c r="B13" s="84"/>
+      <c r="C13" s="85"/>
+      <c r="D13" s="86"/>
+      <c r="E13" s="87"/>
+      <c r="F13" s="88"/>
+      <c r="G13" s="89"/>
+      <c r="H13" s="90"/>
+      <c r="I13" s="91"/>
+      <c r="J13" s="92"/>
+      <c r="K13" s="93"/>
+      <c r="L13" s="93"/>
+      <c r="M13" s="93"/>
+      <c r="N13" s="93"/>
+      <c r="O13" s="93"/>
+      <c r="P13" s="94"/>
+      <c r="Q13" s="95"/>
+      <c r="R13" s="96"/>
+      <c r="S13" s="96"/>
+      <c r="T13" s="96"/>
+      <c r="U13" s="96"/>
+      <c r="V13" s="96"/>
+      <c r="W13" s="96"/>
+      <c r="X13" s="96"/>
+      <c r="Y13" s="96"/>
+      <c r="Z13" s="96"/>
+      <c r="AA13" s="96"/>
+      <c r="AB13" s="96"/>
+      <c r="AC13" s="96"/>
+      <c r="AD13" s="96"/>
+      <c r="AE13" s="97"/>
+      <c r="AF13" s="92"/>
+      <c r="AG13" s="93"/>
+      <c r="AH13" s="93"/>
+      <c r="AI13" s="94"/>
     </row>
     <row r="14" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="60"/>
-      <c r="B14" s="120"/>
-      <c r="C14" s="121"/>
-      <c r="D14" s="122"/>
-      <c r="E14" s="123"/>
-      <c r="F14" s="124"/>
-      <c r="G14" s="120"/>
-      <c r="H14" s="125"/>
-      <c r="I14" s="121"/>
-      <c r="J14" s="126"/>
-      <c r="K14" s="127"/>
-      <c r="L14" s="127"/>
-      <c r="M14" s="127"/>
-      <c r="N14" s="127"/>
-      <c r="O14" s="127"/>
-      <c r="P14" s="128"/>
-      <c r="Q14" s="129"/>
-      <c r="R14" s="130"/>
-      <c r="S14" s="130"/>
-      <c r="T14" s="130"/>
-      <c r="U14" s="130"/>
-      <c r="V14" s="130"/>
-      <c r="W14" s="130"/>
-      <c r="X14" s="130"/>
-      <c r="Y14" s="130"/>
-      <c r="Z14" s="130"/>
-      <c r="AA14" s="130"/>
-      <c r="AB14" s="130"/>
-      <c r="AC14" s="130"/>
-      <c r="AD14" s="130"/>
-      <c r="AE14" s="131"/>
-      <c r="AF14" s="126"/>
-      <c r="AG14" s="127"/>
-      <c r="AH14" s="127"/>
-      <c r="AI14" s="128"/>
+      <c r="B14" s="84"/>
+      <c r="C14" s="85"/>
+      <c r="D14" s="86"/>
+      <c r="E14" s="87"/>
+      <c r="F14" s="88"/>
+      <c r="G14" s="89"/>
+      <c r="H14" s="90"/>
+      <c r="I14" s="91"/>
+      <c r="J14" s="92"/>
+      <c r="K14" s="93"/>
+      <c r="L14" s="93"/>
+      <c r="M14" s="93"/>
+      <c r="N14" s="93"/>
+      <c r="O14" s="93"/>
+      <c r="P14" s="94"/>
+      <c r="Q14" s="95"/>
+      <c r="R14" s="96"/>
+      <c r="S14" s="96"/>
+      <c r="T14" s="96"/>
+      <c r="U14" s="96"/>
+      <c r="V14" s="96"/>
+      <c r="W14" s="96"/>
+      <c r="X14" s="96"/>
+      <c r="Y14" s="96"/>
+      <c r="Z14" s="96"/>
+      <c r="AA14" s="96"/>
+      <c r="AB14" s="96"/>
+      <c r="AC14" s="96"/>
+      <c r="AD14" s="96"/>
+      <c r="AE14" s="97"/>
+      <c r="AF14" s="92"/>
+      <c r="AG14" s="93"/>
+      <c r="AH14" s="93"/>
+      <c r="AI14" s="94"/>
     </row>
     <row r="15" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="60"/>
-      <c r="B15" s="120"/>
-      <c r="C15" s="121"/>
-      <c r="D15" s="122"/>
-      <c r="E15" s="123"/>
-      <c r="F15" s="124"/>
-      <c r="G15" s="120"/>
-      <c r="H15" s="125"/>
-      <c r="I15" s="121"/>
-      <c r="J15" s="126"/>
-      <c r="K15" s="127"/>
-      <c r="L15" s="127"/>
-      <c r="M15" s="127"/>
-      <c r="N15" s="127"/>
-      <c r="O15" s="127"/>
-      <c r="P15" s="128"/>
-      <c r="Q15" s="129"/>
-      <c r="R15" s="130"/>
-      <c r="S15" s="130"/>
-      <c r="T15" s="130"/>
-      <c r="U15" s="130"/>
-      <c r="V15" s="130"/>
-      <c r="W15" s="130"/>
-      <c r="X15" s="130"/>
-      <c r="Y15" s="130"/>
-      <c r="Z15" s="130"/>
-      <c r="AA15" s="130"/>
-      <c r="AB15" s="130"/>
-      <c r="AC15" s="130"/>
-      <c r="AD15" s="130"/>
-      <c r="AE15" s="131"/>
-      <c r="AF15" s="126"/>
-      <c r="AG15" s="127"/>
-      <c r="AH15" s="127"/>
-      <c r="AI15" s="128"/>
+      <c r="B15" s="84"/>
+      <c r="C15" s="85"/>
+      <c r="D15" s="86"/>
+      <c r="E15" s="87"/>
+      <c r="F15" s="88"/>
+      <c r="G15" s="89"/>
+      <c r="H15" s="90"/>
+      <c r="I15" s="91"/>
+      <c r="J15" s="92"/>
+      <c r="K15" s="93"/>
+      <c r="L15" s="93"/>
+      <c r="M15" s="93"/>
+      <c r="N15" s="93"/>
+      <c r="O15" s="93"/>
+      <c r="P15" s="94"/>
+      <c r="Q15" s="95"/>
+      <c r="R15" s="96"/>
+      <c r="S15" s="96"/>
+      <c r="T15" s="96"/>
+      <c r="U15" s="96"/>
+      <c r="V15" s="96"/>
+      <c r="W15" s="96"/>
+      <c r="X15" s="96"/>
+      <c r="Y15" s="96"/>
+      <c r="Z15" s="96"/>
+      <c r="AA15" s="96"/>
+      <c r="AB15" s="96"/>
+      <c r="AC15" s="96"/>
+      <c r="AD15" s="96"/>
+      <c r="AE15" s="97"/>
+      <c r="AF15" s="92"/>
+      <c r="AG15" s="93"/>
+      <c r="AH15" s="93"/>
+      <c r="AI15" s="94"/>
     </row>
     <row r="16" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="60"/>
-      <c r="B16" s="120"/>
-      <c r="C16" s="121"/>
-      <c r="D16" s="122"/>
-      <c r="E16" s="123"/>
-      <c r="F16" s="124"/>
-      <c r="G16" s="120"/>
-      <c r="H16" s="125"/>
-      <c r="I16" s="121"/>
-      <c r="J16" s="126"/>
-      <c r="K16" s="127"/>
-      <c r="L16" s="127"/>
-      <c r="M16" s="127"/>
-      <c r="N16" s="127"/>
-      <c r="O16" s="127"/>
-      <c r="P16" s="128"/>
-      <c r="Q16" s="129"/>
-      <c r="R16" s="130"/>
-      <c r="S16" s="130"/>
-      <c r="T16" s="130"/>
-      <c r="U16" s="130"/>
-      <c r="V16" s="130"/>
-      <c r="W16" s="130"/>
-      <c r="X16" s="130"/>
-      <c r="Y16" s="130"/>
-      <c r="Z16" s="130"/>
-      <c r="AA16" s="130"/>
-      <c r="AB16" s="130"/>
-      <c r="AC16" s="130"/>
-      <c r="AD16" s="130"/>
-      <c r="AE16" s="131"/>
-      <c r="AF16" s="126"/>
-      <c r="AG16" s="127"/>
-      <c r="AH16" s="127"/>
-      <c r="AI16" s="128"/>
+      <c r="B16" s="84"/>
+      <c r="C16" s="85"/>
+      <c r="D16" s="86"/>
+      <c r="E16" s="87"/>
+      <c r="F16" s="88"/>
+      <c r="G16" s="89"/>
+      <c r="H16" s="90"/>
+      <c r="I16" s="91"/>
+      <c r="J16" s="92"/>
+      <c r="K16" s="93"/>
+      <c r="L16" s="93"/>
+      <c r="M16" s="93"/>
+      <c r="N16" s="93"/>
+      <c r="O16" s="93"/>
+      <c r="P16" s="94"/>
+      <c r="Q16" s="95"/>
+      <c r="R16" s="96"/>
+      <c r="S16" s="96"/>
+      <c r="T16" s="96"/>
+      <c r="U16" s="96"/>
+      <c r="V16" s="96"/>
+      <c r="W16" s="96"/>
+      <c r="X16" s="96"/>
+      <c r="Y16" s="96"/>
+      <c r="Z16" s="96"/>
+      <c r="AA16" s="96"/>
+      <c r="AB16" s="96"/>
+      <c r="AC16" s="96"/>
+      <c r="AD16" s="96"/>
+      <c r="AE16" s="97"/>
+      <c r="AF16" s="92"/>
+      <c r="AG16" s="93"/>
+      <c r="AH16" s="93"/>
+      <c r="AI16" s="94"/>
     </row>
     <row r="17" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="60"/>
-      <c r="B17" s="120"/>
-      <c r="C17" s="121"/>
-      <c r="D17" s="122"/>
-      <c r="E17" s="123"/>
-      <c r="F17" s="124"/>
-      <c r="G17" s="120"/>
-      <c r="H17" s="125"/>
-      <c r="I17" s="121"/>
-      <c r="J17" s="126"/>
-      <c r="K17" s="127"/>
-      <c r="L17" s="127"/>
-      <c r="M17" s="127"/>
-      <c r="N17" s="127"/>
-      <c r="O17" s="127"/>
-      <c r="P17" s="128"/>
-      <c r="Q17" s="129"/>
-      <c r="R17" s="130"/>
-      <c r="S17" s="130"/>
-      <c r="T17" s="130"/>
-      <c r="U17" s="130"/>
-      <c r="V17" s="130"/>
-      <c r="W17" s="130"/>
-      <c r="X17" s="130"/>
-      <c r="Y17" s="130"/>
-      <c r="Z17" s="130"/>
-      <c r="AA17" s="130"/>
-      <c r="AB17" s="130"/>
-      <c r="AC17" s="130"/>
-      <c r="AD17" s="130"/>
-      <c r="AE17" s="131"/>
-      <c r="AF17" s="126"/>
-      <c r="AG17" s="127"/>
-      <c r="AH17" s="127"/>
-      <c r="AI17" s="128"/>
+      <c r="B17" s="84"/>
+      <c r="C17" s="85"/>
+      <c r="D17" s="86"/>
+      <c r="E17" s="87"/>
+      <c r="F17" s="88"/>
+      <c r="G17" s="89"/>
+      <c r="H17" s="90"/>
+      <c r="I17" s="91"/>
+      <c r="J17" s="92"/>
+      <c r="K17" s="93"/>
+      <c r="L17" s="93"/>
+      <c r="M17" s="93"/>
+      <c r="N17" s="93"/>
+      <c r="O17" s="93"/>
+      <c r="P17" s="94"/>
+      <c r="Q17" s="95"/>
+      <c r="R17" s="96"/>
+      <c r="S17" s="96"/>
+      <c r="T17" s="96"/>
+      <c r="U17" s="96"/>
+      <c r="V17" s="96"/>
+      <c r="W17" s="96"/>
+      <c r="X17" s="96"/>
+      <c r="Y17" s="96"/>
+      <c r="Z17" s="96"/>
+      <c r="AA17" s="96"/>
+      <c r="AB17" s="96"/>
+      <c r="AC17" s="96"/>
+      <c r="AD17" s="96"/>
+      <c r="AE17" s="97"/>
+      <c r="AF17" s="92"/>
+      <c r="AG17" s="93"/>
+      <c r="AH17" s="93"/>
+      <c r="AI17" s="94"/>
     </row>
     <row r="18" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="60"/>
-      <c r="B18" s="120"/>
-      <c r="C18" s="121"/>
-      <c r="D18" s="122"/>
-      <c r="E18" s="123"/>
-      <c r="F18" s="124"/>
-      <c r="G18" s="120"/>
-      <c r="H18" s="125"/>
-      <c r="I18" s="121"/>
-      <c r="J18" s="126"/>
-      <c r="K18" s="127"/>
-      <c r="L18" s="127"/>
-      <c r="M18" s="127"/>
-      <c r="N18" s="127"/>
-      <c r="O18" s="127"/>
-      <c r="P18" s="128"/>
-      <c r="Q18" s="129"/>
-      <c r="R18" s="130"/>
-      <c r="S18" s="130"/>
-      <c r="T18" s="130"/>
-      <c r="U18" s="130"/>
-      <c r="V18" s="130"/>
-      <c r="W18" s="130"/>
-      <c r="X18" s="130"/>
-      <c r="Y18" s="130"/>
-      <c r="Z18" s="130"/>
-      <c r="AA18" s="130"/>
-      <c r="AB18" s="130"/>
-      <c r="AC18" s="130"/>
-      <c r="AD18" s="130"/>
-      <c r="AE18" s="131"/>
-      <c r="AF18" s="126"/>
-      <c r="AG18" s="127"/>
-      <c r="AH18" s="127"/>
-      <c r="AI18" s="128"/>
+      <c r="B18" s="84"/>
+      <c r="C18" s="85"/>
+      <c r="D18" s="86"/>
+      <c r="E18" s="87"/>
+      <c r="F18" s="88"/>
+      <c r="G18" s="89"/>
+      <c r="H18" s="90"/>
+      <c r="I18" s="91"/>
+      <c r="J18" s="92"/>
+      <c r="K18" s="93"/>
+      <c r="L18" s="93"/>
+      <c r="M18" s="93"/>
+      <c r="N18" s="93"/>
+      <c r="O18" s="93"/>
+      <c r="P18" s="94"/>
+      <c r="Q18" s="95"/>
+      <c r="R18" s="96"/>
+      <c r="S18" s="96"/>
+      <c r="T18" s="96"/>
+      <c r="U18" s="96"/>
+      <c r="V18" s="96"/>
+      <c r="W18" s="96"/>
+      <c r="X18" s="96"/>
+      <c r="Y18" s="96"/>
+      <c r="Z18" s="96"/>
+      <c r="AA18" s="96"/>
+      <c r="AB18" s="96"/>
+      <c r="AC18" s="96"/>
+      <c r="AD18" s="96"/>
+      <c r="AE18" s="97"/>
+      <c r="AF18" s="92"/>
+      <c r="AG18" s="93"/>
+      <c r="AH18" s="93"/>
+      <c r="AI18" s="94"/>
     </row>
     <row r="19" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="60"/>
-      <c r="B19" s="120"/>
-      <c r="C19" s="121"/>
-      <c r="D19" s="122"/>
-      <c r="E19" s="123"/>
-      <c r="F19" s="124"/>
-      <c r="G19" s="120"/>
-      <c r="H19" s="125"/>
-      <c r="I19" s="121"/>
-      <c r="J19" s="126"/>
-      <c r="K19" s="127"/>
-      <c r="L19" s="127"/>
-      <c r="M19" s="127"/>
-      <c r="N19" s="127"/>
-      <c r="O19" s="127"/>
-      <c r="P19" s="128"/>
-      <c r="Q19" s="129"/>
-      <c r="R19" s="130"/>
-      <c r="S19" s="130"/>
-      <c r="T19" s="130"/>
-      <c r="U19" s="130"/>
-      <c r="V19" s="130"/>
-      <c r="W19" s="130"/>
-      <c r="X19" s="130"/>
-      <c r="Y19" s="130"/>
-      <c r="Z19" s="130"/>
-      <c r="AA19" s="130"/>
-      <c r="AB19" s="130"/>
-      <c r="AC19" s="130"/>
-      <c r="AD19" s="130"/>
-      <c r="AE19" s="131"/>
-      <c r="AF19" s="126"/>
-      <c r="AG19" s="127"/>
-      <c r="AH19" s="127"/>
-      <c r="AI19" s="128"/>
+      <c r="B19" s="84"/>
+      <c r="C19" s="85"/>
+      <c r="D19" s="86"/>
+      <c r="E19" s="87"/>
+      <c r="F19" s="88"/>
+      <c r="G19" s="89"/>
+      <c r="H19" s="90"/>
+      <c r="I19" s="91"/>
+      <c r="J19" s="92"/>
+      <c r="K19" s="93"/>
+      <c r="L19" s="93"/>
+      <c r="M19" s="93"/>
+      <c r="N19" s="93"/>
+      <c r="O19" s="93"/>
+      <c r="P19" s="94"/>
+      <c r="Q19" s="95"/>
+      <c r="R19" s="96"/>
+      <c r="S19" s="96"/>
+      <c r="T19" s="96"/>
+      <c r="U19" s="96"/>
+      <c r="V19" s="96"/>
+      <c r="W19" s="96"/>
+      <c r="X19" s="96"/>
+      <c r="Y19" s="96"/>
+      <c r="Z19" s="96"/>
+      <c r="AA19" s="96"/>
+      <c r="AB19" s="96"/>
+      <c r="AC19" s="96"/>
+      <c r="AD19" s="96"/>
+      <c r="AE19" s="97"/>
+      <c r="AF19" s="92"/>
+      <c r="AG19" s="93"/>
+      <c r="AH19" s="93"/>
+      <c r="AI19" s="94"/>
     </row>
     <row r="20" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="60"/>
-      <c r="B20" s="120"/>
-      <c r="C20" s="121"/>
-      <c r="D20" s="122"/>
-      <c r="E20" s="123"/>
-      <c r="F20" s="124"/>
-      <c r="G20" s="120"/>
-      <c r="H20" s="125"/>
-      <c r="I20" s="121"/>
-      <c r="J20" s="126"/>
-      <c r="K20" s="127"/>
-      <c r="L20" s="127"/>
-      <c r="M20" s="127"/>
-      <c r="N20" s="127"/>
-      <c r="O20" s="127"/>
-      <c r="P20" s="128"/>
-      <c r="Q20" s="129"/>
-      <c r="R20" s="130"/>
-      <c r="S20" s="130"/>
-      <c r="T20" s="130"/>
-      <c r="U20" s="130"/>
-      <c r="V20" s="130"/>
-      <c r="W20" s="130"/>
-      <c r="X20" s="130"/>
-      <c r="Y20" s="130"/>
-      <c r="Z20" s="130"/>
-      <c r="AA20" s="130"/>
-      <c r="AB20" s="130"/>
-      <c r="AC20" s="130"/>
-      <c r="AD20" s="130"/>
-      <c r="AE20" s="131"/>
-      <c r="AF20" s="126"/>
-      <c r="AG20" s="127"/>
-      <c r="AH20" s="127"/>
-      <c r="AI20" s="128"/>
+      <c r="B20" s="84"/>
+      <c r="C20" s="85"/>
+      <c r="D20" s="86"/>
+      <c r="E20" s="87"/>
+      <c r="F20" s="88"/>
+      <c r="G20" s="89"/>
+      <c r="H20" s="90"/>
+      <c r="I20" s="91"/>
+      <c r="J20" s="92"/>
+      <c r="K20" s="93"/>
+      <c r="L20" s="93"/>
+      <c r="M20" s="93"/>
+      <c r="N20" s="93"/>
+      <c r="O20" s="93"/>
+      <c r="P20" s="94"/>
+      <c r="Q20" s="95"/>
+      <c r="R20" s="96"/>
+      <c r="S20" s="96"/>
+      <c r="T20" s="96"/>
+      <c r="U20" s="96"/>
+      <c r="V20" s="96"/>
+      <c r="W20" s="96"/>
+      <c r="X20" s="96"/>
+      <c r="Y20" s="96"/>
+      <c r="Z20" s="96"/>
+      <c r="AA20" s="96"/>
+      <c r="AB20" s="96"/>
+      <c r="AC20" s="96"/>
+      <c r="AD20" s="96"/>
+      <c r="AE20" s="97"/>
+      <c r="AF20" s="92"/>
+      <c r="AG20" s="93"/>
+      <c r="AH20" s="93"/>
+      <c r="AI20" s="94"/>
     </row>
     <row r="21" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="60"/>
-      <c r="B21" s="120"/>
-      <c r="C21" s="121"/>
-      <c r="D21" s="122"/>
-      <c r="E21" s="123"/>
-      <c r="F21" s="124"/>
-      <c r="G21" s="120"/>
-      <c r="H21" s="125"/>
-      <c r="I21" s="121"/>
-      <c r="J21" s="126"/>
-      <c r="K21" s="127"/>
-      <c r="L21" s="127"/>
-      <c r="M21" s="127"/>
-      <c r="N21" s="127"/>
-      <c r="O21" s="127"/>
-      <c r="P21" s="128"/>
-      <c r="Q21" s="129"/>
-      <c r="R21" s="130"/>
-      <c r="S21" s="130"/>
-      <c r="T21" s="130"/>
-      <c r="U21" s="130"/>
-      <c r="V21" s="130"/>
-      <c r="W21" s="130"/>
-      <c r="X21" s="130"/>
-      <c r="Y21" s="130"/>
-      <c r="Z21" s="130"/>
-      <c r="AA21" s="130"/>
-      <c r="AB21" s="130"/>
-      <c r="AC21" s="130"/>
-      <c r="AD21" s="130"/>
-      <c r="AE21" s="131"/>
-      <c r="AF21" s="126"/>
-      <c r="AG21" s="127"/>
-      <c r="AH21" s="127"/>
-      <c r="AI21" s="128"/>
+      <c r="B21" s="84"/>
+      <c r="C21" s="85"/>
+      <c r="D21" s="86"/>
+      <c r="E21" s="87"/>
+      <c r="F21" s="88"/>
+      <c r="G21" s="89"/>
+      <c r="H21" s="90"/>
+      <c r="I21" s="91"/>
+      <c r="J21" s="92"/>
+      <c r="K21" s="93"/>
+      <c r="L21" s="93"/>
+      <c r="M21" s="93"/>
+      <c r="N21" s="93"/>
+      <c r="O21" s="93"/>
+      <c r="P21" s="94"/>
+      <c r="Q21" s="95"/>
+      <c r="R21" s="96"/>
+      <c r="S21" s="96"/>
+      <c r="T21" s="96"/>
+      <c r="U21" s="96"/>
+      <c r="V21" s="96"/>
+      <c r="W21" s="96"/>
+      <c r="X21" s="96"/>
+      <c r="Y21" s="96"/>
+      <c r="Z21" s="96"/>
+      <c r="AA21" s="96"/>
+      <c r="AB21" s="96"/>
+      <c r="AC21" s="96"/>
+      <c r="AD21" s="96"/>
+      <c r="AE21" s="97"/>
+      <c r="AF21" s="92"/>
+      <c r="AG21" s="93"/>
+      <c r="AH21" s="93"/>
+      <c r="AI21" s="94"/>
     </row>
     <row r="22" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="60"/>
-      <c r="B22" s="120"/>
-      <c r="C22" s="121"/>
-      <c r="D22" s="122"/>
-      <c r="E22" s="123"/>
-      <c r="F22" s="124"/>
-      <c r="G22" s="120"/>
-      <c r="H22" s="125"/>
-      <c r="I22" s="121"/>
-      <c r="J22" s="126"/>
-      <c r="K22" s="127"/>
-      <c r="L22" s="127"/>
-      <c r="M22" s="127"/>
-      <c r="N22" s="127"/>
-      <c r="O22" s="127"/>
-      <c r="P22" s="128"/>
-      <c r="Q22" s="129"/>
-      <c r="R22" s="130"/>
-      <c r="S22" s="130"/>
-      <c r="T22" s="130"/>
-      <c r="U22" s="130"/>
-      <c r="V22" s="130"/>
-      <c r="W22" s="130"/>
-      <c r="X22" s="130"/>
-      <c r="Y22" s="130"/>
-      <c r="Z22" s="130"/>
-      <c r="AA22" s="130"/>
-      <c r="AB22" s="130"/>
-      <c r="AC22" s="130"/>
-      <c r="AD22" s="130"/>
-      <c r="AE22" s="131"/>
-      <c r="AF22" s="126"/>
-      <c r="AG22" s="127"/>
-      <c r="AH22" s="127"/>
-      <c r="AI22" s="128"/>
+      <c r="B22" s="84"/>
+      <c r="C22" s="85"/>
+      <c r="D22" s="86"/>
+      <c r="E22" s="87"/>
+      <c r="F22" s="88"/>
+      <c r="G22" s="89"/>
+      <c r="H22" s="90"/>
+      <c r="I22" s="91"/>
+      <c r="J22" s="92"/>
+      <c r="K22" s="93"/>
+      <c r="L22" s="93"/>
+      <c r="M22" s="93"/>
+      <c r="N22" s="93"/>
+      <c r="O22" s="93"/>
+      <c r="P22" s="94"/>
+      <c r="Q22" s="95"/>
+      <c r="R22" s="96"/>
+      <c r="S22" s="96"/>
+      <c r="T22" s="96"/>
+      <c r="U22" s="96"/>
+      <c r="V22" s="96"/>
+      <c r="W22" s="96"/>
+      <c r="X22" s="96"/>
+      <c r="Y22" s="96"/>
+      <c r="Z22" s="96"/>
+      <c r="AA22" s="96"/>
+      <c r="AB22" s="96"/>
+      <c r="AC22" s="96"/>
+      <c r="AD22" s="96"/>
+      <c r="AE22" s="97"/>
+      <c r="AF22" s="92"/>
+      <c r="AG22" s="93"/>
+      <c r="AH22" s="93"/>
+      <c r="AI22" s="94"/>
     </row>
     <row r="23" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="60"/>
-      <c r="B23" s="120"/>
-      <c r="C23" s="121"/>
-      <c r="D23" s="122"/>
-      <c r="E23" s="123"/>
-      <c r="F23" s="124"/>
-      <c r="G23" s="120"/>
-      <c r="H23" s="125"/>
-      <c r="I23" s="121"/>
-      <c r="J23" s="126"/>
-      <c r="K23" s="127"/>
-      <c r="L23" s="127"/>
-      <c r="M23" s="127"/>
-      <c r="N23" s="127"/>
-      <c r="O23" s="127"/>
-      <c r="P23" s="128"/>
-      <c r="Q23" s="129"/>
-      <c r="R23" s="130"/>
-      <c r="S23" s="130"/>
-      <c r="T23" s="130"/>
-      <c r="U23" s="130"/>
-      <c r="V23" s="130"/>
-      <c r="W23" s="130"/>
-      <c r="X23" s="130"/>
-      <c r="Y23" s="130"/>
-      <c r="Z23" s="130"/>
-      <c r="AA23" s="130"/>
-      <c r="AB23" s="130"/>
-      <c r="AC23" s="130"/>
-      <c r="AD23" s="130"/>
-      <c r="AE23" s="131"/>
-      <c r="AF23" s="126"/>
-      <c r="AG23" s="127"/>
-      <c r="AH23" s="127"/>
-      <c r="AI23" s="128"/>
+      <c r="B23" s="84"/>
+      <c r="C23" s="85"/>
+      <c r="D23" s="86"/>
+      <c r="E23" s="87"/>
+      <c r="F23" s="88"/>
+      <c r="G23" s="89"/>
+      <c r="H23" s="90"/>
+      <c r="I23" s="91"/>
+      <c r="J23" s="92"/>
+      <c r="K23" s="93"/>
+      <c r="L23" s="93"/>
+      <c r="M23" s="93"/>
+      <c r="N23" s="93"/>
+      <c r="O23" s="93"/>
+      <c r="P23" s="94"/>
+      <c r="Q23" s="95"/>
+      <c r="R23" s="96"/>
+      <c r="S23" s="96"/>
+      <c r="T23" s="96"/>
+      <c r="U23" s="96"/>
+      <c r="V23" s="96"/>
+      <c r="W23" s="96"/>
+      <c r="X23" s="96"/>
+      <c r="Y23" s="96"/>
+      <c r="Z23" s="96"/>
+      <c r="AA23" s="96"/>
+      <c r="AB23" s="96"/>
+      <c r="AC23" s="96"/>
+      <c r="AD23" s="96"/>
+      <c r="AE23" s="97"/>
+      <c r="AF23" s="92"/>
+      <c r="AG23" s="93"/>
+      <c r="AH23" s="93"/>
+      <c r="AI23" s="94"/>
     </row>
     <row r="24" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="60"/>
-      <c r="B24" s="120"/>
-      <c r="C24" s="121"/>
-      <c r="D24" s="122"/>
-      <c r="E24" s="123"/>
-      <c r="F24" s="124"/>
-      <c r="G24" s="120"/>
-      <c r="H24" s="125"/>
-      <c r="I24" s="121"/>
-      <c r="J24" s="126"/>
-      <c r="K24" s="127"/>
-      <c r="L24" s="127"/>
-      <c r="M24" s="127"/>
-      <c r="N24" s="127"/>
-      <c r="O24" s="127"/>
-      <c r="P24" s="128"/>
-      <c r="Q24" s="129"/>
-      <c r="R24" s="130"/>
-      <c r="S24" s="130"/>
-      <c r="T24" s="130"/>
-      <c r="U24" s="130"/>
-      <c r="V24" s="130"/>
-      <c r="W24" s="130"/>
-      <c r="X24" s="130"/>
-      <c r="Y24" s="130"/>
-      <c r="Z24" s="130"/>
-      <c r="AA24" s="130"/>
-      <c r="AB24" s="130"/>
-      <c r="AC24" s="130"/>
-      <c r="AD24" s="130"/>
-      <c r="AE24" s="131"/>
-      <c r="AF24" s="126"/>
-      <c r="AG24" s="127"/>
-      <c r="AH24" s="127"/>
-      <c r="AI24" s="128"/>
+      <c r="B24" s="84"/>
+      <c r="C24" s="85"/>
+      <c r="D24" s="86"/>
+      <c r="E24" s="87"/>
+      <c r="F24" s="88"/>
+      <c r="G24" s="89"/>
+      <c r="H24" s="90"/>
+      <c r="I24" s="91"/>
+      <c r="J24" s="92"/>
+      <c r="K24" s="93"/>
+      <c r="L24" s="93"/>
+      <c r="M24" s="93"/>
+      <c r="N24" s="93"/>
+      <c r="O24" s="93"/>
+      <c r="P24" s="94"/>
+      <c r="Q24" s="95"/>
+      <c r="R24" s="96"/>
+      <c r="S24" s="96"/>
+      <c r="T24" s="96"/>
+      <c r="U24" s="96"/>
+      <c r="V24" s="96"/>
+      <c r="W24" s="96"/>
+      <c r="X24" s="96"/>
+      <c r="Y24" s="96"/>
+      <c r="Z24" s="96"/>
+      <c r="AA24" s="96"/>
+      <c r="AB24" s="96"/>
+      <c r="AC24" s="96"/>
+      <c r="AD24" s="96"/>
+      <c r="AE24" s="97"/>
+      <c r="AF24" s="92"/>
+      <c r="AG24" s="93"/>
+      <c r="AH24" s="93"/>
+      <c r="AI24" s="94"/>
     </row>
     <row r="25" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="60"/>
-      <c r="B25" s="120"/>
-      <c r="C25" s="121"/>
-      <c r="D25" s="122"/>
-      <c r="E25" s="123"/>
-      <c r="F25" s="124"/>
-      <c r="G25" s="120"/>
-      <c r="H25" s="125"/>
-      <c r="I25" s="121"/>
-      <c r="J25" s="126"/>
-      <c r="K25" s="127"/>
-      <c r="L25" s="127"/>
-      <c r="M25" s="127"/>
-      <c r="N25" s="127"/>
-      <c r="O25" s="127"/>
-      <c r="P25" s="128"/>
-      <c r="Q25" s="129"/>
-      <c r="R25" s="130"/>
-      <c r="S25" s="130"/>
-      <c r="T25" s="130"/>
-      <c r="U25" s="130"/>
-      <c r="V25" s="130"/>
-      <c r="W25" s="130"/>
-      <c r="X25" s="130"/>
-      <c r="Y25" s="130"/>
-      <c r="Z25" s="130"/>
-      <c r="AA25" s="130"/>
-      <c r="AB25" s="130"/>
-      <c r="AC25" s="130"/>
-      <c r="AD25" s="130"/>
-      <c r="AE25" s="131"/>
-      <c r="AF25" s="126"/>
-      <c r="AG25" s="127"/>
-      <c r="AH25" s="127"/>
-      <c r="AI25" s="128"/>
+      <c r="B25" s="84"/>
+      <c r="C25" s="85"/>
+      <c r="D25" s="86"/>
+      <c r="E25" s="87"/>
+      <c r="F25" s="88"/>
+      <c r="G25" s="89"/>
+      <c r="H25" s="90"/>
+      <c r="I25" s="91"/>
+      <c r="J25" s="92"/>
+      <c r="K25" s="93"/>
+      <c r="L25" s="93"/>
+      <c r="M25" s="93"/>
+      <c r="N25" s="93"/>
+      <c r="O25" s="93"/>
+      <c r="P25" s="94"/>
+      <c r="Q25" s="95"/>
+      <c r="R25" s="96"/>
+      <c r="S25" s="96"/>
+      <c r="T25" s="96"/>
+      <c r="U25" s="96"/>
+      <c r="V25" s="96"/>
+      <c r="W25" s="96"/>
+      <c r="X25" s="96"/>
+      <c r="Y25" s="96"/>
+      <c r="Z25" s="96"/>
+      <c r="AA25" s="96"/>
+      <c r="AB25" s="96"/>
+      <c r="AC25" s="96"/>
+      <c r="AD25" s="96"/>
+      <c r="AE25" s="97"/>
+      <c r="AF25" s="92"/>
+      <c r="AG25" s="93"/>
+      <c r="AH25" s="93"/>
+      <c r="AI25" s="94"/>
     </row>
     <row r="26" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="60"/>
-      <c r="B26" s="120"/>
-      <c r="C26" s="121"/>
-      <c r="D26" s="122"/>
-      <c r="E26" s="123"/>
-      <c r="F26" s="124"/>
-      <c r="G26" s="120"/>
-      <c r="H26" s="125"/>
-      <c r="I26" s="121"/>
-      <c r="J26" s="126"/>
-      <c r="K26" s="127"/>
-      <c r="L26" s="127"/>
-      <c r="M26" s="127"/>
-      <c r="N26" s="127"/>
-      <c r="O26" s="127"/>
-      <c r="P26" s="128"/>
-      <c r="Q26" s="129"/>
-      <c r="R26" s="130"/>
-      <c r="S26" s="130"/>
-      <c r="T26" s="130"/>
-      <c r="U26" s="130"/>
-      <c r="V26" s="130"/>
-      <c r="W26" s="130"/>
-      <c r="X26" s="130"/>
-      <c r="Y26" s="130"/>
-      <c r="Z26" s="130"/>
-      <c r="AA26" s="130"/>
-      <c r="AB26" s="130"/>
-      <c r="AC26" s="130"/>
-      <c r="AD26" s="130"/>
-      <c r="AE26" s="131"/>
-      <c r="AF26" s="126"/>
-      <c r="AG26" s="127"/>
-      <c r="AH26" s="127"/>
-      <c r="AI26" s="128"/>
+      <c r="B26" s="84"/>
+      <c r="C26" s="85"/>
+      <c r="D26" s="86"/>
+      <c r="E26" s="87"/>
+      <c r="F26" s="88"/>
+      <c r="G26" s="89"/>
+      <c r="H26" s="90"/>
+      <c r="I26" s="91"/>
+      <c r="J26" s="92"/>
+      <c r="K26" s="93"/>
+      <c r="L26" s="93"/>
+      <c r="M26" s="93"/>
+      <c r="N26" s="93"/>
+      <c r="O26" s="93"/>
+      <c r="P26" s="94"/>
+      <c r="Q26" s="95"/>
+      <c r="R26" s="96"/>
+      <c r="S26" s="96"/>
+      <c r="T26" s="96"/>
+      <c r="U26" s="96"/>
+      <c r="V26" s="96"/>
+      <c r="W26" s="96"/>
+      <c r="X26" s="96"/>
+      <c r="Y26" s="96"/>
+      <c r="Z26" s="96"/>
+      <c r="AA26" s="96"/>
+      <c r="AB26" s="96"/>
+      <c r="AC26" s="96"/>
+      <c r="AD26" s="96"/>
+      <c r="AE26" s="97"/>
+      <c r="AF26" s="92"/>
+      <c r="AG26" s="93"/>
+      <c r="AH26" s="93"/>
+      <c r="AI26" s="94"/>
     </row>
     <row r="27" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="60"/>
-      <c r="B27" s="120"/>
-      <c r="C27" s="121"/>
-      <c r="D27" s="122"/>
-      <c r="E27" s="123"/>
-      <c r="F27" s="124"/>
-      <c r="G27" s="120"/>
-      <c r="H27" s="125"/>
-      <c r="I27" s="121"/>
-      <c r="J27" s="126"/>
-      <c r="K27" s="127"/>
-      <c r="L27" s="127"/>
-      <c r="M27" s="127"/>
-      <c r="N27" s="127"/>
-      <c r="O27" s="127"/>
-      <c r="P27" s="128"/>
-      <c r="Q27" s="129"/>
-      <c r="R27" s="130"/>
-      <c r="S27" s="130"/>
-      <c r="T27" s="130"/>
-      <c r="U27" s="130"/>
-      <c r="V27" s="130"/>
-      <c r="W27" s="130"/>
-      <c r="X27" s="130"/>
-      <c r="Y27" s="130"/>
-      <c r="Z27" s="130"/>
-      <c r="AA27" s="130"/>
-      <c r="AB27" s="130"/>
-      <c r="AC27" s="130"/>
-      <c r="AD27" s="130"/>
-      <c r="AE27" s="131"/>
-      <c r="AF27" s="126"/>
-      <c r="AG27" s="127"/>
-      <c r="AH27" s="127"/>
-      <c r="AI27" s="128"/>
+      <c r="B27" s="84"/>
+      <c r="C27" s="85"/>
+      <c r="D27" s="86"/>
+      <c r="E27" s="87"/>
+      <c r="F27" s="88"/>
+      <c r="G27" s="89"/>
+      <c r="H27" s="90"/>
+      <c r="I27" s="91"/>
+      <c r="J27" s="92"/>
+      <c r="K27" s="93"/>
+      <c r="L27" s="93"/>
+      <c r="M27" s="93"/>
+      <c r="N27" s="93"/>
+      <c r="O27" s="93"/>
+      <c r="P27" s="94"/>
+      <c r="Q27" s="95"/>
+      <c r="R27" s="96"/>
+      <c r="S27" s="96"/>
+      <c r="T27" s="96"/>
+      <c r="U27" s="96"/>
+      <c r="V27" s="96"/>
+      <c r="W27" s="96"/>
+      <c r="X27" s="96"/>
+      <c r="Y27" s="96"/>
+      <c r="Z27" s="96"/>
+      <c r="AA27" s="96"/>
+      <c r="AB27" s="96"/>
+      <c r="AC27" s="96"/>
+      <c r="AD27" s="96"/>
+      <c r="AE27" s="97"/>
+      <c r="AF27" s="92"/>
+      <c r="AG27" s="93"/>
+      <c r="AH27" s="93"/>
+      <c r="AI27" s="94"/>
     </row>
     <row r="28" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="60"/>
-      <c r="B28" s="120"/>
-      <c r="C28" s="121"/>
-      <c r="D28" s="122"/>
-      <c r="E28" s="123"/>
-      <c r="F28" s="124"/>
-      <c r="G28" s="120"/>
-      <c r="H28" s="125"/>
-      <c r="I28" s="121"/>
-      <c r="J28" s="126"/>
-      <c r="K28" s="127"/>
-      <c r="L28" s="127"/>
-      <c r="M28" s="127"/>
-      <c r="N28" s="127"/>
-      <c r="O28" s="127"/>
-      <c r="P28" s="128"/>
-      <c r="Q28" s="129"/>
-      <c r="R28" s="130"/>
-      <c r="S28" s="130"/>
-      <c r="T28" s="130"/>
-      <c r="U28" s="130"/>
-      <c r="V28" s="130"/>
-      <c r="W28" s="130"/>
-      <c r="X28" s="130"/>
-      <c r="Y28" s="130"/>
-      <c r="Z28" s="130"/>
-      <c r="AA28" s="130"/>
-      <c r="AB28" s="130"/>
-      <c r="AC28" s="130"/>
-      <c r="AD28" s="130"/>
-      <c r="AE28" s="131"/>
-      <c r="AF28" s="126"/>
-      <c r="AG28" s="127"/>
-      <c r="AH28" s="127"/>
-      <c r="AI28" s="128"/>
+      <c r="B28" s="84"/>
+      <c r="C28" s="85"/>
+      <c r="D28" s="86"/>
+      <c r="E28" s="87"/>
+      <c r="F28" s="88"/>
+      <c r="G28" s="89"/>
+      <c r="H28" s="90"/>
+      <c r="I28" s="91"/>
+      <c r="J28" s="92"/>
+      <c r="K28" s="93"/>
+      <c r="L28" s="93"/>
+      <c r="M28" s="93"/>
+      <c r="N28" s="93"/>
+      <c r="O28" s="93"/>
+      <c r="P28" s="94"/>
+      <c r="Q28" s="95"/>
+      <c r="R28" s="96"/>
+      <c r="S28" s="96"/>
+      <c r="T28" s="96"/>
+      <c r="U28" s="96"/>
+      <c r="V28" s="96"/>
+      <c r="W28" s="96"/>
+      <c r="X28" s="96"/>
+      <c r="Y28" s="96"/>
+      <c r="Z28" s="96"/>
+      <c r="AA28" s="96"/>
+      <c r="AB28" s="96"/>
+      <c r="AC28" s="96"/>
+      <c r="AD28" s="96"/>
+      <c r="AE28" s="97"/>
+      <c r="AF28" s="92"/>
+      <c r="AG28" s="93"/>
+      <c r="AH28" s="93"/>
+      <c r="AI28" s="94"/>
     </row>
     <row r="29" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="60"/>
-      <c r="B29" s="120"/>
-      <c r="C29" s="121"/>
-      <c r="D29" s="122"/>
-      <c r="E29" s="123"/>
-      <c r="F29" s="124"/>
-      <c r="G29" s="120"/>
-      <c r="H29" s="125"/>
-      <c r="I29" s="121"/>
-      <c r="J29" s="126"/>
-      <c r="K29" s="127"/>
-      <c r="L29" s="127"/>
-      <c r="M29" s="127"/>
-      <c r="N29" s="127"/>
-      <c r="O29" s="127"/>
-      <c r="P29" s="128"/>
-      <c r="Q29" s="129"/>
-      <c r="R29" s="130"/>
-      <c r="S29" s="130"/>
-      <c r="T29" s="130"/>
-      <c r="U29" s="130"/>
-      <c r="V29" s="130"/>
-      <c r="W29" s="130"/>
-      <c r="X29" s="130"/>
-      <c r="Y29" s="130"/>
-      <c r="Z29" s="130"/>
-      <c r="AA29" s="130"/>
-      <c r="AB29" s="130"/>
-      <c r="AC29" s="130"/>
-      <c r="AD29" s="130"/>
-      <c r="AE29" s="131"/>
-      <c r="AF29" s="126"/>
-      <c r="AG29" s="127"/>
-      <c r="AH29" s="127"/>
-      <c r="AI29" s="128"/>
+      <c r="B29" s="84"/>
+      <c r="C29" s="85"/>
+      <c r="D29" s="86"/>
+      <c r="E29" s="87"/>
+      <c r="F29" s="88"/>
+      <c r="G29" s="89"/>
+      <c r="H29" s="90"/>
+      <c r="I29" s="91"/>
+      <c r="J29" s="92"/>
+      <c r="K29" s="93"/>
+      <c r="L29" s="93"/>
+      <c r="M29" s="93"/>
+      <c r="N29" s="93"/>
+      <c r="O29" s="93"/>
+      <c r="P29" s="94"/>
+      <c r="Q29" s="95"/>
+      <c r="R29" s="96"/>
+      <c r="S29" s="96"/>
+      <c r="T29" s="96"/>
+      <c r="U29" s="96"/>
+      <c r="V29" s="96"/>
+      <c r="W29" s="96"/>
+      <c r="X29" s="96"/>
+      <c r="Y29" s="96"/>
+      <c r="Z29" s="96"/>
+      <c r="AA29" s="96"/>
+      <c r="AB29" s="96"/>
+      <c r="AC29" s="96"/>
+      <c r="AD29" s="96"/>
+      <c r="AE29" s="97"/>
+      <c r="AF29" s="92"/>
+      <c r="AG29" s="93"/>
+      <c r="AH29" s="93"/>
+      <c r="AI29" s="94"/>
     </row>
     <row r="30" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="60"/>
-      <c r="B30" s="120"/>
-      <c r="C30" s="121"/>
-      <c r="D30" s="122"/>
-      <c r="E30" s="123"/>
-      <c r="F30" s="124"/>
-      <c r="G30" s="120"/>
-      <c r="H30" s="125"/>
-      <c r="I30" s="121"/>
-      <c r="J30" s="126"/>
-      <c r="K30" s="127"/>
-      <c r="L30" s="127"/>
-      <c r="M30" s="127"/>
-      <c r="N30" s="127"/>
-      <c r="O30" s="127"/>
-      <c r="P30" s="128"/>
-      <c r="Q30" s="129"/>
-      <c r="R30" s="130"/>
-      <c r="S30" s="130"/>
-      <c r="T30" s="130"/>
-      <c r="U30" s="130"/>
-      <c r="V30" s="130"/>
-      <c r="W30" s="130"/>
-      <c r="X30" s="130"/>
-      <c r="Y30" s="130"/>
-      <c r="Z30" s="130"/>
-      <c r="AA30" s="130"/>
-      <c r="AB30" s="130"/>
-      <c r="AC30" s="130"/>
-      <c r="AD30" s="130"/>
-      <c r="AE30" s="131"/>
-      <c r="AF30" s="126"/>
-      <c r="AG30" s="127"/>
-      <c r="AH30" s="127"/>
-      <c r="AI30" s="128"/>
+      <c r="B30" s="84"/>
+      <c r="C30" s="85"/>
+      <c r="D30" s="86"/>
+      <c r="E30" s="87"/>
+      <c r="F30" s="88"/>
+      <c r="G30" s="89"/>
+      <c r="H30" s="90"/>
+      <c r="I30" s="91"/>
+      <c r="J30" s="92"/>
+      <c r="K30" s="93"/>
+      <c r="L30" s="93"/>
+      <c r="M30" s="93"/>
+      <c r="N30" s="93"/>
+      <c r="O30" s="93"/>
+      <c r="P30" s="94"/>
+      <c r="Q30" s="95"/>
+      <c r="R30" s="96"/>
+      <c r="S30" s="96"/>
+      <c r="T30" s="96"/>
+      <c r="U30" s="96"/>
+      <c r="V30" s="96"/>
+      <c r="W30" s="96"/>
+      <c r="X30" s="96"/>
+      <c r="Y30" s="96"/>
+      <c r="Z30" s="96"/>
+      <c r="AA30" s="96"/>
+      <c r="AB30" s="96"/>
+      <c r="AC30" s="96"/>
+      <c r="AD30" s="96"/>
+      <c r="AE30" s="97"/>
+      <c r="AF30" s="92"/>
+      <c r="AG30" s="93"/>
+      <c r="AH30" s="93"/>
+      <c r="AI30" s="94"/>
     </row>
     <row r="31" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="60"/>
-      <c r="B31" s="120"/>
-      <c r="C31" s="121"/>
-      <c r="D31" s="122"/>
-      <c r="E31" s="123"/>
-      <c r="F31" s="124"/>
-      <c r="G31" s="120"/>
-      <c r="H31" s="125"/>
-      <c r="I31" s="121"/>
-      <c r="J31" s="126"/>
-      <c r="K31" s="127"/>
-      <c r="L31" s="127"/>
-      <c r="M31" s="127"/>
-      <c r="N31" s="127"/>
-      <c r="O31" s="127"/>
-      <c r="P31" s="128"/>
-      <c r="Q31" s="129"/>
-      <c r="R31" s="130"/>
-      <c r="S31" s="130"/>
-      <c r="T31" s="130"/>
-      <c r="U31" s="130"/>
-      <c r="V31" s="130"/>
-      <c r="W31" s="130"/>
-      <c r="X31" s="130"/>
-      <c r="Y31" s="130"/>
-      <c r="Z31" s="130"/>
-      <c r="AA31" s="130"/>
-      <c r="AB31" s="130"/>
-      <c r="AC31" s="130"/>
-      <c r="AD31" s="130"/>
-      <c r="AE31" s="131"/>
-      <c r="AF31" s="126"/>
-      <c r="AG31" s="127"/>
-      <c r="AH31" s="127"/>
-      <c r="AI31" s="128"/>
+      <c r="B31" s="84"/>
+      <c r="C31" s="85"/>
+      <c r="D31" s="86"/>
+      <c r="E31" s="87"/>
+      <c r="F31" s="88"/>
+      <c r="G31" s="89"/>
+      <c r="H31" s="90"/>
+      <c r="I31" s="91"/>
+      <c r="J31" s="92"/>
+      <c r="K31" s="93"/>
+      <c r="L31" s="93"/>
+      <c r="M31" s="93"/>
+      <c r="N31" s="93"/>
+      <c r="O31" s="93"/>
+      <c r="P31" s="94"/>
+      <c r="Q31" s="95"/>
+      <c r="R31" s="96"/>
+      <c r="S31" s="96"/>
+      <c r="T31" s="96"/>
+      <c r="U31" s="96"/>
+      <c r="V31" s="96"/>
+      <c r="W31" s="96"/>
+      <c r="X31" s="96"/>
+      <c r="Y31" s="96"/>
+      <c r="Z31" s="96"/>
+      <c r="AA31" s="96"/>
+      <c r="AB31" s="96"/>
+      <c r="AC31" s="96"/>
+      <c r="AD31" s="96"/>
+      <c r="AE31" s="97"/>
+      <c r="AF31" s="92"/>
+      <c r="AG31" s="93"/>
+      <c r="AH31" s="93"/>
+      <c r="AI31" s="94"/>
     </row>
     <row r="32" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="60"/>
-      <c r="B32" s="120"/>
-      <c r="C32" s="121"/>
-      <c r="D32" s="122"/>
-      <c r="E32" s="123"/>
-      <c r="F32" s="124"/>
-      <c r="G32" s="120"/>
-      <c r="H32" s="125"/>
-      <c r="I32" s="121"/>
-      <c r="J32" s="126"/>
-      <c r="K32" s="127"/>
-      <c r="L32" s="127"/>
-      <c r="M32" s="127"/>
-      <c r="N32" s="127"/>
-      <c r="O32" s="127"/>
-      <c r="P32" s="128"/>
-      <c r="Q32" s="129"/>
-      <c r="R32" s="130"/>
-      <c r="S32" s="130"/>
-      <c r="T32" s="130"/>
-      <c r="U32" s="130"/>
-      <c r="V32" s="130"/>
-      <c r="W32" s="130"/>
-      <c r="X32" s="130"/>
-      <c r="Y32" s="130"/>
-      <c r="Z32" s="130"/>
-      <c r="AA32" s="130"/>
-      <c r="AB32" s="130"/>
-      <c r="AC32" s="130"/>
-      <c r="AD32" s="130"/>
-      <c r="AE32" s="131"/>
-      <c r="AF32" s="126"/>
-      <c r="AG32" s="127"/>
-      <c r="AH32" s="127"/>
-      <c r="AI32" s="128"/>
+      <c r="B32" s="84"/>
+      <c r="C32" s="85"/>
+      <c r="D32" s="86"/>
+      <c r="E32" s="87"/>
+      <c r="F32" s="88"/>
+      <c r="G32" s="89"/>
+      <c r="H32" s="90"/>
+      <c r="I32" s="91"/>
+      <c r="J32" s="92"/>
+      <c r="K32" s="93"/>
+      <c r="L32" s="93"/>
+      <c r="M32" s="93"/>
+      <c r="N32" s="93"/>
+      <c r="O32" s="93"/>
+      <c r="P32" s="94"/>
+      <c r="Q32" s="95"/>
+      <c r="R32" s="96"/>
+      <c r="S32" s="96"/>
+      <c r="T32" s="96"/>
+      <c r="U32" s="96"/>
+      <c r="V32" s="96"/>
+      <c r="W32" s="96"/>
+      <c r="X32" s="96"/>
+      <c r="Y32" s="96"/>
+      <c r="Z32" s="96"/>
+      <c r="AA32" s="96"/>
+      <c r="AB32" s="96"/>
+      <c r="AC32" s="96"/>
+      <c r="AD32" s="96"/>
+      <c r="AE32" s="97"/>
+      <c r="AF32" s="92"/>
+      <c r="AG32" s="93"/>
+      <c r="AH32" s="93"/>
+      <c r="AI32" s="94"/>
     </row>
     <row r="33" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="60"/>
-      <c r="B33" s="120"/>
-      <c r="C33" s="121"/>
-      <c r="D33" s="122"/>
-      <c r="E33" s="123"/>
-      <c r="F33" s="124"/>
-      <c r="G33" s="120"/>
-      <c r="H33" s="125"/>
-      <c r="I33" s="121"/>
-      <c r="J33" s="126"/>
-      <c r="K33" s="127"/>
-      <c r="L33" s="127"/>
-      <c r="M33" s="127"/>
-      <c r="N33" s="127"/>
-      <c r="O33" s="127"/>
-      <c r="P33" s="128"/>
-      <c r="Q33" s="129"/>
-      <c r="R33" s="130"/>
-      <c r="S33" s="130"/>
-      <c r="T33" s="130"/>
-      <c r="U33" s="130"/>
-      <c r="V33" s="130"/>
-      <c r="W33" s="130"/>
-      <c r="X33" s="130"/>
-      <c r="Y33" s="130"/>
-      <c r="Z33" s="130"/>
-      <c r="AA33" s="130"/>
-      <c r="AB33" s="130"/>
-      <c r="AC33" s="130"/>
-      <c r="AD33" s="130"/>
-      <c r="AE33" s="131"/>
-      <c r="AF33" s="126"/>
-      <c r="AG33" s="127"/>
-      <c r="AH33" s="127"/>
-      <c r="AI33" s="128"/>
+      <c r="B33" s="84"/>
+      <c r="C33" s="85"/>
+      <c r="D33" s="86"/>
+      <c r="E33" s="87"/>
+      <c r="F33" s="88"/>
+      <c r="G33" s="89"/>
+      <c r="H33" s="90"/>
+      <c r="I33" s="91"/>
+      <c r="J33" s="92"/>
+      <c r="K33" s="93"/>
+      <c r="L33" s="93"/>
+      <c r="M33" s="93"/>
+      <c r="N33" s="93"/>
+      <c r="O33" s="93"/>
+      <c r="P33" s="94"/>
+      <c r="Q33" s="95"/>
+      <c r="R33" s="96"/>
+      <c r="S33" s="96"/>
+      <c r="T33" s="96"/>
+      <c r="U33" s="96"/>
+      <c r="V33" s="96"/>
+      <c r="W33" s="96"/>
+      <c r="X33" s="96"/>
+      <c r="Y33" s="96"/>
+      <c r="Z33" s="96"/>
+      <c r="AA33" s="96"/>
+      <c r="AB33" s="96"/>
+      <c r="AC33" s="96"/>
+      <c r="AD33" s="96"/>
+      <c r="AE33" s="97"/>
+      <c r="AF33" s="92"/>
+      <c r="AG33" s="93"/>
+      <c r="AH33" s="93"/>
+      <c r="AI33" s="94"/>
     </row>
   </sheetData>
   <mergeCells count="179">
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
@@ -4721,8 +4674,164 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
   </mergeCells>
-  <phoneticPr fontId="11"/>
+  <phoneticPr fontId="10"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -4877,163 +4986,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="129" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="148" t="str">
+      <c r="B1" s="130"/>
+      <c r="C1" s="130"/>
+      <c r="D1" s="131"/>
+      <c r="E1" s="159" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
-      <c r="L1" s="94"/>
-      <c r="M1" s="94"/>
-      <c r="N1" s="95"/>
-      <c r="O1" s="99" t="s">
-        <v>18</v>
-      </c>
-      <c r="P1" s="100"/>
-      <c r="Q1" s="100"/>
-      <c r="R1" s="101"/>
-      <c r="S1" s="108" t="str">
+      <c r="F1" s="133"/>
+      <c r="G1" s="133"/>
+      <c r="H1" s="133"/>
+      <c r="I1" s="133"/>
+      <c r="J1" s="133"/>
+      <c r="K1" s="133"/>
+      <c r="L1" s="133"/>
+      <c r="M1" s="133"/>
+      <c r="N1" s="134"/>
+      <c r="O1" s="138" t="s">
+        <v>17</v>
+      </c>
+      <c r="P1" s="139"/>
+      <c r="Q1" s="139"/>
+      <c r="R1" s="140"/>
+      <c r="S1" s="147" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>画面一覧</v>
       </c>
-      <c r="T1" s="109"/>
-      <c r="U1" s="109"/>
-      <c r="V1" s="109"/>
-      <c r="W1" s="109"/>
-      <c r="X1" s="109"/>
-      <c r="Y1" s="109"/>
-      <c r="Z1" s="110"/>
-      <c r="AA1" s="90" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB1" s="92"/>
-      <c r="AC1" s="117" t="str">
+      <c r="T1" s="148"/>
+      <c r="U1" s="148"/>
+      <c r="V1" s="148"/>
+      <c r="W1" s="148"/>
+      <c r="X1" s="148"/>
+      <c r="Y1" s="148"/>
+      <c r="Z1" s="149"/>
+      <c r="AA1" s="129" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB1" s="131"/>
+      <c r="AC1" s="156" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="118"/>
-      <c r="AE1" s="118"/>
-      <c r="AF1" s="119"/>
-      <c r="AG1" s="145">
+      <c r="AD1" s="157"/>
+      <c r="AE1" s="157"/>
+      <c r="AF1" s="158"/>
+      <c r="AG1" s="160">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43592</v>
       </c>
-      <c r="AH1" s="146"/>
-      <c r="AI1" s="147"/>
+      <c r="AH1" s="161"/>
+      <c r="AI1" s="162"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="2"/>
     </row>
     <row r="2" spans="1:38" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="90" t="s">
+      <c r="A2" s="129" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="148" t="str">
+      <c r="B2" s="130"/>
+      <c r="C2" s="130"/>
+      <c r="D2" s="131"/>
+      <c r="E2" s="159" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="94"/>
-      <c r="J2" s="94"/>
-      <c r="K2" s="94"/>
-      <c r="L2" s="94"/>
-      <c r="M2" s="94"/>
-      <c r="N2" s="95"/>
-      <c r="O2" s="102"/>
-      <c r="P2" s="103"/>
-      <c r="Q2" s="103"/>
-      <c r="R2" s="104"/>
-      <c r="S2" s="111"/>
-      <c r="T2" s="112"/>
-      <c r="U2" s="112"/>
-      <c r="V2" s="112"/>
-      <c r="W2" s="112"/>
-      <c r="X2" s="112"/>
-      <c r="Y2" s="112"/>
-      <c r="Z2" s="113"/>
-      <c r="AA2" s="90" t="s">
-        <v>20</v>
-      </c>
-      <c r="AB2" s="92"/>
-      <c r="AC2" s="117" t="str">
+      <c r="F2" s="133"/>
+      <c r="G2" s="133"/>
+      <c r="H2" s="133"/>
+      <c r="I2" s="133"/>
+      <c r="J2" s="133"/>
+      <c r="K2" s="133"/>
+      <c r="L2" s="133"/>
+      <c r="M2" s="133"/>
+      <c r="N2" s="134"/>
+      <c r="O2" s="141"/>
+      <c r="P2" s="142"/>
+      <c r="Q2" s="142"/>
+      <c r="R2" s="143"/>
+      <c r="S2" s="150"/>
+      <c r="T2" s="151"/>
+      <c r="U2" s="151"/>
+      <c r="V2" s="151"/>
+      <c r="W2" s="151"/>
+      <c r="X2" s="151"/>
+      <c r="Y2" s="151"/>
+      <c r="Z2" s="152"/>
+      <c r="AA2" s="129" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB2" s="131"/>
+      <c r="AC2" s="156" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
-        <v/>
-      </c>
-      <c r="AD2" s="118"/>
-      <c r="AE2" s="118"/>
-      <c r="AF2" s="119"/>
-      <c r="AG2" s="145" t="str">
+        <v>TIS</v>
+      </c>
+      <c r="AD2" s="157"/>
+      <c r="AE2" s="157"/>
+      <c r="AF2" s="158"/>
+      <c r="AG2" s="160">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
-        <v/>
-      </c>
-      <c r="AH2" s="146"/>
-      <c r="AI2" s="147"/>
+        <v>43803</v>
+      </c>
+      <c r="AH2" s="161"/>
+      <c r="AI2" s="162"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
     </row>
     <row r="3" spans="1:38" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="90" t="s">
+      <c r="A3" s="129" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="148" t="str">
+      <c r="B3" s="130"/>
+      <c r="C3" s="130"/>
+      <c r="D3" s="131"/>
+      <c r="E3" s="159" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="94"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="94"/>
-      <c r="I3" s="94"/>
-      <c r="J3" s="94"/>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94"/>
-      <c r="M3" s="94"/>
-      <c r="N3" s="95"/>
-      <c r="O3" s="105"/>
-      <c r="P3" s="106"/>
-      <c r="Q3" s="106"/>
-      <c r="R3" s="107"/>
-      <c r="S3" s="114"/>
-      <c r="T3" s="115"/>
-      <c r="U3" s="115"/>
-      <c r="V3" s="115"/>
-      <c r="W3" s="115"/>
-      <c r="X3" s="115"/>
-      <c r="Y3" s="115"/>
-      <c r="Z3" s="116"/>
-      <c r="AA3" s="90"/>
-      <c r="AB3" s="92"/>
-      <c r="AC3" s="117" t="str">
+      <c r="F3" s="133"/>
+      <c r="G3" s="133"/>
+      <c r="H3" s="133"/>
+      <c r="I3" s="133"/>
+      <c r="J3" s="133"/>
+      <c r="K3" s="133"/>
+      <c r="L3" s="133"/>
+      <c r="M3" s="133"/>
+      <c r="N3" s="134"/>
+      <c r="O3" s="144"/>
+      <c r="P3" s="145"/>
+      <c r="Q3" s="145"/>
+      <c r="R3" s="146"/>
+      <c r="S3" s="153"/>
+      <c r="T3" s="154"/>
+      <c r="U3" s="154"/>
+      <c r="V3" s="154"/>
+      <c r="W3" s="154"/>
+      <c r="X3" s="154"/>
+      <c r="Y3" s="154"/>
+      <c r="Z3" s="155"/>
+      <c r="AA3" s="129"/>
+      <c r="AB3" s="131"/>
+      <c r="AC3" s="156" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="118"/>
-      <c r="AE3" s="118"/>
-      <c r="AF3" s="119"/>
-      <c r="AG3" s="145" t="str">
+      <c r="AD3" s="157"/>
+      <c r="AE3" s="157"/>
+      <c r="AF3" s="158"/>
+      <c r="AG3" s="160" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="146"/>
-      <c r="AI3" s="147"/>
+      <c r="AH3" s="161"/>
+      <c r="AI3" s="162"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
@@ -5093,7 +5202,7 @@
       <c r="O5" s="32"/>
       <c r="P5" s="32"/>
       <c r="Q5" s="35" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R5" s="32"/>
       <c r="S5" s="32"/>
@@ -6496,6 +6605,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -6505,16 +6622,8 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
-  <phoneticPr fontId="11"/>
+  <phoneticPr fontId="10"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -6539,59 +6648,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:57" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="129" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="148" t="str">
+      <c r="B1" s="130"/>
+      <c r="C1" s="130"/>
+      <c r="D1" s="131"/>
+      <c r="E1" s="159" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
-      <c r="L1" s="94"/>
-      <c r="M1" s="94"/>
-      <c r="N1" s="95"/>
-      <c r="O1" s="182" t="s">
-        <v>21</v>
-      </c>
-      <c r="P1" s="183"/>
-      <c r="Q1" s="183"/>
-      <c r="R1" s="184"/>
-      <c r="S1" s="173" t="str">
+      <c r="F1" s="133"/>
+      <c r="G1" s="133"/>
+      <c r="H1" s="133"/>
+      <c r="I1" s="133"/>
+      <c r="J1" s="133"/>
+      <c r="K1" s="133"/>
+      <c r="L1" s="133"/>
+      <c r="M1" s="133"/>
+      <c r="N1" s="134"/>
+      <c r="O1" s="174" t="s">
+        <v>20</v>
+      </c>
+      <c r="P1" s="175"/>
+      <c r="Q1" s="175"/>
+      <c r="R1" s="176"/>
+      <c r="S1" s="183" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>画面一覧</v>
       </c>
-      <c r="T1" s="174"/>
-      <c r="U1" s="174"/>
-      <c r="V1" s="174"/>
-      <c r="W1" s="174"/>
-      <c r="X1" s="174"/>
-      <c r="Y1" s="174"/>
-      <c r="Z1" s="175"/>
-      <c r="AA1" s="90" t="s">
+      <c r="T1" s="184"/>
+      <c r="U1" s="184"/>
+      <c r="V1" s="184"/>
+      <c r="W1" s="184"/>
+      <c r="X1" s="184"/>
+      <c r="Y1" s="184"/>
+      <c r="Z1" s="185"/>
+      <c r="AA1" s="129" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="92"/>
-      <c r="AC1" s="117" t="str">
+      <c r="AB1" s="131"/>
+      <c r="AC1" s="156" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="118"/>
-      <c r="AE1" s="118"/>
-      <c r="AF1" s="119"/>
-      <c r="AG1" s="145">
+      <c r="AD1" s="157"/>
+      <c r="AE1" s="157"/>
+      <c r="AF1" s="158"/>
+      <c r="AG1" s="160">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43592</v>
       </c>
-      <c r="AH1" s="146"/>
-      <c r="AI1" s="147"/>
+      <c r="AH1" s="161"/>
+      <c r="AI1" s="162"/>
       <c r="AJ1" s="11"/>
       <c r="AK1" s="11"/>
       <c r="AL1" s="11"/>
@@ -6616,54 +6725,54 @@
       <c r="BE1" s="11"/>
     </row>
     <row r="2" spans="1:57" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="90" t="s">
+      <c r="A2" s="129" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="148" t="str">
+      <c r="B2" s="130"/>
+      <c r="C2" s="130"/>
+      <c r="D2" s="131"/>
+      <c r="E2" s="159" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="94"/>
-      <c r="J2" s="94"/>
-      <c r="K2" s="94"/>
-      <c r="L2" s="94"/>
-      <c r="M2" s="94"/>
-      <c r="N2" s="95"/>
-      <c r="O2" s="185"/>
-      <c r="P2" s="186"/>
-      <c r="Q2" s="186"/>
-      <c r="R2" s="187"/>
-      <c r="S2" s="176"/>
-      <c r="T2" s="177"/>
-      <c r="U2" s="177"/>
-      <c r="V2" s="177"/>
-      <c r="W2" s="177"/>
-      <c r="X2" s="177"/>
-      <c r="Y2" s="177"/>
-      <c r="Z2" s="178"/>
-      <c r="AA2" s="90" t="s">
+      <c r="F2" s="133"/>
+      <c r="G2" s="133"/>
+      <c r="H2" s="133"/>
+      <c r="I2" s="133"/>
+      <c r="J2" s="133"/>
+      <c r="K2" s="133"/>
+      <c r="L2" s="133"/>
+      <c r="M2" s="133"/>
+      <c r="N2" s="134"/>
+      <c r="O2" s="177"/>
+      <c r="P2" s="178"/>
+      <c r="Q2" s="178"/>
+      <c r="R2" s="179"/>
+      <c r="S2" s="186"/>
+      <c r="T2" s="187"/>
+      <c r="U2" s="187"/>
+      <c r="V2" s="187"/>
+      <c r="W2" s="187"/>
+      <c r="X2" s="187"/>
+      <c r="Y2" s="187"/>
+      <c r="Z2" s="188"/>
+      <c r="AA2" s="129" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="92"/>
-      <c r="AC2" s="117" t="str">
+      <c r="AB2" s="131"/>
+      <c r="AC2" s="156" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
-        <v/>
-      </c>
-      <c r="AD2" s="118"/>
-      <c r="AE2" s="118"/>
-      <c r="AF2" s="119"/>
-      <c r="AG2" s="145" t="str">
+        <v>TIS</v>
+      </c>
+      <c r="AD2" s="157"/>
+      <c r="AE2" s="157"/>
+      <c r="AF2" s="158"/>
+      <c r="AG2" s="160">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
-        <v/>
-      </c>
-      <c r="AH2" s="146"/>
-      <c r="AI2" s="147"/>
+        <v>43803</v>
+      </c>
+      <c r="AH2" s="161"/>
+      <c r="AI2" s="162"/>
       <c r="AJ2" s="11"/>
       <c r="AK2" s="11"/>
       <c r="AL2" s="11"/>
@@ -6688,52 +6797,52 @@
       <c r="BE2" s="11"/>
     </row>
     <row r="3" spans="1:57" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="90" t="s">
+      <c r="A3" s="129" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="148" t="str">
+      <c r="B3" s="130"/>
+      <c r="C3" s="130"/>
+      <c r="D3" s="131"/>
+      <c r="E3" s="159" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="94"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="94"/>
-      <c r="I3" s="94"/>
-      <c r="J3" s="94"/>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94"/>
-      <c r="M3" s="94"/>
-      <c r="N3" s="95"/>
-      <c r="O3" s="188"/>
-      <c r="P3" s="189"/>
-      <c r="Q3" s="189"/>
-      <c r="R3" s="190"/>
-      <c r="S3" s="179"/>
-      <c r="T3" s="180"/>
-      <c r="U3" s="180"/>
-      <c r="V3" s="180"/>
-      <c r="W3" s="180"/>
-      <c r="X3" s="180"/>
-      <c r="Y3" s="180"/>
-      <c r="Z3" s="181"/>
-      <c r="AA3" s="90"/>
-      <c r="AB3" s="92"/>
-      <c r="AC3" s="117" t="str">
+      <c r="F3" s="133"/>
+      <c r="G3" s="133"/>
+      <c r="H3" s="133"/>
+      <c r="I3" s="133"/>
+      <c r="J3" s="133"/>
+      <c r="K3" s="133"/>
+      <c r="L3" s="133"/>
+      <c r="M3" s="133"/>
+      <c r="N3" s="134"/>
+      <c r="O3" s="180"/>
+      <c r="P3" s="181"/>
+      <c r="Q3" s="181"/>
+      <c r="R3" s="182"/>
+      <c r="S3" s="189"/>
+      <c r="T3" s="190"/>
+      <c r="U3" s="190"/>
+      <c r="V3" s="190"/>
+      <c r="W3" s="190"/>
+      <c r="X3" s="190"/>
+      <c r="Y3" s="190"/>
+      <c r="Z3" s="191"/>
+      <c r="AA3" s="129"/>
+      <c r="AB3" s="131"/>
+      <c r="AC3" s="156" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="118"/>
-      <c r="AE3" s="118"/>
-      <c r="AF3" s="119"/>
-      <c r="AG3" s="145" t="str">
+      <c r="AD3" s="157"/>
+      <c r="AE3" s="157"/>
+      <c r="AF3" s="158"/>
+      <c r="AG3" s="160" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="146"/>
-      <c r="AI3" s="147"/>
+      <c r="AH3" s="161"/>
+      <c r="AI3" s="162"/>
       <c r="AJ3" s="11"/>
       <c r="AK3" s="11"/>
       <c r="AL3" s="11"/>
@@ -6902,49 +7011,49 @@
     </row>
     <row r="7" spans="1:57" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C7" s="82" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="167" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="165" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="168"/>
-      <c r="F7" s="169"/>
-      <c r="G7" s="167" t="s">
+      <c r="E7" s="166"/>
+      <c r="F7" s="167"/>
+      <c r="G7" s="165" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="168"/>
-      <c r="I7" s="168"/>
-      <c r="J7" s="168"/>
-      <c r="K7" s="169"/>
-      <c r="L7" s="170" t="s">
+      <c r="H7" s="166"/>
+      <c r="I7" s="166"/>
+      <c r="J7" s="166"/>
+      <c r="K7" s="167"/>
+      <c r="L7" s="201" t="s">
         <v>12</v>
       </c>
-      <c r="M7" s="171"/>
-      <c r="N7" s="172"/>
-      <c r="O7" s="167" t="s">
+      <c r="M7" s="202"/>
+      <c r="N7" s="203"/>
+      <c r="O7" s="165" t="s">
         <v>13</v>
       </c>
-      <c r="P7" s="168"/>
-      <c r="Q7" s="168"/>
-      <c r="R7" s="168"/>
-      <c r="S7" s="169"/>
-      <c r="T7" s="167" t="s">
+      <c r="P7" s="166"/>
+      <c r="Q7" s="166"/>
+      <c r="R7" s="166"/>
+      <c r="S7" s="167"/>
+      <c r="T7" s="165" t="s">
         <v>14</v>
       </c>
-      <c r="U7" s="168"/>
-      <c r="V7" s="168"/>
-      <c r="W7" s="168"/>
-      <c r="X7" s="168"/>
-      <c r="Y7" s="168"/>
-      <c r="Z7" s="168"/>
-      <c r="AA7" s="168"/>
-      <c r="AB7" s="168"/>
-      <c r="AC7" s="168"/>
-      <c r="AD7" s="168"/>
-      <c r="AE7" s="168"/>
-      <c r="AF7" s="168"/>
-      <c r="AG7" s="168"/>
-      <c r="AH7" s="169"/>
+      <c r="U7" s="166"/>
+      <c r="V7" s="166"/>
+      <c r="W7" s="166"/>
+      <c r="X7" s="166"/>
+      <c r="Y7" s="166"/>
+      <c r="Z7" s="166"/>
+      <c r="AA7" s="166"/>
+      <c r="AB7" s="166"/>
+      <c r="AC7" s="166"/>
+      <c r="AD7" s="166"/>
+      <c r="AE7" s="166"/>
+      <c r="AF7" s="166"/>
+      <c r="AG7" s="166"/>
+      <c r="AH7" s="167"/>
       <c r="AJ7" s="11"/>
       <c r="AK7" s="11"/>
       <c r="AL7" s="11"/>
@@ -6972,47 +7081,47 @@
       <c r="C8" s="60">
         <v>1</v>
       </c>
-      <c r="D8" s="158" t="s">
+      <c r="D8" s="192" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="193"/>
+      <c r="F8" s="194"/>
+      <c r="G8" s="192" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="159"/>
-      <c r="F8" s="160"/>
-      <c r="G8" s="158" t="s">
+      <c r="H8" s="193"/>
+      <c r="I8" s="193"/>
+      <c r="J8" s="193"/>
+      <c r="K8" s="194"/>
+      <c r="L8" s="103" t="s">
         <v>29</v>
       </c>
-      <c r="H8" s="159"/>
-      <c r="I8" s="159"/>
-      <c r="J8" s="159"/>
-      <c r="K8" s="160"/>
-      <c r="L8" s="155" t="s">
-        <v>30</v>
-      </c>
-      <c r="M8" s="156"/>
-      <c r="N8" s="157"/>
-      <c r="O8" s="155" t="s">
-        <v>29</v>
-      </c>
-      <c r="P8" s="156"/>
-      <c r="Q8" s="156"/>
-      <c r="R8" s="156"/>
-      <c r="S8" s="157"/>
-      <c r="T8" s="155" t="s">
-        <v>59</v>
-      </c>
-      <c r="U8" s="127"/>
-      <c r="V8" s="127"/>
-      <c r="W8" s="127"/>
-      <c r="X8" s="127"/>
-      <c r="Y8" s="127"/>
-      <c r="Z8" s="127"/>
-      <c r="AA8" s="127"/>
-      <c r="AB8" s="127"/>
-      <c r="AC8" s="127"/>
-      <c r="AD8" s="127"/>
-      <c r="AE8" s="127"/>
-      <c r="AF8" s="127"/>
-      <c r="AG8" s="127"/>
-      <c r="AH8" s="128"/>
+      <c r="M8" s="104"/>
+      <c r="N8" s="105"/>
+      <c r="O8" s="103" t="s">
+        <v>28</v>
+      </c>
+      <c r="P8" s="104"/>
+      <c r="Q8" s="104"/>
+      <c r="R8" s="104"/>
+      <c r="S8" s="105"/>
+      <c r="T8" s="103" t="s">
+        <v>57</v>
+      </c>
+      <c r="U8" s="93"/>
+      <c r="V8" s="93"/>
+      <c r="W8" s="93"/>
+      <c r="X8" s="93"/>
+      <c r="Y8" s="93"/>
+      <c r="Z8" s="93"/>
+      <c r="AA8" s="93"/>
+      <c r="AB8" s="93"/>
+      <c r="AC8" s="93"/>
+      <c r="AD8" s="93"/>
+      <c r="AE8" s="93"/>
+      <c r="AF8" s="93"/>
+      <c r="AG8" s="93"/>
+      <c r="AH8" s="94"/>
       <c r="AJ8" s="11"/>
       <c r="AK8" s="11"/>
       <c r="AL8" s="11"/>
@@ -7038,45 +7147,46 @@
     </row>
     <row r="9" spans="1:57" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C9" s="60">
+        <f>C8+1</f>
         <v>2</v>
       </c>
-      <c r="D9" s="161"/>
-      <c r="E9" s="162"/>
-      <c r="F9" s="163"/>
-      <c r="G9" s="161"/>
-      <c r="H9" s="162"/>
-      <c r="I9" s="162"/>
-      <c r="J9" s="162"/>
-      <c r="K9" s="163"/>
-      <c r="L9" s="155" t="s">
+      <c r="D9" s="195"/>
+      <c r="E9" s="196"/>
+      <c r="F9" s="197"/>
+      <c r="G9" s="195"/>
+      <c r="H9" s="196"/>
+      <c r="I9" s="196"/>
+      <c r="J9" s="196"/>
+      <c r="K9" s="197"/>
+      <c r="L9" s="103" t="s">
+        <v>30</v>
+      </c>
+      <c r="M9" s="104"/>
+      <c r="N9" s="105"/>
+      <c r="O9" s="103" t="s">
         <v>31</v>
       </c>
-      <c r="M9" s="156"/>
-      <c r="N9" s="157"/>
-      <c r="O9" s="155" t="s">
-        <v>32</v>
-      </c>
-      <c r="P9" s="156"/>
-      <c r="Q9" s="156"/>
-      <c r="R9" s="156"/>
-      <c r="S9" s="157"/>
-      <c r="T9" s="155" t="s">
-        <v>45</v>
-      </c>
-      <c r="U9" s="127"/>
-      <c r="V9" s="127"/>
-      <c r="W9" s="127"/>
-      <c r="X9" s="127"/>
-      <c r="Y9" s="127"/>
-      <c r="Z9" s="127"/>
-      <c r="AA9" s="127"/>
-      <c r="AB9" s="127"/>
-      <c r="AC9" s="127"/>
-      <c r="AD9" s="127"/>
-      <c r="AE9" s="127"/>
-      <c r="AF9" s="127"/>
-      <c r="AG9" s="127"/>
-      <c r="AH9" s="128"/>
+      <c r="P9" s="104"/>
+      <c r="Q9" s="104"/>
+      <c r="R9" s="104"/>
+      <c r="S9" s="105"/>
+      <c r="T9" s="103" t="s">
+        <v>44</v>
+      </c>
+      <c r="U9" s="93"/>
+      <c r="V9" s="93"/>
+      <c r="W9" s="93"/>
+      <c r="X9" s="93"/>
+      <c r="Y9" s="93"/>
+      <c r="Z9" s="93"/>
+      <c r="AA9" s="93"/>
+      <c r="AB9" s="93"/>
+      <c r="AC9" s="93"/>
+      <c r="AD9" s="93"/>
+      <c r="AE9" s="93"/>
+      <c r="AF9" s="93"/>
+      <c r="AG9" s="93"/>
+      <c r="AH9" s="94"/>
       <c r="AL9" s="11"/>
       <c r="AM9" s="11"/>
       <c r="AN9" s="11"/>
@@ -7092,45 +7202,46 @@
     </row>
     <row r="10" spans="1:57" s="8" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C10" s="60">
+        <f t="shared" ref="C10:C14" si="0">C9+1</f>
         <v>3</v>
       </c>
-      <c r="D10" s="161"/>
-      <c r="E10" s="162"/>
-      <c r="F10" s="163"/>
-      <c r="G10" s="161"/>
-      <c r="H10" s="162"/>
-      <c r="I10" s="162"/>
-      <c r="J10" s="162"/>
-      <c r="K10" s="163"/>
-      <c r="L10" s="152" t="s">
+      <c r="D10" s="195"/>
+      <c r="E10" s="196"/>
+      <c r="F10" s="197"/>
+      <c r="G10" s="195"/>
+      <c r="H10" s="196"/>
+      <c r="I10" s="196"/>
+      <c r="J10" s="196"/>
+      <c r="K10" s="197"/>
+      <c r="L10" s="171" t="s">
+        <v>32</v>
+      </c>
+      <c r="M10" s="172"/>
+      <c r="N10" s="173"/>
+      <c r="O10" s="171" t="s">
         <v>33</v>
       </c>
-      <c r="M10" s="153"/>
-      <c r="N10" s="154"/>
-      <c r="O10" s="152" t="s">
-        <v>34</v>
-      </c>
-      <c r="P10" s="153"/>
-      <c r="Q10" s="153"/>
-      <c r="R10" s="153"/>
-      <c r="S10" s="154"/>
-      <c r="T10" s="191" t="s">
-        <v>52</v>
-      </c>
-      <c r="U10" s="150"/>
-      <c r="V10" s="150"/>
-      <c r="W10" s="150"/>
-      <c r="X10" s="150"/>
-      <c r="Y10" s="150"/>
-      <c r="Z10" s="150"/>
-      <c r="AA10" s="150"/>
-      <c r="AB10" s="150"/>
-      <c r="AC10" s="150"/>
-      <c r="AD10" s="150"/>
-      <c r="AE10" s="150"/>
-      <c r="AF10" s="150"/>
-      <c r="AG10" s="150"/>
-      <c r="AH10" s="151"/>
+      <c r="P10" s="172"/>
+      <c r="Q10" s="172"/>
+      <c r="R10" s="172"/>
+      <c r="S10" s="173"/>
+      <c r="T10" s="168" t="s">
+        <v>50</v>
+      </c>
+      <c r="U10" s="169"/>
+      <c r="V10" s="169"/>
+      <c r="W10" s="169"/>
+      <c r="X10" s="169"/>
+      <c r="Y10" s="169"/>
+      <c r="Z10" s="169"/>
+      <c r="AA10" s="169"/>
+      <c r="AB10" s="169"/>
+      <c r="AC10" s="169"/>
+      <c r="AD10" s="169"/>
+      <c r="AE10" s="169"/>
+      <c r="AF10" s="169"/>
+      <c r="AG10" s="169"/>
+      <c r="AH10" s="170"/>
       <c r="AL10" s="11"/>
       <c r="AM10" s="11"/>
       <c r="AN10" s="11"/>
@@ -7146,45 +7257,46 @@
     </row>
     <row r="11" spans="1:57" s="8" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C11" s="60">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D11" s="164"/>
-      <c r="E11" s="165"/>
-      <c r="F11" s="166"/>
-      <c r="G11" s="164"/>
-      <c r="H11" s="165"/>
-      <c r="I11" s="165"/>
-      <c r="J11" s="165"/>
-      <c r="K11" s="166"/>
-      <c r="L11" s="152" t="s">
+      <c r="D11" s="198"/>
+      <c r="E11" s="199"/>
+      <c r="F11" s="200"/>
+      <c r="G11" s="198"/>
+      <c r="H11" s="199"/>
+      <c r="I11" s="199"/>
+      <c r="J11" s="199"/>
+      <c r="K11" s="200"/>
+      <c r="L11" s="171" t="s">
+        <v>34</v>
+      </c>
+      <c r="M11" s="172"/>
+      <c r="N11" s="173"/>
+      <c r="O11" s="171" t="s">
         <v>35</v>
       </c>
-      <c r="M11" s="153"/>
-      <c r="N11" s="154"/>
-      <c r="O11" s="152" t="s">
-        <v>36</v>
-      </c>
-      <c r="P11" s="153"/>
-      <c r="Q11" s="153"/>
-      <c r="R11" s="153"/>
-      <c r="S11" s="154"/>
-      <c r="T11" s="191" t="s">
-        <v>58</v>
-      </c>
-      <c r="U11" s="150"/>
-      <c r="V11" s="150"/>
-      <c r="W11" s="150"/>
-      <c r="X11" s="150"/>
-      <c r="Y11" s="150"/>
-      <c r="Z11" s="150"/>
-      <c r="AA11" s="150"/>
-      <c r="AB11" s="150"/>
-      <c r="AC11" s="150"/>
-      <c r="AD11" s="150"/>
-      <c r="AE11" s="150"/>
-      <c r="AF11" s="150"/>
-      <c r="AG11" s="150"/>
-      <c r="AH11" s="151"/>
+      <c r="P11" s="172"/>
+      <c r="Q11" s="172"/>
+      <c r="R11" s="172"/>
+      <c r="S11" s="173"/>
+      <c r="T11" s="168" t="s">
+        <v>56</v>
+      </c>
+      <c r="U11" s="169"/>
+      <c r="V11" s="169"/>
+      <c r="W11" s="169"/>
+      <c r="X11" s="169"/>
+      <c r="Y11" s="169"/>
+      <c r="Z11" s="169"/>
+      <c r="AA11" s="169"/>
+      <c r="AB11" s="169"/>
+      <c r="AC11" s="169"/>
+      <c r="AD11" s="169"/>
+      <c r="AE11" s="169"/>
+      <c r="AF11" s="169"/>
+      <c r="AG11" s="169"/>
+      <c r="AH11" s="170"/>
       <c r="AL11" s="11"/>
       <c r="AM11" s="11"/>
       <c r="AN11" s="11"/>
@@ -7200,49 +7312,50 @@
     </row>
     <row r="12" spans="1:57" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C12" s="60">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="D12" s="158" t="s">
+      <c r="D12" s="163" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="163"/>
+      <c r="F12" s="163"/>
+      <c r="G12" s="163" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12" s="163"/>
+      <c r="I12" s="163"/>
+      <c r="J12" s="163"/>
+      <c r="K12" s="163"/>
+      <c r="L12" s="171" t="s">
+        <v>41</v>
+      </c>
+      <c r="M12" s="172"/>
+      <c r="N12" s="173"/>
+      <c r="O12" s="171" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="159"/>
-      <c r="F12" s="160"/>
-      <c r="G12" s="158" t="s">
-        <v>37</v>
-      </c>
-      <c r="H12" s="159"/>
-      <c r="I12" s="159"/>
-      <c r="J12" s="159"/>
-      <c r="K12" s="160"/>
-      <c r="L12" s="152" t="s">
-        <v>42</v>
-      </c>
-      <c r="M12" s="153"/>
-      <c r="N12" s="154"/>
-      <c r="O12" s="152" t="s">
-        <v>39</v>
-      </c>
-      <c r="P12" s="153"/>
-      <c r="Q12" s="153"/>
-      <c r="R12" s="153"/>
-      <c r="S12" s="154"/>
-      <c r="T12" s="152" t="s">
-        <v>55</v>
-      </c>
-      <c r="U12" s="150"/>
-      <c r="V12" s="150"/>
-      <c r="W12" s="150"/>
-      <c r="X12" s="150"/>
-      <c r="Y12" s="150"/>
-      <c r="Z12" s="150"/>
-      <c r="AA12" s="150"/>
-      <c r="AB12" s="150"/>
-      <c r="AC12" s="150"/>
-      <c r="AD12" s="150"/>
-      <c r="AE12" s="150"/>
-      <c r="AF12" s="150"/>
-      <c r="AG12" s="150"/>
-      <c r="AH12" s="151"/>
+      <c r="P12" s="172"/>
+      <c r="Q12" s="172"/>
+      <c r="R12" s="172"/>
+      <c r="S12" s="173"/>
+      <c r="T12" s="171" t="s">
+        <v>53</v>
+      </c>
+      <c r="U12" s="169"/>
+      <c r="V12" s="169"/>
+      <c r="W12" s="169"/>
+      <c r="X12" s="169"/>
+      <c r="Y12" s="169"/>
+      <c r="Z12" s="169"/>
+      <c r="AA12" s="169"/>
+      <c r="AB12" s="169"/>
+      <c r="AC12" s="169"/>
+      <c r="AD12" s="169"/>
+      <c r="AE12" s="169"/>
+      <c r="AF12" s="169"/>
+      <c r="AG12" s="169"/>
+      <c r="AH12" s="170"/>
       <c r="AL12" s="11"/>
       <c r="AM12" s="11"/>
       <c r="AN12" s="11"/>
@@ -7258,45 +7371,46 @@
     </row>
     <row r="13" spans="1:57" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C13" s="60">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="D13" s="161"/>
-      <c r="E13" s="162"/>
-      <c r="F13" s="163"/>
-      <c r="G13" s="161"/>
-      <c r="H13" s="162"/>
-      <c r="I13" s="162"/>
-      <c r="J13" s="162"/>
-      <c r="K13" s="163"/>
-      <c r="L13" s="155" t="s">
-        <v>43</v>
-      </c>
-      <c r="M13" s="156"/>
-      <c r="N13" s="157"/>
-      <c r="O13" s="155" t="s">
-        <v>40</v>
-      </c>
-      <c r="P13" s="156"/>
-      <c r="Q13" s="156"/>
-      <c r="R13" s="156"/>
-      <c r="S13" s="157"/>
-      <c r="T13" s="155" t="s">
-        <v>53</v>
-      </c>
-      <c r="U13" s="127"/>
-      <c r="V13" s="127"/>
-      <c r="W13" s="127"/>
-      <c r="X13" s="127"/>
-      <c r="Y13" s="127"/>
-      <c r="Z13" s="127"/>
-      <c r="AA13" s="127"/>
-      <c r="AB13" s="127"/>
-      <c r="AC13" s="127"/>
-      <c r="AD13" s="127"/>
-      <c r="AE13" s="127"/>
-      <c r="AF13" s="127"/>
-      <c r="AG13" s="127"/>
-      <c r="AH13" s="128"/>
+      <c r="D13" s="164"/>
+      <c r="E13" s="164"/>
+      <c r="F13" s="164"/>
+      <c r="G13" s="164"/>
+      <c r="H13" s="164"/>
+      <c r="I13" s="164"/>
+      <c r="J13" s="164"/>
+      <c r="K13" s="164"/>
+      <c r="L13" s="103" t="s">
+        <v>42</v>
+      </c>
+      <c r="M13" s="104"/>
+      <c r="N13" s="105"/>
+      <c r="O13" s="103" t="s">
+        <v>39</v>
+      </c>
+      <c r="P13" s="104"/>
+      <c r="Q13" s="104"/>
+      <c r="R13" s="104"/>
+      <c r="S13" s="105"/>
+      <c r="T13" s="103" t="s">
+        <v>51</v>
+      </c>
+      <c r="U13" s="93"/>
+      <c r="V13" s="93"/>
+      <c r="W13" s="93"/>
+      <c r="X13" s="93"/>
+      <c r="Y13" s="93"/>
+      <c r="Z13" s="93"/>
+      <c r="AA13" s="93"/>
+      <c r="AB13" s="93"/>
+      <c r="AC13" s="93"/>
+      <c r="AD13" s="93"/>
+      <c r="AE13" s="93"/>
+      <c r="AF13" s="93"/>
+      <c r="AG13" s="93"/>
+      <c r="AH13" s="94"/>
       <c r="AL13" s="11"/>
       <c r="AM13" s="11"/>
       <c r="AN13" s="11"/>
@@ -7312,45 +7426,46 @@
     </row>
     <row r="14" spans="1:57" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C14" s="60">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="D14" s="161"/>
-      <c r="E14" s="162"/>
-      <c r="F14" s="163"/>
-      <c r="G14" s="161"/>
-      <c r="H14" s="162"/>
-      <c r="I14" s="162"/>
-      <c r="J14" s="162"/>
-      <c r="K14" s="163"/>
-      <c r="L14" s="155" t="s">
-        <v>44</v>
-      </c>
-      <c r="M14" s="156"/>
-      <c r="N14" s="157"/>
-      <c r="O14" s="155" t="s">
-        <v>41</v>
-      </c>
-      <c r="P14" s="156"/>
-      <c r="Q14" s="156"/>
-      <c r="R14" s="156"/>
-      <c r="S14" s="157"/>
-      <c r="T14" s="155" t="s">
-        <v>54</v>
-      </c>
-      <c r="U14" s="127"/>
-      <c r="V14" s="127"/>
-      <c r="W14" s="127"/>
-      <c r="X14" s="127"/>
-      <c r="Y14" s="127"/>
-      <c r="Z14" s="127"/>
-      <c r="AA14" s="127"/>
-      <c r="AB14" s="127"/>
-      <c r="AC14" s="127"/>
-      <c r="AD14" s="127"/>
-      <c r="AE14" s="127"/>
-      <c r="AF14" s="127"/>
-      <c r="AG14" s="127"/>
-      <c r="AH14" s="128"/>
+      <c r="D14" s="164"/>
+      <c r="E14" s="164"/>
+      <c r="F14" s="164"/>
+      <c r="G14" s="164"/>
+      <c r="H14" s="164"/>
+      <c r="I14" s="164"/>
+      <c r="J14" s="164"/>
+      <c r="K14" s="164"/>
+      <c r="L14" s="103" t="s">
+        <v>43</v>
+      </c>
+      <c r="M14" s="104"/>
+      <c r="N14" s="105"/>
+      <c r="O14" s="103" t="s">
+        <v>40</v>
+      </c>
+      <c r="P14" s="104"/>
+      <c r="Q14" s="104"/>
+      <c r="R14" s="104"/>
+      <c r="S14" s="105"/>
+      <c r="T14" s="103" t="s">
+        <v>52</v>
+      </c>
+      <c r="U14" s="93"/>
+      <c r="V14" s="93"/>
+      <c r="W14" s="93"/>
+      <c r="X14" s="93"/>
+      <c r="Y14" s="93"/>
+      <c r="Z14" s="93"/>
+      <c r="AA14" s="93"/>
+      <c r="AB14" s="93"/>
+      <c r="AC14" s="93"/>
+      <c r="AD14" s="93"/>
+      <c r="AE14" s="93"/>
+      <c r="AF14" s="93"/>
+      <c r="AG14" s="93"/>
+      <c r="AH14" s="94"/>
       <c r="AL14" s="11"/>
       <c r="AM14" s="11"/>
       <c r="AN14" s="11"/>
@@ -7364,93 +7479,135 @@
       <c r="AV14" s="11"/>
       <c r="AW14" s="11"/>
     </row>
-    <row r="15" spans="1:57" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:57" s="7" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C15" s="60"/>
-      <c r="D15" s="126"/>
-      <c r="E15" s="127"/>
-      <c r="F15" s="128"/>
-      <c r="G15" s="126"/>
-      <c r="H15" s="127"/>
-      <c r="I15" s="127"/>
-      <c r="J15" s="127"/>
-      <c r="K15" s="128"/>
-      <c r="L15" s="152"/>
-      <c r="M15" s="153"/>
-      <c r="N15" s="154"/>
-      <c r="O15" s="152"/>
-      <c r="P15" s="153"/>
-      <c r="Q15" s="153"/>
-      <c r="R15" s="153"/>
-      <c r="S15" s="154"/>
-      <c r="T15" s="149"/>
-      <c r="U15" s="150"/>
-      <c r="V15" s="150"/>
-      <c r="W15" s="150"/>
-      <c r="X15" s="150"/>
-      <c r="Y15" s="150"/>
-      <c r="Z15" s="150"/>
-      <c r="AA15" s="150"/>
-      <c r="AB15" s="150"/>
-      <c r="AC15" s="150"/>
-      <c r="AD15" s="150"/>
-      <c r="AE15" s="150"/>
-      <c r="AF15" s="150"/>
-      <c r="AG15" s="150"/>
-      <c r="AH15" s="151"/>
-    </row>
-    <row r="16" spans="1:57" x14ac:dyDescent="0.15">
-      <c r="C16" s="60"/>
-      <c r="D16" s="126"/>
-      <c r="E16" s="127"/>
-      <c r="F16" s="128"/>
-      <c r="G16" s="126"/>
-      <c r="H16" s="127"/>
-      <c r="I16" s="127"/>
-      <c r="J16" s="127"/>
-      <c r="K16" s="128"/>
-      <c r="L16" s="149"/>
-      <c r="M16" s="150"/>
-      <c r="N16" s="151"/>
-      <c r="O16" s="149"/>
-      <c r="P16" s="150"/>
-      <c r="Q16" s="150"/>
-      <c r="R16" s="150"/>
-      <c r="S16" s="151"/>
-      <c r="T16" s="149"/>
-      <c r="U16" s="150"/>
-      <c r="V16" s="150"/>
-      <c r="W16" s="150"/>
-      <c r="X16" s="150"/>
-      <c r="Y16" s="150"/>
-      <c r="Z16" s="150"/>
-      <c r="AA16" s="150"/>
-      <c r="AB16" s="150"/>
-      <c r="AC16" s="150"/>
-      <c r="AD16" s="150"/>
-      <c r="AE16" s="150"/>
-      <c r="AF16" s="150"/>
-      <c r="AG16" s="150"/>
-      <c r="AH16" s="151"/>
+      <c r="D15" s="164"/>
+      <c r="E15" s="164"/>
+      <c r="F15" s="164"/>
+      <c r="G15" s="164"/>
+      <c r="H15" s="164"/>
+      <c r="I15" s="164"/>
+      <c r="J15" s="164"/>
+      <c r="K15" s="164"/>
+      <c r="L15" s="103" t="s">
+        <v>58</v>
+      </c>
+      <c r="M15" s="104"/>
+      <c r="N15" s="105"/>
+      <c r="O15" s="103" t="s">
+        <v>59</v>
+      </c>
+      <c r="P15" s="104"/>
+      <c r="Q15" s="104"/>
+      <c r="R15" s="104"/>
+      <c r="S15" s="105"/>
+      <c r="T15" s="106" t="s">
+        <v>60</v>
+      </c>
+      <c r="U15" s="96"/>
+      <c r="V15" s="96"/>
+      <c r="W15" s="96"/>
+      <c r="X15" s="96"/>
+      <c r="Y15" s="96"/>
+      <c r="Z15" s="96"/>
+      <c r="AA15" s="96"/>
+      <c r="AB15" s="96"/>
+      <c r="AC15" s="96"/>
+      <c r="AD15" s="96"/>
+      <c r="AE15" s="96"/>
+      <c r="AF15" s="96"/>
+      <c r="AG15" s="96"/>
+      <c r="AH15" s="97"/>
+      <c r="AL15" s="11"/>
+      <c r="AM15" s="11"/>
+      <c r="AN15" s="11"/>
+      <c r="AO15" s="11"/>
+      <c r="AP15" s="11"/>
+      <c r="AQ15" s="11"/>
+      <c r="AR15" s="11"/>
+      <c r="AS15" s="11"/>
+      <c r="AT15" s="11"/>
+      <c r="AU15" s="11"/>
+      <c r="AV15" s="11"/>
+      <c r="AW15" s="11"/>
+    </row>
+    <row r="16" spans="1:57" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C16" s="60">
+        <f>C14+1</f>
+        <v>8</v>
+      </c>
+      <c r="D16" s="164"/>
+      <c r="E16" s="164"/>
+      <c r="F16" s="164"/>
+      <c r="G16" s="164"/>
+      <c r="H16" s="164"/>
+      <c r="I16" s="164"/>
+      <c r="J16" s="164"/>
+      <c r="K16" s="164"/>
+      <c r="L16" s="103" t="s">
+        <v>65</v>
+      </c>
+      <c r="M16" s="104"/>
+      <c r="N16" s="105"/>
+      <c r="O16" s="103" t="s">
+        <v>66</v>
+      </c>
+      <c r="P16" s="104"/>
+      <c r="Q16" s="104"/>
+      <c r="R16" s="104"/>
+      <c r="S16" s="105"/>
+      <c r="T16" s="106" t="s">
+        <v>67</v>
+      </c>
+      <c r="U16" s="96"/>
+      <c r="V16" s="96"/>
+      <c r="W16" s="96"/>
+      <c r="X16" s="96"/>
+      <c r="Y16" s="96"/>
+      <c r="Z16" s="96"/>
+      <c r="AA16" s="96"/>
+      <c r="AB16" s="96"/>
+      <c r="AC16" s="96"/>
+      <c r="AD16" s="96"/>
+      <c r="AE16" s="96"/>
+      <c r="AF16" s="96"/>
+      <c r="AG16" s="96"/>
+      <c r="AH16" s="97"/>
+      <c r="AL16" s="11"/>
+      <c r="AM16" s="11"/>
+      <c r="AN16" s="11"/>
+      <c r="AO16" s="11"/>
+      <c r="AP16" s="11"/>
+      <c r="AQ16" s="11"/>
+      <c r="AR16" s="11"/>
+      <c r="AS16" s="11"/>
+      <c r="AT16" s="11"/>
+      <c r="AU16" s="11"/>
+      <c r="AV16" s="11"/>
+      <c r="AW16" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="57">
-    <mergeCell ref="D12:F14"/>
-    <mergeCell ref="G12:K14"/>
+  <mergeCells count="53">
+    <mergeCell ref="L11:N11"/>
+    <mergeCell ref="T14:AH14"/>
+    <mergeCell ref="L16:N16"/>
+    <mergeCell ref="O16:S16"/>
     <mergeCell ref="T16:AH16"/>
-    <mergeCell ref="T7:AH7"/>
-    <mergeCell ref="T8:AH8"/>
-    <mergeCell ref="T9:AH9"/>
-    <mergeCell ref="T10:AH10"/>
-    <mergeCell ref="T11:AH11"/>
-    <mergeCell ref="T12:AH12"/>
-    <mergeCell ref="T13:AH13"/>
-    <mergeCell ref="T14:AH14"/>
+    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="L14:N14"/>
+    <mergeCell ref="O14:S14"/>
+    <mergeCell ref="O12:S12"/>
+    <mergeCell ref="O13:S13"/>
+    <mergeCell ref="L12:N12"/>
+    <mergeCell ref="L15:N15"/>
+    <mergeCell ref="O15:S15"/>
     <mergeCell ref="T15:AH15"/>
-    <mergeCell ref="O8:S8"/>
-    <mergeCell ref="O9:S9"/>
-    <mergeCell ref="O10:S10"/>
-    <mergeCell ref="O11:S11"/>
-    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="L7:N7"/>
+    <mergeCell ref="O7:S7"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="L10:N10"/>
+    <mergeCell ref="L8:N8"/>
     <mergeCell ref="AC3:AF3"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="E3:N3"/>
@@ -7461,38 +7618,31 @@
     <mergeCell ref="AC2:AF2"/>
     <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="O1:R3"/>
     <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="D12:F16"/>
+    <mergeCell ref="G12:K16"/>
+    <mergeCell ref="T7:AH7"/>
+    <mergeCell ref="T8:AH8"/>
+    <mergeCell ref="T9:AH9"/>
+    <mergeCell ref="T10:AH10"/>
+    <mergeCell ref="T11:AH11"/>
+    <mergeCell ref="T12:AH12"/>
+    <mergeCell ref="T13:AH13"/>
+    <mergeCell ref="O8:S8"/>
+    <mergeCell ref="O9:S9"/>
+    <mergeCell ref="O10:S10"/>
+    <mergeCell ref="O11:S11"/>
     <mergeCell ref="D8:F11"/>
     <mergeCell ref="G8:K11"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="L7:N7"/>
-    <mergeCell ref="O7:S7"/>
-    <mergeCell ref="O12:S12"/>
-    <mergeCell ref="O13:S13"/>
-    <mergeCell ref="O14:S14"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="L10:N10"/>
-    <mergeCell ref="L11:N11"/>
-    <mergeCell ref="L12:N12"/>
-    <mergeCell ref="O16:S16"/>
-    <mergeCell ref="O15:S15"/>
-    <mergeCell ref="G16:K16"/>
-    <mergeCell ref="L8:N8"/>
-    <mergeCell ref="L16:N16"/>
-    <mergeCell ref="L15:N15"/>
-    <mergeCell ref="G15:K15"/>
-    <mergeCell ref="L13:N13"/>
-    <mergeCell ref="L14:N14"/>
   </mergeCells>
-  <phoneticPr fontId="11"/>
+  <phoneticPr fontId="10"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" useFirstPageNumber="1" r:id="rId1"/>

--- a/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/010_要件定義/040_画面設計/画面一覧_A1_プロジェクト管理システム.xlsx
+++ b/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/010_要件定義/040_画面設計/画面一覧_A1_プロジェクト管理システム.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33A6982F-1620-4E5C-9372-231D02D83A4A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="6135" windowWidth="28830" windowHeight="6180" tabRatio="822"/>
+    <workbookView xWindow="195" yWindow="3120" windowWidth="38205" windowHeight="15090" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="30" r:id="rId1"/>
@@ -13,7 +14,7 @@
     <sheet name="1" sheetId="29" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'1'!$A$1:$AI$17</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'1'!$A$1:$AI$26</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$S$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">変更履歴!$A$1:$AI$34</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">目次!$A$1:$AI$36</definedName>
@@ -21,12 +22,20 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">変更履歴!$1:$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">目次!$1:$4</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="80">
   <si>
     <t>PJ名</t>
   </si>
@@ -519,16 +528,6 @@
     <phoneticPr fontId="10"/>
   </si>
   <si>
-    <t>第１．１版</t>
-    <rPh sb="0" eb="1">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ハン</t>
-    </rPh>
-    <phoneticPr fontId="38"/>
-  </si>
-  <si>
     <t>WA1020202</t>
     <phoneticPr fontId="10"/>
   </si>
@@ -565,11 +564,116 @@
     </rPh>
     <phoneticPr fontId="10"/>
   </si>
+  <si>
+    <t>WA1020301</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>WA1020302</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>WA1020303</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>プロジェクト更新</t>
+    <rPh sb="6" eb="8">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>プロジェクト更新確認</t>
+    <rPh sb="6" eb="8">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>プロジェクト更新完了</t>
+    <rPh sb="6" eb="8">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>プロジェクトのデータを1件更新入力する。</t>
+    <rPh sb="12" eb="13">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>プロジェクトのデータを更新前に確認する。</t>
+    <rPh sb="11" eb="13">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>プロジェクトのデータが更新されたことを確認する。</t>
+    <rPh sb="11" eb="13">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>プロジェクト更新画面追加</t>
+    <rPh sb="6" eb="8">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>第１．２版</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ハン</t>
+    </rPh>
+    <phoneticPr fontId="38"/>
+  </si>
+  <si>
+    <t>1.2版</t>
+    <rPh sb="3" eb="4">
+      <t>ハン</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="&quot;第&quot;0.00&quot;版&quot;"/>
     <numFmt numFmtId="177" formatCode="yyyy/mm/dd"/>
@@ -1424,7 +1528,7 @@
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="204">
+  <cellXfs count="217">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
@@ -1610,6 +1714,30 @@
     <xf numFmtId="0" fontId="0" fillId="25" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="31" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1655,6 +1783,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1670,18 +1810,12 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1850,6 +1984,15 @@
     <xf numFmtId="177" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1883,6 +2026,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="31" fillId="24" borderId="13" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1936,33 +2106,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -2002,7 +2145,7 @@
     <cellStyle name="タイトル" xfId="25" builtinId="15" customBuiltin="1"/>
     <cellStyle name="チェック セル" xfId="26" builtinId="23" customBuiltin="1"/>
     <cellStyle name="どちらでもない" xfId="27" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="パーセント 2" xfId="47"/>
+    <cellStyle name="パーセント 2" xfId="47" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
     <cellStyle name="ハイパーリンク" xfId="46" builtinId="8"/>
     <cellStyle name="メモ" xfId="28" builtinId="10" customBuiltin="1"/>
     <cellStyle name="リンク セル" xfId="29" builtinId="24" customBuiltin="1"/>
@@ -2018,10 +2161,10 @@
     <cellStyle name="説明文" xfId="39" builtinId="53" customBuiltin="1"/>
     <cellStyle name="入力" xfId="40" builtinId="20" customBuiltin="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="44"/>
-    <cellStyle name="標準 2 2" xfId="45"/>
-    <cellStyle name="標準_画面標準" xfId="41"/>
-    <cellStyle name="標準_画面標準定義" xfId="42"/>
+    <cellStyle name="標準 2" xfId="44" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
+    <cellStyle name="標準 2 2" xfId="45" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
+    <cellStyle name="標準_画面標準" xfId="41" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
+    <cellStyle name="標準_画面標準定義" xfId="42" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
     <cellStyle name="良い" xfId="43" builtinId="26" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2029,6 +2172,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2051,7 +2197,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="Group 17"/>
+        <xdr:cNvPr id="2" name="Group 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr>
           <a:grpSpLocks/>
         </xdr:cNvGrpSpPr>
@@ -2066,7 +2218,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="3" name="Text Box 12"/>
+          <xdr:cNvPr id="3" name="Text Box 12">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -2150,7 +2308,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="4" name="Text Box 13"/>
+          <xdr:cNvPr id="4" name="Text Box 13">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -2250,7 +2414,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Text Box 18"/>
+        <xdr:cNvPr id="5" name="Text Box 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2759,7 +2929,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -2809,7 +2979,7 @@
       <c r="G23" s="21"/>
       <c r="H23" s="21"/>
       <c r="J23" s="6" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2821,12 +2991,12 @@
       <c r="F25" s="21"/>
       <c r="G25" s="21"/>
       <c r="H25" s="21"/>
-      <c r="I25" s="83">
+      <c r="I25" s="91">
         <f ca="1">IF(INDIRECT("変更履歴!D8")="","",MAX(INDIRECT("変更履歴!D8"):INDIRECT("変更履歴!F33")))</f>
-        <v>43803</v>
-      </c>
-      <c r="J25" s="83"/>
-      <c r="K25" s="83"/>
+        <v>43895</v>
+      </c>
+      <c r="J25" s="91"/>
+      <c r="K25" s="91"/>
     </row>
     <row r="26" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F26" s="21"/>
@@ -3409,7 +3579,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -3425,57 +3595,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="129" t="s">
+      <c r="A1" s="139" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="130"/>
-      <c r="C1" s="130"/>
-      <c r="D1" s="131"/>
-      <c r="E1" s="132" t="s">
+      <c r="B1" s="140"/>
+      <c r="C1" s="140"/>
+      <c r="D1" s="141"/>
+      <c r="E1" s="142" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="133"/>
-      <c r="G1" s="133"/>
-      <c r="H1" s="133"/>
-      <c r="I1" s="133"/>
-      <c r="J1" s="133"/>
-      <c r="K1" s="133"/>
-      <c r="L1" s="133"/>
-      <c r="M1" s="133"/>
-      <c r="N1" s="134"/>
-      <c r="O1" s="138" t="s">
+      <c r="F1" s="143"/>
+      <c r="G1" s="143"/>
+      <c r="H1" s="143"/>
+      <c r="I1" s="143"/>
+      <c r="J1" s="143"/>
+      <c r="K1" s="143"/>
+      <c r="L1" s="143"/>
+      <c r="M1" s="143"/>
+      <c r="N1" s="144"/>
+      <c r="O1" s="148" t="s">
         <v>17</v>
       </c>
-      <c r="P1" s="139"/>
-      <c r="Q1" s="139"/>
-      <c r="R1" s="140"/>
-      <c r="S1" s="147" t="s">
+      <c r="P1" s="149"/>
+      <c r="Q1" s="149"/>
+      <c r="R1" s="150"/>
+      <c r="S1" s="157" t="s">
         <v>23</v>
       </c>
-      <c r="T1" s="148"/>
-      <c r="U1" s="148"/>
-      <c r="V1" s="148"/>
-      <c r="W1" s="148"/>
-      <c r="X1" s="148"/>
-      <c r="Y1" s="148"/>
-      <c r="Z1" s="149"/>
-      <c r="AA1" s="129" t="s">
+      <c r="T1" s="158"/>
+      <c r="U1" s="158"/>
+      <c r="V1" s="158"/>
+      <c r="W1" s="158"/>
+      <c r="X1" s="158"/>
+      <c r="Y1" s="158"/>
+      <c r="Z1" s="159"/>
+      <c r="AA1" s="139" t="s">
         <v>18</v>
       </c>
-      <c r="AB1" s="131"/>
-      <c r="AC1" s="156" t="str">
+      <c r="AB1" s="141"/>
+      <c r="AC1" s="166" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="157"/>
-      <c r="AE1" s="157"/>
-      <c r="AF1" s="158"/>
-      <c r="AG1" s="123">
+      <c r="AD1" s="167"/>
+      <c r="AE1" s="167"/>
+      <c r="AF1" s="168"/>
+      <c r="AG1" s="133">
         <f>IF(D8="","",D8)</f>
         <v>43592</v>
       </c>
-      <c r="AH1" s="124"/>
-      <c r="AI1" s="125"/>
+      <c r="AH1" s="134"/>
+      <c r="AI1" s="135"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="1"/>
@@ -3483,53 +3653,53 @@
       <c r="AN1" s="2"/>
     </row>
     <row r="2" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="129" t="s">
+      <c r="A2" s="139" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="130"/>
-      <c r="C2" s="130"/>
-      <c r="D2" s="131"/>
-      <c r="E2" s="132" t="s">
+      <c r="B2" s="140"/>
+      <c r="C2" s="140"/>
+      <c r="D2" s="141"/>
+      <c r="E2" s="142" t="s">
         <v>46</v>
       </c>
-      <c r="F2" s="133"/>
-      <c r="G2" s="133"/>
-      <c r="H2" s="133"/>
-      <c r="I2" s="133"/>
-      <c r="J2" s="133"/>
-      <c r="K2" s="133"/>
-      <c r="L2" s="133"/>
-      <c r="M2" s="133"/>
-      <c r="N2" s="134"/>
-      <c r="O2" s="141"/>
-      <c r="P2" s="142"/>
-      <c r="Q2" s="142"/>
-      <c r="R2" s="143"/>
-      <c r="S2" s="150"/>
-      <c r="T2" s="151"/>
-      <c r="U2" s="151"/>
-      <c r="V2" s="151"/>
-      <c r="W2" s="151"/>
-      <c r="X2" s="151"/>
-      <c r="Y2" s="151"/>
-      <c r="Z2" s="152"/>
-      <c r="AA2" s="129" t="s">
+      <c r="F2" s="143"/>
+      <c r="G2" s="143"/>
+      <c r="H2" s="143"/>
+      <c r="I2" s="143"/>
+      <c r="J2" s="143"/>
+      <c r="K2" s="143"/>
+      <c r="L2" s="143"/>
+      <c r="M2" s="143"/>
+      <c r="N2" s="144"/>
+      <c r="O2" s="151"/>
+      <c r="P2" s="152"/>
+      <c r="Q2" s="152"/>
+      <c r="R2" s="153"/>
+      <c r="S2" s="160"/>
+      <c r="T2" s="161"/>
+      <c r="U2" s="161"/>
+      <c r="V2" s="161"/>
+      <c r="W2" s="161"/>
+      <c r="X2" s="161"/>
+      <c r="Y2" s="161"/>
+      <c r="Z2" s="162"/>
+      <c r="AA2" s="139" t="s">
         <v>19</v>
       </c>
-      <c r="AB2" s="131"/>
-      <c r="AC2" s="135" t="str">
+      <c r="AB2" s="141"/>
+      <c r="AC2" s="145" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="136"/>
-      <c r="AE2" s="136"/>
-      <c r="AF2" s="137"/>
-      <c r="AG2" s="123">
+      <c r="AD2" s="146"/>
+      <c r="AE2" s="146"/>
+      <c r="AF2" s="147"/>
+      <c r="AG2" s="133">
         <f>IF(D9="","",MAX(D9:F33))</f>
-        <v>43803</v>
-      </c>
-      <c r="AH2" s="124"/>
-      <c r="AI2" s="125"/>
+        <v>43895</v>
+      </c>
+      <c r="AH2" s="134"/>
+      <c r="AI2" s="135"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
@@ -3537,45 +3707,45 @@
       <c r="AN2" s="1"/>
     </row>
     <row r="3" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="129" t="s">
+      <c r="A3" s="139" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="130"/>
-      <c r="C3" s="130"/>
-      <c r="D3" s="131"/>
-      <c r="E3" s="132" t="s">
+      <c r="B3" s="140"/>
+      <c r="C3" s="140"/>
+      <c r="D3" s="141"/>
+      <c r="E3" s="142" t="s">
         <v>54</v>
       </c>
-      <c r="F3" s="133"/>
-      <c r="G3" s="133"/>
-      <c r="H3" s="133"/>
-      <c r="I3" s="133"/>
-      <c r="J3" s="133"/>
-      <c r="K3" s="133"/>
-      <c r="L3" s="133"/>
-      <c r="M3" s="133"/>
-      <c r="N3" s="134"/>
-      <c r="O3" s="144"/>
-      <c r="P3" s="145"/>
-      <c r="Q3" s="145"/>
-      <c r="R3" s="146"/>
-      <c r="S3" s="153"/>
-      <c r="T3" s="154"/>
-      <c r="U3" s="154"/>
-      <c r="V3" s="154"/>
-      <c r="W3" s="154"/>
-      <c r="X3" s="154"/>
-      <c r="Y3" s="154"/>
-      <c r="Z3" s="155"/>
-      <c r="AA3" s="129"/>
-      <c r="AB3" s="131"/>
-      <c r="AC3" s="156"/>
-      <c r="AD3" s="157"/>
-      <c r="AE3" s="157"/>
-      <c r="AF3" s="158"/>
-      <c r="AG3" s="123"/>
-      <c r="AH3" s="124"/>
-      <c r="AI3" s="125"/>
+      <c r="F3" s="143"/>
+      <c r="G3" s="143"/>
+      <c r="H3" s="143"/>
+      <c r="I3" s="143"/>
+      <c r="J3" s="143"/>
+      <c r="K3" s="143"/>
+      <c r="L3" s="143"/>
+      <c r="M3" s="143"/>
+      <c r="N3" s="144"/>
+      <c r="O3" s="154"/>
+      <c r="P3" s="155"/>
+      <c r="Q3" s="155"/>
+      <c r="R3" s="156"/>
+      <c r="S3" s="163"/>
+      <c r="T3" s="164"/>
+      <c r="U3" s="164"/>
+      <c r="V3" s="164"/>
+      <c r="W3" s="164"/>
+      <c r="X3" s="164"/>
+      <c r="Y3" s="164"/>
+      <c r="Z3" s="165"/>
+      <c r="AA3" s="139"/>
+      <c r="AB3" s="141"/>
+      <c r="AC3" s="166"/>
+      <c r="AD3" s="167"/>
+      <c r="AE3" s="167"/>
+      <c r="AF3" s="168"/>
+      <c r="AG3" s="133"/>
+      <c r="AH3" s="134"/>
+      <c r="AI3" s="135"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
@@ -3612,1042 +3782,1056 @@
       <c r="A7" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="126" t="s">
+      <c r="B7" s="136" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="127"/>
-      <c r="D7" s="126" t="s">
+      <c r="C7" s="137"/>
+      <c r="D7" s="136" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="128"/>
-      <c r="F7" s="127"/>
-      <c r="G7" s="126" t="s">
+      <c r="E7" s="138"/>
+      <c r="F7" s="137"/>
+      <c r="G7" s="136" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="128"/>
-      <c r="I7" s="127"/>
-      <c r="J7" s="126" t="s">
+      <c r="H7" s="138"/>
+      <c r="I7" s="137"/>
+      <c r="J7" s="136" t="s">
         <v>26</v>
       </c>
-      <c r="K7" s="128"/>
-      <c r="L7" s="128"/>
-      <c r="M7" s="128"/>
-      <c r="N7" s="128"/>
-      <c r="O7" s="128"/>
-      <c r="P7" s="127"/>
-      <c r="Q7" s="126" t="s">
+      <c r="K7" s="138"/>
+      <c r="L7" s="138"/>
+      <c r="M7" s="138"/>
+      <c r="N7" s="138"/>
+      <c r="O7" s="138"/>
+      <c r="P7" s="137"/>
+      <c r="Q7" s="136" t="s">
         <v>9</v>
       </c>
-      <c r="R7" s="128"/>
-      <c r="S7" s="128"/>
-      <c r="T7" s="128"/>
-      <c r="U7" s="128"/>
-      <c r="V7" s="128"/>
-      <c r="W7" s="128"/>
-      <c r="X7" s="128"/>
-      <c r="Y7" s="128"/>
-      <c r="Z7" s="128"/>
-      <c r="AA7" s="128"/>
-      <c r="AB7" s="128"/>
-      <c r="AC7" s="128"/>
-      <c r="AD7" s="128"/>
-      <c r="AE7" s="127"/>
-      <c r="AF7" s="126" t="s">
+      <c r="R7" s="138"/>
+      <c r="S7" s="138"/>
+      <c r="T7" s="138"/>
+      <c r="U7" s="138"/>
+      <c r="V7" s="138"/>
+      <c r="W7" s="138"/>
+      <c r="X7" s="138"/>
+      <c r="Y7" s="138"/>
+      <c r="Z7" s="138"/>
+      <c r="AA7" s="138"/>
+      <c r="AB7" s="138"/>
+      <c r="AC7" s="138"/>
+      <c r="AD7" s="138"/>
+      <c r="AE7" s="137"/>
+      <c r="AF7" s="136" t="s">
         <v>10</v>
       </c>
-      <c r="AG7" s="128"/>
-      <c r="AH7" s="128"/>
-      <c r="AI7" s="127"/>
+      <c r="AG7" s="138"/>
+      <c r="AH7" s="138"/>
+      <c r="AI7" s="137"/>
     </row>
     <row r="8" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="81">
         <v>1</v>
       </c>
-      <c r="B8" s="109">
+      <c r="B8" s="119">
         <v>1</v>
       </c>
-      <c r="C8" s="110"/>
-      <c r="D8" s="111">
+      <c r="C8" s="120"/>
+      <c r="D8" s="121">
         <v>43592</v>
       </c>
-      <c r="E8" s="112"/>
-      <c r="F8" s="113"/>
-      <c r="G8" s="114" t="s">
+      <c r="E8" s="122"/>
+      <c r="F8" s="123"/>
+      <c r="G8" s="124" t="s">
         <v>47</v>
       </c>
-      <c r="H8" s="115"/>
-      <c r="I8" s="116"/>
-      <c r="J8" s="117" t="s">
+      <c r="H8" s="125"/>
+      <c r="I8" s="126"/>
+      <c r="J8" s="127" t="s">
         <v>48</v>
       </c>
-      <c r="K8" s="118"/>
-      <c r="L8" s="118"/>
-      <c r="M8" s="118"/>
-      <c r="N8" s="118"/>
-      <c r="O8" s="118"/>
-      <c r="P8" s="119"/>
-      <c r="Q8" s="120" t="s">
+      <c r="K8" s="128"/>
+      <c r="L8" s="128"/>
+      <c r="M8" s="128"/>
+      <c r="N8" s="128"/>
+      <c r="O8" s="128"/>
+      <c r="P8" s="129"/>
+      <c r="Q8" s="130" t="s">
         <v>49</v>
       </c>
-      <c r="R8" s="121"/>
-      <c r="S8" s="121"/>
-      <c r="T8" s="121"/>
-      <c r="U8" s="121"/>
-      <c r="V8" s="121"/>
-      <c r="W8" s="121"/>
-      <c r="X8" s="121"/>
-      <c r="Y8" s="121"/>
-      <c r="Z8" s="121"/>
-      <c r="AA8" s="121"/>
-      <c r="AB8" s="121"/>
-      <c r="AC8" s="121"/>
-      <c r="AD8" s="121"/>
-      <c r="AE8" s="122"/>
-      <c r="AF8" s="117" t="s">
+      <c r="R8" s="131"/>
+      <c r="S8" s="131"/>
+      <c r="T8" s="131"/>
+      <c r="U8" s="131"/>
+      <c r="V8" s="131"/>
+      <c r="W8" s="131"/>
+      <c r="X8" s="131"/>
+      <c r="Y8" s="131"/>
+      <c r="Z8" s="131"/>
+      <c r="AA8" s="131"/>
+      <c r="AB8" s="131"/>
+      <c r="AC8" s="131"/>
+      <c r="AD8" s="131"/>
+      <c r="AE8" s="132"/>
+      <c r="AF8" s="127" t="s">
         <v>55</v>
       </c>
-      <c r="AG8" s="118"/>
-      <c r="AH8" s="118"/>
-      <c r="AI8" s="119"/>
+      <c r="AG8" s="128"/>
+      <c r="AH8" s="128"/>
+      <c r="AI8" s="129"/>
     </row>
     <row r="9" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="60">
         <v>2</v>
       </c>
-      <c r="B9" s="98">
+      <c r="B9" s="110">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C9" s="99"/>
-      <c r="D9" s="86">
+      <c r="C9" s="111"/>
+      <c r="D9" s="94">
         <v>43803</v>
       </c>
-      <c r="E9" s="87"/>
-      <c r="F9" s="88"/>
-      <c r="G9" s="100" t="s">
+      <c r="E9" s="95"/>
+      <c r="F9" s="96"/>
+      <c r="G9" s="112" t="s">
         <v>62</v>
       </c>
-      <c r="H9" s="101"/>
-      <c r="I9" s="102"/>
-      <c r="J9" s="103" t="s">
+      <c r="H9" s="113"/>
+      <c r="I9" s="114"/>
+      <c r="J9" s="108" t="s">
         <v>63</v>
       </c>
-      <c r="K9" s="104"/>
-      <c r="L9" s="104"/>
-      <c r="M9" s="104"/>
-      <c r="N9" s="104"/>
-      <c r="O9" s="104"/>
-      <c r="P9" s="105"/>
-      <c r="Q9" s="106" t="s">
-        <v>68</v>
-      </c>
-      <c r="R9" s="107"/>
-      <c r="S9" s="107"/>
-      <c r="T9" s="107"/>
-      <c r="U9" s="107"/>
-      <c r="V9" s="107"/>
-      <c r="W9" s="107"/>
-      <c r="X9" s="107"/>
-      <c r="Y9" s="107"/>
-      <c r="Z9" s="107"/>
-      <c r="AA9" s="107"/>
-      <c r="AB9" s="107"/>
-      <c r="AC9" s="107"/>
-      <c r="AD9" s="107"/>
-      <c r="AE9" s="108"/>
-      <c r="AF9" s="103" t="s">
+      <c r="K9" s="115"/>
+      <c r="L9" s="115"/>
+      <c r="M9" s="115"/>
+      <c r="N9" s="115"/>
+      <c r="O9" s="115"/>
+      <c r="P9" s="116"/>
+      <c r="Q9" s="109" t="s">
+        <v>67</v>
+      </c>
+      <c r="R9" s="117"/>
+      <c r="S9" s="117"/>
+      <c r="T9" s="117"/>
+      <c r="U9" s="117"/>
+      <c r="V9" s="117"/>
+      <c r="W9" s="117"/>
+      <c r="X9" s="117"/>
+      <c r="Y9" s="117"/>
+      <c r="Z9" s="117"/>
+      <c r="AA9" s="117"/>
+      <c r="AB9" s="117"/>
+      <c r="AC9" s="117"/>
+      <c r="AD9" s="117"/>
+      <c r="AE9" s="118"/>
+      <c r="AF9" s="108" t="s">
         <v>61</v>
       </c>
-      <c r="AG9" s="104"/>
-      <c r="AH9" s="104"/>
-      <c r="AI9" s="105"/>
+      <c r="AG9" s="115"/>
+      <c r="AH9" s="115"/>
+      <c r="AI9" s="116"/>
     </row>
     <row r="10" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="60"/>
-      <c r="B10" s="84"/>
-      <c r="C10" s="85"/>
-      <c r="D10" s="86"/>
-      <c r="E10" s="87"/>
-      <c r="F10" s="88"/>
-      <c r="G10" s="89"/>
-      <c r="H10" s="90"/>
-      <c r="I10" s="91"/>
-      <c r="J10" s="92"/>
-      <c r="K10" s="93"/>
-      <c r="L10" s="93"/>
-      <c r="M10" s="93"/>
-      <c r="N10" s="93"/>
-      <c r="O10" s="93"/>
-      <c r="P10" s="94"/>
-      <c r="Q10" s="95"/>
-      <c r="R10" s="96"/>
-      <c r="S10" s="96"/>
-      <c r="T10" s="96"/>
-      <c r="U10" s="96"/>
-      <c r="V10" s="96"/>
-      <c r="W10" s="96"/>
-      <c r="X10" s="96"/>
-      <c r="Y10" s="96"/>
-      <c r="Z10" s="96"/>
-      <c r="AA10" s="96"/>
-      <c r="AB10" s="96"/>
-      <c r="AC10" s="96"/>
-      <c r="AD10" s="96"/>
-      <c r="AE10" s="97"/>
-      <c r="AF10" s="92"/>
-      <c r="AG10" s="93"/>
-      <c r="AH10" s="93"/>
-      <c r="AI10" s="94"/>
+      <c r="A10" s="60">
+        <v>3</v>
+      </c>
+      <c r="B10" s="106" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" s="93"/>
+      <c r="D10" s="94">
+        <v>43895</v>
+      </c>
+      <c r="E10" s="95"/>
+      <c r="F10" s="96"/>
+      <c r="G10" s="107" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="98"/>
+      <c r="I10" s="99"/>
+      <c r="J10" s="108" t="s">
+        <v>63</v>
+      </c>
+      <c r="K10" s="101"/>
+      <c r="L10" s="101"/>
+      <c r="M10" s="101"/>
+      <c r="N10" s="101"/>
+      <c r="O10" s="101"/>
+      <c r="P10" s="102"/>
+      <c r="Q10" s="109" t="s">
+        <v>77</v>
+      </c>
+      <c r="R10" s="104"/>
+      <c r="S10" s="104"/>
+      <c r="T10" s="104"/>
+      <c r="U10" s="104"/>
+      <c r="V10" s="104"/>
+      <c r="W10" s="104"/>
+      <c r="X10" s="104"/>
+      <c r="Y10" s="104"/>
+      <c r="Z10" s="104"/>
+      <c r="AA10" s="104"/>
+      <c r="AB10" s="104"/>
+      <c r="AC10" s="104"/>
+      <c r="AD10" s="104"/>
+      <c r="AE10" s="105"/>
+      <c r="AF10" s="108" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG10" s="101"/>
+      <c r="AH10" s="101"/>
+      <c r="AI10" s="102"/>
     </row>
     <row r="11" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="60"/>
-      <c r="B11" s="84"/>
-      <c r="C11" s="85"/>
-      <c r="D11" s="86"/>
-      <c r="E11" s="87"/>
-      <c r="F11" s="88"/>
-      <c r="G11" s="89"/>
-      <c r="H11" s="90"/>
-      <c r="I11" s="91"/>
-      <c r="J11" s="92"/>
-      <c r="K11" s="93"/>
-      <c r="L11" s="93"/>
-      <c r="M11" s="93"/>
-      <c r="N11" s="93"/>
-      <c r="O11" s="93"/>
-      <c r="P11" s="94"/>
-      <c r="Q11" s="95"/>
-      <c r="R11" s="96"/>
-      <c r="S11" s="96"/>
-      <c r="T11" s="96"/>
-      <c r="U11" s="96"/>
-      <c r="V11" s="96"/>
-      <c r="W11" s="96"/>
-      <c r="X11" s="96"/>
-      <c r="Y11" s="96"/>
-      <c r="Z11" s="96"/>
-      <c r="AA11" s="96"/>
-      <c r="AB11" s="96"/>
-      <c r="AC11" s="96"/>
-      <c r="AD11" s="96"/>
-      <c r="AE11" s="97"/>
-      <c r="AF11" s="92"/>
-      <c r="AG11" s="93"/>
-      <c r="AH11" s="93"/>
-      <c r="AI11" s="94"/>
+      <c r="B11" s="92"/>
+      <c r="C11" s="93"/>
+      <c r="D11" s="94"/>
+      <c r="E11" s="95"/>
+      <c r="F11" s="96"/>
+      <c r="G11" s="97"/>
+      <c r="H11" s="98"/>
+      <c r="I11" s="99"/>
+      <c r="J11" s="100"/>
+      <c r="K11" s="101"/>
+      <c r="L11" s="101"/>
+      <c r="M11" s="101"/>
+      <c r="N11" s="101"/>
+      <c r="O11" s="101"/>
+      <c r="P11" s="102"/>
+      <c r="Q11" s="103"/>
+      <c r="R11" s="104"/>
+      <c r="S11" s="104"/>
+      <c r="T11" s="104"/>
+      <c r="U11" s="104"/>
+      <c r="V11" s="104"/>
+      <c r="W11" s="104"/>
+      <c r="X11" s="104"/>
+      <c r="Y11" s="104"/>
+      <c r="Z11" s="104"/>
+      <c r="AA11" s="104"/>
+      <c r="AB11" s="104"/>
+      <c r="AC11" s="104"/>
+      <c r="AD11" s="104"/>
+      <c r="AE11" s="105"/>
+      <c r="AF11" s="100"/>
+      <c r="AG11" s="101"/>
+      <c r="AH11" s="101"/>
+      <c r="AI11" s="102"/>
     </row>
     <row r="12" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="60"/>
-      <c r="B12" s="84"/>
-      <c r="C12" s="85"/>
-      <c r="D12" s="86"/>
-      <c r="E12" s="87"/>
-      <c r="F12" s="88"/>
-      <c r="G12" s="89"/>
-      <c r="H12" s="90"/>
-      <c r="I12" s="91"/>
-      <c r="J12" s="92"/>
-      <c r="K12" s="93"/>
-      <c r="L12" s="93"/>
-      <c r="M12" s="93"/>
-      <c r="N12" s="93"/>
-      <c r="O12" s="93"/>
-      <c r="P12" s="94"/>
-      <c r="Q12" s="95"/>
-      <c r="R12" s="96"/>
-      <c r="S12" s="96"/>
-      <c r="T12" s="96"/>
-      <c r="U12" s="96"/>
-      <c r="V12" s="96"/>
-      <c r="W12" s="96"/>
-      <c r="X12" s="96"/>
-      <c r="Y12" s="96"/>
-      <c r="Z12" s="96"/>
-      <c r="AA12" s="96"/>
-      <c r="AB12" s="96"/>
-      <c r="AC12" s="96"/>
-      <c r="AD12" s="96"/>
-      <c r="AE12" s="97"/>
-      <c r="AF12" s="92"/>
-      <c r="AG12" s="93"/>
-      <c r="AH12" s="93"/>
-      <c r="AI12" s="94"/>
+      <c r="B12" s="92"/>
+      <c r="C12" s="93"/>
+      <c r="D12" s="94"/>
+      <c r="E12" s="95"/>
+      <c r="F12" s="96"/>
+      <c r="G12" s="97"/>
+      <c r="H12" s="98"/>
+      <c r="I12" s="99"/>
+      <c r="J12" s="100"/>
+      <c r="K12" s="101"/>
+      <c r="L12" s="101"/>
+      <c r="M12" s="101"/>
+      <c r="N12" s="101"/>
+      <c r="O12" s="101"/>
+      <c r="P12" s="102"/>
+      <c r="Q12" s="103"/>
+      <c r="R12" s="104"/>
+      <c r="S12" s="104"/>
+      <c r="T12" s="104"/>
+      <c r="U12" s="104"/>
+      <c r="V12" s="104"/>
+      <c r="W12" s="104"/>
+      <c r="X12" s="104"/>
+      <c r="Y12" s="104"/>
+      <c r="Z12" s="104"/>
+      <c r="AA12" s="104"/>
+      <c r="AB12" s="104"/>
+      <c r="AC12" s="104"/>
+      <c r="AD12" s="104"/>
+      <c r="AE12" s="105"/>
+      <c r="AF12" s="100"/>
+      <c r="AG12" s="101"/>
+      <c r="AH12" s="101"/>
+      <c r="AI12" s="102"/>
     </row>
     <row r="13" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="60"/>
-      <c r="B13" s="84"/>
-      <c r="C13" s="85"/>
-      <c r="D13" s="86"/>
-      <c r="E13" s="87"/>
-      <c r="F13" s="88"/>
-      <c r="G13" s="89"/>
-      <c r="H13" s="90"/>
-      <c r="I13" s="91"/>
-      <c r="J13" s="92"/>
-      <c r="K13" s="93"/>
-      <c r="L13" s="93"/>
-      <c r="M13" s="93"/>
-      <c r="N13" s="93"/>
-      <c r="O13" s="93"/>
-      <c r="P13" s="94"/>
-      <c r="Q13" s="95"/>
-      <c r="R13" s="96"/>
-      <c r="S13" s="96"/>
-      <c r="T13" s="96"/>
-      <c r="U13" s="96"/>
-      <c r="V13" s="96"/>
-      <c r="W13" s="96"/>
-      <c r="X13" s="96"/>
-      <c r="Y13" s="96"/>
-      <c r="Z13" s="96"/>
-      <c r="AA13" s="96"/>
-      <c r="AB13" s="96"/>
-      <c r="AC13" s="96"/>
-      <c r="AD13" s="96"/>
-      <c r="AE13" s="97"/>
-      <c r="AF13" s="92"/>
-      <c r="AG13" s="93"/>
-      <c r="AH13" s="93"/>
-      <c r="AI13" s="94"/>
+      <c r="B13" s="92"/>
+      <c r="C13" s="93"/>
+      <c r="D13" s="94"/>
+      <c r="E13" s="95"/>
+      <c r="F13" s="96"/>
+      <c r="G13" s="97"/>
+      <c r="H13" s="98"/>
+      <c r="I13" s="99"/>
+      <c r="J13" s="100"/>
+      <c r="K13" s="101"/>
+      <c r="L13" s="101"/>
+      <c r="M13" s="101"/>
+      <c r="N13" s="101"/>
+      <c r="O13" s="101"/>
+      <c r="P13" s="102"/>
+      <c r="Q13" s="103"/>
+      <c r="R13" s="104"/>
+      <c r="S13" s="104"/>
+      <c r="T13" s="104"/>
+      <c r="U13" s="104"/>
+      <c r="V13" s="104"/>
+      <c r="W13" s="104"/>
+      <c r="X13" s="104"/>
+      <c r="Y13" s="104"/>
+      <c r="Z13" s="104"/>
+      <c r="AA13" s="104"/>
+      <c r="AB13" s="104"/>
+      <c r="AC13" s="104"/>
+      <c r="AD13" s="104"/>
+      <c r="AE13" s="105"/>
+      <c r="AF13" s="100"/>
+      <c r="AG13" s="101"/>
+      <c r="AH13" s="101"/>
+      <c r="AI13" s="102"/>
     </row>
     <row r="14" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="60"/>
-      <c r="B14" s="84"/>
-      <c r="C14" s="85"/>
-      <c r="D14" s="86"/>
-      <c r="E14" s="87"/>
-      <c r="F14" s="88"/>
-      <c r="G14" s="89"/>
-      <c r="H14" s="90"/>
-      <c r="I14" s="91"/>
-      <c r="J14" s="92"/>
-      <c r="K14" s="93"/>
-      <c r="L14" s="93"/>
-      <c r="M14" s="93"/>
-      <c r="N14" s="93"/>
-      <c r="O14" s="93"/>
-      <c r="P14" s="94"/>
-      <c r="Q14" s="95"/>
-      <c r="R14" s="96"/>
-      <c r="S14" s="96"/>
-      <c r="T14" s="96"/>
-      <c r="U14" s="96"/>
-      <c r="V14" s="96"/>
-      <c r="W14" s="96"/>
-      <c r="X14" s="96"/>
-      <c r="Y14" s="96"/>
-      <c r="Z14" s="96"/>
-      <c r="AA14" s="96"/>
-      <c r="AB14" s="96"/>
-      <c r="AC14" s="96"/>
-      <c r="AD14" s="96"/>
-      <c r="AE14" s="97"/>
-      <c r="AF14" s="92"/>
-      <c r="AG14" s="93"/>
-      <c r="AH14" s="93"/>
-      <c r="AI14" s="94"/>
+      <c r="B14" s="92"/>
+      <c r="C14" s="93"/>
+      <c r="D14" s="94"/>
+      <c r="E14" s="95"/>
+      <c r="F14" s="96"/>
+      <c r="G14" s="97"/>
+      <c r="H14" s="98"/>
+      <c r="I14" s="99"/>
+      <c r="J14" s="100"/>
+      <c r="K14" s="101"/>
+      <c r="L14" s="101"/>
+      <c r="M14" s="101"/>
+      <c r="N14" s="101"/>
+      <c r="O14" s="101"/>
+      <c r="P14" s="102"/>
+      <c r="Q14" s="103"/>
+      <c r="R14" s="104"/>
+      <c r="S14" s="104"/>
+      <c r="T14" s="104"/>
+      <c r="U14" s="104"/>
+      <c r="V14" s="104"/>
+      <c r="W14" s="104"/>
+      <c r="X14" s="104"/>
+      <c r="Y14" s="104"/>
+      <c r="Z14" s="104"/>
+      <c r="AA14" s="104"/>
+      <c r="AB14" s="104"/>
+      <c r="AC14" s="104"/>
+      <c r="AD14" s="104"/>
+      <c r="AE14" s="105"/>
+      <c r="AF14" s="100"/>
+      <c r="AG14" s="101"/>
+      <c r="AH14" s="101"/>
+      <c r="AI14" s="102"/>
     </row>
     <row r="15" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="60"/>
-      <c r="B15" s="84"/>
-      <c r="C15" s="85"/>
-      <c r="D15" s="86"/>
-      <c r="E15" s="87"/>
-      <c r="F15" s="88"/>
-      <c r="G15" s="89"/>
-      <c r="H15" s="90"/>
-      <c r="I15" s="91"/>
-      <c r="J15" s="92"/>
-      <c r="K15" s="93"/>
-      <c r="L15" s="93"/>
-      <c r="M15" s="93"/>
-      <c r="N15" s="93"/>
-      <c r="O15" s="93"/>
-      <c r="P15" s="94"/>
-      <c r="Q15" s="95"/>
-      <c r="R15" s="96"/>
-      <c r="S15" s="96"/>
-      <c r="T15" s="96"/>
-      <c r="U15" s="96"/>
-      <c r="V15" s="96"/>
-      <c r="W15" s="96"/>
-      <c r="X15" s="96"/>
-      <c r="Y15" s="96"/>
-      <c r="Z15" s="96"/>
-      <c r="AA15" s="96"/>
-      <c r="AB15" s="96"/>
-      <c r="AC15" s="96"/>
-      <c r="AD15" s="96"/>
-      <c r="AE15" s="97"/>
-      <c r="AF15" s="92"/>
-      <c r="AG15" s="93"/>
-      <c r="AH15" s="93"/>
-      <c r="AI15" s="94"/>
+      <c r="B15" s="92"/>
+      <c r="C15" s="93"/>
+      <c r="D15" s="94"/>
+      <c r="E15" s="95"/>
+      <c r="F15" s="96"/>
+      <c r="G15" s="97"/>
+      <c r="H15" s="98"/>
+      <c r="I15" s="99"/>
+      <c r="J15" s="100"/>
+      <c r="K15" s="101"/>
+      <c r="L15" s="101"/>
+      <c r="M15" s="101"/>
+      <c r="N15" s="101"/>
+      <c r="O15" s="101"/>
+      <c r="P15" s="102"/>
+      <c r="Q15" s="103"/>
+      <c r="R15" s="104"/>
+      <c r="S15" s="104"/>
+      <c r="T15" s="104"/>
+      <c r="U15" s="104"/>
+      <c r="V15" s="104"/>
+      <c r="W15" s="104"/>
+      <c r="X15" s="104"/>
+      <c r="Y15" s="104"/>
+      <c r="Z15" s="104"/>
+      <c r="AA15" s="104"/>
+      <c r="AB15" s="104"/>
+      <c r="AC15" s="104"/>
+      <c r="AD15" s="104"/>
+      <c r="AE15" s="105"/>
+      <c r="AF15" s="100"/>
+      <c r="AG15" s="101"/>
+      <c r="AH15" s="101"/>
+      <c r="AI15" s="102"/>
     </row>
     <row r="16" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="60"/>
-      <c r="B16" s="84"/>
-      <c r="C16" s="85"/>
-      <c r="D16" s="86"/>
-      <c r="E16" s="87"/>
-      <c r="F16" s="88"/>
-      <c r="G16" s="89"/>
-      <c r="H16" s="90"/>
-      <c r="I16" s="91"/>
-      <c r="J16" s="92"/>
-      <c r="K16" s="93"/>
-      <c r="L16" s="93"/>
-      <c r="M16" s="93"/>
-      <c r="N16" s="93"/>
-      <c r="O16" s="93"/>
-      <c r="P16" s="94"/>
-      <c r="Q16" s="95"/>
-      <c r="R16" s="96"/>
-      <c r="S16" s="96"/>
-      <c r="T16" s="96"/>
-      <c r="U16" s="96"/>
-      <c r="V16" s="96"/>
-      <c r="W16" s="96"/>
-      <c r="X16" s="96"/>
-      <c r="Y16" s="96"/>
-      <c r="Z16" s="96"/>
-      <c r="AA16" s="96"/>
-      <c r="AB16" s="96"/>
-      <c r="AC16" s="96"/>
-      <c r="AD16" s="96"/>
-      <c r="AE16" s="97"/>
-      <c r="AF16" s="92"/>
-      <c r="AG16" s="93"/>
-      <c r="AH16" s="93"/>
-      <c r="AI16" s="94"/>
+      <c r="B16" s="92"/>
+      <c r="C16" s="93"/>
+      <c r="D16" s="94"/>
+      <c r="E16" s="95"/>
+      <c r="F16" s="96"/>
+      <c r="G16" s="97"/>
+      <c r="H16" s="98"/>
+      <c r="I16" s="99"/>
+      <c r="J16" s="100"/>
+      <c r="K16" s="101"/>
+      <c r="L16" s="101"/>
+      <c r="M16" s="101"/>
+      <c r="N16" s="101"/>
+      <c r="O16" s="101"/>
+      <c r="P16" s="102"/>
+      <c r="Q16" s="103"/>
+      <c r="R16" s="104"/>
+      <c r="S16" s="104"/>
+      <c r="T16" s="104"/>
+      <c r="U16" s="104"/>
+      <c r="V16" s="104"/>
+      <c r="W16" s="104"/>
+      <c r="X16" s="104"/>
+      <c r="Y16" s="104"/>
+      <c r="Z16" s="104"/>
+      <c r="AA16" s="104"/>
+      <c r="AB16" s="104"/>
+      <c r="AC16" s="104"/>
+      <c r="AD16" s="104"/>
+      <c r="AE16" s="105"/>
+      <c r="AF16" s="100"/>
+      <c r="AG16" s="101"/>
+      <c r="AH16" s="101"/>
+      <c r="AI16" s="102"/>
     </row>
     <row r="17" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="60"/>
-      <c r="B17" s="84"/>
-      <c r="C17" s="85"/>
-      <c r="D17" s="86"/>
-      <c r="E17" s="87"/>
-      <c r="F17" s="88"/>
-      <c r="G17" s="89"/>
-      <c r="H17" s="90"/>
-      <c r="I17" s="91"/>
-      <c r="J17" s="92"/>
-      <c r="K17" s="93"/>
-      <c r="L17" s="93"/>
-      <c r="M17" s="93"/>
-      <c r="N17" s="93"/>
-      <c r="O17" s="93"/>
-      <c r="P17" s="94"/>
-      <c r="Q17" s="95"/>
-      <c r="R17" s="96"/>
-      <c r="S17" s="96"/>
-      <c r="T17" s="96"/>
-      <c r="U17" s="96"/>
-      <c r="V17" s="96"/>
-      <c r="W17" s="96"/>
-      <c r="X17" s="96"/>
-      <c r="Y17" s="96"/>
-      <c r="Z17" s="96"/>
-      <c r="AA17" s="96"/>
-      <c r="AB17" s="96"/>
-      <c r="AC17" s="96"/>
-      <c r="AD17" s="96"/>
-      <c r="AE17" s="97"/>
-      <c r="AF17" s="92"/>
-      <c r="AG17" s="93"/>
-      <c r="AH17" s="93"/>
-      <c r="AI17" s="94"/>
+      <c r="B17" s="92"/>
+      <c r="C17" s="93"/>
+      <c r="D17" s="94"/>
+      <c r="E17" s="95"/>
+      <c r="F17" s="96"/>
+      <c r="G17" s="97"/>
+      <c r="H17" s="98"/>
+      <c r="I17" s="99"/>
+      <c r="J17" s="100"/>
+      <c r="K17" s="101"/>
+      <c r="L17" s="101"/>
+      <c r="M17" s="101"/>
+      <c r="N17" s="101"/>
+      <c r="O17" s="101"/>
+      <c r="P17" s="102"/>
+      <c r="Q17" s="103"/>
+      <c r="R17" s="104"/>
+      <c r="S17" s="104"/>
+      <c r="T17" s="104"/>
+      <c r="U17" s="104"/>
+      <c r="V17" s="104"/>
+      <c r="W17" s="104"/>
+      <c r="X17" s="104"/>
+      <c r="Y17" s="104"/>
+      <c r="Z17" s="104"/>
+      <c r="AA17" s="104"/>
+      <c r="AB17" s="104"/>
+      <c r="AC17" s="104"/>
+      <c r="AD17" s="104"/>
+      <c r="AE17" s="105"/>
+      <c r="AF17" s="100"/>
+      <c r="AG17" s="101"/>
+      <c r="AH17" s="101"/>
+      <c r="AI17" s="102"/>
     </row>
     <row r="18" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="60"/>
-      <c r="B18" s="84"/>
-      <c r="C18" s="85"/>
-      <c r="D18" s="86"/>
-      <c r="E18" s="87"/>
-      <c r="F18" s="88"/>
-      <c r="G18" s="89"/>
-      <c r="H18" s="90"/>
-      <c r="I18" s="91"/>
-      <c r="J18" s="92"/>
-      <c r="K18" s="93"/>
-      <c r="L18" s="93"/>
-      <c r="M18" s="93"/>
-      <c r="N18" s="93"/>
-      <c r="O18" s="93"/>
-      <c r="P18" s="94"/>
-      <c r="Q18" s="95"/>
-      <c r="R18" s="96"/>
-      <c r="S18" s="96"/>
-      <c r="T18" s="96"/>
-      <c r="U18" s="96"/>
-      <c r="V18" s="96"/>
-      <c r="W18" s="96"/>
-      <c r="X18" s="96"/>
-      <c r="Y18" s="96"/>
-      <c r="Z18" s="96"/>
-      <c r="AA18" s="96"/>
-      <c r="AB18" s="96"/>
-      <c r="AC18" s="96"/>
-      <c r="AD18" s="96"/>
-      <c r="AE18" s="97"/>
-      <c r="AF18" s="92"/>
-      <c r="AG18" s="93"/>
-      <c r="AH18" s="93"/>
-      <c r="AI18" s="94"/>
+      <c r="B18" s="92"/>
+      <c r="C18" s="93"/>
+      <c r="D18" s="94"/>
+      <c r="E18" s="95"/>
+      <c r="F18" s="96"/>
+      <c r="G18" s="97"/>
+      <c r="H18" s="98"/>
+      <c r="I18" s="99"/>
+      <c r="J18" s="100"/>
+      <c r="K18" s="101"/>
+      <c r="L18" s="101"/>
+      <c r="M18" s="101"/>
+      <c r="N18" s="101"/>
+      <c r="O18" s="101"/>
+      <c r="P18" s="102"/>
+      <c r="Q18" s="103"/>
+      <c r="R18" s="104"/>
+      <c r="S18" s="104"/>
+      <c r="T18" s="104"/>
+      <c r="U18" s="104"/>
+      <c r="V18" s="104"/>
+      <c r="W18" s="104"/>
+      <c r="X18" s="104"/>
+      <c r="Y18" s="104"/>
+      <c r="Z18" s="104"/>
+      <c r="AA18" s="104"/>
+      <c r="AB18" s="104"/>
+      <c r="AC18" s="104"/>
+      <c r="AD18" s="104"/>
+      <c r="AE18" s="105"/>
+      <c r="AF18" s="100"/>
+      <c r="AG18" s="101"/>
+      <c r="AH18" s="101"/>
+      <c r="AI18" s="102"/>
     </row>
     <row r="19" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="60"/>
-      <c r="B19" s="84"/>
-      <c r="C19" s="85"/>
-      <c r="D19" s="86"/>
-      <c r="E19" s="87"/>
-      <c r="F19" s="88"/>
-      <c r="G19" s="89"/>
-      <c r="H19" s="90"/>
-      <c r="I19" s="91"/>
-      <c r="J19" s="92"/>
-      <c r="K19" s="93"/>
-      <c r="L19" s="93"/>
-      <c r="M19" s="93"/>
-      <c r="N19" s="93"/>
-      <c r="O19" s="93"/>
-      <c r="P19" s="94"/>
-      <c r="Q19" s="95"/>
-      <c r="R19" s="96"/>
-      <c r="S19" s="96"/>
-      <c r="T19" s="96"/>
-      <c r="U19" s="96"/>
-      <c r="V19" s="96"/>
-      <c r="W19" s="96"/>
-      <c r="X19" s="96"/>
-      <c r="Y19" s="96"/>
-      <c r="Z19" s="96"/>
-      <c r="AA19" s="96"/>
-      <c r="AB19" s="96"/>
-      <c r="AC19" s="96"/>
-      <c r="AD19" s="96"/>
-      <c r="AE19" s="97"/>
-      <c r="AF19" s="92"/>
-      <c r="AG19" s="93"/>
-      <c r="AH19" s="93"/>
-      <c r="AI19" s="94"/>
+      <c r="B19" s="92"/>
+      <c r="C19" s="93"/>
+      <c r="D19" s="94"/>
+      <c r="E19" s="95"/>
+      <c r="F19" s="96"/>
+      <c r="G19" s="97"/>
+      <c r="H19" s="98"/>
+      <c r="I19" s="99"/>
+      <c r="J19" s="100"/>
+      <c r="K19" s="101"/>
+      <c r="L19" s="101"/>
+      <c r="M19" s="101"/>
+      <c r="N19" s="101"/>
+      <c r="O19" s="101"/>
+      <c r="P19" s="102"/>
+      <c r="Q19" s="103"/>
+      <c r="R19" s="104"/>
+      <c r="S19" s="104"/>
+      <c r="T19" s="104"/>
+      <c r="U19" s="104"/>
+      <c r="V19" s="104"/>
+      <c r="W19" s="104"/>
+      <c r="X19" s="104"/>
+      <c r="Y19" s="104"/>
+      <c r="Z19" s="104"/>
+      <c r="AA19" s="104"/>
+      <c r="AB19" s="104"/>
+      <c r="AC19" s="104"/>
+      <c r="AD19" s="104"/>
+      <c r="AE19" s="105"/>
+      <c r="AF19" s="100"/>
+      <c r="AG19" s="101"/>
+      <c r="AH19" s="101"/>
+      <c r="AI19" s="102"/>
     </row>
     <row r="20" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="60"/>
-      <c r="B20" s="84"/>
-      <c r="C20" s="85"/>
-      <c r="D20" s="86"/>
-      <c r="E20" s="87"/>
-      <c r="F20" s="88"/>
-      <c r="G20" s="89"/>
-      <c r="H20" s="90"/>
-      <c r="I20" s="91"/>
-      <c r="J20" s="92"/>
-      <c r="K20" s="93"/>
-      <c r="L20" s="93"/>
-      <c r="M20" s="93"/>
-      <c r="N20" s="93"/>
-      <c r="O20" s="93"/>
-      <c r="P20" s="94"/>
-      <c r="Q20" s="95"/>
-      <c r="R20" s="96"/>
-      <c r="S20" s="96"/>
-      <c r="T20" s="96"/>
-      <c r="U20" s="96"/>
-      <c r="V20" s="96"/>
-      <c r="W20" s="96"/>
-      <c r="X20" s="96"/>
-      <c r="Y20" s="96"/>
-      <c r="Z20" s="96"/>
-      <c r="AA20" s="96"/>
-      <c r="AB20" s="96"/>
-      <c r="AC20" s="96"/>
-      <c r="AD20" s="96"/>
-      <c r="AE20" s="97"/>
-      <c r="AF20" s="92"/>
-      <c r="AG20" s="93"/>
-      <c r="AH20" s="93"/>
-      <c r="AI20" s="94"/>
+      <c r="B20" s="92"/>
+      <c r="C20" s="93"/>
+      <c r="D20" s="94"/>
+      <c r="E20" s="95"/>
+      <c r="F20" s="96"/>
+      <c r="G20" s="97"/>
+      <c r="H20" s="98"/>
+      <c r="I20" s="99"/>
+      <c r="J20" s="100"/>
+      <c r="K20" s="101"/>
+      <c r="L20" s="101"/>
+      <c r="M20" s="101"/>
+      <c r="N20" s="101"/>
+      <c r="O20" s="101"/>
+      <c r="P20" s="102"/>
+      <c r="Q20" s="103"/>
+      <c r="R20" s="104"/>
+      <c r="S20" s="104"/>
+      <c r="T20" s="104"/>
+      <c r="U20" s="104"/>
+      <c r="V20" s="104"/>
+      <c r="W20" s="104"/>
+      <c r="X20" s="104"/>
+      <c r="Y20" s="104"/>
+      <c r="Z20" s="104"/>
+      <c r="AA20" s="104"/>
+      <c r="AB20" s="104"/>
+      <c r="AC20" s="104"/>
+      <c r="AD20" s="104"/>
+      <c r="AE20" s="105"/>
+      <c r="AF20" s="100"/>
+      <c r="AG20" s="101"/>
+      <c r="AH20" s="101"/>
+      <c r="AI20" s="102"/>
     </row>
     <row r="21" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="60"/>
-      <c r="B21" s="84"/>
-      <c r="C21" s="85"/>
-      <c r="D21" s="86"/>
-      <c r="E21" s="87"/>
-      <c r="F21" s="88"/>
-      <c r="G21" s="89"/>
-      <c r="H21" s="90"/>
-      <c r="I21" s="91"/>
-      <c r="J21" s="92"/>
-      <c r="K21" s="93"/>
-      <c r="L21" s="93"/>
-      <c r="M21" s="93"/>
-      <c r="N21" s="93"/>
-      <c r="O21" s="93"/>
-      <c r="P21" s="94"/>
-      <c r="Q21" s="95"/>
-      <c r="R21" s="96"/>
-      <c r="S21" s="96"/>
-      <c r="T21" s="96"/>
-      <c r="U21" s="96"/>
-      <c r="V21" s="96"/>
-      <c r="W21" s="96"/>
-      <c r="X21" s="96"/>
-      <c r="Y21" s="96"/>
-      <c r="Z21" s="96"/>
-      <c r="AA21" s="96"/>
-      <c r="AB21" s="96"/>
-      <c r="AC21" s="96"/>
-      <c r="AD21" s="96"/>
-      <c r="AE21" s="97"/>
-      <c r="AF21" s="92"/>
-      <c r="AG21" s="93"/>
-      <c r="AH21" s="93"/>
-      <c r="AI21" s="94"/>
+      <c r="B21" s="92"/>
+      <c r="C21" s="93"/>
+      <c r="D21" s="94"/>
+      <c r="E21" s="95"/>
+      <c r="F21" s="96"/>
+      <c r="G21" s="97"/>
+      <c r="H21" s="98"/>
+      <c r="I21" s="99"/>
+      <c r="J21" s="100"/>
+      <c r="K21" s="101"/>
+      <c r="L21" s="101"/>
+      <c r="M21" s="101"/>
+      <c r="N21" s="101"/>
+      <c r="O21" s="101"/>
+      <c r="P21" s="102"/>
+      <c r="Q21" s="103"/>
+      <c r="R21" s="104"/>
+      <c r="S21" s="104"/>
+      <c r="T21" s="104"/>
+      <c r="U21" s="104"/>
+      <c r="V21" s="104"/>
+      <c r="W21" s="104"/>
+      <c r="X21" s="104"/>
+      <c r="Y21" s="104"/>
+      <c r="Z21" s="104"/>
+      <c r="AA21" s="104"/>
+      <c r="AB21" s="104"/>
+      <c r="AC21" s="104"/>
+      <c r="AD21" s="104"/>
+      <c r="AE21" s="105"/>
+      <c r="AF21" s="100"/>
+      <c r="AG21" s="101"/>
+      <c r="AH21" s="101"/>
+      <c r="AI21" s="102"/>
     </row>
     <row r="22" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="60"/>
-      <c r="B22" s="84"/>
-      <c r="C22" s="85"/>
-      <c r="D22" s="86"/>
-      <c r="E22" s="87"/>
-      <c r="F22" s="88"/>
-      <c r="G22" s="89"/>
-      <c r="H22" s="90"/>
-      <c r="I22" s="91"/>
-      <c r="J22" s="92"/>
-      <c r="K22" s="93"/>
-      <c r="L22" s="93"/>
-      <c r="M22" s="93"/>
-      <c r="N22" s="93"/>
-      <c r="O22" s="93"/>
-      <c r="P22" s="94"/>
-      <c r="Q22" s="95"/>
-      <c r="R22" s="96"/>
-      <c r="S22" s="96"/>
-      <c r="T22" s="96"/>
-      <c r="U22" s="96"/>
-      <c r="V22" s="96"/>
-      <c r="W22" s="96"/>
-      <c r="X22" s="96"/>
-      <c r="Y22" s="96"/>
-      <c r="Z22" s="96"/>
-      <c r="AA22" s="96"/>
-      <c r="AB22" s="96"/>
-      <c r="AC22" s="96"/>
-      <c r="AD22" s="96"/>
-      <c r="AE22" s="97"/>
-      <c r="AF22" s="92"/>
-      <c r="AG22" s="93"/>
-      <c r="AH22" s="93"/>
-      <c r="AI22" s="94"/>
+      <c r="B22" s="92"/>
+      <c r="C22" s="93"/>
+      <c r="D22" s="94"/>
+      <c r="E22" s="95"/>
+      <c r="F22" s="96"/>
+      <c r="G22" s="97"/>
+      <c r="H22" s="98"/>
+      <c r="I22" s="99"/>
+      <c r="J22" s="100"/>
+      <c r="K22" s="101"/>
+      <c r="L22" s="101"/>
+      <c r="M22" s="101"/>
+      <c r="N22" s="101"/>
+      <c r="O22" s="101"/>
+      <c r="P22" s="102"/>
+      <c r="Q22" s="103"/>
+      <c r="R22" s="104"/>
+      <c r="S22" s="104"/>
+      <c r="T22" s="104"/>
+      <c r="U22" s="104"/>
+      <c r="V22" s="104"/>
+      <c r="W22" s="104"/>
+      <c r="X22" s="104"/>
+      <c r="Y22" s="104"/>
+      <c r="Z22" s="104"/>
+      <c r="AA22" s="104"/>
+      <c r="AB22" s="104"/>
+      <c r="AC22" s="104"/>
+      <c r="AD22" s="104"/>
+      <c r="AE22" s="105"/>
+      <c r="AF22" s="100"/>
+      <c r="AG22" s="101"/>
+      <c r="AH22" s="101"/>
+      <c r="AI22" s="102"/>
     </row>
     <row r="23" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="60"/>
-      <c r="B23" s="84"/>
-      <c r="C23" s="85"/>
-      <c r="D23" s="86"/>
-      <c r="E23" s="87"/>
-      <c r="F23" s="88"/>
-      <c r="G23" s="89"/>
-      <c r="H23" s="90"/>
-      <c r="I23" s="91"/>
-      <c r="J23" s="92"/>
-      <c r="K23" s="93"/>
-      <c r="L23" s="93"/>
-      <c r="M23" s="93"/>
-      <c r="N23" s="93"/>
-      <c r="O23" s="93"/>
-      <c r="P23" s="94"/>
-      <c r="Q23" s="95"/>
-      <c r="R23" s="96"/>
-      <c r="S23" s="96"/>
-      <c r="T23" s="96"/>
-      <c r="U23" s="96"/>
-      <c r="V23" s="96"/>
-      <c r="W23" s="96"/>
-      <c r="X23" s="96"/>
-      <c r="Y23" s="96"/>
-      <c r="Z23" s="96"/>
-      <c r="AA23" s="96"/>
-      <c r="AB23" s="96"/>
-      <c r="AC23" s="96"/>
-      <c r="AD23" s="96"/>
-      <c r="AE23" s="97"/>
-      <c r="AF23" s="92"/>
-      <c r="AG23" s="93"/>
-      <c r="AH23" s="93"/>
-      <c r="AI23" s="94"/>
+      <c r="B23" s="92"/>
+      <c r="C23" s="93"/>
+      <c r="D23" s="94"/>
+      <c r="E23" s="95"/>
+      <c r="F23" s="96"/>
+      <c r="G23" s="97"/>
+      <c r="H23" s="98"/>
+      <c r="I23" s="99"/>
+      <c r="J23" s="100"/>
+      <c r="K23" s="101"/>
+      <c r="L23" s="101"/>
+      <c r="M23" s="101"/>
+      <c r="N23" s="101"/>
+      <c r="O23" s="101"/>
+      <c r="P23" s="102"/>
+      <c r="Q23" s="103"/>
+      <c r="R23" s="104"/>
+      <c r="S23" s="104"/>
+      <c r="T23" s="104"/>
+      <c r="U23" s="104"/>
+      <c r="V23" s="104"/>
+      <c r="W23" s="104"/>
+      <c r="X23" s="104"/>
+      <c r="Y23" s="104"/>
+      <c r="Z23" s="104"/>
+      <c r="AA23" s="104"/>
+      <c r="AB23" s="104"/>
+      <c r="AC23" s="104"/>
+      <c r="AD23" s="104"/>
+      <c r="AE23" s="105"/>
+      <c r="AF23" s="100"/>
+      <c r="AG23" s="101"/>
+      <c r="AH23" s="101"/>
+      <c r="AI23" s="102"/>
     </row>
     <row r="24" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="60"/>
-      <c r="B24" s="84"/>
-      <c r="C24" s="85"/>
-      <c r="D24" s="86"/>
-      <c r="E24" s="87"/>
-      <c r="F24" s="88"/>
-      <c r="G24" s="89"/>
-      <c r="H24" s="90"/>
-      <c r="I24" s="91"/>
-      <c r="J24" s="92"/>
-      <c r="K24" s="93"/>
-      <c r="L24" s="93"/>
-      <c r="M24" s="93"/>
-      <c r="N24" s="93"/>
-      <c r="O24" s="93"/>
-      <c r="P24" s="94"/>
-      <c r="Q24" s="95"/>
-      <c r="R24" s="96"/>
-      <c r="S24" s="96"/>
-      <c r="T24" s="96"/>
-      <c r="U24" s="96"/>
-      <c r="V24" s="96"/>
-      <c r="W24" s="96"/>
-      <c r="X24" s="96"/>
-      <c r="Y24" s="96"/>
-      <c r="Z24" s="96"/>
-      <c r="AA24" s="96"/>
-      <c r="AB24" s="96"/>
-      <c r="AC24" s="96"/>
-      <c r="AD24" s="96"/>
-      <c r="AE24" s="97"/>
-      <c r="AF24" s="92"/>
-      <c r="AG24" s="93"/>
-      <c r="AH24" s="93"/>
-      <c r="AI24" s="94"/>
+      <c r="B24" s="92"/>
+      <c r="C24" s="93"/>
+      <c r="D24" s="94"/>
+      <c r="E24" s="95"/>
+      <c r="F24" s="96"/>
+      <c r="G24" s="97"/>
+      <c r="H24" s="98"/>
+      <c r="I24" s="99"/>
+      <c r="J24" s="100"/>
+      <c r="K24" s="101"/>
+      <c r="L24" s="101"/>
+      <c r="M24" s="101"/>
+      <c r="N24" s="101"/>
+      <c r="O24" s="101"/>
+      <c r="P24" s="102"/>
+      <c r="Q24" s="103"/>
+      <c r="R24" s="104"/>
+      <c r="S24" s="104"/>
+      <c r="T24" s="104"/>
+      <c r="U24" s="104"/>
+      <c r="V24" s="104"/>
+      <c r="W24" s="104"/>
+      <c r="X24" s="104"/>
+      <c r="Y24" s="104"/>
+      <c r="Z24" s="104"/>
+      <c r="AA24" s="104"/>
+      <c r="AB24" s="104"/>
+      <c r="AC24" s="104"/>
+      <c r="AD24" s="104"/>
+      <c r="AE24" s="105"/>
+      <c r="AF24" s="100"/>
+      <c r="AG24" s="101"/>
+      <c r="AH24" s="101"/>
+      <c r="AI24" s="102"/>
     </row>
     <row r="25" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="60"/>
-      <c r="B25" s="84"/>
-      <c r="C25" s="85"/>
-      <c r="D25" s="86"/>
-      <c r="E25" s="87"/>
-      <c r="F25" s="88"/>
-      <c r="G25" s="89"/>
-      <c r="H25" s="90"/>
-      <c r="I25" s="91"/>
-      <c r="J25" s="92"/>
-      <c r="K25" s="93"/>
-      <c r="L25" s="93"/>
-      <c r="M25" s="93"/>
-      <c r="N25" s="93"/>
-      <c r="O25" s="93"/>
-      <c r="P25" s="94"/>
-      <c r="Q25" s="95"/>
-      <c r="R25" s="96"/>
-      <c r="S25" s="96"/>
-      <c r="T25" s="96"/>
-      <c r="U25" s="96"/>
-      <c r="V25" s="96"/>
-      <c r="W25" s="96"/>
-      <c r="X25" s="96"/>
-      <c r="Y25" s="96"/>
-      <c r="Z25" s="96"/>
-      <c r="AA25" s="96"/>
-      <c r="AB25" s="96"/>
-      <c r="AC25" s="96"/>
-      <c r="AD25" s="96"/>
-      <c r="AE25" s="97"/>
-      <c r="AF25" s="92"/>
-      <c r="AG25" s="93"/>
-      <c r="AH25" s="93"/>
-      <c r="AI25" s="94"/>
+      <c r="B25" s="92"/>
+      <c r="C25" s="93"/>
+      <c r="D25" s="94"/>
+      <c r="E25" s="95"/>
+      <c r="F25" s="96"/>
+      <c r="G25" s="97"/>
+      <c r="H25" s="98"/>
+      <c r="I25" s="99"/>
+      <c r="J25" s="100"/>
+      <c r="K25" s="101"/>
+      <c r="L25" s="101"/>
+      <c r="M25" s="101"/>
+      <c r="N25" s="101"/>
+      <c r="O25" s="101"/>
+      <c r="P25" s="102"/>
+      <c r="Q25" s="103"/>
+      <c r="R25" s="104"/>
+      <c r="S25" s="104"/>
+      <c r="T25" s="104"/>
+      <c r="U25" s="104"/>
+      <c r="V25" s="104"/>
+      <c r="W25" s="104"/>
+      <c r="X25" s="104"/>
+      <c r="Y25" s="104"/>
+      <c r="Z25" s="104"/>
+      <c r="AA25" s="104"/>
+      <c r="AB25" s="104"/>
+      <c r="AC25" s="104"/>
+      <c r="AD25" s="104"/>
+      <c r="AE25" s="105"/>
+      <c r="AF25" s="100"/>
+      <c r="AG25" s="101"/>
+      <c r="AH25" s="101"/>
+      <c r="AI25" s="102"/>
     </row>
     <row r="26" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="60"/>
-      <c r="B26" s="84"/>
-      <c r="C26" s="85"/>
-      <c r="D26" s="86"/>
-      <c r="E26" s="87"/>
-      <c r="F26" s="88"/>
-      <c r="G26" s="89"/>
-      <c r="H26" s="90"/>
-      <c r="I26" s="91"/>
-      <c r="J26" s="92"/>
-      <c r="K26" s="93"/>
-      <c r="L26" s="93"/>
-      <c r="M26" s="93"/>
-      <c r="N26" s="93"/>
-      <c r="O26" s="93"/>
-      <c r="P26" s="94"/>
-      <c r="Q26" s="95"/>
-      <c r="R26" s="96"/>
-      <c r="S26" s="96"/>
-      <c r="T26" s="96"/>
-      <c r="U26" s="96"/>
-      <c r="V26" s="96"/>
-      <c r="W26" s="96"/>
-      <c r="X26" s="96"/>
-      <c r="Y26" s="96"/>
-      <c r="Z26" s="96"/>
-      <c r="AA26" s="96"/>
-      <c r="AB26" s="96"/>
-      <c r="AC26" s="96"/>
-      <c r="AD26" s="96"/>
-      <c r="AE26" s="97"/>
-      <c r="AF26" s="92"/>
-      <c r="AG26" s="93"/>
-      <c r="AH26" s="93"/>
-      <c r="AI26" s="94"/>
+      <c r="B26" s="92"/>
+      <c r="C26" s="93"/>
+      <c r="D26" s="94"/>
+      <c r="E26" s="95"/>
+      <c r="F26" s="96"/>
+      <c r="G26" s="97"/>
+      <c r="H26" s="98"/>
+      <c r="I26" s="99"/>
+      <c r="J26" s="100"/>
+      <c r="K26" s="101"/>
+      <c r="L26" s="101"/>
+      <c r="M26" s="101"/>
+      <c r="N26" s="101"/>
+      <c r="O26" s="101"/>
+      <c r="P26" s="102"/>
+      <c r="Q26" s="103"/>
+      <c r="R26" s="104"/>
+      <c r="S26" s="104"/>
+      <c r="T26" s="104"/>
+      <c r="U26" s="104"/>
+      <c r="V26" s="104"/>
+      <c r="W26" s="104"/>
+      <c r="X26" s="104"/>
+      <c r="Y26" s="104"/>
+      <c r="Z26" s="104"/>
+      <c r="AA26" s="104"/>
+      <c r="AB26" s="104"/>
+      <c r="AC26" s="104"/>
+      <c r="AD26" s="104"/>
+      <c r="AE26" s="105"/>
+      <c r="AF26" s="100"/>
+      <c r="AG26" s="101"/>
+      <c r="AH26" s="101"/>
+      <c r="AI26" s="102"/>
     </row>
     <row r="27" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="60"/>
-      <c r="B27" s="84"/>
-      <c r="C27" s="85"/>
-      <c r="D27" s="86"/>
-      <c r="E27" s="87"/>
-      <c r="F27" s="88"/>
-      <c r="G27" s="89"/>
-      <c r="H27" s="90"/>
-      <c r="I27" s="91"/>
-      <c r="J27" s="92"/>
-      <c r="K27" s="93"/>
-      <c r="L27" s="93"/>
-      <c r="M27" s="93"/>
-      <c r="N27" s="93"/>
-      <c r="O27" s="93"/>
-      <c r="P27" s="94"/>
-      <c r="Q27" s="95"/>
-      <c r="R27" s="96"/>
-      <c r="S27" s="96"/>
-      <c r="T27" s="96"/>
-      <c r="U27" s="96"/>
-      <c r="V27" s="96"/>
-      <c r="W27" s="96"/>
-      <c r="X27" s="96"/>
-      <c r="Y27" s="96"/>
-      <c r="Z27" s="96"/>
-      <c r="AA27" s="96"/>
-      <c r="AB27" s="96"/>
-      <c r="AC27" s="96"/>
-      <c r="AD27" s="96"/>
-      <c r="AE27" s="97"/>
-      <c r="AF27" s="92"/>
-      <c r="AG27" s="93"/>
-      <c r="AH27" s="93"/>
-      <c r="AI27" s="94"/>
+      <c r="B27" s="92"/>
+      <c r="C27" s="93"/>
+      <c r="D27" s="94"/>
+      <c r="E27" s="95"/>
+      <c r="F27" s="96"/>
+      <c r="G27" s="97"/>
+      <c r="H27" s="98"/>
+      <c r="I27" s="99"/>
+      <c r="J27" s="100"/>
+      <c r="K27" s="101"/>
+      <c r="L27" s="101"/>
+      <c r="M27" s="101"/>
+      <c r="N27" s="101"/>
+      <c r="O27" s="101"/>
+      <c r="P27" s="102"/>
+      <c r="Q27" s="103"/>
+      <c r="R27" s="104"/>
+      <c r="S27" s="104"/>
+      <c r="T27" s="104"/>
+      <c r="U27" s="104"/>
+      <c r="V27" s="104"/>
+      <c r="W27" s="104"/>
+      <c r="X27" s="104"/>
+      <c r="Y27" s="104"/>
+      <c r="Z27" s="104"/>
+      <c r="AA27" s="104"/>
+      <c r="AB27" s="104"/>
+      <c r="AC27" s="104"/>
+      <c r="AD27" s="104"/>
+      <c r="AE27" s="105"/>
+      <c r="AF27" s="100"/>
+      <c r="AG27" s="101"/>
+      <c r="AH27" s="101"/>
+      <c r="AI27" s="102"/>
     </row>
     <row r="28" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="60"/>
-      <c r="B28" s="84"/>
-      <c r="C28" s="85"/>
-      <c r="D28" s="86"/>
-      <c r="E28" s="87"/>
-      <c r="F28" s="88"/>
-      <c r="G28" s="89"/>
-      <c r="H28" s="90"/>
-      <c r="I28" s="91"/>
-      <c r="J28" s="92"/>
-      <c r="K28" s="93"/>
-      <c r="L28" s="93"/>
-      <c r="M28" s="93"/>
-      <c r="N28" s="93"/>
-      <c r="O28" s="93"/>
-      <c r="P28" s="94"/>
-      <c r="Q28" s="95"/>
-      <c r="R28" s="96"/>
-      <c r="S28" s="96"/>
-      <c r="T28" s="96"/>
-      <c r="U28" s="96"/>
-      <c r="V28" s="96"/>
-      <c r="W28" s="96"/>
-      <c r="X28" s="96"/>
-      <c r="Y28" s="96"/>
-      <c r="Z28" s="96"/>
-      <c r="AA28" s="96"/>
-      <c r="AB28" s="96"/>
-      <c r="AC28" s="96"/>
-      <c r="AD28" s="96"/>
-      <c r="AE28" s="97"/>
-      <c r="AF28" s="92"/>
-      <c r="AG28" s="93"/>
-      <c r="AH28" s="93"/>
-      <c r="AI28" s="94"/>
+      <c r="B28" s="92"/>
+      <c r="C28" s="93"/>
+      <c r="D28" s="94"/>
+      <c r="E28" s="95"/>
+      <c r="F28" s="96"/>
+      <c r="G28" s="97"/>
+      <c r="H28" s="98"/>
+      <c r="I28" s="99"/>
+      <c r="J28" s="100"/>
+      <c r="K28" s="101"/>
+      <c r="L28" s="101"/>
+      <c r="M28" s="101"/>
+      <c r="N28" s="101"/>
+      <c r="O28" s="101"/>
+      <c r="P28" s="102"/>
+      <c r="Q28" s="103"/>
+      <c r="R28" s="104"/>
+      <c r="S28" s="104"/>
+      <c r="T28" s="104"/>
+      <c r="U28" s="104"/>
+      <c r="V28" s="104"/>
+      <c r="W28" s="104"/>
+      <c r="X28" s="104"/>
+      <c r="Y28" s="104"/>
+      <c r="Z28" s="104"/>
+      <c r="AA28" s="104"/>
+      <c r="AB28" s="104"/>
+      <c r="AC28" s="104"/>
+      <c r="AD28" s="104"/>
+      <c r="AE28" s="105"/>
+      <c r="AF28" s="100"/>
+      <c r="AG28" s="101"/>
+      <c r="AH28" s="101"/>
+      <c r="AI28" s="102"/>
     </row>
     <row r="29" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="60"/>
-      <c r="B29" s="84"/>
-      <c r="C29" s="85"/>
-      <c r="D29" s="86"/>
-      <c r="E29" s="87"/>
-      <c r="F29" s="88"/>
-      <c r="G29" s="89"/>
-      <c r="H29" s="90"/>
-      <c r="I29" s="91"/>
-      <c r="J29" s="92"/>
-      <c r="K29" s="93"/>
-      <c r="L29" s="93"/>
-      <c r="M29" s="93"/>
-      <c r="N29" s="93"/>
-      <c r="O29" s="93"/>
-      <c r="P29" s="94"/>
-      <c r="Q29" s="95"/>
-      <c r="R29" s="96"/>
-      <c r="S29" s="96"/>
-      <c r="T29" s="96"/>
-      <c r="U29" s="96"/>
-      <c r="V29" s="96"/>
-      <c r="W29" s="96"/>
-      <c r="X29" s="96"/>
-      <c r="Y29" s="96"/>
-      <c r="Z29" s="96"/>
-      <c r="AA29" s="96"/>
-      <c r="AB29" s="96"/>
-      <c r="AC29" s="96"/>
-      <c r="AD29" s="96"/>
-      <c r="AE29" s="97"/>
-      <c r="AF29" s="92"/>
-      <c r="AG29" s="93"/>
-      <c r="AH29" s="93"/>
-      <c r="AI29" s="94"/>
+      <c r="B29" s="92"/>
+      <c r="C29" s="93"/>
+      <c r="D29" s="94"/>
+      <c r="E29" s="95"/>
+      <c r="F29" s="96"/>
+      <c r="G29" s="97"/>
+      <c r="H29" s="98"/>
+      <c r="I29" s="99"/>
+      <c r="J29" s="100"/>
+      <c r="K29" s="101"/>
+      <c r="L29" s="101"/>
+      <c r="M29" s="101"/>
+      <c r="N29" s="101"/>
+      <c r="O29" s="101"/>
+      <c r="P29" s="102"/>
+      <c r="Q29" s="103"/>
+      <c r="R29" s="104"/>
+      <c r="S29" s="104"/>
+      <c r="T29" s="104"/>
+      <c r="U29" s="104"/>
+      <c r="V29" s="104"/>
+      <c r="W29" s="104"/>
+      <c r="X29" s="104"/>
+      <c r="Y29" s="104"/>
+      <c r="Z29" s="104"/>
+      <c r="AA29" s="104"/>
+      <c r="AB29" s="104"/>
+      <c r="AC29" s="104"/>
+      <c r="AD29" s="104"/>
+      <c r="AE29" s="105"/>
+      <c r="AF29" s="100"/>
+      <c r="AG29" s="101"/>
+      <c r="AH29" s="101"/>
+      <c r="AI29" s="102"/>
     </row>
     <row r="30" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="60"/>
-      <c r="B30" s="84"/>
-      <c r="C30" s="85"/>
-      <c r="D30" s="86"/>
-      <c r="E30" s="87"/>
-      <c r="F30" s="88"/>
-      <c r="G30" s="89"/>
-      <c r="H30" s="90"/>
-      <c r="I30" s="91"/>
-      <c r="J30" s="92"/>
-      <c r="K30" s="93"/>
-      <c r="L30" s="93"/>
-      <c r="M30" s="93"/>
-      <c r="N30" s="93"/>
-      <c r="O30" s="93"/>
-      <c r="P30" s="94"/>
-      <c r="Q30" s="95"/>
-      <c r="R30" s="96"/>
-      <c r="S30" s="96"/>
-      <c r="T30" s="96"/>
-      <c r="U30" s="96"/>
-      <c r="V30" s="96"/>
-      <c r="W30" s="96"/>
-      <c r="X30" s="96"/>
-      <c r="Y30" s="96"/>
-      <c r="Z30" s="96"/>
-      <c r="AA30" s="96"/>
-      <c r="AB30" s="96"/>
-      <c r="AC30" s="96"/>
-      <c r="AD30" s="96"/>
-      <c r="AE30" s="97"/>
-      <c r="AF30" s="92"/>
-      <c r="AG30" s="93"/>
-      <c r="AH30" s="93"/>
-      <c r="AI30" s="94"/>
+      <c r="B30" s="92"/>
+      <c r="C30" s="93"/>
+      <c r="D30" s="94"/>
+      <c r="E30" s="95"/>
+      <c r="F30" s="96"/>
+      <c r="G30" s="97"/>
+      <c r="H30" s="98"/>
+      <c r="I30" s="99"/>
+      <c r="J30" s="100"/>
+      <c r="K30" s="101"/>
+      <c r="L30" s="101"/>
+      <c r="M30" s="101"/>
+      <c r="N30" s="101"/>
+      <c r="O30" s="101"/>
+      <c r="P30" s="102"/>
+      <c r="Q30" s="103"/>
+      <c r="R30" s="104"/>
+      <c r="S30" s="104"/>
+      <c r="T30" s="104"/>
+      <c r="U30" s="104"/>
+      <c r="V30" s="104"/>
+      <c r="W30" s="104"/>
+      <c r="X30" s="104"/>
+      <c r="Y30" s="104"/>
+      <c r="Z30" s="104"/>
+      <c r="AA30" s="104"/>
+      <c r="AB30" s="104"/>
+      <c r="AC30" s="104"/>
+      <c r="AD30" s="104"/>
+      <c r="AE30" s="105"/>
+      <c r="AF30" s="100"/>
+      <c r="AG30" s="101"/>
+      <c r="AH30" s="101"/>
+      <c r="AI30" s="102"/>
     </row>
     <row r="31" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="60"/>
-      <c r="B31" s="84"/>
-      <c r="C31" s="85"/>
-      <c r="D31" s="86"/>
-      <c r="E31" s="87"/>
-      <c r="F31" s="88"/>
-      <c r="G31" s="89"/>
-      <c r="H31" s="90"/>
-      <c r="I31" s="91"/>
-      <c r="J31" s="92"/>
-      <c r="K31" s="93"/>
-      <c r="L31" s="93"/>
-      <c r="M31" s="93"/>
-      <c r="N31" s="93"/>
-      <c r="O31" s="93"/>
-      <c r="P31" s="94"/>
-      <c r="Q31" s="95"/>
-      <c r="R31" s="96"/>
-      <c r="S31" s="96"/>
-      <c r="T31" s="96"/>
-      <c r="U31" s="96"/>
-      <c r="V31" s="96"/>
-      <c r="W31" s="96"/>
-      <c r="X31" s="96"/>
-      <c r="Y31" s="96"/>
-      <c r="Z31" s="96"/>
-      <c r="AA31" s="96"/>
-      <c r="AB31" s="96"/>
-      <c r="AC31" s="96"/>
-      <c r="AD31" s="96"/>
-      <c r="AE31" s="97"/>
-      <c r="AF31" s="92"/>
-      <c r="AG31" s="93"/>
-      <c r="AH31" s="93"/>
-      <c r="AI31" s="94"/>
+      <c r="B31" s="92"/>
+      <c r="C31" s="93"/>
+      <c r="D31" s="94"/>
+      <c r="E31" s="95"/>
+      <c r="F31" s="96"/>
+      <c r="G31" s="97"/>
+      <c r="H31" s="98"/>
+      <c r="I31" s="99"/>
+      <c r="J31" s="100"/>
+      <c r="K31" s="101"/>
+      <c r="L31" s="101"/>
+      <c r="M31" s="101"/>
+      <c r="N31" s="101"/>
+      <c r="O31" s="101"/>
+      <c r="P31" s="102"/>
+      <c r="Q31" s="103"/>
+      <c r="R31" s="104"/>
+      <c r="S31" s="104"/>
+      <c r="T31" s="104"/>
+      <c r="U31" s="104"/>
+      <c r="V31" s="104"/>
+      <c r="W31" s="104"/>
+      <c r="X31" s="104"/>
+      <c r="Y31" s="104"/>
+      <c r="Z31" s="104"/>
+      <c r="AA31" s="104"/>
+      <c r="AB31" s="104"/>
+      <c r="AC31" s="104"/>
+      <c r="AD31" s="104"/>
+      <c r="AE31" s="105"/>
+      <c r="AF31" s="100"/>
+      <c r="AG31" s="101"/>
+      <c r="AH31" s="101"/>
+      <c r="AI31" s="102"/>
     </row>
     <row r="32" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="60"/>
-      <c r="B32" s="84"/>
-      <c r="C32" s="85"/>
-      <c r="D32" s="86"/>
-      <c r="E32" s="87"/>
-      <c r="F32" s="88"/>
-      <c r="G32" s="89"/>
-      <c r="H32" s="90"/>
-      <c r="I32" s="91"/>
-      <c r="J32" s="92"/>
-      <c r="K32" s="93"/>
-      <c r="L32" s="93"/>
-      <c r="M32" s="93"/>
-      <c r="N32" s="93"/>
-      <c r="O32" s="93"/>
-      <c r="P32" s="94"/>
-      <c r="Q32" s="95"/>
-      <c r="R32" s="96"/>
-      <c r="S32" s="96"/>
-      <c r="T32" s="96"/>
-      <c r="U32" s="96"/>
-      <c r="V32" s="96"/>
-      <c r="W32" s="96"/>
-      <c r="X32" s="96"/>
-      <c r="Y32" s="96"/>
-      <c r="Z32" s="96"/>
-      <c r="AA32" s="96"/>
-      <c r="AB32" s="96"/>
-      <c r="AC32" s="96"/>
-      <c r="AD32" s="96"/>
-      <c r="AE32" s="97"/>
-      <c r="AF32" s="92"/>
-      <c r="AG32" s="93"/>
-      <c r="AH32" s="93"/>
-      <c r="AI32" s="94"/>
+      <c r="B32" s="92"/>
+      <c r="C32" s="93"/>
+      <c r="D32" s="94"/>
+      <c r="E32" s="95"/>
+      <c r="F32" s="96"/>
+      <c r="G32" s="97"/>
+      <c r="H32" s="98"/>
+      <c r="I32" s="99"/>
+      <c r="J32" s="100"/>
+      <c r="K32" s="101"/>
+      <c r="L32" s="101"/>
+      <c r="M32" s="101"/>
+      <c r="N32" s="101"/>
+      <c r="O32" s="101"/>
+      <c r="P32" s="102"/>
+      <c r="Q32" s="103"/>
+      <c r="R32" s="104"/>
+      <c r="S32" s="104"/>
+      <c r="T32" s="104"/>
+      <c r="U32" s="104"/>
+      <c r="V32" s="104"/>
+      <c r="W32" s="104"/>
+      <c r="X32" s="104"/>
+      <c r="Y32" s="104"/>
+      <c r="Z32" s="104"/>
+      <c r="AA32" s="104"/>
+      <c r="AB32" s="104"/>
+      <c r="AC32" s="104"/>
+      <c r="AD32" s="104"/>
+      <c r="AE32" s="105"/>
+      <c r="AF32" s="100"/>
+      <c r="AG32" s="101"/>
+      <c r="AH32" s="101"/>
+      <c r="AI32" s="102"/>
     </row>
     <row r="33" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="60"/>
-      <c r="B33" s="84"/>
-      <c r="C33" s="85"/>
-      <c r="D33" s="86"/>
-      <c r="E33" s="87"/>
-      <c r="F33" s="88"/>
-      <c r="G33" s="89"/>
-      <c r="H33" s="90"/>
-      <c r="I33" s="91"/>
-      <c r="J33" s="92"/>
-      <c r="K33" s="93"/>
-      <c r="L33" s="93"/>
-      <c r="M33" s="93"/>
-      <c r="N33" s="93"/>
-      <c r="O33" s="93"/>
-      <c r="P33" s="94"/>
-      <c r="Q33" s="95"/>
-      <c r="R33" s="96"/>
-      <c r="S33" s="96"/>
-      <c r="T33" s="96"/>
-      <c r="U33" s="96"/>
-      <c r="V33" s="96"/>
-      <c r="W33" s="96"/>
-      <c r="X33" s="96"/>
-      <c r="Y33" s="96"/>
-      <c r="Z33" s="96"/>
-      <c r="AA33" s="96"/>
-      <c r="AB33" s="96"/>
-      <c r="AC33" s="96"/>
-      <c r="AD33" s="96"/>
-      <c r="AE33" s="97"/>
-      <c r="AF33" s="92"/>
-      <c r="AG33" s="93"/>
-      <c r="AH33" s="93"/>
-      <c r="AI33" s="94"/>
+      <c r="B33" s="92"/>
+      <c r="C33" s="93"/>
+      <c r="D33" s="94"/>
+      <c r="E33" s="95"/>
+      <c r="F33" s="96"/>
+      <c r="G33" s="97"/>
+      <c r="H33" s="98"/>
+      <c r="I33" s="99"/>
+      <c r="J33" s="100"/>
+      <c r="K33" s="101"/>
+      <c r="L33" s="101"/>
+      <c r="M33" s="101"/>
+      <c r="N33" s="101"/>
+      <c r="O33" s="101"/>
+      <c r="P33" s="102"/>
+      <c r="Q33" s="103"/>
+      <c r="R33" s="104"/>
+      <c r="S33" s="104"/>
+      <c r="T33" s="104"/>
+      <c r="U33" s="104"/>
+      <c r="V33" s="104"/>
+      <c r="W33" s="104"/>
+      <c r="X33" s="104"/>
+      <c r="Y33" s="104"/>
+      <c r="Z33" s="104"/>
+      <c r="AA33" s="104"/>
+      <c r="AB33" s="104"/>
+      <c r="AC33" s="104"/>
+      <c r="AD33" s="104"/>
+      <c r="AE33" s="105"/>
+      <c r="AF33" s="100"/>
+      <c r="AG33" s="101"/>
+      <c r="AH33" s="101"/>
+      <c r="AI33" s="102"/>
     </row>
   </sheetData>
   <mergeCells count="179">
@@ -4840,7 +5024,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -4986,163 +5170,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="129" t="s">
+      <c r="A1" s="139" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="130"/>
-      <c r="C1" s="130"/>
-      <c r="D1" s="131"/>
-      <c r="E1" s="159" t="str">
+      <c r="B1" s="140"/>
+      <c r="C1" s="140"/>
+      <c r="D1" s="141"/>
+      <c r="E1" s="169" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="133"/>
-      <c r="G1" s="133"/>
-      <c r="H1" s="133"/>
-      <c r="I1" s="133"/>
-      <c r="J1" s="133"/>
-      <c r="K1" s="133"/>
-      <c r="L1" s="133"/>
-      <c r="M1" s="133"/>
-      <c r="N1" s="134"/>
-      <c r="O1" s="138" t="s">
+      <c r="F1" s="143"/>
+      <c r="G1" s="143"/>
+      <c r="H1" s="143"/>
+      <c r="I1" s="143"/>
+      <c r="J1" s="143"/>
+      <c r="K1" s="143"/>
+      <c r="L1" s="143"/>
+      <c r="M1" s="143"/>
+      <c r="N1" s="144"/>
+      <c r="O1" s="148" t="s">
         <v>17</v>
       </c>
-      <c r="P1" s="139"/>
-      <c r="Q1" s="139"/>
-      <c r="R1" s="140"/>
-      <c r="S1" s="147" t="str">
+      <c r="P1" s="149"/>
+      <c r="Q1" s="149"/>
+      <c r="R1" s="150"/>
+      <c r="S1" s="157" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>画面一覧</v>
       </c>
-      <c r="T1" s="148"/>
-      <c r="U1" s="148"/>
-      <c r="V1" s="148"/>
-      <c r="W1" s="148"/>
-      <c r="X1" s="148"/>
-      <c r="Y1" s="148"/>
-      <c r="Z1" s="149"/>
-      <c r="AA1" s="129" t="s">
+      <c r="T1" s="158"/>
+      <c r="U1" s="158"/>
+      <c r="V1" s="158"/>
+      <c r="W1" s="158"/>
+      <c r="X1" s="158"/>
+      <c r="Y1" s="158"/>
+      <c r="Z1" s="159"/>
+      <c r="AA1" s="139" t="s">
         <v>18</v>
       </c>
-      <c r="AB1" s="131"/>
-      <c r="AC1" s="156" t="str">
+      <c r="AB1" s="141"/>
+      <c r="AC1" s="166" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="157"/>
-      <c r="AE1" s="157"/>
-      <c r="AF1" s="158"/>
-      <c r="AG1" s="160">
+      <c r="AD1" s="167"/>
+      <c r="AE1" s="167"/>
+      <c r="AF1" s="168"/>
+      <c r="AG1" s="170">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43592</v>
       </c>
-      <c r="AH1" s="161"/>
-      <c r="AI1" s="162"/>
+      <c r="AH1" s="171"/>
+      <c r="AI1" s="172"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="2"/>
     </row>
     <row r="2" spans="1:38" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="129" t="s">
+      <c r="A2" s="139" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="130"/>
-      <c r="C2" s="130"/>
-      <c r="D2" s="131"/>
-      <c r="E2" s="159" t="str">
+      <c r="B2" s="140"/>
+      <c r="C2" s="140"/>
+      <c r="D2" s="141"/>
+      <c r="E2" s="169" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="133"/>
-      <c r="G2" s="133"/>
-      <c r="H2" s="133"/>
-      <c r="I2" s="133"/>
-      <c r="J2" s="133"/>
-      <c r="K2" s="133"/>
-      <c r="L2" s="133"/>
-      <c r="M2" s="133"/>
-      <c r="N2" s="134"/>
-      <c r="O2" s="141"/>
-      <c r="P2" s="142"/>
-      <c r="Q2" s="142"/>
-      <c r="R2" s="143"/>
-      <c r="S2" s="150"/>
-      <c r="T2" s="151"/>
-      <c r="U2" s="151"/>
-      <c r="V2" s="151"/>
-      <c r="W2" s="151"/>
-      <c r="X2" s="151"/>
-      <c r="Y2" s="151"/>
-      <c r="Z2" s="152"/>
-      <c r="AA2" s="129" t="s">
+      <c r="F2" s="143"/>
+      <c r="G2" s="143"/>
+      <c r="H2" s="143"/>
+      <c r="I2" s="143"/>
+      <c r="J2" s="143"/>
+      <c r="K2" s="143"/>
+      <c r="L2" s="143"/>
+      <c r="M2" s="143"/>
+      <c r="N2" s="144"/>
+      <c r="O2" s="151"/>
+      <c r="P2" s="152"/>
+      <c r="Q2" s="152"/>
+      <c r="R2" s="153"/>
+      <c r="S2" s="160"/>
+      <c r="T2" s="161"/>
+      <c r="U2" s="161"/>
+      <c r="V2" s="161"/>
+      <c r="W2" s="161"/>
+      <c r="X2" s="161"/>
+      <c r="Y2" s="161"/>
+      <c r="Z2" s="162"/>
+      <c r="AA2" s="139" t="s">
         <v>19</v>
       </c>
-      <c r="AB2" s="131"/>
-      <c r="AC2" s="156" t="str">
+      <c r="AB2" s="141"/>
+      <c r="AC2" s="166" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="157"/>
-      <c r="AE2" s="157"/>
-      <c r="AF2" s="158"/>
-      <c r="AG2" s="160">
+      <c r="AD2" s="167"/>
+      <c r="AE2" s="167"/>
+      <c r="AF2" s="168"/>
+      <c r="AG2" s="170">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
-        <v>43803</v>
-      </c>
-      <c r="AH2" s="161"/>
-      <c r="AI2" s="162"/>
+        <v>43895</v>
+      </c>
+      <c r="AH2" s="171"/>
+      <c r="AI2" s="172"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
     </row>
     <row r="3" spans="1:38" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="129" t="s">
+      <c r="A3" s="139" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="130"/>
-      <c r="C3" s="130"/>
-      <c r="D3" s="131"/>
-      <c r="E3" s="159" t="str">
+      <c r="B3" s="140"/>
+      <c r="C3" s="140"/>
+      <c r="D3" s="141"/>
+      <c r="E3" s="169" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="133"/>
-      <c r="G3" s="133"/>
-      <c r="H3" s="133"/>
-      <c r="I3" s="133"/>
-      <c r="J3" s="133"/>
-      <c r="K3" s="133"/>
-      <c r="L3" s="133"/>
-      <c r="M3" s="133"/>
-      <c r="N3" s="134"/>
-      <c r="O3" s="144"/>
-      <c r="P3" s="145"/>
-      <c r="Q3" s="145"/>
-      <c r="R3" s="146"/>
-      <c r="S3" s="153"/>
-      <c r="T3" s="154"/>
-      <c r="U3" s="154"/>
-      <c r="V3" s="154"/>
-      <c r="W3" s="154"/>
-      <c r="X3" s="154"/>
-      <c r="Y3" s="154"/>
-      <c r="Z3" s="155"/>
-      <c r="AA3" s="129"/>
-      <c r="AB3" s="131"/>
-      <c r="AC3" s="156" t="str">
+      <c r="F3" s="143"/>
+      <c r="G3" s="143"/>
+      <c r="H3" s="143"/>
+      <c r="I3" s="143"/>
+      <c r="J3" s="143"/>
+      <c r="K3" s="143"/>
+      <c r="L3" s="143"/>
+      <c r="M3" s="143"/>
+      <c r="N3" s="144"/>
+      <c r="O3" s="154"/>
+      <c r="P3" s="155"/>
+      <c r="Q3" s="155"/>
+      <c r="R3" s="156"/>
+      <c r="S3" s="163"/>
+      <c r="T3" s="164"/>
+      <c r="U3" s="164"/>
+      <c r="V3" s="164"/>
+      <c r="W3" s="164"/>
+      <c r="X3" s="164"/>
+      <c r="Y3" s="164"/>
+      <c r="Z3" s="165"/>
+      <c r="AA3" s="139"/>
+      <c r="AB3" s="141"/>
+      <c r="AC3" s="166" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="157"/>
-      <c r="AE3" s="157"/>
-      <c r="AF3" s="158"/>
-      <c r="AG3" s="160" t="str">
+      <c r="AD3" s="167"/>
+      <c r="AE3" s="167"/>
+      <c r="AF3" s="168"/>
+      <c r="AG3" s="170" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="161"/>
-      <c r="AI3" s="162"/>
+      <c r="AH3" s="171"/>
+      <c r="AI3" s="172"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
@@ -6632,11 +6816,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet4">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BE16"/>
+  <dimension ref="A1:BE20"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection sqref="A1:D1"/>
@@ -6648,59 +6832,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:57" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="129" t="s">
+      <c r="A1" s="139" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="130"/>
-      <c r="C1" s="130"/>
-      <c r="D1" s="131"/>
-      <c r="E1" s="159" t="str">
+      <c r="B1" s="140"/>
+      <c r="C1" s="140"/>
+      <c r="D1" s="141"/>
+      <c r="E1" s="169" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="133"/>
-      <c r="G1" s="133"/>
-      <c r="H1" s="133"/>
-      <c r="I1" s="133"/>
-      <c r="J1" s="133"/>
-      <c r="K1" s="133"/>
-      <c r="L1" s="133"/>
-      <c r="M1" s="133"/>
-      <c r="N1" s="134"/>
-      <c r="O1" s="174" t="s">
+      <c r="F1" s="143"/>
+      <c r="G1" s="143"/>
+      <c r="H1" s="143"/>
+      <c r="I1" s="143"/>
+      <c r="J1" s="143"/>
+      <c r="K1" s="143"/>
+      <c r="L1" s="143"/>
+      <c r="M1" s="143"/>
+      <c r="N1" s="144"/>
+      <c r="O1" s="196" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="175"/>
-      <c r="Q1" s="175"/>
-      <c r="R1" s="176"/>
-      <c r="S1" s="183" t="str">
+      <c r="P1" s="197"/>
+      <c r="Q1" s="197"/>
+      <c r="R1" s="198"/>
+      <c r="S1" s="205" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>画面一覧</v>
       </c>
-      <c r="T1" s="184"/>
-      <c r="U1" s="184"/>
-      <c r="V1" s="184"/>
-      <c r="W1" s="184"/>
-      <c r="X1" s="184"/>
-      <c r="Y1" s="184"/>
-      <c r="Z1" s="185"/>
-      <c r="AA1" s="129" t="s">
+      <c r="T1" s="206"/>
+      <c r="U1" s="206"/>
+      <c r="V1" s="206"/>
+      <c r="W1" s="206"/>
+      <c r="X1" s="206"/>
+      <c r="Y1" s="206"/>
+      <c r="Z1" s="207"/>
+      <c r="AA1" s="139" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="131"/>
-      <c r="AC1" s="156" t="str">
+      <c r="AB1" s="141"/>
+      <c r="AC1" s="166" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="157"/>
-      <c r="AE1" s="157"/>
-      <c r="AF1" s="158"/>
-      <c r="AG1" s="160">
+      <c r="AD1" s="167"/>
+      <c r="AE1" s="167"/>
+      <c r="AF1" s="168"/>
+      <c r="AG1" s="170">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43592</v>
       </c>
-      <c r="AH1" s="161"/>
-      <c r="AI1" s="162"/>
+      <c r="AH1" s="171"/>
+      <c r="AI1" s="172"/>
       <c r="AJ1" s="11"/>
       <c r="AK1" s="11"/>
       <c r="AL1" s="11"/>
@@ -6725,54 +6909,54 @@
       <c r="BE1" s="11"/>
     </row>
     <row r="2" spans="1:57" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="129" t="s">
+      <c r="A2" s="139" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="130"/>
-      <c r="C2" s="130"/>
-      <c r="D2" s="131"/>
-      <c r="E2" s="159" t="str">
+      <c r="B2" s="140"/>
+      <c r="C2" s="140"/>
+      <c r="D2" s="141"/>
+      <c r="E2" s="169" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="133"/>
-      <c r="G2" s="133"/>
-      <c r="H2" s="133"/>
-      <c r="I2" s="133"/>
-      <c r="J2" s="133"/>
-      <c r="K2" s="133"/>
-      <c r="L2" s="133"/>
-      <c r="M2" s="133"/>
-      <c r="N2" s="134"/>
-      <c r="O2" s="177"/>
-      <c r="P2" s="178"/>
-      <c r="Q2" s="178"/>
-      <c r="R2" s="179"/>
-      <c r="S2" s="186"/>
-      <c r="T2" s="187"/>
-      <c r="U2" s="187"/>
-      <c r="V2" s="187"/>
-      <c r="W2" s="187"/>
-      <c r="X2" s="187"/>
-      <c r="Y2" s="187"/>
-      <c r="Z2" s="188"/>
-      <c r="AA2" s="129" t="s">
+      <c r="F2" s="143"/>
+      <c r="G2" s="143"/>
+      <c r="H2" s="143"/>
+      <c r="I2" s="143"/>
+      <c r="J2" s="143"/>
+      <c r="K2" s="143"/>
+      <c r="L2" s="143"/>
+      <c r="M2" s="143"/>
+      <c r="N2" s="144"/>
+      <c r="O2" s="199"/>
+      <c r="P2" s="200"/>
+      <c r="Q2" s="200"/>
+      <c r="R2" s="201"/>
+      <c r="S2" s="208"/>
+      <c r="T2" s="209"/>
+      <c r="U2" s="209"/>
+      <c r="V2" s="209"/>
+      <c r="W2" s="209"/>
+      <c r="X2" s="209"/>
+      <c r="Y2" s="209"/>
+      <c r="Z2" s="210"/>
+      <c r="AA2" s="139" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="131"/>
-      <c r="AC2" s="156" t="str">
+      <c r="AB2" s="141"/>
+      <c r="AC2" s="166" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="157"/>
-      <c r="AE2" s="157"/>
-      <c r="AF2" s="158"/>
-      <c r="AG2" s="160">
+      <c r="AD2" s="167"/>
+      <c r="AE2" s="167"/>
+      <c r="AF2" s="168"/>
+      <c r="AG2" s="170">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
-        <v>43803</v>
-      </c>
-      <c r="AH2" s="161"/>
-      <c r="AI2" s="162"/>
+        <v>43895</v>
+      </c>
+      <c r="AH2" s="171"/>
+      <c r="AI2" s="172"/>
       <c r="AJ2" s="11"/>
       <c r="AK2" s="11"/>
       <c r="AL2" s="11"/>
@@ -6797,52 +6981,52 @@
       <c r="BE2" s="11"/>
     </row>
     <row r="3" spans="1:57" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="129" t="s">
+      <c r="A3" s="139" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="130"/>
-      <c r="C3" s="130"/>
-      <c r="D3" s="131"/>
-      <c r="E3" s="159" t="str">
+      <c r="B3" s="140"/>
+      <c r="C3" s="140"/>
+      <c r="D3" s="141"/>
+      <c r="E3" s="169" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="133"/>
-      <c r="G3" s="133"/>
-      <c r="H3" s="133"/>
-      <c r="I3" s="133"/>
-      <c r="J3" s="133"/>
-      <c r="K3" s="133"/>
-      <c r="L3" s="133"/>
-      <c r="M3" s="133"/>
-      <c r="N3" s="134"/>
-      <c r="O3" s="180"/>
-      <c r="P3" s="181"/>
-      <c r="Q3" s="181"/>
-      <c r="R3" s="182"/>
-      <c r="S3" s="189"/>
-      <c r="T3" s="190"/>
-      <c r="U3" s="190"/>
-      <c r="V3" s="190"/>
-      <c r="W3" s="190"/>
-      <c r="X3" s="190"/>
-      <c r="Y3" s="190"/>
-      <c r="Z3" s="191"/>
-      <c r="AA3" s="129"/>
-      <c r="AB3" s="131"/>
-      <c r="AC3" s="156" t="str">
+      <c r="F3" s="143"/>
+      <c r="G3" s="143"/>
+      <c r="H3" s="143"/>
+      <c r="I3" s="143"/>
+      <c r="J3" s="143"/>
+      <c r="K3" s="143"/>
+      <c r="L3" s="143"/>
+      <c r="M3" s="143"/>
+      <c r="N3" s="144"/>
+      <c r="O3" s="202"/>
+      <c r="P3" s="203"/>
+      <c r="Q3" s="203"/>
+      <c r="R3" s="204"/>
+      <c r="S3" s="211"/>
+      <c r="T3" s="212"/>
+      <c r="U3" s="212"/>
+      <c r="V3" s="212"/>
+      <c r="W3" s="212"/>
+      <c r="X3" s="212"/>
+      <c r="Y3" s="212"/>
+      <c r="Z3" s="213"/>
+      <c r="AA3" s="139"/>
+      <c r="AB3" s="141"/>
+      <c r="AC3" s="166" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="157"/>
-      <c r="AE3" s="157"/>
-      <c r="AF3" s="158"/>
-      <c r="AG3" s="160" t="str">
+      <c r="AD3" s="167"/>
+      <c r="AE3" s="167"/>
+      <c r="AF3" s="168"/>
+      <c r="AG3" s="170" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="161"/>
-      <c r="AI3" s="162"/>
+      <c r="AH3" s="171"/>
+      <c r="AI3" s="172"/>
       <c r="AJ3" s="11"/>
       <c r="AK3" s="11"/>
       <c r="AL3" s="11"/>
@@ -7013,47 +7197,47 @@
       <c r="C7" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="165" t="s">
+      <c r="D7" s="178" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="166"/>
-      <c r="F7" s="167"/>
-      <c r="G7" s="165" t="s">
+      <c r="E7" s="179"/>
+      <c r="F7" s="180"/>
+      <c r="G7" s="178" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="166"/>
-      <c r="I7" s="166"/>
-      <c r="J7" s="166"/>
-      <c r="K7" s="167"/>
-      <c r="L7" s="201" t="s">
+      <c r="H7" s="179"/>
+      <c r="I7" s="179"/>
+      <c r="J7" s="179"/>
+      <c r="K7" s="180"/>
+      <c r="L7" s="214" t="s">
         <v>12</v>
       </c>
-      <c r="M7" s="202"/>
-      <c r="N7" s="203"/>
-      <c r="O7" s="165" t="s">
+      <c r="M7" s="215"/>
+      <c r="N7" s="216"/>
+      <c r="O7" s="178" t="s">
         <v>13</v>
       </c>
-      <c r="P7" s="166"/>
-      <c r="Q7" s="166"/>
-      <c r="R7" s="166"/>
-      <c r="S7" s="167"/>
-      <c r="T7" s="165" t="s">
+      <c r="P7" s="179"/>
+      <c r="Q7" s="179"/>
+      <c r="R7" s="179"/>
+      <c r="S7" s="180"/>
+      <c r="T7" s="178" t="s">
         <v>14</v>
       </c>
-      <c r="U7" s="166"/>
-      <c r="V7" s="166"/>
-      <c r="W7" s="166"/>
-      <c r="X7" s="166"/>
-      <c r="Y7" s="166"/>
-      <c r="Z7" s="166"/>
-      <c r="AA7" s="166"/>
-      <c r="AB7" s="166"/>
-      <c r="AC7" s="166"/>
-      <c r="AD7" s="166"/>
-      <c r="AE7" s="166"/>
-      <c r="AF7" s="166"/>
-      <c r="AG7" s="166"/>
-      <c r="AH7" s="167"/>
+      <c r="U7" s="179"/>
+      <c r="V7" s="179"/>
+      <c r="W7" s="179"/>
+      <c r="X7" s="179"/>
+      <c r="Y7" s="179"/>
+      <c r="Z7" s="179"/>
+      <c r="AA7" s="179"/>
+      <c r="AB7" s="179"/>
+      <c r="AC7" s="179"/>
+      <c r="AD7" s="179"/>
+      <c r="AE7" s="179"/>
+      <c r="AF7" s="179"/>
+      <c r="AG7" s="179"/>
+      <c r="AH7" s="180"/>
       <c r="AJ7" s="11"/>
       <c r="AK7" s="11"/>
       <c r="AL7" s="11"/>
@@ -7081,47 +7265,47 @@
       <c r="C8" s="60">
         <v>1</v>
       </c>
-      <c r="D8" s="192" t="s">
+      <c r="D8" s="187" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="193"/>
-      <c r="F8" s="194"/>
-      <c r="G8" s="192" t="s">
+      <c r="E8" s="188"/>
+      <c r="F8" s="189"/>
+      <c r="G8" s="187" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="193"/>
-      <c r="I8" s="193"/>
-      <c r="J8" s="193"/>
-      <c r="K8" s="194"/>
-      <c r="L8" s="103" t="s">
+      <c r="H8" s="188"/>
+      <c r="I8" s="188"/>
+      <c r="J8" s="188"/>
+      <c r="K8" s="189"/>
+      <c r="L8" s="108" t="s">
         <v>29</v>
       </c>
-      <c r="M8" s="104"/>
-      <c r="N8" s="105"/>
-      <c r="O8" s="103" t="s">
+      <c r="M8" s="115"/>
+      <c r="N8" s="116"/>
+      <c r="O8" s="108" t="s">
         <v>28</v>
       </c>
-      <c r="P8" s="104"/>
-      <c r="Q8" s="104"/>
-      <c r="R8" s="104"/>
-      <c r="S8" s="105"/>
-      <c r="T8" s="103" t="s">
+      <c r="P8" s="115"/>
+      <c r="Q8" s="115"/>
+      <c r="R8" s="115"/>
+      <c r="S8" s="116"/>
+      <c r="T8" s="108" t="s">
         <v>57</v>
       </c>
-      <c r="U8" s="93"/>
-      <c r="V8" s="93"/>
-      <c r="W8" s="93"/>
-      <c r="X8" s="93"/>
-      <c r="Y8" s="93"/>
-      <c r="Z8" s="93"/>
-      <c r="AA8" s="93"/>
-      <c r="AB8" s="93"/>
-      <c r="AC8" s="93"/>
-      <c r="AD8" s="93"/>
-      <c r="AE8" s="93"/>
-      <c r="AF8" s="93"/>
-      <c r="AG8" s="93"/>
-      <c r="AH8" s="94"/>
+      <c r="U8" s="101"/>
+      <c r="V8" s="101"/>
+      <c r="W8" s="101"/>
+      <c r="X8" s="101"/>
+      <c r="Y8" s="101"/>
+      <c r="Z8" s="101"/>
+      <c r="AA8" s="101"/>
+      <c r="AB8" s="101"/>
+      <c r="AC8" s="101"/>
+      <c r="AD8" s="101"/>
+      <c r="AE8" s="101"/>
+      <c r="AF8" s="101"/>
+      <c r="AG8" s="101"/>
+      <c r="AH8" s="102"/>
       <c r="AJ8" s="11"/>
       <c r="AK8" s="11"/>
       <c r="AL8" s="11"/>
@@ -7150,43 +7334,43 @@
         <f>C8+1</f>
         <v>2</v>
       </c>
-      <c r="D9" s="195"/>
-      <c r="E9" s="196"/>
-      <c r="F9" s="197"/>
-      <c r="G9" s="195"/>
-      <c r="H9" s="196"/>
-      <c r="I9" s="196"/>
-      <c r="J9" s="196"/>
-      <c r="K9" s="197"/>
-      <c r="L9" s="103" t="s">
+      <c r="D9" s="190"/>
+      <c r="E9" s="191"/>
+      <c r="F9" s="192"/>
+      <c r="G9" s="190"/>
+      <c r="H9" s="191"/>
+      <c r="I9" s="191"/>
+      <c r="J9" s="191"/>
+      <c r="K9" s="192"/>
+      <c r="L9" s="108" t="s">
         <v>30</v>
       </c>
-      <c r="M9" s="104"/>
-      <c r="N9" s="105"/>
-      <c r="O9" s="103" t="s">
+      <c r="M9" s="115"/>
+      <c r="N9" s="116"/>
+      <c r="O9" s="108" t="s">
         <v>31</v>
       </c>
-      <c r="P9" s="104"/>
-      <c r="Q9" s="104"/>
-      <c r="R9" s="104"/>
-      <c r="S9" s="105"/>
-      <c r="T9" s="103" t="s">
+      <c r="P9" s="115"/>
+      <c r="Q9" s="115"/>
+      <c r="R9" s="115"/>
+      <c r="S9" s="116"/>
+      <c r="T9" s="108" t="s">
         <v>44</v>
       </c>
-      <c r="U9" s="93"/>
-      <c r="V9" s="93"/>
-      <c r="W9" s="93"/>
-      <c r="X9" s="93"/>
-      <c r="Y9" s="93"/>
-      <c r="Z9" s="93"/>
-      <c r="AA9" s="93"/>
-      <c r="AB9" s="93"/>
-      <c r="AC9" s="93"/>
-      <c r="AD9" s="93"/>
-      <c r="AE9" s="93"/>
-      <c r="AF9" s="93"/>
-      <c r="AG9" s="93"/>
-      <c r="AH9" s="94"/>
+      <c r="U9" s="101"/>
+      <c r="V9" s="101"/>
+      <c r="W9" s="101"/>
+      <c r="X9" s="101"/>
+      <c r="Y9" s="101"/>
+      <c r="Z9" s="101"/>
+      <c r="AA9" s="101"/>
+      <c r="AB9" s="101"/>
+      <c r="AC9" s="101"/>
+      <c r="AD9" s="101"/>
+      <c r="AE9" s="101"/>
+      <c r="AF9" s="101"/>
+      <c r="AG9" s="101"/>
+      <c r="AH9" s="102"/>
       <c r="AL9" s="11"/>
       <c r="AM9" s="11"/>
       <c r="AN9" s="11"/>
@@ -7205,43 +7389,43 @@
         <f t="shared" ref="C10:C14" si="0">C9+1</f>
         <v>3</v>
       </c>
-      <c r="D10" s="195"/>
-      <c r="E10" s="196"/>
-      <c r="F10" s="197"/>
-      <c r="G10" s="195"/>
-      <c r="H10" s="196"/>
-      <c r="I10" s="196"/>
-      <c r="J10" s="196"/>
-      <c r="K10" s="197"/>
-      <c r="L10" s="171" t="s">
+      <c r="D10" s="190"/>
+      <c r="E10" s="191"/>
+      <c r="F10" s="192"/>
+      <c r="G10" s="190"/>
+      <c r="H10" s="191"/>
+      <c r="I10" s="191"/>
+      <c r="J10" s="191"/>
+      <c r="K10" s="192"/>
+      <c r="L10" s="184" t="s">
         <v>32</v>
       </c>
-      <c r="M10" s="172"/>
-      <c r="N10" s="173"/>
-      <c r="O10" s="171" t="s">
+      <c r="M10" s="185"/>
+      <c r="N10" s="186"/>
+      <c r="O10" s="184" t="s">
         <v>33</v>
       </c>
-      <c r="P10" s="172"/>
-      <c r="Q10" s="172"/>
-      <c r="R10" s="172"/>
-      <c r="S10" s="173"/>
-      <c r="T10" s="168" t="s">
+      <c r="P10" s="185"/>
+      <c r="Q10" s="185"/>
+      <c r="R10" s="185"/>
+      <c r="S10" s="186"/>
+      <c r="T10" s="181" t="s">
         <v>50</v>
       </c>
-      <c r="U10" s="169"/>
-      <c r="V10" s="169"/>
-      <c r="W10" s="169"/>
-      <c r="X10" s="169"/>
-      <c r="Y10" s="169"/>
-      <c r="Z10" s="169"/>
-      <c r="AA10" s="169"/>
-      <c r="AB10" s="169"/>
-      <c r="AC10" s="169"/>
-      <c r="AD10" s="169"/>
-      <c r="AE10" s="169"/>
-      <c r="AF10" s="169"/>
-      <c r="AG10" s="169"/>
-      <c r="AH10" s="170"/>
+      <c r="U10" s="182"/>
+      <c r="V10" s="182"/>
+      <c r="W10" s="182"/>
+      <c r="X10" s="182"/>
+      <c r="Y10" s="182"/>
+      <c r="Z10" s="182"/>
+      <c r="AA10" s="182"/>
+      <c r="AB10" s="182"/>
+      <c r="AC10" s="182"/>
+      <c r="AD10" s="182"/>
+      <c r="AE10" s="182"/>
+      <c r="AF10" s="182"/>
+      <c r="AG10" s="182"/>
+      <c r="AH10" s="183"/>
       <c r="AL10" s="11"/>
       <c r="AM10" s="11"/>
       <c r="AN10" s="11"/>
@@ -7260,43 +7444,43 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D11" s="198"/>
-      <c r="E11" s="199"/>
-      <c r="F11" s="200"/>
-      <c r="G11" s="198"/>
-      <c r="H11" s="199"/>
-      <c r="I11" s="199"/>
-      <c r="J11" s="199"/>
-      <c r="K11" s="200"/>
-      <c r="L11" s="171" t="s">
+      <c r="D11" s="193"/>
+      <c r="E11" s="194"/>
+      <c r="F11" s="195"/>
+      <c r="G11" s="193"/>
+      <c r="H11" s="194"/>
+      <c r="I11" s="194"/>
+      <c r="J11" s="194"/>
+      <c r="K11" s="195"/>
+      <c r="L11" s="184" t="s">
         <v>34</v>
       </c>
-      <c r="M11" s="172"/>
-      <c r="N11" s="173"/>
-      <c r="O11" s="171" t="s">
+      <c r="M11" s="185"/>
+      <c r="N11" s="186"/>
+      <c r="O11" s="184" t="s">
         <v>35</v>
       </c>
-      <c r="P11" s="172"/>
-      <c r="Q11" s="172"/>
-      <c r="R11" s="172"/>
-      <c r="S11" s="173"/>
-      <c r="T11" s="168" t="s">
+      <c r="P11" s="185"/>
+      <c r="Q11" s="185"/>
+      <c r="R11" s="185"/>
+      <c r="S11" s="186"/>
+      <c r="T11" s="181" t="s">
         <v>56</v>
       </c>
-      <c r="U11" s="169"/>
-      <c r="V11" s="169"/>
-      <c r="W11" s="169"/>
-      <c r="X11" s="169"/>
-      <c r="Y11" s="169"/>
-      <c r="Z11" s="169"/>
-      <c r="AA11" s="169"/>
-      <c r="AB11" s="169"/>
-      <c r="AC11" s="169"/>
-      <c r="AD11" s="169"/>
-      <c r="AE11" s="169"/>
-      <c r="AF11" s="169"/>
-      <c r="AG11" s="169"/>
-      <c r="AH11" s="170"/>
+      <c r="U11" s="182"/>
+      <c r="V11" s="182"/>
+      <c r="W11" s="182"/>
+      <c r="X11" s="182"/>
+      <c r="Y11" s="182"/>
+      <c r="Z11" s="182"/>
+      <c r="AA11" s="182"/>
+      <c r="AB11" s="182"/>
+      <c r="AC11" s="182"/>
+      <c r="AD11" s="182"/>
+      <c r="AE11" s="182"/>
+      <c r="AF11" s="182"/>
+      <c r="AG11" s="182"/>
+      <c r="AH11" s="183"/>
       <c r="AL11" s="11"/>
       <c r="AM11" s="11"/>
       <c r="AN11" s="11"/>
@@ -7315,47 +7499,47 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="D12" s="163" t="s">
+      <c r="D12" s="176" t="s">
         <v>37</v>
       </c>
-      <c r="E12" s="163"/>
-      <c r="F12" s="163"/>
-      <c r="G12" s="163" t="s">
+      <c r="E12" s="176"/>
+      <c r="F12" s="176"/>
+      <c r="G12" s="176" t="s">
         <v>36</v>
       </c>
-      <c r="H12" s="163"/>
-      <c r="I12" s="163"/>
-      <c r="J12" s="163"/>
-      <c r="K12" s="163"/>
-      <c r="L12" s="171" t="s">
+      <c r="H12" s="176"/>
+      <c r="I12" s="176"/>
+      <c r="J12" s="176"/>
+      <c r="K12" s="176"/>
+      <c r="L12" s="184" t="s">
         <v>41</v>
       </c>
-      <c r="M12" s="172"/>
-      <c r="N12" s="173"/>
-      <c r="O12" s="171" t="s">
+      <c r="M12" s="185"/>
+      <c r="N12" s="186"/>
+      <c r="O12" s="184" t="s">
         <v>38</v>
       </c>
-      <c r="P12" s="172"/>
-      <c r="Q12" s="172"/>
-      <c r="R12" s="172"/>
-      <c r="S12" s="173"/>
-      <c r="T12" s="171" t="s">
+      <c r="P12" s="185"/>
+      <c r="Q12" s="185"/>
+      <c r="R12" s="185"/>
+      <c r="S12" s="186"/>
+      <c r="T12" s="184" t="s">
         <v>53</v>
       </c>
-      <c r="U12" s="169"/>
-      <c r="V12" s="169"/>
-      <c r="W12" s="169"/>
-      <c r="X12" s="169"/>
-      <c r="Y12" s="169"/>
-      <c r="Z12" s="169"/>
-      <c r="AA12" s="169"/>
-      <c r="AB12" s="169"/>
-      <c r="AC12" s="169"/>
-      <c r="AD12" s="169"/>
-      <c r="AE12" s="169"/>
-      <c r="AF12" s="169"/>
-      <c r="AG12" s="169"/>
-      <c r="AH12" s="170"/>
+      <c r="U12" s="182"/>
+      <c r="V12" s="182"/>
+      <c r="W12" s="182"/>
+      <c r="X12" s="182"/>
+      <c r="Y12" s="182"/>
+      <c r="Z12" s="182"/>
+      <c r="AA12" s="182"/>
+      <c r="AB12" s="182"/>
+      <c r="AC12" s="182"/>
+      <c r="AD12" s="182"/>
+      <c r="AE12" s="182"/>
+      <c r="AF12" s="182"/>
+      <c r="AG12" s="182"/>
+      <c r="AH12" s="183"/>
       <c r="AL12" s="11"/>
       <c r="AM12" s="11"/>
       <c r="AN12" s="11"/>
@@ -7374,43 +7558,43 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="D13" s="164"/>
-      <c r="E13" s="164"/>
-      <c r="F13" s="164"/>
-      <c r="G13" s="164"/>
-      <c r="H13" s="164"/>
-      <c r="I13" s="164"/>
-      <c r="J13" s="164"/>
-      <c r="K13" s="164"/>
-      <c r="L13" s="103" t="s">
+      <c r="D13" s="177"/>
+      <c r="E13" s="177"/>
+      <c r="F13" s="177"/>
+      <c r="G13" s="177"/>
+      <c r="H13" s="177"/>
+      <c r="I13" s="177"/>
+      <c r="J13" s="177"/>
+      <c r="K13" s="177"/>
+      <c r="L13" s="108" t="s">
         <v>42</v>
       </c>
-      <c r="M13" s="104"/>
-      <c r="N13" s="105"/>
-      <c r="O13" s="103" t="s">
+      <c r="M13" s="115"/>
+      <c r="N13" s="116"/>
+      <c r="O13" s="108" t="s">
         <v>39</v>
       </c>
-      <c r="P13" s="104"/>
-      <c r="Q13" s="104"/>
-      <c r="R13" s="104"/>
-      <c r="S13" s="105"/>
-      <c r="T13" s="103" t="s">
+      <c r="P13" s="115"/>
+      <c r="Q13" s="115"/>
+      <c r="R13" s="115"/>
+      <c r="S13" s="116"/>
+      <c r="T13" s="108" t="s">
         <v>51</v>
       </c>
-      <c r="U13" s="93"/>
-      <c r="V13" s="93"/>
-      <c r="W13" s="93"/>
-      <c r="X13" s="93"/>
-      <c r="Y13" s="93"/>
-      <c r="Z13" s="93"/>
-      <c r="AA13" s="93"/>
-      <c r="AB13" s="93"/>
-      <c r="AC13" s="93"/>
-      <c r="AD13" s="93"/>
-      <c r="AE13" s="93"/>
-      <c r="AF13" s="93"/>
-      <c r="AG13" s="93"/>
-      <c r="AH13" s="94"/>
+      <c r="U13" s="101"/>
+      <c r="V13" s="101"/>
+      <c r="W13" s="101"/>
+      <c r="X13" s="101"/>
+      <c r="Y13" s="101"/>
+      <c r="Z13" s="101"/>
+      <c r="AA13" s="101"/>
+      <c r="AB13" s="101"/>
+      <c r="AC13" s="101"/>
+      <c r="AD13" s="101"/>
+      <c r="AE13" s="101"/>
+      <c r="AF13" s="101"/>
+      <c r="AG13" s="101"/>
+      <c r="AH13" s="102"/>
       <c r="AL13" s="11"/>
       <c r="AM13" s="11"/>
       <c r="AN13" s="11"/>
@@ -7429,43 +7613,43 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="D14" s="164"/>
-      <c r="E14" s="164"/>
-      <c r="F14" s="164"/>
-      <c r="G14" s="164"/>
-      <c r="H14" s="164"/>
-      <c r="I14" s="164"/>
-      <c r="J14" s="164"/>
-      <c r="K14" s="164"/>
-      <c r="L14" s="103" t="s">
+      <c r="D14" s="177"/>
+      <c r="E14" s="177"/>
+      <c r="F14" s="177"/>
+      <c r="G14" s="177"/>
+      <c r="H14" s="177"/>
+      <c r="I14" s="177"/>
+      <c r="J14" s="177"/>
+      <c r="K14" s="177"/>
+      <c r="L14" s="108" t="s">
         <v>43</v>
       </c>
-      <c r="M14" s="104"/>
-      <c r="N14" s="105"/>
-      <c r="O14" s="103" t="s">
+      <c r="M14" s="115"/>
+      <c r="N14" s="116"/>
+      <c r="O14" s="108" t="s">
         <v>40</v>
       </c>
-      <c r="P14" s="104"/>
-      <c r="Q14" s="104"/>
-      <c r="R14" s="104"/>
-      <c r="S14" s="105"/>
-      <c r="T14" s="103" t="s">
+      <c r="P14" s="115"/>
+      <c r="Q14" s="115"/>
+      <c r="R14" s="115"/>
+      <c r="S14" s="116"/>
+      <c r="T14" s="108" t="s">
         <v>52</v>
       </c>
-      <c r="U14" s="93"/>
-      <c r="V14" s="93"/>
-      <c r="W14" s="93"/>
-      <c r="X14" s="93"/>
-      <c r="Y14" s="93"/>
-      <c r="Z14" s="93"/>
-      <c r="AA14" s="93"/>
-      <c r="AB14" s="93"/>
-      <c r="AC14" s="93"/>
-      <c r="AD14" s="93"/>
-      <c r="AE14" s="93"/>
-      <c r="AF14" s="93"/>
-      <c r="AG14" s="93"/>
-      <c r="AH14" s="94"/>
+      <c r="U14" s="101"/>
+      <c r="V14" s="101"/>
+      <c r="W14" s="101"/>
+      <c r="X14" s="101"/>
+      <c r="Y14" s="101"/>
+      <c r="Z14" s="101"/>
+      <c r="AA14" s="101"/>
+      <c r="AB14" s="101"/>
+      <c r="AC14" s="101"/>
+      <c r="AD14" s="101"/>
+      <c r="AE14" s="101"/>
+      <c r="AF14" s="101"/>
+      <c r="AG14" s="101"/>
+      <c r="AH14" s="102"/>
       <c r="AL14" s="11"/>
       <c r="AM14" s="11"/>
       <c r="AN14" s="11"/>
@@ -7480,44 +7664,47 @@
       <c r="AW14" s="11"/>
     </row>
     <row r="15" spans="1:57" s="7" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C15" s="60"/>
-      <c r="D15" s="164"/>
-      <c r="E15" s="164"/>
-      <c r="F15" s="164"/>
-      <c r="G15" s="164"/>
-      <c r="H15" s="164"/>
-      <c r="I15" s="164"/>
-      <c r="J15" s="164"/>
-      <c r="K15" s="164"/>
-      <c r="L15" s="103" t="s">
+      <c r="C15" s="60">
+        <f>C14+1</f>
+        <v>8</v>
+      </c>
+      <c r="D15" s="177"/>
+      <c r="E15" s="177"/>
+      <c r="F15" s="177"/>
+      <c r="G15" s="177"/>
+      <c r="H15" s="177"/>
+      <c r="I15" s="177"/>
+      <c r="J15" s="177"/>
+      <c r="K15" s="177"/>
+      <c r="L15" s="108" t="s">
         <v>58</v>
       </c>
-      <c r="M15" s="104"/>
-      <c r="N15" s="105"/>
-      <c r="O15" s="103" t="s">
+      <c r="M15" s="115"/>
+      <c r="N15" s="116"/>
+      <c r="O15" s="108" t="s">
         <v>59</v>
       </c>
-      <c r="P15" s="104"/>
-      <c r="Q15" s="104"/>
-      <c r="R15" s="104"/>
-      <c r="S15" s="105"/>
-      <c r="T15" s="106" t="s">
+      <c r="P15" s="115"/>
+      <c r="Q15" s="115"/>
+      <c r="R15" s="115"/>
+      <c r="S15" s="116"/>
+      <c r="T15" s="109" t="s">
         <v>60</v>
       </c>
-      <c r="U15" s="96"/>
-      <c r="V15" s="96"/>
-      <c r="W15" s="96"/>
-      <c r="X15" s="96"/>
-      <c r="Y15" s="96"/>
-      <c r="Z15" s="96"/>
-      <c r="AA15" s="96"/>
-      <c r="AB15" s="96"/>
-      <c r="AC15" s="96"/>
-      <c r="AD15" s="96"/>
-      <c r="AE15" s="96"/>
-      <c r="AF15" s="96"/>
-      <c r="AG15" s="96"/>
-      <c r="AH15" s="97"/>
+      <c r="U15" s="104"/>
+      <c r="V15" s="104"/>
+      <c r="W15" s="104"/>
+      <c r="X15" s="104"/>
+      <c r="Y15" s="104"/>
+      <c r="Z15" s="104"/>
+      <c r="AA15" s="104"/>
+      <c r="AB15" s="104"/>
+      <c r="AC15" s="104"/>
+      <c r="AD15" s="104"/>
+      <c r="AE15" s="104"/>
+      <c r="AF15" s="104"/>
+      <c r="AG15" s="104"/>
+      <c r="AH15" s="105"/>
       <c r="AL15" s="11"/>
       <c r="AM15" s="11"/>
       <c r="AN15" s="11"/>
@@ -7531,48 +7718,48 @@
       <c r="AV15" s="11"/>
       <c r="AW15" s="11"/>
     </row>
-    <row r="16" spans="1:57" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:57" s="7" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C16" s="60">
-        <f>C14+1</f>
-        <v>8</v>
-      </c>
-      <c r="D16" s="164"/>
-      <c r="E16" s="164"/>
-      <c r="F16" s="164"/>
-      <c r="G16" s="164"/>
-      <c r="H16" s="164"/>
-      <c r="I16" s="164"/>
-      <c r="J16" s="164"/>
-      <c r="K16" s="164"/>
-      <c r="L16" s="103" t="s">
+        <f>C15+1</f>
+        <v>9</v>
+      </c>
+      <c r="D16" s="177"/>
+      <c r="E16" s="177"/>
+      <c r="F16" s="177"/>
+      <c r="G16" s="177"/>
+      <c r="H16" s="177"/>
+      <c r="I16" s="177"/>
+      <c r="J16" s="177"/>
+      <c r="K16" s="177"/>
+      <c r="L16" s="108" t="s">
+        <v>64</v>
+      </c>
+      <c r="M16" s="115"/>
+      <c r="N16" s="116"/>
+      <c r="O16" s="108" t="s">
         <v>65</v>
       </c>
-      <c r="M16" s="104"/>
-      <c r="N16" s="105"/>
-      <c r="O16" s="103" t="s">
+      <c r="P16" s="115"/>
+      <c r="Q16" s="115"/>
+      <c r="R16" s="115"/>
+      <c r="S16" s="116"/>
+      <c r="T16" s="109" t="s">
         <v>66</v>
       </c>
-      <c r="P16" s="104"/>
-      <c r="Q16" s="104"/>
-      <c r="R16" s="104"/>
-      <c r="S16" s="105"/>
-      <c r="T16" s="106" t="s">
-        <v>67</v>
-      </c>
-      <c r="U16" s="96"/>
-      <c r="V16" s="96"/>
-      <c r="W16" s="96"/>
-      <c r="X16" s="96"/>
-      <c r="Y16" s="96"/>
-      <c r="Z16" s="96"/>
-      <c r="AA16" s="96"/>
-      <c r="AB16" s="96"/>
-      <c r="AC16" s="96"/>
-      <c r="AD16" s="96"/>
-      <c r="AE16" s="96"/>
-      <c r="AF16" s="96"/>
-      <c r="AG16" s="96"/>
-      <c r="AH16" s="97"/>
+      <c r="U16" s="104"/>
+      <c r="V16" s="104"/>
+      <c r="W16" s="104"/>
+      <c r="X16" s="104"/>
+      <c r="Y16" s="104"/>
+      <c r="Z16" s="104"/>
+      <c r="AA16" s="104"/>
+      <c r="AB16" s="104"/>
+      <c r="AC16" s="104"/>
+      <c r="AD16" s="104"/>
+      <c r="AE16" s="104"/>
+      <c r="AF16" s="104"/>
+      <c r="AG16" s="104"/>
+      <c r="AH16" s="105"/>
       <c r="AL16" s="11"/>
       <c r="AM16" s="11"/>
       <c r="AN16" s="11"/>
@@ -7586,28 +7773,226 @@
       <c r="AV16" s="11"/>
       <c r="AW16" s="11"/>
     </row>
+    <row r="17" spans="3:49" s="7" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C17" s="60">
+        <f t="shared" ref="C17:C19" si="1">C16+1</f>
+        <v>10</v>
+      </c>
+      <c r="D17" s="177"/>
+      <c r="E17" s="177"/>
+      <c r="F17" s="177"/>
+      <c r="G17" s="177"/>
+      <c r="H17" s="177"/>
+      <c r="I17" s="177"/>
+      <c r="J17" s="177"/>
+      <c r="K17" s="177"/>
+      <c r="L17" s="83" t="s">
+        <v>68</v>
+      </c>
+      <c r="M17" s="84"/>
+      <c r="N17" s="85"/>
+      <c r="O17" s="83" t="s">
+        <v>71</v>
+      </c>
+      <c r="P17" s="84"/>
+      <c r="Q17" s="84"/>
+      <c r="R17" s="84"/>
+      <c r="S17" s="85"/>
+      <c r="T17" s="173" t="s">
+        <v>74</v>
+      </c>
+      <c r="U17" s="174"/>
+      <c r="V17" s="174"/>
+      <c r="W17" s="174"/>
+      <c r="X17" s="174"/>
+      <c r="Y17" s="174"/>
+      <c r="Z17" s="174"/>
+      <c r="AA17" s="174"/>
+      <c r="AB17" s="174"/>
+      <c r="AC17" s="174"/>
+      <c r="AD17" s="174"/>
+      <c r="AE17" s="174"/>
+      <c r="AF17" s="174"/>
+      <c r="AG17" s="174"/>
+      <c r="AH17" s="175"/>
+      <c r="AL17" s="11"/>
+      <c r="AM17" s="11"/>
+      <c r="AN17" s="11"/>
+      <c r="AO17" s="11"/>
+      <c r="AP17" s="11"/>
+      <c r="AQ17" s="11"/>
+      <c r="AR17" s="11"/>
+      <c r="AS17" s="11"/>
+      <c r="AT17" s="11"/>
+      <c r="AU17" s="11"/>
+      <c r="AV17" s="11"/>
+      <c r="AW17" s="11"/>
+    </row>
+    <row r="18" spans="3:49" s="7" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C18" s="60">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="D18" s="177"/>
+      <c r="E18" s="177"/>
+      <c r="F18" s="177"/>
+      <c r="G18" s="177"/>
+      <c r="H18" s="177"/>
+      <c r="I18" s="177"/>
+      <c r="J18" s="177"/>
+      <c r="K18" s="177"/>
+      <c r="L18" s="83" t="s">
+        <v>69</v>
+      </c>
+      <c r="M18" s="84"/>
+      <c r="N18" s="85"/>
+      <c r="O18" s="83" t="s">
+        <v>72</v>
+      </c>
+      <c r="P18" s="84"/>
+      <c r="Q18" s="84"/>
+      <c r="R18" s="84"/>
+      <c r="S18" s="85"/>
+      <c r="T18" s="173" t="s">
+        <v>75</v>
+      </c>
+      <c r="U18" s="174"/>
+      <c r="V18" s="174"/>
+      <c r="W18" s="174"/>
+      <c r="X18" s="174"/>
+      <c r="Y18" s="174"/>
+      <c r="Z18" s="174"/>
+      <c r="AA18" s="174"/>
+      <c r="AB18" s="174"/>
+      <c r="AC18" s="174"/>
+      <c r="AD18" s="174"/>
+      <c r="AE18" s="174"/>
+      <c r="AF18" s="174"/>
+      <c r="AG18" s="174"/>
+      <c r="AH18" s="175"/>
+      <c r="AL18" s="11"/>
+      <c r="AM18" s="11"/>
+      <c r="AN18" s="11"/>
+      <c r="AO18" s="11"/>
+      <c r="AP18" s="11"/>
+      <c r="AQ18" s="11"/>
+      <c r="AR18" s="11"/>
+      <c r="AS18" s="11"/>
+      <c r="AT18" s="11"/>
+      <c r="AU18" s="11"/>
+      <c r="AV18" s="11"/>
+      <c r="AW18" s="11"/>
+    </row>
+    <row r="19" spans="3:49" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C19" s="60">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="D19" s="177"/>
+      <c r="E19" s="177"/>
+      <c r="F19" s="177"/>
+      <c r="G19" s="177"/>
+      <c r="H19" s="177"/>
+      <c r="I19" s="177"/>
+      <c r="J19" s="177"/>
+      <c r="K19" s="177"/>
+      <c r="L19" s="108" t="s">
+        <v>70</v>
+      </c>
+      <c r="M19" s="115"/>
+      <c r="N19" s="116"/>
+      <c r="O19" s="108" t="s">
+        <v>73</v>
+      </c>
+      <c r="P19" s="115"/>
+      <c r="Q19" s="115"/>
+      <c r="R19" s="115"/>
+      <c r="S19" s="116"/>
+      <c r="T19" s="109" t="s">
+        <v>76</v>
+      </c>
+      <c r="U19" s="104"/>
+      <c r="V19" s="104"/>
+      <c r="W19" s="104"/>
+      <c r="X19" s="104"/>
+      <c r="Y19" s="104"/>
+      <c r="Z19" s="104"/>
+      <c r="AA19" s="104"/>
+      <c r="AB19" s="104"/>
+      <c r="AC19" s="104"/>
+      <c r="AD19" s="104"/>
+      <c r="AE19" s="104"/>
+      <c r="AF19" s="104"/>
+      <c r="AG19" s="104"/>
+      <c r="AH19" s="105"/>
+      <c r="AL19" s="11"/>
+      <c r="AM19" s="11"/>
+      <c r="AN19" s="11"/>
+      <c r="AO19" s="11"/>
+      <c r="AP19" s="11"/>
+      <c r="AQ19" s="11"/>
+      <c r="AR19" s="11"/>
+      <c r="AS19" s="11"/>
+      <c r="AT19" s="11"/>
+      <c r="AU19" s="11"/>
+      <c r="AV19" s="11"/>
+      <c r="AW19" s="11"/>
+    </row>
+    <row r="20" spans="3:49" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C20" s="86"/>
+      <c r="D20" s="87"/>
+      <c r="E20" s="87"/>
+      <c r="F20" s="87"/>
+      <c r="G20" s="87"/>
+      <c r="H20" s="87"/>
+      <c r="I20" s="87"/>
+      <c r="J20" s="87"/>
+      <c r="K20" s="87"/>
+      <c r="L20" s="88"/>
+      <c r="M20" s="88"/>
+      <c r="N20" s="88"/>
+      <c r="O20" s="88"/>
+      <c r="P20" s="88"/>
+      <c r="Q20" s="88"/>
+      <c r="R20" s="88"/>
+      <c r="S20" s="88"/>
+      <c r="T20" s="89"/>
+      <c r="U20" s="90"/>
+      <c r="V20" s="90"/>
+      <c r="W20" s="90"/>
+      <c r="X20" s="90"/>
+      <c r="Y20" s="90"/>
+      <c r="Z20" s="90"/>
+      <c r="AA20" s="90"/>
+      <c r="AB20" s="90"/>
+      <c r="AC20" s="90"/>
+      <c r="AD20" s="90"/>
+      <c r="AE20" s="90"/>
+      <c r="AF20" s="90"/>
+      <c r="AG20" s="90"/>
+      <c r="AH20" s="90"/>
+      <c r="AL20" s="11"/>
+      <c r="AM20" s="11"/>
+      <c r="AN20" s="11"/>
+      <c r="AO20" s="11"/>
+      <c r="AP20" s="11"/>
+      <c r="AQ20" s="11"/>
+      <c r="AR20" s="11"/>
+      <c r="AS20" s="11"/>
+      <c r="AT20" s="11"/>
+      <c r="AU20" s="11"/>
+      <c r="AV20" s="11"/>
+      <c r="AW20" s="11"/>
+    </row>
   </sheetData>
-  <mergeCells count="53">
-    <mergeCell ref="L11:N11"/>
-    <mergeCell ref="T14:AH14"/>
-    <mergeCell ref="L16:N16"/>
-    <mergeCell ref="O16:S16"/>
-    <mergeCell ref="T16:AH16"/>
-    <mergeCell ref="L13:N13"/>
-    <mergeCell ref="L14:N14"/>
-    <mergeCell ref="O14:S14"/>
-    <mergeCell ref="O12:S12"/>
-    <mergeCell ref="O13:S13"/>
+  <mergeCells count="58">
     <mergeCell ref="L12:N12"/>
     <mergeCell ref="L15:N15"/>
     <mergeCell ref="O15:S15"/>
     <mergeCell ref="T15:AH15"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="L7:N7"/>
-    <mergeCell ref="O7:S7"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="L10:N10"/>
-    <mergeCell ref="L8:N8"/>
+    <mergeCell ref="L16:N16"/>
+    <mergeCell ref="O16:S16"/>
+    <mergeCell ref="AA1:AB1"/>
     <mergeCell ref="AC3:AF3"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="E3:N3"/>
@@ -7620,27 +8005,45 @@
     <mergeCell ref="S1:Z3"/>
     <mergeCell ref="AA2:AB2"/>
     <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="D7:F7"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="D12:F16"/>
-    <mergeCell ref="G12:K16"/>
-    <mergeCell ref="T7:AH7"/>
-    <mergeCell ref="T8:AH8"/>
-    <mergeCell ref="T9:AH9"/>
-    <mergeCell ref="T10:AH10"/>
-    <mergeCell ref="T11:AH11"/>
-    <mergeCell ref="T12:AH12"/>
-    <mergeCell ref="T13:AH13"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="L7:N7"/>
+    <mergeCell ref="O7:S7"/>
     <mergeCell ref="O8:S8"/>
     <mergeCell ref="O9:S9"/>
     <mergeCell ref="O10:S10"/>
     <mergeCell ref="O11:S11"/>
     <mergeCell ref="D8:F11"/>
     <mergeCell ref="G8:K11"/>
-    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="L10:N10"/>
+    <mergeCell ref="L8:N8"/>
+    <mergeCell ref="L11:N11"/>
+    <mergeCell ref="T7:AH7"/>
+    <mergeCell ref="T8:AH8"/>
+    <mergeCell ref="T9:AH9"/>
+    <mergeCell ref="T10:AH10"/>
+    <mergeCell ref="T11:AH11"/>
+    <mergeCell ref="T16:AH16"/>
+    <mergeCell ref="T17:AH17"/>
+    <mergeCell ref="T18:AH18"/>
+    <mergeCell ref="D12:F19"/>
+    <mergeCell ref="G12:K19"/>
+    <mergeCell ref="T12:AH12"/>
+    <mergeCell ref="T13:AH13"/>
+    <mergeCell ref="T14:AH14"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="O19:S19"/>
+    <mergeCell ref="T19:AH19"/>
+    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="L14:N14"/>
+    <mergeCell ref="O14:S14"/>
+    <mergeCell ref="O12:S12"/>
+    <mergeCell ref="O13:S13"/>
   </mergeCells>
   <phoneticPr fontId="10"/>
   <printOptions horizontalCentered="1"/>

--- a/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/010_要件定義/040_画面設計/画面一覧_A1_プロジェクト管理システム.xlsx
+++ b/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/010_要件定義/040_画面設計/画面一覧_A1_プロジェクト管理システム.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33A6982F-1620-4E5C-9372-231D02D83A4A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="6135" windowWidth="28830" windowHeight="6180" tabRatio="822"/>
+    <workbookView xWindow="195" yWindow="3120" windowWidth="38205" windowHeight="15090" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="30" r:id="rId1"/>
@@ -13,7 +14,7 @@
     <sheet name="1" sheetId="29" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'1'!$A$1:$AI$17</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'1'!$A$1:$AI$26</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$S$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">変更履歴!$A$1:$AI$34</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">目次!$A$1:$AI$36</definedName>
@@ -21,12 +22,20 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">変更履歴!$1:$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">目次!$1:$4</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="80">
   <si>
     <t>PJ名</t>
   </si>
@@ -41,14 +50,14 @@
     <rPh sb="0" eb="2">
       <t>サクセイ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>変更</t>
     <rPh sb="0" eb="2">
       <t>ヘンコウ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>変更履歴（ 1　/ 1 ）</t>
@@ -58,21 +67,21 @@
     <rPh sb="0" eb="2">
       <t>ハンスウ</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>変更日</t>
     <rPh sb="0" eb="3">
       <t>ヘンコウビ</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>区分</t>
     <rPh sb="0" eb="2">
       <t>クブン</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>変更内容</t>
@@ -82,28 +91,28 @@
     <rPh sb="2" eb="4">
       <t>ナイヨウ</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>担当者</t>
     <rPh sb="0" eb="3">
       <t>タントウシャ</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>機能名</t>
     <rPh sb="0" eb="3">
       <t>キノウメイ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>画面ID</t>
     <rPh sb="0" eb="2">
       <t>ガメン</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>画面名</t>
@@ -113,14 +122,14 @@
     <rPh sb="2" eb="3">
       <t>メイ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>説明</t>
     <rPh sb="0" eb="2">
       <t>セツメイ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>1. 画面一覧</t>
@@ -130,24 +139,14 @@
     <rPh sb="5" eb="7">
       <t>イチラン</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>機能ID</t>
     <rPh sb="0" eb="2">
       <t>キノウ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>第１．０版</t>
-    <rPh sb="0" eb="1">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ハン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>成果物名</t>
@@ -160,18 +159,18 @@
   </si>
   <si>
     <t>成果物名</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>No.</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>目次</t>
     <rPh sb="0" eb="2">
       <t>モクジ</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>画面一覧</t>
@@ -181,7 +180,7 @@
     <rPh sb="2" eb="4">
       <t>イチラン</t>
     </rPh>
-    <phoneticPr fontId="34"/>
+    <phoneticPr fontId="33"/>
   </si>
   <si>
     <r>
@@ -196,11 +195,11 @@
       </rPr>
       <t>o.</t>
     </r>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>PJ名</t>
-    <phoneticPr fontId="34"/>
+    <phoneticPr fontId="33"/>
   </si>
   <si>
     <t>変更箇所（項番等）</t>
@@ -213,15 +212,15 @@
     <rPh sb="5" eb="8">
       <t>コウバンナド</t>
     </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>A101</t>
     <phoneticPr fontId="10"/>
   </si>
   <si>
-    <t>A101</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
     <t>ログイン</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <r>
@@ -236,7 +235,7 @@
       </rPr>
       <t>01</t>
     </r>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <r>
@@ -251,19 +250,19 @@
       </rPr>
       <t>01</t>
     </r>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>ログアウト</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>WA1010301</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>TOPメニュー</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <r>
@@ -278,37 +277,37 @@
       </rPr>
       <t>01</t>
     </r>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>汎用エラー</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>プロジェクト管理</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>A102</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>プロジェクト登録</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>プロジェクト登録確認</t>
     <rPh sb="8" eb="10">
       <t>カクニン</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>プロジェクト登録完了</t>
     <rPh sb="8" eb="10">
       <t>カンリョウ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <r>
@@ -323,7 +322,7 @@
       </rPr>
       <t>01</t>
     </r>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <r>
@@ -338,52 +337,34 @@
       </rPr>
       <t>02</t>
     </r>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>WA1020103</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>ログアウトする。</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>サンプルプロジェクト</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>サンプルシステム</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>.0版</t>
-    </r>
-    <rPh sb="3" eb="4">
-      <t>ハン</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>新規</t>
     <rPh sb="0" eb="2">
       <t>シンキ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>-</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>(新規作成)</t>
@@ -393,7 +374,7 @@
     <rPh sb="3" eb="5">
       <t>サクセイ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>ログイン中のユーザが選択可能なメニュー一覧を表示する。
@@ -434,7 +415,7 @@
     <rPh sb="68" eb="70">
       <t>サンショウ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>プロジェクトのデータを登録前に確認する。</t>
@@ -447,7 +428,7 @@
     <rPh sb="15" eb="17">
       <t>カクニン</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>プロジェクトのデータが登録されたことを確認する。</t>
@@ -457,7 +438,7 @@
     <rPh sb="19" eb="21">
       <t>カクニン</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>プロジェクトのデータを1件新規入力する。</t>
@@ -467,15 +448,15 @@
     <rPh sb="15" eb="17">
       <t>ニュウリョク</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>プロジェクト管理システム</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>TIS</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>発生したエラーの内容をユーザに表示する。
@@ -501,23 +482,203 @@
     <rPh sb="45" eb="47">
       <t>キョウツウ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>ログインIDとパスワードを入力し、Form認証を行う。</t>
     <rPh sb="13" eb="15">
       <t>ニュウリョク</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>WA1020201</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>プロジェクト検索</t>
+    <rPh sb="6" eb="8">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>プロジェクトの検索条件を入力し、検索条件に該当するプロジェクトの一覧を表示する。</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>TIS</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>変更</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>1.画面一覧</t>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>WA1020202</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>プロジェクト詳細</t>
+    <rPh sb="6" eb="8">
+      <t>ショウサイ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>プロジェクトのデータを1件表示する。</t>
+    <rPh sb="12" eb="13">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>プロジェクト検索・詳細画面追加</t>
+    <rPh sb="6" eb="8">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>WA1020301</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>WA1020302</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>WA1020303</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>プロジェクト更新</t>
+    <rPh sb="6" eb="8">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>プロジェクト更新確認</t>
+    <rPh sb="6" eb="8">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>プロジェクト更新完了</t>
+    <rPh sb="6" eb="8">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>プロジェクトのデータを1件更新入力する。</t>
+    <rPh sb="12" eb="13">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>プロジェクトのデータを更新前に確認する。</t>
+    <rPh sb="11" eb="13">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>プロジェクトのデータが更新されたことを確認する。</t>
+    <rPh sb="11" eb="13">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>プロジェクト更新画面追加</t>
+    <rPh sb="6" eb="8">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>第１．２版</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ハン</t>
+    </rPh>
+    <phoneticPr fontId="38"/>
+  </si>
+  <si>
+    <t>1.2版</t>
+    <rPh sb="3" eb="4">
+      <t>ハン</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="4">
     <numFmt numFmtId="176" formatCode="&quot;第&quot;0.00&quot;版&quot;"/>
     <numFmt numFmtId="177" formatCode="yyyy/mm/dd"/>
+    <numFmt numFmtId="178" formatCode="0.00&quot;版&quot;"/>
+    <numFmt numFmtId="179" formatCode="0.0&quot;版&quot;"/>
   </numFmts>
   <fonts count="39" x14ac:knownFonts="1">
     <font>
@@ -530,12 +691,6 @@
       <sz val="9"/>
       <name val="ＭＳ 明朝"/>
       <family val="1"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
       <charset val="128"/>
     </font>
     <font>
@@ -786,6 +941,12 @@
       <color indexed="55"/>
       <name val="ＭＳ 明朝"/>
       <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
     </font>
   </fonts>
@@ -1234,25 +1395,43 @@
   </borders>
   <cellStyleXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1261,113 +1440,95 @@
     <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="192">
+  <cellXfs count="217">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
@@ -1379,8 +1540,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="41" applyFont="1"/>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="41" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="41" applyFont="1"/>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="41" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1388,7 +1549,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1405,32 +1566,32 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="45" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="45" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1441,33 +1602,33 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1482,25 +1643,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1553,8 +1714,155 @@
     <xf numFmtId="0" fontId="0" fillId="25" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="31" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="31" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="25" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="10" xfId="45" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -1664,80 +1972,8 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="25" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -1748,11 +1984,32 @@
     <xf numFmtId="177" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1769,15 +2026,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1805,14 +2053,59 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="13" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="14" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="15" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="19" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="0" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="22" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="16" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="17" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="18" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1822,63 +2115,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="24" borderId="13" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="24" borderId="14" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="24" borderId="15" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="24" borderId="19" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="24" borderId="0" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="24" borderId="22" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="24" borderId="16" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="24" borderId="17" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="24" borderId="18" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="48">
@@ -1909,7 +2145,7 @@
     <cellStyle name="タイトル" xfId="25" builtinId="15" customBuiltin="1"/>
     <cellStyle name="チェック セル" xfId="26" builtinId="23" customBuiltin="1"/>
     <cellStyle name="どちらでもない" xfId="27" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="パーセント 2" xfId="47"/>
+    <cellStyle name="パーセント 2" xfId="47" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
     <cellStyle name="ハイパーリンク" xfId="46" builtinId="8"/>
     <cellStyle name="メモ" xfId="28" builtinId="10" customBuiltin="1"/>
     <cellStyle name="リンク セル" xfId="29" builtinId="24" customBuiltin="1"/>
@@ -1925,10 +2161,10 @@
     <cellStyle name="説明文" xfId="39" builtinId="53" customBuiltin="1"/>
     <cellStyle name="入力" xfId="40" builtinId="20" customBuiltin="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="44"/>
-    <cellStyle name="標準 2 2" xfId="45"/>
-    <cellStyle name="標準_画面標準" xfId="41"/>
-    <cellStyle name="標準_画面標準定義" xfId="42"/>
+    <cellStyle name="標準 2" xfId="44" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
+    <cellStyle name="標準 2 2" xfId="45" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
+    <cellStyle name="標準_画面標準" xfId="41" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
+    <cellStyle name="標準_画面標準定義" xfId="42" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
     <cellStyle name="良い" xfId="43" builtinId="26" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1936,6 +2172,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1958,14 +2197,20 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="Group 17"/>
+        <xdr:cNvPr id="2" name="Group 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr>
           <a:grpSpLocks/>
         </xdr:cNvGrpSpPr>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7953375" y="285750"/>
+          <a:off x="8382000" y="285750"/>
           <a:ext cx="1400175" cy="590550"/>
           <a:chOff x="591" y="61"/>
           <a:chExt cx="147" cy="62"/>
@@ -1973,7 +2218,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="3" name="Text Box 12"/>
+          <xdr:cNvPr id="3" name="Text Box 12">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -2057,7 +2308,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="4" name="Text Box 13"/>
+          <xdr:cNvPr id="4" name="Text Box 13">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -2157,7 +2414,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Text Box 18"/>
+        <xdr:cNvPr id="5" name="Text Box 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2666,7 +2929,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -2676,7 +2939,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="8.83203125" style="17"/>
+    <col min="1" max="9" width="8.83203125" style="17"/>
+    <col min="10" max="10" width="16.33203125" style="17" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.83203125" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2714,7 +2979,7 @@
       <c r="G23" s="21"/>
       <c r="H23" s="21"/>
       <c r="J23" s="6" t="s">
-        <v>17</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2726,12 +2991,12 @@
       <c r="F25" s="21"/>
       <c r="G25" s="21"/>
       <c r="H25" s="21"/>
-      <c r="I25" s="83">
+      <c r="I25" s="91">
         <f ca="1">IF(INDIRECT("変更履歴!D8")="","",MAX(INDIRECT("変更履歴!D8"):INDIRECT("変更履歴!F33")))</f>
-        <v>43592</v>
-      </c>
-      <c r="J25" s="83"/>
-      <c r="K25" s="83"/>
+        <v>43895</v>
+      </c>
+      <c r="J25" s="91"/>
+      <c r="K25" s="91"/>
     </row>
     <row r="26" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F26" s="21"/>
@@ -3304,17 +3569,17 @@
   <mergeCells count="1">
     <mergeCell ref="I25:K25"/>
   </mergeCells>
-  <phoneticPr fontId="11"/>
+  <phoneticPr fontId="10"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="98" fitToHeight="0" orientation="landscape" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -3330,57 +3595,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="90" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="93" t="s">
-        <v>46</v>
-      </c>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
-      <c r="L1" s="94"/>
-      <c r="M1" s="94"/>
-      <c r="N1" s="95"/>
-      <c r="O1" s="99" t="s">
+      <c r="A1" s="139" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="140"/>
+      <c r="C1" s="140"/>
+      <c r="D1" s="141"/>
+      <c r="E1" s="142" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="143"/>
+      <c r="G1" s="143"/>
+      <c r="H1" s="143"/>
+      <c r="I1" s="143"/>
+      <c r="J1" s="143"/>
+      <c r="K1" s="143"/>
+      <c r="L1" s="143"/>
+      <c r="M1" s="143"/>
+      <c r="N1" s="144"/>
+      <c r="O1" s="148" t="s">
+        <v>17</v>
+      </c>
+      <c r="P1" s="149"/>
+      <c r="Q1" s="149"/>
+      <c r="R1" s="150"/>
+      <c r="S1" s="157" t="s">
+        <v>23</v>
+      </c>
+      <c r="T1" s="158"/>
+      <c r="U1" s="158"/>
+      <c r="V1" s="158"/>
+      <c r="W1" s="158"/>
+      <c r="X1" s="158"/>
+      <c r="Y1" s="158"/>
+      <c r="Z1" s="159"/>
+      <c r="AA1" s="139" t="s">
         <v>18</v>
       </c>
-      <c r="P1" s="100"/>
-      <c r="Q1" s="100"/>
-      <c r="R1" s="101"/>
-      <c r="S1" s="108" t="s">
-        <v>24</v>
-      </c>
-      <c r="T1" s="109"/>
-      <c r="U1" s="109"/>
-      <c r="V1" s="109"/>
-      <c r="W1" s="109"/>
-      <c r="X1" s="109"/>
-      <c r="Y1" s="109"/>
-      <c r="Z1" s="110"/>
-      <c r="AA1" s="90" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB1" s="92"/>
-      <c r="AC1" s="117" t="str">
+      <c r="AB1" s="141"/>
+      <c r="AC1" s="166" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="118"/>
-      <c r="AE1" s="118"/>
-      <c r="AF1" s="119"/>
-      <c r="AG1" s="84">
+      <c r="AD1" s="167"/>
+      <c r="AE1" s="167"/>
+      <c r="AF1" s="168"/>
+      <c r="AG1" s="133">
         <f>IF(D8="","",D8)</f>
         <v>43592</v>
       </c>
-      <c r="AH1" s="85"/>
-      <c r="AI1" s="86"/>
+      <c r="AH1" s="134"/>
+      <c r="AI1" s="135"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="1"/>
@@ -3388,53 +3653,53 @@
       <c r="AN1" s="2"/>
     </row>
     <row r="2" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="90" t="s">
+      <c r="A2" s="139" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="93" t="s">
-        <v>47</v>
-      </c>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="94"/>
-      <c r="J2" s="94"/>
-      <c r="K2" s="94"/>
-      <c r="L2" s="94"/>
-      <c r="M2" s="94"/>
-      <c r="N2" s="95"/>
-      <c r="O2" s="102"/>
-      <c r="P2" s="103"/>
-      <c r="Q2" s="103"/>
-      <c r="R2" s="104"/>
-      <c r="S2" s="111"/>
-      <c r="T2" s="112"/>
-      <c r="U2" s="112"/>
-      <c r="V2" s="112"/>
-      <c r="W2" s="112"/>
-      <c r="X2" s="112"/>
-      <c r="Y2" s="112"/>
-      <c r="Z2" s="113"/>
-      <c r="AA2" s="90" t="s">
-        <v>20</v>
-      </c>
-      <c r="AB2" s="92"/>
-      <c r="AC2" s="96" t="str">
+      <c r="B2" s="140"/>
+      <c r="C2" s="140"/>
+      <c r="D2" s="141"/>
+      <c r="E2" s="142" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="143"/>
+      <c r="G2" s="143"/>
+      <c r="H2" s="143"/>
+      <c r="I2" s="143"/>
+      <c r="J2" s="143"/>
+      <c r="K2" s="143"/>
+      <c r="L2" s="143"/>
+      <c r="M2" s="143"/>
+      <c r="N2" s="144"/>
+      <c r="O2" s="151"/>
+      <c r="P2" s="152"/>
+      <c r="Q2" s="152"/>
+      <c r="R2" s="153"/>
+      <c r="S2" s="160"/>
+      <c r="T2" s="161"/>
+      <c r="U2" s="161"/>
+      <c r="V2" s="161"/>
+      <c r="W2" s="161"/>
+      <c r="X2" s="161"/>
+      <c r="Y2" s="161"/>
+      <c r="Z2" s="162"/>
+      <c r="AA2" s="139" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB2" s="141"/>
+      <c r="AC2" s="145" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
-        <v/>
-      </c>
-      <c r="AD2" s="97"/>
-      <c r="AE2" s="97"/>
-      <c r="AF2" s="98"/>
-      <c r="AG2" s="84" t="str">
+        <v>TIS</v>
+      </c>
+      <c r="AD2" s="146"/>
+      <c r="AE2" s="146"/>
+      <c r="AF2" s="147"/>
+      <c r="AG2" s="133">
         <f>IF(D9="","",MAX(D9:F33))</f>
-        <v/>
-      </c>
-      <c r="AH2" s="85"/>
-      <c r="AI2" s="86"/>
+        <v>43895</v>
+      </c>
+      <c r="AH2" s="134"/>
+      <c r="AI2" s="135"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
@@ -3442,45 +3707,45 @@
       <c r="AN2" s="1"/>
     </row>
     <row r="3" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="90" t="s">
+      <c r="A3" s="139" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="93" t="s">
-        <v>56</v>
-      </c>
-      <c r="F3" s="94"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="94"/>
-      <c r="I3" s="94"/>
-      <c r="J3" s="94"/>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94"/>
-      <c r="M3" s="94"/>
-      <c r="N3" s="95"/>
-      <c r="O3" s="105"/>
-      <c r="P3" s="106"/>
-      <c r="Q3" s="106"/>
-      <c r="R3" s="107"/>
-      <c r="S3" s="114"/>
-      <c r="T3" s="115"/>
-      <c r="U3" s="115"/>
-      <c r="V3" s="115"/>
-      <c r="W3" s="115"/>
-      <c r="X3" s="115"/>
-      <c r="Y3" s="115"/>
-      <c r="Z3" s="116"/>
-      <c r="AA3" s="90"/>
-      <c r="AB3" s="92"/>
-      <c r="AC3" s="117"/>
-      <c r="AD3" s="118"/>
-      <c r="AE3" s="118"/>
-      <c r="AF3" s="119"/>
-      <c r="AG3" s="84"/>
-      <c r="AH3" s="85"/>
-      <c r="AI3" s="86"/>
+      <c r="B3" s="140"/>
+      <c r="C3" s="140"/>
+      <c r="D3" s="141"/>
+      <c r="E3" s="142" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" s="143"/>
+      <c r="G3" s="143"/>
+      <c r="H3" s="143"/>
+      <c r="I3" s="143"/>
+      <c r="J3" s="143"/>
+      <c r="K3" s="143"/>
+      <c r="L3" s="143"/>
+      <c r="M3" s="143"/>
+      <c r="N3" s="144"/>
+      <c r="O3" s="154"/>
+      <c r="P3" s="155"/>
+      <c r="Q3" s="155"/>
+      <c r="R3" s="156"/>
+      <c r="S3" s="163"/>
+      <c r="T3" s="164"/>
+      <c r="U3" s="164"/>
+      <c r="V3" s="164"/>
+      <c r="W3" s="164"/>
+      <c r="X3" s="164"/>
+      <c r="Y3" s="164"/>
+      <c r="Z3" s="165"/>
+      <c r="AA3" s="139"/>
+      <c r="AB3" s="141"/>
+      <c r="AC3" s="166"/>
+      <c r="AD3" s="167"/>
+      <c r="AE3" s="167"/>
+      <c r="AF3" s="168"/>
+      <c r="AG3" s="133"/>
+      <c r="AH3" s="134"/>
+      <c r="AI3" s="135"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
@@ -3515,1189 +3780,1061 @@
     </row>
     <row r="7" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="87" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="136" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="88"/>
-      <c r="D7" s="87" t="s">
+      <c r="C7" s="137"/>
+      <c r="D7" s="136" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="89"/>
-      <c r="F7" s="88"/>
-      <c r="G7" s="87" t="s">
+      <c r="E7" s="138"/>
+      <c r="F7" s="137"/>
+      <c r="G7" s="136" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="89"/>
-      <c r="I7" s="88"/>
-      <c r="J7" s="87" t="s">
-        <v>27</v>
-      </c>
-      <c r="K7" s="89"/>
-      <c r="L7" s="89"/>
-      <c r="M7" s="89"/>
-      <c r="N7" s="89"/>
-      <c r="O7" s="89"/>
-      <c r="P7" s="88"/>
-      <c r="Q7" s="87" t="s">
+      <c r="H7" s="138"/>
+      <c r="I7" s="137"/>
+      <c r="J7" s="136" t="s">
+        <v>26</v>
+      </c>
+      <c r="K7" s="138"/>
+      <c r="L7" s="138"/>
+      <c r="M7" s="138"/>
+      <c r="N7" s="138"/>
+      <c r="O7" s="138"/>
+      <c r="P7" s="137"/>
+      <c r="Q7" s="136" t="s">
         <v>9</v>
       </c>
-      <c r="R7" s="89"/>
-      <c r="S7" s="89"/>
-      <c r="T7" s="89"/>
-      <c r="U7" s="89"/>
-      <c r="V7" s="89"/>
-      <c r="W7" s="89"/>
-      <c r="X7" s="89"/>
-      <c r="Y7" s="89"/>
-      <c r="Z7" s="89"/>
-      <c r="AA7" s="89"/>
-      <c r="AB7" s="89"/>
-      <c r="AC7" s="89"/>
-      <c r="AD7" s="89"/>
-      <c r="AE7" s="88"/>
-      <c r="AF7" s="87" t="s">
+      <c r="R7" s="138"/>
+      <c r="S7" s="138"/>
+      <c r="T7" s="138"/>
+      <c r="U7" s="138"/>
+      <c r="V7" s="138"/>
+      <c r="W7" s="138"/>
+      <c r="X7" s="138"/>
+      <c r="Y7" s="138"/>
+      <c r="Z7" s="138"/>
+      <c r="AA7" s="138"/>
+      <c r="AB7" s="138"/>
+      <c r="AC7" s="138"/>
+      <c r="AD7" s="138"/>
+      <c r="AE7" s="137"/>
+      <c r="AF7" s="136" t="s">
         <v>10</v>
       </c>
-      <c r="AG7" s="89"/>
-      <c r="AH7" s="89"/>
-      <c r="AI7" s="88"/>
+      <c r="AG7" s="138"/>
+      <c r="AH7" s="138"/>
+      <c r="AI7" s="137"/>
     </row>
     <row r="8" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="81">
         <v>1</v>
       </c>
-      <c r="B8" s="132" t="s">
+      <c r="B8" s="119">
+        <v>1</v>
+      </c>
+      <c r="C8" s="120"/>
+      <c r="D8" s="121">
+        <v>43592</v>
+      </c>
+      <c r="E8" s="122"/>
+      <c r="F8" s="123"/>
+      <c r="G8" s="124" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8" s="125"/>
+      <c r="I8" s="126"/>
+      <c r="J8" s="127" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="133"/>
-      <c r="D8" s="134">
-        <v>43592</v>
-      </c>
-      <c r="E8" s="135"/>
-      <c r="F8" s="136"/>
-      <c r="G8" s="137" t="s">
+      <c r="K8" s="128"/>
+      <c r="L8" s="128"/>
+      <c r="M8" s="128"/>
+      <c r="N8" s="128"/>
+      <c r="O8" s="128"/>
+      <c r="P8" s="129"/>
+      <c r="Q8" s="130" t="s">
         <v>49</v>
       </c>
-      <c r="H8" s="138"/>
-      <c r="I8" s="133"/>
-      <c r="J8" s="139" t="s">
-        <v>50</v>
-      </c>
-      <c r="K8" s="140"/>
-      <c r="L8" s="140"/>
-      <c r="M8" s="140"/>
-      <c r="N8" s="140"/>
-      <c r="O8" s="140"/>
-      <c r="P8" s="141"/>
-      <c r="Q8" s="142" t="s">
-        <v>51</v>
-      </c>
-      <c r="R8" s="143"/>
-      <c r="S8" s="143"/>
-      <c r="T8" s="143"/>
-      <c r="U8" s="143"/>
-      <c r="V8" s="143"/>
-      <c r="W8" s="143"/>
-      <c r="X8" s="143"/>
-      <c r="Y8" s="143"/>
-      <c r="Z8" s="143"/>
-      <c r="AA8" s="143"/>
-      <c r="AB8" s="143"/>
-      <c r="AC8" s="143"/>
-      <c r="AD8" s="143"/>
-      <c r="AE8" s="144"/>
-      <c r="AF8" s="139" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG8" s="140"/>
-      <c r="AH8" s="140"/>
-      <c r="AI8" s="141"/>
+      <c r="R8" s="131"/>
+      <c r="S8" s="131"/>
+      <c r="T8" s="131"/>
+      <c r="U8" s="131"/>
+      <c r="V8" s="131"/>
+      <c r="W8" s="131"/>
+      <c r="X8" s="131"/>
+      <c r="Y8" s="131"/>
+      <c r="Z8" s="131"/>
+      <c r="AA8" s="131"/>
+      <c r="AB8" s="131"/>
+      <c r="AC8" s="131"/>
+      <c r="AD8" s="131"/>
+      <c r="AE8" s="132"/>
+      <c r="AF8" s="127" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG8" s="128"/>
+      <c r="AH8" s="128"/>
+      <c r="AI8" s="129"/>
     </row>
     <row r="9" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="60"/>
-      <c r="B9" s="120"/>
-      <c r="C9" s="121"/>
-      <c r="D9" s="122"/>
-      <c r="E9" s="123"/>
-      <c r="F9" s="124"/>
-      <c r="G9" s="122"/>
-      <c r="H9" s="125"/>
-      <c r="I9" s="121"/>
-      <c r="J9" s="126"/>
-      <c r="K9" s="127"/>
-      <c r="L9" s="127"/>
-      <c r="M9" s="127"/>
-      <c r="N9" s="127"/>
-      <c r="O9" s="127"/>
-      <c r="P9" s="128"/>
-      <c r="Q9" s="129"/>
-      <c r="R9" s="130"/>
-      <c r="S9" s="130"/>
-      <c r="T9" s="130"/>
-      <c r="U9" s="130"/>
-      <c r="V9" s="130"/>
-      <c r="W9" s="130"/>
-      <c r="X9" s="130"/>
-      <c r="Y9" s="130"/>
-      <c r="Z9" s="130"/>
-      <c r="AA9" s="130"/>
-      <c r="AB9" s="130"/>
-      <c r="AC9" s="130"/>
-      <c r="AD9" s="130"/>
-      <c r="AE9" s="131"/>
-      <c r="AF9" s="126"/>
-      <c r="AG9" s="127"/>
-      <c r="AH9" s="127"/>
-      <c r="AI9" s="128"/>
+      <c r="A9" s="60">
+        <v>2</v>
+      </c>
+      <c r="B9" s="110">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C9" s="111"/>
+      <c r="D9" s="94">
+        <v>43803</v>
+      </c>
+      <c r="E9" s="95"/>
+      <c r="F9" s="96"/>
+      <c r="G9" s="112" t="s">
+        <v>62</v>
+      </c>
+      <c r="H9" s="113"/>
+      <c r="I9" s="114"/>
+      <c r="J9" s="108" t="s">
+        <v>63</v>
+      </c>
+      <c r="K9" s="115"/>
+      <c r="L9" s="115"/>
+      <c r="M9" s="115"/>
+      <c r="N9" s="115"/>
+      <c r="O9" s="115"/>
+      <c r="P9" s="116"/>
+      <c r="Q9" s="109" t="s">
+        <v>67</v>
+      </c>
+      <c r="R9" s="117"/>
+      <c r="S9" s="117"/>
+      <c r="T9" s="117"/>
+      <c r="U9" s="117"/>
+      <c r="V9" s="117"/>
+      <c r="W9" s="117"/>
+      <c r="X9" s="117"/>
+      <c r="Y9" s="117"/>
+      <c r="Z9" s="117"/>
+      <c r="AA9" s="117"/>
+      <c r="AB9" s="117"/>
+      <c r="AC9" s="117"/>
+      <c r="AD9" s="117"/>
+      <c r="AE9" s="118"/>
+      <c r="AF9" s="108" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG9" s="115"/>
+      <c r="AH9" s="115"/>
+      <c r="AI9" s="116"/>
     </row>
     <row r="10" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="60"/>
-      <c r="B10" s="120"/>
-      <c r="C10" s="121"/>
-      <c r="D10" s="122"/>
-      <c r="E10" s="123"/>
-      <c r="F10" s="124"/>
-      <c r="G10" s="120"/>
-      <c r="H10" s="125"/>
-      <c r="I10" s="121"/>
-      <c r="J10" s="126"/>
-      <c r="K10" s="127"/>
-      <c r="L10" s="127"/>
-      <c r="M10" s="127"/>
-      <c r="N10" s="127"/>
-      <c r="O10" s="127"/>
-      <c r="P10" s="128"/>
-      <c r="Q10" s="129"/>
-      <c r="R10" s="130"/>
-      <c r="S10" s="130"/>
-      <c r="T10" s="130"/>
-      <c r="U10" s="130"/>
-      <c r="V10" s="130"/>
-      <c r="W10" s="130"/>
-      <c r="X10" s="130"/>
-      <c r="Y10" s="130"/>
-      <c r="Z10" s="130"/>
-      <c r="AA10" s="130"/>
-      <c r="AB10" s="130"/>
-      <c r="AC10" s="130"/>
-      <c r="AD10" s="130"/>
-      <c r="AE10" s="131"/>
-      <c r="AF10" s="126"/>
-      <c r="AG10" s="127"/>
-      <c r="AH10" s="127"/>
-      <c r="AI10" s="128"/>
+      <c r="A10" s="60">
+        <v>3</v>
+      </c>
+      <c r="B10" s="106" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" s="93"/>
+      <c r="D10" s="94">
+        <v>43895</v>
+      </c>
+      <c r="E10" s="95"/>
+      <c r="F10" s="96"/>
+      <c r="G10" s="107" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="98"/>
+      <c r="I10" s="99"/>
+      <c r="J10" s="108" t="s">
+        <v>63</v>
+      </c>
+      <c r="K10" s="101"/>
+      <c r="L10" s="101"/>
+      <c r="M10" s="101"/>
+      <c r="N10" s="101"/>
+      <c r="O10" s="101"/>
+      <c r="P10" s="102"/>
+      <c r="Q10" s="109" t="s">
+        <v>77</v>
+      </c>
+      <c r="R10" s="104"/>
+      <c r="S10" s="104"/>
+      <c r="T10" s="104"/>
+      <c r="U10" s="104"/>
+      <c r="V10" s="104"/>
+      <c r="W10" s="104"/>
+      <c r="X10" s="104"/>
+      <c r="Y10" s="104"/>
+      <c r="Z10" s="104"/>
+      <c r="AA10" s="104"/>
+      <c r="AB10" s="104"/>
+      <c r="AC10" s="104"/>
+      <c r="AD10" s="104"/>
+      <c r="AE10" s="105"/>
+      <c r="AF10" s="108" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG10" s="101"/>
+      <c r="AH10" s="101"/>
+      <c r="AI10" s="102"/>
     </row>
     <row r="11" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="60"/>
-      <c r="B11" s="120"/>
-      <c r="C11" s="121"/>
-      <c r="D11" s="122"/>
-      <c r="E11" s="123"/>
-      <c r="F11" s="124"/>
-      <c r="G11" s="120"/>
-      <c r="H11" s="125"/>
-      <c r="I11" s="121"/>
-      <c r="J11" s="126"/>
-      <c r="K11" s="127"/>
-      <c r="L11" s="127"/>
-      <c r="M11" s="127"/>
-      <c r="N11" s="127"/>
-      <c r="O11" s="127"/>
-      <c r="P11" s="128"/>
-      <c r="Q11" s="129"/>
-      <c r="R11" s="130"/>
-      <c r="S11" s="130"/>
-      <c r="T11" s="130"/>
-      <c r="U11" s="130"/>
-      <c r="V11" s="130"/>
-      <c r="W11" s="130"/>
-      <c r="X11" s="130"/>
-      <c r="Y11" s="130"/>
-      <c r="Z11" s="130"/>
-      <c r="AA11" s="130"/>
-      <c r="AB11" s="130"/>
-      <c r="AC11" s="130"/>
-      <c r="AD11" s="130"/>
-      <c r="AE11" s="131"/>
-      <c r="AF11" s="126"/>
-      <c r="AG11" s="127"/>
-      <c r="AH11" s="127"/>
-      <c r="AI11" s="128"/>
+      <c r="B11" s="92"/>
+      <c r="C11" s="93"/>
+      <c r="D11" s="94"/>
+      <c r="E11" s="95"/>
+      <c r="F11" s="96"/>
+      <c r="G11" s="97"/>
+      <c r="H11" s="98"/>
+      <c r="I11" s="99"/>
+      <c r="J11" s="100"/>
+      <c r="K11" s="101"/>
+      <c r="L11" s="101"/>
+      <c r="M11" s="101"/>
+      <c r="N11" s="101"/>
+      <c r="O11" s="101"/>
+      <c r="P11" s="102"/>
+      <c r="Q11" s="103"/>
+      <c r="R11" s="104"/>
+      <c r="S11" s="104"/>
+      <c r="T11" s="104"/>
+      <c r="U11" s="104"/>
+      <c r="V11" s="104"/>
+      <c r="W11" s="104"/>
+      <c r="X11" s="104"/>
+      <c r="Y11" s="104"/>
+      <c r="Z11" s="104"/>
+      <c r="AA11" s="104"/>
+      <c r="AB11" s="104"/>
+      <c r="AC11" s="104"/>
+      <c r="AD11" s="104"/>
+      <c r="AE11" s="105"/>
+      <c r="AF11" s="100"/>
+      <c r="AG11" s="101"/>
+      <c r="AH11" s="101"/>
+      <c r="AI11" s="102"/>
     </row>
     <row r="12" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="60"/>
-      <c r="B12" s="120"/>
-      <c r="C12" s="121"/>
-      <c r="D12" s="122"/>
-      <c r="E12" s="123"/>
-      <c r="F12" s="124"/>
-      <c r="G12" s="120"/>
-      <c r="H12" s="125"/>
-      <c r="I12" s="121"/>
-      <c r="J12" s="126"/>
-      <c r="K12" s="127"/>
-      <c r="L12" s="127"/>
-      <c r="M12" s="127"/>
-      <c r="N12" s="127"/>
-      <c r="O12" s="127"/>
-      <c r="P12" s="128"/>
-      <c r="Q12" s="129"/>
-      <c r="R12" s="130"/>
-      <c r="S12" s="130"/>
-      <c r="T12" s="130"/>
-      <c r="U12" s="130"/>
-      <c r="V12" s="130"/>
-      <c r="W12" s="130"/>
-      <c r="X12" s="130"/>
-      <c r="Y12" s="130"/>
-      <c r="Z12" s="130"/>
-      <c r="AA12" s="130"/>
-      <c r="AB12" s="130"/>
-      <c r="AC12" s="130"/>
-      <c r="AD12" s="130"/>
-      <c r="AE12" s="131"/>
-      <c r="AF12" s="126"/>
-      <c r="AG12" s="127"/>
-      <c r="AH12" s="127"/>
-      <c r="AI12" s="128"/>
+      <c r="B12" s="92"/>
+      <c r="C12" s="93"/>
+      <c r="D12" s="94"/>
+      <c r="E12" s="95"/>
+      <c r="F12" s="96"/>
+      <c r="G12" s="97"/>
+      <c r="H12" s="98"/>
+      <c r="I12" s="99"/>
+      <c r="J12" s="100"/>
+      <c r="K12" s="101"/>
+      <c r="L12" s="101"/>
+      <c r="M12" s="101"/>
+      <c r="N12" s="101"/>
+      <c r="O12" s="101"/>
+      <c r="P12" s="102"/>
+      <c r="Q12" s="103"/>
+      <c r="R12" s="104"/>
+      <c r="S12" s="104"/>
+      <c r="T12" s="104"/>
+      <c r="U12" s="104"/>
+      <c r="V12" s="104"/>
+      <c r="W12" s="104"/>
+      <c r="X12" s="104"/>
+      <c r="Y12" s="104"/>
+      <c r="Z12" s="104"/>
+      <c r="AA12" s="104"/>
+      <c r="AB12" s="104"/>
+      <c r="AC12" s="104"/>
+      <c r="AD12" s="104"/>
+      <c r="AE12" s="105"/>
+      <c r="AF12" s="100"/>
+      <c r="AG12" s="101"/>
+      <c r="AH12" s="101"/>
+      <c r="AI12" s="102"/>
     </row>
     <row r="13" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="60"/>
-      <c r="B13" s="120"/>
-      <c r="C13" s="121"/>
-      <c r="D13" s="122"/>
-      <c r="E13" s="123"/>
-      <c r="F13" s="124"/>
-      <c r="G13" s="120"/>
-      <c r="H13" s="125"/>
-      <c r="I13" s="121"/>
-      <c r="J13" s="126"/>
-      <c r="K13" s="127"/>
-      <c r="L13" s="127"/>
-      <c r="M13" s="127"/>
-      <c r="N13" s="127"/>
-      <c r="O13" s="127"/>
-      <c r="P13" s="128"/>
-      <c r="Q13" s="129"/>
-      <c r="R13" s="130"/>
-      <c r="S13" s="130"/>
-      <c r="T13" s="130"/>
-      <c r="U13" s="130"/>
-      <c r="V13" s="130"/>
-      <c r="W13" s="130"/>
-      <c r="X13" s="130"/>
-      <c r="Y13" s="130"/>
-      <c r="Z13" s="130"/>
-      <c r="AA13" s="130"/>
-      <c r="AB13" s="130"/>
-      <c r="AC13" s="130"/>
-      <c r="AD13" s="130"/>
-      <c r="AE13" s="131"/>
-      <c r="AF13" s="126"/>
-      <c r="AG13" s="127"/>
-      <c r="AH13" s="127"/>
-      <c r="AI13" s="128"/>
+      <c r="B13" s="92"/>
+      <c r="C13" s="93"/>
+      <c r="D13" s="94"/>
+      <c r="E13" s="95"/>
+      <c r="F13" s="96"/>
+      <c r="G13" s="97"/>
+      <c r="H13" s="98"/>
+      <c r="I13" s="99"/>
+      <c r="J13" s="100"/>
+      <c r="K13" s="101"/>
+      <c r="L13" s="101"/>
+      <c r="M13" s="101"/>
+      <c r="N13" s="101"/>
+      <c r="O13" s="101"/>
+      <c r="P13" s="102"/>
+      <c r="Q13" s="103"/>
+      <c r="R13" s="104"/>
+      <c r="S13" s="104"/>
+      <c r="T13" s="104"/>
+      <c r="U13" s="104"/>
+      <c r="V13" s="104"/>
+      <c r="W13" s="104"/>
+      <c r="X13" s="104"/>
+      <c r="Y13" s="104"/>
+      <c r="Z13" s="104"/>
+      <c r="AA13" s="104"/>
+      <c r="AB13" s="104"/>
+      <c r="AC13" s="104"/>
+      <c r="AD13" s="104"/>
+      <c r="AE13" s="105"/>
+      <c r="AF13" s="100"/>
+      <c r="AG13" s="101"/>
+      <c r="AH13" s="101"/>
+      <c r="AI13" s="102"/>
     </row>
     <row r="14" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="60"/>
-      <c r="B14" s="120"/>
-      <c r="C14" s="121"/>
-      <c r="D14" s="122"/>
-      <c r="E14" s="123"/>
-      <c r="F14" s="124"/>
-      <c r="G14" s="120"/>
-      <c r="H14" s="125"/>
-      <c r="I14" s="121"/>
-      <c r="J14" s="126"/>
-      <c r="K14" s="127"/>
-      <c r="L14" s="127"/>
-      <c r="M14" s="127"/>
-      <c r="N14" s="127"/>
-      <c r="O14" s="127"/>
-      <c r="P14" s="128"/>
-      <c r="Q14" s="129"/>
-      <c r="R14" s="130"/>
-      <c r="S14" s="130"/>
-      <c r="T14" s="130"/>
-      <c r="U14" s="130"/>
-      <c r="V14" s="130"/>
-      <c r="W14" s="130"/>
-      <c r="X14" s="130"/>
-      <c r="Y14" s="130"/>
-      <c r="Z14" s="130"/>
-      <c r="AA14" s="130"/>
-      <c r="AB14" s="130"/>
-      <c r="AC14" s="130"/>
-      <c r="AD14" s="130"/>
-      <c r="AE14" s="131"/>
-      <c r="AF14" s="126"/>
-      <c r="AG14" s="127"/>
-      <c r="AH14" s="127"/>
-      <c r="AI14" s="128"/>
+      <c r="B14" s="92"/>
+      <c r="C14" s="93"/>
+      <c r="D14" s="94"/>
+      <c r="E14" s="95"/>
+      <c r="F14" s="96"/>
+      <c r="G14" s="97"/>
+      <c r="H14" s="98"/>
+      <c r="I14" s="99"/>
+      <c r="J14" s="100"/>
+      <c r="K14" s="101"/>
+      <c r="L14" s="101"/>
+      <c r="M14" s="101"/>
+      <c r="N14" s="101"/>
+      <c r="O14" s="101"/>
+      <c r="P14" s="102"/>
+      <c r="Q14" s="103"/>
+      <c r="R14" s="104"/>
+      <c r="S14" s="104"/>
+      <c r="T14" s="104"/>
+      <c r="U14" s="104"/>
+      <c r="V14" s="104"/>
+      <c r="W14" s="104"/>
+      <c r="X14" s="104"/>
+      <c r="Y14" s="104"/>
+      <c r="Z14" s="104"/>
+      <c r="AA14" s="104"/>
+      <c r="AB14" s="104"/>
+      <c r="AC14" s="104"/>
+      <c r="AD14" s="104"/>
+      <c r="AE14" s="105"/>
+      <c r="AF14" s="100"/>
+      <c r="AG14" s="101"/>
+      <c r="AH14" s="101"/>
+      <c r="AI14" s="102"/>
     </row>
     <row r="15" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="60"/>
-      <c r="B15" s="120"/>
-      <c r="C15" s="121"/>
-      <c r="D15" s="122"/>
-      <c r="E15" s="123"/>
-      <c r="F15" s="124"/>
-      <c r="G15" s="120"/>
-      <c r="H15" s="125"/>
-      <c r="I15" s="121"/>
-      <c r="J15" s="126"/>
-      <c r="K15" s="127"/>
-      <c r="L15" s="127"/>
-      <c r="M15" s="127"/>
-      <c r="N15" s="127"/>
-      <c r="O15" s="127"/>
-      <c r="P15" s="128"/>
-      <c r="Q15" s="129"/>
-      <c r="R15" s="130"/>
-      <c r="S15" s="130"/>
-      <c r="T15" s="130"/>
-      <c r="U15" s="130"/>
-      <c r="V15" s="130"/>
-      <c r="W15" s="130"/>
-      <c r="X15" s="130"/>
-      <c r="Y15" s="130"/>
-      <c r="Z15" s="130"/>
-      <c r="AA15" s="130"/>
-      <c r="AB15" s="130"/>
-      <c r="AC15" s="130"/>
-      <c r="AD15" s="130"/>
-      <c r="AE15" s="131"/>
-      <c r="AF15" s="126"/>
-      <c r="AG15" s="127"/>
-      <c r="AH15" s="127"/>
-      <c r="AI15" s="128"/>
+      <c r="B15" s="92"/>
+      <c r="C15" s="93"/>
+      <c r="D15" s="94"/>
+      <c r="E15" s="95"/>
+      <c r="F15" s="96"/>
+      <c r="G15" s="97"/>
+      <c r="H15" s="98"/>
+      <c r="I15" s="99"/>
+      <c r="J15" s="100"/>
+      <c r="K15" s="101"/>
+      <c r="L15" s="101"/>
+      <c r="M15" s="101"/>
+      <c r="N15" s="101"/>
+      <c r="O15" s="101"/>
+      <c r="P15" s="102"/>
+      <c r="Q15" s="103"/>
+      <c r="R15" s="104"/>
+      <c r="S15" s="104"/>
+      <c r="T15" s="104"/>
+      <c r="U15" s="104"/>
+      <c r="V15" s="104"/>
+      <c r="W15" s="104"/>
+      <c r="X15" s="104"/>
+      <c r="Y15" s="104"/>
+      <c r="Z15" s="104"/>
+      <c r="AA15" s="104"/>
+      <c r="AB15" s="104"/>
+      <c r="AC15" s="104"/>
+      <c r="AD15" s="104"/>
+      <c r="AE15" s="105"/>
+      <c r="AF15" s="100"/>
+      <c r="AG15" s="101"/>
+      <c r="AH15" s="101"/>
+      <c r="AI15" s="102"/>
     </row>
     <row r="16" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="60"/>
-      <c r="B16" s="120"/>
-      <c r="C16" s="121"/>
-      <c r="D16" s="122"/>
-      <c r="E16" s="123"/>
-      <c r="F16" s="124"/>
-      <c r="G16" s="120"/>
-      <c r="H16" s="125"/>
-      <c r="I16" s="121"/>
-      <c r="J16" s="126"/>
-      <c r="K16" s="127"/>
-      <c r="L16" s="127"/>
-      <c r="M16" s="127"/>
-      <c r="N16" s="127"/>
-      <c r="O16" s="127"/>
-      <c r="P16" s="128"/>
-      <c r="Q16" s="129"/>
-      <c r="R16" s="130"/>
-      <c r="S16" s="130"/>
-      <c r="T16" s="130"/>
-      <c r="U16" s="130"/>
-      <c r="V16" s="130"/>
-      <c r="W16" s="130"/>
-      <c r="X16" s="130"/>
-      <c r="Y16" s="130"/>
-      <c r="Z16" s="130"/>
-      <c r="AA16" s="130"/>
-      <c r="AB16" s="130"/>
-      <c r="AC16" s="130"/>
-      <c r="AD16" s="130"/>
-      <c r="AE16" s="131"/>
-      <c r="AF16" s="126"/>
-      <c r="AG16" s="127"/>
-      <c r="AH16" s="127"/>
-      <c r="AI16" s="128"/>
+      <c r="B16" s="92"/>
+      <c r="C16" s="93"/>
+      <c r="D16" s="94"/>
+      <c r="E16" s="95"/>
+      <c r="F16" s="96"/>
+      <c r="G16" s="97"/>
+      <c r="H16" s="98"/>
+      <c r="I16" s="99"/>
+      <c r="J16" s="100"/>
+      <c r="K16" s="101"/>
+      <c r="L16" s="101"/>
+      <c r="M16" s="101"/>
+      <c r="N16" s="101"/>
+      <c r="O16" s="101"/>
+      <c r="P16" s="102"/>
+      <c r="Q16" s="103"/>
+      <c r="R16" s="104"/>
+      <c r="S16" s="104"/>
+      <c r="T16" s="104"/>
+      <c r="U16" s="104"/>
+      <c r="V16" s="104"/>
+      <c r="W16" s="104"/>
+      <c r="X16" s="104"/>
+      <c r="Y16" s="104"/>
+      <c r="Z16" s="104"/>
+      <c r="AA16" s="104"/>
+      <c r="AB16" s="104"/>
+      <c r="AC16" s="104"/>
+      <c r="AD16" s="104"/>
+      <c r="AE16" s="105"/>
+      <c r="AF16" s="100"/>
+      <c r="AG16" s="101"/>
+      <c r="AH16" s="101"/>
+      <c r="AI16" s="102"/>
     </row>
     <row r="17" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="60"/>
-      <c r="B17" s="120"/>
-      <c r="C17" s="121"/>
-      <c r="D17" s="122"/>
-      <c r="E17" s="123"/>
-      <c r="F17" s="124"/>
-      <c r="G17" s="120"/>
-      <c r="H17" s="125"/>
-      <c r="I17" s="121"/>
-      <c r="J17" s="126"/>
-      <c r="K17" s="127"/>
-      <c r="L17" s="127"/>
-      <c r="M17" s="127"/>
-      <c r="N17" s="127"/>
-      <c r="O17" s="127"/>
-      <c r="P17" s="128"/>
-      <c r="Q17" s="129"/>
-      <c r="R17" s="130"/>
-      <c r="S17" s="130"/>
-      <c r="T17" s="130"/>
-      <c r="U17" s="130"/>
-      <c r="V17" s="130"/>
-      <c r="W17" s="130"/>
-      <c r="X17" s="130"/>
-      <c r="Y17" s="130"/>
-      <c r="Z17" s="130"/>
-      <c r="AA17" s="130"/>
-      <c r="AB17" s="130"/>
-      <c r="AC17" s="130"/>
-      <c r="AD17" s="130"/>
-      <c r="AE17" s="131"/>
-      <c r="AF17" s="126"/>
-      <c r="AG17" s="127"/>
-      <c r="AH17" s="127"/>
-      <c r="AI17" s="128"/>
+      <c r="B17" s="92"/>
+      <c r="C17" s="93"/>
+      <c r="D17" s="94"/>
+      <c r="E17" s="95"/>
+      <c r="F17" s="96"/>
+      <c r="G17" s="97"/>
+      <c r="H17" s="98"/>
+      <c r="I17" s="99"/>
+      <c r="J17" s="100"/>
+      <c r="K17" s="101"/>
+      <c r="L17" s="101"/>
+      <c r="M17" s="101"/>
+      <c r="N17" s="101"/>
+      <c r="O17" s="101"/>
+      <c r="P17" s="102"/>
+      <c r="Q17" s="103"/>
+      <c r="R17" s="104"/>
+      <c r="S17" s="104"/>
+      <c r="T17" s="104"/>
+      <c r="U17" s="104"/>
+      <c r="V17" s="104"/>
+      <c r="W17" s="104"/>
+      <c r="X17" s="104"/>
+      <c r="Y17" s="104"/>
+      <c r="Z17" s="104"/>
+      <c r="AA17" s="104"/>
+      <c r="AB17" s="104"/>
+      <c r="AC17" s="104"/>
+      <c r="AD17" s="104"/>
+      <c r="AE17" s="105"/>
+      <c r="AF17" s="100"/>
+      <c r="AG17" s="101"/>
+      <c r="AH17" s="101"/>
+      <c r="AI17" s="102"/>
     </row>
     <row r="18" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="60"/>
-      <c r="B18" s="120"/>
-      <c r="C18" s="121"/>
-      <c r="D18" s="122"/>
-      <c r="E18" s="123"/>
-      <c r="F18" s="124"/>
-      <c r="G18" s="120"/>
-      <c r="H18" s="125"/>
-      <c r="I18" s="121"/>
-      <c r="J18" s="126"/>
-      <c r="K18" s="127"/>
-      <c r="L18" s="127"/>
-      <c r="M18" s="127"/>
-      <c r="N18" s="127"/>
-      <c r="O18" s="127"/>
-      <c r="P18" s="128"/>
-      <c r="Q18" s="129"/>
-      <c r="R18" s="130"/>
-      <c r="S18" s="130"/>
-      <c r="T18" s="130"/>
-      <c r="U18" s="130"/>
-      <c r="V18" s="130"/>
-      <c r="W18" s="130"/>
-      <c r="X18" s="130"/>
-      <c r="Y18" s="130"/>
-      <c r="Z18" s="130"/>
-      <c r="AA18" s="130"/>
-      <c r="AB18" s="130"/>
-      <c r="AC18" s="130"/>
-      <c r="AD18" s="130"/>
-      <c r="AE18" s="131"/>
-      <c r="AF18" s="126"/>
-      <c r="AG18" s="127"/>
-      <c r="AH18" s="127"/>
-      <c r="AI18" s="128"/>
+      <c r="B18" s="92"/>
+      <c r="C18" s="93"/>
+      <c r="D18" s="94"/>
+      <c r="E18" s="95"/>
+      <c r="F18" s="96"/>
+      <c r="G18" s="97"/>
+      <c r="H18" s="98"/>
+      <c r="I18" s="99"/>
+      <c r="J18" s="100"/>
+      <c r="K18" s="101"/>
+      <c r="L18" s="101"/>
+      <c r="M18" s="101"/>
+      <c r="N18" s="101"/>
+      <c r="O18" s="101"/>
+      <c r="P18" s="102"/>
+      <c r="Q18" s="103"/>
+      <c r="R18" s="104"/>
+      <c r="S18" s="104"/>
+      <c r="T18" s="104"/>
+      <c r="U18" s="104"/>
+      <c r="V18" s="104"/>
+      <c r="W18" s="104"/>
+      <c r="X18" s="104"/>
+      <c r="Y18" s="104"/>
+      <c r="Z18" s="104"/>
+      <c r="AA18" s="104"/>
+      <c r="AB18" s="104"/>
+      <c r="AC18" s="104"/>
+      <c r="AD18" s="104"/>
+      <c r="AE18" s="105"/>
+      <c r="AF18" s="100"/>
+      <c r="AG18" s="101"/>
+      <c r="AH18" s="101"/>
+      <c r="AI18" s="102"/>
     </row>
     <row r="19" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="60"/>
-      <c r="B19" s="120"/>
-      <c r="C19" s="121"/>
-      <c r="D19" s="122"/>
-      <c r="E19" s="123"/>
-      <c r="F19" s="124"/>
-      <c r="G19" s="120"/>
-      <c r="H19" s="125"/>
-      <c r="I19" s="121"/>
-      <c r="J19" s="126"/>
-      <c r="K19" s="127"/>
-      <c r="L19" s="127"/>
-      <c r="M19" s="127"/>
-      <c r="N19" s="127"/>
-      <c r="O19" s="127"/>
-      <c r="P19" s="128"/>
-      <c r="Q19" s="129"/>
-      <c r="R19" s="130"/>
-      <c r="S19" s="130"/>
-      <c r="T19" s="130"/>
-      <c r="U19" s="130"/>
-      <c r="V19" s="130"/>
-      <c r="W19" s="130"/>
-      <c r="X19" s="130"/>
-      <c r="Y19" s="130"/>
-      <c r="Z19" s="130"/>
-      <c r="AA19" s="130"/>
-      <c r="AB19" s="130"/>
-      <c r="AC19" s="130"/>
-      <c r="AD19" s="130"/>
-      <c r="AE19" s="131"/>
-      <c r="AF19" s="126"/>
-      <c r="AG19" s="127"/>
-      <c r="AH19" s="127"/>
-      <c r="AI19" s="128"/>
+      <c r="B19" s="92"/>
+      <c r="C19" s="93"/>
+      <c r="D19" s="94"/>
+      <c r="E19" s="95"/>
+      <c r="F19" s="96"/>
+      <c r="G19" s="97"/>
+      <c r="H19" s="98"/>
+      <c r="I19" s="99"/>
+      <c r="J19" s="100"/>
+      <c r="K19" s="101"/>
+      <c r="L19" s="101"/>
+      <c r="M19" s="101"/>
+      <c r="N19" s="101"/>
+      <c r="O19" s="101"/>
+      <c r="P19" s="102"/>
+      <c r="Q19" s="103"/>
+      <c r="R19" s="104"/>
+      <c r="S19" s="104"/>
+      <c r="T19" s="104"/>
+      <c r="U19" s="104"/>
+      <c r="V19" s="104"/>
+      <c r="W19" s="104"/>
+      <c r="X19" s="104"/>
+      <c r="Y19" s="104"/>
+      <c r="Z19" s="104"/>
+      <c r="AA19" s="104"/>
+      <c r="AB19" s="104"/>
+      <c r="AC19" s="104"/>
+      <c r="AD19" s="104"/>
+      <c r="AE19" s="105"/>
+      <c r="AF19" s="100"/>
+      <c r="AG19" s="101"/>
+      <c r="AH19" s="101"/>
+      <c r="AI19" s="102"/>
     </row>
     <row r="20" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="60"/>
-      <c r="B20" s="120"/>
-      <c r="C20" s="121"/>
-      <c r="D20" s="122"/>
-      <c r="E20" s="123"/>
-      <c r="F20" s="124"/>
-      <c r="G20" s="120"/>
-      <c r="H20" s="125"/>
-      <c r="I20" s="121"/>
-      <c r="J20" s="126"/>
-      <c r="K20" s="127"/>
-      <c r="L20" s="127"/>
-      <c r="M20" s="127"/>
-      <c r="N20" s="127"/>
-      <c r="O20" s="127"/>
-      <c r="P20" s="128"/>
-      <c r="Q20" s="129"/>
-      <c r="R20" s="130"/>
-      <c r="S20" s="130"/>
-      <c r="T20" s="130"/>
-      <c r="U20" s="130"/>
-      <c r="V20" s="130"/>
-      <c r="W20" s="130"/>
-      <c r="X20" s="130"/>
-      <c r="Y20" s="130"/>
-      <c r="Z20" s="130"/>
-      <c r="AA20" s="130"/>
-      <c r="AB20" s="130"/>
-      <c r="AC20" s="130"/>
-      <c r="AD20" s="130"/>
-      <c r="AE20" s="131"/>
-      <c r="AF20" s="126"/>
-      <c r="AG20" s="127"/>
-      <c r="AH20" s="127"/>
-      <c r="AI20" s="128"/>
+      <c r="B20" s="92"/>
+      <c r="C20" s="93"/>
+      <c r="D20" s="94"/>
+      <c r="E20" s="95"/>
+      <c r="F20" s="96"/>
+      <c r="G20" s="97"/>
+      <c r="H20" s="98"/>
+      <c r="I20" s="99"/>
+      <c r="J20" s="100"/>
+      <c r="K20" s="101"/>
+      <c r="L20" s="101"/>
+      <c r="M20" s="101"/>
+      <c r="N20" s="101"/>
+      <c r="O20" s="101"/>
+      <c r="P20" s="102"/>
+      <c r="Q20" s="103"/>
+      <c r="R20" s="104"/>
+      <c r="S20" s="104"/>
+      <c r="T20" s="104"/>
+      <c r="U20" s="104"/>
+      <c r="V20" s="104"/>
+      <c r="W20" s="104"/>
+      <c r="X20" s="104"/>
+      <c r="Y20" s="104"/>
+      <c r="Z20" s="104"/>
+      <c r="AA20" s="104"/>
+      <c r="AB20" s="104"/>
+      <c r="AC20" s="104"/>
+      <c r="AD20" s="104"/>
+      <c r="AE20" s="105"/>
+      <c r="AF20" s="100"/>
+      <c r="AG20" s="101"/>
+      <c r="AH20" s="101"/>
+      <c r="AI20" s="102"/>
     </row>
     <row r="21" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="60"/>
-      <c r="B21" s="120"/>
-      <c r="C21" s="121"/>
-      <c r="D21" s="122"/>
-      <c r="E21" s="123"/>
-      <c r="F21" s="124"/>
-      <c r="G21" s="120"/>
-      <c r="H21" s="125"/>
-      <c r="I21" s="121"/>
-      <c r="J21" s="126"/>
-      <c r="K21" s="127"/>
-      <c r="L21" s="127"/>
-      <c r="M21" s="127"/>
-      <c r="N21" s="127"/>
-      <c r="O21" s="127"/>
-      <c r="P21" s="128"/>
-      <c r="Q21" s="129"/>
-      <c r="R21" s="130"/>
-      <c r="S21" s="130"/>
-      <c r="T21" s="130"/>
-      <c r="U21" s="130"/>
-      <c r="V21" s="130"/>
-      <c r="W21" s="130"/>
-      <c r="X21" s="130"/>
-      <c r="Y21" s="130"/>
-      <c r="Z21" s="130"/>
-      <c r="AA21" s="130"/>
-      <c r="AB21" s="130"/>
-      <c r="AC21" s="130"/>
-      <c r="AD21" s="130"/>
-      <c r="AE21" s="131"/>
-      <c r="AF21" s="126"/>
-      <c r="AG21" s="127"/>
-      <c r="AH21" s="127"/>
-      <c r="AI21" s="128"/>
+      <c r="B21" s="92"/>
+      <c r="C21" s="93"/>
+      <c r="D21" s="94"/>
+      <c r="E21" s="95"/>
+      <c r="F21" s="96"/>
+      <c r="G21" s="97"/>
+      <c r="H21" s="98"/>
+      <c r="I21" s="99"/>
+      <c r="J21" s="100"/>
+      <c r="K21" s="101"/>
+      <c r="L21" s="101"/>
+      <c r="M21" s="101"/>
+      <c r="N21" s="101"/>
+      <c r="O21" s="101"/>
+      <c r="P21" s="102"/>
+      <c r="Q21" s="103"/>
+      <c r="R21" s="104"/>
+      <c r="S21" s="104"/>
+      <c r="T21" s="104"/>
+      <c r="U21" s="104"/>
+      <c r="V21" s="104"/>
+      <c r="W21" s="104"/>
+      <c r="X21" s="104"/>
+      <c r="Y21" s="104"/>
+      <c r="Z21" s="104"/>
+      <c r="AA21" s="104"/>
+      <c r="AB21" s="104"/>
+      <c r="AC21" s="104"/>
+      <c r="AD21" s="104"/>
+      <c r="AE21" s="105"/>
+      <c r="AF21" s="100"/>
+      <c r="AG21" s="101"/>
+      <c r="AH21" s="101"/>
+      <c r="AI21" s="102"/>
     </row>
     <row r="22" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="60"/>
-      <c r="B22" s="120"/>
-      <c r="C22" s="121"/>
-      <c r="D22" s="122"/>
-      <c r="E22" s="123"/>
-      <c r="F22" s="124"/>
-      <c r="G22" s="120"/>
-      <c r="H22" s="125"/>
-      <c r="I22" s="121"/>
-      <c r="J22" s="126"/>
-      <c r="K22" s="127"/>
-      <c r="L22" s="127"/>
-      <c r="M22" s="127"/>
-      <c r="N22" s="127"/>
-      <c r="O22" s="127"/>
-      <c r="P22" s="128"/>
-      <c r="Q22" s="129"/>
-      <c r="R22" s="130"/>
-      <c r="S22" s="130"/>
-      <c r="T22" s="130"/>
-      <c r="U22" s="130"/>
-      <c r="V22" s="130"/>
-      <c r="W22" s="130"/>
-      <c r="X22" s="130"/>
-      <c r="Y22" s="130"/>
-      <c r="Z22" s="130"/>
-      <c r="AA22" s="130"/>
-      <c r="AB22" s="130"/>
-      <c r="AC22" s="130"/>
-      <c r="AD22" s="130"/>
-      <c r="AE22" s="131"/>
-      <c r="AF22" s="126"/>
-      <c r="AG22" s="127"/>
-      <c r="AH22" s="127"/>
-      <c r="AI22" s="128"/>
+      <c r="B22" s="92"/>
+      <c r="C22" s="93"/>
+      <c r="D22" s="94"/>
+      <c r="E22" s="95"/>
+      <c r="F22" s="96"/>
+      <c r="G22" s="97"/>
+      <c r="H22" s="98"/>
+      <c r="I22" s="99"/>
+      <c r="J22" s="100"/>
+      <c r="K22" s="101"/>
+      <c r="L22" s="101"/>
+      <c r="M22" s="101"/>
+      <c r="N22" s="101"/>
+      <c r="O22" s="101"/>
+      <c r="P22" s="102"/>
+      <c r="Q22" s="103"/>
+      <c r="R22" s="104"/>
+      <c r="S22" s="104"/>
+      <c r="T22" s="104"/>
+      <c r="U22" s="104"/>
+      <c r="V22" s="104"/>
+      <c r="W22" s="104"/>
+      <c r="X22" s="104"/>
+      <c r="Y22" s="104"/>
+      <c r="Z22" s="104"/>
+      <c r="AA22" s="104"/>
+      <c r="AB22" s="104"/>
+      <c r="AC22" s="104"/>
+      <c r="AD22" s="104"/>
+      <c r="AE22" s="105"/>
+      <c r="AF22" s="100"/>
+      <c r="AG22" s="101"/>
+      <c r="AH22" s="101"/>
+      <c r="AI22" s="102"/>
     </row>
     <row r="23" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="60"/>
-      <c r="B23" s="120"/>
-      <c r="C23" s="121"/>
-      <c r="D23" s="122"/>
-      <c r="E23" s="123"/>
-      <c r="F23" s="124"/>
-      <c r="G23" s="120"/>
-      <c r="H23" s="125"/>
-      <c r="I23" s="121"/>
-      <c r="J23" s="126"/>
-      <c r="K23" s="127"/>
-      <c r="L23" s="127"/>
-      <c r="M23" s="127"/>
-      <c r="N23" s="127"/>
-      <c r="O23" s="127"/>
-      <c r="P23" s="128"/>
-      <c r="Q23" s="129"/>
-      <c r="R23" s="130"/>
-      <c r="S23" s="130"/>
-      <c r="T23" s="130"/>
-      <c r="U23" s="130"/>
-      <c r="V23" s="130"/>
-      <c r="W23" s="130"/>
-      <c r="X23" s="130"/>
-      <c r="Y23" s="130"/>
-      <c r="Z23" s="130"/>
-      <c r="AA23" s="130"/>
-      <c r="AB23" s="130"/>
-      <c r="AC23" s="130"/>
-      <c r="AD23" s="130"/>
-      <c r="AE23" s="131"/>
-      <c r="AF23" s="126"/>
-      <c r="AG23" s="127"/>
-      <c r="AH23" s="127"/>
-      <c r="AI23" s="128"/>
+      <c r="B23" s="92"/>
+      <c r="C23" s="93"/>
+      <c r="D23" s="94"/>
+      <c r="E23" s="95"/>
+      <c r="F23" s="96"/>
+      <c r="G23" s="97"/>
+      <c r="H23" s="98"/>
+      <c r="I23" s="99"/>
+      <c r="J23" s="100"/>
+      <c r="K23" s="101"/>
+      <c r="L23" s="101"/>
+      <c r="M23" s="101"/>
+      <c r="N23" s="101"/>
+      <c r="O23" s="101"/>
+      <c r="P23" s="102"/>
+      <c r="Q23" s="103"/>
+      <c r="R23" s="104"/>
+      <c r="S23" s="104"/>
+      <c r="T23" s="104"/>
+      <c r="U23" s="104"/>
+      <c r="V23" s="104"/>
+      <c r="W23" s="104"/>
+      <c r="X23" s="104"/>
+      <c r="Y23" s="104"/>
+      <c r="Z23" s="104"/>
+      <c r="AA23" s="104"/>
+      <c r="AB23" s="104"/>
+      <c r="AC23" s="104"/>
+      <c r="AD23" s="104"/>
+      <c r="AE23" s="105"/>
+      <c r="AF23" s="100"/>
+      <c r="AG23" s="101"/>
+      <c r="AH23" s="101"/>
+      <c r="AI23" s="102"/>
     </row>
     <row r="24" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="60"/>
-      <c r="B24" s="120"/>
-      <c r="C24" s="121"/>
-      <c r="D24" s="122"/>
-      <c r="E24" s="123"/>
-      <c r="F24" s="124"/>
-      <c r="G24" s="120"/>
-      <c r="H24" s="125"/>
-      <c r="I24" s="121"/>
-      <c r="J24" s="126"/>
-      <c r="K24" s="127"/>
-      <c r="L24" s="127"/>
-      <c r="M24" s="127"/>
-      <c r="N24" s="127"/>
-      <c r="O24" s="127"/>
-      <c r="P24" s="128"/>
-      <c r="Q24" s="129"/>
-      <c r="R24" s="130"/>
-      <c r="S24" s="130"/>
-      <c r="T24" s="130"/>
-      <c r="U24" s="130"/>
-      <c r="V24" s="130"/>
-      <c r="W24" s="130"/>
-      <c r="X24" s="130"/>
-      <c r="Y24" s="130"/>
-      <c r="Z24" s="130"/>
-      <c r="AA24" s="130"/>
-      <c r="AB24" s="130"/>
-      <c r="AC24" s="130"/>
-      <c r="AD24" s="130"/>
-      <c r="AE24" s="131"/>
-      <c r="AF24" s="126"/>
-      <c r="AG24" s="127"/>
-      <c r="AH24" s="127"/>
-      <c r="AI24" s="128"/>
+      <c r="B24" s="92"/>
+      <c r="C24" s="93"/>
+      <c r="D24" s="94"/>
+      <c r="E24" s="95"/>
+      <c r="F24" s="96"/>
+      <c r="G24" s="97"/>
+      <c r="H24" s="98"/>
+      <c r="I24" s="99"/>
+      <c r="J24" s="100"/>
+      <c r="K24" s="101"/>
+      <c r="L24" s="101"/>
+      <c r="M24" s="101"/>
+      <c r="N24" s="101"/>
+      <c r="O24" s="101"/>
+      <c r="P24" s="102"/>
+      <c r="Q24" s="103"/>
+      <c r="R24" s="104"/>
+      <c r="S24" s="104"/>
+      <c r="T24" s="104"/>
+      <c r="U24" s="104"/>
+      <c r="V24" s="104"/>
+      <c r="W24" s="104"/>
+      <c r="X24" s="104"/>
+      <c r="Y24" s="104"/>
+      <c r="Z24" s="104"/>
+      <c r="AA24" s="104"/>
+      <c r="AB24" s="104"/>
+      <c r="AC24" s="104"/>
+      <c r="AD24" s="104"/>
+      <c r="AE24" s="105"/>
+      <c r="AF24" s="100"/>
+      <c r="AG24" s="101"/>
+      <c r="AH24" s="101"/>
+      <c r="AI24" s="102"/>
     </row>
     <row r="25" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="60"/>
-      <c r="B25" s="120"/>
-      <c r="C25" s="121"/>
-      <c r="D25" s="122"/>
-      <c r="E25" s="123"/>
-      <c r="F25" s="124"/>
-      <c r="G25" s="120"/>
-      <c r="H25" s="125"/>
-      <c r="I25" s="121"/>
-      <c r="J25" s="126"/>
-      <c r="K25" s="127"/>
-      <c r="L25" s="127"/>
-      <c r="M25" s="127"/>
-      <c r="N25" s="127"/>
-      <c r="O25" s="127"/>
-      <c r="P25" s="128"/>
-      <c r="Q25" s="129"/>
-      <c r="R25" s="130"/>
-      <c r="S25" s="130"/>
-      <c r="T25" s="130"/>
-      <c r="U25" s="130"/>
-      <c r="V25" s="130"/>
-      <c r="W25" s="130"/>
-      <c r="X25" s="130"/>
-      <c r="Y25" s="130"/>
-      <c r="Z25" s="130"/>
-      <c r="AA25" s="130"/>
-      <c r="AB25" s="130"/>
-      <c r="AC25" s="130"/>
-      <c r="AD25" s="130"/>
-      <c r="AE25" s="131"/>
-      <c r="AF25" s="126"/>
-      <c r="AG25" s="127"/>
-      <c r="AH25" s="127"/>
-      <c r="AI25" s="128"/>
+      <c r="B25" s="92"/>
+      <c r="C25" s="93"/>
+      <c r="D25" s="94"/>
+      <c r="E25" s="95"/>
+      <c r="F25" s="96"/>
+      <c r="G25" s="97"/>
+      <c r="H25" s="98"/>
+      <c r="I25" s="99"/>
+      <c r="J25" s="100"/>
+      <c r="K25" s="101"/>
+      <c r="L25" s="101"/>
+      <c r="M25" s="101"/>
+      <c r="N25" s="101"/>
+      <c r="O25" s="101"/>
+      <c r="P25" s="102"/>
+      <c r="Q25" s="103"/>
+      <c r="R25" s="104"/>
+      <c r="S25" s="104"/>
+      <c r="T25" s="104"/>
+      <c r="U25" s="104"/>
+      <c r="V25" s="104"/>
+      <c r="W25" s="104"/>
+      <c r="X25" s="104"/>
+      <c r="Y25" s="104"/>
+      <c r="Z25" s="104"/>
+      <c r="AA25" s="104"/>
+      <c r="AB25" s="104"/>
+      <c r="AC25" s="104"/>
+      <c r="AD25" s="104"/>
+      <c r="AE25" s="105"/>
+      <c r="AF25" s="100"/>
+      <c r="AG25" s="101"/>
+      <c r="AH25" s="101"/>
+      <c r="AI25" s="102"/>
     </row>
     <row r="26" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="60"/>
-      <c r="B26" s="120"/>
-      <c r="C26" s="121"/>
-      <c r="D26" s="122"/>
-      <c r="E26" s="123"/>
-      <c r="F26" s="124"/>
-      <c r="G26" s="120"/>
-      <c r="H26" s="125"/>
-      <c r="I26" s="121"/>
-      <c r="J26" s="126"/>
-      <c r="K26" s="127"/>
-      <c r="L26" s="127"/>
-      <c r="M26" s="127"/>
-      <c r="N26" s="127"/>
-      <c r="O26" s="127"/>
-      <c r="P26" s="128"/>
-      <c r="Q26" s="129"/>
-      <c r="R26" s="130"/>
-      <c r="S26" s="130"/>
-      <c r="T26" s="130"/>
-      <c r="U26" s="130"/>
-      <c r="V26" s="130"/>
-      <c r="W26" s="130"/>
-      <c r="X26" s="130"/>
-      <c r="Y26" s="130"/>
-      <c r="Z26" s="130"/>
-      <c r="AA26" s="130"/>
-      <c r="AB26" s="130"/>
-      <c r="AC26" s="130"/>
-      <c r="AD26" s="130"/>
-      <c r="AE26" s="131"/>
-      <c r="AF26" s="126"/>
-      <c r="AG26" s="127"/>
-      <c r="AH26" s="127"/>
-      <c r="AI26" s="128"/>
+      <c r="B26" s="92"/>
+      <c r="C26" s="93"/>
+      <c r="D26" s="94"/>
+      <c r="E26" s="95"/>
+      <c r="F26" s="96"/>
+      <c r="G26" s="97"/>
+      <c r="H26" s="98"/>
+      <c r="I26" s="99"/>
+      <c r="J26" s="100"/>
+      <c r="K26" s="101"/>
+      <c r="L26" s="101"/>
+      <c r="M26" s="101"/>
+      <c r="N26" s="101"/>
+      <c r="O26" s="101"/>
+      <c r="P26" s="102"/>
+      <c r="Q26" s="103"/>
+      <c r="R26" s="104"/>
+      <c r="S26" s="104"/>
+      <c r="T26" s="104"/>
+      <c r="U26" s="104"/>
+      <c r="V26" s="104"/>
+      <c r="W26" s="104"/>
+      <c r="X26" s="104"/>
+      <c r="Y26" s="104"/>
+      <c r="Z26" s="104"/>
+      <c r="AA26" s="104"/>
+      <c r="AB26" s="104"/>
+      <c r="AC26" s="104"/>
+      <c r="AD26" s="104"/>
+      <c r="AE26" s="105"/>
+      <c r="AF26" s="100"/>
+      <c r="AG26" s="101"/>
+      <c r="AH26" s="101"/>
+      <c r="AI26" s="102"/>
     </row>
     <row r="27" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="60"/>
-      <c r="B27" s="120"/>
-      <c r="C27" s="121"/>
-      <c r="D27" s="122"/>
-      <c r="E27" s="123"/>
-      <c r="F27" s="124"/>
-      <c r="G27" s="120"/>
-      <c r="H27" s="125"/>
-      <c r="I27" s="121"/>
-      <c r="J27" s="126"/>
-      <c r="K27" s="127"/>
-      <c r="L27" s="127"/>
-      <c r="M27" s="127"/>
-      <c r="N27" s="127"/>
-      <c r="O27" s="127"/>
-      <c r="P27" s="128"/>
-      <c r="Q27" s="129"/>
-      <c r="R27" s="130"/>
-      <c r="S27" s="130"/>
-      <c r="T27" s="130"/>
-      <c r="U27" s="130"/>
-      <c r="V27" s="130"/>
-      <c r="W27" s="130"/>
-      <c r="X27" s="130"/>
-      <c r="Y27" s="130"/>
-      <c r="Z27" s="130"/>
-      <c r="AA27" s="130"/>
-      <c r="AB27" s="130"/>
-      <c r="AC27" s="130"/>
-      <c r="AD27" s="130"/>
-      <c r="AE27" s="131"/>
-      <c r="AF27" s="126"/>
-      <c r="AG27" s="127"/>
-      <c r="AH27" s="127"/>
-      <c r="AI27" s="128"/>
+      <c r="B27" s="92"/>
+      <c r="C27" s="93"/>
+      <c r="D27" s="94"/>
+      <c r="E27" s="95"/>
+      <c r="F27" s="96"/>
+      <c r="G27" s="97"/>
+      <c r="H27" s="98"/>
+      <c r="I27" s="99"/>
+      <c r="J27" s="100"/>
+      <c r="K27" s="101"/>
+      <c r="L27" s="101"/>
+      <c r="M27" s="101"/>
+      <c r="N27" s="101"/>
+      <c r="O27" s="101"/>
+      <c r="P27" s="102"/>
+      <c r="Q27" s="103"/>
+      <c r="R27" s="104"/>
+      <c r="S27" s="104"/>
+      <c r="T27" s="104"/>
+      <c r="U27" s="104"/>
+      <c r="V27" s="104"/>
+      <c r="W27" s="104"/>
+      <c r="X27" s="104"/>
+      <c r="Y27" s="104"/>
+      <c r="Z27" s="104"/>
+      <c r="AA27" s="104"/>
+      <c r="AB27" s="104"/>
+      <c r="AC27" s="104"/>
+      <c r="AD27" s="104"/>
+      <c r="AE27" s="105"/>
+      <c r="AF27" s="100"/>
+      <c r="AG27" s="101"/>
+      <c r="AH27" s="101"/>
+      <c r="AI27" s="102"/>
     </row>
     <row r="28" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="60"/>
-      <c r="B28" s="120"/>
-      <c r="C28" s="121"/>
-      <c r="D28" s="122"/>
-      <c r="E28" s="123"/>
-      <c r="F28" s="124"/>
-      <c r="G28" s="120"/>
-      <c r="H28" s="125"/>
-      <c r="I28" s="121"/>
-      <c r="J28" s="126"/>
-      <c r="K28" s="127"/>
-      <c r="L28" s="127"/>
-      <c r="M28" s="127"/>
-      <c r="N28" s="127"/>
-      <c r="O28" s="127"/>
-      <c r="P28" s="128"/>
-      <c r="Q28" s="129"/>
-      <c r="R28" s="130"/>
-      <c r="S28" s="130"/>
-      <c r="T28" s="130"/>
-      <c r="U28" s="130"/>
-      <c r="V28" s="130"/>
-      <c r="W28" s="130"/>
-      <c r="X28" s="130"/>
-      <c r="Y28" s="130"/>
-      <c r="Z28" s="130"/>
-      <c r="AA28" s="130"/>
-      <c r="AB28" s="130"/>
-      <c r="AC28" s="130"/>
-      <c r="AD28" s="130"/>
-      <c r="AE28" s="131"/>
-      <c r="AF28" s="126"/>
-      <c r="AG28" s="127"/>
-      <c r="AH28" s="127"/>
-      <c r="AI28" s="128"/>
+      <c r="B28" s="92"/>
+      <c r="C28" s="93"/>
+      <c r="D28" s="94"/>
+      <c r="E28" s="95"/>
+      <c r="F28" s="96"/>
+      <c r="G28" s="97"/>
+      <c r="H28" s="98"/>
+      <c r="I28" s="99"/>
+      <c r="J28" s="100"/>
+      <c r="K28" s="101"/>
+      <c r="L28" s="101"/>
+      <c r="M28" s="101"/>
+      <c r="N28" s="101"/>
+      <c r="O28" s="101"/>
+      <c r="P28" s="102"/>
+      <c r="Q28" s="103"/>
+      <c r="R28" s="104"/>
+      <c r="S28" s="104"/>
+      <c r="T28" s="104"/>
+      <c r="U28" s="104"/>
+      <c r="V28" s="104"/>
+      <c r="W28" s="104"/>
+      <c r="X28" s="104"/>
+      <c r="Y28" s="104"/>
+      <c r="Z28" s="104"/>
+      <c r="AA28" s="104"/>
+      <c r="AB28" s="104"/>
+      <c r="AC28" s="104"/>
+      <c r="AD28" s="104"/>
+      <c r="AE28" s="105"/>
+      <c r="AF28" s="100"/>
+      <c r="AG28" s="101"/>
+      <c r="AH28" s="101"/>
+      <c r="AI28" s="102"/>
     </row>
     <row r="29" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="60"/>
-      <c r="B29" s="120"/>
-      <c r="C29" s="121"/>
-      <c r="D29" s="122"/>
-      <c r="E29" s="123"/>
-      <c r="F29" s="124"/>
-      <c r="G29" s="120"/>
-      <c r="H29" s="125"/>
-      <c r="I29" s="121"/>
-      <c r="J29" s="126"/>
-      <c r="K29" s="127"/>
-      <c r="L29" s="127"/>
-      <c r="M29" s="127"/>
-      <c r="N29" s="127"/>
-      <c r="O29" s="127"/>
-      <c r="P29" s="128"/>
-      <c r="Q29" s="129"/>
-      <c r="R29" s="130"/>
-      <c r="S29" s="130"/>
-      <c r="T29" s="130"/>
-      <c r="U29" s="130"/>
-      <c r="V29" s="130"/>
-      <c r="W29" s="130"/>
-      <c r="X29" s="130"/>
-      <c r="Y29" s="130"/>
-      <c r="Z29" s="130"/>
-      <c r="AA29" s="130"/>
-      <c r="AB29" s="130"/>
-      <c r="AC29" s="130"/>
-      <c r="AD29" s="130"/>
-      <c r="AE29" s="131"/>
-      <c r="AF29" s="126"/>
-      <c r="AG29" s="127"/>
-      <c r="AH29" s="127"/>
-      <c r="AI29" s="128"/>
+      <c r="B29" s="92"/>
+      <c r="C29" s="93"/>
+      <c r="D29" s="94"/>
+      <c r="E29" s="95"/>
+      <c r="F29" s="96"/>
+      <c r="G29" s="97"/>
+      <c r="H29" s="98"/>
+      <c r="I29" s="99"/>
+      <c r="J29" s="100"/>
+      <c r="K29" s="101"/>
+      <c r="L29" s="101"/>
+      <c r="M29" s="101"/>
+      <c r="N29" s="101"/>
+      <c r="O29" s="101"/>
+      <c r="P29" s="102"/>
+      <c r="Q29" s="103"/>
+      <c r="R29" s="104"/>
+      <c r="S29" s="104"/>
+      <c r="T29" s="104"/>
+      <c r="U29" s="104"/>
+      <c r="V29" s="104"/>
+      <c r="W29" s="104"/>
+      <c r="X29" s="104"/>
+      <c r="Y29" s="104"/>
+      <c r="Z29" s="104"/>
+      <c r="AA29" s="104"/>
+      <c r="AB29" s="104"/>
+      <c r="AC29" s="104"/>
+      <c r="AD29" s="104"/>
+      <c r="AE29" s="105"/>
+      <c r="AF29" s="100"/>
+      <c r="AG29" s="101"/>
+      <c r="AH29" s="101"/>
+      <c r="AI29" s="102"/>
     </row>
     <row r="30" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="60"/>
-      <c r="B30" s="120"/>
-      <c r="C30" s="121"/>
-      <c r="D30" s="122"/>
-      <c r="E30" s="123"/>
-      <c r="F30" s="124"/>
-      <c r="G30" s="120"/>
-      <c r="H30" s="125"/>
-      <c r="I30" s="121"/>
-      <c r="J30" s="126"/>
-      <c r="K30" s="127"/>
-      <c r="L30" s="127"/>
-      <c r="M30" s="127"/>
-      <c r="N30" s="127"/>
-      <c r="O30" s="127"/>
-      <c r="P30" s="128"/>
-      <c r="Q30" s="129"/>
-      <c r="R30" s="130"/>
-      <c r="S30" s="130"/>
-      <c r="T30" s="130"/>
-      <c r="U30" s="130"/>
-      <c r="V30" s="130"/>
-      <c r="W30" s="130"/>
-      <c r="X30" s="130"/>
-      <c r="Y30" s="130"/>
-      <c r="Z30" s="130"/>
-      <c r="AA30" s="130"/>
-      <c r="AB30" s="130"/>
-      <c r="AC30" s="130"/>
-      <c r="AD30" s="130"/>
-      <c r="AE30" s="131"/>
-      <c r="AF30" s="126"/>
-      <c r="AG30" s="127"/>
-      <c r="AH30" s="127"/>
-      <c r="AI30" s="128"/>
+      <c r="B30" s="92"/>
+      <c r="C30" s="93"/>
+      <c r="D30" s="94"/>
+      <c r="E30" s="95"/>
+      <c r="F30" s="96"/>
+      <c r="G30" s="97"/>
+      <c r="H30" s="98"/>
+      <c r="I30" s="99"/>
+      <c r="J30" s="100"/>
+      <c r="K30" s="101"/>
+      <c r="L30" s="101"/>
+      <c r="M30" s="101"/>
+      <c r="N30" s="101"/>
+      <c r="O30" s="101"/>
+      <c r="P30" s="102"/>
+      <c r="Q30" s="103"/>
+      <c r="R30" s="104"/>
+      <c r="S30" s="104"/>
+      <c r="T30" s="104"/>
+      <c r="U30" s="104"/>
+      <c r="V30" s="104"/>
+      <c r="W30" s="104"/>
+      <c r="X30" s="104"/>
+      <c r="Y30" s="104"/>
+      <c r="Z30" s="104"/>
+      <c r="AA30" s="104"/>
+      <c r="AB30" s="104"/>
+      <c r="AC30" s="104"/>
+      <c r="AD30" s="104"/>
+      <c r="AE30" s="105"/>
+      <c r="AF30" s="100"/>
+      <c r="AG30" s="101"/>
+      <c r="AH30" s="101"/>
+      <c r="AI30" s="102"/>
     </row>
     <row r="31" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="60"/>
-      <c r="B31" s="120"/>
-      <c r="C31" s="121"/>
-      <c r="D31" s="122"/>
-      <c r="E31" s="123"/>
-      <c r="F31" s="124"/>
-      <c r="G31" s="120"/>
-      <c r="H31" s="125"/>
-      <c r="I31" s="121"/>
-      <c r="J31" s="126"/>
-      <c r="K31" s="127"/>
-      <c r="L31" s="127"/>
-      <c r="M31" s="127"/>
-      <c r="N31" s="127"/>
-      <c r="O31" s="127"/>
-      <c r="P31" s="128"/>
-      <c r="Q31" s="129"/>
-      <c r="R31" s="130"/>
-      <c r="S31" s="130"/>
-      <c r="T31" s="130"/>
-      <c r="U31" s="130"/>
-      <c r="V31" s="130"/>
-      <c r="W31" s="130"/>
-      <c r="X31" s="130"/>
-      <c r="Y31" s="130"/>
-      <c r="Z31" s="130"/>
-      <c r="AA31" s="130"/>
-      <c r="AB31" s="130"/>
-      <c r="AC31" s="130"/>
-      <c r="AD31" s="130"/>
-      <c r="AE31" s="131"/>
-      <c r="AF31" s="126"/>
-      <c r="AG31" s="127"/>
-      <c r="AH31" s="127"/>
-      <c r="AI31" s="128"/>
+      <c r="B31" s="92"/>
+      <c r="C31" s="93"/>
+      <c r="D31" s="94"/>
+      <c r="E31" s="95"/>
+      <c r="F31" s="96"/>
+      <c r="G31" s="97"/>
+      <c r="H31" s="98"/>
+      <c r="I31" s="99"/>
+      <c r="J31" s="100"/>
+      <c r="K31" s="101"/>
+      <c r="L31" s="101"/>
+      <c r="M31" s="101"/>
+      <c r="N31" s="101"/>
+      <c r="O31" s="101"/>
+      <c r="P31" s="102"/>
+      <c r="Q31" s="103"/>
+      <c r="R31" s="104"/>
+      <c r="S31" s="104"/>
+      <c r="T31" s="104"/>
+      <c r="U31" s="104"/>
+      <c r="V31" s="104"/>
+      <c r="W31" s="104"/>
+      <c r="X31" s="104"/>
+      <c r="Y31" s="104"/>
+      <c r="Z31" s="104"/>
+      <c r="AA31" s="104"/>
+      <c r="AB31" s="104"/>
+      <c r="AC31" s="104"/>
+      <c r="AD31" s="104"/>
+      <c r="AE31" s="105"/>
+      <c r="AF31" s="100"/>
+      <c r="AG31" s="101"/>
+      <c r="AH31" s="101"/>
+      <c r="AI31" s="102"/>
     </row>
     <row r="32" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="60"/>
-      <c r="B32" s="120"/>
-      <c r="C32" s="121"/>
-      <c r="D32" s="122"/>
-      <c r="E32" s="123"/>
-      <c r="F32" s="124"/>
-      <c r="G32" s="120"/>
-      <c r="H32" s="125"/>
-      <c r="I32" s="121"/>
-      <c r="J32" s="126"/>
-      <c r="K32" s="127"/>
-      <c r="L32" s="127"/>
-      <c r="M32" s="127"/>
-      <c r="N32" s="127"/>
-      <c r="O32" s="127"/>
-      <c r="P32" s="128"/>
-      <c r="Q32" s="129"/>
-      <c r="R32" s="130"/>
-      <c r="S32" s="130"/>
-      <c r="T32" s="130"/>
-      <c r="U32" s="130"/>
-      <c r="V32" s="130"/>
-      <c r="W32" s="130"/>
-      <c r="X32" s="130"/>
-      <c r="Y32" s="130"/>
-      <c r="Z32" s="130"/>
-      <c r="AA32" s="130"/>
-      <c r="AB32" s="130"/>
-      <c r="AC32" s="130"/>
-      <c r="AD32" s="130"/>
-      <c r="AE32" s="131"/>
-      <c r="AF32" s="126"/>
-      <c r="AG32" s="127"/>
-      <c r="AH32" s="127"/>
-      <c r="AI32" s="128"/>
+      <c r="B32" s="92"/>
+      <c r="C32" s="93"/>
+      <c r="D32" s="94"/>
+      <c r="E32" s="95"/>
+      <c r="F32" s="96"/>
+      <c r="G32" s="97"/>
+      <c r="H32" s="98"/>
+      <c r="I32" s="99"/>
+      <c r="J32" s="100"/>
+      <c r="K32" s="101"/>
+      <c r="L32" s="101"/>
+      <c r="M32" s="101"/>
+      <c r="N32" s="101"/>
+      <c r="O32" s="101"/>
+      <c r="P32" s="102"/>
+      <c r="Q32" s="103"/>
+      <c r="R32" s="104"/>
+      <c r="S32" s="104"/>
+      <c r="T32" s="104"/>
+      <c r="U32" s="104"/>
+      <c r="V32" s="104"/>
+      <c r="W32" s="104"/>
+      <c r="X32" s="104"/>
+      <c r="Y32" s="104"/>
+      <c r="Z32" s="104"/>
+      <c r="AA32" s="104"/>
+      <c r="AB32" s="104"/>
+      <c r="AC32" s="104"/>
+      <c r="AD32" s="104"/>
+      <c r="AE32" s="105"/>
+      <c r="AF32" s="100"/>
+      <c r="AG32" s="101"/>
+      <c r="AH32" s="101"/>
+      <c r="AI32" s="102"/>
     </row>
     <row r="33" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="60"/>
-      <c r="B33" s="120"/>
-      <c r="C33" s="121"/>
-      <c r="D33" s="122"/>
-      <c r="E33" s="123"/>
-      <c r="F33" s="124"/>
-      <c r="G33" s="120"/>
-      <c r="H33" s="125"/>
-      <c r="I33" s="121"/>
-      <c r="J33" s="126"/>
-      <c r="K33" s="127"/>
-      <c r="L33" s="127"/>
-      <c r="M33" s="127"/>
-      <c r="N33" s="127"/>
-      <c r="O33" s="127"/>
-      <c r="P33" s="128"/>
-      <c r="Q33" s="129"/>
-      <c r="R33" s="130"/>
-      <c r="S33" s="130"/>
-      <c r="T33" s="130"/>
-      <c r="U33" s="130"/>
-      <c r="V33" s="130"/>
-      <c r="W33" s="130"/>
-      <c r="X33" s="130"/>
-      <c r="Y33" s="130"/>
-      <c r="Z33" s="130"/>
-      <c r="AA33" s="130"/>
-      <c r="AB33" s="130"/>
-      <c r="AC33" s="130"/>
-      <c r="AD33" s="130"/>
-      <c r="AE33" s="131"/>
-      <c r="AF33" s="126"/>
-      <c r="AG33" s="127"/>
-      <c r="AH33" s="127"/>
-      <c r="AI33" s="128"/>
+      <c r="B33" s="92"/>
+      <c r="C33" s="93"/>
+      <c r="D33" s="94"/>
+      <c r="E33" s="95"/>
+      <c r="F33" s="96"/>
+      <c r="G33" s="97"/>
+      <c r="H33" s="98"/>
+      <c r="I33" s="99"/>
+      <c r="J33" s="100"/>
+      <c r="K33" s="101"/>
+      <c r="L33" s="101"/>
+      <c r="M33" s="101"/>
+      <c r="N33" s="101"/>
+      <c r="O33" s="101"/>
+      <c r="P33" s="102"/>
+      <c r="Q33" s="103"/>
+      <c r="R33" s="104"/>
+      <c r="S33" s="104"/>
+      <c r="T33" s="104"/>
+      <c r="U33" s="104"/>
+      <c r="V33" s="104"/>
+      <c r="W33" s="104"/>
+      <c r="X33" s="104"/>
+      <c r="Y33" s="104"/>
+      <c r="Z33" s="104"/>
+      <c r="AA33" s="104"/>
+      <c r="AB33" s="104"/>
+      <c r="AC33" s="104"/>
+      <c r="AD33" s="104"/>
+      <c r="AE33" s="105"/>
+      <c r="AF33" s="100"/>
+      <c r="AG33" s="101"/>
+      <c r="AH33" s="101"/>
+      <c r="AI33" s="102"/>
     </row>
   </sheetData>
   <mergeCells count="179">
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
@@ -4721,8 +4858,164 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
   </mergeCells>
-  <phoneticPr fontId="11"/>
+  <phoneticPr fontId="10"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -4731,7 +5024,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -4877,163 +5170,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="139" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="148" t="str">
+      <c r="B1" s="140"/>
+      <c r="C1" s="140"/>
+      <c r="D1" s="141"/>
+      <c r="E1" s="169" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
-      <c r="L1" s="94"/>
-      <c r="M1" s="94"/>
-      <c r="N1" s="95"/>
-      <c r="O1" s="99" t="s">
-        <v>18</v>
-      </c>
-      <c r="P1" s="100"/>
-      <c r="Q1" s="100"/>
-      <c r="R1" s="101"/>
-      <c r="S1" s="108" t="str">
+      <c r="F1" s="143"/>
+      <c r="G1" s="143"/>
+      <c r="H1" s="143"/>
+      <c r="I1" s="143"/>
+      <c r="J1" s="143"/>
+      <c r="K1" s="143"/>
+      <c r="L1" s="143"/>
+      <c r="M1" s="143"/>
+      <c r="N1" s="144"/>
+      <c r="O1" s="148" t="s">
+        <v>17</v>
+      </c>
+      <c r="P1" s="149"/>
+      <c r="Q1" s="149"/>
+      <c r="R1" s="150"/>
+      <c r="S1" s="157" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>画面一覧</v>
       </c>
-      <c r="T1" s="109"/>
-      <c r="U1" s="109"/>
-      <c r="V1" s="109"/>
-      <c r="W1" s="109"/>
-      <c r="X1" s="109"/>
-      <c r="Y1" s="109"/>
-      <c r="Z1" s="110"/>
-      <c r="AA1" s="90" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB1" s="92"/>
-      <c r="AC1" s="117" t="str">
+      <c r="T1" s="158"/>
+      <c r="U1" s="158"/>
+      <c r="V1" s="158"/>
+      <c r="W1" s="158"/>
+      <c r="X1" s="158"/>
+      <c r="Y1" s="158"/>
+      <c r="Z1" s="159"/>
+      <c r="AA1" s="139" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB1" s="141"/>
+      <c r="AC1" s="166" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="118"/>
-      <c r="AE1" s="118"/>
-      <c r="AF1" s="119"/>
-      <c r="AG1" s="145">
+      <c r="AD1" s="167"/>
+      <c r="AE1" s="167"/>
+      <c r="AF1" s="168"/>
+      <c r="AG1" s="170">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43592</v>
       </c>
-      <c r="AH1" s="146"/>
-      <c r="AI1" s="147"/>
+      <c r="AH1" s="171"/>
+      <c r="AI1" s="172"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="2"/>
     </row>
     <row r="2" spans="1:38" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="90" t="s">
+      <c r="A2" s="139" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="148" t="str">
+      <c r="B2" s="140"/>
+      <c r="C2" s="140"/>
+      <c r="D2" s="141"/>
+      <c r="E2" s="169" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="94"/>
-      <c r="J2" s="94"/>
-      <c r="K2" s="94"/>
-      <c r="L2" s="94"/>
-      <c r="M2" s="94"/>
-      <c r="N2" s="95"/>
-      <c r="O2" s="102"/>
-      <c r="P2" s="103"/>
-      <c r="Q2" s="103"/>
-      <c r="R2" s="104"/>
-      <c r="S2" s="111"/>
-      <c r="T2" s="112"/>
-      <c r="U2" s="112"/>
-      <c r="V2" s="112"/>
-      <c r="W2" s="112"/>
-      <c r="X2" s="112"/>
-      <c r="Y2" s="112"/>
-      <c r="Z2" s="113"/>
-      <c r="AA2" s="90" t="s">
-        <v>20</v>
-      </c>
-      <c r="AB2" s="92"/>
-      <c r="AC2" s="117" t="str">
+      <c r="F2" s="143"/>
+      <c r="G2" s="143"/>
+      <c r="H2" s="143"/>
+      <c r="I2" s="143"/>
+      <c r="J2" s="143"/>
+      <c r="K2" s="143"/>
+      <c r="L2" s="143"/>
+      <c r="M2" s="143"/>
+      <c r="N2" s="144"/>
+      <c r="O2" s="151"/>
+      <c r="P2" s="152"/>
+      <c r="Q2" s="152"/>
+      <c r="R2" s="153"/>
+      <c r="S2" s="160"/>
+      <c r="T2" s="161"/>
+      <c r="U2" s="161"/>
+      <c r="V2" s="161"/>
+      <c r="W2" s="161"/>
+      <c r="X2" s="161"/>
+      <c r="Y2" s="161"/>
+      <c r="Z2" s="162"/>
+      <c r="AA2" s="139" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB2" s="141"/>
+      <c r="AC2" s="166" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
-        <v/>
-      </c>
-      <c r="AD2" s="118"/>
-      <c r="AE2" s="118"/>
-      <c r="AF2" s="119"/>
-      <c r="AG2" s="145" t="str">
+        <v>TIS</v>
+      </c>
+      <c r="AD2" s="167"/>
+      <c r="AE2" s="167"/>
+      <c r="AF2" s="168"/>
+      <c r="AG2" s="170">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
-        <v/>
-      </c>
-      <c r="AH2" s="146"/>
-      <c r="AI2" s="147"/>
+        <v>43895</v>
+      </c>
+      <c r="AH2" s="171"/>
+      <c r="AI2" s="172"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
     </row>
     <row r="3" spans="1:38" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="90" t="s">
+      <c r="A3" s="139" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="148" t="str">
+      <c r="B3" s="140"/>
+      <c r="C3" s="140"/>
+      <c r="D3" s="141"/>
+      <c r="E3" s="169" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="94"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="94"/>
-      <c r="I3" s="94"/>
-      <c r="J3" s="94"/>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94"/>
-      <c r="M3" s="94"/>
-      <c r="N3" s="95"/>
-      <c r="O3" s="105"/>
-      <c r="P3" s="106"/>
-      <c r="Q3" s="106"/>
-      <c r="R3" s="107"/>
-      <c r="S3" s="114"/>
-      <c r="T3" s="115"/>
-      <c r="U3" s="115"/>
-      <c r="V3" s="115"/>
-      <c r="W3" s="115"/>
-      <c r="X3" s="115"/>
-      <c r="Y3" s="115"/>
-      <c r="Z3" s="116"/>
-      <c r="AA3" s="90"/>
-      <c r="AB3" s="92"/>
-      <c r="AC3" s="117" t="str">
+      <c r="F3" s="143"/>
+      <c r="G3" s="143"/>
+      <c r="H3" s="143"/>
+      <c r="I3" s="143"/>
+      <c r="J3" s="143"/>
+      <c r="K3" s="143"/>
+      <c r="L3" s="143"/>
+      <c r="M3" s="143"/>
+      <c r="N3" s="144"/>
+      <c r="O3" s="154"/>
+      <c r="P3" s="155"/>
+      <c r="Q3" s="155"/>
+      <c r="R3" s="156"/>
+      <c r="S3" s="163"/>
+      <c r="T3" s="164"/>
+      <c r="U3" s="164"/>
+      <c r="V3" s="164"/>
+      <c r="W3" s="164"/>
+      <c r="X3" s="164"/>
+      <c r="Y3" s="164"/>
+      <c r="Z3" s="165"/>
+      <c r="AA3" s="139"/>
+      <c r="AB3" s="141"/>
+      <c r="AC3" s="166" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="118"/>
-      <c r="AE3" s="118"/>
-      <c r="AF3" s="119"/>
-      <c r="AG3" s="145" t="str">
+      <c r="AD3" s="167"/>
+      <c r="AE3" s="167"/>
+      <c r="AF3" s="168"/>
+      <c r="AG3" s="170" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="146"/>
-      <c r="AI3" s="147"/>
+      <c r="AH3" s="171"/>
+      <c r="AI3" s="172"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
@@ -5093,7 +5386,7 @@
       <c r="O5" s="32"/>
       <c r="P5" s="32"/>
       <c r="Q5" s="35" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R5" s="32"/>
       <c r="S5" s="32"/>
@@ -6496,6 +6789,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -6505,16 +6806,8 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
-  <phoneticPr fontId="11"/>
+  <phoneticPr fontId="10"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -6523,11 +6816,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet4">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BE16"/>
+  <dimension ref="A1:BE20"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection sqref="A1:D1"/>
@@ -6539,59 +6832,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:57" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="139" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="148" t="str">
+      <c r="B1" s="140"/>
+      <c r="C1" s="140"/>
+      <c r="D1" s="141"/>
+      <c r="E1" s="169" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
-      <c r="L1" s="94"/>
-      <c r="M1" s="94"/>
-      <c r="N1" s="95"/>
-      <c r="O1" s="182" t="s">
-        <v>21</v>
-      </c>
-      <c r="P1" s="183"/>
-      <c r="Q1" s="183"/>
-      <c r="R1" s="184"/>
-      <c r="S1" s="173" t="str">
+      <c r="F1" s="143"/>
+      <c r="G1" s="143"/>
+      <c r="H1" s="143"/>
+      <c r="I1" s="143"/>
+      <c r="J1" s="143"/>
+      <c r="K1" s="143"/>
+      <c r="L1" s="143"/>
+      <c r="M1" s="143"/>
+      <c r="N1" s="144"/>
+      <c r="O1" s="196" t="s">
+        <v>20</v>
+      </c>
+      <c r="P1" s="197"/>
+      <c r="Q1" s="197"/>
+      <c r="R1" s="198"/>
+      <c r="S1" s="205" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>画面一覧</v>
       </c>
-      <c r="T1" s="174"/>
-      <c r="U1" s="174"/>
-      <c r="V1" s="174"/>
-      <c r="W1" s="174"/>
-      <c r="X1" s="174"/>
-      <c r="Y1" s="174"/>
-      <c r="Z1" s="175"/>
-      <c r="AA1" s="90" t="s">
+      <c r="T1" s="206"/>
+      <c r="U1" s="206"/>
+      <c r="V1" s="206"/>
+      <c r="W1" s="206"/>
+      <c r="X1" s="206"/>
+      <c r="Y1" s="206"/>
+      <c r="Z1" s="207"/>
+      <c r="AA1" s="139" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="92"/>
-      <c r="AC1" s="117" t="str">
+      <c r="AB1" s="141"/>
+      <c r="AC1" s="166" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="118"/>
-      <c r="AE1" s="118"/>
-      <c r="AF1" s="119"/>
-      <c r="AG1" s="145">
+      <c r="AD1" s="167"/>
+      <c r="AE1" s="167"/>
+      <c r="AF1" s="168"/>
+      <c r="AG1" s="170">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43592</v>
       </c>
-      <c r="AH1" s="146"/>
-      <c r="AI1" s="147"/>
+      <c r="AH1" s="171"/>
+      <c r="AI1" s="172"/>
       <c r="AJ1" s="11"/>
       <c r="AK1" s="11"/>
       <c r="AL1" s="11"/>
@@ -6616,54 +6909,54 @@
       <c r="BE1" s="11"/>
     </row>
     <row r="2" spans="1:57" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="90" t="s">
+      <c r="A2" s="139" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="148" t="str">
+      <c r="B2" s="140"/>
+      <c r="C2" s="140"/>
+      <c r="D2" s="141"/>
+      <c r="E2" s="169" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="94"/>
-      <c r="J2" s="94"/>
-      <c r="K2" s="94"/>
-      <c r="L2" s="94"/>
-      <c r="M2" s="94"/>
-      <c r="N2" s="95"/>
-      <c r="O2" s="185"/>
-      <c r="P2" s="186"/>
-      <c r="Q2" s="186"/>
-      <c r="R2" s="187"/>
-      <c r="S2" s="176"/>
-      <c r="T2" s="177"/>
-      <c r="U2" s="177"/>
-      <c r="V2" s="177"/>
-      <c r="W2" s="177"/>
-      <c r="X2" s="177"/>
-      <c r="Y2" s="177"/>
-      <c r="Z2" s="178"/>
-      <c r="AA2" s="90" t="s">
+      <c r="F2" s="143"/>
+      <c r="G2" s="143"/>
+      <c r="H2" s="143"/>
+      <c r="I2" s="143"/>
+      <c r="J2" s="143"/>
+      <c r="K2" s="143"/>
+      <c r="L2" s="143"/>
+      <c r="M2" s="143"/>
+      <c r="N2" s="144"/>
+      <c r="O2" s="199"/>
+      <c r="P2" s="200"/>
+      <c r="Q2" s="200"/>
+      <c r="R2" s="201"/>
+      <c r="S2" s="208"/>
+      <c r="T2" s="209"/>
+      <c r="U2" s="209"/>
+      <c r="V2" s="209"/>
+      <c r="W2" s="209"/>
+      <c r="X2" s="209"/>
+      <c r="Y2" s="209"/>
+      <c r="Z2" s="210"/>
+      <c r="AA2" s="139" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="92"/>
-      <c r="AC2" s="117" t="str">
+      <c r="AB2" s="141"/>
+      <c r="AC2" s="166" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
-        <v/>
-      </c>
-      <c r="AD2" s="118"/>
-      <c r="AE2" s="118"/>
-      <c r="AF2" s="119"/>
-      <c r="AG2" s="145" t="str">
+        <v>TIS</v>
+      </c>
+      <c r="AD2" s="167"/>
+      <c r="AE2" s="167"/>
+      <c r="AF2" s="168"/>
+      <c r="AG2" s="170">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
-        <v/>
-      </c>
-      <c r="AH2" s="146"/>
-      <c r="AI2" s="147"/>
+        <v>43895</v>
+      </c>
+      <c r="AH2" s="171"/>
+      <c r="AI2" s="172"/>
       <c r="AJ2" s="11"/>
       <c r="AK2" s="11"/>
       <c r="AL2" s="11"/>
@@ -6688,52 +6981,52 @@
       <c r="BE2" s="11"/>
     </row>
     <row r="3" spans="1:57" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="90" t="s">
+      <c r="A3" s="139" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="148" t="str">
+      <c r="B3" s="140"/>
+      <c r="C3" s="140"/>
+      <c r="D3" s="141"/>
+      <c r="E3" s="169" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="94"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="94"/>
-      <c r="I3" s="94"/>
-      <c r="J3" s="94"/>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94"/>
-      <c r="M3" s="94"/>
-      <c r="N3" s="95"/>
-      <c r="O3" s="188"/>
-      <c r="P3" s="189"/>
-      <c r="Q3" s="189"/>
-      <c r="R3" s="190"/>
-      <c r="S3" s="179"/>
-      <c r="T3" s="180"/>
-      <c r="U3" s="180"/>
-      <c r="V3" s="180"/>
-      <c r="W3" s="180"/>
-      <c r="X3" s="180"/>
-      <c r="Y3" s="180"/>
-      <c r="Z3" s="181"/>
-      <c r="AA3" s="90"/>
-      <c r="AB3" s="92"/>
-      <c r="AC3" s="117" t="str">
+      <c r="F3" s="143"/>
+      <c r="G3" s="143"/>
+      <c r="H3" s="143"/>
+      <c r="I3" s="143"/>
+      <c r="J3" s="143"/>
+      <c r="K3" s="143"/>
+      <c r="L3" s="143"/>
+      <c r="M3" s="143"/>
+      <c r="N3" s="144"/>
+      <c r="O3" s="202"/>
+      <c r="P3" s="203"/>
+      <c r="Q3" s="203"/>
+      <c r="R3" s="204"/>
+      <c r="S3" s="211"/>
+      <c r="T3" s="212"/>
+      <c r="U3" s="212"/>
+      <c r="V3" s="212"/>
+      <c r="W3" s="212"/>
+      <c r="X3" s="212"/>
+      <c r="Y3" s="212"/>
+      <c r="Z3" s="213"/>
+      <c r="AA3" s="139"/>
+      <c r="AB3" s="141"/>
+      <c r="AC3" s="166" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="118"/>
-      <c r="AE3" s="118"/>
-      <c r="AF3" s="119"/>
-      <c r="AG3" s="145" t="str">
+      <c r="AD3" s="167"/>
+      <c r="AE3" s="167"/>
+      <c r="AF3" s="168"/>
+      <c r="AG3" s="170" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="146"/>
-      <c r="AI3" s="147"/>
+      <c r="AH3" s="171"/>
+      <c r="AI3" s="172"/>
       <c r="AJ3" s="11"/>
       <c r="AK3" s="11"/>
       <c r="AL3" s="11"/>
@@ -6902,49 +7195,49 @@
     </row>
     <row r="7" spans="1:57" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C7" s="82" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="167" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="178" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="168"/>
-      <c r="F7" s="169"/>
-      <c r="G7" s="167" t="s">
+      <c r="E7" s="179"/>
+      <c r="F7" s="180"/>
+      <c r="G7" s="178" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="168"/>
-      <c r="I7" s="168"/>
-      <c r="J7" s="168"/>
-      <c r="K7" s="169"/>
-      <c r="L7" s="170" t="s">
+      <c r="H7" s="179"/>
+      <c r="I7" s="179"/>
+      <c r="J7" s="179"/>
+      <c r="K7" s="180"/>
+      <c r="L7" s="214" t="s">
         <v>12</v>
       </c>
-      <c r="M7" s="171"/>
-      <c r="N7" s="172"/>
-      <c r="O7" s="167" t="s">
+      <c r="M7" s="215"/>
+      <c r="N7" s="216"/>
+      <c r="O7" s="178" t="s">
         <v>13</v>
       </c>
-      <c r="P7" s="168"/>
-      <c r="Q7" s="168"/>
-      <c r="R7" s="168"/>
-      <c r="S7" s="169"/>
-      <c r="T7" s="167" t="s">
+      <c r="P7" s="179"/>
+      <c r="Q7" s="179"/>
+      <c r="R7" s="179"/>
+      <c r="S7" s="180"/>
+      <c r="T7" s="178" t="s">
         <v>14</v>
       </c>
-      <c r="U7" s="168"/>
-      <c r="V7" s="168"/>
-      <c r="W7" s="168"/>
-      <c r="X7" s="168"/>
-      <c r="Y7" s="168"/>
-      <c r="Z7" s="168"/>
-      <c r="AA7" s="168"/>
-      <c r="AB7" s="168"/>
-      <c r="AC7" s="168"/>
-      <c r="AD7" s="168"/>
-      <c r="AE7" s="168"/>
-      <c r="AF7" s="168"/>
-      <c r="AG7" s="168"/>
-      <c r="AH7" s="169"/>
+      <c r="U7" s="179"/>
+      <c r="V7" s="179"/>
+      <c r="W7" s="179"/>
+      <c r="X7" s="179"/>
+      <c r="Y7" s="179"/>
+      <c r="Z7" s="179"/>
+      <c r="AA7" s="179"/>
+      <c r="AB7" s="179"/>
+      <c r="AC7" s="179"/>
+      <c r="AD7" s="179"/>
+      <c r="AE7" s="179"/>
+      <c r="AF7" s="179"/>
+      <c r="AG7" s="179"/>
+      <c r="AH7" s="180"/>
       <c r="AJ7" s="11"/>
       <c r="AK7" s="11"/>
       <c r="AL7" s="11"/>
@@ -6972,47 +7265,47 @@
       <c r="C8" s="60">
         <v>1</v>
       </c>
-      <c r="D8" s="158" t="s">
+      <c r="D8" s="187" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="188"/>
+      <c r="F8" s="189"/>
+      <c r="G8" s="187" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="159"/>
-      <c r="F8" s="160"/>
-      <c r="G8" s="158" t="s">
+      <c r="H8" s="188"/>
+      <c r="I8" s="188"/>
+      <c r="J8" s="188"/>
+      <c r="K8" s="189"/>
+      <c r="L8" s="108" t="s">
         <v>29</v>
       </c>
-      <c r="H8" s="159"/>
-      <c r="I8" s="159"/>
-      <c r="J8" s="159"/>
-      <c r="K8" s="160"/>
-      <c r="L8" s="155" t="s">
-        <v>30</v>
-      </c>
-      <c r="M8" s="156"/>
-      <c r="N8" s="157"/>
-      <c r="O8" s="155" t="s">
-        <v>29</v>
-      </c>
-      <c r="P8" s="156"/>
-      <c r="Q8" s="156"/>
-      <c r="R8" s="156"/>
-      <c r="S8" s="157"/>
-      <c r="T8" s="155" t="s">
-        <v>59</v>
-      </c>
-      <c r="U8" s="127"/>
-      <c r="V8" s="127"/>
-      <c r="W8" s="127"/>
-      <c r="X8" s="127"/>
-      <c r="Y8" s="127"/>
-      <c r="Z8" s="127"/>
-      <c r="AA8" s="127"/>
-      <c r="AB8" s="127"/>
-      <c r="AC8" s="127"/>
-      <c r="AD8" s="127"/>
-      <c r="AE8" s="127"/>
-      <c r="AF8" s="127"/>
-      <c r="AG8" s="127"/>
-      <c r="AH8" s="128"/>
+      <c r="M8" s="115"/>
+      <c r="N8" s="116"/>
+      <c r="O8" s="108" t="s">
+        <v>28</v>
+      </c>
+      <c r="P8" s="115"/>
+      <c r="Q8" s="115"/>
+      <c r="R8" s="115"/>
+      <c r="S8" s="116"/>
+      <c r="T8" s="108" t="s">
+        <v>57</v>
+      </c>
+      <c r="U8" s="101"/>
+      <c r="V8" s="101"/>
+      <c r="W8" s="101"/>
+      <c r="X8" s="101"/>
+      <c r="Y8" s="101"/>
+      <c r="Z8" s="101"/>
+      <c r="AA8" s="101"/>
+      <c r="AB8" s="101"/>
+      <c r="AC8" s="101"/>
+      <c r="AD8" s="101"/>
+      <c r="AE8" s="101"/>
+      <c r="AF8" s="101"/>
+      <c r="AG8" s="101"/>
+      <c r="AH8" s="102"/>
       <c r="AJ8" s="11"/>
       <c r="AK8" s="11"/>
       <c r="AL8" s="11"/>
@@ -7038,45 +7331,46 @@
     </row>
     <row r="9" spans="1:57" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C9" s="60">
+        <f>C8+1</f>
         <v>2</v>
       </c>
-      <c r="D9" s="161"/>
-      <c r="E9" s="162"/>
-      <c r="F9" s="163"/>
-      <c r="G9" s="161"/>
-      <c r="H9" s="162"/>
-      <c r="I9" s="162"/>
-      <c r="J9" s="162"/>
-      <c r="K9" s="163"/>
-      <c r="L9" s="155" t="s">
+      <c r="D9" s="190"/>
+      <c r="E9" s="191"/>
+      <c r="F9" s="192"/>
+      <c r="G9" s="190"/>
+      <c r="H9" s="191"/>
+      <c r="I9" s="191"/>
+      <c r="J9" s="191"/>
+      <c r="K9" s="192"/>
+      <c r="L9" s="108" t="s">
+        <v>30</v>
+      </c>
+      <c r="M9" s="115"/>
+      <c r="N9" s="116"/>
+      <c r="O9" s="108" t="s">
         <v>31</v>
       </c>
-      <c r="M9" s="156"/>
-      <c r="N9" s="157"/>
-      <c r="O9" s="155" t="s">
-        <v>32</v>
-      </c>
-      <c r="P9" s="156"/>
-      <c r="Q9" s="156"/>
-      <c r="R9" s="156"/>
-      <c r="S9" s="157"/>
-      <c r="T9" s="155" t="s">
-        <v>45</v>
-      </c>
-      <c r="U9" s="127"/>
-      <c r="V9" s="127"/>
-      <c r="W9" s="127"/>
-      <c r="X9" s="127"/>
-      <c r="Y9" s="127"/>
-      <c r="Z9" s="127"/>
-      <c r="AA9" s="127"/>
-      <c r="AB9" s="127"/>
-      <c r="AC9" s="127"/>
-      <c r="AD9" s="127"/>
-      <c r="AE9" s="127"/>
-      <c r="AF9" s="127"/>
-      <c r="AG9" s="127"/>
-      <c r="AH9" s="128"/>
+      <c r="P9" s="115"/>
+      <c r="Q9" s="115"/>
+      <c r="R9" s="115"/>
+      <c r="S9" s="116"/>
+      <c r="T9" s="108" t="s">
+        <v>44</v>
+      </c>
+      <c r="U9" s="101"/>
+      <c r="V9" s="101"/>
+      <c r="W9" s="101"/>
+      <c r="X9" s="101"/>
+      <c r="Y9" s="101"/>
+      <c r="Z9" s="101"/>
+      <c r="AA9" s="101"/>
+      <c r="AB9" s="101"/>
+      <c r="AC9" s="101"/>
+      <c r="AD9" s="101"/>
+      <c r="AE9" s="101"/>
+      <c r="AF9" s="101"/>
+      <c r="AG9" s="101"/>
+      <c r="AH9" s="102"/>
       <c r="AL9" s="11"/>
       <c r="AM9" s="11"/>
       <c r="AN9" s="11"/>
@@ -7092,45 +7386,46 @@
     </row>
     <row r="10" spans="1:57" s="8" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C10" s="60">
+        <f t="shared" ref="C10:C14" si="0">C9+1</f>
         <v>3</v>
       </c>
-      <c r="D10" s="161"/>
-      <c r="E10" s="162"/>
-      <c r="F10" s="163"/>
-      <c r="G10" s="161"/>
-      <c r="H10" s="162"/>
-      <c r="I10" s="162"/>
-      <c r="J10" s="162"/>
-      <c r="K10" s="163"/>
-      <c r="L10" s="152" t="s">
+      <c r="D10" s="190"/>
+      <c r="E10" s="191"/>
+      <c r="F10" s="192"/>
+      <c r="G10" s="190"/>
+      <c r="H10" s="191"/>
+      <c r="I10" s="191"/>
+      <c r="J10" s="191"/>
+      <c r="K10" s="192"/>
+      <c r="L10" s="184" t="s">
+        <v>32</v>
+      </c>
+      <c r="M10" s="185"/>
+      <c r="N10" s="186"/>
+      <c r="O10" s="184" t="s">
         <v>33</v>
       </c>
-      <c r="M10" s="153"/>
-      <c r="N10" s="154"/>
-      <c r="O10" s="152" t="s">
-        <v>34</v>
-      </c>
-      <c r="P10" s="153"/>
-      <c r="Q10" s="153"/>
-      <c r="R10" s="153"/>
-      <c r="S10" s="154"/>
-      <c r="T10" s="191" t="s">
-        <v>52</v>
-      </c>
-      <c r="U10" s="150"/>
-      <c r="V10" s="150"/>
-      <c r="W10" s="150"/>
-      <c r="X10" s="150"/>
-      <c r="Y10" s="150"/>
-      <c r="Z10" s="150"/>
-      <c r="AA10" s="150"/>
-      <c r="AB10" s="150"/>
-      <c r="AC10" s="150"/>
-      <c r="AD10" s="150"/>
-      <c r="AE10" s="150"/>
-      <c r="AF10" s="150"/>
-      <c r="AG10" s="150"/>
-      <c r="AH10" s="151"/>
+      <c r="P10" s="185"/>
+      <c r="Q10" s="185"/>
+      <c r="R10" s="185"/>
+      <c r="S10" s="186"/>
+      <c r="T10" s="181" t="s">
+        <v>50</v>
+      </c>
+      <c r="U10" s="182"/>
+      <c r="V10" s="182"/>
+      <c r="W10" s="182"/>
+      <c r="X10" s="182"/>
+      <c r="Y10" s="182"/>
+      <c r="Z10" s="182"/>
+      <c r="AA10" s="182"/>
+      <c r="AB10" s="182"/>
+      <c r="AC10" s="182"/>
+      <c r="AD10" s="182"/>
+      <c r="AE10" s="182"/>
+      <c r="AF10" s="182"/>
+      <c r="AG10" s="182"/>
+      <c r="AH10" s="183"/>
       <c r="AL10" s="11"/>
       <c r="AM10" s="11"/>
       <c r="AN10" s="11"/>
@@ -7146,45 +7441,46 @@
     </row>
     <row r="11" spans="1:57" s="8" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C11" s="60">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D11" s="164"/>
-      <c r="E11" s="165"/>
-      <c r="F11" s="166"/>
-      <c r="G11" s="164"/>
-      <c r="H11" s="165"/>
-      <c r="I11" s="165"/>
-      <c r="J11" s="165"/>
-      <c r="K11" s="166"/>
-      <c r="L11" s="152" t="s">
+      <c r="D11" s="193"/>
+      <c r="E11" s="194"/>
+      <c r="F11" s="195"/>
+      <c r="G11" s="193"/>
+      <c r="H11" s="194"/>
+      <c r="I11" s="194"/>
+      <c r="J11" s="194"/>
+      <c r="K11" s="195"/>
+      <c r="L11" s="184" t="s">
+        <v>34</v>
+      </c>
+      <c r="M11" s="185"/>
+      <c r="N11" s="186"/>
+      <c r="O11" s="184" t="s">
         <v>35</v>
       </c>
-      <c r="M11" s="153"/>
-      <c r="N11" s="154"/>
-      <c r="O11" s="152" t="s">
-        <v>36</v>
-      </c>
-      <c r="P11" s="153"/>
-      <c r="Q11" s="153"/>
-      <c r="R11" s="153"/>
-      <c r="S11" s="154"/>
-      <c r="T11" s="191" t="s">
-        <v>58</v>
-      </c>
-      <c r="U11" s="150"/>
-      <c r="V11" s="150"/>
-      <c r="W11" s="150"/>
-      <c r="X11" s="150"/>
-      <c r="Y11" s="150"/>
-      <c r="Z11" s="150"/>
-      <c r="AA11" s="150"/>
-      <c r="AB11" s="150"/>
-      <c r="AC11" s="150"/>
-      <c r="AD11" s="150"/>
-      <c r="AE11" s="150"/>
-      <c r="AF11" s="150"/>
-      <c r="AG11" s="150"/>
-      <c r="AH11" s="151"/>
+      <c r="P11" s="185"/>
+      <c r="Q11" s="185"/>
+      <c r="R11" s="185"/>
+      <c r="S11" s="186"/>
+      <c r="T11" s="181" t="s">
+        <v>56</v>
+      </c>
+      <c r="U11" s="182"/>
+      <c r="V11" s="182"/>
+      <c r="W11" s="182"/>
+      <c r="X11" s="182"/>
+      <c r="Y11" s="182"/>
+      <c r="Z11" s="182"/>
+      <c r="AA11" s="182"/>
+      <c r="AB11" s="182"/>
+      <c r="AC11" s="182"/>
+      <c r="AD11" s="182"/>
+      <c r="AE11" s="182"/>
+      <c r="AF11" s="182"/>
+      <c r="AG11" s="182"/>
+      <c r="AH11" s="183"/>
       <c r="AL11" s="11"/>
       <c r="AM11" s="11"/>
       <c r="AN11" s="11"/>
@@ -7200,49 +7496,50 @@
     </row>
     <row r="12" spans="1:57" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C12" s="60">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="D12" s="158" t="s">
+      <c r="D12" s="176" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="176"/>
+      <c r="F12" s="176"/>
+      <c r="G12" s="176" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12" s="176"/>
+      <c r="I12" s="176"/>
+      <c r="J12" s="176"/>
+      <c r="K12" s="176"/>
+      <c r="L12" s="184" t="s">
+        <v>41</v>
+      </c>
+      <c r="M12" s="185"/>
+      <c r="N12" s="186"/>
+      <c r="O12" s="184" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="159"/>
-      <c r="F12" s="160"/>
-      <c r="G12" s="158" t="s">
-        <v>37</v>
-      </c>
-      <c r="H12" s="159"/>
-      <c r="I12" s="159"/>
-      <c r="J12" s="159"/>
-      <c r="K12" s="160"/>
-      <c r="L12" s="152" t="s">
-        <v>42</v>
-      </c>
-      <c r="M12" s="153"/>
-      <c r="N12" s="154"/>
-      <c r="O12" s="152" t="s">
-        <v>39</v>
-      </c>
-      <c r="P12" s="153"/>
-      <c r="Q12" s="153"/>
-      <c r="R12" s="153"/>
-      <c r="S12" s="154"/>
-      <c r="T12" s="152" t="s">
-        <v>55</v>
-      </c>
-      <c r="U12" s="150"/>
-      <c r="V12" s="150"/>
-      <c r="W12" s="150"/>
-      <c r="X12" s="150"/>
-      <c r="Y12" s="150"/>
-      <c r="Z12" s="150"/>
-      <c r="AA12" s="150"/>
-      <c r="AB12" s="150"/>
-      <c r="AC12" s="150"/>
-      <c r="AD12" s="150"/>
-      <c r="AE12" s="150"/>
-      <c r="AF12" s="150"/>
-      <c r="AG12" s="150"/>
-      <c r="AH12" s="151"/>
+      <c r="P12" s="185"/>
+      <c r="Q12" s="185"/>
+      <c r="R12" s="185"/>
+      <c r="S12" s="186"/>
+      <c r="T12" s="184" t="s">
+        <v>53</v>
+      </c>
+      <c r="U12" s="182"/>
+      <c r="V12" s="182"/>
+      <c r="W12" s="182"/>
+      <c r="X12" s="182"/>
+      <c r="Y12" s="182"/>
+      <c r="Z12" s="182"/>
+      <c r="AA12" s="182"/>
+      <c r="AB12" s="182"/>
+      <c r="AC12" s="182"/>
+      <c r="AD12" s="182"/>
+      <c r="AE12" s="182"/>
+      <c r="AF12" s="182"/>
+      <c r="AG12" s="182"/>
+      <c r="AH12" s="183"/>
       <c r="AL12" s="11"/>
       <c r="AM12" s="11"/>
       <c r="AN12" s="11"/>
@@ -7258,45 +7555,46 @@
     </row>
     <row r="13" spans="1:57" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C13" s="60">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="D13" s="161"/>
-      <c r="E13" s="162"/>
-      <c r="F13" s="163"/>
-      <c r="G13" s="161"/>
-      <c r="H13" s="162"/>
-      <c r="I13" s="162"/>
-      <c r="J13" s="162"/>
-      <c r="K13" s="163"/>
-      <c r="L13" s="155" t="s">
-        <v>43</v>
-      </c>
-      <c r="M13" s="156"/>
-      <c r="N13" s="157"/>
-      <c r="O13" s="155" t="s">
-        <v>40</v>
-      </c>
-      <c r="P13" s="156"/>
-      <c r="Q13" s="156"/>
-      <c r="R13" s="156"/>
-      <c r="S13" s="157"/>
-      <c r="T13" s="155" t="s">
-        <v>53</v>
-      </c>
-      <c r="U13" s="127"/>
-      <c r="V13" s="127"/>
-      <c r="W13" s="127"/>
-      <c r="X13" s="127"/>
-      <c r="Y13" s="127"/>
-      <c r="Z13" s="127"/>
-      <c r="AA13" s="127"/>
-      <c r="AB13" s="127"/>
-      <c r="AC13" s="127"/>
-      <c r="AD13" s="127"/>
-      <c r="AE13" s="127"/>
-      <c r="AF13" s="127"/>
-      <c r="AG13" s="127"/>
-      <c r="AH13" s="128"/>
+      <c r="D13" s="177"/>
+      <c r="E13" s="177"/>
+      <c r="F13" s="177"/>
+      <c r="G13" s="177"/>
+      <c r="H13" s="177"/>
+      <c r="I13" s="177"/>
+      <c r="J13" s="177"/>
+      <c r="K13" s="177"/>
+      <c r="L13" s="108" t="s">
+        <v>42</v>
+      </c>
+      <c r="M13" s="115"/>
+      <c r="N13" s="116"/>
+      <c r="O13" s="108" t="s">
+        <v>39</v>
+      </c>
+      <c r="P13" s="115"/>
+      <c r="Q13" s="115"/>
+      <c r="R13" s="115"/>
+      <c r="S13" s="116"/>
+      <c r="T13" s="108" t="s">
+        <v>51</v>
+      </c>
+      <c r="U13" s="101"/>
+      <c r="V13" s="101"/>
+      <c r="W13" s="101"/>
+      <c r="X13" s="101"/>
+      <c r="Y13" s="101"/>
+      <c r="Z13" s="101"/>
+      <c r="AA13" s="101"/>
+      <c r="AB13" s="101"/>
+      <c r="AC13" s="101"/>
+      <c r="AD13" s="101"/>
+      <c r="AE13" s="101"/>
+      <c r="AF13" s="101"/>
+      <c r="AG13" s="101"/>
+      <c r="AH13" s="102"/>
       <c r="AL13" s="11"/>
       <c r="AM13" s="11"/>
       <c r="AN13" s="11"/>
@@ -7312,45 +7610,46 @@
     </row>
     <row r="14" spans="1:57" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C14" s="60">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="D14" s="161"/>
-      <c r="E14" s="162"/>
-      <c r="F14" s="163"/>
-      <c r="G14" s="161"/>
-      <c r="H14" s="162"/>
-      <c r="I14" s="162"/>
-      <c r="J14" s="162"/>
-      <c r="K14" s="163"/>
-      <c r="L14" s="155" t="s">
-        <v>44</v>
-      </c>
-      <c r="M14" s="156"/>
-      <c r="N14" s="157"/>
-      <c r="O14" s="155" t="s">
-        <v>41</v>
-      </c>
-      <c r="P14" s="156"/>
-      <c r="Q14" s="156"/>
-      <c r="R14" s="156"/>
-      <c r="S14" s="157"/>
-      <c r="T14" s="155" t="s">
-        <v>54</v>
-      </c>
-      <c r="U14" s="127"/>
-      <c r="V14" s="127"/>
-      <c r="W14" s="127"/>
-      <c r="X14" s="127"/>
-      <c r="Y14" s="127"/>
-      <c r="Z14" s="127"/>
-      <c r="AA14" s="127"/>
-      <c r="AB14" s="127"/>
-      <c r="AC14" s="127"/>
-      <c r="AD14" s="127"/>
-      <c r="AE14" s="127"/>
-      <c r="AF14" s="127"/>
-      <c r="AG14" s="127"/>
-      <c r="AH14" s="128"/>
+      <c r="D14" s="177"/>
+      <c r="E14" s="177"/>
+      <c r="F14" s="177"/>
+      <c r="G14" s="177"/>
+      <c r="H14" s="177"/>
+      <c r="I14" s="177"/>
+      <c r="J14" s="177"/>
+      <c r="K14" s="177"/>
+      <c r="L14" s="108" t="s">
+        <v>43</v>
+      </c>
+      <c r="M14" s="115"/>
+      <c r="N14" s="116"/>
+      <c r="O14" s="108" t="s">
+        <v>40</v>
+      </c>
+      <c r="P14" s="115"/>
+      <c r="Q14" s="115"/>
+      <c r="R14" s="115"/>
+      <c r="S14" s="116"/>
+      <c r="T14" s="108" t="s">
+        <v>52</v>
+      </c>
+      <c r="U14" s="101"/>
+      <c r="V14" s="101"/>
+      <c r="W14" s="101"/>
+      <c r="X14" s="101"/>
+      <c r="Y14" s="101"/>
+      <c r="Z14" s="101"/>
+      <c r="AA14" s="101"/>
+      <c r="AB14" s="101"/>
+      <c r="AC14" s="101"/>
+      <c r="AD14" s="101"/>
+      <c r="AE14" s="101"/>
+      <c r="AF14" s="101"/>
+      <c r="AG14" s="101"/>
+      <c r="AH14" s="102"/>
       <c r="AL14" s="11"/>
       <c r="AM14" s="11"/>
       <c r="AN14" s="11"/>
@@ -7364,93 +7663,336 @@
       <c r="AV14" s="11"/>
       <c r="AW14" s="11"/>
     </row>
-    <row r="15" spans="1:57" x14ac:dyDescent="0.15">
-      <c r="C15" s="60"/>
-      <c r="D15" s="126"/>
-      <c r="E15" s="127"/>
-      <c r="F15" s="128"/>
-      <c r="G15" s="126"/>
-      <c r="H15" s="127"/>
-      <c r="I15" s="127"/>
-      <c r="J15" s="127"/>
-      <c r="K15" s="128"/>
-      <c r="L15" s="152"/>
-      <c r="M15" s="153"/>
-      <c r="N15" s="154"/>
-      <c r="O15" s="152"/>
-      <c r="P15" s="153"/>
-      <c r="Q15" s="153"/>
-      <c r="R15" s="153"/>
-      <c r="S15" s="154"/>
-      <c r="T15" s="149"/>
-      <c r="U15" s="150"/>
-      <c r="V15" s="150"/>
-      <c r="W15" s="150"/>
-      <c r="X15" s="150"/>
-      <c r="Y15" s="150"/>
-      <c r="Z15" s="150"/>
-      <c r="AA15" s="150"/>
-      <c r="AB15" s="150"/>
-      <c r="AC15" s="150"/>
-      <c r="AD15" s="150"/>
-      <c r="AE15" s="150"/>
-      <c r="AF15" s="150"/>
-      <c r="AG15" s="150"/>
-      <c r="AH15" s="151"/>
-    </row>
-    <row r="16" spans="1:57" x14ac:dyDescent="0.15">
-      <c r="C16" s="60"/>
-      <c r="D16" s="126"/>
-      <c r="E16" s="127"/>
-      <c r="F16" s="128"/>
-      <c r="G16" s="126"/>
-      <c r="H16" s="127"/>
-      <c r="I16" s="127"/>
-      <c r="J16" s="127"/>
-      <c r="K16" s="128"/>
-      <c r="L16" s="149"/>
-      <c r="M16" s="150"/>
-      <c r="N16" s="151"/>
-      <c r="O16" s="149"/>
-      <c r="P16" s="150"/>
-      <c r="Q16" s="150"/>
-      <c r="R16" s="150"/>
-      <c r="S16" s="151"/>
-      <c r="T16" s="149"/>
-      <c r="U16" s="150"/>
-      <c r="V16" s="150"/>
-      <c r="W16" s="150"/>
-      <c r="X16" s="150"/>
-      <c r="Y16" s="150"/>
-      <c r="Z16" s="150"/>
-      <c r="AA16" s="150"/>
-      <c r="AB16" s="150"/>
-      <c r="AC16" s="150"/>
-      <c r="AD16" s="150"/>
-      <c r="AE16" s="150"/>
-      <c r="AF16" s="150"/>
-      <c r="AG16" s="150"/>
-      <c r="AH16" s="151"/>
+    <row r="15" spans="1:57" s="7" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C15" s="60">
+        <f>C14+1</f>
+        <v>8</v>
+      </c>
+      <c r="D15" s="177"/>
+      <c r="E15" s="177"/>
+      <c r="F15" s="177"/>
+      <c r="G15" s="177"/>
+      <c r="H15" s="177"/>
+      <c r="I15" s="177"/>
+      <c r="J15" s="177"/>
+      <c r="K15" s="177"/>
+      <c r="L15" s="108" t="s">
+        <v>58</v>
+      </c>
+      <c r="M15" s="115"/>
+      <c r="N15" s="116"/>
+      <c r="O15" s="108" t="s">
+        <v>59</v>
+      </c>
+      <c r="P15" s="115"/>
+      <c r="Q15" s="115"/>
+      <c r="R15" s="115"/>
+      <c r="S15" s="116"/>
+      <c r="T15" s="109" t="s">
+        <v>60</v>
+      </c>
+      <c r="U15" s="104"/>
+      <c r="V15" s="104"/>
+      <c r="W15" s="104"/>
+      <c r="X15" s="104"/>
+      <c r="Y15" s="104"/>
+      <c r="Z15" s="104"/>
+      <c r="AA15" s="104"/>
+      <c r="AB15" s="104"/>
+      <c r="AC15" s="104"/>
+      <c r="AD15" s="104"/>
+      <c r="AE15" s="104"/>
+      <c r="AF15" s="104"/>
+      <c r="AG15" s="104"/>
+      <c r="AH15" s="105"/>
+      <c r="AL15" s="11"/>
+      <c r="AM15" s="11"/>
+      <c r="AN15" s="11"/>
+      <c r="AO15" s="11"/>
+      <c r="AP15" s="11"/>
+      <c r="AQ15" s="11"/>
+      <c r="AR15" s="11"/>
+      <c r="AS15" s="11"/>
+      <c r="AT15" s="11"/>
+      <c r="AU15" s="11"/>
+      <c r="AV15" s="11"/>
+      <c r="AW15" s="11"/>
+    </row>
+    <row r="16" spans="1:57" s="7" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C16" s="60">
+        <f>C15+1</f>
+        <v>9</v>
+      </c>
+      <c r="D16" s="177"/>
+      <c r="E16" s="177"/>
+      <c r="F16" s="177"/>
+      <c r="G16" s="177"/>
+      <c r="H16" s="177"/>
+      <c r="I16" s="177"/>
+      <c r="J16" s="177"/>
+      <c r="K16" s="177"/>
+      <c r="L16" s="108" t="s">
+        <v>64</v>
+      </c>
+      <c r="M16" s="115"/>
+      <c r="N16" s="116"/>
+      <c r="O16" s="108" t="s">
+        <v>65</v>
+      </c>
+      <c r="P16" s="115"/>
+      <c r="Q16" s="115"/>
+      <c r="R16" s="115"/>
+      <c r="S16" s="116"/>
+      <c r="T16" s="109" t="s">
+        <v>66</v>
+      </c>
+      <c r="U16" s="104"/>
+      <c r="V16" s="104"/>
+      <c r="W16" s="104"/>
+      <c r="X16" s="104"/>
+      <c r="Y16" s="104"/>
+      <c r="Z16" s="104"/>
+      <c r="AA16" s="104"/>
+      <c r="AB16" s="104"/>
+      <c r="AC16" s="104"/>
+      <c r="AD16" s="104"/>
+      <c r="AE16" s="104"/>
+      <c r="AF16" s="104"/>
+      <c r="AG16" s="104"/>
+      <c r="AH16" s="105"/>
+      <c r="AL16" s="11"/>
+      <c r="AM16" s="11"/>
+      <c r="AN16" s="11"/>
+      <c r="AO16" s="11"/>
+      <c r="AP16" s="11"/>
+      <c r="AQ16" s="11"/>
+      <c r="AR16" s="11"/>
+      <c r="AS16" s="11"/>
+      <c r="AT16" s="11"/>
+      <c r="AU16" s="11"/>
+      <c r="AV16" s="11"/>
+      <c r="AW16" s="11"/>
+    </row>
+    <row r="17" spans="3:49" s="7" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C17" s="60">
+        <f t="shared" ref="C17:C19" si="1">C16+1</f>
+        <v>10</v>
+      </c>
+      <c r="D17" s="177"/>
+      <c r="E17" s="177"/>
+      <c r="F17" s="177"/>
+      <c r="G17" s="177"/>
+      <c r="H17" s="177"/>
+      <c r="I17" s="177"/>
+      <c r="J17" s="177"/>
+      <c r="K17" s="177"/>
+      <c r="L17" s="83" t="s">
+        <v>68</v>
+      </c>
+      <c r="M17" s="84"/>
+      <c r="N17" s="85"/>
+      <c r="O17" s="83" t="s">
+        <v>71</v>
+      </c>
+      <c r="P17" s="84"/>
+      <c r="Q17" s="84"/>
+      <c r="R17" s="84"/>
+      <c r="S17" s="85"/>
+      <c r="T17" s="173" t="s">
+        <v>74</v>
+      </c>
+      <c r="U17" s="174"/>
+      <c r="V17" s="174"/>
+      <c r="W17" s="174"/>
+      <c r="X17" s="174"/>
+      <c r="Y17" s="174"/>
+      <c r="Z17" s="174"/>
+      <c r="AA17" s="174"/>
+      <c r="AB17" s="174"/>
+      <c r="AC17" s="174"/>
+      <c r="AD17" s="174"/>
+      <c r="AE17" s="174"/>
+      <c r="AF17" s="174"/>
+      <c r="AG17" s="174"/>
+      <c r="AH17" s="175"/>
+      <c r="AL17" s="11"/>
+      <c r="AM17" s="11"/>
+      <c r="AN17" s="11"/>
+      <c r="AO17" s="11"/>
+      <c r="AP17" s="11"/>
+      <c r="AQ17" s="11"/>
+      <c r="AR17" s="11"/>
+      <c r="AS17" s="11"/>
+      <c r="AT17" s="11"/>
+      <c r="AU17" s="11"/>
+      <c r="AV17" s="11"/>
+      <c r="AW17" s="11"/>
+    </row>
+    <row r="18" spans="3:49" s="7" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C18" s="60">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="D18" s="177"/>
+      <c r="E18" s="177"/>
+      <c r="F18" s="177"/>
+      <c r="G18" s="177"/>
+      <c r="H18" s="177"/>
+      <c r="I18" s="177"/>
+      <c r="J18" s="177"/>
+      <c r="K18" s="177"/>
+      <c r="L18" s="83" t="s">
+        <v>69</v>
+      </c>
+      <c r="M18" s="84"/>
+      <c r="N18" s="85"/>
+      <c r="O18" s="83" t="s">
+        <v>72</v>
+      </c>
+      <c r="P18" s="84"/>
+      <c r="Q18" s="84"/>
+      <c r="R18" s="84"/>
+      <c r="S18" s="85"/>
+      <c r="T18" s="173" t="s">
+        <v>75</v>
+      </c>
+      <c r="U18" s="174"/>
+      <c r="V18" s="174"/>
+      <c r="W18" s="174"/>
+      <c r="X18" s="174"/>
+      <c r="Y18" s="174"/>
+      <c r="Z18" s="174"/>
+      <c r="AA18" s="174"/>
+      <c r="AB18" s="174"/>
+      <c r="AC18" s="174"/>
+      <c r="AD18" s="174"/>
+      <c r="AE18" s="174"/>
+      <c r="AF18" s="174"/>
+      <c r="AG18" s="174"/>
+      <c r="AH18" s="175"/>
+      <c r="AL18" s="11"/>
+      <c r="AM18" s="11"/>
+      <c r="AN18" s="11"/>
+      <c r="AO18" s="11"/>
+      <c r="AP18" s="11"/>
+      <c r="AQ18" s="11"/>
+      <c r="AR18" s="11"/>
+      <c r="AS18" s="11"/>
+      <c r="AT18" s="11"/>
+      <c r="AU18" s="11"/>
+      <c r="AV18" s="11"/>
+      <c r="AW18" s="11"/>
+    </row>
+    <row r="19" spans="3:49" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C19" s="60">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="D19" s="177"/>
+      <c r="E19" s="177"/>
+      <c r="F19" s="177"/>
+      <c r="G19" s="177"/>
+      <c r="H19" s="177"/>
+      <c r="I19" s="177"/>
+      <c r="J19" s="177"/>
+      <c r="K19" s="177"/>
+      <c r="L19" s="108" t="s">
+        <v>70</v>
+      </c>
+      <c r="M19" s="115"/>
+      <c r="N19" s="116"/>
+      <c r="O19" s="108" t="s">
+        <v>73</v>
+      </c>
+      <c r="P19" s="115"/>
+      <c r="Q19" s="115"/>
+      <c r="R19" s="115"/>
+      <c r="S19" s="116"/>
+      <c r="T19" s="109" t="s">
+        <v>76</v>
+      </c>
+      <c r="U19" s="104"/>
+      <c r="V19" s="104"/>
+      <c r="W19" s="104"/>
+      <c r="X19" s="104"/>
+      <c r="Y19" s="104"/>
+      <c r="Z19" s="104"/>
+      <c r="AA19" s="104"/>
+      <c r="AB19" s="104"/>
+      <c r="AC19" s="104"/>
+      <c r="AD19" s="104"/>
+      <c r="AE19" s="104"/>
+      <c r="AF19" s="104"/>
+      <c r="AG19" s="104"/>
+      <c r="AH19" s="105"/>
+      <c r="AL19" s="11"/>
+      <c r="AM19" s="11"/>
+      <c r="AN19" s="11"/>
+      <c r="AO19" s="11"/>
+      <c r="AP19" s="11"/>
+      <c r="AQ19" s="11"/>
+      <c r="AR19" s="11"/>
+      <c r="AS19" s="11"/>
+      <c r="AT19" s="11"/>
+      <c r="AU19" s="11"/>
+      <c r="AV19" s="11"/>
+      <c r="AW19" s="11"/>
+    </row>
+    <row r="20" spans="3:49" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C20" s="86"/>
+      <c r="D20" s="87"/>
+      <c r="E20" s="87"/>
+      <c r="F20" s="87"/>
+      <c r="G20" s="87"/>
+      <c r="H20" s="87"/>
+      <c r="I20" s="87"/>
+      <c r="J20" s="87"/>
+      <c r="K20" s="87"/>
+      <c r="L20" s="88"/>
+      <c r="M20" s="88"/>
+      <c r="N20" s="88"/>
+      <c r="O20" s="88"/>
+      <c r="P20" s="88"/>
+      <c r="Q20" s="88"/>
+      <c r="R20" s="88"/>
+      <c r="S20" s="88"/>
+      <c r="T20" s="89"/>
+      <c r="U20" s="90"/>
+      <c r="V20" s="90"/>
+      <c r="W20" s="90"/>
+      <c r="X20" s="90"/>
+      <c r="Y20" s="90"/>
+      <c r="Z20" s="90"/>
+      <c r="AA20" s="90"/>
+      <c r="AB20" s="90"/>
+      <c r="AC20" s="90"/>
+      <c r="AD20" s="90"/>
+      <c r="AE20" s="90"/>
+      <c r="AF20" s="90"/>
+      <c r="AG20" s="90"/>
+      <c r="AH20" s="90"/>
+      <c r="AL20" s="11"/>
+      <c r="AM20" s="11"/>
+      <c r="AN20" s="11"/>
+      <c r="AO20" s="11"/>
+      <c r="AP20" s="11"/>
+      <c r="AQ20" s="11"/>
+      <c r="AR20" s="11"/>
+      <c r="AS20" s="11"/>
+      <c r="AT20" s="11"/>
+      <c r="AU20" s="11"/>
+      <c r="AV20" s="11"/>
+      <c r="AW20" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="57">
-    <mergeCell ref="D12:F14"/>
-    <mergeCell ref="G12:K14"/>
-    <mergeCell ref="T16:AH16"/>
-    <mergeCell ref="T7:AH7"/>
-    <mergeCell ref="T8:AH8"/>
-    <mergeCell ref="T9:AH9"/>
-    <mergeCell ref="T10:AH10"/>
-    <mergeCell ref="T11:AH11"/>
-    <mergeCell ref="T12:AH12"/>
-    <mergeCell ref="T13:AH13"/>
-    <mergeCell ref="T14:AH14"/>
+  <mergeCells count="58">
+    <mergeCell ref="L12:N12"/>
+    <mergeCell ref="L15:N15"/>
+    <mergeCell ref="O15:S15"/>
     <mergeCell ref="T15:AH15"/>
-    <mergeCell ref="O8:S8"/>
-    <mergeCell ref="O9:S9"/>
-    <mergeCell ref="O10:S10"/>
-    <mergeCell ref="O11:S11"/>
-    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="L16:N16"/>
+    <mergeCell ref="O16:S16"/>
+    <mergeCell ref="AA1:AB1"/>
     <mergeCell ref="AC3:AF3"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="E3:N3"/>
@@ -7461,38 +8003,49 @@
     <mergeCell ref="AC2:AF2"/>
     <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="D7:F7"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="D8:F11"/>
-    <mergeCell ref="G8:K11"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="D7:F7"/>
     <mergeCell ref="G7:K7"/>
     <mergeCell ref="L7:N7"/>
     <mergeCell ref="O7:S7"/>
+    <mergeCell ref="O8:S8"/>
+    <mergeCell ref="O9:S9"/>
+    <mergeCell ref="O10:S10"/>
+    <mergeCell ref="O11:S11"/>
+    <mergeCell ref="D8:F11"/>
+    <mergeCell ref="G8:K11"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="L10:N10"/>
+    <mergeCell ref="L8:N8"/>
+    <mergeCell ref="L11:N11"/>
+    <mergeCell ref="T7:AH7"/>
+    <mergeCell ref="T8:AH8"/>
+    <mergeCell ref="T9:AH9"/>
+    <mergeCell ref="T10:AH10"/>
+    <mergeCell ref="T11:AH11"/>
+    <mergeCell ref="T16:AH16"/>
+    <mergeCell ref="T17:AH17"/>
+    <mergeCell ref="T18:AH18"/>
+    <mergeCell ref="D12:F19"/>
+    <mergeCell ref="G12:K19"/>
+    <mergeCell ref="T12:AH12"/>
+    <mergeCell ref="T13:AH13"/>
+    <mergeCell ref="T14:AH14"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="O19:S19"/>
+    <mergeCell ref="T19:AH19"/>
+    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="L14:N14"/>
+    <mergeCell ref="O14:S14"/>
     <mergeCell ref="O12:S12"/>
     <mergeCell ref="O13:S13"/>
-    <mergeCell ref="O14:S14"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="L10:N10"/>
-    <mergeCell ref="L11:N11"/>
-    <mergeCell ref="L12:N12"/>
-    <mergeCell ref="O16:S16"/>
-    <mergeCell ref="O15:S15"/>
-    <mergeCell ref="G16:K16"/>
-    <mergeCell ref="L8:N8"/>
-    <mergeCell ref="L16:N16"/>
-    <mergeCell ref="L15:N15"/>
-    <mergeCell ref="G15:K15"/>
-    <mergeCell ref="L13:N13"/>
-    <mergeCell ref="L14:N14"/>
   </mergeCells>
-  <phoneticPr fontId="11"/>
+  <phoneticPr fontId="10"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" useFirstPageNumber="1" r:id="rId1"/>

--- a/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/010_要件定義/040_画面設計/画面一覧_A1_プロジェクト管理システム.xlsx
+++ b/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/010_要件定義/040_画面設計/画面一覧_A1_プロジェクト管理システム.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33A6982F-1620-4E5C-9372-231D02D83A4A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BD548D8-DB4B-4F79-B934-701CDE52555C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="195" yWindow="3120" windowWidth="38205" windowHeight="15090" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="30" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="84">
   <si>
     <t>PJ名</t>
   </si>
@@ -257,26 +257,7 @@
     <phoneticPr fontId="10"/>
   </si>
   <si>
-    <t>WA1010301</t>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
     <t>TOPメニュー</t>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <r>
-      <t>WA10104</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>01</t>
-    </r>
     <phoneticPr fontId="10"/>
   </si>
   <si>
@@ -459,32 +440,6 @@
     <phoneticPr fontId="10"/>
   </si>
   <si>
-    <t>発生したエラーの内容をユーザに表示する。
-(便宜上ログインに分類しているが、サブシステム内共通)</t>
-    <rPh sb="0" eb="2">
-      <t>ハッセイ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ベンギ</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>ジョウ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>ブンルイ</t>
-    </rPh>
-    <rPh sb="44" eb="45">
-      <t>ナイ</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>キョウツウ</t>
-    </rPh>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
     <t>ログインIDとパスワードを入力し、Form認証を行う。</t>
     <rPh sb="13" eb="15">
       <t>ニュウリョク</t>
@@ -653,21 +608,73 @@
     <phoneticPr fontId="10"/>
   </si>
   <si>
-    <t>第１．２版</t>
-    <rPh sb="0" eb="1">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ハン</t>
-    </rPh>
-    <phoneticPr fontId="38"/>
-  </si>
-  <si>
     <t>1.2版</t>
     <rPh sb="3" eb="4">
       <t>ハン</t>
     </rPh>
     <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>A103</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>共通</t>
+    <rPh sb="0" eb="2">
+      <t>キョウツウ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>WA1030101</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>WA1030201</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>発生したエラーの内容をユーザに表示する。</t>
+    <rPh sb="0" eb="2">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>1.3版</t>
+    <rPh sb="3" eb="4">
+      <t>ハン</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>TOPメニュー、汎用エラーを共通機能として分類</t>
+    <rPh sb="8" eb="10">
+      <t>ハンヨウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>キョウツウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ブンルイ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>第１．３版</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ハン</t>
+    </rPh>
+    <phoneticPr fontId="38"/>
   </si>
 </sst>
 </file>
@@ -1528,7 +1535,7 @@
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="217">
+  <cellXfs count="220">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
@@ -1738,24 +1745,216 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="31" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="10" xfId="45" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="11" xfId="45" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="12" xfId="45" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="10" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="11" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="12" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="13" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="14" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="15" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="19" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="22" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="16" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="17" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="18" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="11" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="25" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="178" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="178" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1789,200 +1988,125 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="25" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="10" xfId="45" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="11" xfId="45" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="12" xfId="45" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="10" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="11" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="12" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="13" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="14" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="15" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="19" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="22" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="16" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="17" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="18" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="11" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="13" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="14" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="15" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="19" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="0" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="22" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="16" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="17" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="18" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1999,122 +2123,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="13" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="14" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="15" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="19" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="0" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="22" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="16" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="17" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="18" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="48">
@@ -2979,7 +2995,7 @@
       <c r="G23" s="21"/>
       <c r="H23" s="21"/>
       <c r="J23" s="6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2991,12 +3007,12 @@
       <c r="F25" s="21"/>
       <c r="G25" s="21"/>
       <c r="H25" s="21"/>
-      <c r="I25" s="91">
+      <c r="I25" s="94">
         <f ca="1">IF(INDIRECT("変更履歴!D8")="","",MAX(INDIRECT("変更履歴!D8"):INDIRECT("変更履歴!F33")))</f>
-        <v>43895</v>
-      </c>
-      <c r="J25" s="91"/>
-      <c r="K25" s="91"/>
+        <v>44796</v>
+      </c>
+      <c r="J25" s="94"/>
+      <c r="K25" s="94"/>
     </row>
     <row r="26" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F26" s="21"/>
@@ -3586,7 +3602,7 @@
   <dimension ref="A1:AN33"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="Q12" sqref="Q12:AE12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -3595,57 +3611,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="139" t="s">
+      <c r="A1" s="101" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="140"/>
-      <c r="C1" s="140"/>
-      <c r="D1" s="141"/>
-      <c r="E1" s="142" t="s">
-        <v>45</v>
-      </c>
-      <c r="F1" s="143"/>
-      <c r="G1" s="143"/>
-      <c r="H1" s="143"/>
-      <c r="I1" s="143"/>
-      <c r="J1" s="143"/>
-      <c r="K1" s="143"/>
-      <c r="L1" s="143"/>
-      <c r="M1" s="143"/>
-      <c r="N1" s="144"/>
-      <c r="O1" s="148" t="s">
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="104" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="105"/>
+      <c r="K1" s="105"/>
+      <c r="L1" s="105"/>
+      <c r="M1" s="105"/>
+      <c r="N1" s="106"/>
+      <c r="O1" s="110" t="s">
         <v>17</v>
       </c>
-      <c r="P1" s="149"/>
-      <c r="Q1" s="149"/>
-      <c r="R1" s="150"/>
-      <c r="S1" s="157" t="s">
+      <c r="P1" s="111"/>
+      <c r="Q1" s="111"/>
+      <c r="R1" s="112"/>
+      <c r="S1" s="119" t="s">
         <v>23</v>
       </c>
-      <c r="T1" s="158"/>
-      <c r="U1" s="158"/>
-      <c r="V1" s="158"/>
-      <c r="W1" s="158"/>
-      <c r="X1" s="158"/>
-      <c r="Y1" s="158"/>
-      <c r="Z1" s="159"/>
-      <c r="AA1" s="139" t="s">
+      <c r="T1" s="120"/>
+      <c r="U1" s="120"/>
+      <c r="V1" s="120"/>
+      <c r="W1" s="120"/>
+      <c r="X1" s="120"/>
+      <c r="Y1" s="120"/>
+      <c r="Z1" s="121"/>
+      <c r="AA1" s="101" t="s">
         <v>18</v>
       </c>
-      <c r="AB1" s="141"/>
-      <c r="AC1" s="166" t="str">
+      <c r="AB1" s="103"/>
+      <c r="AC1" s="128" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="167"/>
-      <c r="AE1" s="167"/>
-      <c r="AF1" s="168"/>
-      <c r="AG1" s="133">
+      <c r="AD1" s="129"/>
+      <c r="AE1" s="129"/>
+      <c r="AF1" s="130"/>
+      <c r="AG1" s="95">
         <f>IF(D8="","",D8)</f>
         <v>43592</v>
       </c>
-      <c r="AH1" s="134"/>
-      <c r="AI1" s="135"/>
+      <c r="AH1" s="96"/>
+      <c r="AI1" s="97"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="1"/>
@@ -3653,53 +3669,53 @@
       <c r="AN1" s="2"/>
     </row>
     <row r="2" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="139" t="s">
+      <c r="A2" s="101" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="140"/>
-      <c r="C2" s="140"/>
-      <c r="D2" s="141"/>
-      <c r="E2" s="142" t="s">
-        <v>46</v>
-      </c>
-      <c r="F2" s="143"/>
-      <c r="G2" s="143"/>
-      <c r="H2" s="143"/>
-      <c r="I2" s="143"/>
-      <c r="J2" s="143"/>
-      <c r="K2" s="143"/>
-      <c r="L2" s="143"/>
-      <c r="M2" s="143"/>
-      <c r="N2" s="144"/>
-      <c r="O2" s="151"/>
-      <c r="P2" s="152"/>
-      <c r="Q2" s="152"/>
-      <c r="R2" s="153"/>
-      <c r="S2" s="160"/>
-      <c r="T2" s="161"/>
-      <c r="U2" s="161"/>
-      <c r="V2" s="161"/>
-      <c r="W2" s="161"/>
-      <c r="X2" s="161"/>
-      <c r="Y2" s="161"/>
-      <c r="Z2" s="162"/>
-      <c r="AA2" s="139" t="s">
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="104" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="105"/>
+      <c r="G2" s="105"/>
+      <c r="H2" s="105"/>
+      <c r="I2" s="105"/>
+      <c r="J2" s="105"/>
+      <c r="K2" s="105"/>
+      <c r="L2" s="105"/>
+      <c r="M2" s="105"/>
+      <c r="N2" s="106"/>
+      <c r="O2" s="113"/>
+      <c r="P2" s="114"/>
+      <c r="Q2" s="114"/>
+      <c r="R2" s="115"/>
+      <c r="S2" s="122"/>
+      <c r="T2" s="123"/>
+      <c r="U2" s="123"/>
+      <c r="V2" s="123"/>
+      <c r="W2" s="123"/>
+      <c r="X2" s="123"/>
+      <c r="Y2" s="123"/>
+      <c r="Z2" s="124"/>
+      <c r="AA2" s="101" t="s">
         <v>19</v>
       </c>
-      <c r="AB2" s="141"/>
-      <c r="AC2" s="145" t="str">
+      <c r="AB2" s="103"/>
+      <c r="AC2" s="107" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="146"/>
-      <c r="AE2" s="146"/>
-      <c r="AF2" s="147"/>
-      <c r="AG2" s="133">
+      <c r="AD2" s="108"/>
+      <c r="AE2" s="108"/>
+      <c r="AF2" s="109"/>
+      <c r="AG2" s="95">
         <f>IF(D9="","",MAX(D9:F33))</f>
-        <v>43895</v>
-      </c>
-      <c r="AH2" s="134"/>
-      <c r="AI2" s="135"/>
+        <v>44796</v>
+      </c>
+      <c r="AH2" s="96"/>
+      <c r="AI2" s="97"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
@@ -3707,45 +3723,45 @@
       <c r="AN2" s="1"/>
     </row>
     <row r="3" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="139" t="s">
+      <c r="A3" s="101" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="140"/>
-      <c r="C3" s="140"/>
-      <c r="D3" s="141"/>
-      <c r="E3" s="142" t="s">
-        <v>54</v>
-      </c>
-      <c r="F3" s="143"/>
-      <c r="G3" s="143"/>
-      <c r="H3" s="143"/>
-      <c r="I3" s="143"/>
-      <c r="J3" s="143"/>
-      <c r="K3" s="143"/>
-      <c r="L3" s="143"/>
-      <c r="M3" s="143"/>
-      <c r="N3" s="144"/>
-      <c r="O3" s="154"/>
-      <c r="P3" s="155"/>
-      <c r="Q3" s="155"/>
-      <c r="R3" s="156"/>
-      <c r="S3" s="163"/>
-      <c r="T3" s="164"/>
-      <c r="U3" s="164"/>
-      <c r="V3" s="164"/>
-      <c r="W3" s="164"/>
-      <c r="X3" s="164"/>
-      <c r="Y3" s="164"/>
-      <c r="Z3" s="165"/>
-      <c r="AA3" s="139"/>
-      <c r="AB3" s="141"/>
-      <c r="AC3" s="166"/>
-      <c r="AD3" s="167"/>
-      <c r="AE3" s="167"/>
-      <c r="AF3" s="168"/>
-      <c r="AG3" s="133"/>
-      <c r="AH3" s="134"/>
-      <c r="AI3" s="135"/>
+      <c r="B3" s="102"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="104" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" s="105"/>
+      <c r="G3" s="105"/>
+      <c r="H3" s="105"/>
+      <c r="I3" s="105"/>
+      <c r="J3" s="105"/>
+      <c r="K3" s="105"/>
+      <c r="L3" s="105"/>
+      <c r="M3" s="105"/>
+      <c r="N3" s="106"/>
+      <c r="O3" s="116"/>
+      <c r="P3" s="117"/>
+      <c r="Q3" s="117"/>
+      <c r="R3" s="118"/>
+      <c r="S3" s="125"/>
+      <c r="T3" s="126"/>
+      <c r="U3" s="126"/>
+      <c r="V3" s="126"/>
+      <c r="W3" s="126"/>
+      <c r="X3" s="126"/>
+      <c r="Y3" s="126"/>
+      <c r="Z3" s="127"/>
+      <c r="AA3" s="101"/>
+      <c r="AB3" s="103"/>
+      <c r="AC3" s="128"/>
+      <c r="AD3" s="129"/>
+      <c r="AE3" s="129"/>
+      <c r="AF3" s="130"/>
+      <c r="AG3" s="95"/>
+      <c r="AH3" s="96"/>
+      <c r="AI3" s="97"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
@@ -3782,1059 +3798,1229 @@
       <c r="A7" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="136" t="s">
+      <c r="B7" s="98" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="137"/>
-      <c r="D7" s="136" t="s">
+      <c r="C7" s="99"/>
+      <c r="D7" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="138"/>
-      <c r="F7" s="137"/>
-      <c r="G7" s="136" t="s">
+      <c r="E7" s="100"/>
+      <c r="F7" s="99"/>
+      <c r="G7" s="98" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="138"/>
-      <c r="I7" s="137"/>
-      <c r="J7" s="136" t="s">
+      <c r="H7" s="100"/>
+      <c r="I7" s="99"/>
+      <c r="J7" s="98" t="s">
         <v>26</v>
       </c>
-      <c r="K7" s="138"/>
-      <c r="L7" s="138"/>
-      <c r="M7" s="138"/>
-      <c r="N7" s="138"/>
-      <c r="O7" s="138"/>
-      <c r="P7" s="137"/>
-      <c r="Q7" s="136" t="s">
+      <c r="K7" s="100"/>
+      <c r="L7" s="100"/>
+      <c r="M7" s="100"/>
+      <c r="N7" s="100"/>
+      <c r="O7" s="100"/>
+      <c r="P7" s="99"/>
+      <c r="Q7" s="98" t="s">
         <v>9</v>
       </c>
-      <c r="R7" s="138"/>
-      <c r="S7" s="138"/>
-      <c r="T7" s="138"/>
-      <c r="U7" s="138"/>
-      <c r="V7" s="138"/>
-      <c r="W7" s="138"/>
-      <c r="X7" s="138"/>
-      <c r="Y7" s="138"/>
-      <c r="Z7" s="138"/>
-      <c r="AA7" s="138"/>
-      <c r="AB7" s="138"/>
-      <c r="AC7" s="138"/>
-      <c r="AD7" s="138"/>
-      <c r="AE7" s="137"/>
-      <c r="AF7" s="136" t="s">
+      <c r="R7" s="100"/>
+      <c r="S7" s="100"/>
+      <c r="T7" s="100"/>
+      <c r="U7" s="100"/>
+      <c r="V7" s="100"/>
+      <c r="W7" s="100"/>
+      <c r="X7" s="100"/>
+      <c r="Y7" s="100"/>
+      <c r="Z7" s="100"/>
+      <c r="AA7" s="100"/>
+      <c r="AB7" s="100"/>
+      <c r="AC7" s="100"/>
+      <c r="AD7" s="100"/>
+      <c r="AE7" s="99"/>
+      <c r="AF7" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="AG7" s="138"/>
-      <c r="AH7" s="138"/>
-      <c r="AI7" s="137"/>
+      <c r="AG7" s="100"/>
+      <c r="AH7" s="100"/>
+      <c r="AI7" s="99"/>
     </row>
     <row r="8" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="81">
         <v>1</v>
       </c>
-      <c r="B8" s="119">
+      <c r="B8" s="145">
         <v>1</v>
       </c>
-      <c r="C8" s="120"/>
-      <c r="D8" s="121">
+      <c r="C8" s="146"/>
+      <c r="D8" s="147">
         <v>43592</v>
       </c>
-      <c r="E8" s="122"/>
-      <c r="F8" s="123"/>
-      <c r="G8" s="124" t="s">
+      <c r="E8" s="148"/>
+      <c r="F8" s="149"/>
+      <c r="G8" s="150" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" s="151"/>
+      <c r="I8" s="152"/>
+      <c r="J8" s="153" t="s">
+        <v>46</v>
+      </c>
+      <c r="K8" s="154"/>
+      <c r="L8" s="154"/>
+      <c r="M8" s="154"/>
+      <c r="N8" s="154"/>
+      <c r="O8" s="154"/>
+      <c r="P8" s="155"/>
+      <c r="Q8" s="156" t="s">
         <v>47</v>
       </c>
-      <c r="H8" s="125"/>
-      <c r="I8" s="126"/>
-      <c r="J8" s="127" t="s">
-        <v>48</v>
-      </c>
-      <c r="K8" s="128"/>
-      <c r="L8" s="128"/>
-      <c r="M8" s="128"/>
-      <c r="N8" s="128"/>
-      <c r="O8" s="128"/>
-      <c r="P8" s="129"/>
-      <c r="Q8" s="130" t="s">
-        <v>49</v>
-      </c>
-      <c r="R8" s="131"/>
-      <c r="S8" s="131"/>
-      <c r="T8" s="131"/>
-      <c r="U8" s="131"/>
-      <c r="V8" s="131"/>
-      <c r="W8" s="131"/>
-      <c r="X8" s="131"/>
-      <c r="Y8" s="131"/>
-      <c r="Z8" s="131"/>
-      <c r="AA8" s="131"/>
-      <c r="AB8" s="131"/>
-      <c r="AC8" s="131"/>
-      <c r="AD8" s="131"/>
-      <c r="AE8" s="132"/>
-      <c r="AF8" s="127" t="s">
-        <v>55</v>
-      </c>
-      <c r="AG8" s="128"/>
-      <c r="AH8" s="128"/>
-      <c r="AI8" s="129"/>
+      <c r="R8" s="157"/>
+      <c r="S8" s="157"/>
+      <c r="T8" s="157"/>
+      <c r="U8" s="157"/>
+      <c r="V8" s="157"/>
+      <c r="W8" s="157"/>
+      <c r="X8" s="157"/>
+      <c r="Y8" s="157"/>
+      <c r="Z8" s="157"/>
+      <c r="AA8" s="157"/>
+      <c r="AB8" s="157"/>
+      <c r="AC8" s="157"/>
+      <c r="AD8" s="157"/>
+      <c r="AE8" s="158"/>
+      <c r="AF8" s="153" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG8" s="154"/>
+      <c r="AH8" s="154"/>
+      <c r="AI8" s="155"/>
     </row>
     <row r="9" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="60">
         <v>2</v>
       </c>
-      <c r="B9" s="110">
+      <c r="B9" s="131">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C9" s="111"/>
-      <c r="D9" s="94">
+      <c r="C9" s="132"/>
+      <c r="D9" s="133">
         <v>43803</v>
       </c>
-      <c r="E9" s="95"/>
-      <c r="F9" s="96"/>
-      <c r="G9" s="112" t="s">
-        <v>62</v>
-      </c>
-      <c r="H9" s="113"/>
-      <c r="I9" s="114"/>
-      <c r="J9" s="108" t="s">
-        <v>63</v>
-      </c>
-      <c r="K9" s="115"/>
-      <c r="L9" s="115"/>
-      <c r="M9" s="115"/>
-      <c r="N9" s="115"/>
-      <c r="O9" s="115"/>
-      <c r="P9" s="116"/>
-      <c r="Q9" s="109" t="s">
-        <v>67</v>
-      </c>
-      <c r="R9" s="117"/>
-      <c r="S9" s="117"/>
-      <c r="T9" s="117"/>
-      <c r="U9" s="117"/>
-      <c r="V9" s="117"/>
-      <c r="W9" s="117"/>
-      <c r="X9" s="117"/>
-      <c r="Y9" s="117"/>
-      <c r="Z9" s="117"/>
-      <c r="AA9" s="117"/>
-      <c r="AB9" s="117"/>
-      <c r="AC9" s="117"/>
-      <c r="AD9" s="117"/>
-      <c r="AE9" s="118"/>
-      <c r="AF9" s="108" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG9" s="115"/>
-      <c r="AH9" s="115"/>
-      <c r="AI9" s="116"/>
+      <c r="E9" s="134"/>
+      <c r="F9" s="135"/>
+      <c r="G9" s="136" t="s">
+        <v>59</v>
+      </c>
+      <c r="H9" s="137"/>
+      <c r="I9" s="138"/>
+      <c r="J9" s="139" t="s">
+        <v>60</v>
+      </c>
+      <c r="K9" s="140"/>
+      <c r="L9" s="140"/>
+      <c r="M9" s="140"/>
+      <c r="N9" s="140"/>
+      <c r="O9" s="140"/>
+      <c r="P9" s="141"/>
+      <c r="Q9" s="142" t="s">
+        <v>64</v>
+      </c>
+      <c r="R9" s="143"/>
+      <c r="S9" s="143"/>
+      <c r="T9" s="143"/>
+      <c r="U9" s="143"/>
+      <c r="V9" s="143"/>
+      <c r="W9" s="143"/>
+      <c r="X9" s="143"/>
+      <c r="Y9" s="143"/>
+      <c r="Z9" s="143"/>
+      <c r="AA9" s="143"/>
+      <c r="AB9" s="143"/>
+      <c r="AC9" s="143"/>
+      <c r="AD9" s="143"/>
+      <c r="AE9" s="144"/>
+      <c r="AF9" s="139" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG9" s="140"/>
+      <c r="AH9" s="140"/>
+      <c r="AI9" s="141"/>
     </row>
     <row r="10" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="60">
         <v>3</v>
       </c>
-      <c r="B10" s="106" t="s">
-        <v>79</v>
-      </c>
-      <c r="C10" s="93"/>
-      <c r="D10" s="94">
+      <c r="B10" s="170" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" s="160"/>
+      <c r="D10" s="133">
         <v>43895</v>
       </c>
-      <c r="E10" s="95"/>
-      <c r="F10" s="96"/>
-      <c r="G10" s="107" t="s">
+      <c r="E10" s="134"/>
+      <c r="F10" s="135"/>
+      <c r="G10" s="171" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="98"/>
-      <c r="I10" s="99"/>
-      <c r="J10" s="108" t="s">
-        <v>63</v>
-      </c>
-      <c r="K10" s="101"/>
-      <c r="L10" s="101"/>
-      <c r="M10" s="101"/>
-      <c r="N10" s="101"/>
-      <c r="O10" s="101"/>
-      <c r="P10" s="102"/>
-      <c r="Q10" s="109" t="s">
-        <v>77</v>
-      </c>
-      <c r="R10" s="104"/>
-      <c r="S10" s="104"/>
-      <c r="T10" s="104"/>
-      <c r="U10" s="104"/>
-      <c r="V10" s="104"/>
-      <c r="W10" s="104"/>
-      <c r="X10" s="104"/>
-      <c r="Y10" s="104"/>
-      <c r="Z10" s="104"/>
-      <c r="AA10" s="104"/>
-      <c r="AB10" s="104"/>
-      <c r="AC10" s="104"/>
-      <c r="AD10" s="104"/>
-      <c r="AE10" s="105"/>
-      <c r="AF10" s="108" t="s">
-        <v>55</v>
-      </c>
-      <c r="AG10" s="101"/>
-      <c r="AH10" s="101"/>
-      <c r="AI10" s="102"/>
+      <c r="H10" s="162"/>
+      <c r="I10" s="163"/>
+      <c r="J10" s="139" t="s">
+        <v>60</v>
+      </c>
+      <c r="K10" s="165"/>
+      <c r="L10" s="165"/>
+      <c r="M10" s="165"/>
+      <c r="N10" s="165"/>
+      <c r="O10" s="165"/>
+      <c r="P10" s="166"/>
+      <c r="Q10" s="142" t="s">
+        <v>74</v>
+      </c>
+      <c r="R10" s="168"/>
+      <c r="S10" s="168"/>
+      <c r="T10" s="168"/>
+      <c r="U10" s="168"/>
+      <c r="V10" s="168"/>
+      <c r="W10" s="168"/>
+      <c r="X10" s="168"/>
+      <c r="Y10" s="168"/>
+      <c r="Z10" s="168"/>
+      <c r="AA10" s="168"/>
+      <c r="AB10" s="168"/>
+      <c r="AC10" s="168"/>
+      <c r="AD10" s="168"/>
+      <c r="AE10" s="169"/>
+      <c r="AF10" s="139" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG10" s="165"/>
+      <c r="AH10" s="165"/>
+      <c r="AI10" s="166"/>
     </row>
     <row r="11" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="60"/>
-      <c r="B11" s="92"/>
-      <c r="C11" s="93"/>
-      <c r="D11" s="94"/>
-      <c r="E11" s="95"/>
-      <c r="F11" s="96"/>
-      <c r="G11" s="97"/>
-      <c r="H11" s="98"/>
-      <c r="I11" s="99"/>
-      <c r="J11" s="100"/>
-      <c r="K11" s="101"/>
-      <c r="L11" s="101"/>
-      <c r="M11" s="101"/>
-      <c r="N11" s="101"/>
-      <c r="O11" s="101"/>
-      <c r="P11" s="102"/>
-      <c r="Q11" s="103"/>
-      <c r="R11" s="104"/>
-      <c r="S11" s="104"/>
-      <c r="T11" s="104"/>
-      <c r="U11" s="104"/>
-      <c r="V11" s="104"/>
-      <c r="W11" s="104"/>
-      <c r="X11" s="104"/>
-      <c r="Y11" s="104"/>
-      <c r="Z11" s="104"/>
-      <c r="AA11" s="104"/>
-      <c r="AB11" s="104"/>
-      <c r="AC11" s="104"/>
-      <c r="AD11" s="104"/>
-      <c r="AE11" s="105"/>
-      <c r="AF11" s="100"/>
-      <c r="AG11" s="101"/>
-      <c r="AH11" s="101"/>
-      <c r="AI11" s="102"/>
+      <c r="A11" s="60">
+        <v>4</v>
+      </c>
+      <c r="B11" s="170" t="s">
+        <v>81</v>
+      </c>
+      <c r="C11" s="160"/>
+      <c r="D11" s="133">
+        <v>44796</v>
+      </c>
+      <c r="E11" s="134"/>
+      <c r="F11" s="135"/>
+      <c r="G11" s="171" t="s">
+        <v>4</v>
+      </c>
+      <c r="H11" s="162"/>
+      <c r="I11" s="163"/>
+      <c r="J11" s="139" t="s">
+        <v>60</v>
+      </c>
+      <c r="K11" s="165"/>
+      <c r="L11" s="165"/>
+      <c r="M11" s="165"/>
+      <c r="N11" s="165"/>
+      <c r="O11" s="165"/>
+      <c r="P11" s="166"/>
+      <c r="Q11" s="142" t="s">
+        <v>82</v>
+      </c>
+      <c r="R11" s="168"/>
+      <c r="S11" s="168"/>
+      <c r="T11" s="168"/>
+      <c r="U11" s="168"/>
+      <c r="V11" s="168"/>
+      <c r="W11" s="168"/>
+      <c r="X11" s="168"/>
+      <c r="Y11" s="168"/>
+      <c r="Z11" s="168"/>
+      <c r="AA11" s="168"/>
+      <c r="AB11" s="168"/>
+      <c r="AC11" s="168"/>
+      <c r="AD11" s="168"/>
+      <c r="AE11" s="169"/>
+      <c r="AF11" s="139" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG11" s="165"/>
+      <c r="AH11" s="165"/>
+      <c r="AI11" s="166"/>
     </row>
     <row r="12" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="60"/>
-      <c r="B12" s="92"/>
-      <c r="C12" s="93"/>
-      <c r="D12" s="94"/>
-      <c r="E12" s="95"/>
-      <c r="F12" s="96"/>
-      <c r="G12" s="97"/>
-      <c r="H12" s="98"/>
-      <c r="I12" s="99"/>
-      <c r="J12" s="100"/>
-      <c r="K12" s="101"/>
-      <c r="L12" s="101"/>
-      <c r="M12" s="101"/>
-      <c r="N12" s="101"/>
-      <c r="O12" s="101"/>
-      <c r="P12" s="102"/>
-      <c r="Q12" s="103"/>
-      <c r="R12" s="104"/>
-      <c r="S12" s="104"/>
-      <c r="T12" s="104"/>
-      <c r="U12" s="104"/>
-      <c r="V12" s="104"/>
-      <c r="W12" s="104"/>
-      <c r="X12" s="104"/>
-      <c r="Y12" s="104"/>
-      <c r="Z12" s="104"/>
-      <c r="AA12" s="104"/>
-      <c r="AB12" s="104"/>
-      <c r="AC12" s="104"/>
-      <c r="AD12" s="104"/>
-      <c r="AE12" s="105"/>
-      <c r="AF12" s="100"/>
-      <c r="AG12" s="101"/>
-      <c r="AH12" s="101"/>
-      <c r="AI12" s="102"/>
+      <c r="B12" s="159"/>
+      <c r="C12" s="160"/>
+      <c r="D12" s="133"/>
+      <c r="E12" s="134"/>
+      <c r="F12" s="135"/>
+      <c r="G12" s="161"/>
+      <c r="H12" s="162"/>
+      <c r="I12" s="163"/>
+      <c r="J12" s="164"/>
+      <c r="K12" s="165"/>
+      <c r="L12" s="165"/>
+      <c r="M12" s="165"/>
+      <c r="N12" s="165"/>
+      <c r="O12" s="165"/>
+      <c r="P12" s="166"/>
+      <c r="Q12" s="167"/>
+      <c r="R12" s="168"/>
+      <c r="S12" s="168"/>
+      <c r="T12" s="168"/>
+      <c r="U12" s="168"/>
+      <c r="V12" s="168"/>
+      <c r="W12" s="168"/>
+      <c r="X12" s="168"/>
+      <c r="Y12" s="168"/>
+      <c r="Z12" s="168"/>
+      <c r="AA12" s="168"/>
+      <c r="AB12" s="168"/>
+      <c r="AC12" s="168"/>
+      <c r="AD12" s="168"/>
+      <c r="AE12" s="169"/>
+      <c r="AF12" s="164"/>
+      <c r="AG12" s="165"/>
+      <c r="AH12" s="165"/>
+      <c r="AI12" s="166"/>
     </row>
     <row r="13" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="60"/>
-      <c r="B13" s="92"/>
-      <c r="C13" s="93"/>
-      <c r="D13" s="94"/>
-      <c r="E13" s="95"/>
-      <c r="F13" s="96"/>
-      <c r="G13" s="97"/>
-      <c r="H13" s="98"/>
-      <c r="I13" s="99"/>
-      <c r="J13" s="100"/>
-      <c r="K13" s="101"/>
-      <c r="L13" s="101"/>
-      <c r="M13" s="101"/>
-      <c r="N13" s="101"/>
-      <c r="O13" s="101"/>
-      <c r="P13" s="102"/>
-      <c r="Q13" s="103"/>
-      <c r="R13" s="104"/>
-      <c r="S13" s="104"/>
-      <c r="T13" s="104"/>
-      <c r="U13" s="104"/>
-      <c r="V13" s="104"/>
-      <c r="W13" s="104"/>
-      <c r="X13" s="104"/>
-      <c r="Y13" s="104"/>
-      <c r="Z13" s="104"/>
-      <c r="AA13" s="104"/>
-      <c r="AB13" s="104"/>
-      <c r="AC13" s="104"/>
-      <c r="AD13" s="104"/>
-      <c r="AE13" s="105"/>
-      <c r="AF13" s="100"/>
-      <c r="AG13" s="101"/>
-      <c r="AH13" s="101"/>
-      <c r="AI13" s="102"/>
+      <c r="B13" s="159"/>
+      <c r="C13" s="160"/>
+      <c r="D13" s="133"/>
+      <c r="E13" s="134"/>
+      <c r="F13" s="135"/>
+      <c r="G13" s="161"/>
+      <c r="H13" s="162"/>
+      <c r="I13" s="163"/>
+      <c r="J13" s="164"/>
+      <c r="K13" s="165"/>
+      <c r="L13" s="165"/>
+      <c r="M13" s="165"/>
+      <c r="N13" s="165"/>
+      <c r="O13" s="165"/>
+      <c r="P13" s="166"/>
+      <c r="Q13" s="167"/>
+      <c r="R13" s="168"/>
+      <c r="S13" s="168"/>
+      <c r="T13" s="168"/>
+      <c r="U13" s="168"/>
+      <c r="V13" s="168"/>
+      <c r="W13" s="168"/>
+      <c r="X13" s="168"/>
+      <c r="Y13" s="168"/>
+      <c r="Z13" s="168"/>
+      <c r="AA13" s="168"/>
+      <c r="AB13" s="168"/>
+      <c r="AC13" s="168"/>
+      <c r="AD13" s="168"/>
+      <c r="AE13" s="169"/>
+      <c r="AF13" s="164"/>
+      <c r="AG13" s="165"/>
+      <c r="AH13" s="165"/>
+      <c r="AI13" s="166"/>
     </row>
     <row r="14" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="60"/>
-      <c r="B14" s="92"/>
-      <c r="C14" s="93"/>
-      <c r="D14" s="94"/>
-      <c r="E14" s="95"/>
-      <c r="F14" s="96"/>
-      <c r="G14" s="97"/>
-      <c r="H14" s="98"/>
-      <c r="I14" s="99"/>
-      <c r="J14" s="100"/>
-      <c r="K14" s="101"/>
-      <c r="L14" s="101"/>
-      <c r="M14" s="101"/>
-      <c r="N14" s="101"/>
-      <c r="O14" s="101"/>
-      <c r="P14" s="102"/>
-      <c r="Q14" s="103"/>
-      <c r="R14" s="104"/>
-      <c r="S14" s="104"/>
-      <c r="T14" s="104"/>
-      <c r="U14" s="104"/>
-      <c r="V14" s="104"/>
-      <c r="W14" s="104"/>
-      <c r="X14" s="104"/>
-      <c r="Y14" s="104"/>
-      <c r="Z14" s="104"/>
-      <c r="AA14" s="104"/>
-      <c r="AB14" s="104"/>
-      <c r="AC14" s="104"/>
-      <c r="AD14" s="104"/>
-      <c r="AE14" s="105"/>
-      <c r="AF14" s="100"/>
-      <c r="AG14" s="101"/>
-      <c r="AH14" s="101"/>
-      <c r="AI14" s="102"/>
+      <c r="B14" s="159"/>
+      <c r="C14" s="160"/>
+      <c r="D14" s="133"/>
+      <c r="E14" s="134"/>
+      <c r="F14" s="135"/>
+      <c r="G14" s="161"/>
+      <c r="H14" s="162"/>
+      <c r="I14" s="163"/>
+      <c r="J14" s="164"/>
+      <c r="K14" s="165"/>
+      <c r="L14" s="165"/>
+      <c r="M14" s="165"/>
+      <c r="N14" s="165"/>
+      <c r="O14" s="165"/>
+      <c r="P14" s="166"/>
+      <c r="Q14" s="167"/>
+      <c r="R14" s="168"/>
+      <c r="S14" s="168"/>
+      <c r="T14" s="168"/>
+      <c r="U14" s="168"/>
+      <c r="V14" s="168"/>
+      <c r="W14" s="168"/>
+      <c r="X14" s="168"/>
+      <c r="Y14" s="168"/>
+      <c r="Z14" s="168"/>
+      <c r="AA14" s="168"/>
+      <c r="AB14" s="168"/>
+      <c r="AC14" s="168"/>
+      <c r="AD14" s="168"/>
+      <c r="AE14" s="169"/>
+      <c r="AF14" s="164"/>
+      <c r="AG14" s="165"/>
+      <c r="AH14" s="165"/>
+      <c r="AI14" s="166"/>
     </row>
     <row r="15" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="60"/>
-      <c r="B15" s="92"/>
-      <c r="C15" s="93"/>
-      <c r="D15" s="94"/>
-      <c r="E15" s="95"/>
-      <c r="F15" s="96"/>
-      <c r="G15" s="97"/>
-      <c r="H15" s="98"/>
-      <c r="I15" s="99"/>
-      <c r="J15" s="100"/>
-      <c r="K15" s="101"/>
-      <c r="L15" s="101"/>
-      <c r="M15" s="101"/>
-      <c r="N15" s="101"/>
-      <c r="O15" s="101"/>
-      <c r="P15" s="102"/>
-      <c r="Q15" s="103"/>
-      <c r="R15" s="104"/>
-      <c r="S15" s="104"/>
-      <c r="T15" s="104"/>
-      <c r="U15" s="104"/>
-      <c r="V15" s="104"/>
-      <c r="W15" s="104"/>
-      <c r="X15" s="104"/>
-      <c r="Y15" s="104"/>
-      <c r="Z15" s="104"/>
-      <c r="AA15" s="104"/>
-      <c r="AB15" s="104"/>
-      <c r="AC15" s="104"/>
-      <c r="AD15" s="104"/>
-      <c r="AE15" s="105"/>
-      <c r="AF15" s="100"/>
-      <c r="AG15" s="101"/>
-      <c r="AH15" s="101"/>
-      <c r="AI15" s="102"/>
+      <c r="B15" s="159"/>
+      <c r="C15" s="160"/>
+      <c r="D15" s="133"/>
+      <c r="E15" s="134"/>
+      <c r="F15" s="135"/>
+      <c r="G15" s="161"/>
+      <c r="H15" s="162"/>
+      <c r="I15" s="163"/>
+      <c r="J15" s="164"/>
+      <c r="K15" s="165"/>
+      <c r="L15" s="165"/>
+      <c r="M15" s="165"/>
+      <c r="N15" s="165"/>
+      <c r="O15" s="165"/>
+      <c r="P15" s="166"/>
+      <c r="Q15" s="167"/>
+      <c r="R15" s="168"/>
+      <c r="S15" s="168"/>
+      <c r="T15" s="168"/>
+      <c r="U15" s="168"/>
+      <c r="V15" s="168"/>
+      <c r="W15" s="168"/>
+      <c r="X15" s="168"/>
+      <c r="Y15" s="168"/>
+      <c r="Z15" s="168"/>
+      <c r="AA15" s="168"/>
+      <c r="AB15" s="168"/>
+      <c r="AC15" s="168"/>
+      <c r="AD15" s="168"/>
+      <c r="AE15" s="169"/>
+      <c r="AF15" s="164"/>
+      <c r="AG15" s="165"/>
+      <c r="AH15" s="165"/>
+      <c r="AI15" s="166"/>
     </row>
     <row r="16" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="60"/>
-      <c r="B16" s="92"/>
-      <c r="C16" s="93"/>
-      <c r="D16" s="94"/>
-      <c r="E16" s="95"/>
-      <c r="F16" s="96"/>
-      <c r="G16" s="97"/>
-      <c r="H16" s="98"/>
-      <c r="I16" s="99"/>
-      <c r="J16" s="100"/>
-      <c r="K16" s="101"/>
-      <c r="L16" s="101"/>
-      <c r="M16" s="101"/>
-      <c r="N16" s="101"/>
-      <c r="O16" s="101"/>
-      <c r="P16" s="102"/>
-      <c r="Q16" s="103"/>
-      <c r="R16" s="104"/>
-      <c r="S16" s="104"/>
-      <c r="T16" s="104"/>
-      <c r="U16" s="104"/>
-      <c r="V16" s="104"/>
-      <c r="W16" s="104"/>
-      <c r="X16" s="104"/>
-      <c r="Y16" s="104"/>
-      <c r="Z16" s="104"/>
-      <c r="AA16" s="104"/>
-      <c r="AB16" s="104"/>
-      <c r="AC16" s="104"/>
-      <c r="AD16" s="104"/>
-      <c r="AE16" s="105"/>
-      <c r="AF16" s="100"/>
-      <c r="AG16" s="101"/>
-      <c r="AH16" s="101"/>
-      <c r="AI16" s="102"/>
+      <c r="B16" s="159"/>
+      <c r="C16" s="160"/>
+      <c r="D16" s="133"/>
+      <c r="E16" s="134"/>
+      <c r="F16" s="135"/>
+      <c r="G16" s="161"/>
+      <c r="H16" s="162"/>
+      <c r="I16" s="163"/>
+      <c r="J16" s="164"/>
+      <c r="K16" s="165"/>
+      <c r="L16" s="165"/>
+      <c r="M16" s="165"/>
+      <c r="N16" s="165"/>
+      <c r="O16" s="165"/>
+      <c r="P16" s="166"/>
+      <c r="Q16" s="167"/>
+      <c r="R16" s="168"/>
+      <c r="S16" s="168"/>
+      <c r="T16" s="168"/>
+      <c r="U16" s="168"/>
+      <c r="V16" s="168"/>
+      <c r="W16" s="168"/>
+      <c r="X16" s="168"/>
+      <c r="Y16" s="168"/>
+      <c r="Z16" s="168"/>
+      <c r="AA16" s="168"/>
+      <c r="AB16" s="168"/>
+      <c r="AC16" s="168"/>
+      <c r="AD16" s="168"/>
+      <c r="AE16" s="169"/>
+      <c r="AF16" s="164"/>
+      <c r="AG16" s="165"/>
+      <c r="AH16" s="165"/>
+      <c r="AI16" s="166"/>
     </row>
     <row r="17" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="60"/>
-      <c r="B17" s="92"/>
-      <c r="C17" s="93"/>
-      <c r="D17" s="94"/>
-      <c r="E17" s="95"/>
-      <c r="F17" s="96"/>
-      <c r="G17" s="97"/>
-      <c r="H17" s="98"/>
-      <c r="I17" s="99"/>
-      <c r="J17" s="100"/>
-      <c r="K17" s="101"/>
-      <c r="L17" s="101"/>
-      <c r="M17" s="101"/>
-      <c r="N17" s="101"/>
-      <c r="O17" s="101"/>
-      <c r="P17" s="102"/>
-      <c r="Q17" s="103"/>
-      <c r="R17" s="104"/>
-      <c r="S17" s="104"/>
-      <c r="T17" s="104"/>
-      <c r="U17" s="104"/>
-      <c r="V17" s="104"/>
-      <c r="W17" s="104"/>
-      <c r="X17" s="104"/>
-      <c r="Y17" s="104"/>
-      <c r="Z17" s="104"/>
-      <c r="AA17" s="104"/>
-      <c r="AB17" s="104"/>
-      <c r="AC17" s="104"/>
-      <c r="AD17" s="104"/>
-      <c r="AE17" s="105"/>
-      <c r="AF17" s="100"/>
-      <c r="AG17" s="101"/>
-      <c r="AH17" s="101"/>
-      <c r="AI17" s="102"/>
+      <c r="B17" s="159"/>
+      <c r="C17" s="160"/>
+      <c r="D17" s="133"/>
+      <c r="E17" s="134"/>
+      <c r="F17" s="135"/>
+      <c r="G17" s="161"/>
+      <c r="H17" s="162"/>
+      <c r="I17" s="163"/>
+      <c r="J17" s="164"/>
+      <c r="K17" s="165"/>
+      <c r="L17" s="165"/>
+      <c r="M17" s="165"/>
+      <c r="N17" s="165"/>
+      <c r="O17" s="165"/>
+      <c r="P17" s="166"/>
+      <c r="Q17" s="167"/>
+      <c r="R17" s="168"/>
+      <c r="S17" s="168"/>
+      <c r="T17" s="168"/>
+      <c r="U17" s="168"/>
+      <c r="V17" s="168"/>
+      <c r="W17" s="168"/>
+      <c r="X17" s="168"/>
+      <c r="Y17" s="168"/>
+      <c r="Z17" s="168"/>
+      <c r="AA17" s="168"/>
+      <c r="AB17" s="168"/>
+      <c r="AC17" s="168"/>
+      <c r="AD17" s="168"/>
+      <c r="AE17" s="169"/>
+      <c r="AF17" s="164"/>
+      <c r="AG17" s="165"/>
+      <c r="AH17" s="165"/>
+      <c r="AI17" s="166"/>
     </row>
     <row r="18" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="60"/>
-      <c r="B18" s="92"/>
-      <c r="C18" s="93"/>
-      <c r="D18" s="94"/>
-      <c r="E18" s="95"/>
-      <c r="F18" s="96"/>
-      <c r="G18" s="97"/>
-      <c r="H18" s="98"/>
-      <c r="I18" s="99"/>
-      <c r="J18" s="100"/>
-      <c r="K18" s="101"/>
-      <c r="L18" s="101"/>
-      <c r="M18" s="101"/>
-      <c r="N18" s="101"/>
-      <c r="O18" s="101"/>
-      <c r="P18" s="102"/>
-      <c r="Q18" s="103"/>
-      <c r="R18" s="104"/>
-      <c r="S18" s="104"/>
-      <c r="T18" s="104"/>
-      <c r="U18" s="104"/>
-      <c r="V18" s="104"/>
-      <c r="W18" s="104"/>
-      <c r="X18" s="104"/>
-      <c r="Y18" s="104"/>
-      <c r="Z18" s="104"/>
-      <c r="AA18" s="104"/>
-      <c r="AB18" s="104"/>
-      <c r="AC18" s="104"/>
-      <c r="AD18" s="104"/>
-      <c r="AE18" s="105"/>
-      <c r="AF18" s="100"/>
-      <c r="AG18" s="101"/>
-      <c r="AH18" s="101"/>
-      <c r="AI18" s="102"/>
+      <c r="B18" s="159"/>
+      <c r="C18" s="160"/>
+      <c r="D18" s="133"/>
+      <c r="E18" s="134"/>
+      <c r="F18" s="135"/>
+      <c r="G18" s="161"/>
+      <c r="H18" s="162"/>
+      <c r="I18" s="163"/>
+      <c r="J18" s="164"/>
+      <c r="K18" s="165"/>
+      <c r="L18" s="165"/>
+      <c r="M18" s="165"/>
+      <c r="N18" s="165"/>
+      <c r="O18" s="165"/>
+      <c r="P18" s="166"/>
+      <c r="Q18" s="167"/>
+      <c r="R18" s="168"/>
+      <c r="S18" s="168"/>
+      <c r="T18" s="168"/>
+      <c r="U18" s="168"/>
+      <c r="V18" s="168"/>
+      <c r="W18" s="168"/>
+      <c r="X18" s="168"/>
+      <c r="Y18" s="168"/>
+      <c r="Z18" s="168"/>
+      <c r="AA18" s="168"/>
+      <c r="AB18" s="168"/>
+      <c r="AC18" s="168"/>
+      <c r="AD18" s="168"/>
+      <c r="AE18" s="169"/>
+      <c r="AF18" s="164"/>
+      <c r="AG18" s="165"/>
+      <c r="AH18" s="165"/>
+      <c r="AI18" s="166"/>
     </row>
     <row r="19" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="60"/>
-      <c r="B19" s="92"/>
-      <c r="C19" s="93"/>
-      <c r="D19" s="94"/>
-      <c r="E19" s="95"/>
-      <c r="F19" s="96"/>
-      <c r="G19" s="97"/>
-      <c r="H19" s="98"/>
-      <c r="I19" s="99"/>
-      <c r="J19" s="100"/>
-      <c r="K19" s="101"/>
-      <c r="L19" s="101"/>
-      <c r="M19" s="101"/>
-      <c r="N19" s="101"/>
-      <c r="O19" s="101"/>
-      <c r="P19" s="102"/>
-      <c r="Q19" s="103"/>
-      <c r="R19" s="104"/>
-      <c r="S19" s="104"/>
-      <c r="T19" s="104"/>
-      <c r="U19" s="104"/>
-      <c r="V19" s="104"/>
-      <c r="W19" s="104"/>
-      <c r="X19" s="104"/>
-      <c r="Y19" s="104"/>
-      <c r="Z19" s="104"/>
-      <c r="AA19" s="104"/>
-      <c r="AB19" s="104"/>
-      <c r="AC19" s="104"/>
-      <c r="AD19" s="104"/>
-      <c r="AE19" s="105"/>
-      <c r="AF19" s="100"/>
-      <c r="AG19" s="101"/>
-      <c r="AH19" s="101"/>
-      <c r="AI19" s="102"/>
+      <c r="B19" s="159"/>
+      <c r="C19" s="160"/>
+      <c r="D19" s="133"/>
+      <c r="E19" s="134"/>
+      <c r="F19" s="135"/>
+      <c r="G19" s="161"/>
+      <c r="H19" s="162"/>
+      <c r="I19" s="163"/>
+      <c r="J19" s="164"/>
+      <c r="K19" s="165"/>
+      <c r="L19" s="165"/>
+      <c r="M19" s="165"/>
+      <c r="N19" s="165"/>
+      <c r="O19" s="165"/>
+      <c r="P19" s="166"/>
+      <c r="Q19" s="167"/>
+      <c r="R19" s="168"/>
+      <c r="S19" s="168"/>
+      <c r="T19" s="168"/>
+      <c r="U19" s="168"/>
+      <c r="V19" s="168"/>
+      <c r="W19" s="168"/>
+      <c r="X19" s="168"/>
+      <c r="Y19" s="168"/>
+      <c r="Z19" s="168"/>
+      <c r="AA19" s="168"/>
+      <c r="AB19" s="168"/>
+      <c r="AC19" s="168"/>
+      <c r="AD19" s="168"/>
+      <c r="AE19" s="169"/>
+      <c r="AF19" s="164"/>
+      <c r="AG19" s="165"/>
+      <c r="AH19" s="165"/>
+      <c r="AI19" s="166"/>
     </row>
     <row r="20" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="60"/>
-      <c r="B20" s="92"/>
-      <c r="C20" s="93"/>
-      <c r="D20" s="94"/>
-      <c r="E20" s="95"/>
-      <c r="F20" s="96"/>
-      <c r="G20" s="97"/>
-      <c r="H20" s="98"/>
-      <c r="I20" s="99"/>
-      <c r="J20" s="100"/>
-      <c r="K20" s="101"/>
-      <c r="L20" s="101"/>
-      <c r="M20" s="101"/>
-      <c r="N20" s="101"/>
-      <c r="O20" s="101"/>
-      <c r="P20" s="102"/>
-      <c r="Q20" s="103"/>
-      <c r="R20" s="104"/>
-      <c r="S20" s="104"/>
-      <c r="T20" s="104"/>
-      <c r="U20" s="104"/>
-      <c r="V20" s="104"/>
-      <c r="W20" s="104"/>
-      <c r="X20" s="104"/>
-      <c r="Y20" s="104"/>
-      <c r="Z20" s="104"/>
-      <c r="AA20" s="104"/>
-      <c r="AB20" s="104"/>
-      <c r="AC20" s="104"/>
-      <c r="AD20" s="104"/>
-      <c r="AE20" s="105"/>
-      <c r="AF20" s="100"/>
-      <c r="AG20" s="101"/>
-      <c r="AH20" s="101"/>
-      <c r="AI20" s="102"/>
+      <c r="B20" s="159"/>
+      <c r="C20" s="160"/>
+      <c r="D20" s="133"/>
+      <c r="E20" s="134"/>
+      <c r="F20" s="135"/>
+      <c r="G20" s="161"/>
+      <c r="H20" s="162"/>
+      <c r="I20" s="163"/>
+      <c r="J20" s="164"/>
+      <c r="K20" s="165"/>
+      <c r="L20" s="165"/>
+      <c r="M20" s="165"/>
+      <c r="N20" s="165"/>
+      <c r="O20" s="165"/>
+      <c r="P20" s="166"/>
+      <c r="Q20" s="167"/>
+      <c r="R20" s="168"/>
+      <c r="S20" s="168"/>
+      <c r="T20" s="168"/>
+      <c r="U20" s="168"/>
+      <c r="V20" s="168"/>
+      <c r="W20" s="168"/>
+      <c r="X20" s="168"/>
+      <c r="Y20" s="168"/>
+      <c r="Z20" s="168"/>
+      <c r="AA20" s="168"/>
+      <c r="AB20" s="168"/>
+      <c r="AC20" s="168"/>
+      <c r="AD20" s="168"/>
+      <c r="AE20" s="169"/>
+      <c r="AF20" s="164"/>
+      <c r="AG20" s="165"/>
+      <c r="AH20" s="165"/>
+      <c r="AI20" s="166"/>
     </row>
     <row r="21" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="60"/>
-      <c r="B21" s="92"/>
-      <c r="C21" s="93"/>
-      <c r="D21" s="94"/>
-      <c r="E21" s="95"/>
-      <c r="F21" s="96"/>
-      <c r="G21" s="97"/>
-      <c r="H21" s="98"/>
-      <c r="I21" s="99"/>
-      <c r="J21" s="100"/>
-      <c r="K21" s="101"/>
-      <c r="L21" s="101"/>
-      <c r="M21" s="101"/>
-      <c r="N21" s="101"/>
-      <c r="O21" s="101"/>
-      <c r="P21" s="102"/>
-      <c r="Q21" s="103"/>
-      <c r="R21" s="104"/>
-      <c r="S21" s="104"/>
-      <c r="T21" s="104"/>
-      <c r="U21" s="104"/>
-      <c r="V21" s="104"/>
-      <c r="W21" s="104"/>
-      <c r="X21" s="104"/>
-      <c r="Y21" s="104"/>
-      <c r="Z21" s="104"/>
-      <c r="AA21" s="104"/>
-      <c r="AB21" s="104"/>
-      <c r="AC21" s="104"/>
-      <c r="AD21" s="104"/>
-      <c r="AE21" s="105"/>
-      <c r="AF21" s="100"/>
-      <c r="AG21" s="101"/>
-      <c r="AH21" s="101"/>
-      <c r="AI21" s="102"/>
+      <c r="B21" s="159"/>
+      <c r="C21" s="160"/>
+      <c r="D21" s="133"/>
+      <c r="E21" s="134"/>
+      <c r="F21" s="135"/>
+      <c r="G21" s="161"/>
+      <c r="H21" s="162"/>
+      <c r="I21" s="163"/>
+      <c r="J21" s="164"/>
+      <c r="K21" s="165"/>
+      <c r="L21" s="165"/>
+      <c r="M21" s="165"/>
+      <c r="N21" s="165"/>
+      <c r="O21" s="165"/>
+      <c r="P21" s="166"/>
+      <c r="Q21" s="167"/>
+      <c r="R21" s="168"/>
+      <c r="S21" s="168"/>
+      <c r="T21" s="168"/>
+      <c r="U21" s="168"/>
+      <c r="V21" s="168"/>
+      <c r="W21" s="168"/>
+      <c r="X21" s="168"/>
+      <c r="Y21" s="168"/>
+      <c r="Z21" s="168"/>
+      <c r="AA21" s="168"/>
+      <c r="AB21" s="168"/>
+      <c r="AC21" s="168"/>
+      <c r="AD21" s="168"/>
+      <c r="AE21" s="169"/>
+      <c r="AF21" s="164"/>
+      <c r="AG21" s="165"/>
+      <c r="AH21" s="165"/>
+      <c r="AI21" s="166"/>
     </row>
     <row r="22" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="60"/>
-      <c r="B22" s="92"/>
-      <c r="C22" s="93"/>
-      <c r="D22" s="94"/>
-      <c r="E22" s="95"/>
-      <c r="F22" s="96"/>
-      <c r="G22" s="97"/>
-      <c r="H22" s="98"/>
-      <c r="I22" s="99"/>
-      <c r="J22" s="100"/>
-      <c r="K22" s="101"/>
-      <c r="L22" s="101"/>
-      <c r="M22" s="101"/>
-      <c r="N22" s="101"/>
-      <c r="O22" s="101"/>
-      <c r="P22" s="102"/>
-      <c r="Q22" s="103"/>
-      <c r="R22" s="104"/>
-      <c r="S22" s="104"/>
-      <c r="T22" s="104"/>
-      <c r="U22" s="104"/>
-      <c r="V22" s="104"/>
-      <c r="W22" s="104"/>
-      <c r="X22" s="104"/>
-      <c r="Y22" s="104"/>
-      <c r="Z22" s="104"/>
-      <c r="AA22" s="104"/>
-      <c r="AB22" s="104"/>
-      <c r="AC22" s="104"/>
-      <c r="AD22" s="104"/>
-      <c r="AE22" s="105"/>
-      <c r="AF22" s="100"/>
-      <c r="AG22" s="101"/>
-      <c r="AH22" s="101"/>
-      <c r="AI22" s="102"/>
+      <c r="B22" s="159"/>
+      <c r="C22" s="160"/>
+      <c r="D22" s="133"/>
+      <c r="E22" s="134"/>
+      <c r="F22" s="135"/>
+      <c r="G22" s="161"/>
+      <c r="H22" s="162"/>
+      <c r="I22" s="163"/>
+      <c r="J22" s="164"/>
+      <c r="K22" s="165"/>
+      <c r="L22" s="165"/>
+      <c r="M22" s="165"/>
+      <c r="N22" s="165"/>
+      <c r="O22" s="165"/>
+      <c r="P22" s="166"/>
+      <c r="Q22" s="167"/>
+      <c r="R22" s="168"/>
+      <c r="S22" s="168"/>
+      <c r="T22" s="168"/>
+      <c r="U22" s="168"/>
+      <c r="V22" s="168"/>
+      <c r="W22" s="168"/>
+      <c r="X22" s="168"/>
+      <c r="Y22" s="168"/>
+      <c r="Z22" s="168"/>
+      <c r="AA22" s="168"/>
+      <c r="AB22" s="168"/>
+      <c r="AC22" s="168"/>
+      <c r="AD22" s="168"/>
+      <c r="AE22" s="169"/>
+      <c r="AF22" s="164"/>
+      <c r="AG22" s="165"/>
+      <c r="AH22" s="165"/>
+      <c r="AI22" s="166"/>
     </row>
     <row r="23" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="60"/>
-      <c r="B23" s="92"/>
-      <c r="C23" s="93"/>
-      <c r="D23" s="94"/>
-      <c r="E23" s="95"/>
-      <c r="F23" s="96"/>
-      <c r="G23" s="97"/>
-      <c r="H23" s="98"/>
-      <c r="I23" s="99"/>
-      <c r="J23" s="100"/>
-      <c r="K23" s="101"/>
-      <c r="L23" s="101"/>
-      <c r="M23" s="101"/>
-      <c r="N23" s="101"/>
-      <c r="O23" s="101"/>
-      <c r="P23" s="102"/>
-      <c r="Q23" s="103"/>
-      <c r="R23" s="104"/>
-      <c r="S23" s="104"/>
-      <c r="T23" s="104"/>
-      <c r="U23" s="104"/>
-      <c r="V23" s="104"/>
-      <c r="W23" s="104"/>
-      <c r="X23" s="104"/>
-      <c r="Y23" s="104"/>
-      <c r="Z23" s="104"/>
-      <c r="AA23" s="104"/>
-      <c r="AB23" s="104"/>
-      <c r="AC23" s="104"/>
-      <c r="AD23" s="104"/>
-      <c r="AE23" s="105"/>
-      <c r="AF23" s="100"/>
-      <c r="AG23" s="101"/>
-      <c r="AH23" s="101"/>
-      <c r="AI23" s="102"/>
+      <c r="B23" s="159"/>
+      <c r="C23" s="160"/>
+      <c r="D23" s="133"/>
+      <c r="E23" s="134"/>
+      <c r="F23" s="135"/>
+      <c r="G23" s="161"/>
+      <c r="H23" s="162"/>
+      <c r="I23" s="163"/>
+      <c r="J23" s="164"/>
+      <c r="K23" s="165"/>
+      <c r="L23" s="165"/>
+      <c r="M23" s="165"/>
+      <c r="N23" s="165"/>
+      <c r="O23" s="165"/>
+      <c r="P23" s="166"/>
+      <c r="Q23" s="167"/>
+      <c r="R23" s="168"/>
+      <c r="S23" s="168"/>
+      <c r="T23" s="168"/>
+      <c r="U23" s="168"/>
+      <c r="V23" s="168"/>
+      <c r="W23" s="168"/>
+      <c r="X23" s="168"/>
+      <c r="Y23" s="168"/>
+      <c r="Z23" s="168"/>
+      <c r="AA23" s="168"/>
+      <c r="AB23" s="168"/>
+      <c r="AC23" s="168"/>
+      <c r="AD23" s="168"/>
+      <c r="AE23" s="169"/>
+      <c r="AF23" s="164"/>
+      <c r="AG23" s="165"/>
+      <c r="AH23" s="165"/>
+      <c r="AI23" s="166"/>
     </row>
     <row r="24" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="60"/>
-      <c r="B24" s="92"/>
-      <c r="C24" s="93"/>
-      <c r="D24" s="94"/>
-      <c r="E24" s="95"/>
-      <c r="F24" s="96"/>
-      <c r="G24" s="97"/>
-      <c r="H24" s="98"/>
-      <c r="I24" s="99"/>
-      <c r="J24" s="100"/>
-      <c r="K24" s="101"/>
-      <c r="L24" s="101"/>
-      <c r="M24" s="101"/>
-      <c r="N24" s="101"/>
-      <c r="O24" s="101"/>
-      <c r="P24" s="102"/>
-      <c r="Q24" s="103"/>
-      <c r="R24" s="104"/>
-      <c r="S24" s="104"/>
-      <c r="T24" s="104"/>
-      <c r="U24" s="104"/>
-      <c r="V24" s="104"/>
-      <c r="W24" s="104"/>
-      <c r="X24" s="104"/>
-      <c r="Y24" s="104"/>
-      <c r="Z24" s="104"/>
-      <c r="AA24" s="104"/>
-      <c r="AB24" s="104"/>
-      <c r="AC24" s="104"/>
-      <c r="AD24" s="104"/>
-      <c r="AE24" s="105"/>
-      <c r="AF24" s="100"/>
-      <c r="AG24" s="101"/>
-      <c r="AH24" s="101"/>
-      <c r="AI24" s="102"/>
+      <c r="B24" s="159"/>
+      <c r="C24" s="160"/>
+      <c r="D24" s="133"/>
+      <c r="E24" s="134"/>
+      <c r="F24" s="135"/>
+      <c r="G24" s="161"/>
+      <c r="H24" s="162"/>
+      <c r="I24" s="163"/>
+      <c r="J24" s="164"/>
+      <c r="K24" s="165"/>
+      <c r="L24" s="165"/>
+      <c r="M24" s="165"/>
+      <c r="N24" s="165"/>
+      <c r="O24" s="165"/>
+      <c r="P24" s="166"/>
+      <c r="Q24" s="167"/>
+      <c r="R24" s="168"/>
+      <c r="S24" s="168"/>
+      <c r="T24" s="168"/>
+      <c r="U24" s="168"/>
+      <c r="V24" s="168"/>
+      <c r="W24" s="168"/>
+      <c r="X24" s="168"/>
+      <c r="Y24" s="168"/>
+      <c r="Z24" s="168"/>
+      <c r="AA24" s="168"/>
+      <c r="AB24" s="168"/>
+      <c r="AC24" s="168"/>
+      <c r="AD24" s="168"/>
+      <c r="AE24" s="169"/>
+      <c r="AF24" s="164"/>
+      <c r="AG24" s="165"/>
+      <c r="AH24" s="165"/>
+      <c r="AI24" s="166"/>
     </row>
     <row r="25" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="60"/>
-      <c r="B25" s="92"/>
-      <c r="C25" s="93"/>
-      <c r="D25" s="94"/>
-      <c r="E25" s="95"/>
-      <c r="F25" s="96"/>
-      <c r="G25" s="97"/>
-      <c r="H25" s="98"/>
-      <c r="I25" s="99"/>
-      <c r="J25" s="100"/>
-      <c r="K25" s="101"/>
-      <c r="L25" s="101"/>
-      <c r="M25" s="101"/>
-      <c r="N25" s="101"/>
-      <c r="O25" s="101"/>
-      <c r="P25" s="102"/>
-      <c r="Q25" s="103"/>
-      <c r="R25" s="104"/>
-      <c r="S25" s="104"/>
-      <c r="T25" s="104"/>
-      <c r="U25" s="104"/>
-      <c r="V25" s="104"/>
-      <c r="W25" s="104"/>
-      <c r="X25" s="104"/>
-      <c r="Y25" s="104"/>
-      <c r="Z25" s="104"/>
-      <c r="AA25" s="104"/>
-      <c r="AB25" s="104"/>
-      <c r="AC25" s="104"/>
-      <c r="AD25" s="104"/>
-      <c r="AE25" s="105"/>
-      <c r="AF25" s="100"/>
-      <c r="AG25" s="101"/>
-      <c r="AH25" s="101"/>
-      <c r="AI25" s="102"/>
+      <c r="B25" s="159"/>
+      <c r="C25" s="160"/>
+      <c r="D25" s="133"/>
+      <c r="E25" s="134"/>
+      <c r="F25" s="135"/>
+      <c r="G25" s="161"/>
+      <c r="H25" s="162"/>
+      <c r="I25" s="163"/>
+      <c r="J25" s="164"/>
+      <c r="K25" s="165"/>
+      <c r="L25" s="165"/>
+      <c r="M25" s="165"/>
+      <c r="N25" s="165"/>
+      <c r="O25" s="165"/>
+      <c r="P25" s="166"/>
+      <c r="Q25" s="167"/>
+      <c r="R25" s="168"/>
+      <c r="S25" s="168"/>
+      <c r="T25" s="168"/>
+      <c r="U25" s="168"/>
+      <c r="V25" s="168"/>
+      <c r="W25" s="168"/>
+      <c r="X25" s="168"/>
+      <c r="Y25" s="168"/>
+      <c r="Z25" s="168"/>
+      <c r="AA25" s="168"/>
+      <c r="AB25" s="168"/>
+      <c r="AC25" s="168"/>
+      <c r="AD25" s="168"/>
+      <c r="AE25" s="169"/>
+      <c r="AF25" s="164"/>
+      <c r="AG25" s="165"/>
+      <c r="AH25" s="165"/>
+      <c r="AI25" s="166"/>
     </row>
     <row r="26" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="60"/>
-      <c r="B26" s="92"/>
-      <c r="C26" s="93"/>
-      <c r="D26" s="94"/>
-      <c r="E26" s="95"/>
-      <c r="F26" s="96"/>
-      <c r="G26" s="97"/>
-      <c r="H26" s="98"/>
-      <c r="I26" s="99"/>
-      <c r="J26" s="100"/>
-      <c r="K26" s="101"/>
-      <c r="L26" s="101"/>
-      <c r="M26" s="101"/>
-      <c r="N26" s="101"/>
-      <c r="O26" s="101"/>
-      <c r="P26" s="102"/>
-      <c r="Q26" s="103"/>
-      <c r="R26" s="104"/>
-      <c r="S26" s="104"/>
-      <c r="T26" s="104"/>
-      <c r="U26" s="104"/>
-      <c r="V26" s="104"/>
-      <c r="W26" s="104"/>
-      <c r="X26" s="104"/>
-      <c r="Y26" s="104"/>
-      <c r="Z26" s="104"/>
-      <c r="AA26" s="104"/>
-      <c r="AB26" s="104"/>
-      <c r="AC26" s="104"/>
-      <c r="AD26" s="104"/>
-      <c r="AE26" s="105"/>
-      <c r="AF26" s="100"/>
-      <c r="AG26" s="101"/>
-      <c r="AH26" s="101"/>
-      <c r="AI26" s="102"/>
+      <c r="B26" s="159"/>
+      <c r="C26" s="160"/>
+      <c r="D26" s="133"/>
+      <c r="E26" s="134"/>
+      <c r="F26" s="135"/>
+      <c r="G26" s="161"/>
+      <c r="H26" s="162"/>
+      <c r="I26" s="163"/>
+      <c r="J26" s="164"/>
+      <c r="K26" s="165"/>
+      <c r="L26" s="165"/>
+      <c r="M26" s="165"/>
+      <c r="N26" s="165"/>
+      <c r="O26" s="165"/>
+      <c r="P26" s="166"/>
+      <c r="Q26" s="167"/>
+      <c r="R26" s="168"/>
+      <c r="S26" s="168"/>
+      <c r="T26" s="168"/>
+      <c r="U26" s="168"/>
+      <c r="V26" s="168"/>
+      <c r="W26" s="168"/>
+      <c r="X26" s="168"/>
+      <c r="Y26" s="168"/>
+      <c r="Z26" s="168"/>
+      <c r="AA26" s="168"/>
+      <c r="AB26" s="168"/>
+      <c r="AC26" s="168"/>
+      <c r="AD26" s="168"/>
+      <c r="AE26" s="169"/>
+      <c r="AF26" s="164"/>
+      <c r="AG26" s="165"/>
+      <c r="AH26" s="165"/>
+      <c r="AI26" s="166"/>
     </row>
     <row r="27" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="60"/>
-      <c r="B27" s="92"/>
-      <c r="C27" s="93"/>
-      <c r="D27" s="94"/>
-      <c r="E27" s="95"/>
-      <c r="F27" s="96"/>
-      <c r="G27" s="97"/>
-      <c r="H27" s="98"/>
-      <c r="I27" s="99"/>
-      <c r="J27" s="100"/>
-      <c r="K27" s="101"/>
-      <c r="L27" s="101"/>
-      <c r="M27" s="101"/>
-      <c r="N27" s="101"/>
-      <c r="O27" s="101"/>
-      <c r="P27" s="102"/>
-      <c r="Q27" s="103"/>
-      <c r="R27" s="104"/>
-      <c r="S27" s="104"/>
-      <c r="T27" s="104"/>
-      <c r="U27" s="104"/>
-      <c r="V27" s="104"/>
-      <c r="W27" s="104"/>
-      <c r="X27" s="104"/>
-      <c r="Y27" s="104"/>
-      <c r="Z27" s="104"/>
-      <c r="AA27" s="104"/>
-      <c r="AB27" s="104"/>
-      <c r="AC27" s="104"/>
-      <c r="AD27" s="104"/>
-      <c r="AE27" s="105"/>
-      <c r="AF27" s="100"/>
-      <c r="AG27" s="101"/>
-      <c r="AH27" s="101"/>
-      <c r="AI27" s="102"/>
+      <c r="B27" s="159"/>
+      <c r="C27" s="160"/>
+      <c r="D27" s="133"/>
+      <c r="E27" s="134"/>
+      <c r="F27" s="135"/>
+      <c r="G27" s="161"/>
+      <c r="H27" s="162"/>
+      <c r="I27" s="163"/>
+      <c r="J27" s="164"/>
+      <c r="K27" s="165"/>
+      <c r="L27" s="165"/>
+      <c r="M27" s="165"/>
+      <c r="N27" s="165"/>
+      <c r="O27" s="165"/>
+      <c r="P27" s="166"/>
+      <c r="Q27" s="167"/>
+      <c r="R27" s="168"/>
+      <c r="S27" s="168"/>
+      <c r="T27" s="168"/>
+      <c r="U27" s="168"/>
+      <c r="V27" s="168"/>
+      <c r="W27" s="168"/>
+      <c r="X27" s="168"/>
+      <c r="Y27" s="168"/>
+      <c r="Z27" s="168"/>
+      <c r="AA27" s="168"/>
+      <c r="AB27" s="168"/>
+      <c r="AC27" s="168"/>
+      <c r="AD27" s="168"/>
+      <c r="AE27" s="169"/>
+      <c r="AF27" s="164"/>
+      <c r="AG27" s="165"/>
+      <c r="AH27" s="165"/>
+      <c r="AI27" s="166"/>
     </row>
     <row r="28" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="60"/>
-      <c r="B28" s="92"/>
-      <c r="C28" s="93"/>
-      <c r="D28" s="94"/>
-      <c r="E28" s="95"/>
-      <c r="F28" s="96"/>
-      <c r="G28" s="97"/>
-      <c r="H28" s="98"/>
-      <c r="I28" s="99"/>
-      <c r="J28" s="100"/>
-      <c r="K28" s="101"/>
-      <c r="L28" s="101"/>
-      <c r="M28" s="101"/>
-      <c r="N28" s="101"/>
-      <c r="O28" s="101"/>
-      <c r="P28" s="102"/>
-      <c r="Q28" s="103"/>
-      <c r="R28" s="104"/>
-      <c r="S28" s="104"/>
-      <c r="T28" s="104"/>
-      <c r="U28" s="104"/>
-      <c r="V28" s="104"/>
-      <c r="W28" s="104"/>
-      <c r="X28" s="104"/>
-      <c r="Y28" s="104"/>
-      <c r="Z28" s="104"/>
-      <c r="AA28" s="104"/>
-      <c r="AB28" s="104"/>
-      <c r="AC28" s="104"/>
-      <c r="AD28" s="104"/>
-      <c r="AE28" s="105"/>
-      <c r="AF28" s="100"/>
-      <c r="AG28" s="101"/>
-      <c r="AH28" s="101"/>
-      <c r="AI28" s="102"/>
+      <c r="B28" s="159"/>
+      <c r="C28" s="160"/>
+      <c r="D28" s="133"/>
+      <c r="E28" s="134"/>
+      <c r="F28" s="135"/>
+      <c r="G28" s="161"/>
+      <c r="H28" s="162"/>
+      <c r="I28" s="163"/>
+      <c r="J28" s="164"/>
+      <c r="K28" s="165"/>
+      <c r="L28" s="165"/>
+      <c r="M28" s="165"/>
+      <c r="N28" s="165"/>
+      <c r="O28" s="165"/>
+      <c r="P28" s="166"/>
+      <c r="Q28" s="167"/>
+      <c r="R28" s="168"/>
+      <c r="S28" s="168"/>
+      <c r="T28" s="168"/>
+      <c r="U28" s="168"/>
+      <c r="V28" s="168"/>
+      <c r="W28" s="168"/>
+      <c r="X28" s="168"/>
+      <c r="Y28" s="168"/>
+      <c r="Z28" s="168"/>
+      <c r="AA28" s="168"/>
+      <c r="AB28" s="168"/>
+      <c r="AC28" s="168"/>
+      <c r="AD28" s="168"/>
+      <c r="AE28" s="169"/>
+      <c r="AF28" s="164"/>
+      <c r="AG28" s="165"/>
+      <c r="AH28" s="165"/>
+      <c r="AI28" s="166"/>
     </row>
     <row r="29" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="60"/>
-      <c r="B29" s="92"/>
-      <c r="C29" s="93"/>
-      <c r="D29" s="94"/>
-      <c r="E29" s="95"/>
-      <c r="F29" s="96"/>
-      <c r="G29" s="97"/>
-      <c r="H29" s="98"/>
-      <c r="I29" s="99"/>
-      <c r="J29" s="100"/>
-      <c r="K29" s="101"/>
-      <c r="L29" s="101"/>
-      <c r="M29" s="101"/>
-      <c r="N29" s="101"/>
-      <c r="O29" s="101"/>
-      <c r="P29" s="102"/>
-      <c r="Q29" s="103"/>
-      <c r="R29" s="104"/>
-      <c r="S29" s="104"/>
-      <c r="T29" s="104"/>
-      <c r="U29" s="104"/>
-      <c r="V29" s="104"/>
-      <c r="W29" s="104"/>
-      <c r="X29" s="104"/>
-      <c r="Y29" s="104"/>
-      <c r="Z29" s="104"/>
-      <c r="AA29" s="104"/>
-      <c r="AB29" s="104"/>
-      <c r="AC29" s="104"/>
-      <c r="AD29" s="104"/>
-      <c r="AE29" s="105"/>
-      <c r="AF29" s="100"/>
-      <c r="AG29" s="101"/>
-      <c r="AH29" s="101"/>
-      <c r="AI29" s="102"/>
+      <c r="B29" s="159"/>
+      <c r="C29" s="160"/>
+      <c r="D29" s="133"/>
+      <c r="E29" s="134"/>
+      <c r="F29" s="135"/>
+      <c r="G29" s="161"/>
+      <c r="H29" s="162"/>
+      <c r="I29" s="163"/>
+      <c r="J29" s="164"/>
+      <c r="K29" s="165"/>
+      <c r="L29" s="165"/>
+      <c r="M29" s="165"/>
+      <c r="N29" s="165"/>
+      <c r="O29" s="165"/>
+      <c r="P29" s="166"/>
+      <c r="Q29" s="167"/>
+      <c r="R29" s="168"/>
+      <c r="S29" s="168"/>
+      <c r="T29" s="168"/>
+      <c r="U29" s="168"/>
+      <c r="V29" s="168"/>
+      <c r="W29" s="168"/>
+      <c r="X29" s="168"/>
+      <c r="Y29" s="168"/>
+      <c r="Z29" s="168"/>
+      <c r="AA29" s="168"/>
+      <c r="AB29" s="168"/>
+      <c r="AC29" s="168"/>
+      <c r="AD29" s="168"/>
+      <c r="AE29" s="169"/>
+      <c r="AF29" s="164"/>
+      <c r="AG29" s="165"/>
+      <c r="AH29" s="165"/>
+      <c r="AI29" s="166"/>
     </row>
     <row r="30" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="60"/>
-      <c r="B30" s="92"/>
-      <c r="C30" s="93"/>
-      <c r="D30" s="94"/>
-      <c r="E30" s="95"/>
-      <c r="F30" s="96"/>
-      <c r="G30" s="97"/>
-      <c r="H30" s="98"/>
-      <c r="I30" s="99"/>
-      <c r="J30" s="100"/>
-      <c r="K30" s="101"/>
-      <c r="L30" s="101"/>
-      <c r="M30" s="101"/>
-      <c r="N30" s="101"/>
-      <c r="O30" s="101"/>
-      <c r="P30" s="102"/>
-      <c r="Q30" s="103"/>
-      <c r="R30" s="104"/>
-      <c r="S30" s="104"/>
-      <c r="T30" s="104"/>
-      <c r="U30" s="104"/>
-      <c r="V30" s="104"/>
-      <c r="W30" s="104"/>
-      <c r="X30" s="104"/>
-      <c r="Y30" s="104"/>
-      <c r="Z30" s="104"/>
-      <c r="AA30" s="104"/>
-      <c r="AB30" s="104"/>
-      <c r="AC30" s="104"/>
-      <c r="AD30" s="104"/>
-      <c r="AE30" s="105"/>
-      <c r="AF30" s="100"/>
-      <c r="AG30" s="101"/>
-      <c r="AH30" s="101"/>
-      <c r="AI30" s="102"/>
+      <c r="B30" s="159"/>
+      <c r="C30" s="160"/>
+      <c r="D30" s="133"/>
+      <c r="E30" s="134"/>
+      <c r="F30" s="135"/>
+      <c r="G30" s="161"/>
+      <c r="H30" s="162"/>
+      <c r="I30" s="163"/>
+      <c r="J30" s="164"/>
+      <c r="K30" s="165"/>
+      <c r="L30" s="165"/>
+      <c r="M30" s="165"/>
+      <c r="N30" s="165"/>
+      <c r="O30" s="165"/>
+      <c r="P30" s="166"/>
+      <c r="Q30" s="167"/>
+      <c r="R30" s="168"/>
+      <c r="S30" s="168"/>
+      <c r="T30" s="168"/>
+      <c r="U30" s="168"/>
+      <c r="V30" s="168"/>
+      <c r="W30" s="168"/>
+      <c r="X30" s="168"/>
+      <c r="Y30" s="168"/>
+      <c r="Z30" s="168"/>
+      <c r="AA30" s="168"/>
+      <c r="AB30" s="168"/>
+      <c r="AC30" s="168"/>
+      <c r="AD30" s="168"/>
+      <c r="AE30" s="169"/>
+      <c r="AF30" s="164"/>
+      <c r="AG30" s="165"/>
+      <c r="AH30" s="165"/>
+      <c r="AI30" s="166"/>
     </row>
     <row r="31" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="60"/>
-      <c r="B31" s="92"/>
-      <c r="C31" s="93"/>
-      <c r="D31" s="94"/>
-      <c r="E31" s="95"/>
-      <c r="F31" s="96"/>
-      <c r="G31" s="97"/>
-      <c r="H31" s="98"/>
-      <c r="I31" s="99"/>
-      <c r="J31" s="100"/>
-      <c r="K31" s="101"/>
-      <c r="L31" s="101"/>
-      <c r="M31" s="101"/>
-      <c r="N31" s="101"/>
-      <c r="O31" s="101"/>
-      <c r="P31" s="102"/>
-      <c r="Q31" s="103"/>
-      <c r="R31" s="104"/>
-      <c r="S31" s="104"/>
-      <c r="T31" s="104"/>
-      <c r="U31" s="104"/>
-      <c r="V31" s="104"/>
-      <c r="W31" s="104"/>
-      <c r="X31" s="104"/>
-      <c r="Y31" s="104"/>
-      <c r="Z31" s="104"/>
-      <c r="AA31" s="104"/>
-      <c r="AB31" s="104"/>
-      <c r="AC31" s="104"/>
-      <c r="AD31" s="104"/>
-      <c r="AE31" s="105"/>
-      <c r="AF31" s="100"/>
-      <c r="AG31" s="101"/>
-      <c r="AH31" s="101"/>
-      <c r="AI31" s="102"/>
+      <c r="B31" s="159"/>
+      <c r="C31" s="160"/>
+      <c r="D31" s="133"/>
+      <c r="E31" s="134"/>
+      <c r="F31" s="135"/>
+      <c r="G31" s="161"/>
+      <c r="H31" s="162"/>
+      <c r="I31" s="163"/>
+      <c r="J31" s="164"/>
+      <c r="K31" s="165"/>
+      <c r="L31" s="165"/>
+      <c r="M31" s="165"/>
+      <c r="N31" s="165"/>
+      <c r="O31" s="165"/>
+      <c r="P31" s="166"/>
+      <c r="Q31" s="167"/>
+      <c r="R31" s="168"/>
+      <c r="S31" s="168"/>
+      <c r="T31" s="168"/>
+      <c r="U31" s="168"/>
+      <c r="V31" s="168"/>
+      <c r="W31" s="168"/>
+      <c r="X31" s="168"/>
+      <c r="Y31" s="168"/>
+      <c r="Z31" s="168"/>
+      <c r="AA31" s="168"/>
+      <c r="AB31" s="168"/>
+      <c r="AC31" s="168"/>
+      <c r="AD31" s="168"/>
+      <c r="AE31" s="169"/>
+      <c r="AF31" s="164"/>
+      <c r="AG31" s="165"/>
+      <c r="AH31" s="165"/>
+      <c r="AI31" s="166"/>
     </row>
     <row r="32" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="60"/>
-      <c r="B32" s="92"/>
-      <c r="C32" s="93"/>
-      <c r="D32" s="94"/>
-      <c r="E32" s="95"/>
-      <c r="F32" s="96"/>
-      <c r="G32" s="97"/>
-      <c r="H32" s="98"/>
-      <c r="I32" s="99"/>
-      <c r="J32" s="100"/>
-      <c r="K32" s="101"/>
-      <c r="L32" s="101"/>
-      <c r="M32" s="101"/>
-      <c r="N32" s="101"/>
-      <c r="O32" s="101"/>
-      <c r="P32" s="102"/>
-      <c r="Q32" s="103"/>
-      <c r="R32" s="104"/>
-      <c r="S32" s="104"/>
-      <c r="T32" s="104"/>
-      <c r="U32" s="104"/>
-      <c r="V32" s="104"/>
-      <c r="W32" s="104"/>
-      <c r="X32" s="104"/>
-      <c r="Y32" s="104"/>
-      <c r="Z32" s="104"/>
-      <c r="AA32" s="104"/>
-      <c r="AB32" s="104"/>
-      <c r="AC32" s="104"/>
-      <c r="AD32" s="104"/>
-      <c r="AE32" s="105"/>
-      <c r="AF32" s="100"/>
-      <c r="AG32" s="101"/>
-      <c r="AH32" s="101"/>
-      <c r="AI32" s="102"/>
+      <c r="B32" s="159"/>
+      <c r="C32" s="160"/>
+      <c r="D32" s="133"/>
+      <c r="E32" s="134"/>
+      <c r="F32" s="135"/>
+      <c r="G32" s="161"/>
+      <c r="H32" s="162"/>
+      <c r="I32" s="163"/>
+      <c r="J32" s="164"/>
+      <c r="K32" s="165"/>
+      <c r="L32" s="165"/>
+      <c r="M32" s="165"/>
+      <c r="N32" s="165"/>
+      <c r="O32" s="165"/>
+      <c r="P32" s="166"/>
+      <c r="Q32" s="167"/>
+      <c r="R32" s="168"/>
+      <c r="S32" s="168"/>
+      <c r="T32" s="168"/>
+      <c r="U32" s="168"/>
+      <c r="V32" s="168"/>
+      <c r="W32" s="168"/>
+      <c r="X32" s="168"/>
+      <c r="Y32" s="168"/>
+      <c r="Z32" s="168"/>
+      <c r="AA32" s="168"/>
+      <c r="AB32" s="168"/>
+      <c r="AC32" s="168"/>
+      <c r="AD32" s="168"/>
+      <c r="AE32" s="169"/>
+      <c r="AF32" s="164"/>
+      <c r="AG32" s="165"/>
+      <c r="AH32" s="165"/>
+      <c r="AI32" s="166"/>
     </row>
     <row r="33" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="60"/>
-      <c r="B33" s="92"/>
-      <c r="C33" s="93"/>
-      <c r="D33" s="94"/>
-      <c r="E33" s="95"/>
-      <c r="F33" s="96"/>
-      <c r="G33" s="97"/>
-      <c r="H33" s="98"/>
-      <c r="I33" s="99"/>
-      <c r="J33" s="100"/>
-      <c r="K33" s="101"/>
-      <c r="L33" s="101"/>
-      <c r="M33" s="101"/>
-      <c r="N33" s="101"/>
-      <c r="O33" s="101"/>
-      <c r="P33" s="102"/>
-      <c r="Q33" s="103"/>
-      <c r="R33" s="104"/>
-      <c r="S33" s="104"/>
-      <c r="T33" s="104"/>
-      <c r="U33" s="104"/>
-      <c r="V33" s="104"/>
-      <c r="W33" s="104"/>
-      <c r="X33" s="104"/>
-      <c r="Y33" s="104"/>
-      <c r="Z33" s="104"/>
-      <c r="AA33" s="104"/>
-      <c r="AB33" s="104"/>
-      <c r="AC33" s="104"/>
-      <c r="AD33" s="104"/>
-      <c r="AE33" s="105"/>
-      <c r="AF33" s="100"/>
-      <c r="AG33" s="101"/>
-      <c r="AH33" s="101"/>
-      <c r="AI33" s="102"/>
+      <c r="B33" s="159"/>
+      <c r="C33" s="160"/>
+      <c r="D33" s="133"/>
+      <c r="E33" s="134"/>
+      <c r="F33" s="135"/>
+      <c r="G33" s="161"/>
+      <c r="H33" s="162"/>
+      <c r="I33" s="163"/>
+      <c r="J33" s="164"/>
+      <c r="K33" s="165"/>
+      <c r="L33" s="165"/>
+      <c r="M33" s="165"/>
+      <c r="N33" s="165"/>
+      <c r="O33" s="165"/>
+      <c r="P33" s="166"/>
+      <c r="Q33" s="167"/>
+      <c r="R33" s="168"/>
+      <c r="S33" s="168"/>
+      <c r="T33" s="168"/>
+      <c r="U33" s="168"/>
+      <c r="V33" s="168"/>
+      <c r="W33" s="168"/>
+      <c r="X33" s="168"/>
+      <c r="Y33" s="168"/>
+      <c r="Z33" s="168"/>
+      <c r="AA33" s="168"/>
+      <c r="AB33" s="168"/>
+      <c r="AC33" s="168"/>
+      <c r="AD33" s="168"/>
+      <c r="AE33" s="169"/>
+      <c r="AF33" s="164"/>
+      <c r="AG33" s="165"/>
+      <c r="AH33" s="165"/>
+      <c r="AI33" s="166"/>
     </row>
   </sheetData>
   <mergeCells count="179">
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
@@ -4858,162 +5044,6 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
   </mergeCells>
   <phoneticPr fontId="10"/>
   <printOptions horizontalCentered="1"/>
@@ -5170,163 +5200,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="139" t="s">
+      <c r="A1" s="101" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="140"/>
-      <c r="C1" s="140"/>
-      <c r="D1" s="141"/>
-      <c r="E1" s="169" t="str">
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="175" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="143"/>
-      <c r="G1" s="143"/>
-      <c r="H1" s="143"/>
-      <c r="I1" s="143"/>
-      <c r="J1" s="143"/>
-      <c r="K1" s="143"/>
-      <c r="L1" s="143"/>
-      <c r="M1" s="143"/>
-      <c r="N1" s="144"/>
-      <c r="O1" s="148" t="s">
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="105"/>
+      <c r="K1" s="105"/>
+      <c r="L1" s="105"/>
+      <c r="M1" s="105"/>
+      <c r="N1" s="106"/>
+      <c r="O1" s="110" t="s">
         <v>17</v>
       </c>
-      <c r="P1" s="149"/>
-      <c r="Q1" s="149"/>
-      <c r="R1" s="150"/>
-      <c r="S1" s="157" t="str">
+      <c r="P1" s="111"/>
+      <c r="Q1" s="111"/>
+      <c r="R1" s="112"/>
+      <c r="S1" s="119" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>画面一覧</v>
       </c>
-      <c r="T1" s="158"/>
-      <c r="U1" s="158"/>
-      <c r="V1" s="158"/>
-      <c r="W1" s="158"/>
-      <c r="X1" s="158"/>
-      <c r="Y1" s="158"/>
-      <c r="Z1" s="159"/>
-      <c r="AA1" s="139" t="s">
+      <c r="T1" s="120"/>
+      <c r="U1" s="120"/>
+      <c r="V1" s="120"/>
+      <c r="W1" s="120"/>
+      <c r="X1" s="120"/>
+      <c r="Y1" s="120"/>
+      <c r="Z1" s="121"/>
+      <c r="AA1" s="101" t="s">
         <v>18</v>
       </c>
-      <c r="AB1" s="141"/>
-      <c r="AC1" s="166" t="str">
+      <c r="AB1" s="103"/>
+      <c r="AC1" s="128" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="167"/>
-      <c r="AE1" s="167"/>
-      <c r="AF1" s="168"/>
-      <c r="AG1" s="170">
+      <c r="AD1" s="129"/>
+      <c r="AE1" s="129"/>
+      <c r="AF1" s="130"/>
+      <c r="AG1" s="172">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43592</v>
       </c>
-      <c r="AH1" s="171"/>
-      <c r="AI1" s="172"/>
+      <c r="AH1" s="173"/>
+      <c r="AI1" s="174"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="2"/>
     </row>
     <row r="2" spans="1:38" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="139" t="s">
+      <c r="A2" s="101" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="140"/>
-      <c r="C2" s="140"/>
-      <c r="D2" s="141"/>
-      <c r="E2" s="169" t="str">
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="175" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="143"/>
-      <c r="G2" s="143"/>
-      <c r="H2" s="143"/>
-      <c r="I2" s="143"/>
-      <c r="J2" s="143"/>
-      <c r="K2" s="143"/>
-      <c r="L2" s="143"/>
-      <c r="M2" s="143"/>
-      <c r="N2" s="144"/>
-      <c r="O2" s="151"/>
-      <c r="P2" s="152"/>
-      <c r="Q2" s="152"/>
-      <c r="R2" s="153"/>
-      <c r="S2" s="160"/>
-      <c r="T2" s="161"/>
-      <c r="U2" s="161"/>
-      <c r="V2" s="161"/>
-      <c r="W2" s="161"/>
-      <c r="X2" s="161"/>
-      <c r="Y2" s="161"/>
-      <c r="Z2" s="162"/>
-      <c r="AA2" s="139" t="s">
+      <c r="F2" s="105"/>
+      <c r="G2" s="105"/>
+      <c r="H2" s="105"/>
+      <c r="I2" s="105"/>
+      <c r="J2" s="105"/>
+      <c r="K2" s="105"/>
+      <c r="L2" s="105"/>
+      <c r="M2" s="105"/>
+      <c r="N2" s="106"/>
+      <c r="O2" s="113"/>
+      <c r="P2" s="114"/>
+      <c r="Q2" s="114"/>
+      <c r="R2" s="115"/>
+      <c r="S2" s="122"/>
+      <c r="T2" s="123"/>
+      <c r="U2" s="123"/>
+      <c r="V2" s="123"/>
+      <c r="W2" s="123"/>
+      <c r="X2" s="123"/>
+      <c r="Y2" s="123"/>
+      <c r="Z2" s="124"/>
+      <c r="AA2" s="101" t="s">
         <v>19</v>
       </c>
-      <c r="AB2" s="141"/>
-      <c r="AC2" s="166" t="str">
+      <c r="AB2" s="103"/>
+      <c r="AC2" s="128" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="167"/>
-      <c r="AE2" s="167"/>
-      <c r="AF2" s="168"/>
-      <c r="AG2" s="170">
+      <c r="AD2" s="129"/>
+      <c r="AE2" s="129"/>
+      <c r="AF2" s="130"/>
+      <c r="AG2" s="172">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
-        <v>43895</v>
-      </c>
-      <c r="AH2" s="171"/>
-      <c r="AI2" s="172"/>
+        <v>44796</v>
+      </c>
+      <c r="AH2" s="173"/>
+      <c r="AI2" s="174"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
     </row>
     <row r="3" spans="1:38" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="139" t="s">
+      <c r="A3" s="101" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="140"/>
-      <c r="C3" s="140"/>
-      <c r="D3" s="141"/>
-      <c r="E3" s="169" t="str">
+      <c r="B3" s="102"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="175" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="143"/>
-      <c r="G3" s="143"/>
-      <c r="H3" s="143"/>
-      <c r="I3" s="143"/>
-      <c r="J3" s="143"/>
-      <c r="K3" s="143"/>
-      <c r="L3" s="143"/>
-      <c r="M3" s="143"/>
-      <c r="N3" s="144"/>
-      <c r="O3" s="154"/>
-      <c r="P3" s="155"/>
-      <c r="Q3" s="155"/>
-      <c r="R3" s="156"/>
-      <c r="S3" s="163"/>
-      <c r="T3" s="164"/>
-      <c r="U3" s="164"/>
-      <c r="V3" s="164"/>
-      <c r="W3" s="164"/>
-      <c r="X3" s="164"/>
-      <c r="Y3" s="164"/>
-      <c r="Z3" s="165"/>
-      <c r="AA3" s="139"/>
-      <c r="AB3" s="141"/>
-      <c r="AC3" s="166" t="str">
+      <c r="F3" s="105"/>
+      <c r="G3" s="105"/>
+      <c r="H3" s="105"/>
+      <c r="I3" s="105"/>
+      <c r="J3" s="105"/>
+      <c r="K3" s="105"/>
+      <c r="L3" s="105"/>
+      <c r="M3" s="105"/>
+      <c r="N3" s="106"/>
+      <c r="O3" s="116"/>
+      <c r="P3" s="117"/>
+      <c r="Q3" s="117"/>
+      <c r="R3" s="118"/>
+      <c r="S3" s="125"/>
+      <c r="T3" s="126"/>
+      <c r="U3" s="126"/>
+      <c r="V3" s="126"/>
+      <c r="W3" s="126"/>
+      <c r="X3" s="126"/>
+      <c r="Y3" s="126"/>
+      <c r="Z3" s="127"/>
+      <c r="AA3" s="101"/>
+      <c r="AB3" s="103"/>
+      <c r="AC3" s="128" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="167"/>
-      <c r="AE3" s="167"/>
-      <c r="AF3" s="168"/>
-      <c r="AG3" s="170" t="str">
+      <c r="AD3" s="129"/>
+      <c r="AE3" s="129"/>
+      <c r="AF3" s="130"/>
+      <c r="AG3" s="172" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="171"/>
-      <c r="AI3" s="172"/>
+      <c r="AH3" s="173"/>
+      <c r="AI3" s="174"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
@@ -6789,14 +6819,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -6806,6 +6828,14 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="10"/>
   <printOptions horizontalCentered="1"/>
@@ -6822,8 +6852,8 @@
   </sheetPr>
   <dimension ref="A1:BE20"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="160" zoomScaleNormal="100" zoomScaleSheetLayoutView="160" workbookViewId="0">
+      <selection activeCell="T20" sqref="T20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -6832,59 +6862,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:57" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="139" t="s">
+      <c r="A1" s="101" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="140"/>
-      <c r="C1" s="140"/>
-      <c r="D1" s="141"/>
-      <c r="E1" s="169" t="str">
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="175" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="143"/>
-      <c r="G1" s="143"/>
-      <c r="H1" s="143"/>
-      <c r="I1" s="143"/>
-      <c r="J1" s="143"/>
-      <c r="K1" s="143"/>
-      <c r="L1" s="143"/>
-      <c r="M1" s="143"/>
-      <c r="N1" s="144"/>
-      <c r="O1" s="196" t="s">
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="105"/>
+      <c r="K1" s="105"/>
+      <c r="L1" s="105"/>
+      <c r="M1" s="105"/>
+      <c r="N1" s="106"/>
+      <c r="O1" s="191" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="197"/>
-      <c r="Q1" s="197"/>
-      <c r="R1" s="198"/>
-      <c r="S1" s="205" t="str">
+      <c r="P1" s="192"/>
+      <c r="Q1" s="192"/>
+      <c r="R1" s="193"/>
+      <c r="S1" s="179" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>画面一覧</v>
       </c>
-      <c r="T1" s="206"/>
-      <c r="U1" s="206"/>
-      <c r="V1" s="206"/>
-      <c r="W1" s="206"/>
-      <c r="X1" s="206"/>
-      <c r="Y1" s="206"/>
-      <c r="Z1" s="207"/>
-      <c r="AA1" s="139" t="s">
+      <c r="T1" s="180"/>
+      <c r="U1" s="180"/>
+      <c r="V1" s="180"/>
+      <c r="W1" s="180"/>
+      <c r="X1" s="180"/>
+      <c r="Y1" s="180"/>
+      <c r="Z1" s="181"/>
+      <c r="AA1" s="101" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="141"/>
-      <c r="AC1" s="166" t="str">
+      <c r="AB1" s="103"/>
+      <c r="AC1" s="128" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="167"/>
-      <c r="AE1" s="167"/>
-      <c r="AF1" s="168"/>
-      <c r="AG1" s="170">
+      <c r="AD1" s="129"/>
+      <c r="AE1" s="129"/>
+      <c r="AF1" s="130"/>
+      <c r="AG1" s="172">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43592</v>
       </c>
-      <c r="AH1" s="171"/>
-      <c r="AI1" s="172"/>
+      <c r="AH1" s="173"/>
+      <c r="AI1" s="174"/>
       <c r="AJ1" s="11"/>
       <c r="AK1" s="11"/>
       <c r="AL1" s="11"/>
@@ -6909,54 +6939,54 @@
       <c r="BE1" s="11"/>
     </row>
     <row r="2" spans="1:57" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="139" t="s">
+      <c r="A2" s="101" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="140"/>
-      <c r="C2" s="140"/>
-      <c r="D2" s="141"/>
-      <c r="E2" s="169" t="str">
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="175" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="143"/>
-      <c r="G2" s="143"/>
-      <c r="H2" s="143"/>
-      <c r="I2" s="143"/>
-      <c r="J2" s="143"/>
-      <c r="K2" s="143"/>
-      <c r="L2" s="143"/>
-      <c r="M2" s="143"/>
-      <c r="N2" s="144"/>
-      <c r="O2" s="199"/>
-      <c r="P2" s="200"/>
-      <c r="Q2" s="200"/>
-      <c r="R2" s="201"/>
-      <c r="S2" s="208"/>
-      <c r="T2" s="209"/>
-      <c r="U2" s="209"/>
-      <c r="V2" s="209"/>
-      <c r="W2" s="209"/>
-      <c r="X2" s="209"/>
-      <c r="Y2" s="209"/>
-      <c r="Z2" s="210"/>
-      <c r="AA2" s="139" t="s">
+      <c r="F2" s="105"/>
+      <c r="G2" s="105"/>
+      <c r="H2" s="105"/>
+      <c r="I2" s="105"/>
+      <c r="J2" s="105"/>
+      <c r="K2" s="105"/>
+      <c r="L2" s="105"/>
+      <c r="M2" s="105"/>
+      <c r="N2" s="106"/>
+      <c r="O2" s="194"/>
+      <c r="P2" s="195"/>
+      <c r="Q2" s="195"/>
+      <c r="R2" s="196"/>
+      <c r="S2" s="182"/>
+      <c r="T2" s="183"/>
+      <c r="U2" s="183"/>
+      <c r="V2" s="183"/>
+      <c r="W2" s="183"/>
+      <c r="X2" s="183"/>
+      <c r="Y2" s="183"/>
+      <c r="Z2" s="184"/>
+      <c r="AA2" s="101" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="141"/>
-      <c r="AC2" s="166" t="str">
+      <c r="AB2" s="103"/>
+      <c r="AC2" s="128" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="167"/>
-      <c r="AE2" s="167"/>
-      <c r="AF2" s="168"/>
-      <c r="AG2" s="170">
+      <c r="AD2" s="129"/>
+      <c r="AE2" s="129"/>
+      <c r="AF2" s="130"/>
+      <c r="AG2" s="172">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
-        <v>43895</v>
-      </c>
-      <c r="AH2" s="171"/>
-      <c r="AI2" s="172"/>
+        <v>44796</v>
+      </c>
+      <c r="AH2" s="173"/>
+      <c r="AI2" s="174"/>
       <c r="AJ2" s="11"/>
       <c r="AK2" s="11"/>
       <c r="AL2" s="11"/>
@@ -6981,52 +7011,52 @@
       <c r="BE2" s="11"/>
     </row>
     <row r="3" spans="1:57" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="139" t="s">
+      <c r="A3" s="101" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="140"/>
-      <c r="C3" s="140"/>
-      <c r="D3" s="141"/>
-      <c r="E3" s="169" t="str">
+      <c r="B3" s="102"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="175" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="143"/>
-      <c r="G3" s="143"/>
-      <c r="H3" s="143"/>
-      <c r="I3" s="143"/>
-      <c r="J3" s="143"/>
-      <c r="K3" s="143"/>
-      <c r="L3" s="143"/>
-      <c r="M3" s="143"/>
-      <c r="N3" s="144"/>
-      <c r="O3" s="202"/>
-      <c r="P3" s="203"/>
-      <c r="Q3" s="203"/>
-      <c r="R3" s="204"/>
-      <c r="S3" s="211"/>
-      <c r="T3" s="212"/>
-      <c r="U3" s="212"/>
-      <c r="V3" s="212"/>
-      <c r="W3" s="212"/>
-      <c r="X3" s="212"/>
-      <c r="Y3" s="212"/>
-      <c r="Z3" s="213"/>
-      <c r="AA3" s="139"/>
-      <c r="AB3" s="141"/>
-      <c r="AC3" s="166" t="str">
+      <c r="F3" s="105"/>
+      <c r="G3" s="105"/>
+      <c r="H3" s="105"/>
+      <c r="I3" s="105"/>
+      <c r="J3" s="105"/>
+      <c r="K3" s="105"/>
+      <c r="L3" s="105"/>
+      <c r="M3" s="105"/>
+      <c r="N3" s="106"/>
+      <c r="O3" s="197"/>
+      <c r="P3" s="198"/>
+      <c r="Q3" s="198"/>
+      <c r="R3" s="199"/>
+      <c r="S3" s="185"/>
+      <c r="T3" s="186"/>
+      <c r="U3" s="186"/>
+      <c r="V3" s="186"/>
+      <c r="W3" s="186"/>
+      <c r="X3" s="186"/>
+      <c r="Y3" s="186"/>
+      <c r="Z3" s="187"/>
+      <c r="AA3" s="101"/>
+      <c r="AB3" s="103"/>
+      <c r="AC3" s="128" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="167"/>
-      <c r="AE3" s="167"/>
-      <c r="AF3" s="168"/>
-      <c r="AG3" s="170" t="str">
+      <c r="AD3" s="129"/>
+      <c r="AE3" s="129"/>
+      <c r="AF3" s="130"/>
+      <c r="AG3" s="172" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="171"/>
-      <c r="AI3" s="172"/>
+      <c r="AH3" s="173"/>
+      <c r="AI3" s="174"/>
       <c r="AJ3" s="11"/>
       <c r="AK3" s="11"/>
       <c r="AL3" s="11"/>
@@ -7197,47 +7227,47 @@
       <c r="C7" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="178" t="s">
+      <c r="D7" s="188" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="179"/>
-      <c r="F7" s="180"/>
-      <c r="G7" s="178" t="s">
+      <c r="E7" s="189"/>
+      <c r="F7" s="190"/>
+      <c r="G7" s="188" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="179"/>
-      <c r="I7" s="179"/>
-      <c r="J7" s="179"/>
-      <c r="K7" s="180"/>
-      <c r="L7" s="214" t="s">
+      <c r="H7" s="189"/>
+      <c r="I7" s="189"/>
+      <c r="J7" s="189"/>
+      <c r="K7" s="190"/>
+      <c r="L7" s="200" t="s">
         <v>12</v>
       </c>
-      <c r="M7" s="215"/>
-      <c r="N7" s="216"/>
-      <c r="O7" s="178" t="s">
+      <c r="M7" s="201"/>
+      <c r="N7" s="202"/>
+      <c r="O7" s="188" t="s">
         <v>13</v>
       </c>
-      <c r="P7" s="179"/>
-      <c r="Q7" s="179"/>
-      <c r="R7" s="179"/>
-      <c r="S7" s="180"/>
-      <c r="T7" s="178" t="s">
+      <c r="P7" s="189"/>
+      <c r="Q7" s="189"/>
+      <c r="R7" s="189"/>
+      <c r="S7" s="190"/>
+      <c r="T7" s="188" t="s">
         <v>14</v>
       </c>
-      <c r="U7" s="179"/>
-      <c r="V7" s="179"/>
-      <c r="W7" s="179"/>
-      <c r="X7" s="179"/>
-      <c r="Y7" s="179"/>
-      <c r="Z7" s="179"/>
-      <c r="AA7" s="179"/>
-      <c r="AB7" s="179"/>
-      <c r="AC7" s="179"/>
-      <c r="AD7" s="179"/>
-      <c r="AE7" s="179"/>
-      <c r="AF7" s="179"/>
-      <c r="AG7" s="179"/>
-      <c r="AH7" s="180"/>
+      <c r="U7" s="189"/>
+      <c r="V7" s="189"/>
+      <c r="W7" s="189"/>
+      <c r="X7" s="189"/>
+      <c r="Y7" s="189"/>
+      <c r="Z7" s="189"/>
+      <c r="AA7" s="189"/>
+      <c r="AB7" s="189"/>
+      <c r="AC7" s="189"/>
+      <c r="AD7" s="189"/>
+      <c r="AE7" s="189"/>
+      <c r="AF7" s="189"/>
+      <c r="AG7" s="189"/>
+      <c r="AH7" s="190"/>
       <c r="AJ7" s="11"/>
       <c r="AK7" s="11"/>
       <c r="AL7" s="11"/>
@@ -7265,47 +7295,47 @@
       <c r="C8" s="60">
         <v>1</v>
       </c>
-      <c r="D8" s="187" t="s">
+      <c r="D8" s="203" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="188"/>
-      <c r="F8" s="189"/>
-      <c r="G8" s="187" t="s">
+      <c r="E8" s="204"/>
+      <c r="F8" s="205"/>
+      <c r="G8" s="203" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="188"/>
-      <c r="I8" s="188"/>
-      <c r="J8" s="188"/>
-      <c r="K8" s="189"/>
-      <c r="L8" s="108" t="s">
+      <c r="H8" s="204"/>
+      <c r="I8" s="204"/>
+      <c r="J8" s="204"/>
+      <c r="K8" s="205"/>
+      <c r="L8" s="139" t="s">
         <v>29</v>
       </c>
-      <c r="M8" s="115"/>
-      <c r="N8" s="116"/>
-      <c r="O8" s="108" t="s">
+      <c r="M8" s="140"/>
+      <c r="N8" s="141"/>
+      <c r="O8" s="139" t="s">
         <v>28</v>
       </c>
-      <c r="P8" s="115"/>
-      <c r="Q8" s="115"/>
-      <c r="R8" s="115"/>
-      <c r="S8" s="116"/>
-      <c r="T8" s="108" t="s">
-        <v>57</v>
-      </c>
-      <c r="U8" s="101"/>
-      <c r="V8" s="101"/>
-      <c r="W8" s="101"/>
-      <c r="X8" s="101"/>
-      <c r="Y8" s="101"/>
-      <c r="Z8" s="101"/>
-      <c r="AA8" s="101"/>
-      <c r="AB8" s="101"/>
-      <c r="AC8" s="101"/>
-      <c r="AD8" s="101"/>
-      <c r="AE8" s="101"/>
-      <c r="AF8" s="101"/>
-      <c r="AG8" s="101"/>
-      <c r="AH8" s="102"/>
+      <c r="P8" s="140"/>
+      <c r="Q8" s="140"/>
+      <c r="R8" s="140"/>
+      <c r="S8" s="141"/>
+      <c r="T8" s="139" t="s">
+        <v>54</v>
+      </c>
+      <c r="U8" s="165"/>
+      <c r="V8" s="165"/>
+      <c r="W8" s="165"/>
+      <c r="X8" s="165"/>
+      <c r="Y8" s="165"/>
+      <c r="Z8" s="165"/>
+      <c r="AA8" s="165"/>
+      <c r="AB8" s="165"/>
+      <c r="AC8" s="165"/>
+      <c r="AD8" s="165"/>
+      <c r="AE8" s="165"/>
+      <c r="AF8" s="165"/>
+      <c r="AG8" s="165"/>
+      <c r="AH8" s="166"/>
       <c r="AJ8" s="11"/>
       <c r="AK8" s="11"/>
       <c r="AL8" s="11"/>
@@ -7334,43 +7364,43 @@
         <f>C8+1</f>
         <v>2</v>
       </c>
-      <c r="D9" s="190"/>
-      <c r="E9" s="191"/>
-      <c r="F9" s="192"/>
-      <c r="G9" s="190"/>
-      <c r="H9" s="191"/>
-      <c r="I9" s="191"/>
-      <c r="J9" s="191"/>
-      <c r="K9" s="192"/>
-      <c r="L9" s="108" t="s">
+      <c r="D9" s="206"/>
+      <c r="E9" s="207"/>
+      <c r="F9" s="208"/>
+      <c r="G9" s="206"/>
+      <c r="H9" s="207"/>
+      <c r="I9" s="207"/>
+      <c r="J9" s="207"/>
+      <c r="K9" s="208"/>
+      <c r="L9" s="139" t="s">
         <v>30</v>
       </c>
-      <c r="M9" s="115"/>
-      <c r="N9" s="116"/>
-      <c r="O9" s="108" t="s">
+      <c r="M9" s="140"/>
+      <c r="N9" s="141"/>
+      <c r="O9" s="139" t="s">
         <v>31</v>
       </c>
-      <c r="P9" s="115"/>
-      <c r="Q9" s="115"/>
-      <c r="R9" s="115"/>
-      <c r="S9" s="116"/>
-      <c r="T9" s="108" t="s">
-        <v>44</v>
-      </c>
-      <c r="U9" s="101"/>
-      <c r="V9" s="101"/>
-      <c r="W9" s="101"/>
-      <c r="X9" s="101"/>
-      <c r="Y9" s="101"/>
-      <c r="Z9" s="101"/>
-      <c r="AA9" s="101"/>
-      <c r="AB9" s="101"/>
-      <c r="AC9" s="101"/>
-      <c r="AD9" s="101"/>
-      <c r="AE9" s="101"/>
-      <c r="AF9" s="101"/>
-      <c r="AG9" s="101"/>
-      <c r="AH9" s="102"/>
+      <c r="P9" s="140"/>
+      <c r="Q9" s="140"/>
+      <c r="R9" s="140"/>
+      <c r="S9" s="141"/>
+      <c r="T9" s="139" t="s">
+        <v>42</v>
+      </c>
+      <c r="U9" s="165"/>
+      <c r="V9" s="165"/>
+      <c r="W9" s="165"/>
+      <c r="X9" s="165"/>
+      <c r="Y9" s="165"/>
+      <c r="Z9" s="165"/>
+      <c r="AA9" s="165"/>
+      <c r="AB9" s="165"/>
+      <c r="AC9" s="165"/>
+      <c r="AD9" s="165"/>
+      <c r="AE9" s="165"/>
+      <c r="AF9" s="165"/>
+      <c r="AG9" s="165"/>
+      <c r="AH9" s="166"/>
       <c r="AL9" s="11"/>
       <c r="AM9" s="11"/>
       <c r="AN9" s="11"/>
@@ -7384,48 +7414,52 @@
       <c r="AV9" s="11"/>
       <c r="AW9" s="11"/>
     </row>
-    <row r="10" spans="1:57" s="8" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:57" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C10" s="60">
-        <f t="shared" ref="C10:C14" si="0">C9+1</f>
+        <f t="shared" ref="C10:C19" si="0">C9+1</f>
         <v>3</v>
       </c>
-      <c r="D10" s="190"/>
-      <c r="E10" s="191"/>
-      <c r="F10" s="192"/>
-      <c r="G10" s="190"/>
-      <c r="H10" s="191"/>
-      <c r="I10" s="191"/>
-      <c r="J10" s="191"/>
-      <c r="K10" s="192"/>
-      <c r="L10" s="184" t="s">
-        <v>32</v>
-      </c>
-      <c r="M10" s="185"/>
-      <c r="N10" s="186"/>
-      <c r="O10" s="184" t="s">
-        <v>33</v>
-      </c>
-      <c r="P10" s="185"/>
-      <c r="Q10" s="185"/>
-      <c r="R10" s="185"/>
-      <c r="S10" s="186"/>
-      <c r="T10" s="181" t="s">
-        <v>50</v>
-      </c>
-      <c r="U10" s="182"/>
-      <c r="V10" s="182"/>
-      <c r="W10" s="182"/>
-      <c r="X10" s="182"/>
-      <c r="Y10" s="182"/>
-      <c r="Z10" s="182"/>
-      <c r="AA10" s="182"/>
-      <c r="AB10" s="182"/>
-      <c r="AC10" s="182"/>
-      <c r="AD10" s="182"/>
-      <c r="AE10" s="182"/>
-      <c r="AF10" s="182"/>
-      <c r="AG10" s="182"/>
-      <c r="AH10" s="183"/>
+      <c r="D10" s="215" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="215"/>
+      <c r="F10" s="215"/>
+      <c r="G10" s="215" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10" s="215"/>
+      <c r="I10" s="215"/>
+      <c r="J10" s="215"/>
+      <c r="K10" s="215"/>
+      <c r="L10" s="176" t="s">
+        <v>39</v>
+      </c>
+      <c r="M10" s="177"/>
+      <c r="N10" s="178"/>
+      <c r="O10" s="176" t="s">
+        <v>36</v>
+      </c>
+      <c r="P10" s="177"/>
+      <c r="Q10" s="177"/>
+      <c r="R10" s="177"/>
+      <c r="S10" s="178"/>
+      <c r="T10" s="176" t="s">
+        <v>51</v>
+      </c>
+      <c r="U10" s="210"/>
+      <c r="V10" s="210"/>
+      <c r="W10" s="210"/>
+      <c r="X10" s="210"/>
+      <c r="Y10" s="210"/>
+      <c r="Z10" s="210"/>
+      <c r="AA10" s="210"/>
+      <c r="AB10" s="210"/>
+      <c r="AC10" s="210"/>
+      <c r="AD10" s="210"/>
+      <c r="AE10" s="210"/>
+      <c r="AF10" s="210"/>
+      <c r="AG10" s="210"/>
+      <c r="AH10" s="211"/>
       <c r="AL10" s="11"/>
       <c r="AM10" s="11"/>
       <c r="AN10" s="11"/>
@@ -7439,48 +7473,48 @@
       <c r="AV10" s="11"/>
       <c r="AW10" s="11"/>
     </row>
-    <row r="11" spans="1:57" s="8" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:57" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C11" s="60">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D11" s="193"/>
-      <c r="E11" s="194"/>
-      <c r="F11" s="195"/>
-      <c r="G11" s="193"/>
-      <c r="H11" s="194"/>
-      <c r="I11" s="194"/>
-      <c r="J11" s="194"/>
-      <c r="K11" s="195"/>
-      <c r="L11" s="184" t="s">
-        <v>34</v>
-      </c>
-      <c r="M11" s="185"/>
-      <c r="N11" s="186"/>
-      <c r="O11" s="184" t="s">
-        <v>35</v>
-      </c>
-      <c r="P11" s="185"/>
-      <c r="Q11" s="185"/>
-      <c r="R11" s="185"/>
-      <c r="S11" s="186"/>
-      <c r="T11" s="181" t="s">
-        <v>56</v>
-      </c>
-      <c r="U11" s="182"/>
-      <c r="V11" s="182"/>
-      <c r="W11" s="182"/>
-      <c r="X11" s="182"/>
-      <c r="Y11" s="182"/>
-      <c r="Z11" s="182"/>
-      <c r="AA11" s="182"/>
-      <c r="AB11" s="182"/>
-      <c r="AC11" s="182"/>
-      <c r="AD11" s="182"/>
-      <c r="AE11" s="182"/>
-      <c r="AF11" s="182"/>
-      <c r="AG11" s="182"/>
-      <c r="AH11" s="183"/>
+      <c r="D11" s="216"/>
+      <c r="E11" s="216"/>
+      <c r="F11" s="216"/>
+      <c r="G11" s="216"/>
+      <c r="H11" s="216"/>
+      <c r="I11" s="216"/>
+      <c r="J11" s="216"/>
+      <c r="K11" s="216"/>
+      <c r="L11" s="139" t="s">
+        <v>40</v>
+      </c>
+      <c r="M11" s="140"/>
+      <c r="N11" s="141"/>
+      <c r="O11" s="139" t="s">
+        <v>37</v>
+      </c>
+      <c r="P11" s="140"/>
+      <c r="Q11" s="140"/>
+      <c r="R11" s="140"/>
+      <c r="S11" s="141"/>
+      <c r="T11" s="139" t="s">
+        <v>49</v>
+      </c>
+      <c r="U11" s="165"/>
+      <c r="V11" s="165"/>
+      <c r="W11" s="165"/>
+      <c r="X11" s="165"/>
+      <c r="Y11" s="165"/>
+      <c r="Z11" s="165"/>
+      <c r="AA11" s="165"/>
+      <c r="AB11" s="165"/>
+      <c r="AC11" s="165"/>
+      <c r="AD11" s="165"/>
+      <c r="AE11" s="165"/>
+      <c r="AF11" s="165"/>
+      <c r="AG11" s="165"/>
+      <c r="AH11" s="166"/>
       <c r="AL11" s="11"/>
       <c r="AM11" s="11"/>
       <c r="AN11" s="11"/>
@@ -7494,52 +7528,48 @@
       <c r="AV11" s="11"/>
       <c r="AW11" s="11"/>
     </row>
-    <row r="12" spans="1:57" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:57" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C12" s="60">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="D12" s="176" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12" s="176"/>
-      <c r="F12" s="176"/>
-      <c r="G12" s="176" t="s">
-        <v>36</v>
-      </c>
-      <c r="H12" s="176"/>
-      <c r="I12" s="176"/>
-      <c r="J12" s="176"/>
-      <c r="K12" s="176"/>
-      <c r="L12" s="184" t="s">
+      <c r="D12" s="216"/>
+      <c r="E12" s="216"/>
+      <c r="F12" s="216"/>
+      <c r="G12" s="216"/>
+      <c r="H12" s="216"/>
+      <c r="I12" s="216"/>
+      <c r="J12" s="216"/>
+      <c r="K12" s="216"/>
+      <c r="L12" s="139" t="s">
         <v>41</v>
       </c>
-      <c r="M12" s="185"/>
-      <c r="N12" s="186"/>
-      <c r="O12" s="184" t="s">
+      <c r="M12" s="140"/>
+      <c r="N12" s="141"/>
+      <c r="O12" s="139" t="s">
         <v>38</v>
       </c>
-      <c r="P12" s="185"/>
-      <c r="Q12" s="185"/>
-      <c r="R12" s="185"/>
-      <c r="S12" s="186"/>
-      <c r="T12" s="184" t="s">
-        <v>53</v>
-      </c>
-      <c r="U12" s="182"/>
-      <c r="V12" s="182"/>
-      <c r="W12" s="182"/>
-      <c r="X12" s="182"/>
-      <c r="Y12" s="182"/>
-      <c r="Z12" s="182"/>
-      <c r="AA12" s="182"/>
-      <c r="AB12" s="182"/>
-      <c r="AC12" s="182"/>
-      <c r="AD12" s="182"/>
-      <c r="AE12" s="182"/>
-      <c r="AF12" s="182"/>
-      <c r="AG12" s="182"/>
-      <c r="AH12" s="183"/>
+      <c r="P12" s="140"/>
+      <c r="Q12" s="140"/>
+      <c r="R12" s="140"/>
+      <c r="S12" s="141"/>
+      <c r="T12" s="139" t="s">
+        <v>50</v>
+      </c>
+      <c r="U12" s="165"/>
+      <c r="V12" s="165"/>
+      <c r="W12" s="165"/>
+      <c r="X12" s="165"/>
+      <c r="Y12" s="165"/>
+      <c r="Z12" s="165"/>
+      <c r="AA12" s="165"/>
+      <c r="AB12" s="165"/>
+      <c r="AC12" s="165"/>
+      <c r="AD12" s="165"/>
+      <c r="AE12" s="165"/>
+      <c r="AF12" s="165"/>
+      <c r="AG12" s="165"/>
+      <c r="AH12" s="166"/>
       <c r="AL12" s="11"/>
       <c r="AM12" s="11"/>
       <c r="AN12" s="11"/>
@@ -7553,48 +7583,48 @@
       <c r="AV12" s="11"/>
       <c r="AW12" s="11"/>
     </row>
-    <row r="13" spans="1:57" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:57" s="7" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C13" s="60">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="D13" s="177"/>
-      <c r="E13" s="177"/>
-      <c r="F13" s="177"/>
-      <c r="G13" s="177"/>
-      <c r="H13" s="177"/>
-      <c r="I13" s="177"/>
-      <c r="J13" s="177"/>
-      <c r="K13" s="177"/>
-      <c r="L13" s="108" t="s">
-        <v>42</v>
-      </c>
-      <c r="M13" s="115"/>
-      <c r="N13" s="116"/>
-      <c r="O13" s="108" t="s">
-        <v>39</v>
-      </c>
-      <c r="P13" s="115"/>
-      <c r="Q13" s="115"/>
-      <c r="R13" s="115"/>
-      <c r="S13" s="116"/>
-      <c r="T13" s="108" t="s">
-        <v>51</v>
-      </c>
-      <c r="U13" s="101"/>
-      <c r="V13" s="101"/>
-      <c r="W13" s="101"/>
-      <c r="X13" s="101"/>
-      <c r="Y13" s="101"/>
-      <c r="Z13" s="101"/>
-      <c r="AA13" s="101"/>
-      <c r="AB13" s="101"/>
-      <c r="AC13" s="101"/>
-      <c r="AD13" s="101"/>
-      <c r="AE13" s="101"/>
-      <c r="AF13" s="101"/>
-      <c r="AG13" s="101"/>
-      <c r="AH13" s="102"/>
+      <c r="D13" s="216"/>
+      <c r="E13" s="216"/>
+      <c r="F13" s="216"/>
+      <c r="G13" s="216"/>
+      <c r="H13" s="216"/>
+      <c r="I13" s="216"/>
+      <c r="J13" s="216"/>
+      <c r="K13" s="216"/>
+      <c r="L13" s="139" t="s">
+        <v>55</v>
+      </c>
+      <c r="M13" s="140"/>
+      <c r="N13" s="141"/>
+      <c r="O13" s="139" t="s">
+        <v>56</v>
+      </c>
+      <c r="P13" s="140"/>
+      <c r="Q13" s="140"/>
+      <c r="R13" s="140"/>
+      <c r="S13" s="141"/>
+      <c r="T13" s="142" t="s">
+        <v>57</v>
+      </c>
+      <c r="U13" s="168"/>
+      <c r="V13" s="168"/>
+      <c r="W13" s="168"/>
+      <c r="X13" s="168"/>
+      <c r="Y13" s="168"/>
+      <c r="Z13" s="168"/>
+      <c r="AA13" s="168"/>
+      <c r="AB13" s="168"/>
+      <c r="AC13" s="168"/>
+      <c r="AD13" s="168"/>
+      <c r="AE13" s="168"/>
+      <c r="AF13" s="168"/>
+      <c r="AG13" s="168"/>
+      <c r="AH13" s="169"/>
       <c r="AL13" s="11"/>
       <c r="AM13" s="11"/>
       <c r="AN13" s="11"/>
@@ -7608,48 +7638,48 @@
       <c r="AV13" s="11"/>
       <c r="AW13" s="11"/>
     </row>
-    <row r="14" spans="1:57" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:57" s="7" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C14" s="60">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="D14" s="177"/>
-      <c r="E14" s="177"/>
-      <c r="F14" s="177"/>
-      <c r="G14" s="177"/>
-      <c r="H14" s="177"/>
-      <c r="I14" s="177"/>
-      <c r="J14" s="177"/>
-      <c r="K14" s="177"/>
-      <c r="L14" s="108" t="s">
-        <v>43</v>
-      </c>
-      <c r="M14" s="115"/>
-      <c r="N14" s="116"/>
-      <c r="O14" s="108" t="s">
-        <v>40</v>
-      </c>
-      <c r="P14" s="115"/>
-      <c r="Q14" s="115"/>
-      <c r="R14" s="115"/>
-      <c r="S14" s="116"/>
-      <c r="T14" s="108" t="s">
-        <v>52</v>
-      </c>
-      <c r="U14" s="101"/>
-      <c r="V14" s="101"/>
-      <c r="W14" s="101"/>
-      <c r="X14" s="101"/>
-      <c r="Y14" s="101"/>
-      <c r="Z14" s="101"/>
-      <c r="AA14" s="101"/>
-      <c r="AB14" s="101"/>
-      <c r="AC14" s="101"/>
-      <c r="AD14" s="101"/>
-      <c r="AE14" s="101"/>
-      <c r="AF14" s="101"/>
-      <c r="AG14" s="101"/>
-      <c r="AH14" s="102"/>
+      <c r="D14" s="216"/>
+      <c r="E14" s="216"/>
+      <c r="F14" s="216"/>
+      <c r="G14" s="216"/>
+      <c r="H14" s="216"/>
+      <c r="I14" s="216"/>
+      <c r="J14" s="216"/>
+      <c r="K14" s="216"/>
+      <c r="L14" s="139" t="s">
+        <v>61</v>
+      </c>
+      <c r="M14" s="140"/>
+      <c r="N14" s="141"/>
+      <c r="O14" s="139" t="s">
+        <v>62</v>
+      </c>
+      <c r="P14" s="140"/>
+      <c r="Q14" s="140"/>
+      <c r="R14" s="140"/>
+      <c r="S14" s="141"/>
+      <c r="T14" s="142" t="s">
+        <v>63</v>
+      </c>
+      <c r="U14" s="168"/>
+      <c r="V14" s="168"/>
+      <c r="W14" s="168"/>
+      <c r="X14" s="168"/>
+      <c r="Y14" s="168"/>
+      <c r="Z14" s="168"/>
+      <c r="AA14" s="168"/>
+      <c r="AB14" s="168"/>
+      <c r="AC14" s="168"/>
+      <c r="AD14" s="168"/>
+      <c r="AE14" s="168"/>
+      <c r="AF14" s="168"/>
+      <c r="AG14" s="168"/>
+      <c r="AH14" s="169"/>
       <c r="AL14" s="11"/>
       <c r="AM14" s="11"/>
       <c r="AN14" s="11"/>
@@ -7663,48 +7693,48 @@
       <c r="AV14" s="11"/>
       <c r="AW14" s="11"/>
     </row>
-    <row r="15" spans="1:57" s="7" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:57" s="7" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C15" s="60">
-        <f>C14+1</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="D15" s="177"/>
-      <c r="E15" s="177"/>
-      <c r="F15" s="177"/>
-      <c r="G15" s="177"/>
-      <c r="H15" s="177"/>
-      <c r="I15" s="177"/>
-      <c r="J15" s="177"/>
-      <c r="K15" s="177"/>
-      <c r="L15" s="108" t="s">
-        <v>58</v>
-      </c>
-      <c r="M15" s="115"/>
-      <c r="N15" s="116"/>
-      <c r="O15" s="108" t="s">
-        <v>59</v>
-      </c>
-      <c r="P15" s="115"/>
-      <c r="Q15" s="115"/>
-      <c r="R15" s="115"/>
-      <c r="S15" s="116"/>
-      <c r="T15" s="109" t="s">
-        <v>60</v>
-      </c>
-      <c r="U15" s="104"/>
-      <c r="V15" s="104"/>
-      <c r="W15" s="104"/>
-      <c r="X15" s="104"/>
-      <c r="Y15" s="104"/>
-      <c r="Z15" s="104"/>
-      <c r="AA15" s="104"/>
-      <c r="AB15" s="104"/>
-      <c r="AC15" s="104"/>
-      <c r="AD15" s="104"/>
-      <c r="AE15" s="104"/>
-      <c r="AF15" s="104"/>
-      <c r="AG15" s="104"/>
-      <c r="AH15" s="105"/>
+      <c r="D15" s="216"/>
+      <c r="E15" s="216"/>
+      <c r="F15" s="216"/>
+      <c r="G15" s="216"/>
+      <c r="H15" s="216"/>
+      <c r="I15" s="216"/>
+      <c r="J15" s="216"/>
+      <c r="K15" s="216"/>
+      <c r="L15" s="83" t="s">
+        <v>65</v>
+      </c>
+      <c r="M15" s="84"/>
+      <c r="N15" s="85"/>
+      <c r="O15" s="83" t="s">
+        <v>68</v>
+      </c>
+      <c r="P15" s="84"/>
+      <c r="Q15" s="84"/>
+      <c r="R15" s="84"/>
+      <c r="S15" s="85"/>
+      <c r="T15" s="212" t="s">
+        <v>71</v>
+      </c>
+      <c r="U15" s="213"/>
+      <c r="V15" s="213"/>
+      <c r="W15" s="213"/>
+      <c r="X15" s="213"/>
+      <c r="Y15" s="213"/>
+      <c r="Z15" s="213"/>
+      <c r="AA15" s="213"/>
+      <c r="AB15" s="213"/>
+      <c r="AC15" s="213"/>
+      <c r="AD15" s="213"/>
+      <c r="AE15" s="213"/>
+      <c r="AF15" s="213"/>
+      <c r="AG15" s="213"/>
+      <c r="AH15" s="214"/>
       <c r="AL15" s="11"/>
       <c r="AM15" s="11"/>
       <c r="AN15" s="11"/>
@@ -7720,46 +7750,46 @@
     </row>
     <row r="16" spans="1:57" s="7" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C16" s="60">
-        <f>C15+1</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="D16" s="177"/>
-      <c r="E16" s="177"/>
-      <c r="F16" s="177"/>
-      <c r="G16" s="177"/>
-      <c r="H16" s="177"/>
-      <c r="I16" s="177"/>
-      <c r="J16" s="177"/>
-      <c r="K16" s="177"/>
-      <c r="L16" s="108" t="s">
-        <v>64</v>
-      </c>
-      <c r="M16" s="115"/>
-      <c r="N16" s="116"/>
-      <c r="O16" s="108" t="s">
-        <v>65</v>
-      </c>
-      <c r="P16" s="115"/>
-      <c r="Q16" s="115"/>
-      <c r="R16" s="115"/>
-      <c r="S16" s="116"/>
-      <c r="T16" s="109" t="s">
+      <c r="D16" s="216"/>
+      <c r="E16" s="216"/>
+      <c r="F16" s="216"/>
+      <c r="G16" s="216"/>
+      <c r="H16" s="216"/>
+      <c r="I16" s="216"/>
+      <c r="J16" s="216"/>
+      <c r="K16" s="216"/>
+      <c r="L16" s="83" t="s">
         <v>66</v>
       </c>
-      <c r="U16" s="104"/>
-      <c r="V16" s="104"/>
-      <c r="W16" s="104"/>
-      <c r="X16" s="104"/>
-      <c r="Y16" s="104"/>
-      <c r="Z16" s="104"/>
-      <c r="AA16" s="104"/>
-      <c r="AB16" s="104"/>
-      <c r="AC16" s="104"/>
-      <c r="AD16" s="104"/>
-      <c r="AE16" s="104"/>
-      <c r="AF16" s="104"/>
-      <c r="AG16" s="104"/>
-      <c r="AH16" s="105"/>
+      <c r="M16" s="84"/>
+      <c r="N16" s="85"/>
+      <c r="O16" s="83" t="s">
+        <v>69</v>
+      </c>
+      <c r="P16" s="84"/>
+      <c r="Q16" s="84"/>
+      <c r="R16" s="84"/>
+      <c r="S16" s="85"/>
+      <c r="T16" s="212" t="s">
+        <v>72</v>
+      </c>
+      <c r="U16" s="213"/>
+      <c r="V16" s="213"/>
+      <c r="W16" s="213"/>
+      <c r="X16" s="213"/>
+      <c r="Y16" s="213"/>
+      <c r="Z16" s="213"/>
+      <c r="AA16" s="213"/>
+      <c r="AB16" s="213"/>
+      <c r="AC16" s="213"/>
+      <c r="AD16" s="213"/>
+      <c r="AE16" s="213"/>
+      <c r="AF16" s="213"/>
+      <c r="AG16" s="213"/>
+      <c r="AH16" s="214"/>
       <c r="AL16" s="11"/>
       <c r="AM16" s="11"/>
       <c r="AN16" s="11"/>
@@ -7773,48 +7803,48 @@
       <c r="AV16" s="11"/>
       <c r="AW16" s="11"/>
     </row>
-    <row r="17" spans="3:49" s="7" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="3:49" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C17" s="60">
-        <f t="shared" ref="C17:C19" si="1">C16+1</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="D17" s="177"/>
-      <c r="E17" s="177"/>
-      <c r="F17" s="177"/>
-      <c r="G17" s="177"/>
-      <c r="H17" s="177"/>
-      <c r="I17" s="177"/>
-      <c r="J17" s="177"/>
-      <c r="K17" s="177"/>
-      <c r="L17" s="83" t="s">
-        <v>68</v>
-      </c>
-      <c r="M17" s="84"/>
-      <c r="N17" s="85"/>
-      <c r="O17" s="83" t="s">
-        <v>71</v>
-      </c>
-      <c r="P17" s="84"/>
-      <c r="Q17" s="84"/>
-      <c r="R17" s="84"/>
-      <c r="S17" s="85"/>
-      <c r="T17" s="173" t="s">
-        <v>74</v>
-      </c>
-      <c r="U17" s="174"/>
-      <c r="V17" s="174"/>
-      <c r="W17" s="174"/>
-      <c r="X17" s="174"/>
-      <c r="Y17" s="174"/>
-      <c r="Z17" s="174"/>
-      <c r="AA17" s="174"/>
-      <c r="AB17" s="174"/>
-      <c r="AC17" s="174"/>
-      <c r="AD17" s="174"/>
-      <c r="AE17" s="174"/>
-      <c r="AF17" s="174"/>
-      <c r="AG17" s="174"/>
-      <c r="AH17" s="175"/>
+      <c r="D17" s="216"/>
+      <c r="E17" s="216"/>
+      <c r="F17" s="216"/>
+      <c r="G17" s="216"/>
+      <c r="H17" s="216"/>
+      <c r="I17" s="216"/>
+      <c r="J17" s="216"/>
+      <c r="K17" s="216"/>
+      <c r="L17" s="139" t="s">
+        <v>67</v>
+      </c>
+      <c r="M17" s="140"/>
+      <c r="N17" s="141"/>
+      <c r="O17" s="139" t="s">
+        <v>70</v>
+      </c>
+      <c r="P17" s="140"/>
+      <c r="Q17" s="140"/>
+      <c r="R17" s="140"/>
+      <c r="S17" s="141"/>
+      <c r="T17" s="142" t="s">
+        <v>73</v>
+      </c>
+      <c r="U17" s="168"/>
+      <c r="V17" s="168"/>
+      <c r="W17" s="168"/>
+      <c r="X17" s="168"/>
+      <c r="Y17" s="168"/>
+      <c r="Z17" s="168"/>
+      <c r="AA17" s="168"/>
+      <c r="AB17" s="168"/>
+      <c r="AC17" s="168"/>
+      <c r="AD17" s="168"/>
+      <c r="AE17" s="168"/>
+      <c r="AF17" s="168"/>
+      <c r="AG17" s="168"/>
+      <c r="AH17" s="169"/>
       <c r="AL17" s="11"/>
       <c r="AM17" s="11"/>
       <c r="AN17" s="11"/>
@@ -7828,48 +7858,52 @@
       <c r="AV17" s="11"/>
       <c r="AW17" s="11"/>
     </row>
-    <row r="18" spans="3:49" s="7" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="3:49" s="8" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C18" s="60">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="D18" s="177"/>
-      <c r="E18" s="177"/>
-      <c r="F18" s="177"/>
-      <c r="G18" s="177"/>
-      <c r="H18" s="177"/>
-      <c r="I18" s="177"/>
-      <c r="J18" s="177"/>
-      <c r="K18" s="177"/>
-      <c r="L18" s="83" t="s">
-        <v>69</v>
-      </c>
-      <c r="M18" s="84"/>
-      <c r="N18" s="85"/>
-      <c r="O18" s="83" t="s">
-        <v>72</v>
-      </c>
-      <c r="P18" s="84"/>
-      <c r="Q18" s="84"/>
-      <c r="R18" s="84"/>
-      <c r="S18" s="85"/>
-      <c r="T18" s="173" t="s">
-        <v>75</v>
-      </c>
-      <c r="U18" s="174"/>
-      <c r="V18" s="174"/>
-      <c r="W18" s="174"/>
-      <c r="X18" s="174"/>
-      <c r="Y18" s="174"/>
-      <c r="Z18" s="174"/>
-      <c r="AA18" s="174"/>
-      <c r="AB18" s="174"/>
-      <c r="AC18" s="174"/>
-      <c r="AD18" s="174"/>
-      <c r="AE18" s="174"/>
-      <c r="AF18" s="174"/>
-      <c r="AG18" s="174"/>
-      <c r="AH18" s="175"/>
+      <c r="D18" s="217" t="s">
+        <v>76</v>
+      </c>
+      <c r="E18" s="218"/>
+      <c r="F18" s="219"/>
+      <c r="G18" s="217" t="s">
+        <v>77</v>
+      </c>
+      <c r="H18" s="218"/>
+      <c r="I18" s="218"/>
+      <c r="J18" s="218"/>
+      <c r="K18" s="219"/>
+      <c r="L18" s="176" t="s">
+        <v>78</v>
+      </c>
+      <c r="M18" s="177"/>
+      <c r="N18" s="178"/>
+      <c r="O18" s="176" t="s">
+        <v>32</v>
+      </c>
+      <c r="P18" s="177"/>
+      <c r="Q18" s="177"/>
+      <c r="R18" s="177"/>
+      <c r="S18" s="178"/>
+      <c r="T18" s="209" t="s">
+        <v>48</v>
+      </c>
+      <c r="U18" s="210"/>
+      <c r="V18" s="210"/>
+      <c r="W18" s="210"/>
+      <c r="X18" s="210"/>
+      <c r="Y18" s="210"/>
+      <c r="Z18" s="210"/>
+      <c r="AA18" s="210"/>
+      <c r="AB18" s="210"/>
+      <c r="AC18" s="210"/>
+      <c r="AD18" s="210"/>
+      <c r="AE18" s="210"/>
+      <c r="AF18" s="210"/>
+      <c r="AG18" s="210"/>
+      <c r="AH18" s="211"/>
       <c r="AL18" s="11"/>
       <c r="AM18" s="11"/>
       <c r="AN18" s="11"/>
@@ -7883,48 +7917,48 @@
       <c r="AV18" s="11"/>
       <c r="AW18" s="11"/>
     </row>
-    <row r="19" spans="3:49" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="3:49" s="8" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C19" s="60">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="D19" s="177"/>
-      <c r="E19" s="177"/>
-      <c r="F19" s="177"/>
-      <c r="G19" s="177"/>
-      <c r="H19" s="177"/>
-      <c r="I19" s="177"/>
-      <c r="J19" s="177"/>
-      <c r="K19" s="177"/>
-      <c r="L19" s="108" t="s">
-        <v>70</v>
-      </c>
-      <c r="M19" s="115"/>
-      <c r="N19" s="116"/>
-      <c r="O19" s="108" t="s">
-        <v>73</v>
-      </c>
-      <c r="P19" s="115"/>
-      <c r="Q19" s="115"/>
-      <c r="R19" s="115"/>
-      <c r="S19" s="116"/>
-      <c r="T19" s="109" t="s">
-        <v>76</v>
-      </c>
-      <c r="U19" s="104"/>
-      <c r="V19" s="104"/>
-      <c r="W19" s="104"/>
-      <c r="X19" s="104"/>
-      <c r="Y19" s="104"/>
-      <c r="Z19" s="104"/>
-      <c r="AA19" s="104"/>
-      <c r="AB19" s="104"/>
-      <c r="AC19" s="104"/>
-      <c r="AD19" s="104"/>
-      <c r="AE19" s="104"/>
-      <c r="AF19" s="104"/>
-      <c r="AG19" s="104"/>
-      <c r="AH19" s="105"/>
+      <c r="D19" s="91"/>
+      <c r="E19" s="92"/>
+      <c r="F19" s="93"/>
+      <c r="G19" s="91"/>
+      <c r="H19" s="92"/>
+      <c r="I19" s="92"/>
+      <c r="J19" s="92"/>
+      <c r="K19" s="93"/>
+      <c r="L19" s="176" t="s">
+        <v>79</v>
+      </c>
+      <c r="M19" s="177"/>
+      <c r="N19" s="178"/>
+      <c r="O19" s="176" t="s">
+        <v>33</v>
+      </c>
+      <c r="P19" s="177"/>
+      <c r="Q19" s="177"/>
+      <c r="R19" s="177"/>
+      <c r="S19" s="178"/>
+      <c r="T19" s="209" t="s">
+        <v>80</v>
+      </c>
+      <c r="U19" s="210"/>
+      <c r="V19" s="210"/>
+      <c r="W19" s="210"/>
+      <c r="X19" s="210"/>
+      <c r="Y19" s="210"/>
+      <c r="Z19" s="210"/>
+      <c r="AA19" s="210"/>
+      <c r="AB19" s="210"/>
+      <c r="AC19" s="210"/>
+      <c r="AD19" s="210"/>
+      <c r="AE19" s="210"/>
+      <c r="AF19" s="210"/>
+      <c r="AG19" s="210"/>
+      <c r="AH19" s="211"/>
       <c r="AL19" s="11"/>
       <c r="AM19" s="11"/>
       <c r="AN19" s="11"/>
@@ -7986,12 +8020,44 @@
     </row>
   </sheetData>
   <mergeCells count="58">
+    <mergeCell ref="L18:N18"/>
+    <mergeCell ref="O18:S18"/>
+    <mergeCell ref="T18:AH18"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="O19:S19"/>
+    <mergeCell ref="T19:AH19"/>
+    <mergeCell ref="T15:AH15"/>
+    <mergeCell ref="T16:AH16"/>
+    <mergeCell ref="D10:F17"/>
+    <mergeCell ref="G10:K17"/>
+    <mergeCell ref="T10:AH10"/>
+    <mergeCell ref="T11:AH11"/>
+    <mergeCell ref="T12:AH12"/>
+    <mergeCell ref="L17:N17"/>
+    <mergeCell ref="O17:S17"/>
+    <mergeCell ref="T17:AH17"/>
+    <mergeCell ref="L11:N11"/>
     <mergeCell ref="L12:N12"/>
-    <mergeCell ref="L15:N15"/>
-    <mergeCell ref="O15:S15"/>
-    <mergeCell ref="T15:AH15"/>
-    <mergeCell ref="L16:N16"/>
-    <mergeCell ref="O16:S16"/>
+    <mergeCell ref="O12:S12"/>
+    <mergeCell ref="O10:S10"/>
+    <mergeCell ref="O11:S11"/>
+    <mergeCell ref="T7:AH7"/>
+    <mergeCell ref="T8:AH8"/>
+    <mergeCell ref="T9:AH9"/>
+    <mergeCell ref="O8:S8"/>
+    <mergeCell ref="O9:S9"/>
+    <mergeCell ref="D8:F9"/>
+    <mergeCell ref="G8:K9"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="L8:N8"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="L7:N7"/>
+    <mergeCell ref="O7:S7"/>
     <mergeCell ref="AA1:AB1"/>
     <mergeCell ref="AC3:AF3"/>
     <mergeCell ref="AG3:AI3"/>
@@ -8005,45 +8071,13 @@
     <mergeCell ref="S1:Z3"/>
     <mergeCell ref="AA2:AB2"/>
     <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="L7:N7"/>
-    <mergeCell ref="O7:S7"/>
-    <mergeCell ref="O8:S8"/>
-    <mergeCell ref="O9:S9"/>
-    <mergeCell ref="O10:S10"/>
-    <mergeCell ref="O11:S11"/>
-    <mergeCell ref="D8:F11"/>
-    <mergeCell ref="G8:K11"/>
-    <mergeCell ref="L9:N9"/>
     <mergeCell ref="L10:N10"/>
-    <mergeCell ref="L8:N8"/>
-    <mergeCell ref="L11:N11"/>
-    <mergeCell ref="T7:AH7"/>
-    <mergeCell ref="T8:AH8"/>
-    <mergeCell ref="T9:AH9"/>
-    <mergeCell ref="T10:AH10"/>
-    <mergeCell ref="T11:AH11"/>
-    <mergeCell ref="T16:AH16"/>
-    <mergeCell ref="T17:AH17"/>
-    <mergeCell ref="T18:AH18"/>
-    <mergeCell ref="D12:F19"/>
-    <mergeCell ref="G12:K19"/>
-    <mergeCell ref="T12:AH12"/>
+    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="O13:S13"/>
     <mergeCell ref="T13:AH13"/>
-    <mergeCell ref="T14:AH14"/>
-    <mergeCell ref="L19:N19"/>
-    <mergeCell ref="O19:S19"/>
-    <mergeCell ref="T19:AH19"/>
-    <mergeCell ref="L13:N13"/>
     <mergeCell ref="L14:N14"/>
     <mergeCell ref="O14:S14"/>
-    <mergeCell ref="O12:S12"/>
-    <mergeCell ref="O13:S13"/>
+    <mergeCell ref="T14:AH14"/>
   </mergeCells>
   <phoneticPr fontId="10"/>
   <printOptions horizontalCentered="1"/>

--- a/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/010_要件定義/040_画面設計/画面一覧_A1_プロジェクト管理システム.xlsx
+++ b/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/010_要件定義/040_画面設計/画面一覧_A1_プロジェクト管理システム.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BD548D8-DB4B-4F79-B934-701CDE52555C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3AEF78C-2FFB-4FD7-ACBC-D9F1489CC9C9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -14,7 +14,7 @@
     <sheet name="1" sheetId="29" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'1'!$A$1:$AI$26</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'1'!$A$1:$AI$25</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$S$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">変更履歴!$A$1:$AI$34</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">目次!$A$1:$AI$36</definedName>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="81">
   <si>
     <t>PJ名</t>
   </si>
@@ -235,25 +235,6 @@
       </rPr>
       <t>01</t>
     </r>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <r>
-      <t>WA10102</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>01</t>
-    </r>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>ログアウト</t>
     <phoneticPr fontId="10"/>
   </si>
   <si>
@@ -325,10 +306,6 @@
     <phoneticPr fontId="10"/>
   </si>
   <si>
-    <t>ログアウトする。</t>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
     <t>サンプルプロジェクト</t>
     <phoneticPr fontId="10"/>
   </si>
@@ -437,13 +414,6 @@
   </si>
   <si>
     <t>TIS</t>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>ログインIDとパスワードを入力し、Form認証を行う。</t>
-    <rPh sb="13" eb="15">
-      <t>ニュウリョク</t>
-    </rPh>
     <phoneticPr fontId="10"/>
   </si>
   <si>
@@ -675,6 +645,29 @@
       <t>ハン</t>
     </rPh>
     <phoneticPr fontId="38"/>
+  </si>
+  <si>
+    <t>ログインIDとパスワードを入力し、Form認証を行う。
+ログアウト処理時はセッションを破棄し、ログイン画面へ遷移する。</t>
+    <rPh sb="13" eb="15">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ハキ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
   </si>
 </sst>
 </file>
@@ -1535,7 +1528,7 @@
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="220">
+  <cellXfs count="217">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
@@ -1754,9 +1747,141 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="31" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="25" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="10" xfId="45" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -1865,128 +1990,8 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="25" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -1997,9 +2002,6 @@
     <xf numFmtId="177" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2009,6 +2011,84 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="13" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="14" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="15" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="19" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="0" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="22" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="16" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="17" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="18" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2035,102 +2115,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="13" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="14" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="15" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="19" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="0" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="22" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="16" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="17" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="18" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="48">
@@ -2995,7 +2979,7 @@
       <c r="G23" s="21"/>
       <c r="H23" s="21"/>
       <c r="J23" s="6" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3007,12 +2991,12 @@
       <c r="F25" s="21"/>
       <c r="G25" s="21"/>
       <c r="H25" s="21"/>
-      <c r="I25" s="94">
+      <c r="I25" s="97">
         <f ca="1">IF(INDIRECT("変更履歴!D8")="","",MAX(INDIRECT("変更履歴!D8"):INDIRECT("変更履歴!F33")))</f>
         <v>44796</v>
       </c>
-      <c r="J25" s="94"/>
-      <c r="K25" s="94"/>
+      <c r="J25" s="97"/>
+      <c r="K25" s="97"/>
     </row>
     <row r="26" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F26" s="21"/>
@@ -3611,57 +3595,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="145" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="102"/>
-      <c r="C1" s="102"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="104" t="s">
-        <v>43</v>
-      </c>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
-      <c r="I1" s="105"/>
-      <c r="J1" s="105"/>
-      <c r="K1" s="105"/>
-      <c r="L1" s="105"/>
-      <c r="M1" s="105"/>
-      <c r="N1" s="106"/>
-      <c r="O1" s="110" t="s">
+      <c r="B1" s="146"/>
+      <c r="C1" s="146"/>
+      <c r="D1" s="147"/>
+      <c r="E1" s="148" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="149"/>
+      <c r="G1" s="149"/>
+      <c r="H1" s="149"/>
+      <c r="I1" s="149"/>
+      <c r="J1" s="149"/>
+      <c r="K1" s="149"/>
+      <c r="L1" s="149"/>
+      <c r="M1" s="149"/>
+      <c r="N1" s="150"/>
+      <c r="O1" s="154" t="s">
         <v>17</v>
       </c>
-      <c r="P1" s="111"/>
-      <c r="Q1" s="111"/>
-      <c r="R1" s="112"/>
-      <c r="S1" s="119" t="s">
+      <c r="P1" s="155"/>
+      <c r="Q1" s="155"/>
+      <c r="R1" s="156"/>
+      <c r="S1" s="163" t="s">
         <v>23</v>
       </c>
-      <c r="T1" s="120"/>
-      <c r="U1" s="120"/>
-      <c r="V1" s="120"/>
-      <c r="W1" s="120"/>
-      <c r="X1" s="120"/>
-      <c r="Y1" s="120"/>
-      <c r="Z1" s="121"/>
-      <c r="AA1" s="101" t="s">
+      <c r="T1" s="164"/>
+      <c r="U1" s="164"/>
+      <c r="V1" s="164"/>
+      <c r="W1" s="164"/>
+      <c r="X1" s="164"/>
+      <c r="Y1" s="164"/>
+      <c r="Z1" s="165"/>
+      <c r="AA1" s="145" t="s">
         <v>18</v>
       </c>
-      <c r="AB1" s="103"/>
-      <c r="AC1" s="128" t="str">
+      <c r="AB1" s="147"/>
+      <c r="AC1" s="172" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="129"/>
-      <c r="AE1" s="129"/>
-      <c r="AF1" s="130"/>
-      <c r="AG1" s="95">
+      <c r="AD1" s="173"/>
+      <c r="AE1" s="173"/>
+      <c r="AF1" s="174"/>
+      <c r="AG1" s="139">
         <f>IF(D8="","",D8)</f>
         <v>43592</v>
       </c>
-      <c r="AH1" s="96"/>
-      <c r="AI1" s="97"/>
+      <c r="AH1" s="140"/>
+      <c r="AI1" s="141"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="1"/>
@@ -3669,53 +3653,53 @@
       <c r="AN1" s="2"/>
     </row>
     <row r="2" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="101" t="s">
+      <c r="A2" s="145" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="102"/>
-      <c r="C2" s="102"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="104" t="s">
-        <v>44</v>
-      </c>
-      <c r="F2" s="105"/>
-      <c r="G2" s="105"/>
-      <c r="H2" s="105"/>
-      <c r="I2" s="105"/>
-      <c r="J2" s="105"/>
-      <c r="K2" s="105"/>
-      <c r="L2" s="105"/>
-      <c r="M2" s="105"/>
-      <c r="N2" s="106"/>
-      <c r="O2" s="113"/>
-      <c r="P2" s="114"/>
-      <c r="Q2" s="114"/>
-      <c r="R2" s="115"/>
-      <c r="S2" s="122"/>
-      <c r="T2" s="123"/>
-      <c r="U2" s="123"/>
-      <c r="V2" s="123"/>
-      <c r="W2" s="123"/>
-      <c r="X2" s="123"/>
-      <c r="Y2" s="123"/>
-      <c r="Z2" s="124"/>
-      <c r="AA2" s="101" t="s">
+      <c r="B2" s="146"/>
+      <c r="C2" s="146"/>
+      <c r="D2" s="147"/>
+      <c r="E2" s="148" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="149"/>
+      <c r="G2" s="149"/>
+      <c r="H2" s="149"/>
+      <c r="I2" s="149"/>
+      <c r="J2" s="149"/>
+      <c r="K2" s="149"/>
+      <c r="L2" s="149"/>
+      <c r="M2" s="149"/>
+      <c r="N2" s="150"/>
+      <c r="O2" s="157"/>
+      <c r="P2" s="158"/>
+      <c r="Q2" s="158"/>
+      <c r="R2" s="159"/>
+      <c r="S2" s="166"/>
+      <c r="T2" s="167"/>
+      <c r="U2" s="167"/>
+      <c r="V2" s="167"/>
+      <c r="W2" s="167"/>
+      <c r="X2" s="167"/>
+      <c r="Y2" s="167"/>
+      <c r="Z2" s="168"/>
+      <c r="AA2" s="145" t="s">
         <v>19</v>
       </c>
-      <c r="AB2" s="103"/>
-      <c r="AC2" s="107" t="str">
+      <c r="AB2" s="147"/>
+      <c r="AC2" s="151" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="108"/>
-      <c r="AE2" s="108"/>
-      <c r="AF2" s="109"/>
-      <c r="AG2" s="95">
+      <c r="AD2" s="152"/>
+      <c r="AE2" s="152"/>
+      <c r="AF2" s="153"/>
+      <c r="AG2" s="139">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v>44796</v>
       </c>
-      <c r="AH2" s="96"/>
-      <c r="AI2" s="97"/>
+      <c r="AH2" s="140"/>
+      <c r="AI2" s="141"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
@@ -3723,45 +3707,45 @@
       <c r="AN2" s="1"/>
     </row>
     <row r="3" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="101" t="s">
+      <c r="A3" s="145" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="102"/>
-      <c r="C3" s="102"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="104" t="s">
-        <v>52</v>
-      </c>
-      <c r="F3" s="105"/>
-      <c r="G3" s="105"/>
-      <c r="H3" s="105"/>
-      <c r="I3" s="105"/>
-      <c r="J3" s="105"/>
-      <c r="K3" s="105"/>
-      <c r="L3" s="105"/>
-      <c r="M3" s="105"/>
-      <c r="N3" s="106"/>
-      <c r="O3" s="116"/>
-      <c r="P3" s="117"/>
-      <c r="Q3" s="117"/>
-      <c r="R3" s="118"/>
-      <c r="S3" s="125"/>
-      <c r="T3" s="126"/>
-      <c r="U3" s="126"/>
-      <c r="V3" s="126"/>
-      <c r="W3" s="126"/>
-      <c r="X3" s="126"/>
-      <c r="Y3" s="126"/>
-      <c r="Z3" s="127"/>
-      <c r="AA3" s="101"/>
-      <c r="AB3" s="103"/>
-      <c r="AC3" s="128"/>
-      <c r="AD3" s="129"/>
-      <c r="AE3" s="129"/>
-      <c r="AF3" s="130"/>
-      <c r="AG3" s="95"/>
-      <c r="AH3" s="96"/>
-      <c r="AI3" s="97"/>
+      <c r="B3" s="146"/>
+      <c r="C3" s="146"/>
+      <c r="D3" s="147"/>
+      <c r="E3" s="148" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" s="149"/>
+      <c r="G3" s="149"/>
+      <c r="H3" s="149"/>
+      <c r="I3" s="149"/>
+      <c r="J3" s="149"/>
+      <c r="K3" s="149"/>
+      <c r="L3" s="149"/>
+      <c r="M3" s="149"/>
+      <c r="N3" s="150"/>
+      <c r="O3" s="160"/>
+      <c r="P3" s="161"/>
+      <c r="Q3" s="161"/>
+      <c r="R3" s="162"/>
+      <c r="S3" s="169"/>
+      <c r="T3" s="170"/>
+      <c r="U3" s="170"/>
+      <c r="V3" s="170"/>
+      <c r="W3" s="170"/>
+      <c r="X3" s="170"/>
+      <c r="Y3" s="170"/>
+      <c r="Z3" s="171"/>
+      <c r="AA3" s="145"/>
+      <c r="AB3" s="147"/>
+      <c r="AC3" s="172"/>
+      <c r="AD3" s="173"/>
+      <c r="AE3" s="173"/>
+      <c r="AF3" s="174"/>
+      <c r="AG3" s="139"/>
+      <c r="AH3" s="140"/>
+      <c r="AI3" s="141"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
@@ -3798,1229 +3782,1073 @@
       <c r="A7" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="98" t="s">
+      <c r="B7" s="142" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="99"/>
-      <c r="D7" s="98" t="s">
+      <c r="C7" s="143"/>
+      <c r="D7" s="142" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="100"/>
-      <c r="F7" s="99"/>
-      <c r="G7" s="98" t="s">
+      <c r="E7" s="144"/>
+      <c r="F7" s="143"/>
+      <c r="G7" s="142" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="100"/>
-      <c r="I7" s="99"/>
-      <c r="J7" s="98" t="s">
+      <c r="H7" s="144"/>
+      <c r="I7" s="143"/>
+      <c r="J7" s="142" t="s">
         <v>26</v>
       </c>
-      <c r="K7" s="100"/>
-      <c r="L7" s="100"/>
-      <c r="M7" s="100"/>
-      <c r="N7" s="100"/>
-      <c r="O7" s="100"/>
-      <c r="P7" s="99"/>
-      <c r="Q7" s="98" t="s">
+      <c r="K7" s="144"/>
+      <c r="L7" s="144"/>
+      <c r="M7" s="144"/>
+      <c r="N7" s="144"/>
+      <c r="O7" s="144"/>
+      <c r="P7" s="143"/>
+      <c r="Q7" s="142" t="s">
         <v>9</v>
       </c>
-      <c r="R7" s="100"/>
-      <c r="S7" s="100"/>
-      <c r="T7" s="100"/>
-      <c r="U7" s="100"/>
-      <c r="V7" s="100"/>
-      <c r="W7" s="100"/>
-      <c r="X7" s="100"/>
-      <c r="Y7" s="100"/>
-      <c r="Z7" s="100"/>
-      <c r="AA7" s="100"/>
-      <c r="AB7" s="100"/>
-      <c r="AC7" s="100"/>
-      <c r="AD7" s="100"/>
-      <c r="AE7" s="99"/>
-      <c r="AF7" s="98" t="s">
+      <c r="R7" s="144"/>
+      <c r="S7" s="144"/>
+      <c r="T7" s="144"/>
+      <c r="U7" s="144"/>
+      <c r="V7" s="144"/>
+      <c r="W7" s="144"/>
+      <c r="X7" s="144"/>
+      <c r="Y7" s="144"/>
+      <c r="Z7" s="144"/>
+      <c r="AA7" s="144"/>
+      <c r="AB7" s="144"/>
+      <c r="AC7" s="144"/>
+      <c r="AD7" s="144"/>
+      <c r="AE7" s="143"/>
+      <c r="AF7" s="142" t="s">
         <v>10</v>
       </c>
-      <c r="AG7" s="100"/>
-      <c r="AH7" s="100"/>
-      <c r="AI7" s="99"/>
+      <c r="AG7" s="144"/>
+      <c r="AH7" s="144"/>
+      <c r="AI7" s="143"/>
     </row>
     <row r="8" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="81">
         <v>1</v>
       </c>
-      <c r="B8" s="145">
+      <c r="B8" s="125">
         <v>1</v>
       </c>
-      <c r="C8" s="146"/>
-      <c r="D8" s="147">
+      <c r="C8" s="126"/>
+      <c r="D8" s="127">
         <v>43592</v>
       </c>
-      <c r="E8" s="148"/>
-      <c r="F8" s="149"/>
-      <c r="G8" s="150" t="s">
-        <v>45</v>
-      </c>
-      <c r="H8" s="151"/>
-      <c r="I8" s="152"/>
-      <c r="J8" s="153" t="s">
-        <v>46</v>
-      </c>
-      <c r="K8" s="154"/>
-      <c r="L8" s="154"/>
-      <c r="M8" s="154"/>
-      <c r="N8" s="154"/>
-      <c r="O8" s="154"/>
-      <c r="P8" s="155"/>
-      <c r="Q8" s="156" t="s">
-        <v>47</v>
-      </c>
-      <c r="R8" s="157"/>
-      <c r="S8" s="157"/>
-      <c r="T8" s="157"/>
-      <c r="U8" s="157"/>
-      <c r="V8" s="157"/>
-      <c r="W8" s="157"/>
-      <c r="X8" s="157"/>
-      <c r="Y8" s="157"/>
-      <c r="Z8" s="157"/>
-      <c r="AA8" s="157"/>
-      <c r="AB8" s="157"/>
-      <c r="AC8" s="157"/>
-      <c r="AD8" s="157"/>
-      <c r="AE8" s="158"/>
-      <c r="AF8" s="153" t="s">
-        <v>53</v>
-      </c>
-      <c r="AG8" s="154"/>
-      <c r="AH8" s="154"/>
-      <c r="AI8" s="155"/>
+      <c r="E8" s="128"/>
+      <c r="F8" s="129"/>
+      <c r="G8" s="130" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" s="131"/>
+      <c r="I8" s="132"/>
+      <c r="J8" s="133" t="s">
+        <v>43</v>
+      </c>
+      <c r="K8" s="134"/>
+      <c r="L8" s="134"/>
+      <c r="M8" s="134"/>
+      <c r="N8" s="134"/>
+      <c r="O8" s="134"/>
+      <c r="P8" s="135"/>
+      <c r="Q8" s="136" t="s">
+        <v>44</v>
+      </c>
+      <c r="R8" s="137"/>
+      <c r="S8" s="137"/>
+      <c r="T8" s="137"/>
+      <c r="U8" s="137"/>
+      <c r="V8" s="137"/>
+      <c r="W8" s="137"/>
+      <c r="X8" s="137"/>
+      <c r="Y8" s="137"/>
+      <c r="Z8" s="137"/>
+      <c r="AA8" s="137"/>
+      <c r="AB8" s="137"/>
+      <c r="AC8" s="137"/>
+      <c r="AD8" s="137"/>
+      <c r="AE8" s="138"/>
+      <c r="AF8" s="133" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG8" s="134"/>
+      <c r="AH8" s="134"/>
+      <c r="AI8" s="135"/>
     </row>
     <row r="9" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="60">
         <v>2</v>
       </c>
-      <c r="B9" s="131">
+      <c r="B9" s="116">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C9" s="132"/>
-      <c r="D9" s="133">
+      <c r="C9" s="117"/>
+      <c r="D9" s="100">
         <v>43803</v>
       </c>
-      <c r="E9" s="134"/>
-      <c r="F9" s="135"/>
-      <c r="G9" s="136" t="s">
-        <v>59</v>
-      </c>
-      <c r="H9" s="137"/>
-      <c r="I9" s="138"/>
-      <c r="J9" s="139" t="s">
+      <c r="E9" s="101"/>
+      <c r="F9" s="102"/>
+      <c r="G9" s="118" t="s">
+        <v>55</v>
+      </c>
+      <c r="H9" s="119"/>
+      <c r="I9" s="120"/>
+      <c r="J9" s="114" t="s">
+        <v>56</v>
+      </c>
+      <c r="K9" s="121"/>
+      <c r="L9" s="121"/>
+      <c r="M9" s="121"/>
+      <c r="N9" s="121"/>
+      <c r="O9" s="121"/>
+      <c r="P9" s="122"/>
+      <c r="Q9" s="115" t="s">
         <v>60</v>
       </c>
-      <c r="K9" s="140"/>
-      <c r="L9" s="140"/>
-      <c r="M9" s="140"/>
-      <c r="N9" s="140"/>
-      <c r="O9" s="140"/>
-      <c r="P9" s="141"/>
-      <c r="Q9" s="142" t="s">
-        <v>64</v>
-      </c>
-      <c r="R9" s="143"/>
-      <c r="S9" s="143"/>
-      <c r="T9" s="143"/>
-      <c r="U9" s="143"/>
-      <c r="V9" s="143"/>
-      <c r="W9" s="143"/>
-      <c r="X9" s="143"/>
-      <c r="Y9" s="143"/>
-      <c r="Z9" s="143"/>
-      <c r="AA9" s="143"/>
-      <c r="AB9" s="143"/>
-      <c r="AC9" s="143"/>
-      <c r="AD9" s="143"/>
-      <c r="AE9" s="144"/>
-      <c r="AF9" s="139" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG9" s="140"/>
-      <c r="AH9" s="140"/>
-      <c r="AI9" s="141"/>
+      <c r="R9" s="123"/>
+      <c r="S9" s="123"/>
+      <c r="T9" s="123"/>
+      <c r="U9" s="123"/>
+      <c r="V9" s="123"/>
+      <c r="W9" s="123"/>
+      <c r="X9" s="123"/>
+      <c r="Y9" s="123"/>
+      <c r="Z9" s="123"/>
+      <c r="AA9" s="123"/>
+      <c r="AB9" s="123"/>
+      <c r="AC9" s="123"/>
+      <c r="AD9" s="123"/>
+      <c r="AE9" s="124"/>
+      <c r="AF9" s="114" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG9" s="121"/>
+      <c r="AH9" s="121"/>
+      <c r="AI9" s="122"/>
     </row>
     <row r="10" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="60">
         <v>3</v>
       </c>
-      <c r="B10" s="170" t="s">
-        <v>75</v>
-      </c>
-      <c r="C10" s="160"/>
-      <c r="D10" s="133">
+      <c r="B10" s="112" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" s="99"/>
+      <c r="D10" s="100">
         <v>43895</v>
       </c>
-      <c r="E10" s="134"/>
-      <c r="F10" s="135"/>
-      <c r="G10" s="171" t="s">
+      <c r="E10" s="101"/>
+      <c r="F10" s="102"/>
+      <c r="G10" s="113" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="162"/>
-      <c r="I10" s="163"/>
-      <c r="J10" s="139" t="s">
-        <v>60</v>
-      </c>
-      <c r="K10" s="165"/>
-      <c r="L10" s="165"/>
-      <c r="M10" s="165"/>
-      <c r="N10" s="165"/>
-      <c r="O10" s="165"/>
-      <c r="P10" s="166"/>
-      <c r="Q10" s="142" t="s">
-        <v>74</v>
-      </c>
-      <c r="R10" s="168"/>
-      <c r="S10" s="168"/>
-      <c r="T10" s="168"/>
-      <c r="U10" s="168"/>
-      <c r="V10" s="168"/>
-      <c r="W10" s="168"/>
-      <c r="X10" s="168"/>
-      <c r="Y10" s="168"/>
-      <c r="Z10" s="168"/>
-      <c r="AA10" s="168"/>
-      <c r="AB10" s="168"/>
-      <c r="AC10" s="168"/>
-      <c r="AD10" s="168"/>
-      <c r="AE10" s="169"/>
-      <c r="AF10" s="139" t="s">
-        <v>53</v>
-      </c>
-      <c r="AG10" s="165"/>
-      <c r="AH10" s="165"/>
-      <c r="AI10" s="166"/>
+      <c r="H10" s="104"/>
+      <c r="I10" s="105"/>
+      <c r="J10" s="114" t="s">
+        <v>56</v>
+      </c>
+      <c r="K10" s="107"/>
+      <c r="L10" s="107"/>
+      <c r="M10" s="107"/>
+      <c r="N10" s="107"/>
+      <c r="O10" s="107"/>
+      <c r="P10" s="108"/>
+      <c r="Q10" s="115" t="s">
+        <v>70</v>
+      </c>
+      <c r="R10" s="110"/>
+      <c r="S10" s="110"/>
+      <c r="T10" s="110"/>
+      <c r="U10" s="110"/>
+      <c r="V10" s="110"/>
+      <c r="W10" s="110"/>
+      <c r="X10" s="110"/>
+      <c r="Y10" s="110"/>
+      <c r="Z10" s="110"/>
+      <c r="AA10" s="110"/>
+      <c r="AB10" s="110"/>
+      <c r="AC10" s="110"/>
+      <c r="AD10" s="110"/>
+      <c r="AE10" s="111"/>
+      <c r="AF10" s="114" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG10" s="107"/>
+      <c r="AH10" s="107"/>
+      <c r="AI10" s="108"/>
     </row>
     <row r="11" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="60">
         <v>4</v>
       </c>
-      <c r="B11" s="170" t="s">
-        <v>81</v>
-      </c>
-      <c r="C11" s="160"/>
-      <c r="D11" s="133">
+      <c r="B11" s="112" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" s="99"/>
+      <c r="D11" s="100">
         <v>44796</v>
       </c>
-      <c r="E11" s="134"/>
-      <c r="F11" s="135"/>
-      <c r="G11" s="171" t="s">
+      <c r="E11" s="101"/>
+      <c r="F11" s="102"/>
+      <c r="G11" s="113" t="s">
         <v>4</v>
       </c>
-      <c r="H11" s="162"/>
-      <c r="I11" s="163"/>
-      <c r="J11" s="139" t="s">
-        <v>60</v>
-      </c>
-      <c r="K11" s="165"/>
-      <c r="L11" s="165"/>
-      <c r="M11" s="165"/>
-      <c r="N11" s="165"/>
-      <c r="O11" s="165"/>
-      <c r="P11" s="166"/>
-      <c r="Q11" s="142" t="s">
-        <v>82</v>
-      </c>
-      <c r="R11" s="168"/>
-      <c r="S11" s="168"/>
-      <c r="T11" s="168"/>
-      <c r="U11" s="168"/>
-      <c r="V11" s="168"/>
-      <c r="W11" s="168"/>
-      <c r="X11" s="168"/>
-      <c r="Y11" s="168"/>
-      <c r="Z11" s="168"/>
-      <c r="AA11" s="168"/>
-      <c r="AB11" s="168"/>
-      <c r="AC11" s="168"/>
-      <c r="AD11" s="168"/>
-      <c r="AE11" s="169"/>
-      <c r="AF11" s="139" t="s">
-        <v>53</v>
-      </c>
-      <c r="AG11" s="165"/>
-      <c r="AH11" s="165"/>
-      <c r="AI11" s="166"/>
+      <c r="H11" s="104"/>
+      <c r="I11" s="105"/>
+      <c r="J11" s="114" t="s">
+        <v>56</v>
+      </c>
+      <c r="K11" s="107"/>
+      <c r="L11" s="107"/>
+      <c r="M11" s="107"/>
+      <c r="N11" s="107"/>
+      <c r="O11" s="107"/>
+      <c r="P11" s="108"/>
+      <c r="Q11" s="115" t="s">
+        <v>78</v>
+      </c>
+      <c r="R11" s="110"/>
+      <c r="S11" s="110"/>
+      <c r="T11" s="110"/>
+      <c r="U11" s="110"/>
+      <c r="V11" s="110"/>
+      <c r="W11" s="110"/>
+      <c r="X11" s="110"/>
+      <c r="Y11" s="110"/>
+      <c r="Z11" s="110"/>
+      <c r="AA11" s="110"/>
+      <c r="AB11" s="110"/>
+      <c r="AC11" s="110"/>
+      <c r="AD11" s="110"/>
+      <c r="AE11" s="111"/>
+      <c r="AF11" s="114" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG11" s="107"/>
+      <c r="AH11" s="107"/>
+      <c r="AI11" s="108"/>
     </row>
     <row r="12" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="60"/>
-      <c r="B12" s="159"/>
-      <c r="C12" s="160"/>
-      <c r="D12" s="133"/>
-      <c r="E12" s="134"/>
-      <c r="F12" s="135"/>
-      <c r="G12" s="161"/>
-      <c r="H12" s="162"/>
-      <c r="I12" s="163"/>
-      <c r="J12" s="164"/>
-      <c r="K12" s="165"/>
-      <c r="L12" s="165"/>
-      <c r="M12" s="165"/>
-      <c r="N12" s="165"/>
-      <c r="O12" s="165"/>
-      <c r="P12" s="166"/>
-      <c r="Q12" s="167"/>
-      <c r="R12" s="168"/>
-      <c r="S12" s="168"/>
-      <c r="T12" s="168"/>
-      <c r="U12" s="168"/>
-      <c r="V12" s="168"/>
-      <c r="W12" s="168"/>
-      <c r="X12" s="168"/>
-      <c r="Y12" s="168"/>
-      <c r="Z12" s="168"/>
-      <c r="AA12" s="168"/>
-      <c r="AB12" s="168"/>
-      <c r="AC12" s="168"/>
-      <c r="AD12" s="168"/>
-      <c r="AE12" s="169"/>
-      <c r="AF12" s="164"/>
-      <c r="AG12" s="165"/>
-      <c r="AH12" s="165"/>
-      <c r="AI12" s="166"/>
+      <c r="B12" s="98"/>
+      <c r="C12" s="99"/>
+      <c r="D12" s="100"/>
+      <c r="E12" s="101"/>
+      <c r="F12" s="102"/>
+      <c r="G12" s="103"/>
+      <c r="H12" s="104"/>
+      <c r="I12" s="105"/>
+      <c r="J12" s="106"/>
+      <c r="K12" s="107"/>
+      <c r="L12" s="107"/>
+      <c r="M12" s="107"/>
+      <c r="N12" s="107"/>
+      <c r="O12" s="107"/>
+      <c r="P12" s="108"/>
+      <c r="Q12" s="109"/>
+      <c r="R12" s="110"/>
+      <c r="S12" s="110"/>
+      <c r="T12" s="110"/>
+      <c r="U12" s="110"/>
+      <c r="V12" s="110"/>
+      <c r="W12" s="110"/>
+      <c r="X12" s="110"/>
+      <c r="Y12" s="110"/>
+      <c r="Z12" s="110"/>
+      <c r="AA12" s="110"/>
+      <c r="AB12" s="110"/>
+      <c r="AC12" s="110"/>
+      <c r="AD12" s="110"/>
+      <c r="AE12" s="111"/>
+      <c r="AF12" s="106"/>
+      <c r="AG12" s="107"/>
+      <c r="AH12" s="107"/>
+      <c r="AI12" s="108"/>
     </row>
     <row r="13" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="60"/>
-      <c r="B13" s="159"/>
-      <c r="C13" s="160"/>
-      <c r="D13" s="133"/>
-      <c r="E13" s="134"/>
-      <c r="F13" s="135"/>
-      <c r="G13" s="161"/>
-      <c r="H13" s="162"/>
-      <c r="I13" s="163"/>
-      <c r="J13" s="164"/>
-      <c r="K13" s="165"/>
-      <c r="L13" s="165"/>
-      <c r="M13" s="165"/>
-      <c r="N13" s="165"/>
-      <c r="O13" s="165"/>
-      <c r="P13" s="166"/>
-      <c r="Q13" s="167"/>
-      <c r="R13" s="168"/>
-      <c r="S13" s="168"/>
-      <c r="T13" s="168"/>
-      <c r="U13" s="168"/>
-      <c r="V13" s="168"/>
-      <c r="W13" s="168"/>
-      <c r="X13" s="168"/>
-      <c r="Y13" s="168"/>
-      <c r="Z13" s="168"/>
-      <c r="AA13" s="168"/>
-      <c r="AB13" s="168"/>
-      <c r="AC13" s="168"/>
-      <c r="AD13" s="168"/>
-      <c r="AE13" s="169"/>
-      <c r="AF13" s="164"/>
-      <c r="AG13" s="165"/>
-      <c r="AH13" s="165"/>
-      <c r="AI13" s="166"/>
+      <c r="B13" s="98"/>
+      <c r="C13" s="99"/>
+      <c r="D13" s="100"/>
+      <c r="E13" s="101"/>
+      <c r="F13" s="102"/>
+      <c r="G13" s="103"/>
+      <c r="H13" s="104"/>
+      <c r="I13" s="105"/>
+      <c r="J13" s="106"/>
+      <c r="K13" s="107"/>
+      <c r="L13" s="107"/>
+      <c r="M13" s="107"/>
+      <c r="N13" s="107"/>
+      <c r="O13" s="107"/>
+      <c r="P13" s="108"/>
+      <c r="Q13" s="109"/>
+      <c r="R13" s="110"/>
+      <c r="S13" s="110"/>
+      <c r="T13" s="110"/>
+      <c r="U13" s="110"/>
+      <c r="V13" s="110"/>
+      <c r="W13" s="110"/>
+      <c r="X13" s="110"/>
+      <c r="Y13" s="110"/>
+      <c r="Z13" s="110"/>
+      <c r="AA13" s="110"/>
+      <c r="AB13" s="110"/>
+      <c r="AC13" s="110"/>
+      <c r="AD13" s="110"/>
+      <c r="AE13" s="111"/>
+      <c r="AF13" s="106"/>
+      <c r="AG13" s="107"/>
+      <c r="AH13" s="107"/>
+      <c r="AI13" s="108"/>
     </row>
     <row r="14" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="60"/>
-      <c r="B14" s="159"/>
-      <c r="C14" s="160"/>
-      <c r="D14" s="133"/>
-      <c r="E14" s="134"/>
-      <c r="F14" s="135"/>
-      <c r="G14" s="161"/>
-      <c r="H14" s="162"/>
-      <c r="I14" s="163"/>
-      <c r="J14" s="164"/>
-      <c r="K14" s="165"/>
-      <c r="L14" s="165"/>
-      <c r="M14" s="165"/>
-      <c r="N14" s="165"/>
-      <c r="O14" s="165"/>
-      <c r="P14" s="166"/>
-      <c r="Q14" s="167"/>
-      <c r="R14" s="168"/>
-      <c r="S14" s="168"/>
-      <c r="T14" s="168"/>
-      <c r="U14" s="168"/>
-      <c r="V14" s="168"/>
-      <c r="W14" s="168"/>
-      <c r="X14" s="168"/>
-      <c r="Y14" s="168"/>
-      <c r="Z14" s="168"/>
-      <c r="AA14" s="168"/>
-      <c r="AB14" s="168"/>
-      <c r="AC14" s="168"/>
-      <c r="AD14" s="168"/>
-      <c r="AE14" s="169"/>
-      <c r="AF14" s="164"/>
-      <c r="AG14" s="165"/>
-      <c r="AH14" s="165"/>
-      <c r="AI14" s="166"/>
+      <c r="B14" s="98"/>
+      <c r="C14" s="99"/>
+      <c r="D14" s="100"/>
+      <c r="E14" s="101"/>
+      <c r="F14" s="102"/>
+      <c r="G14" s="103"/>
+      <c r="H14" s="104"/>
+      <c r="I14" s="105"/>
+      <c r="J14" s="106"/>
+      <c r="K14" s="107"/>
+      <c r="L14" s="107"/>
+      <c r="M14" s="107"/>
+      <c r="N14" s="107"/>
+      <c r="O14" s="107"/>
+      <c r="P14" s="108"/>
+      <c r="Q14" s="109"/>
+      <c r="R14" s="110"/>
+      <c r="S14" s="110"/>
+      <c r="T14" s="110"/>
+      <c r="U14" s="110"/>
+      <c r="V14" s="110"/>
+      <c r="W14" s="110"/>
+      <c r="X14" s="110"/>
+      <c r="Y14" s="110"/>
+      <c r="Z14" s="110"/>
+      <c r="AA14" s="110"/>
+      <c r="AB14" s="110"/>
+      <c r="AC14" s="110"/>
+      <c r="AD14" s="110"/>
+      <c r="AE14" s="111"/>
+      <c r="AF14" s="106"/>
+      <c r="AG14" s="107"/>
+      <c r="AH14" s="107"/>
+      <c r="AI14" s="108"/>
     </row>
     <row r="15" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="60"/>
-      <c r="B15" s="159"/>
-      <c r="C15" s="160"/>
-      <c r="D15" s="133"/>
-      <c r="E15" s="134"/>
-      <c r="F15" s="135"/>
-      <c r="G15" s="161"/>
-      <c r="H15" s="162"/>
-      <c r="I15" s="163"/>
-      <c r="J15" s="164"/>
-      <c r="K15" s="165"/>
-      <c r="L15" s="165"/>
-      <c r="M15" s="165"/>
-      <c r="N15" s="165"/>
-      <c r="O15" s="165"/>
-      <c r="P15" s="166"/>
-      <c r="Q15" s="167"/>
-      <c r="R15" s="168"/>
-      <c r="S15" s="168"/>
-      <c r="T15" s="168"/>
-      <c r="U15" s="168"/>
-      <c r="V15" s="168"/>
-      <c r="W15" s="168"/>
-      <c r="X15" s="168"/>
-      <c r="Y15" s="168"/>
-      <c r="Z15" s="168"/>
-      <c r="AA15" s="168"/>
-      <c r="AB15" s="168"/>
-      <c r="AC15" s="168"/>
-      <c r="AD15" s="168"/>
-      <c r="AE15" s="169"/>
-      <c r="AF15" s="164"/>
-      <c r="AG15" s="165"/>
-      <c r="AH15" s="165"/>
-      <c r="AI15" s="166"/>
+      <c r="B15" s="98"/>
+      <c r="C15" s="99"/>
+      <c r="D15" s="100"/>
+      <c r="E15" s="101"/>
+      <c r="F15" s="102"/>
+      <c r="G15" s="103"/>
+      <c r="H15" s="104"/>
+      <c r="I15" s="105"/>
+      <c r="J15" s="106"/>
+      <c r="K15" s="107"/>
+      <c r="L15" s="107"/>
+      <c r="M15" s="107"/>
+      <c r="N15" s="107"/>
+      <c r="O15" s="107"/>
+      <c r="P15" s="108"/>
+      <c r="Q15" s="109"/>
+      <c r="R15" s="110"/>
+      <c r="S15" s="110"/>
+      <c r="T15" s="110"/>
+      <c r="U15" s="110"/>
+      <c r="V15" s="110"/>
+      <c r="W15" s="110"/>
+      <c r="X15" s="110"/>
+      <c r="Y15" s="110"/>
+      <c r="Z15" s="110"/>
+      <c r="AA15" s="110"/>
+      <c r="AB15" s="110"/>
+      <c r="AC15" s="110"/>
+      <c r="AD15" s="110"/>
+      <c r="AE15" s="111"/>
+      <c r="AF15" s="106"/>
+      <c r="AG15" s="107"/>
+      <c r="AH15" s="107"/>
+      <c r="AI15" s="108"/>
     </row>
     <row r="16" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="60"/>
-      <c r="B16" s="159"/>
-      <c r="C16" s="160"/>
-      <c r="D16" s="133"/>
-      <c r="E16" s="134"/>
-      <c r="F16" s="135"/>
-      <c r="G16" s="161"/>
-      <c r="H16" s="162"/>
-      <c r="I16" s="163"/>
-      <c r="J16" s="164"/>
-      <c r="K16" s="165"/>
-      <c r="L16" s="165"/>
-      <c r="M16" s="165"/>
-      <c r="N16" s="165"/>
-      <c r="O16" s="165"/>
-      <c r="P16" s="166"/>
-      <c r="Q16" s="167"/>
-      <c r="R16" s="168"/>
-      <c r="S16" s="168"/>
-      <c r="T16" s="168"/>
-      <c r="U16" s="168"/>
-      <c r="V16" s="168"/>
-      <c r="W16" s="168"/>
-      <c r="X16" s="168"/>
-      <c r="Y16" s="168"/>
-      <c r="Z16" s="168"/>
-      <c r="AA16" s="168"/>
-      <c r="AB16" s="168"/>
-      <c r="AC16" s="168"/>
-      <c r="AD16" s="168"/>
-      <c r="AE16" s="169"/>
-      <c r="AF16" s="164"/>
-      <c r="AG16" s="165"/>
-      <c r="AH16" s="165"/>
-      <c r="AI16" s="166"/>
+      <c r="B16" s="98"/>
+      <c r="C16" s="99"/>
+      <c r="D16" s="100"/>
+      <c r="E16" s="101"/>
+      <c r="F16" s="102"/>
+      <c r="G16" s="103"/>
+      <c r="H16" s="104"/>
+      <c r="I16" s="105"/>
+      <c r="J16" s="106"/>
+      <c r="K16" s="107"/>
+      <c r="L16" s="107"/>
+      <c r="M16" s="107"/>
+      <c r="N16" s="107"/>
+      <c r="O16" s="107"/>
+      <c r="P16" s="108"/>
+      <c r="Q16" s="109"/>
+      <c r="R16" s="110"/>
+      <c r="S16" s="110"/>
+      <c r="T16" s="110"/>
+      <c r="U16" s="110"/>
+      <c r="V16" s="110"/>
+      <c r="W16" s="110"/>
+      <c r="X16" s="110"/>
+      <c r="Y16" s="110"/>
+      <c r="Z16" s="110"/>
+      <c r="AA16" s="110"/>
+      <c r="AB16" s="110"/>
+      <c r="AC16" s="110"/>
+      <c r="AD16" s="110"/>
+      <c r="AE16" s="111"/>
+      <c r="AF16" s="106"/>
+      <c r="AG16" s="107"/>
+      <c r="AH16" s="107"/>
+      <c r="AI16" s="108"/>
     </row>
     <row r="17" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="60"/>
-      <c r="B17" s="159"/>
-      <c r="C17" s="160"/>
-      <c r="D17" s="133"/>
-      <c r="E17" s="134"/>
-      <c r="F17" s="135"/>
-      <c r="G17" s="161"/>
-      <c r="H17" s="162"/>
-      <c r="I17" s="163"/>
-      <c r="J17" s="164"/>
-      <c r="K17" s="165"/>
-      <c r="L17" s="165"/>
-      <c r="M17" s="165"/>
-      <c r="N17" s="165"/>
-      <c r="O17" s="165"/>
-      <c r="P17" s="166"/>
-      <c r="Q17" s="167"/>
-      <c r="R17" s="168"/>
-      <c r="S17" s="168"/>
-      <c r="T17" s="168"/>
-      <c r="U17" s="168"/>
-      <c r="V17" s="168"/>
-      <c r="W17" s="168"/>
-      <c r="X17" s="168"/>
-      <c r="Y17" s="168"/>
-      <c r="Z17" s="168"/>
-      <c r="AA17" s="168"/>
-      <c r="AB17" s="168"/>
-      <c r="AC17" s="168"/>
-      <c r="AD17" s="168"/>
-      <c r="AE17" s="169"/>
-      <c r="AF17" s="164"/>
-      <c r="AG17" s="165"/>
-      <c r="AH17" s="165"/>
-      <c r="AI17" s="166"/>
+      <c r="B17" s="98"/>
+      <c r="C17" s="99"/>
+      <c r="D17" s="100"/>
+      <c r="E17" s="101"/>
+      <c r="F17" s="102"/>
+      <c r="G17" s="103"/>
+      <c r="H17" s="104"/>
+      <c r="I17" s="105"/>
+      <c r="J17" s="106"/>
+      <c r="K17" s="107"/>
+      <c r="L17" s="107"/>
+      <c r="M17" s="107"/>
+      <c r="N17" s="107"/>
+      <c r="O17" s="107"/>
+      <c r="P17" s="108"/>
+      <c r="Q17" s="109"/>
+      <c r="R17" s="110"/>
+      <c r="S17" s="110"/>
+      <c r="T17" s="110"/>
+      <c r="U17" s="110"/>
+      <c r="V17" s="110"/>
+      <c r="W17" s="110"/>
+      <c r="X17" s="110"/>
+      <c r="Y17" s="110"/>
+      <c r="Z17" s="110"/>
+      <c r="AA17" s="110"/>
+      <c r="AB17" s="110"/>
+      <c r="AC17" s="110"/>
+      <c r="AD17" s="110"/>
+      <c r="AE17" s="111"/>
+      <c r="AF17" s="106"/>
+      <c r="AG17" s="107"/>
+      <c r="AH17" s="107"/>
+      <c r="AI17" s="108"/>
     </row>
     <row r="18" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="60"/>
-      <c r="B18" s="159"/>
-      <c r="C18" s="160"/>
-      <c r="D18" s="133"/>
-      <c r="E18" s="134"/>
-      <c r="F18" s="135"/>
-      <c r="G18" s="161"/>
-      <c r="H18" s="162"/>
-      <c r="I18" s="163"/>
-      <c r="J18" s="164"/>
-      <c r="K18" s="165"/>
-      <c r="L18" s="165"/>
-      <c r="M18" s="165"/>
-      <c r="N18" s="165"/>
-      <c r="O18" s="165"/>
-      <c r="P18" s="166"/>
-      <c r="Q18" s="167"/>
-      <c r="R18" s="168"/>
-      <c r="S18" s="168"/>
-      <c r="T18" s="168"/>
-      <c r="U18" s="168"/>
-      <c r="V18" s="168"/>
-      <c r="W18" s="168"/>
-      <c r="X18" s="168"/>
-      <c r="Y18" s="168"/>
-      <c r="Z18" s="168"/>
-      <c r="AA18" s="168"/>
-      <c r="AB18" s="168"/>
-      <c r="AC18" s="168"/>
-      <c r="AD18" s="168"/>
-      <c r="AE18" s="169"/>
-      <c r="AF18" s="164"/>
-      <c r="AG18" s="165"/>
-      <c r="AH18" s="165"/>
-      <c r="AI18" s="166"/>
+      <c r="B18" s="98"/>
+      <c r="C18" s="99"/>
+      <c r="D18" s="100"/>
+      <c r="E18" s="101"/>
+      <c r="F18" s="102"/>
+      <c r="G18" s="103"/>
+      <c r="H18" s="104"/>
+      <c r="I18" s="105"/>
+      <c r="J18" s="106"/>
+      <c r="K18" s="107"/>
+      <c r="L18" s="107"/>
+      <c r="M18" s="107"/>
+      <c r="N18" s="107"/>
+      <c r="O18" s="107"/>
+      <c r="P18" s="108"/>
+      <c r="Q18" s="109"/>
+      <c r="R18" s="110"/>
+      <c r="S18" s="110"/>
+      <c r="T18" s="110"/>
+      <c r="U18" s="110"/>
+      <c r="V18" s="110"/>
+      <c r="W18" s="110"/>
+      <c r="X18" s="110"/>
+      <c r="Y18" s="110"/>
+      <c r="Z18" s="110"/>
+      <c r="AA18" s="110"/>
+      <c r="AB18" s="110"/>
+      <c r="AC18" s="110"/>
+      <c r="AD18" s="110"/>
+      <c r="AE18" s="111"/>
+      <c r="AF18" s="106"/>
+      <c r="AG18" s="107"/>
+      <c r="AH18" s="107"/>
+      <c r="AI18" s="108"/>
     </row>
     <row r="19" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="60"/>
-      <c r="B19" s="159"/>
-      <c r="C19" s="160"/>
-      <c r="D19" s="133"/>
-      <c r="E19" s="134"/>
-      <c r="F19" s="135"/>
-      <c r="G19" s="161"/>
-      <c r="H19" s="162"/>
-      <c r="I19" s="163"/>
-      <c r="J19" s="164"/>
-      <c r="K19" s="165"/>
-      <c r="L19" s="165"/>
-      <c r="M19" s="165"/>
-      <c r="N19" s="165"/>
-      <c r="O19" s="165"/>
-      <c r="P19" s="166"/>
-      <c r="Q19" s="167"/>
-      <c r="R19" s="168"/>
-      <c r="S19" s="168"/>
-      <c r="T19" s="168"/>
-      <c r="U19" s="168"/>
-      <c r="V19" s="168"/>
-      <c r="W19" s="168"/>
-      <c r="X19" s="168"/>
-      <c r="Y19" s="168"/>
-      <c r="Z19" s="168"/>
-      <c r="AA19" s="168"/>
-      <c r="AB19" s="168"/>
-      <c r="AC19" s="168"/>
-      <c r="AD19" s="168"/>
-      <c r="AE19" s="169"/>
-      <c r="AF19" s="164"/>
-      <c r="AG19" s="165"/>
-      <c r="AH19" s="165"/>
-      <c r="AI19" s="166"/>
+      <c r="B19" s="98"/>
+      <c r="C19" s="99"/>
+      <c r="D19" s="100"/>
+      <c r="E19" s="101"/>
+      <c r="F19" s="102"/>
+      <c r="G19" s="103"/>
+      <c r="H19" s="104"/>
+      <c r="I19" s="105"/>
+      <c r="J19" s="106"/>
+      <c r="K19" s="107"/>
+      <c r="L19" s="107"/>
+      <c r="M19" s="107"/>
+      <c r="N19" s="107"/>
+      <c r="O19" s="107"/>
+      <c r="P19" s="108"/>
+      <c r="Q19" s="109"/>
+      <c r="R19" s="110"/>
+      <c r="S19" s="110"/>
+      <c r="T19" s="110"/>
+      <c r="U19" s="110"/>
+      <c r="V19" s="110"/>
+      <c r="W19" s="110"/>
+      <c r="X19" s="110"/>
+      <c r="Y19" s="110"/>
+      <c r="Z19" s="110"/>
+      <c r="AA19" s="110"/>
+      <c r="AB19" s="110"/>
+      <c r="AC19" s="110"/>
+      <c r="AD19" s="110"/>
+      <c r="AE19" s="111"/>
+      <c r="AF19" s="106"/>
+      <c r="AG19" s="107"/>
+      <c r="AH19" s="107"/>
+      <c r="AI19" s="108"/>
     </row>
     <row r="20" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="60"/>
-      <c r="B20" s="159"/>
-      <c r="C20" s="160"/>
-      <c r="D20" s="133"/>
-      <c r="E20" s="134"/>
-      <c r="F20" s="135"/>
-      <c r="G20" s="161"/>
-      <c r="H20" s="162"/>
-      <c r="I20" s="163"/>
-      <c r="J20" s="164"/>
-      <c r="K20" s="165"/>
-      <c r="L20" s="165"/>
-      <c r="M20" s="165"/>
-      <c r="N20" s="165"/>
-      <c r="O20" s="165"/>
-      <c r="P20" s="166"/>
-      <c r="Q20" s="167"/>
-      <c r="R20" s="168"/>
-      <c r="S20" s="168"/>
-      <c r="T20" s="168"/>
-      <c r="U20" s="168"/>
-      <c r="V20" s="168"/>
-      <c r="W20" s="168"/>
-      <c r="X20" s="168"/>
-      <c r="Y20" s="168"/>
-      <c r="Z20" s="168"/>
-      <c r="AA20" s="168"/>
-      <c r="AB20" s="168"/>
-      <c r="AC20" s="168"/>
-      <c r="AD20" s="168"/>
-      <c r="AE20" s="169"/>
-      <c r="AF20" s="164"/>
-      <c r="AG20" s="165"/>
-      <c r="AH20" s="165"/>
-      <c r="AI20" s="166"/>
+      <c r="B20" s="98"/>
+      <c r="C20" s="99"/>
+      <c r="D20" s="100"/>
+      <c r="E20" s="101"/>
+      <c r="F20" s="102"/>
+      <c r="G20" s="103"/>
+      <c r="H20" s="104"/>
+      <c r="I20" s="105"/>
+      <c r="J20" s="106"/>
+      <c r="K20" s="107"/>
+      <c r="L20" s="107"/>
+      <c r="M20" s="107"/>
+      <c r="N20" s="107"/>
+      <c r="O20" s="107"/>
+      <c r="P20" s="108"/>
+      <c r="Q20" s="109"/>
+      <c r="R20" s="110"/>
+      <c r="S20" s="110"/>
+      <c r="T20" s="110"/>
+      <c r="U20" s="110"/>
+      <c r="V20" s="110"/>
+      <c r="W20" s="110"/>
+      <c r="X20" s="110"/>
+      <c r="Y20" s="110"/>
+      <c r="Z20" s="110"/>
+      <c r="AA20" s="110"/>
+      <c r="AB20" s="110"/>
+      <c r="AC20" s="110"/>
+      <c r="AD20" s="110"/>
+      <c r="AE20" s="111"/>
+      <c r="AF20" s="106"/>
+      <c r="AG20" s="107"/>
+      <c r="AH20" s="107"/>
+      <c r="AI20" s="108"/>
     </row>
     <row r="21" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="60"/>
-      <c r="B21" s="159"/>
-      <c r="C21" s="160"/>
-      <c r="D21" s="133"/>
-      <c r="E21" s="134"/>
-      <c r="F21" s="135"/>
-      <c r="G21" s="161"/>
-      <c r="H21" s="162"/>
-      <c r="I21" s="163"/>
-      <c r="J21" s="164"/>
-      <c r="K21" s="165"/>
-      <c r="L21" s="165"/>
-      <c r="M21" s="165"/>
-      <c r="N21" s="165"/>
-      <c r="O21" s="165"/>
-      <c r="P21" s="166"/>
-      <c r="Q21" s="167"/>
-      <c r="R21" s="168"/>
-      <c r="S21" s="168"/>
-      <c r="T21" s="168"/>
-      <c r="U21" s="168"/>
-      <c r="V21" s="168"/>
-      <c r="W21" s="168"/>
-      <c r="X21" s="168"/>
-      <c r="Y21" s="168"/>
-      <c r="Z21" s="168"/>
-      <c r="AA21" s="168"/>
-      <c r="AB21" s="168"/>
-      <c r="AC21" s="168"/>
-      <c r="AD21" s="168"/>
-      <c r="AE21" s="169"/>
-      <c r="AF21" s="164"/>
-      <c r="AG21" s="165"/>
-      <c r="AH21" s="165"/>
-      <c r="AI21" s="166"/>
+      <c r="B21" s="98"/>
+      <c r="C21" s="99"/>
+      <c r="D21" s="100"/>
+      <c r="E21" s="101"/>
+      <c r="F21" s="102"/>
+      <c r="G21" s="103"/>
+      <c r="H21" s="104"/>
+      <c r="I21" s="105"/>
+      <c r="J21" s="106"/>
+      <c r="K21" s="107"/>
+      <c r="L21" s="107"/>
+      <c r="M21" s="107"/>
+      <c r="N21" s="107"/>
+      <c r="O21" s="107"/>
+      <c r="P21" s="108"/>
+      <c r="Q21" s="109"/>
+      <c r="R21" s="110"/>
+      <c r="S21" s="110"/>
+      <c r="T21" s="110"/>
+      <c r="U21" s="110"/>
+      <c r="V21" s="110"/>
+      <c r="W21" s="110"/>
+      <c r="X21" s="110"/>
+      <c r="Y21" s="110"/>
+      <c r="Z21" s="110"/>
+      <c r="AA21" s="110"/>
+      <c r="AB21" s="110"/>
+      <c r="AC21" s="110"/>
+      <c r="AD21" s="110"/>
+      <c r="AE21" s="111"/>
+      <c r="AF21" s="106"/>
+      <c r="AG21" s="107"/>
+      <c r="AH21" s="107"/>
+      <c r="AI21" s="108"/>
     </row>
     <row r="22" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="60"/>
-      <c r="B22" s="159"/>
-      <c r="C22" s="160"/>
-      <c r="D22" s="133"/>
-      <c r="E22" s="134"/>
-      <c r="F22" s="135"/>
-      <c r="G22" s="161"/>
-      <c r="H22" s="162"/>
-      <c r="I22" s="163"/>
-      <c r="J22" s="164"/>
-      <c r="K22" s="165"/>
-      <c r="L22" s="165"/>
-      <c r="M22" s="165"/>
-      <c r="N22" s="165"/>
-      <c r="O22" s="165"/>
-      <c r="P22" s="166"/>
-      <c r="Q22" s="167"/>
-      <c r="R22" s="168"/>
-      <c r="S22" s="168"/>
-      <c r="T22" s="168"/>
-      <c r="U22" s="168"/>
-      <c r="V22" s="168"/>
-      <c r="W22" s="168"/>
-      <c r="X22" s="168"/>
-      <c r="Y22" s="168"/>
-      <c r="Z22" s="168"/>
-      <c r="AA22" s="168"/>
-      <c r="AB22" s="168"/>
-      <c r="AC22" s="168"/>
-      <c r="AD22" s="168"/>
-      <c r="AE22" s="169"/>
-      <c r="AF22" s="164"/>
-      <c r="AG22" s="165"/>
-      <c r="AH22" s="165"/>
-      <c r="AI22" s="166"/>
+      <c r="B22" s="98"/>
+      <c r="C22" s="99"/>
+      <c r="D22" s="100"/>
+      <c r="E22" s="101"/>
+      <c r="F22" s="102"/>
+      <c r="G22" s="103"/>
+      <c r="H22" s="104"/>
+      <c r="I22" s="105"/>
+      <c r="J22" s="106"/>
+      <c r="K22" s="107"/>
+      <c r="L22" s="107"/>
+      <c r="M22" s="107"/>
+      <c r="N22" s="107"/>
+      <c r="O22" s="107"/>
+      <c r="P22" s="108"/>
+      <c r="Q22" s="109"/>
+      <c r="R22" s="110"/>
+      <c r="S22" s="110"/>
+      <c r="T22" s="110"/>
+      <c r="U22" s="110"/>
+      <c r="V22" s="110"/>
+      <c r="W22" s="110"/>
+      <c r="X22" s="110"/>
+      <c r="Y22" s="110"/>
+      <c r="Z22" s="110"/>
+      <c r="AA22" s="110"/>
+      <c r="AB22" s="110"/>
+      <c r="AC22" s="110"/>
+      <c r="AD22" s="110"/>
+      <c r="AE22" s="111"/>
+      <c r="AF22" s="106"/>
+      <c r="AG22" s="107"/>
+      <c r="AH22" s="107"/>
+      <c r="AI22" s="108"/>
     </row>
     <row r="23" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="60"/>
-      <c r="B23" s="159"/>
-      <c r="C23" s="160"/>
-      <c r="D23" s="133"/>
-      <c r="E23" s="134"/>
-      <c r="F23" s="135"/>
-      <c r="G23" s="161"/>
-      <c r="H23" s="162"/>
-      <c r="I23" s="163"/>
-      <c r="J23" s="164"/>
-      <c r="K23" s="165"/>
-      <c r="L23" s="165"/>
-      <c r="M23" s="165"/>
-      <c r="N23" s="165"/>
-      <c r="O23" s="165"/>
-      <c r="P23" s="166"/>
-      <c r="Q23" s="167"/>
-      <c r="R23" s="168"/>
-      <c r="S23" s="168"/>
-      <c r="T23" s="168"/>
-      <c r="U23" s="168"/>
-      <c r="V23" s="168"/>
-      <c r="W23" s="168"/>
-      <c r="X23" s="168"/>
-      <c r="Y23" s="168"/>
-      <c r="Z23" s="168"/>
-      <c r="AA23" s="168"/>
-      <c r="AB23" s="168"/>
-      <c r="AC23" s="168"/>
-      <c r="AD23" s="168"/>
-      <c r="AE23" s="169"/>
-      <c r="AF23" s="164"/>
-      <c r="AG23" s="165"/>
-      <c r="AH23" s="165"/>
-      <c r="AI23" s="166"/>
+      <c r="B23" s="98"/>
+      <c r="C23" s="99"/>
+      <c r="D23" s="100"/>
+      <c r="E23" s="101"/>
+      <c r="F23" s="102"/>
+      <c r="G23" s="103"/>
+      <c r="H23" s="104"/>
+      <c r="I23" s="105"/>
+      <c r="J23" s="106"/>
+      <c r="K23" s="107"/>
+      <c r="L23" s="107"/>
+      <c r="M23" s="107"/>
+      <c r="N23" s="107"/>
+      <c r="O23" s="107"/>
+      <c r="P23" s="108"/>
+      <c r="Q23" s="109"/>
+      <c r="R23" s="110"/>
+      <c r="S23" s="110"/>
+      <c r="T23" s="110"/>
+      <c r="U23" s="110"/>
+      <c r="V23" s="110"/>
+      <c r="W23" s="110"/>
+      <c r="X23" s="110"/>
+      <c r="Y23" s="110"/>
+      <c r="Z23" s="110"/>
+      <c r="AA23" s="110"/>
+      <c r="AB23" s="110"/>
+      <c r="AC23" s="110"/>
+      <c r="AD23" s="110"/>
+      <c r="AE23" s="111"/>
+      <c r="AF23" s="106"/>
+      <c r="AG23" s="107"/>
+      <c r="AH23" s="107"/>
+      <c r="AI23" s="108"/>
     </row>
     <row r="24" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="60"/>
-      <c r="B24" s="159"/>
-      <c r="C24" s="160"/>
-      <c r="D24" s="133"/>
-      <c r="E24" s="134"/>
-      <c r="F24" s="135"/>
-      <c r="G24" s="161"/>
-      <c r="H24" s="162"/>
-      <c r="I24" s="163"/>
-      <c r="J24" s="164"/>
-      <c r="K24" s="165"/>
-      <c r="L24" s="165"/>
-      <c r="M24" s="165"/>
-      <c r="N24" s="165"/>
-      <c r="O24" s="165"/>
-      <c r="P24" s="166"/>
-      <c r="Q24" s="167"/>
-      <c r="R24" s="168"/>
-      <c r="S24" s="168"/>
-      <c r="T24" s="168"/>
-      <c r="U24" s="168"/>
-      <c r="V24" s="168"/>
-      <c r="W24" s="168"/>
-      <c r="X24" s="168"/>
-      <c r="Y24" s="168"/>
-      <c r="Z24" s="168"/>
-      <c r="AA24" s="168"/>
-      <c r="AB24" s="168"/>
-      <c r="AC24" s="168"/>
-      <c r="AD24" s="168"/>
-      <c r="AE24" s="169"/>
-      <c r="AF24" s="164"/>
-      <c r="AG24" s="165"/>
-      <c r="AH24" s="165"/>
-      <c r="AI24" s="166"/>
+      <c r="B24" s="98"/>
+      <c r="C24" s="99"/>
+      <c r="D24" s="100"/>
+      <c r="E24" s="101"/>
+      <c r="F24" s="102"/>
+      <c r="G24" s="103"/>
+      <c r="H24" s="104"/>
+      <c r="I24" s="105"/>
+      <c r="J24" s="106"/>
+      <c r="K24" s="107"/>
+      <c r="L24" s="107"/>
+      <c r="M24" s="107"/>
+      <c r="N24" s="107"/>
+      <c r="O24" s="107"/>
+      <c r="P24" s="108"/>
+      <c r="Q24" s="109"/>
+      <c r="R24" s="110"/>
+      <c r="S24" s="110"/>
+      <c r="T24" s="110"/>
+      <c r="U24" s="110"/>
+      <c r="V24" s="110"/>
+      <c r="W24" s="110"/>
+      <c r="X24" s="110"/>
+      <c r="Y24" s="110"/>
+      <c r="Z24" s="110"/>
+      <c r="AA24" s="110"/>
+      <c r="AB24" s="110"/>
+      <c r="AC24" s="110"/>
+      <c r="AD24" s="110"/>
+      <c r="AE24" s="111"/>
+      <c r="AF24" s="106"/>
+      <c r="AG24" s="107"/>
+      <c r="AH24" s="107"/>
+      <c r="AI24" s="108"/>
     </row>
     <row r="25" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="60"/>
-      <c r="B25" s="159"/>
-      <c r="C25" s="160"/>
-      <c r="D25" s="133"/>
-      <c r="E25" s="134"/>
-      <c r="F25" s="135"/>
-      <c r="G25" s="161"/>
-      <c r="H25" s="162"/>
-      <c r="I25" s="163"/>
-      <c r="J25" s="164"/>
-      <c r="K25" s="165"/>
-      <c r="L25" s="165"/>
-      <c r="M25" s="165"/>
-      <c r="N25" s="165"/>
-      <c r="O25" s="165"/>
-      <c r="P25" s="166"/>
-      <c r="Q25" s="167"/>
-      <c r="R25" s="168"/>
-      <c r="S25" s="168"/>
-      <c r="T25" s="168"/>
-      <c r="U25" s="168"/>
-      <c r="V25" s="168"/>
-      <c r="W25" s="168"/>
-      <c r="X25" s="168"/>
-      <c r="Y25" s="168"/>
-      <c r="Z25" s="168"/>
-      <c r="AA25" s="168"/>
-      <c r="AB25" s="168"/>
-      <c r="AC25" s="168"/>
-      <c r="AD25" s="168"/>
-      <c r="AE25" s="169"/>
-      <c r="AF25" s="164"/>
-      <c r="AG25" s="165"/>
-      <c r="AH25" s="165"/>
-      <c r="AI25" s="166"/>
+      <c r="B25" s="98"/>
+      <c r="C25" s="99"/>
+      <c r="D25" s="100"/>
+      <c r="E25" s="101"/>
+      <c r="F25" s="102"/>
+      <c r="G25" s="103"/>
+      <c r="H25" s="104"/>
+      <c r="I25" s="105"/>
+      <c r="J25" s="106"/>
+      <c r="K25" s="107"/>
+      <c r="L25" s="107"/>
+      <c r="M25" s="107"/>
+      <c r="N25" s="107"/>
+      <c r="O25" s="107"/>
+      <c r="P25" s="108"/>
+      <c r="Q25" s="109"/>
+      <c r="R25" s="110"/>
+      <c r="S25" s="110"/>
+      <c r="T25" s="110"/>
+      <c r="U25" s="110"/>
+      <c r="V25" s="110"/>
+      <c r="W25" s="110"/>
+      <c r="X25" s="110"/>
+      <c r="Y25" s="110"/>
+      <c r="Z25" s="110"/>
+      <c r="AA25" s="110"/>
+      <c r="AB25" s="110"/>
+      <c r="AC25" s="110"/>
+      <c r="AD25" s="110"/>
+      <c r="AE25" s="111"/>
+      <c r="AF25" s="106"/>
+      <c r="AG25" s="107"/>
+      <c r="AH25" s="107"/>
+      <c r="AI25" s="108"/>
     </row>
     <row r="26" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="60"/>
-      <c r="B26" s="159"/>
-      <c r="C26" s="160"/>
-      <c r="D26" s="133"/>
-      <c r="E26" s="134"/>
-      <c r="F26" s="135"/>
-      <c r="G26" s="161"/>
-      <c r="H26" s="162"/>
-      <c r="I26" s="163"/>
-      <c r="J26" s="164"/>
-      <c r="K26" s="165"/>
-      <c r="L26" s="165"/>
-      <c r="M26" s="165"/>
-      <c r="N26" s="165"/>
-      <c r="O26" s="165"/>
-      <c r="P26" s="166"/>
-      <c r="Q26" s="167"/>
-      <c r="R26" s="168"/>
-      <c r="S26" s="168"/>
-      <c r="T26" s="168"/>
-      <c r="U26" s="168"/>
-      <c r="V26" s="168"/>
-      <c r="W26" s="168"/>
-      <c r="X26" s="168"/>
-      <c r="Y26" s="168"/>
-      <c r="Z26" s="168"/>
-      <c r="AA26" s="168"/>
-      <c r="AB26" s="168"/>
-      <c r="AC26" s="168"/>
-      <c r="AD26" s="168"/>
-      <c r="AE26" s="169"/>
-      <c r="AF26" s="164"/>
-      <c r="AG26" s="165"/>
-      <c r="AH26" s="165"/>
-      <c r="AI26" s="166"/>
+      <c r="B26" s="98"/>
+      <c r="C26" s="99"/>
+      <c r="D26" s="100"/>
+      <c r="E26" s="101"/>
+      <c r="F26" s="102"/>
+      <c r="G26" s="103"/>
+      <c r="H26" s="104"/>
+      <c r="I26" s="105"/>
+      <c r="J26" s="106"/>
+      <c r="K26" s="107"/>
+      <c r="L26" s="107"/>
+      <c r="M26" s="107"/>
+      <c r="N26" s="107"/>
+      <c r="O26" s="107"/>
+      <c r="P26" s="108"/>
+      <c r="Q26" s="109"/>
+      <c r="R26" s="110"/>
+      <c r="S26" s="110"/>
+      <c r="T26" s="110"/>
+      <c r="U26" s="110"/>
+      <c r="V26" s="110"/>
+      <c r="W26" s="110"/>
+      <c r="X26" s="110"/>
+      <c r="Y26" s="110"/>
+      <c r="Z26" s="110"/>
+      <c r="AA26" s="110"/>
+      <c r="AB26" s="110"/>
+      <c r="AC26" s="110"/>
+      <c r="AD26" s="110"/>
+      <c r="AE26" s="111"/>
+      <c r="AF26" s="106"/>
+      <c r="AG26" s="107"/>
+      <c r="AH26" s="107"/>
+      <c r="AI26" s="108"/>
     </row>
     <row r="27" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="60"/>
-      <c r="B27" s="159"/>
-      <c r="C27" s="160"/>
-      <c r="D27" s="133"/>
-      <c r="E27" s="134"/>
-      <c r="F27" s="135"/>
-      <c r="G27" s="161"/>
-      <c r="H27" s="162"/>
-      <c r="I27" s="163"/>
-      <c r="J27" s="164"/>
-      <c r="K27" s="165"/>
-      <c r="L27" s="165"/>
-      <c r="M27" s="165"/>
-      <c r="N27" s="165"/>
-      <c r="O27" s="165"/>
-      <c r="P27" s="166"/>
-      <c r="Q27" s="167"/>
-      <c r="R27" s="168"/>
-      <c r="S27" s="168"/>
-      <c r="T27" s="168"/>
-      <c r="U27" s="168"/>
-      <c r="V27" s="168"/>
-      <c r="W27" s="168"/>
-      <c r="X27" s="168"/>
-      <c r="Y27" s="168"/>
-      <c r="Z27" s="168"/>
-      <c r="AA27" s="168"/>
-      <c r="AB27" s="168"/>
-      <c r="AC27" s="168"/>
-      <c r="AD27" s="168"/>
-      <c r="AE27" s="169"/>
-      <c r="AF27" s="164"/>
-      <c r="AG27" s="165"/>
-      <c r="AH27" s="165"/>
-      <c r="AI27" s="166"/>
+      <c r="B27" s="98"/>
+      <c r="C27" s="99"/>
+      <c r="D27" s="100"/>
+      <c r="E27" s="101"/>
+      <c r="F27" s="102"/>
+      <c r="G27" s="103"/>
+      <c r="H27" s="104"/>
+      <c r="I27" s="105"/>
+      <c r="J27" s="106"/>
+      <c r="K27" s="107"/>
+      <c r="L27" s="107"/>
+      <c r="M27" s="107"/>
+      <c r="N27" s="107"/>
+      <c r="O27" s="107"/>
+      <c r="P27" s="108"/>
+      <c r="Q27" s="109"/>
+      <c r="R27" s="110"/>
+      <c r="S27" s="110"/>
+      <c r="T27" s="110"/>
+      <c r="U27" s="110"/>
+      <c r="V27" s="110"/>
+      <c r="W27" s="110"/>
+      <c r="X27" s="110"/>
+      <c r="Y27" s="110"/>
+      <c r="Z27" s="110"/>
+      <c r="AA27" s="110"/>
+      <c r="AB27" s="110"/>
+      <c r="AC27" s="110"/>
+      <c r="AD27" s="110"/>
+      <c r="AE27" s="111"/>
+      <c r="AF27" s="106"/>
+      <c r="AG27" s="107"/>
+      <c r="AH27" s="107"/>
+      <c r="AI27" s="108"/>
     </row>
     <row r="28" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="60"/>
-      <c r="B28" s="159"/>
-      <c r="C28" s="160"/>
-      <c r="D28" s="133"/>
-      <c r="E28" s="134"/>
-      <c r="F28" s="135"/>
-      <c r="G28" s="161"/>
-      <c r="H28" s="162"/>
-      <c r="I28" s="163"/>
-      <c r="J28" s="164"/>
-      <c r="K28" s="165"/>
-      <c r="L28" s="165"/>
-      <c r="M28" s="165"/>
-      <c r="N28" s="165"/>
-      <c r="O28" s="165"/>
-      <c r="P28" s="166"/>
-      <c r="Q28" s="167"/>
-      <c r="R28" s="168"/>
-      <c r="S28" s="168"/>
-      <c r="T28" s="168"/>
-      <c r="U28" s="168"/>
-      <c r="V28" s="168"/>
-      <c r="W28" s="168"/>
-      <c r="X28" s="168"/>
-      <c r="Y28" s="168"/>
-      <c r="Z28" s="168"/>
-      <c r="AA28" s="168"/>
-      <c r="AB28" s="168"/>
-      <c r="AC28" s="168"/>
-      <c r="AD28" s="168"/>
-      <c r="AE28" s="169"/>
-      <c r="AF28" s="164"/>
-      <c r="AG28" s="165"/>
-      <c r="AH28" s="165"/>
-      <c r="AI28" s="166"/>
+      <c r="B28" s="98"/>
+      <c r="C28" s="99"/>
+      <c r="D28" s="100"/>
+      <c r="E28" s="101"/>
+      <c r="F28" s="102"/>
+      <c r="G28" s="103"/>
+      <c r="H28" s="104"/>
+      <c r="I28" s="105"/>
+      <c r="J28" s="106"/>
+      <c r="K28" s="107"/>
+      <c r="L28" s="107"/>
+      <c r="M28" s="107"/>
+      <c r="N28" s="107"/>
+      <c r="O28" s="107"/>
+      <c r="P28" s="108"/>
+      <c r="Q28" s="109"/>
+      <c r="R28" s="110"/>
+      <c r="S28" s="110"/>
+      <c r="T28" s="110"/>
+      <c r="U28" s="110"/>
+      <c r="V28" s="110"/>
+      <c r="W28" s="110"/>
+      <c r="X28" s="110"/>
+      <c r="Y28" s="110"/>
+      <c r="Z28" s="110"/>
+      <c r="AA28" s="110"/>
+      <c r="AB28" s="110"/>
+      <c r="AC28" s="110"/>
+      <c r="AD28" s="110"/>
+      <c r="AE28" s="111"/>
+      <c r="AF28" s="106"/>
+      <c r="AG28" s="107"/>
+      <c r="AH28" s="107"/>
+      <c r="AI28" s="108"/>
     </row>
     <row r="29" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="60"/>
-      <c r="B29" s="159"/>
-      <c r="C29" s="160"/>
-      <c r="D29" s="133"/>
-      <c r="E29" s="134"/>
-      <c r="F29" s="135"/>
-      <c r="G29" s="161"/>
-      <c r="H29" s="162"/>
-      <c r="I29" s="163"/>
-      <c r="J29" s="164"/>
-      <c r="K29" s="165"/>
-      <c r="L29" s="165"/>
-      <c r="M29" s="165"/>
-      <c r="N29" s="165"/>
-      <c r="O29" s="165"/>
-      <c r="P29" s="166"/>
-      <c r="Q29" s="167"/>
-      <c r="R29" s="168"/>
-      <c r="S29" s="168"/>
-      <c r="T29" s="168"/>
-      <c r="U29" s="168"/>
-      <c r="V29" s="168"/>
-      <c r="W29" s="168"/>
-      <c r="X29" s="168"/>
-      <c r="Y29" s="168"/>
-      <c r="Z29" s="168"/>
-      <c r="AA29" s="168"/>
-      <c r="AB29" s="168"/>
-      <c r="AC29" s="168"/>
-      <c r="AD29" s="168"/>
-      <c r="AE29" s="169"/>
-      <c r="AF29" s="164"/>
-      <c r="AG29" s="165"/>
-      <c r="AH29" s="165"/>
-      <c r="AI29" s="166"/>
+      <c r="B29" s="98"/>
+      <c r="C29" s="99"/>
+      <c r="D29" s="100"/>
+      <c r="E29" s="101"/>
+      <c r="F29" s="102"/>
+      <c r="G29" s="103"/>
+      <c r="H29" s="104"/>
+      <c r="I29" s="105"/>
+      <c r="J29" s="106"/>
+      <c r="K29" s="107"/>
+      <c r="L29" s="107"/>
+      <c r="M29" s="107"/>
+      <c r="N29" s="107"/>
+      <c r="O29" s="107"/>
+      <c r="P29" s="108"/>
+      <c r="Q29" s="109"/>
+      <c r="R29" s="110"/>
+      <c r="S29" s="110"/>
+      <c r="T29" s="110"/>
+      <c r="U29" s="110"/>
+      <c r="V29" s="110"/>
+      <c r="W29" s="110"/>
+      <c r="X29" s="110"/>
+      <c r="Y29" s="110"/>
+      <c r="Z29" s="110"/>
+      <c r="AA29" s="110"/>
+      <c r="AB29" s="110"/>
+      <c r="AC29" s="110"/>
+      <c r="AD29" s="110"/>
+      <c r="AE29" s="111"/>
+      <c r="AF29" s="106"/>
+      <c r="AG29" s="107"/>
+      <c r="AH29" s="107"/>
+      <c r="AI29" s="108"/>
     </row>
     <row r="30" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="60"/>
-      <c r="B30" s="159"/>
-      <c r="C30" s="160"/>
-      <c r="D30" s="133"/>
-      <c r="E30" s="134"/>
-      <c r="F30" s="135"/>
-      <c r="G30" s="161"/>
-      <c r="H30" s="162"/>
-      <c r="I30" s="163"/>
-      <c r="J30" s="164"/>
-      <c r="K30" s="165"/>
-      <c r="L30" s="165"/>
-      <c r="M30" s="165"/>
-      <c r="N30" s="165"/>
-      <c r="O30" s="165"/>
-      <c r="P30" s="166"/>
-      <c r="Q30" s="167"/>
-      <c r="R30" s="168"/>
-      <c r="S30" s="168"/>
-      <c r="T30" s="168"/>
-      <c r="U30" s="168"/>
-      <c r="V30" s="168"/>
-      <c r="W30" s="168"/>
-      <c r="X30" s="168"/>
-      <c r="Y30" s="168"/>
-      <c r="Z30" s="168"/>
-      <c r="AA30" s="168"/>
-      <c r="AB30" s="168"/>
-      <c r="AC30" s="168"/>
-      <c r="AD30" s="168"/>
-      <c r="AE30" s="169"/>
-      <c r="AF30" s="164"/>
-      <c r="AG30" s="165"/>
-      <c r="AH30" s="165"/>
-      <c r="AI30" s="166"/>
+      <c r="B30" s="98"/>
+      <c r="C30" s="99"/>
+      <c r="D30" s="100"/>
+      <c r="E30" s="101"/>
+      <c r="F30" s="102"/>
+      <c r="G30" s="103"/>
+      <c r="H30" s="104"/>
+      <c r="I30" s="105"/>
+      <c r="J30" s="106"/>
+      <c r="K30" s="107"/>
+      <c r="L30" s="107"/>
+      <c r="M30" s="107"/>
+      <c r="N30" s="107"/>
+      <c r="O30" s="107"/>
+      <c r="P30" s="108"/>
+      <c r="Q30" s="109"/>
+      <c r="R30" s="110"/>
+      <c r="S30" s="110"/>
+      <c r="T30" s="110"/>
+      <c r="U30" s="110"/>
+      <c r="V30" s="110"/>
+      <c r="W30" s="110"/>
+      <c r="X30" s="110"/>
+      <c r="Y30" s="110"/>
+      <c r="Z30" s="110"/>
+      <c r="AA30" s="110"/>
+      <c r="AB30" s="110"/>
+      <c r="AC30" s="110"/>
+      <c r="AD30" s="110"/>
+      <c r="AE30" s="111"/>
+      <c r="AF30" s="106"/>
+      <c r="AG30" s="107"/>
+      <c r="AH30" s="107"/>
+      <c r="AI30" s="108"/>
     </row>
     <row r="31" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="60"/>
-      <c r="B31" s="159"/>
-      <c r="C31" s="160"/>
-      <c r="D31" s="133"/>
-      <c r="E31" s="134"/>
-      <c r="F31" s="135"/>
-      <c r="G31" s="161"/>
-      <c r="H31" s="162"/>
-      <c r="I31" s="163"/>
-      <c r="J31" s="164"/>
-      <c r="K31" s="165"/>
-      <c r="L31" s="165"/>
-      <c r="M31" s="165"/>
-      <c r="N31" s="165"/>
-      <c r="O31" s="165"/>
-      <c r="P31" s="166"/>
-      <c r="Q31" s="167"/>
-      <c r="R31" s="168"/>
-      <c r="S31" s="168"/>
-      <c r="T31" s="168"/>
-      <c r="U31" s="168"/>
-      <c r="V31" s="168"/>
-      <c r="W31" s="168"/>
-      <c r="X31" s="168"/>
-      <c r="Y31" s="168"/>
-      <c r="Z31" s="168"/>
-      <c r="AA31" s="168"/>
-      <c r="AB31" s="168"/>
-      <c r="AC31" s="168"/>
-      <c r="AD31" s="168"/>
-      <c r="AE31" s="169"/>
-      <c r="AF31" s="164"/>
-      <c r="AG31" s="165"/>
-      <c r="AH31" s="165"/>
-      <c r="AI31" s="166"/>
+      <c r="B31" s="98"/>
+      <c r="C31" s="99"/>
+      <c r="D31" s="100"/>
+      <c r="E31" s="101"/>
+      <c r="F31" s="102"/>
+      <c r="G31" s="103"/>
+      <c r="H31" s="104"/>
+      <c r="I31" s="105"/>
+      <c r="J31" s="106"/>
+      <c r="K31" s="107"/>
+      <c r="L31" s="107"/>
+      <c r="M31" s="107"/>
+      <c r="N31" s="107"/>
+      <c r="O31" s="107"/>
+      <c r="P31" s="108"/>
+      <c r="Q31" s="109"/>
+      <c r="R31" s="110"/>
+      <c r="S31" s="110"/>
+      <c r="T31" s="110"/>
+      <c r="U31" s="110"/>
+      <c r="V31" s="110"/>
+      <c r="W31" s="110"/>
+      <c r="X31" s="110"/>
+      <c r="Y31" s="110"/>
+      <c r="Z31" s="110"/>
+      <c r="AA31" s="110"/>
+      <c r="AB31" s="110"/>
+      <c r="AC31" s="110"/>
+      <c r="AD31" s="110"/>
+      <c r="AE31" s="111"/>
+      <c r="AF31" s="106"/>
+      <c r="AG31" s="107"/>
+      <c r="AH31" s="107"/>
+      <c r="AI31" s="108"/>
     </row>
     <row r="32" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="60"/>
-      <c r="B32" s="159"/>
-      <c r="C32" s="160"/>
-      <c r="D32" s="133"/>
-      <c r="E32" s="134"/>
-      <c r="F32" s="135"/>
-      <c r="G32" s="161"/>
-      <c r="H32" s="162"/>
-      <c r="I32" s="163"/>
-      <c r="J32" s="164"/>
-      <c r="K32" s="165"/>
-      <c r="L32" s="165"/>
-      <c r="M32" s="165"/>
-      <c r="N32" s="165"/>
-      <c r="O32" s="165"/>
-      <c r="P32" s="166"/>
-      <c r="Q32" s="167"/>
-      <c r="R32" s="168"/>
-      <c r="S32" s="168"/>
-      <c r="T32" s="168"/>
-      <c r="U32" s="168"/>
-      <c r="V32" s="168"/>
-      <c r="W32" s="168"/>
-      <c r="X32" s="168"/>
-      <c r="Y32" s="168"/>
-      <c r="Z32" s="168"/>
-      <c r="AA32" s="168"/>
-      <c r="AB32" s="168"/>
-      <c r="AC32" s="168"/>
-      <c r="AD32" s="168"/>
-      <c r="AE32" s="169"/>
-      <c r="AF32" s="164"/>
-      <c r="AG32" s="165"/>
-      <c r="AH32" s="165"/>
-      <c r="AI32" s="166"/>
+      <c r="B32" s="98"/>
+      <c r="C32" s="99"/>
+      <c r="D32" s="100"/>
+      <c r="E32" s="101"/>
+      <c r="F32" s="102"/>
+      <c r="G32" s="103"/>
+      <c r="H32" s="104"/>
+      <c r="I32" s="105"/>
+      <c r="J32" s="106"/>
+      <c r="K32" s="107"/>
+      <c r="L32" s="107"/>
+      <c r="M32" s="107"/>
+      <c r="N32" s="107"/>
+      <c r="O32" s="107"/>
+      <c r="P32" s="108"/>
+      <c r="Q32" s="109"/>
+      <c r="R32" s="110"/>
+      <c r="S32" s="110"/>
+      <c r="T32" s="110"/>
+      <c r="U32" s="110"/>
+      <c r="V32" s="110"/>
+      <c r="W32" s="110"/>
+      <c r="X32" s="110"/>
+      <c r="Y32" s="110"/>
+      <c r="Z32" s="110"/>
+      <c r="AA32" s="110"/>
+      <c r="AB32" s="110"/>
+      <c r="AC32" s="110"/>
+      <c r="AD32" s="110"/>
+      <c r="AE32" s="111"/>
+      <c r="AF32" s="106"/>
+      <c r="AG32" s="107"/>
+      <c r="AH32" s="107"/>
+      <c r="AI32" s="108"/>
     </row>
     <row r="33" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="60"/>
-      <c r="B33" s="159"/>
-      <c r="C33" s="160"/>
-      <c r="D33" s="133"/>
-      <c r="E33" s="134"/>
-      <c r="F33" s="135"/>
-      <c r="G33" s="161"/>
-      <c r="H33" s="162"/>
-      <c r="I33" s="163"/>
-      <c r="J33" s="164"/>
-      <c r="K33" s="165"/>
-      <c r="L33" s="165"/>
-      <c r="M33" s="165"/>
-      <c r="N33" s="165"/>
-      <c r="O33" s="165"/>
-      <c r="P33" s="166"/>
-      <c r="Q33" s="167"/>
-      <c r="R33" s="168"/>
-      <c r="S33" s="168"/>
-      <c r="T33" s="168"/>
-      <c r="U33" s="168"/>
-      <c r="V33" s="168"/>
-      <c r="W33" s="168"/>
-      <c r="X33" s="168"/>
-      <c r="Y33" s="168"/>
-      <c r="Z33" s="168"/>
-      <c r="AA33" s="168"/>
-      <c r="AB33" s="168"/>
-      <c r="AC33" s="168"/>
-      <c r="AD33" s="168"/>
-      <c r="AE33" s="169"/>
-      <c r="AF33" s="164"/>
-      <c r="AG33" s="165"/>
-      <c r="AH33" s="165"/>
-      <c r="AI33" s="166"/>
+      <c r="B33" s="98"/>
+      <c r="C33" s="99"/>
+      <c r="D33" s="100"/>
+      <c r="E33" s="101"/>
+      <c r="F33" s="102"/>
+      <c r="G33" s="103"/>
+      <c r="H33" s="104"/>
+      <c r="I33" s="105"/>
+      <c r="J33" s="106"/>
+      <c r="K33" s="107"/>
+      <c r="L33" s="107"/>
+      <c r="M33" s="107"/>
+      <c r="N33" s="107"/>
+      <c r="O33" s="107"/>
+      <c r="P33" s="108"/>
+      <c r="Q33" s="109"/>
+      <c r="R33" s="110"/>
+      <c r="S33" s="110"/>
+      <c r="T33" s="110"/>
+      <c r="U33" s="110"/>
+      <c r="V33" s="110"/>
+      <c r="W33" s="110"/>
+      <c r="X33" s="110"/>
+      <c r="Y33" s="110"/>
+      <c r="Z33" s="110"/>
+      <c r="AA33" s="110"/>
+      <c r="AB33" s="110"/>
+      <c r="AC33" s="110"/>
+      <c r="AD33" s="110"/>
+      <c r="AE33" s="111"/>
+      <c r="AF33" s="106"/>
+      <c r="AG33" s="107"/>
+      <c r="AH33" s="107"/>
+      <c r="AI33" s="108"/>
     </row>
   </sheetData>
   <mergeCells count="179">
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
@@ -5044,6 +4872,162 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
   </mergeCells>
   <phoneticPr fontId="10"/>
   <printOptions horizontalCentered="1"/>
@@ -5200,163 +5184,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="145" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="102"/>
-      <c r="C1" s="102"/>
-      <c r="D1" s="103"/>
+      <c r="B1" s="146"/>
+      <c r="C1" s="146"/>
+      <c r="D1" s="147"/>
       <c r="E1" s="175" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
-      <c r="I1" s="105"/>
-      <c r="J1" s="105"/>
-      <c r="K1" s="105"/>
-      <c r="L1" s="105"/>
-      <c r="M1" s="105"/>
-      <c r="N1" s="106"/>
-      <c r="O1" s="110" t="s">
+      <c r="F1" s="149"/>
+      <c r="G1" s="149"/>
+      <c r="H1" s="149"/>
+      <c r="I1" s="149"/>
+      <c r="J1" s="149"/>
+      <c r="K1" s="149"/>
+      <c r="L1" s="149"/>
+      <c r="M1" s="149"/>
+      <c r="N1" s="150"/>
+      <c r="O1" s="154" t="s">
         <v>17</v>
       </c>
-      <c r="P1" s="111"/>
-      <c r="Q1" s="111"/>
-      <c r="R1" s="112"/>
-      <c r="S1" s="119" t="str">
+      <c r="P1" s="155"/>
+      <c r="Q1" s="155"/>
+      <c r="R1" s="156"/>
+      <c r="S1" s="163" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>画面一覧</v>
       </c>
-      <c r="T1" s="120"/>
-      <c r="U1" s="120"/>
-      <c r="V1" s="120"/>
-      <c r="W1" s="120"/>
-      <c r="X1" s="120"/>
-      <c r="Y1" s="120"/>
-      <c r="Z1" s="121"/>
-      <c r="AA1" s="101" t="s">
+      <c r="T1" s="164"/>
+      <c r="U1" s="164"/>
+      <c r="V1" s="164"/>
+      <c r="W1" s="164"/>
+      <c r="X1" s="164"/>
+      <c r="Y1" s="164"/>
+      <c r="Z1" s="165"/>
+      <c r="AA1" s="145" t="s">
         <v>18</v>
       </c>
-      <c r="AB1" s="103"/>
-      <c r="AC1" s="128" t="str">
+      <c r="AB1" s="147"/>
+      <c r="AC1" s="172" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="129"/>
-      <c r="AE1" s="129"/>
-      <c r="AF1" s="130"/>
-      <c r="AG1" s="172">
+      <c r="AD1" s="173"/>
+      <c r="AE1" s="173"/>
+      <c r="AF1" s="174"/>
+      <c r="AG1" s="176">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43592</v>
       </c>
-      <c r="AH1" s="173"/>
-      <c r="AI1" s="174"/>
+      <c r="AH1" s="177"/>
+      <c r="AI1" s="178"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="2"/>
     </row>
     <row r="2" spans="1:38" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="101" t="s">
+      <c r="A2" s="145" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="102"/>
-      <c r="C2" s="102"/>
-      <c r="D2" s="103"/>
+      <c r="B2" s="146"/>
+      <c r="C2" s="146"/>
+      <c r="D2" s="147"/>
       <c r="E2" s="175" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="105"/>
-      <c r="G2" s="105"/>
-      <c r="H2" s="105"/>
-      <c r="I2" s="105"/>
-      <c r="J2" s="105"/>
-      <c r="K2" s="105"/>
-      <c r="L2" s="105"/>
-      <c r="M2" s="105"/>
-      <c r="N2" s="106"/>
-      <c r="O2" s="113"/>
-      <c r="P2" s="114"/>
-      <c r="Q2" s="114"/>
-      <c r="R2" s="115"/>
-      <c r="S2" s="122"/>
-      <c r="T2" s="123"/>
-      <c r="U2" s="123"/>
-      <c r="V2" s="123"/>
-      <c r="W2" s="123"/>
-      <c r="X2" s="123"/>
-      <c r="Y2" s="123"/>
-      <c r="Z2" s="124"/>
-      <c r="AA2" s="101" t="s">
+      <c r="F2" s="149"/>
+      <c r="G2" s="149"/>
+      <c r="H2" s="149"/>
+      <c r="I2" s="149"/>
+      <c r="J2" s="149"/>
+      <c r="K2" s="149"/>
+      <c r="L2" s="149"/>
+      <c r="M2" s="149"/>
+      <c r="N2" s="150"/>
+      <c r="O2" s="157"/>
+      <c r="P2" s="158"/>
+      <c r="Q2" s="158"/>
+      <c r="R2" s="159"/>
+      <c r="S2" s="166"/>
+      <c r="T2" s="167"/>
+      <c r="U2" s="167"/>
+      <c r="V2" s="167"/>
+      <c r="W2" s="167"/>
+      <c r="X2" s="167"/>
+      <c r="Y2" s="167"/>
+      <c r="Z2" s="168"/>
+      <c r="AA2" s="145" t="s">
         <v>19</v>
       </c>
-      <c r="AB2" s="103"/>
-      <c r="AC2" s="128" t="str">
+      <c r="AB2" s="147"/>
+      <c r="AC2" s="172" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="129"/>
-      <c r="AE2" s="129"/>
-      <c r="AF2" s="130"/>
-      <c r="AG2" s="172">
+      <c r="AD2" s="173"/>
+      <c r="AE2" s="173"/>
+      <c r="AF2" s="174"/>
+      <c r="AG2" s="176">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v>44796</v>
       </c>
-      <c r="AH2" s="173"/>
-      <c r="AI2" s="174"/>
+      <c r="AH2" s="177"/>
+      <c r="AI2" s="178"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
     </row>
     <row r="3" spans="1:38" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="101" t="s">
+      <c r="A3" s="145" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="102"/>
-      <c r="C3" s="102"/>
-      <c r="D3" s="103"/>
+      <c r="B3" s="146"/>
+      <c r="C3" s="146"/>
+      <c r="D3" s="147"/>
       <c r="E3" s="175" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="105"/>
-      <c r="G3" s="105"/>
-      <c r="H3" s="105"/>
-      <c r="I3" s="105"/>
-      <c r="J3" s="105"/>
-      <c r="K3" s="105"/>
-      <c r="L3" s="105"/>
-      <c r="M3" s="105"/>
-      <c r="N3" s="106"/>
-      <c r="O3" s="116"/>
-      <c r="P3" s="117"/>
-      <c r="Q3" s="117"/>
-      <c r="R3" s="118"/>
-      <c r="S3" s="125"/>
-      <c r="T3" s="126"/>
-      <c r="U3" s="126"/>
-      <c r="V3" s="126"/>
-      <c r="W3" s="126"/>
-      <c r="X3" s="126"/>
-      <c r="Y3" s="126"/>
-      <c r="Z3" s="127"/>
-      <c r="AA3" s="101"/>
-      <c r="AB3" s="103"/>
-      <c r="AC3" s="128" t="str">
+      <c r="F3" s="149"/>
+      <c r="G3" s="149"/>
+      <c r="H3" s="149"/>
+      <c r="I3" s="149"/>
+      <c r="J3" s="149"/>
+      <c r="K3" s="149"/>
+      <c r="L3" s="149"/>
+      <c r="M3" s="149"/>
+      <c r="N3" s="150"/>
+      <c r="O3" s="160"/>
+      <c r="P3" s="161"/>
+      <c r="Q3" s="161"/>
+      <c r="R3" s="162"/>
+      <c r="S3" s="169"/>
+      <c r="T3" s="170"/>
+      <c r="U3" s="170"/>
+      <c r="V3" s="170"/>
+      <c r="W3" s="170"/>
+      <c r="X3" s="170"/>
+      <c r="Y3" s="170"/>
+      <c r="Z3" s="171"/>
+      <c r="AA3" s="145"/>
+      <c r="AB3" s="147"/>
+      <c r="AC3" s="172" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="129"/>
-      <c r="AE3" s="129"/>
-      <c r="AF3" s="130"/>
-      <c r="AG3" s="172" t="str">
+      <c r="AD3" s="173"/>
+      <c r="AE3" s="173"/>
+      <c r="AF3" s="174"/>
+      <c r="AG3" s="176" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="173"/>
-      <c r="AI3" s="174"/>
+      <c r="AH3" s="177"/>
+      <c r="AI3" s="178"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
@@ -6819,6 +6803,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -6828,14 +6820,6 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="10"/>
   <printOptions horizontalCentered="1"/>
@@ -6850,10 +6834,10 @@
   <sheetPr codeName="Sheet4">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BE20"/>
+  <dimension ref="A1:BE19"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="160" zoomScaleNormal="100" zoomScaleSheetLayoutView="160" workbookViewId="0">
-      <selection activeCell="T20" sqref="T20"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -6862,59 +6846,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:57" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="145" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="102"/>
-      <c r="C1" s="102"/>
-      <c r="D1" s="103"/>
+      <c r="B1" s="146"/>
+      <c r="C1" s="146"/>
+      <c r="D1" s="147"/>
       <c r="E1" s="175" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
-      <c r="I1" s="105"/>
-      <c r="J1" s="105"/>
-      <c r="K1" s="105"/>
-      <c r="L1" s="105"/>
-      <c r="M1" s="105"/>
-      <c r="N1" s="106"/>
-      <c r="O1" s="191" t="s">
+      <c r="F1" s="149"/>
+      <c r="G1" s="149"/>
+      <c r="H1" s="149"/>
+      <c r="I1" s="149"/>
+      <c r="J1" s="149"/>
+      <c r="K1" s="149"/>
+      <c r="L1" s="149"/>
+      <c r="M1" s="149"/>
+      <c r="N1" s="150"/>
+      <c r="O1" s="196" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="192"/>
-      <c r="Q1" s="192"/>
-      <c r="R1" s="193"/>
-      <c r="S1" s="179" t="str">
+      <c r="P1" s="197"/>
+      <c r="Q1" s="197"/>
+      <c r="R1" s="198"/>
+      <c r="S1" s="208" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>画面一覧</v>
       </c>
-      <c r="T1" s="180"/>
-      <c r="U1" s="180"/>
-      <c r="V1" s="180"/>
-      <c r="W1" s="180"/>
-      <c r="X1" s="180"/>
-      <c r="Y1" s="180"/>
-      <c r="Z1" s="181"/>
-      <c r="AA1" s="101" t="s">
+      <c r="T1" s="209"/>
+      <c r="U1" s="209"/>
+      <c r="V1" s="209"/>
+      <c r="W1" s="209"/>
+      <c r="X1" s="209"/>
+      <c r="Y1" s="209"/>
+      <c r="Z1" s="210"/>
+      <c r="AA1" s="145" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="103"/>
-      <c r="AC1" s="128" t="str">
+      <c r="AB1" s="147"/>
+      <c r="AC1" s="172" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="129"/>
-      <c r="AE1" s="129"/>
-      <c r="AF1" s="130"/>
-      <c r="AG1" s="172">
+      <c r="AD1" s="173"/>
+      <c r="AE1" s="173"/>
+      <c r="AF1" s="174"/>
+      <c r="AG1" s="176">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43592</v>
       </c>
-      <c r="AH1" s="173"/>
-      <c r="AI1" s="174"/>
+      <c r="AH1" s="177"/>
+      <c r="AI1" s="178"/>
       <c r="AJ1" s="11"/>
       <c r="AK1" s="11"/>
       <c r="AL1" s="11"/>
@@ -6939,54 +6923,54 @@
       <c r="BE1" s="11"/>
     </row>
     <row r="2" spans="1:57" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="101" t="s">
+      <c r="A2" s="145" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="102"/>
-      <c r="C2" s="102"/>
-      <c r="D2" s="103"/>
+      <c r="B2" s="146"/>
+      <c r="C2" s="146"/>
+      <c r="D2" s="147"/>
       <c r="E2" s="175" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="105"/>
-      <c r="G2" s="105"/>
-      <c r="H2" s="105"/>
-      <c r="I2" s="105"/>
-      <c r="J2" s="105"/>
-      <c r="K2" s="105"/>
-      <c r="L2" s="105"/>
-      <c r="M2" s="105"/>
-      <c r="N2" s="106"/>
-      <c r="O2" s="194"/>
-      <c r="P2" s="195"/>
-      <c r="Q2" s="195"/>
-      <c r="R2" s="196"/>
-      <c r="S2" s="182"/>
-      <c r="T2" s="183"/>
-      <c r="U2" s="183"/>
-      <c r="V2" s="183"/>
-      <c r="W2" s="183"/>
-      <c r="X2" s="183"/>
-      <c r="Y2" s="183"/>
-      <c r="Z2" s="184"/>
-      <c r="AA2" s="101" t="s">
+      <c r="F2" s="149"/>
+      <c r="G2" s="149"/>
+      <c r="H2" s="149"/>
+      <c r="I2" s="149"/>
+      <c r="J2" s="149"/>
+      <c r="K2" s="149"/>
+      <c r="L2" s="149"/>
+      <c r="M2" s="149"/>
+      <c r="N2" s="150"/>
+      <c r="O2" s="199"/>
+      <c r="P2" s="200"/>
+      <c r="Q2" s="200"/>
+      <c r="R2" s="201"/>
+      <c r="S2" s="211"/>
+      <c r="T2" s="212"/>
+      <c r="U2" s="212"/>
+      <c r="V2" s="212"/>
+      <c r="W2" s="212"/>
+      <c r="X2" s="212"/>
+      <c r="Y2" s="212"/>
+      <c r="Z2" s="213"/>
+      <c r="AA2" s="145" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="103"/>
-      <c r="AC2" s="128" t="str">
+      <c r="AB2" s="147"/>
+      <c r="AC2" s="172" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="129"/>
-      <c r="AE2" s="129"/>
-      <c r="AF2" s="130"/>
-      <c r="AG2" s="172">
+      <c r="AD2" s="173"/>
+      <c r="AE2" s="173"/>
+      <c r="AF2" s="174"/>
+      <c r="AG2" s="176">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v>44796</v>
       </c>
-      <c r="AH2" s="173"/>
-      <c r="AI2" s="174"/>
+      <c r="AH2" s="177"/>
+      <c r="AI2" s="178"/>
       <c r="AJ2" s="11"/>
       <c r="AK2" s="11"/>
       <c r="AL2" s="11"/>
@@ -7011,52 +6995,52 @@
       <c r="BE2" s="11"/>
     </row>
     <row r="3" spans="1:57" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="101" t="s">
+      <c r="A3" s="145" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="102"/>
-      <c r="C3" s="102"/>
-      <c r="D3" s="103"/>
+      <c r="B3" s="146"/>
+      <c r="C3" s="146"/>
+      <c r="D3" s="147"/>
       <c r="E3" s="175" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="105"/>
-      <c r="G3" s="105"/>
-      <c r="H3" s="105"/>
-      <c r="I3" s="105"/>
-      <c r="J3" s="105"/>
-      <c r="K3" s="105"/>
-      <c r="L3" s="105"/>
-      <c r="M3" s="105"/>
-      <c r="N3" s="106"/>
-      <c r="O3" s="197"/>
-      <c r="P3" s="198"/>
-      <c r="Q3" s="198"/>
-      <c r="R3" s="199"/>
-      <c r="S3" s="185"/>
-      <c r="T3" s="186"/>
-      <c r="U3" s="186"/>
-      <c r="V3" s="186"/>
-      <c r="W3" s="186"/>
-      <c r="X3" s="186"/>
-      <c r="Y3" s="186"/>
-      <c r="Z3" s="187"/>
-      <c r="AA3" s="101"/>
-      <c r="AB3" s="103"/>
-      <c r="AC3" s="128" t="str">
+      <c r="F3" s="149"/>
+      <c r="G3" s="149"/>
+      <c r="H3" s="149"/>
+      <c r="I3" s="149"/>
+      <c r="J3" s="149"/>
+      <c r="K3" s="149"/>
+      <c r="L3" s="149"/>
+      <c r="M3" s="149"/>
+      <c r="N3" s="150"/>
+      <c r="O3" s="202"/>
+      <c r="P3" s="203"/>
+      <c r="Q3" s="203"/>
+      <c r="R3" s="204"/>
+      <c r="S3" s="214"/>
+      <c r="T3" s="215"/>
+      <c r="U3" s="215"/>
+      <c r="V3" s="215"/>
+      <c r="W3" s="215"/>
+      <c r="X3" s="215"/>
+      <c r="Y3" s="215"/>
+      <c r="Z3" s="216"/>
+      <c r="AA3" s="145"/>
+      <c r="AB3" s="147"/>
+      <c r="AC3" s="172" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="129"/>
-      <c r="AE3" s="129"/>
-      <c r="AF3" s="130"/>
-      <c r="AG3" s="172" t="str">
+      <c r="AD3" s="173"/>
+      <c r="AE3" s="173"/>
+      <c r="AF3" s="174"/>
+      <c r="AG3" s="176" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="173"/>
-      <c r="AI3" s="174"/>
+      <c r="AH3" s="177"/>
+      <c r="AI3" s="178"/>
       <c r="AJ3" s="11"/>
       <c r="AK3" s="11"/>
       <c r="AL3" s="11"/>
@@ -7227,47 +7211,47 @@
       <c r="C7" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="188" t="s">
+      <c r="D7" s="190" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="189"/>
-      <c r="F7" s="190"/>
-      <c r="G7" s="188" t="s">
+      <c r="E7" s="191"/>
+      <c r="F7" s="192"/>
+      <c r="G7" s="190" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="189"/>
-      <c r="I7" s="189"/>
-      <c r="J7" s="189"/>
-      <c r="K7" s="190"/>
-      <c r="L7" s="200" t="s">
+      <c r="H7" s="191"/>
+      <c r="I7" s="191"/>
+      <c r="J7" s="191"/>
+      <c r="K7" s="192"/>
+      <c r="L7" s="205" t="s">
         <v>12</v>
       </c>
-      <c r="M7" s="201"/>
-      <c r="N7" s="202"/>
-      <c r="O7" s="188" t="s">
+      <c r="M7" s="206"/>
+      <c r="N7" s="207"/>
+      <c r="O7" s="190" t="s">
         <v>13</v>
       </c>
-      <c r="P7" s="189"/>
-      <c r="Q7" s="189"/>
-      <c r="R7" s="189"/>
-      <c r="S7" s="190"/>
-      <c r="T7" s="188" t="s">
+      <c r="P7" s="191"/>
+      <c r="Q7" s="191"/>
+      <c r="R7" s="191"/>
+      <c r="S7" s="192"/>
+      <c r="T7" s="190" t="s">
         <v>14</v>
       </c>
-      <c r="U7" s="189"/>
-      <c r="V7" s="189"/>
-      <c r="W7" s="189"/>
-      <c r="X7" s="189"/>
-      <c r="Y7" s="189"/>
-      <c r="Z7" s="189"/>
-      <c r="AA7" s="189"/>
-      <c r="AB7" s="189"/>
-      <c r="AC7" s="189"/>
-      <c r="AD7" s="189"/>
-      <c r="AE7" s="189"/>
-      <c r="AF7" s="189"/>
-      <c r="AG7" s="189"/>
-      <c r="AH7" s="190"/>
+      <c r="U7" s="191"/>
+      <c r="V7" s="191"/>
+      <c r="W7" s="191"/>
+      <c r="X7" s="191"/>
+      <c r="Y7" s="191"/>
+      <c r="Z7" s="191"/>
+      <c r="AA7" s="191"/>
+      <c r="AB7" s="191"/>
+      <c r="AC7" s="191"/>
+      <c r="AD7" s="191"/>
+      <c r="AE7" s="191"/>
+      <c r="AF7" s="191"/>
+      <c r="AG7" s="191"/>
+      <c r="AH7" s="192"/>
       <c r="AJ7" s="11"/>
       <c r="AK7" s="11"/>
       <c r="AL7" s="11"/>
@@ -7291,51 +7275,51 @@
       <c r="BD7" s="11"/>
       <c r="BE7" s="11"/>
     </row>
-    <row r="8" spans="1:57" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:57" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C8" s="60">
         <v>1</v>
       </c>
-      <c r="D8" s="203" t="s">
+      <c r="D8" s="193" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="204"/>
-      <c r="F8" s="205"/>
-      <c r="G8" s="203" t="s">
+      <c r="E8" s="194"/>
+      <c r="F8" s="195"/>
+      <c r="G8" s="193" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="204"/>
-      <c r="I8" s="204"/>
-      <c r="J8" s="204"/>
-      <c r="K8" s="205"/>
-      <c r="L8" s="139" t="s">
+      <c r="H8" s="194"/>
+      <c r="I8" s="194"/>
+      <c r="J8" s="194"/>
+      <c r="K8" s="195"/>
+      <c r="L8" s="114" t="s">
         <v>29</v>
       </c>
-      <c r="M8" s="140"/>
-      <c r="N8" s="141"/>
-      <c r="O8" s="139" t="s">
+      <c r="M8" s="121"/>
+      <c r="N8" s="122"/>
+      <c r="O8" s="114" t="s">
         <v>28</v>
       </c>
-      <c r="P8" s="140"/>
-      <c r="Q8" s="140"/>
-      <c r="R8" s="140"/>
-      <c r="S8" s="141"/>
-      <c r="T8" s="139" t="s">
-        <v>54</v>
-      </c>
-      <c r="U8" s="165"/>
-      <c r="V8" s="165"/>
-      <c r="W8" s="165"/>
-      <c r="X8" s="165"/>
-      <c r="Y8" s="165"/>
-      <c r="Z8" s="165"/>
-      <c r="AA8" s="165"/>
-      <c r="AB8" s="165"/>
-      <c r="AC8" s="165"/>
-      <c r="AD8" s="165"/>
-      <c r="AE8" s="165"/>
-      <c r="AF8" s="165"/>
-      <c r="AG8" s="165"/>
-      <c r="AH8" s="166"/>
+      <c r="P8" s="121"/>
+      <c r="Q8" s="121"/>
+      <c r="R8" s="121"/>
+      <c r="S8" s="122"/>
+      <c r="T8" s="115" t="s">
+        <v>80</v>
+      </c>
+      <c r="U8" s="107"/>
+      <c r="V8" s="107"/>
+      <c r="W8" s="107"/>
+      <c r="X8" s="107"/>
+      <c r="Y8" s="107"/>
+      <c r="Z8" s="107"/>
+      <c r="AA8" s="107"/>
+      <c r="AB8" s="107"/>
+      <c r="AC8" s="107"/>
+      <c r="AD8" s="107"/>
+      <c r="AE8" s="107"/>
+      <c r="AF8" s="107"/>
+      <c r="AG8" s="107"/>
+      <c r="AH8" s="108"/>
       <c r="AJ8" s="11"/>
       <c r="AK8" s="11"/>
       <c r="AL8" s="11"/>
@@ -7359,48 +7343,52 @@
       <c r="BD8" s="11"/>
       <c r="BE8" s="11"/>
     </row>
-    <row r="9" spans="1:57" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:57" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C9" s="60">
         <f>C8+1</f>
         <v>2</v>
       </c>
-      <c r="D9" s="206"/>
-      <c r="E9" s="207"/>
-      <c r="F9" s="208"/>
-      <c r="G9" s="206"/>
-      <c r="H9" s="207"/>
-      <c r="I9" s="207"/>
-      <c r="J9" s="207"/>
-      <c r="K9" s="208"/>
-      <c r="L9" s="139" t="s">
-        <v>30</v>
-      </c>
-      <c r="M9" s="140"/>
-      <c r="N9" s="141"/>
-      <c r="O9" s="139" t="s">
-        <v>31</v>
-      </c>
-      <c r="P9" s="140"/>
-      <c r="Q9" s="140"/>
-      <c r="R9" s="140"/>
-      <c r="S9" s="141"/>
-      <c r="T9" s="139" t="s">
-        <v>42</v>
-      </c>
-      <c r="U9" s="165"/>
-      <c r="V9" s="165"/>
-      <c r="W9" s="165"/>
-      <c r="X9" s="165"/>
-      <c r="Y9" s="165"/>
-      <c r="Z9" s="165"/>
-      <c r="AA9" s="165"/>
-      <c r="AB9" s="165"/>
-      <c r="AC9" s="165"/>
-      <c r="AD9" s="165"/>
-      <c r="AE9" s="165"/>
-      <c r="AF9" s="165"/>
-      <c r="AG9" s="165"/>
-      <c r="AH9" s="166"/>
+      <c r="D9" s="188" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="188"/>
+      <c r="F9" s="188"/>
+      <c r="G9" s="188" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" s="188"/>
+      <c r="I9" s="188"/>
+      <c r="J9" s="188"/>
+      <c r="K9" s="188"/>
+      <c r="L9" s="179" t="s">
+        <v>37</v>
+      </c>
+      <c r="M9" s="180"/>
+      <c r="N9" s="181"/>
+      <c r="O9" s="179" t="s">
+        <v>34</v>
+      </c>
+      <c r="P9" s="180"/>
+      <c r="Q9" s="180"/>
+      <c r="R9" s="180"/>
+      <c r="S9" s="181"/>
+      <c r="T9" s="179" t="s">
+        <v>48</v>
+      </c>
+      <c r="U9" s="183"/>
+      <c r="V9" s="183"/>
+      <c r="W9" s="183"/>
+      <c r="X9" s="183"/>
+      <c r="Y9" s="183"/>
+      <c r="Z9" s="183"/>
+      <c r="AA9" s="183"/>
+      <c r="AB9" s="183"/>
+      <c r="AC9" s="183"/>
+      <c r="AD9" s="183"/>
+      <c r="AE9" s="183"/>
+      <c r="AF9" s="183"/>
+      <c r="AG9" s="183"/>
+      <c r="AH9" s="184"/>
       <c r="AL9" s="11"/>
       <c r="AM9" s="11"/>
       <c r="AN9" s="11"/>
@@ -7414,52 +7402,48 @@
       <c r="AV9" s="11"/>
       <c r="AW9" s="11"/>
     </row>
-    <row r="10" spans="1:57" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:57" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C10" s="60">
-        <f t="shared" ref="C10:C19" si="0">C9+1</f>
+        <f t="shared" ref="C10:C18" si="0">C9+1</f>
         <v>3</v>
       </c>
-      <c r="D10" s="215" t="s">
+      <c r="D10" s="189"/>
+      <c r="E10" s="189"/>
+      <c r="F10" s="189"/>
+      <c r="G10" s="189"/>
+      <c r="H10" s="189"/>
+      <c r="I10" s="189"/>
+      <c r="J10" s="189"/>
+      <c r="K10" s="189"/>
+      <c r="L10" s="114" t="s">
+        <v>38</v>
+      </c>
+      <c r="M10" s="121"/>
+      <c r="N10" s="122"/>
+      <c r="O10" s="114" t="s">
         <v>35</v>
       </c>
-      <c r="E10" s="215"/>
-      <c r="F10" s="215"/>
-      <c r="G10" s="215" t="s">
-        <v>34</v>
-      </c>
-      <c r="H10" s="215"/>
-      <c r="I10" s="215"/>
-      <c r="J10" s="215"/>
-      <c r="K10" s="215"/>
-      <c r="L10" s="176" t="s">
-        <v>39</v>
-      </c>
-      <c r="M10" s="177"/>
-      <c r="N10" s="178"/>
-      <c r="O10" s="176" t="s">
-        <v>36</v>
-      </c>
-      <c r="P10" s="177"/>
-      <c r="Q10" s="177"/>
-      <c r="R10" s="177"/>
-      <c r="S10" s="178"/>
-      <c r="T10" s="176" t="s">
-        <v>51</v>
-      </c>
-      <c r="U10" s="210"/>
-      <c r="V10" s="210"/>
-      <c r="W10" s="210"/>
-      <c r="X10" s="210"/>
-      <c r="Y10" s="210"/>
-      <c r="Z10" s="210"/>
-      <c r="AA10" s="210"/>
-      <c r="AB10" s="210"/>
-      <c r="AC10" s="210"/>
-      <c r="AD10" s="210"/>
-      <c r="AE10" s="210"/>
-      <c r="AF10" s="210"/>
-      <c r="AG10" s="210"/>
-      <c r="AH10" s="211"/>
+      <c r="P10" s="121"/>
+      <c r="Q10" s="121"/>
+      <c r="R10" s="121"/>
+      <c r="S10" s="122"/>
+      <c r="T10" s="114" t="s">
+        <v>46</v>
+      </c>
+      <c r="U10" s="107"/>
+      <c r="V10" s="107"/>
+      <c r="W10" s="107"/>
+      <c r="X10" s="107"/>
+      <c r="Y10" s="107"/>
+      <c r="Z10" s="107"/>
+      <c r="AA10" s="107"/>
+      <c r="AB10" s="107"/>
+      <c r="AC10" s="107"/>
+      <c r="AD10" s="107"/>
+      <c r="AE10" s="107"/>
+      <c r="AF10" s="107"/>
+      <c r="AG10" s="107"/>
+      <c r="AH10" s="108"/>
       <c r="AL10" s="11"/>
       <c r="AM10" s="11"/>
       <c r="AN10" s="11"/>
@@ -7478,43 +7462,43 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D11" s="216"/>
-      <c r="E11" s="216"/>
-      <c r="F11" s="216"/>
-      <c r="G11" s="216"/>
-      <c r="H11" s="216"/>
-      <c r="I11" s="216"/>
-      <c r="J11" s="216"/>
-      <c r="K11" s="216"/>
-      <c r="L11" s="139" t="s">
-        <v>40</v>
-      </c>
-      <c r="M11" s="140"/>
-      <c r="N11" s="141"/>
-      <c r="O11" s="139" t="s">
-        <v>37</v>
-      </c>
-      <c r="P11" s="140"/>
-      <c r="Q11" s="140"/>
-      <c r="R11" s="140"/>
-      <c r="S11" s="141"/>
-      <c r="T11" s="139" t="s">
-        <v>49</v>
-      </c>
-      <c r="U11" s="165"/>
-      <c r="V11" s="165"/>
-      <c r="W11" s="165"/>
-      <c r="X11" s="165"/>
-      <c r="Y11" s="165"/>
-      <c r="Z11" s="165"/>
-      <c r="AA11" s="165"/>
-      <c r="AB11" s="165"/>
-      <c r="AC11" s="165"/>
-      <c r="AD11" s="165"/>
-      <c r="AE11" s="165"/>
-      <c r="AF11" s="165"/>
-      <c r="AG11" s="165"/>
-      <c r="AH11" s="166"/>
+      <c r="D11" s="189"/>
+      <c r="E11" s="189"/>
+      <c r="F11" s="189"/>
+      <c r="G11" s="189"/>
+      <c r="H11" s="189"/>
+      <c r="I11" s="189"/>
+      <c r="J11" s="189"/>
+      <c r="K11" s="189"/>
+      <c r="L11" s="114" t="s">
+        <v>39</v>
+      </c>
+      <c r="M11" s="121"/>
+      <c r="N11" s="122"/>
+      <c r="O11" s="114" t="s">
+        <v>36</v>
+      </c>
+      <c r="P11" s="121"/>
+      <c r="Q11" s="121"/>
+      <c r="R11" s="121"/>
+      <c r="S11" s="122"/>
+      <c r="T11" s="114" t="s">
+        <v>47</v>
+      </c>
+      <c r="U11" s="107"/>
+      <c r="V11" s="107"/>
+      <c r="W11" s="107"/>
+      <c r="X11" s="107"/>
+      <c r="Y11" s="107"/>
+      <c r="Z11" s="107"/>
+      <c r="AA11" s="107"/>
+      <c r="AB11" s="107"/>
+      <c r="AC11" s="107"/>
+      <c r="AD11" s="107"/>
+      <c r="AE11" s="107"/>
+      <c r="AF11" s="107"/>
+      <c r="AG11" s="107"/>
+      <c r="AH11" s="108"/>
       <c r="AL11" s="11"/>
       <c r="AM11" s="11"/>
       <c r="AN11" s="11"/>
@@ -7528,48 +7512,48 @@
       <c r="AV11" s="11"/>
       <c r="AW11" s="11"/>
     </row>
-    <row r="12" spans="1:57" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:57" s="7" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C12" s="60">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="D12" s="216"/>
-      <c r="E12" s="216"/>
-      <c r="F12" s="216"/>
-      <c r="G12" s="216"/>
-      <c r="H12" s="216"/>
-      <c r="I12" s="216"/>
-      <c r="J12" s="216"/>
-      <c r="K12" s="216"/>
-      <c r="L12" s="139" t="s">
-        <v>41</v>
-      </c>
-      <c r="M12" s="140"/>
-      <c r="N12" s="141"/>
-      <c r="O12" s="139" t="s">
-        <v>38</v>
-      </c>
-      <c r="P12" s="140"/>
-      <c r="Q12" s="140"/>
-      <c r="R12" s="140"/>
-      <c r="S12" s="141"/>
-      <c r="T12" s="139" t="s">
-        <v>50</v>
-      </c>
-      <c r="U12" s="165"/>
-      <c r="V12" s="165"/>
-      <c r="W12" s="165"/>
-      <c r="X12" s="165"/>
-      <c r="Y12" s="165"/>
-      <c r="Z12" s="165"/>
-      <c r="AA12" s="165"/>
-      <c r="AB12" s="165"/>
-      <c r="AC12" s="165"/>
-      <c r="AD12" s="165"/>
-      <c r="AE12" s="165"/>
-      <c r="AF12" s="165"/>
-      <c r="AG12" s="165"/>
-      <c r="AH12" s="166"/>
+      <c r="D12" s="189"/>
+      <c r="E12" s="189"/>
+      <c r="F12" s="189"/>
+      <c r="G12" s="189"/>
+      <c r="H12" s="189"/>
+      <c r="I12" s="189"/>
+      <c r="J12" s="189"/>
+      <c r="K12" s="189"/>
+      <c r="L12" s="114" t="s">
+        <v>51</v>
+      </c>
+      <c r="M12" s="121"/>
+      <c r="N12" s="122"/>
+      <c r="O12" s="114" t="s">
+        <v>52</v>
+      </c>
+      <c r="P12" s="121"/>
+      <c r="Q12" s="121"/>
+      <c r="R12" s="121"/>
+      <c r="S12" s="122"/>
+      <c r="T12" s="115" t="s">
+        <v>53</v>
+      </c>
+      <c r="U12" s="110"/>
+      <c r="V12" s="110"/>
+      <c r="W12" s="110"/>
+      <c r="X12" s="110"/>
+      <c r="Y12" s="110"/>
+      <c r="Z12" s="110"/>
+      <c r="AA12" s="110"/>
+      <c r="AB12" s="110"/>
+      <c r="AC12" s="110"/>
+      <c r="AD12" s="110"/>
+      <c r="AE12" s="110"/>
+      <c r="AF12" s="110"/>
+      <c r="AG12" s="110"/>
+      <c r="AH12" s="111"/>
       <c r="AL12" s="11"/>
       <c r="AM12" s="11"/>
       <c r="AN12" s="11"/>
@@ -7583,48 +7567,48 @@
       <c r="AV12" s="11"/>
       <c r="AW12" s="11"/>
     </row>
-    <row r="13" spans="1:57" s="7" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:57" s="7" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C13" s="60">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="D13" s="216"/>
-      <c r="E13" s="216"/>
-      <c r="F13" s="216"/>
-      <c r="G13" s="216"/>
-      <c r="H13" s="216"/>
-      <c r="I13" s="216"/>
-      <c r="J13" s="216"/>
-      <c r="K13" s="216"/>
-      <c r="L13" s="139" t="s">
-        <v>55</v>
-      </c>
-      <c r="M13" s="140"/>
-      <c r="N13" s="141"/>
-      <c r="O13" s="139" t="s">
-        <v>56</v>
-      </c>
-      <c r="P13" s="140"/>
-      <c r="Q13" s="140"/>
-      <c r="R13" s="140"/>
-      <c r="S13" s="141"/>
-      <c r="T13" s="142" t="s">
+      <c r="D13" s="189"/>
+      <c r="E13" s="189"/>
+      <c r="F13" s="189"/>
+      <c r="G13" s="189"/>
+      <c r="H13" s="189"/>
+      <c r="I13" s="189"/>
+      <c r="J13" s="189"/>
+      <c r="K13" s="189"/>
+      <c r="L13" s="114" t="s">
         <v>57</v>
       </c>
-      <c r="U13" s="168"/>
-      <c r="V13" s="168"/>
-      <c r="W13" s="168"/>
-      <c r="X13" s="168"/>
-      <c r="Y13" s="168"/>
-      <c r="Z13" s="168"/>
-      <c r="AA13" s="168"/>
-      <c r="AB13" s="168"/>
-      <c r="AC13" s="168"/>
-      <c r="AD13" s="168"/>
-      <c r="AE13" s="168"/>
-      <c r="AF13" s="168"/>
-      <c r="AG13" s="168"/>
-      <c r="AH13" s="169"/>
+      <c r="M13" s="121"/>
+      <c r="N13" s="122"/>
+      <c r="O13" s="114" t="s">
+        <v>58</v>
+      </c>
+      <c r="P13" s="121"/>
+      <c r="Q13" s="121"/>
+      <c r="R13" s="121"/>
+      <c r="S13" s="122"/>
+      <c r="T13" s="115" t="s">
+        <v>59</v>
+      </c>
+      <c r="U13" s="110"/>
+      <c r="V13" s="110"/>
+      <c r="W13" s="110"/>
+      <c r="X13" s="110"/>
+      <c r="Y13" s="110"/>
+      <c r="Z13" s="110"/>
+      <c r="AA13" s="110"/>
+      <c r="AB13" s="110"/>
+      <c r="AC13" s="110"/>
+      <c r="AD13" s="110"/>
+      <c r="AE13" s="110"/>
+      <c r="AF13" s="110"/>
+      <c r="AG13" s="110"/>
+      <c r="AH13" s="111"/>
       <c r="AL13" s="11"/>
       <c r="AM13" s="11"/>
       <c r="AN13" s="11"/>
@@ -7643,43 +7627,43 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="D14" s="216"/>
-      <c r="E14" s="216"/>
-      <c r="F14" s="216"/>
-      <c r="G14" s="216"/>
-      <c r="H14" s="216"/>
-      <c r="I14" s="216"/>
-      <c r="J14" s="216"/>
-      <c r="K14" s="216"/>
-      <c r="L14" s="139" t="s">
+      <c r="D14" s="189"/>
+      <c r="E14" s="189"/>
+      <c r="F14" s="189"/>
+      <c r="G14" s="189"/>
+      <c r="H14" s="189"/>
+      <c r="I14" s="189"/>
+      <c r="J14" s="189"/>
+      <c r="K14" s="189"/>
+      <c r="L14" s="83" t="s">
         <v>61</v>
       </c>
-      <c r="M14" s="140"/>
-      <c r="N14" s="141"/>
-      <c r="O14" s="139" t="s">
-        <v>62</v>
-      </c>
-      <c r="P14" s="140"/>
-      <c r="Q14" s="140"/>
-      <c r="R14" s="140"/>
-      <c r="S14" s="141"/>
-      <c r="T14" s="142" t="s">
-        <v>63</v>
-      </c>
-      <c r="U14" s="168"/>
-      <c r="V14" s="168"/>
-      <c r="W14" s="168"/>
-      <c r="X14" s="168"/>
-      <c r="Y14" s="168"/>
-      <c r="Z14" s="168"/>
-      <c r="AA14" s="168"/>
-      <c r="AB14" s="168"/>
-      <c r="AC14" s="168"/>
-      <c r="AD14" s="168"/>
-      <c r="AE14" s="168"/>
-      <c r="AF14" s="168"/>
-      <c r="AG14" s="168"/>
-      <c r="AH14" s="169"/>
+      <c r="M14" s="84"/>
+      <c r="N14" s="85"/>
+      <c r="O14" s="83" t="s">
+        <v>64</v>
+      </c>
+      <c r="P14" s="84"/>
+      <c r="Q14" s="84"/>
+      <c r="R14" s="84"/>
+      <c r="S14" s="85"/>
+      <c r="T14" s="185" t="s">
+        <v>67</v>
+      </c>
+      <c r="U14" s="186"/>
+      <c r="V14" s="186"/>
+      <c r="W14" s="186"/>
+      <c r="X14" s="186"/>
+      <c r="Y14" s="186"/>
+      <c r="Z14" s="186"/>
+      <c r="AA14" s="186"/>
+      <c r="AB14" s="186"/>
+      <c r="AC14" s="186"/>
+      <c r="AD14" s="186"/>
+      <c r="AE14" s="186"/>
+      <c r="AF14" s="186"/>
+      <c r="AG14" s="186"/>
+      <c r="AH14" s="187"/>
       <c r="AL14" s="11"/>
       <c r="AM14" s="11"/>
       <c r="AN14" s="11"/>
@@ -7698,43 +7682,43 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="D15" s="216"/>
-      <c r="E15" s="216"/>
-      <c r="F15" s="216"/>
-      <c r="G15" s="216"/>
-      <c r="H15" s="216"/>
-      <c r="I15" s="216"/>
-      <c r="J15" s="216"/>
-      <c r="K15" s="216"/>
+      <c r="D15" s="189"/>
+      <c r="E15" s="189"/>
+      <c r="F15" s="189"/>
+      <c r="G15" s="189"/>
+      <c r="H15" s="189"/>
+      <c r="I15" s="189"/>
+      <c r="J15" s="189"/>
+      <c r="K15" s="189"/>
       <c r="L15" s="83" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M15" s="84"/>
       <c r="N15" s="85"/>
       <c r="O15" s="83" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="P15" s="84"/>
       <c r="Q15" s="84"/>
       <c r="R15" s="84"/>
       <c r="S15" s="85"/>
-      <c r="T15" s="212" t="s">
-        <v>71</v>
-      </c>
-      <c r="U15" s="213"/>
-      <c r="V15" s="213"/>
-      <c r="W15" s="213"/>
-      <c r="X15" s="213"/>
-      <c r="Y15" s="213"/>
-      <c r="Z15" s="213"/>
-      <c r="AA15" s="213"/>
-      <c r="AB15" s="213"/>
-      <c r="AC15" s="213"/>
-      <c r="AD15" s="213"/>
-      <c r="AE15" s="213"/>
-      <c r="AF15" s="213"/>
-      <c r="AG15" s="213"/>
-      <c r="AH15" s="214"/>
+      <c r="T15" s="185" t="s">
+        <v>68</v>
+      </c>
+      <c r="U15" s="186"/>
+      <c r="V15" s="186"/>
+      <c r="W15" s="186"/>
+      <c r="X15" s="186"/>
+      <c r="Y15" s="186"/>
+      <c r="Z15" s="186"/>
+      <c r="AA15" s="186"/>
+      <c r="AB15" s="186"/>
+      <c r="AC15" s="186"/>
+      <c r="AD15" s="186"/>
+      <c r="AE15" s="186"/>
+      <c r="AF15" s="186"/>
+      <c r="AG15" s="186"/>
+      <c r="AH15" s="187"/>
       <c r="AL15" s="11"/>
       <c r="AM15" s="11"/>
       <c r="AN15" s="11"/>
@@ -7748,48 +7732,48 @@
       <c r="AV15" s="11"/>
       <c r="AW15" s="11"/>
     </row>
-    <row r="16" spans="1:57" s="7" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:57" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C16" s="60">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="D16" s="216"/>
-      <c r="E16" s="216"/>
-      <c r="F16" s="216"/>
-      <c r="G16" s="216"/>
-      <c r="H16" s="216"/>
-      <c r="I16" s="216"/>
-      <c r="J16" s="216"/>
-      <c r="K16" s="216"/>
-      <c r="L16" s="83" t="s">
+      <c r="D16" s="189"/>
+      <c r="E16" s="189"/>
+      <c r="F16" s="189"/>
+      <c r="G16" s="189"/>
+      <c r="H16" s="189"/>
+      <c r="I16" s="189"/>
+      <c r="J16" s="189"/>
+      <c r="K16" s="189"/>
+      <c r="L16" s="114" t="s">
+        <v>63</v>
+      </c>
+      <c r="M16" s="121"/>
+      <c r="N16" s="122"/>
+      <c r="O16" s="114" t="s">
         <v>66</v>
       </c>
-      <c r="M16" s="84"/>
-      <c r="N16" s="85"/>
-      <c r="O16" s="83" t="s">
+      <c r="P16" s="121"/>
+      <c r="Q16" s="121"/>
+      <c r="R16" s="121"/>
+      <c r="S16" s="122"/>
+      <c r="T16" s="115" t="s">
         <v>69</v>
       </c>
-      <c r="P16" s="84"/>
-      <c r="Q16" s="84"/>
-      <c r="R16" s="84"/>
-      <c r="S16" s="85"/>
-      <c r="T16" s="212" t="s">
-        <v>72</v>
-      </c>
-      <c r="U16" s="213"/>
-      <c r="V16" s="213"/>
-      <c r="W16" s="213"/>
-      <c r="X16" s="213"/>
-      <c r="Y16" s="213"/>
-      <c r="Z16" s="213"/>
-      <c r="AA16" s="213"/>
-      <c r="AB16" s="213"/>
-      <c r="AC16" s="213"/>
-      <c r="AD16" s="213"/>
-      <c r="AE16" s="213"/>
-      <c r="AF16" s="213"/>
-      <c r="AG16" s="213"/>
-      <c r="AH16" s="214"/>
+      <c r="U16" s="110"/>
+      <c r="V16" s="110"/>
+      <c r="W16" s="110"/>
+      <c r="X16" s="110"/>
+      <c r="Y16" s="110"/>
+      <c r="Z16" s="110"/>
+      <c r="AA16" s="110"/>
+      <c r="AB16" s="110"/>
+      <c r="AC16" s="110"/>
+      <c r="AD16" s="110"/>
+      <c r="AE16" s="110"/>
+      <c r="AF16" s="110"/>
+      <c r="AG16" s="110"/>
+      <c r="AH16" s="111"/>
       <c r="AL16" s="11"/>
       <c r="AM16" s="11"/>
       <c r="AN16" s="11"/>
@@ -7803,48 +7787,52 @@
       <c r="AV16" s="11"/>
       <c r="AW16" s="11"/>
     </row>
-    <row r="17" spans="3:49" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="3:49" s="8" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C17" s="60">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="D17" s="216"/>
-      <c r="E17" s="216"/>
-      <c r="F17" s="216"/>
-      <c r="G17" s="216"/>
-      <c r="H17" s="216"/>
-      <c r="I17" s="216"/>
-      <c r="J17" s="216"/>
-      <c r="K17" s="216"/>
-      <c r="L17" s="139" t="s">
-        <v>67</v>
-      </c>
-      <c r="M17" s="140"/>
-      <c r="N17" s="141"/>
-      <c r="O17" s="139" t="s">
-        <v>70</v>
-      </c>
-      <c r="P17" s="140"/>
-      <c r="Q17" s="140"/>
-      <c r="R17" s="140"/>
-      <c r="S17" s="141"/>
-      <c r="T17" s="142" t="s">
+      <c r="D17" s="94" t="s">
+        <v>72</v>
+      </c>
+      <c r="E17" s="95"/>
+      <c r="F17" s="96"/>
+      <c r="G17" s="94" t="s">
         <v>73</v>
       </c>
-      <c r="U17" s="168"/>
-      <c r="V17" s="168"/>
-      <c r="W17" s="168"/>
-      <c r="X17" s="168"/>
-      <c r="Y17" s="168"/>
-      <c r="Z17" s="168"/>
-      <c r="AA17" s="168"/>
-      <c r="AB17" s="168"/>
-      <c r="AC17" s="168"/>
-      <c r="AD17" s="168"/>
-      <c r="AE17" s="168"/>
-      <c r="AF17" s="168"/>
-      <c r="AG17" s="168"/>
-      <c r="AH17" s="169"/>
+      <c r="H17" s="95"/>
+      <c r="I17" s="95"/>
+      <c r="J17" s="95"/>
+      <c r="K17" s="96"/>
+      <c r="L17" s="179" t="s">
+        <v>74</v>
+      </c>
+      <c r="M17" s="180"/>
+      <c r="N17" s="181"/>
+      <c r="O17" s="179" t="s">
+        <v>30</v>
+      </c>
+      <c r="P17" s="180"/>
+      <c r="Q17" s="180"/>
+      <c r="R17" s="180"/>
+      <c r="S17" s="181"/>
+      <c r="T17" s="182" t="s">
+        <v>45</v>
+      </c>
+      <c r="U17" s="183"/>
+      <c r="V17" s="183"/>
+      <c r="W17" s="183"/>
+      <c r="X17" s="183"/>
+      <c r="Y17" s="183"/>
+      <c r="Z17" s="183"/>
+      <c r="AA17" s="183"/>
+      <c r="AB17" s="183"/>
+      <c r="AC17" s="183"/>
+      <c r="AD17" s="183"/>
+      <c r="AE17" s="183"/>
+      <c r="AF17" s="183"/>
+      <c r="AG17" s="183"/>
+      <c r="AH17" s="184"/>
       <c r="AL17" s="11"/>
       <c r="AM17" s="11"/>
       <c r="AN17" s="11"/>
@@ -7858,52 +7846,48 @@
       <c r="AV17" s="11"/>
       <c r="AW17" s="11"/>
     </row>
-    <row r="18" spans="3:49" s="8" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="3:49" s="8" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C18" s="60">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="D18" s="217" t="s">
+      <c r="D18" s="91"/>
+      <c r="E18" s="92"/>
+      <c r="F18" s="93"/>
+      <c r="G18" s="91"/>
+      <c r="H18" s="92"/>
+      <c r="I18" s="92"/>
+      <c r="J18" s="92"/>
+      <c r="K18" s="93"/>
+      <c r="L18" s="179" t="s">
+        <v>75</v>
+      </c>
+      <c r="M18" s="180"/>
+      <c r="N18" s="181"/>
+      <c r="O18" s="179" t="s">
+        <v>31</v>
+      </c>
+      <c r="P18" s="180"/>
+      <c r="Q18" s="180"/>
+      <c r="R18" s="180"/>
+      <c r="S18" s="181"/>
+      <c r="T18" s="182" t="s">
         <v>76</v>
       </c>
-      <c r="E18" s="218"/>
-      <c r="F18" s="219"/>
-      <c r="G18" s="217" t="s">
-        <v>77</v>
-      </c>
-      <c r="H18" s="218"/>
-      <c r="I18" s="218"/>
-      <c r="J18" s="218"/>
-      <c r="K18" s="219"/>
-      <c r="L18" s="176" t="s">
-        <v>78</v>
-      </c>
-      <c r="M18" s="177"/>
-      <c r="N18" s="178"/>
-      <c r="O18" s="176" t="s">
-        <v>32</v>
-      </c>
-      <c r="P18" s="177"/>
-      <c r="Q18" s="177"/>
-      <c r="R18" s="177"/>
-      <c r="S18" s="178"/>
-      <c r="T18" s="209" t="s">
-        <v>48</v>
-      </c>
-      <c r="U18" s="210"/>
-      <c r="V18" s="210"/>
-      <c r="W18" s="210"/>
-      <c r="X18" s="210"/>
-      <c r="Y18" s="210"/>
-      <c r="Z18" s="210"/>
-      <c r="AA18" s="210"/>
-      <c r="AB18" s="210"/>
-      <c r="AC18" s="210"/>
-      <c r="AD18" s="210"/>
-      <c r="AE18" s="210"/>
-      <c r="AF18" s="210"/>
-      <c r="AG18" s="210"/>
-      <c r="AH18" s="211"/>
+      <c r="U18" s="183"/>
+      <c r="V18" s="183"/>
+      <c r="W18" s="183"/>
+      <c r="X18" s="183"/>
+      <c r="Y18" s="183"/>
+      <c r="Z18" s="183"/>
+      <c r="AA18" s="183"/>
+      <c r="AB18" s="183"/>
+      <c r="AC18" s="183"/>
+      <c r="AD18" s="183"/>
+      <c r="AE18" s="183"/>
+      <c r="AF18" s="183"/>
+      <c r="AG18" s="183"/>
+      <c r="AH18" s="184"/>
       <c r="AL18" s="11"/>
       <c r="AM18" s="11"/>
       <c r="AN18" s="11"/>
@@ -7917,48 +7901,39 @@
       <c r="AV18" s="11"/>
       <c r="AW18" s="11"/>
     </row>
-    <row r="19" spans="3:49" s="8" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C19" s="60">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="D19" s="91"/>
-      <c r="E19" s="92"/>
-      <c r="F19" s="93"/>
-      <c r="G19" s="91"/>
-      <c r="H19" s="92"/>
-      <c r="I19" s="92"/>
-      <c r="J19" s="92"/>
-      <c r="K19" s="93"/>
-      <c r="L19" s="176" t="s">
-        <v>79</v>
-      </c>
-      <c r="M19" s="177"/>
-      <c r="N19" s="178"/>
-      <c r="O19" s="176" t="s">
-        <v>33</v>
-      </c>
-      <c r="P19" s="177"/>
-      <c r="Q19" s="177"/>
-      <c r="R19" s="177"/>
-      <c r="S19" s="178"/>
-      <c r="T19" s="209" t="s">
-        <v>80</v>
-      </c>
-      <c r="U19" s="210"/>
-      <c r="V19" s="210"/>
-      <c r="W19" s="210"/>
-      <c r="X19" s="210"/>
-      <c r="Y19" s="210"/>
-      <c r="Z19" s="210"/>
-      <c r="AA19" s="210"/>
-      <c r="AB19" s="210"/>
-      <c r="AC19" s="210"/>
-      <c r="AD19" s="210"/>
-      <c r="AE19" s="210"/>
-      <c r="AF19" s="210"/>
-      <c r="AG19" s="210"/>
-      <c r="AH19" s="211"/>
+    <row r="19" spans="3:49" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C19" s="86"/>
+      <c r="D19" s="87"/>
+      <c r="E19" s="87"/>
+      <c r="F19" s="87"/>
+      <c r="G19" s="87"/>
+      <c r="H19" s="87"/>
+      <c r="I19" s="87"/>
+      <c r="J19" s="87"/>
+      <c r="K19" s="87"/>
+      <c r="L19" s="88"/>
+      <c r="M19" s="88"/>
+      <c r="N19" s="88"/>
+      <c r="O19" s="88"/>
+      <c r="P19" s="88"/>
+      <c r="Q19" s="88"/>
+      <c r="R19" s="88"/>
+      <c r="S19" s="88"/>
+      <c r="T19" s="89"/>
+      <c r="U19" s="90"/>
+      <c r="V19" s="90"/>
+      <c r="W19" s="90"/>
+      <c r="X19" s="90"/>
+      <c r="Y19" s="90"/>
+      <c r="Z19" s="90"/>
+      <c r="AA19" s="90"/>
+      <c r="AB19" s="90"/>
+      <c r="AC19" s="90"/>
+      <c r="AD19" s="90"/>
+      <c r="AE19" s="90"/>
+      <c r="AF19" s="90"/>
+      <c r="AG19" s="90"/>
+      <c r="AH19" s="90"/>
       <c r="AL19" s="11"/>
       <c r="AM19" s="11"/>
       <c r="AN19" s="11"/>
@@ -7972,92 +7947,14 @@
       <c r="AV19" s="11"/>
       <c r="AW19" s="11"/>
     </row>
-    <row r="20" spans="3:49" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C20" s="86"/>
-      <c r="D20" s="87"/>
-      <c r="E20" s="87"/>
-      <c r="F20" s="87"/>
-      <c r="G20" s="87"/>
-      <c r="H20" s="87"/>
-      <c r="I20" s="87"/>
-      <c r="J20" s="87"/>
-      <c r="K20" s="87"/>
-      <c r="L20" s="88"/>
-      <c r="M20" s="88"/>
-      <c r="N20" s="88"/>
-      <c r="O20" s="88"/>
-      <c r="P20" s="88"/>
-      <c r="Q20" s="88"/>
-      <c r="R20" s="88"/>
-      <c r="S20" s="88"/>
-      <c r="T20" s="89"/>
-      <c r="U20" s="90"/>
-      <c r="V20" s="90"/>
-      <c r="W20" s="90"/>
-      <c r="X20" s="90"/>
-      <c r="Y20" s="90"/>
-      <c r="Z20" s="90"/>
-      <c r="AA20" s="90"/>
-      <c r="AB20" s="90"/>
-      <c r="AC20" s="90"/>
-      <c r="AD20" s="90"/>
-      <c r="AE20" s="90"/>
-      <c r="AF20" s="90"/>
-      <c r="AG20" s="90"/>
-      <c r="AH20" s="90"/>
-      <c r="AL20" s="11"/>
-      <c r="AM20" s="11"/>
-      <c r="AN20" s="11"/>
-      <c r="AO20" s="11"/>
-      <c r="AP20" s="11"/>
-      <c r="AQ20" s="11"/>
-      <c r="AR20" s="11"/>
-      <c r="AS20" s="11"/>
-      <c r="AT20" s="11"/>
-      <c r="AU20" s="11"/>
-      <c r="AV20" s="11"/>
-      <c r="AW20" s="11"/>
-    </row>
   </sheetData>
-  <mergeCells count="58">
-    <mergeCell ref="L18:N18"/>
-    <mergeCell ref="O18:S18"/>
-    <mergeCell ref="T18:AH18"/>
-    <mergeCell ref="L19:N19"/>
-    <mergeCell ref="O19:S19"/>
-    <mergeCell ref="T19:AH19"/>
-    <mergeCell ref="T15:AH15"/>
-    <mergeCell ref="T16:AH16"/>
-    <mergeCell ref="D10:F17"/>
-    <mergeCell ref="G10:K17"/>
-    <mergeCell ref="T10:AH10"/>
-    <mergeCell ref="T11:AH11"/>
-    <mergeCell ref="T12:AH12"/>
-    <mergeCell ref="L17:N17"/>
-    <mergeCell ref="O17:S17"/>
-    <mergeCell ref="T17:AH17"/>
-    <mergeCell ref="L11:N11"/>
+  <mergeCells count="55">
     <mergeCell ref="L12:N12"/>
     <mergeCell ref="O12:S12"/>
-    <mergeCell ref="O10:S10"/>
-    <mergeCell ref="O11:S11"/>
-    <mergeCell ref="T7:AH7"/>
-    <mergeCell ref="T8:AH8"/>
-    <mergeCell ref="T9:AH9"/>
-    <mergeCell ref="O8:S8"/>
-    <mergeCell ref="O9:S9"/>
-    <mergeCell ref="D8:F9"/>
-    <mergeCell ref="G8:K9"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="L8:N8"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="L7:N7"/>
-    <mergeCell ref="O7:S7"/>
+    <mergeCell ref="T12:AH12"/>
+    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="O13:S13"/>
+    <mergeCell ref="T13:AH13"/>
     <mergeCell ref="AA1:AB1"/>
     <mergeCell ref="AC3:AF3"/>
     <mergeCell ref="AG3:AI3"/>
@@ -8071,13 +7968,42 @@
     <mergeCell ref="S1:Z3"/>
     <mergeCell ref="AA2:AB2"/>
     <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="L7:N7"/>
+    <mergeCell ref="O7:S7"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="L8:N8"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="T7:AH7"/>
+    <mergeCell ref="T8:AH8"/>
+    <mergeCell ref="O8:S8"/>
+    <mergeCell ref="T14:AH14"/>
+    <mergeCell ref="T15:AH15"/>
+    <mergeCell ref="D9:F16"/>
+    <mergeCell ref="G9:K16"/>
+    <mergeCell ref="T9:AH9"/>
+    <mergeCell ref="T10:AH10"/>
+    <mergeCell ref="T11:AH11"/>
+    <mergeCell ref="L16:N16"/>
+    <mergeCell ref="O16:S16"/>
+    <mergeCell ref="T16:AH16"/>
     <mergeCell ref="L10:N10"/>
-    <mergeCell ref="L13:N13"/>
-    <mergeCell ref="O13:S13"/>
-    <mergeCell ref="T13:AH13"/>
-    <mergeCell ref="L14:N14"/>
-    <mergeCell ref="O14:S14"/>
-    <mergeCell ref="T14:AH14"/>
+    <mergeCell ref="L11:N11"/>
+    <mergeCell ref="O11:S11"/>
+    <mergeCell ref="O9:S9"/>
+    <mergeCell ref="O10:S10"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="L17:N17"/>
+    <mergeCell ref="O17:S17"/>
+    <mergeCell ref="T17:AH17"/>
+    <mergeCell ref="L18:N18"/>
+    <mergeCell ref="O18:S18"/>
+    <mergeCell ref="T18:AH18"/>
   </mergeCells>
   <phoneticPr fontId="10"/>
   <printOptions horizontalCentered="1"/>

--- a/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/010_要件定義/040_画面設計/画面一覧_A1_プロジェクト管理システム.xlsx
+++ b/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/010_要件定義/040_画面設計/画面一覧_A1_プロジェクト管理システム.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3AEF78C-2FFB-4FD7-ACBC-D9F1489CC9C9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B3D049D-FA76-4565-A57C-2B566F75E922}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6837,7 +6837,7 @@
   <dimension ref="A1:BE19"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>

--- a/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/010_要件定義/040_画面設計/画面一覧_A1_プロジェクト管理システム.xlsx
+++ b/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/010_要件定義/040_画面設計/画面一覧_A1_プロジェクト管理システム.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B3D049D-FA76-4565-A57C-2B566F75E922}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{047E944B-0531-4883-BCCA-A22A681DA9DF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="82">
   <si>
     <t>PJ名</t>
   </si>
@@ -621,22 +621,6 @@
     <phoneticPr fontId="10"/>
   </si>
   <si>
-    <t>TOPメニュー、汎用エラーを共通機能として分類</t>
-    <rPh sb="8" eb="10">
-      <t>ハンヨウ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>キョウツウ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ブンルイ</t>
-    </rPh>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
     <t>第１．３版</t>
     <rPh sb="0" eb="1">
       <t>ダイ</t>
@@ -666,6 +650,96 @@
     </rPh>
     <rPh sb="54" eb="56">
       <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>※共通画面については、原則的に、common階層以下に配置を行う。しかし、汎用エラーは発生エラー内容単位に配置するため、別途errorPage以下に配置する。</t>
+    <rPh sb="1" eb="3">
+      <t>キョウツウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ゲンソク</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>カイソウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ハンヨウ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="48" eb="52">
+      <t>ナイヨウタンイ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>ベット</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>ハイチ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>・TOPメニュー、汎用エラーを共通機能として分類
+・共通機能のTOPメニュー、汎用エラーの配置先の考え方を注記として追加</t>
+    <rPh sb="9" eb="11">
+      <t>ハンヨウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>キョウツウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ブンルイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>キョウツウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ハンヨウ</t>
+    </rPh>
+    <rPh sb="45" eb="48">
+      <t>ハイチサキ</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>カンガ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>チュウキ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>ツイカ</t>
     </rPh>
     <phoneticPr fontId="10"/>
   </si>
@@ -1528,7 +1602,7 @@
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="217">
+  <cellXfs count="216">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
@@ -1723,9 +1797,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1759,252 +1830,354 @@
     <xf numFmtId="31" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="10" xfId="45" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="11" xfId="45" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="12" xfId="45" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="10" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="11" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="12" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="13" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="14" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="15" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="19" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="22" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="16" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="17" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="18" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="11" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="25" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="178" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="25" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="10" xfId="45" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="11" xfId="45" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="12" xfId="45" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="10" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="11" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="12" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="13" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="14" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="15" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="19" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="22" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="16" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="17" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="18" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="11" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="13" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="14" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="15" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="19" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="0" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="22" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="16" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="17" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="18" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2012,108 +2185,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="13" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="14" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="15" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="19" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="0" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="22" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="16" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="17" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="18" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2979,7 +3050,7 @@
       <c r="G23" s="21"/>
       <c r="H23" s="21"/>
       <c r="J23" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2991,12 +3062,12 @@
       <c r="F25" s="21"/>
       <c r="G25" s="21"/>
       <c r="H25" s="21"/>
-      <c r="I25" s="97">
+      <c r="I25" s="96">
         <f ca="1">IF(INDIRECT("変更履歴!D8")="","",MAX(INDIRECT("変更履歴!D8"):INDIRECT("変更履歴!F33")))</f>
         <v>44796</v>
       </c>
-      <c r="J25" s="97"/>
-      <c r="K25" s="97"/>
+      <c r="J25" s="96"/>
+      <c r="K25" s="96"/>
     </row>
     <row r="26" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F26" s="21"/>
@@ -3586,7 +3657,7 @@
   <dimension ref="A1:AN33"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12:AE12"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -3595,57 +3666,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="145" t="s">
+      <c r="A1" s="103" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="146"/>
-      <c r="C1" s="146"/>
-      <c r="D1" s="147"/>
-      <c r="E1" s="148" t="s">
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="106" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="149"/>
-      <c r="G1" s="149"/>
-      <c r="H1" s="149"/>
-      <c r="I1" s="149"/>
-      <c r="J1" s="149"/>
-      <c r="K1" s="149"/>
-      <c r="L1" s="149"/>
-      <c r="M1" s="149"/>
-      <c r="N1" s="150"/>
-      <c r="O1" s="154" t="s">
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
+      <c r="J1" s="107"/>
+      <c r="K1" s="107"/>
+      <c r="L1" s="107"/>
+      <c r="M1" s="107"/>
+      <c r="N1" s="108"/>
+      <c r="O1" s="112" t="s">
         <v>17</v>
       </c>
-      <c r="P1" s="155"/>
-      <c r="Q1" s="155"/>
-      <c r="R1" s="156"/>
-      <c r="S1" s="163" t="s">
+      <c r="P1" s="113"/>
+      <c r="Q1" s="113"/>
+      <c r="R1" s="114"/>
+      <c r="S1" s="121" t="s">
         <v>23</v>
       </c>
-      <c r="T1" s="164"/>
-      <c r="U1" s="164"/>
-      <c r="V1" s="164"/>
-      <c r="W1" s="164"/>
-      <c r="X1" s="164"/>
-      <c r="Y1" s="164"/>
-      <c r="Z1" s="165"/>
-      <c r="AA1" s="145" t="s">
+      <c r="T1" s="122"/>
+      <c r="U1" s="122"/>
+      <c r="V1" s="122"/>
+      <c r="W1" s="122"/>
+      <c r="X1" s="122"/>
+      <c r="Y1" s="122"/>
+      <c r="Z1" s="123"/>
+      <c r="AA1" s="103" t="s">
         <v>18</v>
       </c>
-      <c r="AB1" s="147"/>
-      <c r="AC1" s="172" t="str">
+      <c r="AB1" s="105"/>
+      <c r="AC1" s="130" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="173"/>
-      <c r="AE1" s="173"/>
-      <c r="AF1" s="174"/>
-      <c r="AG1" s="139">
+      <c r="AD1" s="131"/>
+      <c r="AE1" s="131"/>
+      <c r="AF1" s="132"/>
+      <c r="AG1" s="97">
         <f>IF(D8="","",D8)</f>
         <v>43592</v>
       </c>
-      <c r="AH1" s="140"/>
-      <c r="AI1" s="141"/>
+      <c r="AH1" s="98"/>
+      <c r="AI1" s="99"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="1"/>
@@ -3653,53 +3724,53 @@
       <c r="AN1" s="2"/>
     </row>
     <row r="2" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="145" t="s">
+      <c r="A2" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="146"/>
-      <c r="C2" s="146"/>
-      <c r="D2" s="147"/>
-      <c r="E2" s="148" t="s">
+      <c r="B2" s="104"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="106" t="s">
         <v>41</v>
       </c>
-      <c r="F2" s="149"/>
-      <c r="G2" s="149"/>
-      <c r="H2" s="149"/>
-      <c r="I2" s="149"/>
-      <c r="J2" s="149"/>
-      <c r="K2" s="149"/>
-      <c r="L2" s="149"/>
-      <c r="M2" s="149"/>
-      <c r="N2" s="150"/>
-      <c r="O2" s="157"/>
-      <c r="P2" s="158"/>
-      <c r="Q2" s="158"/>
-      <c r="R2" s="159"/>
-      <c r="S2" s="166"/>
-      <c r="T2" s="167"/>
-      <c r="U2" s="167"/>
-      <c r="V2" s="167"/>
-      <c r="W2" s="167"/>
-      <c r="X2" s="167"/>
-      <c r="Y2" s="167"/>
-      <c r="Z2" s="168"/>
-      <c r="AA2" s="145" t="s">
+      <c r="F2" s="107"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="107"/>
+      <c r="I2" s="107"/>
+      <c r="J2" s="107"/>
+      <c r="K2" s="107"/>
+      <c r="L2" s="107"/>
+      <c r="M2" s="107"/>
+      <c r="N2" s="108"/>
+      <c r="O2" s="115"/>
+      <c r="P2" s="116"/>
+      <c r="Q2" s="116"/>
+      <c r="R2" s="117"/>
+      <c r="S2" s="124"/>
+      <c r="T2" s="125"/>
+      <c r="U2" s="125"/>
+      <c r="V2" s="125"/>
+      <c r="W2" s="125"/>
+      <c r="X2" s="125"/>
+      <c r="Y2" s="125"/>
+      <c r="Z2" s="126"/>
+      <c r="AA2" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="AB2" s="147"/>
-      <c r="AC2" s="151" t="str">
+      <c r="AB2" s="105"/>
+      <c r="AC2" s="109" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="152"/>
-      <c r="AE2" s="152"/>
-      <c r="AF2" s="153"/>
-      <c r="AG2" s="139">
+      <c r="AD2" s="110"/>
+      <c r="AE2" s="110"/>
+      <c r="AF2" s="111"/>
+      <c r="AG2" s="97">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v>44796</v>
       </c>
-      <c r="AH2" s="140"/>
-      <c r="AI2" s="141"/>
+      <c r="AH2" s="98"/>
+      <c r="AI2" s="99"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
@@ -3707,45 +3778,45 @@
       <c r="AN2" s="1"/>
     </row>
     <row r="3" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="145" t="s">
+      <c r="A3" s="103" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="146"/>
-      <c r="C3" s="146"/>
-      <c r="D3" s="147"/>
-      <c r="E3" s="148" t="s">
+      <c r="B3" s="104"/>
+      <c r="C3" s="104"/>
+      <c r="D3" s="105"/>
+      <c r="E3" s="106" t="s">
         <v>49</v>
       </c>
-      <c r="F3" s="149"/>
-      <c r="G3" s="149"/>
-      <c r="H3" s="149"/>
-      <c r="I3" s="149"/>
-      <c r="J3" s="149"/>
-      <c r="K3" s="149"/>
-      <c r="L3" s="149"/>
-      <c r="M3" s="149"/>
-      <c r="N3" s="150"/>
-      <c r="O3" s="160"/>
-      <c r="P3" s="161"/>
-      <c r="Q3" s="161"/>
-      <c r="R3" s="162"/>
-      <c r="S3" s="169"/>
-      <c r="T3" s="170"/>
-      <c r="U3" s="170"/>
-      <c r="V3" s="170"/>
-      <c r="W3" s="170"/>
-      <c r="X3" s="170"/>
-      <c r="Y3" s="170"/>
-      <c r="Z3" s="171"/>
-      <c r="AA3" s="145"/>
-      <c r="AB3" s="147"/>
-      <c r="AC3" s="172"/>
-      <c r="AD3" s="173"/>
-      <c r="AE3" s="173"/>
-      <c r="AF3" s="174"/>
-      <c r="AG3" s="139"/>
-      <c r="AH3" s="140"/>
-      <c r="AI3" s="141"/>
+      <c r="F3" s="107"/>
+      <c r="G3" s="107"/>
+      <c r="H3" s="107"/>
+      <c r="I3" s="107"/>
+      <c r="J3" s="107"/>
+      <c r="K3" s="107"/>
+      <c r="L3" s="107"/>
+      <c r="M3" s="107"/>
+      <c r="N3" s="108"/>
+      <c r="O3" s="118"/>
+      <c r="P3" s="119"/>
+      <c r="Q3" s="119"/>
+      <c r="R3" s="120"/>
+      <c r="S3" s="127"/>
+      <c r="T3" s="128"/>
+      <c r="U3" s="128"/>
+      <c r="V3" s="128"/>
+      <c r="W3" s="128"/>
+      <c r="X3" s="128"/>
+      <c r="Y3" s="128"/>
+      <c r="Z3" s="129"/>
+      <c r="AA3" s="103"/>
+      <c r="AB3" s="105"/>
+      <c r="AC3" s="130"/>
+      <c r="AD3" s="131"/>
+      <c r="AE3" s="131"/>
+      <c r="AF3" s="132"/>
+      <c r="AG3" s="97"/>
+      <c r="AH3" s="98"/>
+      <c r="AI3" s="99"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
@@ -3782,1073 +3853,1229 @@
       <c r="A7" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="142" t="s">
+      <c r="B7" s="100" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="143"/>
-      <c r="D7" s="142" t="s">
+      <c r="C7" s="101"/>
+      <c r="D7" s="100" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="144"/>
-      <c r="F7" s="143"/>
-      <c r="G7" s="142" t="s">
+      <c r="E7" s="102"/>
+      <c r="F7" s="101"/>
+      <c r="G7" s="100" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="144"/>
-      <c r="I7" s="143"/>
-      <c r="J7" s="142" t="s">
+      <c r="H7" s="102"/>
+      <c r="I7" s="101"/>
+      <c r="J7" s="100" t="s">
         <v>26</v>
       </c>
-      <c r="K7" s="144"/>
-      <c r="L7" s="144"/>
-      <c r="M7" s="144"/>
-      <c r="N7" s="144"/>
-      <c r="O7" s="144"/>
-      <c r="P7" s="143"/>
-      <c r="Q7" s="142" t="s">
+      <c r="K7" s="102"/>
+      <c r="L7" s="102"/>
+      <c r="M7" s="102"/>
+      <c r="N7" s="102"/>
+      <c r="O7" s="102"/>
+      <c r="P7" s="101"/>
+      <c r="Q7" s="100" t="s">
         <v>9</v>
       </c>
-      <c r="R7" s="144"/>
-      <c r="S7" s="144"/>
-      <c r="T7" s="144"/>
-      <c r="U7" s="144"/>
-      <c r="V7" s="144"/>
-      <c r="W7" s="144"/>
-      <c r="X7" s="144"/>
-      <c r="Y7" s="144"/>
-      <c r="Z7" s="144"/>
-      <c r="AA7" s="144"/>
-      <c r="AB7" s="144"/>
-      <c r="AC7" s="144"/>
-      <c r="AD7" s="144"/>
-      <c r="AE7" s="143"/>
-      <c r="AF7" s="142" t="s">
+      <c r="R7" s="102"/>
+      <c r="S7" s="102"/>
+      <c r="T7" s="102"/>
+      <c r="U7" s="102"/>
+      <c r="V7" s="102"/>
+      <c r="W7" s="102"/>
+      <c r="X7" s="102"/>
+      <c r="Y7" s="102"/>
+      <c r="Z7" s="102"/>
+      <c r="AA7" s="102"/>
+      <c r="AB7" s="102"/>
+      <c r="AC7" s="102"/>
+      <c r="AD7" s="102"/>
+      <c r="AE7" s="101"/>
+      <c r="AF7" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="AG7" s="144"/>
-      <c r="AH7" s="144"/>
-      <c r="AI7" s="143"/>
+      <c r="AG7" s="102"/>
+      <c r="AH7" s="102"/>
+      <c r="AI7" s="101"/>
     </row>
     <row r="8" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="81">
         <v>1</v>
       </c>
-      <c r="B8" s="125">
+      <c r="B8" s="147">
         <v>1</v>
       </c>
-      <c r="C8" s="126"/>
-      <c r="D8" s="127">
+      <c r="C8" s="148"/>
+      <c r="D8" s="149">
         <v>43592</v>
       </c>
-      <c r="E8" s="128"/>
-      <c r="F8" s="129"/>
-      <c r="G8" s="130" t="s">
+      <c r="E8" s="150"/>
+      <c r="F8" s="151"/>
+      <c r="G8" s="152" t="s">
         <v>42</v>
       </c>
-      <c r="H8" s="131"/>
-      <c r="I8" s="132"/>
-      <c r="J8" s="133" t="s">
+      <c r="H8" s="153"/>
+      <c r="I8" s="154"/>
+      <c r="J8" s="155" t="s">
         <v>43</v>
       </c>
-      <c r="K8" s="134"/>
-      <c r="L8" s="134"/>
-      <c r="M8" s="134"/>
-      <c r="N8" s="134"/>
-      <c r="O8" s="134"/>
-      <c r="P8" s="135"/>
-      <c r="Q8" s="136" t="s">
+      <c r="K8" s="156"/>
+      <c r="L8" s="156"/>
+      <c r="M8" s="156"/>
+      <c r="N8" s="156"/>
+      <c r="O8" s="156"/>
+      <c r="P8" s="157"/>
+      <c r="Q8" s="158" t="s">
         <v>44</v>
       </c>
-      <c r="R8" s="137"/>
-      <c r="S8" s="137"/>
-      <c r="T8" s="137"/>
-      <c r="U8" s="137"/>
-      <c r="V8" s="137"/>
-      <c r="W8" s="137"/>
-      <c r="X8" s="137"/>
-      <c r="Y8" s="137"/>
-      <c r="Z8" s="137"/>
-      <c r="AA8" s="137"/>
-      <c r="AB8" s="137"/>
-      <c r="AC8" s="137"/>
-      <c r="AD8" s="137"/>
-      <c r="AE8" s="138"/>
-      <c r="AF8" s="133" t="s">
+      <c r="R8" s="159"/>
+      <c r="S8" s="159"/>
+      <c r="T8" s="159"/>
+      <c r="U8" s="159"/>
+      <c r="V8" s="159"/>
+      <c r="W8" s="159"/>
+      <c r="X8" s="159"/>
+      <c r="Y8" s="159"/>
+      <c r="Z8" s="159"/>
+      <c r="AA8" s="159"/>
+      <c r="AB8" s="159"/>
+      <c r="AC8" s="159"/>
+      <c r="AD8" s="159"/>
+      <c r="AE8" s="160"/>
+      <c r="AF8" s="155" t="s">
         <v>50</v>
       </c>
-      <c r="AG8" s="134"/>
-      <c r="AH8" s="134"/>
-      <c r="AI8" s="135"/>
+      <c r="AG8" s="156"/>
+      <c r="AH8" s="156"/>
+      <c r="AI8" s="157"/>
     </row>
     <row r="9" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="60">
         <v>2</v>
       </c>
-      <c r="B9" s="116">
+      <c r="B9" s="133">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C9" s="117"/>
-      <c r="D9" s="100">
+      <c r="C9" s="134"/>
+      <c r="D9" s="135">
         <v>43803</v>
       </c>
-      <c r="E9" s="101"/>
-      <c r="F9" s="102"/>
-      <c r="G9" s="118" t="s">
+      <c r="E9" s="136"/>
+      <c r="F9" s="137"/>
+      <c r="G9" s="138" t="s">
         <v>55</v>
       </c>
-      <c r="H9" s="119"/>
-      <c r="I9" s="120"/>
-      <c r="J9" s="114" t="s">
+      <c r="H9" s="139"/>
+      <c r="I9" s="140"/>
+      <c r="J9" s="141" t="s">
         <v>56</v>
       </c>
-      <c r="K9" s="121"/>
-      <c r="L9" s="121"/>
-      <c r="M9" s="121"/>
-      <c r="N9" s="121"/>
-      <c r="O9" s="121"/>
-      <c r="P9" s="122"/>
-      <c r="Q9" s="115" t="s">
+      <c r="K9" s="142"/>
+      <c r="L9" s="142"/>
+      <c r="M9" s="142"/>
+      <c r="N9" s="142"/>
+      <c r="O9" s="142"/>
+      <c r="P9" s="143"/>
+      <c r="Q9" s="144" t="s">
         <v>60</v>
       </c>
-      <c r="R9" s="123"/>
-      <c r="S9" s="123"/>
-      <c r="T9" s="123"/>
-      <c r="U9" s="123"/>
-      <c r="V9" s="123"/>
-      <c r="W9" s="123"/>
-      <c r="X9" s="123"/>
-      <c r="Y9" s="123"/>
-      <c r="Z9" s="123"/>
-      <c r="AA9" s="123"/>
-      <c r="AB9" s="123"/>
-      <c r="AC9" s="123"/>
-      <c r="AD9" s="123"/>
-      <c r="AE9" s="124"/>
-      <c r="AF9" s="114" t="s">
+      <c r="R9" s="145"/>
+      <c r="S9" s="145"/>
+      <c r="T9" s="145"/>
+      <c r="U9" s="145"/>
+      <c r="V9" s="145"/>
+      <c r="W9" s="145"/>
+      <c r="X9" s="145"/>
+      <c r="Y9" s="145"/>
+      <c r="Z9" s="145"/>
+      <c r="AA9" s="145"/>
+      <c r="AB9" s="145"/>
+      <c r="AC9" s="145"/>
+      <c r="AD9" s="145"/>
+      <c r="AE9" s="146"/>
+      <c r="AF9" s="141" t="s">
         <v>54</v>
       </c>
-      <c r="AG9" s="121"/>
-      <c r="AH9" s="121"/>
-      <c r="AI9" s="122"/>
+      <c r="AG9" s="142"/>
+      <c r="AH9" s="142"/>
+      <c r="AI9" s="143"/>
     </row>
     <row r="10" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="60">
         <v>3</v>
       </c>
-      <c r="B10" s="112" t="s">
+      <c r="B10" s="161" t="s">
         <v>71</v>
       </c>
-      <c r="C10" s="99"/>
-      <c r="D10" s="100">
+      <c r="C10" s="162"/>
+      <c r="D10" s="135">
         <v>43895</v>
       </c>
-      <c r="E10" s="101"/>
-      <c r="F10" s="102"/>
-      <c r="G10" s="113" t="s">
+      <c r="E10" s="136"/>
+      <c r="F10" s="137"/>
+      <c r="G10" s="163" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="104"/>
-      <c r="I10" s="105"/>
-      <c r="J10" s="114" t="s">
+      <c r="H10" s="164"/>
+      <c r="I10" s="165"/>
+      <c r="J10" s="141" t="s">
         <v>56</v>
       </c>
-      <c r="K10" s="107"/>
-      <c r="L10" s="107"/>
-      <c r="M10" s="107"/>
-      <c r="N10" s="107"/>
-      <c r="O10" s="107"/>
-      <c r="P10" s="108"/>
-      <c r="Q10" s="115" t="s">
+      <c r="K10" s="166"/>
+      <c r="L10" s="166"/>
+      <c r="M10" s="166"/>
+      <c r="N10" s="166"/>
+      <c r="O10" s="166"/>
+      <c r="P10" s="167"/>
+      <c r="Q10" s="144" t="s">
         <v>70</v>
       </c>
-      <c r="R10" s="110"/>
-      <c r="S10" s="110"/>
-      <c r="T10" s="110"/>
-      <c r="U10" s="110"/>
-      <c r="V10" s="110"/>
-      <c r="W10" s="110"/>
-      <c r="X10" s="110"/>
-      <c r="Y10" s="110"/>
-      <c r="Z10" s="110"/>
-      <c r="AA10" s="110"/>
-      <c r="AB10" s="110"/>
-      <c r="AC10" s="110"/>
-      <c r="AD10" s="110"/>
-      <c r="AE10" s="111"/>
-      <c r="AF10" s="114" t="s">
+      <c r="R10" s="168"/>
+      <c r="S10" s="168"/>
+      <c r="T10" s="168"/>
+      <c r="U10" s="168"/>
+      <c r="V10" s="168"/>
+      <c r="W10" s="168"/>
+      <c r="X10" s="168"/>
+      <c r="Y10" s="168"/>
+      <c r="Z10" s="168"/>
+      <c r="AA10" s="168"/>
+      <c r="AB10" s="168"/>
+      <c r="AC10" s="168"/>
+      <c r="AD10" s="168"/>
+      <c r="AE10" s="169"/>
+      <c r="AF10" s="141" t="s">
         <v>50</v>
       </c>
-      <c r="AG10" s="107"/>
-      <c r="AH10" s="107"/>
-      <c r="AI10" s="108"/>
-    </row>
-    <row r="11" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AG10" s="166"/>
+      <c r="AH10" s="166"/>
+      <c r="AI10" s="167"/>
+    </row>
+    <row r="11" spans="1:40" s="13" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="60">
         <v>4</v>
       </c>
-      <c r="B11" s="112" t="s">
+      <c r="B11" s="161" t="s">
         <v>77</v>
       </c>
-      <c r="C11" s="99"/>
-      <c r="D11" s="100">
+      <c r="C11" s="162"/>
+      <c r="D11" s="135">
         <v>44796</v>
       </c>
-      <c r="E11" s="101"/>
-      <c r="F11" s="102"/>
-      <c r="G11" s="113" t="s">
+      <c r="E11" s="136"/>
+      <c r="F11" s="137"/>
+      <c r="G11" s="163" t="s">
         <v>4</v>
       </c>
-      <c r="H11" s="104"/>
-      <c r="I11" s="105"/>
-      <c r="J11" s="114" t="s">
+      <c r="H11" s="164"/>
+      <c r="I11" s="165"/>
+      <c r="J11" s="141" t="s">
         <v>56</v>
       </c>
-      <c r="K11" s="107"/>
-      <c r="L11" s="107"/>
-      <c r="M11" s="107"/>
-      <c r="N11" s="107"/>
-      <c r="O11" s="107"/>
-      <c r="P11" s="108"/>
-      <c r="Q11" s="115" t="s">
-        <v>78</v>
-      </c>
-      <c r="R11" s="110"/>
-      <c r="S11" s="110"/>
-      <c r="T11" s="110"/>
-      <c r="U11" s="110"/>
-      <c r="V11" s="110"/>
-      <c r="W11" s="110"/>
-      <c r="X11" s="110"/>
-      <c r="Y11" s="110"/>
-      <c r="Z11" s="110"/>
-      <c r="AA11" s="110"/>
-      <c r="AB11" s="110"/>
-      <c r="AC11" s="110"/>
-      <c r="AD11" s="110"/>
-      <c r="AE11" s="111"/>
-      <c r="AF11" s="114" t="s">
+      <c r="K11" s="166"/>
+      <c r="L11" s="166"/>
+      <c r="M11" s="166"/>
+      <c r="N11" s="166"/>
+      <c r="O11" s="166"/>
+      <c r="P11" s="167"/>
+      <c r="Q11" s="144" t="s">
+        <v>81</v>
+      </c>
+      <c r="R11" s="168"/>
+      <c r="S11" s="168"/>
+      <c r="T11" s="168"/>
+      <c r="U11" s="168"/>
+      <c r="V11" s="168"/>
+      <c r="W11" s="168"/>
+      <c r="X11" s="168"/>
+      <c r="Y11" s="168"/>
+      <c r="Z11" s="168"/>
+      <c r="AA11" s="168"/>
+      <c r="AB11" s="168"/>
+      <c r="AC11" s="168"/>
+      <c r="AD11" s="168"/>
+      <c r="AE11" s="169"/>
+      <c r="AF11" s="141" t="s">
         <v>50</v>
       </c>
-      <c r="AG11" s="107"/>
-      <c r="AH11" s="107"/>
-      <c r="AI11" s="108"/>
+      <c r="AG11" s="166"/>
+      <c r="AH11" s="166"/>
+      <c r="AI11" s="167"/>
     </row>
     <row r="12" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="60"/>
-      <c r="B12" s="98"/>
-      <c r="C12" s="99"/>
-      <c r="D12" s="100"/>
-      <c r="E12" s="101"/>
-      <c r="F12" s="102"/>
-      <c r="G12" s="103"/>
-      <c r="H12" s="104"/>
-      <c r="I12" s="105"/>
-      <c r="J12" s="106"/>
-      <c r="K12" s="107"/>
-      <c r="L12" s="107"/>
-      <c r="M12" s="107"/>
-      <c r="N12" s="107"/>
-      <c r="O12" s="107"/>
-      <c r="P12" s="108"/>
-      <c r="Q12" s="109"/>
-      <c r="R12" s="110"/>
-      <c r="S12" s="110"/>
-      <c r="T12" s="110"/>
-      <c r="U12" s="110"/>
-      <c r="V12" s="110"/>
-      <c r="W12" s="110"/>
-      <c r="X12" s="110"/>
-      <c r="Y12" s="110"/>
-      <c r="Z12" s="110"/>
-      <c r="AA12" s="110"/>
-      <c r="AB12" s="110"/>
-      <c r="AC12" s="110"/>
-      <c r="AD12" s="110"/>
-      <c r="AE12" s="111"/>
-      <c r="AF12" s="106"/>
-      <c r="AG12" s="107"/>
-      <c r="AH12" s="107"/>
-      <c r="AI12" s="108"/>
+      <c r="B12" s="170"/>
+      <c r="C12" s="162"/>
+      <c r="D12" s="135"/>
+      <c r="E12" s="136"/>
+      <c r="F12" s="137"/>
+      <c r="G12" s="171"/>
+      <c r="H12" s="164"/>
+      <c r="I12" s="165"/>
+      <c r="J12" s="172"/>
+      <c r="K12" s="166"/>
+      <c r="L12" s="166"/>
+      <c r="M12" s="166"/>
+      <c r="N12" s="166"/>
+      <c r="O12" s="166"/>
+      <c r="P12" s="167"/>
+      <c r="Q12" s="173"/>
+      <c r="R12" s="168"/>
+      <c r="S12" s="168"/>
+      <c r="T12" s="168"/>
+      <c r="U12" s="168"/>
+      <c r="V12" s="168"/>
+      <c r="W12" s="168"/>
+      <c r="X12" s="168"/>
+      <c r="Y12" s="168"/>
+      <c r="Z12" s="168"/>
+      <c r="AA12" s="168"/>
+      <c r="AB12" s="168"/>
+      <c r="AC12" s="168"/>
+      <c r="AD12" s="168"/>
+      <c r="AE12" s="169"/>
+      <c r="AF12" s="172"/>
+      <c r="AG12" s="166"/>
+      <c r="AH12" s="166"/>
+      <c r="AI12" s="167"/>
     </row>
     <row r="13" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="60"/>
-      <c r="B13" s="98"/>
-      <c r="C13" s="99"/>
-      <c r="D13" s="100"/>
-      <c r="E13" s="101"/>
-      <c r="F13" s="102"/>
-      <c r="G13" s="103"/>
-      <c r="H13" s="104"/>
-      <c r="I13" s="105"/>
-      <c r="J13" s="106"/>
-      <c r="K13" s="107"/>
-      <c r="L13" s="107"/>
-      <c r="M13" s="107"/>
-      <c r="N13" s="107"/>
-      <c r="O13" s="107"/>
-      <c r="P13" s="108"/>
-      <c r="Q13" s="109"/>
-      <c r="R13" s="110"/>
-      <c r="S13" s="110"/>
-      <c r="T13" s="110"/>
-      <c r="U13" s="110"/>
-      <c r="V13" s="110"/>
-      <c r="W13" s="110"/>
-      <c r="X13" s="110"/>
-      <c r="Y13" s="110"/>
-      <c r="Z13" s="110"/>
-      <c r="AA13" s="110"/>
-      <c r="AB13" s="110"/>
-      <c r="AC13" s="110"/>
-      <c r="AD13" s="110"/>
-      <c r="AE13" s="111"/>
-      <c r="AF13" s="106"/>
-      <c r="AG13" s="107"/>
-      <c r="AH13" s="107"/>
-      <c r="AI13" s="108"/>
+      <c r="B13" s="170"/>
+      <c r="C13" s="162"/>
+      <c r="D13" s="135"/>
+      <c r="E13" s="136"/>
+      <c r="F13" s="137"/>
+      <c r="G13" s="171"/>
+      <c r="H13" s="164"/>
+      <c r="I13" s="165"/>
+      <c r="J13" s="172"/>
+      <c r="K13" s="166"/>
+      <c r="L13" s="166"/>
+      <c r="M13" s="166"/>
+      <c r="N13" s="166"/>
+      <c r="O13" s="166"/>
+      <c r="P13" s="167"/>
+      <c r="Q13" s="173"/>
+      <c r="R13" s="168"/>
+      <c r="S13" s="168"/>
+      <c r="T13" s="168"/>
+      <c r="U13" s="168"/>
+      <c r="V13" s="168"/>
+      <c r="W13" s="168"/>
+      <c r="X13" s="168"/>
+      <c r="Y13" s="168"/>
+      <c r="Z13" s="168"/>
+      <c r="AA13" s="168"/>
+      <c r="AB13" s="168"/>
+      <c r="AC13" s="168"/>
+      <c r="AD13" s="168"/>
+      <c r="AE13" s="169"/>
+      <c r="AF13" s="172"/>
+      <c r="AG13" s="166"/>
+      <c r="AH13" s="166"/>
+      <c r="AI13" s="167"/>
     </row>
     <row r="14" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="60"/>
-      <c r="B14" s="98"/>
-      <c r="C14" s="99"/>
-      <c r="D14" s="100"/>
-      <c r="E14" s="101"/>
-      <c r="F14" s="102"/>
-      <c r="G14" s="103"/>
-      <c r="H14" s="104"/>
-      <c r="I14" s="105"/>
-      <c r="J14" s="106"/>
-      <c r="K14" s="107"/>
-      <c r="L14" s="107"/>
-      <c r="M14" s="107"/>
-      <c r="N14" s="107"/>
-      <c r="O14" s="107"/>
-      <c r="P14" s="108"/>
-      <c r="Q14" s="109"/>
-      <c r="R14" s="110"/>
-      <c r="S14" s="110"/>
-      <c r="T14" s="110"/>
-      <c r="U14" s="110"/>
-      <c r="V14" s="110"/>
-      <c r="W14" s="110"/>
-      <c r="X14" s="110"/>
-      <c r="Y14" s="110"/>
-      <c r="Z14" s="110"/>
-      <c r="AA14" s="110"/>
-      <c r="AB14" s="110"/>
-      <c r="AC14" s="110"/>
-      <c r="AD14" s="110"/>
-      <c r="AE14" s="111"/>
-      <c r="AF14" s="106"/>
-      <c r="AG14" s="107"/>
-      <c r="AH14" s="107"/>
-      <c r="AI14" s="108"/>
+      <c r="B14" s="170"/>
+      <c r="C14" s="162"/>
+      <c r="D14" s="135"/>
+      <c r="E14" s="136"/>
+      <c r="F14" s="137"/>
+      <c r="G14" s="171"/>
+      <c r="H14" s="164"/>
+      <c r="I14" s="165"/>
+      <c r="J14" s="172"/>
+      <c r="K14" s="166"/>
+      <c r="L14" s="166"/>
+      <c r="M14" s="166"/>
+      <c r="N14" s="166"/>
+      <c r="O14" s="166"/>
+      <c r="P14" s="167"/>
+      <c r="Q14" s="173"/>
+      <c r="R14" s="168"/>
+      <c r="S14" s="168"/>
+      <c r="T14" s="168"/>
+      <c r="U14" s="168"/>
+      <c r="V14" s="168"/>
+      <c r="W14" s="168"/>
+      <c r="X14" s="168"/>
+      <c r="Y14" s="168"/>
+      <c r="Z14" s="168"/>
+      <c r="AA14" s="168"/>
+      <c r="AB14" s="168"/>
+      <c r="AC14" s="168"/>
+      <c r="AD14" s="168"/>
+      <c r="AE14" s="169"/>
+      <c r="AF14" s="172"/>
+      <c r="AG14" s="166"/>
+      <c r="AH14" s="166"/>
+      <c r="AI14" s="167"/>
     </row>
     <row r="15" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="60"/>
-      <c r="B15" s="98"/>
-      <c r="C15" s="99"/>
-      <c r="D15" s="100"/>
-      <c r="E15" s="101"/>
-      <c r="F15" s="102"/>
-      <c r="G15" s="103"/>
-      <c r="H15" s="104"/>
-      <c r="I15" s="105"/>
-      <c r="J15" s="106"/>
-      <c r="K15" s="107"/>
-      <c r="L15" s="107"/>
-      <c r="M15" s="107"/>
-      <c r="N15" s="107"/>
-      <c r="O15" s="107"/>
-      <c r="P15" s="108"/>
-      <c r="Q15" s="109"/>
-      <c r="R15" s="110"/>
-      <c r="S15" s="110"/>
-      <c r="T15" s="110"/>
-      <c r="U15" s="110"/>
-      <c r="V15" s="110"/>
-      <c r="W15" s="110"/>
-      <c r="X15" s="110"/>
-      <c r="Y15" s="110"/>
-      <c r="Z15" s="110"/>
-      <c r="AA15" s="110"/>
-      <c r="AB15" s="110"/>
-      <c r="AC15" s="110"/>
-      <c r="AD15" s="110"/>
-      <c r="AE15" s="111"/>
-      <c r="AF15" s="106"/>
-      <c r="AG15" s="107"/>
-      <c r="AH15" s="107"/>
-      <c r="AI15" s="108"/>
+      <c r="B15" s="170"/>
+      <c r="C15" s="162"/>
+      <c r="D15" s="135"/>
+      <c r="E15" s="136"/>
+      <c r="F15" s="137"/>
+      <c r="G15" s="171"/>
+      <c r="H15" s="164"/>
+      <c r="I15" s="165"/>
+      <c r="J15" s="172"/>
+      <c r="K15" s="166"/>
+      <c r="L15" s="166"/>
+      <c r="M15" s="166"/>
+      <c r="N15" s="166"/>
+      <c r="O15" s="166"/>
+      <c r="P15" s="167"/>
+      <c r="Q15" s="173"/>
+      <c r="R15" s="168"/>
+      <c r="S15" s="168"/>
+      <c r="T15" s="168"/>
+      <c r="U15" s="168"/>
+      <c r="V15" s="168"/>
+      <c r="W15" s="168"/>
+      <c r="X15" s="168"/>
+      <c r="Y15" s="168"/>
+      <c r="Z15" s="168"/>
+      <c r="AA15" s="168"/>
+      <c r="AB15" s="168"/>
+      <c r="AC15" s="168"/>
+      <c r="AD15" s="168"/>
+      <c r="AE15" s="169"/>
+      <c r="AF15" s="172"/>
+      <c r="AG15" s="166"/>
+      <c r="AH15" s="166"/>
+      <c r="AI15" s="167"/>
     </row>
     <row r="16" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="60"/>
-      <c r="B16" s="98"/>
-      <c r="C16" s="99"/>
-      <c r="D16" s="100"/>
-      <c r="E16" s="101"/>
-      <c r="F16" s="102"/>
-      <c r="G16" s="103"/>
-      <c r="H16" s="104"/>
-      <c r="I16" s="105"/>
-      <c r="J16" s="106"/>
-      <c r="K16" s="107"/>
-      <c r="L16" s="107"/>
-      <c r="M16" s="107"/>
-      <c r="N16" s="107"/>
-      <c r="O16" s="107"/>
-      <c r="P16" s="108"/>
-      <c r="Q16" s="109"/>
-      <c r="R16" s="110"/>
-      <c r="S16" s="110"/>
-      <c r="T16" s="110"/>
-      <c r="U16" s="110"/>
-      <c r="V16" s="110"/>
-      <c r="W16" s="110"/>
-      <c r="X16" s="110"/>
-      <c r="Y16" s="110"/>
-      <c r="Z16" s="110"/>
-      <c r="AA16" s="110"/>
-      <c r="AB16" s="110"/>
-      <c r="AC16" s="110"/>
-      <c r="AD16" s="110"/>
-      <c r="AE16" s="111"/>
-      <c r="AF16" s="106"/>
-      <c r="AG16" s="107"/>
-      <c r="AH16" s="107"/>
-      <c r="AI16" s="108"/>
+      <c r="B16" s="170"/>
+      <c r="C16" s="162"/>
+      <c r="D16" s="135"/>
+      <c r="E16" s="136"/>
+      <c r="F16" s="137"/>
+      <c r="G16" s="171"/>
+      <c r="H16" s="164"/>
+      <c r="I16" s="165"/>
+      <c r="J16" s="172"/>
+      <c r="K16" s="166"/>
+      <c r="L16" s="166"/>
+      <c r="M16" s="166"/>
+      <c r="N16" s="166"/>
+      <c r="O16" s="166"/>
+      <c r="P16" s="167"/>
+      <c r="Q16" s="173"/>
+      <c r="R16" s="168"/>
+      <c r="S16" s="168"/>
+      <c r="T16" s="168"/>
+      <c r="U16" s="168"/>
+      <c r="V16" s="168"/>
+      <c r="W16" s="168"/>
+      <c r="X16" s="168"/>
+      <c r="Y16" s="168"/>
+      <c r="Z16" s="168"/>
+      <c r="AA16" s="168"/>
+      <c r="AB16" s="168"/>
+      <c r="AC16" s="168"/>
+      <c r="AD16" s="168"/>
+      <c r="AE16" s="169"/>
+      <c r="AF16" s="172"/>
+      <c r="AG16" s="166"/>
+      <c r="AH16" s="166"/>
+      <c r="AI16" s="167"/>
     </row>
     <row r="17" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="60"/>
-      <c r="B17" s="98"/>
-      <c r="C17" s="99"/>
-      <c r="D17" s="100"/>
-      <c r="E17" s="101"/>
-      <c r="F17" s="102"/>
-      <c r="G17" s="103"/>
-      <c r="H17" s="104"/>
-      <c r="I17" s="105"/>
-      <c r="J17" s="106"/>
-      <c r="K17" s="107"/>
-      <c r="L17" s="107"/>
-      <c r="M17" s="107"/>
-      <c r="N17" s="107"/>
-      <c r="O17" s="107"/>
-      <c r="P17" s="108"/>
-      <c r="Q17" s="109"/>
-      <c r="R17" s="110"/>
-      <c r="S17" s="110"/>
-      <c r="T17" s="110"/>
-      <c r="U17" s="110"/>
-      <c r="V17" s="110"/>
-      <c r="W17" s="110"/>
-      <c r="X17" s="110"/>
-      <c r="Y17" s="110"/>
-      <c r="Z17" s="110"/>
-      <c r="AA17" s="110"/>
-      <c r="AB17" s="110"/>
-      <c r="AC17" s="110"/>
-      <c r="AD17" s="110"/>
-      <c r="AE17" s="111"/>
-      <c r="AF17" s="106"/>
-      <c r="AG17" s="107"/>
-      <c r="AH17" s="107"/>
-      <c r="AI17" s="108"/>
+      <c r="B17" s="170"/>
+      <c r="C17" s="162"/>
+      <c r="D17" s="135"/>
+      <c r="E17" s="136"/>
+      <c r="F17" s="137"/>
+      <c r="G17" s="171"/>
+      <c r="H17" s="164"/>
+      <c r="I17" s="165"/>
+      <c r="J17" s="172"/>
+      <c r="K17" s="166"/>
+      <c r="L17" s="166"/>
+      <c r="M17" s="166"/>
+      <c r="N17" s="166"/>
+      <c r="O17" s="166"/>
+      <c r="P17" s="167"/>
+      <c r="Q17" s="173"/>
+      <c r="R17" s="168"/>
+      <c r="S17" s="168"/>
+      <c r="T17" s="168"/>
+      <c r="U17" s="168"/>
+      <c r="V17" s="168"/>
+      <c r="W17" s="168"/>
+      <c r="X17" s="168"/>
+      <c r="Y17" s="168"/>
+      <c r="Z17" s="168"/>
+      <c r="AA17" s="168"/>
+      <c r="AB17" s="168"/>
+      <c r="AC17" s="168"/>
+      <c r="AD17" s="168"/>
+      <c r="AE17" s="169"/>
+      <c r="AF17" s="172"/>
+      <c r="AG17" s="166"/>
+      <c r="AH17" s="166"/>
+      <c r="AI17" s="167"/>
     </row>
     <row r="18" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="60"/>
-      <c r="B18" s="98"/>
-      <c r="C18" s="99"/>
-      <c r="D18" s="100"/>
-      <c r="E18" s="101"/>
-      <c r="F18" s="102"/>
-      <c r="G18" s="103"/>
-      <c r="H18" s="104"/>
-      <c r="I18" s="105"/>
-      <c r="J18" s="106"/>
-      <c r="K18" s="107"/>
-      <c r="L18" s="107"/>
-      <c r="M18" s="107"/>
-      <c r="N18" s="107"/>
-      <c r="O18" s="107"/>
-      <c r="P18" s="108"/>
-      <c r="Q18" s="109"/>
-      <c r="R18" s="110"/>
-      <c r="S18" s="110"/>
-      <c r="T18" s="110"/>
-      <c r="U18" s="110"/>
-      <c r="V18" s="110"/>
-      <c r="W18" s="110"/>
-      <c r="X18" s="110"/>
-      <c r="Y18" s="110"/>
-      <c r="Z18" s="110"/>
-      <c r="AA18" s="110"/>
-      <c r="AB18" s="110"/>
-      <c r="AC18" s="110"/>
-      <c r="AD18" s="110"/>
-      <c r="AE18" s="111"/>
-      <c r="AF18" s="106"/>
-      <c r="AG18" s="107"/>
-      <c r="AH18" s="107"/>
-      <c r="AI18" s="108"/>
+      <c r="B18" s="170"/>
+      <c r="C18" s="162"/>
+      <c r="D18" s="135"/>
+      <c r="E18" s="136"/>
+      <c r="F18" s="137"/>
+      <c r="G18" s="171"/>
+      <c r="H18" s="164"/>
+      <c r="I18" s="165"/>
+      <c r="J18" s="172"/>
+      <c r="K18" s="166"/>
+      <c r="L18" s="166"/>
+      <c r="M18" s="166"/>
+      <c r="N18" s="166"/>
+      <c r="O18" s="166"/>
+      <c r="P18" s="167"/>
+      <c r="Q18" s="173"/>
+      <c r="R18" s="168"/>
+      <c r="S18" s="168"/>
+      <c r="T18" s="168"/>
+      <c r="U18" s="168"/>
+      <c r="V18" s="168"/>
+      <c r="W18" s="168"/>
+      <c r="X18" s="168"/>
+      <c r="Y18" s="168"/>
+      <c r="Z18" s="168"/>
+      <c r="AA18" s="168"/>
+      <c r="AB18" s="168"/>
+      <c r="AC18" s="168"/>
+      <c r="AD18" s="168"/>
+      <c r="AE18" s="169"/>
+      <c r="AF18" s="172"/>
+      <c r="AG18" s="166"/>
+      <c r="AH18" s="166"/>
+      <c r="AI18" s="167"/>
     </row>
     <row r="19" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="60"/>
-      <c r="B19" s="98"/>
-      <c r="C19" s="99"/>
-      <c r="D19" s="100"/>
-      <c r="E19" s="101"/>
-      <c r="F19" s="102"/>
-      <c r="G19" s="103"/>
-      <c r="H19" s="104"/>
-      <c r="I19" s="105"/>
-      <c r="J19" s="106"/>
-      <c r="K19" s="107"/>
-      <c r="L19" s="107"/>
-      <c r="M19" s="107"/>
-      <c r="N19" s="107"/>
-      <c r="O19" s="107"/>
-      <c r="P19" s="108"/>
-      <c r="Q19" s="109"/>
-      <c r="R19" s="110"/>
-      <c r="S19" s="110"/>
-      <c r="T19" s="110"/>
-      <c r="U19" s="110"/>
-      <c r="V19" s="110"/>
-      <c r="W19" s="110"/>
-      <c r="X19" s="110"/>
-      <c r="Y19" s="110"/>
-      <c r="Z19" s="110"/>
-      <c r="AA19" s="110"/>
-      <c r="AB19" s="110"/>
-      <c r="AC19" s="110"/>
-      <c r="AD19" s="110"/>
-      <c r="AE19" s="111"/>
-      <c r="AF19" s="106"/>
-      <c r="AG19" s="107"/>
-      <c r="AH19" s="107"/>
-      <c r="AI19" s="108"/>
+      <c r="B19" s="170"/>
+      <c r="C19" s="162"/>
+      <c r="D19" s="135"/>
+      <c r="E19" s="136"/>
+      <c r="F19" s="137"/>
+      <c r="G19" s="171"/>
+      <c r="H19" s="164"/>
+      <c r="I19" s="165"/>
+      <c r="J19" s="172"/>
+      <c r="K19" s="166"/>
+      <c r="L19" s="166"/>
+      <c r="M19" s="166"/>
+      <c r="N19" s="166"/>
+      <c r="O19" s="166"/>
+      <c r="P19" s="167"/>
+      <c r="Q19" s="173"/>
+      <c r="R19" s="168"/>
+      <c r="S19" s="168"/>
+      <c r="T19" s="168"/>
+      <c r="U19" s="168"/>
+      <c r="V19" s="168"/>
+      <c r="W19" s="168"/>
+      <c r="X19" s="168"/>
+      <c r="Y19" s="168"/>
+      <c r="Z19" s="168"/>
+      <c r="AA19" s="168"/>
+      <c r="AB19" s="168"/>
+      <c r="AC19" s="168"/>
+      <c r="AD19" s="168"/>
+      <c r="AE19" s="169"/>
+      <c r="AF19" s="172"/>
+      <c r="AG19" s="166"/>
+      <c r="AH19" s="166"/>
+      <c r="AI19" s="167"/>
     </row>
     <row r="20" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="60"/>
-      <c r="B20" s="98"/>
-      <c r="C20" s="99"/>
-      <c r="D20" s="100"/>
-      <c r="E20" s="101"/>
-      <c r="F20" s="102"/>
-      <c r="G20" s="103"/>
-      <c r="H20" s="104"/>
-      <c r="I20" s="105"/>
-      <c r="J20" s="106"/>
-      <c r="K20" s="107"/>
-      <c r="L20" s="107"/>
-      <c r="M20" s="107"/>
-      <c r="N20" s="107"/>
-      <c r="O20" s="107"/>
-      <c r="P20" s="108"/>
-      <c r="Q20" s="109"/>
-      <c r="R20" s="110"/>
-      <c r="S20" s="110"/>
-      <c r="T20" s="110"/>
-      <c r="U20" s="110"/>
-      <c r="V20" s="110"/>
-      <c r="W20" s="110"/>
-      <c r="X20" s="110"/>
-      <c r="Y20" s="110"/>
-      <c r="Z20" s="110"/>
-      <c r="AA20" s="110"/>
-      <c r="AB20" s="110"/>
-      <c r="AC20" s="110"/>
-      <c r="AD20" s="110"/>
-      <c r="AE20" s="111"/>
-      <c r="AF20" s="106"/>
-      <c r="AG20" s="107"/>
-      <c r="AH20" s="107"/>
-      <c r="AI20" s="108"/>
+      <c r="B20" s="170"/>
+      <c r="C20" s="162"/>
+      <c r="D20" s="135"/>
+      <c r="E20" s="136"/>
+      <c r="F20" s="137"/>
+      <c r="G20" s="171"/>
+      <c r="H20" s="164"/>
+      <c r="I20" s="165"/>
+      <c r="J20" s="172"/>
+      <c r="K20" s="166"/>
+      <c r="L20" s="166"/>
+      <c r="M20" s="166"/>
+      <c r="N20" s="166"/>
+      <c r="O20" s="166"/>
+      <c r="P20" s="167"/>
+      <c r="Q20" s="173"/>
+      <c r="R20" s="168"/>
+      <c r="S20" s="168"/>
+      <c r="T20" s="168"/>
+      <c r="U20" s="168"/>
+      <c r="V20" s="168"/>
+      <c r="W20" s="168"/>
+      <c r="X20" s="168"/>
+      <c r="Y20" s="168"/>
+      <c r="Z20" s="168"/>
+      <c r="AA20" s="168"/>
+      <c r="AB20" s="168"/>
+      <c r="AC20" s="168"/>
+      <c r="AD20" s="168"/>
+      <c r="AE20" s="169"/>
+      <c r="AF20" s="172"/>
+      <c r="AG20" s="166"/>
+      <c r="AH20" s="166"/>
+      <c r="AI20" s="167"/>
     </row>
     <row r="21" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="60"/>
-      <c r="B21" s="98"/>
-      <c r="C21" s="99"/>
-      <c r="D21" s="100"/>
-      <c r="E21" s="101"/>
-      <c r="F21" s="102"/>
-      <c r="G21" s="103"/>
-      <c r="H21" s="104"/>
-      <c r="I21" s="105"/>
-      <c r="J21" s="106"/>
-      <c r="K21" s="107"/>
-      <c r="L21" s="107"/>
-      <c r="M21" s="107"/>
-      <c r="N21" s="107"/>
-      <c r="O21" s="107"/>
-      <c r="P21" s="108"/>
-      <c r="Q21" s="109"/>
-      <c r="R21" s="110"/>
-      <c r="S21" s="110"/>
-      <c r="T21" s="110"/>
-      <c r="U21" s="110"/>
-      <c r="V21" s="110"/>
-      <c r="W21" s="110"/>
-      <c r="X21" s="110"/>
-      <c r="Y21" s="110"/>
-      <c r="Z21" s="110"/>
-      <c r="AA21" s="110"/>
-      <c r="AB21" s="110"/>
-      <c r="AC21" s="110"/>
-      <c r="AD21" s="110"/>
-      <c r="AE21" s="111"/>
-      <c r="AF21" s="106"/>
-      <c r="AG21" s="107"/>
-      <c r="AH21" s="107"/>
-      <c r="AI21" s="108"/>
+      <c r="B21" s="170"/>
+      <c r="C21" s="162"/>
+      <c r="D21" s="135"/>
+      <c r="E21" s="136"/>
+      <c r="F21" s="137"/>
+      <c r="G21" s="171"/>
+      <c r="H21" s="164"/>
+      <c r="I21" s="165"/>
+      <c r="J21" s="172"/>
+      <c r="K21" s="166"/>
+      <c r="L21" s="166"/>
+      <c r="M21" s="166"/>
+      <c r="N21" s="166"/>
+      <c r="O21" s="166"/>
+      <c r="P21" s="167"/>
+      <c r="Q21" s="173"/>
+      <c r="R21" s="168"/>
+      <c r="S21" s="168"/>
+      <c r="T21" s="168"/>
+      <c r="U21" s="168"/>
+      <c r="V21" s="168"/>
+      <c r="W21" s="168"/>
+      <c r="X21" s="168"/>
+      <c r="Y21" s="168"/>
+      <c r="Z21" s="168"/>
+      <c r="AA21" s="168"/>
+      <c r="AB21" s="168"/>
+      <c r="AC21" s="168"/>
+      <c r="AD21" s="168"/>
+      <c r="AE21" s="169"/>
+      <c r="AF21" s="172"/>
+      <c r="AG21" s="166"/>
+      <c r="AH21" s="166"/>
+      <c r="AI21" s="167"/>
     </row>
     <row r="22" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="60"/>
-      <c r="B22" s="98"/>
-      <c r="C22" s="99"/>
-      <c r="D22" s="100"/>
-      <c r="E22" s="101"/>
-      <c r="F22" s="102"/>
-      <c r="G22" s="103"/>
-      <c r="H22" s="104"/>
-      <c r="I22" s="105"/>
-      <c r="J22" s="106"/>
-      <c r="K22" s="107"/>
-      <c r="L22" s="107"/>
-      <c r="M22" s="107"/>
-      <c r="N22" s="107"/>
-      <c r="O22" s="107"/>
-      <c r="P22" s="108"/>
-      <c r="Q22" s="109"/>
-      <c r="R22" s="110"/>
-      <c r="S22" s="110"/>
-      <c r="T22" s="110"/>
-      <c r="U22" s="110"/>
-      <c r="V22" s="110"/>
-      <c r="W22" s="110"/>
-      <c r="X22" s="110"/>
-      <c r="Y22" s="110"/>
-      <c r="Z22" s="110"/>
-      <c r="AA22" s="110"/>
-      <c r="AB22" s="110"/>
-      <c r="AC22" s="110"/>
-      <c r="AD22" s="110"/>
-      <c r="AE22" s="111"/>
-      <c r="AF22" s="106"/>
-      <c r="AG22" s="107"/>
-      <c r="AH22" s="107"/>
-      <c r="AI22" s="108"/>
+      <c r="B22" s="170"/>
+      <c r="C22" s="162"/>
+      <c r="D22" s="135"/>
+      <c r="E22" s="136"/>
+      <c r="F22" s="137"/>
+      <c r="G22" s="171"/>
+      <c r="H22" s="164"/>
+      <c r="I22" s="165"/>
+      <c r="J22" s="172"/>
+      <c r="K22" s="166"/>
+      <c r="L22" s="166"/>
+      <c r="M22" s="166"/>
+      <c r="N22" s="166"/>
+      <c r="O22" s="166"/>
+      <c r="P22" s="167"/>
+      <c r="Q22" s="173"/>
+      <c r="R22" s="168"/>
+      <c r="S22" s="168"/>
+      <c r="T22" s="168"/>
+      <c r="U22" s="168"/>
+      <c r="V22" s="168"/>
+      <c r="W22" s="168"/>
+      <c r="X22" s="168"/>
+      <c r="Y22" s="168"/>
+      <c r="Z22" s="168"/>
+      <c r="AA22" s="168"/>
+      <c r="AB22" s="168"/>
+      <c r="AC22" s="168"/>
+      <c r="AD22" s="168"/>
+      <c r="AE22" s="169"/>
+      <c r="AF22" s="172"/>
+      <c r="AG22" s="166"/>
+      <c r="AH22" s="166"/>
+      <c r="AI22" s="167"/>
     </row>
     <row r="23" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="60"/>
-      <c r="B23" s="98"/>
-      <c r="C23" s="99"/>
-      <c r="D23" s="100"/>
-      <c r="E23" s="101"/>
-      <c r="F23" s="102"/>
-      <c r="G23" s="103"/>
-      <c r="H23" s="104"/>
-      <c r="I23" s="105"/>
-      <c r="J23" s="106"/>
-      <c r="K23" s="107"/>
-      <c r="L23" s="107"/>
-      <c r="M23" s="107"/>
-      <c r="N23" s="107"/>
-      <c r="O23" s="107"/>
-      <c r="P23" s="108"/>
-      <c r="Q23" s="109"/>
-      <c r="R23" s="110"/>
-      <c r="S23" s="110"/>
-      <c r="T23" s="110"/>
-      <c r="U23" s="110"/>
-      <c r="V23" s="110"/>
-      <c r="W23" s="110"/>
-      <c r="X23" s="110"/>
-      <c r="Y23" s="110"/>
-      <c r="Z23" s="110"/>
-      <c r="AA23" s="110"/>
-      <c r="AB23" s="110"/>
-      <c r="AC23" s="110"/>
-      <c r="AD23" s="110"/>
-      <c r="AE23" s="111"/>
-      <c r="AF23" s="106"/>
-      <c r="AG23" s="107"/>
-      <c r="AH23" s="107"/>
-      <c r="AI23" s="108"/>
+      <c r="B23" s="170"/>
+      <c r="C23" s="162"/>
+      <c r="D23" s="135"/>
+      <c r="E23" s="136"/>
+      <c r="F23" s="137"/>
+      <c r="G23" s="171"/>
+      <c r="H23" s="164"/>
+      <c r="I23" s="165"/>
+      <c r="J23" s="172"/>
+      <c r="K23" s="166"/>
+      <c r="L23" s="166"/>
+      <c r="M23" s="166"/>
+      <c r="N23" s="166"/>
+      <c r="O23" s="166"/>
+      <c r="P23" s="167"/>
+      <c r="Q23" s="173"/>
+      <c r="R23" s="168"/>
+      <c r="S23" s="168"/>
+      <c r="T23" s="168"/>
+      <c r="U23" s="168"/>
+      <c r="V23" s="168"/>
+      <c r="W23" s="168"/>
+      <c r="X23" s="168"/>
+      <c r="Y23" s="168"/>
+      <c r="Z23" s="168"/>
+      <c r="AA23" s="168"/>
+      <c r="AB23" s="168"/>
+      <c r="AC23" s="168"/>
+      <c r="AD23" s="168"/>
+      <c r="AE23" s="169"/>
+      <c r="AF23" s="172"/>
+      <c r="AG23" s="166"/>
+      <c r="AH23" s="166"/>
+      <c r="AI23" s="167"/>
     </row>
     <row r="24" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="60"/>
-      <c r="B24" s="98"/>
-      <c r="C24" s="99"/>
-      <c r="D24" s="100"/>
-      <c r="E24" s="101"/>
-      <c r="F24" s="102"/>
-      <c r="G24" s="103"/>
-      <c r="H24" s="104"/>
-      <c r="I24" s="105"/>
-      <c r="J24" s="106"/>
-      <c r="K24" s="107"/>
-      <c r="L24" s="107"/>
-      <c r="M24" s="107"/>
-      <c r="N24" s="107"/>
-      <c r="O24" s="107"/>
-      <c r="P24" s="108"/>
-      <c r="Q24" s="109"/>
-      <c r="R24" s="110"/>
-      <c r="S24" s="110"/>
-      <c r="T24" s="110"/>
-      <c r="U24" s="110"/>
-      <c r="V24" s="110"/>
-      <c r="W24" s="110"/>
-      <c r="X24" s="110"/>
-      <c r="Y24" s="110"/>
-      <c r="Z24" s="110"/>
-      <c r="AA24" s="110"/>
-      <c r="AB24" s="110"/>
-      <c r="AC24" s="110"/>
-      <c r="AD24" s="110"/>
-      <c r="AE24" s="111"/>
-      <c r="AF24" s="106"/>
-      <c r="AG24" s="107"/>
-      <c r="AH24" s="107"/>
-      <c r="AI24" s="108"/>
+      <c r="B24" s="170"/>
+      <c r="C24" s="162"/>
+      <c r="D24" s="135"/>
+      <c r="E24" s="136"/>
+      <c r="F24" s="137"/>
+      <c r="G24" s="171"/>
+      <c r="H24" s="164"/>
+      <c r="I24" s="165"/>
+      <c r="J24" s="172"/>
+      <c r="K24" s="166"/>
+      <c r="L24" s="166"/>
+      <c r="M24" s="166"/>
+      <c r="N24" s="166"/>
+      <c r="O24" s="166"/>
+      <c r="P24" s="167"/>
+      <c r="Q24" s="173"/>
+      <c r="R24" s="168"/>
+      <c r="S24" s="168"/>
+      <c r="T24" s="168"/>
+      <c r="U24" s="168"/>
+      <c r="V24" s="168"/>
+      <c r="W24" s="168"/>
+      <c r="X24" s="168"/>
+      <c r="Y24" s="168"/>
+      <c r="Z24" s="168"/>
+      <c r="AA24" s="168"/>
+      <c r="AB24" s="168"/>
+      <c r="AC24" s="168"/>
+      <c r="AD24" s="168"/>
+      <c r="AE24" s="169"/>
+      <c r="AF24" s="172"/>
+      <c r="AG24" s="166"/>
+      <c r="AH24" s="166"/>
+      <c r="AI24" s="167"/>
     </row>
     <row r="25" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="60"/>
-      <c r="B25" s="98"/>
-      <c r="C25" s="99"/>
-      <c r="D25" s="100"/>
-      <c r="E25" s="101"/>
-      <c r="F25" s="102"/>
-      <c r="G25" s="103"/>
-      <c r="H25" s="104"/>
-      <c r="I25" s="105"/>
-      <c r="J25" s="106"/>
-      <c r="K25" s="107"/>
-      <c r="L25" s="107"/>
-      <c r="M25" s="107"/>
-      <c r="N25" s="107"/>
-      <c r="O25" s="107"/>
-      <c r="P25" s="108"/>
-      <c r="Q25" s="109"/>
-      <c r="R25" s="110"/>
-      <c r="S25" s="110"/>
-      <c r="T25" s="110"/>
-      <c r="U25" s="110"/>
-      <c r="V25" s="110"/>
-      <c r="W25" s="110"/>
-      <c r="X25" s="110"/>
-      <c r="Y25" s="110"/>
-      <c r="Z25" s="110"/>
-      <c r="AA25" s="110"/>
-      <c r="AB25" s="110"/>
-      <c r="AC25" s="110"/>
-      <c r="AD25" s="110"/>
-      <c r="AE25" s="111"/>
-      <c r="AF25" s="106"/>
-      <c r="AG25" s="107"/>
-      <c r="AH25" s="107"/>
-      <c r="AI25" s="108"/>
+      <c r="B25" s="170"/>
+      <c r="C25" s="162"/>
+      <c r="D25" s="135"/>
+      <c r="E25" s="136"/>
+      <c r="F25" s="137"/>
+      <c r="G25" s="171"/>
+      <c r="H25" s="164"/>
+      <c r="I25" s="165"/>
+      <c r="J25" s="172"/>
+      <c r="K25" s="166"/>
+      <c r="L25" s="166"/>
+      <c r="M25" s="166"/>
+      <c r="N25" s="166"/>
+      <c r="O25" s="166"/>
+      <c r="P25" s="167"/>
+      <c r="Q25" s="173"/>
+      <c r="R25" s="168"/>
+      <c r="S25" s="168"/>
+      <c r="T25" s="168"/>
+      <c r="U25" s="168"/>
+      <c r="V25" s="168"/>
+      <c r="W25" s="168"/>
+      <c r="X25" s="168"/>
+      <c r="Y25" s="168"/>
+      <c r="Z25" s="168"/>
+      <c r="AA25" s="168"/>
+      <c r="AB25" s="168"/>
+      <c r="AC25" s="168"/>
+      <c r="AD25" s="168"/>
+      <c r="AE25" s="169"/>
+      <c r="AF25" s="172"/>
+      <c r="AG25" s="166"/>
+      <c r="AH25" s="166"/>
+      <c r="AI25" s="167"/>
     </row>
     <row r="26" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="60"/>
-      <c r="B26" s="98"/>
-      <c r="C26" s="99"/>
-      <c r="D26" s="100"/>
-      <c r="E26" s="101"/>
-      <c r="F26" s="102"/>
-      <c r="G26" s="103"/>
-      <c r="H26" s="104"/>
-      <c r="I26" s="105"/>
-      <c r="J26" s="106"/>
-      <c r="K26" s="107"/>
-      <c r="L26" s="107"/>
-      <c r="M26" s="107"/>
-      <c r="N26" s="107"/>
-      <c r="O26" s="107"/>
-      <c r="P26" s="108"/>
-      <c r="Q26" s="109"/>
-      <c r="R26" s="110"/>
-      <c r="S26" s="110"/>
-      <c r="T26" s="110"/>
-      <c r="U26" s="110"/>
-      <c r="V26" s="110"/>
-      <c r="W26" s="110"/>
-      <c r="X26" s="110"/>
-      <c r="Y26" s="110"/>
-      <c r="Z26" s="110"/>
-      <c r="AA26" s="110"/>
-      <c r="AB26" s="110"/>
-      <c r="AC26" s="110"/>
-      <c r="AD26" s="110"/>
-      <c r="AE26" s="111"/>
-      <c r="AF26" s="106"/>
-      <c r="AG26" s="107"/>
-      <c r="AH26" s="107"/>
-      <c r="AI26" s="108"/>
+      <c r="B26" s="170"/>
+      <c r="C26" s="162"/>
+      <c r="D26" s="135"/>
+      <c r="E26" s="136"/>
+      <c r="F26" s="137"/>
+      <c r="G26" s="171"/>
+      <c r="H26" s="164"/>
+      <c r="I26" s="165"/>
+      <c r="J26" s="172"/>
+      <c r="K26" s="166"/>
+      <c r="L26" s="166"/>
+      <c r="M26" s="166"/>
+      <c r="N26" s="166"/>
+      <c r="O26" s="166"/>
+      <c r="P26" s="167"/>
+      <c r="Q26" s="173"/>
+      <c r="R26" s="168"/>
+      <c r="S26" s="168"/>
+      <c r="T26" s="168"/>
+      <c r="U26" s="168"/>
+      <c r="V26" s="168"/>
+      <c r="W26" s="168"/>
+      <c r="X26" s="168"/>
+      <c r="Y26" s="168"/>
+      <c r="Z26" s="168"/>
+      <c r="AA26" s="168"/>
+      <c r="AB26" s="168"/>
+      <c r="AC26" s="168"/>
+      <c r="AD26" s="168"/>
+      <c r="AE26" s="169"/>
+      <c r="AF26" s="172"/>
+      <c r="AG26" s="166"/>
+      <c r="AH26" s="166"/>
+      <c r="AI26" s="167"/>
     </row>
     <row r="27" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="60"/>
-      <c r="B27" s="98"/>
-      <c r="C27" s="99"/>
-      <c r="D27" s="100"/>
-      <c r="E27" s="101"/>
-      <c r="F27" s="102"/>
-      <c r="G27" s="103"/>
-      <c r="H27" s="104"/>
-      <c r="I27" s="105"/>
-      <c r="J27" s="106"/>
-      <c r="K27" s="107"/>
-      <c r="L27" s="107"/>
-      <c r="M27" s="107"/>
-      <c r="N27" s="107"/>
-      <c r="O27" s="107"/>
-      <c r="P27" s="108"/>
-      <c r="Q27" s="109"/>
-      <c r="R27" s="110"/>
-      <c r="S27" s="110"/>
-      <c r="T27" s="110"/>
-      <c r="U27" s="110"/>
-      <c r="V27" s="110"/>
-      <c r="W27" s="110"/>
-      <c r="X27" s="110"/>
-      <c r="Y27" s="110"/>
-      <c r="Z27" s="110"/>
-      <c r="AA27" s="110"/>
-      <c r="AB27" s="110"/>
-      <c r="AC27" s="110"/>
-      <c r="AD27" s="110"/>
-      <c r="AE27" s="111"/>
-      <c r="AF27" s="106"/>
-      <c r="AG27" s="107"/>
-      <c r="AH27" s="107"/>
-      <c r="AI27" s="108"/>
+      <c r="B27" s="170"/>
+      <c r="C27" s="162"/>
+      <c r="D27" s="135"/>
+      <c r="E27" s="136"/>
+      <c r="F27" s="137"/>
+      <c r="G27" s="171"/>
+      <c r="H27" s="164"/>
+      <c r="I27" s="165"/>
+      <c r="J27" s="172"/>
+      <c r="K27" s="166"/>
+      <c r="L27" s="166"/>
+      <c r="M27" s="166"/>
+      <c r="N27" s="166"/>
+      <c r="O27" s="166"/>
+      <c r="P27" s="167"/>
+      <c r="Q27" s="173"/>
+      <c r="R27" s="168"/>
+      <c r="S27" s="168"/>
+      <c r="T27" s="168"/>
+      <c r="U27" s="168"/>
+      <c r="V27" s="168"/>
+      <c r="W27" s="168"/>
+      <c r="X27" s="168"/>
+      <c r="Y27" s="168"/>
+      <c r="Z27" s="168"/>
+      <c r="AA27" s="168"/>
+      <c r="AB27" s="168"/>
+      <c r="AC27" s="168"/>
+      <c r="AD27" s="168"/>
+      <c r="AE27" s="169"/>
+      <c r="AF27" s="172"/>
+      <c r="AG27" s="166"/>
+      <c r="AH27" s="166"/>
+      <c r="AI27" s="167"/>
     </row>
     <row r="28" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="60"/>
-      <c r="B28" s="98"/>
-      <c r="C28" s="99"/>
-      <c r="D28" s="100"/>
-      <c r="E28" s="101"/>
-      <c r="F28" s="102"/>
-      <c r="G28" s="103"/>
-      <c r="H28" s="104"/>
-      <c r="I28" s="105"/>
-      <c r="J28" s="106"/>
-      <c r="K28" s="107"/>
-      <c r="L28" s="107"/>
-      <c r="M28" s="107"/>
-      <c r="N28" s="107"/>
-      <c r="O28" s="107"/>
-      <c r="P28" s="108"/>
-      <c r="Q28" s="109"/>
-      <c r="R28" s="110"/>
-      <c r="S28" s="110"/>
-      <c r="T28" s="110"/>
-      <c r="U28" s="110"/>
-      <c r="V28" s="110"/>
-      <c r="W28" s="110"/>
-      <c r="X28" s="110"/>
-      <c r="Y28" s="110"/>
-      <c r="Z28" s="110"/>
-      <c r="AA28" s="110"/>
-      <c r="AB28" s="110"/>
-      <c r="AC28" s="110"/>
-      <c r="AD28" s="110"/>
-      <c r="AE28" s="111"/>
-      <c r="AF28" s="106"/>
-      <c r="AG28" s="107"/>
-      <c r="AH28" s="107"/>
-      <c r="AI28" s="108"/>
+      <c r="B28" s="170"/>
+      <c r="C28" s="162"/>
+      <c r="D28" s="135"/>
+      <c r="E28" s="136"/>
+      <c r="F28" s="137"/>
+      <c r="G28" s="171"/>
+      <c r="H28" s="164"/>
+      <c r="I28" s="165"/>
+      <c r="J28" s="172"/>
+      <c r="K28" s="166"/>
+      <c r="L28" s="166"/>
+      <c r="M28" s="166"/>
+      <c r="N28" s="166"/>
+      <c r="O28" s="166"/>
+      <c r="P28" s="167"/>
+      <c r="Q28" s="173"/>
+      <c r="R28" s="168"/>
+      <c r="S28" s="168"/>
+      <c r="T28" s="168"/>
+      <c r="U28" s="168"/>
+      <c r="V28" s="168"/>
+      <c r="W28" s="168"/>
+      <c r="X28" s="168"/>
+      <c r="Y28" s="168"/>
+      <c r="Z28" s="168"/>
+      <c r="AA28" s="168"/>
+      <c r="AB28" s="168"/>
+      <c r="AC28" s="168"/>
+      <c r="AD28" s="168"/>
+      <c r="AE28" s="169"/>
+      <c r="AF28" s="172"/>
+      <c r="AG28" s="166"/>
+      <c r="AH28" s="166"/>
+      <c r="AI28" s="167"/>
     </row>
     <row r="29" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="60"/>
-      <c r="B29" s="98"/>
-      <c r="C29" s="99"/>
-      <c r="D29" s="100"/>
-      <c r="E29" s="101"/>
-      <c r="F29" s="102"/>
-      <c r="G29" s="103"/>
-      <c r="H29" s="104"/>
-      <c r="I29" s="105"/>
-      <c r="J29" s="106"/>
-      <c r="K29" s="107"/>
-      <c r="L29" s="107"/>
-      <c r="M29" s="107"/>
-      <c r="N29" s="107"/>
-      <c r="O29" s="107"/>
-      <c r="P29" s="108"/>
-      <c r="Q29" s="109"/>
-      <c r="R29" s="110"/>
-      <c r="S29" s="110"/>
-      <c r="T29" s="110"/>
-      <c r="U29" s="110"/>
-      <c r="V29" s="110"/>
-      <c r="W29" s="110"/>
-      <c r="X29" s="110"/>
-      <c r="Y29" s="110"/>
-      <c r="Z29" s="110"/>
-      <c r="AA29" s="110"/>
-      <c r="AB29" s="110"/>
-      <c r="AC29" s="110"/>
-      <c r="AD29" s="110"/>
-      <c r="AE29" s="111"/>
-      <c r="AF29" s="106"/>
-      <c r="AG29" s="107"/>
-      <c r="AH29" s="107"/>
-      <c r="AI29" s="108"/>
+      <c r="B29" s="170"/>
+      <c r="C29" s="162"/>
+      <c r="D29" s="135"/>
+      <c r="E29" s="136"/>
+      <c r="F29" s="137"/>
+      <c r="G29" s="171"/>
+      <c r="H29" s="164"/>
+      <c r="I29" s="165"/>
+      <c r="J29" s="172"/>
+      <c r="K29" s="166"/>
+      <c r="L29" s="166"/>
+      <c r="M29" s="166"/>
+      <c r="N29" s="166"/>
+      <c r="O29" s="166"/>
+      <c r="P29" s="167"/>
+      <c r="Q29" s="173"/>
+      <c r="R29" s="168"/>
+      <c r="S29" s="168"/>
+      <c r="T29" s="168"/>
+      <c r="U29" s="168"/>
+      <c r="V29" s="168"/>
+      <c r="W29" s="168"/>
+      <c r="X29" s="168"/>
+      <c r="Y29" s="168"/>
+      <c r="Z29" s="168"/>
+      <c r="AA29" s="168"/>
+      <c r="AB29" s="168"/>
+      <c r="AC29" s="168"/>
+      <c r="AD29" s="168"/>
+      <c r="AE29" s="169"/>
+      <c r="AF29" s="172"/>
+      <c r="AG29" s="166"/>
+      <c r="AH29" s="166"/>
+      <c r="AI29" s="167"/>
     </row>
     <row r="30" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="60"/>
-      <c r="B30" s="98"/>
-      <c r="C30" s="99"/>
-      <c r="D30" s="100"/>
-      <c r="E30" s="101"/>
-      <c r="F30" s="102"/>
-      <c r="G30" s="103"/>
-      <c r="H30" s="104"/>
-      <c r="I30" s="105"/>
-      <c r="J30" s="106"/>
-      <c r="K30" s="107"/>
-      <c r="L30" s="107"/>
-      <c r="M30" s="107"/>
-      <c r="N30" s="107"/>
-      <c r="O30" s="107"/>
-      <c r="P30" s="108"/>
-      <c r="Q30" s="109"/>
-      <c r="R30" s="110"/>
-      <c r="S30" s="110"/>
-      <c r="T30" s="110"/>
-      <c r="U30" s="110"/>
-      <c r="V30" s="110"/>
-      <c r="W30" s="110"/>
-      <c r="X30" s="110"/>
-      <c r="Y30" s="110"/>
-      <c r="Z30" s="110"/>
-      <c r="AA30" s="110"/>
-      <c r="AB30" s="110"/>
-      <c r="AC30" s="110"/>
-      <c r="AD30" s="110"/>
-      <c r="AE30" s="111"/>
-      <c r="AF30" s="106"/>
-      <c r="AG30" s="107"/>
-      <c r="AH30" s="107"/>
-      <c r="AI30" s="108"/>
+      <c r="B30" s="170"/>
+      <c r="C30" s="162"/>
+      <c r="D30" s="135"/>
+      <c r="E30" s="136"/>
+      <c r="F30" s="137"/>
+      <c r="G30" s="171"/>
+      <c r="H30" s="164"/>
+      <c r="I30" s="165"/>
+      <c r="J30" s="172"/>
+      <c r="K30" s="166"/>
+      <c r="L30" s="166"/>
+      <c r="M30" s="166"/>
+      <c r="N30" s="166"/>
+      <c r="O30" s="166"/>
+      <c r="P30" s="167"/>
+      <c r="Q30" s="173"/>
+      <c r="R30" s="168"/>
+      <c r="S30" s="168"/>
+      <c r="T30" s="168"/>
+      <c r="U30" s="168"/>
+      <c r="V30" s="168"/>
+      <c r="W30" s="168"/>
+      <c r="X30" s="168"/>
+      <c r="Y30" s="168"/>
+      <c r="Z30" s="168"/>
+      <c r="AA30" s="168"/>
+      <c r="AB30" s="168"/>
+      <c r="AC30" s="168"/>
+      <c r="AD30" s="168"/>
+      <c r="AE30" s="169"/>
+      <c r="AF30" s="172"/>
+      <c r="AG30" s="166"/>
+      <c r="AH30" s="166"/>
+      <c r="AI30" s="167"/>
     </row>
     <row r="31" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="60"/>
-      <c r="B31" s="98"/>
-      <c r="C31" s="99"/>
-      <c r="D31" s="100"/>
-      <c r="E31" s="101"/>
-      <c r="F31" s="102"/>
-      <c r="G31" s="103"/>
-      <c r="H31" s="104"/>
-      <c r="I31" s="105"/>
-      <c r="J31" s="106"/>
-      <c r="K31" s="107"/>
-      <c r="L31" s="107"/>
-      <c r="M31" s="107"/>
-      <c r="N31" s="107"/>
-      <c r="O31" s="107"/>
-      <c r="P31" s="108"/>
-      <c r="Q31" s="109"/>
-      <c r="R31" s="110"/>
-      <c r="S31" s="110"/>
-      <c r="T31" s="110"/>
-      <c r="U31" s="110"/>
-      <c r="V31" s="110"/>
-      <c r="W31" s="110"/>
-      <c r="X31" s="110"/>
-      <c r="Y31" s="110"/>
-      <c r="Z31" s="110"/>
-      <c r="AA31" s="110"/>
-      <c r="AB31" s="110"/>
-      <c r="AC31" s="110"/>
-      <c r="AD31" s="110"/>
-      <c r="AE31" s="111"/>
-      <c r="AF31" s="106"/>
-      <c r="AG31" s="107"/>
-      <c r="AH31" s="107"/>
-      <c r="AI31" s="108"/>
+      <c r="B31" s="170"/>
+      <c r="C31" s="162"/>
+      <c r="D31" s="135"/>
+      <c r="E31" s="136"/>
+      <c r="F31" s="137"/>
+      <c r="G31" s="171"/>
+      <c r="H31" s="164"/>
+      <c r="I31" s="165"/>
+      <c r="J31" s="172"/>
+      <c r="K31" s="166"/>
+      <c r="L31" s="166"/>
+      <c r="M31" s="166"/>
+      <c r="N31" s="166"/>
+      <c r="O31" s="166"/>
+      <c r="P31" s="167"/>
+      <c r="Q31" s="173"/>
+      <c r="R31" s="168"/>
+      <c r="S31" s="168"/>
+      <c r="T31" s="168"/>
+      <c r="U31" s="168"/>
+      <c r="V31" s="168"/>
+      <c r="W31" s="168"/>
+      <c r="X31" s="168"/>
+      <c r="Y31" s="168"/>
+      <c r="Z31" s="168"/>
+      <c r="AA31" s="168"/>
+      <c r="AB31" s="168"/>
+      <c r="AC31" s="168"/>
+      <c r="AD31" s="168"/>
+      <c r="AE31" s="169"/>
+      <c r="AF31" s="172"/>
+      <c r="AG31" s="166"/>
+      <c r="AH31" s="166"/>
+      <c r="AI31" s="167"/>
     </row>
     <row r="32" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="60"/>
-      <c r="B32" s="98"/>
-      <c r="C32" s="99"/>
-      <c r="D32" s="100"/>
-      <c r="E32" s="101"/>
-      <c r="F32" s="102"/>
-      <c r="G32" s="103"/>
-      <c r="H32" s="104"/>
-      <c r="I32" s="105"/>
-      <c r="J32" s="106"/>
-      <c r="K32" s="107"/>
-      <c r="L32" s="107"/>
-      <c r="M32" s="107"/>
-      <c r="N32" s="107"/>
-      <c r="O32" s="107"/>
-      <c r="P32" s="108"/>
-      <c r="Q32" s="109"/>
-      <c r="R32" s="110"/>
-      <c r="S32" s="110"/>
-      <c r="T32" s="110"/>
-      <c r="U32" s="110"/>
-      <c r="V32" s="110"/>
-      <c r="W32" s="110"/>
-      <c r="X32" s="110"/>
-      <c r="Y32" s="110"/>
-      <c r="Z32" s="110"/>
-      <c r="AA32" s="110"/>
-      <c r="AB32" s="110"/>
-      <c r="AC32" s="110"/>
-      <c r="AD32" s="110"/>
-      <c r="AE32" s="111"/>
-      <c r="AF32" s="106"/>
-      <c r="AG32" s="107"/>
-      <c r="AH32" s="107"/>
-      <c r="AI32" s="108"/>
+      <c r="B32" s="170"/>
+      <c r="C32" s="162"/>
+      <c r="D32" s="135"/>
+      <c r="E32" s="136"/>
+      <c r="F32" s="137"/>
+      <c r="G32" s="171"/>
+      <c r="H32" s="164"/>
+      <c r="I32" s="165"/>
+      <c r="J32" s="172"/>
+      <c r="K32" s="166"/>
+      <c r="L32" s="166"/>
+      <c r="M32" s="166"/>
+      <c r="N32" s="166"/>
+      <c r="O32" s="166"/>
+      <c r="P32" s="167"/>
+      <c r="Q32" s="173"/>
+      <c r="R32" s="168"/>
+      <c r="S32" s="168"/>
+      <c r="T32" s="168"/>
+      <c r="U32" s="168"/>
+      <c r="V32" s="168"/>
+      <c r="W32" s="168"/>
+      <c r="X32" s="168"/>
+      <c r="Y32" s="168"/>
+      <c r="Z32" s="168"/>
+      <c r="AA32" s="168"/>
+      <c r="AB32" s="168"/>
+      <c r="AC32" s="168"/>
+      <c r="AD32" s="168"/>
+      <c r="AE32" s="169"/>
+      <c r="AF32" s="172"/>
+      <c r="AG32" s="166"/>
+      <c r="AH32" s="166"/>
+      <c r="AI32" s="167"/>
     </row>
     <row r="33" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="60"/>
-      <c r="B33" s="98"/>
-      <c r="C33" s="99"/>
-      <c r="D33" s="100"/>
-      <c r="E33" s="101"/>
-      <c r="F33" s="102"/>
-      <c r="G33" s="103"/>
-      <c r="H33" s="104"/>
-      <c r="I33" s="105"/>
-      <c r="J33" s="106"/>
-      <c r="K33" s="107"/>
-      <c r="L33" s="107"/>
-      <c r="M33" s="107"/>
-      <c r="N33" s="107"/>
-      <c r="O33" s="107"/>
-      <c r="P33" s="108"/>
-      <c r="Q33" s="109"/>
-      <c r="R33" s="110"/>
-      <c r="S33" s="110"/>
-      <c r="T33" s="110"/>
-      <c r="U33" s="110"/>
-      <c r="V33" s="110"/>
-      <c r="W33" s="110"/>
-      <c r="X33" s="110"/>
-      <c r="Y33" s="110"/>
-      <c r="Z33" s="110"/>
-      <c r="AA33" s="110"/>
-      <c r="AB33" s="110"/>
-      <c r="AC33" s="110"/>
-      <c r="AD33" s="110"/>
-      <c r="AE33" s="111"/>
-      <c r="AF33" s="106"/>
-      <c r="AG33" s="107"/>
-      <c r="AH33" s="107"/>
-      <c r="AI33" s="108"/>
+      <c r="B33" s="170"/>
+      <c r="C33" s="162"/>
+      <c r="D33" s="135"/>
+      <c r="E33" s="136"/>
+      <c r="F33" s="137"/>
+      <c r="G33" s="171"/>
+      <c r="H33" s="164"/>
+      <c r="I33" s="165"/>
+      <c r="J33" s="172"/>
+      <c r="K33" s="166"/>
+      <c r="L33" s="166"/>
+      <c r="M33" s="166"/>
+      <c r="N33" s="166"/>
+      <c r="O33" s="166"/>
+      <c r="P33" s="167"/>
+      <c r="Q33" s="173"/>
+      <c r="R33" s="168"/>
+      <c r="S33" s="168"/>
+      <c r="T33" s="168"/>
+      <c r="U33" s="168"/>
+      <c r="V33" s="168"/>
+      <c r="W33" s="168"/>
+      <c r="X33" s="168"/>
+      <c r="Y33" s="168"/>
+      <c r="Z33" s="168"/>
+      <c r="AA33" s="168"/>
+      <c r="AB33" s="168"/>
+      <c r="AC33" s="168"/>
+      <c r="AD33" s="168"/>
+      <c r="AE33" s="169"/>
+      <c r="AF33" s="172"/>
+      <c r="AG33" s="166"/>
+      <c r="AH33" s="166"/>
+      <c r="AI33" s="167"/>
     </row>
   </sheetData>
   <mergeCells count="179">
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
@@ -4872,162 +5099,6 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
   </mergeCells>
   <phoneticPr fontId="10"/>
   <printOptions horizontalCentered="1"/>
@@ -5184,163 +5255,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="145" t="s">
+      <c r="A1" s="103" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="146"/>
-      <c r="C1" s="146"/>
-      <c r="D1" s="147"/>
-      <c r="E1" s="175" t="str">
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="177" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="149"/>
-      <c r="G1" s="149"/>
-      <c r="H1" s="149"/>
-      <c r="I1" s="149"/>
-      <c r="J1" s="149"/>
-      <c r="K1" s="149"/>
-      <c r="L1" s="149"/>
-      <c r="M1" s="149"/>
-      <c r="N1" s="150"/>
-      <c r="O1" s="154" t="s">
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
+      <c r="J1" s="107"/>
+      <c r="K1" s="107"/>
+      <c r="L1" s="107"/>
+      <c r="M1" s="107"/>
+      <c r="N1" s="108"/>
+      <c r="O1" s="112" t="s">
         <v>17</v>
       </c>
-      <c r="P1" s="155"/>
-      <c r="Q1" s="155"/>
-      <c r="R1" s="156"/>
-      <c r="S1" s="163" t="str">
+      <c r="P1" s="113"/>
+      <c r="Q1" s="113"/>
+      <c r="R1" s="114"/>
+      <c r="S1" s="121" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>画面一覧</v>
       </c>
-      <c r="T1" s="164"/>
-      <c r="U1" s="164"/>
-      <c r="V1" s="164"/>
-      <c r="W1" s="164"/>
-      <c r="X1" s="164"/>
-      <c r="Y1" s="164"/>
-      <c r="Z1" s="165"/>
-      <c r="AA1" s="145" t="s">
+      <c r="T1" s="122"/>
+      <c r="U1" s="122"/>
+      <c r="V1" s="122"/>
+      <c r="W1" s="122"/>
+      <c r="X1" s="122"/>
+      <c r="Y1" s="122"/>
+      <c r="Z1" s="123"/>
+      <c r="AA1" s="103" t="s">
         <v>18</v>
       </c>
-      <c r="AB1" s="147"/>
-      <c r="AC1" s="172" t="str">
+      <c r="AB1" s="105"/>
+      <c r="AC1" s="130" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="173"/>
-      <c r="AE1" s="173"/>
-      <c r="AF1" s="174"/>
-      <c r="AG1" s="176">
+      <c r="AD1" s="131"/>
+      <c r="AE1" s="131"/>
+      <c r="AF1" s="132"/>
+      <c r="AG1" s="174">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43592</v>
       </c>
-      <c r="AH1" s="177"/>
-      <c r="AI1" s="178"/>
+      <c r="AH1" s="175"/>
+      <c r="AI1" s="176"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="2"/>
     </row>
     <row r="2" spans="1:38" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="145" t="s">
+      <c r="A2" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="146"/>
-      <c r="C2" s="146"/>
-      <c r="D2" s="147"/>
-      <c r="E2" s="175" t="str">
+      <c r="B2" s="104"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="177" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="149"/>
-      <c r="G2" s="149"/>
-      <c r="H2" s="149"/>
-      <c r="I2" s="149"/>
-      <c r="J2" s="149"/>
-      <c r="K2" s="149"/>
-      <c r="L2" s="149"/>
-      <c r="M2" s="149"/>
-      <c r="N2" s="150"/>
-      <c r="O2" s="157"/>
-      <c r="P2" s="158"/>
-      <c r="Q2" s="158"/>
-      <c r="R2" s="159"/>
-      <c r="S2" s="166"/>
-      <c r="T2" s="167"/>
-      <c r="U2" s="167"/>
-      <c r="V2" s="167"/>
-      <c r="W2" s="167"/>
-      <c r="X2" s="167"/>
-      <c r="Y2" s="167"/>
-      <c r="Z2" s="168"/>
-      <c r="AA2" s="145" t="s">
+      <c r="F2" s="107"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="107"/>
+      <c r="I2" s="107"/>
+      <c r="J2" s="107"/>
+      <c r="K2" s="107"/>
+      <c r="L2" s="107"/>
+      <c r="M2" s="107"/>
+      <c r="N2" s="108"/>
+      <c r="O2" s="115"/>
+      <c r="P2" s="116"/>
+      <c r="Q2" s="116"/>
+      <c r="R2" s="117"/>
+      <c r="S2" s="124"/>
+      <c r="T2" s="125"/>
+      <c r="U2" s="125"/>
+      <c r="V2" s="125"/>
+      <c r="W2" s="125"/>
+      <c r="X2" s="125"/>
+      <c r="Y2" s="125"/>
+      <c r="Z2" s="126"/>
+      <c r="AA2" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="AB2" s="147"/>
-      <c r="AC2" s="172" t="str">
+      <c r="AB2" s="105"/>
+      <c r="AC2" s="130" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="173"/>
-      <c r="AE2" s="173"/>
-      <c r="AF2" s="174"/>
-      <c r="AG2" s="176">
+      <c r="AD2" s="131"/>
+      <c r="AE2" s="131"/>
+      <c r="AF2" s="132"/>
+      <c r="AG2" s="174">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v>44796</v>
       </c>
-      <c r="AH2" s="177"/>
-      <c r="AI2" s="178"/>
+      <c r="AH2" s="175"/>
+      <c r="AI2" s="176"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
     </row>
     <row r="3" spans="1:38" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="145" t="s">
+      <c r="A3" s="103" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="146"/>
-      <c r="C3" s="146"/>
-      <c r="D3" s="147"/>
-      <c r="E3" s="175" t="str">
+      <c r="B3" s="104"/>
+      <c r="C3" s="104"/>
+      <c r="D3" s="105"/>
+      <c r="E3" s="177" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="149"/>
-      <c r="G3" s="149"/>
-      <c r="H3" s="149"/>
-      <c r="I3" s="149"/>
-      <c r="J3" s="149"/>
-      <c r="K3" s="149"/>
-      <c r="L3" s="149"/>
-      <c r="M3" s="149"/>
-      <c r="N3" s="150"/>
-      <c r="O3" s="160"/>
-      <c r="P3" s="161"/>
-      <c r="Q3" s="161"/>
-      <c r="R3" s="162"/>
-      <c r="S3" s="169"/>
-      <c r="T3" s="170"/>
-      <c r="U3" s="170"/>
-      <c r="V3" s="170"/>
-      <c r="W3" s="170"/>
-      <c r="X3" s="170"/>
-      <c r="Y3" s="170"/>
-      <c r="Z3" s="171"/>
-      <c r="AA3" s="145"/>
-      <c r="AB3" s="147"/>
-      <c r="AC3" s="172" t="str">
+      <c r="F3" s="107"/>
+      <c r="G3" s="107"/>
+      <c r="H3" s="107"/>
+      <c r="I3" s="107"/>
+      <c r="J3" s="107"/>
+      <c r="K3" s="107"/>
+      <c r="L3" s="107"/>
+      <c r="M3" s="107"/>
+      <c r="N3" s="108"/>
+      <c r="O3" s="118"/>
+      <c r="P3" s="119"/>
+      <c r="Q3" s="119"/>
+      <c r="R3" s="120"/>
+      <c r="S3" s="127"/>
+      <c r="T3" s="128"/>
+      <c r="U3" s="128"/>
+      <c r="V3" s="128"/>
+      <c r="W3" s="128"/>
+      <c r="X3" s="128"/>
+      <c r="Y3" s="128"/>
+      <c r="Z3" s="129"/>
+      <c r="AA3" s="103"/>
+      <c r="AB3" s="105"/>
+      <c r="AC3" s="130" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="173"/>
-      <c r="AE3" s="173"/>
-      <c r="AF3" s="174"/>
-      <c r="AG3" s="176" t="str">
+      <c r="AD3" s="131"/>
+      <c r="AE3" s="131"/>
+      <c r="AF3" s="132"/>
+      <c r="AG3" s="174" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="177"/>
-      <c r="AI3" s="178"/>
+      <c r="AH3" s="175"/>
+      <c r="AI3" s="176"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
@@ -6803,14 +6874,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -6820,6 +6883,14 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="10"/>
   <printOptions horizontalCentered="1"/>
@@ -6836,8 +6907,8 @@
   </sheetPr>
   <dimension ref="A1:BE19"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A3" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -6846,59 +6917,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:57" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="145" t="s">
+      <c r="A1" s="103" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="146"/>
-      <c r="C1" s="146"/>
-      <c r="D1" s="147"/>
-      <c r="E1" s="175" t="str">
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="177" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="149"/>
-      <c r="G1" s="149"/>
-      <c r="H1" s="149"/>
-      <c r="I1" s="149"/>
-      <c r="J1" s="149"/>
-      <c r="K1" s="149"/>
-      <c r="L1" s="149"/>
-      <c r="M1" s="149"/>
-      <c r="N1" s="150"/>
-      <c r="O1" s="196" t="s">
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
+      <c r="J1" s="107"/>
+      <c r="K1" s="107"/>
+      <c r="L1" s="107"/>
+      <c r="M1" s="107"/>
+      <c r="N1" s="108"/>
+      <c r="O1" s="187" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="197"/>
-      <c r="Q1" s="197"/>
-      <c r="R1" s="198"/>
-      <c r="S1" s="208" t="str">
+      <c r="P1" s="188"/>
+      <c r="Q1" s="188"/>
+      <c r="R1" s="189"/>
+      <c r="S1" s="178" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>画面一覧</v>
       </c>
-      <c r="T1" s="209"/>
-      <c r="U1" s="209"/>
-      <c r="V1" s="209"/>
-      <c r="W1" s="209"/>
-      <c r="X1" s="209"/>
-      <c r="Y1" s="209"/>
-      <c r="Z1" s="210"/>
-      <c r="AA1" s="145" t="s">
+      <c r="T1" s="179"/>
+      <c r="U1" s="179"/>
+      <c r="V1" s="179"/>
+      <c r="W1" s="179"/>
+      <c r="X1" s="179"/>
+      <c r="Y1" s="179"/>
+      <c r="Z1" s="180"/>
+      <c r="AA1" s="103" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="147"/>
-      <c r="AC1" s="172" t="str">
+      <c r="AB1" s="105"/>
+      <c r="AC1" s="130" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="173"/>
-      <c r="AE1" s="173"/>
-      <c r="AF1" s="174"/>
-      <c r="AG1" s="176">
+      <c r="AD1" s="131"/>
+      <c r="AE1" s="131"/>
+      <c r="AF1" s="132"/>
+      <c r="AG1" s="174">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43592</v>
       </c>
-      <c r="AH1" s="177"/>
-      <c r="AI1" s="178"/>
+      <c r="AH1" s="175"/>
+      <c r="AI1" s="176"/>
       <c r="AJ1" s="11"/>
       <c r="AK1" s="11"/>
       <c r="AL1" s="11"/>
@@ -6923,54 +6994,54 @@
       <c r="BE1" s="11"/>
     </row>
     <row r="2" spans="1:57" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="145" t="s">
+      <c r="A2" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="146"/>
-      <c r="C2" s="146"/>
-      <c r="D2" s="147"/>
-      <c r="E2" s="175" t="str">
+      <c r="B2" s="104"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="177" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="149"/>
-      <c r="G2" s="149"/>
-      <c r="H2" s="149"/>
-      <c r="I2" s="149"/>
-      <c r="J2" s="149"/>
-      <c r="K2" s="149"/>
-      <c r="L2" s="149"/>
-      <c r="M2" s="149"/>
-      <c r="N2" s="150"/>
-      <c r="O2" s="199"/>
-      <c r="P2" s="200"/>
-      <c r="Q2" s="200"/>
-      <c r="R2" s="201"/>
-      <c r="S2" s="211"/>
-      <c r="T2" s="212"/>
-      <c r="U2" s="212"/>
-      <c r="V2" s="212"/>
-      <c r="W2" s="212"/>
-      <c r="X2" s="212"/>
-      <c r="Y2" s="212"/>
-      <c r="Z2" s="213"/>
-      <c r="AA2" s="145" t="s">
+      <c r="F2" s="107"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="107"/>
+      <c r="I2" s="107"/>
+      <c r="J2" s="107"/>
+      <c r="K2" s="107"/>
+      <c r="L2" s="107"/>
+      <c r="M2" s="107"/>
+      <c r="N2" s="108"/>
+      <c r="O2" s="190"/>
+      <c r="P2" s="191"/>
+      <c r="Q2" s="191"/>
+      <c r="R2" s="192"/>
+      <c r="S2" s="181"/>
+      <c r="T2" s="182"/>
+      <c r="U2" s="182"/>
+      <c r="V2" s="182"/>
+      <c r="W2" s="182"/>
+      <c r="X2" s="182"/>
+      <c r="Y2" s="182"/>
+      <c r="Z2" s="183"/>
+      <c r="AA2" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="147"/>
-      <c r="AC2" s="172" t="str">
+      <c r="AB2" s="105"/>
+      <c r="AC2" s="130" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="173"/>
-      <c r="AE2" s="173"/>
-      <c r="AF2" s="174"/>
-      <c r="AG2" s="176">
+      <c r="AD2" s="131"/>
+      <c r="AE2" s="131"/>
+      <c r="AF2" s="132"/>
+      <c r="AG2" s="174">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v>44796</v>
       </c>
-      <c r="AH2" s="177"/>
-      <c r="AI2" s="178"/>
+      <c r="AH2" s="175"/>
+      <c r="AI2" s="176"/>
       <c r="AJ2" s="11"/>
       <c r="AK2" s="11"/>
       <c r="AL2" s="11"/>
@@ -6995,52 +7066,52 @@
       <c r="BE2" s="11"/>
     </row>
     <row r="3" spans="1:57" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="145" t="s">
+      <c r="A3" s="103" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="146"/>
-      <c r="C3" s="146"/>
-      <c r="D3" s="147"/>
-      <c r="E3" s="175" t="str">
+      <c r="B3" s="104"/>
+      <c r="C3" s="104"/>
+      <c r="D3" s="105"/>
+      <c r="E3" s="177" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="149"/>
-      <c r="G3" s="149"/>
-      <c r="H3" s="149"/>
-      <c r="I3" s="149"/>
-      <c r="J3" s="149"/>
-      <c r="K3" s="149"/>
-      <c r="L3" s="149"/>
-      <c r="M3" s="149"/>
-      <c r="N3" s="150"/>
-      <c r="O3" s="202"/>
-      <c r="P3" s="203"/>
-      <c r="Q3" s="203"/>
-      <c r="R3" s="204"/>
-      <c r="S3" s="214"/>
-      <c r="T3" s="215"/>
-      <c r="U3" s="215"/>
-      <c r="V3" s="215"/>
-      <c r="W3" s="215"/>
-      <c r="X3" s="215"/>
-      <c r="Y3" s="215"/>
-      <c r="Z3" s="216"/>
-      <c r="AA3" s="145"/>
-      <c r="AB3" s="147"/>
-      <c r="AC3" s="172" t="str">
+      <c r="F3" s="107"/>
+      <c r="G3" s="107"/>
+      <c r="H3" s="107"/>
+      <c r="I3" s="107"/>
+      <c r="J3" s="107"/>
+      <c r="K3" s="107"/>
+      <c r="L3" s="107"/>
+      <c r="M3" s="107"/>
+      <c r="N3" s="108"/>
+      <c r="O3" s="193"/>
+      <c r="P3" s="194"/>
+      <c r="Q3" s="194"/>
+      <c r="R3" s="195"/>
+      <c r="S3" s="184"/>
+      <c r="T3" s="185"/>
+      <c r="U3" s="185"/>
+      <c r="V3" s="185"/>
+      <c r="W3" s="185"/>
+      <c r="X3" s="185"/>
+      <c r="Y3" s="185"/>
+      <c r="Z3" s="186"/>
+      <c r="AA3" s="103"/>
+      <c r="AB3" s="105"/>
+      <c r="AC3" s="130" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="173"/>
-      <c r="AE3" s="173"/>
-      <c r="AF3" s="174"/>
-      <c r="AG3" s="176" t="str">
+      <c r="AD3" s="131"/>
+      <c r="AE3" s="131"/>
+      <c r="AF3" s="132"/>
+      <c r="AG3" s="174" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="177"/>
-      <c r="AI3" s="178"/>
+      <c r="AH3" s="175"/>
+      <c r="AI3" s="176"/>
       <c r="AJ3" s="11"/>
       <c r="AK3" s="11"/>
       <c r="AL3" s="11"/>
@@ -7211,47 +7282,47 @@
       <c r="C7" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="190" t="s">
+      <c r="D7" s="196" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="191"/>
-      <c r="F7" s="192"/>
-      <c r="G7" s="190" t="s">
+      <c r="E7" s="197"/>
+      <c r="F7" s="198"/>
+      <c r="G7" s="196" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="191"/>
-      <c r="I7" s="191"/>
-      <c r="J7" s="191"/>
-      <c r="K7" s="192"/>
-      <c r="L7" s="205" t="s">
+      <c r="H7" s="197"/>
+      <c r="I7" s="197"/>
+      <c r="J7" s="197"/>
+      <c r="K7" s="198"/>
+      <c r="L7" s="199" t="s">
         <v>12</v>
       </c>
-      <c r="M7" s="206"/>
-      <c r="N7" s="207"/>
-      <c r="O7" s="190" t="s">
+      <c r="M7" s="200"/>
+      <c r="N7" s="201"/>
+      <c r="O7" s="196" t="s">
         <v>13</v>
       </c>
-      <c r="P7" s="191"/>
-      <c r="Q7" s="191"/>
-      <c r="R7" s="191"/>
-      <c r="S7" s="192"/>
-      <c r="T7" s="190" t="s">
+      <c r="P7" s="197"/>
+      <c r="Q7" s="197"/>
+      <c r="R7" s="197"/>
+      <c r="S7" s="198"/>
+      <c r="T7" s="196" t="s">
         <v>14</v>
       </c>
-      <c r="U7" s="191"/>
-      <c r="V7" s="191"/>
-      <c r="W7" s="191"/>
-      <c r="X7" s="191"/>
-      <c r="Y7" s="191"/>
-      <c r="Z7" s="191"/>
-      <c r="AA7" s="191"/>
-      <c r="AB7" s="191"/>
-      <c r="AC7" s="191"/>
-      <c r="AD7" s="191"/>
-      <c r="AE7" s="191"/>
-      <c r="AF7" s="191"/>
-      <c r="AG7" s="191"/>
-      <c r="AH7" s="192"/>
+      <c r="U7" s="197"/>
+      <c r="V7" s="197"/>
+      <c r="W7" s="197"/>
+      <c r="X7" s="197"/>
+      <c r="Y7" s="197"/>
+      <c r="Z7" s="197"/>
+      <c r="AA7" s="197"/>
+      <c r="AB7" s="197"/>
+      <c r="AC7" s="197"/>
+      <c r="AD7" s="197"/>
+      <c r="AE7" s="197"/>
+      <c r="AF7" s="197"/>
+      <c r="AG7" s="197"/>
+      <c r="AH7" s="198"/>
       <c r="AJ7" s="11"/>
       <c r="AK7" s="11"/>
       <c r="AL7" s="11"/>
@@ -7279,47 +7350,47 @@
       <c r="C8" s="60">
         <v>1</v>
       </c>
-      <c r="D8" s="193" t="s">
+      <c r="D8" s="202" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="194"/>
-      <c r="F8" s="195"/>
-      <c r="G8" s="193" t="s">
+      <c r="E8" s="203"/>
+      <c r="F8" s="204"/>
+      <c r="G8" s="202" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="194"/>
-      <c r="I8" s="194"/>
-      <c r="J8" s="194"/>
-      <c r="K8" s="195"/>
-      <c r="L8" s="114" t="s">
+      <c r="H8" s="203"/>
+      <c r="I8" s="203"/>
+      <c r="J8" s="203"/>
+      <c r="K8" s="204"/>
+      <c r="L8" s="141" t="s">
         <v>29</v>
       </c>
-      <c r="M8" s="121"/>
-      <c r="N8" s="122"/>
-      <c r="O8" s="114" t="s">
+      <c r="M8" s="142"/>
+      <c r="N8" s="143"/>
+      <c r="O8" s="141" t="s">
         <v>28</v>
       </c>
-      <c r="P8" s="121"/>
-      <c r="Q8" s="121"/>
-      <c r="R8" s="121"/>
-      <c r="S8" s="122"/>
-      <c r="T8" s="115" t="s">
-        <v>80</v>
-      </c>
-      <c r="U8" s="107"/>
-      <c r="V8" s="107"/>
-      <c r="W8" s="107"/>
-      <c r="X8" s="107"/>
-      <c r="Y8" s="107"/>
-      <c r="Z8" s="107"/>
-      <c r="AA8" s="107"/>
-      <c r="AB8" s="107"/>
-      <c r="AC8" s="107"/>
-      <c r="AD8" s="107"/>
-      <c r="AE8" s="107"/>
-      <c r="AF8" s="107"/>
-      <c r="AG8" s="107"/>
-      <c r="AH8" s="108"/>
+      <c r="P8" s="142"/>
+      <c r="Q8" s="142"/>
+      <c r="R8" s="142"/>
+      <c r="S8" s="143"/>
+      <c r="T8" s="144" t="s">
+        <v>79</v>
+      </c>
+      <c r="U8" s="166"/>
+      <c r="V8" s="166"/>
+      <c r="W8" s="166"/>
+      <c r="X8" s="166"/>
+      <c r="Y8" s="166"/>
+      <c r="Z8" s="166"/>
+      <c r="AA8" s="166"/>
+      <c r="AB8" s="166"/>
+      <c r="AC8" s="166"/>
+      <c r="AD8" s="166"/>
+      <c r="AE8" s="166"/>
+      <c r="AF8" s="166"/>
+      <c r="AG8" s="166"/>
+      <c r="AH8" s="167"/>
       <c r="AJ8" s="11"/>
       <c r="AK8" s="11"/>
       <c r="AL8" s="11"/>
@@ -7348,47 +7419,47 @@
         <f>C8+1</f>
         <v>2</v>
       </c>
-      <c r="D9" s="188" t="s">
+      <c r="D9" s="208" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="188"/>
-      <c r="F9" s="188"/>
-      <c r="G9" s="188" t="s">
+      <c r="E9" s="208"/>
+      <c r="F9" s="208"/>
+      <c r="G9" s="208" t="s">
         <v>32</v>
       </c>
-      <c r="H9" s="188"/>
-      <c r="I9" s="188"/>
-      <c r="J9" s="188"/>
-      <c r="K9" s="188"/>
-      <c r="L9" s="179" t="s">
+      <c r="H9" s="208"/>
+      <c r="I9" s="208"/>
+      <c r="J9" s="208"/>
+      <c r="K9" s="208"/>
+      <c r="L9" s="210" t="s">
         <v>37</v>
       </c>
-      <c r="M9" s="180"/>
-      <c r="N9" s="181"/>
-      <c r="O9" s="179" t="s">
+      <c r="M9" s="213"/>
+      <c r="N9" s="214"/>
+      <c r="O9" s="210" t="s">
         <v>34</v>
       </c>
-      <c r="P9" s="180"/>
-      <c r="Q9" s="180"/>
-      <c r="R9" s="180"/>
-      <c r="S9" s="181"/>
-      <c r="T9" s="179" t="s">
+      <c r="P9" s="213"/>
+      <c r="Q9" s="213"/>
+      <c r="R9" s="213"/>
+      <c r="S9" s="214"/>
+      <c r="T9" s="210" t="s">
         <v>48</v>
       </c>
-      <c r="U9" s="183"/>
-      <c r="V9" s="183"/>
-      <c r="W9" s="183"/>
-      <c r="X9" s="183"/>
-      <c r="Y9" s="183"/>
-      <c r="Z9" s="183"/>
-      <c r="AA9" s="183"/>
-      <c r="AB9" s="183"/>
-      <c r="AC9" s="183"/>
-      <c r="AD9" s="183"/>
-      <c r="AE9" s="183"/>
-      <c r="AF9" s="183"/>
-      <c r="AG9" s="183"/>
-      <c r="AH9" s="184"/>
+      <c r="U9" s="211"/>
+      <c r="V9" s="211"/>
+      <c r="W9" s="211"/>
+      <c r="X9" s="211"/>
+      <c r="Y9" s="211"/>
+      <c r="Z9" s="211"/>
+      <c r="AA9" s="211"/>
+      <c r="AB9" s="211"/>
+      <c r="AC9" s="211"/>
+      <c r="AD9" s="211"/>
+      <c r="AE9" s="211"/>
+      <c r="AF9" s="211"/>
+      <c r="AG9" s="211"/>
+      <c r="AH9" s="212"/>
       <c r="AL9" s="11"/>
       <c r="AM9" s="11"/>
       <c r="AN9" s="11"/>
@@ -7407,43 +7478,43 @@
         <f t="shared" ref="C10:C18" si="0">C9+1</f>
         <v>3</v>
       </c>
-      <c r="D10" s="189"/>
-      <c r="E10" s="189"/>
-      <c r="F10" s="189"/>
-      <c r="G10" s="189"/>
-      <c r="H10" s="189"/>
-      <c r="I10" s="189"/>
-      <c r="J10" s="189"/>
-      <c r="K10" s="189"/>
-      <c r="L10" s="114" t="s">
+      <c r="D10" s="209"/>
+      <c r="E10" s="209"/>
+      <c r="F10" s="209"/>
+      <c r="G10" s="209"/>
+      <c r="H10" s="209"/>
+      <c r="I10" s="209"/>
+      <c r="J10" s="209"/>
+      <c r="K10" s="209"/>
+      <c r="L10" s="141" t="s">
         <v>38</v>
       </c>
-      <c r="M10" s="121"/>
-      <c r="N10" s="122"/>
-      <c r="O10" s="114" t="s">
+      <c r="M10" s="142"/>
+      <c r="N10" s="143"/>
+      <c r="O10" s="141" t="s">
         <v>35</v>
       </c>
-      <c r="P10" s="121"/>
-      <c r="Q10" s="121"/>
-      <c r="R10" s="121"/>
-      <c r="S10" s="122"/>
-      <c r="T10" s="114" t="s">
+      <c r="P10" s="142"/>
+      <c r="Q10" s="142"/>
+      <c r="R10" s="142"/>
+      <c r="S10" s="143"/>
+      <c r="T10" s="141" t="s">
         <v>46</v>
       </c>
-      <c r="U10" s="107"/>
-      <c r="V10" s="107"/>
-      <c r="W10" s="107"/>
-      <c r="X10" s="107"/>
-      <c r="Y10" s="107"/>
-      <c r="Z10" s="107"/>
-      <c r="AA10" s="107"/>
-      <c r="AB10" s="107"/>
-      <c r="AC10" s="107"/>
-      <c r="AD10" s="107"/>
-      <c r="AE10" s="107"/>
-      <c r="AF10" s="107"/>
-      <c r="AG10" s="107"/>
-      <c r="AH10" s="108"/>
+      <c r="U10" s="166"/>
+      <c r="V10" s="166"/>
+      <c r="W10" s="166"/>
+      <c r="X10" s="166"/>
+      <c r="Y10" s="166"/>
+      <c r="Z10" s="166"/>
+      <c r="AA10" s="166"/>
+      <c r="AB10" s="166"/>
+      <c r="AC10" s="166"/>
+      <c r="AD10" s="166"/>
+      <c r="AE10" s="166"/>
+      <c r="AF10" s="166"/>
+      <c r="AG10" s="166"/>
+      <c r="AH10" s="167"/>
       <c r="AL10" s="11"/>
       <c r="AM10" s="11"/>
       <c r="AN10" s="11"/>
@@ -7462,43 +7533,43 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D11" s="189"/>
-      <c r="E11" s="189"/>
-      <c r="F11" s="189"/>
-      <c r="G11" s="189"/>
-      <c r="H11" s="189"/>
-      <c r="I11" s="189"/>
-      <c r="J11" s="189"/>
-      <c r="K11" s="189"/>
-      <c r="L11" s="114" t="s">
+      <c r="D11" s="209"/>
+      <c r="E11" s="209"/>
+      <c r="F11" s="209"/>
+      <c r="G11" s="209"/>
+      <c r="H11" s="209"/>
+      <c r="I11" s="209"/>
+      <c r="J11" s="209"/>
+      <c r="K11" s="209"/>
+      <c r="L11" s="141" t="s">
         <v>39</v>
       </c>
-      <c r="M11" s="121"/>
-      <c r="N11" s="122"/>
-      <c r="O11" s="114" t="s">
+      <c r="M11" s="142"/>
+      <c r="N11" s="143"/>
+      <c r="O11" s="141" t="s">
         <v>36</v>
       </c>
-      <c r="P11" s="121"/>
-      <c r="Q11" s="121"/>
-      <c r="R11" s="121"/>
-      <c r="S11" s="122"/>
-      <c r="T11" s="114" t="s">
+      <c r="P11" s="142"/>
+      <c r="Q11" s="142"/>
+      <c r="R11" s="142"/>
+      <c r="S11" s="143"/>
+      <c r="T11" s="141" t="s">
         <v>47</v>
       </c>
-      <c r="U11" s="107"/>
-      <c r="V11" s="107"/>
-      <c r="W11" s="107"/>
-      <c r="X11" s="107"/>
-      <c r="Y11" s="107"/>
-      <c r="Z11" s="107"/>
-      <c r="AA11" s="107"/>
-      <c r="AB11" s="107"/>
-      <c r="AC11" s="107"/>
-      <c r="AD11" s="107"/>
-      <c r="AE11" s="107"/>
-      <c r="AF11" s="107"/>
-      <c r="AG11" s="107"/>
-      <c r="AH11" s="108"/>
+      <c r="U11" s="166"/>
+      <c r="V11" s="166"/>
+      <c r="W11" s="166"/>
+      <c r="X11" s="166"/>
+      <c r="Y11" s="166"/>
+      <c r="Z11" s="166"/>
+      <c r="AA11" s="166"/>
+      <c r="AB11" s="166"/>
+      <c r="AC11" s="166"/>
+      <c r="AD11" s="166"/>
+      <c r="AE11" s="166"/>
+      <c r="AF11" s="166"/>
+      <c r="AG11" s="166"/>
+      <c r="AH11" s="167"/>
       <c r="AL11" s="11"/>
       <c r="AM11" s="11"/>
       <c r="AN11" s="11"/>
@@ -7517,43 +7588,43 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="D12" s="189"/>
-      <c r="E12" s="189"/>
-      <c r="F12" s="189"/>
-      <c r="G12" s="189"/>
-      <c r="H12" s="189"/>
-      <c r="I12" s="189"/>
-      <c r="J12" s="189"/>
-      <c r="K12" s="189"/>
-      <c r="L12" s="114" t="s">
+      <c r="D12" s="209"/>
+      <c r="E12" s="209"/>
+      <c r="F12" s="209"/>
+      <c r="G12" s="209"/>
+      <c r="H12" s="209"/>
+      <c r="I12" s="209"/>
+      <c r="J12" s="209"/>
+      <c r="K12" s="209"/>
+      <c r="L12" s="141" t="s">
         <v>51</v>
       </c>
-      <c r="M12" s="121"/>
-      <c r="N12" s="122"/>
-      <c r="O12" s="114" t="s">
+      <c r="M12" s="142"/>
+      <c r="N12" s="143"/>
+      <c r="O12" s="141" t="s">
         <v>52</v>
       </c>
-      <c r="P12" s="121"/>
-      <c r="Q12" s="121"/>
-      <c r="R12" s="121"/>
-      <c r="S12" s="122"/>
-      <c r="T12" s="115" t="s">
+      <c r="P12" s="142"/>
+      <c r="Q12" s="142"/>
+      <c r="R12" s="142"/>
+      <c r="S12" s="143"/>
+      <c r="T12" s="144" t="s">
         <v>53</v>
       </c>
-      <c r="U12" s="110"/>
-      <c r="V12" s="110"/>
-      <c r="W12" s="110"/>
-      <c r="X12" s="110"/>
-      <c r="Y12" s="110"/>
-      <c r="Z12" s="110"/>
-      <c r="AA12" s="110"/>
-      <c r="AB12" s="110"/>
-      <c r="AC12" s="110"/>
-      <c r="AD12" s="110"/>
-      <c r="AE12" s="110"/>
-      <c r="AF12" s="110"/>
-      <c r="AG12" s="110"/>
-      <c r="AH12" s="111"/>
+      <c r="U12" s="168"/>
+      <c r="V12" s="168"/>
+      <c r="W12" s="168"/>
+      <c r="X12" s="168"/>
+      <c r="Y12" s="168"/>
+      <c r="Z12" s="168"/>
+      <c r="AA12" s="168"/>
+      <c r="AB12" s="168"/>
+      <c r="AC12" s="168"/>
+      <c r="AD12" s="168"/>
+      <c r="AE12" s="168"/>
+      <c r="AF12" s="168"/>
+      <c r="AG12" s="168"/>
+      <c r="AH12" s="169"/>
       <c r="AL12" s="11"/>
       <c r="AM12" s="11"/>
       <c r="AN12" s="11"/>
@@ -7572,43 +7643,43 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="D13" s="189"/>
-      <c r="E13" s="189"/>
-      <c r="F13" s="189"/>
-      <c r="G13" s="189"/>
-      <c r="H13" s="189"/>
-      <c r="I13" s="189"/>
-      <c r="J13" s="189"/>
-      <c r="K13" s="189"/>
-      <c r="L13" s="114" t="s">
+      <c r="D13" s="209"/>
+      <c r="E13" s="209"/>
+      <c r="F13" s="209"/>
+      <c r="G13" s="209"/>
+      <c r="H13" s="209"/>
+      <c r="I13" s="209"/>
+      <c r="J13" s="209"/>
+      <c r="K13" s="209"/>
+      <c r="L13" s="141" t="s">
         <v>57</v>
       </c>
-      <c r="M13" s="121"/>
-      <c r="N13" s="122"/>
-      <c r="O13" s="114" t="s">
+      <c r="M13" s="142"/>
+      <c r="N13" s="143"/>
+      <c r="O13" s="141" t="s">
         <v>58</v>
       </c>
-      <c r="P13" s="121"/>
-      <c r="Q13" s="121"/>
-      <c r="R13" s="121"/>
-      <c r="S13" s="122"/>
-      <c r="T13" s="115" t="s">
+      <c r="P13" s="142"/>
+      <c r="Q13" s="142"/>
+      <c r="R13" s="142"/>
+      <c r="S13" s="143"/>
+      <c r="T13" s="144" t="s">
         <v>59</v>
       </c>
-      <c r="U13" s="110"/>
-      <c r="V13" s="110"/>
-      <c r="W13" s="110"/>
-      <c r="X13" s="110"/>
-      <c r="Y13" s="110"/>
-      <c r="Z13" s="110"/>
-      <c r="AA13" s="110"/>
-      <c r="AB13" s="110"/>
-      <c r="AC13" s="110"/>
-      <c r="AD13" s="110"/>
-      <c r="AE13" s="110"/>
-      <c r="AF13" s="110"/>
-      <c r="AG13" s="110"/>
-      <c r="AH13" s="111"/>
+      <c r="U13" s="168"/>
+      <c r="V13" s="168"/>
+      <c r="W13" s="168"/>
+      <c r="X13" s="168"/>
+      <c r="Y13" s="168"/>
+      <c r="Z13" s="168"/>
+      <c r="AA13" s="168"/>
+      <c r="AB13" s="168"/>
+      <c r="AC13" s="168"/>
+      <c r="AD13" s="168"/>
+      <c r="AE13" s="168"/>
+      <c r="AF13" s="168"/>
+      <c r="AG13" s="168"/>
+      <c r="AH13" s="169"/>
       <c r="AL13" s="11"/>
       <c r="AM13" s="11"/>
       <c r="AN13" s="11"/>
@@ -7627,14 +7698,14 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="D14" s="189"/>
-      <c r="E14" s="189"/>
-      <c r="F14" s="189"/>
-      <c r="G14" s="189"/>
-      <c r="H14" s="189"/>
-      <c r="I14" s="189"/>
-      <c r="J14" s="189"/>
-      <c r="K14" s="189"/>
+      <c r="D14" s="209"/>
+      <c r="E14" s="209"/>
+      <c r="F14" s="209"/>
+      <c r="G14" s="209"/>
+      <c r="H14" s="209"/>
+      <c r="I14" s="209"/>
+      <c r="J14" s="209"/>
+      <c r="K14" s="209"/>
       <c r="L14" s="83" t="s">
         <v>61</v>
       </c>
@@ -7647,23 +7718,23 @@
       <c r="Q14" s="84"/>
       <c r="R14" s="84"/>
       <c r="S14" s="85"/>
-      <c r="T14" s="185" t="s">
+      <c r="T14" s="205" t="s">
         <v>67</v>
       </c>
-      <c r="U14" s="186"/>
-      <c r="V14" s="186"/>
-      <c r="W14" s="186"/>
-      <c r="X14" s="186"/>
-      <c r="Y14" s="186"/>
-      <c r="Z14" s="186"/>
-      <c r="AA14" s="186"/>
-      <c r="AB14" s="186"/>
-      <c r="AC14" s="186"/>
-      <c r="AD14" s="186"/>
-      <c r="AE14" s="186"/>
-      <c r="AF14" s="186"/>
-      <c r="AG14" s="186"/>
-      <c r="AH14" s="187"/>
+      <c r="U14" s="206"/>
+      <c r="V14" s="206"/>
+      <c r="W14" s="206"/>
+      <c r="X14" s="206"/>
+      <c r="Y14" s="206"/>
+      <c r="Z14" s="206"/>
+      <c r="AA14" s="206"/>
+      <c r="AB14" s="206"/>
+      <c r="AC14" s="206"/>
+      <c r="AD14" s="206"/>
+      <c r="AE14" s="206"/>
+      <c r="AF14" s="206"/>
+      <c r="AG14" s="206"/>
+      <c r="AH14" s="207"/>
       <c r="AL14" s="11"/>
       <c r="AM14" s="11"/>
       <c r="AN14" s="11"/>
@@ -7682,14 +7753,14 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="D15" s="189"/>
-      <c r="E15" s="189"/>
-      <c r="F15" s="189"/>
-      <c r="G15" s="189"/>
-      <c r="H15" s="189"/>
-      <c r="I15" s="189"/>
-      <c r="J15" s="189"/>
-      <c r="K15" s="189"/>
+      <c r="D15" s="209"/>
+      <c r="E15" s="209"/>
+      <c r="F15" s="209"/>
+      <c r="G15" s="209"/>
+      <c r="H15" s="209"/>
+      <c r="I15" s="209"/>
+      <c r="J15" s="209"/>
+      <c r="K15" s="209"/>
       <c r="L15" s="83" t="s">
         <v>62</v>
       </c>
@@ -7702,23 +7773,23 @@
       <c r="Q15" s="84"/>
       <c r="R15" s="84"/>
       <c r="S15" s="85"/>
-      <c r="T15" s="185" t="s">
+      <c r="T15" s="205" t="s">
         <v>68</v>
       </c>
-      <c r="U15" s="186"/>
-      <c r="V15" s="186"/>
-      <c r="W15" s="186"/>
-      <c r="X15" s="186"/>
-      <c r="Y15" s="186"/>
-      <c r="Z15" s="186"/>
-      <c r="AA15" s="186"/>
-      <c r="AB15" s="186"/>
-      <c r="AC15" s="186"/>
-      <c r="AD15" s="186"/>
-      <c r="AE15" s="186"/>
-      <c r="AF15" s="186"/>
-      <c r="AG15" s="186"/>
-      <c r="AH15" s="187"/>
+      <c r="U15" s="206"/>
+      <c r="V15" s="206"/>
+      <c r="W15" s="206"/>
+      <c r="X15" s="206"/>
+      <c r="Y15" s="206"/>
+      <c r="Z15" s="206"/>
+      <c r="AA15" s="206"/>
+      <c r="AB15" s="206"/>
+      <c r="AC15" s="206"/>
+      <c r="AD15" s="206"/>
+      <c r="AE15" s="206"/>
+      <c r="AF15" s="206"/>
+      <c r="AG15" s="206"/>
+      <c r="AH15" s="207"/>
       <c r="AL15" s="11"/>
       <c r="AM15" s="11"/>
       <c r="AN15" s="11"/>
@@ -7737,43 +7808,43 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="D16" s="189"/>
-      <c r="E16" s="189"/>
-      <c r="F16" s="189"/>
-      <c r="G16" s="189"/>
-      <c r="H16" s="189"/>
-      <c r="I16" s="189"/>
-      <c r="J16" s="189"/>
-      <c r="K16" s="189"/>
-      <c r="L16" s="114" t="s">
+      <c r="D16" s="209"/>
+      <c r="E16" s="209"/>
+      <c r="F16" s="209"/>
+      <c r="G16" s="209"/>
+      <c r="H16" s="209"/>
+      <c r="I16" s="209"/>
+      <c r="J16" s="209"/>
+      <c r="K16" s="209"/>
+      <c r="L16" s="141" t="s">
         <v>63</v>
       </c>
-      <c r="M16" s="121"/>
-      <c r="N16" s="122"/>
-      <c r="O16" s="114" t="s">
+      <c r="M16" s="142"/>
+      <c r="N16" s="143"/>
+      <c r="O16" s="141" t="s">
         <v>66</v>
       </c>
-      <c r="P16" s="121"/>
-      <c r="Q16" s="121"/>
-      <c r="R16" s="121"/>
-      <c r="S16" s="122"/>
-      <c r="T16" s="115" t="s">
+      <c r="P16" s="142"/>
+      <c r="Q16" s="142"/>
+      <c r="R16" s="142"/>
+      <c r="S16" s="143"/>
+      <c r="T16" s="144" t="s">
         <v>69</v>
       </c>
-      <c r="U16" s="110"/>
-      <c r="V16" s="110"/>
-      <c r="W16" s="110"/>
-      <c r="X16" s="110"/>
-      <c r="Y16" s="110"/>
-      <c r="Z16" s="110"/>
-      <c r="AA16" s="110"/>
-      <c r="AB16" s="110"/>
-      <c r="AC16" s="110"/>
-      <c r="AD16" s="110"/>
-      <c r="AE16" s="110"/>
-      <c r="AF16" s="110"/>
-      <c r="AG16" s="110"/>
-      <c r="AH16" s="111"/>
+      <c r="U16" s="168"/>
+      <c r="V16" s="168"/>
+      <c r="W16" s="168"/>
+      <c r="X16" s="168"/>
+      <c r="Y16" s="168"/>
+      <c r="Z16" s="168"/>
+      <c r="AA16" s="168"/>
+      <c r="AB16" s="168"/>
+      <c r="AC16" s="168"/>
+      <c r="AD16" s="168"/>
+      <c r="AE16" s="168"/>
+      <c r="AF16" s="168"/>
+      <c r="AG16" s="168"/>
+      <c r="AH16" s="169"/>
       <c r="AL16" s="11"/>
       <c r="AM16" s="11"/>
       <c r="AN16" s="11"/>
@@ -7792,47 +7863,47 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="D17" s="94" t="s">
+      <c r="D17" s="93" t="s">
         <v>72</v>
       </c>
-      <c r="E17" s="95"/>
-      <c r="F17" s="96"/>
-      <c r="G17" s="94" t="s">
+      <c r="E17" s="94"/>
+      <c r="F17" s="95"/>
+      <c r="G17" s="93" t="s">
         <v>73</v>
       </c>
-      <c r="H17" s="95"/>
-      <c r="I17" s="95"/>
-      <c r="J17" s="95"/>
-      <c r="K17" s="96"/>
-      <c r="L17" s="179" t="s">
+      <c r="H17" s="94"/>
+      <c r="I17" s="94"/>
+      <c r="J17" s="94"/>
+      <c r="K17" s="95"/>
+      <c r="L17" s="210" t="s">
         <v>74</v>
       </c>
-      <c r="M17" s="180"/>
-      <c r="N17" s="181"/>
-      <c r="O17" s="179" t="s">
+      <c r="M17" s="213"/>
+      <c r="N17" s="214"/>
+      <c r="O17" s="210" t="s">
         <v>30</v>
       </c>
-      <c r="P17" s="180"/>
-      <c r="Q17" s="180"/>
-      <c r="R17" s="180"/>
-      <c r="S17" s="181"/>
-      <c r="T17" s="182" t="s">
+      <c r="P17" s="213"/>
+      <c r="Q17" s="213"/>
+      <c r="R17" s="213"/>
+      <c r="S17" s="214"/>
+      <c r="T17" s="215" t="s">
         <v>45</v>
       </c>
-      <c r="U17" s="183"/>
-      <c r="V17" s="183"/>
-      <c r="W17" s="183"/>
-      <c r="X17" s="183"/>
-      <c r="Y17" s="183"/>
-      <c r="Z17" s="183"/>
-      <c r="AA17" s="183"/>
-      <c r="AB17" s="183"/>
-      <c r="AC17" s="183"/>
-      <c r="AD17" s="183"/>
-      <c r="AE17" s="183"/>
-      <c r="AF17" s="183"/>
-      <c r="AG17" s="183"/>
-      <c r="AH17" s="184"/>
+      <c r="U17" s="211"/>
+      <c r="V17" s="211"/>
+      <c r="W17" s="211"/>
+      <c r="X17" s="211"/>
+      <c r="Y17" s="211"/>
+      <c r="Z17" s="211"/>
+      <c r="AA17" s="211"/>
+      <c r="AB17" s="211"/>
+      <c r="AC17" s="211"/>
+      <c r="AD17" s="211"/>
+      <c r="AE17" s="211"/>
+      <c r="AF17" s="211"/>
+      <c r="AG17" s="211"/>
+      <c r="AH17" s="212"/>
       <c r="AL17" s="11"/>
       <c r="AM17" s="11"/>
       <c r="AN17" s="11"/>
@@ -7851,43 +7922,43 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="D18" s="91"/>
-      <c r="E18" s="92"/>
-      <c r="F18" s="93"/>
-      <c r="G18" s="91"/>
-      <c r="H18" s="92"/>
-      <c r="I18" s="92"/>
-      <c r="J18" s="92"/>
-      <c r="K18" s="93"/>
-      <c r="L18" s="179" t="s">
+      <c r="D18" s="90"/>
+      <c r="E18" s="91"/>
+      <c r="F18" s="92"/>
+      <c r="G18" s="90"/>
+      <c r="H18" s="91"/>
+      <c r="I18" s="91"/>
+      <c r="J18" s="91"/>
+      <c r="K18" s="92"/>
+      <c r="L18" s="210" t="s">
         <v>75</v>
       </c>
-      <c r="M18" s="180"/>
-      <c r="N18" s="181"/>
-      <c r="O18" s="179" t="s">
+      <c r="M18" s="213"/>
+      <c r="N18" s="214"/>
+      <c r="O18" s="210" t="s">
         <v>31</v>
       </c>
-      <c r="P18" s="180"/>
-      <c r="Q18" s="180"/>
-      <c r="R18" s="180"/>
-      <c r="S18" s="181"/>
-      <c r="T18" s="182" t="s">
+      <c r="P18" s="213"/>
+      <c r="Q18" s="213"/>
+      <c r="R18" s="213"/>
+      <c r="S18" s="214"/>
+      <c r="T18" s="215" t="s">
         <v>76</v>
       </c>
-      <c r="U18" s="183"/>
-      <c r="V18" s="183"/>
-      <c r="W18" s="183"/>
-      <c r="X18" s="183"/>
-      <c r="Y18" s="183"/>
-      <c r="Z18" s="183"/>
-      <c r="AA18" s="183"/>
-      <c r="AB18" s="183"/>
-      <c r="AC18" s="183"/>
-      <c r="AD18" s="183"/>
-      <c r="AE18" s="183"/>
-      <c r="AF18" s="183"/>
-      <c r="AG18" s="183"/>
-      <c r="AH18" s="184"/>
+      <c r="U18" s="211"/>
+      <c r="V18" s="211"/>
+      <c r="W18" s="211"/>
+      <c r="X18" s="211"/>
+      <c r="Y18" s="211"/>
+      <c r="Z18" s="211"/>
+      <c r="AA18" s="211"/>
+      <c r="AB18" s="211"/>
+      <c r="AC18" s="211"/>
+      <c r="AD18" s="211"/>
+      <c r="AE18" s="211"/>
+      <c r="AF18" s="211"/>
+      <c r="AG18" s="211"/>
+      <c r="AH18" s="212"/>
       <c r="AL18" s="11"/>
       <c r="AM18" s="11"/>
       <c r="AN18" s="11"/>
@@ -7902,38 +7973,40 @@
       <c r="AW18" s="11"/>
     </row>
     <row r="19" spans="3:49" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C19" s="86"/>
-      <c r="D19" s="87"/>
-      <c r="E19" s="87"/>
-      <c r="F19" s="87"/>
-      <c r="G19" s="87"/>
-      <c r="H19" s="87"/>
-      <c r="I19" s="87"/>
-      <c r="J19" s="87"/>
-      <c r="K19" s="87"/>
-      <c r="L19" s="88"/>
-      <c r="M19" s="88"/>
-      <c r="N19" s="88"/>
-      <c r="O19" s="88"/>
-      <c r="P19" s="88"/>
-      <c r="Q19" s="88"/>
-      <c r="R19" s="88"/>
-      <c r="S19" s="88"/>
-      <c r="T19" s="89"/>
-      <c r="U19" s="90"/>
-      <c r="V19" s="90"/>
-      <c r="W19" s="90"/>
-      <c r="X19" s="90"/>
-      <c r="Y19" s="90"/>
-      <c r="Z19" s="90"/>
-      <c r="AA19" s="90"/>
-      <c r="AB19" s="90"/>
-      <c r="AC19" s="90"/>
-      <c r="AD19" s="90"/>
-      <c r="AE19" s="90"/>
-      <c r="AF19" s="90"/>
-      <c r="AG19" s="90"/>
-      <c r="AH19" s="90"/>
+      <c r="C19" s="86" t="s">
+        <v>80</v>
+      </c>
+      <c r="D19" s="86"/>
+      <c r="E19" s="86"/>
+      <c r="F19" s="86"/>
+      <c r="G19" s="86"/>
+      <c r="H19" s="86"/>
+      <c r="I19" s="86"/>
+      <c r="J19" s="86"/>
+      <c r="K19" s="86"/>
+      <c r="L19" s="87"/>
+      <c r="M19" s="87"/>
+      <c r="N19" s="87"/>
+      <c r="O19" s="87"/>
+      <c r="P19" s="87"/>
+      <c r="Q19" s="87"/>
+      <c r="R19" s="87"/>
+      <c r="S19" s="87"/>
+      <c r="T19" s="88"/>
+      <c r="U19" s="89"/>
+      <c r="V19" s="89"/>
+      <c r="W19" s="89"/>
+      <c r="X19" s="89"/>
+      <c r="Y19" s="89"/>
+      <c r="Z19" s="89"/>
+      <c r="AA19" s="89"/>
+      <c r="AB19" s="89"/>
+      <c r="AC19" s="89"/>
+      <c r="AD19" s="89"/>
+      <c r="AE19" s="89"/>
+      <c r="AF19" s="89"/>
+      <c r="AG19" s="89"/>
+      <c r="AH19" s="89"/>
       <c r="AL19" s="11"/>
       <c r="AM19" s="11"/>
       <c r="AN19" s="11"/>
@@ -7949,39 +8022,12 @@
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="L12:N12"/>
-    <mergeCell ref="O12:S12"/>
-    <mergeCell ref="T12:AH12"/>
-    <mergeCell ref="L13:N13"/>
-    <mergeCell ref="O13:S13"/>
-    <mergeCell ref="T13:AH13"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="L7:N7"/>
-    <mergeCell ref="O7:S7"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="L8:N8"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="T7:AH7"/>
-    <mergeCell ref="T8:AH8"/>
-    <mergeCell ref="O8:S8"/>
+    <mergeCell ref="L17:N17"/>
+    <mergeCell ref="O17:S17"/>
+    <mergeCell ref="T17:AH17"/>
+    <mergeCell ref="L18:N18"/>
+    <mergeCell ref="O18:S18"/>
+    <mergeCell ref="T18:AH18"/>
     <mergeCell ref="T14:AH14"/>
     <mergeCell ref="T15:AH15"/>
     <mergeCell ref="D9:F16"/>
@@ -7998,12 +8044,39 @@
     <mergeCell ref="O9:S9"/>
     <mergeCell ref="O10:S10"/>
     <mergeCell ref="L9:N9"/>
-    <mergeCell ref="L17:N17"/>
-    <mergeCell ref="O17:S17"/>
-    <mergeCell ref="T17:AH17"/>
-    <mergeCell ref="L18:N18"/>
-    <mergeCell ref="O18:S18"/>
-    <mergeCell ref="T18:AH18"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="L8:N8"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="T7:AH7"/>
+    <mergeCell ref="T8:AH8"/>
+    <mergeCell ref="O8:S8"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="L7:N7"/>
+    <mergeCell ref="O7:S7"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="L12:N12"/>
+    <mergeCell ref="O12:S12"/>
+    <mergeCell ref="T12:AH12"/>
+    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="O13:S13"/>
+    <mergeCell ref="T13:AH13"/>
   </mergeCells>
   <phoneticPr fontId="10"/>
   <printOptions horizontalCentered="1"/>

--- a/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/010_要件定義/040_画面設計/画面一覧_A1_プロジェクト管理システム.xlsx
+++ b/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/010_要件定義/040_画面設計/画面一覧_A1_プロジェクト管理システム.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{047E944B-0531-4883-BCCA-A22A681DA9DF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52BC61C0-4284-40CE-8B19-A4F7163BE42D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="81">
   <si>
     <t>PJ名</t>
   </si>
@@ -409,10 +409,6 @@
     <phoneticPr fontId="10"/>
   </si>
   <si>
-    <t>プロジェクト管理システム</t>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
     <t>TIS</t>
     <phoneticPr fontId="10"/>
   </si>
@@ -654,93 +650,23 @@
     <phoneticPr fontId="10"/>
   </si>
   <si>
-    <t>※共通画面については、原則的に、common階層以下に配置を行う。しかし、汎用エラーは発生エラー内容単位に配置するため、別途errorPage以下に配置する。</t>
-    <rPh sb="1" eb="3">
+    <t>・TOPメニュー、汎用エラーを共通機能として分類</t>
+    <rPh sb="9" eb="11">
+      <t>ハンヨウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
       <t>キョウツウ</t>
     </rPh>
-    <rPh sb="3" eb="5">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ゲンソク</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>テキ</t>
+    <rPh sb="17" eb="19">
+      <t>キノウ</t>
     </rPh>
     <rPh sb="22" eb="24">
-      <t>カイソウ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>ハイチ</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>ハンヨウ</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>ハッセイ</t>
-    </rPh>
-    <rPh sb="48" eb="52">
-      <t>ナイヨウタンイ</t>
-    </rPh>
-    <rPh sb="53" eb="55">
-      <t>ハイチ</t>
-    </rPh>
-    <rPh sb="60" eb="62">
-      <t>ベット</t>
-    </rPh>
-    <rPh sb="71" eb="73">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="74" eb="76">
-      <t>ハイチ</t>
+      <t>ブンルイ</t>
     </rPh>
     <phoneticPr fontId="10"/>
   </si>
   <si>
-    <t>・TOPメニュー、汎用エラーを共通機能として分類
-・共通機能のTOPメニュー、汎用エラーの配置先の考え方を注記として追加</t>
-    <rPh sb="9" eb="11">
-      <t>ハンヨウ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>キョウツウ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ブンルイ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>キョウツウ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>ハンヨウ</t>
-    </rPh>
-    <rPh sb="45" eb="48">
-      <t>ハイチサキ</t>
-    </rPh>
-    <rPh sb="49" eb="50">
-      <t>カンガ</t>
-    </rPh>
-    <rPh sb="51" eb="52">
-      <t>カタ</t>
-    </rPh>
-    <rPh sb="53" eb="55">
-      <t>チュウキ</t>
-    </rPh>
-    <rPh sb="58" eb="60">
-      <t>ツイカ</t>
-    </rPh>
+    <t>プロジェクト管理システム</t>
     <phoneticPr fontId="10"/>
   </si>
 </sst>
@@ -1830,6 +1756,129 @@
     <xf numFmtId="31" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="25" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="10" xfId="45" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -1938,128 +1987,8 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="25" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -2070,8 +1999,92 @@
     <xf numFmtId="177" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="13" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="14" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="15" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="19" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="0" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="22" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="16" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="17" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="18" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2098,93 +2111,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="13" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="14" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="15" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="19" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="0" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="22" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="16" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="17" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="18" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3006,7 +2932,9 @@
   </sheetPr>
   <dimension ref="A1:S513"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="U19" sqref="U19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -3050,7 +2978,7 @@
       <c r="G23" s="21"/>
       <c r="H23" s="21"/>
       <c r="J23" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3666,57 +3594,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="144" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="106" t="s">
+      <c r="B1" s="145"/>
+      <c r="C1" s="145"/>
+      <c r="D1" s="146"/>
+      <c r="E1" s="147" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
-      <c r="H1" s="107"/>
-      <c r="I1" s="107"/>
-      <c r="J1" s="107"/>
-      <c r="K1" s="107"/>
-      <c r="L1" s="107"/>
-      <c r="M1" s="107"/>
-      <c r="N1" s="108"/>
-      <c r="O1" s="112" t="s">
+      <c r="F1" s="148"/>
+      <c r="G1" s="148"/>
+      <c r="H1" s="148"/>
+      <c r="I1" s="148"/>
+      <c r="J1" s="148"/>
+      <c r="K1" s="148"/>
+      <c r="L1" s="148"/>
+      <c r="M1" s="148"/>
+      <c r="N1" s="149"/>
+      <c r="O1" s="153" t="s">
         <v>17</v>
       </c>
-      <c r="P1" s="113"/>
-      <c r="Q1" s="113"/>
-      <c r="R1" s="114"/>
-      <c r="S1" s="121" t="s">
+      <c r="P1" s="154"/>
+      <c r="Q1" s="154"/>
+      <c r="R1" s="155"/>
+      <c r="S1" s="162" t="s">
         <v>23</v>
       </c>
-      <c r="T1" s="122"/>
-      <c r="U1" s="122"/>
-      <c r="V1" s="122"/>
-      <c r="W1" s="122"/>
-      <c r="X1" s="122"/>
-      <c r="Y1" s="122"/>
-      <c r="Z1" s="123"/>
-      <c r="AA1" s="103" t="s">
+      <c r="T1" s="163"/>
+      <c r="U1" s="163"/>
+      <c r="V1" s="163"/>
+      <c r="W1" s="163"/>
+      <c r="X1" s="163"/>
+      <c r="Y1" s="163"/>
+      <c r="Z1" s="164"/>
+      <c r="AA1" s="144" t="s">
         <v>18</v>
       </c>
-      <c r="AB1" s="105"/>
-      <c r="AC1" s="130" t="str">
+      <c r="AB1" s="146"/>
+      <c r="AC1" s="171" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="131"/>
-      <c r="AE1" s="131"/>
-      <c r="AF1" s="132"/>
-      <c r="AG1" s="97">
+      <c r="AD1" s="172"/>
+      <c r="AE1" s="172"/>
+      <c r="AF1" s="173"/>
+      <c r="AG1" s="138">
         <f>IF(D8="","",D8)</f>
         <v>43592</v>
       </c>
-      <c r="AH1" s="98"/>
-      <c r="AI1" s="99"/>
+      <c r="AH1" s="139"/>
+      <c r="AI1" s="140"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="1"/>
@@ -3724,53 +3652,53 @@
       <c r="AN1" s="2"/>
     </row>
     <row r="2" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="103" t="s">
+      <c r="A2" s="144" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="104"/>
-      <c r="C2" s="104"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="106" t="s">
+      <c r="B2" s="145"/>
+      <c r="C2" s="145"/>
+      <c r="D2" s="146"/>
+      <c r="E2" s="147" t="s">
         <v>41</v>
       </c>
-      <c r="F2" s="107"/>
-      <c r="G2" s="107"/>
-      <c r="H2" s="107"/>
-      <c r="I2" s="107"/>
-      <c r="J2" s="107"/>
-      <c r="K2" s="107"/>
-      <c r="L2" s="107"/>
-      <c r="M2" s="107"/>
-      <c r="N2" s="108"/>
-      <c r="O2" s="115"/>
-      <c r="P2" s="116"/>
-      <c r="Q2" s="116"/>
-      <c r="R2" s="117"/>
-      <c r="S2" s="124"/>
-      <c r="T2" s="125"/>
-      <c r="U2" s="125"/>
-      <c r="V2" s="125"/>
-      <c r="W2" s="125"/>
-      <c r="X2" s="125"/>
-      <c r="Y2" s="125"/>
-      <c r="Z2" s="126"/>
-      <c r="AA2" s="103" t="s">
+      <c r="F2" s="148"/>
+      <c r="G2" s="148"/>
+      <c r="H2" s="148"/>
+      <c r="I2" s="148"/>
+      <c r="J2" s="148"/>
+      <c r="K2" s="148"/>
+      <c r="L2" s="148"/>
+      <c r="M2" s="148"/>
+      <c r="N2" s="149"/>
+      <c r="O2" s="156"/>
+      <c r="P2" s="157"/>
+      <c r="Q2" s="157"/>
+      <c r="R2" s="158"/>
+      <c r="S2" s="165"/>
+      <c r="T2" s="166"/>
+      <c r="U2" s="166"/>
+      <c r="V2" s="166"/>
+      <c r="W2" s="166"/>
+      <c r="X2" s="166"/>
+      <c r="Y2" s="166"/>
+      <c r="Z2" s="167"/>
+      <c r="AA2" s="144" t="s">
         <v>19</v>
       </c>
-      <c r="AB2" s="105"/>
-      <c r="AC2" s="109" t="str">
+      <c r="AB2" s="146"/>
+      <c r="AC2" s="150" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="110"/>
-      <c r="AE2" s="110"/>
-      <c r="AF2" s="111"/>
-      <c r="AG2" s="97">
+      <c r="AD2" s="151"/>
+      <c r="AE2" s="151"/>
+      <c r="AF2" s="152"/>
+      <c r="AG2" s="138">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v>44796</v>
       </c>
-      <c r="AH2" s="98"/>
-      <c r="AI2" s="99"/>
+      <c r="AH2" s="139"/>
+      <c r="AI2" s="140"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
@@ -3778,45 +3706,45 @@
       <c r="AN2" s="1"/>
     </row>
     <row r="3" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="103" t="s">
+      <c r="A3" s="144" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="104"/>
-      <c r="C3" s="104"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="106" t="s">
-        <v>49</v>
-      </c>
-      <c r="F3" s="107"/>
-      <c r="G3" s="107"/>
-      <c r="H3" s="107"/>
-      <c r="I3" s="107"/>
-      <c r="J3" s="107"/>
-      <c r="K3" s="107"/>
-      <c r="L3" s="107"/>
-      <c r="M3" s="107"/>
-      <c r="N3" s="108"/>
-      <c r="O3" s="118"/>
-      <c r="P3" s="119"/>
-      <c r="Q3" s="119"/>
-      <c r="R3" s="120"/>
-      <c r="S3" s="127"/>
-      <c r="T3" s="128"/>
-      <c r="U3" s="128"/>
-      <c r="V3" s="128"/>
-      <c r="W3" s="128"/>
-      <c r="X3" s="128"/>
-      <c r="Y3" s="128"/>
-      <c r="Z3" s="129"/>
-      <c r="AA3" s="103"/>
-      <c r="AB3" s="105"/>
-      <c r="AC3" s="130"/>
-      <c r="AD3" s="131"/>
-      <c r="AE3" s="131"/>
-      <c r="AF3" s="132"/>
-      <c r="AG3" s="97"/>
-      <c r="AH3" s="98"/>
-      <c r="AI3" s="99"/>
+      <c r="B3" s="145"/>
+      <c r="C3" s="145"/>
+      <c r="D3" s="146"/>
+      <c r="E3" s="147" t="s">
+        <v>80</v>
+      </c>
+      <c r="F3" s="148"/>
+      <c r="G3" s="148"/>
+      <c r="H3" s="148"/>
+      <c r="I3" s="148"/>
+      <c r="J3" s="148"/>
+      <c r="K3" s="148"/>
+      <c r="L3" s="148"/>
+      <c r="M3" s="148"/>
+      <c r="N3" s="149"/>
+      <c r="O3" s="159"/>
+      <c r="P3" s="160"/>
+      <c r="Q3" s="160"/>
+      <c r="R3" s="161"/>
+      <c r="S3" s="168"/>
+      <c r="T3" s="169"/>
+      <c r="U3" s="169"/>
+      <c r="V3" s="169"/>
+      <c r="W3" s="169"/>
+      <c r="X3" s="169"/>
+      <c r="Y3" s="169"/>
+      <c r="Z3" s="170"/>
+      <c r="AA3" s="144"/>
+      <c r="AB3" s="146"/>
+      <c r="AC3" s="171"/>
+      <c r="AD3" s="172"/>
+      <c r="AE3" s="172"/>
+      <c r="AF3" s="173"/>
+      <c r="AG3" s="138"/>
+      <c r="AH3" s="139"/>
+      <c r="AI3" s="140"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
@@ -3853,1229 +3781,1073 @@
       <c r="A7" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="100" t="s">
+      <c r="B7" s="141" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="101"/>
-      <c r="D7" s="100" t="s">
+      <c r="C7" s="142"/>
+      <c r="D7" s="141" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="102"/>
-      <c r="F7" s="101"/>
-      <c r="G7" s="100" t="s">
+      <c r="E7" s="143"/>
+      <c r="F7" s="142"/>
+      <c r="G7" s="141" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="102"/>
-      <c r="I7" s="101"/>
-      <c r="J7" s="100" t="s">
+      <c r="H7" s="143"/>
+      <c r="I7" s="142"/>
+      <c r="J7" s="141" t="s">
         <v>26</v>
       </c>
-      <c r="K7" s="102"/>
-      <c r="L7" s="102"/>
-      <c r="M7" s="102"/>
-      <c r="N7" s="102"/>
-      <c r="O7" s="102"/>
-      <c r="P7" s="101"/>
-      <c r="Q7" s="100" t="s">
+      <c r="K7" s="143"/>
+      <c r="L7" s="143"/>
+      <c r="M7" s="143"/>
+      <c r="N7" s="143"/>
+      <c r="O7" s="143"/>
+      <c r="P7" s="142"/>
+      <c r="Q7" s="141" t="s">
         <v>9</v>
       </c>
-      <c r="R7" s="102"/>
-      <c r="S7" s="102"/>
-      <c r="T7" s="102"/>
-      <c r="U7" s="102"/>
-      <c r="V7" s="102"/>
-      <c r="W7" s="102"/>
-      <c r="X7" s="102"/>
-      <c r="Y7" s="102"/>
-      <c r="Z7" s="102"/>
-      <c r="AA7" s="102"/>
-      <c r="AB7" s="102"/>
-      <c r="AC7" s="102"/>
-      <c r="AD7" s="102"/>
-      <c r="AE7" s="101"/>
-      <c r="AF7" s="100" t="s">
+      <c r="R7" s="143"/>
+      <c r="S7" s="143"/>
+      <c r="T7" s="143"/>
+      <c r="U7" s="143"/>
+      <c r="V7" s="143"/>
+      <c r="W7" s="143"/>
+      <c r="X7" s="143"/>
+      <c r="Y7" s="143"/>
+      <c r="Z7" s="143"/>
+      <c r="AA7" s="143"/>
+      <c r="AB7" s="143"/>
+      <c r="AC7" s="143"/>
+      <c r="AD7" s="143"/>
+      <c r="AE7" s="142"/>
+      <c r="AF7" s="141" t="s">
         <v>10</v>
       </c>
-      <c r="AG7" s="102"/>
-      <c r="AH7" s="102"/>
-      <c r="AI7" s="101"/>
+      <c r="AG7" s="143"/>
+      <c r="AH7" s="143"/>
+      <c r="AI7" s="142"/>
     </row>
     <row r="8" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="81">
         <v>1</v>
       </c>
-      <c r="B8" s="147">
+      <c r="B8" s="124">
         <v>1</v>
       </c>
-      <c r="C8" s="148"/>
-      <c r="D8" s="149">
+      <c r="C8" s="125"/>
+      <c r="D8" s="126">
         <v>43592</v>
       </c>
-      <c r="E8" s="150"/>
-      <c r="F8" s="151"/>
-      <c r="G8" s="152" t="s">
+      <c r="E8" s="127"/>
+      <c r="F8" s="128"/>
+      <c r="G8" s="129" t="s">
         <v>42</v>
       </c>
-      <c r="H8" s="153"/>
-      <c r="I8" s="154"/>
-      <c r="J8" s="155" t="s">
+      <c r="H8" s="130"/>
+      <c r="I8" s="131"/>
+      <c r="J8" s="132" t="s">
         <v>43</v>
       </c>
-      <c r="K8" s="156"/>
-      <c r="L8" s="156"/>
-      <c r="M8" s="156"/>
-      <c r="N8" s="156"/>
-      <c r="O8" s="156"/>
-      <c r="P8" s="157"/>
-      <c r="Q8" s="158" t="s">
+      <c r="K8" s="133"/>
+      <c r="L8" s="133"/>
+      <c r="M8" s="133"/>
+      <c r="N8" s="133"/>
+      <c r="O8" s="133"/>
+      <c r="P8" s="134"/>
+      <c r="Q8" s="135" t="s">
         <v>44</v>
       </c>
-      <c r="R8" s="159"/>
-      <c r="S8" s="159"/>
-      <c r="T8" s="159"/>
-      <c r="U8" s="159"/>
-      <c r="V8" s="159"/>
-      <c r="W8" s="159"/>
-      <c r="X8" s="159"/>
-      <c r="Y8" s="159"/>
-      <c r="Z8" s="159"/>
-      <c r="AA8" s="159"/>
-      <c r="AB8" s="159"/>
-      <c r="AC8" s="159"/>
-      <c r="AD8" s="159"/>
-      <c r="AE8" s="160"/>
-      <c r="AF8" s="155" t="s">
-        <v>50</v>
-      </c>
-      <c r="AG8" s="156"/>
-      <c r="AH8" s="156"/>
-      <c r="AI8" s="157"/>
+      <c r="R8" s="136"/>
+      <c r="S8" s="136"/>
+      <c r="T8" s="136"/>
+      <c r="U8" s="136"/>
+      <c r="V8" s="136"/>
+      <c r="W8" s="136"/>
+      <c r="X8" s="136"/>
+      <c r="Y8" s="136"/>
+      <c r="Z8" s="136"/>
+      <c r="AA8" s="136"/>
+      <c r="AB8" s="136"/>
+      <c r="AC8" s="136"/>
+      <c r="AD8" s="136"/>
+      <c r="AE8" s="137"/>
+      <c r="AF8" s="132" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG8" s="133"/>
+      <c r="AH8" s="133"/>
+      <c r="AI8" s="134"/>
     </row>
     <row r="9" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="60">
         <v>2</v>
       </c>
-      <c r="B9" s="133">
+      <c r="B9" s="115">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C9" s="134"/>
-      <c r="D9" s="135">
+      <c r="C9" s="116"/>
+      <c r="D9" s="99">
         <v>43803</v>
       </c>
-      <c r="E9" s="136"/>
-      <c r="F9" s="137"/>
-      <c r="G9" s="138" t="s">
+      <c r="E9" s="100"/>
+      <c r="F9" s="101"/>
+      <c r="G9" s="117" t="s">
+        <v>54</v>
+      </c>
+      <c r="H9" s="118"/>
+      <c r="I9" s="119"/>
+      <c r="J9" s="113" t="s">
         <v>55</v>
       </c>
-      <c r="H9" s="139"/>
-      <c r="I9" s="140"/>
-      <c r="J9" s="141" t="s">
-        <v>56</v>
-      </c>
-      <c r="K9" s="142"/>
-      <c r="L9" s="142"/>
-      <c r="M9" s="142"/>
-      <c r="N9" s="142"/>
-      <c r="O9" s="142"/>
-      <c r="P9" s="143"/>
-      <c r="Q9" s="144" t="s">
-        <v>60</v>
-      </c>
-      <c r="R9" s="145"/>
-      <c r="S9" s="145"/>
-      <c r="T9" s="145"/>
-      <c r="U9" s="145"/>
-      <c r="V9" s="145"/>
-      <c r="W9" s="145"/>
-      <c r="X9" s="145"/>
-      <c r="Y9" s="145"/>
-      <c r="Z9" s="145"/>
-      <c r="AA9" s="145"/>
-      <c r="AB9" s="145"/>
-      <c r="AC9" s="145"/>
-      <c r="AD9" s="145"/>
-      <c r="AE9" s="146"/>
-      <c r="AF9" s="141" t="s">
-        <v>54</v>
-      </c>
-      <c r="AG9" s="142"/>
-      <c r="AH9" s="142"/>
-      <c r="AI9" s="143"/>
+      <c r="K9" s="120"/>
+      <c r="L9" s="120"/>
+      <c r="M9" s="120"/>
+      <c r="N9" s="120"/>
+      <c r="O9" s="120"/>
+      <c r="P9" s="121"/>
+      <c r="Q9" s="114" t="s">
+        <v>59</v>
+      </c>
+      <c r="R9" s="122"/>
+      <c r="S9" s="122"/>
+      <c r="T9" s="122"/>
+      <c r="U9" s="122"/>
+      <c r="V9" s="122"/>
+      <c r="W9" s="122"/>
+      <c r="X9" s="122"/>
+      <c r="Y9" s="122"/>
+      <c r="Z9" s="122"/>
+      <c r="AA9" s="122"/>
+      <c r="AB9" s="122"/>
+      <c r="AC9" s="122"/>
+      <c r="AD9" s="122"/>
+      <c r="AE9" s="123"/>
+      <c r="AF9" s="113" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG9" s="120"/>
+      <c r="AH9" s="120"/>
+      <c r="AI9" s="121"/>
     </row>
     <row r="10" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="60">
         <v>3</v>
       </c>
-      <c r="B10" s="161" t="s">
-        <v>71</v>
-      </c>
-      <c r="C10" s="162"/>
-      <c r="D10" s="135">
+      <c r="B10" s="111" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="98"/>
+      <c r="D10" s="99">
         <v>43895</v>
       </c>
-      <c r="E10" s="136"/>
-      <c r="F10" s="137"/>
-      <c r="G10" s="163" t="s">
+      <c r="E10" s="100"/>
+      <c r="F10" s="101"/>
+      <c r="G10" s="112" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="164"/>
-      <c r="I10" s="165"/>
-      <c r="J10" s="141" t="s">
-        <v>56</v>
-      </c>
-      <c r="K10" s="166"/>
-      <c r="L10" s="166"/>
-      <c r="M10" s="166"/>
-      <c r="N10" s="166"/>
-      <c r="O10" s="166"/>
-      <c r="P10" s="167"/>
-      <c r="Q10" s="144" t="s">
-        <v>70</v>
-      </c>
-      <c r="R10" s="168"/>
-      <c r="S10" s="168"/>
-      <c r="T10" s="168"/>
-      <c r="U10" s="168"/>
-      <c r="V10" s="168"/>
-      <c r="W10" s="168"/>
-      <c r="X10" s="168"/>
-      <c r="Y10" s="168"/>
-      <c r="Z10" s="168"/>
-      <c r="AA10" s="168"/>
-      <c r="AB10" s="168"/>
-      <c r="AC10" s="168"/>
-      <c r="AD10" s="168"/>
-      <c r="AE10" s="169"/>
-      <c r="AF10" s="141" t="s">
-        <v>50</v>
-      </c>
-      <c r="AG10" s="166"/>
-      <c r="AH10" s="166"/>
-      <c r="AI10" s="167"/>
-    </row>
-    <row r="11" spans="1:40" s="13" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H10" s="103"/>
+      <c r="I10" s="104"/>
+      <c r="J10" s="113" t="s">
+        <v>55</v>
+      </c>
+      <c r="K10" s="106"/>
+      <c r="L10" s="106"/>
+      <c r="M10" s="106"/>
+      <c r="N10" s="106"/>
+      <c r="O10" s="106"/>
+      <c r="P10" s="107"/>
+      <c r="Q10" s="114" t="s">
+        <v>69</v>
+      </c>
+      <c r="R10" s="109"/>
+      <c r="S10" s="109"/>
+      <c r="T10" s="109"/>
+      <c r="U10" s="109"/>
+      <c r="V10" s="109"/>
+      <c r="W10" s="109"/>
+      <c r="X10" s="109"/>
+      <c r="Y10" s="109"/>
+      <c r="Z10" s="109"/>
+      <c r="AA10" s="109"/>
+      <c r="AB10" s="109"/>
+      <c r="AC10" s="109"/>
+      <c r="AD10" s="109"/>
+      <c r="AE10" s="110"/>
+      <c r="AF10" s="113" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG10" s="106"/>
+      <c r="AH10" s="106"/>
+      <c r="AI10" s="107"/>
+    </row>
+    <row r="11" spans="1:40" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="60">
         <v>4</v>
       </c>
-      <c r="B11" s="161" t="s">
-        <v>77</v>
-      </c>
-      <c r="C11" s="162"/>
-      <c r="D11" s="135">
+      <c r="B11" s="111" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="98"/>
+      <c r="D11" s="99">
         <v>44796</v>
       </c>
-      <c r="E11" s="136"/>
-      <c r="F11" s="137"/>
-      <c r="G11" s="163" t="s">
+      <c r="E11" s="100"/>
+      <c r="F11" s="101"/>
+      <c r="G11" s="112" t="s">
         <v>4</v>
       </c>
-      <c r="H11" s="164"/>
-      <c r="I11" s="165"/>
-      <c r="J11" s="141" t="s">
-        <v>56</v>
-      </c>
-      <c r="K11" s="166"/>
-      <c r="L11" s="166"/>
-      <c r="M11" s="166"/>
-      <c r="N11" s="166"/>
-      <c r="O11" s="166"/>
-      <c r="P11" s="167"/>
-      <c r="Q11" s="144" t="s">
-        <v>81</v>
-      </c>
-      <c r="R11" s="168"/>
-      <c r="S11" s="168"/>
-      <c r="T11" s="168"/>
-      <c r="U11" s="168"/>
-      <c r="V11" s="168"/>
-      <c r="W11" s="168"/>
-      <c r="X11" s="168"/>
-      <c r="Y11" s="168"/>
-      <c r="Z11" s="168"/>
-      <c r="AA11" s="168"/>
-      <c r="AB11" s="168"/>
-      <c r="AC11" s="168"/>
-      <c r="AD11" s="168"/>
-      <c r="AE11" s="169"/>
-      <c r="AF11" s="141" t="s">
-        <v>50</v>
-      </c>
-      <c r="AG11" s="166"/>
-      <c r="AH11" s="166"/>
-      <c r="AI11" s="167"/>
+      <c r="H11" s="103"/>
+      <c r="I11" s="104"/>
+      <c r="J11" s="113" t="s">
+        <v>55</v>
+      </c>
+      <c r="K11" s="106"/>
+      <c r="L11" s="106"/>
+      <c r="M11" s="106"/>
+      <c r="N11" s="106"/>
+      <c r="O11" s="106"/>
+      <c r="P11" s="107"/>
+      <c r="Q11" s="114" t="s">
+        <v>79</v>
+      </c>
+      <c r="R11" s="109"/>
+      <c r="S11" s="109"/>
+      <c r="T11" s="109"/>
+      <c r="U11" s="109"/>
+      <c r="V11" s="109"/>
+      <c r="W11" s="109"/>
+      <c r="X11" s="109"/>
+      <c r="Y11" s="109"/>
+      <c r="Z11" s="109"/>
+      <c r="AA11" s="109"/>
+      <c r="AB11" s="109"/>
+      <c r="AC11" s="109"/>
+      <c r="AD11" s="109"/>
+      <c r="AE11" s="110"/>
+      <c r="AF11" s="113" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG11" s="106"/>
+      <c r="AH11" s="106"/>
+      <c r="AI11" s="107"/>
     </row>
     <row r="12" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="60"/>
-      <c r="B12" s="170"/>
-      <c r="C12" s="162"/>
-      <c r="D12" s="135"/>
-      <c r="E12" s="136"/>
-      <c r="F12" s="137"/>
-      <c r="G12" s="171"/>
-      <c r="H12" s="164"/>
-      <c r="I12" s="165"/>
-      <c r="J12" s="172"/>
-      <c r="K12" s="166"/>
-      <c r="L12" s="166"/>
-      <c r="M12" s="166"/>
-      <c r="N12" s="166"/>
-      <c r="O12" s="166"/>
-      <c r="P12" s="167"/>
-      <c r="Q12" s="173"/>
-      <c r="R12" s="168"/>
-      <c r="S12" s="168"/>
-      <c r="T12" s="168"/>
-      <c r="U12" s="168"/>
-      <c r="V12" s="168"/>
-      <c r="W12" s="168"/>
-      <c r="X12" s="168"/>
-      <c r="Y12" s="168"/>
-      <c r="Z12" s="168"/>
-      <c r="AA12" s="168"/>
-      <c r="AB12" s="168"/>
-      <c r="AC12" s="168"/>
-      <c r="AD12" s="168"/>
-      <c r="AE12" s="169"/>
-      <c r="AF12" s="172"/>
-      <c r="AG12" s="166"/>
-      <c r="AH12" s="166"/>
-      <c r="AI12" s="167"/>
+      <c r="B12" s="97"/>
+      <c r="C12" s="98"/>
+      <c r="D12" s="99"/>
+      <c r="E12" s="100"/>
+      <c r="F12" s="101"/>
+      <c r="G12" s="102"/>
+      <c r="H12" s="103"/>
+      <c r="I12" s="104"/>
+      <c r="J12" s="105"/>
+      <c r="K12" s="106"/>
+      <c r="L12" s="106"/>
+      <c r="M12" s="106"/>
+      <c r="N12" s="106"/>
+      <c r="O12" s="106"/>
+      <c r="P12" s="107"/>
+      <c r="Q12" s="108"/>
+      <c r="R12" s="109"/>
+      <c r="S12" s="109"/>
+      <c r="T12" s="109"/>
+      <c r="U12" s="109"/>
+      <c r="V12" s="109"/>
+      <c r="W12" s="109"/>
+      <c r="X12" s="109"/>
+      <c r="Y12" s="109"/>
+      <c r="Z12" s="109"/>
+      <c r="AA12" s="109"/>
+      <c r="AB12" s="109"/>
+      <c r="AC12" s="109"/>
+      <c r="AD12" s="109"/>
+      <c r="AE12" s="110"/>
+      <c r="AF12" s="105"/>
+      <c r="AG12" s="106"/>
+      <c r="AH12" s="106"/>
+      <c r="AI12" s="107"/>
     </row>
     <row r="13" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="60"/>
-      <c r="B13" s="170"/>
-      <c r="C13" s="162"/>
-      <c r="D13" s="135"/>
-      <c r="E13" s="136"/>
-      <c r="F13" s="137"/>
-      <c r="G13" s="171"/>
-      <c r="H13" s="164"/>
-      <c r="I13" s="165"/>
-      <c r="J13" s="172"/>
-      <c r="K13" s="166"/>
-      <c r="L13" s="166"/>
-      <c r="M13" s="166"/>
-      <c r="N13" s="166"/>
-      <c r="O13" s="166"/>
-      <c r="P13" s="167"/>
-      <c r="Q13" s="173"/>
-      <c r="R13" s="168"/>
-      <c r="S13" s="168"/>
-      <c r="T13" s="168"/>
-      <c r="U13" s="168"/>
-      <c r="V13" s="168"/>
-      <c r="W13" s="168"/>
-      <c r="X13" s="168"/>
-      <c r="Y13" s="168"/>
-      <c r="Z13" s="168"/>
-      <c r="AA13" s="168"/>
-      <c r="AB13" s="168"/>
-      <c r="AC13" s="168"/>
-      <c r="AD13" s="168"/>
-      <c r="AE13" s="169"/>
-      <c r="AF13" s="172"/>
-      <c r="AG13" s="166"/>
-      <c r="AH13" s="166"/>
-      <c r="AI13" s="167"/>
+      <c r="B13" s="97"/>
+      <c r="C13" s="98"/>
+      <c r="D13" s="99"/>
+      <c r="E13" s="100"/>
+      <c r="F13" s="101"/>
+      <c r="G13" s="102"/>
+      <c r="H13" s="103"/>
+      <c r="I13" s="104"/>
+      <c r="J13" s="105"/>
+      <c r="K13" s="106"/>
+      <c r="L13" s="106"/>
+      <c r="M13" s="106"/>
+      <c r="N13" s="106"/>
+      <c r="O13" s="106"/>
+      <c r="P13" s="107"/>
+      <c r="Q13" s="108"/>
+      <c r="R13" s="109"/>
+      <c r="S13" s="109"/>
+      <c r="T13" s="109"/>
+      <c r="U13" s="109"/>
+      <c r="V13" s="109"/>
+      <c r="W13" s="109"/>
+      <c r="X13" s="109"/>
+      <c r="Y13" s="109"/>
+      <c r="Z13" s="109"/>
+      <c r="AA13" s="109"/>
+      <c r="AB13" s="109"/>
+      <c r="AC13" s="109"/>
+      <c r="AD13" s="109"/>
+      <c r="AE13" s="110"/>
+      <c r="AF13" s="105"/>
+      <c r="AG13" s="106"/>
+      <c r="AH13" s="106"/>
+      <c r="AI13" s="107"/>
     </row>
     <row r="14" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="60"/>
-      <c r="B14" s="170"/>
-      <c r="C14" s="162"/>
-      <c r="D14" s="135"/>
-      <c r="E14" s="136"/>
-      <c r="F14" s="137"/>
-      <c r="G14" s="171"/>
-      <c r="H14" s="164"/>
-      <c r="I14" s="165"/>
-      <c r="J14" s="172"/>
-      <c r="K14" s="166"/>
-      <c r="L14" s="166"/>
-      <c r="M14" s="166"/>
-      <c r="N14" s="166"/>
-      <c r="O14" s="166"/>
-      <c r="P14" s="167"/>
-      <c r="Q14" s="173"/>
-      <c r="R14" s="168"/>
-      <c r="S14" s="168"/>
-      <c r="T14" s="168"/>
-      <c r="U14" s="168"/>
-      <c r="V14" s="168"/>
-      <c r="W14" s="168"/>
-      <c r="X14" s="168"/>
-      <c r="Y14" s="168"/>
-      <c r="Z14" s="168"/>
-      <c r="AA14" s="168"/>
-      <c r="AB14" s="168"/>
-      <c r="AC14" s="168"/>
-      <c r="AD14" s="168"/>
-      <c r="AE14" s="169"/>
-      <c r="AF14" s="172"/>
-      <c r="AG14" s="166"/>
-      <c r="AH14" s="166"/>
-      <c r="AI14" s="167"/>
+      <c r="B14" s="97"/>
+      <c r="C14" s="98"/>
+      <c r="D14" s="99"/>
+      <c r="E14" s="100"/>
+      <c r="F14" s="101"/>
+      <c r="G14" s="102"/>
+      <c r="H14" s="103"/>
+      <c r="I14" s="104"/>
+      <c r="J14" s="105"/>
+      <c r="K14" s="106"/>
+      <c r="L14" s="106"/>
+      <c r="M14" s="106"/>
+      <c r="N14" s="106"/>
+      <c r="O14" s="106"/>
+      <c r="P14" s="107"/>
+      <c r="Q14" s="108"/>
+      <c r="R14" s="109"/>
+      <c r="S14" s="109"/>
+      <c r="T14" s="109"/>
+      <c r="U14" s="109"/>
+      <c r="V14" s="109"/>
+      <c r="W14" s="109"/>
+      <c r="X14" s="109"/>
+      <c r="Y14" s="109"/>
+      <c r="Z14" s="109"/>
+      <c r="AA14" s="109"/>
+      <c r="AB14" s="109"/>
+      <c r="AC14" s="109"/>
+      <c r="AD14" s="109"/>
+      <c r="AE14" s="110"/>
+      <c r="AF14" s="105"/>
+      <c r="AG14" s="106"/>
+      <c r="AH14" s="106"/>
+      <c r="AI14" s="107"/>
     </row>
     <row r="15" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="60"/>
-      <c r="B15" s="170"/>
-      <c r="C15" s="162"/>
-      <c r="D15" s="135"/>
-      <c r="E15" s="136"/>
-      <c r="F15" s="137"/>
-      <c r="G15" s="171"/>
-      <c r="H15" s="164"/>
-      <c r="I15" s="165"/>
-      <c r="J15" s="172"/>
-      <c r="K15" s="166"/>
-      <c r="L15" s="166"/>
-      <c r="M15" s="166"/>
-      <c r="N15" s="166"/>
-      <c r="O15" s="166"/>
-      <c r="P15" s="167"/>
-      <c r="Q15" s="173"/>
-      <c r="R15" s="168"/>
-      <c r="S15" s="168"/>
-      <c r="T15" s="168"/>
-      <c r="U15" s="168"/>
-      <c r="V15" s="168"/>
-      <c r="W15" s="168"/>
-      <c r="X15" s="168"/>
-      <c r="Y15" s="168"/>
-      <c r="Z15" s="168"/>
-      <c r="AA15" s="168"/>
-      <c r="AB15" s="168"/>
-      <c r="AC15" s="168"/>
-      <c r="AD15" s="168"/>
-      <c r="AE15" s="169"/>
-      <c r="AF15" s="172"/>
-      <c r="AG15" s="166"/>
-      <c r="AH15" s="166"/>
-      <c r="AI15" s="167"/>
+      <c r="B15" s="97"/>
+      <c r="C15" s="98"/>
+      <c r="D15" s="99"/>
+      <c r="E15" s="100"/>
+      <c r="F15" s="101"/>
+      <c r="G15" s="102"/>
+      <c r="H15" s="103"/>
+      <c r="I15" s="104"/>
+      <c r="J15" s="105"/>
+      <c r="K15" s="106"/>
+      <c r="L15" s="106"/>
+      <c r="M15" s="106"/>
+      <c r="N15" s="106"/>
+      <c r="O15" s="106"/>
+      <c r="P15" s="107"/>
+      <c r="Q15" s="108"/>
+      <c r="R15" s="109"/>
+      <c r="S15" s="109"/>
+      <c r="T15" s="109"/>
+      <c r="U15" s="109"/>
+      <c r="V15" s="109"/>
+      <c r="W15" s="109"/>
+      <c r="X15" s="109"/>
+      <c r="Y15" s="109"/>
+      <c r="Z15" s="109"/>
+      <c r="AA15" s="109"/>
+      <c r="AB15" s="109"/>
+      <c r="AC15" s="109"/>
+      <c r="AD15" s="109"/>
+      <c r="AE15" s="110"/>
+      <c r="AF15" s="105"/>
+      <c r="AG15" s="106"/>
+      <c r="AH15" s="106"/>
+      <c r="AI15" s="107"/>
     </row>
     <row r="16" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="60"/>
-      <c r="B16" s="170"/>
-      <c r="C16" s="162"/>
-      <c r="D16" s="135"/>
-      <c r="E16" s="136"/>
-      <c r="F16" s="137"/>
-      <c r="G16" s="171"/>
-      <c r="H16" s="164"/>
-      <c r="I16" s="165"/>
-      <c r="J16" s="172"/>
-      <c r="K16" s="166"/>
-      <c r="L16" s="166"/>
-      <c r="M16" s="166"/>
-      <c r="N16" s="166"/>
-      <c r="O16" s="166"/>
-      <c r="P16" s="167"/>
-      <c r="Q16" s="173"/>
-      <c r="R16" s="168"/>
-      <c r="S16" s="168"/>
-      <c r="T16" s="168"/>
-      <c r="U16" s="168"/>
-      <c r="V16" s="168"/>
-      <c r="W16" s="168"/>
-      <c r="X16" s="168"/>
-      <c r="Y16" s="168"/>
-      <c r="Z16" s="168"/>
-      <c r="AA16" s="168"/>
-      <c r="AB16" s="168"/>
-      <c r="AC16" s="168"/>
-      <c r="AD16" s="168"/>
-      <c r="AE16" s="169"/>
-      <c r="AF16" s="172"/>
-      <c r="AG16" s="166"/>
-      <c r="AH16" s="166"/>
-      <c r="AI16" s="167"/>
+      <c r="B16" s="97"/>
+      <c r="C16" s="98"/>
+      <c r="D16" s="99"/>
+      <c r="E16" s="100"/>
+      <c r="F16" s="101"/>
+      <c r="G16" s="102"/>
+      <c r="H16" s="103"/>
+      <c r="I16" s="104"/>
+      <c r="J16" s="105"/>
+      <c r="K16" s="106"/>
+      <c r="L16" s="106"/>
+      <c r="M16" s="106"/>
+      <c r="N16" s="106"/>
+      <c r="O16" s="106"/>
+      <c r="P16" s="107"/>
+      <c r="Q16" s="108"/>
+      <c r="R16" s="109"/>
+      <c r="S16" s="109"/>
+      <c r="T16" s="109"/>
+      <c r="U16" s="109"/>
+      <c r="V16" s="109"/>
+      <c r="W16" s="109"/>
+      <c r="X16" s="109"/>
+      <c r="Y16" s="109"/>
+      <c r="Z16" s="109"/>
+      <c r="AA16" s="109"/>
+      <c r="AB16" s="109"/>
+      <c r="AC16" s="109"/>
+      <c r="AD16" s="109"/>
+      <c r="AE16" s="110"/>
+      <c r="AF16" s="105"/>
+      <c r="AG16" s="106"/>
+      <c r="AH16" s="106"/>
+      <c r="AI16" s="107"/>
     </row>
     <row r="17" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="60"/>
-      <c r="B17" s="170"/>
-      <c r="C17" s="162"/>
-      <c r="D17" s="135"/>
-      <c r="E17" s="136"/>
-      <c r="F17" s="137"/>
-      <c r="G17" s="171"/>
-      <c r="H17" s="164"/>
-      <c r="I17" s="165"/>
-      <c r="J17" s="172"/>
-      <c r="K17" s="166"/>
-      <c r="L17" s="166"/>
-      <c r="M17" s="166"/>
-      <c r="N17" s="166"/>
-      <c r="O17" s="166"/>
-      <c r="P17" s="167"/>
-      <c r="Q17" s="173"/>
-      <c r="R17" s="168"/>
-      <c r="S17" s="168"/>
-      <c r="T17" s="168"/>
-      <c r="U17" s="168"/>
-      <c r="V17" s="168"/>
-      <c r="W17" s="168"/>
-      <c r="X17" s="168"/>
-      <c r="Y17" s="168"/>
-      <c r="Z17" s="168"/>
-      <c r="AA17" s="168"/>
-      <c r="AB17" s="168"/>
-      <c r="AC17" s="168"/>
-      <c r="AD17" s="168"/>
-      <c r="AE17" s="169"/>
-      <c r="AF17" s="172"/>
-      <c r="AG17" s="166"/>
-      <c r="AH17" s="166"/>
-      <c r="AI17" s="167"/>
+      <c r="B17" s="97"/>
+      <c r="C17" s="98"/>
+      <c r="D17" s="99"/>
+      <c r="E17" s="100"/>
+      <c r="F17" s="101"/>
+      <c r="G17" s="102"/>
+      <c r="H17" s="103"/>
+      <c r="I17" s="104"/>
+      <c r="J17" s="105"/>
+      <c r="K17" s="106"/>
+      <c r="L17" s="106"/>
+      <c r="M17" s="106"/>
+      <c r="N17" s="106"/>
+      <c r="O17" s="106"/>
+      <c r="P17" s="107"/>
+      <c r="Q17" s="108"/>
+      <c r="R17" s="109"/>
+      <c r="S17" s="109"/>
+      <c r="T17" s="109"/>
+      <c r="U17" s="109"/>
+      <c r="V17" s="109"/>
+      <c r="W17" s="109"/>
+      <c r="X17" s="109"/>
+      <c r="Y17" s="109"/>
+      <c r="Z17" s="109"/>
+      <c r="AA17" s="109"/>
+      <c r="AB17" s="109"/>
+      <c r="AC17" s="109"/>
+      <c r="AD17" s="109"/>
+      <c r="AE17" s="110"/>
+      <c r="AF17" s="105"/>
+      <c r="AG17" s="106"/>
+      <c r="AH17" s="106"/>
+      <c r="AI17" s="107"/>
     </row>
     <row r="18" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="60"/>
-      <c r="B18" s="170"/>
-      <c r="C18" s="162"/>
-      <c r="D18" s="135"/>
-      <c r="E18" s="136"/>
-      <c r="F18" s="137"/>
-      <c r="G18" s="171"/>
-      <c r="H18" s="164"/>
-      <c r="I18" s="165"/>
-      <c r="J18" s="172"/>
-      <c r="K18" s="166"/>
-      <c r="L18" s="166"/>
-      <c r="M18" s="166"/>
-      <c r="N18" s="166"/>
-      <c r="O18" s="166"/>
-      <c r="P18" s="167"/>
-      <c r="Q18" s="173"/>
-      <c r="R18" s="168"/>
-      <c r="S18" s="168"/>
-      <c r="T18" s="168"/>
-      <c r="U18" s="168"/>
-      <c r="V18" s="168"/>
-      <c r="W18" s="168"/>
-      <c r="X18" s="168"/>
-      <c r="Y18" s="168"/>
-      <c r="Z18" s="168"/>
-      <c r="AA18" s="168"/>
-      <c r="AB18" s="168"/>
-      <c r="AC18" s="168"/>
-      <c r="AD18" s="168"/>
-      <c r="AE18" s="169"/>
-      <c r="AF18" s="172"/>
-      <c r="AG18" s="166"/>
-      <c r="AH18" s="166"/>
-      <c r="AI18" s="167"/>
+      <c r="B18" s="97"/>
+      <c r="C18" s="98"/>
+      <c r="D18" s="99"/>
+      <c r="E18" s="100"/>
+      <c r="F18" s="101"/>
+      <c r="G18" s="102"/>
+      <c r="H18" s="103"/>
+      <c r="I18" s="104"/>
+      <c r="J18" s="105"/>
+      <c r="K18" s="106"/>
+      <c r="L18" s="106"/>
+      <c r="M18" s="106"/>
+      <c r="N18" s="106"/>
+      <c r="O18" s="106"/>
+      <c r="P18" s="107"/>
+      <c r="Q18" s="108"/>
+      <c r="R18" s="109"/>
+      <c r="S18" s="109"/>
+      <c r="T18" s="109"/>
+      <c r="U18" s="109"/>
+      <c r="V18" s="109"/>
+      <c r="W18" s="109"/>
+      <c r="X18" s="109"/>
+      <c r="Y18" s="109"/>
+      <c r="Z18" s="109"/>
+      <c r="AA18" s="109"/>
+      <c r="AB18" s="109"/>
+      <c r="AC18" s="109"/>
+      <c r="AD18" s="109"/>
+      <c r="AE18" s="110"/>
+      <c r="AF18" s="105"/>
+      <c r="AG18" s="106"/>
+      <c r="AH18" s="106"/>
+      <c r="AI18" s="107"/>
     </row>
     <row r="19" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="60"/>
-      <c r="B19" s="170"/>
-      <c r="C19" s="162"/>
-      <c r="D19" s="135"/>
-      <c r="E19" s="136"/>
-      <c r="F19" s="137"/>
-      <c r="G19" s="171"/>
-      <c r="H19" s="164"/>
-      <c r="I19" s="165"/>
-      <c r="J19" s="172"/>
-      <c r="K19" s="166"/>
-      <c r="L19" s="166"/>
-      <c r="M19" s="166"/>
-      <c r="N19" s="166"/>
-      <c r="O19" s="166"/>
-      <c r="P19" s="167"/>
-      <c r="Q19" s="173"/>
-      <c r="R19" s="168"/>
-      <c r="S19" s="168"/>
-      <c r="T19" s="168"/>
-      <c r="U19" s="168"/>
-      <c r="V19" s="168"/>
-      <c r="W19" s="168"/>
-      <c r="X19" s="168"/>
-      <c r="Y19" s="168"/>
-      <c r="Z19" s="168"/>
-      <c r="AA19" s="168"/>
-      <c r="AB19" s="168"/>
-      <c r="AC19" s="168"/>
-      <c r="AD19" s="168"/>
-      <c r="AE19" s="169"/>
-      <c r="AF19" s="172"/>
-      <c r="AG19" s="166"/>
-      <c r="AH19" s="166"/>
-      <c r="AI19" s="167"/>
+      <c r="B19" s="97"/>
+      <c r="C19" s="98"/>
+      <c r="D19" s="99"/>
+      <c r="E19" s="100"/>
+      <c r="F19" s="101"/>
+      <c r="G19" s="102"/>
+      <c r="H19" s="103"/>
+      <c r="I19" s="104"/>
+      <c r="J19" s="105"/>
+      <c r="K19" s="106"/>
+      <c r="L19" s="106"/>
+      <c r="M19" s="106"/>
+      <c r="N19" s="106"/>
+      <c r="O19" s="106"/>
+      <c r="P19" s="107"/>
+      <c r="Q19" s="108"/>
+      <c r="R19" s="109"/>
+      <c r="S19" s="109"/>
+      <c r="T19" s="109"/>
+      <c r="U19" s="109"/>
+      <c r="V19" s="109"/>
+      <c r="W19" s="109"/>
+      <c r="X19" s="109"/>
+      <c r="Y19" s="109"/>
+      <c r="Z19" s="109"/>
+      <c r="AA19" s="109"/>
+      <c r="AB19" s="109"/>
+      <c r="AC19" s="109"/>
+      <c r="AD19" s="109"/>
+      <c r="AE19" s="110"/>
+      <c r="AF19" s="105"/>
+      <c r="AG19" s="106"/>
+      <c r="AH19" s="106"/>
+      <c r="AI19" s="107"/>
     </row>
     <row r="20" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="60"/>
-      <c r="B20" s="170"/>
-      <c r="C20" s="162"/>
-      <c r="D20" s="135"/>
-      <c r="E20" s="136"/>
-      <c r="F20" s="137"/>
-      <c r="G20" s="171"/>
-      <c r="H20" s="164"/>
-      <c r="I20" s="165"/>
-      <c r="J20" s="172"/>
-      <c r="K20" s="166"/>
-      <c r="L20" s="166"/>
-      <c r="M20" s="166"/>
-      <c r="N20" s="166"/>
-      <c r="O20" s="166"/>
-      <c r="P20" s="167"/>
-      <c r="Q20" s="173"/>
-      <c r="R20" s="168"/>
-      <c r="S20" s="168"/>
-      <c r="T20" s="168"/>
-      <c r="U20" s="168"/>
-      <c r="V20" s="168"/>
-      <c r="W20" s="168"/>
-      <c r="X20" s="168"/>
-      <c r="Y20" s="168"/>
-      <c r="Z20" s="168"/>
-      <c r="AA20" s="168"/>
-      <c r="AB20" s="168"/>
-      <c r="AC20" s="168"/>
-      <c r="AD20" s="168"/>
-      <c r="AE20" s="169"/>
-      <c r="AF20" s="172"/>
-      <c r="AG20" s="166"/>
-      <c r="AH20" s="166"/>
-      <c r="AI20" s="167"/>
+      <c r="B20" s="97"/>
+      <c r="C20" s="98"/>
+      <c r="D20" s="99"/>
+      <c r="E20" s="100"/>
+      <c r="F20" s="101"/>
+      <c r="G20" s="102"/>
+      <c r="H20" s="103"/>
+      <c r="I20" s="104"/>
+      <c r="J20" s="105"/>
+      <c r="K20" s="106"/>
+      <c r="L20" s="106"/>
+      <c r="M20" s="106"/>
+      <c r="N20" s="106"/>
+      <c r="O20" s="106"/>
+      <c r="P20" s="107"/>
+      <c r="Q20" s="108"/>
+      <c r="R20" s="109"/>
+      <c r="S20" s="109"/>
+      <c r="T20" s="109"/>
+      <c r="U20" s="109"/>
+      <c r="V20" s="109"/>
+      <c r="W20" s="109"/>
+      <c r="X20" s="109"/>
+      <c r="Y20" s="109"/>
+      <c r="Z20" s="109"/>
+      <c r="AA20" s="109"/>
+      <c r="AB20" s="109"/>
+      <c r="AC20" s="109"/>
+      <c r="AD20" s="109"/>
+      <c r="AE20" s="110"/>
+      <c r="AF20" s="105"/>
+      <c r="AG20" s="106"/>
+      <c r="AH20" s="106"/>
+      <c r="AI20" s="107"/>
     </row>
     <row r="21" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="60"/>
-      <c r="B21" s="170"/>
-      <c r="C21" s="162"/>
-      <c r="D21" s="135"/>
-      <c r="E21" s="136"/>
-      <c r="F21" s="137"/>
-      <c r="G21" s="171"/>
-      <c r="H21" s="164"/>
-      <c r="I21" s="165"/>
-      <c r="J21" s="172"/>
-      <c r="K21" s="166"/>
-      <c r="L21" s="166"/>
-      <c r="M21" s="166"/>
-      <c r="N21" s="166"/>
-      <c r="O21" s="166"/>
-      <c r="P21" s="167"/>
-      <c r="Q21" s="173"/>
-      <c r="R21" s="168"/>
-      <c r="S21" s="168"/>
-      <c r="T21" s="168"/>
-      <c r="U21" s="168"/>
-      <c r="V21" s="168"/>
-      <c r="W21" s="168"/>
-      <c r="X21" s="168"/>
-      <c r="Y21" s="168"/>
-      <c r="Z21" s="168"/>
-      <c r="AA21" s="168"/>
-      <c r="AB21" s="168"/>
-      <c r="AC21" s="168"/>
-      <c r="AD21" s="168"/>
-      <c r="AE21" s="169"/>
-      <c r="AF21" s="172"/>
-      <c r="AG21" s="166"/>
-      <c r="AH21" s="166"/>
-      <c r="AI21" s="167"/>
+      <c r="B21" s="97"/>
+      <c r="C21" s="98"/>
+      <c r="D21" s="99"/>
+      <c r="E21" s="100"/>
+      <c r="F21" s="101"/>
+      <c r="G21" s="102"/>
+      <c r="H21" s="103"/>
+      <c r="I21" s="104"/>
+      <c r="J21" s="105"/>
+      <c r="K21" s="106"/>
+      <c r="L21" s="106"/>
+      <c r="M21" s="106"/>
+      <c r="N21" s="106"/>
+      <c r="O21" s="106"/>
+      <c r="P21" s="107"/>
+      <c r="Q21" s="108"/>
+      <c r="R21" s="109"/>
+      <c r="S21" s="109"/>
+      <c r="T21" s="109"/>
+      <c r="U21" s="109"/>
+      <c r="V21" s="109"/>
+      <c r="W21" s="109"/>
+      <c r="X21" s="109"/>
+      <c r="Y21" s="109"/>
+      <c r="Z21" s="109"/>
+      <c r="AA21" s="109"/>
+      <c r="AB21" s="109"/>
+      <c r="AC21" s="109"/>
+      <c r="AD21" s="109"/>
+      <c r="AE21" s="110"/>
+      <c r="AF21" s="105"/>
+      <c r="AG21" s="106"/>
+      <c r="AH21" s="106"/>
+      <c r="AI21" s="107"/>
     </row>
     <row r="22" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="60"/>
-      <c r="B22" s="170"/>
-      <c r="C22" s="162"/>
-      <c r="D22" s="135"/>
-      <c r="E22" s="136"/>
-      <c r="F22" s="137"/>
-      <c r="G22" s="171"/>
-      <c r="H22" s="164"/>
-      <c r="I22" s="165"/>
-      <c r="J22" s="172"/>
-      <c r="K22" s="166"/>
-      <c r="L22" s="166"/>
-      <c r="M22" s="166"/>
-      <c r="N22" s="166"/>
-      <c r="O22" s="166"/>
-      <c r="P22" s="167"/>
-      <c r="Q22" s="173"/>
-      <c r="R22" s="168"/>
-      <c r="S22" s="168"/>
-      <c r="T22" s="168"/>
-      <c r="U22" s="168"/>
-      <c r="V22" s="168"/>
-      <c r="W22" s="168"/>
-      <c r="X22" s="168"/>
-      <c r="Y22" s="168"/>
-      <c r="Z22" s="168"/>
-      <c r="AA22" s="168"/>
-      <c r="AB22" s="168"/>
-      <c r="AC22" s="168"/>
-      <c r="AD22" s="168"/>
-      <c r="AE22" s="169"/>
-      <c r="AF22" s="172"/>
-      <c r="AG22" s="166"/>
-      <c r="AH22" s="166"/>
-      <c r="AI22" s="167"/>
+      <c r="B22" s="97"/>
+      <c r="C22" s="98"/>
+      <c r="D22" s="99"/>
+      <c r="E22" s="100"/>
+      <c r="F22" s="101"/>
+      <c r="G22" s="102"/>
+      <c r="H22" s="103"/>
+      <c r="I22" s="104"/>
+      <c r="J22" s="105"/>
+      <c r="K22" s="106"/>
+      <c r="L22" s="106"/>
+      <c r="M22" s="106"/>
+      <c r="N22" s="106"/>
+      <c r="O22" s="106"/>
+      <c r="P22" s="107"/>
+      <c r="Q22" s="108"/>
+      <c r="R22" s="109"/>
+      <c r="S22" s="109"/>
+      <c r="T22" s="109"/>
+      <c r="U22" s="109"/>
+      <c r="V22" s="109"/>
+      <c r="W22" s="109"/>
+      <c r="X22" s="109"/>
+      <c r="Y22" s="109"/>
+      <c r="Z22" s="109"/>
+      <c r="AA22" s="109"/>
+      <c r="AB22" s="109"/>
+      <c r="AC22" s="109"/>
+      <c r="AD22" s="109"/>
+      <c r="AE22" s="110"/>
+      <c r="AF22" s="105"/>
+      <c r="AG22" s="106"/>
+      <c r="AH22" s="106"/>
+      <c r="AI22" s="107"/>
     </row>
     <row r="23" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="60"/>
-      <c r="B23" s="170"/>
-      <c r="C23" s="162"/>
-      <c r="D23" s="135"/>
-      <c r="E23" s="136"/>
-      <c r="F23" s="137"/>
-      <c r="G23" s="171"/>
-      <c r="H23" s="164"/>
-      <c r="I23" s="165"/>
-      <c r="J23" s="172"/>
-      <c r="K23" s="166"/>
-      <c r="L23" s="166"/>
-      <c r="M23" s="166"/>
-      <c r="N23" s="166"/>
-      <c r="O23" s="166"/>
-      <c r="P23" s="167"/>
-      <c r="Q23" s="173"/>
-      <c r="R23" s="168"/>
-      <c r="S23" s="168"/>
-      <c r="T23" s="168"/>
-      <c r="U23" s="168"/>
-      <c r="V23" s="168"/>
-      <c r="W23" s="168"/>
-      <c r="X23" s="168"/>
-      <c r="Y23" s="168"/>
-      <c r="Z23" s="168"/>
-      <c r="AA23" s="168"/>
-      <c r="AB23" s="168"/>
-      <c r="AC23" s="168"/>
-      <c r="AD23" s="168"/>
-      <c r="AE23" s="169"/>
-      <c r="AF23" s="172"/>
-      <c r="AG23" s="166"/>
-      <c r="AH23" s="166"/>
-      <c r="AI23" s="167"/>
+      <c r="B23" s="97"/>
+      <c r="C23" s="98"/>
+      <c r="D23" s="99"/>
+      <c r="E23" s="100"/>
+      <c r="F23" s="101"/>
+      <c r="G23" s="102"/>
+      <c r="H23" s="103"/>
+      <c r="I23" s="104"/>
+      <c r="J23" s="105"/>
+      <c r="K23" s="106"/>
+      <c r="L23" s="106"/>
+      <c r="M23" s="106"/>
+      <c r="N23" s="106"/>
+      <c r="O23" s="106"/>
+      <c r="P23" s="107"/>
+      <c r="Q23" s="108"/>
+      <c r="R23" s="109"/>
+      <c r="S23" s="109"/>
+      <c r="T23" s="109"/>
+      <c r="U23" s="109"/>
+      <c r="V23" s="109"/>
+      <c r="W23" s="109"/>
+      <c r="X23" s="109"/>
+      <c r="Y23" s="109"/>
+      <c r="Z23" s="109"/>
+      <c r="AA23" s="109"/>
+      <c r="AB23" s="109"/>
+      <c r="AC23" s="109"/>
+      <c r="AD23" s="109"/>
+      <c r="AE23" s="110"/>
+      <c r="AF23" s="105"/>
+      <c r="AG23" s="106"/>
+      <c r="AH23" s="106"/>
+      <c r="AI23" s="107"/>
     </row>
     <row r="24" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="60"/>
-      <c r="B24" s="170"/>
-      <c r="C24" s="162"/>
-      <c r="D24" s="135"/>
-      <c r="E24" s="136"/>
-      <c r="F24" s="137"/>
-      <c r="G24" s="171"/>
-      <c r="H24" s="164"/>
-      <c r="I24" s="165"/>
-      <c r="J24" s="172"/>
-      <c r="K24" s="166"/>
-      <c r="L24" s="166"/>
-      <c r="M24" s="166"/>
-      <c r="N24" s="166"/>
-      <c r="O24" s="166"/>
-      <c r="P24" s="167"/>
-      <c r="Q24" s="173"/>
-      <c r="R24" s="168"/>
-      <c r="S24" s="168"/>
-      <c r="T24" s="168"/>
-      <c r="U24" s="168"/>
-      <c r="V24" s="168"/>
-      <c r="W24" s="168"/>
-      <c r="X24" s="168"/>
-      <c r="Y24" s="168"/>
-      <c r="Z24" s="168"/>
-      <c r="AA24" s="168"/>
-      <c r="AB24" s="168"/>
-      <c r="AC24" s="168"/>
-      <c r="AD24" s="168"/>
-      <c r="AE24" s="169"/>
-      <c r="AF24" s="172"/>
-      <c r="AG24" s="166"/>
-      <c r="AH24" s="166"/>
-      <c r="AI24" s="167"/>
+      <c r="B24" s="97"/>
+      <c r="C24" s="98"/>
+      <c r="D24" s="99"/>
+      <c r="E24" s="100"/>
+      <c r="F24" s="101"/>
+      <c r="G24" s="102"/>
+      <c r="H24" s="103"/>
+      <c r="I24" s="104"/>
+      <c r="J24" s="105"/>
+      <c r="K24" s="106"/>
+      <c r="L24" s="106"/>
+      <c r="M24" s="106"/>
+      <c r="N24" s="106"/>
+      <c r="O24" s="106"/>
+      <c r="P24" s="107"/>
+      <c r="Q24" s="108"/>
+      <c r="R24" s="109"/>
+      <c r="S24" s="109"/>
+      <c r="T24" s="109"/>
+      <c r="U24" s="109"/>
+      <c r="V24" s="109"/>
+      <c r="W24" s="109"/>
+      <c r="X24" s="109"/>
+      <c r="Y24" s="109"/>
+      <c r="Z24" s="109"/>
+      <c r="AA24" s="109"/>
+      <c r="AB24" s="109"/>
+      <c r="AC24" s="109"/>
+      <c r="AD24" s="109"/>
+      <c r="AE24" s="110"/>
+      <c r="AF24" s="105"/>
+      <c r="AG24" s="106"/>
+      <c r="AH24" s="106"/>
+      <c r="AI24" s="107"/>
     </row>
     <row r="25" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="60"/>
-      <c r="B25" s="170"/>
-      <c r="C25" s="162"/>
-      <c r="D25" s="135"/>
-      <c r="E25" s="136"/>
-      <c r="F25" s="137"/>
-      <c r="G25" s="171"/>
-      <c r="H25" s="164"/>
-      <c r="I25" s="165"/>
-      <c r="J25" s="172"/>
-      <c r="K25" s="166"/>
-      <c r="L25" s="166"/>
-      <c r="M25" s="166"/>
-      <c r="N25" s="166"/>
-      <c r="O25" s="166"/>
-      <c r="P25" s="167"/>
-      <c r="Q25" s="173"/>
-      <c r="R25" s="168"/>
-      <c r="S25" s="168"/>
-      <c r="T25" s="168"/>
-      <c r="U25" s="168"/>
-      <c r="V25" s="168"/>
-      <c r="W25" s="168"/>
-      <c r="X25" s="168"/>
-      <c r="Y25" s="168"/>
-      <c r="Z25" s="168"/>
-      <c r="AA25" s="168"/>
-      <c r="AB25" s="168"/>
-      <c r="AC25" s="168"/>
-      <c r="AD25" s="168"/>
-      <c r="AE25" s="169"/>
-      <c r="AF25" s="172"/>
-      <c r="AG25" s="166"/>
-      <c r="AH25" s="166"/>
-      <c r="AI25" s="167"/>
+      <c r="B25" s="97"/>
+      <c r="C25" s="98"/>
+      <c r="D25" s="99"/>
+      <c r="E25" s="100"/>
+      <c r="F25" s="101"/>
+      <c r="G25" s="102"/>
+      <c r="H25" s="103"/>
+      <c r="I25" s="104"/>
+      <c r="J25" s="105"/>
+      <c r="K25" s="106"/>
+      <c r="L25" s="106"/>
+      <c r="M25" s="106"/>
+      <c r="N25" s="106"/>
+      <c r="O25" s="106"/>
+      <c r="P25" s="107"/>
+      <c r="Q25" s="108"/>
+      <c r="R25" s="109"/>
+      <c r="S25" s="109"/>
+      <c r="T25" s="109"/>
+      <c r="U25" s="109"/>
+      <c r="V25" s="109"/>
+      <c r="W25" s="109"/>
+      <c r="X25" s="109"/>
+      <c r="Y25" s="109"/>
+      <c r="Z25" s="109"/>
+      <c r="AA25" s="109"/>
+      <c r="AB25" s="109"/>
+      <c r="AC25" s="109"/>
+      <c r="AD25" s="109"/>
+      <c r="AE25" s="110"/>
+      <c r="AF25" s="105"/>
+      <c r="AG25" s="106"/>
+      <c r="AH25" s="106"/>
+      <c r="AI25" s="107"/>
     </row>
     <row r="26" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="60"/>
-      <c r="B26" s="170"/>
-      <c r="C26" s="162"/>
-      <c r="D26" s="135"/>
-      <c r="E26" s="136"/>
-      <c r="F26" s="137"/>
-      <c r="G26" s="171"/>
-      <c r="H26" s="164"/>
-      <c r="I26" s="165"/>
-      <c r="J26" s="172"/>
-      <c r="K26" s="166"/>
-      <c r="L26" s="166"/>
-      <c r="M26" s="166"/>
-      <c r="N26" s="166"/>
-      <c r="O26" s="166"/>
-      <c r="P26" s="167"/>
-      <c r="Q26" s="173"/>
-      <c r="R26" s="168"/>
-      <c r="S26" s="168"/>
-      <c r="T26" s="168"/>
-      <c r="U26" s="168"/>
-      <c r="V26" s="168"/>
-      <c r="W26" s="168"/>
-      <c r="X26" s="168"/>
-      <c r="Y26" s="168"/>
-      <c r="Z26" s="168"/>
-      <c r="AA26" s="168"/>
-      <c r="AB26" s="168"/>
-      <c r="AC26" s="168"/>
-      <c r="AD26" s="168"/>
-      <c r="AE26" s="169"/>
-      <c r="AF26" s="172"/>
-      <c r="AG26" s="166"/>
-      <c r="AH26" s="166"/>
-      <c r="AI26" s="167"/>
+      <c r="B26" s="97"/>
+      <c r="C26" s="98"/>
+      <c r="D26" s="99"/>
+      <c r="E26" s="100"/>
+      <c r="F26" s="101"/>
+      <c r="G26" s="102"/>
+      <c r="H26" s="103"/>
+      <c r="I26" s="104"/>
+      <c r="J26" s="105"/>
+      <c r="K26" s="106"/>
+      <c r="L26" s="106"/>
+      <c r="M26" s="106"/>
+      <c r="N26" s="106"/>
+      <c r="O26" s="106"/>
+      <c r="P26" s="107"/>
+      <c r="Q26" s="108"/>
+      <c r="R26" s="109"/>
+      <c r="S26" s="109"/>
+      <c r="T26" s="109"/>
+      <c r="U26" s="109"/>
+      <c r="V26" s="109"/>
+      <c r="W26" s="109"/>
+      <c r="X26" s="109"/>
+      <c r="Y26" s="109"/>
+      <c r="Z26" s="109"/>
+      <c r="AA26" s="109"/>
+      <c r="AB26" s="109"/>
+      <c r="AC26" s="109"/>
+      <c r="AD26" s="109"/>
+      <c r="AE26" s="110"/>
+      <c r="AF26" s="105"/>
+      <c r="AG26" s="106"/>
+      <c r="AH26" s="106"/>
+      <c r="AI26" s="107"/>
     </row>
     <row r="27" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="60"/>
-      <c r="B27" s="170"/>
-      <c r="C27" s="162"/>
-      <c r="D27" s="135"/>
-      <c r="E27" s="136"/>
-      <c r="F27" s="137"/>
-      <c r="G27" s="171"/>
-      <c r="H27" s="164"/>
-      <c r="I27" s="165"/>
-      <c r="J27" s="172"/>
-      <c r="K27" s="166"/>
-      <c r="L27" s="166"/>
-      <c r="M27" s="166"/>
-      <c r="N27" s="166"/>
-      <c r="O27" s="166"/>
-      <c r="P27" s="167"/>
-      <c r="Q27" s="173"/>
-      <c r="R27" s="168"/>
-      <c r="S27" s="168"/>
-      <c r="T27" s="168"/>
-      <c r="U27" s="168"/>
-      <c r="V27" s="168"/>
-      <c r="W27" s="168"/>
-      <c r="X27" s="168"/>
-      <c r="Y27" s="168"/>
-      <c r="Z27" s="168"/>
-      <c r="AA27" s="168"/>
-      <c r="AB27" s="168"/>
-      <c r="AC27" s="168"/>
-      <c r="AD27" s="168"/>
-      <c r="AE27" s="169"/>
-      <c r="AF27" s="172"/>
-      <c r="AG27" s="166"/>
-      <c r="AH27" s="166"/>
-      <c r="AI27" s="167"/>
+      <c r="B27" s="97"/>
+      <c r="C27" s="98"/>
+      <c r="D27" s="99"/>
+      <c r="E27" s="100"/>
+      <c r="F27" s="101"/>
+      <c r="G27" s="102"/>
+      <c r="H27" s="103"/>
+      <c r="I27" s="104"/>
+      <c r="J27" s="105"/>
+      <c r="K27" s="106"/>
+      <c r="L27" s="106"/>
+      <c r="M27" s="106"/>
+      <c r="N27" s="106"/>
+      <c r="O27" s="106"/>
+      <c r="P27" s="107"/>
+      <c r="Q27" s="108"/>
+      <c r="R27" s="109"/>
+      <c r="S27" s="109"/>
+      <c r="T27" s="109"/>
+      <c r="U27" s="109"/>
+      <c r="V27" s="109"/>
+      <c r="W27" s="109"/>
+      <c r="X27" s="109"/>
+      <c r="Y27" s="109"/>
+      <c r="Z27" s="109"/>
+      <c r="AA27" s="109"/>
+      <c r="AB27" s="109"/>
+      <c r="AC27" s="109"/>
+      <c r="AD27" s="109"/>
+      <c r="AE27" s="110"/>
+      <c r="AF27" s="105"/>
+      <c r="AG27" s="106"/>
+      <c r="AH27" s="106"/>
+      <c r="AI27" s="107"/>
     </row>
     <row r="28" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="60"/>
-      <c r="B28" s="170"/>
-      <c r="C28" s="162"/>
-      <c r="D28" s="135"/>
-      <c r="E28" s="136"/>
-      <c r="F28" s="137"/>
-      <c r="G28" s="171"/>
-      <c r="H28" s="164"/>
-      <c r="I28" s="165"/>
-      <c r="J28" s="172"/>
-      <c r="K28" s="166"/>
-      <c r="L28" s="166"/>
-      <c r="M28" s="166"/>
-      <c r="N28" s="166"/>
-      <c r="O28" s="166"/>
-      <c r="P28" s="167"/>
-      <c r="Q28" s="173"/>
-      <c r="R28" s="168"/>
-      <c r="S28" s="168"/>
-      <c r="T28" s="168"/>
-      <c r="U28" s="168"/>
-      <c r="V28" s="168"/>
-      <c r="W28" s="168"/>
-      <c r="X28" s="168"/>
-      <c r="Y28" s="168"/>
-      <c r="Z28" s="168"/>
-      <c r="AA28" s="168"/>
-      <c r="AB28" s="168"/>
-      <c r="AC28" s="168"/>
-      <c r="AD28" s="168"/>
-      <c r="AE28" s="169"/>
-      <c r="AF28" s="172"/>
-      <c r="AG28" s="166"/>
-      <c r="AH28" s="166"/>
-      <c r="AI28" s="167"/>
+      <c r="B28" s="97"/>
+      <c r="C28" s="98"/>
+      <c r="D28" s="99"/>
+      <c r="E28" s="100"/>
+      <c r="F28" s="101"/>
+      <c r="G28" s="102"/>
+      <c r="H28" s="103"/>
+      <c r="I28" s="104"/>
+      <c r="J28" s="105"/>
+      <c r="K28" s="106"/>
+      <c r="L28" s="106"/>
+      <c r="M28" s="106"/>
+      <c r="N28" s="106"/>
+      <c r="O28" s="106"/>
+      <c r="P28" s="107"/>
+      <c r="Q28" s="108"/>
+      <c r="R28" s="109"/>
+      <c r="S28" s="109"/>
+      <c r="T28" s="109"/>
+      <c r="U28" s="109"/>
+      <c r="V28" s="109"/>
+      <c r="W28" s="109"/>
+      <c r="X28" s="109"/>
+      <c r="Y28" s="109"/>
+      <c r="Z28" s="109"/>
+      <c r="AA28" s="109"/>
+      <c r="AB28" s="109"/>
+      <c r="AC28" s="109"/>
+      <c r="AD28" s="109"/>
+      <c r="AE28" s="110"/>
+      <c r="AF28" s="105"/>
+      <c r="AG28" s="106"/>
+      <c r="AH28" s="106"/>
+      <c r="AI28" s="107"/>
     </row>
     <row r="29" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="60"/>
-      <c r="B29" s="170"/>
-      <c r="C29" s="162"/>
-      <c r="D29" s="135"/>
-      <c r="E29" s="136"/>
-      <c r="F29" s="137"/>
-      <c r="G29" s="171"/>
-      <c r="H29" s="164"/>
-      <c r="I29" s="165"/>
-      <c r="J29" s="172"/>
-      <c r="K29" s="166"/>
-      <c r="L29" s="166"/>
-      <c r="M29" s="166"/>
-      <c r="N29" s="166"/>
-      <c r="O29" s="166"/>
-      <c r="P29" s="167"/>
-      <c r="Q29" s="173"/>
-      <c r="R29" s="168"/>
-      <c r="S29" s="168"/>
-      <c r="T29" s="168"/>
-      <c r="U29" s="168"/>
-      <c r="V29" s="168"/>
-      <c r="W29" s="168"/>
-      <c r="X29" s="168"/>
-      <c r="Y29" s="168"/>
-      <c r="Z29" s="168"/>
-      <c r="AA29" s="168"/>
-      <c r="AB29" s="168"/>
-      <c r="AC29" s="168"/>
-      <c r="AD29" s="168"/>
-      <c r="AE29" s="169"/>
-      <c r="AF29" s="172"/>
-      <c r="AG29" s="166"/>
-      <c r="AH29" s="166"/>
-      <c r="AI29" s="167"/>
+      <c r="B29" s="97"/>
+      <c r="C29" s="98"/>
+      <c r="D29" s="99"/>
+      <c r="E29" s="100"/>
+      <c r="F29" s="101"/>
+      <c r="G29" s="102"/>
+      <c r="H29" s="103"/>
+      <c r="I29" s="104"/>
+      <c r="J29" s="105"/>
+      <c r="K29" s="106"/>
+      <c r="L29" s="106"/>
+      <c r="M29" s="106"/>
+      <c r="N29" s="106"/>
+      <c r="O29" s="106"/>
+      <c r="P29" s="107"/>
+      <c r="Q29" s="108"/>
+      <c r="R29" s="109"/>
+      <c r="S29" s="109"/>
+      <c r="T29" s="109"/>
+      <c r="U29" s="109"/>
+      <c r="V29" s="109"/>
+      <c r="W29" s="109"/>
+      <c r="X29" s="109"/>
+      <c r="Y29" s="109"/>
+      <c r="Z29" s="109"/>
+      <c r="AA29" s="109"/>
+      <c r="AB29" s="109"/>
+      <c r="AC29" s="109"/>
+      <c r="AD29" s="109"/>
+      <c r="AE29" s="110"/>
+      <c r="AF29" s="105"/>
+      <c r="AG29" s="106"/>
+      <c r="AH29" s="106"/>
+      <c r="AI29" s="107"/>
     </row>
     <row r="30" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="60"/>
-      <c r="B30" s="170"/>
-      <c r="C30" s="162"/>
-      <c r="D30" s="135"/>
-      <c r="E30" s="136"/>
-      <c r="F30" s="137"/>
-      <c r="G30" s="171"/>
-      <c r="H30" s="164"/>
-      <c r="I30" s="165"/>
-      <c r="J30" s="172"/>
-      <c r="K30" s="166"/>
-      <c r="L30" s="166"/>
-      <c r="M30" s="166"/>
-      <c r="N30" s="166"/>
-      <c r="O30" s="166"/>
-      <c r="P30" s="167"/>
-      <c r="Q30" s="173"/>
-      <c r="R30" s="168"/>
-      <c r="S30" s="168"/>
-      <c r="T30" s="168"/>
-      <c r="U30" s="168"/>
-      <c r="V30" s="168"/>
-      <c r="W30" s="168"/>
-      <c r="X30" s="168"/>
-      <c r="Y30" s="168"/>
-      <c r="Z30" s="168"/>
-      <c r="AA30" s="168"/>
-      <c r="AB30" s="168"/>
-      <c r="AC30" s="168"/>
-      <c r="AD30" s="168"/>
-      <c r="AE30" s="169"/>
-      <c r="AF30" s="172"/>
-      <c r="AG30" s="166"/>
-      <c r="AH30" s="166"/>
-      <c r="AI30" s="167"/>
+      <c r="B30" s="97"/>
+      <c r="C30" s="98"/>
+      <c r="D30" s="99"/>
+      <c r="E30" s="100"/>
+      <c r="F30" s="101"/>
+      <c r="G30" s="102"/>
+      <c r="H30" s="103"/>
+      <c r="I30" s="104"/>
+      <c r="J30" s="105"/>
+      <c r="K30" s="106"/>
+      <c r="L30" s="106"/>
+      <c r="M30" s="106"/>
+      <c r="N30" s="106"/>
+      <c r="O30" s="106"/>
+      <c r="P30" s="107"/>
+      <c r="Q30" s="108"/>
+      <c r="R30" s="109"/>
+      <c r="S30" s="109"/>
+      <c r="T30" s="109"/>
+      <c r="U30" s="109"/>
+      <c r="V30" s="109"/>
+      <c r="W30" s="109"/>
+      <c r="X30" s="109"/>
+      <c r="Y30" s="109"/>
+      <c r="Z30" s="109"/>
+      <c r="AA30" s="109"/>
+      <c r="AB30" s="109"/>
+      <c r="AC30" s="109"/>
+      <c r="AD30" s="109"/>
+      <c r="AE30" s="110"/>
+      <c r="AF30" s="105"/>
+      <c r="AG30" s="106"/>
+      <c r="AH30" s="106"/>
+      <c r="AI30" s="107"/>
     </row>
     <row r="31" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="60"/>
-      <c r="B31" s="170"/>
-      <c r="C31" s="162"/>
-      <c r="D31" s="135"/>
-      <c r="E31" s="136"/>
-      <c r="F31" s="137"/>
-      <c r="G31" s="171"/>
-      <c r="H31" s="164"/>
-      <c r="I31" s="165"/>
-      <c r="J31" s="172"/>
-      <c r="K31" s="166"/>
-      <c r="L31" s="166"/>
-      <c r="M31" s="166"/>
-      <c r="N31" s="166"/>
-      <c r="O31" s="166"/>
-      <c r="P31" s="167"/>
-      <c r="Q31" s="173"/>
-      <c r="R31" s="168"/>
-      <c r="S31" s="168"/>
-      <c r="T31" s="168"/>
-      <c r="U31" s="168"/>
-      <c r="V31" s="168"/>
-      <c r="W31" s="168"/>
-      <c r="X31" s="168"/>
-      <c r="Y31" s="168"/>
-      <c r="Z31" s="168"/>
-      <c r="AA31" s="168"/>
-      <c r="AB31" s="168"/>
-      <c r="AC31" s="168"/>
-      <c r="AD31" s="168"/>
-      <c r="AE31" s="169"/>
-      <c r="AF31" s="172"/>
-      <c r="AG31" s="166"/>
-      <c r="AH31" s="166"/>
-      <c r="AI31" s="167"/>
+      <c r="B31" s="97"/>
+      <c r="C31" s="98"/>
+      <c r="D31" s="99"/>
+      <c r="E31" s="100"/>
+      <c r="F31" s="101"/>
+      <c r="G31" s="102"/>
+      <c r="H31" s="103"/>
+      <c r="I31" s="104"/>
+      <c r="J31" s="105"/>
+      <c r="K31" s="106"/>
+      <c r="L31" s="106"/>
+      <c r="M31" s="106"/>
+      <c r="N31" s="106"/>
+      <c r="O31" s="106"/>
+      <c r="P31" s="107"/>
+      <c r="Q31" s="108"/>
+      <c r="R31" s="109"/>
+      <c r="S31" s="109"/>
+      <c r="T31" s="109"/>
+      <c r="U31" s="109"/>
+      <c r="V31" s="109"/>
+      <c r="W31" s="109"/>
+      <c r="X31" s="109"/>
+      <c r="Y31" s="109"/>
+      <c r="Z31" s="109"/>
+      <c r="AA31" s="109"/>
+      <c r="AB31" s="109"/>
+      <c r="AC31" s="109"/>
+      <c r="AD31" s="109"/>
+      <c r="AE31" s="110"/>
+      <c r="AF31" s="105"/>
+      <c r="AG31" s="106"/>
+      <c r="AH31" s="106"/>
+      <c r="AI31" s="107"/>
     </row>
     <row r="32" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="60"/>
-      <c r="B32" s="170"/>
-      <c r="C32" s="162"/>
-      <c r="D32" s="135"/>
-      <c r="E32" s="136"/>
-      <c r="F32" s="137"/>
-      <c r="G32" s="171"/>
-      <c r="H32" s="164"/>
-      <c r="I32" s="165"/>
-      <c r="J32" s="172"/>
-      <c r="K32" s="166"/>
-      <c r="L32" s="166"/>
-      <c r="M32" s="166"/>
-      <c r="N32" s="166"/>
-      <c r="O32" s="166"/>
-      <c r="P32" s="167"/>
-      <c r="Q32" s="173"/>
-      <c r="R32" s="168"/>
-      <c r="S32" s="168"/>
-      <c r="T32" s="168"/>
-      <c r="U32" s="168"/>
-      <c r="V32" s="168"/>
-      <c r="W32" s="168"/>
-      <c r="X32" s="168"/>
-      <c r="Y32" s="168"/>
-      <c r="Z32" s="168"/>
-      <c r="AA32" s="168"/>
-      <c r="AB32" s="168"/>
-      <c r="AC32" s="168"/>
-      <c r="AD32" s="168"/>
-      <c r="AE32" s="169"/>
-      <c r="AF32" s="172"/>
-      <c r="AG32" s="166"/>
-      <c r="AH32" s="166"/>
-      <c r="AI32" s="167"/>
+      <c r="B32" s="97"/>
+      <c r="C32" s="98"/>
+      <c r="D32" s="99"/>
+      <c r="E32" s="100"/>
+      <c r="F32" s="101"/>
+      <c r="G32" s="102"/>
+      <c r="H32" s="103"/>
+      <c r="I32" s="104"/>
+      <c r="J32" s="105"/>
+      <c r="K32" s="106"/>
+      <c r="L32" s="106"/>
+      <c r="M32" s="106"/>
+      <c r="N32" s="106"/>
+      <c r="O32" s="106"/>
+      <c r="P32" s="107"/>
+      <c r="Q32" s="108"/>
+      <c r="R32" s="109"/>
+      <c r="S32" s="109"/>
+      <c r="T32" s="109"/>
+      <c r="U32" s="109"/>
+      <c r="V32" s="109"/>
+      <c r="W32" s="109"/>
+      <c r="X32" s="109"/>
+      <c r="Y32" s="109"/>
+      <c r="Z32" s="109"/>
+      <c r="AA32" s="109"/>
+      <c r="AB32" s="109"/>
+      <c r="AC32" s="109"/>
+      <c r="AD32" s="109"/>
+      <c r="AE32" s="110"/>
+      <c r="AF32" s="105"/>
+      <c r="AG32" s="106"/>
+      <c r="AH32" s="106"/>
+      <c r="AI32" s="107"/>
     </row>
     <row r="33" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="60"/>
-      <c r="B33" s="170"/>
-      <c r="C33" s="162"/>
-      <c r="D33" s="135"/>
-      <c r="E33" s="136"/>
-      <c r="F33" s="137"/>
-      <c r="G33" s="171"/>
-      <c r="H33" s="164"/>
-      <c r="I33" s="165"/>
-      <c r="J33" s="172"/>
-      <c r="K33" s="166"/>
-      <c r="L33" s="166"/>
-      <c r="M33" s="166"/>
-      <c r="N33" s="166"/>
-      <c r="O33" s="166"/>
-      <c r="P33" s="167"/>
-      <c r="Q33" s="173"/>
-      <c r="R33" s="168"/>
-      <c r="S33" s="168"/>
-      <c r="T33" s="168"/>
-      <c r="U33" s="168"/>
-      <c r="V33" s="168"/>
-      <c r="W33" s="168"/>
-      <c r="X33" s="168"/>
-      <c r="Y33" s="168"/>
-      <c r="Z33" s="168"/>
-      <c r="AA33" s="168"/>
-      <c r="AB33" s="168"/>
-      <c r="AC33" s="168"/>
-      <c r="AD33" s="168"/>
-      <c r="AE33" s="169"/>
-      <c r="AF33" s="172"/>
-      <c r="AG33" s="166"/>
-      <c r="AH33" s="166"/>
-      <c r="AI33" s="167"/>
+      <c r="B33" s="97"/>
+      <c r="C33" s="98"/>
+      <c r="D33" s="99"/>
+      <c r="E33" s="100"/>
+      <c r="F33" s="101"/>
+      <c r="G33" s="102"/>
+      <c r="H33" s="103"/>
+      <c r="I33" s="104"/>
+      <c r="J33" s="105"/>
+      <c r="K33" s="106"/>
+      <c r="L33" s="106"/>
+      <c r="M33" s="106"/>
+      <c r="N33" s="106"/>
+      <c r="O33" s="106"/>
+      <c r="P33" s="107"/>
+      <c r="Q33" s="108"/>
+      <c r="R33" s="109"/>
+      <c r="S33" s="109"/>
+      <c r="T33" s="109"/>
+      <c r="U33" s="109"/>
+      <c r="V33" s="109"/>
+      <c r="W33" s="109"/>
+      <c r="X33" s="109"/>
+      <c r="Y33" s="109"/>
+      <c r="Z33" s="109"/>
+      <c r="AA33" s="109"/>
+      <c r="AB33" s="109"/>
+      <c r="AC33" s="109"/>
+      <c r="AD33" s="109"/>
+      <c r="AE33" s="110"/>
+      <c r="AF33" s="105"/>
+      <c r="AG33" s="106"/>
+      <c r="AH33" s="106"/>
+      <c r="AI33" s="107"/>
     </row>
   </sheetData>
   <mergeCells count="179">
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
@@ -5099,6 +4871,162 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
   </mergeCells>
   <phoneticPr fontId="10"/>
   <printOptions horizontalCentered="1"/>
@@ -5255,163 +5183,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="144" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="177" t="str">
+      <c r="B1" s="145"/>
+      <c r="C1" s="145"/>
+      <c r="D1" s="146"/>
+      <c r="E1" s="174" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
-      <c r="H1" s="107"/>
-      <c r="I1" s="107"/>
-      <c r="J1" s="107"/>
-      <c r="K1" s="107"/>
-      <c r="L1" s="107"/>
-      <c r="M1" s="107"/>
-      <c r="N1" s="108"/>
-      <c r="O1" s="112" t="s">
+      <c r="F1" s="148"/>
+      <c r="G1" s="148"/>
+      <c r="H1" s="148"/>
+      <c r="I1" s="148"/>
+      <c r="J1" s="148"/>
+      <c r="K1" s="148"/>
+      <c r="L1" s="148"/>
+      <c r="M1" s="148"/>
+      <c r="N1" s="149"/>
+      <c r="O1" s="153" t="s">
         <v>17</v>
       </c>
-      <c r="P1" s="113"/>
-      <c r="Q1" s="113"/>
-      <c r="R1" s="114"/>
-      <c r="S1" s="121" t="str">
+      <c r="P1" s="154"/>
+      <c r="Q1" s="154"/>
+      <c r="R1" s="155"/>
+      <c r="S1" s="162" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>画面一覧</v>
       </c>
-      <c r="T1" s="122"/>
-      <c r="U1" s="122"/>
-      <c r="V1" s="122"/>
-      <c r="W1" s="122"/>
-      <c r="X1" s="122"/>
-      <c r="Y1" s="122"/>
-      <c r="Z1" s="123"/>
-      <c r="AA1" s="103" t="s">
+      <c r="T1" s="163"/>
+      <c r="U1" s="163"/>
+      <c r="V1" s="163"/>
+      <c r="W1" s="163"/>
+      <c r="X1" s="163"/>
+      <c r="Y1" s="163"/>
+      <c r="Z1" s="164"/>
+      <c r="AA1" s="144" t="s">
         <v>18</v>
       </c>
-      <c r="AB1" s="105"/>
-      <c r="AC1" s="130" t="str">
+      <c r="AB1" s="146"/>
+      <c r="AC1" s="171" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="131"/>
-      <c r="AE1" s="131"/>
-      <c r="AF1" s="132"/>
-      <c r="AG1" s="174">
+      <c r="AD1" s="172"/>
+      <c r="AE1" s="172"/>
+      <c r="AF1" s="173"/>
+      <c r="AG1" s="175">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43592</v>
       </c>
-      <c r="AH1" s="175"/>
-      <c r="AI1" s="176"/>
+      <c r="AH1" s="176"/>
+      <c r="AI1" s="177"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="2"/>
     </row>
     <row r="2" spans="1:38" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="103" t="s">
+      <c r="A2" s="144" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="104"/>
-      <c r="C2" s="104"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="177" t="str">
+      <c r="B2" s="145"/>
+      <c r="C2" s="145"/>
+      <c r="D2" s="146"/>
+      <c r="E2" s="174" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="107"/>
-      <c r="G2" s="107"/>
-      <c r="H2" s="107"/>
-      <c r="I2" s="107"/>
-      <c r="J2" s="107"/>
-      <c r="K2" s="107"/>
-      <c r="L2" s="107"/>
-      <c r="M2" s="107"/>
-      <c r="N2" s="108"/>
-      <c r="O2" s="115"/>
-      <c r="P2" s="116"/>
-      <c r="Q2" s="116"/>
-      <c r="R2" s="117"/>
-      <c r="S2" s="124"/>
-      <c r="T2" s="125"/>
-      <c r="U2" s="125"/>
-      <c r="V2" s="125"/>
-      <c r="W2" s="125"/>
-      <c r="X2" s="125"/>
-      <c r="Y2" s="125"/>
-      <c r="Z2" s="126"/>
-      <c r="AA2" s="103" t="s">
+      <c r="F2" s="148"/>
+      <c r="G2" s="148"/>
+      <c r="H2" s="148"/>
+      <c r="I2" s="148"/>
+      <c r="J2" s="148"/>
+      <c r="K2" s="148"/>
+      <c r="L2" s="148"/>
+      <c r="M2" s="148"/>
+      <c r="N2" s="149"/>
+      <c r="O2" s="156"/>
+      <c r="P2" s="157"/>
+      <c r="Q2" s="157"/>
+      <c r="R2" s="158"/>
+      <c r="S2" s="165"/>
+      <c r="T2" s="166"/>
+      <c r="U2" s="166"/>
+      <c r="V2" s="166"/>
+      <c r="W2" s="166"/>
+      <c r="X2" s="166"/>
+      <c r="Y2" s="166"/>
+      <c r="Z2" s="167"/>
+      <c r="AA2" s="144" t="s">
         <v>19</v>
       </c>
-      <c r="AB2" s="105"/>
-      <c r="AC2" s="130" t="str">
+      <c r="AB2" s="146"/>
+      <c r="AC2" s="171" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="131"/>
-      <c r="AE2" s="131"/>
-      <c r="AF2" s="132"/>
-      <c r="AG2" s="174">
+      <c r="AD2" s="172"/>
+      <c r="AE2" s="172"/>
+      <c r="AF2" s="173"/>
+      <c r="AG2" s="175">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v>44796</v>
       </c>
-      <c r="AH2" s="175"/>
-      <c r="AI2" s="176"/>
+      <c r="AH2" s="176"/>
+      <c r="AI2" s="177"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
     </row>
     <row r="3" spans="1:38" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="103" t="s">
+      <c r="A3" s="144" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="104"/>
-      <c r="C3" s="104"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="177" t="str">
+      <c r="B3" s="145"/>
+      <c r="C3" s="145"/>
+      <c r="D3" s="146"/>
+      <c r="E3" s="174" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="107"/>
-      <c r="G3" s="107"/>
-      <c r="H3" s="107"/>
-      <c r="I3" s="107"/>
-      <c r="J3" s="107"/>
-      <c r="K3" s="107"/>
-      <c r="L3" s="107"/>
-      <c r="M3" s="107"/>
-      <c r="N3" s="108"/>
-      <c r="O3" s="118"/>
-      <c r="P3" s="119"/>
-      <c r="Q3" s="119"/>
-      <c r="R3" s="120"/>
-      <c r="S3" s="127"/>
-      <c r="T3" s="128"/>
-      <c r="U3" s="128"/>
-      <c r="V3" s="128"/>
-      <c r="W3" s="128"/>
-      <c r="X3" s="128"/>
-      <c r="Y3" s="128"/>
-      <c r="Z3" s="129"/>
-      <c r="AA3" s="103"/>
-      <c r="AB3" s="105"/>
-      <c r="AC3" s="130" t="str">
+      <c r="F3" s="148"/>
+      <c r="G3" s="148"/>
+      <c r="H3" s="148"/>
+      <c r="I3" s="148"/>
+      <c r="J3" s="148"/>
+      <c r="K3" s="148"/>
+      <c r="L3" s="148"/>
+      <c r="M3" s="148"/>
+      <c r="N3" s="149"/>
+      <c r="O3" s="159"/>
+      <c r="P3" s="160"/>
+      <c r="Q3" s="160"/>
+      <c r="R3" s="161"/>
+      <c r="S3" s="168"/>
+      <c r="T3" s="169"/>
+      <c r="U3" s="169"/>
+      <c r="V3" s="169"/>
+      <c r="W3" s="169"/>
+      <c r="X3" s="169"/>
+      <c r="Y3" s="169"/>
+      <c r="Z3" s="170"/>
+      <c r="AA3" s="144"/>
+      <c r="AB3" s="146"/>
+      <c r="AC3" s="171" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="131"/>
-      <c r="AE3" s="131"/>
-      <c r="AF3" s="132"/>
-      <c r="AG3" s="174" t="str">
+      <c r="AD3" s="172"/>
+      <c r="AE3" s="172"/>
+      <c r="AF3" s="173"/>
+      <c r="AG3" s="175" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="175"/>
-      <c r="AI3" s="176"/>
+      <c r="AH3" s="176"/>
+      <c r="AI3" s="177"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
@@ -6874,6 +6802,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -6883,14 +6819,6 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="10"/>
   <printOptions horizontalCentered="1"/>
@@ -6907,8 +6835,8 @@
   </sheetPr>
   <dimension ref="A1:BE19"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A3" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -6917,59 +6845,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:57" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="144" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="177" t="str">
+      <c r="B1" s="145"/>
+      <c r="C1" s="145"/>
+      <c r="D1" s="146"/>
+      <c r="E1" s="174" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
-      <c r="H1" s="107"/>
-      <c r="I1" s="107"/>
-      <c r="J1" s="107"/>
-      <c r="K1" s="107"/>
-      <c r="L1" s="107"/>
-      <c r="M1" s="107"/>
-      <c r="N1" s="108"/>
-      <c r="O1" s="187" t="s">
+      <c r="F1" s="148"/>
+      <c r="G1" s="148"/>
+      <c r="H1" s="148"/>
+      <c r="I1" s="148"/>
+      <c r="J1" s="148"/>
+      <c r="K1" s="148"/>
+      <c r="L1" s="148"/>
+      <c r="M1" s="148"/>
+      <c r="N1" s="149"/>
+      <c r="O1" s="195" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="188"/>
-      <c r="Q1" s="188"/>
-      <c r="R1" s="189"/>
-      <c r="S1" s="178" t="str">
+      <c r="P1" s="196"/>
+      <c r="Q1" s="196"/>
+      <c r="R1" s="197"/>
+      <c r="S1" s="207" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>画面一覧</v>
       </c>
-      <c r="T1" s="179"/>
-      <c r="U1" s="179"/>
-      <c r="V1" s="179"/>
-      <c r="W1" s="179"/>
-      <c r="X1" s="179"/>
-      <c r="Y1" s="179"/>
-      <c r="Z1" s="180"/>
-      <c r="AA1" s="103" t="s">
+      <c r="T1" s="208"/>
+      <c r="U1" s="208"/>
+      <c r="V1" s="208"/>
+      <c r="W1" s="208"/>
+      <c r="X1" s="208"/>
+      <c r="Y1" s="208"/>
+      <c r="Z1" s="209"/>
+      <c r="AA1" s="144" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="105"/>
-      <c r="AC1" s="130" t="str">
+      <c r="AB1" s="146"/>
+      <c r="AC1" s="171" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="131"/>
-      <c r="AE1" s="131"/>
-      <c r="AF1" s="132"/>
-      <c r="AG1" s="174">
+      <c r="AD1" s="172"/>
+      <c r="AE1" s="172"/>
+      <c r="AF1" s="173"/>
+      <c r="AG1" s="175">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43592</v>
       </c>
-      <c r="AH1" s="175"/>
-      <c r="AI1" s="176"/>
+      <c r="AH1" s="176"/>
+      <c r="AI1" s="177"/>
       <c r="AJ1" s="11"/>
       <c r="AK1" s="11"/>
       <c r="AL1" s="11"/>
@@ -6994,54 +6922,54 @@
       <c r="BE1" s="11"/>
     </row>
     <row r="2" spans="1:57" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="103" t="s">
+      <c r="A2" s="144" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="104"/>
-      <c r="C2" s="104"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="177" t="str">
+      <c r="B2" s="145"/>
+      <c r="C2" s="145"/>
+      <c r="D2" s="146"/>
+      <c r="E2" s="174" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="107"/>
-      <c r="G2" s="107"/>
-      <c r="H2" s="107"/>
-      <c r="I2" s="107"/>
-      <c r="J2" s="107"/>
-      <c r="K2" s="107"/>
-      <c r="L2" s="107"/>
-      <c r="M2" s="107"/>
-      <c r="N2" s="108"/>
-      <c r="O2" s="190"/>
-      <c r="P2" s="191"/>
-      <c r="Q2" s="191"/>
-      <c r="R2" s="192"/>
-      <c r="S2" s="181"/>
-      <c r="T2" s="182"/>
-      <c r="U2" s="182"/>
-      <c r="V2" s="182"/>
-      <c r="W2" s="182"/>
-      <c r="X2" s="182"/>
-      <c r="Y2" s="182"/>
-      <c r="Z2" s="183"/>
-      <c r="AA2" s="103" t="s">
+      <c r="F2" s="148"/>
+      <c r="G2" s="148"/>
+      <c r="H2" s="148"/>
+      <c r="I2" s="148"/>
+      <c r="J2" s="148"/>
+      <c r="K2" s="148"/>
+      <c r="L2" s="148"/>
+      <c r="M2" s="148"/>
+      <c r="N2" s="149"/>
+      <c r="O2" s="198"/>
+      <c r="P2" s="199"/>
+      <c r="Q2" s="199"/>
+      <c r="R2" s="200"/>
+      <c r="S2" s="210"/>
+      <c r="T2" s="211"/>
+      <c r="U2" s="211"/>
+      <c r="V2" s="211"/>
+      <c r="W2" s="211"/>
+      <c r="X2" s="211"/>
+      <c r="Y2" s="211"/>
+      <c r="Z2" s="212"/>
+      <c r="AA2" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="105"/>
-      <c r="AC2" s="130" t="str">
+      <c r="AB2" s="146"/>
+      <c r="AC2" s="171" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="131"/>
-      <c r="AE2" s="131"/>
-      <c r="AF2" s="132"/>
-      <c r="AG2" s="174">
+      <c r="AD2" s="172"/>
+      <c r="AE2" s="172"/>
+      <c r="AF2" s="173"/>
+      <c r="AG2" s="175">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v>44796</v>
       </c>
-      <c r="AH2" s="175"/>
-      <c r="AI2" s="176"/>
+      <c r="AH2" s="176"/>
+      <c r="AI2" s="177"/>
       <c r="AJ2" s="11"/>
       <c r="AK2" s="11"/>
       <c r="AL2" s="11"/>
@@ -7066,52 +6994,52 @@
       <c r="BE2" s="11"/>
     </row>
     <row r="3" spans="1:57" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="103" t="s">
+      <c r="A3" s="144" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="104"/>
-      <c r="C3" s="104"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="177" t="str">
+      <c r="B3" s="145"/>
+      <c r="C3" s="145"/>
+      <c r="D3" s="146"/>
+      <c r="E3" s="174" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="107"/>
-      <c r="G3" s="107"/>
-      <c r="H3" s="107"/>
-      <c r="I3" s="107"/>
-      <c r="J3" s="107"/>
-      <c r="K3" s="107"/>
-      <c r="L3" s="107"/>
-      <c r="M3" s="107"/>
-      <c r="N3" s="108"/>
-      <c r="O3" s="193"/>
-      <c r="P3" s="194"/>
-      <c r="Q3" s="194"/>
-      <c r="R3" s="195"/>
-      <c r="S3" s="184"/>
-      <c r="T3" s="185"/>
-      <c r="U3" s="185"/>
-      <c r="V3" s="185"/>
-      <c r="W3" s="185"/>
-      <c r="X3" s="185"/>
-      <c r="Y3" s="185"/>
-      <c r="Z3" s="186"/>
-      <c r="AA3" s="103"/>
-      <c r="AB3" s="105"/>
-      <c r="AC3" s="130" t="str">
+      <c r="F3" s="148"/>
+      <c r="G3" s="148"/>
+      <c r="H3" s="148"/>
+      <c r="I3" s="148"/>
+      <c r="J3" s="148"/>
+      <c r="K3" s="148"/>
+      <c r="L3" s="148"/>
+      <c r="M3" s="148"/>
+      <c r="N3" s="149"/>
+      <c r="O3" s="201"/>
+      <c r="P3" s="202"/>
+      <c r="Q3" s="202"/>
+      <c r="R3" s="203"/>
+      <c r="S3" s="213"/>
+      <c r="T3" s="214"/>
+      <c r="U3" s="214"/>
+      <c r="V3" s="214"/>
+      <c r="W3" s="214"/>
+      <c r="X3" s="214"/>
+      <c r="Y3" s="214"/>
+      <c r="Z3" s="215"/>
+      <c r="AA3" s="144"/>
+      <c r="AB3" s="146"/>
+      <c r="AC3" s="171" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="131"/>
-      <c r="AE3" s="131"/>
-      <c r="AF3" s="132"/>
-      <c r="AG3" s="174" t="str">
+      <c r="AD3" s="172"/>
+      <c r="AE3" s="172"/>
+      <c r="AF3" s="173"/>
+      <c r="AG3" s="175" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="175"/>
-      <c r="AI3" s="176"/>
+      <c r="AH3" s="176"/>
+      <c r="AI3" s="177"/>
       <c r="AJ3" s="11"/>
       <c r="AK3" s="11"/>
       <c r="AL3" s="11"/>
@@ -7282,47 +7210,47 @@
       <c r="C7" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="196" t="s">
+      <c r="D7" s="192" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="197"/>
-      <c r="F7" s="198"/>
-      <c r="G7" s="196" t="s">
+      <c r="E7" s="193"/>
+      <c r="F7" s="194"/>
+      <c r="G7" s="192" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="197"/>
-      <c r="I7" s="197"/>
-      <c r="J7" s="197"/>
-      <c r="K7" s="198"/>
-      <c r="L7" s="199" t="s">
+      <c r="H7" s="193"/>
+      <c r="I7" s="193"/>
+      <c r="J7" s="193"/>
+      <c r="K7" s="194"/>
+      <c r="L7" s="204" t="s">
         <v>12</v>
       </c>
-      <c r="M7" s="200"/>
-      <c r="N7" s="201"/>
-      <c r="O7" s="196" t="s">
+      <c r="M7" s="205"/>
+      <c r="N7" s="206"/>
+      <c r="O7" s="192" t="s">
         <v>13</v>
       </c>
-      <c r="P7" s="197"/>
-      <c r="Q7" s="197"/>
-      <c r="R7" s="197"/>
-      <c r="S7" s="198"/>
-      <c r="T7" s="196" t="s">
+      <c r="P7" s="193"/>
+      <c r="Q7" s="193"/>
+      <c r="R7" s="193"/>
+      <c r="S7" s="194"/>
+      <c r="T7" s="192" t="s">
         <v>14</v>
       </c>
-      <c r="U7" s="197"/>
-      <c r="V7" s="197"/>
-      <c r="W7" s="197"/>
-      <c r="X7" s="197"/>
-      <c r="Y7" s="197"/>
-      <c r="Z7" s="197"/>
-      <c r="AA7" s="197"/>
-      <c r="AB7" s="197"/>
-      <c r="AC7" s="197"/>
-      <c r="AD7" s="197"/>
-      <c r="AE7" s="197"/>
-      <c r="AF7" s="197"/>
-      <c r="AG7" s="197"/>
-      <c r="AH7" s="198"/>
+      <c r="U7" s="193"/>
+      <c r="V7" s="193"/>
+      <c r="W7" s="193"/>
+      <c r="X7" s="193"/>
+      <c r="Y7" s="193"/>
+      <c r="Z7" s="193"/>
+      <c r="AA7" s="193"/>
+      <c r="AB7" s="193"/>
+      <c r="AC7" s="193"/>
+      <c r="AD7" s="193"/>
+      <c r="AE7" s="193"/>
+      <c r="AF7" s="193"/>
+      <c r="AG7" s="193"/>
+      <c r="AH7" s="194"/>
       <c r="AJ7" s="11"/>
       <c r="AK7" s="11"/>
       <c r="AL7" s="11"/>
@@ -7350,47 +7278,47 @@
       <c r="C8" s="60">
         <v>1</v>
       </c>
-      <c r="D8" s="202" t="s">
+      <c r="D8" s="189" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="203"/>
-      <c r="F8" s="204"/>
-      <c r="G8" s="202" t="s">
+      <c r="E8" s="190"/>
+      <c r="F8" s="191"/>
+      <c r="G8" s="189" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="203"/>
-      <c r="I8" s="203"/>
-      <c r="J8" s="203"/>
-      <c r="K8" s="204"/>
-      <c r="L8" s="141" t="s">
+      <c r="H8" s="190"/>
+      <c r="I8" s="190"/>
+      <c r="J8" s="190"/>
+      <c r="K8" s="191"/>
+      <c r="L8" s="113" t="s">
         <v>29</v>
       </c>
-      <c r="M8" s="142"/>
-      <c r="N8" s="143"/>
-      <c r="O8" s="141" t="s">
+      <c r="M8" s="120"/>
+      <c r="N8" s="121"/>
+      <c r="O8" s="113" t="s">
         <v>28</v>
       </c>
-      <c r="P8" s="142"/>
-      <c r="Q8" s="142"/>
-      <c r="R8" s="142"/>
-      <c r="S8" s="143"/>
-      <c r="T8" s="144" t="s">
-        <v>79</v>
-      </c>
-      <c r="U8" s="166"/>
-      <c r="V8" s="166"/>
-      <c r="W8" s="166"/>
-      <c r="X8" s="166"/>
-      <c r="Y8" s="166"/>
-      <c r="Z8" s="166"/>
-      <c r="AA8" s="166"/>
-      <c r="AB8" s="166"/>
-      <c r="AC8" s="166"/>
-      <c r="AD8" s="166"/>
-      <c r="AE8" s="166"/>
-      <c r="AF8" s="166"/>
-      <c r="AG8" s="166"/>
-      <c r="AH8" s="167"/>
+      <c r="P8" s="120"/>
+      <c r="Q8" s="120"/>
+      <c r="R8" s="120"/>
+      <c r="S8" s="121"/>
+      <c r="T8" s="114" t="s">
+        <v>78</v>
+      </c>
+      <c r="U8" s="106"/>
+      <c r="V8" s="106"/>
+      <c r="W8" s="106"/>
+      <c r="X8" s="106"/>
+      <c r="Y8" s="106"/>
+      <c r="Z8" s="106"/>
+      <c r="AA8" s="106"/>
+      <c r="AB8" s="106"/>
+      <c r="AC8" s="106"/>
+      <c r="AD8" s="106"/>
+      <c r="AE8" s="106"/>
+      <c r="AF8" s="106"/>
+      <c r="AG8" s="106"/>
+      <c r="AH8" s="107"/>
       <c r="AJ8" s="11"/>
       <c r="AK8" s="11"/>
       <c r="AL8" s="11"/>
@@ -7419,47 +7347,47 @@
         <f>C8+1</f>
         <v>2</v>
       </c>
-      <c r="D9" s="208" t="s">
+      <c r="D9" s="187" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="208"/>
-      <c r="F9" s="208"/>
-      <c r="G9" s="208" t="s">
+      <c r="E9" s="187"/>
+      <c r="F9" s="187"/>
+      <c r="G9" s="187" t="s">
         <v>32</v>
       </c>
-      <c r="H9" s="208"/>
-      <c r="I9" s="208"/>
-      <c r="J9" s="208"/>
-      <c r="K9" s="208"/>
-      <c r="L9" s="210" t="s">
+      <c r="H9" s="187"/>
+      <c r="I9" s="187"/>
+      <c r="J9" s="187"/>
+      <c r="K9" s="187"/>
+      <c r="L9" s="178" t="s">
         <v>37</v>
       </c>
-      <c r="M9" s="213"/>
-      <c r="N9" s="214"/>
-      <c r="O9" s="210" t="s">
+      <c r="M9" s="179"/>
+      <c r="N9" s="180"/>
+      <c r="O9" s="178" t="s">
         <v>34</v>
       </c>
-      <c r="P9" s="213"/>
-      <c r="Q9" s="213"/>
-      <c r="R9" s="213"/>
-      <c r="S9" s="214"/>
-      <c r="T9" s="210" t="s">
+      <c r="P9" s="179"/>
+      <c r="Q9" s="179"/>
+      <c r="R9" s="179"/>
+      <c r="S9" s="180"/>
+      <c r="T9" s="178" t="s">
         <v>48</v>
       </c>
-      <c r="U9" s="211"/>
-      <c r="V9" s="211"/>
-      <c r="W9" s="211"/>
-      <c r="X9" s="211"/>
-      <c r="Y9" s="211"/>
-      <c r="Z9" s="211"/>
-      <c r="AA9" s="211"/>
-      <c r="AB9" s="211"/>
-      <c r="AC9" s="211"/>
-      <c r="AD9" s="211"/>
-      <c r="AE9" s="211"/>
-      <c r="AF9" s="211"/>
-      <c r="AG9" s="211"/>
-      <c r="AH9" s="212"/>
+      <c r="U9" s="182"/>
+      <c r="V9" s="182"/>
+      <c r="W9" s="182"/>
+      <c r="X9" s="182"/>
+      <c r="Y9" s="182"/>
+      <c r="Z9" s="182"/>
+      <c r="AA9" s="182"/>
+      <c r="AB9" s="182"/>
+      <c r="AC9" s="182"/>
+      <c r="AD9" s="182"/>
+      <c r="AE9" s="182"/>
+      <c r="AF9" s="182"/>
+      <c r="AG9" s="182"/>
+      <c r="AH9" s="183"/>
       <c r="AL9" s="11"/>
       <c r="AM9" s="11"/>
       <c r="AN9" s="11"/>
@@ -7478,43 +7406,43 @@
         <f t="shared" ref="C10:C18" si="0">C9+1</f>
         <v>3</v>
       </c>
-      <c r="D10" s="209"/>
-      <c r="E10" s="209"/>
-      <c r="F10" s="209"/>
-      <c r="G10" s="209"/>
-      <c r="H10" s="209"/>
-      <c r="I10" s="209"/>
-      <c r="J10" s="209"/>
-      <c r="K10" s="209"/>
-      <c r="L10" s="141" t="s">
+      <c r="D10" s="188"/>
+      <c r="E10" s="188"/>
+      <c r="F10" s="188"/>
+      <c r="G10" s="188"/>
+      <c r="H10" s="188"/>
+      <c r="I10" s="188"/>
+      <c r="J10" s="188"/>
+      <c r="K10" s="188"/>
+      <c r="L10" s="113" t="s">
         <v>38</v>
       </c>
-      <c r="M10" s="142"/>
-      <c r="N10" s="143"/>
-      <c r="O10" s="141" t="s">
+      <c r="M10" s="120"/>
+      <c r="N10" s="121"/>
+      <c r="O10" s="113" t="s">
         <v>35</v>
       </c>
-      <c r="P10" s="142"/>
-      <c r="Q10" s="142"/>
-      <c r="R10" s="142"/>
-      <c r="S10" s="143"/>
-      <c r="T10" s="141" t="s">
+      <c r="P10" s="120"/>
+      <c r="Q10" s="120"/>
+      <c r="R10" s="120"/>
+      <c r="S10" s="121"/>
+      <c r="T10" s="113" t="s">
         <v>46</v>
       </c>
-      <c r="U10" s="166"/>
-      <c r="V10" s="166"/>
-      <c r="W10" s="166"/>
-      <c r="X10" s="166"/>
-      <c r="Y10" s="166"/>
-      <c r="Z10" s="166"/>
-      <c r="AA10" s="166"/>
-      <c r="AB10" s="166"/>
-      <c r="AC10" s="166"/>
-      <c r="AD10" s="166"/>
-      <c r="AE10" s="166"/>
-      <c r="AF10" s="166"/>
-      <c r="AG10" s="166"/>
-      <c r="AH10" s="167"/>
+      <c r="U10" s="106"/>
+      <c r="V10" s="106"/>
+      <c r="W10" s="106"/>
+      <c r="X10" s="106"/>
+      <c r="Y10" s="106"/>
+      <c r="Z10" s="106"/>
+      <c r="AA10" s="106"/>
+      <c r="AB10" s="106"/>
+      <c r="AC10" s="106"/>
+      <c r="AD10" s="106"/>
+      <c r="AE10" s="106"/>
+      <c r="AF10" s="106"/>
+      <c r="AG10" s="106"/>
+      <c r="AH10" s="107"/>
       <c r="AL10" s="11"/>
       <c r="AM10" s="11"/>
       <c r="AN10" s="11"/>
@@ -7533,43 +7461,43 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D11" s="209"/>
-      <c r="E11" s="209"/>
-      <c r="F11" s="209"/>
-      <c r="G11" s="209"/>
-      <c r="H11" s="209"/>
-      <c r="I11" s="209"/>
-      <c r="J11" s="209"/>
-      <c r="K11" s="209"/>
-      <c r="L11" s="141" t="s">
+      <c r="D11" s="188"/>
+      <c r="E11" s="188"/>
+      <c r="F11" s="188"/>
+      <c r="G11" s="188"/>
+      <c r="H11" s="188"/>
+      <c r="I11" s="188"/>
+      <c r="J11" s="188"/>
+      <c r="K11" s="188"/>
+      <c r="L11" s="113" t="s">
         <v>39</v>
       </c>
-      <c r="M11" s="142"/>
-      <c r="N11" s="143"/>
-      <c r="O11" s="141" t="s">
+      <c r="M11" s="120"/>
+      <c r="N11" s="121"/>
+      <c r="O11" s="113" t="s">
         <v>36</v>
       </c>
-      <c r="P11" s="142"/>
-      <c r="Q11" s="142"/>
-      <c r="R11" s="142"/>
-      <c r="S11" s="143"/>
-      <c r="T11" s="141" t="s">
+      <c r="P11" s="120"/>
+      <c r="Q11" s="120"/>
+      <c r="R11" s="120"/>
+      <c r="S11" s="121"/>
+      <c r="T11" s="113" t="s">
         <v>47</v>
       </c>
-      <c r="U11" s="166"/>
-      <c r="V11" s="166"/>
-      <c r="W11" s="166"/>
-      <c r="X11" s="166"/>
-      <c r="Y11" s="166"/>
-      <c r="Z11" s="166"/>
-      <c r="AA11" s="166"/>
-      <c r="AB11" s="166"/>
-      <c r="AC11" s="166"/>
-      <c r="AD11" s="166"/>
-      <c r="AE11" s="166"/>
-      <c r="AF11" s="166"/>
-      <c r="AG11" s="166"/>
-      <c r="AH11" s="167"/>
+      <c r="U11" s="106"/>
+      <c r="V11" s="106"/>
+      <c r="W11" s="106"/>
+      <c r="X11" s="106"/>
+      <c r="Y11" s="106"/>
+      <c r="Z11" s="106"/>
+      <c r="AA11" s="106"/>
+      <c r="AB11" s="106"/>
+      <c r="AC11" s="106"/>
+      <c r="AD11" s="106"/>
+      <c r="AE11" s="106"/>
+      <c r="AF11" s="106"/>
+      <c r="AG11" s="106"/>
+      <c r="AH11" s="107"/>
       <c r="AL11" s="11"/>
       <c r="AM11" s="11"/>
       <c r="AN11" s="11"/>
@@ -7588,43 +7516,43 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="D12" s="209"/>
-      <c r="E12" s="209"/>
-      <c r="F12" s="209"/>
-      <c r="G12" s="209"/>
-      <c r="H12" s="209"/>
-      <c r="I12" s="209"/>
-      <c r="J12" s="209"/>
-      <c r="K12" s="209"/>
-      <c r="L12" s="141" t="s">
+      <c r="D12" s="188"/>
+      <c r="E12" s="188"/>
+      <c r="F12" s="188"/>
+      <c r="G12" s="188"/>
+      <c r="H12" s="188"/>
+      <c r="I12" s="188"/>
+      <c r="J12" s="188"/>
+      <c r="K12" s="188"/>
+      <c r="L12" s="113" t="s">
+        <v>50</v>
+      </c>
+      <c r="M12" s="120"/>
+      <c r="N12" s="121"/>
+      <c r="O12" s="113" t="s">
         <v>51</v>
       </c>
-      <c r="M12" s="142"/>
-      <c r="N12" s="143"/>
-      <c r="O12" s="141" t="s">
+      <c r="P12" s="120"/>
+      <c r="Q12" s="120"/>
+      <c r="R12" s="120"/>
+      <c r="S12" s="121"/>
+      <c r="T12" s="114" t="s">
         <v>52</v>
       </c>
-      <c r="P12" s="142"/>
-      <c r="Q12" s="142"/>
-      <c r="R12" s="142"/>
-      <c r="S12" s="143"/>
-      <c r="T12" s="144" t="s">
-        <v>53</v>
-      </c>
-      <c r="U12" s="168"/>
-      <c r="V12" s="168"/>
-      <c r="W12" s="168"/>
-      <c r="X12" s="168"/>
-      <c r="Y12" s="168"/>
-      <c r="Z12" s="168"/>
-      <c r="AA12" s="168"/>
-      <c r="AB12" s="168"/>
-      <c r="AC12" s="168"/>
-      <c r="AD12" s="168"/>
-      <c r="AE12" s="168"/>
-      <c r="AF12" s="168"/>
-      <c r="AG12" s="168"/>
-      <c r="AH12" s="169"/>
+      <c r="U12" s="109"/>
+      <c r="V12" s="109"/>
+      <c r="W12" s="109"/>
+      <c r="X12" s="109"/>
+      <c r="Y12" s="109"/>
+      <c r="Z12" s="109"/>
+      <c r="AA12" s="109"/>
+      <c r="AB12" s="109"/>
+      <c r="AC12" s="109"/>
+      <c r="AD12" s="109"/>
+      <c r="AE12" s="109"/>
+      <c r="AF12" s="109"/>
+      <c r="AG12" s="109"/>
+      <c r="AH12" s="110"/>
       <c r="AL12" s="11"/>
       <c r="AM12" s="11"/>
       <c r="AN12" s="11"/>
@@ -7643,43 +7571,43 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="D13" s="209"/>
-      <c r="E13" s="209"/>
-      <c r="F13" s="209"/>
-      <c r="G13" s="209"/>
-      <c r="H13" s="209"/>
-      <c r="I13" s="209"/>
-      <c r="J13" s="209"/>
-      <c r="K13" s="209"/>
-      <c r="L13" s="141" t="s">
+      <c r="D13" s="188"/>
+      <c r="E13" s="188"/>
+      <c r="F13" s="188"/>
+      <c r="G13" s="188"/>
+      <c r="H13" s="188"/>
+      <c r="I13" s="188"/>
+      <c r="J13" s="188"/>
+      <c r="K13" s="188"/>
+      <c r="L13" s="113" t="s">
+        <v>56</v>
+      </c>
+      <c r="M13" s="120"/>
+      <c r="N13" s="121"/>
+      <c r="O13" s="113" t="s">
         <v>57</v>
       </c>
-      <c r="M13" s="142"/>
-      <c r="N13" s="143"/>
-      <c r="O13" s="141" t="s">
+      <c r="P13" s="120"/>
+      <c r="Q13" s="120"/>
+      <c r="R13" s="120"/>
+      <c r="S13" s="121"/>
+      <c r="T13" s="114" t="s">
         <v>58</v>
       </c>
-      <c r="P13" s="142"/>
-      <c r="Q13" s="142"/>
-      <c r="R13" s="142"/>
-      <c r="S13" s="143"/>
-      <c r="T13" s="144" t="s">
-        <v>59</v>
-      </c>
-      <c r="U13" s="168"/>
-      <c r="V13" s="168"/>
-      <c r="W13" s="168"/>
-      <c r="X13" s="168"/>
-      <c r="Y13" s="168"/>
-      <c r="Z13" s="168"/>
-      <c r="AA13" s="168"/>
-      <c r="AB13" s="168"/>
-      <c r="AC13" s="168"/>
-      <c r="AD13" s="168"/>
-      <c r="AE13" s="168"/>
-      <c r="AF13" s="168"/>
-      <c r="AG13" s="168"/>
-      <c r="AH13" s="169"/>
+      <c r="U13" s="109"/>
+      <c r="V13" s="109"/>
+      <c r="W13" s="109"/>
+      <c r="X13" s="109"/>
+      <c r="Y13" s="109"/>
+      <c r="Z13" s="109"/>
+      <c r="AA13" s="109"/>
+      <c r="AB13" s="109"/>
+      <c r="AC13" s="109"/>
+      <c r="AD13" s="109"/>
+      <c r="AE13" s="109"/>
+      <c r="AF13" s="109"/>
+      <c r="AG13" s="109"/>
+      <c r="AH13" s="110"/>
       <c r="AL13" s="11"/>
       <c r="AM13" s="11"/>
       <c r="AN13" s="11"/>
@@ -7698,43 +7626,43 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="D14" s="209"/>
-      <c r="E14" s="209"/>
-      <c r="F14" s="209"/>
-      <c r="G14" s="209"/>
-      <c r="H14" s="209"/>
-      <c r="I14" s="209"/>
-      <c r="J14" s="209"/>
-      <c r="K14" s="209"/>
+      <c r="D14" s="188"/>
+      <c r="E14" s="188"/>
+      <c r="F14" s="188"/>
+      <c r="G14" s="188"/>
+      <c r="H14" s="188"/>
+      <c r="I14" s="188"/>
+      <c r="J14" s="188"/>
+      <c r="K14" s="188"/>
       <c r="L14" s="83" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M14" s="84"/>
       <c r="N14" s="85"/>
       <c r="O14" s="83" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P14" s="84"/>
       <c r="Q14" s="84"/>
       <c r="R14" s="84"/>
       <c r="S14" s="85"/>
-      <c r="T14" s="205" t="s">
-        <v>67</v>
-      </c>
-      <c r="U14" s="206"/>
-      <c r="V14" s="206"/>
-      <c r="W14" s="206"/>
-      <c r="X14" s="206"/>
-      <c r="Y14" s="206"/>
-      <c r="Z14" s="206"/>
-      <c r="AA14" s="206"/>
-      <c r="AB14" s="206"/>
-      <c r="AC14" s="206"/>
-      <c r="AD14" s="206"/>
-      <c r="AE14" s="206"/>
-      <c r="AF14" s="206"/>
-      <c r="AG14" s="206"/>
-      <c r="AH14" s="207"/>
+      <c r="T14" s="184" t="s">
+        <v>66</v>
+      </c>
+      <c r="U14" s="185"/>
+      <c r="V14" s="185"/>
+      <c r="W14" s="185"/>
+      <c r="X14" s="185"/>
+      <c r="Y14" s="185"/>
+      <c r="Z14" s="185"/>
+      <c r="AA14" s="185"/>
+      <c r="AB14" s="185"/>
+      <c r="AC14" s="185"/>
+      <c r="AD14" s="185"/>
+      <c r="AE14" s="185"/>
+      <c r="AF14" s="185"/>
+      <c r="AG14" s="185"/>
+      <c r="AH14" s="186"/>
       <c r="AL14" s="11"/>
       <c r="AM14" s="11"/>
       <c r="AN14" s="11"/>
@@ -7753,43 +7681,43 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="D15" s="209"/>
-      <c r="E15" s="209"/>
-      <c r="F15" s="209"/>
-      <c r="G15" s="209"/>
-      <c r="H15" s="209"/>
-      <c r="I15" s="209"/>
-      <c r="J15" s="209"/>
-      <c r="K15" s="209"/>
+      <c r="D15" s="188"/>
+      <c r="E15" s="188"/>
+      <c r="F15" s="188"/>
+      <c r="G15" s="188"/>
+      <c r="H15" s="188"/>
+      <c r="I15" s="188"/>
+      <c r="J15" s="188"/>
+      <c r="K15" s="188"/>
       <c r="L15" s="83" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M15" s="84"/>
       <c r="N15" s="85"/>
       <c r="O15" s="83" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="P15" s="84"/>
       <c r="Q15" s="84"/>
       <c r="R15" s="84"/>
       <c r="S15" s="85"/>
-      <c r="T15" s="205" t="s">
-        <v>68</v>
-      </c>
-      <c r="U15" s="206"/>
-      <c r="V15" s="206"/>
-      <c r="W15" s="206"/>
-      <c r="X15" s="206"/>
-      <c r="Y15" s="206"/>
-      <c r="Z15" s="206"/>
-      <c r="AA15" s="206"/>
-      <c r="AB15" s="206"/>
-      <c r="AC15" s="206"/>
-      <c r="AD15" s="206"/>
-      <c r="AE15" s="206"/>
-      <c r="AF15" s="206"/>
-      <c r="AG15" s="206"/>
-      <c r="AH15" s="207"/>
+      <c r="T15" s="184" t="s">
+        <v>67</v>
+      </c>
+      <c r="U15" s="185"/>
+      <c r="V15" s="185"/>
+      <c r="W15" s="185"/>
+      <c r="X15" s="185"/>
+      <c r="Y15" s="185"/>
+      <c r="Z15" s="185"/>
+      <c r="AA15" s="185"/>
+      <c r="AB15" s="185"/>
+      <c r="AC15" s="185"/>
+      <c r="AD15" s="185"/>
+      <c r="AE15" s="185"/>
+      <c r="AF15" s="185"/>
+      <c r="AG15" s="185"/>
+      <c r="AH15" s="186"/>
       <c r="AL15" s="11"/>
       <c r="AM15" s="11"/>
       <c r="AN15" s="11"/>
@@ -7808,43 +7736,43 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="D16" s="209"/>
-      <c r="E16" s="209"/>
-      <c r="F16" s="209"/>
-      <c r="G16" s="209"/>
-      <c r="H16" s="209"/>
-      <c r="I16" s="209"/>
-      <c r="J16" s="209"/>
-      <c r="K16" s="209"/>
-      <c r="L16" s="141" t="s">
-        <v>63</v>
-      </c>
-      <c r="M16" s="142"/>
-      <c r="N16" s="143"/>
-      <c r="O16" s="141" t="s">
-        <v>66</v>
-      </c>
-      <c r="P16" s="142"/>
-      <c r="Q16" s="142"/>
-      <c r="R16" s="142"/>
-      <c r="S16" s="143"/>
-      <c r="T16" s="144" t="s">
-        <v>69</v>
-      </c>
-      <c r="U16" s="168"/>
-      <c r="V16" s="168"/>
-      <c r="W16" s="168"/>
-      <c r="X16" s="168"/>
-      <c r="Y16" s="168"/>
-      <c r="Z16" s="168"/>
-      <c r="AA16" s="168"/>
-      <c r="AB16" s="168"/>
-      <c r="AC16" s="168"/>
-      <c r="AD16" s="168"/>
-      <c r="AE16" s="168"/>
-      <c r="AF16" s="168"/>
-      <c r="AG16" s="168"/>
-      <c r="AH16" s="169"/>
+      <c r="D16" s="188"/>
+      <c r="E16" s="188"/>
+      <c r="F16" s="188"/>
+      <c r="G16" s="188"/>
+      <c r="H16" s="188"/>
+      <c r="I16" s="188"/>
+      <c r="J16" s="188"/>
+      <c r="K16" s="188"/>
+      <c r="L16" s="113" t="s">
+        <v>62</v>
+      </c>
+      <c r="M16" s="120"/>
+      <c r="N16" s="121"/>
+      <c r="O16" s="113" t="s">
+        <v>65</v>
+      </c>
+      <c r="P16" s="120"/>
+      <c r="Q16" s="120"/>
+      <c r="R16" s="120"/>
+      <c r="S16" s="121"/>
+      <c r="T16" s="114" t="s">
+        <v>68</v>
+      </c>
+      <c r="U16" s="109"/>
+      <c r="V16" s="109"/>
+      <c r="W16" s="109"/>
+      <c r="X16" s="109"/>
+      <c r="Y16" s="109"/>
+      <c r="Z16" s="109"/>
+      <c r="AA16" s="109"/>
+      <c r="AB16" s="109"/>
+      <c r="AC16" s="109"/>
+      <c r="AD16" s="109"/>
+      <c r="AE16" s="109"/>
+      <c r="AF16" s="109"/>
+      <c r="AG16" s="109"/>
+      <c r="AH16" s="110"/>
       <c r="AL16" s="11"/>
       <c r="AM16" s="11"/>
       <c r="AN16" s="11"/>
@@ -7864,46 +7792,46 @@
         <v>10</v>
       </c>
       <c r="D17" s="93" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E17" s="94"/>
       <c r="F17" s="95"/>
       <c r="G17" s="93" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H17" s="94"/>
       <c r="I17" s="94"/>
       <c r="J17" s="94"/>
       <c r="K17" s="95"/>
-      <c r="L17" s="210" t="s">
-        <v>74</v>
-      </c>
-      <c r="M17" s="213"/>
-      <c r="N17" s="214"/>
-      <c r="O17" s="210" t="s">
+      <c r="L17" s="178" t="s">
+        <v>73</v>
+      </c>
+      <c r="M17" s="179"/>
+      <c r="N17" s="180"/>
+      <c r="O17" s="178" t="s">
         <v>30</v>
       </c>
-      <c r="P17" s="213"/>
-      <c r="Q17" s="213"/>
-      <c r="R17" s="213"/>
-      <c r="S17" s="214"/>
-      <c r="T17" s="215" t="s">
+      <c r="P17" s="179"/>
+      <c r="Q17" s="179"/>
+      <c r="R17" s="179"/>
+      <c r="S17" s="180"/>
+      <c r="T17" s="181" t="s">
         <v>45</v>
       </c>
-      <c r="U17" s="211"/>
-      <c r="V17" s="211"/>
-      <c r="W17" s="211"/>
-      <c r="X17" s="211"/>
-      <c r="Y17" s="211"/>
-      <c r="Z17" s="211"/>
-      <c r="AA17" s="211"/>
-      <c r="AB17" s="211"/>
-      <c r="AC17" s="211"/>
-      <c r="AD17" s="211"/>
-      <c r="AE17" s="211"/>
-      <c r="AF17" s="211"/>
-      <c r="AG17" s="211"/>
-      <c r="AH17" s="212"/>
+      <c r="U17" s="182"/>
+      <c r="V17" s="182"/>
+      <c r="W17" s="182"/>
+      <c r="X17" s="182"/>
+      <c r="Y17" s="182"/>
+      <c r="Z17" s="182"/>
+      <c r="AA17" s="182"/>
+      <c r="AB17" s="182"/>
+      <c r="AC17" s="182"/>
+      <c r="AD17" s="182"/>
+      <c r="AE17" s="182"/>
+      <c r="AF17" s="182"/>
+      <c r="AG17" s="182"/>
+      <c r="AH17" s="183"/>
       <c r="AL17" s="11"/>
       <c r="AM17" s="11"/>
       <c r="AN17" s="11"/>
@@ -7930,35 +7858,35 @@
       <c r="I18" s="91"/>
       <c r="J18" s="91"/>
       <c r="K18" s="92"/>
-      <c r="L18" s="210" t="s">
+      <c r="L18" s="178" t="s">
+        <v>74</v>
+      </c>
+      <c r="M18" s="179"/>
+      <c r="N18" s="180"/>
+      <c r="O18" s="178" t="s">
+        <v>31</v>
+      </c>
+      <c r="P18" s="179"/>
+      <c r="Q18" s="179"/>
+      <c r="R18" s="179"/>
+      <c r="S18" s="180"/>
+      <c r="T18" s="181" t="s">
         <v>75</v>
       </c>
-      <c r="M18" s="213"/>
-      <c r="N18" s="214"/>
-      <c r="O18" s="210" t="s">
-        <v>31</v>
-      </c>
-      <c r="P18" s="213"/>
-      <c r="Q18" s="213"/>
-      <c r="R18" s="213"/>
-      <c r="S18" s="214"/>
-      <c r="T18" s="215" t="s">
-        <v>76</v>
-      </c>
-      <c r="U18" s="211"/>
-      <c r="V18" s="211"/>
-      <c r="W18" s="211"/>
-      <c r="X18" s="211"/>
-      <c r="Y18" s="211"/>
-      <c r="Z18" s="211"/>
-      <c r="AA18" s="211"/>
-      <c r="AB18" s="211"/>
-      <c r="AC18" s="211"/>
-      <c r="AD18" s="211"/>
-      <c r="AE18" s="211"/>
-      <c r="AF18" s="211"/>
-      <c r="AG18" s="211"/>
-      <c r="AH18" s="212"/>
+      <c r="U18" s="182"/>
+      <c r="V18" s="182"/>
+      <c r="W18" s="182"/>
+      <c r="X18" s="182"/>
+      <c r="Y18" s="182"/>
+      <c r="Z18" s="182"/>
+      <c r="AA18" s="182"/>
+      <c r="AB18" s="182"/>
+      <c r="AC18" s="182"/>
+      <c r="AD18" s="182"/>
+      <c r="AE18" s="182"/>
+      <c r="AF18" s="182"/>
+      <c r="AG18" s="182"/>
+      <c r="AH18" s="183"/>
       <c r="AL18" s="11"/>
       <c r="AM18" s="11"/>
       <c r="AN18" s="11"/>
@@ -7973,9 +7901,7 @@
       <c r="AW18" s="11"/>
     </row>
     <row r="19" spans="3:49" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C19" s="86" t="s">
-        <v>80</v>
-      </c>
+      <c r="C19" s="86"/>
       <c r="D19" s="86"/>
       <c r="E19" s="86"/>
       <c r="F19" s="86"/>
@@ -8022,12 +7948,39 @@
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="L17:N17"/>
-    <mergeCell ref="O17:S17"/>
-    <mergeCell ref="T17:AH17"/>
-    <mergeCell ref="L18:N18"/>
-    <mergeCell ref="O18:S18"/>
-    <mergeCell ref="T18:AH18"/>
+    <mergeCell ref="L12:N12"/>
+    <mergeCell ref="O12:S12"/>
+    <mergeCell ref="T12:AH12"/>
+    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="O13:S13"/>
+    <mergeCell ref="T13:AH13"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="L7:N7"/>
+    <mergeCell ref="O7:S7"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="L8:N8"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="T7:AH7"/>
+    <mergeCell ref="T8:AH8"/>
+    <mergeCell ref="O8:S8"/>
     <mergeCell ref="T14:AH14"/>
     <mergeCell ref="T15:AH15"/>
     <mergeCell ref="D9:F16"/>
@@ -8044,39 +7997,12 @@
     <mergeCell ref="O9:S9"/>
     <mergeCell ref="O10:S10"/>
     <mergeCell ref="L9:N9"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="L8:N8"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="T7:AH7"/>
-    <mergeCell ref="T8:AH8"/>
-    <mergeCell ref="O8:S8"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="L7:N7"/>
-    <mergeCell ref="O7:S7"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="L12:N12"/>
-    <mergeCell ref="O12:S12"/>
-    <mergeCell ref="T12:AH12"/>
-    <mergeCell ref="L13:N13"/>
-    <mergeCell ref="O13:S13"/>
-    <mergeCell ref="T13:AH13"/>
+    <mergeCell ref="L17:N17"/>
+    <mergeCell ref="O17:S17"/>
+    <mergeCell ref="T17:AH17"/>
+    <mergeCell ref="L18:N18"/>
+    <mergeCell ref="O18:S18"/>
+    <mergeCell ref="T18:AH18"/>
   </mergeCells>
   <phoneticPr fontId="10"/>
   <printOptions horizontalCentered="1"/>

--- a/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/010_要件定義/040_画面設計/画面一覧_A1_プロジェクト管理システム.xlsx
+++ b/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/010_要件定義/040_画面設計/画面一覧_A1_プロジェクト管理システム.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33A6982F-1620-4E5C-9372-231D02D83A4A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52BC61C0-4284-40CE-8B19-A4F7163BE42D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="195" yWindow="3120" windowWidth="38205" windowHeight="15090" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="30" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="1" sheetId="29" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'1'!$A$1:$AI$26</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'1'!$A$1:$AI$25</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$S$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">変更履歴!$A$1:$AI$34</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">目次!$A$1:$AI$36</definedName>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="81">
   <si>
     <t>PJ名</t>
   </si>
@@ -238,45 +238,7 @@
     <phoneticPr fontId="10"/>
   </si>
   <si>
-    <r>
-      <t>WA10102</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>01</t>
-    </r>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>ログアウト</t>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>WA1010301</t>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
     <t>TOPメニュー</t>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <r>
-      <t>WA10104</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>01</t>
-    </r>
     <phoneticPr fontId="10"/>
   </si>
   <si>
@@ -344,10 +306,6 @@
     <phoneticPr fontId="10"/>
   </si>
   <si>
-    <t>ログアウトする。</t>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
     <t>サンプルプロジェクト</t>
     <phoneticPr fontId="10"/>
   </si>
@@ -451,44 +409,7 @@
     <phoneticPr fontId="10"/>
   </si>
   <si>
-    <t>プロジェクト管理システム</t>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
     <t>TIS</t>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>発生したエラーの内容をユーザに表示する。
-(便宜上ログインに分類しているが、サブシステム内共通)</t>
-    <rPh sb="0" eb="2">
-      <t>ハッセイ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ベンギ</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>ジョウ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>ブンルイ</t>
-    </rPh>
-    <rPh sb="44" eb="45">
-      <t>ナイ</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>キョウツウ</t>
-    </rPh>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>ログインIDとパスワードを入力し、Form認証を行う。</t>
-    <rPh sb="13" eb="15">
-      <t>ニュウリョク</t>
-    </rPh>
     <phoneticPr fontId="10"/>
   </si>
   <si>
@@ -653,7 +574,50 @@
     <phoneticPr fontId="10"/>
   </si>
   <si>
-    <t>第１．２版</t>
+    <t>1.2版</t>
+    <rPh sb="3" eb="4">
+      <t>ハン</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>A103</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>共通</t>
+    <rPh sb="0" eb="2">
+      <t>キョウツウ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>WA1030101</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>WA1030201</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>発生したエラーの内容をユーザに表示する。</t>
+    <rPh sb="0" eb="2">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>1.3版</t>
+    <rPh sb="3" eb="4">
+      <t>ハン</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>第１．３版</t>
     <rPh sb="0" eb="1">
       <t>ダイ</t>
     </rPh>
@@ -663,10 +627,46 @@
     <phoneticPr fontId="38"/>
   </si>
   <si>
-    <t>1.2版</t>
-    <rPh sb="3" eb="4">
-      <t>ハン</t>
-    </rPh>
+    <t>ログインIDとパスワードを入力し、Form認証を行う。
+ログアウト処理時はセッションを破棄し、ログイン画面へ遷移する。</t>
+    <rPh sb="13" eb="15">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ハキ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>・TOPメニュー、汎用エラーを共通機能として分類</t>
+    <rPh sb="9" eb="11">
+      <t>ハンヨウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>キョウツウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ブンルイ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>プロジェクト管理システム</t>
     <phoneticPr fontId="10"/>
   </si>
 </sst>
@@ -1528,7 +1528,7 @@
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="217">
+  <cellXfs count="216">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
@@ -1723,9 +1723,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1738,6 +1735,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="31" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1984,6 +1999,24 @@
     <xf numFmtId="177" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1999,6 +2032,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2008,51 +2050,6 @@
     <xf numFmtId="0" fontId="1" fillId="25" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="31" fillId="24" borderId="13" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2080,6 +2077,15 @@
     <xf numFmtId="0" fontId="31" fillId="24" borderId="18" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2106,15 +2112,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="48">
@@ -2935,7 +2932,9 @@
   </sheetPr>
   <dimension ref="A1:S513"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="U19" sqref="U19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -2979,7 +2978,7 @@
       <c r="G23" s="21"/>
       <c r="H23" s="21"/>
       <c r="J23" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2991,12 +2990,12 @@
       <c r="F25" s="21"/>
       <c r="G25" s="21"/>
       <c r="H25" s="21"/>
-      <c r="I25" s="91">
+      <c r="I25" s="96">
         <f ca="1">IF(INDIRECT("変更履歴!D8")="","",MAX(INDIRECT("変更履歴!D8"):INDIRECT("変更履歴!F33")))</f>
-        <v>43895</v>
-      </c>
-      <c r="J25" s="91"/>
-      <c r="K25" s="91"/>
+        <v>44796</v>
+      </c>
+      <c r="J25" s="96"/>
+      <c r="K25" s="96"/>
     </row>
     <row r="26" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F26" s="21"/>
@@ -3595,57 +3594,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="139" t="s">
+      <c r="A1" s="144" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="140"/>
-      <c r="C1" s="140"/>
-      <c r="D1" s="141"/>
-      <c r="E1" s="142" t="s">
-        <v>45</v>
-      </c>
-      <c r="F1" s="143"/>
-      <c r="G1" s="143"/>
-      <c r="H1" s="143"/>
-      <c r="I1" s="143"/>
-      <c r="J1" s="143"/>
-      <c r="K1" s="143"/>
-      <c r="L1" s="143"/>
-      <c r="M1" s="143"/>
-      <c r="N1" s="144"/>
-      <c r="O1" s="148" t="s">
+      <c r="B1" s="145"/>
+      <c r="C1" s="145"/>
+      <c r="D1" s="146"/>
+      <c r="E1" s="147" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="148"/>
+      <c r="G1" s="148"/>
+      <c r="H1" s="148"/>
+      <c r="I1" s="148"/>
+      <c r="J1" s="148"/>
+      <c r="K1" s="148"/>
+      <c r="L1" s="148"/>
+      <c r="M1" s="148"/>
+      <c r="N1" s="149"/>
+      <c r="O1" s="153" t="s">
         <v>17</v>
       </c>
-      <c r="P1" s="149"/>
-      <c r="Q1" s="149"/>
-      <c r="R1" s="150"/>
-      <c r="S1" s="157" t="s">
+      <c r="P1" s="154"/>
+      <c r="Q1" s="154"/>
+      <c r="R1" s="155"/>
+      <c r="S1" s="162" t="s">
         <v>23</v>
       </c>
-      <c r="T1" s="158"/>
-      <c r="U1" s="158"/>
-      <c r="V1" s="158"/>
-      <c r="W1" s="158"/>
-      <c r="X1" s="158"/>
-      <c r="Y1" s="158"/>
-      <c r="Z1" s="159"/>
-      <c r="AA1" s="139" t="s">
+      <c r="T1" s="163"/>
+      <c r="U1" s="163"/>
+      <c r="V1" s="163"/>
+      <c r="W1" s="163"/>
+      <c r="X1" s="163"/>
+      <c r="Y1" s="163"/>
+      <c r="Z1" s="164"/>
+      <c r="AA1" s="144" t="s">
         <v>18</v>
       </c>
-      <c r="AB1" s="141"/>
-      <c r="AC1" s="166" t="str">
+      <c r="AB1" s="146"/>
+      <c r="AC1" s="171" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="167"/>
-      <c r="AE1" s="167"/>
-      <c r="AF1" s="168"/>
-      <c r="AG1" s="133">
+      <c r="AD1" s="172"/>
+      <c r="AE1" s="172"/>
+      <c r="AF1" s="173"/>
+      <c r="AG1" s="138">
         <f>IF(D8="","",D8)</f>
         <v>43592</v>
       </c>
-      <c r="AH1" s="134"/>
-      <c r="AI1" s="135"/>
+      <c r="AH1" s="139"/>
+      <c r="AI1" s="140"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="1"/>
@@ -3653,53 +3652,53 @@
       <c r="AN1" s="2"/>
     </row>
     <row r="2" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="139" t="s">
+      <c r="A2" s="144" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="140"/>
-      <c r="C2" s="140"/>
-      <c r="D2" s="141"/>
-      <c r="E2" s="142" t="s">
-        <v>46</v>
-      </c>
-      <c r="F2" s="143"/>
-      <c r="G2" s="143"/>
-      <c r="H2" s="143"/>
-      <c r="I2" s="143"/>
-      <c r="J2" s="143"/>
-      <c r="K2" s="143"/>
-      <c r="L2" s="143"/>
-      <c r="M2" s="143"/>
-      <c r="N2" s="144"/>
-      <c r="O2" s="151"/>
-      <c r="P2" s="152"/>
-      <c r="Q2" s="152"/>
-      <c r="R2" s="153"/>
-      <c r="S2" s="160"/>
-      <c r="T2" s="161"/>
-      <c r="U2" s="161"/>
-      <c r="V2" s="161"/>
-      <c r="W2" s="161"/>
-      <c r="X2" s="161"/>
-      <c r="Y2" s="161"/>
-      <c r="Z2" s="162"/>
-      <c r="AA2" s="139" t="s">
+      <c r="B2" s="145"/>
+      <c r="C2" s="145"/>
+      <c r="D2" s="146"/>
+      <c r="E2" s="147" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="148"/>
+      <c r="G2" s="148"/>
+      <c r="H2" s="148"/>
+      <c r="I2" s="148"/>
+      <c r="J2" s="148"/>
+      <c r="K2" s="148"/>
+      <c r="L2" s="148"/>
+      <c r="M2" s="148"/>
+      <c r="N2" s="149"/>
+      <c r="O2" s="156"/>
+      <c r="P2" s="157"/>
+      <c r="Q2" s="157"/>
+      <c r="R2" s="158"/>
+      <c r="S2" s="165"/>
+      <c r="T2" s="166"/>
+      <c r="U2" s="166"/>
+      <c r="V2" s="166"/>
+      <c r="W2" s="166"/>
+      <c r="X2" s="166"/>
+      <c r="Y2" s="166"/>
+      <c r="Z2" s="167"/>
+      <c r="AA2" s="144" t="s">
         <v>19</v>
       </c>
-      <c r="AB2" s="141"/>
-      <c r="AC2" s="145" t="str">
+      <c r="AB2" s="146"/>
+      <c r="AC2" s="150" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="146"/>
-      <c r="AE2" s="146"/>
-      <c r="AF2" s="147"/>
-      <c r="AG2" s="133">
+      <c r="AD2" s="151"/>
+      <c r="AE2" s="151"/>
+      <c r="AF2" s="152"/>
+      <c r="AG2" s="138">
         <f>IF(D9="","",MAX(D9:F33))</f>
-        <v>43895</v>
-      </c>
-      <c r="AH2" s="134"/>
-      <c r="AI2" s="135"/>
+        <v>44796</v>
+      </c>
+      <c r="AH2" s="139"/>
+      <c r="AI2" s="140"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
@@ -3707,45 +3706,45 @@
       <c r="AN2" s="1"/>
     </row>
     <row r="3" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="139" t="s">
+      <c r="A3" s="144" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="140"/>
-      <c r="C3" s="140"/>
-      <c r="D3" s="141"/>
-      <c r="E3" s="142" t="s">
-        <v>54</v>
-      </c>
-      <c r="F3" s="143"/>
-      <c r="G3" s="143"/>
-      <c r="H3" s="143"/>
-      <c r="I3" s="143"/>
-      <c r="J3" s="143"/>
-      <c r="K3" s="143"/>
-      <c r="L3" s="143"/>
-      <c r="M3" s="143"/>
-      <c r="N3" s="144"/>
-      <c r="O3" s="154"/>
-      <c r="P3" s="155"/>
-      <c r="Q3" s="155"/>
-      <c r="R3" s="156"/>
-      <c r="S3" s="163"/>
-      <c r="T3" s="164"/>
-      <c r="U3" s="164"/>
-      <c r="V3" s="164"/>
-      <c r="W3" s="164"/>
-      <c r="X3" s="164"/>
-      <c r="Y3" s="164"/>
-      <c r="Z3" s="165"/>
-      <c r="AA3" s="139"/>
-      <c r="AB3" s="141"/>
-      <c r="AC3" s="166"/>
-      <c r="AD3" s="167"/>
-      <c r="AE3" s="167"/>
-      <c r="AF3" s="168"/>
-      <c r="AG3" s="133"/>
-      <c r="AH3" s="134"/>
-      <c r="AI3" s="135"/>
+      <c r="B3" s="145"/>
+      <c r="C3" s="145"/>
+      <c r="D3" s="146"/>
+      <c r="E3" s="147" t="s">
+        <v>80</v>
+      </c>
+      <c r="F3" s="148"/>
+      <c r="G3" s="148"/>
+      <c r="H3" s="148"/>
+      <c r="I3" s="148"/>
+      <c r="J3" s="148"/>
+      <c r="K3" s="148"/>
+      <c r="L3" s="148"/>
+      <c r="M3" s="148"/>
+      <c r="N3" s="149"/>
+      <c r="O3" s="159"/>
+      <c r="P3" s="160"/>
+      <c r="Q3" s="160"/>
+      <c r="R3" s="161"/>
+      <c r="S3" s="168"/>
+      <c r="T3" s="169"/>
+      <c r="U3" s="169"/>
+      <c r="V3" s="169"/>
+      <c r="W3" s="169"/>
+      <c r="X3" s="169"/>
+      <c r="Y3" s="169"/>
+      <c r="Z3" s="170"/>
+      <c r="AA3" s="144"/>
+      <c r="AB3" s="146"/>
+      <c r="AC3" s="171"/>
+      <c r="AD3" s="172"/>
+      <c r="AE3" s="172"/>
+      <c r="AF3" s="173"/>
+      <c r="AG3" s="138"/>
+      <c r="AH3" s="139"/>
+      <c r="AI3" s="140"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
@@ -3782,1056 +3781,1070 @@
       <c r="A7" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="136" t="s">
+      <c r="B7" s="141" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="137"/>
-      <c r="D7" s="136" t="s">
+      <c r="C7" s="142"/>
+      <c r="D7" s="141" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="138"/>
-      <c r="F7" s="137"/>
-      <c r="G7" s="136" t="s">
+      <c r="E7" s="143"/>
+      <c r="F7" s="142"/>
+      <c r="G7" s="141" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="138"/>
-      <c r="I7" s="137"/>
-      <c r="J7" s="136" t="s">
+      <c r="H7" s="143"/>
+      <c r="I7" s="142"/>
+      <c r="J7" s="141" t="s">
         <v>26</v>
       </c>
-      <c r="K7" s="138"/>
-      <c r="L7" s="138"/>
-      <c r="M7" s="138"/>
-      <c r="N7" s="138"/>
-      <c r="O7" s="138"/>
-      <c r="P7" s="137"/>
-      <c r="Q7" s="136" t="s">
+      <c r="K7" s="143"/>
+      <c r="L7" s="143"/>
+      <c r="M7" s="143"/>
+      <c r="N7" s="143"/>
+      <c r="O7" s="143"/>
+      <c r="P7" s="142"/>
+      <c r="Q7" s="141" t="s">
         <v>9</v>
       </c>
-      <c r="R7" s="138"/>
-      <c r="S7" s="138"/>
-      <c r="T7" s="138"/>
-      <c r="U7" s="138"/>
-      <c r="V7" s="138"/>
-      <c r="W7" s="138"/>
-      <c r="X7" s="138"/>
-      <c r="Y7" s="138"/>
-      <c r="Z7" s="138"/>
-      <c r="AA7" s="138"/>
-      <c r="AB7" s="138"/>
-      <c r="AC7" s="138"/>
-      <c r="AD7" s="138"/>
-      <c r="AE7" s="137"/>
-      <c r="AF7" s="136" t="s">
+      <c r="R7" s="143"/>
+      <c r="S7" s="143"/>
+      <c r="T7" s="143"/>
+      <c r="U7" s="143"/>
+      <c r="V7" s="143"/>
+      <c r="W7" s="143"/>
+      <c r="X7" s="143"/>
+      <c r="Y7" s="143"/>
+      <c r="Z7" s="143"/>
+      <c r="AA7" s="143"/>
+      <c r="AB7" s="143"/>
+      <c r="AC7" s="143"/>
+      <c r="AD7" s="143"/>
+      <c r="AE7" s="142"/>
+      <c r="AF7" s="141" t="s">
         <v>10</v>
       </c>
-      <c r="AG7" s="138"/>
-      <c r="AH7" s="138"/>
-      <c r="AI7" s="137"/>
+      <c r="AG7" s="143"/>
+      <c r="AH7" s="143"/>
+      <c r="AI7" s="142"/>
     </row>
     <row r="8" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="81">
         <v>1</v>
       </c>
-      <c r="B8" s="119">
+      <c r="B8" s="124">
         <v>1</v>
       </c>
-      <c r="C8" s="120"/>
-      <c r="D8" s="121">
+      <c r="C8" s="125"/>
+      <c r="D8" s="126">
         <v>43592</v>
       </c>
-      <c r="E8" s="122"/>
-      <c r="F8" s="123"/>
-      <c r="G8" s="124" t="s">
-        <v>47</v>
-      </c>
-      <c r="H8" s="125"/>
-      <c r="I8" s="126"/>
-      <c r="J8" s="127" t="s">
-        <v>48</v>
-      </c>
-      <c r="K8" s="128"/>
-      <c r="L8" s="128"/>
-      <c r="M8" s="128"/>
-      <c r="N8" s="128"/>
-      <c r="O8" s="128"/>
-      <c r="P8" s="129"/>
-      <c r="Q8" s="130" t="s">
+      <c r="E8" s="127"/>
+      <c r="F8" s="128"/>
+      <c r="G8" s="129" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" s="130"/>
+      <c r="I8" s="131"/>
+      <c r="J8" s="132" t="s">
+        <v>43</v>
+      </c>
+      <c r="K8" s="133"/>
+      <c r="L8" s="133"/>
+      <c r="M8" s="133"/>
+      <c r="N8" s="133"/>
+      <c r="O8" s="133"/>
+      <c r="P8" s="134"/>
+      <c r="Q8" s="135" t="s">
+        <v>44</v>
+      </c>
+      <c r="R8" s="136"/>
+      <c r="S8" s="136"/>
+      <c r="T8" s="136"/>
+      <c r="U8" s="136"/>
+      <c r="V8" s="136"/>
+      <c r="W8" s="136"/>
+      <c r="X8" s="136"/>
+      <c r="Y8" s="136"/>
+      <c r="Z8" s="136"/>
+      <c r="AA8" s="136"/>
+      <c r="AB8" s="136"/>
+      <c r="AC8" s="136"/>
+      <c r="AD8" s="136"/>
+      <c r="AE8" s="137"/>
+      <c r="AF8" s="132" t="s">
         <v>49</v>
       </c>
-      <c r="R8" s="131"/>
-      <c r="S8" s="131"/>
-      <c r="T8" s="131"/>
-      <c r="U8" s="131"/>
-      <c r="V8" s="131"/>
-      <c r="W8" s="131"/>
-      <c r="X8" s="131"/>
-      <c r="Y8" s="131"/>
-      <c r="Z8" s="131"/>
-      <c r="AA8" s="131"/>
-      <c r="AB8" s="131"/>
-      <c r="AC8" s="131"/>
-      <c r="AD8" s="131"/>
-      <c r="AE8" s="132"/>
-      <c r="AF8" s="127" t="s">
-        <v>55</v>
-      </c>
-      <c r="AG8" s="128"/>
-      <c r="AH8" s="128"/>
-      <c r="AI8" s="129"/>
+      <c r="AG8" s="133"/>
+      <c r="AH8" s="133"/>
+      <c r="AI8" s="134"/>
     </row>
     <row r="9" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="60">
         <v>2</v>
       </c>
-      <c r="B9" s="110">
+      <c r="B9" s="115">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C9" s="111"/>
-      <c r="D9" s="94">
+      <c r="C9" s="116"/>
+      <c r="D9" s="99">
         <v>43803</v>
       </c>
-      <c r="E9" s="95"/>
-      <c r="F9" s="96"/>
-      <c r="G9" s="112" t="s">
-        <v>62</v>
-      </c>
-      <c r="H9" s="113"/>
-      <c r="I9" s="114"/>
-      <c r="J9" s="108" t="s">
-        <v>63</v>
-      </c>
-      <c r="K9" s="115"/>
-      <c r="L9" s="115"/>
-      <c r="M9" s="115"/>
-      <c r="N9" s="115"/>
-      <c r="O9" s="115"/>
-      <c r="P9" s="116"/>
-      <c r="Q9" s="109" t="s">
-        <v>67</v>
-      </c>
-      <c r="R9" s="117"/>
-      <c r="S9" s="117"/>
-      <c r="T9" s="117"/>
-      <c r="U9" s="117"/>
-      <c r="V9" s="117"/>
-      <c r="W9" s="117"/>
-      <c r="X9" s="117"/>
-      <c r="Y9" s="117"/>
-      <c r="Z9" s="117"/>
-      <c r="AA9" s="117"/>
-      <c r="AB9" s="117"/>
-      <c r="AC9" s="117"/>
-      <c r="AD9" s="117"/>
-      <c r="AE9" s="118"/>
-      <c r="AF9" s="108" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG9" s="115"/>
-      <c r="AH9" s="115"/>
-      <c r="AI9" s="116"/>
+      <c r="E9" s="100"/>
+      <c r="F9" s="101"/>
+      <c r="G9" s="117" t="s">
+        <v>54</v>
+      </c>
+      <c r="H9" s="118"/>
+      <c r="I9" s="119"/>
+      <c r="J9" s="113" t="s">
+        <v>55</v>
+      </c>
+      <c r="K9" s="120"/>
+      <c r="L9" s="120"/>
+      <c r="M9" s="120"/>
+      <c r="N9" s="120"/>
+      <c r="O9" s="120"/>
+      <c r="P9" s="121"/>
+      <c r="Q9" s="114" t="s">
+        <v>59</v>
+      </c>
+      <c r="R9" s="122"/>
+      <c r="S9" s="122"/>
+      <c r="T9" s="122"/>
+      <c r="U9" s="122"/>
+      <c r="V9" s="122"/>
+      <c r="W9" s="122"/>
+      <c r="X9" s="122"/>
+      <c r="Y9" s="122"/>
+      <c r="Z9" s="122"/>
+      <c r="AA9" s="122"/>
+      <c r="AB9" s="122"/>
+      <c r="AC9" s="122"/>
+      <c r="AD9" s="122"/>
+      <c r="AE9" s="123"/>
+      <c r="AF9" s="113" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG9" s="120"/>
+      <c r="AH9" s="120"/>
+      <c r="AI9" s="121"/>
     </row>
     <row r="10" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="60">
         <v>3</v>
       </c>
-      <c r="B10" s="106" t="s">
+      <c r="B10" s="111" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="98"/>
+      <c r="D10" s="99">
+        <v>43895</v>
+      </c>
+      <c r="E10" s="100"/>
+      <c r="F10" s="101"/>
+      <c r="G10" s="112" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="103"/>
+      <c r="I10" s="104"/>
+      <c r="J10" s="113" t="s">
+        <v>55</v>
+      </c>
+      <c r="K10" s="106"/>
+      <c r="L10" s="106"/>
+      <c r="M10" s="106"/>
+      <c r="N10" s="106"/>
+      <c r="O10" s="106"/>
+      <c r="P10" s="107"/>
+      <c r="Q10" s="114" t="s">
+        <v>69</v>
+      </c>
+      <c r="R10" s="109"/>
+      <c r="S10" s="109"/>
+      <c r="T10" s="109"/>
+      <c r="U10" s="109"/>
+      <c r="V10" s="109"/>
+      <c r="W10" s="109"/>
+      <c r="X10" s="109"/>
+      <c r="Y10" s="109"/>
+      <c r="Z10" s="109"/>
+      <c r="AA10" s="109"/>
+      <c r="AB10" s="109"/>
+      <c r="AC10" s="109"/>
+      <c r="AD10" s="109"/>
+      <c r="AE10" s="110"/>
+      <c r="AF10" s="113" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG10" s="106"/>
+      <c r="AH10" s="106"/>
+      <c r="AI10" s="107"/>
+    </row>
+    <row r="11" spans="1:40" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="60">
+        <v>4</v>
+      </c>
+      <c r="B11" s="111" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="98"/>
+      <c r="D11" s="99">
+        <v>44796</v>
+      </c>
+      <c r="E11" s="100"/>
+      <c r="F11" s="101"/>
+      <c r="G11" s="112" t="s">
+        <v>4</v>
+      </c>
+      <c r="H11" s="103"/>
+      <c r="I11" s="104"/>
+      <c r="J11" s="113" t="s">
+        <v>55</v>
+      </c>
+      <c r="K11" s="106"/>
+      <c r="L11" s="106"/>
+      <c r="M11" s="106"/>
+      <c r="N11" s="106"/>
+      <c r="O11" s="106"/>
+      <c r="P11" s="107"/>
+      <c r="Q11" s="114" t="s">
         <v>79</v>
       </c>
-      <c r="C10" s="93"/>
-      <c r="D10" s="94">
-        <v>43895</v>
-      </c>
-      <c r="E10" s="95"/>
-      <c r="F10" s="96"/>
-      <c r="G10" s="107" t="s">
-        <v>4</v>
-      </c>
-      <c r="H10" s="98"/>
-      <c r="I10" s="99"/>
-      <c r="J10" s="108" t="s">
-        <v>63</v>
-      </c>
-      <c r="K10" s="101"/>
-      <c r="L10" s="101"/>
-      <c r="M10" s="101"/>
-      <c r="N10" s="101"/>
-      <c r="O10" s="101"/>
-      <c r="P10" s="102"/>
-      <c r="Q10" s="109" t="s">
-        <v>77</v>
-      </c>
-      <c r="R10" s="104"/>
-      <c r="S10" s="104"/>
-      <c r="T10" s="104"/>
-      <c r="U10" s="104"/>
-      <c r="V10" s="104"/>
-      <c r="W10" s="104"/>
-      <c r="X10" s="104"/>
-      <c r="Y10" s="104"/>
-      <c r="Z10" s="104"/>
-      <c r="AA10" s="104"/>
-      <c r="AB10" s="104"/>
-      <c r="AC10" s="104"/>
-      <c r="AD10" s="104"/>
-      <c r="AE10" s="105"/>
-      <c r="AF10" s="108" t="s">
-        <v>55</v>
-      </c>
-      <c r="AG10" s="101"/>
-      <c r="AH10" s="101"/>
-      <c r="AI10" s="102"/>
-    </row>
-    <row r="11" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="60"/>
-      <c r="B11" s="92"/>
-      <c r="C11" s="93"/>
-      <c r="D11" s="94"/>
-      <c r="E11" s="95"/>
-      <c r="F11" s="96"/>
-      <c r="G11" s="97"/>
-      <c r="H11" s="98"/>
-      <c r="I11" s="99"/>
-      <c r="J11" s="100"/>
-      <c r="K11" s="101"/>
-      <c r="L11" s="101"/>
-      <c r="M11" s="101"/>
-      <c r="N11" s="101"/>
-      <c r="O11" s="101"/>
-      <c r="P11" s="102"/>
-      <c r="Q11" s="103"/>
-      <c r="R11" s="104"/>
-      <c r="S11" s="104"/>
-      <c r="T11" s="104"/>
-      <c r="U11" s="104"/>
-      <c r="V11" s="104"/>
-      <c r="W11" s="104"/>
-      <c r="X11" s="104"/>
-      <c r="Y11" s="104"/>
-      <c r="Z11" s="104"/>
-      <c r="AA11" s="104"/>
-      <c r="AB11" s="104"/>
-      <c r="AC11" s="104"/>
-      <c r="AD11" s="104"/>
-      <c r="AE11" s="105"/>
-      <c r="AF11" s="100"/>
-      <c r="AG11" s="101"/>
-      <c r="AH11" s="101"/>
-      <c r="AI11" s="102"/>
+      <c r="R11" s="109"/>
+      <c r="S11" s="109"/>
+      <c r="T11" s="109"/>
+      <c r="U11" s="109"/>
+      <c r="V11" s="109"/>
+      <c r="W11" s="109"/>
+      <c r="X11" s="109"/>
+      <c r="Y11" s="109"/>
+      <c r="Z11" s="109"/>
+      <c r="AA11" s="109"/>
+      <c r="AB11" s="109"/>
+      <c r="AC11" s="109"/>
+      <c r="AD11" s="109"/>
+      <c r="AE11" s="110"/>
+      <c r="AF11" s="113" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG11" s="106"/>
+      <c r="AH11" s="106"/>
+      <c r="AI11" s="107"/>
     </row>
     <row r="12" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="60"/>
-      <c r="B12" s="92"/>
-      <c r="C12" s="93"/>
-      <c r="D12" s="94"/>
-      <c r="E12" s="95"/>
-      <c r="F12" s="96"/>
-      <c r="G12" s="97"/>
-      <c r="H12" s="98"/>
-      <c r="I12" s="99"/>
-      <c r="J12" s="100"/>
-      <c r="K12" s="101"/>
-      <c r="L12" s="101"/>
-      <c r="M12" s="101"/>
-      <c r="N12" s="101"/>
-      <c r="O12" s="101"/>
-      <c r="P12" s="102"/>
-      <c r="Q12" s="103"/>
-      <c r="R12" s="104"/>
-      <c r="S12" s="104"/>
-      <c r="T12" s="104"/>
-      <c r="U12" s="104"/>
-      <c r="V12" s="104"/>
-      <c r="W12" s="104"/>
-      <c r="X12" s="104"/>
-      <c r="Y12" s="104"/>
-      <c r="Z12" s="104"/>
-      <c r="AA12" s="104"/>
-      <c r="AB12" s="104"/>
-      <c r="AC12" s="104"/>
-      <c r="AD12" s="104"/>
-      <c r="AE12" s="105"/>
-      <c r="AF12" s="100"/>
-      <c r="AG12" s="101"/>
-      <c r="AH12" s="101"/>
-      <c r="AI12" s="102"/>
+      <c r="B12" s="97"/>
+      <c r="C12" s="98"/>
+      <c r="D12" s="99"/>
+      <c r="E12" s="100"/>
+      <c r="F12" s="101"/>
+      <c r="G12" s="102"/>
+      <c r="H12" s="103"/>
+      <c r="I12" s="104"/>
+      <c r="J12" s="105"/>
+      <c r="K12" s="106"/>
+      <c r="L12" s="106"/>
+      <c r="M12" s="106"/>
+      <c r="N12" s="106"/>
+      <c r="O12" s="106"/>
+      <c r="P12" s="107"/>
+      <c r="Q12" s="108"/>
+      <c r="R12" s="109"/>
+      <c r="S12" s="109"/>
+      <c r="T12" s="109"/>
+      <c r="U12" s="109"/>
+      <c r="V12" s="109"/>
+      <c r="W12" s="109"/>
+      <c r="X12" s="109"/>
+      <c r="Y12" s="109"/>
+      <c r="Z12" s="109"/>
+      <c r="AA12" s="109"/>
+      <c r="AB12" s="109"/>
+      <c r="AC12" s="109"/>
+      <c r="AD12" s="109"/>
+      <c r="AE12" s="110"/>
+      <c r="AF12" s="105"/>
+      <c r="AG12" s="106"/>
+      <c r="AH12" s="106"/>
+      <c r="AI12" s="107"/>
     </row>
     <row r="13" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="60"/>
-      <c r="B13" s="92"/>
-      <c r="C13" s="93"/>
-      <c r="D13" s="94"/>
-      <c r="E13" s="95"/>
-      <c r="F13" s="96"/>
-      <c r="G13" s="97"/>
-      <c r="H13" s="98"/>
-      <c r="I13" s="99"/>
-      <c r="J13" s="100"/>
-      <c r="K13" s="101"/>
-      <c r="L13" s="101"/>
-      <c r="M13" s="101"/>
-      <c r="N13" s="101"/>
-      <c r="O13" s="101"/>
-      <c r="P13" s="102"/>
-      <c r="Q13" s="103"/>
-      <c r="R13" s="104"/>
-      <c r="S13" s="104"/>
-      <c r="T13" s="104"/>
-      <c r="U13" s="104"/>
-      <c r="V13" s="104"/>
-      <c r="W13" s="104"/>
-      <c r="X13" s="104"/>
-      <c r="Y13" s="104"/>
-      <c r="Z13" s="104"/>
-      <c r="AA13" s="104"/>
-      <c r="AB13" s="104"/>
-      <c r="AC13" s="104"/>
-      <c r="AD13" s="104"/>
-      <c r="AE13" s="105"/>
-      <c r="AF13" s="100"/>
-      <c r="AG13" s="101"/>
-      <c r="AH13" s="101"/>
-      <c r="AI13" s="102"/>
+      <c r="B13" s="97"/>
+      <c r="C13" s="98"/>
+      <c r="D13" s="99"/>
+      <c r="E13" s="100"/>
+      <c r="F13" s="101"/>
+      <c r="G13" s="102"/>
+      <c r="H13" s="103"/>
+      <c r="I13" s="104"/>
+      <c r="J13" s="105"/>
+      <c r="K13" s="106"/>
+      <c r="L13" s="106"/>
+      <c r="M13" s="106"/>
+      <c r="N13" s="106"/>
+      <c r="O13" s="106"/>
+      <c r="P13" s="107"/>
+      <c r="Q13" s="108"/>
+      <c r="R13" s="109"/>
+      <c r="S13" s="109"/>
+      <c r="T13" s="109"/>
+      <c r="U13" s="109"/>
+      <c r="V13" s="109"/>
+      <c r="W13" s="109"/>
+      <c r="X13" s="109"/>
+      <c r="Y13" s="109"/>
+      <c r="Z13" s="109"/>
+      <c r="AA13" s="109"/>
+      <c r="AB13" s="109"/>
+      <c r="AC13" s="109"/>
+      <c r="AD13" s="109"/>
+      <c r="AE13" s="110"/>
+      <c r="AF13" s="105"/>
+      <c r="AG13" s="106"/>
+      <c r="AH13" s="106"/>
+      <c r="AI13" s="107"/>
     </row>
     <row r="14" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="60"/>
-      <c r="B14" s="92"/>
-      <c r="C14" s="93"/>
-      <c r="D14" s="94"/>
-      <c r="E14" s="95"/>
-      <c r="F14" s="96"/>
-      <c r="G14" s="97"/>
-      <c r="H14" s="98"/>
-      <c r="I14" s="99"/>
-      <c r="J14" s="100"/>
-      <c r="K14" s="101"/>
-      <c r="L14" s="101"/>
-      <c r="M14" s="101"/>
-      <c r="N14" s="101"/>
-      <c r="O14" s="101"/>
-      <c r="P14" s="102"/>
-      <c r="Q14" s="103"/>
-      <c r="R14" s="104"/>
-      <c r="S14" s="104"/>
-      <c r="T14" s="104"/>
-      <c r="U14" s="104"/>
-      <c r="V14" s="104"/>
-      <c r="W14" s="104"/>
-      <c r="X14" s="104"/>
-      <c r="Y14" s="104"/>
-      <c r="Z14" s="104"/>
-      <c r="AA14" s="104"/>
-      <c r="AB14" s="104"/>
-      <c r="AC14" s="104"/>
-      <c r="AD14" s="104"/>
-      <c r="AE14" s="105"/>
-      <c r="AF14" s="100"/>
-      <c r="AG14" s="101"/>
-      <c r="AH14" s="101"/>
-      <c r="AI14" s="102"/>
+      <c r="B14" s="97"/>
+      <c r="C14" s="98"/>
+      <c r="D14" s="99"/>
+      <c r="E14" s="100"/>
+      <c r="F14" s="101"/>
+      <c r="G14" s="102"/>
+      <c r="H14" s="103"/>
+      <c r="I14" s="104"/>
+      <c r="J14" s="105"/>
+      <c r="K14" s="106"/>
+      <c r="L14" s="106"/>
+      <c r="M14" s="106"/>
+      <c r="N14" s="106"/>
+      <c r="O14" s="106"/>
+      <c r="P14" s="107"/>
+      <c r="Q14" s="108"/>
+      <c r="R14" s="109"/>
+      <c r="S14" s="109"/>
+      <c r="T14" s="109"/>
+      <c r="U14" s="109"/>
+      <c r="V14" s="109"/>
+      <c r="W14" s="109"/>
+      <c r="X14" s="109"/>
+      <c r="Y14" s="109"/>
+      <c r="Z14" s="109"/>
+      <c r="AA14" s="109"/>
+      <c r="AB14" s="109"/>
+      <c r="AC14" s="109"/>
+      <c r="AD14" s="109"/>
+      <c r="AE14" s="110"/>
+      <c r="AF14" s="105"/>
+      <c r="AG14" s="106"/>
+      <c r="AH14" s="106"/>
+      <c r="AI14" s="107"/>
     </row>
     <row r="15" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="60"/>
-      <c r="B15" s="92"/>
-      <c r="C15" s="93"/>
-      <c r="D15" s="94"/>
-      <c r="E15" s="95"/>
-      <c r="F15" s="96"/>
-      <c r="G15" s="97"/>
-      <c r="H15" s="98"/>
-      <c r="I15" s="99"/>
-      <c r="J15" s="100"/>
-      <c r="K15" s="101"/>
-      <c r="L15" s="101"/>
-      <c r="M15" s="101"/>
-      <c r="N15" s="101"/>
-      <c r="O15" s="101"/>
-      <c r="P15" s="102"/>
-      <c r="Q15" s="103"/>
-      <c r="R15" s="104"/>
-      <c r="S15" s="104"/>
-      <c r="T15" s="104"/>
-      <c r="U15" s="104"/>
-      <c r="V15" s="104"/>
-      <c r="W15" s="104"/>
-      <c r="X15" s="104"/>
-      <c r="Y15" s="104"/>
-      <c r="Z15" s="104"/>
-      <c r="AA15" s="104"/>
-      <c r="AB15" s="104"/>
-      <c r="AC15" s="104"/>
-      <c r="AD15" s="104"/>
-      <c r="AE15" s="105"/>
-      <c r="AF15" s="100"/>
-      <c r="AG15" s="101"/>
-      <c r="AH15" s="101"/>
-      <c r="AI15" s="102"/>
+      <c r="B15" s="97"/>
+      <c r="C15" s="98"/>
+      <c r="D15" s="99"/>
+      <c r="E15" s="100"/>
+      <c r="F15" s="101"/>
+      <c r="G15" s="102"/>
+      <c r="H15" s="103"/>
+      <c r="I15" s="104"/>
+      <c r="J15" s="105"/>
+      <c r="K15" s="106"/>
+      <c r="L15" s="106"/>
+      <c r="M15" s="106"/>
+      <c r="N15" s="106"/>
+      <c r="O15" s="106"/>
+      <c r="P15" s="107"/>
+      <c r="Q15" s="108"/>
+      <c r="R15" s="109"/>
+      <c r="S15" s="109"/>
+      <c r="T15" s="109"/>
+      <c r="U15" s="109"/>
+      <c r="V15" s="109"/>
+      <c r="W15" s="109"/>
+      <c r="X15" s="109"/>
+      <c r="Y15" s="109"/>
+      <c r="Z15" s="109"/>
+      <c r="AA15" s="109"/>
+      <c r="AB15" s="109"/>
+      <c r="AC15" s="109"/>
+      <c r="AD15" s="109"/>
+      <c r="AE15" s="110"/>
+      <c r="AF15" s="105"/>
+      <c r="AG15" s="106"/>
+      <c r="AH15" s="106"/>
+      <c r="AI15" s="107"/>
     </row>
     <row r="16" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="60"/>
-      <c r="B16" s="92"/>
-      <c r="C16" s="93"/>
-      <c r="D16" s="94"/>
-      <c r="E16" s="95"/>
-      <c r="F16" s="96"/>
-      <c r="G16" s="97"/>
-      <c r="H16" s="98"/>
-      <c r="I16" s="99"/>
-      <c r="J16" s="100"/>
-      <c r="K16" s="101"/>
-      <c r="L16" s="101"/>
-      <c r="M16" s="101"/>
-      <c r="N16" s="101"/>
-      <c r="O16" s="101"/>
-      <c r="P16" s="102"/>
-      <c r="Q16" s="103"/>
-      <c r="R16" s="104"/>
-      <c r="S16" s="104"/>
-      <c r="T16" s="104"/>
-      <c r="U16" s="104"/>
-      <c r="V16" s="104"/>
-      <c r="W16" s="104"/>
-      <c r="X16" s="104"/>
-      <c r="Y16" s="104"/>
-      <c r="Z16" s="104"/>
-      <c r="AA16" s="104"/>
-      <c r="AB16" s="104"/>
-      <c r="AC16" s="104"/>
-      <c r="AD16" s="104"/>
-      <c r="AE16" s="105"/>
-      <c r="AF16" s="100"/>
-      <c r="AG16" s="101"/>
-      <c r="AH16" s="101"/>
-      <c r="AI16" s="102"/>
+      <c r="B16" s="97"/>
+      <c r="C16" s="98"/>
+      <c r="D16" s="99"/>
+      <c r="E16" s="100"/>
+      <c r="F16" s="101"/>
+      <c r="G16" s="102"/>
+      <c r="H16" s="103"/>
+      <c r="I16" s="104"/>
+      <c r="J16" s="105"/>
+      <c r="K16" s="106"/>
+      <c r="L16" s="106"/>
+      <c r="M16" s="106"/>
+      <c r="N16" s="106"/>
+      <c r="O16" s="106"/>
+      <c r="P16" s="107"/>
+      <c r="Q16" s="108"/>
+      <c r="R16" s="109"/>
+      <c r="S16" s="109"/>
+      <c r="T16" s="109"/>
+      <c r="U16" s="109"/>
+      <c r="V16" s="109"/>
+      <c r="W16" s="109"/>
+      <c r="X16" s="109"/>
+      <c r="Y16" s="109"/>
+      <c r="Z16" s="109"/>
+      <c r="AA16" s="109"/>
+      <c r="AB16" s="109"/>
+      <c r="AC16" s="109"/>
+      <c r="AD16" s="109"/>
+      <c r="AE16" s="110"/>
+      <c r="AF16" s="105"/>
+      <c r="AG16" s="106"/>
+      <c r="AH16" s="106"/>
+      <c r="AI16" s="107"/>
     </row>
     <row r="17" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="60"/>
-      <c r="B17" s="92"/>
-      <c r="C17" s="93"/>
-      <c r="D17" s="94"/>
-      <c r="E17" s="95"/>
-      <c r="F17" s="96"/>
-      <c r="G17" s="97"/>
-      <c r="H17" s="98"/>
-      <c r="I17" s="99"/>
-      <c r="J17" s="100"/>
-      <c r="K17" s="101"/>
-      <c r="L17" s="101"/>
-      <c r="M17" s="101"/>
-      <c r="N17" s="101"/>
-      <c r="O17" s="101"/>
-      <c r="P17" s="102"/>
-      <c r="Q17" s="103"/>
-      <c r="R17" s="104"/>
-      <c r="S17" s="104"/>
-      <c r="T17" s="104"/>
-      <c r="U17" s="104"/>
-      <c r="V17" s="104"/>
-      <c r="W17" s="104"/>
-      <c r="X17" s="104"/>
-      <c r="Y17" s="104"/>
-      <c r="Z17" s="104"/>
-      <c r="AA17" s="104"/>
-      <c r="AB17" s="104"/>
-      <c r="AC17" s="104"/>
-      <c r="AD17" s="104"/>
-      <c r="AE17" s="105"/>
-      <c r="AF17" s="100"/>
-      <c r="AG17" s="101"/>
-      <c r="AH17" s="101"/>
-      <c r="AI17" s="102"/>
+      <c r="B17" s="97"/>
+      <c r="C17" s="98"/>
+      <c r="D17" s="99"/>
+      <c r="E17" s="100"/>
+      <c r="F17" s="101"/>
+      <c r="G17" s="102"/>
+      <c r="H17" s="103"/>
+      <c r="I17" s="104"/>
+      <c r="J17" s="105"/>
+      <c r="K17" s="106"/>
+      <c r="L17" s="106"/>
+      <c r="M17" s="106"/>
+      <c r="N17" s="106"/>
+      <c r="O17" s="106"/>
+      <c r="P17" s="107"/>
+      <c r="Q17" s="108"/>
+      <c r="R17" s="109"/>
+      <c r="S17" s="109"/>
+      <c r="T17" s="109"/>
+      <c r="U17" s="109"/>
+      <c r="V17" s="109"/>
+      <c r="W17" s="109"/>
+      <c r="X17" s="109"/>
+      <c r="Y17" s="109"/>
+      <c r="Z17" s="109"/>
+      <c r="AA17" s="109"/>
+      <c r="AB17" s="109"/>
+      <c r="AC17" s="109"/>
+      <c r="AD17" s="109"/>
+      <c r="AE17" s="110"/>
+      <c r="AF17" s="105"/>
+      <c r="AG17" s="106"/>
+      <c r="AH17" s="106"/>
+      <c r="AI17" s="107"/>
     </row>
     <row r="18" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="60"/>
-      <c r="B18" s="92"/>
-      <c r="C18" s="93"/>
-      <c r="D18" s="94"/>
-      <c r="E18" s="95"/>
-      <c r="F18" s="96"/>
-      <c r="G18" s="97"/>
-      <c r="H18" s="98"/>
-      <c r="I18" s="99"/>
-      <c r="J18" s="100"/>
-      <c r="K18" s="101"/>
-      <c r="L18" s="101"/>
-      <c r="M18" s="101"/>
-      <c r="N18" s="101"/>
-      <c r="O18" s="101"/>
-      <c r="P18" s="102"/>
-      <c r="Q18" s="103"/>
-      <c r="R18" s="104"/>
-      <c r="S18" s="104"/>
-      <c r="T18" s="104"/>
-      <c r="U18" s="104"/>
-      <c r="V18" s="104"/>
-      <c r="W18" s="104"/>
-      <c r="X18" s="104"/>
-      <c r="Y18" s="104"/>
-      <c r="Z18" s="104"/>
-      <c r="AA18" s="104"/>
-      <c r="AB18" s="104"/>
-      <c r="AC18" s="104"/>
-      <c r="AD18" s="104"/>
-      <c r="AE18" s="105"/>
-      <c r="AF18" s="100"/>
-      <c r="AG18" s="101"/>
-      <c r="AH18" s="101"/>
-      <c r="AI18" s="102"/>
+      <c r="B18" s="97"/>
+      <c r="C18" s="98"/>
+      <c r="D18" s="99"/>
+      <c r="E18" s="100"/>
+      <c r="F18" s="101"/>
+      <c r="G18" s="102"/>
+      <c r="H18" s="103"/>
+      <c r="I18" s="104"/>
+      <c r="J18" s="105"/>
+      <c r="K18" s="106"/>
+      <c r="L18" s="106"/>
+      <c r="M18" s="106"/>
+      <c r="N18" s="106"/>
+      <c r="O18" s="106"/>
+      <c r="P18" s="107"/>
+      <c r="Q18" s="108"/>
+      <c r="R18" s="109"/>
+      <c r="S18" s="109"/>
+      <c r="T18" s="109"/>
+      <c r="U18" s="109"/>
+      <c r="V18" s="109"/>
+      <c r="W18" s="109"/>
+      <c r="X18" s="109"/>
+      <c r="Y18" s="109"/>
+      <c r="Z18" s="109"/>
+      <c r="AA18" s="109"/>
+      <c r="AB18" s="109"/>
+      <c r="AC18" s="109"/>
+      <c r="AD18" s="109"/>
+      <c r="AE18" s="110"/>
+      <c r="AF18" s="105"/>
+      <c r="AG18" s="106"/>
+      <c r="AH18" s="106"/>
+      <c r="AI18" s="107"/>
     </row>
     <row r="19" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="60"/>
-      <c r="B19" s="92"/>
-      <c r="C19" s="93"/>
-      <c r="D19" s="94"/>
-      <c r="E19" s="95"/>
-      <c r="F19" s="96"/>
-      <c r="G19" s="97"/>
-      <c r="H19" s="98"/>
-      <c r="I19" s="99"/>
-      <c r="J19" s="100"/>
-      <c r="K19" s="101"/>
-      <c r="L19" s="101"/>
-      <c r="M19" s="101"/>
-      <c r="N19" s="101"/>
-      <c r="O19" s="101"/>
-      <c r="P19" s="102"/>
-      <c r="Q19" s="103"/>
-      <c r="R19" s="104"/>
-      <c r="S19" s="104"/>
-      <c r="T19" s="104"/>
-      <c r="U19" s="104"/>
-      <c r="V19" s="104"/>
-      <c r="W19" s="104"/>
-      <c r="X19" s="104"/>
-      <c r="Y19" s="104"/>
-      <c r="Z19" s="104"/>
-      <c r="AA19" s="104"/>
-      <c r="AB19" s="104"/>
-      <c r="AC19" s="104"/>
-      <c r="AD19" s="104"/>
-      <c r="AE19" s="105"/>
-      <c r="AF19" s="100"/>
-      <c r="AG19" s="101"/>
-      <c r="AH19" s="101"/>
-      <c r="AI19" s="102"/>
+      <c r="B19" s="97"/>
+      <c r="C19" s="98"/>
+      <c r="D19" s="99"/>
+      <c r="E19" s="100"/>
+      <c r="F19" s="101"/>
+      <c r="G19" s="102"/>
+      <c r="H19" s="103"/>
+      <c r="I19" s="104"/>
+      <c r="J19" s="105"/>
+      <c r="K19" s="106"/>
+      <c r="L19" s="106"/>
+      <c r="M19" s="106"/>
+      <c r="N19" s="106"/>
+      <c r="O19" s="106"/>
+      <c r="P19" s="107"/>
+      <c r="Q19" s="108"/>
+      <c r="R19" s="109"/>
+      <c r="S19" s="109"/>
+      <c r="T19" s="109"/>
+      <c r="U19" s="109"/>
+      <c r="V19" s="109"/>
+      <c r="W19" s="109"/>
+      <c r="X19" s="109"/>
+      <c r="Y19" s="109"/>
+      <c r="Z19" s="109"/>
+      <c r="AA19" s="109"/>
+      <c r="AB19" s="109"/>
+      <c r="AC19" s="109"/>
+      <c r="AD19" s="109"/>
+      <c r="AE19" s="110"/>
+      <c r="AF19" s="105"/>
+      <c r="AG19" s="106"/>
+      <c r="AH19" s="106"/>
+      <c r="AI19" s="107"/>
     </row>
     <row r="20" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="60"/>
-      <c r="B20" s="92"/>
-      <c r="C20" s="93"/>
-      <c r="D20" s="94"/>
-      <c r="E20" s="95"/>
-      <c r="F20" s="96"/>
-      <c r="G20" s="97"/>
-      <c r="H20" s="98"/>
-      <c r="I20" s="99"/>
-      <c r="J20" s="100"/>
-      <c r="K20" s="101"/>
-      <c r="L20" s="101"/>
-      <c r="M20" s="101"/>
-      <c r="N20" s="101"/>
-      <c r="O20" s="101"/>
-      <c r="P20" s="102"/>
-      <c r="Q20" s="103"/>
-      <c r="R20" s="104"/>
-      <c r="S20" s="104"/>
-      <c r="T20" s="104"/>
-      <c r="U20" s="104"/>
-      <c r="V20" s="104"/>
-      <c r="W20" s="104"/>
-      <c r="X20" s="104"/>
-      <c r="Y20" s="104"/>
-      <c r="Z20" s="104"/>
-      <c r="AA20" s="104"/>
-      <c r="AB20" s="104"/>
-      <c r="AC20" s="104"/>
-      <c r="AD20" s="104"/>
-      <c r="AE20" s="105"/>
-      <c r="AF20" s="100"/>
-      <c r="AG20" s="101"/>
-      <c r="AH20" s="101"/>
-      <c r="AI20" s="102"/>
+      <c r="B20" s="97"/>
+      <c r="C20" s="98"/>
+      <c r="D20" s="99"/>
+      <c r="E20" s="100"/>
+      <c r="F20" s="101"/>
+      <c r="G20" s="102"/>
+      <c r="H20" s="103"/>
+      <c r="I20" s="104"/>
+      <c r="J20" s="105"/>
+      <c r="K20" s="106"/>
+      <c r="L20" s="106"/>
+      <c r="M20" s="106"/>
+      <c r="N20" s="106"/>
+      <c r="O20" s="106"/>
+      <c r="P20" s="107"/>
+      <c r="Q20" s="108"/>
+      <c r="R20" s="109"/>
+      <c r="S20" s="109"/>
+      <c r="T20" s="109"/>
+      <c r="U20" s="109"/>
+      <c r="V20" s="109"/>
+      <c r="W20" s="109"/>
+      <c r="X20" s="109"/>
+      <c r="Y20" s="109"/>
+      <c r="Z20" s="109"/>
+      <c r="AA20" s="109"/>
+      <c r="AB20" s="109"/>
+      <c r="AC20" s="109"/>
+      <c r="AD20" s="109"/>
+      <c r="AE20" s="110"/>
+      <c r="AF20" s="105"/>
+      <c r="AG20" s="106"/>
+      <c r="AH20" s="106"/>
+      <c r="AI20" s="107"/>
     </row>
     <row r="21" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="60"/>
-      <c r="B21" s="92"/>
-      <c r="C21" s="93"/>
-      <c r="D21" s="94"/>
-      <c r="E21" s="95"/>
-      <c r="F21" s="96"/>
-      <c r="G21" s="97"/>
-      <c r="H21" s="98"/>
-      <c r="I21" s="99"/>
-      <c r="J21" s="100"/>
-      <c r="K21" s="101"/>
-      <c r="L21" s="101"/>
-      <c r="M21" s="101"/>
-      <c r="N21" s="101"/>
-      <c r="O21" s="101"/>
-      <c r="P21" s="102"/>
-      <c r="Q21" s="103"/>
-      <c r="R21" s="104"/>
-      <c r="S21" s="104"/>
-      <c r="T21" s="104"/>
-      <c r="U21" s="104"/>
-      <c r="V21" s="104"/>
-      <c r="W21" s="104"/>
-      <c r="X21" s="104"/>
-      <c r="Y21" s="104"/>
-      <c r="Z21" s="104"/>
-      <c r="AA21" s="104"/>
-      <c r="AB21" s="104"/>
-      <c r="AC21" s="104"/>
-      <c r="AD21" s="104"/>
-      <c r="AE21" s="105"/>
-      <c r="AF21" s="100"/>
-      <c r="AG21" s="101"/>
-      <c r="AH21" s="101"/>
-      <c r="AI21" s="102"/>
+      <c r="B21" s="97"/>
+      <c r="C21" s="98"/>
+      <c r="D21" s="99"/>
+      <c r="E21" s="100"/>
+      <c r="F21" s="101"/>
+      <c r="G21" s="102"/>
+      <c r="H21" s="103"/>
+      <c r="I21" s="104"/>
+      <c r="J21" s="105"/>
+      <c r="K21" s="106"/>
+      <c r="L21" s="106"/>
+      <c r="M21" s="106"/>
+      <c r="N21" s="106"/>
+      <c r="O21" s="106"/>
+      <c r="P21" s="107"/>
+      <c r="Q21" s="108"/>
+      <c r="R21" s="109"/>
+      <c r="S21" s="109"/>
+      <c r="T21" s="109"/>
+      <c r="U21" s="109"/>
+      <c r="V21" s="109"/>
+      <c r="W21" s="109"/>
+      <c r="X21" s="109"/>
+      <c r="Y21" s="109"/>
+      <c r="Z21" s="109"/>
+      <c r="AA21" s="109"/>
+      <c r="AB21" s="109"/>
+      <c r="AC21" s="109"/>
+      <c r="AD21" s="109"/>
+      <c r="AE21" s="110"/>
+      <c r="AF21" s="105"/>
+      <c r="AG21" s="106"/>
+      <c r="AH21" s="106"/>
+      <c r="AI21" s="107"/>
     </row>
     <row r="22" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="60"/>
-      <c r="B22" s="92"/>
-      <c r="C22" s="93"/>
-      <c r="D22" s="94"/>
-      <c r="E22" s="95"/>
-      <c r="F22" s="96"/>
-      <c r="G22" s="97"/>
-      <c r="H22" s="98"/>
-      <c r="I22" s="99"/>
-      <c r="J22" s="100"/>
-      <c r="K22" s="101"/>
-      <c r="L22" s="101"/>
-      <c r="M22" s="101"/>
-      <c r="N22" s="101"/>
-      <c r="O22" s="101"/>
-      <c r="P22" s="102"/>
-      <c r="Q22" s="103"/>
-      <c r="R22" s="104"/>
-      <c r="S22" s="104"/>
-      <c r="T22" s="104"/>
-      <c r="U22" s="104"/>
-      <c r="V22" s="104"/>
-      <c r="W22" s="104"/>
-      <c r="X22" s="104"/>
-      <c r="Y22" s="104"/>
-      <c r="Z22" s="104"/>
-      <c r="AA22" s="104"/>
-      <c r="AB22" s="104"/>
-      <c r="AC22" s="104"/>
-      <c r="AD22" s="104"/>
-      <c r="AE22" s="105"/>
-      <c r="AF22" s="100"/>
-      <c r="AG22" s="101"/>
-      <c r="AH22" s="101"/>
-      <c r="AI22" s="102"/>
+      <c r="B22" s="97"/>
+      <c r="C22" s="98"/>
+      <c r="D22" s="99"/>
+      <c r="E22" s="100"/>
+      <c r="F22" s="101"/>
+      <c r="G22" s="102"/>
+      <c r="H22" s="103"/>
+      <c r="I22" s="104"/>
+      <c r="J22" s="105"/>
+      <c r="K22" s="106"/>
+      <c r="L22" s="106"/>
+      <c r="M22" s="106"/>
+      <c r="N22" s="106"/>
+      <c r="O22" s="106"/>
+      <c r="P22" s="107"/>
+      <c r="Q22" s="108"/>
+      <c r="R22" s="109"/>
+      <c r="S22" s="109"/>
+      <c r="T22" s="109"/>
+      <c r="U22" s="109"/>
+      <c r="V22" s="109"/>
+      <c r="W22" s="109"/>
+      <c r="X22" s="109"/>
+      <c r="Y22" s="109"/>
+      <c r="Z22" s="109"/>
+      <c r="AA22" s="109"/>
+      <c r="AB22" s="109"/>
+      <c r="AC22" s="109"/>
+      <c r="AD22" s="109"/>
+      <c r="AE22" s="110"/>
+      <c r="AF22" s="105"/>
+      <c r="AG22" s="106"/>
+      <c r="AH22" s="106"/>
+      <c r="AI22" s="107"/>
     </row>
     <row r="23" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="60"/>
-      <c r="B23" s="92"/>
-      <c r="C23" s="93"/>
-      <c r="D23" s="94"/>
-      <c r="E23" s="95"/>
-      <c r="F23" s="96"/>
-      <c r="G23" s="97"/>
-      <c r="H23" s="98"/>
-      <c r="I23" s="99"/>
-      <c r="J23" s="100"/>
-      <c r="K23" s="101"/>
-      <c r="L23" s="101"/>
-      <c r="M23" s="101"/>
-      <c r="N23" s="101"/>
-      <c r="O23" s="101"/>
-      <c r="P23" s="102"/>
-      <c r="Q23" s="103"/>
-      <c r="R23" s="104"/>
-      <c r="S23" s="104"/>
-      <c r="T23" s="104"/>
-      <c r="U23" s="104"/>
-      <c r="V23" s="104"/>
-      <c r="W23" s="104"/>
-      <c r="X23" s="104"/>
-      <c r="Y23" s="104"/>
-      <c r="Z23" s="104"/>
-      <c r="AA23" s="104"/>
-      <c r="AB23" s="104"/>
-      <c r="AC23" s="104"/>
-      <c r="AD23" s="104"/>
-      <c r="AE23" s="105"/>
-      <c r="AF23" s="100"/>
-      <c r="AG23" s="101"/>
-      <c r="AH23" s="101"/>
-      <c r="AI23" s="102"/>
+      <c r="B23" s="97"/>
+      <c r="C23" s="98"/>
+      <c r="D23" s="99"/>
+      <c r="E23" s="100"/>
+      <c r="F23" s="101"/>
+      <c r="G23" s="102"/>
+      <c r="H23" s="103"/>
+      <c r="I23" s="104"/>
+      <c r="J23" s="105"/>
+      <c r="K23" s="106"/>
+      <c r="L23" s="106"/>
+      <c r="M23" s="106"/>
+      <c r="N23" s="106"/>
+      <c r="O23" s="106"/>
+      <c r="P23" s="107"/>
+      <c r="Q23" s="108"/>
+      <c r="R23" s="109"/>
+      <c r="S23" s="109"/>
+      <c r="T23" s="109"/>
+      <c r="U23" s="109"/>
+      <c r="V23" s="109"/>
+      <c r="W23" s="109"/>
+      <c r="X23" s="109"/>
+      <c r="Y23" s="109"/>
+      <c r="Z23" s="109"/>
+      <c r="AA23" s="109"/>
+      <c r="AB23" s="109"/>
+      <c r="AC23" s="109"/>
+      <c r="AD23" s="109"/>
+      <c r="AE23" s="110"/>
+      <c r="AF23" s="105"/>
+      <c r="AG23" s="106"/>
+      <c r="AH23" s="106"/>
+      <c r="AI23" s="107"/>
     </row>
     <row r="24" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="60"/>
-      <c r="B24" s="92"/>
-      <c r="C24" s="93"/>
-      <c r="D24" s="94"/>
-      <c r="E24" s="95"/>
-      <c r="F24" s="96"/>
-      <c r="G24" s="97"/>
-      <c r="H24" s="98"/>
-      <c r="I24" s="99"/>
-      <c r="J24" s="100"/>
-      <c r="K24" s="101"/>
-      <c r="L24" s="101"/>
-      <c r="M24" s="101"/>
-      <c r="N24" s="101"/>
-      <c r="O24" s="101"/>
-      <c r="P24" s="102"/>
-      <c r="Q24" s="103"/>
-      <c r="R24" s="104"/>
-      <c r="S24" s="104"/>
-      <c r="T24" s="104"/>
-      <c r="U24" s="104"/>
-      <c r="V24" s="104"/>
-      <c r="W24" s="104"/>
-      <c r="X24" s="104"/>
-      <c r="Y24" s="104"/>
-      <c r="Z24" s="104"/>
-      <c r="AA24" s="104"/>
-      <c r="AB24" s="104"/>
-      <c r="AC24" s="104"/>
-      <c r="AD24" s="104"/>
-      <c r="AE24" s="105"/>
-      <c r="AF24" s="100"/>
-      <c r="AG24" s="101"/>
-      <c r="AH24" s="101"/>
-      <c r="AI24" s="102"/>
+      <c r="B24" s="97"/>
+      <c r="C24" s="98"/>
+      <c r="D24" s="99"/>
+      <c r="E24" s="100"/>
+      <c r="F24" s="101"/>
+      <c r="G24" s="102"/>
+      <c r="H24" s="103"/>
+      <c r="I24" s="104"/>
+      <c r="J24" s="105"/>
+      <c r="K24" s="106"/>
+      <c r="L24" s="106"/>
+      <c r="M24" s="106"/>
+      <c r="N24" s="106"/>
+      <c r="O24" s="106"/>
+      <c r="P24" s="107"/>
+      <c r="Q24" s="108"/>
+      <c r="R24" s="109"/>
+      <c r="S24" s="109"/>
+      <c r="T24" s="109"/>
+      <c r="U24" s="109"/>
+      <c r="V24" s="109"/>
+      <c r="W24" s="109"/>
+      <c r="X24" s="109"/>
+      <c r="Y24" s="109"/>
+      <c r="Z24" s="109"/>
+      <c r="AA24" s="109"/>
+      <c r="AB24" s="109"/>
+      <c r="AC24" s="109"/>
+      <c r="AD24" s="109"/>
+      <c r="AE24" s="110"/>
+      <c r="AF24" s="105"/>
+      <c r="AG24" s="106"/>
+      <c r="AH24" s="106"/>
+      <c r="AI24" s="107"/>
     </row>
     <row r="25" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="60"/>
-      <c r="B25" s="92"/>
-      <c r="C25" s="93"/>
-      <c r="D25" s="94"/>
-      <c r="E25" s="95"/>
-      <c r="F25" s="96"/>
-      <c r="G25" s="97"/>
-      <c r="H25" s="98"/>
-      <c r="I25" s="99"/>
-      <c r="J25" s="100"/>
-      <c r="K25" s="101"/>
-      <c r="L25" s="101"/>
-      <c r="M25" s="101"/>
-      <c r="N25" s="101"/>
-      <c r="O25" s="101"/>
-      <c r="P25" s="102"/>
-      <c r="Q25" s="103"/>
-      <c r="R25" s="104"/>
-      <c r="S25" s="104"/>
-      <c r="T25" s="104"/>
-      <c r="U25" s="104"/>
-      <c r="V25" s="104"/>
-      <c r="W25" s="104"/>
-      <c r="X25" s="104"/>
-      <c r="Y25" s="104"/>
-      <c r="Z25" s="104"/>
-      <c r="AA25" s="104"/>
-      <c r="AB25" s="104"/>
-      <c r="AC25" s="104"/>
-      <c r="AD25" s="104"/>
-      <c r="AE25" s="105"/>
-      <c r="AF25" s="100"/>
-      <c r="AG25" s="101"/>
-      <c r="AH25" s="101"/>
-      <c r="AI25" s="102"/>
+      <c r="B25" s="97"/>
+      <c r="C25" s="98"/>
+      <c r="D25" s="99"/>
+      <c r="E25" s="100"/>
+      <c r="F25" s="101"/>
+      <c r="G25" s="102"/>
+      <c r="H25" s="103"/>
+      <c r="I25" s="104"/>
+      <c r="J25" s="105"/>
+      <c r="K25" s="106"/>
+      <c r="L25" s="106"/>
+      <c r="M25" s="106"/>
+      <c r="N25" s="106"/>
+      <c r="O25" s="106"/>
+      <c r="P25" s="107"/>
+      <c r="Q25" s="108"/>
+      <c r="R25" s="109"/>
+      <c r="S25" s="109"/>
+      <c r="T25" s="109"/>
+      <c r="U25" s="109"/>
+      <c r="V25" s="109"/>
+      <c r="W25" s="109"/>
+      <c r="X25" s="109"/>
+      <c r="Y25" s="109"/>
+      <c r="Z25" s="109"/>
+      <c r="AA25" s="109"/>
+      <c r="AB25" s="109"/>
+      <c r="AC25" s="109"/>
+      <c r="AD25" s="109"/>
+      <c r="AE25" s="110"/>
+      <c r="AF25" s="105"/>
+      <c r="AG25" s="106"/>
+      <c r="AH25" s="106"/>
+      <c r="AI25" s="107"/>
     </row>
     <row r="26" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="60"/>
-      <c r="B26" s="92"/>
-      <c r="C26" s="93"/>
-      <c r="D26" s="94"/>
-      <c r="E26" s="95"/>
-      <c r="F26" s="96"/>
-      <c r="G26" s="97"/>
-      <c r="H26" s="98"/>
-      <c r="I26" s="99"/>
-      <c r="J26" s="100"/>
-      <c r="K26" s="101"/>
-      <c r="L26" s="101"/>
-      <c r="M26" s="101"/>
-      <c r="N26" s="101"/>
-      <c r="O26" s="101"/>
-      <c r="P26" s="102"/>
-      <c r="Q26" s="103"/>
-      <c r="R26" s="104"/>
-      <c r="S26" s="104"/>
-      <c r="T26" s="104"/>
-      <c r="U26" s="104"/>
-      <c r="V26" s="104"/>
-      <c r="W26" s="104"/>
-      <c r="X26" s="104"/>
-      <c r="Y26" s="104"/>
-      <c r="Z26" s="104"/>
-      <c r="AA26" s="104"/>
-      <c r="AB26" s="104"/>
-      <c r="AC26" s="104"/>
-      <c r="AD26" s="104"/>
-      <c r="AE26" s="105"/>
-      <c r="AF26" s="100"/>
-      <c r="AG26" s="101"/>
-      <c r="AH26" s="101"/>
-      <c r="AI26" s="102"/>
+      <c r="B26" s="97"/>
+      <c r="C26" s="98"/>
+      <c r="D26" s="99"/>
+      <c r="E26" s="100"/>
+      <c r="F26" s="101"/>
+      <c r="G26" s="102"/>
+      <c r="H26" s="103"/>
+      <c r="I26" s="104"/>
+      <c r="J26" s="105"/>
+      <c r="K26" s="106"/>
+      <c r="L26" s="106"/>
+      <c r="M26" s="106"/>
+      <c r="N26" s="106"/>
+      <c r="O26" s="106"/>
+      <c r="P26" s="107"/>
+      <c r="Q26" s="108"/>
+      <c r="R26" s="109"/>
+      <c r="S26" s="109"/>
+      <c r="T26" s="109"/>
+      <c r="U26" s="109"/>
+      <c r="V26" s="109"/>
+      <c r="W26" s="109"/>
+      <c r="X26" s="109"/>
+      <c r="Y26" s="109"/>
+      <c r="Z26" s="109"/>
+      <c r="AA26" s="109"/>
+      <c r="AB26" s="109"/>
+      <c r="AC26" s="109"/>
+      <c r="AD26" s="109"/>
+      <c r="AE26" s="110"/>
+      <c r="AF26" s="105"/>
+      <c r="AG26" s="106"/>
+      <c r="AH26" s="106"/>
+      <c r="AI26" s="107"/>
     </row>
     <row r="27" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="60"/>
-      <c r="B27" s="92"/>
-      <c r="C27" s="93"/>
-      <c r="D27" s="94"/>
-      <c r="E27" s="95"/>
-      <c r="F27" s="96"/>
-      <c r="G27" s="97"/>
-      <c r="H27" s="98"/>
-      <c r="I27" s="99"/>
-      <c r="J27" s="100"/>
-      <c r="K27" s="101"/>
-      <c r="L27" s="101"/>
-      <c r="M27" s="101"/>
-      <c r="N27" s="101"/>
-      <c r="O27" s="101"/>
-      <c r="P27" s="102"/>
-      <c r="Q27" s="103"/>
-      <c r="R27" s="104"/>
-      <c r="S27" s="104"/>
-      <c r="T27" s="104"/>
-      <c r="U27" s="104"/>
-      <c r="V27" s="104"/>
-      <c r="W27" s="104"/>
-      <c r="X27" s="104"/>
-      <c r="Y27" s="104"/>
-      <c r="Z27" s="104"/>
-      <c r="AA27" s="104"/>
-      <c r="AB27" s="104"/>
-      <c r="AC27" s="104"/>
-      <c r="AD27" s="104"/>
-      <c r="AE27" s="105"/>
-      <c r="AF27" s="100"/>
-      <c r="AG27" s="101"/>
-      <c r="AH27" s="101"/>
-      <c r="AI27" s="102"/>
+      <c r="B27" s="97"/>
+      <c r="C27" s="98"/>
+      <c r="D27" s="99"/>
+      <c r="E27" s="100"/>
+      <c r="F27" s="101"/>
+      <c r="G27" s="102"/>
+      <c r="H27" s="103"/>
+      <c r="I27" s="104"/>
+      <c r="J27" s="105"/>
+      <c r="K27" s="106"/>
+      <c r="L27" s="106"/>
+      <c r="M27" s="106"/>
+      <c r="N27" s="106"/>
+      <c r="O27" s="106"/>
+      <c r="P27" s="107"/>
+      <c r="Q27" s="108"/>
+      <c r="R27" s="109"/>
+      <c r="S27" s="109"/>
+      <c r="T27" s="109"/>
+      <c r="U27" s="109"/>
+      <c r="V27" s="109"/>
+      <c r="W27" s="109"/>
+      <c r="X27" s="109"/>
+      <c r="Y27" s="109"/>
+      <c r="Z27" s="109"/>
+      <c r="AA27" s="109"/>
+      <c r="AB27" s="109"/>
+      <c r="AC27" s="109"/>
+      <c r="AD27" s="109"/>
+      <c r="AE27" s="110"/>
+      <c r="AF27" s="105"/>
+      <c r="AG27" s="106"/>
+      <c r="AH27" s="106"/>
+      <c r="AI27" s="107"/>
     </row>
     <row r="28" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="60"/>
-      <c r="B28" s="92"/>
-      <c r="C28" s="93"/>
-      <c r="D28" s="94"/>
-      <c r="E28" s="95"/>
-      <c r="F28" s="96"/>
-      <c r="G28" s="97"/>
-      <c r="H28" s="98"/>
-      <c r="I28" s="99"/>
-      <c r="J28" s="100"/>
-      <c r="K28" s="101"/>
-      <c r="L28" s="101"/>
-      <c r="M28" s="101"/>
-      <c r="N28" s="101"/>
-      <c r="O28" s="101"/>
-      <c r="P28" s="102"/>
-      <c r="Q28" s="103"/>
-      <c r="R28" s="104"/>
-      <c r="S28" s="104"/>
-      <c r="T28" s="104"/>
-      <c r="U28" s="104"/>
-      <c r="V28" s="104"/>
-      <c r="W28" s="104"/>
-      <c r="X28" s="104"/>
-      <c r="Y28" s="104"/>
-      <c r="Z28" s="104"/>
-      <c r="AA28" s="104"/>
-      <c r="AB28" s="104"/>
-      <c r="AC28" s="104"/>
-      <c r="AD28" s="104"/>
-      <c r="AE28" s="105"/>
-      <c r="AF28" s="100"/>
-      <c r="AG28" s="101"/>
-      <c r="AH28" s="101"/>
-      <c r="AI28" s="102"/>
+      <c r="B28" s="97"/>
+      <c r="C28" s="98"/>
+      <c r="D28" s="99"/>
+      <c r="E28" s="100"/>
+      <c r="F28" s="101"/>
+      <c r="G28" s="102"/>
+      <c r="H28" s="103"/>
+      <c r="I28" s="104"/>
+      <c r="J28" s="105"/>
+      <c r="K28" s="106"/>
+      <c r="L28" s="106"/>
+      <c r="M28" s="106"/>
+      <c r="N28" s="106"/>
+      <c r="O28" s="106"/>
+      <c r="P28" s="107"/>
+      <c r="Q28" s="108"/>
+      <c r="R28" s="109"/>
+      <c r="S28" s="109"/>
+      <c r="T28" s="109"/>
+      <c r="U28" s="109"/>
+      <c r="V28" s="109"/>
+      <c r="W28" s="109"/>
+      <c r="X28" s="109"/>
+      <c r="Y28" s="109"/>
+      <c r="Z28" s="109"/>
+      <c r="AA28" s="109"/>
+      <c r="AB28" s="109"/>
+      <c r="AC28" s="109"/>
+      <c r="AD28" s="109"/>
+      <c r="AE28" s="110"/>
+      <c r="AF28" s="105"/>
+      <c r="AG28" s="106"/>
+      <c r="AH28" s="106"/>
+      <c r="AI28" s="107"/>
     </row>
     <row r="29" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="60"/>
-      <c r="B29" s="92"/>
-      <c r="C29" s="93"/>
-      <c r="D29" s="94"/>
-      <c r="E29" s="95"/>
-      <c r="F29" s="96"/>
-      <c r="G29" s="97"/>
-      <c r="H29" s="98"/>
-      <c r="I29" s="99"/>
-      <c r="J29" s="100"/>
-      <c r="K29" s="101"/>
-      <c r="L29" s="101"/>
-      <c r="M29" s="101"/>
-      <c r="N29" s="101"/>
-      <c r="O29" s="101"/>
-      <c r="P29" s="102"/>
-      <c r="Q29" s="103"/>
-      <c r="R29" s="104"/>
-      <c r="S29" s="104"/>
-      <c r="T29" s="104"/>
-      <c r="U29" s="104"/>
-      <c r="V29" s="104"/>
-      <c r="W29" s="104"/>
-      <c r="X29" s="104"/>
-      <c r="Y29" s="104"/>
-      <c r="Z29" s="104"/>
-      <c r="AA29" s="104"/>
-      <c r="AB29" s="104"/>
-      <c r="AC29" s="104"/>
-      <c r="AD29" s="104"/>
-      <c r="AE29" s="105"/>
-      <c r="AF29" s="100"/>
-      <c r="AG29" s="101"/>
-      <c r="AH29" s="101"/>
-      <c r="AI29" s="102"/>
+      <c r="B29" s="97"/>
+      <c r="C29" s="98"/>
+      <c r="D29" s="99"/>
+      <c r="E29" s="100"/>
+      <c r="F29" s="101"/>
+      <c r="G29" s="102"/>
+      <c r="H29" s="103"/>
+      <c r="I29" s="104"/>
+      <c r="J29" s="105"/>
+      <c r="K29" s="106"/>
+      <c r="L29" s="106"/>
+      <c r="M29" s="106"/>
+      <c r="N29" s="106"/>
+      <c r="O29" s="106"/>
+      <c r="P29" s="107"/>
+      <c r="Q29" s="108"/>
+      <c r="R29" s="109"/>
+      <c r="S29" s="109"/>
+      <c r="T29" s="109"/>
+      <c r="U29" s="109"/>
+      <c r="V29" s="109"/>
+      <c r="W29" s="109"/>
+      <c r="X29" s="109"/>
+      <c r="Y29" s="109"/>
+      <c r="Z29" s="109"/>
+      <c r="AA29" s="109"/>
+      <c r="AB29" s="109"/>
+      <c r="AC29" s="109"/>
+      <c r="AD29" s="109"/>
+      <c r="AE29" s="110"/>
+      <c r="AF29" s="105"/>
+      <c r="AG29" s="106"/>
+      <c r="AH29" s="106"/>
+      <c r="AI29" s="107"/>
     </row>
     <row r="30" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="60"/>
-      <c r="B30" s="92"/>
-      <c r="C30" s="93"/>
-      <c r="D30" s="94"/>
-      <c r="E30" s="95"/>
-      <c r="F30" s="96"/>
-      <c r="G30" s="97"/>
-      <c r="H30" s="98"/>
-      <c r="I30" s="99"/>
-      <c r="J30" s="100"/>
-      <c r="K30" s="101"/>
-      <c r="L30" s="101"/>
-      <c r="M30" s="101"/>
-      <c r="N30" s="101"/>
-      <c r="O30" s="101"/>
-      <c r="P30" s="102"/>
-      <c r="Q30" s="103"/>
-      <c r="R30" s="104"/>
-      <c r="S30" s="104"/>
-      <c r="T30" s="104"/>
-      <c r="U30" s="104"/>
-      <c r="V30" s="104"/>
-      <c r="W30" s="104"/>
-      <c r="X30" s="104"/>
-      <c r="Y30" s="104"/>
-      <c r="Z30" s="104"/>
-      <c r="AA30" s="104"/>
-      <c r="AB30" s="104"/>
-      <c r="AC30" s="104"/>
-      <c r="AD30" s="104"/>
-      <c r="AE30" s="105"/>
-      <c r="AF30" s="100"/>
-      <c r="AG30" s="101"/>
-      <c r="AH30" s="101"/>
-      <c r="AI30" s="102"/>
+      <c r="B30" s="97"/>
+      <c r="C30" s="98"/>
+      <c r="D30" s="99"/>
+      <c r="E30" s="100"/>
+      <c r="F30" s="101"/>
+      <c r="G30" s="102"/>
+      <c r="H30" s="103"/>
+      <c r="I30" s="104"/>
+      <c r="J30" s="105"/>
+      <c r="K30" s="106"/>
+      <c r="L30" s="106"/>
+      <c r="M30" s="106"/>
+      <c r="N30" s="106"/>
+      <c r="O30" s="106"/>
+      <c r="P30" s="107"/>
+      <c r="Q30" s="108"/>
+      <c r="R30" s="109"/>
+      <c r="S30" s="109"/>
+      <c r="T30" s="109"/>
+      <c r="U30" s="109"/>
+      <c r="V30" s="109"/>
+      <c r="W30" s="109"/>
+      <c r="X30" s="109"/>
+      <c r="Y30" s="109"/>
+      <c r="Z30" s="109"/>
+      <c r="AA30" s="109"/>
+      <c r="AB30" s="109"/>
+      <c r="AC30" s="109"/>
+      <c r="AD30" s="109"/>
+      <c r="AE30" s="110"/>
+      <c r="AF30" s="105"/>
+      <c r="AG30" s="106"/>
+      <c r="AH30" s="106"/>
+      <c r="AI30" s="107"/>
     </row>
     <row r="31" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="60"/>
-      <c r="B31" s="92"/>
-      <c r="C31" s="93"/>
-      <c r="D31" s="94"/>
-      <c r="E31" s="95"/>
-      <c r="F31" s="96"/>
-      <c r="G31" s="97"/>
-      <c r="H31" s="98"/>
-      <c r="I31" s="99"/>
-      <c r="J31" s="100"/>
-      <c r="K31" s="101"/>
-      <c r="L31" s="101"/>
-      <c r="M31" s="101"/>
-      <c r="N31" s="101"/>
-      <c r="O31" s="101"/>
-      <c r="P31" s="102"/>
-      <c r="Q31" s="103"/>
-      <c r="R31" s="104"/>
-      <c r="S31" s="104"/>
-      <c r="T31" s="104"/>
-      <c r="U31" s="104"/>
-      <c r="V31" s="104"/>
-      <c r="W31" s="104"/>
-      <c r="X31" s="104"/>
-      <c r="Y31" s="104"/>
-      <c r="Z31" s="104"/>
-      <c r="AA31" s="104"/>
-      <c r="AB31" s="104"/>
-      <c r="AC31" s="104"/>
-      <c r="AD31" s="104"/>
-      <c r="AE31" s="105"/>
-      <c r="AF31" s="100"/>
-      <c r="AG31" s="101"/>
-      <c r="AH31" s="101"/>
-      <c r="AI31" s="102"/>
+      <c r="B31" s="97"/>
+      <c r="C31" s="98"/>
+      <c r="D31" s="99"/>
+      <c r="E31" s="100"/>
+      <c r="F31" s="101"/>
+      <c r="G31" s="102"/>
+      <c r="H31" s="103"/>
+      <c r="I31" s="104"/>
+      <c r="J31" s="105"/>
+      <c r="K31" s="106"/>
+      <c r="L31" s="106"/>
+      <c r="M31" s="106"/>
+      <c r="N31" s="106"/>
+      <c r="O31" s="106"/>
+      <c r="P31" s="107"/>
+      <c r="Q31" s="108"/>
+      <c r="R31" s="109"/>
+      <c r="S31" s="109"/>
+      <c r="T31" s="109"/>
+      <c r="U31" s="109"/>
+      <c r="V31" s="109"/>
+      <c r="W31" s="109"/>
+      <c r="X31" s="109"/>
+      <c r="Y31" s="109"/>
+      <c r="Z31" s="109"/>
+      <c r="AA31" s="109"/>
+      <c r="AB31" s="109"/>
+      <c r="AC31" s="109"/>
+      <c r="AD31" s="109"/>
+      <c r="AE31" s="110"/>
+      <c r="AF31" s="105"/>
+      <c r="AG31" s="106"/>
+      <c r="AH31" s="106"/>
+      <c r="AI31" s="107"/>
     </row>
     <row r="32" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="60"/>
-      <c r="B32" s="92"/>
-      <c r="C32" s="93"/>
-      <c r="D32" s="94"/>
-      <c r="E32" s="95"/>
-      <c r="F32" s="96"/>
-      <c r="G32" s="97"/>
-      <c r="H32" s="98"/>
-      <c r="I32" s="99"/>
-      <c r="J32" s="100"/>
-      <c r="K32" s="101"/>
-      <c r="L32" s="101"/>
-      <c r="M32" s="101"/>
-      <c r="N32" s="101"/>
-      <c r="O32" s="101"/>
-      <c r="P32" s="102"/>
-      <c r="Q32" s="103"/>
-      <c r="R32" s="104"/>
-      <c r="S32" s="104"/>
-      <c r="T32" s="104"/>
-      <c r="U32" s="104"/>
-      <c r="V32" s="104"/>
-      <c r="W32" s="104"/>
-      <c r="X32" s="104"/>
-      <c r="Y32" s="104"/>
-      <c r="Z32" s="104"/>
-      <c r="AA32" s="104"/>
-      <c r="AB32" s="104"/>
-      <c r="AC32" s="104"/>
-      <c r="AD32" s="104"/>
-      <c r="AE32" s="105"/>
-      <c r="AF32" s="100"/>
-      <c r="AG32" s="101"/>
-      <c r="AH32" s="101"/>
-      <c r="AI32" s="102"/>
+      <c r="B32" s="97"/>
+      <c r="C32" s="98"/>
+      <c r="D32" s="99"/>
+      <c r="E32" s="100"/>
+      <c r="F32" s="101"/>
+      <c r="G32" s="102"/>
+      <c r="H32" s="103"/>
+      <c r="I32" s="104"/>
+      <c r="J32" s="105"/>
+      <c r="K32" s="106"/>
+      <c r="L32" s="106"/>
+      <c r="M32" s="106"/>
+      <c r="N32" s="106"/>
+      <c r="O32" s="106"/>
+      <c r="P32" s="107"/>
+      <c r="Q32" s="108"/>
+      <c r="R32" s="109"/>
+      <c r="S32" s="109"/>
+      <c r="T32" s="109"/>
+      <c r="U32" s="109"/>
+      <c r="V32" s="109"/>
+      <c r="W32" s="109"/>
+      <c r="X32" s="109"/>
+      <c r="Y32" s="109"/>
+      <c r="Z32" s="109"/>
+      <c r="AA32" s="109"/>
+      <c r="AB32" s="109"/>
+      <c r="AC32" s="109"/>
+      <c r="AD32" s="109"/>
+      <c r="AE32" s="110"/>
+      <c r="AF32" s="105"/>
+      <c r="AG32" s="106"/>
+      <c r="AH32" s="106"/>
+      <c r="AI32" s="107"/>
     </row>
     <row r="33" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="60"/>
-      <c r="B33" s="92"/>
-      <c r="C33" s="93"/>
-      <c r="D33" s="94"/>
-      <c r="E33" s="95"/>
-      <c r="F33" s="96"/>
-      <c r="G33" s="97"/>
-      <c r="H33" s="98"/>
-      <c r="I33" s="99"/>
-      <c r="J33" s="100"/>
-      <c r="K33" s="101"/>
-      <c r="L33" s="101"/>
-      <c r="M33" s="101"/>
-      <c r="N33" s="101"/>
-      <c r="O33" s="101"/>
-      <c r="P33" s="102"/>
-      <c r="Q33" s="103"/>
-      <c r="R33" s="104"/>
-      <c r="S33" s="104"/>
-      <c r="T33" s="104"/>
-      <c r="U33" s="104"/>
-      <c r="V33" s="104"/>
-      <c r="W33" s="104"/>
-      <c r="X33" s="104"/>
-      <c r="Y33" s="104"/>
-      <c r="Z33" s="104"/>
-      <c r="AA33" s="104"/>
-      <c r="AB33" s="104"/>
-      <c r="AC33" s="104"/>
-      <c r="AD33" s="104"/>
-      <c r="AE33" s="105"/>
-      <c r="AF33" s="100"/>
-      <c r="AG33" s="101"/>
-      <c r="AH33" s="101"/>
-      <c r="AI33" s="102"/>
+      <c r="B33" s="97"/>
+      <c r="C33" s="98"/>
+      <c r="D33" s="99"/>
+      <c r="E33" s="100"/>
+      <c r="F33" s="101"/>
+      <c r="G33" s="102"/>
+      <c r="H33" s="103"/>
+      <c r="I33" s="104"/>
+      <c r="J33" s="105"/>
+      <c r="K33" s="106"/>
+      <c r="L33" s="106"/>
+      <c r="M33" s="106"/>
+      <c r="N33" s="106"/>
+      <c r="O33" s="106"/>
+      <c r="P33" s="107"/>
+      <c r="Q33" s="108"/>
+      <c r="R33" s="109"/>
+      <c r="S33" s="109"/>
+      <c r="T33" s="109"/>
+      <c r="U33" s="109"/>
+      <c r="V33" s="109"/>
+      <c r="W33" s="109"/>
+      <c r="X33" s="109"/>
+      <c r="Y33" s="109"/>
+      <c r="Z33" s="109"/>
+      <c r="AA33" s="109"/>
+      <c r="AB33" s="109"/>
+      <c r="AC33" s="109"/>
+      <c r="AD33" s="109"/>
+      <c r="AE33" s="110"/>
+      <c r="AF33" s="105"/>
+      <c r="AG33" s="106"/>
+      <c r="AH33" s="106"/>
+      <c r="AI33" s="107"/>
     </row>
   </sheetData>
   <mergeCells count="179">
@@ -5170,163 +5183,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="139" t="s">
+      <c r="A1" s="144" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="140"/>
-      <c r="C1" s="140"/>
-      <c r="D1" s="141"/>
-      <c r="E1" s="169" t="str">
+      <c r="B1" s="145"/>
+      <c r="C1" s="145"/>
+      <c r="D1" s="146"/>
+      <c r="E1" s="174" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="143"/>
-      <c r="G1" s="143"/>
-      <c r="H1" s="143"/>
-      <c r="I1" s="143"/>
-      <c r="J1" s="143"/>
-      <c r="K1" s="143"/>
-      <c r="L1" s="143"/>
-      <c r="M1" s="143"/>
-      <c r="N1" s="144"/>
-      <c r="O1" s="148" t="s">
+      <c r="F1" s="148"/>
+      <c r="G1" s="148"/>
+      <c r="H1" s="148"/>
+      <c r="I1" s="148"/>
+      <c r="J1" s="148"/>
+      <c r="K1" s="148"/>
+      <c r="L1" s="148"/>
+      <c r="M1" s="148"/>
+      <c r="N1" s="149"/>
+      <c r="O1" s="153" t="s">
         <v>17</v>
       </c>
-      <c r="P1" s="149"/>
-      <c r="Q1" s="149"/>
-      <c r="R1" s="150"/>
-      <c r="S1" s="157" t="str">
+      <c r="P1" s="154"/>
+      <c r="Q1" s="154"/>
+      <c r="R1" s="155"/>
+      <c r="S1" s="162" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>画面一覧</v>
       </c>
-      <c r="T1" s="158"/>
-      <c r="U1" s="158"/>
-      <c r="V1" s="158"/>
-      <c r="W1" s="158"/>
-      <c r="X1" s="158"/>
-      <c r="Y1" s="158"/>
-      <c r="Z1" s="159"/>
-      <c r="AA1" s="139" t="s">
+      <c r="T1" s="163"/>
+      <c r="U1" s="163"/>
+      <c r="V1" s="163"/>
+      <c r="W1" s="163"/>
+      <c r="X1" s="163"/>
+      <c r="Y1" s="163"/>
+      <c r="Z1" s="164"/>
+      <c r="AA1" s="144" t="s">
         <v>18</v>
       </c>
-      <c r="AB1" s="141"/>
-      <c r="AC1" s="166" t="str">
+      <c r="AB1" s="146"/>
+      <c r="AC1" s="171" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="167"/>
-      <c r="AE1" s="167"/>
-      <c r="AF1" s="168"/>
-      <c r="AG1" s="170">
+      <c r="AD1" s="172"/>
+      <c r="AE1" s="172"/>
+      <c r="AF1" s="173"/>
+      <c r="AG1" s="175">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43592</v>
       </c>
-      <c r="AH1" s="171"/>
-      <c r="AI1" s="172"/>
+      <c r="AH1" s="176"/>
+      <c r="AI1" s="177"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="2"/>
     </row>
     <row r="2" spans="1:38" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="139" t="s">
+      <c r="A2" s="144" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="140"/>
-      <c r="C2" s="140"/>
-      <c r="D2" s="141"/>
-      <c r="E2" s="169" t="str">
+      <c r="B2" s="145"/>
+      <c r="C2" s="145"/>
+      <c r="D2" s="146"/>
+      <c r="E2" s="174" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="143"/>
-      <c r="G2" s="143"/>
-      <c r="H2" s="143"/>
-      <c r="I2" s="143"/>
-      <c r="J2" s="143"/>
-      <c r="K2" s="143"/>
-      <c r="L2" s="143"/>
-      <c r="M2" s="143"/>
-      <c r="N2" s="144"/>
-      <c r="O2" s="151"/>
-      <c r="P2" s="152"/>
-      <c r="Q2" s="152"/>
-      <c r="R2" s="153"/>
-      <c r="S2" s="160"/>
-      <c r="T2" s="161"/>
-      <c r="U2" s="161"/>
-      <c r="V2" s="161"/>
-      <c r="W2" s="161"/>
-      <c r="X2" s="161"/>
-      <c r="Y2" s="161"/>
-      <c r="Z2" s="162"/>
-      <c r="AA2" s="139" t="s">
+      <c r="F2" s="148"/>
+      <c r="G2" s="148"/>
+      <c r="H2" s="148"/>
+      <c r="I2" s="148"/>
+      <c r="J2" s="148"/>
+      <c r="K2" s="148"/>
+      <c r="L2" s="148"/>
+      <c r="M2" s="148"/>
+      <c r="N2" s="149"/>
+      <c r="O2" s="156"/>
+      <c r="P2" s="157"/>
+      <c r="Q2" s="157"/>
+      <c r="R2" s="158"/>
+      <c r="S2" s="165"/>
+      <c r="T2" s="166"/>
+      <c r="U2" s="166"/>
+      <c r="V2" s="166"/>
+      <c r="W2" s="166"/>
+      <c r="X2" s="166"/>
+      <c r="Y2" s="166"/>
+      <c r="Z2" s="167"/>
+      <c r="AA2" s="144" t="s">
         <v>19</v>
       </c>
-      <c r="AB2" s="141"/>
-      <c r="AC2" s="166" t="str">
+      <c r="AB2" s="146"/>
+      <c r="AC2" s="171" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="167"/>
-      <c r="AE2" s="167"/>
-      <c r="AF2" s="168"/>
-      <c r="AG2" s="170">
+      <c r="AD2" s="172"/>
+      <c r="AE2" s="172"/>
+      <c r="AF2" s="173"/>
+      <c r="AG2" s="175">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
-        <v>43895</v>
-      </c>
-      <c r="AH2" s="171"/>
-      <c r="AI2" s="172"/>
+        <v>44796</v>
+      </c>
+      <c r="AH2" s="176"/>
+      <c r="AI2" s="177"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
     </row>
     <row r="3" spans="1:38" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="139" t="s">
+      <c r="A3" s="144" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="140"/>
-      <c r="C3" s="140"/>
-      <c r="D3" s="141"/>
-      <c r="E3" s="169" t="str">
+      <c r="B3" s="145"/>
+      <c r="C3" s="145"/>
+      <c r="D3" s="146"/>
+      <c r="E3" s="174" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="143"/>
-      <c r="G3" s="143"/>
-      <c r="H3" s="143"/>
-      <c r="I3" s="143"/>
-      <c r="J3" s="143"/>
-      <c r="K3" s="143"/>
-      <c r="L3" s="143"/>
-      <c r="M3" s="143"/>
-      <c r="N3" s="144"/>
-      <c r="O3" s="154"/>
-      <c r="P3" s="155"/>
-      <c r="Q3" s="155"/>
-      <c r="R3" s="156"/>
-      <c r="S3" s="163"/>
-      <c r="T3" s="164"/>
-      <c r="U3" s="164"/>
-      <c r="V3" s="164"/>
-      <c r="W3" s="164"/>
-      <c r="X3" s="164"/>
-      <c r="Y3" s="164"/>
-      <c r="Z3" s="165"/>
-      <c r="AA3" s="139"/>
-      <c r="AB3" s="141"/>
-      <c r="AC3" s="166" t="str">
+      <c r="F3" s="148"/>
+      <c r="G3" s="148"/>
+      <c r="H3" s="148"/>
+      <c r="I3" s="148"/>
+      <c r="J3" s="148"/>
+      <c r="K3" s="148"/>
+      <c r="L3" s="148"/>
+      <c r="M3" s="148"/>
+      <c r="N3" s="149"/>
+      <c r="O3" s="159"/>
+      <c r="P3" s="160"/>
+      <c r="Q3" s="160"/>
+      <c r="R3" s="161"/>
+      <c r="S3" s="168"/>
+      <c r="T3" s="169"/>
+      <c r="U3" s="169"/>
+      <c r="V3" s="169"/>
+      <c r="W3" s="169"/>
+      <c r="X3" s="169"/>
+      <c r="Y3" s="169"/>
+      <c r="Z3" s="170"/>
+      <c r="AA3" s="144"/>
+      <c r="AB3" s="146"/>
+      <c r="AC3" s="171" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="167"/>
-      <c r="AE3" s="167"/>
-      <c r="AF3" s="168"/>
-      <c r="AG3" s="170" t="str">
+      <c r="AD3" s="172"/>
+      <c r="AE3" s="172"/>
+      <c r="AF3" s="173"/>
+      <c r="AG3" s="175" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="171"/>
-      <c r="AI3" s="172"/>
+      <c r="AH3" s="176"/>
+      <c r="AI3" s="177"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
@@ -6820,7 +6833,7 @@
   <sheetPr codeName="Sheet4">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BE20"/>
+  <dimension ref="A1:BE19"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection sqref="A1:D1"/>
@@ -6832,59 +6845,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:57" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="139" t="s">
+      <c r="A1" s="144" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="140"/>
-      <c r="C1" s="140"/>
-      <c r="D1" s="141"/>
-      <c r="E1" s="169" t="str">
+      <c r="B1" s="145"/>
+      <c r="C1" s="145"/>
+      <c r="D1" s="146"/>
+      <c r="E1" s="174" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="143"/>
-      <c r="G1" s="143"/>
-      <c r="H1" s="143"/>
-      <c r="I1" s="143"/>
-      <c r="J1" s="143"/>
-      <c r="K1" s="143"/>
-      <c r="L1" s="143"/>
-      <c r="M1" s="143"/>
-      <c r="N1" s="144"/>
-      <c r="O1" s="196" t="s">
+      <c r="F1" s="148"/>
+      <c r="G1" s="148"/>
+      <c r="H1" s="148"/>
+      <c r="I1" s="148"/>
+      <c r="J1" s="148"/>
+      <c r="K1" s="148"/>
+      <c r="L1" s="148"/>
+      <c r="M1" s="148"/>
+      <c r="N1" s="149"/>
+      <c r="O1" s="195" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="197"/>
-      <c r="Q1" s="197"/>
-      <c r="R1" s="198"/>
-      <c r="S1" s="205" t="str">
+      <c r="P1" s="196"/>
+      <c r="Q1" s="196"/>
+      <c r="R1" s="197"/>
+      <c r="S1" s="207" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>画面一覧</v>
       </c>
-      <c r="T1" s="206"/>
-      <c r="U1" s="206"/>
-      <c r="V1" s="206"/>
-      <c r="W1" s="206"/>
-      <c r="X1" s="206"/>
-      <c r="Y1" s="206"/>
-      <c r="Z1" s="207"/>
-      <c r="AA1" s="139" t="s">
+      <c r="T1" s="208"/>
+      <c r="U1" s="208"/>
+      <c r="V1" s="208"/>
+      <c r="W1" s="208"/>
+      <c r="X1" s="208"/>
+      <c r="Y1" s="208"/>
+      <c r="Z1" s="209"/>
+      <c r="AA1" s="144" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="141"/>
-      <c r="AC1" s="166" t="str">
+      <c r="AB1" s="146"/>
+      <c r="AC1" s="171" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="167"/>
-      <c r="AE1" s="167"/>
-      <c r="AF1" s="168"/>
-      <c r="AG1" s="170">
+      <c r="AD1" s="172"/>
+      <c r="AE1" s="172"/>
+      <c r="AF1" s="173"/>
+      <c r="AG1" s="175">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43592</v>
       </c>
-      <c r="AH1" s="171"/>
-      <c r="AI1" s="172"/>
+      <c r="AH1" s="176"/>
+      <c r="AI1" s="177"/>
       <c r="AJ1" s="11"/>
       <c r="AK1" s="11"/>
       <c r="AL1" s="11"/>
@@ -6909,54 +6922,54 @@
       <c r="BE1" s="11"/>
     </row>
     <row r="2" spans="1:57" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="139" t="s">
+      <c r="A2" s="144" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="140"/>
-      <c r="C2" s="140"/>
-      <c r="D2" s="141"/>
-      <c r="E2" s="169" t="str">
+      <c r="B2" s="145"/>
+      <c r="C2" s="145"/>
+      <c r="D2" s="146"/>
+      <c r="E2" s="174" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="143"/>
-      <c r="G2" s="143"/>
-      <c r="H2" s="143"/>
-      <c r="I2" s="143"/>
-      <c r="J2" s="143"/>
-      <c r="K2" s="143"/>
-      <c r="L2" s="143"/>
-      <c r="M2" s="143"/>
-      <c r="N2" s="144"/>
-      <c r="O2" s="199"/>
-      <c r="P2" s="200"/>
-      <c r="Q2" s="200"/>
-      <c r="R2" s="201"/>
-      <c r="S2" s="208"/>
-      <c r="T2" s="209"/>
-      <c r="U2" s="209"/>
-      <c r="V2" s="209"/>
-      <c r="W2" s="209"/>
-      <c r="X2" s="209"/>
-      <c r="Y2" s="209"/>
-      <c r="Z2" s="210"/>
-      <c r="AA2" s="139" t="s">
+      <c r="F2" s="148"/>
+      <c r="G2" s="148"/>
+      <c r="H2" s="148"/>
+      <c r="I2" s="148"/>
+      <c r="J2" s="148"/>
+      <c r="K2" s="148"/>
+      <c r="L2" s="148"/>
+      <c r="M2" s="148"/>
+      <c r="N2" s="149"/>
+      <c r="O2" s="198"/>
+      <c r="P2" s="199"/>
+      <c r="Q2" s="199"/>
+      <c r="R2" s="200"/>
+      <c r="S2" s="210"/>
+      <c r="T2" s="211"/>
+      <c r="U2" s="211"/>
+      <c r="V2" s="211"/>
+      <c r="W2" s="211"/>
+      <c r="X2" s="211"/>
+      <c r="Y2" s="211"/>
+      <c r="Z2" s="212"/>
+      <c r="AA2" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="141"/>
-      <c r="AC2" s="166" t="str">
+      <c r="AB2" s="146"/>
+      <c r="AC2" s="171" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="167"/>
-      <c r="AE2" s="167"/>
-      <c r="AF2" s="168"/>
-      <c r="AG2" s="170">
+      <c r="AD2" s="172"/>
+      <c r="AE2" s="172"/>
+      <c r="AF2" s="173"/>
+      <c r="AG2" s="175">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
-        <v>43895</v>
-      </c>
-      <c r="AH2" s="171"/>
-      <c r="AI2" s="172"/>
+        <v>44796</v>
+      </c>
+      <c r="AH2" s="176"/>
+      <c r="AI2" s="177"/>
       <c r="AJ2" s="11"/>
       <c r="AK2" s="11"/>
       <c r="AL2" s="11"/>
@@ -6981,52 +6994,52 @@
       <c r="BE2" s="11"/>
     </row>
     <row r="3" spans="1:57" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="139" t="s">
+      <c r="A3" s="144" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="140"/>
-      <c r="C3" s="140"/>
-      <c r="D3" s="141"/>
-      <c r="E3" s="169" t="str">
+      <c r="B3" s="145"/>
+      <c r="C3" s="145"/>
+      <c r="D3" s="146"/>
+      <c r="E3" s="174" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="143"/>
-      <c r="G3" s="143"/>
-      <c r="H3" s="143"/>
-      <c r="I3" s="143"/>
-      <c r="J3" s="143"/>
-      <c r="K3" s="143"/>
-      <c r="L3" s="143"/>
-      <c r="M3" s="143"/>
-      <c r="N3" s="144"/>
-      <c r="O3" s="202"/>
-      <c r="P3" s="203"/>
-      <c r="Q3" s="203"/>
-      <c r="R3" s="204"/>
-      <c r="S3" s="211"/>
-      <c r="T3" s="212"/>
-      <c r="U3" s="212"/>
-      <c r="V3" s="212"/>
-      <c r="W3" s="212"/>
-      <c r="X3" s="212"/>
-      <c r="Y3" s="212"/>
-      <c r="Z3" s="213"/>
-      <c r="AA3" s="139"/>
-      <c r="AB3" s="141"/>
-      <c r="AC3" s="166" t="str">
+      <c r="F3" s="148"/>
+      <c r="G3" s="148"/>
+      <c r="H3" s="148"/>
+      <c r="I3" s="148"/>
+      <c r="J3" s="148"/>
+      <c r="K3" s="148"/>
+      <c r="L3" s="148"/>
+      <c r="M3" s="148"/>
+      <c r="N3" s="149"/>
+      <c r="O3" s="201"/>
+      <c r="P3" s="202"/>
+      <c r="Q3" s="202"/>
+      <c r="R3" s="203"/>
+      <c r="S3" s="213"/>
+      <c r="T3" s="214"/>
+      <c r="U3" s="214"/>
+      <c r="V3" s="214"/>
+      <c r="W3" s="214"/>
+      <c r="X3" s="214"/>
+      <c r="Y3" s="214"/>
+      <c r="Z3" s="215"/>
+      <c r="AA3" s="144"/>
+      <c r="AB3" s="146"/>
+      <c r="AC3" s="171" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="167"/>
-      <c r="AE3" s="167"/>
-      <c r="AF3" s="168"/>
-      <c r="AG3" s="170" t="str">
+      <c r="AD3" s="172"/>
+      <c r="AE3" s="172"/>
+      <c r="AF3" s="173"/>
+      <c r="AG3" s="175" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="171"/>
-      <c r="AI3" s="172"/>
+      <c r="AH3" s="176"/>
+      <c r="AI3" s="177"/>
       <c r="AJ3" s="11"/>
       <c r="AK3" s="11"/>
       <c r="AL3" s="11"/>
@@ -7197,47 +7210,47 @@
       <c r="C7" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="178" t="s">
+      <c r="D7" s="192" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="179"/>
-      <c r="F7" s="180"/>
-      <c r="G7" s="178" t="s">
+      <c r="E7" s="193"/>
+      <c r="F7" s="194"/>
+      <c r="G7" s="192" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="179"/>
-      <c r="I7" s="179"/>
-      <c r="J7" s="179"/>
-      <c r="K7" s="180"/>
-      <c r="L7" s="214" t="s">
+      <c r="H7" s="193"/>
+      <c r="I7" s="193"/>
+      <c r="J7" s="193"/>
+      <c r="K7" s="194"/>
+      <c r="L7" s="204" t="s">
         <v>12</v>
       </c>
-      <c r="M7" s="215"/>
-      <c r="N7" s="216"/>
-      <c r="O7" s="178" t="s">
+      <c r="M7" s="205"/>
+      <c r="N7" s="206"/>
+      <c r="O7" s="192" t="s">
         <v>13</v>
       </c>
-      <c r="P7" s="179"/>
-      <c r="Q7" s="179"/>
-      <c r="R7" s="179"/>
-      <c r="S7" s="180"/>
-      <c r="T7" s="178" t="s">
+      <c r="P7" s="193"/>
+      <c r="Q7" s="193"/>
+      <c r="R7" s="193"/>
+      <c r="S7" s="194"/>
+      <c r="T7" s="192" t="s">
         <v>14</v>
       </c>
-      <c r="U7" s="179"/>
-      <c r="V7" s="179"/>
-      <c r="W7" s="179"/>
-      <c r="X7" s="179"/>
-      <c r="Y7" s="179"/>
-      <c r="Z7" s="179"/>
-      <c r="AA7" s="179"/>
-      <c r="AB7" s="179"/>
-      <c r="AC7" s="179"/>
-      <c r="AD7" s="179"/>
-      <c r="AE7" s="179"/>
-      <c r="AF7" s="179"/>
-      <c r="AG7" s="179"/>
-      <c r="AH7" s="180"/>
+      <c r="U7" s="193"/>
+      <c r="V7" s="193"/>
+      <c r="W7" s="193"/>
+      <c r="X7" s="193"/>
+      <c r="Y7" s="193"/>
+      <c r="Z7" s="193"/>
+      <c r="AA7" s="193"/>
+      <c r="AB7" s="193"/>
+      <c r="AC7" s="193"/>
+      <c r="AD7" s="193"/>
+      <c r="AE7" s="193"/>
+      <c r="AF7" s="193"/>
+      <c r="AG7" s="193"/>
+      <c r="AH7" s="194"/>
       <c r="AJ7" s="11"/>
       <c r="AK7" s="11"/>
       <c r="AL7" s="11"/>
@@ -7261,51 +7274,51 @@
       <c r="BD7" s="11"/>
       <c r="BE7" s="11"/>
     </row>
-    <row r="8" spans="1:57" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:57" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C8" s="60">
         <v>1</v>
       </c>
-      <c r="D8" s="187" t="s">
+      <c r="D8" s="189" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="188"/>
-      <c r="F8" s="189"/>
-      <c r="G8" s="187" t="s">
+      <c r="E8" s="190"/>
+      <c r="F8" s="191"/>
+      <c r="G8" s="189" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="188"/>
-      <c r="I8" s="188"/>
-      <c r="J8" s="188"/>
-      <c r="K8" s="189"/>
-      <c r="L8" s="108" t="s">
+      <c r="H8" s="190"/>
+      <c r="I8" s="190"/>
+      <c r="J8" s="190"/>
+      <c r="K8" s="191"/>
+      <c r="L8" s="113" t="s">
         <v>29</v>
       </c>
-      <c r="M8" s="115"/>
-      <c r="N8" s="116"/>
-      <c r="O8" s="108" t="s">
+      <c r="M8" s="120"/>
+      <c r="N8" s="121"/>
+      <c r="O8" s="113" t="s">
         <v>28</v>
       </c>
-      <c r="P8" s="115"/>
-      <c r="Q8" s="115"/>
-      <c r="R8" s="115"/>
-      <c r="S8" s="116"/>
-      <c r="T8" s="108" t="s">
-        <v>57</v>
-      </c>
-      <c r="U8" s="101"/>
-      <c r="V8" s="101"/>
-      <c r="W8" s="101"/>
-      <c r="X8" s="101"/>
-      <c r="Y8" s="101"/>
-      <c r="Z8" s="101"/>
-      <c r="AA8" s="101"/>
-      <c r="AB8" s="101"/>
-      <c r="AC8" s="101"/>
-      <c r="AD8" s="101"/>
-      <c r="AE8" s="101"/>
-      <c r="AF8" s="101"/>
-      <c r="AG8" s="101"/>
-      <c r="AH8" s="102"/>
+      <c r="P8" s="120"/>
+      <c r="Q8" s="120"/>
+      <c r="R8" s="120"/>
+      <c r="S8" s="121"/>
+      <c r="T8" s="114" t="s">
+        <v>78</v>
+      </c>
+      <c r="U8" s="106"/>
+      <c r="V8" s="106"/>
+      <c r="W8" s="106"/>
+      <c r="X8" s="106"/>
+      <c r="Y8" s="106"/>
+      <c r="Z8" s="106"/>
+      <c r="AA8" s="106"/>
+      <c r="AB8" s="106"/>
+      <c r="AC8" s="106"/>
+      <c r="AD8" s="106"/>
+      <c r="AE8" s="106"/>
+      <c r="AF8" s="106"/>
+      <c r="AG8" s="106"/>
+      <c r="AH8" s="107"/>
       <c r="AJ8" s="11"/>
       <c r="AK8" s="11"/>
       <c r="AL8" s="11"/>
@@ -7329,48 +7342,52 @@
       <c r="BD8" s="11"/>
       <c r="BE8" s="11"/>
     </row>
-    <row r="9" spans="1:57" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:57" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C9" s="60">
         <f>C8+1</f>
         <v>2</v>
       </c>
-      <c r="D9" s="190"/>
-      <c r="E9" s="191"/>
-      <c r="F9" s="192"/>
-      <c r="G9" s="190"/>
-      <c r="H9" s="191"/>
-      <c r="I9" s="191"/>
-      <c r="J9" s="191"/>
-      <c r="K9" s="192"/>
-      <c r="L9" s="108" t="s">
-        <v>30</v>
-      </c>
-      <c r="M9" s="115"/>
-      <c r="N9" s="116"/>
-      <c r="O9" s="108" t="s">
-        <v>31</v>
-      </c>
-      <c r="P9" s="115"/>
-      <c r="Q9" s="115"/>
-      <c r="R9" s="115"/>
-      <c r="S9" s="116"/>
-      <c r="T9" s="108" t="s">
-        <v>44</v>
-      </c>
-      <c r="U9" s="101"/>
-      <c r="V9" s="101"/>
-      <c r="W9" s="101"/>
-      <c r="X9" s="101"/>
-      <c r="Y9" s="101"/>
-      <c r="Z9" s="101"/>
-      <c r="AA9" s="101"/>
-      <c r="AB9" s="101"/>
-      <c r="AC9" s="101"/>
-      <c r="AD9" s="101"/>
-      <c r="AE9" s="101"/>
-      <c r="AF9" s="101"/>
-      <c r="AG9" s="101"/>
-      <c r="AH9" s="102"/>
+      <c r="D9" s="187" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="187"/>
+      <c r="F9" s="187"/>
+      <c r="G9" s="187" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" s="187"/>
+      <c r="I9" s="187"/>
+      <c r="J9" s="187"/>
+      <c r="K9" s="187"/>
+      <c r="L9" s="178" t="s">
+        <v>37</v>
+      </c>
+      <c r="M9" s="179"/>
+      <c r="N9" s="180"/>
+      <c r="O9" s="178" t="s">
+        <v>34</v>
+      </c>
+      <c r="P9" s="179"/>
+      <c r="Q9" s="179"/>
+      <c r="R9" s="179"/>
+      <c r="S9" s="180"/>
+      <c r="T9" s="178" t="s">
+        <v>48</v>
+      </c>
+      <c r="U9" s="182"/>
+      <c r="V9" s="182"/>
+      <c r="W9" s="182"/>
+      <c r="X9" s="182"/>
+      <c r="Y9" s="182"/>
+      <c r="Z9" s="182"/>
+      <c r="AA9" s="182"/>
+      <c r="AB9" s="182"/>
+      <c r="AC9" s="182"/>
+      <c r="AD9" s="182"/>
+      <c r="AE9" s="182"/>
+      <c r="AF9" s="182"/>
+      <c r="AG9" s="182"/>
+      <c r="AH9" s="183"/>
       <c r="AL9" s="11"/>
       <c r="AM9" s="11"/>
       <c r="AN9" s="11"/>
@@ -7384,48 +7401,48 @@
       <c r="AV9" s="11"/>
       <c r="AW9" s="11"/>
     </row>
-    <row r="10" spans="1:57" s="8" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:57" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C10" s="60">
-        <f t="shared" ref="C10:C14" si="0">C9+1</f>
+        <f t="shared" ref="C10:C18" si="0">C9+1</f>
         <v>3</v>
       </c>
-      <c r="D10" s="190"/>
-      <c r="E10" s="191"/>
-      <c r="F10" s="192"/>
-      <c r="G10" s="190"/>
-      <c r="H10" s="191"/>
-      <c r="I10" s="191"/>
-      <c r="J10" s="191"/>
-      <c r="K10" s="192"/>
-      <c r="L10" s="184" t="s">
-        <v>32</v>
-      </c>
-      <c r="M10" s="185"/>
-      <c r="N10" s="186"/>
-      <c r="O10" s="184" t="s">
-        <v>33</v>
-      </c>
-      <c r="P10" s="185"/>
-      <c r="Q10" s="185"/>
-      <c r="R10" s="185"/>
-      <c r="S10" s="186"/>
-      <c r="T10" s="181" t="s">
-        <v>50</v>
-      </c>
-      <c r="U10" s="182"/>
-      <c r="V10" s="182"/>
-      <c r="W10" s="182"/>
-      <c r="X10" s="182"/>
-      <c r="Y10" s="182"/>
-      <c r="Z10" s="182"/>
-      <c r="AA10" s="182"/>
-      <c r="AB10" s="182"/>
-      <c r="AC10" s="182"/>
-      <c r="AD10" s="182"/>
-      <c r="AE10" s="182"/>
-      <c r="AF10" s="182"/>
-      <c r="AG10" s="182"/>
-      <c r="AH10" s="183"/>
+      <c r="D10" s="188"/>
+      <c r="E10" s="188"/>
+      <c r="F10" s="188"/>
+      <c r="G10" s="188"/>
+      <c r="H10" s="188"/>
+      <c r="I10" s="188"/>
+      <c r="J10" s="188"/>
+      <c r="K10" s="188"/>
+      <c r="L10" s="113" t="s">
+        <v>38</v>
+      </c>
+      <c r="M10" s="120"/>
+      <c r="N10" s="121"/>
+      <c r="O10" s="113" t="s">
+        <v>35</v>
+      </c>
+      <c r="P10" s="120"/>
+      <c r="Q10" s="120"/>
+      <c r="R10" s="120"/>
+      <c r="S10" s="121"/>
+      <c r="T10" s="113" t="s">
+        <v>46</v>
+      </c>
+      <c r="U10" s="106"/>
+      <c r="V10" s="106"/>
+      <c r="W10" s="106"/>
+      <c r="X10" s="106"/>
+      <c r="Y10" s="106"/>
+      <c r="Z10" s="106"/>
+      <c r="AA10" s="106"/>
+      <c r="AB10" s="106"/>
+      <c r="AC10" s="106"/>
+      <c r="AD10" s="106"/>
+      <c r="AE10" s="106"/>
+      <c r="AF10" s="106"/>
+      <c r="AG10" s="106"/>
+      <c r="AH10" s="107"/>
       <c r="AL10" s="11"/>
       <c r="AM10" s="11"/>
       <c r="AN10" s="11"/>
@@ -7439,48 +7456,48 @@
       <c r="AV10" s="11"/>
       <c r="AW10" s="11"/>
     </row>
-    <row r="11" spans="1:57" s="8" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:57" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C11" s="60">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D11" s="193"/>
-      <c r="E11" s="194"/>
-      <c r="F11" s="195"/>
-      <c r="G11" s="193"/>
-      <c r="H11" s="194"/>
-      <c r="I11" s="194"/>
-      <c r="J11" s="194"/>
-      <c r="K11" s="195"/>
-      <c r="L11" s="184" t="s">
-        <v>34</v>
-      </c>
-      <c r="M11" s="185"/>
-      <c r="N11" s="186"/>
-      <c r="O11" s="184" t="s">
-        <v>35</v>
-      </c>
-      <c r="P11" s="185"/>
-      <c r="Q11" s="185"/>
-      <c r="R11" s="185"/>
-      <c r="S11" s="186"/>
-      <c r="T11" s="181" t="s">
-        <v>56</v>
-      </c>
-      <c r="U11" s="182"/>
-      <c r="V11" s="182"/>
-      <c r="W11" s="182"/>
-      <c r="X11" s="182"/>
-      <c r="Y11" s="182"/>
-      <c r="Z11" s="182"/>
-      <c r="AA11" s="182"/>
-      <c r="AB11" s="182"/>
-      <c r="AC11" s="182"/>
-      <c r="AD11" s="182"/>
-      <c r="AE11" s="182"/>
-      <c r="AF11" s="182"/>
-      <c r="AG11" s="182"/>
-      <c r="AH11" s="183"/>
+      <c r="D11" s="188"/>
+      <c r="E11" s="188"/>
+      <c r="F11" s="188"/>
+      <c r="G11" s="188"/>
+      <c r="H11" s="188"/>
+      <c r="I11" s="188"/>
+      <c r="J11" s="188"/>
+      <c r="K11" s="188"/>
+      <c r="L11" s="113" t="s">
+        <v>39</v>
+      </c>
+      <c r="M11" s="120"/>
+      <c r="N11" s="121"/>
+      <c r="O11" s="113" t="s">
+        <v>36</v>
+      </c>
+      <c r="P11" s="120"/>
+      <c r="Q11" s="120"/>
+      <c r="R11" s="120"/>
+      <c r="S11" s="121"/>
+      <c r="T11" s="113" t="s">
+        <v>47</v>
+      </c>
+      <c r="U11" s="106"/>
+      <c r="V11" s="106"/>
+      <c r="W11" s="106"/>
+      <c r="X11" s="106"/>
+      <c r="Y11" s="106"/>
+      <c r="Z11" s="106"/>
+      <c r="AA11" s="106"/>
+      <c r="AB11" s="106"/>
+      <c r="AC11" s="106"/>
+      <c r="AD11" s="106"/>
+      <c r="AE11" s="106"/>
+      <c r="AF11" s="106"/>
+      <c r="AG11" s="106"/>
+      <c r="AH11" s="107"/>
       <c r="AL11" s="11"/>
       <c r="AM11" s="11"/>
       <c r="AN11" s="11"/>
@@ -7494,52 +7511,48 @@
       <c r="AV11" s="11"/>
       <c r="AW11" s="11"/>
     </row>
-    <row r="12" spans="1:57" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:57" s="7" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C12" s="60">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="D12" s="176" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12" s="176"/>
-      <c r="F12" s="176"/>
-      <c r="G12" s="176" t="s">
-        <v>36</v>
-      </c>
-      <c r="H12" s="176"/>
-      <c r="I12" s="176"/>
-      <c r="J12" s="176"/>
-      <c r="K12" s="176"/>
-      <c r="L12" s="184" t="s">
-        <v>41</v>
-      </c>
-      <c r="M12" s="185"/>
-      <c r="N12" s="186"/>
-      <c r="O12" s="184" t="s">
-        <v>38</v>
-      </c>
-      <c r="P12" s="185"/>
-      <c r="Q12" s="185"/>
-      <c r="R12" s="185"/>
-      <c r="S12" s="186"/>
-      <c r="T12" s="184" t="s">
-        <v>53</v>
-      </c>
-      <c r="U12" s="182"/>
-      <c r="V12" s="182"/>
-      <c r="W12" s="182"/>
-      <c r="X12" s="182"/>
-      <c r="Y12" s="182"/>
-      <c r="Z12" s="182"/>
-      <c r="AA12" s="182"/>
-      <c r="AB12" s="182"/>
-      <c r="AC12" s="182"/>
-      <c r="AD12" s="182"/>
-      <c r="AE12" s="182"/>
-      <c r="AF12" s="182"/>
-      <c r="AG12" s="182"/>
-      <c r="AH12" s="183"/>
+      <c r="D12" s="188"/>
+      <c r="E12" s="188"/>
+      <c r="F12" s="188"/>
+      <c r="G12" s="188"/>
+      <c r="H12" s="188"/>
+      <c r="I12" s="188"/>
+      <c r="J12" s="188"/>
+      <c r="K12" s="188"/>
+      <c r="L12" s="113" t="s">
+        <v>50</v>
+      </c>
+      <c r="M12" s="120"/>
+      <c r="N12" s="121"/>
+      <c r="O12" s="113" t="s">
+        <v>51</v>
+      </c>
+      <c r="P12" s="120"/>
+      <c r="Q12" s="120"/>
+      <c r="R12" s="120"/>
+      <c r="S12" s="121"/>
+      <c r="T12" s="114" t="s">
+        <v>52</v>
+      </c>
+      <c r="U12" s="109"/>
+      <c r="V12" s="109"/>
+      <c r="W12" s="109"/>
+      <c r="X12" s="109"/>
+      <c r="Y12" s="109"/>
+      <c r="Z12" s="109"/>
+      <c r="AA12" s="109"/>
+      <c r="AB12" s="109"/>
+      <c r="AC12" s="109"/>
+      <c r="AD12" s="109"/>
+      <c r="AE12" s="109"/>
+      <c r="AF12" s="109"/>
+      <c r="AG12" s="109"/>
+      <c r="AH12" s="110"/>
       <c r="AL12" s="11"/>
       <c r="AM12" s="11"/>
       <c r="AN12" s="11"/>
@@ -7553,48 +7566,48 @@
       <c r="AV12" s="11"/>
       <c r="AW12" s="11"/>
     </row>
-    <row r="13" spans="1:57" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:57" s="7" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C13" s="60">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="D13" s="177"/>
-      <c r="E13" s="177"/>
-      <c r="F13" s="177"/>
-      <c r="G13" s="177"/>
-      <c r="H13" s="177"/>
-      <c r="I13" s="177"/>
-      <c r="J13" s="177"/>
-      <c r="K13" s="177"/>
-      <c r="L13" s="108" t="s">
-        <v>42</v>
-      </c>
-      <c r="M13" s="115"/>
-      <c r="N13" s="116"/>
-      <c r="O13" s="108" t="s">
-        <v>39</v>
-      </c>
-      <c r="P13" s="115"/>
-      <c r="Q13" s="115"/>
-      <c r="R13" s="115"/>
-      <c r="S13" s="116"/>
-      <c r="T13" s="108" t="s">
-        <v>51</v>
-      </c>
-      <c r="U13" s="101"/>
-      <c r="V13" s="101"/>
-      <c r="W13" s="101"/>
-      <c r="X13" s="101"/>
-      <c r="Y13" s="101"/>
-      <c r="Z13" s="101"/>
-      <c r="AA13" s="101"/>
-      <c r="AB13" s="101"/>
-      <c r="AC13" s="101"/>
-      <c r="AD13" s="101"/>
-      <c r="AE13" s="101"/>
-      <c r="AF13" s="101"/>
-      <c r="AG13" s="101"/>
-      <c r="AH13" s="102"/>
+      <c r="D13" s="188"/>
+      <c r="E13" s="188"/>
+      <c r="F13" s="188"/>
+      <c r="G13" s="188"/>
+      <c r="H13" s="188"/>
+      <c r="I13" s="188"/>
+      <c r="J13" s="188"/>
+      <c r="K13" s="188"/>
+      <c r="L13" s="113" t="s">
+        <v>56</v>
+      </c>
+      <c r="M13" s="120"/>
+      <c r="N13" s="121"/>
+      <c r="O13" s="113" t="s">
+        <v>57</v>
+      </c>
+      <c r="P13" s="120"/>
+      <c r="Q13" s="120"/>
+      <c r="R13" s="120"/>
+      <c r="S13" s="121"/>
+      <c r="T13" s="114" t="s">
+        <v>58</v>
+      </c>
+      <c r="U13" s="109"/>
+      <c r="V13" s="109"/>
+      <c r="W13" s="109"/>
+      <c r="X13" s="109"/>
+      <c r="Y13" s="109"/>
+      <c r="Z13" s="109"/>
+      <c r="AA13" s="109"/>
+      <c r="AB13" s="109"/>
+      <c r="AC13" s="109"/>
+      <c r="AD13" s="109"/>
+      <c r="AE13" s="109"/>
+      <c r="AF13" s="109"/>
+      <c r="AG13" s="109"/>
+      <c r="AH13" s="110"/>
       <c r="AL13" s="11"/>
       <c r="AM13" s="11"/>
       <c r="AN13" s="11"/>
@@ -7608,48 +7621,48 @@
       <c r="AV13" s="11"/>
       <c r="AW13" s="11"/>
     </row>
-    <row r="14" spans="1:57" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:57" s="7" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C14" s="60">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="D14" s="177"/>
-      <c r="E14" s="177"/>
-      <c r="F14" s="177"/>
-      <c r="G14" s="177"/>
-      <c r="H14" s="177"/>
-      <c r="I14" s="177"/>
-      <c r="J14" s="177"/>
-      <c r="K14" s="177"/>
-      <c r="L14" s="108" t="s">
-        <v>43</v>
-      </c>
-      <c r="M14" s="115"/>
-      <c r="N14" s="116"/>
-      <c r="O14" s="108" t="s">
-        <v>40</v>
-      </c>
-      <c r="P14" s="115"/>
-      <c r="Q14" s="115"/>
-      <c r="R14" s="115"/>
-      <c r="S14" s="116"/>
-      <c r="T14" s="108" t="s">
-        <v>52</v>
-      </c>
-      <c r="U14" s="101"/>
-      <c r="V14" s="101"/>
-      <c r="W14" s="101"/>
-      <c r="X14" s="101"/>
-      <c r="Y14" s="101"/>
-      <c r="Z14" s="101"/>
-      <c r="AA14" s="101"/>
-      <c r="AB14" s="101"/>
-      <c r="AC14" s="101"/>
-      <c r="AD14" s="101"/>
-      <c r="AE14" s="101"/>
-      <c r="AF14" s="101"/>
-      <c r="AG14" s="101"/>
-      <c r="AH14" s="102"/>
+      <c r="D14" s="188"/>
+      <c r="E14" s="188"/>
+      <c r="F14" s="188"/>
+      <c r="G14" s="188"/>
+      <c r="H14" s="188"/>
+      <c r="I14" s="188"/>
+      <c r="J14" s="188"/>
+      <c r="K14" s="188"/>
+      <c r="L14" s="83" t="s">
+        <v>60</v>
+      </c>
+      <c r="M14" s="84"/>
+      <c r="N14" s="85"/>
+      <c r="O14" s="83" t="s">
+        <v>63</v>
+      </c>
+      <c r="P14" s="84"/>
+      <c r="Q14" s="84"/>
+      <c r="R14" s="84"/>
+      <c r="S14" s="85"/>
+      <c r="T14" s="184" t="s">
+        <v>66</v>
+      </c>
+      <c r="U14" s="185"/>
+      <c r="V14" s="185"/>
+      <c r="W14" s="185"/>
+      <c r="X14" s="185"/>
+      <c r="Y14" s="185"/>
+      <c r="Z14" s="185"/>
+      <c r="AA14" s="185"/>
+      <c r="AB14" s="185"/>
+      <c r="AC14" s="185"/>
+      <c r="AD14" s="185"/>
+      <c r="AE14" s="185"/>
+      <c r="AF14" s="185"/>
+      <c r="AG14" s="185"/>
+      <c r="AH14" s="186"/>
       <c r="AL14" s="11"/>
       <c r="AM14" s="11"/>
       <c r="AN14" s="11"/>
@@ -7663,48 +7676,48 @@
       <c r="AV14" s="11"/>
       <c r="AW14" s="11"/>
     </row>
-    <row r="15" spans="1:57" s="7" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:57" s="7" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C15" s="60">
-        <f>C14+1</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="D15" s="177"/>
-      <c r="E15" s="177"/>
-      <c r="F15" s="177"/>
-      <c r="G15" s="177"/>
-      <c r="H15" s="177"/>
-      <c r="I15" s="177"/>
-      <c r="J15" s="177"/>
-      <c r="K15" s="177"/>
-      <c r="L15" s="108" t="s">
-        <v>58</v>
-      </c>
-      <c r="M15" s="115"/>
-      <c r="N15" s="116"/>
-      <c r="O15" s="108" t="s">
-        <v>59</v>
-      </c>
-      <c r="P15" s="115"/>
-      <c r="Q15" s="115"/>
-      <c r="R15" s="115"/>
-      <c r="S15" s="116"/>
-      <c r="T15" s="109" t="s">
-        <v>60</v>
-      </c>
-      <c r="U15" s="104"/>
-      <c r="V15" s="104"/>
-      <c r="W15" s="104"/>
-      <c r="X15" s="104"/>
-      <c r="Y15" s="104"/>
-      <c r="Z15" s="104"/>
-      <c r="AA15" s="104"/>
-      <c r="AB15" s="104"/>
-      <c r="AC15" s="104"/>
-      <c r="AD15" s="104"/>
-      <c r="AE15" s="104"/>
-      <c r="AF15" s="104"/>
-      <c r="AG15" s="104"/>
-      <c r="AH15" s="105"/>
+      <c r="D15" s="188"/>
+      <c r="E15" s="188"/>
+      <c r="F15" s="188"/>
+      <c r="G15" s="188"/>
+      <c r="H15" s="188"/>
+      <c r="I15" s="188"/>
+      <c r="J15" s="188"/>
+      <c r="K15" s="188"/>
+      <c r="L15" s="83" t="s">
+        <v>61</v>
+      </c>
+      <c r="M15" s="84"/>
+      <c r="N15" s="85"/>
+      <c r="O15" s="83" t="s">
+        <v>64</v>
+      </c>
+      <c r="P15" s="84"/>
+      <c r="Q15" s="84"/>
+      <c r="R15" s="84"/>
+      <c r="S15" s="85"/>
+      <c r="T15" s="184" t="s">
+        <v>67</v>
+      </c>
+      <c r="U15" s="185"/>
+      <c r="V15" s="185"/>
+      <c r="W15" s="185"/>
+      <c r="X15" s="185"/>
+      <c r="Y15" s="185"/>
+      <c r="Z15" s="185"/>
+      <c r="AA15" s="185"/>
+      <c r="AB15" s="185"/>
+      <c r="AC15" s="185"/>
+      <c r="AD15" s="185"/>
+      <c r="AE15" s="185"/>
+      <c r="AF15" s="185"/>
+      <c r="AG15" s="185"/>
+      <c r="AH15" s="186"/>
       <c r="AL15" s="11"/>
       <c r="AM15" s="11"/>
       <c r="AN15" s="11"/>
@@ -7718,48 +7731,48 @@
       <c r="AV15" s="11"/>
       <c r="AW15" s="11"/>
     </row>
-    <row r="16" spans="1:57" s="7" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:57" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C16" s="60">
-        <f>C15+1</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="D16" s="177"/>
-      <c r="E16" s="177"/>
-      <c r="F16" s="177"/>
-      <c r="G16" s="177"/>
-      <c r="H16" s="177"/>
-      <c r="I16" s="177"/>
-      <c r="J16" s="177"/>
-      <c r="K16" s="177"/>
-      <c r="L16" s="108" t="s">
-        <v>64</v>
-      </c>
-      <c r="M16" s="115"/>
-      <c r="N16" s="116"/>
-      <c r="O16" s="108" t="s">
+      <c r="D16" s="188"/>
+      <c r="E16" s="188"/>
+      <c r="F16" s="188"/>
+      <c r="G16" s="188"/>
+      <c r="H16" s="188"/>
+      <c r="I16" s="188"/>
+      <c r="J16" s="188"/>
+      <c r="K16" s="188"/>
+      <c r="L16" s="113" t="s">
+        <v>62</v>
+      </c>
+      <c r="M16" s="120"/>
+      <c r="N16" s="121"/>
+      <c r="O16" s="113" t="s">
         <v>65</v>
       </c>
-      <c r="P16" s="115"/>
-      <c r="Q16" s="115"/>
-      <c r="R16" s="115"/>
-      <c r="S16" s="116"/>
-      <c r="T16" s="109" t="s">
-        <v>66</v>
-      </c>
-      <c r="U16" s="104"/>
-      <c r="V16" s="104"/>
-      <c r="W16" s="104"/>
-      <c r="X16" s="104"/>
-      <c r="Y16" s="104"/>
-      <c r="Z16" s="104"/>
-      <c r="AA16" s="104"/>
-      <c r="AB16" s="104"/>
-      <c r="AC16" s="104"/>
-      <c r="AD16" s="104"/>
-      <c r="AE16" s="104"/>
-      <c r="AF16" s="104"/>
-      <c r="AG16" s="104"/>
-      <c r="AH16" s="105"/>
+      <c r="P16" s="120"/>
+      <c r="Q16" s="120"/>
+      <c r="R16" s="120"/>
+      <c r="S16" s="121"/>
+      <c r="T16" s="114" t="s">
+        <v>68</v>
+      </c>
+      <c r="U16" s="109"/>
+      <c r="V16" s="109"/>
+      <c r="W16" s="109"/>
+      <c r="X16" s="109"/>
+      <c r="Y16" s="109"/>
+      <c r="Z16" s="109"/>
+      <c r="AA16" s="109"/>
+      <c r="AB16" s="109"/>
+      <c r="AC16" s="109"/>
+      <c r="AD16" s="109"/>
+      <c r="AE16" s="109"/>
+      <c r="AF16" s="109"/>
+      <c r="AG16" s="109"/>
+      <c r="AH16" s="110"/>
       <c r="AL16" s="11"/>
       <c r="AM16" s="11"/>
       <c r="AN16" s="11"/>
@@ -7773,48 +7786,52 @@
       <c r="AV16" s="11"/>
       <c r="AW16" s="11"/>
     </row>
-    <row r="17" spans="3:49" s="7" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="3:49" s="8" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C17" s="60">
-        <f t="shared" ref="C17:C19" si="1">C16+1</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="D17" s="177"/>
-      <c r="E17" s="177"/>
-      <c r="F17" s="177"/>
-      <c r="G17" s="177"/>
-      <c r="H17" s="177"/>
-      <c r="I17" s="177"/>
-      <c r="J17" s="177"/>
-      <c r="K17" s="177"/>
-      <c r="L17" s="83" t="s">
-        <v>68</v>
-      </c>
-      <c r="M17" s="84"/>
-      <c r="N17" s="85"/>
-      <c r="O17" s="83" t="s">
+      <c r="D17" s="93" t="s">
         <v>71</v>
       </c>
-      <c r="P17" s="84"/>
-      <c r="Q17" s="84"/>
-      <c r="R17" s="84"/>
-      <c r="S17" s="85"/>
-      <c r="T17" s="173" t="s">
-        <v>74</v>
-      </c>
-      <c r="U17" s="174"/>
-      <c r="V17" s="174"/>
-      <c r="W17" s="174"/>
-      <c r="X17" s="174"/>
-      <c r="Y17" s="174"/>
-      <c r="Z17" s="174"/>
-      <c r="AA17" s="174"/>
-      <c r="AB17" s="174"/>
-      <c r="AC17" s="174"/>
-      <c r="AD17" s="174"/>
-      <c r="AE17" s="174"/>
-      <c r="AF17" s="174"/>
-      <c r="AG17" s="174"/>
-      <c r="AH17" s="175"/>
+      <c r="E17" s="94"/>
+      <c r="F17" s="95"/>
+      <c r="G17" s="93" t="s">
+        <v>72</v>
+      </c>
+      <c r="H17" s="94"/>
+      <c r="I17" s="94"/>
+      <c r="J17" s="94"/>
+      <c r="K17" s="95"/>
+      <c r="L17" s="178" t="s">
+        <v>73</v>
+      </c>
+      <c r="M17" s="179"/>
+      <c r="N17" s="180"/>
+      <c r="O17" s="178" t="s">
+        <v>30</v>
+      </c>
+      <c r="P17" s="179"/>
+      <c r="Q17" s="179"/>
+      <c r="R17" s="179"/>
+      <c r="S17" s="180"/>
+      <c r="T17" s="181" t="s">
+        <v>45</v>
+      </c>
+      <c r="U17" s="182"/>
+      <c r="V17" s="182"/>
+      <c r="W17" s="182"/>
+      <c r="X17" s="182"/>
+      <c r="Y17" s="182"/>
+      <c r="Z17" s="182"/>
+      <c r="AA17" s="182"/>
+      <c r="AB17" s="182"/>
+      <c r="AC17" s="182"/>
+      <c r="AD17" s="182"/>
+      <c r="AE17" s="182"/>
+      <c r="AF17" s="182"/>
+      <c r="AG17" s="182"/>
+      <c r="AH17" s="183"/>
       <c r="AL17" s="11"/>
       <c r="AM17" s="11"/>
       <c r="AN17" s="11"/>
@@ -7828,48 +7845,48 @@
       <c r="AV17" s="11"/>
       <c r="AW17" s="11"/>
     </row>
-    <row r="18" spans="3:49" s="7" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="3:49" s="8" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C18" s="60">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="D18" s="177"/>
-      <c r="E18" s="177"/>
-      <c r="F18" s="177"/>
-      <c r="G18" s="177"/>
-      <c r="H18" s="177"/>
-      <c r="I18" s="177"/>
-      <c r="J18" s="177"/>
-      <c r="K18" s="177"/>
-      <c r="L18" s="83" t="s">
-        <v>69</v>
-      </c>
-      <c r="M18" s="84"/>
-      <c r="N18" s="85"/>
-      <c r="O18" s="83" t="s">
-        <v>72</v>
-      </c>
-      <c r="P18" s="84"/>
-      <c r="Q18" s="84"/>
-      <c r="R18" s="84"/>
-      <c r="S18" s="85"/>
-      <c r="T18" s="173" t="s">
+      <c r="D18" s="90"/>
+      <c r="E18" s="91"/>
+      <c r="F18" s="92"/>
+      <c r="G18" s="90"/>
+      <c r="H18" s="91"/>
+      <c r="I18" s="91"/>
+      <c r="J18" s="91"/>
+      <c r="K18" s="92"/>
+      <c r="L18" s="178" t="s">
+        <v>74</v>
+      </c>
+      <c r="M18" s="179"/>
+      <c r="N18" s="180"/>
+      <c r="O18" s="178" t="s">
+        <v>31</v>
+      </c>
+      <c r="P18" s="179"/>
+      <c r="Q18" s="179"/>
+      <c r="R18" s="179"/>
+      <c r="S18" s="180"/>
+      <c r="T18" s="181" t="s">
         <v>75</v>
       </c>
-      <c r="U18" s="174"/>
-      <c r="V18" s="174"/>
-      <c r="W18" s="174"/>
-      <c r="X18" s="174"/>
-      <c r="Y18" s="174"/>
-      <c r="Z18" s="174"/>
-      <c r="AA18" s="174"/>
-      <c r="AB18" s="174"/>
-      <c r="AC18" s="174"/>
-      <c r="AD18" s="174"/>
-      <c r="AE18" s="174"/>
-      <c r="AF18" s="174"/>
-      <c r="AG18" s="174"/>
-      <c r="AH18" s="175"/>
+      <c r="U18" s="182"/>
+      <c r="V18" s="182"/>
+      <c r="W18" s="182"/>
+      <c r="X18" s="182"/>
+      <c r="Y18" s="182"/>
+      <c r="Z18" s="182"/>
+      <c r="AA18" s="182"/>
+      <c r="AB18" s="182"/>
+      <c r="AC18" s="182"/>
+      <c r="AD18" s="182"/>
+      <c r="AE18" s="182"/>
+      <c r="AF18" s="182"/>
+      <c r="AG18" s="182"/>
+      <c r="AH18" s="183"/>
       <c r="AL18" s="11"/>
       <c r="AM18" s="11"/>
       <c r="AN18" s="11"/>
@@ -7884,47 +7901,38 @@
       <c r="AW18" s="11"/>
     </row>
     <row r="19" spans="3:49" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C19" s="60">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="D19" s="177"/>
-      <c r="E19" s="177"/>
-      <c r="F19" s="177"/>
-      <c r="G19" s="177"/>
-      <c r="H19" s="177"/>
-      <c r="I19" s="177"/>
-      <c r="J19" s="177"/>
-      <c r="K19" s="177"/>
-      <c r="L19" s="108" t="s">
-        <v>70</v>
-      </c>
-      <c r="M19" s="115"/>
-      <c r="N19" s="116"/>
-      <c r="O19" s="108" t="s">
-        <v>73</v>
-      </c>
-      <c r="P19" s="115"/>
-      <c r="Q19" s="115"/>
-      <c r="R19" s="115"/>
-      <c r="S19" s="116"/>
-      <c r="T19" s="109" t="s">
-        <v>76</v>
-      </c>
-      <c r="U19" s="104"/>
-      <c r="V19" s="104"/>
-      <c r="W19" s="104"/>
-      <c r="X19" s="104"/>
-      <c r="Y19" s="104"/>
-      <c r="Z19" s="104"/>
-      <c r="AA19" s="104"/>
-      <c r="AB19" s="104"/>
-      <c r="AC19" s="104"/>
-      <c r="AD19" s="104"/>
-      <c r="AE19" s="104"/>
-      <c r="AF19" s="104"/>
-      <c r="AG19" s="104"/>
-      <c r="AH19" s="105"/>
+      <c r="C19" s="86"/>
+      <c r="D19" s="86"/>
+      <c r="E19" s="86"/>
+      <c r="F19" s="86"/>
+      <c r="G19" s="86"/>
+      <c r="H19" s="86"/>
+      <c r="I19" s="86"/>
+      <c r="J19" s="86"/>
+      <c r="K19" s="86"/>
+      <c r="L19" s="87"/>
+      <c r="M19" s="87"/>
+      <c r="N19" s="87"/>
+      <c r="O19" s="87"/>
+      <c r="P19" s="87"/>
+      <c r="Q19" s="87"/>
+      <c r="R19" s="87"/>
+      <c r="S19" s="87"/>
+      <c r="T19" s="88"/>
+      <c r="U19" s="89"/>
+      <c r="V19" s="89"/>
+      <c r="W19" s="89"/>
+      <c r="X19" s="89"/>
+      <c r="Y19" s="89"/>
+      <c r="Z19" s="89"/>
+      <c r="AA19" s="89"/>
+      <c r="AB19" s="89"/>
+      <c r="AC19" s="89"/>
+      <c r="AD19" s="89"/>
+      <c r="AE19" s="89"/>
+      <c r="AF19" s="89"/>
+      <c r="AG19" s="89"/>
+      <c r="AH19" s="89"/>
       <c r="AL19" s="11"/>
       <c r="AM19" s="11"/>
       <c r="AN19" s="11"/>
@@ -7938,60 +7946,14 @@
       <c r="AV19" s="11"/>
       <c r="AW19" s="11"/>
     </row>
-    <row r="20" spans="3:49" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C20" s="86"/>
-      <c r="D20" s="87"/>
-      <c r="E20" s="87"/>
-      <c r="F20" s="87"/>
-      <c r="G20" s="87"/>
-      <c r="H20" s="87"/>
-      <c r="I20" s="87"/>
-      <c r="J20" s="87"/>
-      <c r="K20" s="87"/>
-      <c r="L20" s="88"/>
-      <c r="M20" s="88"/>
-      <c r="N20" s="88"/>
-      <c r="O20" s="88"/>
-      <c r="P20" s="88"/>
-      <c r="Q20" s="88"/>
-      <c r="R20" s="88"/>
-      <c r="S20" s="88"/>
-      <c r="T20" s="89"/>
-      <c r="U20" s="90"/>
-      <c r="V20" s="90"/>
-      <c r="W20" s="90"/>
-      <c r="X20" s="90"/>
-      <c r="Y20" s="90"/>
-      <c r="Z20" s="90"/>
-      <c r="AA20" s="90"/>
-      <c r="AB20" s="90"/>
-      <c r="AC20" s="90"/>
-      <c r="AD20" s="90"/>
-      <c r="AE20" s="90"/>
-      <c r="AF20" s="90"/>
-      <c r="AG20" s="90"/>
-      <c r="AH20" s="90"/>
-      <c r="AL20" s="11"/>
-      <c r="AM20" s="11"/>
-      <c r="AN20" s="11"/>
-      <c r="AO20" s="11"/>
-      <c r="AP20" s="11"/>
-      <c r="AQ20" s="11"/>
-      <c r="AR20" s="11"/>
-      <c r="AS20" s="11"/>
-      <c r="AT20" s="11"/>
-      <c r="AU20" s="11"/>
-      <c r="AV20" s="11"/>
-      <c r="AW20" s="11"/>
-    </row>
   </sheetData>
-  <mergeCells count="58">
+  <mergeCells count="55">
     <mergeCell ref="L12:N12"/>
-    <mergeCell ref="L15:N15"/>
-    <mergeCell ref="O15:S15"/>
-    <mergeCell ref="T15:AH15"/>
-    <mergeCell ref="L16:N16"/>
-    <mergeCell ref="O16:S16"/>
+    <mergeCell ref="O12:S12"/>
+    <mergeCell ref="T12:AH12"/>
+    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="O13:S13"/>
+    <mergeCell ref="T13:AH13"/>
     <mergeCell ref="AA1:AB1"/>
     <mergeCell ref="AC3:AF3"/>
     <mergeCell ref="AG3:AI3"/>
@@ -8005,7 +7967,6 @@
     <mergeCell ref="S1:Z3"/>
     <mergeCell ref="AA2:AB2"/>
     <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="D7:F7"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A3:D3"/>
@@ -8013,37 +7974,35 @@
     <mergeCell ref="G7:K7"/>
     <mergeCell ref="L7:N7"/>
     <mergeCell ref="O7:S7"/>
-    <mergeCell ref="O8:S8"/>
-    <mergeCell ref="O9:S9"/>
-    <mergeCell ref="O10:S10"/>
-    <mergeCell ref="O11:S11"/>
-    <mergeCell ref="D8:F11"/>
-    <mergeCell ref="G8:K11"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="L10:N10"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:K8"/>
     <mergeCell ref="L8:N8"/>
-    <mergeCell ref="L11:N11"/>
+    <mergeCell ref="D7:F7"/>
     <mergeCell ref="T7:AH7"/>
     <mergeCell ref="T8:AH8"/>
+    <mergeCell ref="O8:S8"/>
+    <mergeCell ref="T14:AH14"/>
+    <mergeCell ref="T15:AH15"/>
+    <mergeCell ref="D9:F16"/>
+    <mergeCell ref="G9:K16"/>
     <mergeCell ref="T9:AH9"/>
     <mergeCell ref="T10:AH10"/>
     <mergeCell ref="T11:AH11"/>
+    <mergeCell ref="L16:N16"/>
+    <mergeCell ref="O16:S16"/>
     <mergeCell ref="T16:AH16"/>
+    <mergeCell ref="L10:N10"/>
+    <mergeCell ref="L11:N11"/>
+    <mergeCell ref="O11:S11"/>
+    <mergeCell ref="O9:S9"/>
+    <mergeCell ref="O10:S10"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="L17:N17"/>
+    <mergeCell ref="O17:S17"/>
     <mergeCell ref="T17:AH17"/>
+    <mergeCell ref="L18:N18"/>
+    <mergeCell ref="O18:S18"/>
     <mergeCell ref="T18:AH18"/>
-    <mergeCell ref="D12:F19"/>
-    <mergeCell ref="G12:K19"/>
-    <mergeCell ref="T12:AH12"/>
-    <mergeCell ref="T13:AH13"/>
-    <mergeCell ref="T14:AH14"/>
-    <mergeCell ref="L19:N19"/>
-    <mergeCell ref="O19:S19"/>
-    <mergeCell ref="T19:AH19"/>
-    <mergeCell ref="L13:N13"/>
-    <mergeCell ref="L14:N14"/>
-    <mergeCell ref="O14:S14"/>
-    <mergeCell ref="O12:S12"/>
-    <mergeCell ref="O13:S13"/>
   </mergeCells>
   <phoneticPr fontId="10"/>
   <printOptions horizontalCentered="1"/>

--- a/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/010_要件定義/040_画面設計/画面一覧_A1_プロジェクト管理システム.xlsx
+++ b/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/010_要件定義/040_画面設計/画面一覧_A1_プロジェクト管理システム.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52BC61C0-4284-40CE-8B19-A4F7163BE42D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B64B912C-85FC-4769-885B-6A61224D8B78}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -14,7 +14,7 @@
     <sheet name="1" sheetId="29" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'1'!$A$1:$AI$25</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'1'!$A$1:$AI$26</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$S$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">変更履歴!$A$1:$AI$34</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">目次!$A$1:$AI$36</definedName>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="85">
   <si>
     <t>PJ名</t>
   </si>
@@ -627,29 +627,6 @@
     <phoneticPr fontId="38"/>
   </si>
   <si>
-    <t>ログインIDとパスワードを入力し、Form認証を行う。
-ログアウト処理時はセッションを破棄し、ログイン画面へ遷移する。</t>
-    <rPh sb="13" eb="15">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>ハキ</t>
-    </rPh>
-    <rPh sb="51" eb="53">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="54" eb="56">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
     <t>・TOPメニュー、汎用エラーを共通機能として分類</t>
     <rPh sb="9" eb="11">
       <t>ハンヨウ</t>
@@ -667,6 +644,35 @@
   </si>
   <si>
     <t>プロジェクト管理システム</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>認証</t>
+    <rPh sb="0" eb="2">
+      <t>ニンショウ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>WA1010201</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>ログアウト処理</t>
+    <rPh sb="5" eb="7">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>ログインIDとパスワードを入力し、Form認証を行う。</t>
+    <rPh sb="13" eb="15">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>ログアウト処理時はセッションを破棄し、ログイン画面へ遷移する。</t>
     <phoneticPr fontId="10"/>
   </si>
 </sst>
@@ -1080,7 +1086,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -1392,6 +1398,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1528,7 +1547,7 @@
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="216">
+  <cellXfs count="223">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
@@ -1753,255 +1772,366 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="31" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="10" xfId="45" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="11" xfId="45" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="12" xfId="45" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="10" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="11" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="12" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="13" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="14" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="15" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="19" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="22" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="16" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="17" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="18" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="11" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="25" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="178" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="25" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="10" xfId="45" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="11" xfId="45" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="12" xfId="45" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="10" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="11" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="12" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="13" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="14" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="15" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="19" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="22" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="16" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="17" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="18" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="11" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="13" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="14" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="15" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="19" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="0" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="22" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="16" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="17" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="18" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2011,107 +2141,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="13" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="14" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="15" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="19" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="0" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="22" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="16" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="17" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="18" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="48">
@@ -2933,7 +2973,7 @@
   <dimension ref="A1:S513"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="U19" sqref="U19"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2990,12 +3030,12 @@
       <c r="F25" s="21"/>
       <c r="G25" s="21"/>
       <c r="H25" s="21"/>
-      <c r="I25" s="96">
+      <c r="I25" s="99">
         <f ca="1">IF(INDIRECT("変更履歴!D8")="","",MAX(INDIRECT("変更履歴!D8"):INDIRECT("変更履歴!F33")))</f>
         <v>44796</v>
       </c>
-      <c r="J25" s="96"/>
-      <c r="K25" s="96"/>
+      <c r="J25" s="99"/>
+      <c r="K25" s="99"/>
     </row>
     <row r="26" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F26" s="21"/>
@@ -3594,57 +3634,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="144" t="s">
+      <c r="A1" s="106" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="145"/>
-      <c r="C1" s="145"/>
-      <c r="D1" s="146"/>
-      <c r="E1" s="147" t="s">
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="109" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="148"/>
-      <c r="G1" s="148"/>
-      <c r="H1" s="148"/>
-      <c r="I1" s="148"/>
-      <c r="J1" s="148"/>
-      <c r="K1" s="148"/>
-      <c r="L1" s="148"/>
-      <c r="M1" s="148"/>
-      <c r="N1" s="149"/>
-      <c r="O1" s="153" t="s">
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="110"/>
+      <c r="M1" s="110"/>
+      <c r="N1" s="111"/>
+      <c r="O1" s="115" t="s">
         <v>17</v>
       </c>
-      <c r="P1" s="154"/>
-      <c r="Q1" s="154"/>
-      <c r="R1" s="155"/>
-      <c r="S1" s="162" t="s">
+      <c r="P1" s="116"/>
+      <c r="Q1" s="116"/>
+      <c r="R1" s="117"/>
+      <c r="S1" s="124" t="s">
         <v>23</v>
       </c>
-      <c r="T1" s="163"/>
-      <c r="U1" s="163"/>
-      <c r="V1" s="163"/>
-      <c r="W1" s="163"/>
-      <c r="X1" s="163"/>
-      <c r="Y1" s="163"/>
-      <c r="Z1" s="164"/>
-      <c r="AA1" s="144" t="s">
+      <c r="T1" s="125"/>
+      <c r="U1" s="125"/>
+      <c r="V1" s="125"/>
+      <c r="W1" s="125"/>
+      <c r="X1" s="125"/>
+      <c r="Y1" s="125"/>
+      <c r="Z1" s="126"/>
+      <c r="AA1" s="106" t="s">
         <v>18</v>
       </c>
-      <c r="AB1" s="146"/>
-      <c r="AC1" s="171" t="str">
+      <c r="AB1" s="108"/>
+      <c r="AC1" s="133" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="172"/>
-      <c r="AE1" s="172"/>
-      <c r="AF1" s="173"/>
-      <c r="AG1" s="138">
+      <c r="AD1" s="134"/>
+      <c r="AE1" s="134"/>
+      <c r="AF1" s="135"/>
+      <c r="AG1" s="100">
         <f>IF(D8="","",D8)</f>
         <v>43592</v>
       </c>
-      <c r="AH1" s="139"/>
-      <c r="AI1" s="140"/>
+      <c r="AH1" s="101"/>
+      <c r="AI1" s="102"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="1"/>
@@ -3652,53 +3692,53 @@
       <c r="AN1" s="2"/>
     </row>
     <row r="2" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="144" t="s">
+      <c r="A2" s="106" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="145"/>
-      <c r="C2" s="145"/>
-      <c r="D2" s="146"/>
-      <c r="E2" s="147" t="s">
+      <c r="B2" s="107"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="109" t="s">
         <v>41</v>
       </c>
-      <c r="F2" s="148"/>
-      <c r="G2" s="148"/>
-      <c r="H2" s="148"/>
-      <c r="I2" s="148"/>
-      <c r="J2" s="148"/>
-      <c r="K2" s="148"/>
-      <c r="L2" s="148"/>
-      <c r="M2" s="148"/>
-      <c r="N2" s="149"/>
-      <c r="O2" s="156"/>
-      <c r="P2" s="157"/>
-      <c r="Q2" s="157"/>
-      <c r="R2" s="158"/>
-      <c r="S2" s="165"/>
-      <c r="T2" s="166"/>
-      <c r="U2" s="166"/>
-      <c r="V2" s="166"/>
-      <c r="W2" s="166"/>
-      <c r="X2" s="166"/>
-      <c r="Y2" s="166"/>
-      <c r="Z2" s="167"/>
-      <c r="AA2" s="144" t="s">
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="110"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="110"/>
+      <c r="M2" s="110"/>
+      <c r="N2" s="111"/>
+      <c r="O2" s="118"/>
+      <c r="P2" s="119"/>
+      <c r="Q2" s="119"/>
+      <c r="R2" s="120"/>
+      <c r="S2" s="127"/>
+      <c r="T2" s="128"/>
+      <c r="U2" s="128"/>
+      <c r="V2" s="128"/>
+      <c r="W2" s="128"/>
+      <c r="X2" s="128"/>
+      <c r="Y2" s="128"/>
+      <c r="Z2" s="129"/>
+      <c r="AA2" s="106" t="s">
         <v>19</v>
       </c>
-      <c r="AB2" s="146"/>
-      <c r="AC2" s="150" t="str">
+      <c r="AB2" s="108"/>
+      <c r="AC2" s="112" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="151"/>
-      <c r="AE2" s="151"/>
-      <c r="AF2" s="152"/>
-      <c r="AG2" s="138">
+      <c r="AD2" s="113"/>
+      <c r="AE2" s="113"/>
+      <c r="AF2" s="114"/>
+      <c r="AG2" s="100">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v>44796</v>
       </c>
-      <c r="AH2" s="139"/>
-      <c r="AI2" s="140"/>
+      <c r="AH2" s="101"/>
+      <c r="AI2" s="102"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
@@ -3706,45 +3746,45 @@
       <c r="AN2" s="1"/>
     </row>
     <row r="3" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="144" t="s">
+      <c r="A3" s="106" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="145"/>
-      <c r="C3" s="145"/>
-      <c r="D3" s="146"/>
-      <c r="E3" s="147" t="s">
-        <v>80</v>
-      </c>
-      <c r="F3" s="148"/>
-      <c r="G3" s="148"/>
-      <c r="H3" s="148"/>
-      <c r="I3" s="148"/>
-      <c r="J3" s="148"/>
-      <c r="K3" s="148"/>
-      <c r="L3" s="148"/>
-      <c r="M3" s="148"/>
-      <c r="N3" s="149"/>
-      <c r="O3" s="159"/>
-      <c r="P3" s="160"/>
-      <c r="Q3" s="160"/>
-      <c r="R3" s="161"/>
-      <c r="S3" s="168"/>
-      <c r="T3" s="169"/>
-      <c r="U3" s="169"/>
-      <c r="V3" s="169"/>
-      <c r="W3" s="169"/>
-      <c r="X3" s="169"/>
-      <c r="Y3" s="169"/>
-      <c r="Z3" s="170"/>
-      <c r="AA3" s="144"/>
-      <c r="AB3" s="146"/>
-      <c r="AC3" s="171"/>
-      <c r="AD3" s="172"/>
-      <c r="AE3" s="172"/>
-      <c r="AF3" s="173"/>
-      <c r="AG3" s="138"/>
-      <c r="AH3" s="139"/>
-      <c r="AI3" s="140"/>
+      <c r="B3" s="107"/>
+      <c r="C3" s="107"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="109" t="s">
+        <v>79</v>
+      </c>
+      <c r="F3" s="110"/>
+      <c r="G3" s="110"/>
+      <c r="H3" s="110"/>
+      <c r="I3" s="110"/>
+      <c r="J3" s="110"/>
+      <c r="K3" s="110"/>
+      <c r="L3" s="110"/>
+      <c r="M3" s="110"/>
+      <c r="N3" s="111"/>
+      <c r="O3" s="121"/>
+      <c r="P3" s="122"/>
+      <c r="Q3" s="122"/>
+      <c r="R3" s="123"/>
+      <c r="S3" s="130"/>
+      <c r="T3" s="131"/>
+      <c r="U3" s="131"/>
+      <c r="V3" s="131"/>
+      <c r="W3" s="131"/>
+      <c r="X3" s="131"/>
+      <c r="Y3" s="131"/>
+      <c r="Z3" s="132"/>
+      <c r="AA3" s="106"/>
+      <c r="AB3" s="108"/>
+      <c r="AC3" s="133"/>
+      <c r="AD3" s="134"/>
+      <c r="AE3" s="134"/>
+      <c r="AF3" s="135"/>
+      <c r="AG3" s="100"/>
+      <c r="AH3" s="101"/>
+      <c r="AI3" s="102"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
@@ -3781,1073 +3821,1229 @@
       <c r="A7" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="141" t="s">
+      <c r="B7" s="103" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="142"/>
-      <c r="D7" s="141" t="s">
+      <c r="C7" s="104"/>
+      <c r="D7" s="103" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="143"/>
-      <c r="F7" s="142"/>
-      <c r="G7" s="141" t="s">
+      <c r="E7" s="105"/>
+      <c r="F7" s="104"/>
+      <c r="G7" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="143"/>
-      <c r="I7" s="142"/>
-      <c r="J7" s="141" t="s">
+      <c r="H7" s="105"/>
+      <c r="I7" s="104"/>
+      <c r="J7" s="103" t="s">
         <v>26</v>
       </c>
-      <c r="K7" s="143"/>
-      <c r="L7" s="143"/>
-      <c r="M7" s="143"/>
-      <c r="N7" s="143"/>
-      <c r="O7" s="143"/>
-      <c r="P7" s="142"/>
-      <c r="Q7" s="141" t="s">
+      <c r="K7" s="105"/>
+      <c r="L7" s="105"/>
+      <c r="M7" s="105"/>
+      <c r="N7" s="105"/>
+      <c r="O7" s="105"/>
+      <c r="P7" s="104"/>
+      <c r="Q7" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="R7" s="143"/>
-      <c r="S7" s="143"/>
-      <c r="T7" s="143"/>
-      <c r="U7" s="143"/>
-      <c r="V7" s="143"/>
-      <c r="W7" s="143"/>
-      <c r="X7" s="143"/>
-      <c r="Y7" s="143"/>
-      <c r="Z7" s="143"/>
-      <c r="AA7" s="143"/>
-      <c r="AB7" s="143"/>
-      <c r="AC7" s="143"/>
-      <c r="AD7" s="143"/>
-      <c r="AE7" s="142"/>
-      <c r="AF7" s="141" t="s">
+      <c r="R7" s="105"/>
+      <c r="S7" s="105"/>
+      <c r="T7" s="105"/>
+      <c r="U7" s="105"/>
+      <c r="V7" s="105"/>
+      <c r="W7" s="105"/>
+      <c r="X7" s="105"/>
+      <c r="Y7" s="105"/>
+      <c r="Z7" s="105"/>
+      <c r="AA7" s="105"/>
+      <c r="AB7" s="105"/>
+      <c r="AC7" s="105"/>
+      <c r="AD7" s="105"/>
+      <c r="AE7" s="104"/>
+      <c r="AF7" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="AG7" s="143"/>
-      <c r="AH7" s="143"/>
-      <c r="AI7" s="142"/>
+      <c r="AG7" s="105"/>
+      <c r="AH7" s="105"/>
+      <c r="AI7" s="104"/>
     </row>
     <row r="8" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="81">
         <v>1</v>
       </c>
-      <c r="B8" s="124">
+      <c r="B8" s="150">
         <v>1</v>
       </c>
-      <c r="C8" s="125"/>
-      <c r="D8" s="126">
+      <c r="C8" s="151"/>
+      <c r="D8" s="152">
         <v>43592</v>
       </c>
-      <c r="E8" s="127"/>
-      <c r="F8" s="128"/>
-      <c r="G8" s="129" t="s">
+      <c r="E8" s="153"/>
+      <c r="F8" s="154"/>
+      <c r="G8" s="155" t="s">
         <v>42</v>
       </c>
-      <c r="H8" s="130"/>
-      <c r="I8" s="131"/>
-      <c r="J8" s="132" t="s">
+      <c r="H8" s="156"/>
+      <c r="I8" s="157"/>
+      <c r="J8" s="158" t="s">
         <v>43</v>
       </c>
-      <c r="K8" s="133"/>
-      <c r="L8" s="133"/>
-      <c r="M8" s="133"/>
-      <c r="N8" s="133"/>
-      <c r="O8" s="133"/>
-      <c r="P8" s="134"/>
-      <c r="Q8" s="135" t="s">
+      <c r="K8" s="159"/>
+      <c r="L8" s="159"/>
+      <c r="M8" s="159"/>
+      <c r="N8" s="159"/>
+      <c r="O8" s="159"/>
+      <c r="P8" s="160"/>
+      <c r="Q8" s="161" t="s">
         <v>44</v>
       </c>
-      <c r="R8" s="136"/>
-      <c r="S8" s="136"/>
-      <c r="T8" s="136"/>
-      <c r="U8" s="136"/>
-      <c r="V8" s="136"/>
-      <c r="W8" s="136"/>
-      <c r="X8" s="136"/>
-      <c r="Y8" s="136"/>
-      <c r="Z8" s="136"/>
-      <c r="AA8" s="136"/>
-      <c r="AB8" s="136"/>
-      <c r="AC8" s="136"/>
-      <c r="AD8" s="136"/>
-      <c r="AE8" s="137"/>
-      <c r="AF8" s="132" t="s">
+      <c r="R8" s="162"/>
+      <c r="S8" s="162"/>
+      <c r="T8" s="162"/>
+      <c r="U8" s="162"/>
+      <c r="V8" s="162"/>
+      <c r="W8" s="162"/>
+      <c r="X8" s="162"/>
+      <c r="Y8" s="162"/>
+      <c r="Z8" s="162"/>
+      <c r="AA8" s="162"/>
+      <c r="AB8" s="162"/>
+      <c r="AC8" s="162"/>
+      <c r="AD8" s="162"/>
+      <c r="AE8" s="163"/>
+      <c r="AF8" s="158" t="s">
         <v>49</v>
       </c>
-      <c r="AG8" s="133"/>
-      <c r="AH8" s="133"/>
-      <c r="AI8" s="134"/>
+      <c r="AG8" s="159"/>
+      <c r="AH8" s="159"/>
+      <c r="AI8" s="160"/>
     </row>
     <row r="9" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="60">
         <v>2</v>
       </c>
-      <c r="B9" s="115">
+      <c r="B9" s="136">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C9" s="116"/>
-      <c r="D9" s="99">
+      <c r="C9" s="137"/>
+      <c r="D9" s="138">
         <v>43803</v>
       </c>
-      <c r="E9" s="100"/>
-      <c r="F9" s="101"/>
-      <c r="G9" s="117" t="s">
+      <c r="E9" s="139"/>
+      <c r="F9" s="140"/>
+      <c r="G9" s="141" t="s">
         <v>54</v>
       </c>
-      <c r="H9" s="118"/>
-      <c r="I9" s="119"/>
-      <c r="J9" s="113" t="s">
+      <c r="H9" s="142"/>
+      <c r="I9" s="143"/>
+      <c r="J9" s="144" t="s">
         <v>55</v>
       </c>
-      <c r="K9" s="120"/>
-      <c r="L9" s="120"/>
-      <c r="M9" s="120"/>
-      <c r="N9" s="120"/>
-      <c r="O9" s="120"/>
-      <c r="P9" s="121"/>
-      <c r="Q9" s="114" t="s">
+      <c r="K9" s="145"/>
+      <c r="L9" s="145"/>
+      <c r="M9" s="145"/>
+      <c r="N9" s="145"/>
+      <c r="O9" s="145"/>
+      <c r="P9" s="146"/>
+      <c r="Q9" s="147" t="s">
         <v>59</v>
       </c>
-      <c r="R9" s="122"/>
-      <c r="S9" s="122"/>
-      <c r="T9" s="122"/>
-      <c r="U9" s="122"/>
-      <c r="V9" s="122"/>
-      <c r="W9" s="122"/>
-      <c r="X9" s="122"/>
-      <c r="Y9" s="122"/>
-      <c r="Z9" s="122"/>
-      <c r="AA9" s="122"/>
-      <c r="AB9" s="122"/>
-      <c r="AC9" s="122"/>
-      <c r="AD9" s="122"/>
-      <c r="AE9" s="123"/>
-      <c r="AF9" s="113" t="s">
+      <c r="R9" s="148"/>
+      <c r="S9" s="148"/>
+      <c r="T9" s="148"/>
+      <c r="U9" s="148"/>
+      <c r="V9" s="148"/>
+      <c r="W9" s="148"/>
+      <c r="X9" s="148"/>
+      <c r="Y9" s="148"/>
+      <c r="Z9" s="148"/>
+      <c r="AA9" s="148"/>
+      <c r="AB9" s="148"/>
+      <c r="AC9" s="148"/>
+      <c r="AD9" s="148"/>
+      <c r="AE9" s="149"/>
+      <c r="AF9" s="144" t="s">
         <v>53</v>
       </c>
-      <c r="AG9" s="120"/>
-      <c r="AH9" s="120"/>
-      <c r="AI9" s="121"/>
+      <c r="AG9" s="145"/>
+      <c r="AH9" s="145"/>
+      <c r="AI9" s="146"/>
     </row>
     <row r="10" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="60">
         <v>3</v>
       </c>
-      <c r="B10" s="111" t="s">
+      <c r="B10" s="164" t="s">
         <v>70</v>
       </c>
-      <c r="C10" s="98"/>
-      <c r="D10" s="99">
+      <c r="C10" s="165"/>
+      <c r="D10" s="138">
         <v>43895</v>
       </c>
-      <c r="E10" s="100"/>
-      <c r="F10" s="101"/>
-      <c r="G10" s="112" t="s">
+      <c r="E10" s="139"/>
+      <c r="F10" s="140"/>
+      <c r="G10" s="166" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="103"/>
-      <c r="I10" s="104"/>
-      <c r="J10" s="113" t="s">
+      <c r="H10" s="167"/>
+      <c r="I10" s="168"/>
+      <c r="J10" s="144" t="s">
         <v>55</v>
       </c>
-      <c r="K10" s="106"/>
-      <c r="L10" s="106"/>
-      <c r="M10" s="106"/>
-      <c r="N10" s="106"/>
-      <c r="O10" s="106"/>
-      <c r="P10" s="107"/>
-      <c r="Q10" s="114" t="s">
+      <c r="K10" s="169"/>
+      <c r="L10" s="169"/>
+      <c r="M10" s="169"/>
+      <c r="N10" s="169"/>
+      <c r="O10" s="169"/>
+      <c r="P10" s="170"/>
+      <c r="Q10" s="147" t="s">
         <v>69</v>
       </c>
-      <c r="R10" s="109"/>
-      <c r="S10" s="109"/>
-      <c r="T10" s="109"/>
-      <c r="U10" s="109"/>
-      <c r="V10" s="109"/>
-      <c r="W10" s="109"/>
-      <c r="X10" s="109"/>
-      <c r="Y10" s="109"/>
-      <c r="Z10" s="109"/>
-      <c r="AA10" s="109"/>
-      <c r="AB10" s="109"/>
-      <c r="AC10" s="109"/>
-      <c r="AD10" s="109"/>
-      <c r="AE10" s="110"/>
-      <c r="AF10" s="113" t="s">
+      <c r="R10" s="171"/>
+      <c r="S10" s="171"/>
+      <c r="T10" s="171"/>
+      <c r="U10" s="171"/>
+      <c r="V10" s="171"/>
+      <c r="W10" s="171"/>
+      <c r="X10" s="171"/>
+      <c r="Y10" s="171"/>
+      <c r="Z10" s="171"/>
+      <c r="AA10" s="171"/>
+      <c r="AB10" s="171"/>
+      <c r="AC10" s="171"/>
+      <c r="AD10" s="171"/>
+      <c r="AE10" s="172"/>
+      <c r="AF10" s="144" t="s">
         <v>49</v>
       </c>
-      <c r="AG10" s="106"/>
-      <c r="AH10" s="106"/>
-      <c r="AI10" s="107"/>
+      <c r="AG10" s="169"/>
+      <c r="AH10" s="169"/>
+      <c r="AI10" s="170"/>
     </row>
     <row r="11" spans="1:40" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="60">
         <v>4</v>
       </c>
-      <c r="B11" s="111" t="s">
+      <c r="B11" s="164" t="s">
         <v>76</v>
       </c>
-      <c r="C11" s="98"/>
-      <c r="D11" s="99">
+      <c r="C11" s="165"/>
+      <c r="D11" s="138">
         <v>44796</v>
       </c>
-      <c r="E11" s="100"/>
-      <c r="F11" s="101"/>
-      <c r="G11" s="112" t="s">
+      <c r="E11" s="139"/>
+      <c r="F11" s="140"/>
+      <c r="G11" s="166" t="s">
         <v>4</v>
       </c>
-      <c r="H11" s="103"/>
-      <c r="I11" s="104"/>
-      <c r="J11" s="113" t="s">
+      <c r="H11" s="167"/>
+      <c r="I11" s="168"/>
+      <c r="J11" s="144" t="s">
         <v>55</v>
       </c>
-      <c r="K11" s="106"/>
-      <c r="L11" s="106"/>
-      <c r="M11" s="106"/>
-      <c r="N11" s="106"/>
-      <c r="O11" s="106"/>
-      <c r="P11" s="107"/>
-      <c r="Q11" s="114" t="s">
-        <v>79</v>
-      </c>
-      <c r="R11" s="109"/>
-      <c r="S11" s="109"/>
-      <c r="T11" s="109"/>
-      <c r="U11" s="109"/>
-      <c r="V11" s="109"/>
-      <c r="W11" s="109"/>
-      <c r="X11" s="109"/>
-      <c r="Y11" s="109"/>
-      <c r="Z11" s="109"/>
-      <c r="AA11" s="109"/>
-      <c r="AB11" s="109"/>
-      <c r="AC11" s="109"/>
-      <c r="AD11" s="109"/>
-      <c r="AE11" s="110"/>
-      <c r="AF11" s="113" t="s">
+      <c r="K11" s="169"/>
+      <c r="L11" s="169"/>
+      <c r="M11" s="169"/>
+      <c r="N11" s="169"/>
+      <c r="O11" s="169"/>
+      <c r="P11" s="170"/>
+      <c r="Q11" s="147" t="s">
+        <v>78</v>
+      </c>
+      <c r="R11" s="171"/>
+      <c r="S11" s="171"/>
+      <c r="T11" s="171"/>
+      <c r="U11" s="171"/>
+      <c r="V11" s="171"/>
+      <c r="W11" s="171"/>
+      <c r="X11" s="171"/>
+      <c r="Y11" s="171"/>
+      <c r="Z11" s="171"/>
+      <c r="AA11" s="171"/>
+      <c r="AB11" s="171"/>
+      <c r="AC11" s="171"/>
+      <c r="AD11" s="171"/>
+      <c r="AE11" s="172"/>
+      <c r="AF11" s="144" t="s">
         <v>49</v>
       </c>
-      <c r="AG11" s="106"/>
-      <c r="AH11" s="106"/>
-      <c r="AI11" s="107"/>
+      <c r="AG11" s="169"/>
+      <c r="AH11" s="169"/>
+      <c r="AI11" s="170"/>
     </row>
     <row r="12" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="60"/>
-      <c r="B12" s="97"/>
-      <c r="C12" s="98"/>
-      <c r="D12" s="99"/>
-      <c r="E12" s="100"/>
-      <c r="F12" s="101"/>
-      <c r="G12" s="102"/>
-      <c r="H12" s="103"/>
-      <c r="I12" s="104"/>
-      <c r="J12" s="105"/>
-      <c r="K12" s="106"/>
-      <c r="L12" s="106"/>
-      <c r="M12" s="106"/>
-      <c r="N12" s="106"/>
-      <c r="O12" s="106"/>
-      <c r="P12" s="107"/>
-      <c r="Q12" s="108"/>
-      <c r="R12" s="109"/>
-      <c r="S12" s="109"/>
-      <c r="T12" s="109"/>
-      <c r="U12" s="109"/>
-      <c r="V12" s="109"/>
-      <c r="W12" s="109"/>
-      <c r="X12" s="109"/>
-      <c r="Y12" s="109"/>
-      <c r="Z12" s="109"/>
-      <c r="AA12" s="109"/>
-      <c r="AB12" s="109"/>
-      <c r="AC12" s="109"/>
-      <c r="AD12" s="109"/>
-      <c r="AE12" s="110"/>
-      <c r="AF12" s="105"/>
-      <c r="AG12" s="106"/>
-      <c r="AH12" s="106"/>
-      <c r="AI12" s="107"/>
+      <c r="B12" s="173"/>
+      <c r="C12" s="165"/>
+      <c r="D12" s="138"/>
+      <c r="E12" s="139"/>
+      <c r="F12" s="140"/>
+      <c r="G12" s="174"/>
+      <c r="H12" s="167"/>
+      <c r="I12" s="168"/>
+      <c r="J12" s="175"/>
+      <c r="K12" s="169"/>
+      <c r="L12" s="169"/>
+      <c r="M12" s="169"/>
+      <c r="N12" s="169"/>
+      <c r="O12" s="169"/>
+      <c r="P12" s="170"/>
+      <c r="Q12" s="176"/>
+      <c r="R12" s="171"/>
+      <c r="S12" s="171"/>
+      <c r="T12" s="171"/>
+      <c r="U12" s="171"/>
+      <c r="V12" s="171"/>
+      <c r="W12" s="171"/>
+      <c r="X12" s="171"/>
+      <c r="Y12" s="171"/>
+      <c r="Z12" s="171"/>
+      <c r="AA12" s="171"/>
+      <c r="AB12" s="171"/>
+      <c r="AC12" s="171"/>
+      <c r="AD12" s="171"/>
+      <c r="AE12" s="172"/>
+      <c r="AF12" s="175"/>
+      <c r="AG12" s="169"/>
+      <c r="AH12" s="169"/>
+      <c r="AI12" s="170"/>
     </row>
     <row r="13" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="60"/>
-      <c r="B13" s="97"/>
-      <c r="C13" s="98"/>
-      <c r="D13" s="99"/>
-      <c r="E13" s="100"/>
-      <c r="F13" s="101"/>
-      <c r="G13" s="102"/>
-      <c r="H13" s="103"/>
-      <c r="I13" s="104"/>
-      <c r="J13" s="105"/>
-      <c r="K13" s="106"/>
-      <c r="L13" s="106"/>
-      <c r="M13" s="106"/>
-      <c r="N13" s="106"/>
-      <c r="O13" s="106"/>
-      <c r="P13" s="107"/>
-      <c r="Q13" s="108"/>
-      <c r="R13" s="109"/>
-      <c r="S13" s="109"/>
-      <c r="T13" s="109"/>
-      <c r="U13" s="109"/>
-      <c r="V13" s="109"/>
-      <c r="W13" s="109"/>
-      <c r="X13" s="109"/>
-      <c r="Y13" s="109"/>
-      <c r="Z13" s="109"/>
-      <c r="AA13" s="109"/>
-      <c r="AB13" s="109"/>
-      <c r="AC13" s="109"/>
-      <c r="AD13" s="109"/>
-      <c r="AE13" s="110"/>
-      <c r="AF13" s="105"/>
-      <c r="AG13" s="106"/>
-      <c r="AH13" s="106"/>
-      <c r="AI13" s="107"/>
+      <c r="B13" s="173"/>
+      <c r="C13" s="165"/>
+      <c r="D13" s="138"/>
+      <c r="E13" s="139"/>
+      <c r="F13" s="140"/>
+      <c r="G13" s="174"/>
+      <c r="H13" s="167"/>
+      <c r="I13" s="168"/>
+      <c r="J13" s="175"/>
+      <c r="K13" s="169"/>
+      <c r="L13" s="169"/>
+      <c r="M13" s="169"/>
+      <c r="N13" s="169"/>
+      <c r="O13" s="169"/>
+      <c r="P13" s="170"/>
+      <c r="Q13" s="176"/>
+      <c r="R13" s="171"/>
+      <c r="S13" s="171"/>
+      <c r="T13" s="171"/>
+      <c r="U13" s="171"/>
+      <c r="V13" s="171"/>
+      <c r="W13" s="171"/>
+      <c r="X13" s="171"/>
+      <c r="Y13" s="171"/>
+      <c r="Z13" s="171"/>
+      <c r="AA13" s="171"/>
+      <c r="AB13" s="171"/>
+      <c r="AC13" s="171"/>
+      <c r="AD13" s="171"/>
+      <c r="AE13" s="172"/>
+      <c r="AF13" s="175"/>
+      <c r="AG13" s="169"/>
+      <c r="AH13" s="169"/>
+      <c r="AI13" s="170"/>
     </row>
     <row r="14" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="60"/>
-      <c r="B14" s="97"/>
-      <c r="C14" s="98"/>
-      <c r="D14" s="99"/>
-      <c r="E14" s="100"/>
-      <c r="F14" s="101"/>
-      <c r="G14" s="102"/>
-      <c r="H14" s="103"/>
-      <c r="I14" s="104"/>
-      <c r="J14" s="105"/>
-      <c r="K14" s="106"/>
-      <c r="L14" s="106"/>
-      <c r="M14" s="106"/>
-      <c r="N14" s="106"/>
-      <c r="O14" s="106"/>
-      <c r="P14" s="107"/>
-      <c r="Q14" s="108"/>
-      <c r="R14" s="109"/>
-      <c r="S14" s="109"/>
-      <c r="T14" s="109"/>
-      <c r="U14" s="109"/>
-      <c r="V14" s="109"/>
-      <c r="W14" s="109"/>
-      <c r="X14" s="109"/>
-      <c r="Y14" s="109"/>
-      <c r="Z14" s="109"/>
-      <c r="AA14" s="109"/>
-      <c r="AB14" s="109"/>
-      <c r="AC14" s="109"/>
-      <c r="AD14" s="109"/>
-      <c r="AE14" s="110"/>
-      <c r="AF14" s="105"/>
-      <c r="AG14" s="106"/>
-      <c r="AH14" s="106"/>
-      <c r="AI14" s="107"/>
+      <c r="B14" s="173"/>
+      <c r="C14" s="165"/>
+      <c r="D14" s="138"/>
+      <c r="E14" s="139"/>
+      <c r="F14" s="140"/>
+      <c r="G14" s="174"/>
+      <c r="H14" s="167"/>
+      <c r="I14" s="168"/>
+      <c r="J14" s="175"/>
+      <c r="K14" s="169"/>
+      <c r="L14" s="169"/>
+      <c r="M14" s="169"/>
+      <c r="N14" s="169"/>
+      <c r="O14" s="169"/>
+      <c r="P14" s="170"/>
+      <c r="Q14" s="176"/>
+      <c r="R14" s="171"/>
+      <c r="S14" s="171"/>
+      <c r="T14" s="171"/>
+      <c r="U14" s="171"/>
+      <c r="V14" s="171"/>
+      <c r="W14" s="171"/>
+      <c r="X14" s="171"/>
+      <c r="Y14" s="171"/>
+      <c r="Z14" s="171"/>
+      <c r="AA14" s="171"/>
+      <c r="AB14" s="171"/>
+      <c r="AC14" s="171"/>
+      <c r="AD14" s="171"/>
+      <c r="AE14" s="172"/>
+      <c r="AF14" s="175"/>
+      <c r="AG14" s="169"/>
+      <c r="AH14" s="169"/>
+      <c r="AI14" s="170"/>
     </row>
     <row r="15" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="60"/>
-      <c r="B15" s="97"/>
-      <c r="C15" s="98"/>
-      <c r="D15" s="99"/>
-      <c r="E15" s="100"/>
-      <c r="F15" s="101"/>
-      <c r="G15" s="102"/>
-      <c r="H15" s="103"/>
-      <c r="I15" s="104"/>
-      <c r="J15" s="105"/>
-      <c r="K15" s="106"/>
-      <c r="L15" s="106"/>
-      <c r="M15" s="106"/>
-      <c r="N15" s="106"/>
-      <c r="O15" s="106"/>
-      <c r="P15" s="107"/>
-      <c r="Q15" s="108"/>
-      <c r="R15" s="109"/>
-      <c r="S15" s="109"/>
-      <c r="T15" s="109"/>
-      <c r="U15" s="109"/>
-      <c r="V15" s="109"/>
-      <c r="W15" s="109"/>
-      <c r="X15" s="109"/>
-      <c r="Y15" s="109"/>
-      <c r="Z15" s="109"/>
-      <c r="AA15" s="109"/>
-      <c r="AB15" s="109"/>
-      <c r="AC15" s="109"/>
-      <c r="AD15" s="109"/>
-      <c r="AE15" s="110"/>
-      <c r="AF15" s="105"/>
-      <c r="AG15" s="106"/>
-      <c r="AH15" s="106"/>
-      <c r="AI15" s="107"/>
+      <c r="B15" s="173"/>
+      <c r="C15" s="165"/>
+      <c r="D15" s="138"/>
+      <c r="E15" s="139"/>
+      <c r="F15" s="140"/>
+      <c r="G15" s="174"/>
+      <c r="H15" s="167"/>
+      <c r="I15" s="168"/>
+      <c r="J15" s="175"/>
+      <c r="K15" s="169"/>
+      <c r="L15" s="169"/>
+      <c r="M15" s="169"/>
+      <c r="N15" s="169"/>
+      <c r="O15" s="169"/>
+      <c r="P15" s="170"/>
+      <c r="Q15" s="176"/>
+      <c r="R15" s="171"/>
+      <c r="S15" s="171"/>
+      <c r="T15" s="171"/>
+      <c r="U15" s="171"/>
+      <c r="V15" s="171"/>
+      <c r="W15" s="171"/>
+      <c r="X15" s="171"/>
+      <c r="Y15" s="171"/>
+      <c r="Z15" s="171"/>
+      <c r="AA15" s="171"/>
+      <c r="AB15" s="171"/>
+      <c r="AC15" s="171"/>
+      <c r="AD15" s="171"/>
+      <c r="AE15" s="172"/>
+      <c r="AF15" s="175"/>
+      <c r="AG15" s="169"/>
+      <c r="AH15" s="169"/>
+      <c r="AI15" s="170"/>
     </row>
     <row r="16" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="60"/>
-      <c r="B16" s="97"/>
-      <c r="C16" s="98"/>
-      <c r="D16" s="99"/>
-      <c r="E16" s="100"/>
-      <c r="F16" s="101"/>
-      <c r="G16" s="102"/>
-      <c r="H16" s="103"/>
-      <c r="I16" s="104"/>
-      <c r="J16" s="105"/>
-      <c r="K16" s="106"/>
-      <c r="L16" s="106"/>
-      <c r="M16" s="106"/>
-      <c r="N16" s="106"/>
-      <c r="O16" s="106"/>
-      <c r="P16" s="107"/>
-      <c r="Q16" s="108"/>
-      <c r="R16" s="109"/>
-      <c r="S16" s="109"/>
-      <c r="T16" s="109"/>
-      <c r="U16" s="109"/>
-      <c r="V16" s="109"/>
-      <c r="W16" s="109"/>
-      <c r="X16" s="109"/>
-      <c r="Y16" s="109"/>
-      <c r="Z16" s="109"/>
-      <c r="AA16" s="109"/>
-      <c r="AB16" s="109"/>
-      <c r="AC16" s="109"/>
-      <c r="AD16" s="109"/>
-      <c r="AE16" s="110"/>
-      <c r="AF16" s="105"/>
-      <c r="AG16" s="106"/>
-      <c r="AH16" s="106"/>
-      <c r="AI16" s="107"/>
+      <c r="B16" s="173"/>
+      <c r="C16" s="165"/>
+      <c r="D16" s="138"/>
+      <c r="E16" s="139"/>
+      <c r="F16" s="140"/>
+      <c r="G16" s="174"/>
+      <c r="H16" s="167"/>
+      <c r="I16" s="168"/>
+      <c r="J16" s="175"/>
+      <c r="K16" s="169"/>
+      <c r="L16" s="169"/>
+      <c r="M16" s="169"/>
+      <c r="N16" s="169"/>
+      <c r="O16" s="169"/>
+      <c r="P16" s="170"/>
+      <c r="Q16" s="176"/>
+      <c r="R16" s="171"/>
+      <c r="S16" s="171"/>
+      <c r="T16" s="171"/>
+      <c r="U16" s="171"/>
+      <c r="V16" s="171"/>
+      <c r="W16" s="171"/>
+      <c r="X16" s="171"/>
+      <c r="Y16" s="171"/>
+      <c r="Z16" s="171"/>
+      <c r="AA16" s="171"/>
+      <c r="AB16" s="171"/>
+      <c r="AC16" s="171"/>
+      <c r="AD16" s="171"/>
+      <c r="AE16" s="172"/>
+      <c r="AF16" s="175"/>
+      <c r="AG16" s="169"/>
+      <c r="AH16" s="169"/>
+      <c r="AI16" s="170"/>
     </row>
     <row r="17" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="60"/>
-      <c r="B17" s="97"/>
-      <c r="C17" s="98"/>
-      <c r="D17" s="99"/>
-      <c r="E17" s="100"/>
-      <c r="F17" s="101"/>
-      <c r="G17" s="102"/>
-      <c r="H17" s="103"/>
-      <c r="I17" s="104"/>
-      <c r="J17" s="105"/>
-      <c r="K17" s="106"/>
-      <c r="L17" s="106"/>
-      <c r="M17" s="106"/>
-      <c r="N17" s="106"/>
-      <c r="O17" s="106"/>
-      <c r="P17" s="107"/>
-      <c r="Q17" s="108"/>
-      <c r="R17" s="109"/>
-      <c r="S17" s="109"/>
-      <c r="T17" s="109"/>
-      <c r="U17" s="109"/>
-      <c r="V17" s="109"/>
-      <c r="W17" s="109"/>
-      <c r="X17" s="109"/>
-      <c r="Y17" s="109"/>
-      <c r="Z17" s="109"/>
-      <c r="AA17" s="109"/>
-      <c r="AB17" s="109"/>
-      <c r="AC17" s="109"/>
-      <c r="AD17" s="109"/>
-      <c r="AE17" s="110"/>
-      <c r="AF17" s="105"/>
-      <c r="AG17" s="106"/>
-      <c r="AH17" s="106"/>
-      <c r="AI17" s="107"/>
+      <c r="B17" s="173"/>
+      <c r="C17" s="165"/>
+      <c r="D17" s="138"/>
+      <c r="E17" s="139"/>
+      <c r="F17" s="140"/>
+      <c r="G17" s="174"/>
+      <c r="H17" s="167"/>
+      <c r="I17" s="168"/>
+      <c r="J17" s="175"/>
+      <c r="K17" s="169"/>
+      <c r="L17" s="169"/>
+      <c r="M17" s="169"/>
+      <c r="N17" s="169"/>
+      <c r="O17" s="169"/>
+      <c r="P17" s="170"/>
+      <c r="Q17" s="176"/>
+      <c r="R17" s="171"/>
+      <c r="S17" s="171"/>
+      <c r="T17" s="171"/>
+      <c r="U17" s="171"/>
+      <c r="V17" s="171"/>
+      <c r="W17" s="171"/>
+      <c r="X17" s="171"/>
+      <c r="Y17" s="171"/>
+      <c r="Z17" s="171"/>
+      <c r="AA17" s="171"/>
+      <c r="AB17" s="171"/>
+      <c r="AC17" s="171"/>
+      <c r="AD17" s="171"/>
+      <c r="AE17" s="172"/>
+      <c r="AF17" s="175"/>
+      <c r="AG17" s="169"/>
+      <c r="AH17" s="169"/>
+      <c r="AI17" s="170"/>
     </row>
     <row r="18" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="60"/>
-      <c r="B18" s="97"/>
-      <c r="C18" s="98"/>
-      <c r="D18" s="99"/>
-      <c r="E18" s="100"/>
-      <c r="F18" s="101"/>
-      <c r="G18" s="102"/>
-      <c r="H18" s="103"/>
-      <c r="I18" s="104"/>
-      <c r="J18" s="105"/>
-      <c r="K18" s="106"/>
-      <c r="L18" s="106"/>
-      <c r="M18" s="106"/>
-      <c r="N18" s="106"/>
-      <c r="O18" s="106"/>
-      <c r="P18" s="107"/>
-      <c r="Q18" s="108"/>
-      <c r="R18" s="109"/>
-      <c r="S18" s="109"/>
-      <c r="T18" s="109"/>
-      <c r="U18" s="109"/>
-      <c r="V18" s="109"/>
-      <c r="W18" s="109"/>
-      <c r="X18" s="109"/>
-      <c r="Y18" s="109"/>
-      <c r="Z18" s="109"/>
-      <c r="AA18" s="109"/>
-      <c r="AB18" s="109"/>
-      <c r="AC18" s="109"/>
-      <c r="AD18" s="109"/>
-      <c r="AE18" s="110"/>
-      <c r="AF18" s="105"/>
-      <c r="AG18" s="106"/>
-      <c r="AH18" s="106"/>
-      <c r="AI18" s="107"/>
+      <c r="B18" s="173"/>
+      <c r="C18" s="165"/>
+      <c r="D18" s="138"/>
+      <c r="E18" s="139"/>
+      <c r="F18" s="140"/>
+      <c r="G18" s="174"/>
+      <c r="H18" s="167"/>
+      <c r="I18" s="168"/>
+      <c r="J18" s="175"/>
+      <c r="K18" s="169"/>
+      <c r="L18" s="169"/>
+      <c r="M18" s="169"/>
+      <c r="N18" s="169"/>
+      <c r="O18" s="169"/>
+      <c r="P18" s="170"/>
+      <c r="Q18" s="176"/>
+      <c r="R18" s="171"/>
+      <c r="S18" s="171"/>
+      <c r="T18" s="171"/>
+      <c r="U18" s="171"/>
+      <c r="V18" s="171"/>
+      <c r="W18" s="171"/>
+      <c r="X18" s="171"/>
+      <c r="Y18" s="171"/>
+      <c r="Z18" s="171"/>
+      <c r="AA18" s="171"/>
+      <c r="AB18" s="171"/>
+      <c r="AC18" s="171"/>
+      <c r="AD18" s="171"/>
+      <c r="AE18" s="172"/>
+      <c r="AF18" s="175"/>
+      <c r="AG18" s="169"/>
+      <c r="AH18" s="169"/>
+      <c r="AI18" s="170"/>
     </row>
     <row r="19" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="60"/>
-      <c r="B19" s="97"/>
-      <c r="C19" s="98"/>
-      <c r="D19" s="99"/>
-      <c r="E19" s="100"/>
-      <c r="F19" s="101"/>
-      <c r="G19" s="102"/>
-      <c r="H19" s="103"/>
-      <c r="I19" s="104"/>
-      <c r="J19" s="105"/>
-      <c r="K19" s="106"/>
-      <c r="L19" s="106"/>
-      <c r="M19" s="106"/>
-      <c r="N19" s="106"/>
-      <c r="O19" s="106"/>
-      <c r="P19" s="107"/>
-      <c r="Q19" s="108"/>
-      <c r="R19" s="109"/>
-      <c r="S19" s="109"/>
-      <c r="T19" s="109"/>
-      <c r="U19" s="109"/>
-      <c r="V19" s="109"/>
-      <c r="W19" s="109"/>
-      <c r="X19" s="109"/>
-      <c r="Y19" s="109"/>
-      <c r="Z19" s="109"/>
-      <c r="AA19" s="109"/>
-      <c r="AB19" s="109"/>
-      <c r="AC19" s="109"/>
-      <c r="AD19" s="109"/>
-      <c r="AE19" s="110"/>
-      <c r="AF19" s="105"/>
-      <c r="AG19" s="106"/>
-      <c r="AH19" s="106"/>
-      <c r="AI19" s="107"/>
+      <c r="B19" s="173"/>
+      <c r="C19" s="165"/>
+      <c r="D19" s="138"/>
+      <c r="E19" s="139"/>
+      <c r="F19" s="140"/>
+      <c r="G19" s="174"/>
+      <c r="H19" s="167"/>
+      <c r="I19" s="168"/>
+      <c r="J19" s="175"/>
+      <c r="K19" s="169"/>
+      <c r="L19" s="169"/>
+      <c r="M19" s="169"/>
+      <c r="N19" s="169"/>
+      <c r="O19" s="169"/>
+      <c r="P19" s="170"/>
+      <c r="Q19" s="176"/>
+      <c r="R19" s="171"/>
+      <c r="S19" s="171"/>
+      <c r="T19" s="171"/>
+      <c r="U19" s="171"/>
+      <c r="V19" s="171"/>
+      <c r="W19" s="171"/>
+      <c r="X19" s="171"/>
+      <c r="Y19" s="171"/>
+      <c r="Z19" s="171"/>
+      <c r="AA19" s="171"/>
+      <c r="AB19" s="171"/>
+      <c r="AC19" s="171"/>
+      <c r="AD19" s="171"/>
+      <c r="AE19" s="172"/>
+      <c r="AF19" s="175"/>
+      <c r="AG19" s="169"/>
+      <c r="AH19" s="169"/>
+      <c r="AI19" s="170"/>
     </row>
     <row r="20" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="60"/>
-      <c r="B20" s="97"/>
-      <c r="C20" s="98"/>
-      <c r="D20" s="99"/>
-      <c r="E20" s="100"/>
-      <c r="F20" s="101"/>
-      <c r="G20" s="102"/>
-      <c r="H20" s="103"/>
-      <c r="I20" s="104"/>
-      <c r="J20" s="105"/>
-      <c r="K20" s="106"/>
-      <c r="L20" s="106"/>
-      <c r="M20" s="106"/>
-      <c r="N20" s="106"/>
-      <c r="O20" s="106"/>
-      <c r="P20" s="107"/>
-      <c r="Q20" s="108"/>
-      <c r="R20" s="109"/>
-      <c r="S20" s="109"/>
-      <c r="T20" s="109"/>
-      <c r="U20" s="109"/>
-      <c r="V20" s="109"/>
-      <c r="W20" s="109"/>
-      <c r="X20" s="109"/>
-      <c r="Y20" s="109"/>
-      <c r="Z20" s="109"/>
-      <c r="AA20" s="109"/>
-      <c r="AB20" s="109"/>
-      <c r="AC20" s="109"/>
-      <c r="AD20" s="109"/>
-      <c r="AE20" s="110"/>
-      <c r="AF20" s="105"/>
-      <c r="AG20" s="106"/>
-      <c r="AH20" s="106"/>
-      <c r="AI20" s="107"/>
+      <c r="B20" s="173"/>
+      <c r="C20" s="165"/>
+      <c r="D20" s="138"/>
+      <c r="E20" s="139"/>
+      <c r="F20" s="140"/>
+      <c r="G20" s="174"/>
+      <c r="H20" s="167"/>
+      <c r="I20" s="168"/>
+      <c r="J20" s="175"/>
+      <c r="K20" s="169"/>
+      <c r="L20" s="169"/>
+      <c r="M20" s="169"/>
+      <c r="N20" s="169"/>
+      <c r="O20" s="169"/>
+      <c r="P20" s="170"/>
+      <c r="Q20" s="176"/>
+      <c r="R20" s="171"/>
+      <c r="S20" s="171"/>
+      <c r="T20" s="171"/>
+      <c r="U20" s="171"/>
+      <c r="V20" s="171"/>
+      <c r="W20" s="171"/>
+      <c r="X20" s="171"/>
+      <c r="Y20" s="171"/>
+      <c r="Z20" s="171"/>
+      <c r="AA20" s="171"/>
+      <c r="AB20" s="171"/>
+      <c r="AC20" s="171"/>
+      <c r="AD20" s="171"/>
+      <c r="AE20" s="172"/>
+      <c r="AF20" s="175"/>
+      <c r="AG20" s="169"/>
+      <c r="AH20" s="169"/>
+      <c r="AI20" s="170"/>
     </row>
     <row r="21" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="60"/>
-      <c r="B21" s="97"/>
-      <c r="C21" s="98"/>
-      <c r="D21" s="99"/>
-      <c r="E21" s="100"/>
-      <c r="F21" s="101"/>
-      <c r="G21" s="102"/>
-      <c r="H21" s="103"/>
-      <c r="I21" s="104"/>
-      <c r="J21" s="105"/>
-      <c r="K21" s="106"/>
-      <c r="L21" s="106"/>
-      <c r="M21" s="106"/>
-      <c r="N21" s="106"/>
-      <c r="O21" s="106"/>
-      <c r="P21" s="107"/>
-      <c r="Q21" s="108"/>
-      <c r="R21" s="109"/>
-      <c r="S21" s="109"/>
-      <c r="T21" s="109"/>
-      <c r="U21" s="109"/>
-      <c r="V21" s="109"/>
-      <c r="W21" s="109"/>
-      <c r="X21" s="109"/>
-      <c r="Y21" s="109"/>
-      <c r="Z21" s="109"/>
-      <c r="AA21" s="109"/>
-      <c r="AB21" s="109"/>
-      <c r="AC21" s="109"/>
-      <c r="AD21" s="109"/>
-      <c r="AE21" s="110"/>
-      <c r="AF21" s="105"/>
-      <c r="AG21" s="106"/>
-      <c r="AH21" s="106"/>
-      <c r="AI21" s="107"/>
+      <c r="B21" s="173"/>
+      <c r="C21" s="165"/>
+      <c r="D21" s="138"/>
+      <c r="E21" s="139"/>
+      <c r="F21" s="140"/>
+      <c r="G21" s="174"/>
+      <c r="H21" s="167"/>
+      <c r="I21" s="168"/>
+      <c r="J21" s="175"/>
+      <c r="K21" s="169"/>
+      <c r="L21" s="169"/>
+      <c r="M21" s="169"/>
+      <c r="N21" s="169"/>
+      <c r="O21" s="169"/>
+      <c r="P21" s="170"/>
+      <c r="Q21" s="176"/>
+      <c r="R21" s="171"/>
+      <c r="S21" s="171"/>
+      <c r="T21" s="171"/>
+      <c r="U21" s="171"/>
+      <c r="V21" s="171"/>
+      <c r="W21" s="171"/>
+      <c r="X21" s="171"/>
+      <c r="Y21" s="171"/>
+      <c r="Z21" s="171"/>
+      <c r="AA21" s="171"/>
+      <c r="AB21" s="171"/>
+      <c r="AC21" s="171"/>
+      <c r="AD21" s="171"/>
+      <c r="AE21" s="172"/>
+      <c r="AF21" s="175"/>
+      <c r="AG21" s="169"/>
+      <c r="AH21" s="169"/>
+      <c r="AI21" s="170"/>
     </row>
     <row r="22" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="60"/>
-      <c r="B22" s="97"/>
-      <c r="C22" s="98"/>
-      <c r="D22" s="99"/>
-      <c r="E22" s="100"/>
-      <c r="F22" s="101"/>
-      <c r="G22" s="102"/>
-      <c r="H22" s="103"/>
-      <c r="I22" s="104"/>
-      <c r="J22" s="105"/>
-      <c r="K22" s="106"/>
-      <c r="L22" s="106"/>
-      <c r="M22" s="106"/>
-      <c r="N22" s="106"/>
-      <c r="O22" s="106"/>
-      <c r="P22" s="107"/>
-      <c r="Q22" s="108"/>
-      <c r="R22" s="109"/>
-      <c r="S22" s="109"/>
-      <c r="T22" s="109"/>
-      <c r="U22" s="109"/>
-      <c r="V22" s="109"/>
-      <c r="W22" s="109"/>
-      <c r="X22" s="109"/>
-      <c r="Y22" s="109"/>
-      <c r="Z22" s="109"/>
-      <c r="AA22" s="109"/>
-      <c r="AB22" s="109"/>
-      <c r="AC22" s="109"/>
-      <c r="AD22" s="109"/>
-      <c r="AE22" s="110"/>
-      <c r="AF22" s="105"/>
-      <c r="AG22" s="106"/>
-      <c r="AH22" s="106"/>
-      <c r="AI22" s="107"/>
+      <c r="B22" s="173"/>
+      <c r="C22" s="165"/>
+      <c r="D22" s="138"/>
+      <c r="E22" s="139"/>
+      <c r="F22" s="140"/>
+      <c r="G22" s="174"/>
+      <c r="H22" s="167"/>
+      <c r="I22" s="168"/>
+      <c r="J22" s="175"/>
+      <c r="K22" s="169"/>
+      <c r="L22" s="169"/>
+      <c r="M22" s="169"/>
+      <c r="N22" s="169"/>
+      <c r="O22" s="169"/>
+      <c r="P22" s="170"/>
+      <c r="Q22" s="176"/>
+      <c r="R22" s="171"/>
+      <c r="S22" s="171"/>
+      <c r="T22" s="171"/>
+      <c r="U22" s="171"/>
+      <c r="V22" s="171"/>
+      <c r="W22" s="171"/>
+      <c r="X22" s="171"/>
+      <c r="Y22" s="171"/>
+      <c r="Z22" s="171"/>
+      <c r="AA22" s="171"/>
+      <c r="AB22" s="171"/>
+      <c r="AC22" s="171"/>
+      <c r="AD22" s="171"/>
+      <c r="AE22" s="172"/>
+      <c r="AF22" s="175"/>
+      <c r="AG22" s="169"/>
+      <c r="AH22" s="169"/>
+      <c r="AI22" s="170"/>
     </row>
     <row r="23" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="60"/>
-      <c r="B23" s="97"/>
-      <c r="C23" s="98"/>
-      <c r="D23" s="99"/>
-      <c r="E23" s="100"/>
-      <c r="F23" s="101"/>
-      <c r="G23" s="102"/>
-      <c r="H23" s="103"/>
-      <c r="I23" s="104"/>
-      <c r="J23" s="105"/>
-      <c r="K23" s="106"/>
-      <c r="L23" s="106"/>
-      <c r="M23" s="106"/>
-      <c r="N23" s="106"/>
-      <c r="O23" s="106"/>
-      <c r="P23" s="107"/>
-      <c r="Q23" s="108"/>
-      <c r="R23" s="109"/>
-      <c r="S23" s="109"/>
-      <c r="T23" s="109"/>
-      <c r="U23" s="109"/>
-      <c r="V23" s="109"/>
-      <c r="W23" s="109"/>
-      <c r="X23" s="109"/>
-      <c r="Y23" s="109"/>
-      <c r="Z23" s="109"/>
-      <c r="AA23" s="109"/>
-      <c r="AB23" s="109"/>
-      <c r="AC23" s="109"/>
-      <c r="AD23" s="109"/>
-      <c r="AE23" s="110"/>
-      <c r="AF23" s="105"/>
-      <c r="AG23" s="106"/>
-      <c r="AH23" s="106"/>
-      <c r="AI23" s="107"/>
+      <c r="B23" s="173"/>
+      <c r="C23" s="165"/>
+      <c r="D23" s="138"/>
+      <c r="E23" s="139"/>
+      <c r="F23" s="140"/>
+      <c r="G23" s="174"/>
+      <c r="H23" s="167"/>
+      <c r="I23" s="168"/>
+      <c r="J23" s="175"/>
+      <c r="K23" s="169"/>
+      <c r="L23" s="169"/>
+      <c r="M23" s="169"/>
+      <c r="N23" s="169"/>
+      <c r="O23" s="169"/>
+      <c r="P23" s="170"/>
+      <c r="Q23" s="176"/>
+      <c r="R23" s="171"/>
+      <c r="S23" s="171"/>
+      <c r="T23" s="171"/>
+      <c r="U23" s="171"/>
+      <c r="V23" s="171"/>
+      <c r="W23" s="171"/>
+      <c r="X23" s="171"/>
+      <c r="Y23" s="171"/>
+      <c r="Z23" s="171"/>
+      <c r="AA23" s="171"/>
+      <c r="AB23" s="171"/>
+      <c r="AC23" s="171"/>
+      <c r="AD23" s="171"/>
+      <c r="AE23" s="172"/>
+      <c r="AF23" s="175"/>
+      <c r="AG23" s="169"/>
+      <c r="AH23" s="169"/>
+      <c r="AI23" s="170"/>
     </row>
     <row r="24" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="60"/>
-      <c r="B24" s="97"/>
-      <c r="C24" s="98"/>
-      <c r="D24" s="99"/>
-      <c r="E24" s="100"/>
-      <c r="F24" s="101"/>
-      <c r="G24" s="102"/>
-      <c r="H24" s="103"/>
-      <c r="I24" s="104"/>
-      <c r="J24" s="105"/>
-      <c r="K24" s="106"/>
-      <c r="L24" s="106"/>
-      <c r="M24" s="106"/>
-      <c r="N24" s="106"/>
-      <c r="O24" s="106"/>
-      <c r="P24" s="107"/>
-      <c r="Q24" s="108"/>
-      <c r="R24" s="109"/>
-      <c r="S24" s="109"/>
-      <c r="T24" s="109"/>
-      <c r="U24" s="109"/>
-      <c r="V24" s="109"/>
-      <c r="W24" s="109"/>
-      <c r="X24" s="109"/>
-      <c r="Y24" s="109"/>
-      <c r="Z24" s="109"/>
-      <c r="AA24" s="109"/>
-      <c r="AB24" s="109"/>
-      <c r="AC24" s="109"/>
-      <c r="AD24" s="109"/>
-      <c r="AE24" s="110"/>
-      <c r="AF24" s="105"/>
-      <c r="AG24" s="106"/>
-      <c r="AH24" s="106"/>
-      <c r="AI24" s="107"/>
+      <c r="B24" s="173"/>
+      <c r="C24" s="165"/>
+      <c r="D24" s="138"/>
+      <c r="E24" s="139"/>
+      <c r="F24" s="140"/>
+      <c r="G24" s="174"/>
+      <c r="H24" s="167"/>
+      <c r="I24" s="168"/>
+      <c r="J24" s="175"/>
+      <c r="K24" s="169"/>
+      <c r="L24" s="169"/>
+      <c r="M24" s="169"/>
+      <c r="N24" s="169"/>
+      <c r="O24" s="169"/>
+      <c r="P24" s="170"/>
+      <c r="Q24" s="176"/>
+      <c r="R24" s="171"/>
+      <c r="S24" s="171"/>
+      <c r="T24" s="171"/>
+      <c r="U24" s="171"/>
+      <c r="V24" s="171"/>
+      <c r="W24" s="171"/>
+      <c r="X24" s="171"/>
+      <c r="Y24" s="171"/>
+      <c r="Z24" s="171"/>
+      <c r="AA24" s="171"/>
+      <c r="AB24" s="171"/>
+      <c r="AC24" s="171"/>
+      <c r="AD24" s="171"/>
+      <c r="AE24" s="172"/>
+      <c r="AF24" s="175"/>
+      <c r="AG24" s="169"/>
+      <c r="AH24" s="169"/>
+      <c r="AI24" s="170"/>
     </row>
     <row r="25" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="60"/>
-      <c r="B25" s="97"/>
-      <c r="C25" s="98"/>
-      <c r="D25" s="99"/>
-      <c r="E25" s="100"/>
-      <c r="F25" s="101"/>
-      <c r="G25" s="102"/>
-      <c r="H25" s="103"/>
-      <c r="I25" s="104"/>
-      <c r="J25" s="105"/>
-      <c r="K25" s="106"/>
-      <c r="L25" s="106"/>
-      <c r="M25" s="106"/>
-      <c r="N25" s="106"/>
-      <c r="O25" s="106"/>
-      <c r="P25" s="107"/>
-      <c r="Q25" s="108"/>
-      <c r="R25" s="109"/>
-      <c r="S25" s="109"/>
-      <c r="T25" s="109"/>
-      <c r="U25" s="109"/>
-      <c r="V25" s="109"/>
-      <c r="W25" s="109"/>
-      <c r="X25" s="109"/>
-      <c r="Y25" s="109"/>
-      <c r="Z25" s="109"/>
-      <c r="AA25" s="109"/>
-      <c r="AB25" s="109"/>
-      <c r="AC25" s="109"/>
-      <c r="AD25" s="109"/>
-      <c r="AE25" s="110"/>
-      <c r="AF25" s="105"/>
-      <c r="AG25" s="106"/>
-      <c r="AH25" s="106"/>
-      <c r="AI25" s="107"/>
+      <c r="B25" s="173"/>
+      <c r="C25" s="165"/>
+      <c r="D25" s="138"/>
+      <c r="E25" s="139"/>
+      <c r="F25" s="140"/>
+      <c r="G25" s="174"/>
+      <c r="H25" s="167"/>
+      <c r="I25" s="168"/>
+      <c r="J25" s="175"/>
+      <c r="K25" s="169"/>
+      <c r="L25" s="169"/>
+      <c r="M25" s="169"/>
+      <c r="N25" s="169"/>
+      <c r="O25" s="169"/>
+      <c r="P25" s="170"/>
+      <c r="Q25" s="176"/>
+      <c r="R25" s="171"/>
+      <c r="S25" s="171"/>
+      <c r="T25" s="171"/>
+      <c r="U25" s="171"/>
+      <c r="V25" s="171"/>
+      <c r="W25" s="171"/>
+      <c r="X25" s="171"/>
+      <c r="Y25" s="171"/>
+      <c r="Z25" s="171"/>
+      <c r="AA25" s="171"/>
+      <c r="AB25" s="171"/>
+      <c r="AC25" s="171"/>
+      <c r="AD25" s="171"/>
+      <c r="AE25" s="172"/>
+      <c r="AF25" s="175"/>
+      <c r="AG25" s="169"/>
+      <c r="AH25" s="169"/>
+      <c r="AI25" s="170"/>
     </row>
     <row r="26" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="60"/>
-      <c r="B26" s="97"/>
-      <c r="C26" s="98"/>
-      <c r="D26" s="99"/>
-      <c r="E26" s="100"/>
-      <c r="F26" s="101"/>
-      <c r="G26" s="102"/>
-      <c r="H26" s="103"/>
-      <c r="I26" s="104"/>
-      <c r="J26" s="105"/>
-      <c r="K26" s="106"/>
-      <c r="L26" s="106"/>
-      <c r="M26" s="106"/>
-      <c r="N26" s="106"/>
-      <c r="O26" s="106"/>
-      <c r="P26" s="107"/>
-      <c r="Q26" s="108"/>
-      <c r="R26" s="109"/>
-      <c r="S26" s="109"/>
-      <c r="T26" s="109"/>
-      <c r="U26" s="109"/>
-      <c r="V26" s="109"/>
-      <c r="W26" s="109"/>
-      <c r="X26" s="109"/>
-      <c r="Y26" s="109"/>
-      <c r="Z26" s="109"/>
-      <c r="AA26" s="109"/>
-      <c r="AB26" s="109"/>
-      <c r="AC26" s="109"/>
-      <c r="AD26" s="109"/>
-      <c r="AE26" s="110"/>
-      <c r="AF26" s="105"/>
-      <c r="AG26" s="106"/>
-      <c r="AH26" s="106"/>
-      <c r="AI26" s="107"/>
+      <c r="B26" s="173"/>
+      <c r="C26" s="165"/>
+      <c r="D26" s="138"/>
+      <c r="E26" s="139"/>
+      <c r="F26" s="140"/>
+      <c r="G26" s="174"/>
+      <c r="H26" s="167"/>
+      <c r="I26" s="168"/>
+      <c r="J26" s="175"/>
+      <c r="K26" s="169"/>
+      <c r="L26" s="169"/>
+      <c r="M26" s="169"/>
+      <c r="N26" s="169"/>
+      <c r="O26" s="169"/>
+      <c r="P26" s="170"/>
+      <c r="Q26" s="176"/>
+      <c r="R26" s="171"/>
+      <c r="S26" s="171"/>
+      <c r="T26" s="171"/>
+      <c r="U26" s="171"/>
+      <c r="V26" s="171"/>
+      <c r="W26" s="171"/>
+      <c r="X26" s="171"/>
+      <c r="Y26" s="171"/>
+      <c r="Z26" s="171"/>
+      <c r="AA26" s="171"/>
+      <c r="AB26" s="171"/>
+      <c r="AC26" s="171"/>
+      <c r="AD26" s="171"/>
+      <c r="AE26" s="172"/>
+      <c r="AF26" s="175"/>
+      <c r="AG26" s="169"/>
+      <c r="AH26" s="169"/>
+      <c r="AI26" s="170"/>
     </row>
     <row r="27" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="60"/>
-      <c r="B27" s="97"/>
-      <c r="C27" s="98"/>
-      <c r="D27" s="99"/>
-      <c r="E27" s="100"/>
-      <c r="F27" s="101"/>
-      <c r="G27" s="102"/>
-      <c r="H27" s="103"/>
-      <c r="I27" s="104"/>
-      <c r="J27" s="105"/>
-      <c r="K27" s="106"/>
-      <c r="L27" s="106"/>
-      <c r="M27" s="106"/>
-      <c r="N27" s="106"/>
-      <c r="O27" s="106"/>
-      <c r="P27" s="107"/>
-      <c r="Q27" s="108"/>
-      <c r="R27" s="109"/>
-      <c r="S27" s="109"/>
-      <c r="T27" s="109"/>
-      <c r="U27" s="109"/>
-      <c r="V27" s="109"/>
-      <c r="W27" s="109"/>
-      <c r="X27" s="109"/>
-      <c r="Y27" s="109"/>
-      <c r="Z27" s="109"/>
-      <c r="AA27" s="109"/>
-      <c r="AB27" s="109"/>
-      <c r="AC27" s="109"/>
-      <c r="AD27" s="109"/>
-      <c r="AE27" s="110"/>
-      <c r="AF27" s="105"/>
-      <c r="AG27" s="106"/>
-      <c r="AH27" s="106"/>
-      <c r="AI27" s="107"/>
+      <c r="B27" s="173"/>
+      <c r="C27" s="165"/>
+      <c r="D27" s="138"/>
+      <c r="E27" s="139"/>
+      <c r="F27" s="140"/>
+      <c r="G27" s="174"/>
+      <c r="H27" s="167"/>
+      <c r="I27" s="168"/>
+      <c r="J27" s="175"/>
+      <c r="K27" s="169"/>
+      <c r="L27" s="169"/>
+      <c r="M27" s="169"/>
+      <c r="N27" s="169"/>
+      <c r="O27" s="169"/>
+      <c r="P27" s="170"/>
+      <c r="Q27" s="176"/>
+      <c r="R27" s="171"/>
+      <c r="S27" s="171"/>
+      <c r="T27" s="171"/>
+      <c r="U27" s="171"/>
+      <c r="V27" s="171"/>
+      <c r="W27" s="171"/>
+      <c r="X27" s="171"/>
+      <c r="Y27" s="171"/>
+      <c r="Z27" s="171"/>
+      <c r="AA27" s="171"/>
+      <c r="AB27" s="171"/>
+      <c r="AC27" s="171"/>
+      <c r="AD27" s="171"/>
+      <c r="AE27" s="172"/>
+      <c r="AF27" s="175"/>
+      <c r="AG27" s="169"/>
+      <c r="AH27" s="169"/>
+      <c r="AI27" s="170"/>
     </row>
     <row r="28" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="60"/>
-      <c r="B28" s="97"/>
-      <c r="C28" s="98"/>
-      <c r="D28" s="99"/>
-      <c r="E28" s="100"/>
-      <c r="F28" s="101"/>
-      <c r="G28" s="102"/>
-      <c r="H28" s="103"/>
-      <c r="I28" s="104"/>
-      <c r="J28" s="105"/>
-      <c r="K28" s="106"/>
-      <c r="L28" s="106"/>
-      <c r="M28" s="106"/>
-      <c r="N28" s="106"/>
-      <c r="O28" s="106"/>
-      <c r="P28" s="107"/>
-      <c r="Q28" s="108"/>
-      <c r="R28" s="109"/>
-      <c r="S28" s="109"/>
-      <c r="T28" s="109"/>
-      <c r="U28" s="109"/>
-      <c r="V28" s="109"/>
-      <c r="W28" s="109"/>
-      <c r="X28" s="109"/>
-      <c r="Y28" s="109"/>
-      <c r="Z28" s="109"/>
-      <c r="AA28" s="109"/>
-      <c r="AB28" s="109"/>
-      <c r="AC28" s="109"/>
-      <c r="AD28" s="109"/>
-      <c r="AE28" s="110"/>
-      <c r="AF28" s="105"/>
-      <c r="AG28" s="106"/>
-      <c r="AH28" s="106"/>
-      <c r="AI28" s="107"/>
+      <c r="B28" s="173"/>
+      <c r="C28" s="165"/>
+      <c r="D28" s="138"/>
+      <c r="E28" s="139"/>
+      <c r="F28" s="140"/>
+      <c r="G28" s="174"/>
+      <c r="H28" s="167"/>
+      <c r="I28" s="168"/>
+      <c r="J28" s="175"/>
+      <c r="K28" s="169"/>
+      <c r="L28" s="169"/>
+      <c r="M28" s="169"/>
+      <c r="N28" s="169"/>
+      <c r="O28" s="169"/>
+      <c r="P28" s="170"/>
+      <c r="Q28" s="176"/>
+      <c r="R28" s="171"/>
+      <c r="S28" s="171"/>
+      <c r="T28" s="171"/>
+      <c r="U28" s="171"/>
+      <c r="V28" s="171"/>
+      <c r="W28" s="171"/>
+      <c r="X28" s="171"/>
+      <c r="Y28" s="171"/>
+      <c r="Z28" s="171"/>
+      <c r="AA28" s="171"/>
+      <c r="AB28" s="171"/>
+      <c r="AC28" s="171"/>
+      <c r="AD28" s="171"/>
+      <c r="AE28" s="172"/>
+      <c r="AF28" s="175"/>
+      <c r="AG28" s="169"/>
+      <c r="AH28" s="169"/>
+      <c r="AI28" s="170"/>
     </row>
     <row r="29" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="60"/>
-      <c r="B29" s="97"/>
-      <c r="C29" s="98"/>
-      <c r="D29" s="99"/>
-      <c r="E29" s="100"/>
-      <c r="F29" s="101"/>
-      <c r="G29" s="102"/>
-      <c r="H29" s="103"/>
-      <c r="I29" s="104"/>
-      <c r="J29" s="105"/>
-      <c r="K29" s="106"/>
-      <c r="L29" s="106"/>
-      <c r="M29" s="106"/>
-      <c r="N29" s="106"/>
-      <c r="O29" s="106"/>
-      <c r="P29" s="107"/>
-      <c r="Q29" s="108"/>
-      <c r="R29" s="109"/>
-      <c r="S29" s="109"/>
-      <c r="T29" s="109"/>
-      <c r="U29" s="109"/>
-      <c r="V29" s="109"/>
-      <c r="W29" s="109"/>
-      <c r="X29" s="109"/>
-      <c r="Y29" s="109"/>
-      <c r="Z29" s="109"/>
-      <c r="AA29" s="109"/>
-      <c r="AB29" s="109"/>
-      <c r="AC29" s="109"/>
-      <c r="AD29" s="109"/>
-      <c r="AE29" s="110"/>
-      <c r="AF29" s="105"/>
-      <c r="AG29" s="106"/>
-      <c r="AH29" s="106"/>
-      <c r="AI29" s="107"/>
+      <c r="B29" s="173"/>
+      <c r="C29" s="165"/>
+      <c r="D29" s="138"/>
+      <c r="E29" s="139"/>
+      <c r="F29" s="140"/>
+      <c r="G29" s="174"/>
+      <c r="H29" s="167"/>
+      <c r="I29" s="168"/>
+      <c r="J29" s="175"/>
+      <c r="K29" s="169"/>
+      <c r="L29" s="169"/>
+      <c r="M29" s="169"/>
+      <c r="N29" s="169"/>
+      <c r="O29" s="169"/>
+      <c r="P29" s="170"/>
+      <c r="Q29" s="176"/>
+      <c r="R29" s="171"/>
+      <c r="S29" s="171"/>
+      <c r="T29" s="171"/>
+      <c r="U29" s="171"/>
+      <c r="V29" s="171"/>
+      <c r="W29" s="171"/>
+      <c r="X29" s="171"/>
+      <c r="Y29" s="171"/>
+      <c r="Z29" s="171"/>
+      <c r="AA29" s="171"/>
+      <c r="AB29" s="171"/>
+      <c r="AC29" s="171"/>
+      <c r="AD29" s="171"/>
+      <c r="AE29" s="172"/>
+      <c r="AF29" s="175"/>
+      <c r="AG29" s="169"/>
+      <c r="AH29" s="169"/>
+      <c r="AI29" s="170"/>
     </row>
     <row r="30" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="60"/>
-      <c r="B30" s="97"/>
-      <c r="C30" s="98"/>
-      <c r="D30" s="99"/>
-      <c r="E30" s="100"/>
-      <c r="F30" s="101"/>
-      <c r="G30" s="102"/>
-      <c r="H30" s="103"/>
-      <c r="I30" s="104"/>
-      <c r="J30" s="105"/>
-      <c r="K30" s="106"/>
-      <c r="L30" s="106"/>
-      <c r="M30" s="106"/>
-      <c r="N30" s="106"/>
-      <c r="O30" s="106"/>
-      <c r="P30" s="107"/>
-      <c r="Q30" s="108"/>
-      <c r="R30" s="109"/>
-      <c r="S30" s="109"/>
-      <c r="T30" s="109"/>
-      <c r="U30" s="109"/>
-      <c r="V30" s="109"/>
-      <c r="W30" s="109"/>
-      <c r="X30" s="109"/>
-      <c r="Y30" s="109"/>
-      <c r="Z30" s="109"/>
-      <c r="AA30" s="109"/>
-      <c r="AB30" s="109"/>
-      <c r="AC30" s="109"/>
-      <c r="AD30" s="109"/>
-      <c r="AE30" s="110"/>
-      <c r="AF30" s="105"/>
-      <c r="AG30" s="106"/>
-      <c r="AH30" s="106"/>
-      <c r="AI30" s="107"/>
+      <c r="B30" s="173"/>
+      <c r="C30" s="165"/>
+      <c r="D30" s="138"/>
+      <c r="E30" s="139"/>
+      <c r="F30" s="140"/>
+      <c r="G30" s="174"/>
+      <c r="H30" s="167"/>
+      <c r="I30" s="168"/>
+      <c r="J30" s="175"/>
+      <c r="K30" s="169"/>
+      <c r="L30" s="169"/>
+      <c r="M30" s="169"/>
+      <c r="N30" s="169"/>
+      <c r="O30" s="169"/>
+      <c r="P30" s="170"/>
+      <c r="Q30" s="176"/>
+      <c r="R30" s="171"/>
+      <c r="S30" s="171"/>
+      <c r="T30" s="171"/>
+      <c r="U30" s="171"/>
+      <c r="V30" s="171"/>
+      <c r="W30" s="171"/>
+      <c r="X30" s="171"/>
+      <c r="Y30" s="171"/>
+      <c r="Z30" s="171"/>
+      <c r="AA30" s="171"/>
+      <c r="AB30" s="171"/>
+      <c r="AC30" s="171"/>
+      <c r="AD30" s="171"/>
+      <c r="AE30" s="172"/>
+      <c r="AF30" s="175"/>
+      <c r="AG30" s="169"/>
+      <c r="AH30" s="169"/>
+      <c r="AI30" s="170"/>
     </row>
     <row r="31" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="60"/>
-      <c r="B31" s="97"/>
-      <c r="C31" s="98"/>
-      <c r="D31" s="99"/>
-      <c r="E31" s="100"/>
-      <c r="F31" s="101"/>
-      <c r="G31" s="102"/>
-      <c r="H31" s="103"/>
-      <c r="I31" s="104"/>
-      <c r="J31" s="105"/>
-      <c r="K31" s="106"/>
-      <c r="L31" s="106"/>
-      <c r="M31" s="106"/>
-      <c r="N31" s="106"/>
-      <c r="O31" s="106"/>
-      <c r="P31" s="107"/>
-      <c r="Q31" s="108"/>
-      <c r="R31" s="109"/>
-      <c r="S31" s="109"/>
-      <c r="T31" s="109"/>
-      <c r="U31" s="109"/>
-      <c r="V31" s="109"/>
-      <c r="W31" s="109"/>
-      <c r="X31" s="109"/>
-      <c r="Y31" s="109"/>
-      <c r="Z31" s="109"/>
-      <c r="AA31" s="109"/>
-      <c r="AB31" s="109"/>
-      <c r="AC31" s="109"/>
-      <c r="AD31" s="109"/>
-      <c r="AE31" s="110"/>
-      <c r="AF31" s="105"/>
-      <c r="AG31" s="106"/>
-      <c r="AH31" s="106"/>
-      <c r="AI31" s="107"/>
+      <c r="B31" s="173"/>
+      <c r="C31" s="165"/>
+      <c r="D31" s="138"/>
+      <c r="E31" s="139"/>
+      <c r="F31" s="140"/>
+      <c r="G31" s="174"/>
+      <c r="H31" s="167"/>
+      <c r="I31" s="168"/>
+      <c r="J31" s="175"/>
+      <c r="K31" s="169"/>
+      <c r="L31" s="169"/>
+      <c r="M31" s="169"/>
+      <c r="N31" s="169"/>
+      <c r="O31" s="169"/>
+      <c r="P31" s="170"/>
+      <c r="Q31" s="176"/>
+      <c r="R31" s="171"/>
+      <c r="S31" s="171"/>
+      <c r="T31" s="171"/>
+      <c r="U31" s="171"/>
+      <c r="V31" s="171"/>
+      <c r="W31" s="171"/>
+      <c r="X31" s="171"/>
+      <c r="Y31" s="171"/>
+      <c r="Z31" s="171"/>
+      <c r="AA31" s="171"/>
+      <c r="AB31" s="171"/>
+      <c r="AC31" s="171"/>
+      <c r="AD31" s="171"/>
+      <c r="AE31" s="172"/>
+      <c r="AF31" s="175"/>
+      <c r="AG31" s="169"/>
+      <c r="AH31" s="169"/>
+      <c r="AI31" s="170"/>
     </row>
     <row r="32" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="60"/>
-      <c r="B32" s="97"/>
-      <c r="C32" s="98"/>
-      <c r="D32" s="99"/>
-      <c r="E32" s="100"/>
-      <c r="F32" s="101"/>
-      <c r="G32" s="102"/>
-      <c r="H32" s="103"/>
-      <c r="I32" s="104"/>
-      <c r="J32" s="105"/>
-      <c r="K32" s="106"/>
-      <c r="L32" s="106"/>
-      <c r="M32" s="106"/>
-      <c r="N32" s="106"/>
-      <c r="O32" s="106"/>
-      <c r="P32" s="107"/>
-      <c r="Q32" s="108"/>
-      <c r="R32" s="109"/>
-      <c r="S32" s="109"/>
-      <c r="T32" s="109"/>
-      <c r="U32" s="109"/>
-      <c r="V32" s="109"/>
-      <c r="W32" s="109"/>
-      <c r="X32" s="109"/>
-      <c r="Y32" s="109"/>
-      <c r="Z32" s="109"/>
-      <c r="AA32" s="109"/>
-      <c r="AB32" s="109"/>
-      <c r="AC32" s="109"/>
-      <c r="AD32" s="109"/>
-      <c r="AE32" s="110"/>
-      <c r="AF32" s="105"/>
-      <c r="AG32" s="106"/>
-      <c r="AH32" s="106"/>
-      <c r="AI32" s="107"/>
+      <c r="B32" s="173"/>
+      <c r="C32" s="165"/>
+      <c r="D32" s="138"/>
+      <c r="E32" s="139"/>
+      <c r="F32" s="140"/>
+      <c r="G32" s="174"/>
+      <c r="H32" s="167"/>
+      <c r="I32" s="168"/>
+      <c r="J32" s="175"/>
+      <c r="K32" s="169"/>
+      <c r="L32" s="169"/>
+      <c r="M32" s="169"/>
+      <c r="N32" s="169"/>
+      <c r="O32" s="169"/>
+      <c r="P32" s="170"/>
+      <c r="Q32" s="176"/>
+      <c r="R32" s="171"/>
+      <c r="S32" s="171"/>
+      <c r="T32" s="171"/>
+      <c r="U32" s="171"/>
+      <c r="V32" s="171"/>
+      <c r="W32" s="171"/>
+      <c r="X32" s="171"/>
+      <c r="Y32" s="171"/>
+      <c r="Z32" s="171"/>
+      <c r="AA32" s="171"/>
+      <c r="AB32" s="171"/>
+      <c r="AC32" s="171"/>
+      <c r="AD32" s="171"/>
+      <c r="AE32" s="172"/>
+      <c r="AF32" s="175"/>
+      <c r="AG32" s="169"/>
+      <c r="AH32" s="169"/>
+      <c r="AI32" s="170"/>
     </row>
     <row r="33" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="60"/>
-      <c r="B33" s="97"/>
-      <c r="C33" s="98"/>
-      <c r="D33" s="99"/>
-      <c r="E33" s="100"/>
-      <c r="F33" s="101"/>
-      <c r="G33" s="102"/>
-      <c r="H33" s="103"/>
-      <c r="I33" s="104"/>
-      <c r="J33" s="105"/>
-      <c r="K33" s="106"/>
-      <c r="L33" s="106"/>
-      <c r="M33" s="106"/>
-      <c r="N33" s="106"/>
-      <c r="O33" s="106"/>
-      <c r="P33" s="107"/>
-      <c r="Q33" s="108"/>
-      <c r="R33" s="109"/>
-      <c r="S33" s="109"/>
-      <c r="T33" s="109"/>
-      <c r="U33" s="109"/>
-      <c r="V33" s="109"/>
-      <c r="W33" s="109"/>
-      <c r="X33" s="109"/>
-      <c r="Y33" s="109"/>
-      <c r="Z33" s="109"/>
-      <c r="AA33" s="109"/>
-      <c r="AB33" s="109"/>
-      <c r="AC33" s="109"/>
-      <c r="AD33" s="109"/>
-      <c r="AE33" s="110"/>
-      <c r="AF33" s="105"/>
-      <c r="AG33" s="106"/>
-      <c r="AH33" s="106"/>
-      <c r="AI33" s="107"/>
+      <c r="B33" s="173"/>
+      <c r="C33" s="165"/>
+      <c r="D33" s="138"/>
+      <c r="E33" s="139"/>
+      <c r="F33" s="140"/>
+      <c r="G33" s="174"/>
+      <c r="H33" s="167"/>
+      <c r="I33" s="168"/>
+      <c r="J33" s="175"/>
+      <c r="K33" s="169"/>
+      <c r="L33" s="169"/>
+      <c r="M33" s="169"/>
+      <c r="N33" s="169"/>
+      <c r="O33" s="169"/>
+      <c r="P33" s="170"/>
+      <c r="Q33" s="176"/>
+      <c r="R33" s="171"/>
+      <c r="S33" s="171"/>
+      <c r="T33" s="171"/>
+      <c r="U33" s="171"/>
+      <c r="V33" s="171"/>
+      <c r="W33" s="171"/>
+      <c r="X33" s="171"/>
+      <c r="Y33" s="171"/>
+      <c r="Z33" s="171"/>
+      <c r="AA33" s="171"/>
+      <c r="AB33" s="171"/>
+      <c r="AC33" s="171"/>
+      <c r="AD33" s="171"/>
+      <c r="AE33" s="172"/>
+      <c r="AF33" s="175"/>
+      <c r="AG33" s="169"/>
+      <c r="AH33" s="169"/>
+      <c r="AI33" s="170"/>
     </row>
   </sheetData>
   <mergeCells count="179">
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
@@ -4871,162 +5067,6 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
   </mergeCells>
   <phoneticPr fontId="10"/>
   <printOptions horizontalCentered="1"/>
@@ -5183,163 +5223,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="144" t="s">
+      <c r="A1" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="145"/>
-      <c r="C1" s="145"/>
-      <c r="D1" s="146"/>
-      <c r="E1" s="174" t="str">
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="180" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="148"/>
-      <c r="G1" s="148"/>
-      <c r="H1" s="148"/>
-      <c r="I1" s="148"/>
-      <c r="J1" s="148"/>
-      <c r="K1" s="148"/>
-      <c r="L1" s="148"/>
-      <c r="M1" s="148"/>
-      <c r="N1" s="149"/>
-      <c r="O1" s="153" t="s">
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="110"/>
+      <c r="M1" s="110"/>
+      <c r="N1" s="111"/>
+      <c r="O1" s="115" t="s">
         <v>17</v>
       </c>
-      <c r="P1" s="154"/>
-      <c r="Q1" s="154"/>
-      <c r="R1" s="155"/>
-      <c r="S1" s="162" t="str">
+      <c r="P1" s="116"/>
+      <c r="Q1" s="116"/>
+      <c r="R1" s="117"/>
+      <c r="S1" s="124" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>画面一覧</v>
       </c>
-      <c r="T1" s="163"/>
-      <c r="U1" s="163"/>
-      <c r="V1" s="163"/>
-      <c r="W1" s="163"/>
-      <c r="X1" s="163"/>
-      <c r="Y1" s="163"/>
-      <c r="Z1" s="164"/>
-      <c r="AA1" s="144" t="s">
+      <c r="T1" s="125"/>
+      <c r="U1" s="125"/>
+      <c r="V1" s="125"/>
+      <c r="W1" s="125"/>
+      <c r="X1" s="125"/>
+      <c r="Y1" s="125"/>
+      <c r="Z1" s="126"/>
+      <c r="AA1" s="106" t="s">
         <v>18</v>
       </c>
-      <c r="AB1" s="146"/>
-      <c r="AC1" s="171" t="str">
+      <c r="AB1" s="108"/>
+      <c r="AC1" s="133" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="172"/>
-      <c r="AE1" s="172"/>
-      <c r="AF1" s="173"/>
-      <c r="AG1" s="175">
+      <c r="AD1" s="134"/>
+      <c r="AE1" s="134"/>
+      <c r="AF1" s="135"/>
+      <c r="AG1" s="177">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43592</v>
       </c>
-      <c r="AH1" s="176"/>
-      <c r="AI1" s="177"/>
+      <c r="AH1" s="178"/>
+      <c r="AI1" s="179"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="2"/>
     </row>
     <row r="2" spans="1:38" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="144" t="s">
+      <c r="A2" s="106" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="145"/>
-      <c r="C2" s="145"/>
-      <c r="D2" s="146"/>
-      <c r="E2" s="174" t="str">
+      <c r="B2" s="107"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="180" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="148"/>
-      <c r="G2" s="148"/>
-      <c r="H2" s="148"/>
-      <c r="I2" s="148"/>
-      <c r="J2" s="148"/>
-      <c r="K2" s="148"/>
-      <c r="L2" s="148"/>
-      <c r="M2" s="148"/>
-      <c r="N2" s="149"/>
-      <c r="O2" s="156"/>
-      <c r="P2" s="157"/>
-      <c r="Q2" s="157"/>
-      <c r="R2" s="158"/>
-      <c r="S2" s="165"/>
-      <c r="T2" s="166"/>
-      <c r="U2" s="166"/>
-      <c r="V2" s="166"/>
-      <c r="W2" s="166"/>
-      <c r="X2" s="166"/>
-      <c r="Y2" s="166"/>
-      <c r="Z2" s="167"/>
-      <c r="AA2" s="144" t="s">
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="110"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="110"/>
+      <c r="M2" s="110"/>
+      <c r="N2" s="111"/>
+      <c r="O2" s="118"/>
+      <c r="P2" s="119"/>
+      <c r="Q2" s="119"/>
+      <c r="R2" s="120"/>
+      <c r="S2" s="127"/>
+      <c r="T2" s="128"/>
+      <c r="U2" s="128"/>
+      <c r="V2" s="128"/>
+      <c r="W2" s="128"/>
+      <c r="X2" s="128"/>
+      <c r="Y2" s="128"/>
+      <c r="Z2" s="129"/>
+      <c r="AA2" s="106" t="s">
         <v>19</v>
       </c>
-      <c r="AB2" s="146"/>
-      <c r="AC2" s="171" t="str">
+      <c r="AB2" s="108"/>
+      <c r="AC2" s="133" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="172"/>
-      <c r="AE2" s="172"/>
-      <c r="AF2" s="173"/>
-      <c r="AG2" s="175">
+      <c r="AD2" s="134"/>
+      <c r="AE2" s="134"/>
+      <c r="AF2" s="135"/>
+      <c r="AG2" s="177">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v>44796</v>
       </c>
-      <c r="AH2" s="176"/>
-      <c r="AI2" s="177"/>
+      <c r="AH2" s="178"/>
+      <c r="AI2" s="179"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
     </row>
     <row r="3" spans="1:38" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="144" t="s">
+      <c r="A3" s="106" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="145"/>
-      <c r="C3" s="145"/>
-      <c r="D3" s="146"/>
-      <c r="E3" s="174" t="str">
+      <c r="B3" s="107"/>
+      <c r="C3" s="107"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="180" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="148"/>
-      <c r="G3" s="148"/>
-      <c r="H3" s="148"/>
-      <c r="I3" s="148"/>
-      <c r="J3" s="148"/>
-      <c r="K3" s="148"/>
-      <c r="L3" s="148"/>
-      <c r="M3" s="148"/>
-      <c r="N3" s="149"/>
-      <c r="O3" s="159"/>
-      <c r="P3" s="160"/>
-      <c r="Q3" s="160"/>
-      <c r="R3" s="161"/>
-      <c r="S3" s="168"/>
-      <c r="T3" s="169"/>
-      <c r="U3" s="169"/>
-      <c r="V3" s="169"/>
-      <c r="W3" s="169"/>
-      <c r="X3" s="169"/>
-      <c r="Y3" s="169"/>
-      <c r="Z3" s="170"/>
-      <c r="AA3" s="144"/>
-      <c r="AB3" s="146"/>
-      <c r="AC3" s="171" t="str">
+      <c r="F3" s="110"/>
+      <c r="G3" s="110"/>
+      <c r="H3" s="110"/>
+      <c r="I3" s="110"/>
+      <c r="J3" s="110"/>
+      <c r="K3" s="110"/>
+      <c r="L3" s="110"/>
+      <c r="M3" s="110"/>
+      <c r="N3" s="111"/>
+      <c r="O3" s="121"/>
+      <c r="P3" s="122"/>
+      <c r="Q3" s="122"/>
+      <c r="R3" s="123"/>
+      <c r="S3" s="130"/>
+      <c r="T3" s="131"/>
+      <c r="U3" s="131"/>
+      <c r="V3" s="131"/>
+      <c r="W3" s="131"/>
+      <c r="X3" s="131"/>
+      <c r="Y3" s="131"/>
+      <c r="Z3" s="132"/>
+      <c r="AA3" s="106"/>
+      <c r="AB3" s="108"/>
+      <c r="AC3" s="133" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="172"/>
-      <c r="AE3" s="172"/>
-      <c r="AF3" s="173"/>
-      <c r="AG3" s="175" t="str">
+      <c r="AD3" s="134"/>
+      <c r="AE3" s="134"/>
+      <c r="AF3" s="135"/>
+      <c r="AG3" s="177" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="176"/>
-      <c r="AI3" s="177"/>
+      <c r="AH3" s="178"/>
+      <c r="AI3" s="179"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
@@ -6802,14 +6842,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -6819,6 +6851,14 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="10"/>
   <printOptions horizontalCentered="1"/>
@@ -6833,7 +6873,7 @@
   <sheetPr codeName="Sheet4">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BE19"/>
+  <dimension ref="A1:BE20"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection sqref="A1:D1"/>
@@ -6845,59 +6885,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:57" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="144" t="s">
+      <c r="A1" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="145"/>
-      <c r="C1" s="145"/>
-      <c r="D1" s="146"/>
-      <c r="E1" s="174" t="str">
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="180" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="148"/>
-      <c r="G1" s="148"/>
-      <c r="H1" s="148"/>
-      <c r="I1" s="148"/>
-      <c r="J1" s="148"/>
-      <c r="K1" s="148"/>
-      <c r="L1" s="148"/>
-      <c r="M1" s="148"/>
-      <c r="N1" s="149"/>
-      <c r="O1" s="195" t="s">
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="110"/>
+      <c r="M1" s="110"/>
+      <c r="N1" s="111"/>
+      <c r="O1" s="190" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="196"/>
-      <c r="Q1" s="196"/>
-      <c r="R1" s="197"/>
-      <c r="S1" s="207" t="str">
+      <c r="P1" s="191"/>
+      <c r="Q1" s="191"/>
+      <c r="R1" s="192"/>
+      <c r="S1" s="181" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>画面一覧</v>
       </c>
-      <c r="T1" s="208"/>
-      <c r="U1" s="208"/>
-      <c r="V1" s="208"/>
-      <c r="W1" s="208"/>
-      <c r="X1" s="208"/>
-      <c r="Y1" s="208"/>
-      <c r="Z1" s="209"/>
-      <c r="AA1" s="144" t="s">
+      <c r="T1" s="182"/>
+      <c r="U1" s="182"/>
+      <c r="V1" s="182"/>
+      <c r="W1" s="182"/>
+      <c r="X1" s="182"/>
+      <c r="Y1" s="182"/>
+      <c r="Z1" s="183"/>
+      <c r="AA1" s="106" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="146"/>
-      <c r="AC1" s="171" t="str">
+      <c r="AB1" s="108"/>
+      <c r="AC1" s="133" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="172"/>
-      <c r="AE1" s="172"/>
-      <c r="AF1" s="173"/>
-      <c r="AG1" s="175">
+      <c r="AD1" s="134"/>
+      <c r="AE1" s="134"/>
+      <c r="AF1" s="135"/>
+      <c r="AG1" s="177">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43592</v>
       </c>
-      <c r="AH1" s="176"/>
-      <c r="AI1" s="177"/>
+      <c r="AH1" s="178"/>
+      <c r="AI1" s="179"/>
       <c r="AJ1" s="11"/>
       <c r="AK1" s="11"/>
       <c r="AL1" s="11"/>
@@ -6922,54 +6962,54 @@
       <c r="BE1" s="11"/>
     </row>
     <row r="2" spans="1:57" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="144" t="s">
+      <c r="A2" s="106" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="145"/>
-      <c r="C2" s="145"/>
-      <c r="D2" s="146"/>
-      <c r="E2" s="174" t="str">
+      <c r="B2" s="107"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="180" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="148"/>
-      <c r="G2" s="148"/>
-      <c r="H2" s="148"/>
-      <c r="I2" s="148"/>
-      <c r="J2" s="148"/>
-      <c r="K2" s="148"/>
-      <c r="L2" s="148"/>
-      <c r="M2" s="148"/>
-      <c r="N2" s="149"/>
-      <c r="O2" s="198"/>
-      <c r="P2" s="199"/>
-      <c r="Q2" s="199"/>
-      <c r="R2" s="200"/>
-      <c r="S2" s="210"/>
-      <c r="T2" s="211"/>
-      <c r="U2" s="211"/>
-      <c r="V2" s="211"/>
-      <c r="W2" s="211"/>
-      <c r="X2" s="211"/>
-      <c r="Y2" s="211"/>
-      <c r="Z2" s="212"/>
-      <c r="AA2" s="144" t="s">
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="110"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="110"/>
+      <c r="M2" s="110"/>
+      <c r="N2" s="111"/>
+      <c r="O2" s="193"/>
+      <c r="P2" s="194"/>
+      <c r="Q2" s="194"/>
+      <c r="R2" s="195"/>
+      <c r="S2" s="184"/>
+      <c r="T2" s="185"/>
+      <c r="U2" s="185"/>
+      <c r="V2" s="185"/>
+      <c r="W2" s="185"/>
+      <c r="X2" s="185"/>
+      <c r="Y2" s="185"/>
+      <c r="Z2" s="186"/>
+      <c r="AA2" s="106" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="146"/>
-      <c r="AC2" s="171" t="str">
+      <c r="AB2" s="108"/>
+      <c r="AC2" s="133" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="172"/>
-      <c r="AE2" s="172"/>
-      <c r="AF2" s="173"/>
-      <c r="AG2" s="175">
+      <c r="AD2" s="134"/>
+      <c r="AE2" s="134"/>
+      <c r="AF2" s="135"/>
+      <c r="AG2" s="177">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v>44796</v>
       </c>
-      <c r="AH2" s="176"/>
-      <c r="AI2" s="177"/>
+      <c r="AH2" s="178"/>
+      <c r="AI2" s="179"/>
       <c r="AJ2" s="11"/>
       <c r="AK2" s="11"/>
       <c r="AL2" s="11"/>
@@ -6994,52 +7034,52 @@
       <c r="BE2" s="11"/>
     </row>
     <row r="3" spans="1:57" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="144" t="s">
+      <c r="A3" s="106" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="145"/>
-      <c r="C3" s="145"/>
-      <c r="D3" s="146"/>
-      <c r="E3" s="174" t="str">
+      <c r="B3" s="107"/>
+      <c r="C3" s="107"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="180" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="148"/>
-      <c r="G3" s="148"/>
-      <c r="H3" s="148"/>
-      <c r="I3" s="148"/>
-      <c r="J3" s="148"/>
-      <c r="K3" s="148"/>
-      <c r="L3" s="148"/>
-      <c r="M3" s="148"/>
-      <c r="N3" s="149"/>
-      <c r="O3" s="201"/>
-      <c r="P3" s="202"/>
-      <c r="Q3" s="202"/>
-      <c r="R3" s="203"/>
-      <c r="S3" s="213"/>
-      <c r="T3" s="214"/>
-      <c r="U3" s="214"/>
-      <c r="V3" s="214"/>
-      <c r="W3" s="214"/>
-      <c r="X3" s="214"/>
-      <c r="Y3" s="214"/>
-      <c r="Z3" s="215"/>
-      <c r="AA3" s="144"/>
-      <c r="AB3" s="146"/>
-      <c r="AC3" s="171" t="str">
+      <c r="F3" s="110"/>
+      <c r="G3" s="110"/>
+      <c r="H3" s="110"/>
+      <c r="I3" s="110"/>
+      <c r="J3" s="110"/>
+      <c r="K3" s="110"/>
+      <c r="L3" s="110"/>
+      <c r="M3" s="110"/>
+      <c r="N3" s="111"/>
+      <c r="O3" s="196"/>
+      <c r="P3" s="197"/>
+      <c r="Q3" s="197"/>
+      <c r="R3" s="198"/>
+      <c r="S3" s="187"/>
+      <c r="T3" s="188"/>
+      <c r="U3" s="188"/>
+      <c r="V3" s="188"/>
+      <c r="W3" s="188"/>
+      <c r="X3" s="188"/>
+      <c r="Y3" s="188"/>
+      <c r="Z3" s="189"/>
+      <c r="AA3" s="106"/>
+      <c r="AB3" s="108"/>
+      <c r="AC3" s="133" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="172"/>
-      <c r="AE3" s="172"/>
-      <c r="AF3" s="173"/>
-      <c r="AG3" s="175" t="str">
+      <c r="AD3" s="134"/>
+      <c r="AE3" s="134"/>
+      <c r="AF3" s="135"/>
+      <c r="AG3" s="177" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="176"/>
-      <c r="AI3" s="177"/>
+      <c r="AH3" s="178"/>
+      <c r="AI3" s="179"/>
       <c r="AJ3" s="11"/>
       <c r="AK3" s="11"/>
       <c r="AL3" s="11"/>
@@ -7210,47 +7250,47 @@
       <c r="C7" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="192" t="s">
+      <c r="D7" s="199" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="193"/>
-      <c r="F7" s="194"/>
-      <c r="G7" s="192" t="s">
+      <c r="E7" s="200"/>
+      <c r="F7" s="201"/>
+      <c r="G7" s="199" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="193"/>
-      <c r="I7" s="193"/>
-      <c r="J7" s="193"/>
-      <c r="K7" s="194"/>
-      <c r="L7" s="204" t="s">
+      <c r="H7" s="200"/>
+      <c r="I7" s="200"/>
+      <c r="J7" s="200"/>
+      <c r="K7" s="201"/>
+      <c r="L7" s="202" t="s">
         <v>12</v>
       </c>
-      <c r="M7" s="205"/>
-      <c r="N7" s="206"/>
-      <c r="O7" s="192" t="s">
+      <c r="M7" s="203"/>
+      <c r="N7" s="204"/>
+      <c r="O7" s="199" t="s">
         <v>13</v>
       </c>
-      <c r="P7" s="193"/>
-      <c r="Q7" s="193"/>
-      <c r="R7" s="193"/>
-      <c r="S7" s="194"/>
-      <c r="T7" s="192" t="s">
+      <c r="P7" s="200"/>
+      <c r="Q7" s="200"/>
+      <c r="R7" s="200"/>
+      <c r="S7" s="201"/>
+      <c r="T7" s="199" t="s">
         <v>14</v>
       </c>
-      <c r="U7" s="193"/>
-      <c r="V7" s="193"/>
-      <c r="W7" s="193"/>
-      <c r="X7" s="193"/>
-      <c r="Y7" s="193"/>
-      <c r="Z7" s="193"/>
-      <c r="AA7" s="193"/>
-      <c r="AB7" s="193"/>
-      <c r="AC7" s="193"/>
-      <c r="AD7" s="193"/>
-      <c r="AE7" s="193"/>
-      <c r="AF7" s="193"/>
-      <c r="AG7" s="193"/>
-      <c r="AH7" s="194"/>
+      <c r="U7" s="200"/>
+      <c r="V7" s="200"/>
+      <c r="W7" s="200"/>
+      <c r="X7" s="200"/>
+      <c r="Y7" s="200"/>
+      <c r="Z7" s="200"/>
+      <c r="AA7" s="200"/>
+      <c r="AB7" s="200"/>
+      <c r="AC7" s="200"/>
+      <c r="AD7" s="200"/>
+      <c r="AE7" s="200"/>
+      <c r="AF7" s="200"/>
+      <c r="AG7" s="200"/>
+      <c r="AH7" s="201"/>
       <c r="AJ7" s="11"/>
       <c r="AK7" s="11"/>
       <c r="AL7" s="11"/>
@@ -7275,50 +7315,50 @@
       <c r="BE7" s="11"/>
     </row>
     <row r="8" spans="1:57" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C8" s="60">
+      <c r="C8" s="219">
         <v>1</v>
       </c>
-      <c r="D8" s="189" t="s">
+      <c r="D8" s="205" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="190"/>
-      <c r="F8" s="191"/>
-      <c r="G8" s="189" t="s">
+      <c r="E8" s="206"/>
+      <c r="F8" s="207"/>
+      <c r="G8" s="205" t="s">
+        <v>80</v>
+      </c>
+      <c r="H8" s="206"/>
+      <c r="I8" s="206"/>
+      <c r="J8" s="206"/>
+      <c r="K8" s="207"/>
+      <c r="L8" s="144" t="s">
+        <v>29</v>
+      </c>
+      <c r="M8" s="145"/>
+      <c r="N8" s="146"/>
+      <c r="O8" s="144" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="190"/>
-      <c r="I8" s="190"/>
-      <c r="J8" s="190"/>
-      <c r="K8" s="191"/>
-      <c r="L8" s="113" t="s">
-        <v>29</v>
-      </c>
-      <c r="M8" s="120"/>
-      <c r="N8" s="121"/>
-      <c r="O8" s="113" t="s">
-        <v>28</v>
-      </c>
-      <c r="P8" s="120"/>
-      <c r="Q8" s="120"/>
-      <c r="R8" s="120"/>
-      <c r="S8" s="121"/>
-      <c r="T8" s="114" t="s">
-        <v>78</v>
-      </c>
-      <c r="U8" s="106"/>
-      <c r="V8" s="106"/>
-      <c r="W8" s="106"/>
-      <c r="X8" s="106"/>
-      <c r="Y8" s="106"/>
-      <c r="Z8" s="106"/>
-      <c r="AA8" s="106"/>
-      <c r="AB8" s="106"/>
-      <c r="AC8" s="106"/>
-      <c r="AD8" s="106"/>
-      <c r="AE8" s="106"/>
-      <c r="AF8" s="106"/>
-      <c r="AG8" s="106"/>
-      <c r="AH8" s="107"/>
+      <c r="P8" s="145"/>
+      <c r="Q8" s="145"/>
+      <c r="R8" s="145"/>
+      <c r="S8" s="146"/>
+      <c r="T8" s="147" t="s">
+        <v>83</v>
+      </c>
+      <c r="U8" s="169"/>
+      <c r="V8" s="169"/>
+      <c r="W8" s="169"/>
+      <c r="X8" s="169"/>
+      <c r="Y8" s="169"/>
+      <c r="Z8" s="169"/>
+      <c r="AA8" s="169"/>
+      <c r="AB8" s="169"/>
+      <c r="AC8" s="169"/>
+      <c r="AD8" s="169"/>
+      <c r="AE8" s="169"/>
+      <c r="AF8" s="169"/>
+      <c r="AG8" s="169"/>
+      <c r="AH8" s="170"/>
       <c r="AJ8" s="11"/>
       <c r="AK8" s="11"/>
       <c r="AL8" s="11"/>
@@ -7342,52 +7382,47 @@
       <c r="BD8" s="11"/>
       <c r="BE8" s="11"/>
     </row>
-    <row r="9" spans="1:57" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C9" s="60">
-        <f>C8+1</f>
-        <v>2</v>
-      </c>
-      <c r="D9" s="187" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" s="187"/>
-      <c r="F9" s="187"/>
-      <c r="G9" s="187" t="s">
-        <v>32</v>
-      </c>
-      <c r="H9" s="187"/>
-      <c r="I9" s="187"/>
-      <c r="J9" s="187"/>
-      <c r="K9" s="187"/>
-      <c r="L9" s="178" t="s">
-        <v>37</v>
-      </c>
-      <c r="M9" s="179"/>
-      <c r="N9" s="180"/>
-      <c r="O9" s="178" t="s">
-        <v>34</v>
-      </c>
-      <c r="P9" s="179"/>
-      <c r="Q9" s="179"/>
-      <c r="R9" s="179"/>
-      <c r="S9" s="180"/>
-      <c r="T9" s="178" t="s">
-        <v>48</v>
-      </c>
-      <c r="U9" s="182"/>
-      <c r="V9" s="182"/>
-      <c r="W9" s="182"/>
-      <c r="X9" s="182"/>
-      <c r="Y9" s="182"/>
-      <c r="Z9" s="182"/>
-      <c r="AA9" s="182"/>
-      <c r="AB9" s="182"/>
-      <c r="AC9" s="182"/>
-      <c r="AD9" s="182"/>
-      <c r="AE9" s="182"/>
-      <c r="AF9" s="182"/>
-      <c r="AG9" s="182"/>
-      <c r="AH9" s="183"/>
+    <row r="9" spans="1:57" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C9" s="81"/>
+      <c r="D9" s="220"/>
+      <c r="E9" s="221"/>
+      <c r="F9" s="222"/>
+      <c r="G9" s="220"/>
+      <c r="H9" s="221"/>
+      <c r="I9" s="221"/>
+      <c r="J9" s="221"/>
+      <c r="K9" s="222"/>
+      <c r="L9" s="144" t="s">
+        <v>81</v>
+      </c>
+      <c r="M9" s="145"/>
+      <c r="N9" s="146"/>
+      <c r="O9" s="96" t="s">
+        <v>82</v>
+      </c>
+      <c r="P9" s="97"/>
+      <c r="Q9" s="97"/>
+      <c r="R9" s="97"/>
+      <c r="S9" s="98"/>
+      <c r="T9" s="147" t="s">
+        <v>84</v>
+      </c>
+      <c r="U9" s="148"/>
+      <c r="V9" s="148"/>
+      <c r="W9" s="148"/>
+      <c r="X9" s="148"/>
+      <c r="Y9" s="148"/>
+      <c r="Z9" s="148"/>
+      <c r="AA9" s="148"/>
+      <c r="AB9" s="148"/>
+      <c r="AC9" s="148"/>
+      <c r="AD9" s="148"/>
+      <c r="AE9" s="148"/>
+      <c r="AF9" s="148"/>
+      <c r="AG9" s="148"/>
+      <c r="AH9" s="149"/>
+      <c r="AJ9" s="11"/>
+      <c r="AK9" s="11"/>
       <c r="AL9" s="11"/>
       <c r="AM9" s="11"/>
       <c r="AN9" s="11"/>
@@ -7400,49 +7435,61 @@
       <c r="AU9" s="11"/>
       <c r="AV9" s="11"/>
       <c r="AW9" s="11"/>
-    </row>
-    <row r="10" spans="1:57" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AX9" s="11"/>
+      <c r="AY9" s="11"/>
+      <c r="AZ9" s="11"/>
+      <c r="BA9" s="11"/>
+      <c r="BB9" s="11"/>
+      <c r="BC9" s="11"/>
+      <c r="BD9" s="11"/>
+      <c r="BE9" s="11"/>
+    </row>
+    <row r="10" spans="1:57" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C10" s="60">
-        <f t="shared" ref="C10:C18" si="0">C9+1</f>
-        <v>3</v>
-      </c>
-      <c r="D10" s="188"/>
-      <c r="E10" s="188"/>
-      <c r="F10" s="188"/>
-      <c r="G10" s="188"/>
-      <c r="H10" s="188"/>
-      <c r="I10" s="188"/>
-      <c r="J10" s="188"/>
-      <c r="K10" s="188"/>
-      <c r="L10" s="113" t="s">
-        <v>38</v>
-      </c>
-      <c r="M10" s="120"/>
-      <c r="N10" s="121"/>
-      <c r="O10" s="113" t="s">
-        <v>35</v>
-      </c>
-      <c r="P10" s="120"/>
-      <c r="Q10" s="120"/>
-      <c r="R10" s="120"/>
-      <c r="S10" s="121"/>
-      <c r="T10" s="113" t="s">
-        <v>46</v>
-      </c>
-      <c r="U10" s="106"/>
-      <c r="V10" s="106"/>
-      <c r="W10" s="106"/>
-      <c r="X10" s="106"/>
-      <c r="Y10" s="106"/>
-      <c r="Z10" s="106"/>
-      <c r="AA10" s="106"/>
-      <c r="AB10" s="106"/>
-      <c r="AC10" s="106"/>
-      <c r="AD10" s="106"/>
-      <c r="AE10" s="106"/>
-      <c r="AF10" s="106"/>
-      <c r="AG10" s="106"/>
-      <c r="AH10" s="107"/>
+        <f>C8+1</f>
+        <v>2</v>
+      </c>
+      <c r="D10" s="211" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="211"/>
+      <c r="F10" s="211"/>
+      <c r="G10" s="211" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" s="211"/>
+      <c r="I10" s="211"/>
+      <c r="J10" s="211"/>
+      <c r="K10" s="211"/>
+      <c r="L10" s="213" t="s">
+        <v>37</v>
+      </c>
+      <c r="M10" s="216"/>
+      <c r="N10" s="217"/>
+      <c r="O10" s="213" t="s">
+        <v>34</v>
+      </c>
+      <c r="P10" s="216"/>
+      <c r="Q10" s="216"/>
+      <c r="R10" s="216"/>
+      <c r="S10" s="217"/>
+      <c r="T10" s="213" t="s">
+        <v>48</v>
+      </c>
+      <c r="U10" s="214"/>
+      <c r="V10" s="214"/>
+      <c r="W10" s="214"/>
+      <c r="X10" s="214"/>
+      <c r="Y10" s="214"/>
+      <c r="Z10" s="214"/>
+      <c r="AA10" s="214"/>
+      <c r="AB10" s="214"/>
+      <c r="AC10" s="214"/>
+      <c r="AD10" s="214"/>
+      <c r="AE10" s="214"/>
+      <c r="AF10" s="214"/>
+      <c r="AG10" s="214"/>
+      <c r="AH10" s="215"/>
       <c r="AL10" s="11"/>
       <c r="AM10" s="11"/>
       <c r="AN10" s="11"/>
@@ -7458,46 +7505,46 @@
     </row>
     <row r="11" spans="1:57" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C11" s="60">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="D11" s="188"/>
-      <c r="E11" s="188"/>
-      <c r="F11" s="188"/>
-      <c r="G11" s="188"/>
-      <c r="H11" s="188"/>
-      <c r="I11" s="188"/>
-      <c r="J11" s="188"/>
-      <c r="K11" s="188"/>
-      <c r="L11" s="113" t="s">
-        <v>39</v>
-      </c>
-      <c r="M11" s="120"/>
-      <c r="N11" s="121"/>
-      <c r="O11" s="113" t="s">
-        <v>36</v>
-      </c>
-      <c r="P11" s="120"/>
-      <c r="Q11" s="120"/>
-      <c r="R11" s="120"/>
-      <c r="S11" s="121"/>
-      <c r="T11" s="113" t="s">
-        <v>47</v>
-      </c>
-      <c r="U11" s="106"/>
-      <c r="V11" s="106"/>
-      <c r="W11" s="106"/>
-      <c r="X11" s="106"/>
-      <c r="Y11" s="106"/>
-      <c r="Z11" s="106"/>
-      <c r="AA11" s="106"/>
-      <c r="AB11" s="106"/>
-      <c r="AC11" s="106"/>
-      <c r="AD11" s="106"/>
-      <c r="AE11" s="106"/>
-      <c r="AF11" s="106"/>
-      <c r="AG11" s="106"/>
-      <c r="AH11" s="107"/>
+        <f t="shared" ref="C11:C19" si="0">C10+1</f>
+        <v>3</v>
+      </c>
+      <c r="D11" s="212"/>
+      <c r="E11" s="212"/>
+      <c r="F11" s="212"/>
+      <c r="G11" s="212"/>
+      <c r="H11" s="212"/>
+      <c r="I11" s="212"/>
+      <c r="J11" s="212"/>
+      <c r="K11" s="212"/>
+      <c r="L11" s="144" t="s">
+        <v>38</v>
+      </c>
+      <c r="M11" s="145"/>
+      <c r="N11" s="146"/>
+      <c r="O11" s="144" t="s">
+        <v>35</v>
+      </c>
+      <c r="P11" s="145"/>
+      <c r="Q11" s="145"/>
+      <c r="R11" s="145"/>
+      <c r="S11" s="146"/>
+      <c r="T11" s="144" t="s">
+        <v>46</v>
+      </c>
+      <c r="U11" s="169"/>
+      <c r="V11" s="169"/>
+      <c r="W11" s="169"/>
+      <c r="X11" s="169"/>
+      <c r="Y11" s="169"/>
+      <c r="Z11" s="169"/>
+      <c r="AA11" s="169"/>
+      <c r="AB11" s="169"/>
+      <c r="AC11" s="169"/>
+      <c r="AD11" s="169"/>
+      <c r="AE11" s="169"/>
+      <c r="AF11" s="169"/>
+      <c r="AG11" s="169"/>
+      <c r="AH11" s="170"/>
       <c r="AL11" s="11"/>
       <c r="AM11" s="11"/>
       <c r="AN11" s="11"/>
@@ -7511,48 +7558,48 @@
       <c r="AV11" s="11"/>
       <c r="AW11" s="11"/>
     </row>
-    <row r="12" spans="1:57" s="7" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:57" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C12" s="60">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="D12" s="188"/>
-      <c r="E12" s="188"/>
-      <c r="F12" s="188"/>
-      <c r="G12" s="188"/>
-      <c r="H12" s="188"/>
-      <c r="I12" s="188"/>
-      <c r="J12" s="188"/>
-      <c r="K12" s="188"/>
-      <c r="L12" s="113" t="s">
-        <v>50</v>
-      </c>
-      <c r="M12" s="120"/>
-      <c r="N12" s="121"/>
-      <c r="O12" s="113" t="s">
-        <v>51</v>
-      </c>
-      <c r="P12" s="120"/>
-      <c r="Q12" s="120"/>
-      <c r="R12" s="120"/>
-      <c r="S12" s="121"/>
-      <c r="T12" s="114" t="s">
-        <v>52</v>
-      </c>
-      <c r="U12" s="109"/>
-      <c r="V12" s="109"/>
-      <c r="W12" s="109"/>
-      <c r="X12" s="109"/>
-      <c r="Y12" s="109"/>
-      <c r="Z12" s="109"/>
-      <c r="AA12" s="109"/>
-      <c r="AB12" s="109"/>
-      <c r="AC12" s="109"/>
-      <c r="AD12" s="109"/>
-      <c r="AE12" s="109"/>
-      <c r="AF12" s="109"/>
-      <c r="AG12" s="109"/>
-      <c r="AH12" s="110"/>
+        <v>4</v>
+      </c>
+      <c r="D12" s="212"/>
+      <c r="E12" s="212"/>
+      <c r="F12" s="212"/>
+      <c r="G12" s="212"/>
+      <c r="H12" s="212"/>
+      <c r="I12" s="212"/>
+      <c r="J12" s="212"/>
+      <c r="K12" s="212"/>
+      <c r="L12" s="144" t="s">
+        <v>39</v>
+      </c>
+      <c r="M12" s="145"/>
+      <c r="N12" s="146"/>
+      <c r="O12" s="144" t="s">
+        <v>36</v>
+      </c>
+      <c r="P12" s="145"/>
+      <c r="Q12" s="145"/>
+      <c r="R12" s="145"/>
+      <c r="S12" s="146"/>
+      <c r="T12" s="144" t="s">
+        <v>47</v>
+      </c>
+      <c r="U12" s="169"/>
+      <c r="V12" s="169"/>
+      <c r="W12" s="169"/>
+      <c r="X12" s="169"/>
+      <c r="Y12" s="169"/>
+      <c r="Z12" s="169"/>
+      <c r="AA12" s="169"/>
+      <c r="AB12" s="169"/>
+      <c r="AC12" s="169"/>
+      <c r="AD12" s="169"/>
+      <c r="AE12" s="169"/>
+      <c r="AF12" s="169"/>
+      <c r="AG12" s="169"/>
+      <c r="AH12" s="170"/>
       <c r="AL12" s="11"/>
       <c r="AM12" s="11"/>
       <c r="AN12" s="11"/>
@@ -7566,48 +7613,48 @@
       <c r="AV12" s="11"/>
       <c r="AW12" s="11"/>
     </row>
-    <row r="13" spans="1:57" s="7" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:57" s="7" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C13" s="60">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="D13" s="188"/>
-      <c r="E13" s="188"/>
-      <c r="F13" s="188"/>
-      <c r="G13" s="188"/>
-      <c r="H13" s="188"/>
-      <c r="I13" s="188"/>
-      <c r="J13" s="188"/>
-      <c r="K13" s="188"/>
-      <c r="L13" s="113" t="s">
-        <v>56</v>
-      </c>
-      <c r="M13" s="120"/>
-      <c r="N13" s="121"/>
-      <c r="O13" s="113" t="s">
-        <v>57</v>
-      </c>
-      <c r="P13" s="120"/>
-      <c r="Q13" s="120"/>
-      <c r="R13" s="120"/>
-      <c r="S13" s="121"/>
-      <c r="T13" s="114" t="s">
-        <v>58</v>
-      </c>
-      <c r="U13" s="109"/>
-      <c r="V13" s="109"/>
-      <c r="W13" s="109"/>
-      <c r="X13" s="109"/>
-      <c r="Y13" s="109"/>
-      <c r="Z13" s="109"/>
-      <c r="AA13" s="109"/>
-      <c r="AB13" s="109"/>
-      <c r="AC13" s="109"/>
-      <c r="AD13" s="109"/>
-      <c r="AE13" s="109"/>
-      <c r="AF13" s="109"/>
-      <c r="AG13" s="109"/>
-      <c r="AH13" s="110"/>
+        <v>5</v>
+      </c>
+      <c r="D13" s="212"/>
+      <c r="E13" s="212"/>
+      <c r="F13" s="212"/>
+      <c r="G13" s="212"/>
+      <c r="H13" s="212"/>
+      <c r="I13" s="212"/>
+      <c r="J13" s="212"/>
+      <c r="K13" s="212"/>
+      <c r="L13" s="144" t="s">
+        <v>50</v>
+      </c>
+      <c r="M13" s="145"/>
+      <c r="N13" s="146"/>
+      <c r="O13" s="144" t="s">
+        <v>51</v>
+      </c>
+      <c r="P13" s="145"/>
+      <c r="Q13" s="145"/>
+      <c r="R13" s="145"/>
+      <c r="S13" s="146"/>
+      <c r="T13" s="147" t="s">
+        <v>52</v>
+      </c>
+      <c r="U13" s="171"/>
+      <c r="V13" s="171"/>
+      <c r="W13" s="171"/>
+      <c r="X13" s="171"/>
+      <c r="Y13" s="171"/>
+      <c r="Z13" s="171"/>
+      <c r="AA13" s="171"/>
+      <c r="AB13" s="171"/>
+      <c r="AC13" s="171"/>
+      <c r="AD13" s="171"/>
+      <c r="AE13" s="171"/>
+      <c r="AF13" s="171"/>
+      <c r="AG13" s="171"/>
+      <c r="AH13" s="172"/>
       <c r="AL13" s="11"/>
       <c r="AM13" s="11"/>
       <c r="AN13" s="11"/>
@@ -7624,45 +7671,45 @@
     <row r="14" spans="1:57" s="7" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C14" s="60">
         <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="D14" s="188"/>
-      <c r="E14" s="188"/>
-      <c r="F14" s="188"/>
-      <c r="G14" s="188"/>
-      <c r="H14" s="188"/>
-      <c r="I14" s="188"/>
-      <c r="J14" s="188"/>
-      <c r="K14" s="188"/>
-      <c r="L14" s="83" t="s">
-        <v>60</v>
-      </c>
-      <c r="M14" s="84"/>
-      <c r="N14" s="85"/>
-      <c r="O14" s="83" t="s">
-        <v>63</v>
-      </c>
-      <c r="P14" s="84"/>
-      <c r="Q14" s="84"/>
-      <c r="R14" s="84"/>
-      <c r="S14" s="85"/>
-      <c r="T14" s="184" t="s">
-        <v>66</v>
-      </c>
-      <c r="U14" s="185"/>
-      <c r="V14" s="185"/>
-      <c r="W14" s="185"/>
-      <c r="X14" s="185"/>
-      <c r="Y14" s="185"/>
-      <c r="Z14" s="185"/>
-      <c r="AA14" s="185"/>
-      <c r="AB14" s="185"/>
-      <c r="AC14" s="185"/>
-      <c r="AD14" s="185"/>
-      <c r="AE14" s="185"/>
-      <c r="AF14" s="185"/>
-      <c r="AG14" s="185"/>
-      <c r="AH14" s="186"/>
+        <v>6</v>
+      </c>
+      <c r="D14" s="212"/>
+      <c r="E14" s="212"/>
+      <c r="F14" s="212"/>
+      <c r="G14" s="212"/>
+      <c r="H14" s="212"/>
+      <c r="I14" s="212"/>
+      <c r="J14" s="212"/>
+      <c r="K14" s="212"/>
+      <c r="L14" s="144" t="s">
+        <v>56</v>
+      </c>
+      <c r="M14" s="145"/>
+      <c r="N14" s="146"/>
+      <c r="O14" s="144" t="s">
+        <v>57</v>
+      </c>
+      <c r="P14" s="145"/>
+      <c r="Q14" s="145"/>
+      <c r="R14" s="145"/>
+      <c r="S14" s="146"/>
+      <c r="T14" s="147" t="s">
+        <v>58</v>
+      </c>
+      <c r="U14" s="171"/>
+      <c r="V14" s="171"/>
+      <c r="W14" s="171"/>
+      <c r="X14" s="171"/>
+      <c r="Y14" s="171"/>
+      <c r="Z14" s="171"/>
+      <c r="AA14" s="171"/>
+      <c r="AB14" s="171"/>
+      <c r="AC14" s="171"/>
+      <c r="AD14" s="171"/>
+      <c r="AE14" s="171"/>
+      <c r="AF14" s="171"/>
+      <c r="AG14" s="171"/>
+      <c r="AH14" s="172"/>
       <c r="AL14" s="11"/>
       <c r="AM14" s="11"/>
       <c r="AN14" s="11"/>
@@ -7679,45 +7726,45 @@
     <row r="15" spans="1:57" s="7" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C15" s="60">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="D15" s="188"/>
-      <c r="E15" s="188"/>
-      <c r="F15" s="188"/>
-      <c r="G15" s="188"/>
-      <c r="H15" s="188"/>
-      <c r="I15" s="188"/>
-      <c r="J15" s="188"/>
-      <c r="K15" s="188"/>
+        <v>7</v>
+      </c>
+      <c r="D15" s="212"/>
+      <c r="E15" s="212"/>
+      <c r="F15" s="212"/>
+      <c r="G15" s="212"/>
+      <c r="H15" s="212"/>
+      <c r="I15" s="212"/>
+      <c r="J15" s="212"/>
+      <c r="K15" s="212"/>
       <c r="L15" s="83" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M15" s="84"/>
       <c r="N15" s="85"/>
       <c r="O15" s="83" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P15" s="84"/>
       <c r="Q15" s="84"/>
       <c r="R15" s="84"/>
       <c r="S15" s="85"/>
-      <c r="T15" s="184" t="s">
-        <v>67</v>
-      </c>
-      <c r="U15" s="185"/>
-      <c r="V15" s="185"/>
-      <c r="W15" s="185"/>
-      <c r="X15" s="185"/>
-      <c r="Y15" s="185"/>
-      <c r="Z15" s="185"/>
-      <c r="AA15" s="185"/>
-      <c r="AB15" s="185"/>
-      <c r="AC15" s="185"/>
-      <c r="AD15" s="185"/>
-      <c r="AE15" s="185"/>
-      <c r="AF15" s="185"/>
-      <c r="AG15" s="185"/>
-      <c r="AH15" s="186"/>
+      <c r="T15" s="208" t="s">
+        <v>66</v>
+      </c>
+      <c r="U15" s="209"/>
+      <c r="V15" s="209"/>
+      <c r="W15" s="209"/>
+      <c r="X15" s="209"/>
+      <c r="Y15" s="209"/>
+      <c r="Z15" s="209"/>
+      <c r="AA15" s="209"/>
+      <c r="AB15" s="209"/>
+      <c r="AC15" s="209"/>
+      <c r="AD15" s="209"/>
+      <c r="AE15" s="209"/>
+      <c r="AF15" s="209"/>
+      <c r="AG15" s="209"/>
+      <c r="AH15" s="210"/>
       <c r="AL15" s="11"/>
       <c r="AM15" s="11"/>
       <c r="AN15" s="11"/>
@@ -7731,48 +7778,48 @@
       <c r="AV15" s="11"/>
       <c r="AW15" s="11"/>
     </row>
-    <row r="16" spans="1:57" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:57" s="7" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C16" s="60">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="D16" s="188"/>
-      <c r="E16" s="188"/>
-      <c r="F16" s="188"/>
-      <c r="G16" s="188"/>
-      <c r="H16" s="188"/>
-      <c r="I16" s="188"/>
-      <c r="J16" s="188"/>
-      <c r="K16" s="188"/>
-      <c r="L16" s="113" t="s">
-        <v>62</v>
-      </c>
-      <c r="M16" s="120"/>
-      <c r="N16" s="121"/>
-      <c r="O16" s="113" t="s">
-        <v>65</v>
-      </c>
-      <c r="P16" s="120"/>
-      <c r="Q16" s="120"/>
-      <c r="R16" s="120"/>
-      <c r="S16" s="121"/>
-      <c r="T16" s="114" t="s">
-        <v>68</v>
-      </c>
-      <c r="U16" s="109"/>
-      <c r="V16" s="109"/>
-      <c r="W16" s="109"/>
-      <c r="X16" s="109"/>
-      <c r="Y16" s="109"/>
-      <c r="Z16" s="109"/>
-      <c r="AA16" s="109"/>
-      <c r="AB16" s="109"/>
-      <c r="AC16" s="109"/>
-      <c r="AD16" s="109"/>
-      <c r="AE16" s="109"/>
-      <c r="AF16" s="109"/>
-      <c r="AG16" s="109"/>
-      <c r="AH16" s="110"/>
+        <v>8</v>
+      </c>
+      <c r="D16" s="212"/>
+      <c r="E16" s="212"/>
+      <c r="F16" s="212"/>
+      <c r="G16" s="212"/>
+      <c r="H16" s="212"/>
+      <c r="I16" s="212"/>
+      <c r="J16" s="212"/>
+      <c r="K16" s="212"/>
+      <c r="L16" s="83" t="s">
+        <v>61</v>
+      </c>
+      <c r="M16" s="84"/>
+      <c r="N16" s="85"/>
+      <c r="O16" s="83" t="s">
+        <v>64</v>
+      </c>
+      <c r="P16" s="84"/>
+      <c r="Q16" s="84"/>
+      <c r="R16" s="84"/>
+      <c r="S16" s="85"/>
+      <c r="T16" s="208" t="s">
+        <v>67</v>
+      </c>
+      <c r="U16" s="209"/>
+      <c r="V16" s="209"/>
+      <c r="W16" s="209"/>
+      <c r="X16" s="209"/>
+      <c r="Y16" s="209"/>
+      <c r="Z16" s="209"/>
+      <c r="AA16" s="209"/>
+      <c r="AB16" s="209"/>
+      <c r="AC16" s="209"/>
+      <c r="AD16" s="209"/>
+      <c r="AE16" s="209"/>
+      <c r="AF16" s="209"/>
+      <c r="AG16" s="209"/>
+      <c r="AH16" s="210"/>
       <c r="AL16" s="11"/>
       <c r="AM16" s="11"/>
       <c r="AN16" s="11"/>
@@ -7786,52 +7833,48 @@
       <c r="AV16" s="11"/>
       <c r="AW16" s="11"/>
     </row>
-    <row r="17" spans="3:49" s="8" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="3:49" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C17" s="60">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="D17" s="93" t="s">
-        <v>71</v>
-      </c>
-      <c r="E17" s="94"/>
-      <c r="F17" s="95"/>
-      <c r="G17" s="93" t="s">
-        <v>72</v>
-      </c>
-      <c r="H17" s="94"/>
-      <c r="I17" s="94"/>
-      <c r="J17" s="94"/>
-      <c r="K17" s="95"/>
-      <c r="L17" s="178" t="s">
-        <v>73</v>
-      </c>
-      <c r="M17" s="179"/>
-      <c r="N17" s="180"/>
-      <c r="O17" s="178" t="s">
-        <v>30</v>
-      </c>
-      <c r="P17" s="179"/>
-      <c r="Q17" s="179"/>
-      <c r="R17" s="179"/>
-      <c r="S17" s="180"/>
-      <c r="T17" s="181" t="s">
-        <v>45</v>
-      </c>
-      <c r="U17" s="182"/>
-      <c r="V17" s="182"/>
-      <c r="W17" s="182"/>
-      <c r="X17" s="182"/>
-      <c r="Y17" s="182"/>
-      <c r="Z17" s="182"/>
-      <c r="AA17" s="182"/>
-      <c r="AB17" s="182"/>
-      <c r="AC17" s="182"/>
-      <c r="AD17" s="182"/>
-      <c r="AE17" s="182"/>
-      <c r="AF17" s="182"/>
-      <c r="AG17" s="182"/>
-      <c r="AH17" s="183"/>
+        <v>9</v>
+      </c>
+      <c r="D17" s="212"/>
+      <c r="E17" s="212"/>
+      <c r="F17" s="212"/>
+      <c r="G17" s="212"/>
+      <c r="H17" s="212"/>
+      <c r="I17" s="212"/>
+      <c r="J17" s="212"/>
+      <c r="K17" s="212"/>
+      <c r="L17" s="144" t="s">
+        <v>62</v>
+      </c>
+      <c r="M17" s="145"/>
+      <c r="N17" s="146"/>
+      <c r="O17" s="144" t="s">
+        <v>65</v>
+      </c>
+      <c r="P17" s="145"/>
+      <c r="Q17" s="145"/>
+      <c r="R17" s="145"/>
+      <c r="S17" s="146"/>
+      <c r="T17" s="147" t="s">
+        <v>68</v>
+      </c>
+      <c r="U17" s="171"/>
+      <c r="V17" s="171"/>
+      <c r="W17" s="171"/>
+      <c r="X17" s="171"/>
+      <c r="Y17" s="171"/>
+      <c r="Z17" s="171"/>
+      <c r="AA17" s="171"/>
+      <c r="AB17" s="171"/>
+      <c r="AC17" s="171"/>
+      <c r="AD17" s="171"/>
+      <c r="AE17" s="171"/>
+      <c r="AF17" s="171"/>
+      <c r="AG17" s="171"/>
+      <c r="AH17" s="172"/>
       <c r="AL17" s="11"/>
       <c r="AM17" s="11"/>
       <c r="AN17" s="11"/>
@@ -7845,48 +7888,52 @@
       <c r="AV17" s="11"/>
       <c r="AW17" s="11"/>
     </row>
-    <row r="18" spans="3:49" s="8" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="3:49" s="8" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C18" s="60">
         <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="D18" s="90"/>
-      <c r="E18" s="91"/>
-      <c r="F18" s="92"/>
-      <c r="G18" s="90"/>
-      <c r="H18" s="91"/>
-      <c r="I18" s="91"/>
-      <c r="J18" s="91"/>
-      <c r="K18" s="92"/>
-      <c r="L18" s="178" t="s">
-        <v>74</v>
-      </c>
-      <c r="M18" s="179"/>
-      <c r="N18" s="180"/>
-      <c r="O18" s="178" t="s">
-        <v>31</v>
-      </c>
-      <c r="P18" s="179"/>
-      <c r="Q18" s="179"/>
-      <c r="R18" s="179"/>
-      <c r="S18" s="180"/>
-      <c r="T18" s="181" t="s">
-        <v>75</v>
-      </c>
-      <c r="U18" s="182"/>
-      <c r="V18" s="182"/>
-      <c r="W18" s="182"/>
-      <c r="X18" s="182"/>
-      <c r="Y18" s="182"/>
-      <c r="Z18" s="182"/>
-      <c r="AA18" s="182"/>
-      <c r="AB18" s="182"/>
-      <c r="AC18" s="182"/>
-      <c r="AD18" s="182"/>
-      <c r="AE18" s="182"/>
-      <c r="AF18" s="182"/>
-      <c r="AG18" s="182"/>
-      <c r="AH18" s="183"/>
+        <v>10</v>
+      </c>
+      <c r="D18" s="93" t="s">
+        <v>71</v>
+      </c>
+      <c r="E18" s="94"/>
+      <c r="F18" s="95"/>
+      <c r="G18" s="93" t="s">
+        <v>72</v>
+      </c>
+      <c r="H18" s="94"/>
+      <c r="I18" s="94"/>
+      <c r="J18" s="94"/>
+      <c r="K18" s="95"/>
+      <c r="L18" s="213" t="s">
+        <v>73</v>
+      </c>
+      <c r="M18" s="216"/>
+      <c r="N18" s="217"/>
+      <c r="O18" s="213" t="s">
+        <v>30</v>
+      </c>
+      <c r="P18" s="216"/>
+      <c r="Q18" s="216"/>
+      <c r="R18" s="216"/>
+      <c r="S18" s="217"/>
+      <c r="T18" s="218" t="s">
+        <v>45</v>
+      </c>
+      <c r="U18" s="214"/>
+      <c r="V18" s="214"/>
+      <c r="W18" s="214"/>
+      <c r="X18" s="214"/>
+      <c r="Y18" s="214"/>
+      <c r="Z18" s="214"/>
+      <c r="AA18" s="214"/>
+      <c r="AB18" s="214"/>
+      <c r="AC18" s="214"/>
+      <c r="AD18" s="214"/>
+      <c r="AE18" s="214"/>
+      <c r="AF18" s="214"/>
+      <c r="AG18" s="214"/>
+      <c r="AH18" s="215"/>
       <c r="AL18" s="11"/>
       <c r="AM18" s="11"/>
       <c r="AN18" s="11"/>
@@ -7900,39 +7947,48 @@
       <c r="AV18" s="11"/>
       <c r="AW18" s="11"/>
     </row>
-    <row r="19" spans="3:49" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C19" s="86"/>
-      <c r="D19" s="86"/>
-      <c r="E19" s="86"/>
-      <c r="F19" s="86"/>
-      <c r="G19" s="86"/>
-      <c r="H19" s="86"/>
-      <c r="I19" s="86"/>
-      <c r="J19" s="86"/>
-      <c r="K19" s="86"/>
-      <c r="L19" s="87"/>
-      <c r="M19" s="87"/>
-      <c r="N19" s="87"/>
-      <c r="O19" s="87"/>
-      <c r="P19" s="87"/>
-      <c r="Q19" s="87"/>
-      <c r="R19" s="87"/>
-      <c r="S19" s="87"/>
-      <c r="T19" s="88"/>
-      <c r="U19" s="89"/>
-      <c r="V19" s="89"/>
-      <c r="W19" s="89"/>
-      <c r="X19" s="89"/>
-      <c r="Y19" s="89"/>
-      <c r="Z19" s="89"/>
-      <c r="AA19" s="89"/>
-      <c r="AB19" s="89"/>
-      <c r="AC19" s="89"/>
-      <c r="AD19" s="89"/>
-      <c r="AE19" s="89"/>
-      <c r="AF19" s="89"/>
-      <c r="AG19" s="89"/>
-      <c r="AH19" s="89"/>
+    <row r="19" spans="3:49" s="8" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C19" s="60">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="D19" s="90"/>
+      <c r="E19" s="91"/>
+      <c r="F19" s="92"/>
+      <c r="G19" s="90"/>
+      <c r="H19" s="91"/>
+      <c r="I19" s="91"/>
+      <c r="J19" s="91"/>
+      <c r="K19" s="92"/>
+      <c r="L19" s="213" t="s">
+        <v>74</v>
+      </c>
+      <c r="M19" s="216"/>
+      <c r="N19" s="217"/>
+      <c r="O19" s="213" t="s">
+        <v>31</v>
+      </c>
+      <c r="P19" s="216"/>
+      <c r="Q19" s="216"/>
+      <c r="R19" s="216"/>
+      <c r="S19" s="217"/>
+      <c r="T19" s="218" t="s">
+        <v>75</v>
+      </c>
+      <c r="U19" s="214"/>
+      <c r="V19" s="214"/>
+      <c r="W19" s="214"/>
+      <c r="X19" s="214"/>
+      <c r="Y19" s="214"/>
+      <c r="Z19" s="214"/>
+      <c r="AA19" s="214"/>
+      <c r="AB19" s="214"/>
+      <c r="AC19" s="214"/>
+      <c r="AD19" s="214"/>
+      <c r="AE19" s="214"/>
+      <c r="AF19" s="214"/>
+      <c r="AG19" s="214"/>
+      <c r="AH19" s="215"/>
       <c r="AL19" s="11"/>
       <c r="AM19" s="11"/>
       <c r="AN19" s="11"/>
@@ -7946,14 +8002,92 @@
       <c r="AV19" s="11"/>
       <c r="AW19" s="11"/>
     </row>
+    <row r="20" spans="3:49" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C20" s="86"/>
+      <c r="D20" s="86"/>
+      <c r="E20" s="86"/>
+      <c r="F20" s="86"/>
+      <c r="G20" s="86"/>
+      <c r="H20" s="86"/>
+      <c r="I20" s="86"/>
+      <c r="J20" s="86"/>
+      <c r="K20" s="86"/>
+      <c r="L20" s="87"/>
+      <c r="M20" s="87"/>
+      <c r="N20" s="87"/>
+      <c r="O20" s="87"/>
+      <c r="P20" s="87"/>
+      <c r="Q20" s="87"/>
+      <c r="R20" s="87"/>
+      <c r="S20" s="87"/>
+      <c r="T20" s="88"/>
+      <c r="U20" s="89"/>
+      <c r="V20" s="89"/>
+      <c r="W20" s="89"/>
+      <c r="X20" s="89"/>
+      <c r="Y20" s="89"/>
+      <c r="Z20" s="89"/>
+      <c r="AA20" s="89"/>
+      <c r="AB20" s="89"/>
+      <c r="AC20" s="89"/>
+      <c r="AD20" s="89"/>
+      <c r="AE20" s="89"/>
+      <c r="AF20" s="89"/>
+      <c r="AG20" s="89"/>
+      <c r="AH20" s="89"/>
+      <c r="AL20" s="11"/>
+      <c r="AM20" s="11"/>
+      <c r="AN20" s="11"/>
+      <c r="AO20" s="11"/>
+      <c r="AP20" s="11"/>
+      <c r="AQ20" s="11"/>
+      <c r="AR20" s="11"/>
+      <c r="AS20" s="11"/>
+      <c r="AT20" s="11"/>
+      <c r="AU20" s="11"/>
+      <c r="AV20" s="11"/>
+      <c r="AW20" s="11"/>
+    </row>
   </sheetData>
-  <mergeCells count="55">
+  <mergeCells count="57">
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="T9:AH9"/>
+    <mergeCell ref="L18:N18"/>
+    <mergeCell ref="O18:S18"/>
+    <mergeCell ref="T18:AH18"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="O19:S19"/>
+    <mergeCell ref="T19:AH19"/>
+    <mergeCell ref="T15:AH15"/>
+    <mergeCell ref="T16:AH16"/>
+    <mergeCell ref="D10:F17"/>
+    <mergeCell ref="G10:K17"/>
+    <mergeCell ref="T10:AH10"/>
+    <mergeCell ref="T11:AH11"/>
+    <mergeCell ref="T12:AH12"/>
+    <mergeCell ref="L17:N17"/>
+    <mergeCell ref="O17:S17"/>
+    <mergeCell ref="T17:AH17"/>
+    <mergeCell ref="L11:N11"/>
     <mergeCell ref="L12:N12"/>
     <mergeCell ref="O12:S12"/>
-    <mergeCell ref="T12:AH12"/>
-    <mergeCell ref="L13:N13"/>
-    <mergeCell ref="O13:S13"/>
-    <mergeCell ref="T13:AH13"/>
+    <mergeCell ref="O10:S10"/>
+    <mergeCell ref="O11:S11"/>
+    <mergeCell ref="L10:N10"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="L8:N8"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="T7:AH7"/>
+    <mergeCell ref="T8:AH8"/>
+    <mergeCell ref="O8:S8"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="L7:N7"/>
+    <mergeCell ref="O7:S7"/>
     <mergeCell ref="AA1:AB1"/>
     <mergeCell ref="AC3:AF3"/>
     <mergeCell ref="AG3:AI3"/>
@@ -7967,42 +8101,12 @@
     <mergeCell ref="S1:Z3"/>
     <mergeCell ref="AA2:AB2"/>
     <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="L7:N7"/>
-    <mergeCell ref="O7:S7"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="L8:N8"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="T7:AH7"/>
-    <mergeCell ref="T8:AH8"/>
-    <mergeCell ref="O8:S8"/>
+    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="O13:S13"/>
+    <mergeCell ref="T13:AH13"/>
+    <mergeCell ref="L14:N14"/>
+    <mergeCell ref="O14:S14"/>
     <mergeCell ref="T14:AH14"/>
-    <mergeCell ref="T15:AH15"/>
-    <mergeCell ref="D9:F16"/>
-    <mergeCell ref="G9:K16"/>
-    <mergeCell ref="T9:AH9"/>
-    <mergeCell ref="T10:AH10"/>
-    <mergeCell ref="T11:AH11"/>
-    <mergeCell ref="L16:N16"/>
-    <mergeCell ref="O16:S16"/>
-    <mergeCell ref="T16:AH16"/>
-    <mergeCell ref="L10:N10"/>
-    <mergeCell ref="L11:N11"/>
-    <mergeCell ref="O11:S11"/>
-    <mergeCell ref="O9:S9"/>
-    <mergeCell ref="O10:S10"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="L17:N17"/>
-    <mergeCell ref="O17:S17"/>
-    <mergeCell ref="T17:AH17"/>
-    <mergeCell ref="L18:N18"/>
-    <mergeCell ref="O18:S18"/>
-    <mergeCell ref="T18:AH18"/>
   </mergeCells>
   <phoneticPr fontId="10"/>
   <printOptions horizontalCentered="1"/>

--- a/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/010_要件定義/040_画面設計/画面一覧_A1_プロジェクト管理システム.xlsx
+++ b/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/010_要件定義/040_画面設計/画面一覧_A1_プロジェクト管理システム.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B64B912C-85FC-4769-885B-6A61224D8B78}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17C0CB16-D16D-4DAA-BD95-0D3A0609DFC5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -654,10 +654,6 @@
     <phoneticPr fontId="10"/>
   </si>
   <si>
-    <t>WA1010201</t>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
     <t>ログアウト処理</t>
     <rPh sb="5" eb="7">
       <t>ショリ</t>
@@ -673,6 +669,10 @@
   </si>
   <si>
     <t>ログアウト処理時はセッションを破棄し、ログイン画面へ遷移する。</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>WA1010102</t>
     <phoneticPr fontId="10"/>
   </si>
 </sst>
@@ -1781,9 +1781,144 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="31" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="25" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="10" xfId="45" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -1892,128 +2027,8 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="25" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -2024,8 +2039,92 @@
     <xf numFmtId="177" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="13" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="14" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="15" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="19" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="0" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="22" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="16" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="17" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="18" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2053,105 +2152,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="13" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="14" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="15" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="19" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="0" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="22" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="16" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="17" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="18" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="48">
@@ -2972,9 +2972,7 @@
   </sheetPr>
   <dimension ref="A1:S513"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -3030,12 +3028,12 @@
       <c r="F25" s="21"/>
       <c r="G25" s="21"/>
       <c r="H25" s="21"/>
-      <c r="I25" s="99">
+      <c r="I25" s="103">
         <f ca="1">IF(INDIRECT("変更履歴!D8")="","",MAX(INDIRECT("変更履歴!D8"):INDIRECT("変更履歴!F33")))</f>
         <v>44796</v>
       </c>
-      <c r="J25" s="99"/>
-      <c r="K25" s="99"/>
+      <c r="J25" s="103"/>
+      <c r="K25" s="103"/>
     </row>
     <row r="26" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F26" s="21"/>
@@ -3634,57 +3632,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="151" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="109" t="s">
+      <c r="B1" s="152"/>
+      <c r="C1" s="152"/>
+      <c r="D1" s="153"/>
+      <c r="E1" s="154" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
-      <c r="K1" s="110"/>
-      <c r="L1" s="110"/>
-      <c r="M1" s="110"/>
-      <c r="N1" s="111"/>
-      <c r="O1" s="115" t="s">
+      <c r="F1" s="155"/>
+      <c r="G1" s="155"/>
+      <c r="H1" s="155"/>
+      <c r="I1" s="155"/>
+      <c r="J1" s="155"/>
+      <c r="K1" s="155"/>
+      <c r="L1" s="155"/>
+      <c r="M1" s="155"/>
+      <c r="N1" s="156"/>
+      <c r="O1" s="160" t="s">
         <v>17</v>
       </c>
-      <c r="P1" s="116"/>
-      <c r="Q1" s="116"/>
-      <c r="R1" s="117"/>
-      <c r="S1" s="124" t="s">
+      <c r="P1" s="161"/>
+      <c r="Q1" s="161"/>
+      <c r="R1" s="162"/>
+      <c r="S1" s="169" t="s">
         <v>23</v>
       </c>
-      <c r="T1" s="125"/>
-      <c r="U1" s="125"/>
-      <c r="V1" s="125"/>
-      <c r="W1" s="125"/>
-      <c r="X1" s="125"/>
-      <c r="Y1" s="125"/>
-      <c r="Z1" s="126"/>
-      <c r="AA1" s="106" t="s">
+      <c r="T1" s="170"/>
+      <c r="U1" s="170"/>
+      <c r="V1" s="170"/>
+      <c r="W1" s="170"/>
+      <c r="X1" s="170"/>
+      <c r="Y1" s="170"/>
+      <c r="Z1" s="171"/>
+      <c r="AA1" s="151" t="s">
         <v>18</v>
       </c>
-      <c r="AB1" s="108"/>
-      <c r="AC1" s="133" t="str">
+      <c r="AB1" s="153"/>
+      <c r="AC1" s="178" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="134"/>
-      <c r="AE1" s="134"/>
-      <c r="AF1" s="135"/>
-      <c r="AG1" s="100">
+      <c r="AD1" s="179"/>
+      <c r="AE1" s="179"/>
+      <c r="AF1" s="180"/>
+      <c r="AG1" s="145">
         <f>IF(D8="","",D8)</f>
         <v>43592</v>
       </c>
-      <c r="AH1" s="101"/>
-      <c r="AI1" s="102"/>
+      <c r="AH1" s="146"/>
+      <c r="AI1" s="147"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="1"/>
@@ -3692,53 +3690,53 @@
       <c r="AN1" s="2"/>
     </row>
     <row r="2" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="106" t="s">
+      <c r="A2" s="151" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="107"/>
-      <c r="C2" s="107"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="109" t="s">
+      <c r="B2" s="152"/>
+      <c r="C2" s="152"/>
+      <c r="D2" s="153"/>
+      <c r="E2" s="154" t="s">
         <v>41</v>
       </c>
-      <c r="F2" s="110"/>
-      <c r="G2" s="110"/>
-      <c r="H2" s="110"/>
-      <c r="I2" s="110"/>
-      <c r="J2" s="110"/>
-      <c r="K2" s="110"/>
-      <c r="L2" s="110"/>
-      <c r="M2" s="110"/>
-      <c r="N2" s="111"/>
-      <c r="O2" s="118"/>
-      <c r="P2" s="119"/>
-      <c r="Q2" s="119"/>
-      <c r="R2" s="120"/>
-      <c r="S2" s="127"/>
-      <c r="T2" s="128"/>
-      <c r="U2" s="128"/>
-      <c r="V2" s="128"/>
-      <c r="W2" s="128"/>
-      <c r="X2" s="128"/>
-      <c r="Y2" s="128"/>
-      <c r="Z2" s="129"/>
-      <c r="AA2" s="106" t="s">
+      <c r="F2" s="155"/>
+      <c r="G2" s="155"/>
+      <c r="H2" s="155"/>
+      <c r="I2" s="155"/>
+      <c r="J2" s="155"/>
+      <c r="K2" s="155"/>
+      <c r="L2" s="155"/>
+      <c r="M2" s="155"/>
+      <c r="N2" s="156"/>
+      <c r="O2" s="163"/>
+      <c r="P2" s="164"/>
+      <c r="Q2" s="164"/>
+      <c r="R2" s="165"/>
+      <c r="S2" s="172"/>
+      <c r="T2" s="173"/>
+      <c r="U2" s="173"/>
+      <c r="V2" s="173"/>
+      <c r="W2" s="173"/>
+      <c r="X2" s="173"/>
+      <c r="Y2" s="173"/>
+      <c r="Z2" s="174"/>
+      <c r="AA2" s="151" t="s">
         <v>19</v>
       </c>
-      <c r="AB2" s="108"/>
-      <c r="AC2" s="112" t="str">
+      <c r="AB2" s="153"/>
+      <c r="AC2" s="157" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="113"/>
-      <c r="AE2" s="113"/>
-      <c r="AF2" s="114"/>
-      <c r="AG2" s="100">
+      <c r="AD2" s="158"/>
+      <c r="AE2" s="158"/>
+      <c r="AF2" s="159"/>
+      <c r="AG2" s="145">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v>44796</v>
       </c>
-      <c r="AH2" s="101"/>
-      <c r="AI2" s="102"/>
+      <c r="AH2" s="146"/>
+      <c r="AI2" s="147"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
@@ -3746,45 +3744,45 @@
       <c r="AN2" s="1"/>
     </row>
     <row r="3" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="106" t="s">
+      <c r="A3" s="151" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="107"/>
-      <c r="C3" s="107"/>
-      <c r="D3" s="108"/>
-      <c r="E3" s="109" t="s">
+      <c r="B3" s="152"/>
+      <c r="C3" s="152"/>
+      <c r="D3" s="153"/>
+      <c r="E3" s="154" t="s">
         <v>79</v>
       </c>
-      <c r="F3" s="110"/>
-      <c r="G3" s="110"/>
-      <c r="H3" s="110"/>
-      <c r="I3" s="110"/>
-      <c r="J3" s="110"/>
-      <c r="K3" s="110"/>
-      <c r="L3" s="110"/>
-      <c r="M3" s="110"/>
-      <c r="N3" s="111"/>
-      <c r="O3" s="121"/>
-      <c r="P3" s="122"/>
-      <c r="Q3" s="122"/>
-      <c r="R3" s="123"/>
-      <c r="S3" s="130"/>
-      <c r="T3" s="131"/>
-      <c r="U3" s="131"/>
-      <c r="V3" s="131"/>
-      <c r="W3" s="131"/>
-      <c r="X3" s="131"/>
-      <c r="Y3" s="131"/>
-      <c r="Z3" s="132"/>
-      <c r="AA3" s="106"/>
-      <c r="AB3" s="108"/>
-      <c r="AC3" s="133"/>
-      <c r="AD3" s="134"/>
-      <c r="AE3" s="134"/>
-      <c r="AF3" s="135"/>
-      <c r="AG3" s="100"/>
-      <c r="AH3" s="101"/>
-      <c r="AI3" s="102"/>
+      <c r="F3" s="155"/>
+      <c r="G3" s="155"/>
+      <c r="H3" s="155"/>
+      <c r="I3" s="155"/>
+      <c r="J3" s="155"/>
+      <c r="K3" s="155"/>
+      <c r="L3" s="155"/>
+      <c r="M3" s="155"/>
+      <c r="N3" s="156"/>
+      <c r="O3" s="166"/>
+      <c r="P3" s="167"/>
+      <c r="Q3" s="167"/>
+      <c r="R3" s="168"/>
+      <c r="S3" s="175"/>
+      <c r="T3" s="176"/>
+      <c r="U3" s="176"/>
+      <c r="V3" s="176"/>
+      <c r="W3" s="176"/>
+      <c r="X3" s="176"/>
+      <c r="Y3" s="176"/>
+      <c r="Z3" s="177"/>
+      <c r="AA3" s="151"/>
+      <c r="AB3" s="153"/>
+      <c r="AC3" s="178"/>
+      <c r="AD3" s="179"/>
+      <c r="AE3" s="179"/>
+      <c r="AF3" s="180"/>
+      <c r="AG3" s="145"/>
+      <c r="AH3" s="146"/>
+      <c r="AI3" s="147"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
@@ -3821,1229 +3819,1073 @@
       <c r="A7" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="103" t="s">
+      <c r="B7" s="148" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="104"/>
-      <c r="D7" s="103" t="s">
+      <c r="C7" s="149"/>
+      <c r="D7" s="148" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="105"/>
-      <c r="F7" s="104"/>
-      <c r="G7" s="103" t="s">
+      <c r="E7" s="150"/>
+      <c r="F7" s="149"/>
+      <c r="G7" s="148" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="105"/>
-      <c r="I7" s="104"/>
-      <c r="J7" s="103" t="s">
+      <c r="H7" s="150"/>
+      <c r="I7" s="149"/>
+      <c r="J7" s="148" t="s">
         <v>26</v>
       </c>
-      <c r="K7" s="105"/>
-      <c r="L7" s="105"/>
-      <c r="M7" s="105"/>
-      <c r="N7" s="105"/>
-      <c r="O7" s="105"/>
-      <c r="P7" s="104"/>
-      <c r="Q7" s="103" t="s">
+      <c r="K7" s="150"/>
+      <c r="L7" s="150"/>
+      <c r="M7" s="150"/>
+      <c r="N7" s="150"/>
+      <c r="O7" s="150"/>
+      <c r="P7" s="149"/>
+      <c r="Q7" s="148" t="s">
         <v>9</v>
       </c>
-      <c r="R7" s="105"/>
-      <c r="S7" s="105"/>
-      <c r="T7" s="105"/>
-      <c r="U7" s="105"/>
-      <c r="V7" s="105"/>
-      <c r="W7" s="105"/>
-      <c r="X7" s="105"/>
-      <c r="Y7" s="105"/>
-      <c r="Z7" s="105"/>
-      <c r="AA7" s="105"/>
-      <c r="AB7" s="105"/>
-      <c r="AC7" s="105"/>
-      <c r="AD7" s="105"/>
-      <c r="AE7" s="104"/>
-      <c r="AF7" s="103" t="s">
+      <c r="R7" s="150"/>
+      <c r="S7" s="150"/>
+      <c r="T7" s="150"/>
+      <c r="U7" s="150"/>
+      <c r="V7" s="150"/>
+      <c r="W7" s="150"/>
+      <c r="X7" s="150"/>
+      <c r="Y7" s="150"/>
+      <c r="Z7" s="150"/>
+      <c r="AA7" s="150"/>
+      <c r="AB7" s="150"/>
+      <c r="AC7" s="150"/>
+      <c r="AD7" s="150"/>
+      <c r="AE7" s="149"/>
+      <c r="AF7" s="148" t="s">
         <v>10</v>
       </c>
-      <c r="AG7" s="105"/>
-      <c r="AH7" s="105"/>
-      <c r="AI7" s="104"/>
+      <c r="AG7" s="150"/>
+      <c r="AH7" s="150"/>
+      <c r="AI7" s="149"/>
     </row>
     <row r="8" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="81">
         <v>1</v>
       </c>
-      <c r="B8" s="150">
+      <c r="B8" s="131">
         <v>1</v>
       </c>
-      <c r="C8" s="151"/>
-      <c r="D8" s="152">
+      <c r="C8" s="132"/>
+      <c r="D8" s="133">
         <v>43592</v>
       </c>
-      <c r="E8" s="153"/>
-      <c r="F8" s="154"/>
-      <c r="G8" s="155" t="s">
+      <c r="E8" s="134"/>
+      <c r="F8" s="135"/>
+      <c r="G8" s="136" t="s">
         <v>42</v>
       </c>
-      <c r="H8" s="156"/>
-      <c r="I8" s="157"/>
-      <c r="J8" s="158" t="s">
+      <c r="H8" s="137"/>
+      <c r="I8" s="138"/>
+      <c r="J8" s="139" t="s">
         <v>43</v>
       </c>
-      <c r="K8" s="159"/>
-      <c r="L8" s="159"/>
-      <c r="M8" s="159"/>
-      <c r="N8" s="159"/>
-      <c r="O8" s="159"/>
-      <c r="P8" s="160"/>
-      <c r="Q8" s="161" t="s">
+      <c r="K8" s="140"/>
+      <c r="L8" s="140"/>
+      <c r="M8" s="140"/>
+      <c r="N8" s="140"/>
+      <c r="O8" s="140"/>
+      <c r="P8" s="141"/>
+      <c r="Q8" s="142" t="s">
         <v>44</v>
       </c>
-      <c r="R8" s="162"/>
-      <c r="S8" s="162"/>
-      <c r="T8" s="162"/>
-      <c r="U8" s="162"/>
-      <c r="V8" s="162"/>
-      <c r="W8" s="162"/>
-      <c r="X8" s="162"/>
-      <c r="Y8" s="162"/>
-      <c r="Z8" s="162"/>
-      <c r="AA8" s="162"/>
-      <c r="AB8" s="162"/>
-      <c r="AC8" s="162"/>
-      <c r="AD8" s="162"/>
-      <c r="AE8" s="163"/>
-      <c r="AF8" s="158" t="s">
+      <c r="R8" s="143"/>
+      <c r="S8" s="143"/>
+      <c r="T8" s="143"/>
+      <c r="U8" s="143"/>
+      <c r="V8" s="143"/>
+      <c r="W8" s="143"/>
+      <c r="X8" s="143"/>
+      <c r="Y8" s="143"/>
+      <c r="Z8" s="143"/>
+      <c r="AA8" s="143"/>
+      <c r="AB8" s="143"/>
+      <c r="AC8" s="143"/>
+      <c r="AD8" s="143"/>
+      <c r="AE8" s="144"/>
+      <c r="AF8" s="139" t="s">
         <v>49</v>
       </c>
-      <c r="AG8" s="159"/>
-      <c r="AH8" s="159"/>
-      <c r="AI8" s="160"/>
+      <c r="AG8" s="140"/>
+      <c r="AH8" s="140"/>
+      <c r="AI8" s="141"/>
     </row>
     <row r="9" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="60">
         <v>2</v>
       </c>
-      <c r="B9" s="136">
+      <c r="B9" s="122">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C9" s="137"/>
-      <c r="D9" s="138">
+      <c r="C9" s="123"/>
+      <c r="D9" s="106">
         <v>43803</v>
       </c>
-      <c r="E9" s="139"/>
-      <c r="F9" s="140"/>
-      <c r="G9" s="141" t="s">
+      <c r="E9" s="107"/>
+      <c r="F9" s="108"/>
+      <c r="G9" s="124" t="s">
         <v>54</v>
       </c>
-      <c r="H9" s="142"/>
-      <c r="I9" s="143"/>
-      <c r="J9" s="144" t="s">
+      <c r="H9" s="125"/>
+      <c r="I9" s="126"/>
+      <c r="J9" s="120" t="s">
         <v>55</v>
       </c>
-      <c r="K9" s="145"/>
-      <c r="L9" s="145"/>
-      <c r="M9" s="145"/>
-      <c r="N9" s="145"/>
-      <c r="O9" s="145"/>
-      <c r="P9" s="146"/>
-      <c r="Q9" s="147" t="s">
+      <c r="K9" s="127"/>
+      <c r="L9" s="127"/>
+      <c r="M9" s="127"/>
+      <c r="N9" s="127"/>
+      <c r="O9" s="127"/>
+      <c r="P9" s="128"/>
+      <c r="Q9" s="121" t="s">
         <v>59</v>
       </c>
-      <c r="R9" s="148"/>
-      <c r="S9" s="148"/>
-      <c r="T9" s="148"/>
-      <c r="U9" s="148"/>
-      <c r="V9" s="148"/>
-      <c r="W9" s="148"/>
-      <c r="X9" s="148"/>
-      <c r="Y9" s="148"/>
-      <c r="Z9" s="148"/>
-      <c r="AA9" s="148"/>
-      <c r="AB9" s="148"/>
-      <c r="AC9" s="148"/>
-      <c r="AD9" s="148"/>
-      <c r="AE9" s="149"/>
-      <c r="AF9" s="144" t="s">
+      <c r="R9" s="129"/>
+      <c r="S9" s="129"/>
+      <c r="T9" s="129"/>
+      <c r="U9" s="129"/>
+      <c r="V9" s="129"/>
+      <c r="W9" s="129"/>
+      <c r="X9" s="129"/>
+      <c r="Y9" s="129"/>
+      <c r="Z9" s="129"/>
+      <c r="AA9" s="129"/>
+      <c r="AB9" s="129"/>
+      <c r="AC9" s="129"/>
+      <c r="AD9" s="129"/>
+      <c r="AE9" s="130"/>
+      <c r="AF9" s="120" t="s">
         <v>53</v>
       </c>
-      <c r="AG9" s="145"/>
-      <c r="AH9" s="145"/>
-      <c r="AI9" s="146"/>
+      <c r="AG9" s="127"/>
+      <c r="AH9" s="127"/>
+      <c r="AI9" s="128"/>
     </row>
     <row r="10" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="60">
         <v>3</v>
       </c>
-      <c r="B10" s="164" t="s">
+      <c r="B10" s="118" t="s">
         <v>70</v>
       </c>
-      <c r="C10" s="165"/>
-      <c r="D10" s="138">
+      <c r="C10" s="105"/>
+      <c r="D10" s="106">
         <v>43895</v>
       </c>
-      <c r="E10" s="139"/>
-      <c r="F10" s="140"/>
-      <c r="G10" s="166" t="s">
+      <c r="E10" s="107"/>
+      <c r="F10" s="108"/>
+      <c r="G10" s="119" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="167"/>
-      <c r="I10" s="168"/>
-      <c r="J10" s="144" t="s">
+      <c r="H10" s="110"/>
+      <c r="I10" s="111"/>
+      <c r="J10" s="120" t="s">
         <v>55</v>
       </c>
-      <c r="K10" s="169"/>
-      <c r="L10" s="169"/>
-      <c r="M10" s="169"/>
-      <c r="N10" s="169"/>
-      <c r="O10" s="169"/>
-      <c r="P10" s="170"/>
-      <c r="Q10" s="147" t="s">
+      <c r="K10" s="113"/>
+      <c r="L10" s="113"/>
+      <c r="M10" s="113"/>
+      <c r="N10" s="113"/>
+      <c r="O10" s="113"/>
+      <c r="P10" s="114"/>
+      <c r="Q10" s="121" t="s">
         <v>69</v>
       </c>
-      <c r="R10" s="171"/>
-      <c r="S10" s="171"/>
-      <c r="T10" s="171"/>
-      <c r="U10" s="171"/>
-      <c r="V10" s="171"/>
-      <c r="W10" s="171"/>
-      <c r="X10" s="171"/>
-      <c r="Y10" s="171"/>
-      <c r="Z10" s="171"/>
-      <c r="AA10" s="171"/>
-      <c r="AB10" s="171"/>
-      <c r="AC10" s="171"/>
-      <c r="AD10" s="171"/>
-      <c r="AE10" s="172"/>
-      <c r="AF10" s="144" t="s">
+      <c r="R10" s="116"/>
+      <c r="S10" s="116"/>
+      <c r="T10" s="116"/>
+      <c r="U10" s="116"/>
+      <c r="V10" s="116"/>
+      <c r="W10" s="116"/>
+      <c r="X10" s="116"/>
+      <c r="Y10" s="116"/>
+      <c r="Z10" s="116"/>
+      <c r="AA10" s="116"/>
+      <c r="AB10" s="116"/>
+      <c r="AC10" s="116"/>
+      <c r="AD10" s="116"/>
+      <c r="AE10" s="117"/>
+      <c r="AF10" s="120" t="s">
         <v>49</v>
       </c>
-      <c r="AG10" s="169"/>
-      <c r="AH10" s="169"/>
-      <c r="AI10" s="170"/>
+      <c r="AG10" s="113"/>
+      <c r="AH10" s="113"/>
+      <c r="AI10" s="114"/>
     </row>
     <row r="11" spans="1:40" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="60">
         <v>4</v>
       </c>
-      <c r="B11" s="164" t="s">
+      <c r="B11" s="118" t="s">
         <v>76</v>
       </c>
-      <c r="C11" s="165"/>
-      <c r="D11" s="138">
+      <c r="C11" s="105"/>
+      <c r="D11" s="106">
         <v>44796</v>
       </c>
-      <c r="E11" s="139"/>
-      <c r="F11" s="140"/>
-      <c r="G11" s="166" t="s">
+      <c r="E11" s="107"/>
+      <c r="F11" s="108"/>
+      <c r="G11" s="119" t="s">
         <v>4</v>
       </c>
-      <c r="H11" s="167"/>
-      <c r="I11" s="168"/>
-      <c r="J11" s="144" t="s">
+      <c r="H11" s="110"/>
+      <c r="I11" s="111"/>
+      <c r="J11" s="120" t="s">
         <v>55</v>
       </c>
-      <c r="K11" s="169"/>
-      <c r="L11" s="169"/>
-      <c r="M11" s="169"/>
-      <c r="N11" s="169"/>
-      <c r="O11" s="169"/>
-      <c r="P11" s="170"/>
-      <c r="Q11" s="147" t="s">
+      <c r="K11" s="113"/>
+      <c r="L11" s="113"/>
+      <c r="M11" s="113"/>
+      <c r="N11" s="113"/>
+      <c r="O11" s="113"/>
+      <c r="P11" s="114"/>
+      <c r="Q11" s="121" t="s">
         <v>78</v>
       </c>
-      <c r="R11" s="171"/>
-      <c r="S11" s="171"/>
-      <c r="T11" s="171"/>
-      <c r="U11" s="171"/>
-      <c r="V11" s="171"/>
-      <c r="W11" s="171"/>
-      <c r="X11" s="171"/>
-      <c r="Y11" s="171"/>
-      <c r="Z11" s="171"/>
-      <c r="AA11" s="171"/>
-      <c r="AB11" s="171"/>
-      <c r="AC11" s="171"/>
-      <c r="AD11" s="171"/>
-      <c r="AE11" s="172"/>
-      <c r="AF11" s="144" t="s">
+      <c r="R11" s="116"/>
+      <c r="S11" s="116"/>
+      <c r="T11" s="116"/>
+      <c r="U11" s="116"/>
+      <c r="V11" s="116"/>
+      <c r="W11" s="116"/>
+      <c r="X11" s="116"/>
+      <c r="Y11" s="116"/>
+      <c r="Z11" s="116"/>
+      <c r="AA11" s="116"/>
+      <c r="AB11" s="116"/>
+      <c r="AC11" s="116"/>
+      <c r="AD11" s="116"/>
+      <c r="AE11" s="117"/>
+      <c r="AF11" s="120" t="s">
         <v>49</v>
       </c>
-      <c r="AG11" s="169"/>
-      <c r="AH11" s="169"/>
-      <c r="AI11" s="170"/>
+      <c r="AG11" s="113"/>
+      <c r="AH11" s="113"/>
+      <c r="AI11" s="114"/>
     </row>
     <row r="12" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="60"/>
-      <c r="B12" s="173"/>
-      <c r="C12" s="165"/>
-      <c r="D12" s="138"/>
-      <c r="E12" s="139"/>
-      <c r="F12" s="140"/>
-      <c r="G12" s="174"/>
-      <c r="H12" s="167"/>
-      <c r="I12" s="168"/>
-      <c r="J12" s="175"/>
-      <c r="K12" s="169"/>
-      <c r="L12" s="169"/>
-      <c r="M12" s="169"/>
-      <c r="N12" s="169"/>
-      <c r="O12" s="169"/>
-      <c r="P12" s="170"/>
-      <c r="Q12" s="176"/>
-      <c r="R12" s="171"/>
-      <c r="S12" s="171"/>
-      <c r="T12" s="171"/>
-      <c r="U12" s="171"/>
-      <c r="V12" s="171"/>
-      <c r="W12" s="171"/>
-      <c r="X12" s="171"/>
-      <c r="Y12" s="171"/>
-      <c r="Z12" s="171"/>
-      <c r="AA12" s="171"/>
-      <c r="AB12" s="171"/>
-      <c r="AC12" s="171"/>
-      <c r="AD12" s="171"/>
-      <c r="AE12" s="172"/>
-      <c r="AF12" s="175"/>
-      <c r="AG12" s="169"/>
-      <c r="AH12" s="169"/>
-      <c r="AI12" s="170"/>
+      <c r="B12" s="104"/>
+      <c r="C12" s="105"/>
+      <c r="D12" s="106"/>
+      <c r="E12" s="107"/>
+      <c r="F12" s="108"/>
+      <c r="G12" s="109"/>
+      <c r="H12" s="110"/>
+      <c r="I12" s="111"/>
+      <c r="J12" s="112"/>
+      <c r="K12" s="113"/>
+      <c r="L12" s="113"/>
+      <c r="M12" s="113"/>
+      <c r="N12" s="113"/>
+      <c r="O12" s="113"/>
+      <c r="P12" s="114"/>
+      <c r="Q12" s="115"/>
+      <c r="R12" s="116"/>
+      <c r="S12" s="116"/>
+      <c r="T12" s="116"/>
+      <c r="U12" s="116"/>
+      <c r="V12" s="116"/>
+      <c r="W12" s="116"/>
+      <c r="X12" s="116"/>
+      <c r="Y12" s="116"/>
+      <c r="Z12" s="116"/>
+      <c r="AA12" s="116"/>
+      <c r="AB12" s="116"/>
+      <c r="AC12" s="116"/>
+      <c r="AD12" s="116"/>
+      <c r="AE12" s="117"/>
+      <c r="AF12" s="112"/>
+      <c r="AG12" s="113"/>
+      <c r="AH12" s="113"/>
+      <c r="AI12" s="114"/>
     </row>
     <row r="13" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="60"/>
-      <c r="B13" s="173"/>
-      <c r="C13" s="165"/>
-      <c r="D13" s="138"/>
-      <c r="E13" s="139"/>
-      <c r="F13" s="140"/>
-      <c r="G13" s="174"/>
-      <c r="H13" s="167"/>
-      <c r="I13" s="168"/>
-      <c r="J13" s="175"/>
-      <c r="K13" s="169"/>
-      <c r="L13" s="169"/>
-      <c r="M13" s="169"/>
-      <c r="N13" s="169"/>
-      <c r="O13" s="169"/>
-      <c r="P13" s="170"/>
-      <c r="Q13" s="176"/>
-      <c r="R13" s="171"/>
-      <c r="S13" s="171"/>
-      <c r="T13" s="171"/>
-      <c r="U13" s="171"/>
-      <c r="V13" s="171"/>
-      <c r="W13" s="171"/>
-      <c r="X13" s="171"/>
-      <c r="Y13" s="171"/>
-      <c r="Z13" s="171"/>
-      <c r="AA13" s="171"/>
-      <c r="AB13" s="171"/>
-      <c r="AC13" s="171"/>
-      <c r="AD13" s="171"/>
-      <c r="AE13" s="172"/>
-      <c r="AF13" s="175"/>
-      <c r="AG13" s="169"/>
-      <c r="AH13" s="169"/>
-      <c r="AI13" s="170"/>
+      <c r="B13" s="104"/>
+      <c r="C13" s="105"/>
+      <c r="D13" s="106"/>
+      <c r="E13" s="107"/>
+      <c r="F13" s="108"/>
+      <c r="G13" s="109"/>
+      <c r="H13" s="110"/>
+      <c r="I13" s="111"/>
+      <c r="J13" s="112"/>
+      <c r="K13" s="113"/>
+      <c r="L13" s="113"/>
+      <c r="M13" s="113"/>
+      <c r="N13" s="113"/>
+      <c r="O13" s="113"/>
+      <c r="P13" s="114"/>
+      <c r="Q13" s="115"/>
+      <c r="R13" s="116"/>
+      <c r="S13" s="116"/>
+      <c r="T13" s="116"/>
+      <c r="U13" s="116"/>
+      <c r="V13" s="116"/>
+      <c r="W13" s="116"/>
+      <c r="X13" s="116"/>
+      <c r="Y13" s="116"/>
+      <c r="Z13" s="116"/>
+      <c r="AA13" s="116"/>
+      <c r="AB13" s="116"/>
+      <c r="AC13" s="116"/>
+      <c r="AD13" s="116"/>
+      <c r="AE13" s="117"/>
+      <c r="AF13" s="112"/>
+      <c r="AG13" s="113"/>
+      <c r="AH13" s="113"/>
+      <c r="AI13" s="114"/>
     </row>
     <row r="14" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="60"/>
-      <c r="B14" s="173"/>
-      <c r="C14" s="165"/>
-      <c r="D14" s="138"/>
-      <c r="E14" s="139"/>
-      <c r="F14" s="140"/>
-      <c r="G14" s="174"/>
-      <c r="H14" s="167"/>
-      <c r="I14" s="168"/>
-      <c r="J14" s="175"/>
-      <c r="K14" s="169"/>
-      <c r="L14" s="169"/>
-      <c r="M14" s="169"/>
-      <c r="N14" s="169"/>
-      <c r="O14" s="169"/>
-      <c r="P14" s="170"/>
-      <c r="Q14" s="176"/>
-      <c r="R14" s="171"/>
-      <c r="S14" s="171"/>
-      <c r="T14" s="171"/>
-      <c r="U14" s="171"/>
-      <c r="V14" s="171"/>
-      <c r="W14" s="171"/>
-      <c r="X14" s="171"/>
-      <c r="Y14" s="171"/>
-      <c r="Z14" s="171"/>
-      <c r="AA14" s="171"/>
-      <c r="AB14" s="171"/>
-      <c r="AC14" s="171"/>
-      <c r="AD14" s="171"/>
-      <c r="AE14" s="172"/>
-      <c r="AF14" s="175"/>
-      <c r="AG14" s="169"/>
-      <c r="AH14" s="169"/>
-      <c r="AI14" s="170"/>
+      <c r="B14" s="104"/>
+      <c r="C14" s="105"/>
+      <c r="D14" s="106"/>
+      <c r="E14" s="107"/>
+      <c r="F14" s="108"/>
+      <c r="G14" s="109"/>
+      <c r="H14" s="110"/>
+      <c r="I14" s="111"/>
+      <c r="J14" s="112"/>
+      <c r="K14" s="113"/>
+      <c r="L14" s="113"/>
+      <c r="M14" s="113"/>
+      <c r="N14" s="113"/>
+      <c r="O14" s="113"/>
+      <c r="P14" s="114"/>
+      <c r="Q14" s="115"/>
+      <c r="R14" s="116"/>
+      <c r="S14" s="116"/>
+      <c r="T14" s="116"/>
+      <c r="U14" s="116"/>
+      <c r="V14" s="116"/>
+      <c r="W14" s="116"/>
+      <c r="X14" s="116"/>
+      <c r="Y14" s="116"/>
+      <c r="Z14" s="116"/>
+      <c r="AA14" s="116"/>
+      <c r="AB14" s="116"/>
+      <c r="AC14" s="116"/>
+      <c r="AD14" s="116"/>
+      <c r="AE14" s="117"/>
+      <c r="AF14" s="112"/>
+      <c r="AG14" s="113"/>
+      <c r="AH14" s="113"/>
+      <c r="AI14" s="114"/>
     </row>
     <row r="15" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="60"/>
-      <c r="B15" s="173"/>
-      <c r="C15" s="165"/>
-      <c r="D15" s="138"/>
-      <c r="E15" s="139"/>
-      <c r="F15" s="140"/>
-      <c r="G15" s="174"/>
-      <c r="H15" s="167"/>
-      <c r="I15" s="168"/>
-      <c r="J15" s="175"/>
-      <c r="K15" s="169"/>
-      <c r="L15" s="169"/>
-      <c r="M15" s="169"/>
-      <c r="N15" s="169"/>
-      <c r="O15" s="169"/>
-      <c r="P15" s="170"/>
-      <c r="Q15" s="176"/>
-      <c r="R15" s="171"/>
-      <c r="S15" s="171"/>
-      <c r="T15" s="171"/>
-      <c r="U15" s="171"/>
-      <c r="V15" s="171"/>
-      <c r="W15" s="171"/>
-      <c r="X15" s="171"/>
-      <c r="Y15" s="171"/>
-      <c r="Z15" s="171"/>
-      <c r="AA15" s="171"/>
-      <c r="AB15" s="171"/>
-      <c r="AC15" s="171"/>
-      <c r="AD15" s="171"/>
-      <c r="AE15" s="172"/>
-      <c r="AF15" s="175"/>
-      <c r="AG15" s="169"/>
-      <c r="AH15" s="169"/>
-      <c r="AI15" s="170"/>
+      <c r="B15" s="104"/>
+      <c r="C15" s="105"/>
+      <c r="D15" s="106"/>
+      <c r="E15" s="107"/>
+      <c r="F15" s="108"/>
+      <c r="G15" s="109"/>
+      <c r="H15" s="110"/>
+      <c r="I15" s="111"/>
+      <c r="J15" s="112"/>
+      <c r="K15" s="113"/>
+      <c r="L15" s="113"/>
+      <c r="M15" s="113"/>
+      <c r="N15" s="113"/>
+      <c r="O15" s="113"/>
+      <c r="P15" s="114"/>
+      <c r="Q15" s="115"/>
+      <c r="R15" s="116"/>
+      <c r="S15" s="116"/>
+      <c r="T15" s="116"/>
+      <c r="U15" s="116"/>
+      <c r="V15" s="116"/>
+      <c r="W15" s="116"/>
+      <c r="X15" s="116"/>
+      <c r="Y15" s="116"/>
+      <c r="Z15" s="116"/>
+      <c r="AA15" s="116"/>
+      <c r="AB15" s="116"/>
+      <c r="AC15" s="116"/>
+      <c r="AD15" s="116"/>
+      <c r="AE15" s="117"/>
+      <c r="AF15" s="112"/>
+      <c r="AG15" s="113"/>
+      <c r="AH15" s="113"/>
+      <c r="AI15" s="114"/>
     </row>
     <row r="16" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="60"/>
-      <c r="B16" s="173"/>
-      <c r="C16" s="165"/>
-      <c r="D16" s="138"/>
-      <c r="E16" s="139"/>
-      <c r="F16" s="140"/>
-      <c r="G16" s="174"/>
-      <c r="H16" s="167"/>
-      <c r="I16" s="168"/>
-      <c r="J16" s="175"/>
-      <c r="K16" s="169"/>
-      <c r="L16" s="169"/>
-      <c r="M16" s="169"/>
-      <c r="N16" s="169"/>
-      <c r="O16" s="169"/>
-      <c r="P16" s="170"/>
-      <c r="Q16" s="176"/>
-      <c r="R16" s="171"/>
-      <c r="S16" s="171"/>
-      <c r="T16" s="171"/>
-      <c r="U16" s="171"/>
-      <c r="V16" s="171"/>
-      <c r="W16" s="171"/>
-      <c r="X16" s="171"/>
-      <c r="Y16" s="171"/>
-      <c r="Z16" s="171"/>
-      <c r="AA16" s="171"/>
-      <c r="AB16" s="171"/>
-      <c r="AC16" s="171"/>
-      <c r="AD16" s="171"/>
-      <c r="AE16" s="172"/>
-      <c r="AF16" s="175"/>
-      <c r="AG16" s="169"/>
-      <c r="AH16" s="169"/>
-      <c r="AI16" s="170"/>
+      <c r="B16" s="104"/>
+      <c r="C16" s="105"/>
+      <c r="D16" s="106"/>
+      <c r="E16" s="107"/>
+      <c r="F16" s="108"/>
+      <c r="G16" s="109"/>
+      <c r="H16" s="110"/>
+      <c r="I16" s="111"/>
+      <c r="J16" s="112"/>
+      <c r="K16" s="113"/>
+      <c r="L16" s="113"/>
+      <c r="M16" s="113"/>
+      <c r="N16" s="113"/>
+      <c r="O16" s="113"/>
+      <c r="P16" s="114"/>
+      <c r="Q16" s="115"/>
+      <c r="R16" s="116"/>
+      <c r="S16" s="116"/>
+      <c r="T16" s="116"/>
+      <c r="U16" s="116"/>
+      <c r="V16" s="116"/>
+      <c r="W16" s="116"/>
+      <c r="X16" s="116"/>
+      <c r="Y16" s="116"/>
+      <c r="Z16" s="116"/>
+      <c r="AA16" s="116"/>
+      <c r="AB16" s="116"/>
+      <c r="AC16" s="116"/>
+      <c r="AD16" s="116"/>
+      <c r="AE16" s="117"/>
+      <c r="AF16" s="112"/>
+      <c r="AG16" s="113"/>
+      <c r="AH16" s="113"/>
+      <c r="AI16" s="114"/>
     </row>
     <row r="17" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="60"/>
-      <c r="B17" s="173"/>
-      <c r="C17" s="165"/>
-      <c r="D17" s="138"/>
-      <c r="E17" s="139"/>
-      <c r="F17" s="140"/>
-      <c r="G17" s="174"/>
-      <c r="H17" s="167"/>
-      <c r="I17" s="168"/>
-      <c r="J17" s="175"/>
-      <c r="K17" s="169"/>
-      <c r="L17" s="169"/>
-      <c r="M17" s="169"/>
-      <c r="N17" s="169"/>
-      <c r="O17" s="169"/>
-      <c r="P17" s="170"/>
-      <c r="Q17" s="176"/>
-      <c r="R17" s="171"/>
-      <c r="S17" s="171"/>
-      <c r="T17" s="171"/>
-      <c r="U17" s="171"/>
-      <c r="V17" s="171"/>
-      <c r="W17" s="171"/>
-      <c r="X17" s="171"/>
-      <c r="Y17" s="171"/>
-      <c r="Z17" s="171"/>
-      <c r="AA17" s="171"/>
-      <c r="AB17" s="171"/>
-      <c r="AC17" s="171"/>
-      <c r="AD17" s="171"/>
-      <c r="AE17" s="172"/>
-      <c r="AF17" s="175"/>
-      <c r="AG17" s="169"/>
-      <c r="AH17" s="169"/>
-      <c r="AI17" s="170"/>
+      <c r="B17" s="104"/>
+      <c r="C17" s="105"/>
+      <c r="D17" s="106"/>
+      <c r="E17" s="107"/>
+      <c r="F17" s="108"/>
+      <c r="G17" s="109"/>
+      <c r="H17" s="110"/>
+      <c r="I17" s="111"/>
+      <c r="J17" s="112"/>
+      <c r="K17" s="113"/>
+      <c r="L17" s="113"/>
+      <c r="M17" s="113"/>
+      <c r="N17" s="113"/>
+      <c r="O17" s="113"/>
+      <c r="P17" s="114"/>
+      <c r="Q17" s="115"/>
+      <c r="R17" s="116"/>
+      <c r="S17" s="116"/>
+      <c r="T17" s="116"/>
+      <c r="U17" s="116"/>
+      <c r="V17" s="116"/>
+      <c r="W17" s="116"/>
+      <c r="X17" s="116"/>
+      <c r="Y17" s="116"/>
+      <c r="Z17" s="116"/>
+      <c r="AA17" s="116"/>
+      <c r="AB17" s="116"/>
+      <c r="AC17" s="116"/>
+      <c r="AD17" s="116"/>
+      <c r="AE17" s="117"/>
+      <c r="AF17" s="112"/>
+      <c r="AG17" s="113"/>
+      <c r="AH17" s="113"/>
+      <c r="AI17" s="114"/>
     </row>
     <row r="18" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="60"/>
-      <c r="B18" s="173"/>
-      <c r="C18" s="165"/>
-      <c r="D18" s="138"/>
-      <c r="E18" s="139"/>
-      <c r="F18" s="140"/>
-      <c r="G18" s="174"/>
-      <c r="H18" s="167"/>
-      <c r="I18" s="168"/>
-      <c r="J18" s="175"/>
-      <c r="K18" s="169"/>
-      <c r="L18" s="169"/>
-      <c r="M18" s="169"/>
-      <c r="N18" s="169"/>
-      <c r="O18" s="169"/>
-      <c r="P18" s="170"/>
-      <c r="Q18" s="176"/>
-      <c r="R18" s="171"/>
-      <c r="S18" s="171"/>
-      <c r="T18" s="171"/>
-      <c r="U18" s="171"/>
-      <c r="V18" s="171"/>
-      <c r="W18" s="171"/>
-      <c r="X18" s="171"/>
-      <c r="Y18" s="171"/>
-      <c r="Z18" s="171"/>
-      <c r="AA18" s="171"/>
-      <c r="AB18" s="171"/>
-      <c r="AC18" s="171"/>
-      <c r="AD18" s="171"/>
-      <c r="AE18" s="172"/>
-      <c r="AF18" s="175"/>
-      <c r="AG18" s="169"/>
-      <c r="AH18" s="169"/>
-      <c r="AI18" s="170"/>
+      <c r="B18" s="104"/>
+      <c r="C18" s="105"/>
+      <c r="D18" s="106"/>
+      <c r="E18" s="107"/>
+      <c r="F18" s="108"/>
+      <c r="G18" s="109"/>
+      <c r="H18" s="110"/>
+      <c r="I18" s="111"/>
+      <c r="J18" s="112"/>
+      <c r="K18" s="113"/>
+      <c r="L18" s="113"/>
+      <c r="M18" s="113"/>
+      <c r="N18" s="113"/>
+      <c r="O18" s="113"/>
+      <c r="P18" s="114"/>
+      <c r="Q18" s="115"/>
+      <c r="R18" s="116"/>
+      <c r="S18" s="116"/>
+      <c r="T18" s="116"/>
+      <c r="U18" s="116"/>
+      <c r="V18" s="116"/>
+      <c r="W18" s="116"/>
+      <c r="X18" s="116"/>
+      <c r="Y18" s="116"/>
+      <c r="Z18" s="116"/>
+      <c r="AA18" s="116"/>
+      <c r="AB18" s="116"/>
+      <c r="AC18" s="116"/>
+      <c r="AD18" s="116"/>
+      <c r="AE18" s="117"/>
+      <c r="AF18" s="112"/>
+      <c r="AG18" s="113"/>
+      <c r="AH18" s="113"/>
+      <c r="AI18" s="114"/>
     </row>
     <row r="19" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="60"/>
-      <c r="B19" s="173"/>
-      <c r="C19" s="165"/>
-      <c r="D19" s="138"/>
-      <c r="E19" s="139"/>
-      <c r="F19" s="140"/>
-      <c r="G19" s="174"/>
-      <c r="H19" s="167"/>
-      <c r="I19" s="168"/>
-      <c r="J19" s="175"/>
-      <c r="K19" s="169"/>
-      <c r="L19" s="169"/>
-      <c r="M19" s="169"/>
-      <c r="N19" s="169"/>
-      <c r="O19" s="169"/>
-      <c r="P19" s="170"/>
-      <c r="Q19" s="176"/>
-      <c r="R19" s="171"/>
-      <c r="S19" s="171"/>
-      <c r="T19" s="171"/>
-      <c r="U19" s="171"/>
-      <c r="V19" s="171"/>
-      <c r="W19" s="171"/>
-      <c r="X19" s="171"/>
-      <c r="Y19" s="171"/>
-      <c r="Z19" s="171"/>
-      <c r="AA19" s="171"/>
-      <c r="AB19" s="171"/>
-      <c r="AC19" s="171"/>
-      <c r="AD19" s="171"/>
-      <c r="AE19" s="172"/>
-      <c r="AF19" s="175"/>
-      <c r="AG19" s="169"/>
-      <c r="AH19" s="169"/>
-      <c r="AI19" s="170"/>
+      <c r="B19" s="104"/>
+      <c r="C19" s="105"/>
+      <c r="D19" s="106"/>
+      <c r="E19" s="107"/>
+      <c r="F19" s="108"/>
+      <c r="G19" s="109"/>
+      <c r="H19" s="110"/>
+      <c r="I19" s="111"/>
+      <c r="J19" s="112"/>
+      <c r="K19" s="113"/>
+      <c r="L19" s="113"/>
+      <c r="M19" s="113"/>
+      <c r="N19" s="113"/>
+      <c r="O19" s="113"/>
+      <c r="P19" s="114"/>
+      <c r="Q19" s="115"/>
+      <c r="R19" s="116"/>
+      <c r="S19" s="116"/>
+      <c r="T19" s="116"/>
+      <c r="U19" s="116"/>
+      <c r="V19" s="116"/>
+      <c r="W19" s="116"/>
+      <c r="X19" s="116"/>
+      <c r="Y19" s="116"/>
+      <c r="Z19" s="116"/>
+      <c r="AA19" s="116"/>
+      <c r="AB19" s="116"/>
+      <c r="AC19" s="116"/>
+      <c r="AD19" s="116"/>
+      <c r="AE19" s="117"/>
+      <c r="AF19" s="112"/>
+      <c r="AG19" s="113"/>
+      <c r="AH19" s="113"/>
+      <c r="AI19" s="114"/>
     </row>
     <row r="20" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="60"/>
-      <c r="B20" s="173"/>
-      <c r="C20" s="165"/>
-      <c r="D20" s="138"/>
-      <c r="E20" s="139"/>
-      <c r="F20" s="140"/>
-      <c r="G20" s="174"/>
-      <c r="H20" s="167"/>
-      <c r="I20" s="168"/>
-      <c r="J20" s="175"/>
-      <c r="K20" s="169"/>
-      <c r="L20" s="169"/>
-      <c r="M20" s="169"/>
-      <c r="N20" s="169"/>
-      <c r="O20" s="169"/>
-      <c r="P20" s="170"/>
-      <c r="Q20" s="176"/>
-      <c r="R20" s="171"/>
-      <c r="S20" s="171"/>
-      <c r="T20" s="171"/>
-      <c r="U20" s="171"/>
-      <c r="V20" s="171"/>
-      <c r="W20" s="171"/>
-      <c r="X20" s="171"/>
-      <c r="Y20" s="171"/>
-      <c r="Z20" s="171"/>
-      <c r="AA20" s="171"/>
-      <c r="AB20" s="171"/>
-      <c r="AC20" s="171"/>
-      <c r="AD20" s="171"/>
-      <c r="AE20" s="172"/>
-      <c r="AF20" s="175"/>
-      <c r="AG20" s="169"/>
-      <c r="AH20" s="169"/>
-      <c r="AI20" s="170"/>
+      <c r="B20" s="104"/>
+      <c r="C20" s="105"/>
+      <c r="D20" s="106"/>
+      <c r="E20" s="107"/>
+      <c r="F20" s="108"/>
+      <c r="G20" s="109"/>
+      <c r="H20" s="110"/>
+      <c r="I20" s="111"/>
+      <c r="J20" s="112"/>
+      <c r="K20" s="113"/>
+      <c r="L20" s="113"/>
+      <c r="M20" s="113"/>
+      <c r="N20" s="113"/>
+      <c r="O20" s="113"/>
+      <c r="P20" s="114"/>
+      <c r="Q20" s="115"/>
+      <c r="R20" s="116"/>
+      <c r="S20" s="116"/>
+      <c r="T20" s="116"/>
+      <c r="U20" s="116"/>
+      <c r="V20" s="116"/>
+      <c r="W20" s="116"/>
+      <c r="X20" s="116"/>
+      <c r="Y20" s="116"/>
+      <c r="Z20" s="116"/>
+      <c r="AA20" s="116"/>
+      <c r="AB20" s="116"/>
+      <c r="AC20" s="116"/>
+      <c r="AD20" s="116"/>
+      <c r="AE20" s="117"/>
+      <c r="AF20" s="112"/>
+      <c r="AG20" s="113"/>
+      <c r="AH20" s="113"/>
+      <c r="AI20" s="114"/>
     </row>
     <row r="21" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="60"/>
-      <c r="B21" s="173"/>
-      <c r="C21" s="165"/>
-      <c r="D21" s="138"/>
-      <c r="E21" s="139"/>
-      <c r="F21" s="140"/>
-      <c r="G21" s="174"/>
-      <c r="H21" s="167"/>
-      <c r="I21" s="168"/>
-      <c r="J21" s="175"/>
-      <c r="K21" s="169"/>
-      <c r="L21" s="169"/>
-      <c r="M21" s="169"/>
-      <c r="N21" s="169"/>
-      <c r="O21" s="169"/>
-      <c r="P21" s="170"/>
-      <c r="Q21" s="176"/>
-      <c r="R21" s="171"/>
-      <c r="S21" s="171"/>
-      <c r="T21" s="171"/>
-      <c r="U21" s="171"/>
-      <c r="V21" s="171"/>
-      <c r="W21" s="171"/>
-      <c r="X21" s="171"/>
-      <c r="Y21" s="171"/>
-      <c r="Z21" s="171"/>
-      <c r="AA21" s="171"/>
-      <c r="AB21" s="171"/>
-      <c r="AC21" s="171"/>
-      <c r="AD21" s="171"/>
-      <c r="AE21" s="172"/>
-      <c r="AF21" s="175"/>
-      <c r="AG21" s="169"/>
-      <c r="AH21" s="169"/>
-      <c r="AI21" s="170"/>
+      <c r="B21" s="104"/>
+      <c r="C21" s="105"/>
+      <c r="D21" s="106"/>
+      <c r="E21" s="107"/>
+      <c r="F21" s="108"/>
+      <c r="G21" s="109"/>
+      <c r="H21" s="110"/>
+      <c r="I21" s="111"/>
+      <c r="J21" s="112"/>
+      <c r="K21" s="113"/>
+      <c r="L21" s="113"/>
+      <c r="M21" s="113"/>
+      <c r="N21" s="113"/>
+      <c r="O21" s="113"/>
+      <c r="P21" s="114"/>
+      <c r="Q21" s="115"/>
+      <c r="R21" s="116"/>
+      <c r="S21" s="116"/>
+      <c r="T21" s="116"/>
+      <c r="U21" s="116"/>
+      <c r="V21" s="116"/>
+      <c r="W21" s="116"/>
+      <c r="X21" s="116"/>
+      <c r="Y21" s="116"/>
+      <c r="Z21" s="116"/>
+      <c r="AA21" s="116"/>
+      <c r="AB21" s="116"/>
+      <c r="AC21" s="116"/>
+      <c r="AD21" s="116"/>
+      <c r="AE21" s="117"/>
+      <c r="AF21" s="112"/>
+      <c r="AG21" s="113"/>
+      <c r="AH21" s="113"/>
+      <c r="AI21" s="114"/>
     </row>
     <row r="22" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="60"/>
-      <c r="B22" s="173"/>
-      <c r="C22" s="165"/>
-      <c r="D22" s="138"/>
-      <c r="E22" s="139"/>
-      <c r="F22" s="140"/>
-      <c r="G22" s="174"/>
-      <c r="H22" s="167"/>
-      <c r="I22" s="168"/>
-      <c r="J22" s="175"/>
-      <c r="K22" s="169"/>
-      <c r="L22" s="169"/>
-      <c r="M22" s="169"/>
-      <c r="N22" s="169"/>
-      <c r="O22" s="169"/>
-      <c r="P22" s="170"/>
-      <c r="Q22" s="176"/>
-      <c r="R22" s="171"/>
-      <c r="S22" s="171"/>
-      <c r="T22" s="171"/>
-      <c r="U22" s="171"/>
-      <c r="V22" s="171"/>
-      <c r="W22" s="171"/>
-      <c r="X22" s="171"/>
-      <c r="Y22" s="171"/>
-      <c r="Z22" s="171"/>
-      <c r="AA22" s="171"/>
-      <c r="AB22" s="171"/>
-      <c r="AC22" s="171"/>
-      <c r="AD22" s="171"/>
-      <c r="AE22" s="172"/>
-      <c r="AF22" s="175"/>
-      <c r="AG22" s="169"/>
-      <c r="AH22" s="169"/>
-      <c r="AI22" s="170"/>
+      <c r="B22" s="104"/>
+      <c r="C22" s="105"/>
+      <c r="D22" s="106"/>
+      <c r="E22" s="107"/>
+      <c r="F22" s="108"/>
+      <c r="G22" s="109"/>
+      <c r="H22" s="110"/>
+      <c r="I22" s="111"/>
+      <c r="J22" s="112"/>
+      <c r="K22" s="113"/>
+      <c r="L22" s="113"/>
+      <c r="M22" s="113"/>
+      <c r="N22" s="113"/>
+      <c r="O22" s="113"/>
+      <c r="P22" s="114"/>
+      <c r="Q22" s="115"/>
+      <c r="R22" s="116"/>
+      <c r="S22" s="116"/>
+      <c r="T22" s="116"/>
+      <c r="U22" s="116"/>
+      <c r="V22" s="116"/>
+      <c r="W22" s="116"/>
+      <c r="X22" s="116"/>
+      <c r="Y22" s="116"/>
+      <c r="Z22" s="116"/>
+      <c r="AA22" s="116"/>
+      <c r="AB22" s="116"/>
+      <c r="AC22" s="116"/>
+      <c r="AD22" s="116"/>
+      <c r="AE22" s="117"/>
+      <c r="AF22" s="112"/>
+      <c r="AG22" s="113"/>
+      <c r="AH22" s="113"/>
+      <c r="AI22" s="114"/>
     </row>
     <row r="23" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="60"/>
-      <c r="B23" s="173"/>
-      <c r="C23" s="165"/>
-      <c r="D23" s="138"/>
-      <c r="E23" s="139"/>
-      <c r="F23" s="140"/>
-      <c r="G23" s="174"/>
-      <c r="H23" s="167"/>
-      <c r="I23" s="168"/>
-      <c r="J23" s="175"/>
-      <c r="K23" s="169"/>
-      <c r="L23" s="169"/>
-      <c r="M23" s="169"/>
-      <c r="N23" s="169"/>
-      <c r="O23" s="169"/>
-      <c r="P23" s="170"/>
-      <c r="Q23" s="176"/>
-      <c r="R23" s="171"/>
-      <c r="S23" s="171"/>
-      <c r="T23" s="171"/>
-      <c r="U23" s="171"/>
-      <c r="V23" s="171"/>
-      <c r="W23" s="171"/>
-      <c r="X23" s="171"/>
-      <c r="Y23" s="171"/>
-      <c r="Z23" s="171"/>
-      <c r="AA23" s="171"/>
-      <c r="AB23" s="171"/>
-      <c r="AC23" s="171"/>
-      <c r="AD23" s="171"/>
-      <c r="AE23" s="172"/>
-      <c r="AF23" s="175"/>
-      <c r="AG23" s="169"/>
-      <c r="AH23" s="169"/>
-      <c r="AI23" s="170"/>
+      <c r="B23" s="104"/>
+      <c r="C23" s="105"/>
+      <c r="D23" s="106"/>
+      <c r="E23" s="107"/>
+      <c r="F23" s="108"/>
+      <c r="G23" s="109"/>
+      <c r="H23" s="110"/>
+      <c r="I23" s="111"/>
+      <c r="J23" s="112"/>
+      <c r="K23" s="113"/>
+      <c r="L23" s="113"/>
+      <c r="M23" s="113"/>
+      <c r="N23" s="113"/>
+      <c r="O23" s="113"/>
+      <c r="P23" s="114"/>
+      <c r="Q23" s="115"/>
+      <c r="R23" s="116"/>
+      <c r="S23" s="116"/>
+      <c r="T23" s="116"/>
+      <c r="U23" s="116"/>
+      <c r="V23" s="116"/>
+      <c r="W23" s="116"/>
+      <c r="X23" s="116"/>
+      <c r="Y23" s="116"/>
+      <c r="Z23" s="116"/>
+      <c r="AA23" s="116"/>
+      <c r="AB23" s="116"/>
+      <c r="AC23" s="116"/>
+      <c r="AD23" s="116"/>
+      <c r="AE23" s="117"/>
+      <c r="AF23" s="112"/>
+      <c r="AG23" s="113"/>
+      <c r="AH23" s="113"/>
+      <c r="AI23" s="114"/>
     </row>
     <row r="24" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="60"/>
-      <c r="B24" s="173"/>
-      <c r="C24" s="165"/>
-      <c r="D24" s="138"/>
-      <c r="E24" s="139"/>
-      <c r="F24" s="140"/>
-      <c r="G24" s="174"/>
-      <c r="H24" s="167"/>
-      <c r="I24" s="168"/>
-      <c r="J24" s="175"/>
-      <c r="K24" s="169"/>
-      <c r="L24" s="169"/>
-      <c r="M24" s="169"/>
-      <c r="N24" s="169"/>
-      <c r="O24" s="169"/>
-      <c r="P24" s="170"/>
-      <c r="Q24" s="176"/>
-      <c r="R24" s="171"/>
-      <c r="S24" s="171"/>
-      <c r="T24" s="171"/>
-      <c r="U24" s="171"/>
-      <c r="V24" s="171"/>
-      <c r="W24" s="171"/>
-      <c r="X24" s="171"/>
-      <c r="Y24" s="171"/>
-      <c r="Z24" s="171"/>
-      <c r="AA24" s="171"/>
-      <c r="AB24" s="171"/>
-      <c r="AC24" s="171"/>
-      <c r="AD24" s="171"/>
-      <c r="AE24" s="172"/>
-      <c r="AF24" s="175"/>
-      <c r="AG24" s="169"/>
-      <c r="AH24" s="169"/>
-      <c r="AI24" s="170"/>
+      <c r="B24" s="104"/>
+      <c r="C24" s="105"/>
+      <c r="D24" s="106"/>
+      <c r="E24" s="107"/>
+      <c r="F24" s="108"/>
+      <c r="G24" s="109"/>
+      <c r="H24" s="110"/>
+      <c r="I24" s="111"/>
+      <c r="J24" s="112"/>
+      <c r="K24" s="113"/>
+      <c r="L24" s="113"/>
+      <c r="M24" s="113"/>
+      <c r="N24" s="113"/>
+      <c r="O24" s="113"/>
+      <c r="P24" s="114"/>
+      <c r="Q24" s="115"/>
+      <c r="R24" s="116"/>
+      <c r="S24" s="116"/>
+      <c r="T24" s="116"/>
+      <c r="U24" s="116"/>
+      <c r="V24" s="116"/>
+      <c r="W24" s="116"/>
+      <c r="X24" s="116"/>
+      <c r="Y24" s="116"/>
+      <c r="Z24" s="116"/>
+      <c r="AA24" s="116"/>
+      <c r="AB24" s="116"/>
+      <c r="AC24" s="116"/>
+      <c r="AD24" s="116"/>
+      <c r="AE24" s="117"/>
+      <c r="AF24" s="112"/>
+      <c r="AG24" s="113"/>
+      <c r="AH24" s="113"/>
+      <c r="AI24" s="114"/>
     </row>
     <row r="25" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="60"/>
-      <c r="B25" s="173"/>
-      <c r="C25" s="165"/>
-      <c r="D25" s="138"/>
-      <c r="E25" s="139"/>
-      <c r="F25" s="140"/>
-      <c r="G25" s="174"/>
-      <c r="H25" s="167"/>
-      <c r="I25" s="168"/>
-      <c r="J25" s="175"/>
-      <c r="K25" s="169"/>
-      <c r="L25" s="169"/>
-      <c r="M25" s="169"/>
-      <c r="N25" s="169"/>
-      <c r="O25" s="169"/>
-      <c r="P25" s="170"/>
-      <c r="Q25" s="176"/>
-      <c r="R25" s="171"/>
-      <c r="S25" s="171"/>
-      <c r="T25" s="171"/>
-      <c r="U25" s="171"/>
-      <c r="V25" s="171"/>
-      <c r="W25" s="171"/>
-      <c r="X25" s="171"/>
-      <c r="Y25" s="171"/>
-      <c r="Z25" s="171"/>
-      <c r="AA25" s="171"/>
-      <c r="AB25" s="171"/>
-      <c r="AC25" s="171"/>
-      <c r="AD25" s="171"/>
-      <c r="AE25" s="172"/>
-      <c r="AF25" s="175"/>
-      <c r="AG25" s="169"/>
-      <c r="AH25" s="169"/>
-      <c r="AI25" s="170"/>
+      <c r="B25" s="104"/>
+      <c r="C25" s="105"/>
+      <c r="D25" s="106"/>
+      <c r="E25" s="107"/>
+      <c r="F25" s="108"/>
+      <c r="G25" s="109"/>
+      <c r="H25" s="110"/>
+      <c r="I25" s="111"/>
+      <c r="J25" s="112"/>
+      <c r="K25" s="113"/>
+      <c r="L25" s="113"/>
+      <c r="M25" s="113"/>
+      <c r="N25" s="113"/>
+      <c r="O25" s="113"/>
+      <c r="P25" s="114"/>
+      <c r="Q25" s="115"/>
+      <c r="R25" s="116"/>
+      <c r="S25" s="116"/>
+      <c r="T25" s="116"/>
+      <c r="U25" s="116"/>
+      <c r="V25" s="116"/>
+      <c r="W25" s="116"/>
+      <c r="X25" s="116"/>
+      <c r="Y25" s="116"/>
+      <c r="Z25" s="116"/>
+      <c r="AA25" s="116"/>
+      <c r="AB25" s="116"/>
+      <c r="AC25" s="116"/>
+      <c r="AD25" s="116"/>
+      <c r="AE25" s="117"/>
+      <c r="AF25" s="112"/>
+      <c r="AG25" s="113"/>
+      <c r="AH25" s="113"/>
+      <c r="AI25" s="114"/>
     </row>
     <row r="26" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="60"/>
-      <c r="B26" s="173"/>
-      <c r="C26" s="165"/>
-      <c r="D26" s="138"/>
-      <c r="E26" s="139"/>
-      <c r="F26" s="140"/>
-      <c r="G26" s="174"/>
-      <c r="H26" s="167"/>
-      <c r="I26" s="168"/>
-      <c r="J26" s="175"/>
-      <c r="K26" s="169"/>
-      <c r="L26" s="169"/>
-      <c r="M26" s="169"/>
-      <c r="N26" s="169"/>
-      <c r="O26" s="169"/>
-      <c r="P26" s="170"/>
-      <c r="Q26" s="176"/>
-      <c r="R26" s="171"/>
-      <c r="S26" s="171"/>
-      <c r="T26" s="171"/>
-      <c r="U26" s="171"/>
-      <c r="V26" s="171"/>
-      <c r="W26" s="171"/>
-      <c r="X26" s="171"/>
-      <c r="Y26" s="171"/>
-      <c r="Z26" s="171"/>
-      <c r="AA26" s="171"/>
-      <c r="AB26" s="171"/>
-      <c r="AC26" s="171"/>
-      <c r="AD26" s="171"/>
-      <c r="AE26" s="172"/>
-      <c r="AF26" s="175"/>
-      <c r="AG26" s="169"/>
-      <c r="AH26" s="169"/>
-      <c r="AI26" s="170"/>
+      <c r="B26" s="104"/>
+      <c r="C26" s="105"/>
+      <c r="D26" s="106"/>
+      <c r="E26" s="107"/>
+      <c r="F26" s="108"/>
+      <c r="G26" s="109"/>
+      <c r="H26" s="110"/>
+      <c r="I26" s="111"/>
+      <c r="J26" s="112"/>
+      <c r="K26" s="113"/>
+      <c r="L26" s="113"/>
+      <c r="M26" s="113"/>
+      <c r="N26" s="113"/>
+      <c r="O26" s="113"/>
+      <c r="P26" s="114"/>
+      <c r="Q26" s="115"/>
+      <c r="R26" s="116"/>
+      <c r="S26" s="116"/>
+      <c r="T26" s="116"/>
+      <c r="U26" s="116"/>
+      <c r="V26" s="116"/>
+      <c r="W26" s="116"/>
+      <c r="X26" s="116"/>
+      <c r="Y26" s="116"/>
+      <c r="Z26" s="116"/>
+      <c r="AA26" s="116"/>
+      <c r="AB26" s="116"/>
+      <c r="AC26" s="116"/>
+      <c r="AD26" s="116"/>
+      <c r="AE26" s="117"/>
+      <c r="AF26" s="112"/>
+      <c r="AG26" s="113"/>
+      <c r="AH26" s="113"/>
+      <c r="AI26" s="114"/>
     </row>
     <row r="27" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="60"/>
-      <c r="B27" s="173"/>
-      <c r="C27" s="165"/>
-      <c r="D27" s="138"/>
-      <c r="E27" s="139"/>
-      <c r="F27" s="140"/>
-      <c r="G27" s="174"/>
-      <c r="H27" s="167"/>
-      <c r="I27" s="168"/>
-      <c r="J27" s="175"/>
-      <c r="K27" s="169"/>
-      <c r="L27" s="169"/>
-      <c r="M27" s="169"/>
-      <c r="N27" s="169"/>
-      <c r="O27" s="169"/>
-      <c r="P27" s="170"/>
-      <c r="Q27" s="176"/>
-      <c r="R27" s="171"/>
-      <c r="S27" s="171"/>
-      <c r="T27" s="171"/>
-      <c r="U27" s="171"/>
-      <c r="V27" s="171"/>
-      <c r="W27" s="171"/>
-      <c r="X27" s="171"/>
-      <c r="Y27" s="171"/>
-      <c r="Z27" s="171"/>
-      <c r="AA27" s="171"/>
-      <c r="AB27" s="171"/>
-      <c r="AC27" s="171"/>
-      <c r="AD27" s="171"/>
-      <c r="AE27" s="172"/>
-      <c r="AF27" s="175"/>
-      <c r="AG27" s="169"/>
-      <c r="AH27" s="169"/>
-      <c r="AI27" s="170"/>
+      <c r="B27" s="104"/>
+      <c r="C27" s="105"/>
+      <c r="D27" s="106"/>
+      <c r="E27" s="107"/>
+      <c r="F27" s="108"/>
+      <c r="G27" s="109"/>
+      <c r="H27" s="110"/>
+      <c r="I27" s="111"/>
+      <c r="J27" s="112"/>
+      <c r="K27" s="113"/>
+      <c r="L27" s="113"/>
+      <c r="M27" s="113"/>
+      <c r="N27" s="113"/>
+      <c r="O27" s="113"/>
+      <c r="P27" s="114"/>
+      <c r="Q27" s="115"/>
+      <c r="R27" s="116"/>
+      <c r="S27" s="116"/>
+      <c r="T27" s="116"/>
+      <c r="U27" s="116"/>
+      <c r="V27" s="116"/>
+      <c r="W27" s="116"/>
+      <c r="X27" s="116"/>
+      <c r="Y27" s="116"/>
+      <c r="Z27" s="116"/>
+      <c r="AA27" s="116"/>
+      <c r="AB27" s="116"/>
+      <c r="AC27" s="116"/>
+      <c r="AD27" s="116"/>
+      <c r="AE27" s="117"/>
+      <c r="AF27" s="112"/>
+      <c r="AG27" s="113"/>
+      <c r="AH27" s="113"/>
+      <c r="AI27" s="114"/>
     </row>
     <row r="28" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="60"/>
-      <c r="B28" s="173"/>
-      <c r="C28" s="165"/>
-      <c r="D28" s="138"/>
-      <c r="E28" s="139"/>
-      <c r="F28" s="140"/>
-      <c r="G28" s="174"/>
-      <c r="H28" s="167"/>
-      <c r="I28" s="168"/>
-      <c r="J28" s="175"/>
-      <c r="K28" s="169"/>
-      <c r="L28" s="169"/>
-      <c r="M28" s="169"/>
-      <c r="N28" s="169"/>
-      <c r="O28" s="169"/>
-      <c r="P28" s="170"/>
-      <c r="Q28" s="176"/>
-      <c r="R28" s="171"/>
-      <c r="S28" s="171"/>
-      <c r="T28" s="171"/>
-      <c r="U28" s="171"/>
-      <c r="V28" s="171"/>
-      <c r="W28" s="171"/>
-      <c r="X28" s="171"/>
-      <c r="Y28" s="171"/>
-      <c r="Z28" s="171"/>
-      <c r="AA28" s="171"/>
-      <c r="AB28" s="171"/>
-      <c r="AC28" s="171"/>
-      <c r="AD28" s="171"/>
-      <c r="AE28" s="172"/>
-      <c r="AF28" s="175"/>
-      <c r="AG28" s="169"/>
-      <c r="AH28" s="169"/>
-      <c r="AI28" s="170"/>
+      <c r="B28" s="104"/>
+      <c r="C28" s="105"/>
+      <c r="D28" s="106"/>
+      <c r="E28" s="107"/>
+      <c r="F28" s="108"/>
+      <c r="G28" s="109"/>
+      <c r="H28" s="110"/>
+      <c r="I28" s="111"/>
+      <c r="J28" s="112"/>
+      <c r="K28" s="113"/>
+      <c r="L28" s="113"/>
+      <c r="M28" s="113"/>
+      <c r="N28" s="113"/>
+      <c r="O28" s="113"/>
+      <c r="P28" s="114"/>
+      <c r="Q28" s="115"/>
+      <c r="R28" s="116"/>
+      <c r="S28" s="116"/>
+      <c r="T28" s="116"/>
+      <c r="U28" s="116"/>
+      <c r="V28" s="116"/>
+      <c r="W28" s="116"/>
+      <c r="X28" s="116"/>
+      <c r="Y28" s="116"/>
+      <c r="Z28" s="116"/>
+      <c r="AA28" s="116"/>
+      <c r="AB28" s="116"/>
+      <c r="AC28" s="116"/>
+      <c r="AD28" s="116"/>
+      <c r="AE28" s="117"/>
+      <c r="AF28" s="112"/>
+      <c r="AG28" s="113"/>
+      <c r="AH28" s="113"/>
+      <c r="AI28" s="114"/>
     </row>
     <row r="29" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="60"/>
-      <c r="B29" s="173"/>
-      <c r="C29" s="165"/>
-      <c r="D29" s="138"/>
-      <c r="E29" s="139"/>
-      <c r="F29" s="140"/>
-      <c r="G29" s="174"/>
-      <c r="H29" s="167"/>
-      <c r="I29" s="168"/>
-      <c r="J29" s="175"/>
-      <c r="K29" s="169"/>
-      <c r="L29" s="169"/>
-      <c r="M29" s="169"/>
-      <c r="N29" s="169"/>
-      <c r="O29" s="169"/>
-      <c r="P29" s="170"/>
-      <c r="Q29" s="176"/>
-      <c r="R29" s="171"/>
-      <c r="S29" s="171"/>
-      <c r="T29" s="171"/>
-      <c r="U29" s="171"/>
-      <c r="V29" s="171"/>
-      <c r="W29" s="171"/>
-      <c r="X29" s="171"/>
-      <c r="Y29" s="171"/>
-      <c r="Z29" s="171"/>
-      <c r="AA29" s="171"/>
-      <c r="AB29" s="171"/>
-      <c r="AC29" s="171"/>
-      <c r="AD29" s="171"/>
-      <c r="AE29" s="172"/>
-      <c r="AF29" s="175"/>
-      <c r="AG29" s="169"/>
-      <c r="AH29" s="169"/>
-      <c r="AI29" s="170"/>
+      <c r="B29" s="104"/>
+      <c r="C29" s="105"/>
+      <c r="D29" s="106"/>
+      <c r="E29" s="107"/>
+      <c r="F29" s="108"/>
+      <c r="G29" s="109"/>
+      <c r="H29" s="110"/>
+      <c r="I29" s="111"/>
+      <c r="J29" s="112"/>
+      <c r="K29" s="113"/>
+      <c r="L29" s="113"/>
+      <c r="M29" s="113"/>
+      <c r="N29" s="113"/>
+      <c r="O29" s="113"/>
+      <c r="P29" s="114"/>
+      <c r="Q29" s="115"/>
+      <c r="R29" s="116"/>
+      <c r="S29" s="116"/>
+      <c r="T29" s="116"/>
+      <c r="U29" s="116"/>
+      <c r="V29" s="116"/>
+      <c r="W29" s="116"/>
+      <c r="X29" s="116"/>
+      <c r="Y29" s="116"/>
+      <c r="Z29" s="116"/>
+      <c r="AA29" s="116"/>
+      <c r="AB29" s="116"/>
+      <c r="AC29" s="116"/>
+      <c r="AD29" s="116"/>
+      <c r="AE29" s="117"/>
+      <c r="AF29" s="112"/>
+      <c r="AG29" s="113"/>
+      <c r="AH29" s="113"/>
+      <c r="AI29" s="114"/>
     </row>
     <row r="30" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="60"/>
-      <c r="B30" s="173"/>
-      <c r="C30" s="165"/>
-      <c r="D30" s="138"/>
-      <c r="E30" s="139"/>
-      <c r="F30" s="140"/>
-      <c r="G30" s="174"/>
-      <c r="H30" s="167"/>
-      <c r="I30" s="168"/>
-      <c r="J30" s="175"/>
-      <c r="K30" s="169"/>
-      <c r="L30" s="169"/>
-      <c r="M30" s="169"/>
-      <c r="N30" s="169"/>
-      <c r="O30" s="169"/>
-      <c r="P30" s="170"/>
-      <c r="Q30" s="176"/>
-      <c r="R30" s="171"/>
-      <c r="S30" s="171"/>
-      <c r="T30" s="171"/>
-      <c r="U30" s="171"/>
-      <c r="V30" s="171"/>
-      <c r="W30" s="171"/>
-      <c r="X30" s="171"/>
-      <c r="Y30" s="171"/>
-      <c r="Z30" s="171"/>
-      <c r="AA30" s="171"/>
-      <c r="AB30" s="171"/>
-      <c r="AC30" s="171"/>
-      <c r="AD30" s="171"/>
-      <c r="AE30" s="172"/>
-      <c r="AF30" s="175"/>
-      <c r="AG30" s="169"/>
-      <c r="AH30" s="169"/>
-      <c r="AI30" s="170"/>
+      <c r="B30" s="104"/>
+      <c r="C30" s="105"/>
+      <c r="D30" s="106"/>
+      <c r="E30" s="107"/>
+      <c r="F30" s="108"/>
+      <c r="G30" s="109"/>
+      <c r="H30" s="110"/>
+      <c r="I30" s="111"/>
+      <c r="J30" s="112"/>
+      <c r="K30" s="113"/>
+      <c r="L30" s="113"/>
+      <c r="M30" s="113"/>
+      <c r="N30" s="113"/>
+      <c r="O30" s="113"/>
+      <c r="P30" s="114"/>
+      <c r="Q30" s="115"/>
+      <c r="R30" s="116"/>
+      <c r="S30" s="116"/>
+      <c r="T30" s="116"/>
+      <c r="U30" s="116"/>
+      <c r="V30" s="116"/>
+      <c r="W30" s="116"/>
+      <c r="X30" s="116"/>
+      <c r="Y30" s="116"/>
+      <c r="Z30" s="116"/>
+      <c r="AA30" s="116"/>
+      <c r="AB30" s="116"/>
+      <c r="AC30" s="116"/>
+      <c r="AD30" s="116"/>
+      <c r="AE30" s="117"/>
+      <c r="AF30" s="112"/>
+      <c r="AG30" s="113"/>
+      <c r="AH30" s="113"/>
+      <c r="AI30" s="114"/>
     </row>
     <row r="31" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="60"/>
-      <c r="B31" s="173"/>
-      <c r="C31" s="165"/>
-      <c r="D31" s="138"/>
-      <c r="E31" s="139"/>
-      <c r="F31" s="140"/>
-      <c r="G31" s="174"/>
-      <c r="H31" s="167"/>
-      <c r="I31" s="168"/>
-      <c r="J31" s="175"/>
-      <c r="K31" s="169"/>
-      <c r="L31" s="169"/>
-      <c r="M31" s="169"/>
-      <c r="N31" s="169"/>
-      <c r="O31" s="169"/>
-      <c r="P31" s="170"/>
-      <c r="Q31" s="176"/>
-      <c r="R31" s="171"/>
-      <c r="S31" s="171"/>
-      <c r="T31" s="171"/>
-      <c r="U31" s="171"/>
-      <c r="V31" s="171"/>
-      <c r="W31" s="171"/>
-      <c r="X31" s="171"/>
-      <c r="Y31" s="171"/>
-      <c r="Z31" s="171"/>
-      <c r="AA31" s="171"/>
-      <c r="AB31" s="171"/>
-      <c r="AC31" s="171"/>
-      <c r="AD31" s="171"/>
-      <c r="AE31" s="172"/>
-      <c r="AF31" s="175"/>
-      <c r="AG31" s="169"/>
-      <c r="AH31" s="169"/>
-      <c r="AI31" s="170"/>
+      <c r="B31" s="104"/>
+      <c r="C31" s="105"/>
+      <c r="D31" s="106"/>
+      <c r="E31" s="107"/>
+      <c r="F31" s="108"/>
+      <c r="G31" s="109"/>
+      <c r="H31" s="110"/>
+      <c r="I31" s="111"/>
+      <c r="J31" s="112"/>
+      <c r="K31" s="113"/>
+      <c r="L31" s="113"/>
+      <c r="M31" s="113"/>
+      <c r="N31" s="113"/>
+      <c r="O31" s="113"/>
+      <c r="P31" s="114"/>
+      <c r="Q31" s="115"/>
+      <c r="R31" s="116"/>
+      <c r="S31" s="116"/>
+      <c r="T31" s="116"/>
+      <c r="U31" s="116"/>
+      <c r="V31" s="116"/>
+      <c r="W31" s="116"/>
+      <c r="X31" s="116"/>
+      <c r="Y31" s="116"/>
+      <c r="Z31" s="116"/>
+      <c r="AA31" s="116"/>
+      <c r="AB31" s="116"/>
+      <c r="AC31" s="116"/>
+      <c r="AD31" s="116"/>
+      <c r="AE31" s="117"/>
+      <c r="AF31" s="112"/>
+      <c r="AG31" s="113"/>
+      <c r="AH31" s="113"/>
+      <c r="AI31" s="114"/>
     </row>
     <row r="32" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="60"/>
-      <c r="B32" s="173"/>
-      <c r="C32" s="165"/>
-      <c r="D32" s="138"/>
-      <c r="E32" s="139"/>
-      <c r="F32" s="140"/>
-      <c r="G32" s="174"/>
-      <c r="H32" s="167"/>
-      <c r="I32" s="168"/>
-      <c r="J32" s="175"/>
-      <c r="K32" s="169"/>
-      <c r="L32" s="169"/>
-      <c r="M32" s="169"/>
-      <c r="N32" s="169"/>
-      <c r="O32" s="169"/>
-      <c r="P32" s="170"/>
-      <c r="Q32" s="176"/>
-      <c r="R32" s="171"/>
-      <c r="S32" s="171"/>
-      <c r="T32" s="171"/>
-      <c r="U32" s="171"/>
-      <c r="V32" s="171"/>
-      <c r="W32" s="171"/>
-      <c r="X32" s="171"/>
-      <c r="Y32" s="171"/>
-      <c r="Z32" s="171"/>
-      <c r="AA32" s="171"/>
-      <c r="AB32" s="171"/>
-      <c r="AC32" s="171"/>
-      <c r="AD32" s="171"/>
-      <c r="AE32" s="172"/>
-      <c r="AF32" s="175"/>
-      <c r="AG32" s="169"/>
-      <c r="AH32" s="169"/>
-      <c r="AI32" s="170"/>
+      <c r="B32" s="104"/>
+      <c r="C32" s="105"/>
+      <c r="D32" s="106"/>
+      <c r="E32" s="107"/>
+      <c r="F32" s="108"/>
+      <c r="G32" s="109"/>
+      <c r="H32" s="110"/>
+      <c r="I32" s="111"/>
+      <c r="J32" s="112"/>
+      <c r="K32" s="113"/>
+      <c r="L32" s="113"/>
+      <c r="M32" s="113"/>
+      <c r="N32" s="113"/>
+      <c r="O32" s="113"/>
+      <c r="P32" s="114"/>
+      <c r="Q32" s="115"/>
+      <c r="R32" s="116"/>
+      <c r="S32" s="116"/>
+      <c r="T32" s="116"/>
+      <c r="U32" s="116"/>
+      <c r="V32" s="116"/>
+      <c r="W32" s="116"/>
+      <c r="X32" s="116"/>
+      <c r="Y32" s="116"/>
+      <c r="Z32" s="116"/>
+      <c r="AA32" s="116"/>
+      <c r="AB32" s="116"/>
+      <c r="AC32" s="116"/>
+      <c r="AD32" s="116"/>
+      <c r="AE32" s="117"/>
+      <c r="AF32" s="112"/>
+      <c r="AG32" s="113"/>
+      <c r="AH32" s="113"/>
+      <c r="AI32" s="114"/>
     </row>
     <row r="33" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="60"/>
-      <c r="B33" s="173"/>
-      <c r="C33" s="165"/>
-      <c r="D33" s="138"/>
-      <c r="E33" s="139"/>
-      <c r="F33" s="140"/>
-      <c r="G33" s="174"/>
-      <c r="H33" s="167"/>
-      <c r="I33" s="168"/>
-      <c r="J33" s="175"/>
-      <c r="K33" s="169"/>
-      <c r="L33" s="169"/>
-      <c r="M33" s="169"/>
-      <c r="N33" s="169"/>
-      <c r="O33" s="169"/>
-      <c r="P33" s="170"/>
-      <c r="Q33" s="176"/>
-      <c r="R33" s="171"/>
-      <c r="S33" s="171"/>
-      <c r="T33" s="171"/>
-      <c r="U33" s="171"/>
-      <c r="V33" s="171"/>
-      <c r="W33" s="171"/>
-      <c r="X33" s="171"/>
-      <c r="Y33" s="171"/>
-      <c r="Z33" s="171"/>
-      <c r="AA33" s="171"/>
-      <c r="AB33" s="171"/>
-      <c r="AC33" s="171"/>
-      <c r="AD33" s="171"/>
-      <c r="AE33" s="172"/>
-      <c r="AF33" s="175"/>
-      <c r="AG33" s="169"/>
-      <c r="AH33" s="169"/>
-      <c r="AI33" s="170"/>
+      <c r="B33" s="104"/>
+      <c r="C33" s="105"/>
+      <c r="D33" s="106"/>
+      <c r="E33" s="107"/>
+      <c r="F33" s="108"/>
+      <c r="G33" s="109"/>
+      <c r="H33" s="110"/>
+      <c r="I33" s="111"/>
+      <c r="J33" s="112"/>
+      <c r="K33" s="113"/>
+      <c r="L33" s="113"/>
+      <c r="M33" s="113"/>
+      <c r="N33" s="113"/>
+      <c r="O33" s="113"/>
+      <c r="P33" s="114"/>
+      <c r="Q33" s="115"/>
+      <c r="R33" s="116"/>
+      <c r="S33" s="116"/>
+      <c r="T33" s="116"/>
+      <c r="U33" s="116"/>
+      <c r="V33" s="116"/>
+      <c r="W33" s="116"/>
+      <c r="X33" s="116"/>
+      <c r="Y33" s="116"/>
+      <c r="Z33" s="116"/>
+      <c r="AA33" s="116"/>
+      <c r="AB33" s="116"/>
+      <c r="AC33" s="116"/>
+      <c r="AD33" s="116"/>
+      <c r="AE33" s="117"/>
+      <c r="AF33" s="112"/>
+      <c r="AG33" s="113"/>
+      <c r="AH33" s="113"/>
+      <c r="AI33" s="114"/>
     </row>
   </sheetData>
   <mergeCells count="179">
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
@@ -5067,6 +4909,162 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
   </mergeCells>
   <phoneticPr fontId="10"/>
   <printOptions horizontalCentered="1"/>
@@ -5223,163 +5221,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="151" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="180" t="str">
+      <c r="B1" s="152"/>
+      <c r="C1" s="152"/>
+      <c r="D1" s="153"/>
+      <c r="E1" s="181" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
-      <c r="K1" s="110"/>
-      <c r="L1" s="110"/>
-      <c r="M1" s="110"/>
-      <c r="N1" s="111"/>
-      <c r="O1" s="115" t="s">
+      <c r="F1" s="155"/>
+      <c r="G1" s="155"/>
+      <c r="H1" s="155"/>
+      <c r="I1" s="155"/>
+      <c r="J1" s="155"/>
+      <c r="K1" s="155"/>
+      <c r="L1" s="155"/>
+      <c r="M1" s="155"/>
+      <c r="N1" s="156"/>
+      <c r="O1" s="160" t="s">
         <v>17</v>
       </c>
-      <c r="P1" s="116"/>
-      <c r="Q1" s="116"/>
-      <c r="R1" s="117"/>
-      <c r="S1" s="124" t="str">
+      <c r="P1" s="161"/>
+      <c r="Q1" s="161"/>
+      <c r="R1" s="162"/>
+      <c r="S1" s="169" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>画面一覧</v>
       </c>
-      <c r="T1" s="125"/>
-      <c r="U1" s="125"/>
-      <c r="V1" s="125"/>
-      <c r="W1" s="125"/>
-      <c r="X1" s="125"/>
-      <c r="Y1" s="125"/>
-      <c r="Z1" s="126"/>
-      <c r="AA1" s="106" t="s">
+      <c r="T1" s="170"/>
+      <c r="U1" s="170"/>
+      <c r="V1" s="170"/>
+      <c r="W1" s="170"/>
+      <c r="X1" s="170"/>
+      <c r="Y1" s="170"/>
+      <c r="Z1" s="171"/>
+      <c r="AA1" s="151" t="s">
         <v>18</v>
       </c>
-      <c r="AB1" s="108"/>
-      <c r="AC1" s="133" t="str">
+      <c r="AB1" s="153"/>
+      <c r="AC1" s="178" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="134"/>
-      <c r="AE1" s="134"/>
-      <c r="AF1" s="135"/>
-      <c r="AG1" s="177">
+      <c r="AD1" s="179"/>
+      <c r="AE1" s="179"/>
+      <c r="AF1" s="180"/>
+      <c r="AG1" s="182">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43592</v>
       </c>
-      <c r="AH1" s="178"/>
-      <c r="AI1" s="179"/>
+      <c r="AH1" s="183"/>
+      <c r="AI1" s="184"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="2"/>
     </row>
     <row r="2" spans="1:38" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="106" t="s">
+      <c r="A2" s="151" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="107"/>
-      <c r="C2" s="107"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="180" t="str">
+      <c r="B2" s="152"/>
+      <c r="C2" s="152"/>
+      <c r="D2" s="153"/>
+      <c r="E2" s="181" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="110"/>
-      <c r="G2" s="110"/>
-      <c r="H2" s="110"/>
-      <c r="I2" s="110"/>
-      <c r="J2" s="110"/>
-      <c r="K2" s="110"/>
-      <c r="L2" s="110"/>
-      <c r="M2" s="110"/>
-      <c r="N2" s="111"/>
-      <c r="O2" s="118"/>
-      <c r="P2" s="119"/>
-      <c r="Q2" s="119"/>
-      <c r="R2" s="120"/>
-      <c r="S2" s="127"/>
-      <c r="T2" s="128"/>
-      <c r="U2" s="128"/>
-      <c r="V2" s="128"/>
-      <c r="W2" s="128"/>
-      <c r="X2" s="128"/>
-      <c r="Y2" s="128"/>
-      <c r="Z2" s="129"/>
-      <c r="AA2" s="106" t="s">
+      <c r="F2" s="155"/>
+      <c r="G2" s="155"/>
+      <c r="H2" s="155"/>
+      <c r="I2" s="155"/>
+      <c r="J2" s="155"/>
+      <c r="K2" s="155"/>
+      <c r="L2" s="155"/>
+      <c r="M2" s="155"/>
+      <c r="N2" s="156"/>
+      <c r="O2" s="163"/>
+      <c r="P2" s="164"/>
+      <c r="Q2" s="164"/>
+      <c r="R2" s="165"/>
+      <c r="S2" s="172"/>
+      <c r="T2" s="173"/>
+      <c r="U2" s="173"/>
+      <c r="V2" s="173"/>
+      <c r="W2" s="173"/>
+      <c r="X2" s="173"/>
+      <c r="Y2" s="173"/>
+      <c r="Z2" s="174"/>
+      <c r="AA2" s="151" t="s">
         <v>19</v>
       </c>
-      <c r="AB2" s="108"/>
-      <c r="AC2" s="133" t="str">
+      <c r="AB2" s="153"/>
+      <c r="AC2" s="178" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="134"/>
-      <c r="AE2" s="134"/>
-      <c r="AF2" s="135"/>
-      <c r="AG2" s="177">
+      <c r="AD2" s="179"/>
+      <c r="AE2" s="179"/>
+      <c r="AF2" s="180"/>
+      <c r="AG2" s="182">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v>44796</v>
       </c>
-      <c r="AH2" s="178"/>
-      <c r="AI2" s="179"/>
+      <c r="AH2" s="183"/>
+      <c r="AI2" s="184"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
     </row>
     <row r="3" spans="1:38" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="106" t="s">
+      <c r="A3" s="151" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="107"/>
-      <c r="C3" s="107"/>
-      <c r="D3" s="108"/>
-      <c r="E3" s="180" t="str">
+      <c r="B3" s="152"/>
+      <c r="C3" s="152"/>
+      <c r="D3" s="153"/>
+      <c r="E3" s="181" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="110"/>
-      <c r="G3" s="110"/>
-      <c r="H3" s="110"/>
-      <c r="I3" s="110"/>
-      <c r="J3" s="110"/>
-      <c r="K3" s="110"/>
-      <c r="L3" s="110"/>
-      <c r="M3" s="110"/>
-      <c r="N3" s="111"/>
-      <c r="O3" s="121"/>
-      <c r="P3" s="122"/>
-      <c r="Q3" s="122"/>
-      <c r="R3" s="123"/>
-      <c r="S3" s="130"/>
-      <c r="T3" s="131"/>
-      <c r="U3" s="131"/>
-      <c r="V3" s="131"/>
-      <c r="W3" s="131"/>
-      <c r="X3" s="131"/>
-      <c r="Y3" s="131"/>
-      <c r="Z3" s="132"/>
-      <c r="AA3" s="106"/>
-      <c r="AB3" s="108"/>
-      <c r="AC3" s="133" t="str">
+      <c r="F3" s="155"/>
+      <c r="G3" s="155"/>
+      <c r="H3" s="155"/>
+      <c r="I3" s="155"/>
+      <c r="J3" s="155"/>
+      <c r="K3" s="155"/>
+      <c r="L3" s="155"/>
+      <c r="M3" s="155"/>
+      <c r="N3" s="156"/>
+      <c r="O3" s="166"/>
+      <c r="P3" s="167"/>
+      <c r="Q3" s="167"/>
+      <c r="R3" s="168"/>
+      <c r="S3" s="175"/>
+      <c r="T3" s="176"/>
+      <c r="U3" s="176"/>
+      <c r="V3" s="176"/>
+      <c r="W3" s="176"/>
+      <c r="X3" s="176"/>
+      <c r="Y3" s="176"/>
+      <c r="Z3" s="177"/>
+      <c r="AA3" s="151"/>
+      <c r="AB3" s="153"/>
+      <c r="AC3" s="178" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="134"/>
-      <c r="AE3" s="134"/>
-      <c r="AF3" s="135"/>
-      <c r="AG3" s="177" t="str">
+      <c r="AD3" s="179"/>
+      <c r="AE3" s="179"/>
+      <c r="AF3" s="180"/>
+      <c r="AG3" s="182" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="178"/>
-      <c r="AI3" s="179"/>
+      <c r="AH3" s="183"/>
+      <c r="AI3" s="184"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
@@ -6842,6 +6840,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -6851,14 +6857,6 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="10"/>
   <printOptions horizontalCentered="1"/>
@@ -6885,59 +6883,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:57" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="151" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="180" t="str">
+      <c r="B1" s="152"/>
+      <c r="C1" s="152"/>
+      <c r="D1" s="153"/>
+      <c r="E1" s="181" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
-      <c r="K1" s="110"/>
-      <c r="L1" s="110"/>
-      <c r="M1" s="110"/>
-      <c r="N1" s="111"/>
-      <c r="O1" s="190" t="s">
+      <c r="F1" s="155"/>
+      <c r="G1" s="155"/>
+      <c r="H1" s="155"/>
+      <c r="I1" s="155"/>
+      <c r="J1" s="155"/>
+      <c r="K1" s="155"/>
+      <c r="L1" s="155"/>
+      <c r="M1" s="155"/>
+      <c r="N1" s="156"/>
+      <c r="O1" s="202" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="191"/>
-      <c r="Q1" s="191"/>
-      <c r="R1" s="192"/>
-      <c r="S1" s="181" t="str">
+      <c r="P1" s="203"/>
+      <c r="Q1" s="203"/>
+      <c r="R1" s="204"/>
+      <c r="S1" s="214" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>画面一覧</v>
       </c>
-      <c r="T1" s="182"/>
-      <c r="U1" s="182"/>
-      <c r="V1" s="182"/>
-      <c r="W1" s="182"/>
-      <c r="X1" s="182"/>
-      <c r="Y1" s="182"/>
-      <c r="Z1" s="183"/>
-      <c r="AA1" s="106" t="s">
+      <c r="T1" s="215"/>
+      <c r="U1" s="215"/>
+      <c r="V1" s="215"/>
+      <c r="W1" s="215"/>
+      <c r="X1" s="215"/>
+      <c r="Y1" s="215"/>
+      <c r="Z1" s="216"/>
+      <c r="AA1" s="151" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="108"/>
-      <c r="AC1" s="133" t="str">
+      <c r="AB1" s="153"/>
+      <c r="AC1" s="178" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="134"/>
-      <c r="AE1" s="134"/>
-      <c r="AF1" s="135"/>
-      <c r="AG1" s="177">
+      <c r="AD1" s="179"/>
+      <c r="AE1" s="179"/>
+      <c r="AF1" s="180"/>
+      <c r="AG1" s="182">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43592</v>
       </c>
-      <c r="AH1" s="178"/>
-      <c r="AI1" s="179"/>
+      <c r="AH1" s="183"/>
+      <c r="AI1" s="184"/>
       <c r="AJ1" s="11"/>
       <c r="AK1" s="11"/>
       <c r="AL1" s="11"/>
@@ -6962,54 +6960,54 @@
       <c r="BE1" s="11"/>
     </row>
     <row r="2" spans="1:57" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="106" t="s">
+      <c r="A2" s="151" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="107"/>
-      <c r="C2" s="107"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="180" t="str">
+      <c r="B2" s="152"/>
+      <c r="C2" s="152"/>
+      <c r="D2" s="153"/>
+      <c r="E2" s="181" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="110"/>
-      <c r="G2" s="110"/>
-      <c r="H2" s="110"/>
-      <c r="I2" s="110"/>
-      <c r="J2" s="110"/>
-      <c r="K2" s="110"/>
-      <c r="L2" s="110"/>
-      <c r="M2" s="110"/>
-      <c r="N2" s="111"/>
-      <c r="O2" s="193"/>
-      <c r="P2" s="194"/>
-      <c r="Q2" s="194"/>
-      <c r="R2" s="195"/>
-      <c r="S2" s="184"/>
-      <c r="T2" s="185"/>
-      <c r="U2" s="185"/>
-      <c r="V2" s="185"/>
-      <c r="W2" s="185"/>
-      <c r="X2" s="185"/>
-      <c r="Y2" s="185"/>
-      <c r="Z2" s="186"/>
-      <c r="AA2" s="106" t="s">
+      <c r="F2" s="155"/>
+      <c r="G2" s="155"/>
+      <c r="H2" s="155"/>
+      <c r="I2" s="155"/>
+      <c r="J2" s="155"/>
+      <c r="K2" s="155"/>
+      <c r="L2" s="155"/>
+      <c r="M2" s="155"/>
+      <c r="N2" s="156"/>
+      <c r="O2" s="205"/>
+      <c r="P2" s="206"/>
+      <c r="Q2" s="206"/>
+      <c r="R2" s="207"/>
+      <c r="S2" s="217"/>
+      <c r="T2" s="218"/>
+      <c r="U2" s="218"/>
+      <c r="V2" s="218"/>
+      <c r="W2" s="218"/>
+      <c r="X2" s="218"/>
+      <c r="Y2" s="218"/>
+      <c r="Z2" s="219"/>
+      <c r="AA2" s="151" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="108"/>
-      <c r="AC2" s="133" t="str">
+      <c r="AB2" s="153"/>
+      <c r="AC2" s="178" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="134"/>
-      <c r="AE2" s="134"/>
-      <c r="AF2" s="135"/>
-      <c r="AG2" s="177">
+      <c r="AD2" s="179"/>
+      <c r="AE2" s="179"/>
+      <c r="AF2" s="180"/>
+      <c r="AG2" s="182">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v>44796</v>
       </c>
-      <c r="AH2" s="178"/>
-      <c r="AI2" s="179"/>
+      <c r="AH2" s="183"/>
+      <c r="AI2" s="184"/>
       <c r="AJ2" s="11"/>
       <c r="AK2" s="11"/>
       <c r="AL2" s="11"/>
@@ -7034,52 +7032,52 @@
       <c r="BE2" s="11"/>
     </row>
     <row r="3" spans="1:57" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="106" t="s">
+      <c r="A3" s="151" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="107"/>
-      <c r="C3" s="107"/>
-      <c r="D3" s="108"/>
-      <c r="E3" s="180" t="str">
+      <c r="B3" s="152"/>
+      <c r="C3" s="152"/>
+      <c r="D3" s="153"/>
+      <c r="E3" s="181" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="110"/>
-      <c r="G3" s="110"/>
-      <c r="H3" s="110"/>
-      <c r="I3" s="110"/>
-      <c r="J3" s="110"/>
-      <c r="K3" s="110"/>
-      <c r="L3" s="110"/>
-      <c r="M3" s="110"/>
-      <c r="N3" s="111"/>
-      <c r="O3" s="196"/>
-      <c r="P3" s="197"/>
-      <c r="Q3" s="197"/>
-      <c r="R3" s="198"/>
-      <c r="S3" s="187"/>
-      <c r="T3" s="188"/>
-      <c r="U3" s="188"/>
-      <c r="V3" s="188"/>
-      <c r="W3" s="188"/>
-      <c r="X3" s="188"/>
-      <c r="Y3" s="188"/>
-      <c r="Z3" s="189"/>
-      <c r="AA3" s="106"/>
-      <c r="AB3" s="108"/>
-      <c r="AC3" s="133" t="str">
+      <c r="F3" s="155"/>
+      <c r="G3" s="155"/>
+      <c r="H3" s="155"/>
+      <c r="I3" s="155"/>
+      <c r="J3" s="155"/>
+      <c r="K3" s="155"/>
+      <c r="L3" s="155"/>
+      <c r="M3" s="155"/>
+      <c r="N3" s="156"/>
+      <c r="O3" s="208"/>
+      <c r="P3" s="209"/>
+      <c r="Q3" s="209"/>
+      <c r="R3" s="210"/>
+      <c r="S3" s="220"/>
+      <c r="T3" s="221"/>
+      <c r="U3" s="221"/>
+      <c r="V3" s="221"/>
+      <c r="W3" s="221"/>
+      <c r="X3" s="221"/>
+      <c r="Y3" s="221"/>
+      <c r="Z3" s="222"/>
+      <c r="AA3" s="151"/>
+      <c r="AB3" s="153"/>
+      <c r="AC3" s="178" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="134"/>
-      <c r="AE3" s="134"/>
-      <c r="AF3" s="135"/>
-      <c r="AG3" s="177" t="str">
+      <c r="AD3" s="179"/>
+      <c r="AE3" s="179"/>
+      <c r="AF3" s="180"/>
+      <c r="AG3" s="182" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="178"/>
-      <c r="AI3" s="179"/>
+      <c r="AH3" s="183"/>
+      <c r="AI3" s="184"/>
       <c r="AJ3" s="11"/>
       <c r="AK3" s="11"/>
       <c r="AL3" s="11"/>
@@ -7262,11 +7260,11 @@
       <c r="I7" s="200"/>
       <c r="J7" s="200"/>
       <c r="K7" s="201"/>
-      <c r="L7" s="202" t="s">
+      <c r="L7" s="211" t="s">
         <v>12</v>
       </c>
-      <c r="M7" s="203"/>
-      <c r="N7" s="204"/>
+      <c r="M7" s="212"/>
+      <c r="N7" s="213"/>
       <c r="O7" s="199" t="s">
         <v>13</v>
       </c>
@@ -7315,50 +7313,50 @@
       <c r="BE7" s="11"/>
     </row>
     <row r="8" spans="1:57" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C8" s="219">
+      <c r="C8" s="99">
         <v>1</v>
       </c>
-      <c r="D8" s="205" t="s">
+      <c r="D8" s="196" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="206"/>
-      <c r="F8" s="207"/>
-      <c r="G8" s="205" t="s">
+      <c r="E8" s="197"/>
+      <c r="F8" s="198"/>
+      <c r="G8" s="196" t="s">
         <v>80</v>
       </c>
-      <c r="H8" s="206"/>
-      <c r="I8" s="206"/>
-      <c r="J8" s="206"/>
-      <c r="K8" s="207"/>
-      <c r="L8" s="144" t="s">
+      <c r="H8" s="197"/>
+      <c r="I8" s="197"/>
+      <c r="J8" s="197"/>
+      <c r="K8" s="198"/>
+      <c r="L8" s="120" t="s">
         <v>29</v>
       </c>
-      <c r="M8" s="145"/>
-      <c r="N8" s="146"/>
-      <c r="O8" s="144" t="s">
+      <c r="M8" s="127"/>
+      <c r="N8" s="128"/>
+      <c r="O8" s="120" t="s">
         <v>28</v>
       </c>
-      <c r="P8" s="145"/>
-      <c r="Q8" s="145"/>
-      <c r="R8" s="145"/>
-      <c r="S8" s="146"/>
-      <c r="T8" s="147" t="s">
-        <v>83</v>
-      </c>
-      <c r="U8" s="169"/>
-      <c r="V8" s="169"/>
-      <c r="W8" s="169"/>
-      <c r="X8" s="169"/>
-      <c r="Y8" s="169"/>
-      <c r="Z8" s="169"/>
-      <c r="AA8" s="169"/>
-      <c r="AB8" s="169"/>
-      <c r="AC8" s="169"/>
-      <c r="AD8" s="169"/>
-      <c r="AE8" s="169"/>
-      <c r="AF8" s="169"/>
-      <c r="AG8" s="169"/>
-      <c r="AH8" s="170"/>
+      <c r="P8" s="127"/>
+      <c r="Q8" s="127"/>
+      <c r="R8" s="127"/>
+      <c r="S8" s="128"/>
+      <c r="T8" s="121" t="s">
+        <v>82</v>
+      </c>
+      <c r="U8" s="113"/>
+      <c r="V8" s="113"/>
+      <c r="W8" s="113"/>
+      <c r="X8" s="113"/>
+      <c r="Y8" s="113"/>
+      <c r="Z8" s="113"/>
+      <c r="AA8" s="113"/>
+      <c r="AB8" s="113"/>
+      <c r="AC8" s="113"/>
+      <c r="AD8" s="113"/>
+      <c r="AE8" s="113"/>
+      <c r="AF8" s="113"/>
+      <c r="AG8" s="113"/>
+      <c r="AH8" s="114"/>
       <c r="AJ8" s="11"/>
       <c r="AK8" s="11"/>
       <c r="AL8" s="11"/>
@@ -7384,43 +7382,43 @@
     </row>
     <row r="9" spans="1:57" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C9" s="81"/>
-      <c r="D9" s="220"/>
-      <c r="E9" s="221"/>
-      <c r="F9" s="222"/>
-      <c r="G9" s="220"/>
-      <c r="H9" s="221"/>
-      <c r="I9" s="221"/>
-      <c r="J9" s="221"/>
-      <c r="K9" s="222"/>
-      <c r="L9" s="144" t="s">
+      <c r="D9" s="100"/>
+      <c r="E9" s="101"/>
+      <c r="F9" s="102"/>
+      <c r="G9" s="100"/>
+      <c r="H9" s="101"/>
+      <c r="I9" s="101"/>
+      <c r="J9" s="101"/>
+      <c r="K9" s="102"/>
+      <c r="L9" s="120" t="s">
+        <v>84</v>
+      </c>
+      <c r="M9" s="127"/>
+      <c r="N9" s="128"/>
+      <c r="O9" s="96" t="s">
         <v>81</v>
-      </c>
-      <c r="M9" s="145"/>
-      <c r="N9" s="146"/>
-      <c r="O9" s="96" t="s">
-        <v>82</v>
       </c>
       <c r="P9" s="97"/>
       <c r="Q9" s="97"/>
       <c r="R9" s="97"/>
       <c r="S9" s="98"/>
-      <c r="T9" s="147" t="s">
-        <v>84</v>
-      </c>
-      <c r="U9" s="148"/>
-      <c r="V9" s="148"/>
-      <c r="W9" s="148"/>
-      <c r="X9" s="148"/>
-      <c r="Y9" s="148"/>
-      <c r="Z9" s="148"/>
-      <c r="AA9" s="148"/>
-      <c r="AB9" s="148"/>
-      <c r="AC9" s="148"/>
-      <c r="AD9" s="148"/>
-      <c r="AE9" s="148"/>
-      <c r="AF9" s="148"/>
-      <c r="AG9" s="148"/>
-      <c r="AH9" s="149"/>
+      <c r="T9" s="121" t="s">
+        <v>83</v>
+      </c>
+      <c r="U9" s="129"/>
+      <c r="V9" s="129"/>
+      <c r="W9" s="129"/>
+      <c r="X9" s="129"/>
+      <c r="Y9" s="129"/>
+      <c r="Z9" s="129"/>
+      <c r="AA9" s="129"/>
+      <c r="AB9" s="129"/>
+      <c r="AC9" s="129"/>
+      <c r="AD9" s="129"/>
+      <c r="AE9" s="129"/>
+      <c r="AF9" s="129"/>
+      <c r="AG9" s="129"/>
+      <c r="AH9" s="130"/>
       <c r="AJ9" s="11"/>
       <c r="AK9" s="11"/>
       <c r="AL9" s="11"/>
@@ -7449,47 +7447,47 @@
         <f>C8+1</f>
         <v>2</v>
       </c>
-      <c r="D10" s="211" t="s">
+      <c r="D10" s="194" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="211"/>
-      <c r="F10" s="211"/>
-      <c r="G10" s="211" t="s">
+      <c r="E10" s="194"/>
+      <c r="F10" s="194"/>
+      <c r="G10" s="194" t="s">
         <v>32</v>
       </c>
-      <c r="H10" s="211"/>
-      <c r="I10" s="211"/>
-      <c r="J10" s="211"/>
-      <c r="K10" s="211"/>
-      <c r="L10" s="213" t="s">
+      <c r="H10" s="194"/>
+      <c r="I10" s="194"/>
+      <c r="J10" s="194"/>
+      <c r="K10" s="194"/>
+      <c r="L10" s="185" t="s">
         <v>37</v>
       </c>
-      <c r="M10" s="216"/>
-      <c r="N10" s="217"/>
-      <c r="O10" s="213" t="s">
+      <c r="M10" s="186"/>
+      <c r="N10" s="187"/>
+      <c r="O10" s="185" t="s">
         <v>34</v>
       </c>
-      <c r="P10" s="216"/>
-      <c r="Q10" s="216"/>
-      <c r="R10" s="216"/>
-      <c r="S10" s="217"/>
-      <c r="T10" s="213" t="s">
+      <c r="P10" s="186"/>
+      <c r="Q10" s="186"/>
+      <c r="R10" s="186"/>
+      <c r="S10" s="187"/>
+      <c r="T10" s="185" t="s">
         <v>48</v>
       </c>
-      <c r="U10" s="214"/>
-      <c r="V10" s="214"/>
-      <c r="W10" s="214"/>
-      <c r="X10" s="214"/>
-      <c r="Y10" s="214"/>
-      <c r="Z10" s="214"/>
-      <c r="AA10" s="214"/>
-      <c r="AB10" s="214"/>
-      <c r="AC10" s="214"/>
-      <c r="AD10" s="214"/>
-      <c r="AE10" s="214"/>
-      <c r="AF10" s="214"/>
-      <c r="AG10" s="214"/>
-      <c r="AH10" s="215"/>
+      <c r="U10" s="189"/>
+      <c r="V10" s="189"/>
+      <c r="W10" s="189"/>
+      <c r="X10" s="189"/>
+      <c r="Y10" s="189"/>
+      <c r="Z10" s="189"/>
+      <c r="AA10" s="189"/>
+      <c r="AB10" s="189"/>
+      <c r="AC10" s="189"/>
+      <c r="AD10" s="189"/>
+      <c r="AE10" s="189"/>
+      <c r="AF10" s="189"/>
+      <c r="AG10" s="189"/>
+      <c r="AH10" s="190"/>
       <c r="AL10" s="11"/>
       <c r="AM10" s="11"/>
       <c r="AN10" s="11"/>
@@ -7508,43 +7506,43 @@
         <f t="shared" ref="C11:C19" si="0">C10+1</f>
         <v>3</v>
       </c>
-      <c r="D11" s="212"/>
-      <c r="E11" s="212"/>
-      <c r="F11" s="212"/>
-      <c r="G11" s="212"/>
-      <c r="H11" s="212"/>
-      <c r="I11" s="212"/>
-      <c r="J11" s="212"/>
-      <c r="K11" s="212"/>
-      <c r="L11" s="144" t="s">
+      <c r="D11" s="195"/>
+      <c r="E11" s="195"/>
+      <c r="F11" s="195"/>
+      <c r="G11" s="195"/>
+      <c r="H11" s="195"/>
+      <c r="I11" s="195"/>
+      <c r="J11" s="195"/>
+      <c r="K11" s="195"/>
+      <c r="L11" s="120" t="s">
         <v>38</v>
       </c>
-      <c r="M11" s="145"/>
-      <c r="N11" s="146"/>
-      <c r="O11" s="144" t="s">
+      <c r="M11" s="127"/>
+      <c r="N11" s="128"/>
+      <c r="O11" s="120" t="s">
         <v>35</v>
       </c>
-      <c r="P11" s="145"/>
-      <c r="Q11" s="145"/>
-      <c r="R11" s="145"/>
-      <c r="S11" s="146"/>
-      <c r="T11" s="144" t="s">
+      <c r="P11" s="127"/>
+      <c r="Q11" s="127"/>
+      <c r="R11" s="127"/>
+      <c r="S11" s="128"/>
+      <c r="T11" s="120" t="s">
         <v>46</v>
       </c>
-      <c r="U11" s="169"/>
-      <c r="V11" s="169"/>
-      <c r="W11" s="169"/>
-      <c r="X11" s="169"/>
-      <c r="Y11" s="169"/>
-      <c r="Z11" s="169"/>
-      <c r="AA11" s="169"/>
-      <c r="AB11" s="169"/>
-      <c r="AC11" s="169"/>
-      <c r="AD11" s="169"/>
-      <c r="AE11" s="169"/>
-      <c r="AF11" s="169"/>
-      <c r="AG11" s="169"/>
-      <c r="AH11" s="170"/>
+      <c r="U11" s="113"/>
+      <c r="V11" s="113"/>
+      <c r="W11" s="113"/>
+      <c r="X11" s="113"/>
+      <c r="Y11" s="113"/>
+      <c r="Z11" s="113"/>
+      <c r="AA11" s="113"/>
+      <c r="AB11" s="113"/>
+      <c r="AC11" s="113"/>
+      <c r="AD11" s="113"/>
+      <c r="AE11" s="113"/>
+      <c r="AF11" s="113"/>
+      <c r="AG11" s="113"/>
+      <c r="AH11" s="114"/>
       <c r="AL11" s="11"/>
       <c r="AM11" s="11"/>
       <c r="AN11" s="11"/>
@@ -7563,43 +7561,43 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D12" s="212"/>
-      <c r="E12" s="212"/>
-      <c r="F12" s="212"/>
-      <c r="G12" s="212"/>
-      <c r="H12" s="212"/>
-      <c r="I12" s="212"/>
-      <c r="J12" s="212"/>
-      <c r="K12" s="212"/>
-      <c r="L12" s="144" t="s">
+      <c r="D12" s="195"/>
+      <c r="E12" s="195"/>
+      <c r="F12" s="195"/>
+      <c r="G12" s="195"/>
+      <c r="H12" s="195"/>
+      <c r="I12" s="195"/>
+      <c r="J12" s="195"/>
+      <c r="K12" s="195"/>
+      <c r="L12" s="120" t="s">
         <v>39</v>
       </c>
-      <c r="M12" s="145"/>
-      <c r="N12" s="146"/>
-      <c r="O12" s="144" t="s">
+      <c r="M12" s="127"/>
+      <c r="N12" s="128"/>
+      <c r="O12" s="120" t="s">
         <v>36</v>
       </c>
-      <c r="P12" s="145"/>
-      <c r="Q12" s="145"/>
-      <c r="R12" s="145"/>
-      <c r="S12" s="146"/>
-      <c r="T12" s="144" t="s">
+      <c r="P12" s="127"/>
+      <c r="Q12" s="127"/>
+      <c r="R12" s="127"/>
+      <c r="S12" s="128"/>
+      <c r="T12" s="120" t="s">
         <v>47</v>
       </c>
-      <c r="U12" s="169"/>
-      <c r="V12" s="169"/>
-      <c r="W12" s="169"/>
-      <c r="X12" s="169"/>
-      <c r="Y12" s="169"/>
-      <c r="Z12" s="169"/>
-      <c r="AA12" s="169"/>
-      <c r="AB12" s="169"/>
-      <c r="AC12" s="169"/>
-      <c r="AD12" s="169"/>
-      <c r="AE12" s="169"/>
-      <c r="AF12" s="169"/>
-      <c r="AG12" s="169"/>
-      <c r="AH12" s="170"/>
+      <c r="U12" s="113"/>
+      <c r="V12" s="113"/>
+      <c r="W12" s="113"/>
+      <c r="X12" s="113"/>
+      <c r="Y12" s="113"/>
+      <c r="Z12" s="113"/>
+      <c r="AA12" s="113"/>
+      <c r="AB12" s="113"/>
+      <c r="AC12" s="113"/>
+      <c r="AD12" s="113"/>
+      <c r="AE12" s="113"/>
+      <c r="AF12" s="113"/>
+      <c r="AG12" s="113"/>
+      <c r="AH12" s="114"/>
       <c r="AL12" s="11"/>
       <c r="AM12" s="11"/>
       <c r="AN12" s="11"/>
@@ -7618,43 +7616,43 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="D13" s="212"/>
-      <c r="E13" s="212"/>
-      <c r="F13" s="212"/>
-      <c r="G13" s="212"/>
-      <c r="H13" s="212"/>
-      <c r="I13" s="212"/>
-      <c r="J13" s="212"/>
-      <c r="K13" s="212"/>
-      <c r="L13" s="144" t="s">
+      <c r="D13" s="195"/>
+      <c r="E13" s="195"/>
+      <c r="F13" s="195"/>
+      <c r="G13" s="195"/>
+      <c r="H13" s="195"/>
+      <c r="I13" s="195"/>
+      <c r="J13" s="195"/>
+      <c r="K13" s="195"/>
+      <c r="L13" s="120" t="s">
         <v>50</v>
       </c>
-      <c r="M13" s="145"/>
-      <c r="N13" s="146"/>
-      <c r="O13" s="144" t="s">
+      <c r="M13" s="127"/>
+      <c r="N13" s="128"/>
+      <c r="O13" s="120" t="s">
         <v>51</v>
       </c>
-      <c r="P13" s="145"/>
-      <c r="Q13" s="145"/>
-      <c r="R13" s="145"/>
-      <c r="S13" s="146"/>
-      <c r="T13" s="147" t="s">
+      <c r="P13" s="127"/>
+      <c r="Q13" s="127"/>
+      <c r="R13" s="127"/>
+      <c r="S13" s="128"/>
+      <c r="T13" s="121" t="s">
         <v>52</v>
       </c>
-      <c r="U13" s="171"/>
-      <c r="V13" s="171"/>
-      <c r="W13" s="171"/>
-      <c r="X13" s="171"/>
-      <c r="Y13" s="171"/>
-      <c r="Z13" s="171"/>
-      <c r="AA13" s="171"/>
-      <c r="AB13" s="171"/>
-      <c r="AC13" s="171"/>
-      <c r="AD13" s="171"/>
-      <c r="AE13" s="171"/>
-      <c r="AF13" s="171"/>
-      <c r="AG13" s="171"/>
-      <c r="AH13" s="172"/>
+      <c r="U13" s="116"/>
+      <c r="V13" s="116"/>
+      <c r="W13" s="116"/>
+      <c r="X13" s="116"/>
+      <c r="Y13" s="116"/>
+      <c r="Z13" s="116"/>
+      <c r="AA13" s="116"/>
+      <c r="AB13" s="116"/>
+      <c r="AC13" s="116"/>
+      <c r="AD13" s="116"/>
+      <c r="AE13" s="116"/>
+      <c r="AF13" s="116"/>
+      <c r="AG13" s="116"/>
+      <c r="AH13" s="117"/>
       <c r="AL13" s="11"/>
       <c r="AM13" s="11"/>
       <c r="AN13" s="11"/>
@@ -7673,43 +7671,43 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="D14" s="212"/>
-      <c r="E14" s="212"/>
-      <c r="F14" s="212"/>
-      <c r="G14" s="212"/>
-      <c r="H14" s="212"/>
-      <c r="I14" s="212"/>
-      <c r="J14" s="212"/>
-      <c r="K14" s="212"/>
-      <c r="L14" s="144" t="s">
+      <c r="D14" s="195"/>
+      <c r="E14" s="195"/>
+      <c r="F14" s="195"/>
+      <c r="G14" s="195"/>
+      <c r="H14" s="195"/>
+      <c r="I14" s="195"/>
+      <c r="J14" s="195"/>
+      <c r="K14" s="195"/>
+      <c r="L14" s="120" t="s">
         <v>56</v>
       </c>
-      <c r="M14" s="145"/>
-      <c r="N14" s="146"/>
-      <c r="O14" s="144" t="s">
+      <c r="M14" s="127"/>
+      <c r="N14" s="128"/>
+      <c r="O14" s="120" t="s">
         <v>57</v>
       </c>
-      <c r="P14" s="145"/>
-      <c r="Q14" s="145"/>
-      <c r="R14" s="145"/>
-      <c r="S14" s="146"/>
-      <c r="T14" s="147" t="s">
+      <c r="P14" s="127"/>
+      <c r="Q14" s="127"/>
+      <c r="R14" s="127"/>
+      <c r="S14" s="128"/>
+      <c r="T14" s="121" t="s">
         <v>58</v>
       </c>
-      <c r="U14" s="171"/>
-      <c r="V14" s="171"/>
-      <c r="W14" s="171"/>
-      <c r="X14" s="171"/>
-      <c r="Y14" s="171"/>
-      <c r="Z14" s="171"/>
-      <c r="AA14" s="171"/>
-      <c r="AB14" s="171"/>
-      <c r="AC14" s="171"/>
-      <c r="AD14" s="171"/>
-      <c r="AE14" s="171"/>
-      <c r="AF14" s="171"/>
-      <c r="AG14" s="171"/>
-      <c r="AH14" s="172"/>
+      <c r="U14" s="116"/>
+      <c r="V14" s="116"/>
+      <c r="W14" s="116"/>
+      <c r="X14" s="116"/>
+      <c r="Y14" s="116"/>
+      <c r="Z14" s="116"/>
+      <c r="AA14" s="116"/>
+      <c r="AB14" s="116"/>
+      <c r="AC14" s="116"/>
+      <c r="AD14" s="116"/>
+      <c r="AE14" s="116"/>
+      <c r="AF14" s="116"/>
+      <c r="AG14" s="116"/>
+      <c r="AH14" s="117"/>
       <c r="AL14" s="11"/>
       <c r="AM14" s="11"/>
       <c r="AN14" s="11"/>
@@ -7728,14 +7726,14 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="D15" s="212"/>
-      <c r="E15" s="212"/>
-      <c r="F15" s="212"/>
-      <c r="G15" s="212"/>
-      <c r="H15" s="212"/>
-      <c r="I15" s="212"/>
-      <c r="J15" s="212"/>
-      <c r="K15" s="212"/>
+      <c r="D15" s="195"/>
+      <c r="E15" s="195"/>
+      <c r="F15" s="195"/>
+      <c r="G15" s="195"/>
+      <c r="H15" s="195"/>
+      <c r="I15" s="195"/>
+      <c r="J15" s="195"/>
+      <c r="K15" s="195"/>
       <c r="L15" s="83" t="s">
         <v>60</v>
       </c>
@@ -7748,23 +7746,23 @@
       <c r="Q15" s="84"/>
       <c r="R15" s="84"/>
       <c r="S15" s="85"/>
-      <c r="T15" s="208" t="s">
+      <c r="T15" s="191" t="s">
         <v>66</v>
       </c>
-      <c r="U15" s="209"/>
-      <c r="V15" s="209"/>
-      <c r="W15" s="209"/>
-      <c r="X15" s="209"/>
-      <c r="Y15" s="209"/>
-      <c r="Z15" s="209"/>
-      <c r="AA15" s="209"/>
-      <c r="AB15" s="209"/>
-      <c r="AC15" s="209"/>
-      <c r="AD15" s="209"/>
-      <c r="AE15" s="209"/>
-      <c r="AF15" s="209"/>
-      <c r="AG15" s="209"/>
-      <c r="AH15" s="210"/>
+      <c r="U15" s="192"/>
+      <c r="V15" s="192"/>
+      <c r="W15" s="192"/>
+      <c r="X15" s="192"/>
+      <c r="Y15" s="192"/>
+      <c r="Z15" s="192"/>
+      <c r="AA15" s="192"/>
+      <c r="AB15" s="192"/>
+      <c r="AC15" s="192"/>
+      <c r="AD15" s="192"/>
+      <c r="AE15" s="192"/>
+      <c r="AF15" s="192"/>
+      <c r="AG15" s="192"/>
+      <c r="AH15" s="193"/>
       <c r="AL15" s="11"/>
       <c r="AM15" s="11"/>
       <c r="AN15" s="11"/>
@@ -7783,14 +7781,14 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="D16" s="212"/>
-      <c r="E16" s="212"/>
-      <c r="F16" s="212"/>
-      <c r="G16" s="212"/>
-      <c r="H16" s="212"/>
-      <c r="I16" s="212"/>
-      <c r="J16" s="212"/>
-      <c r="K16" s="212"/>
+      <c r="D16" s="195"/>
+      <c r="E16" s="195"/>
+      <c r="F16" s="195"/>
+      <c r="G16" s="195"/>
+      <c r="H16" s="195"/>
+      <c r="I16" s="195"/>
+      <c r="J16" s="195"/>
+      <c r="K16" s="195"/>
       <c r="L16" s="83" t="s">
         <v>61</v>
       </c>
@@ -7803,23 +7801,23 @@
       <c r="Q16" s="84"/>
       <c r="R16" s="84"/>
       <c r="S16" s="85"/>
-      <c r="T16" s="208" t="s">
+      <c r="T16" s="191" t="s">
         <v>67</v>
       </c>
-      <c r="U16" s="209"/>
-      <c r="V16" s="209"/>
-      <c r="W16" s="209"/>
-      <c r="X16" s="209"/>
-      <c r="Y16" s="209"/>
-      <c r="Z16" s="209"/>
-      <c r="AA16" s="209"/>
-      <c r="AB16" s="209"/>
-      <c r="AC16" s="209"/>
-      <c r="AD16" s="209"/>
-      <c r="AE16" s="209"/>
-      <c r="AF16" s="209"/>
-      <c r="AG16" s="209"/>
-      <c r="AH16" s="210"/>
+      <c r="U16" s="192"/>
+      <c r="V16" s="192"/>
+      <c r="W16" s="192"/>
+      <c r="X16" s="192"/>
+      <c r="Y16" s="192"/>
+      <c r="Z16" s="192"/>
+      <c r="AA16" s="192"/>
+      <c r="AB16" s="192"/>
+      <c r="AC16" s="192"/>
+      <c r="AD16" s="192"/>
+      <c r="AE16" s="192"/>
+      <c r="AF16" s="192"/>
+      <c r="AG16" s="192"/>
+      <c r="AH16" s="193"/>
       <c r="AL16" s="11"/>
       <c r="AM16" s="11"/>
       <c r="AN16" s="11"/>
@@ -7838,43 +7836,43 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="D17" s="212"/>
-      <c r="E17" s="212"/>
-      <c r="F17" s="212"/>
-      <c r="G17" s="212"/>
-      <c r="H17" s="212"/>
-      <c r="I17" s="212"/>
-      <c r="J17" s="212"/>
-      <c r="K17" s="212"/>
-      <c r="L17" s="144" t="s">
+      <c r="D17" s="195"/>
+      <c r="E17" s="195"/>
+      <c r="F17" s="195"/>
+      <c r="G17" s="195"/>
+      <c r="H17" s="195"/>
+      <c r="I17" s="195"/>
+      <c r="J17" s="195"/>
+      <c r="K17" s="195"/>
+      <c r="L17" s="120" t="s">
         <v>62</v>
       </c>
-      <c r="M17" s="145"/>
-      <c r="N17" s="146"/>
-      <c r="O17" s="144" t="s">
+      <c r="M17" s="127"/>
+      <c r="N17" s="128"/>
+      <c r="O17" s="120" t="s">
         <v>65</v>
       </c>
-      <c r="P17" s="145"/>
-      <c r="Q17" s="145"/>
-      <c r="R17" s="145"/>
-      <c r="S17" s="146"/>
-      <c r="T17" s="147" t="s">
+      <c r="P17" s="127"/>
+      <c r="Q17" s="127"/>
+      <c r="R17" s="127"/>
+      <c r="S17" s="128"/>
+      <c r="T17" s="121" t="s">
         <v>68</v>
       </c>
-      <c r="U17" s="171"/>
-      <c r="V17" s="171"/>
-      <c r="W17" s="171"/>
-      <c r="X17" s="171"/>
-      <c r="Y17" s="171"/>
-      <c r="Z17" s="171"/>
-      <c r="AA17" s="171"/>
-      <c r="AB17" s="171"/>
-      <c r="AC17" s="171"/>
-      <c r="AD17" s="171"/>
-      <c r="AE17" s="171"/>
-      <c r="AF17" s="171"/>
-      <c r="AG17" s="171"/>
-      <c r="AH17" s="172"/>
+      <c r="U17" s="116"/>
+      <c r="V17" s="116"/>
+      <c r="W17" s="116"/>
+      <c r="X17" s="116"/>
+      <c r="Y17" s="116"/>
+      <c r="Z17" s="116"/>
+      <c r="AA17" s="116"/>
+      <c r="AB17" s="116"/>
+      <c r="AC17" s="116"/>
+      <c r="AD17" s="116"/>
+      <c r="AE17" s="116"/>
+      <c r="AF17" s="116"/>
+      <c r="AG17" s="116"/>
+      <c r="AH17" s="117"/>
       <c r="AL17" s="11"/>
       <c r="AM17" s="11"/>
       <c r="AN17" s="11"/>
@@ -7905,35 +7903,35 @@
       <c r="I18" s="94"/>
       <c r="J18" s="94"/>
       <c r="K18" s="95"/>
-      <c r="L18" s="213" t="s">
+      <c r="L18" s="185" t="s">
         <v>73</v>
       </c>
-      <c r="M18" s="216"/>
-      <c r="N18" s="217"/>
-      <c r="O18" s="213" t="s">
+      <c r="M18" s="186"/>
+      <c r="N18" s="187"/>
+      <c r="O18" s="185" t="s">
         <v>30</v>
       </c>
-      <c r="P18" s="216"/>
-      <c r="Q18" s="216"/>
-      <c r="R18" s="216"/>
-      <c r="S18" s="217"/>
-      <c r="T18" s="218" t="s">
+      <c r="P18" s="186"/>
+      <c r="Q18" s="186"/>
+      <c r="R18" s="186"/>
+      <c r="S18" s="187"/>
+      <c r="T18" s="188" t="s">
         <v>45</v>
       </c>
-      <c r="U18" s="214"/>
-      <c r="V18" s="214"/>
-      <c r="W18" s="214"/>
-      <c r="X18" s="214"/>
-      <c r="Y18" s="214"/>
-      <c r="Z18" s="214"/>
-      <c r="AA18" s="214"/>
-      <c r="AB18" s="214"/>
-      <c r="AC18" s="214"/>
-      <c r="AD18" s="214"/>
-      <c r="AE18" s="214"/>
-      <c r="AF18" s="214"/>
-      <c r="AG18" s="214"/>
-      <c r="AH18" s="215"/>
+      <c r="U18" s="189"/>
+      <c r="V18" s="189"/>
+      <c r="W18" s="189"/>
+      <c r="X18" s="189"/>
+      <c r="Y18" s="189"/>
+      <c r="Z18" s="189"/>
+      <c r="AA18" s="189"/>
+      <c r="AB18" s="189"/>
+      <c r="AC18" s="189"/>
+      <c r="AD18" s="189"/>
+      <c r="AE18" s="189"/>
+      <c r="AF18" s="189"/>
+      <c r="AG18" s="189"/>
+      <c r="AH18" s="190"/>
       <c r="AL18" s="11"/>
       <c r="AM18" s="11"/>
       <c r="AN18" s="11"/>
@@ -7960,35 +7958,35 @@
       <c r="I19" s="91"/>
       <c r="J19" s="91"/>
       <c r="K19" s="92"/>
-      <c r="L19" s="213" t="s">
+      <c r="L19" s="185" t="s">
         <v>74</v>
       </c>
-      <c r="M19" s="216"/>
-      <c r="N19" s="217"/>
-      <c r="O19" s="213" t="s">
+      <c r="M19" s="186"/>
+      <c r="N19" s="187"/>
+      <c r="O19" s="185" t="s">
         <v>31</v>
       </c>
-      <c r="P19" s="216"/>
-      <c r="Q19" s="216"/>
-      <c r="R19" s="216"/>
-      <c r="S19" s="217"/>
-      <c r="T19" s="218" t="s">
+      <c r="P19" s="186"/>
+      <c r="Q19" s="186"/>
+      <c r="R19" s="186"/>
+      <c r="S19" s="187"/>
+      <c r="T19" s="188" t="s">
         <v>75</v>
       </c>
-      <c r="U19" s="214"/>
-      <c r="V19" s="214"/>
-      <c r="W19" s="214"/>
-      <c r="X19" s="214"/>
-      <c r="Y19" s="214"/>
-      <c r="Z19" s="214"/>
-      <c r="AA19" s="214"/>
-      <c r="AB19" s="214"/>
-      <c r="AC19" s="214"/>
-      <c r="AD19" s="214"/>
-      <c r="AE19" s="214"/>
-      <c r="AF19" s="214"/>
-      <c r="AG19" s="214"/>
-      <c r="AH19" s="215"/>
+      <c r="U19" s="189"/>
+      <c r="V19" s="189"/>
+      <c r="W19" s="189"/>
+      <c r="X19" s="189"/>
+      <c r="Y19" s="189"/>
+      <c r="Z19" s="189"/>
+      <c r="AA19" s="189"/>
+      <c r="AB19" s="189"/>
+      <c r="AC19" s="189"/>
+      <c r="AD19" s="189"/>
+      <c r="AE19" s="189"/>
+      <c r="AF19" s="189"/>
+      <c r="AG19" s="189"/>
+      <c r="AH19" s="190"/>
       <c r="AL19" s="11"/>
       <c r="AM19" s="11"/>
       <c r="AN19" s="11"/>
@@ -8050,16 +8048,33 @@
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="T9:AH9"/>
-    <mergeCell ref="L18:N18"/>
-    <mergeCell ref="O18:S18"/>
-    <mergeCell ref="T18:AH18"/>
-    <mergeCell ref="L19:N19"/>
-    <mergeCell ref="O19:S19"/>
-    <mergeCell ref="T19:AH19"/>
-    <mergeCell ref="T15:AH15"/>
-    <mergeCell ref="T16:AH16"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="L7:N7"/>
+    <mergeCell ref="O7:S7"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="L8:N8"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="T7:AH7"/>
+    <mergeCell ref="T8:AH8"/>
+    <mergeCell ref="O8:S8"/>
     <mergeCell ref="D10:F17"/>
     <mergeCell ref="G10:K17"/>
     <mergeCell ref="T10:AH10"/>
@@ -8074,35 +8089,18 @@
     <mergeCell ref="O10:S10"/>
     <mergeCell ref="O11:S11"/>
     <mergeCell ref="L10:N10"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="L8:N8"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="T7:AH7"/>
-    <mergeCell ref="T8:AH8"/>
-    <mergeCell ref="O8:S8"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="L7:N7"/>
-    <mergeCell ref="O7:S7"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="L13:N13"/>
     <mergeCell ref="O13:S13"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="O19:S19"/>
+    <mergeCell ref="T19:AH19"/>
+    <mergeCell ref="T15:AH15"/>
+    <mergeCell ref="T16:AH16"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="T9:AH9"/>
+    <mergeCell ref="L18:N18"/>
+    <mergeCell ref="O18:S18"/>
+    <mergeCell ref="T18:AH18"/>
     <mergeCell ref="T13:AH13"/>
     <mergeCell ref="L14:N14"/>
     <mergeCell ref="O14:S14"/>

--- a/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/010_要件定義/040_画面設計/画面一覧_A1_プロジェクト管理システム.xlsx
+++ b/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/010_要件定義/040_画面設計/画面一覧_A1_プロジェクト管理システム.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52BC61C0-4284-40CE-8B19-A4F7163BE42D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17C0CB16-D16D-4DAA-BD95-0D3A0609DFC5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -14,7 +14,7 @@
     <sheet name="1" sheetId="29" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'1'!$A$1:$AI$25</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'1'!$A$1:$AI$26</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$S$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">変更履歴!$A$1:$AI$34</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">目次!$A$1:$AI$36</definedName>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="85">
   <si>
     <t>PJ名</t>
   </si>
@@ -627,29 +627,6 @@
     <phoneticPr fontId="38"/>
   </si>
   <si>
-    <t>ログインIDとパスワードを入力し、Form認証を行う。
-ログアウト処理時はセッションを破棄し、ログイン画面へ遷移する。</t>
-    <rPh sb="13" eb="15">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>ハキ</t>
-    </rPh>
-    <rPh sb="51" eb="53">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="54" eb="56">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
     <t>・TOPメニュー、汎用エラーを共通機能として分類</t>
     <rPh sb="9" eb="11">
       <t>ハンヨウ</t>
@@ -667,6 +644,35 @@
   </si>
   <si>
     <t>プロジェクト管理システム</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>認証</t>
+    <rPh sb="0" eb="2">
+      <t>ニンショウ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>ログアウト処理</t>
+    <rPh sb="5" eb="7">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>ログインIDとパスワードを入力し、Form認証を行う。</t>
+    <rPh sb="13" eb="15">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>ログアウト処理時はセッションを破棄し、ログイン画面へ遷移する。</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>WA1010102</t>
     <phoneticPr fontId="10"/>
   </si>
 </sst>
@@ -1080,7 +1086,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -1392,6 +1398,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1528,7 +1547,7 @@
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="216">
+  <cellXfs count="223">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
@@ -1751,6 +1770,27 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="31" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -2932,9 +2972,7 @@
   </sheetPr>
   <dimension ref="A1:S513"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="U19" sqref="U19"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -2990,12 +3028,12 @@
       <c r="F25" s="21"/>
       <c r="G25" s="21"/>
       <c r="H25" s="21"/>
-      <c r="I25" s="96">
+      <c r="I25" s="103">
         <f ca="1">IF(INDIRECT("変更履歴!D8")="","",MAX(INDIRECT("変更履歴!D8"):INDIRECT("変更履歴!F33")))</f>
         <v>44796</v>
       </c>
-      <c r="J25" s="96"/>
-      <c r="K25" s="96"/>
+      <c r="J25" s="103"/>
+      <c r="K25" s="103"/>
     </row>
     <row r="26" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F26" s="21"/>
@@ -3594,57 +3632,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="144" t="s">
+      <c r="A1" s="151" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="145"/>
-      <c r="C1" s="145"/>
-      <c r="D1" s="146"/>
-      <c r="E1" s="147" t="s">
+      <c r="B1" s="152"/>
+      <c r="C1" s="152"/>
+      <c r="D1" s="153"/>
+      <c r="E1" s="154" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="148"/>
-      <c r="G1" s="148"/>
-      <c r="H1" s="148"/>
-      <c r="I1" s="148"/>
-      <c r="J1" s="148"/>
-      <c r="K1" s="148"/>
-      <c r="L1" s="148"/>
-      <c r="M1" s="148"/>
-      <c r="N1" s="149"/>
-      <c r="O1" s="153" t="s">
+      <c r="F1" s="155"/>
+      <c r="G1" s="155"/>
+      <c r="H1" s="155"/>
+      <c r="I1" s="155"/>
+      <c r="J1" s="155"/>
+      <c r="K1" s="155"/>
+      <c r="L1" s="155"/>
+      <c r="M1" s="155"/>
+      <c r="N1" s="156"/>
+      <c r="O1" s="160" t="s">
         <v>17</v>
       </c>
-      <c r="P1" s="154"/>
-      <c r="Q1" s="154"/>
-      <c r="R1" s="155"/>
-      <c r="S1" s="162" t="s">
+      <c r="P1" s="161"/>
+      <c r="Q1" s="161"/>
+      <c r="R1" s="162"/>
+      <c r="S1" s="169" t="s">
         <v>23</v>
       </c>
-      <c r="T1" s="163"/>
-      <c r="U1" s="163"/>
-      <c r="V1" s="163"/>
-      <c r="W1" s="163"/>
-      <c r="X1" s="163"/>
-      <c r="Y1" s="163"/>
-      <c r="Z1" s="164"/>
-      <c r="AA1" s="144" t="s">
+      <c r="T1" s="170"/>
+      <c r="U1" s="170"/>
+      <c r="V1" s="170"/>
+      <c r="W1" s="170"/>
+      <c r="X1" s="170"/>
+      <c r="Y1" s="170"/>
+      <c r="Z1" s="171"/>
+      <c r="AA1" s="151" t="s">
         <v>18</v>
       </c>
-      <c r="AB1" s="146"/>
-      <c r="AC1" s="171" t="str">
+      <c r="AB1" s="153"/>
+      <c r="AC1" s="178" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="172"/>
-      <c r="AE1" s="172"/>
-      <c r="AF1" s="173"/>
-      <c r="AG1" s="138">
+      <c r="AD1" s="179"/>
+      <c r="AE1" s="179"/>
+      <c r="AF1" s="180"/>
+      <c r="AG1" s="145">
         <f>IF(D8="","",D8)</f>
         <v>43592</v>
       </c>
-      <c r="AH1" s="139"/>
-      <c r="AI1" s="140"/>
+      <c r="AH1" s="146"/>
+      <c r="AI1" s="147"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="1"/>
@@ -3652,53 +3690,53 @@
       <c r="AN1" s="2"/>
     </row>
     <row r="2" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="144" t="s">
+      <c r="A2" s="151" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="145"/>
-      <c r="C2" s="145"/>
-      <c r="D2" s="146"/>
-      <c r="E2" s="147" t="s">
+      <c r="B2" s="152"/>
+      <c r="C2" s="152"/>
+      <c r="D2" s="153"/>
+      <c r="E2" s="154" t="s">
         <v>41</v>
       </c>
-      <c r="F2" s="148"/>
-      <c r="G2" s="148"/>
-      <c r="H2" s="148"/>
-      <c r="I2" s="148"/>
-      <c r="J2" s="148"/>
-      <c r="K2" s="148"/>
-      <c r="L2" s="148"/>
-      <c r="M2" s="148"/>
-      <c r="N2" s="149"/>
-      <c r="O2" s="156"/>
-      <c r="P2" s="157"/>
-      <c r="Q2" s="157"/>
-      <c r="R2" s="158"/>
-      <c r="S2" s="165"/>
-      <c r="T2" s="166"/>
-      <c r="U2" s="166"/>
-      <c r="V2" s="166"/>
-      <c r="W2" s="166"/>
-      <c r="X2" s="166"/>
-      <c r="Y2" s="166"/>
-      <c r="Z2" s="167"/>
-      <c r="AA2" s="144" t="s">
+      <c r="F2" s="155"/>
+      <c r="G2" s="155"/>
+      <c r="H2" s="155"/>
+      <c r="I2" s="155"/>
+      <c r="J2" s="155"/>
+      <c r="K2" s="155"/>
+      <c r="L2" s="155"/>
+      <c r="M2" s="155"/>
+      <c r="N2" s="156"/>
+      <c r="O2" s="163"/>
+      <c r="P2" s="164"/>
+      <c r="Q2" s="164"/>
+      <c r="R2" s="165"/>
+      <c r="S2" s="172"/>
+      <c r="T2" s="173"/>
+      <c r="U2" s="173"/>
+      <c r="V2" s="173"/>
+      <c r="W2" s="173"/>
+      <c r="X2" s="173"/>
+      <c r="Y2" s="173"/>
+      <c r="Z2" s="174"/>
+      <c r="AA2" s="151" t="s">
         <v>19</v>
       </c>
-      <c r="AB2" s="146"/>
-      <c r="AC2" s="150" t="str">
+      <c r="AB2" s="153"/>
+      <c r="AC2" s="157" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="151"/>
-      <c r="AE2" s="151"/>
-      <c r="AF2" s="152"/>
-      <c r="AG2" s="138">
+      <c r="AD2" s="158"/>
+      <c r="AE2" s="158"/>
+      <c r="AF2" s="159"/>
+      <c r="AG2" s="145">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v>44796</v>
       </c>
-      <c r="AH2" s="139"/>
-      <c r="AI2" s="140"/>
+      <c r="AH2" s="146"/>
+      <c r="AI2" s="147"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
@@ -3706,45 +3744,45 @@
       <c r="AN2" s="1"/>
     </row>
     <row r="3" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="144" t="s">
+      <c r="A3" s="151" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="145"/>
-      <c r="C3" s="145"/>
-      <c r="D3" s="146"/>
-      <c r="E3" s="147" t="s">
-        <v>80</v>
-      </c>
-      <c r="F3" s="148"/>
-      <c r="G3" s="148"/>
-      <c r="H3" s="148"/>
-      <c r="I3" s="148"/>
-      <c r="J3" s="148"/>
-      <c r="K3" s="148"/>
-      <c r="L3" s="148"/>
-      <c r="M3" s="148"/>
-      <c r="N3" s="149"/>
-      <c r="O3" s="159"/>
-      <c r="P3" s="160"/>
-      <c r="Q3" s="160"/>
-      <c r="R3" s="161"/>
-      <c r="S3" s="168"/>
-      <c r="T3" s="169"/>
-      <c r="U3" s="169"/>
-      <c r="V3" s="169"/>
-      <c r="W3" s="169"/>
-      <c r="X3" s="169"/>
-      <c r="Y3" s="169"/>
-      <c r="Z3" s="170"/>
-      <c r="AA3" s="144"/>
-      <c r="AB3" s="146"/>
-      <c r="AC3" s="171"/>
-      <c r="AD3" s="172"/>
-      <c r="AE3" s="172"/>
-      <c r="AF3" s="173"/>
-      <c r="AG3" s="138"/>
-      <c r="AH3" s="139"/>
-      <c r="AI3" s="140"/>
+      <c r="B3" s="152"/>
+      <c r="C3" s="152"/>
+      <c r="D3" s="153"/>
+      <c r="E3" s="154" t="s">
+        <v>79</v>
+      </c>
+      <c r="F3" s="155"/>
+      <c r="G3" s="155"/>
+      <c r="H3" s="155"/>
+      <c r="I3" s="155"/>
+      <c r="J3" s="155"/>
+      <c r="K3" s="155"/>
+      <c r="L3" s="155"/>
+      <c r="M3" s="155"/>
+      <c r="N3" s="156"/>
+      <c r="O3" s="166"/>
+      <c r="P3" s="167"/>
+      <c r="Q3" s="167"/>
+      <c r="R3" s="168"/>
+      <c r="S3" s="175"/>
+      <c r="T3" s="176"/>
+      <c r="U3" s="176"/>
+      <c r="V3" s="176"/>
+      <c r="W3" s="176"/>
+      <c r="X3" s="176"/>
+      <c r="Y3" s="176"/>
+      <c r="Z3" s="177"/>
+      <c r="AA3" s="151"/>
+      <c r="AB3" s="153"/>
+      <c r="AC3" s="178"/>
+      <c r="AD3" s="179"/>
+      <c r="AE3" s="179"/>
+      <c r="AF3" s="180"/>
+      <c r="AG3" s="145"/>
+      <c r="AH3" s="146"/>
+      <c r="AI3" s="147"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
@@ -3781,1070 +3819,1070 @@
       <c r="A7" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="141" t="s">
+      <c r="B7" s="148" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="142"/>
-      <c r="D7" s="141" t="s">
+      <c r="C7" s="149"/>
+      <c r="D7" s="148" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="143"/>
-      <c r="F7" s="142"/>
-      <c r="G7" s="141" t="s">
+      <c r="E7" s="150"/>
+      <c r="F7" s="149"/>
+      <c r="G7" s="148" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="143"/>
-      <c r="I7" s="142"/>
-      <c r="J7" s="141" t="s">
+      <c r="H7" s="150"/>
+      <c r="I7" s="149"/>
+      <c r="J7" s="148" t="s">
         <v>26</v>
       </c>
-      <c r="K7" s="143"/>
-      <c r="L7" s="143"/>
-      <c r="M7" s="143"/>
-      <c r="N7" s="143"/>
-      <c r="O7" s="143"/>
-      <c r="P7" s="142"/>
-      <c r="Q7" s="141" t="s">
+      <c r="K7" s="150"/>
+      <c r="L7" s="150"/>
+      <c r="M7" s="150"/>
+      <c r="N7" s="150"/>
+      <c r="O7" s="150"/>
+      <c r="P7" s="149"/>
+      <c r="Q7" s="148" t="s">
         <v>9</v>
       </c>
-      <c r="R7" s="143"/>
-      <c r="S7" s="143"/>
-      <c r="T7" s="143"/>
-      <c r="U7" s="143"/>
-      <c r="V7" s="143"/>
-      <c r="W7" s="143"/>
-      <c r="X7" s="143"/>
-      <c r="Y7" s="143"/>
-      <c r="Z7" s="143"/>
-      <c r="AA7" s="143"/>
-      <c r="AB7" s="143"/>
-      <c r="AC7" s="143"/>
-      <c r="AD7" s="143"/>
-      <c r="AE7" s="142"/>
-      <c r="AF7" s="141" t="s">
+      <c r="R7" s="150"/>
+      <c r="S7" s="150"/>
+      <c r="T7" s="150"/>
+      <c r="U7" s="150"/>
+      <c r="V7" s="150"/>
+      <c r="W7" s="150"/>
+      <c r="X7" s="150"/>
+      <c r="Y7" s="150"/>
+      <c r="Z7" s="150"/>
+      <c r="AA7" s="150"/>
+      <c r="AB7" s="150"/>
+      <c r="AC7" s="150"/>
+      <c r="AD7" s="150"/>
+      <c r="AE7" s="149"/>
+      <c r="AF7" s="148" t="s">
         <v>10</v>
       </c>
-      <c r="AG7" s="143"/>
-      <c r="AH7" s="143"/>
-      <c r="AI7" s="142"/>
+      <c r="AG7" s="150"/>
+      <c r="AH7" s="150"/>
+      <c r="AI7" s="149"/>
     </row>
     <row r="8" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="81">
         <v>1</v>
       </c>
-      <c r="B8" s="124">
+      <c r="B8" s="131">
         <v>1</v>
       </c>
-      <c r="C8" s="125"/>
-      <c r="D8" s="126">
+      <c r="C8" s="132"/>
+      <c r="D8" s="133">
         <v>43592</v>
       </c>
-      <c r="E8" s="127"/>
-      <c r="F8" s="128"/>
-      <c r="G8" s="129" t="s">
+      <c r="E8" s="134"/>
+      <c r="F8" s="135"/>
+      <c r="G8" s="136" t="s">
         <v>42</v>
       </c>
-      <c r="H8" s="130"/>
-      <c r="I8" s="131"/>
-      <c r="J8" s="132" t="s">
+      <c r="H8" s="137"/>
+      <c r="I8" s="138"/>
+      <c r="J8" s="139" t="s">
         <v>43</v>
       </c>
-      <c r="K8" s="133"/>
-      <c r="L8" s="133"/>
-      <c r="M8" s="133"/>
-      <c r="N8" s="133"/>
-      <c r="O8" s="133"/>
-      <c r="P8" s="134"/>
-      <c r="Q8" s="135" t="s">
+      <c r="K8" s="140"/>
+      <c r="L8" s="140"/>
+      <c r="M8" s="140"/>
+      <c r="N8" s="140"/>
+      <c r="O8" s="140"/>
+      <c r="P8" s="141"/>
+      <c r="Q8" s="142" t="s">
         <v>44</v>
       </c>
-      <c r="R8" s="136"/>
-      <c r="S8" s="136"/>
-      <c r="T8" s="136"/>
-      <c r="U8" s="136"/>
-      <c r="V8" s="136"/>
-      <c r="W8" s="136"/>
-      <c r="X8" s="136"/>
-      <c r="Y8" s="136"/>
-      <c r="Z8" s="136"/>
-      <c r="AA8" s="136"/>
-      <c r="AB8" s="136"/>
-      <c r="AC8" s="136"/>
-      <c r="AD8" s="136"/>
-      <c r="AE8" s="137"/>
-      <c r="AF8" s="132" t="s">
+      <c r="R8" s="143"/>
+      <c r="S8" s="143"/>
+      <c r="T8" s="143"/>
+      <c r="U8" s="143"/>
+      <c r="V8" s="143"/>
+      <c r="W8" s="143"/>
+      <c r="X8" s="143"/>
+      <c r="Y8" s="143"/>
+      <c r="Z8" s="143"/>
+      <c r="AA8" s="143"/>
+      <c r="AB8" s="143"/>
+      <c r="AC8" s="143"/>
+      <c r="AD8" s="143"/>
+      <c r="AE8" s="144"/>
+      <c r="AF8" s="139" t="s">
         <v>49</v>
       </c>
-      <c r="AG8" s="133"/>
-      <c r="AH8" s="133"/>
-      <c r="AI8" s="134"/>
+      <c r="AG8" s="140"/>
+      <c r="AH8" s="140"/>
+      <c r="AI8" s="141"/>
     </row>
     <row r="9" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="60">
         <v>2</v>
       </c>
-      <c r="B9" s="115">
+      <c r="B9" s="122">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C9" s="116"/>
-      <c r="D9" s="99">
+      <c r="C9" s="123"/>
+      <c r="D9" s="106">
         <v>43803</v>
       </c>
-      <c r="E9" s="100"/>
-      <c r="F9" s="101"/>
-      <c r="G9" s="117" t="s">
+      <c r="E9" s="107"/>
+      <c r="F9" s="108"/>
+      <c r="G9" s="124" t="s">
         <v>54</v>
       </c>
-      <c r="H9" s="118"/>
-      <c r="I9" s="119"/>
-      <c r="J9" s="113" t="s">
+      <c r="H9" s="125"/>
+      <c r="I9" s="126"/>
+      <c r="J9" s="120" t="s">
         <v>55</v>
       </c>
-      <c r="K9" s="120"/>
-      <c r="L9" s="120"/>
-      <c r="M9" s="120"/>
-      <c r="N9" s="120"/>
-      <c r="O9" s="120"/>
-      <c r="P9" s="121"/>
-      <c r="Q9" s="114" t="s">
+      <c r="K9" s="127"/>
+      <c r="L9" s="127"/>
+      <c r="M9" s="127"/>
+      <c r="N9" s="127"/>
+      <c r="O9" s="127"/>
+      <c r="P9" s="128"/>
+      <c r="Q9" s="121" t="s">
         <v>59</v>
       </c>
-      <c r="R9" s="122"/>
-      <c r="S9" s="122"/>
-      <c r="T9" s="122"/>
-      <c r="U9" s="122"/>
-      <c r="V9" s="122"/>
-      <c r="W9" s="122"/>
-      <c r="X9" s="122"/>
-      <c r="Y9" s="122"/>
-      <c r="Z9" s="122"/>
-      <c r="AA9" s="122"/>
-      <c r="AB9" s="122"/>
-      <c r="AC9" s="122"/>
-      <c r="AD9" s="122"/>
-      <c r="AE9" s="123"/>
-      <c r="AF9" s="113" t="s">
+      <c r="R9" s="129"/>
+      <c r="S9" s="129"/>
+      <c r="T9" s="129"/>
+      <c r="U9" s="129"/>
+      <c r="V9" s="129"/>
+      <c r="W9" s="129"/>
+      <c r="X9" s="129"/>
+      <c r="Y9" s="129"/>
+      <c r="Z9" s="129"/>
+      <c r="AA9" s="129"/>
+      <c r="AB9" s="129"/>
+      <c r="AC9" s="129"/>
+      <c r="AD9" s="129"/>
+      <c r="AE9" s="130"/>
+      <c r="AF9" s="120" t="s">
         <v>53</v>
       </c>
-      <c r="AG9" s="120"/>
-      <c r="AH9" s="120"/>
-      <c r="AI9" s="121"/>
+      <c r="AG9" s="127"/>
+      <c r="AH9" s="127"/>
+      <c r="AI9" s="128"/>
     </row>
     <row r="10" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="60">
         <v>3</v>
       </c>
-      <c r="B10" s="111" t="s">
+      <c r="B10" s="118" t="s">
         <v>70</v>
       </c>
-      <c r="C10" s="98"/>
-      <c r="D10" s="99">
+      <c r="C10" s="105"/>
+      <c r="D10" s="106">
         <v>43895</v>
       </c>
-      <c r="E10" s="100"/>
-      <c r="F10" s="101"/>
-      <c r="G10" s="112" t="s">
+      <c r="E10" s="107"/>
+      <c r="F10" s="108"/>
+      <c r="G10" s="119" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="103"/>
-      <c r="I10" s="104"/>
-      <c r="J10" s="113" t="s">
+      <c r="H10" s="110"/>
+      <c r="I10" s="111"/>
+      <c r="J10" s="120" t="s">
         <v>55</v>
       </c>
-      <c r="K10" s="106"/>
-      <c r="L10" s="106"/>
-      <c r="M10" s="106"/>
-      <c r="N10" s="106"/>
-      <c r="O10" s="106"/>
-      <c r="P10" s="107"/>
-      <c r="Q10" s="114" t="s">
+      <c r="K10" s="113"/>
+      <c r="L10" s="113"/>
+      <c r="M10" s="113"/>
+      <c r="N10" s="113"/>
+      <c r="O10" s="113"/>
+      <c r="P10" s="114"/>
+      <c r="Q10" s="121" t="s">
         <v>69</v>
       </c>
-      <c r="R10" s="109"/>
-      <c r="S10" s="109"/>
-      <c r="T10" s="109"/>
-      <c r="U10" s="109"/>
-      <c r="V10" s="109"/>
-      <c r="W10" s="109"/>
-      <c r="X10" s="109"/>
-      <c r="Y10" s="109"/>
-      <c r="Z10" s="109"/>
-      <c r="AA10" s="109"/>
-      <c r="AB10" s="109"/>
-      <c r="AC10" s="109"/>
-      <c r="AD10" s="109"/>
-      <c r="AE10" s="110"/>
-      <c r="AF10" s="113" t="s">
+      <c r="R10" s="116"/>
+      <c r="S10" s="116"/>
+      <c r="T10" s="116"/>
+      <c r="U10" s="116"/>
+      <c r="V10" s="116"/>
+      <c r="W10" s="116"/>
+      <c r="X10" s="116"/>
+      <c r="Y10" s="116"/>
+      <c r="Z10" s="116"/>
+      <c r="AA10" s="116"/>
+      <c r="AB10" s="116"/>
+      <c r="AC10" s="116"/>
+      <c r="AD10" s="116"/>
+      <c r="AE10" s="117"/>
+      <c r="AF10" s="120" t="s">
         <v>49</v>
       </c>
-      <c r="AG10" s="106"/>
-      <c r="AH10" s="106"/>
-      <c r="AI10" s="107"/>
+      <c r="AG10" s="113"/>
+      <c r="AH10" s="113"/>
+      <c r="AI10" s="114"/>
     </row>
     <row r="11" spans="1:40" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="60">
         <v>4</v>
       </c>
-      <c r="B11" s="111" t="s">
+      <c r="B11" s="118" t="s">
         <v>76</v>
       </c>
-      <c r="C11" s="98"/>
-      <c r="D11" s="99">
+      <c r="C11" s="105"/>
+      <c r="D11" s="106">
         <v>44796</v>
       </c>
-      <c r="E11" s="100"/>
-      <c r="F11" s="101"/>
-      <c r="G11" s="112" t="s">
+      <c r="E11" s="107"/>
+      <c r="F11" s="108"/>
+      <c r="G11" s="119" t="s">
         <v>4</v>
       </c>
-      <c r="H11" s="103"/>
-      <c r="I11" s="104"/>
-      <c r="J11" s="113" t="s">
+      <c r="H11" s="110"/>
+      <c r="I11" s="111"/>
+      <c r="J11" s="120" t="s">
         <v>55</v>
       </c>
-      <c r="K11" s="106"/>
-      <c r="L11" s="106"/>
-      <c r="M11" s="106"/>
-      <c r="N11" s="106"/>
-      <c r="O11" s="106"/>
-      <c r="P11" s="107"/>
-      <c r="Q11" s="114" t="s">
-        <v>79</v>
-      </c>
-      <c r="R11" s="109"/>
-      <c r="S11" s="109"/>
-      <c r="T11" s="109"/>
-      <c r="U11" s="109"/>
-      <c r="V11" s="109"/>
-      <c r="W11" s="109"/>
-      <c r="X11" s="109"/>
-      <c r="Y11" s="109"/>
-      <c r="Z11" s="109"/>
-      <c r="AA11" s="109"/>
-      <c r="AB11" s="109"/>
-      <c r="AC11" s="109"/>
-      <c r="AD11" s="109"/>
-      <c r="AE11" s="110"/>
-      <c r="AF11" s="113" t="s">
+      <c r="K11" s="113"/>
+      <c r="L11" s="113"/>
+      <c r="M11" s="113"/>
+      <c r="N11" s="113"/>
+      <c r="O11" s="113"/>
+      <c r="P11" s="114"/>
+      <c r="Q11" s="121" t="s">
+        <v>78</v>
+      </c>
+      <c r="R11" s="116"/>
+      <c r="S11" s="116"/>
+      <c r="T11" s="116"/>
+      <c r="U11" s="116"/>
+      <c r="V11" s="116"/>
+      <c r="W11" s="116"/>
+      <c r="X11" s="116"/>
+      <c r="Y11" s="116"/>
+      <c r="Z11" s="116"/>
+      <c r="AA11" s="116"/>
+      <c r="AB11" s="116"/>
+      <c r="AC11" s="116"/>
+      <c r="AD11" s="116"/>
+      <c r="AE11" s="117"/>
+      <c r="AF11" s="120" t="s">
         <v>49</v>
       </c>
-      <c r="AG11" s="106"/>
-      <c r="AH11" s="106"/>
-      <c r="AI11" s="107"/>
+      <c r="AG11" s="113"/>
+      <c r="AH11" s="113"/>
+      <c r="AI11" s="114"/>
     </row>
     <row r="12" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="60"/>
-      <c r="B12" s="97"/>
-      <c r="C12" s="98"/>
-      <c r="D12" s="99"/>
-      <c r="E12" s="100"/>
-      <c r="F12" s="101"/>
-      <c r="G12" s="102"/>
-      <c r="H12" s="103"/>
-      <c r="I12" s="104"/>
-      <c r="J12" s="105"/>
-      <c r="K12" s="106"/>
-      <c r="L12" s="106"/>
-      <c r="M12" s="106"/>
-      <c r="N12" s="106"/>
-      <c r="O12" s="106"/>
-      <c r="P12" s="107"/>
-      <c r="Q12" s="108"/>
-      <c r="R12" s="109"/>
-      <c r="S12" s="109"/>
-      <c r="T12" s="109"/>
-      <c r="U12" s="109"/>
-      <c r="V12" s="109"/>
-      <c r="W12" s="109"/>
-      <c r="X12" s="109"/>
-      <c r="Y12" s="109"/>
-      <c r="Z12" s="109"/>
-      <c r="AA12" s="109"/>
-      <c r="AB12" s="109"/>
-      <c r="AC12" s="109"/>
-      <c r="AD12" s="109"/>
-      <c r="AE12" s="110"/>
-      <c r="AF12" s="105"/>
-      <c r="AG12" s="106"/>
-      <c r="AH12" s="106"/>
-      <c r="AI12" s="107"/>
+      <c r="B12" s="104"/>
+      <c r="C12" s="105"/>
+      <c r="D12" s="106"/>
+      <c r="E12" s="107"/>
+      <c r="F12" s="108"/>
+      <c r="G12" s="109"/>
+      <c r="H12" s="110"/>
+      <c r="I12" s="111"/>
+      <c r="J12" s="112"/>
+      <c r="K12" s="113"/>
+      <c r="L12" s="113"/>
+      <c r="M12" s="113"/>
+      <c r="N12" s="113"/>
+      <c r="O12" s="113"/>
+      <c r="P12" s="114"/>
+      <c r="Q12" s="115"/>
+      <c r="R12" s="116"/>
+      <c r="S12" s="116"/>
+      <c r="T12" s="116"/>
+      <c r="U12" s="116"/>
+      <c r="V12" s="116"/>
+      <c r="W12" s="116"/>
+      <c r="X12" s="116"/>
+      <c r="Y12" s="116"/>
+      <c r="Z12" s="116"/>
+      <c r="AA12" s="116"/>
+      <c r="AB12" s="116"/>
+      <c r="AC12" s="116"/>
+      <c r="AD12" s="116"/>
+      <c r="AE12" s="117"/>
+      <c r="AF12" s="112"/>
+      <c r="AG12" s="113"/>
+      <c r="AH12" s="113"/>
+      <c r="AI12" s="114"/>
     </row>
     <row r="13" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="60"/>
-      <c r="B13" s="97"/>
-      <c r="C13" s="98"/>
-      <c r="D13" s="99"/>
-      <c r="E13" s="100"/>
-      <c r="F13" s="101"/>
-      <c r="G13" s="102"/>
-      <c r="H13" s="103"/>
-      <c r="I13" s="104"/>
-      <c r="J13" s="105"/>
-      <c r="K13" s="106"/>
-      <c r="L13" s="106"/>
-      <c r="M13" s="106"/>
-      <c r="N13" s="106"/>
-      <c r="O13" s="106"/>
-      <c r="P13" s="107"/>
-      <c r="Q13" s="108"/>
-      <c r="R13" s="109"/>
-      <c r="S13" s="109"/>
-      <c r="T13" s="109"/>
-      <c r="U13" s="109"/>
-      <c r="V13" s="109"/>
-      <c r="W13" s="109"/>
-      <c r="X13" s="109"/>
-      <c r="Y13" s="109"/>
-      <c r="Z13" s="109"/>
-      <c r="AA13" s="109"/>
-      <c r="AB13" s="109"/>
-      <c r="AC13" s="109"/>
-      <c r="AD13" s="109"/>
-      <c r="AE13" s="110"/>
-      <c r="AF13" s="105"/>
-      <c r="AG13" s="106"/>
-      <c r="AH13" s="106"/>
-      <c r="AI13" s="107"/>
+      <c r="B13" s="104"/>
+      <c r="C13" s="105"/>
+      <c r="D13" s="106"/>
+      <c r="E13" s="107"/>
+      <c r="F13" s="108"/>
+      <c r="G13" s="109"/>
+      <c r="H13" s="110"/>
+      <c r="I13" s="111"/>
+      <c r="J13" s="112"/>
+      <c r="K13" s="113"/>
+      <c r="L13" s="113"/>
+      <c r="M13" s="113"/>
+      <c r="N13" s="113"/>
+      <c r="O13" s="113"/>
+      <c r="P13" s="114"/>
+      <c r="Q13" s="115"/>
+      <c r="R13" s="116"/>
+      <c r="S13" s="116"/>
+      <c r="T13" s="116"/>
+      <c r="U13" s="116"/>
+      <c r="V13" s="116"/>
+      <c r="W13" s="116"/>
+      <c r="X13" s="116"/>
+      <c r="Y13" s="116"/>
+      <c r="Z13" s="116"/>
+      <c r="AA13" s="116"/>
+      <c r="AB13" s="116"/>
+      <c r="AC13" s="116"/>
+      <c r="AD13" s="116"/>
+      <c r="AE13" s="117"/>
+      <c r="AF13" s="112"/>
+      <c r="AG13" s="113"/>
+      <c r="AH13" s="113"/>
+      <c r="AI13" s="114"/>
     </row>
     <row r="14" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="60"/>
-      <c r="B14" s="97"/>
-      <c r="C14" s="98"/>
-      <c r="D14" s="99"/>
-      <c r="E14" s="100"/>
-      <c r="F14" s="101"/>
-      <c r="G14" s="102"/>
-      <c r="H14" s="103"/>
-      <c r="I14" s="104"/>
-      <c r="J14" s="105"/>
-      <c r="K14" s="106"/>
-      <c r="L14" s="106"/>
-      <c r="M14" s="106"/>
-      <c r="N14" s="106"/>
-      <c r="O14" s="106"/>
-      <c r="P14" s="107"/>
-      <c r="Q14" s="108"/>
-      <c r="R14" s="109"/>
-      <c r="S14" s="109"/>
-      <c r="T14" s="109"/>
-      <c r="U14" s="109"/>
-      <c r="V14" s="109"/>
-      <c r="W14" s="109"/>
-      <c r="X14" s="109"/>
-      <c r="Y14" s="109"/>
-      <c r="Z14" s="109"/>
-      <c r="AA14" s="109"/>
-      <c r="AB14" s="109"/>
-      <c r="AC14" s="109"/>
-      <c r="AD14" s="109"/>
-      <c r="AE14" s="110"/>
-      <c r="AF14" s="105"/>
-      <c r="AG14" s="106"/>
-      <c r="AH14" s="106"/>
-      <c r="AI14" s="107"/>
+      <c r="B14" s="104"/>
+      <c r="C14" s="105"/>
+      <c r="D14" s="106"/>
+      <c r="E14" s="107"/>
+      <c r="F14" s="108"/>
+      <c r="G14" s="109"/>
+      <c r="H14" s="110"/>
+      <c r="I14" s="111"/>
+      <c r="J14" s="112"/>
+      <c r="K14" s="113"/>
+      <c r="L14" s="113"/>
+      <c r="M14" s="113"/>
+      <c r="N14" s="113"/>
+      <c r="O14" s="113"/>
+      <c r="P14" s="114"/>
+      <c r="Q14" s="115"/>
+      <c r="R14" s="116"/>
+      <c r="S14" s="116"/>
+      <c r="T14" s="116"/>
+      <c r="U14" s="116"/>
+      <c r="V14" s="116"/>
+      <c r="W14" s="116"/>
+      <c r="X14" s="116"/>
+      <c r="Y14" s="116"/>
+      <c r="Z14" s="116"/>
+      <c r="AA14" s="116"/>
+      <c r="AB14" s="116"/>
+      <c r="AC14" s="116"/>
+      <c r="AD14" s="116"/>
+      <c r="AE14" s="117"/>
+      <c r="AF14" s="112"/>
+      <c r="AG14" s="113"/>
+      <c r="AH14" s="113"/>
+      <c r="AI14" s="114"/>
     </row>
     <row r="15" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="60"/>
-      <c r="B15" s="97"/>
-      <c r="C15" s="98"/>
-      <c r="D15" s="99"/>
-      <c r="E15" s="100"/>
-      <c r="F15" s="101"/>
-      <c r="G15" s="102"/>
-      <c r="H15" s="103"/>
-      <c r="I15" s="104"/>
-      <c r="J15" s="105"/>
-      <c r="K15" s="106"/>
-      <c r="L15" s="106"/>
-      <c r="M15" s="106"/>
-      <c r="N15" s="106"/>
-      <c r="O15" s="106"/>
-      <c r="P15" s="107"/>
-      <c r="Q15" s="108"/>
-      <c r="R15" s="109"/>
-      <c r="S15" s="109"/>
-      <c r="T15" s="109"/>
-      <c r="U15" s="109"/>
-      <c r="V15" s="109"/>
-      <c r="W15" s="109"/>
-      <c r="X15" s="109"/>
-      <c r="Y15" s="109"/>
-      <c r="Z15" s="109"/>
-      <c r="AA15" s="109"/>
-      <c r="AB15" s="109"/>
-      <c r="AC15" s="109"/>
-      <c r="AD15" s="109"/>
-      <c r="AE15" s="110"/>
-      <c r="AF15" s="105"/>
-      <c r="AG15" s="106"/>
-      <c r="AH15" s="106"/>
-      <c r="AI15" s="107"/>
+      <c r="B15" s="104"/>
+      <c r="C15" s="105"/>
+      <c r="D15" s="106"/>
+      <c r="E15" s="107"/>
+      <c r="F15" s="108"/>
+      <c r="G15" s="109"/>
+      <c r="H15" s="110"/>
+      <c r="I15" s="111"/>
+      <c r="J15" s="112"/>
+      <c r="K15" s="113"/>
+      <c r="L15" s="113"/>
+      <c r="M15" s="113"/>
+      <c r="N15" s="113"/>
+      <c r="O15" s="113"/>
+      <c r="P15" s="114"/>
+      <c r="Q15" s="115"/>
+      <c r="R15" s="116"/>
+      <c r="S15" s="116"/>
+      <c r="T15" s="116"/>
+      <c r="U15" s="116"/>
+      <c r="V15" s="116"/>
+      <c r="W15" s="116"/>
+      <c r="X15" s="116"/>
+      <c r="Y15" s="116"/>
+      <c r="Z15" s="116"/>
+      <c r="AA15" s="116"/>
+      <c r="AB15" s="116"/>
+      <c r="AC15" s="116"/>
+      <c r="AD15" s="116"/>
+      <c r="AE15" s="117"/>
+      <c r="AF15" s="112"/>
+      <c r="AG15" s="113"/>
+      <c r="AH15" s="113"/>
+      <c r="AI15" s="114"/>
     </row>
     <row r="16" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="60"/>
-      <c r="B16" s="97"/>
-      <c r="C16" s="98"/>
-      <c r="D16" s="99"/>
-      <c r="E16" s="100"/>
-      <c r="F16" s="101"/>
-      <c r="G16" s="102"/>
-      <c r="H16" s="103"/>
-      <c r="I16" s="104"/>
-      <c r="J16" s="105"/>
-      <c r="K16" s="106"/>
-      <c r="L16" s="106"/>
-      <c r="M16" s="106"/>
-      <c r="N16" s="106"/>
-      <c r="O16" s="106"/>
-      <c r="P16" s="107"/>
-      <c r="Q16" s="108"/>
-      <c r="R16" s="109"/>
-      <c r="S16" s="109"/>
-      <c r="T16" s="109"/>
-      <c r="U16" s="109"/>
-      <c r="V16" s="109"/>
-      <c r="W16" s="109"/>
-      <c r="X16" s="109"/>
-      <c r="Y16" s="109"/>
-      <c r="Z16" s="109"/>
-      <c r="AA16" s="109"/>
-      <c r="AB16" s="109"/>
-      <c r="AC16" s="109"/>
-      <c r="AD16" s="109"/>
-      <c r="AE16" s="110"/>
-      <c r="AF16" s="105"/>
-      <c r="AG16" s="106"/>
-      <c r="AH16" s="106"/>
-      <c r="AI16" s="107"/>
+      <c r="B16" s="104"/>
+      <c r="C16" s="105"/>
+      <c r="D16" s="106"/>
+      <c r="E16" s="107"/>
+      <c r="F16" s="108"/>
+      <c r="G16" s="109"/>
+      <c r="H16" s="110"/>
+      <c r="I16" s="111"/>
+      <c r="J16" s="112"/>
+      <c r="K16" s="113"/>
+      <c r="L16" s="113"/>
+      <c r="M16" s="113"/>
+      <c r="N16" s="113"/>
+      <c r="O16" s="113"/>
+      <c r="P16" s="114"/>
+      <c r="Q16" s="115"/>
+      <c r="R16" s="116"/>
+      <c r="S16" s="116"/>
+      <c r="T16" s="116"/>
+      <c r="U16" s="116"/>
+      <c r="V16" s="116"/>
+      <c r="W16" s="116"/>
+      <c r="X16" s="116"/>
+      <c r="Y16" s="116"/>
+      <c r="Z16" s="116"/>
+      <c r="AA16" s="116"/>
+      <c r="AB16" s="116"/>
+      <c r="AC16" s="116"/>
+      <c r="AD16" s="116"/>
+      <c r="AE16" s="117"/>
+      <c r="AF16" s="112"/>
+      <c r="AG16" s="113"/>
+      <c r="AH16" s="113"/>
+      <c r="AI16" s="114"/>
     </row>
     <row r="17" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="60"/>
-      <c r="B17" s="97"/>
-      <c r="C17" s="98"/>
-      <c r="D17" s="99"/>
-      <c r="E17" s="100"/>
-      <c r="F17" s="101"/>
-      <c r="G17" s="102"/>
-      <c r="H17" s="103"/>
-      <c r="I17" s="104"/>
-      <c r="J17" s="105"/>
-      <c r="K17" s="106"/>
-      <c r="L17" s="106"/>
-      <c r="M17" s="106"/>
-      <c r="N17" s="106"/>
-      <c r="O17" s="106"/>
-      <c r="P17" s="107"/>
-      <c r="Q17" s="108"/>
-      <c r="R17" s="109"/>
-      <c r="S17" s="109"/>
-      <c r="T17" s="109"/>
-      <c r="U17" s="109"/>
-      <c r="V17" s="109"/>
-      <c r="W17" s="109"/>
-      <c r="X17" s="109"/>
-      <c r="Y17" s="109"/>
-      <c r="Z17" s="109"/>
-      <c r="AA17" s="109"/>
-      <c r="AB17" s="109"/>
-      <c r="AC17" s="109"/>
-      <c r="AD17" s="109"/>
-      <c r="AE17" s="110"/>
-      <c r="AF17" s="105"/>
-      <c r="AG17" s="106"/>
-      <c r="AH17" s="106"/>
-      <c r="AI17" s="107"/>
+      <c r="B17" s="104"/>
+      <c r="C17" s="105"/>
+      <c r="D17" s="106"/>
+      <c r="E17" s="107"/>
+      <c r="F17" s="108"/>
+      <c r="G17" s="109"/>
+      <c r="H17" s="110"/>
+      <c r="I17" s="111"/>
+      <c r="J17" s="112"/>
+      <c r="K17" s="113"/>
+      <c r="L17" s="113"/>
+      <c r="M17" s="113"/>
+      <c r="N17" s="113"/>
+      <c r="O17" s="113"/>
+      <c r="P17" s="114"/>
+      <c r="Q17" s="115"/>
+      <c r="R17" s="116"/>
+      <c r="S17" s="116"/>
+      <c r="T17" s="116"/>
+      <c r="U17" s="116"/>
+      <c r="V17" s="116"/>
+      <c r="W17" s="116"/>
+      <c r="X17" s="116"/>
+      <c r="Y17" s="116"/>
+      <c r="Z17" s="116"/>
+      <c r="AA17" s="116"/>
+      <c r="AB17" s="116"/>
+      <c r="AC17" s="116"/>
+      <c r="AD17" s="116"/>
+      <c r="AE17" s="117"/>
+      <c r="AF17" s="112"/>
+      <c r="AG17" s="113"/>
+      <c r="AH17" s="113"/>
+      <c r="AI17" s="114"/>
     </row>
     <row r="18" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="60"/>
-      <c r="B18" s="97"/>
-      <c r="C18" s="98"/>
-      <c r="D18" s="99"/>
-      <c r="E18" s="100"/>
-      <c r="F18" s="101"/>
-      <c r="G18" s="102"/>
-      <c r="H18" s="103"/>
-      <c r="I18" s="104"/>
-      <c r="J18" s="105"/>
-      <c r="K18" s="106"/>
-      <c r="L18" s="106"/>
-      <c r="M18" s="106"/>
-      <c r="N18" s="106"/>
-      <c r="O18" s="106"/>
-      <c r="P18" s="107"/>
-      <c r="Q18" s="108"/>
-      <c r="R18" s="109"/>
-      <c r="S18" s="109"/>
-      <c r="T18" s="109"/>
-      <c r="U18" s="109"/>
-      <c r="V18" s="109"/>
-      <c r="W18" s="109"/>
-      <c r="X18" s="109"/>
-      <c r="Y18" s="109"/>
-      <c r="Z18" s="109"/>
-      <c r="AA18" s="109"/>
-      <c r="AB18" s="109"/>
-      <c r="AC18" s="109"/>
-      <c r="AD18" s="109"/>
-      <c r="AE18" s="110"/>
-      <c r="AF18" s="105"/>
-      <c r="AG18" s="106"/>
-      <c r="AH18" s="106"/>
-      <c r="AI18" s="107"/>
+      <c r="B18" s="104"/>
+      <c r="C18" s="105"/>
+      <c r="D18" s="106"/>
+      <c r="E18" s="107"/>
+      <c r="F18" s="108"/>
+      <c r="G18" s="109"/>
+      <c r="H18" s="110"/>
+      <c r="I18" s="111"/>
+      <c r="J18" s="112"/>
+      <c r="K18" s="113"/>
+      <c r="L18" s="113"/>
+      <c r="M18" s="113"/>
+      <c r="N18" s="113"/>
+      <c r="O18" s="113"/>
+      <c r="P18" s="114"/>
+      <c r="Q18" s="115"/>
+      <c r="R18" s="116"/>
+      <c r="S18" s="116"/>
+      <c r="T18" s="116"/>
+      <c r="U18" s="116"/>
+      <c r="V18" s="116"/>
+      <c r="W18" s="116"/>
+      <c r="X18" s="116"/>
+      <c r="Y18" s="116"/>
+      <c r="Z18" s="116"/>
+      <c r="AA18" s="116"/>
+      <c r="AB18" s="116"/>
+      <c r="AC18" s="116"/>
+      <c r="AD18" s="116"/>
+      <c r="AE18" s="117"/>
+      <c r="AF18" s="112"/>
+      <c r="AG18" s="113"/>
+      <c r="AH18" s="113"/>
+      <c r="AI18" s="114"/>
     </row>
     <row r="19" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="60"/>
-      <c r="B19" s="97"/>
-      <c r="C19" s="98"/>
-      <c r="D19" s="99"/>
-      <c r="E19" s="100"/>
-      <c r="F19" s="101"/>
-      <c r="G19" s="102"/>
-      <c r="H19" s="103"/>
-      <c r="I19" s="104"/>
-      <c r="J19" s="105"/>
-      <c r="K19" s="106"/>
-      <c r="L19" s="106"/>
-      <c r="M19" s="106"/>
-      <c r="N19" s="106"/>
-      <c r="O19" s="106"/>
-      <c r="P19" s="107"/>
-      <c r="Q19" s="108"/>
-      <c r="R19" s="109"/>
-      <c r="S19" s="109"/>
-      <c r="T19" s="109"/>
-      <c r="U19" s="109"/>
-      <c r="V19" s="109"/>
-      <c r="W19" s="109"/>
-      <c r="X19" s="109"/>
-      <c r="Y19" s="109"/>
-      <c r="Z19" s="109"/>
-      <c r="AA19" s="109"/>
-      <c r="AB19" s="109"/>
-      <c r="AC19" s="109"/>
-      <c r="AD19" s="109"/>
-      <c r="AE19" s="110"/>
-      <c r="AF19" s="105"/>
-      <c r="AG19" s="106"/>
-      <c r="AH19" s="106"/>
-      <c r="AI19" s="107"/>
+      <c r="B19" s="104"/>
+      <c r="C19" s="105"/>
+      <c r="D19" s="106"/>
+      <c r="E19" s="107"/>
+      <c r="F19" s="108"/>
+      <c r="G19" s="109"/>
+      <c r="H19" s="110"/>
+      <c r="I19" s="111"/>
+      <c r="J19" s="112"/>
+      <c r="K19" s="113"/>
+      <c r="L19" s="113"/>
+      <c r="M19" s="113"/>
+      <c r="N19" s="113"/>
+      <c r="O19" s="113"/>
+      <c r="P19" s="114"/>
+      <c r="Q19" s="115"/>
+      <c r="R19" s="116"/>
+      <c r="S19" s="116"/>
+      <c r="T19" s="116"/>
+      <c r="U19" s="116"/>
+      <c r="V19" s="116"/>
+      <c r="W19" s="116"/>
+      <c r="X19" s="116"/>
+      <c r="Y19" s="116"/>
+      <c r="Z19" s="116"/>
+      <c r="AA19" s="116"/>
+      <c r="AB19" s="116"/>
+      <c r="AC19" s="116"/>
+      <c r="AD19" s="116"/>
+      <c r="AE19" s="117"/>
+      <c r="AF19" s="112"/>
+      <c r="AG19" s="113"/>
+      <c r="AH19" s="113"/>
+      <c r="AI19" s="114"/>
     </row>
     <row r="20" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="60"/>
-      <c r="B20" s="97"/>
-      <c r="C20" s="98"/>
-      <c r="D20" s="99"/>
-      <c r="E20" s="100"/>
-      <c r="F20" s="101"/>
-      <c r="G20" s="102"/>
-      <c r="H20" s="103"/>
-      <c r="I20" s="104"/>
-      <c r="J20" s="105"/>
-      <c r="K20" s="106"/>
-      <c r="L20" s="106"/>
-      <c r="M20" s="106"/>
-      <c r="N20" s="106"/>
-      <c r="O20" s="106"/>
-      <c r="P20" s="107"/>
-      <c r="Q20" s="108"/>
-      <c r="R20" s="109"/>
-      <c r="S20" s="109"/>
-      <c r="T20" s="109"/>
-      <c r="U20" s="109"/>
-      <c r="V20" s="109"/>
-      <c r="W20" s="109"/>
-      <c r="X20" s="109"/>
-      <c r="Y20" s="109"/>
-      <c r="Z20" s="109"/>
-      <c r="AA20" s="109"/>
-      <c r="AB20" s="109"/>
-      <c r="AC20" s="109"/>
-      <c r="AD20" s="109"/>
-      <c r="AE20" s="110"/>
-      <c r="AF20" s="105"/>
-      <c r="AG20" s="106"/>
-      <c r="AH20" s="106"/>
-      <c r="AI20" s="107"/>
+      <c r="B20" s="104"/>
+      <c r="C20" s="105"/>
+      <c r="D20" s="106"/>
+      <c r="E20" s="107"/>
+      <c r="F20" s="108"/>
+      <c r="G20" s="109"/>
+      <c r="H20" s="110"/>
+      <c r="I20" s="111"/>
+      <c r="J20" s="112"/>
+      <c r="K20" s="113"/>
+      <c r="L20" s="113"/>
+      <c r="M20" s="113"/>
+      <c r="N20" s="113"/>
+      <c r="O20" s="113"/>
+      <c r="P20" s="114"/>
+      <c r="Q20" s="115"/>
+      <c r="R20" s="116"/>
+      <c r="S20" s="116"/>
+      <c r="T20" s="116"/>
+      <c r="U20" s="116"/>
+      <c r="V20" s="116"/>
+      <c r="W20" s="116"/>
+      <c r="X20" s="116"/>
+      <c r="Y20" s="116"/>
+      <c r="Z20" s="116"/>
+      <c r="AA20" s="116"/>
+      <c r="AB20" s="116"/>
+      <c r="AC20" s="116"/>
+      <c r="AD20" s="116"/>
+      <c r="AE20" s="117"/>
+      <c r="AF20" s="112"/>
+      <c r="AG20" s="113"/>
+      <c r="AH20" s="113"/>
+      <c r="AI20" s="114"/>
     </row>
     <row r="21" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="60"/>
-      <c r="B21" s="97"/>
-      <c r="C21" s="98"/>
-      <c r="D21" s="99"/>
-      <c r="E21" s="100"/>
-      <c r="F21" s="101"/>
-      <c r="G21" s="102"/>
-      <c r="H21" s="103"/>
-      <c r="I21" s="104"/>
-      <c r="J21" s="105"/>
-      <c r="K21" s="106"/>
-      <c r="L21" s="106"/>
-      <c r="M21" s="106"/>
-      <c r="N21" s="106"/>
-      <c r="O21" s="106"/>
-      <c r="P21" s="107"/>
-      <c r="Q21" s="108"/>
-      <c r="R21" s="109"/>
-      <c r="S21" s="109"/>
-      <c r="T21" s="109"/>
-      <c r="U21" s="109"/>
-      <c r="V21" s="109"/>
-      <c r="W21" s="109"/>
-      <c r="X21" s="109"/>
-      <c r="Y21" s="109"/>
-      <c r="Z21" s="109"/>
-      <c r="AA21" s="109"/>
-      <c r="AB21" s="109"/>
-      <c r="AC21" s="109"/>
-      <c r="AD21" s="109"/>
-      <c r="AE21" s="110"/>
-      <c r="AF21" s="105"/>
-      <c r="AG21" s="106"/>
-      <c r="AH21" s="106"/>
-      <c r="AI21" s="107"/>
+      <c r="B21" s="104"/>
+      <c r="C21" s="105"/>
+      <c r="D21" s="106"/>
+      <c r="E21" s="107"/>
+      <c r="F21" s="108"/>
+      <c r="G21" s="109"/>
+      <c r="H21" s="110"/>
+      <c r="I21" s="111"/>
+      <c r="J21" s="112"/>
+      <c r="K21" s="113"/>
+      <c r="L21" s="113"/>
+      <c r="M21" s="113"/>
+      <c r="N21" s="113"/>
+      <c r="O21" s="113"/>
+      <c r="P21" s="114"/>
+      <c r="Q21" s="115"/>
+      <c r="R21" s="116"/>
+      <c r="S21" s="116"/>
+      <c r="T21" s="116"/>
+      <c r="U21" s="116"/>
+      <c r="V21" s="116"/>
+      <c r="W21" s="116"/>
+      <c r="X21" s="116"/>
+      <c r="Y21" s="116"/>
+      <c r="Z21" s="116"/>
+      <c r="AA21" s="116"/>
+      <c r="AB21" s="116"/>
+      <c r="AC21" s="116"/>
+      <c r="AD21" s="116"/>
+      <c r="AE21" s="117"/>
+      <c r="AF21" s="112"/>
+      <c r="AG21" s="113"/>
+      <c r="AH21" s="113"/>
+      <c r="AI21" s="114"/>
     </row>
     <row r="22" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="60"/>
-      <c r="B22" s="97"/>
-      <c r="C22" s="98"/>
-      <c r="D22" s="99"/>
-      <c r="E22" s="100"/>
-      <c r="F22" s="101"/>
-      <c r="G22" s="102"/>
-      <c r="H22" s="103"/>
-      <c r="I22" s="104"/>
-      <c r="J22" s="105"/>
-      <c r="K22" s="106"/>
-      <c r="L22" s="106"/>
-      <c r="M22" s="106"/>
-      <c r="N22" s="106"/>
-      <c r="O22" s="106"/>
-      <c r="P22" s="107"/>
-      <c r="Q22" s="108"/>
-      <c r="R22" s="109"/>
-      <c r="S22" s="109"/>
-      <c r="T22" s="109"/>
-      <c r="U22" s="109"/>
-      <c r="V22" s="109"/>
-      <c r="W22" s="109"/>
-      <c r="X22" s="109"/>
-      <c r="Y22" s="109"/>
-      <c r="Z22" s="109"/>
-      <c r="AA22" s="109"/>
-      <c r="AB22" s="109"/>
-      <c r="AC22" s="109"/>
-      <c r="AD22" s="109"/>
-      <c r="AE22" s="110"/>
-      <c r="AF22" s="105"/>
-      <c r="AG22" s="106"/>
-      <c r="AH22" s="106"/>
-      <c r="AI22" s="107"/>
+      <c r="B22" s="104"/>
+      <c r="C22" s="105"/>
+      <c r="D22" s="106"/>
+      <c r="E22" s="107"/>
+      <c r="F22" s="108"/>
+      <c r="G22" s="109"/>
+      <c r="H22" s="110"/>
+      <c r="I22" s="111"/>
+      <c r="J22" s="112"/>
+      <c r="K22" s="113"/>
+      <c r="L22" s="113"/>
+      <c r="M22" s="113"/>
+      <c r="N22" s="113"/>
+      <c r="O22" s="113"/>
+      <c r="P22" s="114"/>
+      <c r="Q22" s="115"/>
+      <c r="R22" s="116"/>
+      <c r="S22" s="116"/>
+      <c r="T22" s="116"/>
+      <c r="U22" s="116"/>
+      <c r="V22" s="116"/>
+      <c r="W22" s="116"/>
+      <c r="X22" s="116"/>
+      <c r="Y22" s="116"/>
+      <c r="Z22" s="116"/>
+      <c r="AA22" s="116"/>
+      <c r="AB22" s="116"/>
+      <c r="AC22" s="116"/>
+      <c r="AD22" s="116"/>
+      <c r="AE22" s="117"/>
+      <c r="AF22" s="112"/>
+      <c r="AG22" s="113"/>
+      <c r="AH22" s="113"/>
+      <c r="AI22" s="114"/>
     </row>
     <row r="23" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="60"/>
-      <c r="B23" s="97"/>
-      <c r="C23" s="98"/>
-      <c r="D23" s="99"/>
-      <c r="E23" s="100"/>
-      <c r="F23" s="101"/>
-      <c r="G23" s="102"/>
-      <c r="H23" s="103"/>
-      <c r="I23" s="104"/>
-      <c r="J23" s="105"/>
-      <c r="K23" s="106"/>
-      <c r="L23" s="106"/>
-      <c r="M23" s="106"/>
-      <c r="N23" s="106"/>
-      <c r="O23" s="106"/>
-      <c r="P23" s="107"/>
-      <c r="Q23" s="108"/>
-      <c r="R23" s="109"/>
-      <c r="S23" s="109"/>
-      <c r="T23" s="109"/>
-      <c r="U23" s="109"/>
-      <c r="V23" s="109"/>
-      <c r="W23" s="109"/>
-      <c r="X23" s="109"/>
-      <c r="Y23" s="109"/>
-      <c r="Z23" s="109"/>
-      <c r="AA23" s="109"/>
-      <c r="AB23" s="109"/>
-      <c r="AC23" s="109"/>
-      <c r="AD23" s="109"/>
-      <c r="AE23" s="110"/>
-      <c r="AF23" s="105"/>
-      <c r="AG23" s="106"/>
-      <c r="AH23" s="106"/>
-      <c r="AI23" s="107"/>
+      <c r="B23" s="104"/>
+      <c r="C23" s="105"/>
+      <c r="D23" s="106"/>
+      <c r="E23" s="107"/>
+      <c r="F23" s="108"/>
+      <c r="G23" s="109"/>
+      <c r="H23" s="110"/>
+      <c r="I23" s="111"/>
+      <c r="J23" s="112"/>
+      <c r="K23" s="113"/>
+      <c r="L23" s="113"/>
+      <c r="M23" s="113"/>
+      <c r="N23" s="113"/>
+      <c r="O23" s="113"/>
+      <c r="P23" s="114"/>
+      <c r="Q23" s="115"/>
+      <c r="R23" s="116"/>
+      <c r="S23" s="116"/>
+      <c r="T23" s="116"/>
+      <c r="U23" s="116"/>
+      <c r="V23" s="116"/>
+      <c r="W23" s="116"/>
+      <c r="X23" s="116"/>
+      <c r="Y23" s="116"/>
+      <c r="Z23" s="116"/>
+      <c r="AA23" s="116"/>
+      <c r="AB23" s="116"/>
+      <c r="AC23" s="116"/>
+      <c r="AD23" s="116"/>
+      <c r="AE23" s="117"/>
+      <c r="AF23" s="112"/>
+      <c r="AG23" s="113"/>
+      <c r="AH23" s="113"/>
+      <c r="AI23" s="114"/>
     </row>
     <row r="24" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="60"/>
-      <c r="B24" s="97"/>
-      <c r="C24" s="98"/>
-      <c r="D24" s="99"/>
-      <c r="E24" s="100"/>
-      <c r="F24" s="101"/>
-      <c r="G24" s="102"/>
-      <c r="H24" s="103"/>
-      <c r="I24" s="104"/>
-      <c r="J24" s="105"/>
-      <c r="K24" s="106"/>
-      <c r="L24" s="106"/>
-      <c r="M24" s="106"/>
-      <c r="N24" s="106"/>
-      <c r="O24" s="106"/>
-      <c r="P24" s="107"/>
-      <c r="Q24" s="108"/>
-      <c r="R24" s="109"/>
-      <c r="S24" s="109"/>
-      <c r="T24" s="109"/>
-      <c r="U24" s="109"/>
-      <c r="V24" s="109"/>
-      <c r="W24" s="109"/>
-      <c r="X24" s="109"/>
-      <c r="Y24" s="109"/>
-      <c r="Z24" s="109"/>
-      <c r="AA24" s="109"/>
-      <c r="AB24" s="109"/>
-      <c r="AC24" s="109"/>
-      <c r="AD24" s="109"/>
-      <c r="AE24" s="110"/>
-      <c r="AF24" s="105"/>
-      <c r="AG24" s="106"/>
-      <c r="AH24" s="106"/>
-      <c r="AI24" s="107"/>
+      <c r="B24" s="104"/>
+      <c r="C24" s="105"/>
+      <c r="D24" s="106"/>
+      <c r="E24" s="107"/>
+      <c r="F24" s="108"/>
+      <c r="G24" s="109"/>
+      <c r="H24" s="110"/>
+      <c r="I24" s="111"/>
+      <c r="J24" s="112"/>
+      <c r="K24" s="113"/>
+      <c r="L24" s="113"/>
+      <c r="M24" s="113"/>
+      <c r="N24" s="113"/>
+      <c r="O24" s="113"/>
+      <c r="P24" s="114"/>
+      <c r="Q24" s="115"/>
+      <c r="R24" s="116"/>
+      <c r="S24" s="116"/>
+      <c r="T24" s="116"/>
+      <c r="U24" s="116"/>
+      <c r="V24" s="116"/>
+      <c r="W24" s="116"/>
+      <c r="X24" s="116"/>
+      <c r="Y24" s="116"/>
+      <c r="Z24" s="116"/>
+      <c r="AA24" s="116"/>
+      <c r="AB24" s="116"/>
+      <c r="AC24" s="116"/>
+      <c r="AD24" s="116"/>
+      <c r="AE24" s="117"/>
+      <c r="AF24" s="112"/>
+      <c r="AG24" s="113"/>
+      <c r="AH24" s="113"/>
+      <c r="AI24" s="114"/>
     </row>
     <row r="25" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="60"/>
-      <c r="B25" s="97"/>
-      <c r="C25" s="98"/>
-      <c r="D25" s="99"/>
-      <c r="E25" s="100"/>
-      <c r="F25" s="101"/>
-      <c r="G25" s="102"/>
-      <c r="H25" s="103"/>
-      <c r="I25" s="104"/>
-      <c r="J25" s="105"/>
-      <c r="K25" s="106"/>
-      <c r="L25" s="106"/>
-      <c r="M25" s="106"/>
-      <c r="N25" s="106"/>
-      <c r="O25" s="106"/>
-      <c r="P25" s="107"/>
-      <c r="Q25" s="108"/>
-      <c r="R25" s="109"/>
-      <c r="S25" s="109"/>
-      <c r="T25" s="109"/>
-      <c r="U25" s="109"/>
-      <c r="V25" s="109"/>
-      <c r="W25" s="109"/>
-      <c r="X25" s="109"/>
-      <c r="Y25" s="109"/>
-      <c r="Z25" s="109"/>
-      <c r="AA25" s="109"/>
-      <c r="AB25" s="109"/>
-      <c r="AC25" s="109"/>
-      <c r="AD25" s="109"/>
-      <c r="AE25" s="110"/>
-      <c r="AF25" s="105"/>
-      <c r="AG25" s="106"/>
-      <c r="AH25" s="106"/>
-      <c r="AI25" s="107"/>
+      <c r="B25" s="104"/>
+      <c r="C25" s="105"/>
+      <c r="D25" s="106"/>
+      <c r="E25" s="107"/>
+      <c r="F25" s="108"/>
+      <c r="G25" s="109"/>
+      <c r="H25" s="110"/>
+      <c r="I25" s="111"/>
+      <c r="J25" s="112"/>
+      <c r="K25" s="113"/>
+      <c r="L25" s="113"/>
+      <c r="M25" s="113"/>
+      <c r="N25" s="113"/>
+      <c r="O25" s="113"/>
+      <c r="P25" s="114"/>
+      <c r="Q25" s="115"/>
+      <c r="R25" s="116"/>
+      <c r="S25" s="116"/>
+      <c r="T25" s="116"/>
+      <c r="U25" s="116"/>
+      <c r="V25" s="116"/>
+      <c r="W25" s="116"/>
+      <c r="X25" s="116"/>
+      <c r="Y25" s="116"/>
+      <c r="Z25" s="116"/>
+      <c r="AA25" s="116"/>
+      <c r="AB25" s="116"/>
+      <c r="AC25" s="116"/>
+      <c r="AD25" s="116"/>
+      <c r="AE25" s="117"/>
+      <c r="AF25" s="112"/>
+      <c r="AG25" s="113"/>
+      <c r="AH25" s="113"/>
+      <c r="AI25" s="114"/>
     </row>
     <row r="26" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="60"/>
-      <c r="B26" s="97"/>
-      <c r="C26" s="98"/>
-      <c r="D26" s="99"/>
-      <c r="E26" s="100"/>
-      <c r="F26" s="101"/>
-      <c r="G26" s="102"/>
-      <c r="H26" s="103"/>
-      <c r="I26" s="104"/>
-      <c r="J26" s="105"/>
-      <c r="K26" s="106"/>
-      <c r="L26" s="106"/>
-      <c r="M26" s="106"/>
-      <c r="N26" s="106"/>
-      <c r="O26" s="106"/>
-      <c r="P26" s="107"/>
-      <c r="Q26" s="108"/>
-      <c r="R26" s="109"/>
-      <c r="S26" s="109"/>
-      <c r="T26" s="109"/>
-      <c r="U26" s="109"/>
-      <c r="V26" s="109"/>
-      <c r="W26" s="109"/>
-      <c r="X26" s="109"/>
-      <c r="Y26" s="109"/>
-      <c r="Z26" s="109"/>
-      <c r="AA26" s="109"/>
-      <c r="AB26" s="109"/>
-      <c r="AC26" s="109"/>
-      <c r="AD26" s="109"/>
-      <c r="AE26" s="110"/>
-      <c r="AF26" s="105"/>
-      <c r="AG26" s="106"/>
-      <c r="AH26" s="106"/>
-      <c r="AI26" s="107"/>
+      <c r="B26" s="104"/>
+      <c r="C26" s="105"/>
+      <c r="D26" s="106"/>
+      <c r="E26" s="107"/>
+      <c r="F26" s="108"/>
+      <c r="G26" s="109"/>
+      <c r="H26" s="110"/>
+      <c r="I26" s="111"/>
+      <c r="J26" s="112"/>
+      <c r="K26" s="113"/>
+      <c r="L26" s="113"/>
+      <c r="M26" s="113"/>
+      <c r="N26" s="113"/>
+      <c r="O26" s="113"/>
+      <c r="P26" s="114"/>
+      <c r="Q26" s="115"/>
+      <c r="R26" s="116"/>
+      <c r="S26" s="116"/>
+      <c r="T26" s="116"/>
+      <c r="U26" s="116"/>
+      <c r="V26" s="116"/>
+      <c r="W26" s="116"/>
+      <c r="X26" s="116"/>
+      <c r="Y26" s="116"/>
+      <c r="Z26" s="116"/>
+      <c r="AA26" s="116"/>
+      <c r="AB26" s="116"/>
+      <c r="AC26" s="116"/>
+      <c r="AD26" s="116"/>
+      <c r="AE26" s="117"/>
+      <c r="AF26" s="112"/>
+      <c r="AG26" s="113"/>
+      <c r="AH26" s="113"/>
+      <c r="AI26" s="114"/>
     </row>
     <row r="27" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="60"/>
-      <c r="B27" s="97"/>
-      <c r="C27" s="98"/>
-      <c r="D27" s="99"/>
-      <c r="E27" s="100"/>
-      <c r="F27" s="101"/>
-      <c r="G27" s="102"/>
-      <c r="H27" s="103"/>
-      <c r="I27" s="104"/>
-      <c r="J27" s="105"/>
-      <c r="K27" s="106"/>
-      <c r="L27" s="106"/>
-      <c r="M27" s="106"/>
-      <c r="N27" s="106"/>
-      <c r="O27" s="106"/>
-      <c r="P27" s="107"/>
-      <c r="Q27" s="108"/>
-      <c r="R27" s="109"/>
-      <c r="S27" s="109"/>
-      <c r="T27" s="109"/>
-      <c r="U27" s="109"/>
-      <c r="V27" s="109"/>
-      <c r="W27" s="109"/>
-      <c r="X27" s="109"/>
-      <c r="Y27" s="109"/>
-      <c r="Z27" s="109"/>
-      <c r="AA27" s="109"/>
-      <c r="AB27" s="109"/>
-      <c r="AC27" s="109"/>
-      <c r="AD27" s="109"/>
-      <c r="AE27" s="110"/>
-      <c r="AF27" s="105"/>
-      <c r="AG27" s="106"/>
-      <c r="AH27" s="106"/>
-      <c r="AI27" s="107"/>
+      <c r="B27" s="104"/>
+      <c r="C27" s="105"/>
+      <c r="D27" s="106"/>
+      <c r="E27" s="107"/>
+      <c r="F27" s="108"/>
+      <c r="G27" s="109"/>
+      <c r="H27" s="110"/>
+      <c r="I27" s="111"/>
+      <c r="J27" s="112"/>
+      <c r="K27" s="113"/>
+      <c r="L27" s="113"/>
+      <c r="M27" s="113"/>
+      <c r="N27" s="113"/>
+      <c r="O27" s="113"/>
+      <c r="P27" s="114"/>
+      <c r="Q27" s="115"/>
+      <c r="R27" s="116"/>
+      <c r="S27" s="116"/>
+      <c r="T27" s="116"/>
+      <c r="U27" s="116"/>
+      <c r="V27" s="116"/>
+      <c r="W27" s="116"/>
+      <c r="X27" s="116"/>
+      <c r="Y27" s="116"/>
+      <c r="Z27" s="116"/>
+      <c r="AA27" s="116"/>
+      <c r="AB27" s="116"/>
+      <c r="AC27" s="116"/>
+      <c r="AD27" s="116"/>
+      <c r="AE27" s="117"/>
+      <c r="AF27" s="112"/>
+      <c r="AG27" s="113"/>
+      <c r="AH27" s="113"/>
+      <c r="AI27" s="114"/>
     </row>
     <row r="28" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="60"/>
-      <c r="B28" s="97"/>
-      <c r="C28" s="98"/>
-      <c r="D28" s="99"/>
-      <c r="E28" s="100"/>
-      <c r="F28" s="101"/>
-      <c r="G28" s="102"/>
-      <c r="H28" s="103"/>
-      <c r="I28" s="104"/>
-      <c r="J28" s="105"/>
-      <c r="K28" s="106"/>
-      <c r="L28" s="106"/>
-      <c r="M28" s="106"/>
-      <c r="N28" s="106"/>
-      <c r="O28" s="106"/>
-      <c r="P28" s="107"/>
-      <c r="Q28" s="108"/>
-      <c r="R28" s="109"/>
-      <c r="S28" s="109"/>
-      <c r="T28" s="109"/>
-      <c r="U28" s="109"/>
-      <c r="V28" s="109"/>
-      <c r="W28" s="109"/>
-      <c r="X28" s="109"/>
-      <c r="Y28" s="109"/>
-      <c r="Z28" s="109"/>
-      <c r="AA28" s="109"/>
-      <c r="AB28" s="109"/>
-      <c r="AC28" s="109"/>
-      <c r="AD28" s="109"/>
-      <c r="AE28" s="110"/>
-      <c r="AF28" s="105"/>
-      <c r="AG28" s="106"/>
-      <c r="AH28" s="106"/>
-      <c r="AI28" s="107"/>
+      <c r="B28" s="104"/>
+      <c r="C28" s="105"/>
+      <c r="D28" s="106"/>
+      <c r="E28" s="107"/>
+      <c r="F28" s="108"/>
+      <c r="G28" s="109"/>
+      <c r="H28" s="110"/>
+      <c r="I28" s="111"/>
+      <c r="J28" s="112"/>
+      <c r="K28" s="113"/>
+      <c r="L28" s="113"/>
+      <c r="M28" s="113"/>
+      <c r="N28" s="113"/>
+      <c r="O28" s="113"/>
+      <c r="P28" s="114"/>
+      <c r="Q28" s="115"/>
+      <c r="R28" s="116"/>
+      <c r="S28" s="116"/>
+      <c r="T28" s="116"/>
+      <c r="U28" s="116"/>
+      <c r="V28" s="116"/>
+      <c r="W28" s="116"/>
+      <c r="X28" s="116"/>
+      <c r="Y28" s="116"/>
+      <c r="Z28" s="116"/>
+      <c r="AA28" s="116"/>
+      <c r="AB28" s="116"/>
+      <c r="AC28" s="116"/>
+      <c r="AD28" s="116"/>
+      <c r="AE28" s="117"/>
+      <c r="AF28" s="112"/>
+      <c r="AG28" s="113"/>
+      <c r="AH28" s="113"/>
+      <c r="AI28" s="114"/>
     </row>
     <row r="29" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="60"/>
-      <c r="B29" s="97"/>
-      <c r="C29" s="98"/>
-      <c r="D29" s="99"/>
-      <c r="E29" s="100"/>
-      <c r="F29" s="101"/>
-      <c r="G29" s="102"/>
-      <c r="H29" s="103"/>
-      <c r="I29" s="104"/>
-      <c r="J29" s="105"/>
-      <c r="K29" s="106"/>
-      <c r="L29" s="106"/>
-      <c r="M29" s="106"/>
-      <c r="N29" s="106"/>
-      <c r="O29" s="106"/>
-      <c r="P29" s="107"/>
-      <c r="Q29" s="108"/>
-      <c r="R29" s="109"/>
-      <c r="S29" s="109"/>
-      <c r="T29" s="109"/>
-      <c r="U29" s="109"/>
-      <c r="V29" s="109"/>
-      <c r="W29" s="109"/>
-      <c r="X29" s="109"/>
-      <c r="Y29" s="109"/>
-      <c r="Z29" s="109"/>
-      <c r="AA29" s="109"/>
-      <c r="AB29" s="109"/>
-      <c r="AC29" s="109"/>
-      <c r="AD29" s="109"/>
-      <c r="AE29" s="110"/>
-      <c r="AF29" s="105"/>
-      <c r="AG29" s="106"/>
-      <c r="AH29" s="106"/>
-      <c r="AI29" s="107"/>
+      <c r="B29" s="104"/>
+      <c r="C29" s="105"/>
+      <c r="D29" s="106"/>
+      <c r="E29" s="107"/>
+      <c r="F29" s="108"/>
+      <c r="G29" s="109"/>
+      <c r="H29" s="110"/>
+      <c r="I29" s="111"/>
+      <c r="J29" s="112"/>
+      <c r="K29" s="113"/>
+      <c r="L29" s="113"/>
+      <c r="M29" s="113"/>
+      <c r="N29" s="113"/>
+      <c r="O29" s="113"/>
+      <c r="P29" s="114"/>
+      <c r="Q29" s="115"/>
+      <c r="R29" s="116"/>
+      <c r="S29" s="116"/>
+      <c r="T29" s="116"/>
+      <c r="U29" s="116"/>
+      <c r="V29" s="116"/>
+      <c r="W29" s="116"/>
+      <c r="X29" s="116"/>
+      <c r="Y29" s="116"/>
+      <c r="Z29" s="116"/>
+      <c r="AA29" s="116"/>
+      <c r="AB29" s="116"/>
+      <c r="AC29" s="116"/>
+      <c r="AD29" s="116"/>
+      <c r="AE29" s="117"/>
+      <c r="AF29" s="112"/>
+      <c r="AG29" s="113"/>
+      <c r="AH29" s="113"/>
+      <c r="AI29" s="114"/>
     </row>
     <row r="30" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="60"/>
-      <c r="B30" s="97"/>
-      <c r="C30" s="98"/>
-      <c r="D30" s="99"/>
-      <c r="E30" s="100"/>
-      <c r="F30" s="101"/>
-      <c r="G30" s="102"/>
-      <c r="H30" s="103"/>
-      <c r="I30" s="104"/>
-      <c r="J30" s="105"/>
-      <c r="K30" s="106"/>
-      <c r="L30" s="106"/>
-      <c r="M30" s="106"/>
-      <c r="N30" s="106"/>
-      <c r="O30" s="106"/>
-      <c r="P30" s="107"/>
-      <c r="Q30" s="108"/>
-      <c r="R30" s="109"/>
-      <c r="S30" s="109"/>
-      <c r="T30" s="109"/>
-      <c r="U30" s="109"/>
-      <c r="V30" s="109"/>
-      <c r="W30" s="109"/>
-      <c r="X30" s="109"/>
-      <c r="Y30" s="109"/>
-      <c r="Z30" s="109"/>
-      <c r="AA30" s="109"/>
-      <c r="AB30" s="109"/>
-      <c r="AC30" s="109"/>
-      <c r="AD30" s="109"/>
-      <c r="AE30" s="110"/>
-      <c r="AF30" s="105"/>
-      <c r="AG30" s="106"/>
-      <c r="AH30" s="106"/>
-      <c r="AI30" s="107"/>
+      <c r="B30" s="104"/>
+      <c r="C30" s="105"/>
+      <c r="D30" s="106"/>
+      <c r="E30" s="107"/>
+      <c r="F30" s="108"/>
+      <c r="G30" s="109"/>
+      <c r="H30" s="110"/>
+      <c r="I30" s="111"/>
+      <c r="J30" s="112"/>
+      <c r="K30" s="113"/>
+      <c r="L30" s="113"/>
+      <c r="M30" s="113"/>
+      <c r="N30" s="113"/>
+      <c r="O30" s="113"/>
+      <c r="P30" s="114"/>
+      <c r="Q30" s="115"/>
+      <c r="R30" s="116"/>
+      <c r="S30" s="116"/>
+      <c r="T30" s="116"/>
+      <c r="U30" s="116"/>
+      <c r="V30" s="116"/>
+      <c r="W30" s="116"/>
+      <c r="X30" s="116"/>
+      <c r="Y30" s="116"/>
+      <c r="Z30" s="116"/>
+      <c r="AA30" s="116"/>
+      <c r="AB30" s="116"/>
+      <c r="AC30" s="116"/>
+      <c r="AD30" s="116"/>
+      <c r="AE30" s="117"/>
+      <c r="AF30" s="112"/>
+      <c r="AG30" s="113"/>
+      <c r="AH30" s="113"/>
+      <c r="AI30" s="114"/>
     </row>
     <row r="31" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="60"/>
-      <c r="B31" s="97"/>
-      <c r="C31" s="98"/>
-      <c r="D31" s="99"/>
-      <c r="E31" s="100"/>
-      <c r="F31" s="101"/>
-      <c r="G31" s="102"/>
-      <c r="H31" s="103"/>
-      <c r="I31" s="104"/>
-      <c r="J31" s="105"/>
-      <c r="K31" s="106"/>
-      <c r="L31" s="106"/>
-      <c r="M31" s="106"/>
-      <c r="N31" s="106"/>
-      <c r="O31" s="106"/>
-      <c r="P31" s="107"/>
-      <c r="Q31" s="108"/>
-      <c r="R31" s="109"/>
-      <c r="S31" s="109"/>
-      <c r="T31" s="109"/>
-      <c r="U31" s="109"/>
-      <c r="V31" s="109"/>
-      <c r="W31" s="109"/>
-      <c r="X31" s="109"/>
-      <c r="Y31" s="109"/>
-      <c r="Z31" s="109"/>
-      <c r="AA31" s="109"/>
-      <c r="AB31" s="109"/>
-      <c r="AC31" s="109"/>
-      <c r="AD31" s="109"/>
-      <c r="AE31" s="110"/>
-      <c r="AF31" s="105"/>
-      <c r="AG31" s="106"/>
-      <c r="AH31" s="106"/>
-      <c r="AI31" s="107"/>
+      <c r="B31" s="104"/>
+      <c r="C31" s="105"/>
+      <c r="D31" s="106"/>
+      <c r="E31" s="107"/>
+      <c r="F31" s="108"/>
+      <c r="G31" s="109"/>
+      <c r="H31" s="110"/>
+      <c r="I31" s="111"/>
+      <c r="J31" s="112"/>
+      <c r="K31" s="113"/>
+      <c r="L31" s="113"/>
+      <c r="M31" s="113"/>
+      <c r="N31" s="113"/>
+      <c r="O31" s="113"/>
+      <c r="P31" s="114"/>
+      <c r="Q31" s="115"/>
+      <c r="R31" s="116"/>
+      <c r="S31" s="116"/>
+      <c r="T31" s="116"/>
+      <c r="U31" s="116"/>
+      <c r="V31" s="116"/>
+      <c r="W31" s="116"/>
+      <c r="X31" s="116"/>
+      <c r="Y31" s="116"/>
+      <c r="Z31" s="116"/>
+      <c r="AA31" s="116"/>
+      <c r="AB31" s="116"/>
+      <c r="AC31" s="116"/>
+      <c r="AD31" s="116"/>
+      <c r="AE31" s="117"/>
+      <c r="AF31" s="112"/>
+      <c r="AG31" s="113"/>
+      <c r="AH31" s="113"/>
+      <c r="AI31" s="114"/>
     </row>
     <row r="32" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="60"/>
-      <c r="B32" s="97"/>
-      <c r="C32" s="98"/>
-      <c r="D32" s="99"/>
-      <c r="E32" s="100"/>
-      <c r="F32" s="101"/>
-      <c r="G32" s="102"/>
-      <c r="H32" s="103"/>
-      <c r="I32" s="104"/>
-      <c r="J32" s="105"/>
-      <c r="K32" s="106"/>
-      <c r="L32" s="106"/>
-      <c r="M32" s="106"/>
-      <c r="N32" s="106"/>
-      <c r="O32" s="106"/>
-      <c r="P32" s="107"/>
-      <c r="Q32" s="108"/>
-      <c r="R32" s="109"/>
-      <c r="S32" s="109"/>
-      <c r="T32" s="109"/>
-      <c r="U32" s="109"/>
-      <c r="V32" s="109"/>
-      <c r="W32" s="109"/>
-      <c r="X32" s="109"/>
-      <c r="Y32" s="109"/>
-      <c r="Z32" s="109"/>
-      <c r="AA32" s="109"/>
-      <c r="AB32" s="109"/>
-      <c r="AC32" s="109"/>
-      <c r="AD32" s="109"/>
-      <c r="AE32" s="110"/>
-      <c r="AF32" s="105"/>
-      <c r="AG32" s="106"/>
-      <c r="AH32" s="106"/>
-      <c r="AI32" s="107"/>
+      <c r="B32" s="104"/>
+      <c r="C32" s="105"/>
+      <c r="D32" s="106"/>
+      <c r="E32" s="107"/>
+      <c r="F32" s="108"/>
+      <c r="G32" s="109"/>
+      <c r="H32" s="110"/>
+      <c r="I32" s="111"/>
+      <c r="J32" s="112"/>
+      <c r="K32" s="113"/>
+      <c r="L32" s="113"/>
+      <c r="M32" s="113"/>
+      <c r="N32" s="113"/>
+      <c r="O32" s="113"/>
+      <c r="P32" s="114"/>
+      <c r="Q32" s="115"/>
+      <c r="R32" s="116"/>
+      <c r="S32" s="116"/>
+      <c r="T32" s="116"/>
+      <c r="U32" s="116"/>
+      <c r="V32" s="116"/>
+      <c r="W32" s="116"/>
+      <c r="X32" s="116"/>
+      <c r="Y32" s="116"/>
+      <c r="Z32" s="116"/>
+      <c r="AA32" s="116"/>
+      <c r="AB32" s="116"/>
+      <c r="AC32" s="116"/>
+      <c r="AD32" s="116"/>
+      <c r="AE32" s="117"/>
+      <c r="AF32" s="112"/>
+      <c r="AG32" s="113"/>
+      <c r="AH32" s="113"/>
+      <c r="AI32" s="114"/>
     </row>
     <row r="33" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="60"/>
-      <c r="B33" s="97"/>
-      <c r="C33" s="98"/>
-      <c r="D33" s="99"/>
-      <c r="E33" s="100"/>
-      <c r="F33" s="101"/>
-      <c r="G33" s="102"/>
-      <c r="H33" s="103"/>
-      <c r="I33" s="104"/>
-      <c r="J33" s="105"/>
-      <c r="K33" s="106"/>
-      <c r="L33" s="106"/>
-      <c r="M33" s="106"/>
-      <c r="N33" s="106"/>
-      <c r="O33" s="106"/>
-      <c r="P33" s="107"/>
-      <c r="Q33" s="108"/>
-      <c r="R33" s="109"/>
-      <c r="S33" s="109"/>
-      <c r="T33" s="109"/>
-      <c r="U33" s="109"/>
-      <c r="V33" s="109"/>
-      <c r="W33" s="109"/>
-      <c r="X33" s="109"/>
-      <c r="Y33" s="109"/>
-      <c r="Z33" s="109"/>
-      <c r="AA33" s="109"/>
-      <c r="AB33" s="109"/>
-      <c r="AC33" s="109"/>
-      <c r="AD33" s="109"/>
-      <c r="AE33" s="110"/>
-      <c r="AF33" s="105"/>
-      <c r="AG33" s="106"/>
-      <c r="AH33" s="106"/>
-      <c r="AI33" s="107"/>
+      <c r="B33" s="104"/>
+      <c r="C33" s="105"/>
+      <c r="D33" s="106"/>
+      <c r="E33" s="107"/>
+      <c r="F33" s="108"/>
+      <c r="G33" s="109"/>
+      <c r="H33" s="110"/>
+      <c r="I33" s="111"/>
+      <c r="J33" s="112"/>
+      <c r="K33" s="113"/>
+      <c r="L33" s="113"/>
+      <c r="M33" s="113"/>
+      <c r="N33" s="113"/>
+      <c r="O33" s="113"/>
+      <c r="P33" s="114"/>
+      <c r="Q33" s="115"/>
+      <c r="R33" s="116"/>
+      <c r="S33" s="116"/>
+      <c r="T33" s="116"/>
+      <c r="U33" s="116"/>
+      <c r="V33" s="116"/>
+      <c r="W33" s="116"/>
+      <c r="X33" s="116"/>
+      <c r="Y33" s="116"/>
+      <c r="Z33" s="116"/>
+      <c r="AA33" s="116"/>
+      <c r="AB33" s="116"/>
+      <c r="AC33" s="116"/>
+      <c r="AD33" s="116"/>
+      <c r="AE33" s="117"/>
+      <c r="AF33" s="112"/>
+      <c r="AG33" s="113"/>
+      <c r="AH33" s="113"/>
+      <c r="AI33" s="114"/>
     </row>
   </sheetData>
   <mergeCells count="179">
@@ -5183,163 +5221,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="144" t="s">
+      <c r="A1" s="151" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="145"/>
-      <c r="C1" s="145"/>
-      <c r="D1" s="146"/>
-      <c r="E1" s="174" t="str">
+      <c r="B1" s="152"/>
+      <c r="C1" s="152"/>
+      <c r="D1" s="153"/>
+      <c r="E1" s="181" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="148"/>
-      <c r="G1" s="148"/>
-      <c r="H1" s="148"/>
-      <c r="I1" s="148"/>
-      <c r="J1" s="148"/>
-      <c r="K1" s="148"/>
-      <c r="L1" s="148"/>
-      <c r="M1" s="148"/>
-      <c r="N1" s="149"/>
-      <c r="O1" s="153" t="s">
+      <c r="F1" s="155"/>
+      <c r="G1" s="155"/>
+      <c r="H1" s="155"/>
+      <c r="I1" s="155"/>
+      <c r="J1" s="155"/>
+      <c r="K1" s="155"/>
+      <c r="L1" s="155"/>
+      <c r="M1" s="155"/>
+      <c r="N1" s="156"/>
+      <c r="O1" s="160" t="s">
         <v>17</v>
       </c>
-      <c r="P1" s="154"/>
-      <c r="Q1" s="154"/>
-      <c r="R1" s="155"/>
-      <c r="S1" s="162" t="str">
+      <c r="P1" s="161"/>
+      <c r="Q1" s="161"/>
+      <c r="R1" s="162"/>
+      <c r="S1" s="169" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>画面一覧</v>
       </c>
-      <c r="T1" s="163"/>
-      <c r="U1" s="163"/>
-      <c r="V1" s="163"/>
-      <c r="W1" s="163"/>
-      <c r="X1" s="163"/>
-      <c r="Y1" s="163"/>
-      <c r="Z1" s="164"/>
-      <c r="AA1" s="144" t="s">
+      <c r="T1" s="170"/>
+      <c r="U1" s="170"/>
+      <c r="V1" s="170"/>
+      <c r="W1" s="170"/>
+      <c r="X1" s="170"/>
+      <c r="Y1" s="170"/>
+      <c r="Z1" s="171"/>
+      <c r="AA1" s="151" t="s">
         <v>18</v>
       </c>
-      <c r="AB1" s="146"/>
-      <c r="AC1" s="171" t="str">
+      <c r="AB1" s="153"/>
+      <c r="AC1" s="178" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="172"/>
-      <c r="AE1" s="172"/>
-      <c r="AF1" s="173"/>
-      <c r="AG1" s="175">
+      <c r="AD1" s="179"/>
+      <c r="AE1" s="179"/>
+      <c r="AF1" s="180"/>
+      <c r="AG1" s="182">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43592</v>
       </c>
-      <c r="AH1" s="176"/>
-      <c r="AI1" s="177"/>
+      <c r="AH1" s="183"/>
+      <c r="AI1" s="184"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="2"/>
     </row>
     <row r="2" spans="1:38" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="144" t="s">
+      <c r="A2" s="151" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="145"/>
-      <c r="C2" s="145"/>
-      <c r="D2" s="146"/>
-      <c r="E2" s="174" t="str">
+      <c r="B2" s="152"/>
+      <c r="C2" s="152"/>
+      <c r="D2" s="153"/>
+      <c r="E2" s="181" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="148"/>
-      <c r="G2" s="148"/>
-      <c r="H2" s="148"/>
-      <c r="I2" s="148"/>
-      <c r="J2" s="148"/>
-      <c r="K2" s="148"/>
-      <c r="L2" s="148"/>
-      <c r="M2" s="148"/>
-      <c r="N2" s="149"/>
-      <c r="O2" s="156"/>
-      <c r="P2" s="157"/>
-      <c r="Q2" s="157"/>
-      <c r="R2" s="158"/>
-      <c r="S2" s="165"/>
-      <c r="T2" s="166"/>
-      <c r="U2" s="166"/>
-      <c r="V2" s="166"/>
-      <c r="W2" s="166"/>
-      <c r="X2" s="166"/>
-      <c r="Y2" s="166"/>
-      <c r="Z2" s="167"/>
-      <c r="AA2" s="144" t="s">
+      <c r="F2" s="155"/>
+      <c r="G2" s="155"/>
+      <c r="H2" s="155"/>
+      <c r="I2" s="155"/>
+      <c r="J2" s="155"/>
+      <c r="K2" s="155"/>
+      <c r="L2" s="155"/>
+      <c r="M2" s="155"/>
+      <c r="N2" s="156"/>
+      <c r="O2" s="163"/>
+      <c r="P2" s="164"/>
+      <c r="Q2" s="164"/>
+      <c r="R2" s="165"/>
+      <c r="S2" s="172"/>
+      <c r="T2" s="173"/>
+      <c r="U2" s="173"/>
+      <c r="V2" s="173"/>
+      <c r="W2" s="173"/>
+      <c r="X2" s="173"/>
+      <c r="Y2" s="173"/>
+      <c r="Z2" s="174"/>
+      <c r="AA2" s="151" t="s">
         <v>19</v>
       </c>
-      <c r="AB2" s="146"/>
-      <c r="AC2" s="171" t="str">
+      <c r="AB2" s="153"/>
+      <c r="AC2" s="178" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="172"/>
-      <c r="AE2" s="172"/>
-      <c r="AF2" s="173"/>
-      <c r="AG2" s="175">
+      <c r="AD2" s="179"/>
+      <c r="AE2" s="179"/>
+      <c r="AF2" s="180"/>
+      <c r="AG2" s="182">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v>44796</v>
       </c>
-      <c r="AH2" s="176"/>
-      <c r="AI2" s="177"/>
+      <c r="AH2" s="183"/>
+      <c r="AI2" s="184"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
     </row>
     <row r="3" spans="1:38" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="144" t="s">
+      <c r="A3" s="151" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="145"/>
-      <c r="C3" s="145"/>
-      <c r="D3" s="146"/>
-      <c r="E3" s="174" t="str">
+      <c r="B3" s="152"/>
+      <c r="C3" s="152"/>
+      <c r="D3" s="153"/>
+      <c r="E3" s="181" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="148"/>
-      <c r="G3" s="148"/>
-      <c r="H3" s="148"/>
-      <c r="I3" s="148"/>
-      <c r="J3" s="148"/>
-      <c r="K3" s="148"/>
-      <c r="L3" s="148"/>
-      <c r="M3" s="148"/>
-      <c r="N3" s="149"/>
-      <c r="O3" s="159"/>
-      <c r="P3" s="160"/>
-      <c r="Q3" s="160"/>
-      <c r="R3" s="161"/>
-      <c r="S3" s="168"/>
-      <c r="T3" s="169"/>
-      <c r="U3" s="169"/>
-      <c r="V3" s="169"/>
-      <c r="W3" s="169"/>
-      <c r="X3" s="169"/>
-      <c r="Y3" s="169"/>
-      <c r="Z3" s="170"/>
-      <c r="AA3" s="144"/>
-      <c r="AB3" s="146"/>
-      <c r="AC3" s="171" t="str">
+      <c r="F3" s="155"/>
+      <c r="G3" s="155"/>
+      <c r="H3" s="155"/>
+      <c r="I3" s="155"/>
+      <c r="J3" s="155"/>
+      <c r="K3" s="155"/>
+      <c r="L3" s="155"/>
+      <c r="M3" s="155"/>
+      <c r="N3" s="156"/>
+      <c r="O3" s="166"/>
+      <c r="P3" s="167"/>
+      <c r="Q3" s="167"/>
+      <c r="R3" s="168"/>
+      <c r="S3" s="175"/>
+      <c r="T3" s="176"/>
+      <c r="U3" s="176"/>
+      <c r="V3" s="176"/>
+      <c r="W3" s="176"/>
+      <c r="X3" s="176"/>
+      <c r="Y3" s="176"/>
+      <c r="Z3" s="177"/>
+      <c r="AA3" s="151"/>
+      <c r="AB3" s="153"/>
+      <c r="AC3" s="178" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="172"/>
-      <c r="AE3" s="172"/>
-      <c r="AF3" s="173"/>
-      <c r="AG3" s="175" t="str">
+      <c r="AD3" s="179"/>
+      <c r="AE3" s="179"/>
+      <c r="AF3" s="180"/>
+      <c r="AG3" s="182" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="176"/>
-      <c r="AI3" s="177"/>
+      <c r="AH3" s="183"/>
+      <c r="AI3" s="184"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
@@ -6833,7 +6871,7 @@
   <sheetPr codeName="Sheet4">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BE19"/>
+  <dimension ref="A1:BE20"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection sqref="A1:D1"/>
@@ -6845,59 +6883,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:57" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="144" t="s">
+      <c r="A1" s="151" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="145"/>
-      <c r="C1" s="145"/>
-      <c r="D1" s="146"/>
-      <c r="E1" s="174" t="str">
+      <c r="B1" s="152"/>
+      <c r="C1" s="152"/>
+      <c r="D1" s="153"/>
+      <c r="E1" s="181" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="148"/>
-      <c r="G1" s="148"/>
-      <c r="H1" s="148"/>
-      <c r="I1" s="148"/>
-      <c r="J1" s="148"/>
-      <c r="K1" s="148"/>
-      <c r="L1" s="148"/>
-      <c r="M1" s="148"/>
-      <c r="N1" s="149"/>
-      <c r="O1" s="195" t="s">
+      <c r="F1" s="155"/>
+      <c r="G1" s="155"/>
+      <c r="H1" s="155"/>
+      <c r="I1" s="155"/>
+      <c r="J1" s="155"/>
+      <c r="K1" s="155"/>
+      <c r="L1" s="155"/>
+      <c r="M1" s="155"/>
+      <c r="N1" s="156"/>
+      <c r="O1" s="202" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="196"/>
-      <c r="Q1" s="196"/>
-      <c r="R1" s="197"/>
-      <c r="S1" s="207" t="str">
+      <c r="P1" s="203"/>
+      <c r="Q1" s="203"/>
+      <c r="R1" s="204"/>
+      <c r="S1" s="214" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>画面一覧</v>
       </c>
-      <c r="T1" s="208"/>
-      <c r="U1" s="208"/>
-      <c r="V1" s="208"/>
-      <c r="W1" s="208"/>
-      <c r="X1" s="208"/>
-      <c r="Y1" s="208"/>
-      <c r="Z1" s="209"/>
-      <c r="AA1" s="144" t="s">
+      <c r="T1" s="215"/>
+      <c r="U1" s="215"/>
+      <c r="V1" s="215"/>
+      <c r="W1" s="215"/>
+      <c r="X1" s="215"/>
+      <c r="Y1" s="215"/>
+      <c r="Z1" s="216"/>
+      <c r="AA1" s="151" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="146"/>
-      <c r="AC1" s="171" t="str">
+      <c r="AB1" s="153"/>
+      <c r="AC1" s="178" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="172"/>
-      <c r="AE1" s="172"/>
-      <c r="AF1" s="173"/>
-      <c r="AG1" s="175">
+      <c r="AD1" s="179"/>
+      <c r="AE1" s="179"/>
+      <c r="AF1" s="180"/>
+      <c r="AG1" s="182">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43592</v>
       </c>
-      <c r="AH1" s="176"/>
-      <c r="AI1" s="177"/>
+      <c r="AH1" s="183"/>
+      <c r="AI1" s="184"/>
       <c r="AJ1" s="11"/>
       <c r="AK1" s="11"/>
       <c r="AL1" s="11"/>
@@ -6922,54 +6960,54 @@
       <c r="BE1" s="11"/>
     </row>
     <row r="2" spans="1:57" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="144" t="s">
+      <c r="A2" s="151" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="145"/>
-      <c r="C2" s="145"/>
-      <c r="D2" s="146"/>
-      <c r="E2" s="174" t="str">
+      <c r="B2" s="152"/>
+      <c r="C2" s="152"/>
+      <c r="D2" s="153"/>
+      <c r="E2" s="181" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="148"/>
-      <c r="G2" s="148"/>
-      <c r="H2" s="148"/>
-      <c r="I2" s="148"/>
-      <c r="J2" s="148"/>
-      <c r="K2" s="148"/>
-      <c r="L2" s="148"/>
-      <c r="M2" s="148"/>
-      <c r="N2" s="149"/>
-      <c r="O2" s="198"/>
-      <c r="P2" s="199"/>
-      <c r="Q2" s="199"/>
-      <c r="R2" s="200"/>
-      <c r="S2" s="210"/>
-      <c r="T2" s="211"/>
-      <c r="U2" s="211"/>
-      <c r="V2" s="211"/>
-      <c r="W2" s="211"/>
-      <c r="X2" s="211"/>
-      <c r="Y2" s="211"/>
-      <c r="Z2" s="212"/>
-      <c r="AA2" s="144" t="s">
+      <c r="F2" s="155"/>
+      <c r="G2" s="155"/>
+      <c r="H2" s="155"/>
+      <c r="I2" s="155"/>
+      <c r="J2" s="155"/>
+      <c r="K2" s="155"/>
+      <c r="L2" s="155"/>
+      <c r="M2" s="155"/>
+      <c r="N2" s="156"/>
+      <c r="O2" s="205"/>
+      <c r="P2" s="206"/>
+      <c r="Q2" s="206"/>
+      <c r="R2" s="207"/>
+      <c r="S2" s="217"/>
+      <c r="T2" s="218"/>
+      <c r="U2" s="218"/>
+      <c r="V2" s="218"/>
+      <c r="W2" s="218"/>
+      <c r="X2" s="218"/>
+      <c r="Y2" s="218"/>
+      <c r="Z2" s="219"/>
+      <c r="AA2" s="151" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="146"/>
-      <c r="AC2" s="171" t="str">
+      <c r="AB2" s="153"/>
+      <c r="AC2" s="178" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="172"/>
-      <c r="AE2" s="172"/>
-      <c r="AF2" s="173"/>
-      <c r="AG2" s="175">
+      <c r="AD2" s="179"/>
+      <c r="AE2" s="179"/>
+      <c r="AF2" s="180"/>
+      <c r="AG2" s="182">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v>44796</v>
       </c>
-      <c r="AH2" s="176"/>
-      <c r="AI2" s="177"/>
+      <c r="AH2" s="183"/>
+      <c r="AI2" s="184"/>
       <c r="AJ2" s="11"/>
       <c r="AK2" s="11"/>
       <c r="AL2" s="11"/>
@@ -6994,52 +7032,52 @@
       <c r="BE2" s="11"/>
     </row>
     <row r="3" spans="1:57" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="144" t="s">
+      <c r="A3" s="151" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="145"/>
-      <c r="C3" s="145"/>
-      <c r="D3" s="146"/>
-      <c r="E3" s="174" t="str">
+      <c r="B3" s="152"/>
+      <c r="C3" s="152"/>
+      <c r="D3" s="153"/>
+      <c r="E3" s="181" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="148"/>
-      <c r="G3" s="148"/>
-      <c r="H3" s="148"/>
-      <c r="I3" s="148"/>
-      <c r="J3" s="148"/>
-      <c r="K3" s="148"/>
-      <c r="L3" s="148"/>
-      <c r="M3" s="148"/>
-      <c r="N3" s="149"/>
-      <c r="O3" s="201"/>
-      <c r="P3" s="202"/>
-      <c r="Q3" s="202"/>
-      <c r="R3" s="203"/>
-      <c r="S3" s="213"/>
-      <c r="T3" s="214"/>
-      <c r="U3" s="214"/>
-      <c r="V3" s="214"/>
-      <c r="W3" s="214"/>
-      <c r="X3" s="214"/>
-      <c r="Y3" s="214"/>
-      <c r="Z3" s="215"/>
-      <c r="AA3" s="144"/>
-      <c r="AB3" s="146"/>
-      <c r="AC3" s="171" t="str">
+      <c r="F3" s="155"/>
+      <c r="G3" s="155"/>
+      <c r="H3" s="155"/>
+      <c r="I3" s="155"/>
+      <c r="J3" s="155"/>
+      <c r="K3" s="155"/>
+      <c r="L3" s="155"/>
+      <c r="M3" s="155"/>
+      <c r="N3" s="156"/>
+      <c r="O3" s="208"/>
+      <c r="P3" s="209"/>
+      <c r="Q3" s="209"/>
+      <c r="R3" s="210"/>
+      <c r="S3" s="220"/>
+      <c r="T3" s="221"/>
+      <c r="U3" s="221"/>
+      <c r="V3" s="221"/>
+      <c r="W3" s="221"/>
+      <c r="X3" s="221"/>
+      <c r="Y3" s="221"/>
+      <c r="Z3" s="222"/>
+      <c r="AA3" s="151"/>
+      <c r="AB3" s="153"/>
+      <c r="AC3" s="178" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="172"/>
-      <c r="AE3" s="172"/>
-      <c r="AF3" s="173"/>
-      <c r="AG3" s="175" t="str">
+      <c r="AD3" s="179"/>
+      <c r="AE3" s="179"/>
+      <c r="AF3" s="180"/>
+      <c r="AG3" s="182" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="176"/>
-      <c r="AI3" s="177"/>
+      <c r="AH3" s="183"/>
+      <c r="AI3" s="184"/>
       <c r="AJ3" s="11"/>
       <c r="AK3" s="11"/>
       <c r="AL3" s="11"/>
@@ -7210,47 +7248,47 @@
       <c r="C7" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="192" t="s">
+      <c r="D7" s="199" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="193"/>
-      <c r="F7" s="194"/>
-      <c r="G7" s="192" t="s">
+      <c r="E7" s="200"/>
+      <c r="F7" s="201"/>
+      <c r="G7" s="199" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="193"/>
-      <c r="I7" s="193"/>
-      <c r="J7" s="193"/>
-      <c r="K7" s="194"/>
-      <c r="L7" s="204" t="s">
+      <c r="H7" s="200"/>
+      <c r="I7" s="200"/>
+      <c r="J7" s="200"/>
+      <c r="K7" s="201"/>
+      <c r="L7" s="211" t="s">
         <v>12</v>
       </c>
-      <c r="M7" s="205"/>
-      <c r="N7" s="206"/>
-      <c r="O7" s="192" t="s">
+      <c r="M7" s="212"/>
+      <c r="N7" s="213"/>
+      <c r="O7" s="199" t="s">
         <v>13</v>
       </c>
-      <c r="P7" s="193"/>
-      <c r="Q7" s="193"/>
-      <c r="R7" s="193"/>
-      <c r="S7" s="194"/>
-      <c r="T7" s="192" t="s">
+      <c r="P7" s="200"/>
+      <c r="Q7" s="200"/>
+      <c r="R7" s="200"/>
+      <c r="S7" s="201"/>
+      <c r="T7" s="199" t="s">
         <v>14</v>
       </c>
-      <c r="U7" s="193"/>
-      <c r="V7" s="193"/>
-      <c r="W7" s="193"/>
-      <c r="X7" s="193"/>
-      <c r="Y7" s="193"/>
-      <c r="Z7" s="193"/>
-      <c r="AA7" s="193"/>
-      <c r="AB7" s="193"/>
-      <c r="AC7" s="193"/>
-      <c r="AD7" s="193"/>
-      <c r="AE7" s="193"/>
-      <c r="AF7" s="193"/>
-      <c r="AG7" s="193"/>
-      <c r="AH7" s="194"/>
+      <c r="U7" s="200"/>
+      <c r="V7" s="200"/>
+      <c r="W7" s="200"/>
+      <c r="X7" s="200"/>
+      <c r="Y7" s="200"/>
+      <c r="Z7" s="200"/>
+      <c r="AA7" s="200"/>
+      <c r="AB7" s="200"/>
+      <c r="AC7" s="200"/>
+      <c r="AD7" s="200"/>
+      <c r="AE7" s="200"/>
+      <c r="AF7" s="200"/>
+      <c r="AG7" s="200"/>
+      <c r="AH7" s="201"/>
       <c r="AJ7" s="11"/>
       <c r="AK7" s="11"/>
       <c r="AL7" s="11"/>
@@ -7275,50 +7313,50 @@
       <c r="BE7" s="11"/>
     </row>
     <row r="8" spans="1:57" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C8" s="60">
+      <c r="C8" s="99">
         <v>1</v>
       </c>
-      <c r="D8" s="189" t="s">
+      <c r="D8" s="196" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="190"/>
-      <c r="F8" s="191"/>
-      <c r="G8" s="189" t="s">
+      <c r="E8" s="197"/>
+      <c r="F8" s="198"/>
+      <c r="G8" s="196" t="s">
+        <v>80</v>
+      </c>
+      <c r="H8" s="197"/>
+      <c r="I8" s="197"/>
+      <c r="J8" s="197"/>
+      <c r="K8" s="198"/>
+      <c r="L8" s="120" t="s">
+        <v>29</v>
+      </c>
+      <c r="M8" s="127"/>
+      <c r="N8" s="128"/>
+      <c r="O8" s="120" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="190"/>
-      <c r="I8" s="190"/>
-      <c r="J8" s="190"/>
-      <c r="K8" s="191"/>
-      <c r="L8" s="113" t="s">
-        <v>29</v>
-      </c>
-      <c r="M8" s="120"/>
-      <c r="N8" s="121"/>
-      <c r="O8" s="113" t="s">
-        <v>28</v>
-      </c>
-      <c r="P8" s="120"/>
-      <c r="Q8" s="120"/>
-      <c r="R8" s="120"/>
-      <c r="S8" s="121"/>
-      <c r="T8" s="114" t="s">
-        <v>78</v>
-      </c>
-      <c r="U8" s="106"/>
-      <c r="V8" s="106"/>
-      <c r="W8" s="106"/>
-      <c r="X8" s="106"/>
-      <c r="Y8" s="106"/>
-      <c r="Z8" s="106"/>
-      <c r="AA8" s="106"/>
-      <c r="AB8" s="106"/>
-      <c r="AC8" s="106"/>
-      <c r="AD8" s="106"/>
-      <c r="AE8" s="106"/>
-      <c r="AF8" s="106"/>
-      <c r="AG8" s="106"/>
-      <c r="AH8" s="107"/>
+      <c r="P8" s="127"/>
+      <c r="Q8" s="127"/>
+      <c r="R8" s="127"/>
+      <c r="S8" s="128"/>
+      <c r="T8" s="121" t="s">
+        <v>82</v>
+      </c>
+      <c r="U8" s="113"/>
+      <c r="V8" s="113"/>
+      <c r="W8" s="113"/>
+      <c r="X8" s="113"/>
+      <c r="Y8" s="113"/>
+      <c r="Z8" s="113"/>
+      <c r="AA8" s="113"/>
+      <c r="AB8" s="113"/>
+      <c r="AC8" s="113"/>
+      <c r="AD8" s="113"/>
+      <c r="AE8" s="113"/>
+      <c r="AF8" s="113"/>
+      <c r="AG8" s="113"/>
+      <c r="AH8" s="114"/>
       <c r="AJ8" s="11"/>
       <c r="AK8" s="11"/>
       <c r="AL8" s="11"/>
@@ -7342,52 +7380,47 @@
       <c r="BD8" s="11"/>
       <c r="BE8" s="11"/>
     </row>
-    <row r="9" spans="1:57" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C9" s="60">
-        <f>C8+1</f>
-        <v>2</v>
-      </c>
-      <c r="D9" s="187" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" s="187"/>
-      <c r="F9" s="187"/>
-      <c r="G9" s="187" t="s">
-        <v>32</v>
-      </c>
-      <c r="H9" s="187"/>
-      <c r="I9" s="187"/>
-      <c r="J9" s="187"/>
-      <c r="K9" s="187"/>
-      <c r="L9" s="178" t="s">
-        <v>37</v>
-      </c>
-      <c r="M9" s="179"/>
-      <c r="N9" s="180"/>
-      <c r="O9" s="178" t="s">
-        <v>34</v>
-      </c>
-      <c r="P9" s="179"/>
-      <c r="Q9" s="179"/>
-      <c r="R9" s="179"/>
-      <c r="S9" s="180"/>
-      <c r="T9" s="178" t="s">
-        <v>48</v>
-      </c>
-      <c r="U9" s="182"/>
-      <c r="V9" s="182"/>
-      <c r="W9" s="182"/>
-      <c r="X9" s="182"/>
-      <c r="Y9" s="182"/>
-      <c r="Z9" s="182"/>
-      <c r="AA9" s="182"/>
-      <c r="AB9" s="182"/>
-      <c r="AC9" s="182"/>
-      <c r="AD9" s="182"/>
-      <c r="AE9" s="182"/>
-      <c r="AF9" s="182"/>
-      <c r="AG9" s="182"/>
-      <c r="AH9" s="183"/>
+    <row r="9" spans="1:57" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C9" s="81"/>
+      <c r="D9" s="100"/>
+      <c r="E9" s="101"/>
+      <c r="F9" s="102"/>
+      <c r="G9" s="100"/>
+      <c r="H9" s="101"/>
+      <c r="I9" s="101"/>
+      <c r="J9" s="101"/>
+      <c r="K9" s="102"/>
+      <c r="L9" s="120" t="s">
+        <v>84</v>
+      </c>
+      <c r="M9" s="127"/>
+      <c r="N9" s="128"/>
+      <c r="O9" s="96" t="s">
+        <v>81</v>
+      </c>
+      <c r="P9" s="97"/>
+      <c r="Q9" s="97"/>
+      <c r="R9" s="97"/>
+      <c r="S9" s="98"/>
+      <c r="T9" s="121" t="s">
+        <v>83</v>
+      </c>
+      <c r="U9" s="129"/>
+      <c r="V9" s="129"/>
+      <c r="W9" s="129"/>
+      <c r="X9" s="129"/>
+      <c r="Y9" s="129"/>
+      <c r="Z9" s="129"/>
+      <c r="AA9" s="129"/>
+      <c r="AB9" s="129"/>
+      <c r="AC9" s="129"/>
+      <c r="AD9" s="129"/>
+      <c r="AE9" s="129"/>
+      <c r="AF9" s="129"/>
+      <c r="AG9" s="129"/>
+      <c r="AH9" s="130"/>
+      <c r="AJ9" s="11"/>
+      <c r="AK9" s="11"/>
       <c r="AL9" s="11"/>
       <c r="AM9" s="11"/>
       <c r="AN9" s="11"/>
@@ -7400,49 +7433,61 @@
       <c r="AU9" s="11"/>
       <c r="AV9" s="11"/>
       <c r="AW9" s="11"/>
-    </row>
-    <row r="10" spans="1:57" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AX9" s="11"/>
+      <c r="AY9" s="11"/>
+      <c r="AZ9" s="11"/>
+      <c r="BA9" s="11"/>
+      <c r="BB9" s="11"/>
+      <c r="BC9" s="11"/>
+      <c r="BD9" s="11"/>
+      <c r="BE9" s="11"/>
+    </row>
+    <row r="10" spans="1:57" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C10" s="60">
-        <f t="shared" ref="C10:C18" si="0">C9+1</f>
-        <v>3</v>
-      </c>
-      <c r="D10" s="188"/>
-      <c r="E10" s="188"/>
-      <c r="F10" s="188"/>
-      <c r="G10" s="188"/>
-      <c r="H10" s="188"/>
-      <c r="I10" s="188"/>
-      <c r="J10" s="188"/>
-      <c r="K10" s="188"/>
-      <c r="L10" s="113" t="s">
-        <v>38</v>
-      </c>
-      <c r="M10" s="120"/>
-      <c r="N10" s="121"/>
-      <c r="O10" s="113" t="s">
-        <v>35</v>
-      </c>
-      <c r="P10" s="120"/>
-      <c r="Q10" s="120"/>
-      <c r="R10" s="120"/>
-      <c r="S10" s="121"/>
-      <c r="T10" s="113" t="s">
-        <v>46</v>
-      </c>
-      <c r="U10" s="106"/>
-      <c r="V10" s="106"/>
-      <c r="W10" s="106"/>
-      <c r="X10" s="106"/>
-      <c r="Y10" s="106"/>
-      <c r="Z10" s="106"/>
-      <c r="AA10" s="106"/>
-      <c r="AB10" s="106"/>
-      <c r="AC10" s="106"/>
-      <c r="AD10" s="106"/>
-      <c r="AE10" s="106"/>
-      <c r="AF10" s="106"/>
-      <c r="AG10" s="106"/>
-      <c r="AH10" s="107"/>
+        <f>C8+1</f>
+        <v>2</v>
+      </c>
+      <c r="D10" s="194" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="194"/>
+      <c r="F10" s="194"/>
+      <c r="G10" s="194" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" s="194"/>
+      <c r="I10" s="194"/>
+      <c r="J10" s="194"/>
+      <c r="K10" s="194"/>
+      <c r="L10" s="185" t="s">
+        <v>37</v>
+      </c>
+      <c r="M10" s="186"/>
+      <c r="N10" s="187"/>
+      <c r="O10" s="185" t="s">
+        <v>34</v>
+      </c>
+      <c r="P10" s="186"/>
+      <c r="Q10" s="186"/>
+      <c r="R10" s="186"/>
+      <c r="S10" s="187"/>
+      <c r="T10" s="185" t="s">
+        <v>48</v>
+      </c>
+      <c r="U10" s="189"/>
+      <c r="V10" s="189"/>
+      <c r="W10" s="189"/>
+      <c r="X10" s="189"/>
+      <c r="Y10" s="189"/>
+      <c r="Z10" s="189"/>
+      <c r="AA10" s="189"/>
+      <c r="AB10" s="189"/>
+      <c r="AC10" s="189"/>
+      <c r="AD10" s="189"/>
+      <c r="AE10" s="189"/>
+      <c r="AF10" s="189"/>
+      <c r="AG10" s="189"/>
+      <c r="AH10" s="190"/>
       <c r="AL10" s="11"/>
       <c r="AM10" s="11"/>
       <c r="AN10" s="11"/>
@@ -7458,46 +7503,46 @@
     </row>
     <row r="11" spans="1:57" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C11" s="60">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="D11" s="188"/>
-      <c r="E11" s="188"/>
-      <c r="F11" s="188"/>
-      <c r="G11" s="188"/>
-      <c r="H11" s="188"/>
-      <c r="I11" s="188"/>
-      <c r="J11" s="188"/>
-      <c r="K11" s="188"/>
-      <c r="L11" s="113" t="s">
-        <v>39</v>
-      </c>
-      <c r="M11" s="120"/>
-      <c r="N11" s="121"/>
-      <c r="O11" s="113" t="s">
-        <v>36</v>
-      </c>
-      <c r="P11" s="120"/>
-      <c r="Q11" s="120"/>
-      <c r="R11" s="120"/>
-      <c r="S11" s="121"/>
-      <c r="T11" s="113" t="s">
-        <v>47</v>
-      </c>
-      <c r="U11" s="106"/>
-      <c r="V11" s="106"/>
-      <c r="W11" s="106"/>
-      <c r="X11" s="106"/>
-      <c r="Y11" s="106"/>
-      <c r="Z11" s="106"/>
-      <c r="AA11" s="106"/>
-      <c r="AB11" s="106"/>
-      <c r="AC11" s="106"/>
-      <c r="AD11" s="106"/>
-      <c r="AE11" s="106"/>
-      <c r="AF11" s="106"/>
-      <c r="AG11" s="106"/>
-      <c r="AH11" s="107"/>
+        <f t="shared" ref="C11:C19" si="0">C10+1</f>
+        <v>3</v>
+      </c>
+      <c r="D11" s="195"/>
+      <c r="E11" s="195"/>
+      <c r="F11" s="195"/>
+      <c r="G11" s="195"/>
+      <c r="H11" s="195"/>
+      <c r="I11" s="195"/>
+      <c r="J11" s="195"/>
+      <c r="K11" s="195"/>
+      <c r="L11" s="120" t="s">
+        <v>38</v>
+      </c>
+      <c r="M11" s="127"/>
+      <c r="N11" s="128"/>
+      <c r="O11" s="120" t="s">
+        <v>35</v>
+      </c>
+      <c r="P11" s="127"/>
+      <c r="Q11" s="127"/>
+      <c r="R11" s="127"/>
+      <c r="S11" s="128"/>
+      <c r="T11" s="120" t="s">
+        <v>46</v>
+      </c>
+      <c r="U11" s="113"/>
+      <c r="V11" s="113"/>
+      <c r="W11" s="113"/>
+      <c r="X11" s="113"/>
+      <c r="Y11" s="113"/>
+      <c r="Z11" s="113"/>
+      <c r="AA11" s="113"/>
+      <c r="AB11" s="113"/>
+      <c r="AC11" s="113"/>
+      <c r="AD11" s="113"/>
+      <c r="AE11" s="113"/>
+      <c r="AF11" s="113"/>
+      <c r="AG11" s="113"/>
+      <c r="AH11" s="114"/>
       <c r="AL11" s="11"/>
       <c r="AM11" s="11"/>
       <c r="AN11" s="11"/>
@@ -7511,48 +7556,48 @@
       <c r="AV11" s="11"/>
       <c r="AW11" s="11"/>
     </row>
-    <row r="12" spans="1:57" s="7" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:57" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C12" s="60">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="D12" s="188"/>
-      <c r="E12" s="188"/>
-      <c r="F12" s="188"/>
-      <c r="G12" s="188"/>
-      <c r="H12" s="188"/>
-      <c r="I12" s="188"/>
-      <c r="J12" s="188"/>
-      <c r="K12" s="188"/>
-      <c r="L12" s="113" t="s">
-        <v>50</v>
-      </c>
-      <c r="M12" s="120"/>
-      <c r="N12" s="121"/>
-      <c r="O12" s="113" t="s">
-        <v>51</v>
-      </c>
-      <c r="P12" s="120"/>
-      <c r="Q12" s="120"/>
-      <c r="R12" s="120"/>
-      <c r="S12" s="121"/>
-      <c r="T12" s="114" t="s">
-        <v>52</v>
-      </c>
-      <c r="U12" s="109"/>
-      <c r="V12" s="109"/>
-      <c r="W12" s="109"/>
-      <c r="X12" s="109"/>
-      <c r="Y12" s="109"/>
-      <c r="Z12" s="109"/>
-      <c r="AA12" s="109"/>
-      <c r="AB12" s="109"/>
-      <c r="AC12" s="109"/>
-      <c r="AD12" s="109"/>
-      <c r="AE12" s="109"/>
-      <c r="AF12" s="109"/>
-      <c r="AG12" s="109"/>
-      <c r="AH12" s="110"/>
+        <v>4</v>
+      </c>
+      <c r="D12" s="195"/>
+      <c r="E12" s="195"/>
+      <c r="F12" s="195"/>
+      <c r="G12" s="195"/>
+      <c r="H12" s="195"/>
+      <c r="I12" s="195"/>
+      <c r="J12" s="195"/>
+      <c r="K12" s="195"/>
+      <c r="L12" s="120" t="s">
+        <v>39</v>
+      </c>
+      <c r="M12" s="127"/>
+      <c r="N12" s="128"/>
+      <c r="O12" s="120" t="s">
+        <v>36</v>
+      </c>
+      <c r="P12" s="127"/>
+      <c r="Q12" s="127"/>
+      <c r="R12" s="127"/>
+      <c r="S12" s="128"/>
+      <c r="T12" s="120" t="s">
+        <v>47</v>
+      </c>
+      <c r="U12" s="113"/>
+      <c r="V12" s="113"/>
+      <c r="W12" s="113"/>
+      <c r="X12" s="113"/>
+      <c r="Y12" s="113"/>
+      <c r="Z12" s="113"/>
+      <c r="AA12" s="113"/>
+      <c r="AB12" s="113"/>
+      <c r="AC12" s="113"/>
+      <c r="AD12" s="113"/>
+      <c r="AE12" s="113"/>
+      <c r="AF12" s="113"/>
+      <c r="AG12" s="113"/>
+      <c r="AH12" s="114"/>
       <c r="AL12" s="11"/>
       <c r="AM12" s="11"/>
       <c r="AN12" s="11"/>
@@ -7566,48 +7611,48 @@
       <c r="AV12" s="11"/>
       <c r="AW12" s="11"/>
     </row>
-    <row r="13" spans="1:57" s="7" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:57" s="7" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C13" s="60">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="D13" s="188"/>
-      <c r="E13" s="188"/>
-      <c r="F13" s="188"/>
-      <c r="G13" s="188"/>
-      <c r="H13" s="188"/>
-      <c r="I13" s="188"/>
-      <c r="J13" s="188"/>
-      <c r="K13" s="188"/>
-      <c r="L13" s="113" t="s">
-        <v>56</v>
-      </c>
-      <c r="M13" s="120"/>
-      <c r="N13" s="121"/>
-      <c r="O13" s="113" t="s">
-        <v>57</v>
-      </c>
-      <c r="P13" s="120"/>
-      <c r="Q13" s="120"/>
-      <c r="R13" s="120"/>
-      <c r="S13" s="121"/>
-      <c r="T13" s="114" t="s">
-        <v>58</v>
-      </c>
-      <c r="U13" s="109"/>
-      <c r="V13" s="109"/>
-      <c r="W13" s="109"/>
-      <c r="X13" s="109"/>
-      <c r="Y13" s="109"/>
-      <c r="Z13" s="109"/>
-      <c r="AA13" s="109"/>
-      <c r="AB13" s="109"/>
-      <c r="AC13" s="109"/>
-      <c r="AD13" s="109"/>
-      <c r="AE13" s="109"/>
-      <c r="AF13" s="109"/>
-      <c r="AG13" s="109"/>
-      <c r="AH13" s="110"/>
+        <v>5</v>
+      </c>
+      <c r="D13" s="195"/>
+      <c r="E13" s="195"/>
+      <c r="F13" s="195"/>
+      <c r="G13" s="195"/>
+      <c r="H13" s="195"/>
+      <c r="I13" s="195"/>
+      <c r="J13" s="195"/>
+      <c r="K13" s="195"/>
+      <c r="L13" s="120" t="s">
+        <v>50</v>
+      </c>
+      <c r="M13" s="127"/>
+      <c r="N13" s="128"/>
+      <c r="O13" s="120" t="s">
+        <v>51</v>
+      </c>
+      <c r="P13" s="127"/>
+      <c r="Q13" s="127"/>
+      <c r="R13" s="127"/>
+      <c r="S13" s="128"/>
+      <c r="T13" s="121" t="s">
+        <v>52</v>
+      </c>
+      <c r="U13" s="116"/>
+      <c r="V13" s="116"/>
+      <c r="W13" s="116"/>
+      <c r="X13" s="116"/>
+      <c r="Y13" s="116"/>
+      <c r="Z13" s="116"/>
+      <c r="AA13" s="116"/>
+      <c r="AB13" s="116"/>
+      <c r="AC13" s="116"/>
+      <c r="AD13" s="116"/>
+      <c r="AE13" s="116"/>
+      <c r="AF13" s="116"/>
+      <c r="AG13" s="116"/>
+      <c r="AH13" s="117"/>
       <c r="AL13" s="11"/>
       <c r="AM13" s="11"/>
       <c r="AN13" s="11"/>
@@ -7624,45 +7669,45 @@
     <row r="14" spans="1:57" s="7" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C14" s="60">
         <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="D14" s="188"/>
-      <c r="E14" s="188"/>
-      <c r="F14" s="188"/>
-      <c r="G14" s="188"/>
-      <c r="H14" s="188"/>
-      <c r="I14" s="188"/>
-      <c r="J14" s="188"/>
-      <c r="K14" s="188"/>
-      <c r="L14" s="83" t="s">
-        <v>60</v>
-      </c>
-      <c r="M14" s="84"/>
-      <c r="N14" s="85"/>
-      <c r="O14" s="83" t="s">
-        <v>63</v>
-      </c>
-      <c r="P14" s="84"/>
-      <c r="Q14" s="84"/>
-      <c r="R14" s="84"/>
-      <c r="S14" s="85"/>
-      <c r="T14" s="184" t="s">
-        <v>66</v>
-      </c>
-      <c r="U14" s="185"/>
-      <c r="V14" s="185"/>
-      <c r="W14" s="185"/>
-      <c r="X14" s="185"/>
-      <c r="Y14" s="185"/>
-      <c r="Z14" s="185"/>
-      <c r="AA14" s="185"/>
-      <c r="AB14" s="185"/>
-      <c r="AC14" s="185"/>
-      <c r="AD14" s="185"/>
-      <c r="AE14" s="185"/>
-      <c r="AF14" s="185"/>
-      <c r="AG14" s="185"/>
-      <c r="AH14" s="186"/>
+        <v>6</v>
+      </c>
+      <c r="D14" s="195"/>
+      <c r="E14" s="195"/>
+      <c r="F14" s="195"/>
+      <c r="G14" s="195"/>
+      <c r="H14" s="195"/>
+      <c r="I14" s="195"/>
+      <c r="J14" s="195"/>
+      <c r="K14" s="195"/>
+      <c r="L14" s="120" t="s">
+        <v>56</v>
+      </c>
+      <c r="M14" s="127"/>
+      <c r="N14" s="128"/>
+      <c r="O14" s="120" t="s">
+        <v>57</v>
+      </c>
+      <c r="P14" s="127"/>
+      <c r="Q14" s="127"/>
+      <c r="R14" s="127"/>
+      <c r="S14" s="128"/>
+      <c r="T14" s="121" t="s">
+        <v>58</v>
+      </c>
+      <c r="U14" s="116"/>
+      <c r="V14" s="116"/>
+      <c r="W14" s="116"/>
+      <c r="X14" s="116"/>
+      <c r="Y14" s="116"/>
+      <c r="Z14" s="116"/>
+      <c r="AA14" s="116"/>
+      <c r="AB14" s="116"/>
+      <c r="AC14" s="116"/>
+      <c r="AD14" s="116"/>
+      <c r="AE14" s="116"/>
+      <c r="AF14" s="116"/>
+      <c r="AG14" s="116"/>
+      <c r="AH14" s="117"/>
       <c r="AL14" s="11"/>
       <c r="AM14" s="11"/>
       <c r="AN14" s="11"/>
@@ -7679,45 +7724,45 @@
     <row r="15" spans="1:57" s="7" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C15" s="60">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="D15" s="188"/>
-      <c r="E15" s="188"/>
-      <c r="F15" s="188"/>
-      <c r="G15" s="188"/>
-      <c r="H15" s="188"/>
-      <c r="I15" s="188"/>
-      <c r="J15" s="188"/>
-      <c r="K15" s="188"/>
+        <v>7</v>
+      </c>
+      <c r="D15" s="195"/>
+      <c r="E15" s="195"/>
+      <c r="F15" s="195"/>
+      <c r="G15" s="195"/>
+      <c r="H15" s="195"/>
+      <c r="I15" s="195"/>
+      <c r="J15" s="195"/>
+      <c r="K15" s="195"/>
       <c r="L15" s="83" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M15" s="84"/>
       <c r="N15" s="85"/>
       <c r="O15" s="83" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P15" s="84"/>
       <c r="Q15" s="84"/>
       <c r="R15" s="84"/>
       <c r="S15" s="85"/>
-      <c r="T15" s="184" t="s">
-        <v>67</v>
-      </c>
-      <c r="U15" s="185"/>
-      <c r="V15" s="185"/>
-      <c r="W15" s="185"/>
-      <c r="X15" s="185"/>
-      <c r="Y15" s="185"/>
-      <c r="Z15" s="185"/>
-      <c r="AA15" s="185"/>
-      <c r="AB15" s="185"/>
-      <c r="AC15" s="185"/>
-      <c r="AD15" s="185"/>
-      <c r="AE15" s="185"/>
-      <c r="AF15" s="185"/>
-      <c r="AG15" s="185"/>
-      <c r="AH15" s="186"/>
+      <c r="T15" s="191" t="s">
+        <v>66</v>
+      </c>
+      <c r="U15" s="192"/>
+      <c r="V15" s="192"/>
+      <c r="W15" s="192"/>
+      <c r="X15" s="192"/>
+      <c r="Y15" s="192"/>
+      <c r="Z15" s="192"/>
+      <c r="AA15" s="192"/>
+      <c r="AB15" s="192"/>
+      <c r="AC15" s="192"/>
+      <c r="AD15" s="192"/>
+      <c r="AE15" s="192"/>
+      <c r="AF15" s="192"/>
+      <c r="AG15" s="192"/>
+      <c r="AH15" s="193"/>
       <c r="AL15" s="11"/>
       <c r="AM15" s="11"/>
       <c r="AN15" s="11"/>
@@ -7731,48 +7776,48 @@
       <c r="AV15" s="11"/>
       <c r="AW15" s="11"/>
     </row>
-    <row r="16" spans="1:57" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:57" s="7" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C16" s="60">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="D16" s="188"/>
-      <c r="E16" s="188"/>
-      <c r="F16" s="188"/>
-      <c r="G16" s="188"/>
-      <c r="H16" s="188"/>
-      <c r="I16" s="188"/>
-      <c r="J16" s="188"/>
-      <c r="K16" s="188"/>
-      <c r="L16" s="113" t="s">
-        <v>62</v>
-      </c>
-      <c r="M16" s="120"/>
-      <c r="N16" s="121"/>
-      <c r="O16" s="113" t="s">
-        <v>65</v>
-      </c>
-      <c r="P16" s="120"/>
-      <c r="Q16" s="120"/>
-      <c r="R16" s="120"/>
-      <c r="S16" s="121"/>
-      <c r="T16" s="114" t="s">
-        <v>68</v>
-      </c>
-      <c r="U16" s="109"/>
-      <c r="V16" s="109"/>
-      <c r="W16" s="109"/>
-      <c r="X16" s="109"/>
-      <c r="Y16" s="109"/>
-      <c r="Z16" s="109"/>
-      <c r="AA16" s="109"/>
-      <c r="AB16" s="109"/>
-      <c r="AC16" s="109"/>
-      <c r="AD16" s="109"/>
-      <c r="AE16" s="109"/>
-      <c r="AF16" s="109"/>
-      <c r="AG16" s="109"/>
-      <c r="AH16" s="110"/>
+        <v>8</v>
+      </c>
+      <c r="D16" s="195"/>
+      <c r="E16" s="195"/>
+      <c r="F16" s="195"/>
+      <c r="G16" s="195"/>
+      <c r="H16" s="195"/>
+      <c r="I16" s="195"/>
+      <c r="J16" s="195"/>
+      <c r="K16" s="195"/>
+      <c r="L16" s="83" t="s">
+        <v>61</v>
+      </c>
+      <c r="M16" s="84"/>
+      <c r="N16" s="85"/>
+      <c r="O16" s="83" t="s">
+        <v>64</v>
+      </c>
+      <c r="P16" s="84"/>
+      <c r="Q16" s="84"/>
+      <c r="R16" s="84"/>
+      <c r="S16" s="85"/>
+      <c r="T16" s="191" t="s">
+        <v>67</v>
+      </c>
+      <c r="U16" s="192"/>
+      <c r="V16" s="192"/>
+      <c r="W16" s="192"/>
+      <c r="X16" s="192"/>
+      <c r="Y16" s="192"/>
+      <c r="Z16" s="192"/>
+      <c r="AA16" s="192"/>
+      <c r="AB16" s="192"/>
+      <c r="AC16" s="192"/>
+      <c r="AD16" s="192"/>
+      <c r="AE16" s="192"/>
+      <c r="AF16" s="192"/>
+      <c r="AG16" s="192"/>
+      <c r="AH16" s="193"/>
       <c r="AL16" s="11"/>
       <c r="AM16" s="11"/>
       <c r="AN16" s="11"/>
@@ -7786,52 +7831,48 @@
       <c r="AV16" s="11"/>
       <c r="AW16" s="11"/>
     </row>
-    <row r="17" spans="3:49" s="8" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="3:49" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C17" s="60">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="D17" s="93" t="s">
-        <v>71</v>
-      </c>
-      <c r="E17" s="94"/>
-      <c r="F17" s="95"/>
-      <c r="G17" s="93" t="s">
-        <v>72</v>
-      </c>
-      <c r="H17" s="94"/>
-      <c r="I17" s="94"/>
-      <c r="J17" s="94"/>
-      <c r="K17" s="95"/>
-      <c r="L17" s="178" t="s">
-        <v>73</v>
-      </c>
-      <c r="M17" s="179"/>
-      <c r="N17" s="180"/>
-      <c r="O17" s="178" t="s">
-        <v>30</v>
-      </c>
-      <c r="P17" s="179"/>
-      <c r="Q17" s="179"/>
-      <c r="R17" s="179"/>
-      <c r="S17" s="180"/>
-      <c r="T17" s="181" t="s">
-        <v>45</v>
-      </c>
-      <c r="U17" s="182"/>
-      <c r="V17" s="182"/>
-      <c r="W17" s="182"/>
-      <c r="X17" s="182"/>
-      <c r="Y17" s="182"/>
-      <c r="Z17" s="182"/>
-      <c r="AA17" s="182"/>
-      <c r="AB17" s="182"/>
-      <c r="AC17" s="182"/>
-      <c r="AD17" s="182"/>
-      <c r="AE17" s="182"/>
-      <c r="AF17" s="182"/>
-      <c r="AG17" s="182"/>
-      <c r="AH17" s="183"/>
+        <v>9</v>
+      </c>
+      <c r="D17" s="195"/>
+      <c r="E17" s="195"/>
+      <c r="F17" s="195"/>
+      <c r="G17" s="195"/>
+      <c r="H17" s="195"/>
+      <c r="I17" s="195"/>
+      <c r="J17" s="195"/>
+      <c r="K17" s="195"/>
+      <c r="L17" s="120" t="s">
+        <v>62</v>
+      </c>
+      <c r="M17" s="127"/>
+      <c r="N17" s="128"/>
+      <c r="O17" s="120" t="s">
+        <v>65</v>
+      </c>
+      <c r="P17" s="127"/>
+      <c r="Q17" s="127"/>
+      <c r="R17" s="127"/>
+      <c r="S17" s="128"/>
+      <c r="T17" s="121" t="s">
+        <v>68</v>
+      </c>
+      <c r="U17" s="116"/>
+      <c r="V17" s="116"/>
+      <c r="W17" s="116"/>
+      <c r="X17" s="116"/>
+      <c r="Y17" s="116"/>
+      <c r="Z17" s="116"/>
+      <c r="AA17" s="116"/>
+      <c r="AB17" s="116"/>
+      <c r="AC17" s="116"/>
+      <c r="AD17" s="116"/>
+      <c r="AE17" s="116"/>
+      <c r="AF17" s="116"/>
+      <c r="AG17" s="116"/>
+      <c r="AH17" s="117"/>
       <c r="AL17" s="11"/>
       <c r="AM17" s="11"/>
       <c r="AN17" s="11"/>
@@ -7845,48 +7886,52 @@
       <c r="AV17" s="11"/>
       <c r="AW17" s="11"/>
     </row>
-    <row r="18" spans="3:49" s="8" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="3:49" s="8" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C18" s="60">
         <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="D18" s="90"/>
-      <c r="E18" s="91"/>
-      <c r="F18" s="92"/>
-      <c r="G18" s="90"/>
-      <c r="H18" s="91"/>
-      <c r="I18" s="91"/>
-      <c r="J18" s="91"/>
-      <c r="K18" s="92"/>
-      <c r="L18" s="178" t="s">
-        <v>74</v>
-      </c>
-      <c r="M18" s="179"/>
-      <c r="N18" s="180"/>
-      <c r="O18" s="178" t="s">
-        <v>31</v>
-      </c>
-      <c r="P18" s="179"/>
-      <c r="Q18" s="179"/>
-      <c r="R18" s="179"/>
-      <c r="S18" s="180"/>
-      <c r="T18" s="181" t="s">
-        <v>75</v>
-      </c>
-      <c r="U18" s="182"/>
-      <c r="V18" s="182"/>
-      <c r="W18" s="182"/>
-      <c r="X18" s="182"/>
-      <c r="Y18" s="182"/>
-      <c r="Z18" s="182"/>
-      <c r="AA18" s="182"/>
-      <c r="AB18" s="182"/>
-      <c r="AC18" s="182"/>
-      <c r="AD18" s="182"/>
-      <c r="AE18" s="182"/>
-      <c r="AF18" s="182"/>
-      <c r="AG18" s="182"/>
-      <c r="AH18" s="183"/>
+        <v>10</v>
+      </c>
+      <c r="D18" s="93" t="s">
+        <v>71</v>
+      </c>
+      <c r="E18" s="94"/>
+      <c r="F18" s="95"/>
+      <c r="G18" s="93" t="s">
+        <v>72</v>
+      </c>
+      <c r="H18" s="94"/>
+      <c r="I18" s="94"/>
+      <c r="J18" s="94"/>
+      <c r="K18" s="95"/>
+      <c r="L18" s="185" t="s">
+        <v>73</v>
+      </c>
+      <c r="M18" s="186"/>
+      <c r="N18" s="187"/>
+      <c r="O18" s="185" t="s">
+        <v>30</v>
+      </c>
+      <c r="P18" s="186"/>
+      <c r="Q18" s="186"/>
+      <c r="R18" s="186"/>
+      <c r="S18" s="187"/>
+      <c r="T18" s="188" t="s">
+        <v>45</v>
+      </c>
+      <c r="U18" s="189"/>
+      <c r="V18" s="189"/>
+      <c r="W18" s="189"/>
+      <c r="X18" s="189"/>
+      <c r="Y18" s="189"/>
+      <c r="Z18" s="189"/>
+      <c r="AA18" s="189"/>
+      <c r="AB18" s="189"/>
+      <c r="AC18" s="189"/>
+      <c r="AD18" s="189"/>
+      <c r="AE18" s="189"/>
+      <c r="AF18" s="189"/>
+      <c r="AG18" s="189"/>
+      <c r="AH18" s="190"/>
       <c r="AL18" s="11"/>
       <c r="AM18" s="11"/>
       <c r="AN18" s="11"/>
@@ -7900,39 +7945,48 @@
       <c r="AV18" s="11"/>
       <c r="AW18" s="11"/>
     </row>
-    <row r="19" spans="3:49" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C19" s="86"/>
-      <c r="D19" s="86"/>
-      <c r="E19" s="86"/>
-      <c r="F19" s="86"/>
-      <c r="G19" s="86"/>
-      <c r="H19" s="86"/>
-      <c r="I19" s="86"/>
-      <c r="J19" s="86"/>
-      <c r="K19" s="86"/>
-      <c r="L19" s="87"/>
-      <c r="M19" s="87"/>
-      <c r="N19" s="87"/>
-      <c r="O19" s="87"/>
-      <c r="P19" s="87"/>
-      <c r="Q19" s="87"/>
-      <c r="R19" s="87"/>
-      <c r="S19" s="87"/>
-      <c r="T19" s="88"/>
-      <c r="U19" s="89"/>
-      <c r="V19" s="89"/>
-      <c r="W19" s="89"/>
-      <c r="X19" s="89"/>
-      <c r="Y19" s="89"/>
-      <c r="Z19" s="89"/>
-      <c r="AA19" s="89"/>
-      <c r="AB19" s="89"/>
-      <c r="AC19" s="89"/>
-      <c r="AD19" s="89"/>
-      <c r="AE19" s="89"/>
-      <c r="AF19" s="89"/>
-      <c r="AG19" s="89"/>
-      <c r="AH19" s="89"/>
+    <row r="19" spans="3:49" s="8" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C19" s="60">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="D19" s="90"/>
+      <c r="E19" s="91"/>
+      <c r="F19" s="92"/>
+      <c r="G19" s="90"/>
+      <c r="H19" s="91"/>
+      <c r="I19" s="91"/>
+      <c r="J19" s="91"/>
+      <c r="K19" s="92"/>
+      <c r="L19" s="185" t="s">
+        <v>74</v>
+      </c>
+      <c r="M19" s="186"/>
+      <c r="N19" s="187"/>
+      <c r="O19" s="185" t="s">
+        <v>31</v>
+      </c>
+      <c r="P19" s="186"/>
+      <c r="Q19" s="186"/>
+      <c r="R19" s="186"/>
+      <c r="S19" s="187"/>
+      <c r="T19" s="188" t="s">
+        <v>75</v>
+      </c>
+      <c r="U19" s="189"/>
+      <c r="V19" s="189"/>
+      <c r="W19" s="189"/>
+      <c r="X19" s="189"/>
+      <c r="Y19" s="189"/>
+      <c r="Z19" s="189"/>
+      <c r="AA19" s="189"/>
+      <c r="AB19" s="189"/>
+      <c r="AC19" s="189"/>
+      <c r="AD19" s="189"/>
+      <c r="AE19" s="189"/>
+      <c r="AF19" s="189"/>
+      <c r="AG19" s="189"/>
+      <c r="AH19" s="190"/>
       <c r="AL19" s="11"/>
       <c r="AM19" s="11"/>
       <c r="AN19" s="11"/>
@@ -7946,14 +8000,54 @@
       <c r="AV19" s="11"/>
       <c r="AW19" s="11"/>
     </row>
+    <row r="20" spans="3:49" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C20" s="86"/>
+      <c r="D20" s="86"/>
+      <c r="E20" s="86"/>
+      <c r="F20" s="86"/>
+      <c r="G20" s="86"/>
+      <c r="H20" s="86"/>
+      <c r="I20" s="86"/>
+      <c r="J20" s="86"/>
+      <c r="K20" s="86"/>
+      <c r="L20" s="87"/>
+      <c r="M20" s="87"/>
+      <c r="N20" s="87"/>
+      <c r="O20" s="87"/>
+      <c r="P20" s="87"/>
+      <c r="Q20" s="87"/>
+      <c r="R20" s="87"/>
+      <c r="S20" s="87"/>
+      <c r="T20" s="88"/>
+      <c r="U20" s="89"/>
+      <c r="V20" s="89"/>
+      <c r="W20" s="89"/>
+      <c r="X20" s="89"/>
+      <c r="Y20" s="89"/>
+      <c r="Z20" s="89"/>
+      <c r="AA20" s="89"/>
+      <c r="AB20" s="89"/>
+      <c r="AC20" s="89"/>
+      <c r="AD20" s="89"/>
+      <c r="AE20" s="89"/>
+      <c r="AF20" s="89"/>
+      <c r="AG20" s="89"/>
+      <c r="AH20" s="89"/>
+      <c r="AL20" s="11"/>
+      <c r="AM20" s="11"/>
+      <c r="AN20" s="11"/>
+      <c r="AO20" s="11"/>
+      <c r="AP20" s="11"/>
+      <c r="AQ20" s="11"/>
+      <c r="AR20" s="11"/>
+      <c r="AS20" s="11"/>
+      <c r="AT20" s="11"/>
+      <c r="AU20" s="11"/>
+      <c r="AV20" s="11"/>
+      <c r="AW20" s="11"/>
+    </row>
   </sheetData>
-  <mergeCells count="55">
-    <mergeCell ref="L12:N12"/>
-    <mergeCell ref="O12:S12"/>
-    <mergeCell ref="T12:AH12"/>
-    <mergeCell ref="L13:N13"/>
-    <mergeCell ref="O13:S13"/>
-    <mergeCell ref="T13:AH13"/>
+  <mergeCells count="57">
     <mergeCell ref="AA1:AB1"/>
     <mergeCell ref="AC3:AF3"/>
     <mergeCell ref="AG3:AI3"/>
@@ -7981,28 +8075,36 @@
     <mergeCell ref="T7:AH7"/>
     <mergeCell ref="T8:AH8"/>
     <mergeCell ref="O8:S8"/>
-    <mergeCell ref="T14:AH14"/>
-    <mergeCell ref="T15:AH15"/>
-    <mergeCell ref="D9:F16"/>
-    <mergeCell ref="G9:K16"/>
-    <mergeCell ref="T9:AH9"/>
+    <mergeCell ref="D10:F17"/>
+    <mergeCell ref="G10:K17"/>
     <mergeCell ref="T10:AH10"/>
     <mergeCell ref="T11:AH11"/>
-    <mergeCell ref="L16:N16"/>
-    <mergeCell ref="O16:S16"/>
-    <mergeCell ref="T16:AH16"/>
-    <mergeCell ref="L10:N10"/>
-    <mergeCell ref="L11:N11"/>
-    <mergeCell ref="O11:S11"/>
-    <mergeCell ref="O9:S9"/>
-    <mergeCell ref="O10:S10"/>
-    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="T12:AH12"/>
     <mergeCell ref="L17:N17"/>
     <mergeCell ref="O17:S17"/>
     <mergeCell ref="T17:AH17"/>
+    <mergeCell ref="L11:N11"/>
+    <mergeCell ref="L12:N12"/>
+    <mergeCell ref="O12:S12"/>
+    <mergeCell ref="O10:S10"/>
+    <mergeCell ref="O11:S11"/>
+    <mergeCell ref="L10:N10"/>
+    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="O13:S13"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="O19:S19"/>
+    <mergeCell ref="T19:AH19"/>
+    <mergeCell ref="T15:AH15"/>
+    <mergeCell ref="T16:AH16"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="T9:AH9"/>
     <mergeCell ref="L18:N18"/>
     <mergeCell ref="O18:S18"/>
     <mergeCell ref="T18:AH18"/>
+    <mergeCell ref="T13:AH13"/>
+    <mergeCell ref="L14:N14"/>
+    <mergeCell ref="O14:S14"/>
+    <mergeCell ref="T14:AH14"/>
   </mergeCells>
   <phoneticPr fontId="10"/>
   <printOptions horizontalCentered="1"/>

--- a/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/010_要件定義/040_画面設計/画面一覧_A1_プロジェクト管理システム.xlsx
+++ b/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/010_要件定義/040_画面設計/画面一覧_A1_プロジェクト管理システム.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33A6982F-1620-4E5C-9372-231D02D83A4A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17C0CB16-D16D-4DAA-BD95-0D3A0609DFC5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="195" yWindow="3120" windowWidth="38205" windowHeight="15090" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="30" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="85">
   <si>
     <t>PJ名</t>
   </si>
@@ -238,45 +238,7 @@
     <phoneticPr fontId="10"/>
   </si>
   <si>
-    <r>
-      <t>WA10102</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>01</t>
-    </r>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>ログアウト</t>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>WA1010301</t>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
     <t>TOPメニュー</t>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <r>
-      <t>WA10104</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>01</t>
-    </r>
     <phoneticPr fontId="10"/>
   </si>
   <si>
@@ -344,10 +306,6 @@
     <phoneticPr fontId="10"/>
   </si>
   <si>
-    <t>ログアウトする。</t>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
     <t>サンプルプロジェクト</t>
     <phoneticPr fontId="10"/>
   </si>
@@ -451,36 +409,254 @@
     <phoneticPr fontId="10"/>
   </si>
   <si>
+    <t>TIS</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>WA1020201</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>プロジェクト検索</t>
+    <rPh sb="6" eb="8">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>プロジェクトの検索条件を入力し、検索条件に該当するプロジェクトの一覧を表示する。</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>TIS</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>変更</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>1.画面一覧</t>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>WA1020202</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>プロジェクト詳細</t>
+    <rPh sb="6" eb="8">
+      <t>ショウサイ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>プロジェクトのデータを1件表示する。</t>
+    <rPh sb="12" eb="13">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>プロジェクト検索・詳細画面追加</t>
+    <rPh sb="6" eb="8">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>WA1020301</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>WA1020302</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>WA1020303</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>プロジェクト更新</t>
+    <rPh sb="6" eb="8">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>プロジェクト更新確認</t>
+    <rPh sb="6" eb="8">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>プロジェクト更新完了</t>
+    <rPh sb="6" eb="8">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>プロジェクトのデータを1件更新入力する。</t>
+    <rPh sb="12" eb="13">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>プロジェクトのデータを更新前に確認する。</t>
+    <rPh sb="11" eb="13">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>プロジェクトのデータが更新されたことを確認する。</t>
+    <rPh sb="11" eb="13">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>プロジェクト更新画面追加</t>
+    <rPh sb="6" eb="8">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>1.2版</t>
+    <rPh sb="3" eb="4">
+      <t>ハン</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>A103</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>共通</t>
+    <rPh sb="0" eb="2">
+      <t>キョウツウ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>WA1030101</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>WA1030201</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>発生したエラーの内容をユーザに表示する。</t>
+    <rPh sb="0" eb="2">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>1.3版</t>
+    <rPh sb="3" eb="4">
+      <t>ハン</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>第１．３版</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ハン</t>
+    </rPh>
+    <phoneticPr fontId="38"/>
+  </si>
+  <si>
+    <t>・TOPメニュー、汎用エラーを共通機能として分類</t>
+    <rPh sb="9" eb="11">
+      <t>ハンヨウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>キョウツウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ブンルイ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
     <t>プロジェクト管理システム</t>
     <phoneticPr fontId="10"/>
   </si>
   <si>
-    <t>TIS</t>
+    <t>認証</t>
+    <rPh sb="0" eb="2">
+      <t>ニンショウ</t>
+    </rPh>
     <phoneticPr fontId="10"/>
   </si>
   <si>
-    <t>発生したエラーの内容をユーザに表示する。
-(便宜上ログインに分類しているが、サブシステム内共通)</t>
-    <rPh sb="0" eb="2">
-      <t>ハッセイ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ベンギ</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>ジョウ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>ブンルイ</t>
-    </rPh>
-    <rPh sb="44" eb="45">
-      <t>ナイ</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>キョウツウ</t>
+    <t>ログアウト処理</t>
+    <rPh sb="5" eb="7">
+      <t>ショリ</t>
     </rPh>
     <phoneticPr fontId="10"/>
   </si>
@@ -492,181 +668,11 @@
     <phoneticPr fontId="10"/>
   </si>
   <si>
-    <t>WA1020201</t>
+    <t>ログアウト処理時はセッションを破棄し、ログイン画面へ遷移する。</t>
     <phoneticPr fontId="10"/>
   </si>
   <si>
-    <t>プロジェクト検索</t>
-    <rPh sb="6" eb="8">
-      <t>ケンサク</t>
-    </rPh>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>プロジェクトの検索条件を入力し、検索条件に該当するプロジェクトの一覧を表示する。</t>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>TIS</t>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>変更</t>
-    <rPh sb="0" eb="2">
-      <t>ヘンコウ</t>
-    </rPh>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>1.画面一覧</t>
-    <rPh sb="2" eb="4">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>イチラン</t>
-    </rPh>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>WA1020202</t>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>プロジェクト詳細</t>
-    <rPh sb="6" eb="8">
-      <t>ショウサイ</t>
-    </rPh>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>プロジェクトのデータを1件表示する。</t>
-    <rPh sb="12" eb="13">
-      <t>ケン</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>プロジェクト検索・詳細画面追加</t>
-    <rPh sb="6" eb="8">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ショウサイ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ツイカ</t>
-    </rPh>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>WA1020301</t>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>WA1020302</t>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>WA1020303</t>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>プロジェクト更新</t>
-    <rPh sb="6" eb="8">
-      <t>コウシン</t>
-    </rPh>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>プロジェクト更新確認</t>
-    <rPh sb="6" eb="8">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>プロジェクト更新完了</t>
-    <rPh sb="6" eb="8">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>カンリョウ</t>
-    </rPh>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>プロジェクトのデータを1件更新入力する。</t>
-    <rPh sb="12" eb="13">
-      <t>ケン</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>プロジェクトのデータを更新前に確認する。</t>
-    <rPh sb="11" eb="13">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>マエ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>プロジェクトのデータが更新されたことを確認する。</t>
-    <rPh sb="11" eb="13">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>プロジェクト更新画面追加</t>
-    <rPh sb="6" eb="8">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ツイカ</t>
-    </rPh>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>第１．２版</t>
-    <rPh sb="0" eb="1">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ハン</t>
-    </rPh>
-    <phoneticPr fontId="38"/>
-  </si>
-  <si>
-    <t>1.2版</t>
-    <rPh sb="3" eb="4">
-      <t>ハン</t>
-    </rPh>
+    <t>WA1010102</t>
     <phoneticPr fontId="10"/>
   </si>
 </sst>
@@ -1080,7 +1086,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -1392,6 +1398,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1528,7 +1547,7 @@
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="217">
+  <cellXfs count="223">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
@@ -1723,9 +1742,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1738,6 +1754,45 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="31" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1984,6 +2039,24 @@
     <xf numFmtId="177" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1999,6 +2072,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2008,51 +2090,6 @@
     <xf numFmtId="0" fontId="1" fillId="25" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="31" fillId="24" borderId="13" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2080,6 +2117,15 @@
     <xf numFmtId="0" fontId="31" fillId="24" borderId="18" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2106,15 +2152,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="48">
@@ -2979,7 +3016,7 @@
       <c r="G23" s="21"/>
       <c r="H23" s="21"/>
       <c r="J23" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2991,12 +3028,12 @@
       <c r="F25" s="21"/>
       <c r="G25" s="21"/>
       <c r="H25" s="21"/>
-      <c r="I25" s="91">
+      <c r="I25" s="103">
         <f ca="1">IF(INDIRECT("変更履歴!D8")="","",MAX(INDIRECT("変更履歴!D8"):INDIRECT("変更履歴!F33")))</f>
-        <v>43895</v>
-      </c>
-      <c r="J25" s="91"/>
-      <c r="K25" s="91"/>
+        <v>44796</v>
+      </c>
+      <c r="J25" s="103"/>
+      <c r="K25" s="103"/>
     </row>
     <row r="26" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F26" s="21"/>
@@ -3595,57 +3632,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="139" t="s">
+      <c r="A1" s="151" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="140"/>
-      <c r="C1" s="140"/>
-      <c r="D1" s="141"/>
-      <c r="E1" s="142" t="s">
-        <v>45</v>
-      </c>
-      <c r="F1" s="143"/>
-      <c r="G1" s="143"/>
-      <c r="H1" s="143"/>
-      <c r="I1" s="143"/>
-      <c r="J1" s="143"/>
-      <c r="K1" s="143"/>
-      <c r="L1" s="143"/>
-      <c r="M1" s="143"/>
-      <c r="N1" s="144"/>
-      <c r="O1" s="148" t="s">
+      <c r="B1" s="152"/>
+      <c r="C1" s="152"/>
+      <c r="D1" s="153"/>
+      <c r="E1" s="154" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="155"/>
+      <c r="G1" s="155"/>
+      <c r="H1" s="155"/>
+      <c r="I1" s="155"/>
+      <c r="J1" s="155"/>
+      <c r="K1" s="155"/>
+      <c r="L1" s="155"/>
+      <c r="M1" s="155"/>
+      <c r="N1" s="156"/>
+      <c r="O1" s="160" t="s">
         <v>17</v>
       </c>
-      <c r="P1" s="149"/>
-      <c r="Q1" s="149"/>
-      <c r="R1" s="150"/>
-      <c r="S1" s="157" t="s">
+      <c r="P1" s="161"/>
+      <c r="Q1" s="161"/>
+      <c r="R1" s="162"/>
+      <c r="S1" s="169" t="s">
         <v>23</v>
       </c>
-      <c r="T1" s="158"/>
-      <c r="U1" s="158"/>
-      <c r="V1" s="158"/>
-      <c r="W1" s="158"/>
-      <c r="X1" s="158"/>
-      <c r="Y1" s="158"/>
-      <c r="Z1" s="159"/>
-      <c r="AA1" s="139" t="s">
+      <c r="T1" s="170"/>
+      <c r="U1" s="170"/>
+      <c r="V1" s="170"/>
+      <c r="W1" s="170"/>
+      <c r="X1" s="170"/>
+      <c r="Y1" s="170"/>
+      <c r="Z1" s="171"/>
+      <c r="AA1" s="151" t="s">
         <v>18</v>
       </c>
-      <c r="AB1" s="141"/>
-      <c r="AC1" s="166" t="str">
+      <c r="AB1" s="153"/>
+      <c r="AC1" s="178" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="167"/>
-      <c r="AE1" s="167"/>
-      <c r="AF1" s="168"/>
-      <c r="AG1" s="133">
+      <c r="AD1" s="179"/>
+      <c r="AE1" s="179"/>
+      <c r="AF1" s="180"/>
+      <c r="AG1" s="145">
         <f>IF(D8="","",D8)</f>
         <v>43592</v>
       </c>
-      <c r="AH1" s="134"/>
-      <c r="AI1" s="135"/>
+      <c r="AH1" s="146"/>
+      <c r="AI1" s="147"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="1"/>
@@ -3653,53 +3690,53 @@
       <c r="AN1" s="2"/>
     </row>
     <row r="2" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="139" t="s">
+      <c r="A2" s="151" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="140"/>
-      <c r="C2" s="140"/>
-      <c r="D2" s="141"/>
-      <c r="E2" s="142" t="s">
-        <v>46</v>
-      </c>
-      <c r="F2" s="143"/>
-      <c r="G2" s="143"/>
-      <c r="H2" s="143"/>
-      <c r="I2" s="143"/>
-      <c r="J2" s="143"/>
-      <c r="K2" s="143"/>
-      <c r="L2" s="143"/>
-      <c r="M2" s="143"/>
-      <c r="N2" s="144"/>
-      <c r="O2" s="151"/>
-      <c r="P2" s="152"/>
-      <c r="Q2" s="152"/>
-      <c r="R2" s="153"/>
-      <c r="S2" s="160"/>
-      <c r="T2" s="161"/>
-      <c r="U2" s="161"/>
-      <c r="V2" s="161"/>
-      <c r="W2" s="161"/>
-      <c r="X2" s="161"/>
-      <c r="Y2" s="161"/>
-      <c r="Z2" s="162"/>
-      <c r="AA2" s="139" t="s">
+      <c r="B2" s="152"/>
+      <c r="C2" s="152"/>
+      <c r="D2" s="153"/>
+      <c r="E2" s="154" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="155"/>
+      <c r="G2" s="155"/>
+      <c r="H2" s="155"/>
+      <c r="I2" s="155"/>
+      <c r="J2" s="155"/>
+      <c r="K2" s="155"/>
+      <c r="L2" s="155"/>
+      <c r="M2" s="155"/>
+      <c r="N2" s="156"/>
+      <c r="O2" s="163"/>
+      <c r="P2" s="164"/>
+      <c r="Q2" s="164"/>
+      <c r="R2" s="165"/>
+      <c r="S2" s="172"/>
+      <c r="T2" s="173"/>
+      <c r="U2" s="173"/>
+      <c r="V2" s="173"/>
+      <c r="W2" s="173"/>
+      <c r="X2" s="173"/>
+      <c r="Y2" s="173"/>
+      <c r="Z2" s="174"/>
+      <c r="AA2" s="151" t="s">
         <v>19</v>
       </c>
-      <c r="AB2" s="141"/>
-      <c r="AC2" s="145" t="str">
+      <c r="AB2" s="153"/>
+      <c r="AC2" s="157" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="146"/>
-      <c r="AE2" s="146"/>
-      <c r="AF2" s="147"/>
-      <c r="AG2" s="133">
+      <c r="AD2" s="158"/>
+      <c r="AE2" s="158"/>
+      <c r="AF2" s="159"/>
+      <c r="AG2" s="145">
         <f>IF(D9="","",MAX(D9:F33))</f>
-        <v>43895</v>
-      </c>
-      <c r="AH2" s="134"/>
-      <c r="AI2" s="135"/>
+        <v>44796</v>
+      </c>
+      <c r="AH2" s="146"/>
+      <c r="AI2" s="147"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
@@ -3707,45 +3744,45 @@
       <c r="AN2" s="1"/>
     </row>
     <row r="3" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="139" t="s">
+      <c r="A3" s="151" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="140"/>
-      <c r="C3" s="140"/>
-      <c r="D3" s="141"/>
-      <c r="E3" s="142" t="s">
-        <v>54</v>
-      </c>
-      <c r="F3" s="143"/>
-      <c r="G3" s="143"/>
-      <c r="H3" s="143"/>
-      <c r="I3" s="143"/>
-      <c r="J3" s="143"/>
-      <c r="K3" s="143"/>
-      <c r="L3" s="143"/>
-      <c r="M3" s="143"/>
-      <c r="N3" s="144"/>
-      <c r="O3" s="154"/>
-      <c r="P3" s="155"/>
-      <c r="Q3" s="155"/>
-      <c r="R3" s="156"/>
-      <c r="S3" s="163"/>
-      <c r="T3" s="164"/>
-      <c r="U3" s="164"/>
-      <c r="V3" s="164"/>
-      <c r="W3" s="164"/>
-      <c r="X3" s="164"/>
-      <c r="Y3" s="164"/>
-      <c r="Z3" s="165"/>
-      <c r="AA3" s="139"/>
-      <c r="AB3" s="141"/>
-      <c r="AC3" s="166"/>
-      <c r="AD3" s="167"/>
-      <c r="AE3" s="167"/>
-      <c r="AF3" s="168"/>
-      <c r="AG3" s="133"/>
-      <c r="AH3" s="134"/>
-      <c r="AI3" s="135"/>
+      <c r="B3" s="152"/>
+      <c r="C3" s="152"/>
+      <c r="D3" s="153"/>
+      <c r="E3" s="154" t="s">
+        <v>79</v>
+      </c>
+      <c r="F3" s="155"/>
+      <c r="G3" s="155"/>
+      <c r="H3" s="155"/>
+      <c r="I3" s="155"/>
+      <c r="J3" s="155"/>
+      <c r="K3" s="155"/>
+      <c r="L3" s="155"/>
+      <c r="M3" s="155"/>
+      <c r="N3" s="156"/>
+      <c r="O3" s="166"/>
+      <c r="P3" s="167"/>
+      <c r="Q3" s="167"/>
+      <c r="R3" s="168"/>
+      <c r="S3" s="175"/>
+      <c r="T3" s="176"/>
+      <c r="U3" s="176"/>
+      <c r="V3" s="176"/>
+      <c r="W3" s="176"/>
+      <c r="X3" s="176"/>
+      <c r="Y3" s="176"/>
+      <c r="Z3" s="177"/>
+      <c r="AA3" s="151"/>
+      <c r="AB3" s="153"/>
+      <c r="AC3" s="178"/>
+      <c r="AD3" s="179"/>
+      <c r="AE3" s="179"/>
+      <c r="AF3" s="180"/>
+      <c r="AG3" s="145"/>
+      <c r="AH3" s="146"/>
+      <c r="AI3" s="147"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
@@ -3782,1056 +3819,1070 @@
       <c r="A7" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="136" t="s">
+      <c r="B7" s="148" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="137"/>
-      <c r="D7" s="136" t="s">
+      <c r="C7" s="149"/>
+      <c r="D7" s="148" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="138"/>
-      <c r="F7" s="137"/>
-      <c r="G7" s="136" t="s">
+      <c r="E7" s="150"/>
+      <c r="F7" s="149"/>
+      <c r="G7" s="148" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="138"/>
-      <c r="I7" s="137"/>
-      <c r="J7" s="136" t="s">
+      <c r="H7" s="150"/>
+      <c r="I7" s="149"/>
+      <c r="J7" s="148" t="s">
         <v>26</v>
       </c>
-      <c r="K7" s="138"/>
-      <c r="L7" s="138"/>
-      <c r="M7" s="138"/>
-      <c r="N7" s="138"/>
-      <c r="O7" s="138"/>
-      <c r="P7" s="137"/>
-      <c r="Q7" s="136" t="s">
+      <c r="K7" s="150"/>
+      <c r="L7" s="150"/>
+      <c r="M7" s="150"/>
+      <c r="N7" s="150"/>
+      <c r="O7" s="150"/>
+      <c r="P7" s="149"/>
+      <c r="Q7" s="148" t="s">
         <v>9</v>
       </c>
-      <c r="R7" s="138"/>
-      <c r="S7" s="138"/>
-      <c r="T7" s="138"/>
-      <c r="U7" s="138"/>
-      <c r="V7" s="138"/>
-      <c r="W7" s="138"/>
-      <c r="X7" s="138"/>
-      <c r="Y7" s="138"/>
-      <c r="Z7" s="138"/>
-      <c r="AA7" s="138"/>
-      <c r="AB7" s="138"/>
-      <c r="AC7" s="138"/>
-      <c r="AD7" s="138"/>
-      <c r="AE7" s="137"/>
-      <c r="AF7" s="136" t="s">
+      <c r="R7" s="150"/>
+      <c r="S7" s="150"/>
+      <c r="T7" s="150"/>
+      <c r="U7" s="150"/>
+      <c r="V7" s="150"/>
+      <c r="W7" s="150"/>
+      <c r="X7" s="150"/>
+      <c r="Y7" s="150"/>
+      <c r="Z7" s="150"/>
+      <c r="AA7" s="150"/>
+      <c r="AB7" s="150"/>
+      <c r="AC7" s="150"/>
+      <c r="AD7" s="150"/>
+      <c r="AE7" s="149"/>
+      <c r="AF7" s="148" t="s">
         <v>10</v>
       </c>
-      <c r="AG7" s="138"/>
-      <c r="AH7" s="138"/>
-      <c r="AI7" s="137"/>
+      <c r="AG7" s="150"/>
+      <c r="AH7" s="150"/>
+      <c r="AI7" s="149"/>
     </row>
     <row r="8" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="81">
         <v>1</v>
       </c>
-      <c r="B8" s="119">
+      <c r="B8" s="131">
         <v>1</v>
       </c>
-      <c r="C8" s="120"/>
-      <c r="D8" s="121">
+      <c r="C8" s="132"/>
+      <c r="D8" s="133">
         <v>43592</v>
       </c>
-      <c r="E8" s="122"/>
-      <c r="F8" s="123"/>
-      <c r="G8" s="124" t="s">
-        <v>47</v>
-      </c>
-      <c r="H8" s="125"/>
-      <c r="I8" s="126"/>
-      <c r="J8" s="127" t="s">
-        <v>48</v>
-      </c>
-      <c r="K8" s="128"/>
-      <c r="L8" s="128"/>
-      <c r="M8" s="128"/>
-      <c r="N8" s="128"/>
-      <c r="O8" s="128"/>
-      <c r="P8" s="129"/>
-      <c r="Q8" s="130" t="s">
+      <c r="E8" s="134"/>
+      <c r="F8" s="135"/>
+      <c r="G8" s="136" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" s="137"/>
+      <c r="I8" s="138"/>
+      <c r="J8" s="139" t="s">
+        <v>43</v>
+      </c>
+      <c r="K8" s="140"/>
+      <c r="L8" s="140"/>
+      <c r="M8" s="140"/>
+      <c r="N8" s="140"/>
+      <c r="O8" s="140"/>
+      <c r="P8" s="141"/>
+      <c r="Q8" s="142" t="s">
+        <v>44</v>
+      </c>
+      <c r="R8" s="143"/>
+      <c r="S8" s="143"/>
+      <c r="T8" s="143"/>
+      <c r="U8" s="143"/>
+      <c r="V8" s="143"/>
+      <c r="W8" s="143"/>
+      <c r="X8" s="143"/>
+      <c r="Y8" s="143"/>
+      <c r="Z8" s="143"/>
+      <c r="AA8" s="143"/>
+      <c r="AB8" s="143"/>
+      <c r="AC8" s="143"/>
+      <c r="AD8" s="143"/>
+      <c r="AE8" s="144"/>
+      <c r="AF8" s="139" t="s">
         <v>49</v>
       </c>
-      <c r="R8" s="131"/>
-      <c r="S8" s="131"/>
-      <c r="T8" s="131"/>
-      <c r="U8" s="131"/>
-      <c r="V8" s="131"/>
-      <c r="W8" s="131"/>
-      <c r="X8" s="131"/>
-      <c r="Y8" s="131"/>
-      <c r="Z8" s="131"/>
-      <c r="AA8" s="131"/>
-      <c r="AB8" s="131"/>
-      <c r="AC8" s="131"/>
-      <c r="AD8" s="131"/>
-      <c r="AE8" s="132"/>
-      <c r="AF8" s="127" t="s">
-        <v>55</v>
-      </c>
-      <c r="AG8" s="128"/>
-      <c r="AH8" s="128"/>
-      <c r="AI8" s="129"/>
+      <c r="AG8" s="140"/>
+      <c r="AH8" s="140"/>
+      <c r="AI8" s="141"/>
     </row>
     <row r="9" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="60">
         <v>2</v>
       </c>
-      <c r="B9" s="110">
+      <c r="B9" s="122">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C9" s="111"/>
-      <c r="D9" s="94">
+      <c r="C9" s="123"/>
+      <c r="D9" s="106">
         <v>43803</v>
       </c>
-      <c r="E9" s="95"/>
-      <c r="F9" s="96"/>
-      <c r="G9" s="112" t="s">
-        <v>62</v>
-      </c>
-      <c r="H9" s="113"/>
-      <c r="I9" s="114"/>
-      <c r="J9" s="108" t="s">
-        <v>63</v>
-      </c>
-      <c r="K9" s="115"/>
-      <c r="L9" s="115"/>
-      <c r="M9" s="115"/>
-      <c r="N9" s="115"/>
-      <c r="O9" s="115"/>
-      <c r="P9" s="116"/>
-      <c r="Q9" s="109" t="s">
-        <v>67</v>
-      </c>
-      <c r="R9" s="117"/>
-      <c r="S9" s="117"/>
-      <c r="T9" s="117"/>
-      <c r="U9" s="117"/>
-      <c r="V9" s="117"/>
-      <c r="W9" s="117"/>
-      <c r="X9" s="117"/>
-      <c r="Y9" s="117"/>
-      <c r="Z9" s="117"/>
-      <c r="AA9" s="117"/>
-      <c r="AB9" s="117"/>
-      <c r="AC9" s="117"/>
-      <c r="AD9" s="117"/>
-      <c r="AE9" s="118"/>
-      <c r="AF9" s="108" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG9" s="115"/>
-      <c r="AH9" s="115"/>
-      <c r="AI9" s="116"/>
+      <c r="E9" s="107"/>
+      <c r="F9" s="108"/>
+      <c r="G9" s="124" t="s">
+        <v>54</v>
+      </c>
+      <c r="H9" s="125"/>
+      <c r="I9" s="126"/>
+      <c r="J9" s="120" t="s">
+        <v>55</v>
+      </c>
+      <c r="K9" s="127"/>
+      <c r="L9" s="127"/>
+      <c r="M9" s="127"/>
+      <c r="N9" s="127"/>
+      <c r="O9" s="127"/>
+      <c r="P9" s="128"/>
+      <c r="Q9" s="121" t="s">
+        <v>59</v>
+      </c>
+      <c r="R9" s="129"/>
+      <c r="S9" s="129"/>
+      <c r="T9" s="129"/>
+      <c r="U9" s="129"/>
+      <c r="V9" s="129"/>
+      <c r="W9" s="129"/>
+      <c r="X9" s="129"/>
+      <c r="Y9" s="129"/>
+      <c r="Z9" s="129"/>
+      <c r="AA9" s="129"/>
+      <c r="AB9" s="129"/>
+      <c r="AC9" s="129"/>
+      <c r="AD9" s="129"/>
+      <c r="AE9" s="130"/>
+      <c r="AF9" s="120" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG9" s="127"/>
+      <c r="AH9" s="127"/>
+      <c r="AI9" s="128"/>
     </row>
     <row r="10" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="60">
         <v>3</v>
       </c>
-      <c r="B10" s="106" t="s">
-        <v>79</v>
-      </c>
-      <c r="C10" s="93"/>
-      <c r="D10" s="94">
+      <c r="B10" s="118" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="105"/>
+      <c r="D10" s="106">
         <v>43895</v>
       </c>
-      <c r="E10" s="95"/>
-      <c r="F10" s="96"/>
-      <c r="G10" s="107" t="s">
+      <c r="E10" s="107"/>
+      <c r="F10" s="108"/>
+      <c r="G10" s="119" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="98"/>
-      <c r="I10" s="99"/>
-      <c r="J10" s="108" t="s">
-        <v>63</v>
-      </c>
-      <c r="K10" s="101"/>
-      <c r="L10" s="101"/>
-      <c r="M10" s="101"/>
-      <c r="N10" s="101"/>
-      <c r="O10" s="101"/>
-      <c r="P10" s="102"/>
-      <c r="Q10" s="109" t="s">
-        <v>77</v>
-      </c>
-      <c r="R10" s="104"/>
-      <c r="S10" s="104"/>
-      <c r="T10" s="104"/>
-      <c r="U10" s="104"/>
-      <c r="V10" s="104"/>
-      <c r="W10" s="104"/>
-      <c r="X10" s="104"/>
-      <c r="Y10" s="104"/>
-      <c r="Z10" s="104"/>
-      <c r="AA10" s="104"/>
-      <c r="AB10" s="104"/>
-      <c r="AC10" s="104"/>
-      <c r="AD10" s="104"/>
-      <c r="AE10" s="105"/>
-      <c r="AF10" s="108" t="s">
+      <c r="H10" s="110"/>
+      <c r="I10" s="111"/>
+      <c r="J10" s="120" t="s">
         <v>55</v>
       </c>
-      <c r="AG10" s="101"/>
-      <c r="AH10" s="101"/>
-      <c r="AI10" s="102"/>
-    </row>
-    <row r="11" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="60"/>
-      <c r="B11" s="92"/>
-      <c r="C11" s="93"/>
-      <c r="D11" s="94"/>
-      <c r="E11" s="95"/>
-      <c r="F11" s="96"/>
-      <c r="G11" s="97"/>
-      <c r="H11" s="98"/>
-      <c r="I11" s="99"/>
-      <c r="J11" s="100"/>
-      <c r="K11" s="101"/>
-      <c r="L11" s="101"/>
-      <c r="M11" s="101"/>
-      <c r="N11" s="101"/>
-      <c r="O11" s="101"/>
-      <c r="P11" s="102"/>
-      <c r="Q11" s="103"/>
-      <c r="R11" s="104"/>
-      <c r="S11" s="104"/>
-      <c r="T11" s="104"/>
-      <c r="U11" s="104"/>
-      <c r="V11" s="104"/>
-      <c r="W11" s="104"/>
-      <c r="X11" s="104"/>
-      <c r="Y11" s="104"/>
-      <c r="Z11" s="104"/>
-      <c r="AA11" s="104"/>
-      <c r="AB11" s="104"/>
-      <c r="AC11" s="104"/>
-      <c r="AD11" s="104"/>
-      <c r="AE11" s="105"/>
-      <c r="AF11" s="100"/>
-      <c r="AG11" s="101"/>
-      <c r="AH11" s="101"/>
-      <c r="AI11" s="102"/>
+      <c r="K10" s="113"/>
+      <c r="L10" s="113"/>
+      <c r="M10" s="113"/>
+      <c r="N10" s="113"/>
+      <c r="O10" s="113"/>
+      <c r="P10" s="114"/>
+      <c r="Q10" s="121" t="s">
+        <v>69</v>
+      </c>
+      <c r="R10" s="116"/>
+      <c r="S10" s="116"/>
+      <c r="T10" s="116"/>
+      <c r="U10" s="116"/>
+      <c r="V10" s="116"/>
+      <c r="W10" s="116"/>
+      <c r="X10" s="116"/>
+      <c r="Y10" s="116"/>
+      <c r="Z10" s="116"/>
+      <c r="AA10" s="116"/>
+      <c r="AB10" s="116"/>
+      <c r="AC10" s="116"/>
+      <c r="AD10" s="116"/>
+      <c r="AE10" s="117"/>
+      <c r="AF10" s="120" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG10" s="113"/>
+      <c r="AH10" s="113"/>
+      <c r="AI10" s="114"/>
+    </row>
+    <row r="11" spans="1:40" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="60">
+        <v>4</v>
+      </c>
+      <c r="B11" s="118" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="105"/>
+      <c r="D11" s="106">
+        <v>44796</v>
+      </c>
+      <c r="E11" s="107"/>
+      <c r="F11" s="108"/>
+      <c r="G11" s="119" t="s">
+        <v>4</v>
+      </c>
+      <c r="H11" s="110"/>
+      <c r="I11" s="111"/>
+      <c r="J11" s="120" t="s">
+        <v>55</v>
+      </c>
+      <c r="K11" s="113"/>
+      <c r="L11" s="113"/>
+      <c r="M11" s="113"/>
+      <c r="N11" s="113"/>
+      <c r="O11" s="113"/>
+      <c r="P11" s="114"/>
+      <c r="Q11" s="121" t="s">
+        <v>78</v>
+      </c>
+      <c r="R11" s="116"/>
+      <c r="S11" s="116"/>
+      <c r="T11" s="116"/>
+      <c r="U11" s="116"/>
+      <c r="V11" s="116"/>
+      <c r="W11" s="116"/>
+      <c r="X11" s="116"/>
+      <c r="Y11" s="116"/>
+      <c r="Z11" s="116"/>
+      <c r="AA11" s="116"/>
+      <c r="AB11" s="116"/>
+      <c r="AC11" s="116"/>
+      <c r="AD11" s="116"/>
+      <c r="AE11" s="117"/>
+      <c r="AF11" s="120" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG11" s="113"/>
+      <c r="AH11" s="113"/>
+      <c r="AI11" s="114"/>
     </row>
     <row r="12" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="60"/>
-      <c r="B12" s="92"/>
-      <c r="C12" s="93"/>
-      <c r="D12" s="94"/>
-      <c r="E12" s="95"/>
-      <c r="F12" s="96"/>
-      <c r="G12" s="97"/>
-      <c r="H12" s="98"/>
-      <c r="I12" s="99"/>
-      <c r="J12" s="100"/>
-      <c r="K12" s="101"/>
-      <c r="L12" s="101"/>
-      <c r="M12" s="101"/>
-      <c r="N12" s="101"/>
-      <c r="O12" s="101"/>
-      <c r="P12" s="102"/>
-      <c r="Q12" s="103"/>
-      <c r="R12" s="104"/>
-      <c r="S12" s="104"/>
-      <c r="T12" s="104"/>
-      <c r="U12" s="104"/>
-      <c r="V12" s="104"/>
-      <c r="W12" s="104"/>
-      <c r="X12" s="104"/>
-      <c r="Y12" s="104"/>
-      <c r="Z12" s="104"/>
-      <c r="AA12" s="104"/>
-      <c r="AB12" s="104"/>
-      <c r="AC12" s="104"/>
-      <c r="AD12" s="104"/>
-      <c r="AE12" s="105"/>
-      <c r="AF12" s="100"/>
-      <c r="AG12" s="101"/>
-      <c r="AH12" s="101"/>
-      <c r="AI12" s="102"/>
+      <c r="B12" s="104"/>
+      <c r="C12" s="105"/>
+      <c r="D12" s="106"/>
+      <c r="E12" s="107"/>
+      <c r="F12" s="108"/>
+      <c r="G12" s="109"/>
+      <c r="H12" s="110"/>
+      <c r="I12" s="111"/>
+      <c r="J12" s="112"/>
+      <c r="K12" s="113"/>
+      <c r="L12" s="113"/>
+      <c r="M12" s="113"/>
+      <c r="N12" s="113"/>
+      <c r="O12" s="113"/>
+      <c r="P12" s="114"/>
+      <c r="Q12" s="115"/>
+      <c r="R12" s="116"/>
+      <c r="S12" s="116"/>
+      <c r="T12" s="116"/>
+      <c r="U12" s="116"/>
+      <c r="V12" s="116"/>
+      <c r="W12" s="116"/>
+      <c r="X12" s="116"/>
+      <c r="Y12" s="116"/>
+      <c r="Z12" s="116"/>
+      <c r="AA12" s="116"/>
+      <c r="AB12" s="116"/>
+      <c r="AC12" s="116"/>
+      <c r="AD12" s="116"/>
+      <c r="AE12" s="117"/>
+      <c r="AF12" s="112"/>
+      <c r="AG12" s="113"/>
+      <c r="AH12" s="113"/>
+      <c r="AI12" s="114"/>
     </row>
     <row r="13" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="60"/>
-      <c r="B13" s="92"/>
-      <c r="C13" s="93"/>
-      <c r="D13" s="94"/>
-      <c r="E13" s="95"/>
-      <c r="F13" s="96"/>
-      <c r="G13" s="97"/>
-      <c r="H13" s="98"/>
-      <c r="I13" s="99"/>
-      <c r="J13" s="100"/>
-      <c r="K13" s="101"/>
-      <c r="L13" s="101"/>
-      <c r="M13" s="101"/>
-      <c r="N13" s="101"/>
-      <c r="O13" s="101"/>
-      <c r="P13" s="102"/>
-      <c r="Q13" s="103"/>
-      <c r="R13" s="104"/>
-      <c r="S13" s="104"/>
-      <c r="T13" s="104"/>
-      <c r="U13" s="104"/>
-      <c r="V13" s="104"/>
-      <c r="W13" s="104"/>
-      <c r="X13" s="104"/>
-      <c r="Y13" s="104"/>
-      <c r="Z13" s="104"/>
-      <c r="AA13" s="104"/>
-      <c r="AB13" s="104"/>
-      <c r="AC13" s="104"/>
-      <c r="AD13" s="104"/>
-      <c r="AE13" s="105"/>
-      <c r="AF13" s="100"/>
-      <c r="AG13" s="101"/>
-      <c r="AH13" s="101"/>
-      <c r="AI13" s="102"/>
+      <c r="B13" s="104"/>
+      <c r="C13" s="105"/>
+      <c r="D13" s="106"/>
+      <c r="E13" s="107"/>
+      <c r="F13" s="108"/>
+      <c r="G13" s="109"/>
+      <c r="H13" s="110"/>
+      <c r="I13" s="111"/>
+      <c r="J13" s="112"/>
+      <c r="K13" s="113"/>
+      <c r="L13" s="113"/>
+      <c r="M13" s="113"/>
+      <c r="N13" s="113"/>
+      <c r="O13" s="113"/>
+      <c r="P13" s="114"/>
+      <c r="Q13" s="115"/>
+      <c r="R13" s="116"/>
+      <c r="S13" s="116"/>
+      <c r="T13" s="116"/>
+      <c r="U13" s="116"/>
+      <c r="V13" s="116"/>
+      <c r="W13" s="116"/>
+      <c r="X13" s="116"/>
+      <c r="Y13" s="116"/>
+      <c r="Z13" s="116"/>
+      <c r="AA13" s="116"/>
+      <c r="AB13" s="116"/>
+      <c r="AC13" s="116"/>
+      <c r="AD13" s="116"/>
+      <c r="AE13" s="117"/>
+      <c r="AF13" s="112"/>
+      <c r="AG13" s="113"/>
+      <c r="AH13" s="113"/>
+      <c r="AI13" s="114"/>
     </row>
     <row r="14" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="60"/>
-      <c r="B14" s="92"/>
-      <c r="C14" s="93"/>
-      <c r="D14" s="94"/>
-      <c r="E14" s="95"/>
-      <c r="F14" s="96"/>
-      <c r="G14" s="97"/>
-      <c r="H14" s="98"/>
-      <c r="I14" s="99"/>
-      <c r="J14" s="100"/>
-      <c r="K14" s="101"/>
-      <c r="L14" s="101"/>
-      <c r="M14" s="101"/>
-      <c r="N14" s="101"/>
-      <c r="O14" s="101"/>
-      <c r="P14" s="102"/>
-      <c r="Q14" s="103"/>
-      <c r="R14" s="104"/>
-      <c r="S14" s="104"/>
-      <c r="T14" s="104"/>
-      <c r="U14" s="104"/>
-      <c r="V14" s="104"/>
-      <c r="W14" s="104"/>
-      <c r="X14" s="104"/>
-      <c r="Y14" s="104"/>
-      <c r="Z14" s="104"/>
-      <c r="AA14" s="104"/>
-      <c r="AB14" s="104"/>
-      <c r="AC14" s="104"/>
-      <c r="AD14" s="104"/>
-      <c r="AE14" s="105"/>
-      <c r="AF14" s="100"/>
-      <c r="AG14" s="101"/>
-      <c r="AH14" s="101"/>
-      <c r="AI14" s="102"/>
+      <c r="B14" s="104"/>
+      <c r="C14" s="105"/>
+      <c r="D14" s="106"/>
+      <c r="E14" s="107"/>
+      <c r="F14" s="108"/>
+      <c r="G14" s="109"/>
+      <c r="H14" s="110"/>
+      <c r="I14" s="111"/>
+      <c r="J14" s="112"/>
+      <c r="K14" s="113"/>
+      <c r="L14" s="113"/>
+      <c r="M14" s="113"/>
+      <c r="N14" s="113"/>
+      <c r="O14" s="113"/>
+      <c r="P14" s="114"/>
+      <c r="Q14" s="115"/>
+      <c r="R14" s="116"/>
+      <c r="S14" s="116"/>
+      <c r="T14" s="116"/>
+      <c r="U14" s="116"/>
+      <c r="V14" s="116"/>
+      <c r="W14" s="116"/>
+      <c r="X14" s="116"/>
+      <c r="Y14" s="116"/>
+      <c r="Z14" s="116"/>
+      <c r="AA14" s="116"/>
+      <c r="AB14" s="116"/>
+      <c r="AC14" s="116"/>
+      <c r="AD14" s="116"/>
+      <c r="AE14" s="117"/>
+      <c r="AF14" s="112"/>
+      <c r="AG14" s="113"/>
+      <c r="AH14" s="113"/>
+      <c r="AI14" s="114"/>
     </row>
     <row r="15" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="60"/>
-      <c r="B15" s="92"/>
-      <c r="C15" s="93"/>
-      <c r="D15" s="94"/>
-      <c r="E15" s="95"/>
-      <c r="F15" s="96"/>
-      <c r="G15" s="97"/>
-      <c r="H15" s="98"/>
-      <c r="I15" s="99"/>
-      <c r="J15" s="100"/>
-      <c r="K15" s="101"/>
-      <c r="L15" s="101"/>
-      <c r="M15" s="101"/>
-      <c r="N15" s="101"/>
-      <c r="O15" s="101"/>
-      <c r="P15" s="102"/>
-      <c r="Q15" s="103"/>
-      <c r="R15" s="104"/>
-      <c r="S15" s="104"/>
-      <c r="T15" s="104"/>
-      <c r="U15" s="104"/>
-      <c r="V15" s="104"/>
-      <c r="W15" s="104"/>
-      <c r="X15" s="104"/>
-      <c r="Y15" s="104"/>
-      <c r="Z15" s="104"/>
-      <c r="AA15" s="104"/>
-      <c r="AB15" s="104"/>
-      <c r="AC15" s="104"/>
-      <c r="AD15" s="104"/>
-      <c r="AE15" s="105"/>
-      <c r="AF15" s="100"/>
-      <c r="AG15" s="101"/>
-      <c r="AH15" s="101"/>
-      <c r="AI15" s="102"/>
+      <c r="B15" s="104"/>
+      <c r="C15" s="105"/>
+      <c r="D15" s="106"/>
+      <c r="E15" s="107"/>
+      <c r="F15" s="108"/>
+      <c r="G15" s="109"/>
+      <c r="H15" s="110"/>
+      <c r="I15" s="111"/>
+      <c r="J15" s="112"/>
+      <c r="K15" s="113"/>
+      <c r="L15" s="113"/>
+      <c r="M15" s="113"/>
+      <c r="N15" s="113"/>
+      <c r="O15" s="113"/>
+      <c r="P15" s="114"/>
+      <c r="Q15" s="115"/>
+      <c r="R15" s="116"/>
+      <c r="S15" s="116"/>
+      <c r="T15" s="116"/>
+      <c r="U15" s="116"/>
+      <c r="V15" s="116"/>
+      <c r="W15" s="116"/>
+      <c r="X15" s="116"/>
+      <c r="Y15" s="116"/>
+      <c r="Z15" s="116"/>
+      <c r="AA15" s="116"/>
+      <c r="AB15" s="116"/>
+      <c r="AC15" s="116"/>
+      <c r="AD15" s="116"/>
+      <c r="AE15" s="117"/>
+      <c r="AF15" s="112"/>
+      <c r="AG15" s="113"/>
+      <c r="AH15" s="113"/>
+      <c r="AI15" s="114"/>
     </row>
     <row r="16" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="60"/>
-      <c r="B16" s="92"/>
-      <c r="C16" s="93"/>
-      <c r="D16" s="94"/>
-      <c r="E16" s="95"/>
-      <c r="F16" s="96"/>
-      <c r="G16" s="97"/>
-      <c r="H16" s="98"/>
-      <c r="I16" s="99"/>
-      <c r="J16" s="100"/>
-      <c r="K16" s="101"/>
-      <c r="L16" s="101"/>
-      <c r="M16" s="101"/>
-      <c r="N16" s="101"/>
-      <c r="O16" s="101"/>
-      <c r="P16" s="102"/>
-      <c r="Q16" s="103"/>
-      <c r="R16" s="104"/>
-      <c r="S16" s="104"/>
-      <c r="T16" s="104"/>
-      <c r="U16" s="104"/>
-      <c r="V16" s="104"/>
-      <c r="W16" s="104"/>
-      <c r="X16" s="104"/>
-      <c r="Y16" s="104"/>
-      <c r="Z16" s="104"/>
-      <c r="AA16" s="104"/>
-      <c r="AB16" s="104"/>
-      <c r="AC16" s="104"/>
-      <c r="AD16" s="104"/>
-      <c r="AE16" s="105"/>
-      <c r="AF16" s="100"/>
-      <c r="AG16" s="101"/>
-      <c r="AH16" s="101"/>
-      <c r="AI16" s="102"/>
+      <c r="B16" s="104"/>
+      <c r="C16" s="105"/>
+      <c r="D16" s="106"/>
+      <c r="E16" s="107"/>
+      <c r="F16" s="108"/>
+      <c r="G16" s="109"/>
+      <c r="H16" s="110"/>
+      <c r="I16" s="111"/>
+      <c r="J16" s="112"/>
+      <c r="K16" s="113"/>
+      <c r="L16" s="113"/>
+      <c r="M16" s="113"/>
+      <c r="N16" s="113"/>
+      <c r="O16" s="113"/>
+      <c r="P16" s="114"/>
+      <c r="Q16" s="115"/>
+      <c r="R16" s="116"/>
+      <c r="S16" s="116"/>
+      <c r="T16" s="116"/>
+      <c r="U16" s="116"/>
+      <c r="V16" s="116"/>
+      <c r="W16" s="116"/>
+      <c r="X16" s="116"/>
+      <c r="Y16" s="116"/>
+      <c r="Z16" s="116"/>
+      <c r="AA16" s="116"/>
+      <c r="AB16" s="116"/>
+      <c r="AC16" s="116"/>
+      <c r="AD16" s="116"/>
+      <c r="AE16" s="117"/>
+      <c r="AF16" s="112"/>
+      <c r="AG16" s="113"/>
+      <c r="AH16" s="113"/>
+      <c r="AI16" s="114"/>
     </row>
     <row r="17" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="60"/>
-      <c r="B17" s="92"/>
-      <c r="C17" s="93"/>
-      <c r="D17" s="94"/>
-      <c r="E17" s="95"/>
-      <c r="F17" s="96"/>
-      <c r="G17" s="97"/>
-      <c r="H17" s="98"/>
-      <c r="I17" s="99"/>
-      <c r="J17" s="100"/>
-      <c r="K17" s="101"/>
-      <c r="L17" s="101"/>
-      <c r="M17" s="101"/>
-      <c r="N17" s="101"/>
-      <c r="O17" s="101"/>
-      <c r="P17" s="102"/>
-      <c r="Q17" s="103"/>
-      <c r="R17" s="104"/>
-      <c r="S17" s="104"/>
-      <c r="T17" s="104"/>
-      <c r="U17" s="104"/>
-      <c r="V17" s="104"/>
-      <c r="W17" s="104"/>
-      <c r="X17" s="104"/>
-      <c r="Y17" s="104"/>
-      <c r="Z17" s="104"/>
-      <c r="AA17" s="104"/>
-      <c r="AB17" s="104"/>
-      <c r="AC17" s="104"/>
-      <c r="AD17" s="104"/>
-      <c r="AE17" s="105"/>
-      <c r="AF17" s="100"/>
-      <c r="AG17" s="101"/>
-      <c r="AH17" s="101"/>
-      <c r="AI17" s="102"/>
+      <c r="B17" s="104"/>
+      <c r="C17" s="105"/>
+      <c r="D17" s="106"/>
+      <c r="E17" s="107"/>
+      <c r="F17" s="108"/>
+      <c r="G17" s="109"/>
+      <c r="H17" s="110"/>
+      <c r="I17" s="111"/>
+      <c r="J17" s="112"/>
+      <c r="K17" s="113"/>
+      <c r="L17" s="113"/>
+      <c r="M17" s="113"/>
+      <c r="N17" s="113"/>
+      <c r="O17" s="113"/>
+      <c r="P17" s="114"/>
+      <c r="Q17" s="115"/>
+      <c r="R17" s="116"/>
+      <c r="S17" s="116"/>
+      <c r="T17" s="116"/>
+      <c r="U17" s="116"/>
+      <c r="V17" s="116"/>
+      <c r="W17" s="116"/>
+      <c r="X17" s="116"/>
+      <c r="Y17" s="116"/>
+      <c r="Z17" s="116"/>
+      <c r="AA17" s="116"/>
+      <c r="AB17" s="116"/>
+      <c r="AC17" s="116"/>
+      <c r="AD17" s="116"/>
+      <c r="AE17" s="117"/>
+      <c r="AF17" s="112"/>
+      <c r="AG17" s="113"/>
+      <c r="AH17" s="113"/>
+      <c r="AI17" s="114"/>
     </row>
     <row r="18" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="60"/>
-      <c r="B18" s="92"/>
-      <c r="C18" s="93"/>
-      <c r="D18" s="94"/>
-      <c r="E18" s="95"/>
-      <c r="F18" s="96"/>
-      <c r="G18" s="97"/>
-      <c r="H18" s="98"/>
-      <c r="I18" s="99"/>
-      <c r="J18" s="100"/>
-      <c r="K18" s="101"/>
-      <c r="L18" s="101"/>
-      <c r="M18" s="101"/>
-      <c r="N18" s="101"/>
-      <c r="O18" s="101"/>
-      <c r="P18" s="102"/>
-      <c r="Q18" s="103"/>
-      <c r="R18" s="104"/>
-      <c r="S18" s="104"/>
-      <c r="T18" s="104"/>
-      <c r="U18" s="104"/>
-      <c r="V18" s="104"/>
-      <c r="W18" s="104"/>
-      <c r="X18" s="104"/>
-      <c r="Y18" s="104"/>
-      <c r="Z18" s="104"/>
-      <c r="AA18" s="104"/>
-      <c r="AB18" s="104"/>
-      <c r="AC18" s="104"/>
-      <c r="AD18" s="104"/>
-      <c r="AE18" s="105"/>
-      <c r="AF18" s="100"/>
-      <c r="AG18" s="101"/>
-      <c r="AH18" s="101"/>
-      <c r="AI18" s="102"/>
+      <c r="B18" s="104"/>
+      <c r="C18" s="105"/>
+      <c r="D18" s="106"/>
+      <c r="E18" s="107"/>
+      <c r="F18" s="108"/>
+      <c r="G18" s="109"/>
+      <c r="H18" s="110"/>
+      <c r="I18" s="111"/>
+      <c r="J18" s="112"/>
+      <c r="K18" s="113"/>
+      <c r="L18" s="113"/>
+      <c r="M18" s="113"/>
+      <c r="N18" s="113"/>
+      <c r="O18" s="113"/>
+      <c r="P18" s="114"/>
+      <c r="Q18" s="115"/>
+      <c r="R18" s="116"/>
+      <c r="S18" s="116"/>
+      <c r="T18" s="116"/>
+      <c r="U18" s="116"/>
+      <c r="V18" s="116"/>
+      <c r="W18" s="116"/>
+      <c r="X18" s="116"/>
+      <c r="Y18" s="116"/>
+      <c r="Z18" s="116"/>
+      <c r="AA18" s="116"/>
+      <c r="AB18" s="116"/>
+      <c r="AC18" s="116"/>
+      <c r="AD18" s="116"/>
+      <c r="AE18" s="117"/>
+      <c r="AF18" s="112"/>
+      <c r="AG18" s="113"/>
+      <c r="AH18" s="113"/>
+      <c r="AI18" s="114"/>
     </row>
     <row r="19" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="60"/>
-      <c r="B19" s="92"/>
-      <c r="C19" s="93"/>
-      <c r="D19" s="94"/>
-      <c r="E19" s="95"/>
-      <c r="F19" s="96"/>
-      <c r="G19" s="97"/>
-      <c r="H19" s="98"/>
-      <c r="I19" s="99"/>
-      <c r="J19" s="100"/>
-      <c r="K19" s="101"/>
-      <c r="L19" s="101"/>
-      <c r="M19" s="101"/>
-      <c r="N19" s="101"/>
-      <c r="O19" s="101"/>
-      <c r="P19" s="102"/>
-      <c r="Q19" s="103"/>
-      <c r="R19" s="104"/>
-      <c r="S19" s="104"/>
-      <c r="T19" s="104"/>
-      <c r="U19" s="104"/>
-      <c r="V19" s="104"/>
-      <c r="W19" s="104"/>
-      <c r="X19" s="104"/>
-      <c r="Y19" s="104"/>
-      <c r="Z19" s="104"/>
-      <c r="AA19" s="104"/>
-      <c r="AB19" s="104"/>
-      <c r="AC19" s="104"/>
-      <c r="AD19" s="104"/>
-      <c r="AE19" s="105"/>
-      <c r="AF19" s="100"/>
-      <c r="AG19" s="101"/>
-      <c r="AH19" s="101"/>
-      <c r="AI19" s="102"/>
+      <c r="B19" s="104"/>
+      <c r="C19" s="105"/>
+      <c r="D19" s="106"/>
+      <c r="E19" s="107"/>
+      <c r="F19" s="108"/>
+      <c r="G19" s="109"/>
+      <c r="H19" s="110"/>
+      <c r="I19" s="111"/>
+      <c r="J19" s="112"/>
+      <c r="K19" s="113"/>
+      <c r="L19" s="113"/>
+      <c r="M19" s="113"/>
+      <c r="N19" s="113"/>
+      <c r="O19" s="113"/>
+      <c r="P19" s="114"/>
+      <c r="Q19" s="115"/>
+      <c r="R19" s="116"/>
+      <c r="S19" s="116"/>
+      <c r="T19" s="116"/>
+      <c r="U19" s="116"/>
+      <c r="V19" s="116"/>
+      <c r="W19" s="116"/>
+      <c r="X19" s="116"/>
+      <c r="Y19" s="116"/>
+      <c r="Z19" s="116"/>
+      <c r="AA19" s="116"/>
+      <c r="AB19" s="116"/>
+      <c r="AC19" s="116"/>
+      <c r="AD19" s="116"/>
+      <c r="AE19" s="117"/>
+      <c r="AF19" s="112"/>
+      <c r="AG19" s="113"/>
+      <c r="AH19" s="113"/>
+      <c r="AI19" s="114"/>
     </row>
     <row r="20" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="60"/>
-      <c r="B20" s="92"/>
-      <c r="C20" s="93"/>
-      <c r="D20" s="94"/>
-      <c r="E20" s="95"/>
-      <c r="F20" s="96"/>
-      <c r="G20" s="97"/>
-      <c r="H20" s="98"/>
-      <c r="I20" s="99"/>
-      <c r="J20" s="100"/>
-      <c r="K20" s="101"/>
-      <c r="L20" s="101"/>
-      <c r="M20" s="101"/>
-      <c r="N20" s="101"/>
-      <c r="O20" s="101"/>
-      <c r="P20" s="102"/>
-      <c r="Q20" s="103"/>
-      <c r="R20" s="104"/>
-      <c r="S20" s="104"/>
-      <c r="T20" s="104"/>
-      <c r="U20" s="104"/>
-      <c r="V20" s="104"/>
-      <c r="W20" s="104"/>
-      <c r="X20" s="104"/>
-      <c r="Y20" s="104"/>
-      <c r="Z20" s="104"/>
-      <c r="AA20" s="104"/>
-      <c r="AB20" s="104"/>
-      <c r="AC20" s="104"/>
-      <c r="AD20" s="104"/>
-      <c r="AE20" s="105"/>
-      <c r="AF20" s="100"/>
-      <c r="AG20" s="101"/>
-      <c r="AH20" s="101"/>
-      <c r="AI20" s="102"/>
+      <c r="B20" s="104"/>
+      <c r="C20" s="105"/>
+      <c r="D20" s="106"/>
+      <c r="E20" s="107"/>
+      <c r="F20" s="108"/>
+      <c r="G20" s="109"/>
+      <c r="H20" s="110"/>
+      <c r="I20" s="111"/>
+      <c r="J20" s="112"/>
+      <c r="K20" s="113"/>
+      <c r="L20" s="113"/>
+      <c r="M20" s="113"/>
+      <c r="N20" s="113"/>
+      <c r="O20" s="113"/>
+      <c r="P20" s="114"/>
+      <c r="Q20" s="115"/>
+      <c r="R20" s="116"/>
+      <c r="S20" s="116"/>
+      <c r="T20" s="116"/>
+      <c r="U20" s="116"/>
+      <c r="V20" s="116"/>
+      <c r="W20" s="116"/>
+      <c r="X20" s="116"/>
+      <c r="Y20" s="116"/>
+      <c r="Z20" s="116"/>
+      <c r="AA20" s="116"/>
+      <c r="AB20" s="116"/>
+      <c r="AC20" s="116"/>
+      <c r="AD20" s="116"/>
+      <c r="AE20" s="117"/>
+      <c r="AF20" s="112"/>
+      <c r="AG20" s="113"/>
+      <c r="AH20" s="113"/>
+      <c r="AI20" s="114"/>
     </row>
     <row r="21" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="60"/>
-      <c r="B21" s="92"/>
-      <c r="C21" s="93"/>
-      <c r="D21" s="94"/>
-      <c r="E21" s="95"/>
-      <c r="F21" s="96"/>
-      <c r="G21" s="97"/>
-      <c r="H21" s="98"/>
-      <c r="I21" s="99"/>
-      <c r="J21" s="100"/>
-      <c r="K21" s="101"/>
-      <c r="L21" s="101"/>
-      <c r="M21" s="101"/>
-      <c r="N21" s="101"/>
-      <c r="O21" s="101"/>
-      <c r="P21" s="102"/>
-      <c r="Q21" s="103"/>
-      <c r="R21" s="104"/>
-      <c r="S21" s="104"/>
-      <c r="T21" s="104"/>
-      <c r="U21" s="104"/>
-      <c r="V21" s="104"/>
-      <c r="W21" s="104"/>
-      <c r="X21" s="104"/>
-      <c r="Y21" s="104"/>
-      <c r="Z21" s="104"/>
-      <c r="AA21" s="104"/>
-      <c r="AB21" s="104"/>
-      <c r="AC21" s="104"/>
-      <c r="AD21" s="104"/>
-      <c r="AE21" s="105"/>
-      <c r="AF21" s="100"/>
-      <c r="AG21" s="101"/>
-      <c r="AH21" s="101"/>
-      <c r="AI21" s="102"/>
+      <c r="B21" s="104"/>
+      <c r="C21" s="105"/>
+      <c r="D21" s="106"/>
+      <c r="E21" s="107"/>
+      <c r="F21" s="108"/>
+      <c r="G21" s="109"/>
+      <c r="H21" s="110"/>
+      <c r="I21" s="111"/>
+      <c r="J21" s="112"/>
+      <c r="K21" s="113"/>
+      <c r="L21" s="113"/>
+      <c r="M21" s="113"/>
+      <c r="N21" s="113"/>
+      <c r="O21" s="113"/>
+      <c r="P21" s="114"/>
+      <c r="Q21" s="115"/>
+      <c r="R21" s="116"/>
+      <c r="S21" s="116"/>
+      <c r="T21" s="116"/>
+      <c r="U21" s="116"/>
+      <c r="V21" s="116"/>
+      <c r="W21" s="116"/>
+      <c r="X21" s="116"/>
+      <c r="Y21" s="116"/>
+      <c r="Z21" s="116"/>
+      <c r="AA21" s="116"/>
+      <c r="AB21" s="116"/>
+      <c r="AC21" s="116"/>
+      <c r="AD21" s="116"/>
+      <c r="AE21" s="117"/>
+      <c r="AF21" s="112"/>
+      <c r="AG21" s="113"/>
+      <c r="AH21" s="113"/>
+      <c r="AI21" s="114"/>
     </row>
     <row r="22" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="60"/>
-      <c r="B22" s="92"/>
-      <c r="C22" s="93"/>
-      <c r="D22" s="94"/>
-      <c r="E22" s="95"/>
-      <c r="F22" s="96"/>
-      <c r="G22" s="97"/>
-      <c r="H22" s="98"/>
-      <c r="I22" s="99"/>
-      <c r="J22" s="100"/>
-      <c r="K22" s="101"/>
-      <c r="L22" s="101"/>
-      <c r="M22" s="101"/>
-      <c r="N22" s="101"/>
-      <c r="O22" s="101"/>
-      <c r="P22" s="102"/>
-      <c r="Q22" s="103"/>
-      <c r="R22" s="104"/>
-      <c r="S22" s="104"/>
-      <c r="T22" s="104"/>
-      <c r="U22" s="104"/>
-      <c r="V22" s="104"/>
-      <c r="W22" s="104"/>
-      <c r="X22" s="104"/>
-      <c r="Y22" s="104"/>
-      <c r="Z22" s="104"/>
-      <c r="AA22" s="104"/>
-      <c r="AB22" s="104"/>
-      <c r="AC22" s="104"/>
-      <c r="AD22" s="104"/>
-      <c r="AE22" s="105"/>
-      <c r="AF22" s="100"/>
-      <c r="AG22" s="101"/>
-      <c r="AH22" s="101"/>
-      <c r="AI22" s="102"/>
+      <c r="B22" s="104"/>
+      <c r="C22" s="105"/>
+      <c r="D22" s="106"/>
+      <c r="E22" s="107"/>
+      <c r="F22" s="108"/>
+      <c r="G22" s="109"/>
+      <c r="H22" s="110"/>
+      <c r="I22" s="111"/>
+      <c r="J22" s="112"/>
+      <c r="K22" s="113"/>
+      <c r="L22" s="113"/>
+      <c r="M22" s="113"/>
+      <c r="N22" s="113"/>
+      <c r="O22" s="113"/>
+      <c r="P22" s="114"/>
+      <c r="Q22" s="115"/>
+      <c r="R22" s="116"/>
+      <c r="S22" s="116"/>
+      <c r="T22" s="116"/>
+      <c r="U22" s="116"/>
+      <c r="V22" s="116"/>
+      <c r="W22" s="116"/>
+      <c r="X22" s="116"/>
+      <c r="Y22" s="116"/>
+      <c r="Z22" s="116"/>
+      <c r="AA22" s="116"/>
+      <c r="AB22" s="116"/>
+      <c r="AC22" s="116"/>
+      <c r="AD22" s="116"/>
+      <c r="AE22" s="117"/>
+      <c r="AF22" s="112"/>
+      <c r="AG22" s="113"/>
+      <c r="AH22" s="113"/>
+      <c r="AI22" s="114"/>
     </row>
     <row r="23" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="60"/>
-      <c r="B23" s="92"/>
-      <c r="C23" s="93"/>
-      <c r="D23" s="94"/>
-      <c r="E23" s="95"/>
-      <c r="F23" s="96"/>
-      <c r="G23" s="97"/>
-      <c r="H23" s="98"/>
-      <c r="I23" s="99"/>
-      <c r="J23" s="100"/>
-      <c r="K23" s="101"/>
-      <c r="L23" s="101"/>
-      <c r="M23" s="101"/>
-      <c r="N23" s="101"/>
-      <c r="O23" s="101"/>
-      <c r="P23" s="102"/>
-      <c r="Q23" s="103"/>
-      <c r="R23" s="104"/>
-      <c r="S23" s="104"/>
-      <c r="T23" s="104"/>
-      <c r="U23" s="104"/>
-      <c r="V23" s="104"/>
-      <c r="W23" s="104"/>
-      <c r="X23" s="104"/>
-      <c r="Y23" s="104"/>
-      <c r="Z23" s="104"/>
-      <c r="AA23" s="104"/>
-      <c r="AB23" s="104"/>
-      <c r="AC23" s="104"/>
-      <c r="AD23" s="104"/>
-      <c r="AE23" s="105"/>
-      <c r="AF23" s="100"/>
-      <c r="AG23" s="101"/>
-      <c r="AH23" s="101"/>
-      <c r="AI23" s="102"/>
+      <c r="B23" s="104"/>
+      <c r="C23" s="105"/>
+      <c r="D23" s="106"/>
+      <c r="E23" s="107"/>
+      <c r="F23" s="108"/>
+      <c r="G23" s="109"/>
+      <c r="H23" s="110"/>
+      <c r="I23" s="111"/>
+      <c r="J23" s="112"/>
+      <c r="K23" s="113"/>
+      <c r="L23" s="113"/>
+      <c r="M23" s="113"/>
+      <c r="N23" s="113"/>
+      <c r="O23" s="113"/>
+      <c r="P23" s="114"/>
+      <c r="Q23" s="115"/>
+      <c r="R23" s="116"/>
+      <c r="S23" s="116"/>
+      <c r="T23" s="116"/>
+      <c r="U23" s="116"/>
+      <c r="V23" s="116"/>
+      <c r="W23" s="116"/>
+      <c r="X23" s="116"/>
+      <c r="Y23" s="116"/>
+      <c r="Z23" s="116"/>
+      <c r="AA23" s="116"/>
+      <c r="AB23" s="116"/>
+      <c r="AC23" s="116"/>
+      <c r="AD23" s="116"/>
+      <c r="AE23" s="117"/>
+      <c r="AF23" s="112"/>
+      <c r="AG23" s="113"/>
+      <c r="AH23" s="113"/>
+      <c r="AI23" s="114"/>
     </row>
     <row r="24" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="60"/>
-      <c r="B24" s="92"/>
-      <c r="C24" s="93"/>
-      <c r="D24" s="94"/>
-      <c r="E24" s="95"/>
-      <c r="F24" s="96"/>
-      <c r="G24" s="97"/>
-      <c r="H24" s="98"/>
-      <c r="I24" s="99"/>
-      <c r="J24" s="100"/>
-      <c r="K24" s="101"/>
-      <c r="L24" s="101"/>
-      <c r="M24" s="101"/>
-      <c r="N24" s="101"/>
-      <c r="O24" s="101"/>
-      <c r="P24" s="102"/>
-      <c r="Q24" s="103"/>
-      <c r="R24" s="104"/>
-      <c r="S24" s="104"/>
-      <c r="T24" s="104"/>
-      <c r="U24" s="104"/>
-      <c r="V24" s="104"/>
-      <c r="W24" s="104"/>
-      <c r="X24" s="104"/>
-      <c r="Y24" s="104"/>
-      <c r="Z24" s="104"/>
-      <c r="AA24" s="104"/>
-      <c r="AB24" s="104"/>
-      <c r="AC24" s="104"/>
-      <c r="AD24" s="104"/>
-      <c r="AE24" s="105"/>
-      <c r="AF24" s="100"/>
-      <c r="AG24" s="101"/>
-      <c r="AH24" s="101"/>
-      <c r="AI24" s="102"/>
+      <c r="B24" s="104"/>
+      <c r="C24" s="105"/>
+      <c r="D24" s="106"/>
+      <c r="E24" s="107"/>
+      <c r="F24" s="108"/>
+      <c r="G24" s="109"/>
+      <c r="H24" s="110"/>
+      <c r="I24" s="111"/>
+      <c r="J24" s="112"/>
+      <c r="K24" s="113"/>
+      <c r="L24" s="113"/>
+      <c r="M24" s="113"/>
+      <c r="N24" s="113"/>
+      <c r="O24" s="113"/>
+      <c r="P24" s="114"/>
+      <c r="Q24" s="115"/>
+      <c r="R24" s="116"/>
+      <c r="S24" s="116"/>
+      <c r="T24" s="116"/>
+      <c r="U24" s="116"/>
+      <c r="V24" s="116"/>
+      <c r="W24" s="116"/>
+      <c r="X24" s="116"/>
+      <c r="Y24" s="116"/>
+      <c r="Z24" s="116"/>
+      <c r="AA24" s="116"/>
+      <c r="AB24" s="116"/>
+      <c r="AC24" s="116"/>
+      <c r="AD24" s="116"/>
+      <c r="AE24" s="117"/>
+      <c r="AF24" s="112"/>
+      <c r="AG24" s="113"/>
+      <c r="AH24" s="113"/>
+      <c r="AI24" s="114"/>
     </row>
     <row r="25" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="60"/>
-      <c r="B25" s="92"/>
-      <c r="C25" s="93"/>
-      <c r="D25" s="94"/>
-      <c r="E25" s="95"/>
-      <c r="F25" s="96"/>
-      <c r="G25" s="97"/>
-      <c r="H25" s="98"/>
-      <c r="I25" s="99"/>
-      <c r="J25" s="100"/>
-      <c r="K25" s="101"/>
-      <c r="L25" s="101"/>
-      <c r="M25" s="101"/>
-      <c r="N25" s="101"/>
-      <c r="O25" s="101"/>
-      <c r="P25" s="102"/>
-      <c r="Q25" s="103"/>
-      <c r="R25" s="104"/>
-      <c r="S25" s="104"/>
-      <c r="T25" s="104"/>
-      <c r="U25" s="104"/>
-      <c r="V25" s="104"/>
-      <c r="W25" s="104"/>
-      <c r="X25" s="104"/>
-      <c r="Y25" s="104"/>
-      <c r="Z25" s="104"/>
-      <c r="AA25" s="104"/>
-      <c r="AB25" s="104"/>
-      <c r="AC25" s="104"/>
-      <c r="AD25" s="104"/>
-      <c r="AE25" s="105"/>
-      <c r="AF25" s="100"/>
-      <c r="AG25" s="101"/>
-      <c r="AH25" s="101"/>
-      <c r="AI25" s="102"/>
+      <c r="B25" s="104"/>
+      <c r="C25" s="105"/>
+      <c r="D25" s="106"/>
+      <c r="E25" s="107"/>
+      <c r="F25" s="108"/>
+      <c r="G25" s="109"/>
+      <c r="H25" s="110"/>
+      <c r="I25" s="111"/>
+      <c r="J25" s="112"/>
+      <c r="K25" s="113"/>
+      <c r="L25" s="113"/>
+      <c r="M25" s="113"/>
+      <c r="N25" s="113"/>
+      <c r="O25" s="113"/>
+      <c r="P25" s="114"/>
+      <c r="Q25" s="115"/>
+      <c r="R25" s="116"/>
+      <c r="S25" s="116"/>
+      <c r="T25" s="116"/>
+      <c r="U25" s="116"/>
+      <c r="V25" s="116"/>
+      <c r="W25" s="116"/>
+      <c r="X25" s="116"/>
+      <c r="Y25" s="116"/>
+      <c r="Z25" s="116"/>
+      <c r="AA25" s="116"/>
+      <c r="AB25" s="116"/>
+      <c r="AC25" s="116"/>
+      <c r="AD25" s="116"/>
+      <c r="AE25" s="117"/>
+      <c r="AF25" s="112"/>
+      <c r="AG25" s="113"/>
+      <c r="AH25" s="113"/>
+      <c r="AI25" s="114"/>
     </row>
     <row r="26" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="60"/>
-      <c r="B26" s="92"/>
-      <c r="C26" s="93"/>
-      <c r="D26" s="94"/>
-      <c r="E26" s="95"/>
-      <c r="F26" s="96"/>
-      <c r="G26" s="97"/>
-      <c r="H26" s="98"/>
-      <c r="I26" s="99"/>
-      <c r="J26" s="100"/>
-      <c r="K26" s="101"/>
-      <c r="L26" s="101"/>
-      <c r="M26" s="101"/>
-      <c r="N26" s="101"/>
-      <c r="O26" s="101"/>
-      <c r="P26" s="102"/>
-      <c r="Q26" s="103"/>
-      <c r="R26" s="104"/>
-      <c r="S26" s="104"/>
-      <c r="T26" s="104"/>
-      <c r="U26" s="104"/>
-      <c r="V26" s="104"/>
-      <c r="W26" s="104"/>
-      <c r="X26" s="104"/>
-      <c r="Y26" s="104"/>
-      <c r="Z26" s="104"/>
-      <c r="AA26" s="104"/>
-      <c r="AB26" s="104"/>
-      <c r="AC26" s="104"/>
-      <c r="AD26" s="104"/>
-      <c r="AE26" s="105"/>
-      <c r="AF26" s="100"/>
-      <c r="AG26" s="101"/>
-      <c r="AH26" s="101"/>
-      <c r="AI26" s="102"/>
+      <c r="B26" s="104"/>
+      <c r="C26" s="105"/>
+      <c r="D26" s="106"/>
+      <c r="E26" s="107"/>
+      <c r="F26" s="108"/>
+      <c r="G26" s="109"/>
+      <c r="H26" s="110"/>
+      <c r="I26" s="111"/>
+      <c r="J26" s="112"/>
+      <c r="K26" s="113"/>
+      <c r="L26" s="113"/>
+      <c r="M26" s="113"/>
+      <c r="N26" s="113"/>
+      <c r="O26" s="113"/>
+      <c r="P26" s="114"/>
+      <c r="Q26" s="115"/>
+      <c r="R26" s="116"/>
+      <c r="S26" s="116"/>
+      <c r="T26" s="116"/>
+      <c r="U26" s="116"/>
+      <c r="V26" s="116"/>
+      <c r="W26" s="116"/>
+      <c r="X26" s="116"/>
+      <c r="Y26" s="116"/>
+      <c r="Z26" s="116"/>
+      <c r="AA26" s="116"/>
+      <c r="AB26" s="116"/>
+      <c r="AC26" s="116"/>
+      <c r="AD26" s="116"/>
+      <c r="AE26" s="117"/>
+      <c r="AF26" s="112"/>
+      <c r="AG26" s="113"/>
+      <c r="AH26" s="113"/>
+      <c r="AI26" s="114"/>
     </row>
     <row r="27" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="60"/>
-      <c r="B27" s="92"/>
-      <c r="C27" s="93"/>
-      <c r="D27" s="94"/>
-      <c r="E27" s="95"/>
-      <c r="F27" s="96"/>
-      <c r="G27" s="97"/>
-      <c r="H27" s="98"/>
-      <c r="I27" s="99"/>
-      <c r="J27" s="100"/>
-      <c r="K27" s="101"/>
-      <c r="L27" s="101"/>
-      <c r="M27" s="101"/>
-      <c r="N27" s="101"/>
-      <c r="O27" s="101"/>
-      <c r="P27" s="102"/>
-      <c r="Q27" s="103"/>
-      <c r="R27" s="104"/>
-      <c r="S27" s="104"/>
-      <c r="T27" s="104"/>
-      <c r="U27" s="104"/>
-      <c r="V27" s="104"/>
-      <c r="W27" s="104"/>
-      <c r="X27" s="104"/>
-      <c r="Y27" s="104"/>
-      <c r="Z27" s="104"/>
-      <c r="AA27" s="104"/>
-      <c r="AB27" s="104"/>
-      <c r="AC27" s="104"/>
-      <c r="AD27" s="104"/>
-      <c r="AE27" s="105"/>
-      <c r="AF27" s="100"/>
-      <c r="AG27" s="101"/>
-      <c r="AH27" s="101"/>
-      <c r="AI27" s="102"/>
+      <c r="B27" s="104"/>
+      <c r="C27" s="105"/>
+      <c r="D27" s="106"/>
+      <c r="E27" s="107"/>
+      <c r="F27" s="108"/>
+      <c r="G27" s="109"/>
+      <c r="H27" s="110"/>
+      <c r="I27" s="111"/>
+      <c r="J27" s="112"/>
+      <c r="K27" s="113"/>
+      <c r="L27" s="113"/>
+      <c r="M27" s="113"/>
+      <c r="N27" s="113"/>
+      <c r="O27" s="113"/>
+      <c r="P27" s="114"/>
+      <c r="Q27" s="115"/>
+      <c r="R27" s="116"/>
+      <c r="S27" s="116"/>
+      <c r="T27" s="116"/>
+      <c r="U27" s="116"/>
+      <c r="V27" s="116"/>
+      <c r="W27" s="116"/>
+      <c r="X27" s="116"/>
+      <c r="Y27" s="116"/>
+      <c r="Z27" s="116"/>
+      <c r="AA27" s="116"/>
+      <c r="AB27" s="116"/>
+      <c r="AC27" s="116"/>
+      <c r="AD27" s="116"/>
+      <c r="AE27" s="117"/>
+      <c r="AF27" s="112"/>
+      <c r="AG27" s="113"/>
+      <c r="AH27" s="113"/>
+      <c r="AI27" s="114"/>
     </row>
     <row r="28" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="60"/>
-      <c r="B28" s="92"/>
-      <c r="C28" s="93"/>
-      <c r="D28" s="94"/>
-      <c r="E28" s="95"/>
-      <c r="F28" s="96"/>
-      <c r="G28" s="97"/>
-      <c r="H28" s="98"/>
-      <c r="I28" s="99"/>
-      <c r="J28" s="100"/>
-      <c r="K28" s="101"/>
-      <c r="L28" s="101"/>
-      <c r="M28" s="101"/>
-      <c r="N28" s="101"/>
-      <c r="O28" s="101"/>
-      <c r="P28" s="102"/>
-      <c r="Q28" s="103"/>
-      <c r="R28" s="104"/>
-      <c r="S28" s="104"/>
-      <c r="T28" s="104"/>
-      <c r="U28" s="104"/>
-      <c r="V28" s="104"/>
-      <c r="W28" s="104"/>
-      <c r="X28" s="104"/>
-      <c r="Y28" s="104"/>
-      <c r="Z28" s="104"/>
-      <c r="AA28" s="104"/>
-      <c r="AB28" s="104"/>
-      <c r="AC28" s="104"/>
-      <c r="AD28" s="104"/>
-      <c r="AE28" s="105"/>
-      <c r="AF28" s="100"/>
-      <c r="AG28" s="101"/>
-      <c r="AH28" s="101"/>
-      <c r="AI28" s="102"/>
+      <c r="B28" s="104"/>
+      <c r="C28" s="105"/>
+      <c r="D28" s="106"/>
+      <c r="E28" s="107"/>
+      <c r="F28" s="108"/>
+      <c r="G28" s="109"/>
+      <c r="H28" s="110"/>
+      <c r="I28" s="111"/>
+      <c r="J28" s="112"/>
+      <c r="K28" s="113"/>
+      <c r="L28" s="113"/>
+      <c r="M28" s="113"/>
+      <c r="N28" s="113"/>
+      <c r="O28" s="113"/>
+      <c r="P28" s="114"/>
+      <c r="Q28" s="115"/>
+      <c r="R28" s="116"/>
+      <c r="S28" s="116"/>
+      <c r="T28" s="116"/>
+      <c r="U28" s="116"/>
+      <c r="V28" s="116"/>
+      <c r="W28" s="116"/>
+      <c r="X28" s="116"/>
+      <c r="Y28" s="116"/>
+      <c r="Z28" s="116"/>
+      <c r="AA28" s="116"/>
+      <c r="AB28" s="116"/>
+      <c r="AC28" s="116"/>
+      <c r="AD28" s="116"/>
+      <c r="AE28" s="117"/>
+      <c r="AF28" s="112"/>
+      <c r="AG28" s="113"/>
+      <c r="AH28" s="113"/>
+      <c r="AI28" s="114"/>
     </row>
     <row r="29" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="60"/>
-      <c r="B29" s="92"/>
-      <c r="C29" s="93"/>
-      <c r="D29" s="94"/>
-      <c r="E29" s="95"/>
-      <c r="F29" s="96"/>
-      <c r="G29" s="97"/>
-      <c r="H29" s="98"/>
-      <c r="I29" s="99"/>
-      <c r="J29" s="100"/>
-      <c r="K29" s="101"/>
-      <c r="L29" s="101"/>
-      <c r="M29" s="101"/>
-      <c r="N29" s="101"/>
-      <c r="O29" s="101"/>
-      <c r="P29" s="102"/>
-      <c r="Q29" s="103"/>
-      <c r="R29" s="104"/>
-      <c r="S29" s="104"/>
-      <c r="T29" s="104"/>
-      <c r="U29" s="104"/>
-      <c r="V29" s="104"/>
-      <c r="W29" s="104"/>
-      <c r="X29" s="104"/>
-      <c r="Y29" s="104"/>
-      <c r="Z29" s="104"/>
-      <c r="AA29" s="104"/>
-      <c r="AB29" s="104"/>
-      <c r="AC29" s="104"/>
-      <c r="AD29" s="104"/>
-      <c r="AE29" s="105"/>
-      <c r="AF29" s="100"/>
-      <c r="AG29" s="101"/>
-      <c r="AH29" s="101"/>
-      <c r="AI29" s="102"/>
+      <c r="B29" s="104"/>
+      <c r="C29" s="105"/>
+      <c r="D29" s="106"/>
+      <c r="E29" s="107"/>
+      <c r="F29" s="108"/>
+      <c r="G29" s="109"/>
+      <c r="H29" s="110"/>
+      <c r="I29" s="111"/>
+      <c r="J29" s="112"/>
+      <c r="K29" s="113"/>
+      <c r="L29" s="113"/>
+      <c r="M29" s="113"/>
+      <c r="N29" s="113"/>
+      <c r="O29" s="113"/>
+      <c r="P29" s="114"/>
+      <c r="Q29" s="115"/>
+      <c r="R29" s="116"/>
+      <c r="S29" s="116"/>
+      <c r="T29" s="116"/>
+      <c r="U29" s="116"/>
+      <c r="V29" s="116"/>
+      <c r="W29" s="116"/>
+      <c r="X29" s="116"/>
+      <c r="Y29" s="116"/>
+      <c r="Z29" s="116"/>
+      <c r="AA29" s="116"/>
+      <c r="AB29" s="116"/>
+      <c r="AC29" s="116"/>
+      <c r="AD29" s="116"/>
+      <c r="AE29" s="117"/>
+      <c r="AF29" s="112"/>
+      <c r="AG29" s="113"/>
+      <c r="AH29" s="113"/>
+      <c r="AI29" s="114"/>
     </row>
     <row r="30" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="60"/>
-      <c r="B30" s="92"/>
-      <c r="C30" s="93"/>
-      <c r="D30" s="94"/>
-      <c r="E30" s="95"/>
-      <c r="F30" s="96"/>
-      <c r="G30" s="97"/>
-      <c r="H30" s="98"/>
-      <c r="I30" s="99"/>
-      <c r="J30" s="100"/>
-      <c r="K30" s="101"/>
-      <c r="L30" s="101"/>
-      <c r="M30" s="101"/>
-      <c r="N30" s="101"/>
-      <c r="O30" s="101"/>
-      <c r="P30" s="102"/>
-      <c r="Q30" s="103"/>
-      <c r="R30" s="104"/>
-      <c r="S30" s="104"/>
-      <c r="T30" s="104"/>
-      <c r="U30" s="104"/>
-      <c r="V30" s="104"/>
-      <c r="W30" s="104"/>
-      <c r="X30" s="104"/>
-      <c r="Y30" s="104"/>
-      <c r="Z30" s="104"/>
-      <c r="AA30" s="104"/>
-      <c r="AB30" s="104"/>
-      <c r="AC30" s="104"/>
-      <c r="AD30" s="104"/>
-      <c r="AE30" s="105"/>
-      <c r="AF30" s="100"/>
-      <c r="AG30" s="101"/>
-      <c r="AH30" s="101"/>
-      <c r="AI30" s="102"/>
+      <c r="B30" s="104"/>
+      <c r="C30" s="105"/>
+      <c r="D30" s="106"/>
+      <c r="E30" s="107"/>
+      <c r="F30" s="108"/>
+      <c r="G30" s="109"/>
+      <c r="H30" s="110"/>
+      <c r="I30" s="111"/>
+      <c r="J30" s="112"/>
+      <c r="K30" s="113"/>
+      <c r="L30" s="113"/>
+      <c r="M30" s="113"/>
+      <c r="N30" s="113"/>
+      <c r="O30" s="113"/>
+      <c r="P30" s="114"/>
+      <c r="Q30" s="115"/>
+      <c r="R30" s="116"/>
+      <c r="S30" s="116"/>
+      <c r="T30" s="116"/>
+      <c r="U30" s="116"/>
+      <c r="V30" s="116"/>
+      <c r="W30" s="116"/>
+      <c r="X30" s="116"/>
+      <c r="Y30" s="116"/>
+      <c r="Z30" s="116"/>
+      <c r="AA30" s="116"/>
+      <c r="AB30" s="116"/>
+      <c r="AC30" s="116"/>
+      <c r="AD30" s="116"/>
+      <c r="AE30" s="117"/>
+      <c r="AF30" s="112"/>
+      <c r="AG30" s="113"/>
+      <c r="AH30" s="113"/>
+      <c r="AI30" s="114"/>
     </row>
     <row r="31" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="60"/>
-      <c r="B31" s="92"/>
-      <c r="C31" s="93"/>
-      <c r="D31" s="94"/>
-      <c r="E31" s="95"/>
-      <c r="F31" s="96"/>
-      <c r="G31" s="97"/>
-      <c r="H31" s="98"/>
-      <c r="I31" s="99"/>
-      <c r="J31" s="100"/>
-      <c r="K31" s="101"/>
-      <c r="L31" s="101"/>
-      <c r="M31" s="101"/>
-      <c r="N31" s="101"/>
-      <c r="O31" s="101"/>
-      <c r="P31" s="102"/>
-      <c r="Q31" s="103"/>
-      <c r="R31" s="104"/>
-      <c r="S31" s="104"/>
-      <c r="T31" s="104"/>
-      <c r="U31" s="104"/>
-      <c r="V31" s="104"/>
-      <c r="W31" s="104"/>
-      <c r="X31" s="104"/>
-      <c r="Y31" s="104"/>
-      <c r="Z31" s="104"/>
-      <c r="AA31" s="104"/>
-      <c r="AB31" s="104"/>
-      <c r="AC31" s="104"/>
-      <c r="AD31" s="104"/>
-      <c r="AE31" s="105"/>
-      <c r="AF31" s="100"/>
-      <c r="AG31" s="101"/>
-      <c r="AH31" s="101"/>
-      <c r="AI31" s="102"/>
+      <c r="B31" s="104"/>
+      <c r="C31" s="105"/>
+      <c r="D31" s="106"/>
+      <c r="E31" s="107"/>
+      <c r="F31" s="108"/>
+      <c r="G31" s="109"/>
+      <c r="H31" s="110"/>
+      <c r="I31" s="111"/>
+      <c r="J31" s="112"/>
+      <c r="K31" s="113"/>
+      <c r="L31" s="113"/>
+      <c r="M31" s="113"/>
+      <c r="N31" s="113"/>
+      <c r="O31" s="113"/>
+      <c r="P31" s="114"/>
+      <c r="Q31" s="115"/>
+      <c r="R31" s="116"/>
+      <c r="S31" s="116"/>
+      <c r="T31" s="116"/>
+      <c r="U31" s="116"/>
+      <c r="V31" s="116"/>
+      <c r="W31" s="116"/>
+      <c r="X31" s="116"/>
+      <c r="Y31" s="116"/>
+      <c r="Z31" s="116"/>
+      <c r="AA31" s="116"/>
+      <c r="AB31" s="116"/>
+      <c r="AC31" s="116"/>
+      <c r="AD31" s="116"/>
+      <c r="AE31" s="117"/>
+      <c r="AF31" s="112"/>
+      <c r="AG31" s="113"/>
+      <c r="AH31" s="113"/>
+      <c r="AI31" s="114"/>
     </row>
     <row r="32" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="60"/>
-      <c r="B32" s="92"/>
-      <c r="C32" s="93"/>
-      <c r="D32" s="94"/>
-      <c r="E32" s="95"/>
-      <c r="F32" s="96"/>
-      <c r="G32" s="97"/>
-      <c r="H32" s="98"/>
-      <c r="I32" s="99"/>
-      <c r="J32" s="100"/>
-      <c r="K32" s="101"/>
-      <c r="L32" s="101"/>
-      <c r="M32" s="101"/>
-      <c r="N32" s="101"/>
-      <c r="O32" s="101"/>
-      <c r="P32" s="102"/>
-      <c r="Q32" s="103"/>
-      <c r="R32" s="104"/>
-      <c r="S32" s="104"/>
-      <c r="T32" s="104"/>
-      <c r="U32" s="104"/>
-      <c r="V32" s="104"/>
-      <c r="W32" s="104"/>
-      <c r="X32" s="104"/>
-      <c r="Y32" s="104"/>
-      <c r="Z32" s="104"/>
-      <c r="AA32" s="104"/>
-      <c r="AB32" s="104"/>
-      <c r="AC32" s="104"/>
-      <c r="AD32" s="104"/>
-      <c r="AE32" s="105"/>
-      <c r="AF32" s="100"/>
-      <c r="AG32" s="101"/>
-      <c r="AH32" s="101"/>
-      <c r="AI32" s="102"/>
+      <c r="B32" s="104"/>
+      <c r="C32" s="105"/>
+      <c r="D32" s="106"/>
+      <c r="E32" s="107"/>
+      <c r="F32" s="108"/>
+      <c r="G32" s="109"/>
+      <c r="H32" s="110"/>
+      <c r="I32" s="111"/>
+      <c r="J32" s="112"/>
+      <c r="K32" s="113"/>
+      <c r="L32" s="113"/>
+      <c r="M32" s="113"/>
+      <c r="N32" s="113"/>
+      <c r="O32" s="113"/>
+      <c r="P32" s="114"/>
+      <c r="Q32" s="115"/>
+      <c r="R32" s="116"/>
+      <c r="S32" s="116"/>
+      <c r="T32" s="116"/>
+      <c r="U32" s="116"/>
+      <c r="V32" s="116"/>
+      <c r="W32" s="116"/>
+      <c r="X32" s="116"/>
+      <c r="Y32" s="116"/>
+      <c r="Z32" s="116"/>
+      <c r="AA32" s="116"/>
+      <c r="AB32" s="116"/>
+      <c r="AC32" s="116"/>
+      <c r="AD32" s="116"/>
+      <c r="AE32" s="117"/>
+      <c r="AF32" s="112"/>
+      <c r="AG32" s="113"/>
+      <c r="AH32" s="113"/>
+      <c r="AI32" s="114"/>
     </row>
     <row r="33" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="60"/>
-      <c r="B33" s="92"/>
-      <c r="C33" s="93"/>
-      <c r="D33" s="94"/>
-      <c r="E33" s="95"/>
-      <c r="F33" s="96"/>
-      <c r="G33" s="97"/>
-      <c r="H33" s="98"/>
-      <c r="I33" s="99"/>
-      <c r="J33" s="100"/>
-      <c r="K33" s="101"/>
-      <c r="L33" s="101"/>
-      <c r="M33" s="101"/>
-      <c r="N33" s="101"/>
-      <c r="O33" s="101"/>
-      <c r="P33" s="102"/>
-      <c r="Q33" s="103"/>
-      <c r="R33" s="104"/>
-      <c r="S33" s="104"/>
-      <c r="T33" s="104"/>
-      <c r="U33" s="104"/>
-      <c r="V33" s="104"/>
-      <c r="W33" s="104"/>
-      <c r="X33" s="104"/>
-      <c r="Y33" s="104"/>
-      <c r="Z33" s="104"/>
-      <c r="AA33" s="104"/>
-      <c r="AB33" s="104"/>
-      <c r="AC33" s="104"/>
-      <c r="AD33" s="104"/>
-      <c r="AE33" s="105"/>
-      <c r="AF33" s="100"/>
-      <c r="AG33" s="101"/>
-      <c r="AH33" s="101"/>
-      <c r="AI33" s="102"/>
+      <c r="B33" s="104"/>
+      <c r="C33" s="105"/>
+      <c r="D33" s="106"/>
+      <c r="E33" s="107"/>
+      <c r="F33" s="108"/>
+      <c r="G33" s="109"/>
+      <c r="H33" s="110"/>
+      <c r="I33" s="111"/>
+      <c r="J33" s="112"/>
+      <c r="K33" s="113"/>
+      <c r="L33" s="113"/>
+      <c r="M33" s="113"/>
+      <c r="N33" s="113"/>
+      <c r="O33" s="113"/>
+      <c r="P33" s="114"/>
+      <c r="Q33" s="115"/>
+      <c r="R33" s="116"/>
+      <c r="S33" s="116"/>
+      <c r="T33" s="116"/>
+      <c r="U33" s="116"/>
+      <c r="V33" s="116"/>
+      <c r="W33" s="116"/>
+      <c r="X33" s="116"/>
+      <c r="Y33" s="116"/>
+      <c r="Z33" s="116"/>
+      <c r="AA33" s="116"/>
+      <c r="AB33" s="116"/>
+      <c r="AC33" s="116"/>
+      <c r="AD33" s="116"/>
+      <c r="AE33" s="117"/>
+      <c r="AF33" s="112"/>
+      <c r="AG33" s="113"/>
+      <c r="AH33" s="113"/>
+      <c r="AI33" s="114"/>
     </row>
   </sheetData>
   <mergeCells count="179">
@@ -5170,163 +5221,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="139" t="s">
+      <c r="A1" s="151" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="140"/>
-      <c r="C1" s="140"/>
-      <c r="D1" s="141"/>
-      <c r="E1" s="169" t="str">
+      <c r="B1" s="152"/>
+      <c r="C1" s="152"/>
+      <c r="D1" s="153"/>
+      <c r="E1" s="181" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="143"/>
-      <c r="G1" s="143"/>
-      <c r="H1" s="143"/>
-      <c r="I1" s="143"/>
-      <c r="J1" s="143"/>
-      <c r="K1" s="143"/>
-      <c r="L1" s="143"/>
-      <c r="M1" s="143"/>
-      <c r="N1" s="144"/>
-      <c r="O1" s="148" t="s">
+      <c r="F1" s="155"/>
+      <c r="G1" s="155"/>
+      <c r="H1" s="155"/>
+      <c r="I1" s="155"/>
+      <c r="J1" s="155"/>
+      <c r="K1" s="155"/>
+      <c r="L1" s="155"/>
+      <c r="M1" s="155"/>
+      <c r="N1" s="156"/>
+      <c r="O1" s="160" t="s">
         <v>17</v>
       </c>
-      <c r="P1" s="149"/>
-      <c r="Q1" s="149"/>
-      <c r="R1" s="150"/>
-      <c r="S1" s="157" t="str">
+      <c r="P1" s="161"/>
+      <c r="Q1" s="161"/>
+      <c r="R1" s="162"/>
+      <c r="S1" s="169" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>画面一覧</v>
       </c>
-      <c r="T1" s="158"/>
-      <c r="U1" s="158"/>
-      <c r="V1" s="158"/>
-      <c r="W1" s="158"/>
-      <c r="X1" s="158"/>
-      <c r="Y1" s="158"/>
-      <c r="Z1" s="159"/>
-      <c r="AA1" s="139" t="s">
+      <c r="T1" s="170"/>
+      <c r="U1" s="170"/>
+      <c r="V1" s="170"/>
+      <c r="W1" s="170"/>
+      <c r="X1" s="170"/>
+      <c r="Y1" s="170"/>
+      <c r="Z1" s="171"/>
+      <c r="AA1" s="151" t="s">
         <v>18</v>
       </c>
-      <c r="AB1" s="141"/>
-      <c r="AC1" s="166" t="str">
+      <c r="AB1" s="153"/>
+      <c r="AC1" s="178" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="167"/>
-      <c r="AE1" s="167"/>
-      <c r="AF1" s="168"/>
-      <c r="AG1" s="170">
+      <c r="AD1" s="179"/>
+      <c r="AE1" s="179"/>
+      <c r="AF1" s="180"/>
+      <c r="AG1" s="182">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43592</v>
       </c>
-      <c r="AH1" s="171"/>
-      <c r="AI1" s="172"/>
+      <c r="AH1" s="183"/>
+      <c r="AI1" s="184"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="2"/>
     </row>
     <row r="2" spans="1:38" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="139" t="s">
+      <c r="A2" s="151" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="140"/>
-      <c r="C2" s="140"/>
-      <c r="D2" s="141"/>
-      <c r="E2" s="169" t="str">
+      <c r="B2" s="152"/>
+      <c r="C2" s="152"/>
+      <c r="D2" s="153"/>
+      <c r="E2" s="181" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="143"/>
-      <c r="G2" s="143"/>
-      <c r="H2" s="143"/>
-      <c r="I2" s="143"/>
-      <c r="J2" s="143"/>
-      <c r="K2" s="143"/>
-      <c r="L2" s="143"/>
-      <c r="M2" s="143"/>
-      <c r="N2" s="144"/>
-      <c r="O2" s="151"/>
-      <c r="P2" s="152"/>
-      <c r="Q2" s="152"/>
-      <c r="R2" s="153"/>
-      <c r="S2" s="160"/>
-      <c r="T2" s="161"/>
-      <c r="U2" s="161"/>
-      <c r="V2" s="161"/>
-      <c r="W2" s="161"/>
-      <c r="X2" s="161"/>
-      <c r="Y2" s="161"/>
-      <c r="Z2" s="162"/>
-      <c r="AA2" s="139" t="s">
+      <c r="F2" s="155"/>
+      <c r="G2" s="155"/>
+      <c r="H2" s="155"/>
+      <c r="I2" s="155"/>
+      <c r="J2" s="155"/>
+      <c r="K2" s="155"/>
+      <c r="L2" s="155"/>
+      <c r="M2" s="155"/>
+      <c r="N2" s="156"/>
+      <c r="O2" s="163"/>
+      <c r="P2" s="164"/>
+      <c r="Q2" s="164"/>
+      <c r="R2" s="165"/>
+      <c r="S2" s="172"/>
+      <c r="T2" s="173"/>
+      <c r="U2" s="173"/>
+      <c r="V2" s="173"/>
+      <c r="W2" s="173"/>
+      <c r="X2" s="173"/>
+      <c r="Y2" s="173"/>
+      <c r="Z2" s="174"/>
+      <c r="AA2" s="151" t="s">
         <v>19</v>
       </c>
-      <c r="AB2" s="141"/>
-      <c r="AC2" s="166" t="str">
+      <c r="AB2" s="153"/>
+      <c r="AC2" s="178" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="167"/>
-      <c r="AE2" s="167"/>
-      <c r="AF2" s="168"/>
-      <c r="AG2" s="170">
+      <c r="AD2" s="179"/>
+      <c r="AE2" s="179"/>
+      <c r="AF2" s="180"/>
+      <c r="AG2" s="182">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
-        <v>43895</v>
-      </c>
-      <c r="AH2" s="171"/>
-      <c r="AI2" s="172"/>
+        <v>44796</v>
+      </c>
+      <c r="AH2" s="183"/>
+      <c r="AI2" s="184"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
     </row>
     <row r="3" spans="1:38" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="139" t="s">
+      <c r="A3" s="151" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="140"/>
-      <c r="C3" s="140"/>
-      <c r="D3" s="141"/>
-      <c r="E3" s="169" t="str">
+      <c r="B3" s="152"/>
+      <c r="C3" s="152"/>
+      <c r="D3" s="153"/>
+      <c r="E3" s="181" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="143"/>
-      <c r="G3" s="143"/>
-      <c r="H3" s="143"/>
-      <c r="I3" s="143"/>
-      <c r="J3" s="143"/>
-      <c r="K3" s="143"/>
-      <c r="L3" s="143"/>
-      <c r="M3" s="143"/>
-      <c r="N3" s="144"/>
-      <c r="O3" s="154"/>
-      <c r="P3" s="155"/>
-      <c r="Q3" s="155"/>
-      <c r="R3" s="156"/>
-      <c r="S3" s="163"/>
-      <c r="T3" s="164"/>
-      <c r="U3" s="164"/>
-      <c r="V3" s="164"/>
-      <c r="W3" s="164"/>
-      <c r="X3" s="164"/>
-      <c r="Y3" s="164"/>
-      <c r="Z3" s="165"/>
-      <c r="AA3" s="139"/>
-      <c r="AB3" s="141"/>
-      <c r="AC3" s="166" t="str">
+      <c r="F3" s="155"/>
+      <c r="G3" s="155"/>
+      <c r="H3" s="155"/>
+      <c r="I3" s="155"/>
+      <c r="J3" s="155"/>
+      <c r="K3" s="155"/>
+      <c r="L3" s="155"/>
+      <c r="M3" s="155"/>
+      <c r="N3" s="156"/>
+      <c r="O3" s="166"/>
+      <c r="P3" s="167"/>
+      <c r="Q3" s="167"/>
+      <c r="R3" s="168"/>
+      <c r="S3" s="175"/>
+      <c r="T3" s="176"/>
+      <c r="U3" s="176"/>
+      <c r="V3" s="176"/>
+      <c r="W3" s="176"/>
+      <c r="X3" s="176"/>
+      <c r="Y3" s="176"/>
+      <c r="Z3" s="177"/>
+      <c r="AA3" s="151"/>
+      <c r="AB3" s="153"/>
+      <c r="AC3" s="178" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="167"/>
-      <c r="AE3" s="167"/>
-      <c r="AF3" s="168"/>
-      <c r="AG3" s="170" t="str">
+      <c r="AD3" s="179"/>
+      <c r="AE3" s="179"/>
+      <c r="AF3" s="180"/>
+      <c r="AG3" s="182" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="171"/>
-      <c r="AI3" s="172"/>
+      <c r="AH3" s="183"/>
+      <c r="AI3" s="184"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
@@ -6832,59 +6883,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:57" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="139" t="s">
+      <c r="A1" s="151" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="140"/>
-      <c r="C1" s="140"/>
-      <c r="D1" s="141"/>
-      <c r="E1" s="169" t="str">
+      <c r="B1" s="152"/>
+      <c r="C1" s="152"/>
+      <c r="D1" s="153"/>
+      <c r="E1" s="181" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="143"/>
-      <c r="G1" s="143"/>
-      <c r="H1" s="143"/>
-      <c r="I1" s="143"/>
-      <c r="J1" s="143"/>
-      <c r="K1" s="143"/>
-      <c r="L1" s="143"/>
-      <c r="M1" s="143"/>
-      <c r="N1" s="144"/>
-      <c r="O1" s="196" t="s">
+      <c r="F1" s="155"/>
+      <c r="G1" s="155"/>
+      <c r="H1" s="155"/>
+      <c r="I1" s="155"/>
+      <c r="J1" s="155"/>
+      <c r="K1" s="155"/>
+      <c r="L1" s="155"/>
+      <c r="M1" s="155"/>
+      <c r="N1" s="156"/>
+      <c r="O1" s="202" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="197"/>
-      <c r="Q1" s="197"/>
-      <c r="R1" s="198"/>
-      <c r="S1" s="205" t="str">
+      <c r="P1" s="203"/>
+      <c r="Q1" s="203"/>
+      <c r="R1" s="204"/>
+      <c r="S1" s="214" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>画面一覧</v>
       </c>
-      <c r="T1" s="206"/>
-      <c r="U1" s="206"/>
-      <c r="V1" s="206"/>
-      <c r="W1" s="206"/>
-      <c r="X1" s="206"/>
-      <c r="Y1" s="206"/>
-      <c r="Z1" s="207"/>
-      <c r="AA1" s="139" t="s">
+      <c r="T1" s="215"/>
+      <c r="U1" s="215"/>
+      <c r="V1" s="215"/>
+      <c r="W1" s="215"/>
+      <c r="X1" s="215"/>
+      <c r="Y1" s="215"/>
+      <c r="Z1" s="216"/>
+      <c r="AA1" s="151" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="141"/>
-      <c r="AC1" s="166" t="str">
+      <c r="AB1" s="153"/>
+      <c r="AC1" s="178" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="167"/>
-      <c r="AE1" s="167"/>
-      <c r="AF1" s="168"/>
-      <c r="AG1" s="170">
+      <c r="AD1" s="179"/>
+      <c r="AE1" s="179"/>
+      <c r="AF1" s="180"/>
+      <c r="AG1" s="182">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43592</v>
       </c>
-      <c r="AH1" s="171"/>
-      <c r="AI1" s="172"/>
+      <c r="AH1" s="183"/>
+      <c r="AI1" s="184"/>
       <c r="AJ1" s="11"/>
       <c r="AK1" s="11"/>
       <c r="AL1" s="11"/>
@@ -6909,54 +6960,54 @@
       <c r="BE1" s="11"/>
     </row>
     <row r="2" spans="1:57" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="139" t="s">
+      <c r="A2" s="151" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="140"/>
-      <c r="C2" s="140"/>
-      <c r="D2" s="141"/>
-      <c r="E2" s="169" t="str">
+      <c r="B2" s="152"/>
+      <c r="C2" s="152"/>
+      <c r="D2" s="153"/>
+      <c r="E2" s="181" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="143"/>
-      <c r="G2" s="143"/>
-      <c r="H2" s="143"/>
-      <c r="I2" s="143"/>
-      <c r="J2" s="143"/>
-      <c r="K2" s="143"/>
-      <c r="L2" s="143"/>
-      <c r="M2" s="143"/>
-      <c r="N2" s="144"/>
-      <c r="O2" s="199"/>
-      <c r="P2" s="200"/>
-      <c r="Q2" s="200"/>
-      <c r="R2" s="201"/>
-      <c r="S2" s="208"/>
-      <c r="T2" s="209"/>
-      <c r="U2" s="209"/>
-      <c r="V2" s="209"/>
-      <c r="W2" s="209"/>
-      <c r="X2" s="209"/>
-      <c r="Y2" s="209"/>
-      <c r="Z2" s="210"/>
-      <c r="AA2" s="139" t="s">
+      <c r="F2" s="155"/>
+      <c r="G2" s="155"/>
+      <c r="H2" s="155"/>
+      <c r="I2" s="155"/>
+      <c r="J2" s="155"/>
+      <c r="K2" s="155"/>
+      <c r="L2" s="155"/>
+      <c r="M2" s="155"/>
+      <c r="N2" s="156"/>
+      <c r="O2" s="205"/>
+      <c r="P2" s="206"/>
+      <c r="Q2" s="206"/>
+      <c r="R2" s="207"/>
+      <c r="S2" s="217"/>
+      <c r="T2" s="218"/>
+      <c r="U2" s="218"/>
+      <c r="V2" s="218"/>
+      <c r="W2" s="218"/>
+      <c r="X2" s="218"/>
+      <c r="Y2" s="218"/>
+      <c r="Z2" s="219"/>
+      <c r="AA2" s="151" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="141"/>
-      <c r="AC2" s="166" t="str">
+      <c r="AB2" s="153"/>
+      <c r="AC2" s="178" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="167"/>
-      <c r="AE2" s="167"/>
-      <c r="AF2" s="168"/>
-      <c r="AG2" s="170">
+      <c r="AD2" s="179"/>
+      <c r="AE2" s="179"/>
+      <c r="AF2" s="180"/>
+      <c r="AG2" s="182">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
-        <v>43895</v>
-      </c>
-      <c r="AH2" s="171"/>
-      <c r="AI2" s="172"/>
+        <v>44796</v>
+      </c>
+      <c r="AH2" s="183"/>
+      <c r="AI2" s="184"/>
       <c r="AJ2" s="11"/>
       <c r="AK2" s="11"/>
       <c r="AL2" s="11"/>
@@ -6981,52 +7032,52 @@
       <c r="BE2" s="11"/>
     </row>
     <row r="3" spans="1:57" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="139" t="s">
+      <c r="A3" s="151" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="140"/>
-      <c r="C3" s="140"/>
-      <c r="D3" s="141"/>
-      <c r="E3" s="169" t="str">
+      <c r="B3" s="152"/>
+      <c r="C3" s="152"/>
+      <c r="D3" s="153"/>
+      <c r="E3" s="181" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="143"/>
-      <c r="G3" s="143"/>
-      <c r="H3" s="143"/>
-      <c r="I3" s="143"/>
-      <c r="J3" s="143"/>
-      <c r="K3" s="143"/>
-      <c r="L3" s="143"/>
-      <c r="M3" s="143"/>
-      <c r="N3" s="144"/>
-      <c r="O3" s="202"/>
-      <c r="P3" s="203"/>
-      <c r="Q3" s="203"/>
-      <c r="R3" s="204"/>
-      <c r="S3" s="211"/>
-      <c r="T3" s="212"/>
-      <c r="U3" s="212"/>
-      <c r="V3" s="212"/>
-      <c r="W3" s="212"/>
-      <c r="X3" s="212"/>
-      <c r="Y3" s="212"/>
-      <c r="Z3" s="213"/>
-      <c r="AA3" s="139"/>
-      <c r="AB3" s="141"/>
-      <c r="AC3" s="166" t="str">
+      <c r="F3" s="155"/>
+      <c r="G3" s="155"/>
+      <c r="H3" s="155"/>
+      <c r="I3" s="155"/>
+      <c r="J3" s="155"/>
+      <c r="K3" s="155"/>
+      <c r="L3" s="155"/>
+      <c r="M3" s="155"/>
+      <c r="N3" s="156"/>
+      <c r="O3" s="208"/>
+      <c r="P3" s="209"/>
+      <c r="Q3" s="209"/>
+      <c r="R3" s="210"/>
+      <c r="S3" s="220"/>
+      <c r="T3" s="221"/>
+      <c r="U3" s="221"/>
+      <c r="V3" s="221"/>
+      <c r="W3" s="221"/>
+      <c r="X3" s="221"/>
+      <c r="Y3" s="221"/>
+      <c r="Z3" s="222"/>
+      <c r="AA3" s="151"/>
+      <c r="AB3" s="153"/>
+      <c r="AC3" s="178" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="167"/>
-      <c r="AE3" s="167"/>
-      <c r="AF3" s="168"/>
-      <c r="AG3" s="170" t="str">
+      <c r="AD3" s="179"/>
+      <c r="AE3" s="179"/>
+      <c r="AF3" s="180"/>
+      <c r="AG3" s="182" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="171"/>
-      <c r="AI3" s="172"/>
+      <c r="AH3" s="183"/>
+      <c r="AI3" s="184"/>
       <c r="AJ3" s="11"/>
       <c r="AK3" s="11"/>
       <c r="AL3" s="11"/>
@@ -7197,47 +7248,47 @@
       <c r="C7" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="178" t="s">
+      <c r="D7" s="199" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="179"/>
-      <c r="F7" s="180"/>
-      <c r="G7" s="178" t="s">
+      <c r="E7" s="200"/>
+      <c r="F7" s="201"/>
+      <c r="G7" s="199" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="179"/>
-      <c r="I7" s="179"/>
-      <c r="J7" s="179"/>
-      <c r="K7" s="180"/>
-      <c r="L7" s="214" t="s">
+      <c r="H7" s="200"/>
+      <c r="I7" s="200"/>
+      <c r="J7" s="200"/>
+      <c r="K7" s="201"/>
+      <c r="L7" s="211" t="s">
         <v>12</v>
       </c>
-      <c r="M7" s="215"/>
-      <c r="N7" s="216"/>
-      <c r="O7" s="178" t="s">
+      <c r="M7" s="212"/>
+      <c r="N7" s="213"/>
+      <c r="O7" s="199" t="s">
         <v>13</v>
       </c>
-      <c r="P7" s="179"/>
-      <c r="Q7" s="179"/>
-      <c r="R7" s="179"/>
-      <c r="S7" s="180"/>
-      <c r="T7" s="178" t="s">
+      <c r="P7" s="200"/>
+      <c r="Q7" s="200"/>
+      <c r="R7" s="200"/>
+      <c r="S7" s="201"/>
+      <c r="T7" s="199" t="s">
         <v>14</v>
       </c>
-      <c r="U7" s="179"/>
-      <c r="V7" s="179"/>
-      <c r="W7" s="179"/>
-      <c r="X7" s="179"/>
-      <c r="Y7" s="179"/>
-      <c r="Z7" s="179"/>
-      <c r="AA7" s="179"/>
-      <c r="AB7" s="179"/>
-      <c r="AC7" s="179"/>
-      <c r="AD7" s="179"/>
-      <c r="AE7" s="179"/>
-      <c r="AF7" s="179"/>
-      <c r="AG7" s="179"/>
-      <c r="AH7" s="180"/>
+      <c r="U7" s="200"/>
+      <c r="V7" s="200"/>
+      <c r="W7" s="200"/>
+      <c r="X7" s="200"/>
+      <c r="Y7" s="200"/>
+      <c r="Z7" s="200"/>
+      <c r="AA7" s="200"/>
+      <c r="AB7" s="200"/>
+      <c r="AC7" s="200"/>
+      <c r="AD7" s="200"/>
+      <c r="AE7" s="200"/>
+      <c r="AF7" s="200"/>
+      <c r="AG7" s="200"/>
+      <c r="AH7" s="201"/>
       <c r="AJ7" s="11"/>
       <c r="AK7" s="11"/>
       <c r="AL7" s="11"/>
@@ -7261,51 +7312,51 @@
       <c r="BD7" s="11"/>
       <c r="BE7" s="11"/>
     </row>
-    <row r="8" spans="1:57" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C8" s="60">
+    <row r="8" spans="1:57" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C8" s="99">
         <v>1</v>
       </c>
-      <c r="D8" s="187" t="s">
+      <c r="D8" s="196" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="188"/>
-      <c r="F8" s="189"/>
-      <c r="G8" s="187" t="s">
+      <c r="E8" s="197"/>
+      <c r="F8" s="198"/>
+      <c r="G8" s="196" t="s">
+        <v>80</v>
+      </c>
+      <c r="H8" s="197"/>
+      <c r="I8" s="197"/>
+      <c r="J8" s="197"/>
+      <c r="K8" s="198"/>
+      <c r="L8" s="120" t="s">
+        <v>29</v>
+      </c>
+      <c r="M8" s="127"/>
+      <c r="N8" s="128"/>
+      <c r="O8" s="120" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="188"/>
-      <c r="I8" s="188"/>
-      <c r="J8" s="188"/>
-      <c r="K8" s="189"/>
-      <c r="L8" s="108" t="s">
-        <v>29</v>
-      </c>
-      <c r="M8" s="115"/>
-      <c r="N8" s="116"/>
-      <c r="O8" s="108" t="s">
-        <v>28</v>
-      </c>
-      <c r="P8" s="115"/>
-      <c r="Q8" s="115"/>
-      <c r="R8" s="115"/>
-      <c r="S8" s="116"/>
-      <c r="T8" s="108" t="s">
-        <v>57</v>
-      </c>
-      <c r="U8" s="101"/>
-      <c r="V8" s="101"/>
-      <c r="W8" s="101"/>
-      <c r="X8" s="101"/>
-      <c r="Y8" s="101"/>
-      <c r="Z8" s="101"/>
-      <c r="AA8" s="101"/>
-      <c r="AB8" s="101"/>
-      <c r="AC8" s="101"/>
-      <c r="AD8" s="101"/>
-      <c r="AE8" s="101"/>
-      <c r="AF8" s="101"/>
-      <c r="AG8" s="101"/>
-      <c r="AH8" s="102"/>
+      <c r="P8" s="127"/>
+      <c r="Q8" s="127"/>
+      <c r="R8" s="127"/>
+      <c r="S8" s="128"/>
+      <c r="T8" s="121" t="s">
+        <v>82</v>
+      </c>
+      <c r="U8" s="113"/>
+      <c r="V8" s="113"/>
+      <c r="W8" s="113"/>
+      <c r="X8" s="113"/>
+      <c r="Y8" s="113"/>
+      <c r="Z8" s="113"/>
+      <c r="AA8" s="113"/>
+      <c r="AB8" s="113"/>
+      <c r="AC8" s="113"/>
+      <c r="AD8" s="113"/>
+      <c r="AE8" s="113"/>
+      <c r="AF8" s="113"/>
+      <c r="AG8" s="113"/>
+      <c r="AH8" s="114"/>
       <c r="AJ8" s="11"/>
       <c r="AK8" s="11"/>
       <c r="AL8" s="11"/>
@@ -7329,48 +7380,47 @@
       <c r="BD8" s="11"/>
       <c r="BE8" s="11"/>
     </row>
-    <row r="9" spans="1:57" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C9" s="60">
-        <f>C8+1</f>
-        <v>2</v>
-      </c>
-      <c r="D9" s="190"/>
-      <c r="E9" s="191"/>
-      <c r="F9" s="192"/>
-      <c r="G9" s="190"/>
-      <c r="H9" s="191"/>
-      <c r="I9" s="191"/>
-      <c r="J9" s="191"/>
-      <c r="K9" s="192"/>
-      <c r="L9" s="108" t="s">
-        <v>30</v>
-      </c>
-      <c r="M9" s="115"/>
-      <c r="N9" s="116"/>
-      <c r="O9" s="108" t="s">
-        <v>31</v>
-      </c>
-      <c r="P9" s="115"/>
-      <c r="Q9" s="115"/>
-      <c r="R9" s="115"/>
-      <c r="S9" s="116"/>
-      <c r="T9" s="108" t="s">
-        <v>44</v>
-      </c>
-      <c r="U9" s="101"/>
-      <c r="V9" s="101"/>
-      <c r="W9" s="101"/>
-      <c r="X9" s="101"/>
-      <c r="Y9" s="101"/>
-      <c r="Z9" s="101"/>
-      <c r="AA9" s="101"/>
-      <c r="AB9" s="101"/>
-      <c r="AC9" s="101"/>
-      <c r="AD9" s="101"/>
-      <c r="AE9" s="101"/>
-      <c r="AF9" s="101"/>
-      <c r="AG9" s="101"/>
-      <c r="AH9" s="102"/>
+    <row r="9" spans="1:57" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C9" s="81"/>
+      <c r="D9" s="100"/>
+      <c r="E9" s="101"/>
+      <c r="F9" s="102"/>
+      <c r="G9" s="100"/>
+      <c r="H9" s="101"/>
+      <c r="I9" s="101"/>
+      <c r="J9" s="101"/>
+      <c r="K9" s="102"/>
+      <c r="L9" s="120" t="s">
+        <v>84</v>
+      </c>
+      <c r="M9" s="127"/>
+      <c r="N9" s="128"/>
+      <c r="O9" s="96" t="s">
+        <v>81</v>
+      </c>
+      <c r="P9" s="97"/>
+      <c r="Q9" s="97"/>
+      <c r="R9" s="97"/>
+      <c r="S9" s="98"/>
+      <c r="T9" s="121" t="s">
+        <v>83</v>
+      </c>
+      <c r="U9" s="129"/>
+      <c r="V9" s="129"/>
+      <c r="W9" s="129"/>
+      <c r="X9" s="129"/>
+      <c r="Y9" s="129"/>
+      <c r="Z9" s="129"/>
+      <c r="AA9" s="129"/>
+      <c r="AB9" s="129"/>
+      <c r="AC9" s="129"/>
+      <c r="AD9" s="129"/>
+      <c r="AE9" s="129"/>
+      <c r="AF9" s="129"/>
+      <c r="AG9" s="129"/>
+      <c r="AH9" s="130"/>
+      <c r="AJ9" s="11"/>
+      <c r="AK9" s="11"/>
       <c r="AL9" s="11"/>
       <c r="AM9" s="11"/>
       <c r="AN9" s="11"/>
@@ -7383,49 +7433,61 @@
       <c r="AU9" s="11"/>
       <c r="AV9" s="11"/>
       <c r="AW9" s="11"/>
-    </row>
-    <row r="10" spans="1:57" s="8" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AX9" s="11"/>
+      <c r="AY9" s="11"/>
+      <c r="AZ9" s="11"/>
+      <c r="BA9" s="11"/>
+      <c r="BB9" s="11"/>
+      <c r="BC9" s="11"/>
+      <c r="BD9" s="11"/>
+      <c r="BE9" s="11"/>
+    </row>
+    <row r="10" spans="1:57" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C10" s="60">
-        <f t="shared" ref="C10:C14" si="0">C9+1</f>
-        <v>3</v>
-      </c>
-      <c r="D10" s="190"/>
-      <c r="E10" s="191"/>
-      <c r="F10" s="192"/>
-      <c r="G10" s="190"/>
-      <c r="H10" s="191"/>
-      <c r="I10" s="191"/>
-      <c r="J10" s="191"/>
-      <c r="K10" s="192"/>
-      <c r="L10" s="184" t="s">
+        <f>C8+1</f>
+        <v>2</v>
+      </c>
+      <c r="D10" s="194" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="194"/>
+      <c r="F10" s="194"/>
+      <c r="G10" s="194" t="s">
         <v>32</v>
       </c>
-      <c r="M10" s="185"/>
-      <c r="N10" s="186"/>
-      <c r="O10" s="184" t="s">
-        <v>33</v>
-      </c>
-      <c r="P10" s="185"/>
-      <c r="Q10" s="185"/>
-      <c r="R10" s="185"/>
-      <c r="S10" s="186"/>
-      <c r="T10" s="181" t="s">
-        <v>50</v>
-      </c>
-      <c r="U10" s="182"/>
-      <c r="V10" s="182"/>
-      <c r="W10" s="182"/>
-      <c r="X10" s="182"/>
-      <c r="Y10" s="182"/>
-      <c r="Z10" s="182"/>
-      <c r="AA10" s="182"/>
-      <c r="AB10" s="182"/>
-      <c r="AC10" s="182"/>
-      <c r="AD10" s="182"/>
-      <c r="AE10" s="182"/>
-      <c r="AF10" s="182"/>
-      <c r="AG10" s="182"/>
-      <c r="AH10" s="183"/>
+      <c r="H10" s="194"/>
+      <c r="I10" s="194"/>
+      <c r="J10" s="194"/>
+      <c r="K10" s="194"/>
+      <c r="L10" s="185" t="s">
+        <v>37</v>
+      </c>
+      <c r="M10" s="186"/>
+      <c r="N10" s="187"/>
+      <c r="O10" s="185" t="s">
+        <v>34</v>
+      </c>
+      <c r="P10" s="186"/>
+      <c r="Q10" s="186"/>
+      <c r="R10" s="186"/>
+      <c r="S10" s="187"/>
+      <c r="T10" s="185" t="s">
+        <v>48</v>
+      </c>
+      <c r="U10" s="189"/>
+      <c r="V10" s="189"/>
+      <c r="W10" s="189"/>
+      <c r="X10" s="189"/>
+      <c r="Y10" s="189"/>
+      <c r="Z10" s="189"/>
+      <c r="AA10" s="189"/>
+      <c r="AB10" s="189"/>
+      <c r="AC10" s="189"/>
+      <c r="AD10" s="189"/>
+      <c r="AE10" s="189"/>
+      <c r="AF10" s="189"/>
+      <c r="AG10" s="189"/>
+      <c r="AH10" s="190"/>
       <c r="AL10" s="11"/>
       <c r="AM10" s="11"/>
       <c r="AN10" s="11"/>
@@ -7439,48 +7501,48 @@
       <c r="AV10" s="11"/>
       <c r="AW10" s="11"/>
     </row>
-    <row r="11" spans="1:57" s="8" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:57" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C11" s="60">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="D11" s="193"/>
-      <c r="E11" s="194"/>
+        <f t="shared" ref="C11:C19" si="0">C10+1</f>
+        <v>3</v>
+      </c>
+      <c r="D11" s="195"/>
+      <c r="E11" s="195"/>
       <c r="F11" s="195"/>
-      <c r="G11" s="193"/>
-      <c r="H11" s="194"/>
-      <c r="I11" s="194"/>
-      <c r="J11" s="194"/>
+      <c r="G11" s="195"/>
+      <c r="H11" s="195"/>
+      <c r="I11" s="195"/>
+      <c r="J11" s="195"/>
       <c r="K11" s="195"/>
-      <c r="L11" s="184" t="s">
-        <v>34</v>
-      </c>
-      <c r="M11" s="185"/>
-      <c r="N11" s="186"/>
-      <c r="O11" s="184" t="s">
+      <c r="L11" s="120" t="s">
+        <v>38</v>
+      </c>
+      <c r="M11" s="127"/>
+      <c r="N11" s="128"/>
+      <c r="O11" s="120" t="s">
         <v>35</v>
       </c>
-      <c r="P11" s="185"/>
-      <c r="Q11" s="185"/>
-      <c r="R11" s="185"/>
-      <c r="S11" s="186"/>
-      <c r="T11" s="181" t="s">
-        <v>56</v>
-      </c>
-      <c r="U11" s="182"/>
-      <c r="V11" s="182"/>
-      <c r="W11" s="182"/>
-      <c r="X11" s="182"/>
-      <c r="Y11" s="182"/>
-      <c r="Z11" s="182"/>
-      <c r="AA11" s="182"/>
-      <c r="AB11" s="182"/>
-      <c r="AC11" s="182"/>
-      <c r="AD11" s="182"/>
-      <c r="AE11" s="182"/>
-      <c r="AF11" s="182"/>
-      <c r="AG11" s="182"/>
-      <c r="AH11" s="183"/>
+      <c r="P11" s="127"/>
+      <c r="Q11" s="127"/>
+      <c r="R11" s="127"/>
+      <c r="S11" s="128"/>
+      <c r="T11" s="120" t="s">
+        <v>46</v>
+      </c>
+      <c r="U11" s="113"/>
+      <c r="V11" s="113"/>
+      <c r="W11" s="113"/>
+      <c r="X11" s="113"/>
+      <c r="Y11" s="113"/>
+      <c r="Z11" s="113"/>
+      <c r="AA11" s="113"/>
+      <c r="AB11" s="113"/>
+      <c r="AC11" s="113"/>
+      <c r="AD11" s="113"/>
+      <c r="AE11" s="113"/>
+      <c r="AF11" s="113"/>
+      <c r="AG11" s="113"/>
+      <c r="AH11" s="114"/>
       <c r="AL11" s="11"/>
       <c r="AM11" s="11"/>
       <c r="AN11" s="11"/>
@@ -7494,52 +7556,48 @@
       <c r="AV11" s="11"/>
       <c r="AW11" s="11"/>
     </row>
-    <row r="12" spans="1:57" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:57" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C12" s="60">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="D12" s="176" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12" s="176"/>
-      <c r="F12" s="176"/>
-      <c r="G12" s="176" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="195"/>
+      <c r="E12" s="195"/>
+      <c r="F12" s="195"/>
+      <c r="G12" s="195"/>
+      <c r="H12" s="195"/>
+      <c r="I12" s="195"/>
+      <c r="J12" s="195"/>
+      <c r="K12" s="195"/>
+      <c r="L12" s="120" t="s">
+        <v>39</v>
+      </c>
+      <c r="M12" s="127"/>
+      <c r="N12" s="128"/>
+      <c r="O12" s="120" t="s">
         <v>36</v>
       </c>
-      <c r="H12" s="176"/>
-      <c r="I12" s="176"/>
-      <c r="J12" s="176"/>
-      <c r="K12" s="176"/>
-      <c r="L12" s="184" t="s">
-        <v>41</v>
-      </c>
-      <c r="M12" s="185"/>
-      <c r="N12" s="186"/>
-      <c r="O12" s="184" t="s">
-        <v>38</v>
-      </c>
-      <c r="P12" s="185"/>
-      <c r="Q12" s="185"/>
-      <c r="R12" s="185"/>
-      <c r="S12" s="186"/>
-      <c r="T12" s="184" t="s">
-        <v>53</v>
-      </c>
-      <c r="U12" s="182"/>
-      <c r="V12" s="182"/>
-      <c r="W12" s="182"/>
-      <c r="X12" s="182"/>
-      <c r="Y12" s="182"/>
-      <c r="Z12" s="182"/>
-      <c r="AA12" s="182"/>
-      <c r="AB12" s="182"/>
-      <c r="AC12" s="182"/>
-      <c r="AD12" s="182"/>
-      <c r="AE12" s="182"/>
-      <c r="AF12" s="182"/>
-      <c r="AG12" s="182"/>
-      <c r="AH12" s="183"/>
+      <c r="P12" s="127"/>
+      <c r="Q12" s="127"/>
+      <c r="R12" s="127"/>
+      <c r="S12" s="128"/>
+      <c r="T12" s="120" t="s">
+        <v>47</v>
+      </c>
+      <c r="U12" s="113"/>
+      <c r="V12" s="113"/>
+      <c r="W12" s="113"/>
+      <c r="X12" s="113"/>
+      <c r="Y12" s="113"/>
+      <c r="Z12" s="113"/>
+      <c r="AA12" s="113"/>
+      <c r="AB12" s="113"/>
+      <c r="AC12" s="113"/>
+      <c r="AD12" s="113"/>
+      <c r="AE12" s="113"/>
+      <c r="AF12" s="113"/>
+      <c r="AG12" s="113"/>
+      <c r="AH12" s="114"/>
       <c r="AL12" s="11"/>
       <c r="AM12" s="11"/>
       <c r="AN12" s="11"/>
@@ -7553,48 +7611,48 @@
       <c r="AV12" s="11"/>
       <c r="AW12" s="11"/>
     </row>
-    <row r="13" spans="1:57" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:57" s="7" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C13" s="60">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="D13" s="177"/>
-      <c r="E13" s="177"/>
-      <c r="F13" s="177"/>
-      <c r="G13" s="177"/>
-      <c r="H13" s="177"/>
-      <c r="I13" s="177"/>
-      <c r="J13" s="177"/>
-      <c r="K13" s="177"/>
-      <c r="L13" s="108" t="s">
-        <v>42</v>
-      </c>
-      <c r="M13" s="115"/>
-      <c r="N13" s="116"/>
-      <c r="O13" s="108" t="s">
-        <v>39</v>
-      </c>
-      <c r="P13" s="115"/>
-      <c r="Q13" s="115"/>
-      <c r="R13" s="115"/>
-      <c r="S13" s="116"/>
-      <c r="T13" s="108" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="195"/>
+      <c r="E13" s="195"/>
+      <c r="F13" s="195"/>
+      <c r="G13" s="195"/>
+      <c r="H13" s="195"/>
+      <c r="I13" s="195"/>
+      <c r="J13" s="195"/>
+      <c r="K13" s="195"/>
+      <c r="L13" s="120" t="s">
+        <v>50</v>
+      </c>
+      <c r="M13" s="127"/>
+      <c r="N13" s="128"/>
+      <c r="O13" s="120" t="s">
         <v>51</v>
       </c>
-      <c r="U13" s="101"/>
-      <c r="V13" s="101"/>
-      <c r="W13" s="101"/>
-      <c r="X13" s="101"/>
-      <c r="Y13" s="101"/>
-      <c r="Z13" s="101"/>
-      <c r="AA13" s="101"/>
-      <c r="AB13" s="101"/>
-      <c r="AC13" s="101"/>
-      <c r="AD13" s="101"/>
-      <c r="AE13" s="101"/>
-      <c r="AF13" s="101"/>
-      <c r="AG13" s="101"/>
-      <c r="AH13" s="102"/>
+      <c r="P13" s="127"/>
+      <c r="Q13" s="127"/>
+      <c r="R13" s="127"/>
+      <c r="S13" s="128"/>
+      <c r="T13" s="121" t="s">
+        <v>52</v>
+      </c>
+      <c r="U13" s="116"/>
+      <c r="V13" s="116"/>
+      <c r="W13" s="116"/>
+      <c r="X13" s="116"/>
+      <c r="Y13" s="116"/>
+      <c r="Z13" s="116"/>
+      <c r="AA13" s="116"/>
+      <c r="AB13" s="116"/>
+      <c r="AC13" s="116"/>
+      <c r="AD13" s="116"/>
+      <c r="AE13" s="116"/>
+      <c r="AF13" s="116"/>
+      <c r="AG13" s="116"/>
+      <c r="AH13" s="117"/>
       <c r="AL13" s="11"/>
       <c r="AM13" s="11"/>
       <c r="AN13" s="11"/>
@@ -7608,48 +7666,48 @@
       <c r="AV13" s="11"/>
       <c r="AW13" s="11"/>
     </row>
-    <row r="14" spans="1:57" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:57" s="7" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C14" s="60">
         <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="D14" s="177"/>
-      <c r="E14" s="177"/>
-      <c r="F14" s="177"/>
-      <c r="G14" s="177"/>
-      <c r="H14" s="177"/>
-      <c r="I14" s="177"/>
-      <c r="J14" s="177"/>
-      <c r="K14" s="177"/>
-      <c r="L14" s="108" t="s">
-        <v>43</v>
-      </c>
-      <c r="M14" s="115"/>
-      <c r="N14" s="116"/>
-      <c r="O14" s="108" t="s">
-        <v>40</v>
-      </c>
-      <c r="P14" s="115"/>
-      <c r="Q14" s="115"/>
-      <c r="R14" s="115"/>
-      <c r="S14" s="116"/>
-      <c r="T14" s="108" t="s">
-        <v>52</v>
-      </c>
-      <c r="U14" s="101"/>
-      <c r="V14" s="101"/>
-      <c r="W14" s="101"/>
-      <c r="X14" s="101"/>
-      <c r="Y14" s="101"/>
-      <c r="Z14" s="101"/>
-      <c r="AA14" s="101"/>
-      <c r="AB14" s="101"/>
-      <c r="AC14" s="101"/>
-      <c r="AD14" s="101"/>
-      <c r="AE14" s="101"/>
-      <c r="AF14" s="101"/>
-      <c r="AG14" s="101"/>
-      <c r="AH14" s="102"/>
+        <v>6</v>
+      </c>
+      <c r="D14" s="195"/>
+      <c r="E14" s="195"/>
+      <c r="F14" s="195"/>
+      <c r="G14" s="195"/>
+      <c r="H14" s="195"/>
+      <c r="I14" s="195"/>
+      <c r="J14" s="195"/>
+      <c r="K14" s="195"/>
+      <c r="L14" s="120" t="s">
+        <v>56</v>
+      </c>
+      <c r="M14" s="127"/>
+      <c r="N14" s="128"/>
+      <c r="O14" s="120" t="s">
+        <v>57</v>
+      </c>
+      <c r="P14" s="127"/>
+      <c r="Q14" s="127"/>
+      <c r="R14" s="127"/>
+      <c r="S14" s="128"/>
+      <c r="T14" s="121" t="s">
+        <v>58</v>
+      </c>
+      <c r="U14" s="116"/>
+      <c r="V14" s="116"/>
+      <c r="W14" s="116"/>
+      <c r="X14" s="116"/>
+      <c r="Y14" s="116"/>
+      <c r="Z14" s="116"/>
+      <c r="AA14" s="116"/>
+      <c r="AB14" s="116"/>
+      <c r="AC14" s="116"/>
+      <c r="AD14" s="116"/>
+      <c r="AE14" s="116"/>
+      <c r="AF14" s="116"/>
+      <c r="AG14" s="116"/>
+      <c r="AH14" s="117"/>
       <c r="AL14" s="11"/>
       <c r="AM14" s="11"/>
       <c r="AN14" s="11"/>
@@ -7663,48 +7721,48 @@
       <c r="AV14" s="11"/>
       <c r="AW14" s="11"/>
     </row>
-    <row r="15" spans="1:57" s="7" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:57" s="7" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C15" s="60">
-        <f>C14+1</f>
-        <v>8</v>
-      </c>
-      <c r="D15" s="177"/>
-      <c r="E15" s="177"/>
-      <c r="F15" s="177"/>
-      <c r="G15" s="177"/>
-      <c r="H15" s="177"/>
-      <c r="I15" s="177"/>
-      <c r="J15" s="177"/>
-      <c r="K15" s="177"/>
-      <c r="L15" s="108" t="s">
-        <v>58</v>
-      </c>
-      <c r="M15" s="115"/>
-      <c r="N15" s="116"/>
-      <c r="O15" s="108" t="s">
-        <v>59</v>
-      </c>
-      <c r="P15" s="115"/>
-      <c r="Q15" s="115"/>
-      <c r="R15" s="115"/>
-      <c r="S15" s="116"/>
-      <c r="T15" s="109" t="s">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="D15" s="195"/>
+      <c r="E15" s="195"/>
+      <c r="F15" s="195"/>
+      <c r="G15" s="195"/>
+      <c r="H15" s="195"/>
+      <c r="I15" s="195"/>
+      <c r="J15" s="195"/>
+      <c r="K15" s="195"/>
+      <c r="L15" s="83" t="s">
         <v>60</v>
       </c>
-      <c r="U15" s="104"/>
-      <c r="V15" s="104"/>
-      <c r="W15" s="104"/>
-      <c r="X15" s="104"/>
-      <c r="Y15" s="104"/>
-      <c r="Z15" s="104"/>
-      <c r="AA15" s="104"/>
-      <c r="AB15" s="104"/>
-      <c r="AC15" s="104"/>
-      <c r="AD15" s="104"/>
-      <c r="AE15" s="104"/>
-      <c r="AF15" s="104"/>
-      <c r="AG15" s="104"/>
-      <c r="AH15" s="105"/>
+      <c r="M15" s="84"/>
+      <c r="N15" s="85"/>
+      <c r="O15" s="83" t="s">
+        <v>63</v>
+      </c>
+      <c r="P15" s="84"/>
+      <c r="Q15" s="84"/>
+      <c r="R15" s="84"/>
+      <c r="S15" s="85"/>
+      <c r="T15" s="191" t="s">
+        <v>66</v>
+      </c>
+      <c r="U15" s="192"/>
+      <c r="V15" s="192"/>
+      <c r="W15" s="192"/>
+      <c r="X15" s="192"/>
+      <c r="Y15" s="192"/>
+      <c r="Z15" s="192"/>
+      <c r="AA15" s="192"/>
+      <c r="AB15" s="192"/>
+      <c r="AC15" s="192"/>
+      <c r="AD15" s="192"/>
+      <c r="AE15" s="192"/>
+      <c r="AF15" s="192"/>
+      <c r="AG15" s="192"/>
+      <c r="AH15" s="193"/>
       <c r="AL15" s="11"/>
       <c r="AM15" s="11"/>
       <c r="AN15" s="11"/>
@@ -7720,46 +7778,46 @@
     </row>
     <row r="16" spans="1:57" s="7" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C16" s="60">
-        <f>C15+1</f>
-        <v>9</v>
-      </c>
-      <c r="D16" s="177"/>
-      <c r="E16" s="177"/>
-      <c r="F16" s="177"/>
-      <c r="G16" s="177"/>
-      <c r="H16" s="177"/>
-      <c r="I16" s="177"/>
-      <c r="J16" s="177"/>
-      <c r="K16" s="177"/>
-      <c r="L16" s="108" t="s">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D16" s="195"/>
+      <c r="E16" s="195"/>
+      <c r="F16" s="195"/>
+      <c r="G16" s="195"/>
+      <c r="H16" s="195"/>
+      <c r="I16" s="195"/>
+      <c r="J16" s="195"/>
+      <c r="K16" s="195"/>
+      <c r="L16" s="83" t="s">
+        <v>61</v>
+      </c>
+      <c r="M16" s="84"/>
+      <c r="N16" s="85"/>
+      <c r="O16" s="83" t="s">
         <v>64</v>
       </c>
-      <c r="M16" s="115"/>
-      <c r="N16" s="116"/>
-      <c r="O16" s="108" t="s">
-        <v>65</v>
-      </c>
-      <c r="P16" s="115"/>
-      <c r="Q16" s="115"/>
-      <c r="R16" s="115"/>
-      <c r="S16" s="116"/>
-      <c r="T16" s="109" t="s">
-        <v>66</v>
-      </c>
-      <c r="U16" s="104"/>
-      <c r="V16" s="104"/>
-      <c r="W16" s="104"/>
-      <c r="X16" s="104"/>
-      <c r="Y16" s="104"/>
-      <c r="Z16" s="104"/>
-      <c r="AA16" s="104"/>
-      <c r="AB16" s="104"/>
-      <c r="AC16" s="104"/>
-      <c r="AD16" s="104"/>
-      <c r="AE16" s="104"/>
-      <c r="AF16" s="104"/>
-      <c r="AG16" s="104"/>
-      <c r="AH16" s="105"/>
+      <c r="P16" s="84"/>
+      <c r="Q16" s="84"/>
+      <c r="R16" s="84"/>
+      <c r="S16" s="85"/>
+      <c r="T16" s="191" t="s">
+        <v>67</v>
+      </c>
+      <c r="U16" s="192"/>
+      <c r="V16" s="192"/>
+      <c r="W16" s="192"/>
+      <c r="X16" s="192"/>
+      <c r="Y16" s="192"/>
+      <c r="Z16" s="192"/>
+      <c r="AA16" s="192"/>
+      <c r="AB16" s="192"/>
+      <c r="AC16" s="192"/>
+      <c r="AD16" s="192"/>
+      <c r="AE16" s="192"/>
+      <c r="AF16" s="192"/>
+      <c r="AG16" s="192"/>
+      <c r="AH16" s="193"/>
       <c r="AL16" s="11"/>
       <c r="AM16" s="11"/>
       <c r="AN16" s="11"/>
@@ -7773,48 +7831,48 @@
       <c r="AV16" s="11"/>
       <c r="AW16" s="11"/>
     </row>
-    <row r="17" spans="3:49" s="7" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="3:49" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C17" s="60">
-        <f t="shared" ref="C17:C19" si="1">C16+1</f>
-        <v>10</v>
-      </c>
-      <c r="D17" s="177"/>
-      <c r="E17" s="177"/>
-      <c r="F17" s="177"/>
-      <c r="G17" s="177"/>
-      <c r="H17" s="177"/>
-      <c r="I17" s="177"/>
-      <c r="J17" s="177"/>
-      <c r="K17" s="177"/>
-      <c r="L17" s="83" t="s">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="D17" s="195"/>
+      <c r="E17" s="195"/>
+      <c r="F17" s="195"/>
+      <c r="G17" s="195"/>
+      <c r="H17" s="195"/>
+      <c r="I17" s="195"/>
+      <c r="J17" s="195"/>
+      <c r="K17" s="195"/>
+      <c r="L17" s="120" t="s">
+        <v>62</v>
+      </c>
+      <c r="M17" s="127"/>
+      <c r="N17" s="128"/>
+      <c r="O17" s="120" t="s">
+        <v>65</v>
+      </c>
+      <c r="P17" s="127"/>
+      <c r="Q17" s="127"/>
+      <c r="R17" s="127"/>
+      <c r="S17" s="128"/>
+      <c r="T17" s="121" t="s">
         <v>68</v>
       </c>
-      <c r="M17" s="84"/>
-      <c r="N17" s="85"/>
-      <c r="O17" s="83" t="s">
-        <v>71</v>
-      </c>
-      <c r="P17" s="84"/>
-      <c r="Q17" s="84"/>
-      <c r="R17" s="84"/>
-      <c r="S17" s="85"/>
-      <c r="T17" s="173" t="s">
-        <v>74</v>
-      </c>
-      <c r="U17" s="174"/>
-      <c r="V17" s="174"/>
-      <c r="W17" s="174"/>
-      <c r="X17" s="174"/>
-      <c r="Y17" s="174"/>
-      <c r="Z17" s="174"/>
-      <c r="AA17" s="174"/>
-      <c r="AB17" s="174"/>
-      <c r="AC17" s="174"/>
-      <c r="AD17" s="174"/>
-      <c r="AE17" s="174"/>
-      <c r="AF17" s="174"/>
-      <c r="AG17" s="174"/>
-      <c r="AH17" s="175"/>
+      <c r="U17" s="116"/>
+      <c r="V17" s="116"/>
+      <c r="W17" s="116"/>
+      <c r="X17" s="116"/>
+      <c r="Y17" s="116"/>
+      <c r="Z17" s="116"/>
+      <c r="AA17" s="116"/>
+      <c r="AB17" s="116"/>
+      <c r="AC17" s="116"/>
+      <c r="AD17" s="116"/>
+      <c r="AE17" s="116"/>
+      <c r="AF17" s="116"/>
+      <c r="AG17" s="116"/>
+      <c r="AH17" s="117"/>
       <c r="AL17" s="11"/>
       <c r="AM17" s="11"/>
       <c r="AN17" s="11"/>
@@ -7828,48 +7886,52 @@
       <c r="AV17" s="11"/>
       <c r="AW17" s="11"/>
     </row>
-    <row r="18" spans="3:49" s="7" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="3:49" s="8" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C18" s="60">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="D18" s="177"/>
-      <c r="E18" s="177"/>
-      <c r="F18" s="177"/>
-      <c r="G18" s="177"/>
-      <c r="H18" s="177"/>
-      <c r="I18" s="177"/>
-      <c r="J18" s="177"/>
-      <c r="K18" s="177"/>
-      <c r="L18" s="83" t="s">
-        <v>69</v>
-      </c>
-      <c r="M18" s="84"/>
-      <c r="N18" s="85"/>
-      <c r="O18" s="83" t="s">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D18" s="93" t="s">
+        <v>71</v>
+      </c>
+      <c r="E18" s="94"/>
+      <c r="F18" s="95"/>
+      <c r="G18" s="93" t="s">
         <v>72</v>
       </c>
-      <c r="P18" s="84"/>
-      <c r="Q18" s="84"/>
-      <c r="R18" s="84"/>
-      <c r="S18" s="85"/>
-      <c r="T18" s="173" t="s">
-        <v>75</v>
-      </c>
-      <c r="U18" s="174"/>
-      <c r="V18" s="174"/>
-      <c r="W18" s="174"/>
-      <c r="X18" s="174"/>
-      <c r="Y18" s="174"/>
-      <c r="Z18" s="174"/>
-      <c r="AA18" s="174"/>
-      <c r="AB18" s="174"/>
-      <c r="AC18" s="174"/>
-      <c r="AD18" s="174"/>
-      <c r="AE18" s="174"/>
-      <c r="AF18" s="174"/>
-      <c r="AG18" s="174"/>
-      <c r="AH18" s="175"/>
+      <c r="H18" s="94"/>
+      <c r="I18" s="94"/>
+      <c r="J18" s="94"/>
+      <c r="K18" s="95"/>
+      <c r="L18" s="185" t="s">
+        <v>73</v>
+      </c>
+      <c r="M18" s="186"/>
+      <c r="N18" s="187"/>
+      <c r="O18" s="185" t="s">
+        <v>30</v>
+      </c>
+      <c r="P18" s="186"/>
+      <c r="Q18" s="186"/>
+      <c r="R18" s="186"/>
+      <c r="S18" s="187"/>
+      <c r="T18" s="188" t="s">
+        <v>45</v>
+      </c>
+      <c r="U18" s="189"/>
+      <c r="V18" s="189"/>
+      <c r="W18" s="189"/>
+      <c r="X18" s="189"/>
+      <c r="Y18" s="189"/>
+      <c r="Z18" s="189"/>
+      <c r="AA18" s="189"/>
+      <c r="AB18" s="189"/>
+      <c r="AC18" s="189"/>
+      <c r="AD18" s="189"/>
+      <c r="AE18" s="189"/>
+      <c r="AF18" s="189"/>
+      <c r="AG18" s="189"/>
+      <c r="AH18" s="190"/>
       <c r="AL18" s="11"/>
       <c r="AM18" s="11"/>
       <c r="AN18" s="11"/>
@@ -7883,48 +7945,48 @@
       <c r="AV18" s="11"/>
       <c r="AW18" s="11"/>
     </row>
-    <row r="19" spans="3:49" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="3:49" s="8" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C19" s="60">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="D19" s="177"/>
-      <c r="E19" s="177"/>
-      <c r="F19" s="177"/>
-      <c r="G19" s="177"/>
-      <c r="H19" s="177"/>
-      <c r="I19" s="177"/>
-      <c r="J19" s="177"/>
-      <c r="K19" s="177"/>
-      <c r="L19" s="108" t="s">
-        <v>70</v>
-      </c>
-      <c r="M19" s="115"/>
-      <c r="N19" s="116"/>
-      <c r="O19" s="108" t="s">
-        <v>73</v>
-      </c>
-      <c r="P19" s="115"/>
-      <c r="Q19" s="115"/>
-      <c r="R19" s="115"/>
-      <c r="S19" s="116"/>
-      <c r="T19" s="109" t="s">
-        <v>76</v>
-      </c>
-      <c r="U19" s="104"/>
-      <c r="V19" s="104"/>
-      <c r="W19" s="104"/>
-      <c r="X19" s="104"/>
-      <c r="Y19" s="104"/>
-      <c r="Z19" s="104"/>
-      <c r="AA19" s="104"/>
-      <c r="AB19" s="104"/>
-      <c r="AC19" s="104"/>
-      <c r="AD19" s="104"/>
-      <c r="AE19" s="104"/>
-      <c r="AF19" s="104"/>
-      <c r="AG19" s="104"/>
-      <c r="AH19" s="105"/>
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="D19" s="90"/>
+      <c r="E19" s="91"/>
+      <c r="F19" s="92"/>
+      <c r="G19" s="90"/>
+      <c r="H19" s="91"/>
+      <c r="I19" s="91"/>
+      <c r="J19" s="91"/>
+      <c r="K19" s="92"/>
+      <c r="L19" s="185" t="s">
+        <v>74</v>
+      </c>
+      <c r="M19" s="186"/>
+      <c r="N19" s="187"/>
+      <c r="O19" s="185" t="s">
+        <v>31</v>
+      </c>
+      <c r="P19" s="186"/>
+      <c r="Q19" s="186"/>
+      <c r="R19" s="186"/>
+      <c r="S19" s="187"/>
+      <c r="T19" s="188" t="s">
+        <v>75</v>
+      </c>
+      <c r="U19" s="189"/>
+      <c r="V19" s="189"/>
+      <c r="W19" s="189"/>
+      <c r="X19" s="189"/>
+      <c r="Y19" s="189"/>
+      <c r="Z19" s="189"/>
+      <c r="AA19" s="189"/>
+      <c r="AB19" s="189"/>
+      <c r="AC19" s="189"/>
+      <c r="AD19" s="189"/>
+      <c r="AE19" s="189"/>
+      <c r="AF19" s="189"/>
+      <c r="AG19" s="189"/>
+      <c r="AH19" s="190"/>
       <c r="AL19" s="11"/>
       <c r="AM19" s="11"/>
       <c r="AN19" s="11"/>
@@ -7940,37 +8002,37 @@
     </row>
     <row r="20" spans="3:49" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C20" s="86"/>
-      <c r="D20" s="87"/>
-      <c r="E20" s="87"/>
-      <c r="F20" s="87"/>
-      <c r="G20" s="87"/>
-      <c r="H20" s="87"/>
-      <c r="I20" s="87"/>
-      <c r="J20" s="87"/>
-      <c r="K20" s="87"/>
-      <c r="L20" s="88"/>
-      <c r="M20" s="88"/>
-      <c r="N20" s="88"/>
-      <c r="O20" s="88"/>
-      <c r="P20" s="88"/>
-      <c r="Q20" s="88"/>
-      <c r="R20" s="88"/>
-      <c r="S20" s="88"/>
-      <c r="T20" s="89"/>
-      <c r="U20" s="90"/>
-      <c r="V20" s="90"/>
-      <c r="W20" s="90"/>
-      <c r="X20" s="90"/>
-      <c r="Y20" s="90"/>
-      <c r="Z20" s="90"/>
-      <c r="AA20" s="90"/>
-      <c r="AB20" s="90"/>
-      <c r="AC20" s="90"/>
-      <c r="AD20" s="90"/>
-      <c r="AE20" s="90"/>
-      <c r="AF20" s="90"/>
-      <c r="AG20" s="90"/>
-      <c r="AH20" s="90"/>
+      <c r="D20" s="86"/>
+      <c r="E20" s="86"/>
+      <c r="F20" s="86"/>
+      <c r="G20" s="86"/>
+      <c r="H20" s="86"/>
+      <c r="I20" s="86"/>
+      <c r="J20" s="86"/>
+      <c r="K20" s="86"/>
+      <c r="L20" s="87"/>
+      <c r="M20" s="87"/>
+      <c r="N20" s="87"/>
+      <c r="O20" s="87"/>
+      <c r="P20" s="87"/>
+      <c r="Q20" s="87"/>
+      <c r="R20" s="87"/>
+      <c r="S20" s="87"/>
+      <c r="T20" s="88"/>
+      <c r="U20" s="89"/>
+      <c r="V20" s="89"/>
+      <c r="W20" s="89"/>
+      <c r="X20" s="89"/>
+      <c r="Y20" s="89"/>
+      <c r="Z20" s="89"/>
+      <c r="AA20" s="89"/>
+      <c r="AB20" s="89"/>
+      <c r="AC20" s="89"/>
+      <c r="AD20" s="89"/>
+      <c r="AE20" s="89"/>
+      <c r="AF20" s="89"/>
+      <c r="AG20" s="89"/>
+      <c r="AH20" s="89"/>
       <c r="AL20" s="11"/>
       <c r="AM20" s="11"/>
       <c r="AN20" s="11"/>
@@ -7985,13 +8047,7 @@
       <c r="AW20" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="58">
-    <mergeCell ref="L12:N12"/>
-    <mergeCell ref="L15:N15"/>
-    <mergeCell ref="O15:S15"/>
-    <mergeCell ref="T15:AH15"/>
-    <mergeCell ref="L16:N16"/>
-    <mergeCell ref="O16:S16"/>
+  <mergeCells count="57">
     <mergeCell ref="AA1:AB1"/>
     <mergeCell ref="AC3:AF3"/>
     <mergeCell ref="AG3:AI3"/>
@@ -8005,7 +8061,6 @@
     <mergeCell ref="S1:Z3"/>
     <mergeCell ref="AA2:AB2"/>
     <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="D7:F7"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A3:D3"/>
@@ -8013,37 +8068,43 @@
     <mergeCell ref="G7:K7"/>
     <mergeCell ref="L7:N7"/>
     <mergeCell ref="O7:S7"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="L8:N8"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="T7:AH7"/>
+    <mergeCell ref="T8:AH8"/>
     <mergeCell ref="O8:S8"/>
-    <mergeCell ref="O9:S9"/>
+    <mergeCell ref="D10:F17"/>
+    <mergeCell ref="G10:K17"/>
+    <mergeCell ref="T10:AH10"/>
+    <mergeCell ref="T11:AH11"/>
+    <mergeCell ref="T12:AH12"/>
+    <mergeCell ref="L17:N17"/>
+    <mergeCell ref="O17:S17"/>
+    <mergeCell ref="T17:AH17"/>
+    <mergeCell ref="L11:N11"/>
+    <mergeCell ref="L12:N12"/>
+    <mergeCell ref="O12:S12"/>
     <mergeCell ref="O10:S10"/>
     <mergeCell ref="O11:S11"/>
-    <mergeCell ref="D8:F11"/>
-    <mergeCell ref="G8:K11"/>
-    <mergeCell ref="L9:N9"/>
     <mergeCell ref="L10:N10"/>
-    <mergeCell ref="L8:N8"/>
-    <mergeCell ref="L11:N11"/>
-    <mergeCell ref="T7:AH7"/>
-    <mergeCell ref="T8:AH8"/>
-    <mergeCell ref="T9:AH9"/>
-    <mergeCell ref="T10:AH10"/>
-    <mergeCell ref="T11:AH11"/>
-    <mergeCell ref="T16:AH16"/>
-    <mergeCell ref="T17:AH17"/>
-    <mergeCell ref="T18:AH18"/>
-    <mergeCell ref="D12:F19"/>
-    <mergeCell ref="G12:K19"/>
-    <mergeCell ref="T12:AH12"/>
-    <mergeCell ref="T13:AH13"/>
-    <mergeCell ref="T14:AH14"/>
+    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="O13:S13"/>
     <mergeCell ref="L19:N19"/>
     <mergeCell ref="O19:S19"/>
     <mergeCell ref="T19:AH19"/>
-    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="T15:AH15"/>
+    <mergeCell ref="T16:AH16"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="T9:AH9"/>
+    <mergeCell ref="L18:N18"/>
+    <mergeCell ref="O18:S18"/>
+    <mergeCell ref="T18:AH18"/>
+    <mergeCell ref="T13:AH13"/>
     <mergeCell ref="L14:N14"/>
     <mergeCell ref="O14:S14"/>
-    <mergeCell ref="O12:S12"/>
-    <mergeCell ref="O13:S13"/>
+    <mergeCell ref="T14:AH14"/>
   </mergeCells>
   <phoneticPr fontId="10"/>
   <printOptions horizontalCentered="1"/>
